--- a/dcd_top_offset_step_tsmc2p_meas.xlsx
+++ b/dcd_top_offset_step_tsmc2p_meas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5132" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5172" uniqueCount="323">
   <si>
     <t>Process</t>
   </si>
@@ -926,6 +926,9 @@
   </si>
   <si>
     <t>tsmc2p (192)</t>
+  </si>
+  <si>
+    <t>n/a</t>
   </si>
   <si>
     <t>tsmc2p (193)</t>
@@ -986,7 +989,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1009,8 +1012,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000 "/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1029,6 +1039,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1042,11 +1058,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1444,10 +1461,10 @@
         <v>29</v>
       </c>
       <c r="O2" s="2">
-        <v>49.9197</v>
+        <v>36.9052</v>
       </c>
       <c r="P2">
-        <v>6.65625</v>
+        <v>4.92096</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1494,10 +1511,10 @@
         <v>29</v>
       </c>
       <c r="O3" s="2">
-        <v>48.5773</v>
+        <v>35.9754</v>
       </c>
       <c r="P3">
-        <v>6.47725</v>
+        <v>4.79699</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1543,11 +1560,11 @@
       <c r="N4" t="s">
         <v>29</v>
       </c>
-      <c r="O4" s="2">
-        <v>46.6643</v>
+      <c r="O4">
+        <v>34.3209</v>
       </c>
       <c r="P4">
-        <v>6.22219</v>
+        <v>4.5764</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1593,11 +1610,11 @@
       <c r="N5" t="s">
         <v>29</v>
       </c>
-      <c r="O5" s="2">
-        <v>45.3222</v>
+      <c r="O5">
+        <v>33.3392</v>
       </c>
       <c r="P5">
-        <v>6.04325</v>
+        <v>4.44552</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1643,11 +1660,11 @@
       <c r="N6" t="s">
         <v>29</v>
       </c>
-      <c r="O6" s="2">
-        <v>44.8052</v>
+      <c r="O6">
+        <v>32.8749</v>
       </c>
       <c r="P6">
-        <v>5.97431</v>
+        <v>4.38361</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1693,11 +1710,11 @@
       <c r="N7" t="s">
         <v>29</v>
       </c>
-      <c r="O7" s="2">
-        <v>43.5655</v>
+      <c r="O7">
+        <v>31.8935</v>
       </c>
       <c r="P7">
-        <v>5.80903</v>
+        <v>4.25964</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1743,11 +1760,11 @@
       <c r="N8" t="s">
         <v>29</v>
       </c>
-      <c r="O8" s="2">
-        <v>42.4809</v>
+      <c r="O8">
+        <v>31.0163</v>
       </c>
       <c r="P8">
-        <v>5.66441</v>
+        <v>4.1358</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1793,11 +1810,11 @@
       <c r="N9" t="s">
         <v>29</v>
       </c>
-      <c r="O9" s="2">
-        <v>41.3448</v>
+      <c r="O9">
+        <v>30.1895</v>
       </c>
       <c r="P9">
-        <v>5.51292</v>
+        <v>4.02556</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1843,11 +1860,11 @@
       <c r="N10" t="s">
         <v>29</v>
       </c>
-      <c r="O10" s="2">
-        <v>42.2226</v>
+      <c r="O10">
+        <v>30.4475</v>
       </c>
       <c r="P10">
-        <v>5.62998</v>
+        <v>4.05995</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1893,11 +1910,11 @@
       <c r="N11" t="s">
         <v>29</v>
       </c>
-      <c r="O11" s="2">
-        <v>41.1386</v>
+      <c r="O11">
+        <v>29.5181</v>
       </c>
       <c r="P11">
-        <v>5.48545</v>
+        <v>3.93604</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1943,11 +1960,11 @@
       <c r="N12" t="s">
         <v>29</v>
       </c>
-      <c r="O12" s="2">
-        <v>40.0544</v>
+      <c r="O12">
+        <v>28.7435</v>
       </c>
       <c r="P12">
-        <v>5.34089</v>
+        <v>3.83275</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1993,11 +2010,11 @@
       <c r="N13" t="s">
         <v>29</v>
       </c>
-      <c r="O13" s="2">
-        <v>38.918</v>
+      <c r="O13">
+        <v>27.814</v>
       </c>
       <c r="P13">
-        <v>5.18935</v>
+        <v>3.70884</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -2043,11 +2060,11 @@
       <c r="N14" t="s">
         <v>29</v>
       </c>
-      <c r="O14" s="2">
-        <v>38.4013</v>
+      <c r="O14">
+        <v>27.2459</v>
       </c>
       <c r="P14">
-        <v>5.12046</v>
+        <v>3.63307</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -2093,11 +2110,11 @@
       <c r="N15" t="s">
         <v>29</v>
       </c>
-      <c r="O15" s="2">
-        <v>37.2135</v>
+      <c r="O15">
+        <v>26.2663</v>
       </c>
       <c r="P15">
-        <v>4.96209</v>
+        <v>3.50245</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -2143,11 +2160,11 @@
       <c r="N16" t="s">
         <v>29</v>
       </c>
-      <c r="O16" s="2">
-        <v>36.1806</v>
+      <c r="O16">
+        <v>25.4387</v>
       </c>
       <c r="P16">
-        <v>4.82438</v>
+        <v>3.39211</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -2194,10 +2211,10 @@
         <v>29</v>
       </c>
       <c r="O17">
-        <v>34.9452</v>
+        <v>24.5606</v>
       </c>
       <c r="P17">
-        <v>4.65963</v>
+        <v>3.27504</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -2244,10 +2261,10 @@
         <v>29</v>
       </c>
       <c r="O18">
-        <v>34.9414</v>
+        <v>24.5089</v>
       </c>
       <c r="P18">
-        <v>4.65915</v>
+        <v>3.26815</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -2294,10 +2311,10 @@
         <v>29</v>
       </c>
       <c r="O19">
-        <v>32.3595</v>
+        <v>22.4948</v>
       </c>
       <c r="P19">
-        <v>4.32169</v>
+        <v>2.9996</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -2344,10 +2361,10 @@
         <v>29</v>
       </c>
       <c r="O20">
-        <v>29.8798</v>
+        <v>20.6356</v>
       </c>
       <c r="P20">
-        <v>3.98426</v>
+        <v>2.7517</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -2394,10 +2411,10 @@
         <v>29</v>
       </c>
       <c r="O21">
-        <v>27.1946</v>
+        <v>18.5185</v>
       </c>
       <c r="P21">
-        <v>3.62624</v>
+        <v>2.46942</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -2444,10 +2461,10 @@
         <v>29</v>
       </c>
       <c r="O22">
-        <v>25.1805</v>
+        <v>17.0205</v>
       </c>
       <c r="P22">
-        <v>3.35768</v>
+        <v>2.26967</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -2494,10 +2511,10 @@
         <v>29</v>
       </c>
       <c r="O23">
-        <v>22.1358</v>
+        <v>15.3165</v>
       </c>
       <c r="P23">
-        <v>2.95171</v>
+        <v>2.04249</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -2544,10 +2561,10 @@
         <v>29</v>
       </c>
       <c r="O24">
-        <v>19.4481</v>
+        <v>13.8191</v>
       </c>
       <c r="P24">
-        <v>2.59337</v>
+        <v>1.84285</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -2594,10 +2611,10 @@
         <v>29</v>
       </c>
       <c r="O25">
-        <v>16.5563</v>
+        <v>12.3728</v>
       </c>
       <c r="P25">
-        <v>2.20779</v>
+        <v>1.64999</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -2644,10 +2661,10 @@
         <v>29</v>
       </c>
       <c r="O26">
-        <v>17.2273</v>
+        <v>11.8561</v>
       </c>
       <c r="P26">
-        <v>2.29726</v>
+        <v>1.58111</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -2694,10 +2711,10 @@
         <v>29</v>
       </c>
       <c r="O27">
-        <v>14.594</v>
+        <v>10.2041</v>
       </c>
       <c r="P27">
-        <v>1.95292</v>
+        <v>1.36084</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -2744,10 +2761,10 @@
         <v>29</v>
       </c>
       <c r="O28">
-        <v>12.4759</v>
+        <v>8.55532</v>
       </c>
       <c r="P28">
-        <v>1.66374</v>
+        <v>1.14101</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -2794,10 +2811,10 @@
         <v>29</v>
       </c>
       <c r="O29">
-        <v>9.997210000000001</v>
+        <v>6.84673</v>
       </c>
       <c r="P29">
-        <v>1.33325</v>
+        <v>0.9131860000000001</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2844,10 +2861,10 @@
         <v>29</v>
       </c>
       <c r="O30">
-        <v>7.98246</v>
+        <v>5.29665</v>
       </c>
       <c r="P30">
-        <v>1.06462</v>
+        <v>0.706519</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2894,10 +2911,10 @@
         <v>29</v>
       </c>
       <c r="O31">
-        <v>5.29784</v>
+        <v>3.59238</v>
       </c>
       <c r="P31">
-        <v>0.706669</v>
+        <v>0.479268</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -2944,10 +2961,10 @@
         <v>29</v>
       </c>
       <c r="O32">
-        <v>2.76606</v>
+        <v>1.83679</v>
       </c>
       <c r="P32">
-        <v>0.369096</v>
+        <v>0.252037</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2994,10 +3011,10 @@
         <v>29</v>
       </c>
       <c r="O33">
-        <v>0.0294482</v>
+        <v>0.08040319999999999</v>
       </c>
       <c r="P33">
-        <v>0.0042354</v>
+        <v>0.0110034</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -3044,10 +3061,10 @@
         <v>29</v>
       </c>
       <c r="O34">
-        <v>0.0801687</v>
+        <v>0.0289182</v>
       </c>
       <c r="P34">
-        <v>0.0109695</v>
+        <v>0.00414103</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -3094,10 +3111,10 @@
         <v>29</v>
       </c>
       <c r="O35">
-        <v>-2.65557</v>
+        <v>-1.67513</v>
       </c>
       <c r="P35">
-        <v>-0.353793</v>
+        <v>-0.223063</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -3144,10 +3161,10 @@
         <v>29</v>
       </c>
       <c r="O36">
-        <v>-5.34032</v>
+        <v>-3.48164</v>
       </c>
       <c r="P36">
-        <v>-0.71175</v>
+        <v>-0.463927</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -3194,10 +3211,10 @@
         <v>29</v>
       </c>
       <c r="O37">
-        <v>-7.92251</v>
+        <v>-5.18569</v>
       </c>
       <c r="P37">
-        <v>-1.05604</v>
+        <v>-0.691134</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -3244,10 +3261,10 @@
         <v>29</v>
       </c>
       <c r="O38">
-        <v>-9.88449</v>
+        <v>-6.73475</v>
       </c>
       <c r="P38">
-        <v>-1.31765</v>
+        <v>-0.8976690000000001</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -3294,10 +3311,10 @@
         <v>29</v>
       </c>
       <c r="O39">
-        <v>-12.4152</v>
+        <v>-8.538690000000001</v>
       </c>
       <c r="P39">
-        <v>-1.65506</v>
+        <v>-1.13822</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -3344,10 +3361,10 @@
         <v>29</v>
       </c>
       <c r="O40">
-        <v>-14.5331</v>
+        <v>-10.091</v>
       </c>
       <c r="P40">
-        <v>-1.93745</v>
+        <v>-1.34518</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -3394,10 +3411,10 @@
         <v>29</v>
       </c>
       <c r="O41">
-        <v>-16.908</v>
+        <v>-11.8467</v>
       </c>
       <c r="P41">
-        <v>-2.25411</v>
+        <v>-1.57928</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -3444,10 +3461,10 @@
         <v>29</v>
       </c>
       <c r="O42">
-        <v>-16.2847</v>
+        <v>-12.3118</v>
       </c>
       <c r="P42">
-        <v>-2.17097</v>
+        <v>-1.64129</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -3494,10 +3511,10 @@
         <v>29</v>
       </c>
       <c r="O43">
-        <v>-19.0248</v>
+        <v>-13.7581</v>
       </c>
       <c r="P43">
-        <v>-2.53636</v>
+        <v>-1.83413</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -3544,10 +3561,10 @@
         <v>29</v>
       </c>
       <c r="O44">
-        <v>-21.8134</v>
+        <v>-15.1516</v>
       </c>
       <c r="P44">
-        <v>-2.90816</v>
+        <v>-2.01317</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -3594,10 +3611,10 @@
         <v>29</v>
       </c>
       <c r="O45">
-        <v>-24.6016</v>
+        <v>-16.6498</v>
       </c>
       <c r="P45">
-        <v>-3.27992</v>
+        <v>-2.21968</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -3644,10 +3661,10 @@
         <v>29</v>
       </c>
       <c r="O46">
-        <v>-26.6151</v>
+        <v>-18.0959</v>
       </c>
       <c r="P46">
-        <v>-3.54837</v>
+        <v>-2.41249</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -3694,10 +3711,10 @@
         <v>29</v>
       </c>
       <c r="O47">
-        <v>-29.4036</v>
+        <v>-20.0576</v>
       </c>
       <c r="P47">
-        <v>-3.92019</v>
+        <v>-2.67404</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -3744,10 +3761,10 @@
         <v>29</v>
       </c>
       <c r="O48">
-        <v>-31.8307</v>
+        <v>-21.9685</v>
       </c>
       <c r="P48">
-        <v>-4.2438</v>
+        <v>-2.92884</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -3794,10 +3811,10 @@
         <v>29</v>
       </c>
       <c r="O49">
-        <v>-34.5672</v>
+        <v>-23.9819</v>
       </c>
       <c r="P49">
-        <v>-4.60867</v>
+        <v>-3.1973</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -3844,10 +3861,10 @@
         <v>29</v>
       </c>
       <c r="O50">
-        <v>-34.6168</v>
+        <v>-23.982</v>
       </c>
       <c r="P50">
-        <v>-4.6153</v>
+        <v>-3.19731</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -3893,11 +3910,11 @@
       <c r="N51" t="s">
         <v>29</v>
       </c>
-      <c r="O51" s="3">
-        <v>-35.8582</v>
+      <c r="O51">
+        <v>-24.8083</v>
       </c>
       <c r="P51">
-        <v>-4.78079</v>
+        <v>-3.30748</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -3943,11 +3960,11 @@
       <c r="N52" t="s">
         <v>29</v>
       </c>
-      <c r="O52" s="3">
-        <v>-36.891</v>
+      <c r="O52">
+        <v>-25.6344</v>
       </c>
       <c r="P52">
-        <v>-4.9185</v>
+        <v>-3.41763</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -3993,11 +4010,11 @@
       <c r="N53" t="s">
         <v>29</v>
       </c>
-      <c r="O53" s="3">
-        <v>-38.2335</v>
+      <c r="O53">
+        <v>-26.6154</v>
       </c>
       <c r="P53">
-        <v>-5.09751</v>
+        <v>-3.54843</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -4043,11 +4060,11 @@
       <c r="N54" t="s">
         <v>29</v>
       </c>
-      <c r="O54" s="3">
-        <v>-38.7499</v>
+      <c r="O54">
+        <v>-27.2352</v>
       </c>
       <c r="P54">
-        <v>-5.16635</v>
+        <v>-3.63107</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -4093,11 +4110,11 @@
       <c r="N55" t="s">
         <v>29</v>
       </c>
-      <c r="O55" s="3">
-        <v>-40.0924</v>
+      <c r="O55">
+        <v>-28.1131</v>
       </c>
       <c r="P55">
-        <v>-5.34535</v>
+        <v>-3.74813</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -4143,11 +4160,11 @@
       <c r="N56" t="s">
         <v>29</v>
       </c>
-      <c r="O56" s="3">
-        <v>-41.4863</v>
+      <c r="O56">
+        <v>-28.9909</v>
       </c>
       <c r="P56">
-        <v>-5.53122</v>
+        <v>-3.86516</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -4193,11 +4210,11 @@
       <c r="N57" t="s">
         <v>29</v>
       </c>
-      <c r="O57" s="3">
-        <v>-42.7775</v>
+      <c r="O57">
+        <v>-29.8687</v>
       </c>
       <c r="P57">
-        <v>-5.70336</v>
+        <v>-3.9822</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -4243,11 +4260,11 @@
       <c r="N58" t="s">
         <v>29</v>
       </c>
-      <c r="O58" s="3">
-        <v>-41.6929</v>
+      <c r="O58">
+        <v>-29.6623</v>
       </c>
       <c r="P58">
-        <v>-5.55877</v>
+        <v>-3.95468</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -4293,11 +4310,11 @@
       <c r="N59" t="s">
         <v>29</v>
       </c>
-      <c r="O59" s="3">
-        <v>-43.2421</v>
+      <c r="O59">
+        <v>-30.5399</v>
       </c>
       <c r="P59">
-        <v>-5.76532</v>
+        <v>-4.0717</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -4343,11 +4360,11 @@
       <c r="N60" t="s">
         <v>29</v>
       </c>
-      <c r="O60" s="3">
-        <v>-44.4815</v>
+      <c r="O60">
+        <v>-31.4694</v>
       </c>
       <c r="P60">
-        <v>-5.93058</v>
+        <v>-4.19564</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -4393,11 +4410,11 @@
       <c r="N61" t="s">
         <v>29</v>
       </c>
-      <c r="O61" s="3">
-        <v>-45.9788</v>
+      <c r="O61">
+        <v>-32.3938</v>
       </c>
       <c r="P61">
-        <v>-6.1302</v>
+        <v>-4.31891</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -4443,11 +4460,11 @@
       <c r="N62" t="s">
         <v>29</v>
       </c>
-      <c r="O62" s="3">
-        <v>-46.6497</v>
+      <c r="O62">
+        <v>-32.9672</v>
       </c>
       <c r="P62">
-        <v>-6.21967</v>
+        <v>-4.39533</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -4493,11 +4510,11 @@
       <c r="N63" t="s">
         <v>29</v>
       </c>
-      <c r="O63" s="3">
-        <v>-48.1471</v>
+      <c r="O63">
+        <v>-33.948</v>
       </c>
       <c r="P63">
-        <v>-6.41931</v>
+        <v>-4.52611</v>
       </c>
     </row>
     <row r="64" spans="1:16">
@@ -4543,11 +4560,11 @@
       <c r="N64" t="s">
         <v>29</v>
       </c>
-      <c r="O64" s="3">
-        <v>-49.3339</v>
+      <c r="O64">
+        <v>-34.8225</v>
       </c>
       <c r="P64">
-        <v>-6.57757</v>
+        <v>-4.64273</v>
       </c>
     </row>
     <row r="65" spans="1:16">
@@ -4594,10 +4611,10 @@
         <v>29</v>
       </c>
       <c r="O65" s="3">
-        <v>-50.6776</v>
+        <v>-35.7554</v>
       </c>
       <c r="P65">
-        <v>-6.75672</v>
+        <v>-4.76709</v>
       </c>
     </row>
     <row r="66" spans="1:16">
@@ -4644,10 +4661,10 @@
         <v>165</v>
       </c>
       <c r="O66" s="2">
-        <v>64.79049999999999</v>
+        <v>48.4135</v>
       </c>
       <c r="P66">
-        <v>7.85358</v>
+        <v>5.86849</v>
       </c>
     </row>
     <row r="67" spans="1:16">
@@ -4694,10 +4711,10 @@
         <v>165</v>
       </c>
       <c r="O67" s="2">
-        <v>63.2869</v>
+        <v>47.162</v>
       </c>
       <c r="P67">
-        <v>7.67133</v>
+        <v>5.71679</v>
       </c>
     </row>
     <row r="68" spans="1:16">
@@ -4744,10 +4761,10 @@
         <v>165</v>
       </c>
       <c r="O68" s="2">
-        <v>61.1306</v>
+        <v>44.5051</v>
       </c>
       <c r="P68">
-        <v>7.40995</v>
+        <v>5.39474</v>
       </c>
     </row>
     <row r="69" spans="1:16">
@@ -4794,10 +4811,10 @@
         <v>165</v>
       </c>
       <c r="O69" s="2">
-        <v>59.1294</v>
+        <v>43.3533</v>
       </c>
       <c r="P69">
-        <v>7.16738</v>
+        <v>5.25513</v>
       </c>
     </row>
     <row r="70" spans="1:16">
@@ -4844,10 +4861,10 @@
         <v>165</v>
       </c>
       <c r="O70" s="2">
-        <v>58.3264</v>
+        <v>42.6521</v>
       </c>
       <c r="P70">
-        <v>7.07005</v>
+        <v>5.17015</v>
       </c>
     </row>
     <row r="71" spans="1:16">
@@ -4894,10 +4911,10 @@
         <v>165</v>
       </c>
       <c r="O71" s="2">
-        <v>56.4737</v>
+        <v>41.5041</v>
       </c>
       <c r="P71">
-        <v>6.84547</v>
+        <v>5.03098</v>
       </c>
     </row>
     <row r="72" spans="1:16">
@@ -4944,10 +4961,10 @@
         <v>165</v>
       </c>
       <c r="O72" s="2">
-        <v>54.9212</v>
+        <v>40.5486</v>
       </c>
       <c r="P72">
-        <v>6.65731</v>
+        <v>4.91517</v>
       </c>
     </row>
     <row r="73" spans="1:16">
@@ -4994,10 +5011,10 @@
         <v>165</v>
       </c>
       <c r="O73" s="2">
-        <v>53.3186</v>
+        <v>39.3995</v>
       </c>
       <c r="P73">
-        <v>6.46305</v>
+        <v>4.77587</v>
       </c>
     </row>
     <row r="74" spans="1:16">
@@ -5044,10 +5061,10 @@
         <v>165</v>
       </c>
       <c r="O74" s="2">
-        <v>54.6709</v>
+        <v>39.7475</v>
       </c>
       <c r="P74">
-        <v>6.62696</v>
+        <v>4.81807</v>
       </c>
     </row>
     <row r="75" spans="1:16">
@@ -5094,10 +5111,10 @@
         <v>165</v>
       </c>
       <c r="O75" s="2">
-        <v>53.1183</v>
+        <v>38.5965</v>
       </c>
       <c r="P75">
-        <v>6.43876</v>
+        <v>4.67855</v>
       </c>
     </row>
     <row r="76" spans="1:16">
@@ -5144,10 +5161,10 @@
         <v>165</v>
       </c>
       <c r="O76" s="2">
-        <v>51.6659</v>
+        <v>37.5441</v>
       </c>
       <c r="P76">
-        <v>6.2627</v>
+        <v>4.55099</v>
       </c>
     </row>
     <row r="77" spans="1:16">
@@ -5194,10 +5211,10 @@
         <v>165</v>
       </c>
       <c r="O77" s="2">
-        <v>50.0637</v>
+        <v>36.3425</v>
       </c>
       <c r="P77">
-        <v>6.06852</v>
+        <v>4.40534</v>
       </c>
     </row>
     <row r="78" spans="1:16">
@@ -5244,10 +5261,10 @@
         <v>165</v>
       </c>
       <c r="O78" s="2">
-        <v>49.3121</v>
+        <v>35.5414</v>
       </c>
       <c r="P78">
-        <v>5.97741</v>
+        <v>4.30825</v>
       </c>
     </row>
     <row r="79" spans="1:16">
@@ -5293,11 +5310,11 @@
       <c r="N79" t="s">
         <v>165</v>
       </c>
-      <c r="O79" s="2">
-        <v>47.7596</v>
+      <c r="O79">
+        <v>34.3901</v>
       </c>
       <c r="P79">
-        <v>5.78924</v>
+        <v>4.16868</v>
       </c>
     </row>
     <row r="80" spans="1:16">
@@ -5343,11 +5360,11 @@
       <c r="N80" t="s">
         <v>165</v>
       </c>
-      <c r="O80" s="2">
-        <v>46.4584</v>
+      <c r="O80">
+        <v>33.2885</v>
       </c>
       <c r="P80">
-        <v>5.63151</v>
+        <v>4.03516</v>
       </c>
     </row>
     <row r="81" spans="1:16">
@@ -5393,11 +5410,11 @@
       <c r="N81" t="s">
         <v>165</v>
       </c>
-      <c r="O81" s="2">
-        <v>45.006</v>
+      <c r="O81">
+        <v>32.0871</v>
       </c>
       <c r="P81">
-        <v>5.45545</v>
+        <v>3.88953</v>
       </c>
     </row>
     <row r="82" spans="1:16">
@@ -5443,11 +5460,11 @@
       <c r="N82" t="s">
         <v>165</v>
       </c>
-      <c r="O82" s="2">
-        <v>44.9557</v>
+      <c r="O82">
+        <v>32.087</v>
       </c>
       <c r="P82">
-        <v>5.44937</v>
+        <v>3.88952</v>
       </c>
     </row>
     <row r="83" spans="1:16">
@@ -5493,11 +5510,11 @@
       <c r="N83" t="s">
         <v>165</v>
       </c>
-      <c r="O83" s="2">
-        <v>41.4502</v>
+      <c r="O83">
+        <v>29.7342</v>
       </c>
       <c r="P83">
-        <v>5.02445</v>
+        <v>3.60433</v>
       </c>
     </row>
     <row r="84" spans="1:16">
@@ -5543,11 +5560,11 @@
       <c r="N84" t="s">
         <v>165</v>
       </c>
-      <c r="O84" s="2">
-        <v>38.245</v>
+      <c r="O84">
+        <v>27.4314</v>
       </c>
       <c r="P84">
-        <v>4.63593</v>
+        <v>3.32521</v>
       </c>
     </row>
     <row r="85" spans="1:16">
@@ -5594,10 +5611,10 @@
         <v>165</v>
       </c>
       <c r="O85">
-        <v>34.7906</v>
+        <v>24.9781</v>
       </c>
       <c r="P85">
-        <v>4.21723</v>
+        <v>3.02783</v>
       </c>
     </row>
     <row r="86" spans="1:16">
@@ -5644,10 +5661,10 @@
         <v>165</v>
       </c>
       <c r="O86">
-        <v>32.4886</v>
+        <v>23.025</v>
       </c>
       <c r="P86">
-        <v>3.93819</v>
+        <v>2.79109</v>
       </c>
     </row>
     <row r="87" spans="1:16">
@@ -5694,10 +5711,10 @@
         <v>165</v>
       </c>
       <c r="O87">
-        <v>29.0332</v>
+        <v>20.6717</v>
       </c>
       <c r="P87">
-        <v>3.51936</v>
+        <v>2.50584</v>
       </c>
     </row>
     <row r="88" spans="1:16">
@@ -5744,10 +5761,10 @@
         <v>165</v>
       </c>
       <c r="O88">
-        <v>25.6289</v>
+        <v>18.4693</v>
       </c>
       <c r="P88">
-        <v>3.10672</v>
+        <v>2.24485</v>
       </c>
     </row>
     <row r="89" spans="1:16">
@@ -5794,10 +5811,10 @@
         <v>165</v>
       </c>
       <c r="O89">
-        <v>22.1237</v>
+        <v>16.2153</v>
       </c>
       <c r="P89">
-        <v>2.68186</v>
+        <v>1.96568</v>
       </c>
     </row>
     <row r="90" spans="1:16">
@@ -5844,10 +5861,10 @@
         <v>165</v>
       </c>
       <c r="O90">
-        <v>22.925</v>
+        <v>15.5644</v>
       </c>
       <c r="P90">
-        <v>2.77898</v>
+        <v>1.88678</v>
       </c>
     </row>
     <row r="91" spans="1:16">
@@ -5894,10 +5911,10 @@
         <v>165</v>
       </c>
       <c r="O91">
-        <v>19.5199</v>
+        <v>13.1107</v>
       </c>
       <c r="P91">
-        <v>2.36624</v>
+        <v>1.58936</v>
       </c>
     </row>
     <row r="92" spans="1:16">
@@ -5944,10 +5961,10 @@
         <v>165</v>
       </c>
       <c r="O92">
-        <v>16.1653</v>
+        <v>10.7072</v>
       </c>
       <c r="P92">
-        <v>1.95961</v>
+        <v>1.29802</v>
       </c>
     </row>
     <row r="93" spans="1:16">
@@ -5994,10 +6011,10 @@
         <v>165</v>
       </c>
       <c r="O93">
-        <v>12.51</v>
+        <v>8.25394</v>
       </c>
       <c r="P93">
-        <v>1.51656</v>
+        <v>1.00066</v>
       </c>
     </row>
     <row r="94" spans="1:16">
@@ -6044,10 +6061,10 @@
         <v>165</v>
       </c>
       <c r="O94">
-        <v>9.506640000000001</v>
+        <v>6.36319</v>
       </c>
       <c r="P94">
-        <v>1.1525</v>
+        <v>0.771471</v>
       </c>
     </row>
     <row r="95" spans="1:16">
@@ -6094,10 +6111,10 @@
         <v>165</v>
       </c>
       <c r="O95">
-        <v>6.30109</v>
+        <v>4.29948</v>
       </c>
       <c r="P95">
-        <v>0.76395</v>
+        <v>0.5213410000000001</v>
       </c>
     </row>
     <row r="96" spans="1:16">
@@ -6144,10 +6161,10 @@
         <v>165</v>
       </c>
       <c r="O96">
-        <v>32.4886</v>
+        <v>23.025</v>
       </c>
       <c r="P96">
-        <v>3.93819</v>
+        <v>2.79109</v>
       </c>
     </row>
     <row r="97" spans="1:16">
@@ -6194,10 +6211,10 @@
         <v>165</v>
       </c>
       <c r="O97">
-        <v>29.0332</v>
+        <v>20.6717</v>
       </c>
       <c r="P97">
-        <v>3.51936</v>
+        <v>2.50584</v>
       </c>
     </row>
     <row r="98" spans="1:16">
@@ -6244,10 +6261,10 @@
         <v>165</v>
       </c>
       <c r="O98">
-        <v>25.6289</v>
+        <v>18.4693</v>
       </c>
       <c r="P98">
-        <v>3.10672</v>
+        <v>2.24485</v>
       </c>
     </row>
     <row r="99" spans="1:16">
@@ -6294,10 +6311,10 @@
         <v>165</v>
       </c>
       <c r="O99">
-        <v>22.1237</v>
+        <v>16.2153</v>
       </c>
       <c r="P99">
-        <v>2.68186</v>
+        <v>1.96568</v>
       </c>
     </row>
     <row r="100" spans="1:16">
@@ -6344,10 +6361,10 @@
         <v>165</v>
       </c>
       <c r="O100">
-        <v>22.925</v>
+        <v>15.5644</v>
       </c>
       <c r="P100">
-        <v>2.77898</v>
+        <v>1.88678</v>
       </c>
     </row>
     <row r="101" spans="1:16">
@@ -6394,10 +6411,10 @@
         <v>165</v>
       </c>
       <c r="O101">
-        <v>19.5199</v>
+        <v>13.1107</v>
       </c>
       <c r="P101">
-        <v>2.36624</v>
+        <v>1.58936</v>
       </c>
     </row>
     <row r="102" spans="1:16">
@@ -6444,10 +6461,10 @@
         <v>165</v>
       </c>
       <c r="O102">
-        <v>16.1653</v>
+        <v>10.7072</v>
       </c>
       <c r="P102">
-        <v>1.95961</v>
+        <v>1.29802</v>
       </c>
     </row>
     <row r="103" spans="1:16">
@@ -6494,10 +6511,10 @@
         <v>165</v>
       </c>
       <c r="O103">
-        <v>12.51</v>
+        <v>8.25394</v>
       </c>
       <c r="P103">
-        <v>1.51656</v>
+        <v>1.00066</v>
       </c>
     </row>
     <row r="104" spans="1:16">
@@ -6544,10 +6561,10 @@
         <v>165</v>
       </c>
       <c r="O104">
-        <v>9.506640000000001</v>
+        <v>6.36319</v>
       </c>
       <c r="P104">
-        <v>1.1525</v>
+        <v>0.771471</v>
       </c>
     </row>
     <row r="105" spans="1:16">
@@ -6594,10 +6611,10 @@
         <v>165</v>
       </c>
       <c r="O105">
-        <v>6.30109</v>
+        <v>4.29948</v>
       </c>
       <c r="P105">
-        <v>0.76395</v>
+        <v>0.5213410000000001</v>
       </c>
     </row>
     <row r="106" spans="1:16">
@@ -6644,10 +6661,10 @@
         <v>165</v>
       </c>
       <c r="O106">
-        <v>3.24784</v>
+        <v>2.14766</v>
       </c>
       <c r="P106">
-        <v>0.393863</v>
+        <v>0.260502</v>
       </c>
     </row>
     <row r="107" spans="1:16">
@@ -6694,10 +6711,10 @@
         <v>165</v>
       </c>
       <c r="O107">
-        <v>-0.00473412</v>
+        <v>0.0448954</v>
       </c>
       <c r="P107">
-        <v>-0.000385116</v>
+        <v>0.00562796</v>
       </c>
     </row>
     <row r="108" spans="1:16">
@@ -6744,10 +6761,10 @@
         <v>165</v>
       </c>
       <c r="O108">
-        <v>-0.00497337</v>
+        <v>-0.00474354</v>
       </c>
       <c r="P108">
-        <v>-0.000409792</v>
+        <v>-0.000388373</v>
       </c>
     </row>
     <row r="109" spans="1:16">
@@ -6794,10 +6811,10 @@
         <v>165</v>
       </c>
       <c r="O109">
-        <v>-3.2083</v>
+        <v>-2.15761</v>
       </c>
       <c r="P109">
-        <v>-0.388691</v>
+        <v>-0.26134</v>
       </c>
     </row>
     <row r="110" spans="1:16">
@@ -6844,10 +6861,10 @@
         <v>165</v>
       </c>
       <c r="O110">
-        <v>-6.21143</v>
+        <v>-4.2092</v>
       </c>
       <c r="P110">
-        <v>-0.752714</v>
+        <v>-0.51001</v>
       </c>
     </row>
     <row r="111" spans="1:16">
@@ -6894,10 +6911,10 @@
         <v>165</v>
       </c>
       <c r="O111">
-        <v>-9.6152</v>
+        <v>-6.31153</v>
       </c>
       <c r="P111">
-        <v>-1.16528</v>
+        <v>-0.7648509999999999</v>
       </c>
     </row>
     <row r="112" spans="1:16">
@@ -6944,10 +6961,10 @@
         <v>165</v>
       </c>
       <c r="O112">
-        <v>-12.568</v>
+        <v>-8.36379</v>
       </c>
       <c r="P112">
-        <v>-1.52323</v>
+        <v>-1.0136</v>
       </c>
     </row>
     <row r="113" spans="1:16">
@@ -6994,10 +7011,10 @@
         <v>165</v>
       </c>
       <c r="O113">
-        <v>-16.171</v>
+        <v>-10.716</v>
       </c>
       <c r="P113">
-        <v>-1.95993</v>
+        <v>-1.29872</v>
       </c>
     </row>
     <row r="114" spans="1:16">
@@ -7044,10 +7061,10 @@
         <v>165</v>
       </c>
       <c r="O114">
-        <v>-19.5749</v>
+        <v>-13.1187</v>
       </c>
       <c r="P114">
-        <v>-2.36658</v>
+        <v>-1.58996</v>
       </c>
     </row>
     <row r="115" spans="1:16">
@@ -7094,10 +7111,10 @@
         <v>165</v>
       </c>
       <c r="O115">
-        <v>-22.979</v>
+        <v>-15.5713</v>
       </c>
       <c r="P115">
-        <v>-2.78515</v>
+        <v>-1.88725</v>
       </c>
     </row>
     <row r="116" spans="1:16">
@@ -7144,10 +7161,10 @@
         <v>165</v>
       </c>
       <c r="O116">
-        <v>-22.2285</v>
+        <v>-16.2718</v>
       </c>
       <c r="P116">
-        <v>-2.69417</v>
+        <v>-1.97215</v>
       </c>
     </row>
     <row r="117" spans="1:16">
@@ -7194,10 +7211,10 @@
         <v>165</v>
       </c>
       <c r="O117">
-        <v>-25.7312</v>
+        <v>-18.6245</v>
       </c>
       <c r="P117">
-        <v>-3.11876</v>
+        <v>-2.25733</v>
       </c>
     </row>
     <row r="118" spans="1:16">
@@ -7244,10 +7261,10 @@
         <v>165</v>
       </c>
       <c r="O118">
-        <v>-28.9842</v>
+        <v>-20.7771</v>
       </c>
       <c r="P118">
-        <v>-3.51304</v>
+        <v>-2.51825</v>
       </c>
     </row>
     <row r="119" spans="1:16">
@@ -7294,10 +7311,10 @@
         <v>165</v>
       </c>
       <c r="O119">
-        <v>-32.4361</v>
+        <v>-23.0292</v>
       </c>
       <c r="P119">
-        <v>-3.93146</v>
+        <v>-2.79122</v>
       </c>
     </row>
     <row r="120" spans="1:16">
@@ -7344,10 +7361,10 @@
         <v>165</v>
       </c>
       <c r="O120">
-        <v>-34.7867</v>
+        <v>-25.0317</v>
       </c>
       <c r="P120">
-        <v>-4.21639</v>
+        <v>-3.03396</v>
       </c>
     </row>
     <row r="121" spans="1:16">
@@ -7393,11 +7410,11 @@
       <c r="N121" t="s">
         <v>165</v>
       </c>
-      <c r="O121" s="3">
-        <v>-38.1398</v>
+      <c r="O121">
+        <v>-27.4317</v>
       </c>
       <c r="P121">
-        <v>-4.62282</v>
+        <v>-3.31901</v>
       </c>
     </row>
     <row r="122" spans="1:16">
@@ -7443,11 +7460,11 @@
       <c r="N122" t="s">
         <v>165</v>
       </c>
-      <c r="O122" s="3">
-        <v>-41.4419</v>
+      <c r="O122">
+        <v>-29.6846</v>
       </c>
       <c r="P122">
-        <v>-5.02307</v>
+        <v>-3.59795</v>
       </c>
     </row>
     <row r="123" spans="1:16">
@@ -7493,11 +7510,11 @@
       <c r="N123" t="s">
         <v>165</v>
       </c>
-      <c r="O123" s="3">
-        <v>-45.0933</v>
+      <c r="O123">
+        <v>-32.036</v>
       </c>
       <c r="P123">
-        <v>-5.46568</v>
+        <v>-3.88297</v>
       </c>
     </row>
     <row r="124" spans="1:16">
@@ -7543,11 +7560,11 @@
       <c r="N124" t="s">
         <v>165</v>
       </c>
-      <c r="O124" s="3">
-        <v>-45.0762</v>
+      <c r="O124">
+        <v>-32.0831</v>
       </c>
       <c r="P124">
-        <v>-5.45975</v>
+        <v>-3.88868</v>
       </c>
     </row>
     <row r="125" spans="1:16">
@@ -7593,11 +7610,11 @@
       <c r="N125" t="s">
         <v>165</v>
       </c>
-      <c r="O125" s="3">
-        <v>-46.7956</v>
+      <c r="O125">
+        <v>-33.2865</v>
       </c>
       <c r="P125">
-        <v>-5.67201</v>
+        <v>-4.03454</v>
       </c>
     </row>
     <row r="126" spans="1:16">
@@ -7643,11 +7660,11 @@
       <c r="N126" t="s">
         <v>165</v>
       </c>
-      <c r="O126" s="3">
-        <v>-48.3464</v>
+      <c r="O126">
+        <v>-34.3374</v>
       </c>
       <c r="P126">
-        <v>-5.85997</v>
+        <v>-4.16191</v>
       </c>
     </row>
     <row r="127" spans="1:16">
@@ -7694,10 +7711,10 @@
         <v>165</v>
       </c>
       <c r="O127" s="3">
-        <v>-50.0475</v>
+        <v>-35.588</v>
       </c>
       <c r="P127">
-        <v>-6.06617</v>
+        <v>-4.31351</v>
       </c>
     </row>
     <row r="128" spans="1:16">
@@ -7744,10 +7761,10 @@
         <v>165</v>
       </c>
       <c r="O128" s="3">
-        <v>-50.8481</v>
+        <v>-36.3384</v>
       </c>
       <c r="P128">
-        <v>-6.16322</v>
+        <v>-4.40448</v>
       </c>
     </row>
     <row r="129" spans="1:16">
@@ -7794,10 +7811,10 @@
         <v>165</v>
       </c>
       <c r="O129" s="3">
-        <v>-52.5494</v>
+        <v>-37.5394</v>
       </c>
       <c r="P129">
-        <v>-6.36943</v>
+        <v>-4.55004</v>
       </c>
     </row>
     <row r="130" spans="1:16">
@@ -7844,10 +7861,10 @@
         <v>165</v>
       </c>
       <c r="O130" s="3">
-        <v>-54.1002</v>
+        <v>-38.6399</v>
       </c>
       <c r="P130">
-        <v>-6.55741</v>
+        <v>-4.68344</v>
       </c>
     </row>
     <row r="131" spans="1:16">
@@ -7894,10 +7911,10 @@
         <v>165</v>
       </c>
       <c r="O131" s="3">
-        <v>-55.7509</v>
+        <v>-39.7909</v>
       </c>
       <c r="P131">
-        <v>-6.7575</v>
+        <v>-4.82295</v>
       </c>
     </row>
     <row r="132" spans="1:16">
@@ -7944,10 +7961,10 @@
         <v>165</v>
       </c>
       <c r="O132" s="3">
-        <v>-54.3002</v>
+        <v>-39.4405</v>
       </c>
       <c r="P132">
-        <v>-6.58165</v>
+        <v>-4.78048</v>
       </c>
     </row>
     <row r="133" spans="1:16">
@@ -7994,10 +8011,10 @@
         <v>165</v>
       </c>
       <c r="O133" s="3">
-        <v>-56.0004</v>
+        <v>-40.6415</v>
       </c>
       <c r="P133">
-        <v>-6.78775</v>
+        <v>-4.92605</v>
       </c>
     </row>
     <row r="134" spans="1:16">
@@ -8044,10 +8061,10 @@
         <v>165</v>
       </c>
       <c r="O134" s="3">
-        <v>-57.5013</v>
+        <v>-41.7922</v>
       </c>
       <c r="P134">
-        <v>-6.96967</v>
+        <v>-5.06553</v>
       </c>
     </row>
     <row r="135" spans="1:16">
@@ -8094,10 +8111,10 @@
         <v>165</v>
       </c>
       <c r="O135" s="3">
-        <v>-59.1518</v>
+        <v>-42.9431</v>
       </c>
       <c r="P135">
-        <v>-7.16973</v>
+        <v>-5.20504</v>
       </c>
     </row>
     <row r="136" spans="1:16">
@@ -8144,10 +8161,10 @@
         <v>165</v>
       </c>
       <c r="O136" s="3">
-        <v>-59.9517</v>
+        <v>-43.6934</v>
       </c>
       <c r="P136">
-        <v>-7.26668</v>
+        <v>-5.29598</v>
       </c>
     </row>
     <row r="137" spans="1:16">
@@ -8194,10 +8211,10 @@
         <v>165</v>
       </c>
       <c r="O137" s="3">
-        <v>-61.6011</v>
+        <v>-44.9944</v>
       </c>
       <c r="P137">
-        <v>-7.46662</v>
+        <v>-5.45368</v>
       </c>
     </row>
     <row r="138" spans="1:16">
@@ -8244,10 +8261,10 @@
         <v>165</v>
       </c>
       <c r="O138" s="3">
-        <v>-62.9298</v>
+        <v>-46.1451</v>
       </c>
       <c r="P138">
-        <v>-7.62767</v>
+        <v>-5.59315</v>
       </c>
     </row>
     <row r="139" spans="1:16">
@@ -8294,10 +8311,10 @@
         <v>165</v>
       </c>
       <c r="O139" s="3">
-        <v>-64.8019</v>
+        <v>-47.4959</v>
       </c>
       <c r="P139">
-        <v>-7.85459</v>
+        <v>-5.7569</v>
       </c>
     </row>
     <row r="140" spans="1:16">
@@ -8343,11 +8360,11 @@
       <c r="N140" t="s">
         <v>249</v>
       </c>
-      <c r="O140" s="2">
-        <v>39.442</v>
+      <c r="O140">
+        <v>28.3224</v>
       </c>
       <c r="P140">
-        <v>5.84382</v>
+        <v>4.19654</v>
       </c>
     </row>
     <row r="141" spans="1:16">
@@ -8393,11 +8410,11 @@
       <c r="N141" t="s">
         <v>249</v>
       </c>
-      <c r="O141" s="2">
-        <v>38.5125</v>
+      <c r="O141">
+        <v>27.5989</v>
       </c>
       <c r="P141">
-        <v>5.70611</v>
+        <v>4.08935</v>
       </c>
     </row>
     <row r="142" spans="1:16">
@@ -8443,11 +8460,11 @@
       <c r="N142" t="s">
         <v>249</v>
       </c>
-      <c r="O142" s="2">
-        <v>36.2874</v>
+      <c r="O142">
+        <v>26.8236</v>
       </c>
       <c r="P142">
-        <v>5.37652</v>
+        <v>3.98161</v>
       </c>
     </row>
     <row r="143" spans="1:16">
@@ -8493,11 +8510,11 @@
       <c r="N143" t="s">
         <v>249</v>
       </c>
-      <c r="O143" s="2">
-        <v>35.3029</v>
+      <c r="O143">
+        <v>26.3028</v>
       </c>
       <c r="P143">
-        <v>5.23061</v>
+        <v>3.89732</v>
       </c>
     </row>
     <row r="144" spans="1:16">
@@ -8544,10 +8561,10 @@
         <v>249</v>
       </c>
       <c r="O144">
-        <v>34.9347</v>
+        <v>25.7354</v>
       </c>
       <c r="P144">
-        <v>5.17624</v>
+        <v>3.81328</v>
       </c>
     </row>
     <row r="145" spans="1:16">
@@ -8594,10 +8611,10 @@
         <v>249</v>
       </c>
       <c r="O145">
-        <v>33.9057</v>
+        <v>25.013</v>
       </c>
       <c r="P145">
-        <v>5.03077</v>
+        <v>3.71369</v>
       </c>
     </row>
     <row r="146" spans="1:16">
@@ -8644,10 +8661,10 @@
         <v>249</v>
       </c>
       <c r="O146">
-        <v>33.231</v>
+        <v>24.3936</v>
       </c>
       <c r="P146">
-        <v>4.92375</v>
+        <v>3.62189</v>
       </c>
     </row>
     <row r="147" spans="1:16">
@@ -8694,10 +8711,10 @@
         <v>249</v>
       </c>
       <c r="O147">
-        <v>32.3534</v>
+        <v>23.7715</v>
       </c>
       <c r="P147">
-        <v>4.80124</v>
+        <v>3.5224</v>
       </c>
     </row>
     <row r="148" spans="1:16">
@@ -8744,10 +8761,10 @@
         <v>249</v>
       </c>
       <c r="O148">
-        <v>32.9312</v>
+        <v>23.9274</v>
       </c>
       <c r="P148">
-        <v>4.87924</v>
+        <v>3.54547</v>
       </c>
     </row>
     <row r="149" spans="1:16">
@@ -8794,10 +8811,10 @@
         <v>249</v>
       </c>
       <c r="O149">
-        <v>32.0957</v>
+        <v>23.2585</v>
       </c>
       <c r="P149">
-        <v>4.76302</v>
+        <v>3.45341</v>
       </c>
     </row>
     <row r="150" spans="1:16">
@@ -8844,10 +8861,10 @@
         <v>249</v>
       </c>
       <c r="O150">
-        <v>31.3715</v>
+        <v>22.6358</v>
       </c>
       <c r="P150">
-        <v>4.64832</v>
+        <v>3.35414</v>
       </c>
     </row>
     <row r="151" spans="1:16">
@@ -8894,10 +8911,10 @@
         <v>249</v>
       </c>
       <c r="O151">
-        <v>30.3495</v>
+        <v>22.1708</v>
       </c>
       <c r="P151">
-        <v>4.49681</v>
+        <v>3.2852</v>
       </c>
     </row>
     <row r="152" spans="1:16">
@@ -8944,10 +8961,10 @@
         <v>249</v>
       </c>
       <c r="O152">
-        <v>29.925</v>
+        <v>21.8092</v>
       </c>
       <c r="P152">
-        <v>4.43409</v>
+        <v>3.23165</v>
       </c>
     </row>
     <row r="153" spans="1:16">
@@ -8994,10 +9011,10 @@
         <v>249</v>
       </c>
       <c r="O153">
-        <v>29.005</v>
+        <v>21.1896</v>
       </c>
       <c r="P153">
-        <v>4.2976</v>
+        <v>3.13986</v>
       </c>
     </row>
     <row r="154" spans="1:16">
@@ -9044,10 +9061,10 @@
         <v>249</v>
       </c>
       <c r="O154">
-        <v>28.2286</v>
+        <v>20.4771</v>
       </c>
       <c r="P154">
-        <v>4.18259</v>
+        <v>3.03422</v>
       </c>
     </row>
     <row r="155" spans="1:16">
@@ -9094,10 +9111,10 @@
         <v>249</v>
       </c>
       <c r="O155">
-        <v>27.2391</v>
+        <v>19.9557</v>
       </c>
       <c r="P155">
-        <v>4.03611</v>
+        <v>2.95696</v>
       </c>
     </row>
     <row r="156" spans="1:16">
@@ -9144,10 +9161,10 @@
         <v>249</v>
       </c>
       <c r="O156">
-        <v>27.2394</v>
+        <v>19.7948</v>
       </c>
       <c r="P156">
-        <v>4.03616</v>
+        <v>2.9332</v>
       </c>
     </row>
     <row r="157" spans="1:16">
@@ -9194,10 +9211,10 @@
         <v>249</v>
       </c>
       <c r="O157">
-        <v>25.0676</v>
+        <v>18.5536</v>
       </c>
       <c r="P157">
-        <v>3.71439</v>
+        <v>2.74932</v>
       </c>
     </row>
     <row r="158" spans="1:16">
@@ -9244,10 +9261,10 @@
         <v>249</v>
       </c>
       <c r="O158">
-        <v>23.216</v>
+        <v>17.3136</v>
       </c>
       <c r="P158">
-        <v>3.44015</v>
+        <v>2.56562</v>
       </c>
     </row>
     <row r="159" spans="1:16">
@@ -9294,10 +9311,10 @@
         <v>249</v>
       </c>
       <c r="O159">
-        <v>21.2419</v>
+        <v>15.9171</v>
       </c>
       <c r="P159">
-        <v>3.14768</v>
+        <v>2.35874</v>
       </c>
     </row>
     <row r="160" spans="1:16">
@@ -9344,10 +9361,10 @@
         <v>249</v>
       </c>
       <c r="O160">
-        <v>20.1063</v>
+        <v>14.9444</v>
       </c>
       <c r="P160">
-        <v>2.98677</v>
+        <v>2.21457</v>
       </c>
     </row>
     <row r="161" spans="1:16">
@@ -9394,10 +9411,10 @@
         <v>249</v>
       </c>
       <c r="O161">
-        <v>18.0885</v>
+        <v>13.4888</v>
       </c>
       <c r="P161">
-        <v>2.68042</v>
+        <v>1.99901</v>
       </c>
     </row>
     <row r="162" spans="1:16">
@@ -9444,10 +9461,10 @@
         <v>249</v>
       </c>
       <c r="O162">
-        <v>16.2382</v>
+        <v>12.1958</v>
       </c>
       <c r="P162">
-        <v>2.40621</v>
+        <v>1.80737</v>
       </c>
     </row>
     <row r="163" spans="1:16">
@@ -9494,10 +9511,10 @@
         <v>249</v>
       </c>
       <c r="O163">
-        <v>14.1083</v>
+        <v>10.646</v>
       </c>
       <c r="P163">
-        <v>2.09074</v>
+        <v>1.5778</v>
       </c>
     </row>
     <row r="164" spans="1:16">
@@ -9544,10 +9561,10 @@
         <v>249</v>
       </c>
       <c r="O164">
-        <v>15.4535</v>
+        <v>10.6458</v>
       </c>
       <c r="P164">
-        <v>2.29008</v>
+        <v>1.57766</v>
       </c>
     </row>
     <row r="165" spans="1:16">
@@ -9594,10 +9611,10 @@
         <v>249</v>
       </c>
       <c r="O165">
-        <v>13.2814</v>
+        <v>9.002280000000001</v>
       </c>
       <c r="P165">
-        <v>1.96824</v>
+        <v>1.33431</v>
       </c>
     </row>
     <row r="166" spans="1:16">
@@ -9644,10 +9661,10 @@
         <v>249</v>
       </c>
       <c r="O166">
-        <v>11.2655</v>
+        <v>7.38952</v>
       </c>
       <c r="P166">
-        <v>1.66959</v>
+        <v>1.09536</v>
       </c>
     </row>
     <row r="167" spans="1:16">
@@ -9694,10 +9711,10 @@
         <v>249</v>
       </c>
       <c r="O167">
-        <v>8.7843</v>
+        <v>5.78687</v>
       </c>
       <c r="P167">
-        <v>1.30199</v>
+        <v>0.857922</v>
       </c>
     </row>
     <row r="168" spans="1:16">
@@ -9744,10 +9761,10 @@
         <v>249</v>
       </c>
       <c r="O168">
-        <v>7.02718</v>
+        <v>4.49597</v>
       </c>
       <c r="P168">
-        <v>1.04167</v>
+        <v>0.674089</v>
       </c>
     </row>
     <row r="169" spans="1:16">
@@ -9794,10 +9811,10 @@
         <v>249</v>
       </c>
       <c r="O169">
-        <v>4.59749</v>
+        <v>3.00324</v>
       </c>
       <c r="P169">
-        <v>0.6817220000000001</v>
+        <v>0.445466</v>
       </c>
     </row>
     <row r="170" spans="1:16">
@@ -9844,10 +9861,10 @@
         <v>249</v>
       </c>
       <c r="O170">
-        <v>2.32435</v>
+        <v>1.65142</v>
       </c>
       <c r="P170">
-        <v>0.344964</v>
+        <v>0.245276</v>
       </c>
     </row>
     <row r="171" spans="1:16">
@@ -9894,10 +9911,10 @@
         <v>249</v>
       </c>
       <c r="O171">
-        <v>0.101108</v>
+        <v>0.0498098</v>
       </c>
       <c r="P171">
-        <v>0.0155834</v>
+        <v>0.007972440000000001</v>
       </c>
     </row>
     <row r="172" spans="1:16">
@@ -9944,10 +9961,10 @@
         <v>249</v>
       </c>
       <c r="O172">
-        <v>0.101619</v>
+        <v>0.102028</v>
       </c>
       <c r="P172">
-        <v>0.0156737</v>
+        <v>0.0157204</v>
       </c>
     </row>
     <row r="173" spans="1:16">
@@ -9994,10 +10011,10 @@
         <v>249</v>
       </c>
       <c r="O173">
-        <v>-2.22399</v>
+        <v>-1.39709</v>
       </c>
       <c r="P173">
-        <v>-0.328836</v>
+        <v>-0.206368</v>
       </c>
     </row>
     <row r="174" spans="1:16">
@@ -10044,10 +10061,10 @@
         <v>249</v>
       </c>
       <c r="O174">
-        <v>-4.29067</v>
+        <v>-2.79213</v>
       </c>
       <c r="P174">
-        <v>-0.635068</v>
+        <v>-0.413003</v>
       </c>
     </row>
     <row r="175" spans="1:16">
@@ -10094,10 +10111,10 @@
         <v>249</v>
       </c>
       <c r="O175">
-        <v>-6.81563</v>
+        <v>-4.34276</v>
       </c>
       <c r="P175">
-        <v>-1.00918</v>
+        <v>-0.642741</v>
       </c>
     </row>
     <row r="176" spans="1:16">
@@ -10144,10 +10161,10 @@
         <v>249</v>
       </c>
       <c r="O176">
-        <v>-8.269640000000001</v>
+        <v>-5.58313</v>
       </c>
       <c r="P176">
-        <v>-1.2245</v>
+        <v>-0.826518</v>
       </c>
     </row>
     <row r="177" spans="1:16">
@@ -10194,10 +10211,10 @@
         <v>249</v>
       </c>
       <c r="O177">
-        <v>-10.4362</v>
+        <v>-7.18472</v>
       </c>
       <c r="P177">
-        <v>-1.5455</v>
+        <v>-1.06375</v>
       </c>
     </row>
     <row r="178" spans="1:16">
@@ -10244,10 +10261,10 @@
         <v>249</v>
       </c>
       <c r="O178">
-        <v>-12.2996</v>
+        <v>-8.527200000000001</v>
       </c>
       <c r="P178">
-        <v>-1.82153</v>
+        <v>-1.2627</v>
       </c>
     </row>
     <row r="179" spans="1:16">
@@ -10294,10 +10311,10 @@
         <v>249</v>
       </c>
       <c r="O179">
-        <v>-14.3147</v>
+        <v>-9.819419999999999</v>
       </c>
       <c r="P179">
-        <v>-2.1201</v>
+        <v>-1.45411</v>
       </c>
     </row>
     <row r="180" spans="1:16">
@@ -10344,10 +10361,10 @@
         <v>249</v>
       </c>
       <c r="O180">
-        <v>-13.2736</v>
+        <v>-9.8187</v>
       </c>
       <c r="P180">
-        <v>-1.96586</v>
+        <v>-1.45401</v>
       </c>
     </row>
     <row r="181" spans="1:16">
@@ -10394,10 +10411,10 @@
         <v>249</v>
       </c>
       <c r="O181">
-        <v>-15.1924</v>
+        <v>-11.2135</v>
       </c>
       <c r="P181">
-        <v>-2.25007</v>
+        <v>-1.66061</v>
       </c>
     </row>
     <row r="182" spans="1:16">
@@ -10444,10 +10461,10 @@
         <v>249</v>
       </c>
       <c r="O182">
-        <v>-16.8901</v>
+        <v>-12.6094</v>
       </c>
       <c r="P182">
-        <v>-2.50169</v>
+        <v>-1.86742</v>
       </c>
     </row>
     <row r="183" spans="1:16">
@@ -10494,10 +10511,10 @@
         <v>249</v>
       </c>
       <c r="O183">
-        <v>-18.7579</v>
+        <v>-13.9898</v>
       </c>
       <c r="P183">
-        <v>-2.77831</v>
+        <v>-2.07197</v>
       </c>
     </row>
     <row r="184" spans="1:16">
@@ -10544,10 +10561,10 @@
         <v>249</v>
       </c>
       <c r="O184">
-        <v>-20.2048</v>
+        <v>-14.8831</v>
       </c>
       <c r="P184">
-        <v>-2.99266</v>
+        <v>-2.20426</v>
       </c>
     </row>
     <row r="185" spans="1:16">
@@ -10594,10 +10611,10 @@
         <v>249</v>
       </c>
       <c r="O185">
-        <v>-22.2193</v>
+        <v>-16.0714</v>
       </c>
       <c r="P185">
-        <v>-3.29112</v>
+        <v>-2.38032</v>
       </c>
     </row>
     <row r="186" spans="1:16">
@@ -10644,10 +10661,10 @@
         <v>249</v>
       </c>
       <c r="O186">
-        <v>-24.1837</v>
+        <v>-17.2084</v>
       </c>
       <c r="P186">
-        <v>-3.5821</v>
+        <v>-2.54872</v>
       </c>
     </row>
     <row r="187" spans="1:16">
@@ -10694,10 +10711,10 @@
         <v>249</v>
       </c>
       <c r="O187">
-        <v>-26.3467</v>
+        <v>-18.551</v>
       </c>
       <c r="P187">
-        <v>-3.90264</v>
+        <v>-2.74765</v>
       </c>
     </row>
     <row r="188" spans="1:16">
@@ -10744,10 +10761,10 @@
         <v>249</v>
       </c>
       <c r="O188">
-        <v>-26.4483</v>
+        <v>-18.6029</v>
       </c>
       <c r="P188">
-        <v>-3.91771</v>
+        <v>-2.75532</v>
       </c>
     </row>
     <row r="189" spans="1:16">
@@ -10794,10 +10811,10 @@
         <v>249</v>
       </c>
       <c r="O189">
-        <v>-27.482</v>
+        <v>-19.2754</v>
       </c>
       <c r="P189">
-        <v>-4.07085</v>
+        <v>-2.85498</v>
       </c>
     </row>
     <row r="190" spans="1:16">
@@ -10844,10 +10861,10 @@
         <v>249</v>
       </c>
       <c r="O190">
-        <v>-28.3117</v>
+        <v>-20.0392</v>
       </c>
       <c r="P190">
-        <v>-4.18703</v>
+        <v>-2.96817</v>
       </c>
     </row>
     <row r="191" spans="1:16">
@@ -10894,10 +10911,10 @@
         <v>249</v>
       </c>
       <c r="O191">
-        <v>-29.4553</v>
+        <v>-20.7738</v>
       </c>
       <c r="P191">
-        <v>-4.36306</v>
+        <v>-3.07696</v>
       </c>
     </row>
     <row r="192" spans="1:16">
@@ -10944,10 +10961,10 @@
         <v>249</v>
       </c>
       <c r="O192">
-        <v>-30.012</v>
+        <v>-21.2916</v>
       </c>
       <c r="P192">
-        <v>-4.44559</v>
+        <v>-3.15367</v>
       </c>
     </row>
     <row r="193" spans="1:16">
@@ -10994,10 +11011,10 @@
         <v>249</v>
       </c>
       <c r="O193">
-        <v>-31.058</v>
+        <v>-22.1703</v>
       </c>
       <c r="P193">
-        <v>-4.60053</v>
+        <v>-3.28389</v>
       </c>
     </row>
     <row r="194" spans="1:16">
@@ -11043,16 +11060,16 @@
       <c r="N194" t="s">
         <v>249</v>
       </c>
-      <c r="O194">
-        <v>-31.9365</v>
-      </c>
-      <c r="P194">
-        <v>-4.73068</v>
+      <c r="O194" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="P194" s="4" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="195" spans="1:16">
       <c r="A195" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B195" t="s">
         <v>240</v>
@@ -11093,16 +11110,16 @@
       <c r="N195" t="s">
         <v>249</v>
       </c>
-      <c r="O195">
-        <v>-33.0221</v>
-      </c>
-      <c r="P195">
-        <v>-4.89154</v>
+      <c r="O195" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="P195" s="4" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="196" spans="1:16">
       <c r="A196" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B196" t="s">
         <v>240</v>
@@ -11143,16 +11160,16 @@
       <c r="N196" t="s">
         <v>249</v>
       </c>
-      <c r="O196">
-        <v>-32.2454</v>
-      </c>
-      <c r="P196">
-        <v>-4.76908</v>
+      <c r="O196" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="P196" s="4" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="197" spans="1:16">
       <c r="A197" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B197" t="s">
         <v>240</v>
@@ -11193,16 +11210,16 @@
       <c r="N197" t="s">
         <v>249</v>
       </c>
-      <c r="O197">
-        <v>-33.3334</v>
-      </c>
-      <c r="P197">
-        <v>-4.9377</v>
+      <c r="O197" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="P197" s="4" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="198" spans="1:16">
       <c r="A198" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B198" t="s">
         <v>240</v>
@@ -11243,16 +11260,16 @@
       <c r="N198" t="s">
         <v>249</v>
       </c>
-      <c r="O198">
-        <v>-34.1599</v>
-      </c>
-      <c r="P198">
-        <v>-5.0601</v>
+      <c r="O198" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="P198" s="4" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="199" spans="1:16">
       <c r="A199" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B199" t="s">
         <v>240</v>
@@ -11293,16 +11310,16 @@
       <c r="N199" t="s">
         <v>249</v>
       </c>
-      <c r="O199" s="3">
-        <v>-35.297</v>
-      </c>
-      <c r="P199">
-        <v>-5.22853</v>
+      <c r="O199" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="P199" s="4" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="200" spans="1:16">
       <c r="A200" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B200" t="s">
         <v>240</v>
@@ -11343,16 +11360,16 @@
       <c r="N200" t="s">
         <v>249</v>
       </c>
-      <c r="O200" s="3">
-        <v>-35.7038</v>
-      </c>
-      <c r="P200">
-        <v>-5.28891</v>
+      <c r="O200" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="P200" s="4" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="201" spans="1:16">
       <c r="A201" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B201" t="s">
         <v>240</v>
@@ -11393,16 +11410,16 @@
       <c r="N201" t="s">
         <v>249</v>
       </c>
-      <c r="O201" s="3">
-        <v>-36.8485</v>
-      </c>
-      <c r="P201">
-        <v>-5.45838</v>
+      <c r="O201" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="P201" s="4" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="202" spans="1:16">
       <c r="A202" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B202" t="s">
         <v>240</v>
@@ -11443,16 +11460,16 @@
       <c r="N202" t="s">
         <v>249</v>
       </c>
-      <c r="O202" s="3">
-        <v>-37.8228</v>
-      </c>
-      <c r="P202">
-        <v>-5.60281</v>
+      <c r="O202" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="P202" s="4" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="203" spans="1:16">
       <c r="A203" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B203" t="s">
         <v>240</v>
@@ -11493,11 +11510,11 @@
       <c r="N203" t="s">
         <v>249</v>
       </c>
-      <c r="O203" s="3">
-        <v>-38.7088</v>
-      </c>
-      <c r="P203">
-        <v>-5.73398</v>
+      <c r="O203" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="P203" s="4" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="204" spans="1:16" s="1" customFormat="1">
@@ -11552,29 +11569,29 @@
     </row>
     <row r="205" spans="1:16" s="1" customFormat="1">
       <c r="N205" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O205" s="3">
-        <v>-64.8019</v>
+        <v>-47.4959</v>
       </c>
       <c r="P205" s="1">
-        <v>-7.85459</v>
+        <v>-5.7569</v>
       </c>
     </row>
     <row r="206" spans="1:16" s="1" customFormat="1">
       <c r="N206" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="O206" s="2">
-        <v>64.79049999999999</v>
+        <v>48.4135</v>
       </c>
       <c r="P206" s="1">
-        <v>7.85358</v>
+        <v>5.86849</v>
       </c>
     </row>
     <row r="207" spans="1:16" s="1" customFormat="1">
       <c r="N207" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="O207" s="1">
         <v>35</v>
@@ -11582,7 +11599,7 @@
     </row>
     <row r="208" spans="1:16" s="1" customFormat="1">
       <c r="N208" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O208" s="1">
         <v>-35</v>
@@ -11590,7 +11607,7 @@
     </row>
     <row r="209" spans="14:16" s="1" customFormat="1">
       <c r="N209" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="O209" s="1">
         <v>35</v>
@@ -11598,7 +11615,7 @@
     </row>
     <row r="210" spans="14:16" s="1" customFormat="1">
       <c r="N210" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="O210" s="1">
         <v>-35</v>
@@ -11606,35 +11623,35 @@
     </row>
     <row r="211" spans="14:16" s="1" customFormat="1">
       <c r="N211" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O211" s="1">
-        <v>0.9830637</v>
+        <v>2.198907</v>
       </c>
       <c r="P211" s="1">
-        <v>0.121786</v>
+        <v>0.3062903</v>
       </c>
     </row>
     <row r="212" spans="14:16" s="1" customFormat="1">
       <c r="N212" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="O212" s="1">
-        <v>34.185427</v>
+        <v>24.473331</v>
       </c>
       <c r="P212" s="1">
-        <v>4.447704</v>
+        <v>3.155384</v>
       </c>
     </row>
     <row r="213" spans="14:16" s="1" customFormat="1">
       <c r="N213" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="O213" s="1">
-        <v>3477.437627</v>
+        <v>1112.977084</v>
       </c>
       <c r="P213" s="1">
-        <v>3652.065098</v>
+        <v>1030.193904</v>
       </c>
     </row>
     <row r="214" spans="14:16" s="1" customFormat="1"/>

--- a/dcd_top_offset_step_tsmc2p_meas.xlsx
+++ b/dcd_top_offset_step_tsmc2p_meas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5172" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4882" uniqueCount="312">
   <si>
     <t>Process</t>
   </si>
@@ -706,6 +706,36 @@
     <t>tsmc2p (128)</t>
   </si>
   <si>
+    <t>mos_ss</t>
+  </si>
+  <si>
+    <t>mosulvt_ss</t>
+  </si>
+  <si>
+    <t>moselvt_ss</t>
+  </si>
+  <si>
+    <t>moslvt_ss</t>
+  </si>
+  <si>
+    <t>dio_s</t>
+  </si>
+  <si>
+    <t>res_h</t>
+  </si>
+  <si>
+    <t>cap_h</t>
+  </si>
+  <si>
+    <t>-40</t>
+  </si>
+  <si>
+    <t>0.675</t>
+  </si>
+  <si>
+    <t>rcworst_ccworst_t</t>
+  </si>
+  <si>
     <t>tsmc2p (129)</t>
   </si>
   <si>
@@ -736,36 +766,6 @@
     <t>tsmc2p (138)</t>
   </si>
   <si>
-    <t>mos_ss</t>
-  </si>
-  <si>
-    <t>mosulvt_ss</t>
-  </si>
-  <si>
-    <t>moselvt_ss</t>
-  </si>
-  <si>
-    <t>moslvt_ss</t>
-  </si>
-  <si>
-    <t>dio_s</t>
-  </si>
-  <si>
-    <t>res_h</t>
-  </si>
-  <si>
-    <t>cap_h</t>
-  </si>
-  <si>
-    <t>-40</t>
-  </si>
-  <si>
-    <t>0.675</t>
-  </si>
-  <si>
-    <t>rcworst_ccworst_t</t>
-  </si>
-  <si>
     <t>tsmc2p (139)</t>
   </si>
   <si>
@@ -923,39 +923,6 @@
   </si>
   <si>
     <t>tsmc2p (191)</t>
-  </si>
-  <si>
-    <t>tsmc2p (192)</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>tsmc2p (193)</t>
-  </si>
-  <si>
-    <t>tsmc2p (194)</t>
-  </si>
-  <si>
-    <t>tsmc2p (195)</t>
-  </si>
-  <si>
-    <t>tsmc2p (196)</t>
-  </si>
-  <si>
-    <t>tsmc2p (197)</t>
-  </si>
-  <si>
-    <t>tsmc2p (198)</t>
-  </si>
-  <si>
-    <t>tsmc2p (199)</t>
-  </si>
-  <si>
-    <t>tsmc2p (200)</t>
-  </si>
-  <si>
-    <t>tsmc2p (201)</t>
   </si>
   <si>
     <t>Min</t>
@@ -989,7 +956,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1012,15 +979,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000 "/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1039,12 +999,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1058,12 +1012,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1358,13 +1311,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P214"/>
+  <dimension ref="A1:P204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="213" width="9.140625"/>
+    <col min="1" max="203" width="9.140625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="1" customFormat="1">
@@ -1461,10 +1414,10 @@
         <v>29</v>
       </c>
       <c r="O2" s="2">
-        <v>36.9052</v>
+        <v>35.8205</v>
       </c>
       <c r="P2">
-        <v>4.92096</v>
+        <v>4.77635</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1510,11 +1463,11 @@
       <c r="N3" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="2">
-        <v>35.9754</v>
+      <c r="O3">
+        <v>34.7876</v>
       </c>
       <c r="P3">
-        <v>4.79699</v>
+        <v>4.63863</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1561,10 +1514,10 @@
         <v>29</v>
       </c>
       <c r="O4">
-        <v>34.3209</v>
+        <v>34.0625</v>
       </c>
       <c r="P4">
-        <v>4.5764</v>
+        <v>4.54195</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1611,10 +1564,10 @@
         <v>29</v>
       </c>
       <c r="O5">
-        <v>33.3392</v>
+        <v>33.0806</v>
       </c>
       <c r="P5">
-        <v>4.44552</v>
+        <v>4.41104</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1661,10 +1614,10 @@
         <v>29</v>
       </c>
       <c r="O6">
-        <v>32.8749</v>
+        <v>32.4618</v>
       </c>
       <c r="P6">
-        <v>4.38361</v>
+        <v>4.32853</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1711,10 +1664,10 @@
         <v>29</v>
       </c>
       <c r="O7">
-        <v>31.8935</v>
+        <v>31.5319</v>
       </c>
       <c r="P7">
-        <v>4.25964</v>
+        <v>4.20455</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1761,10 +1714,10 @@
         <v>29</v>
       </c>
       <c r="O8">
-        <v>31.0163</v>
+        <v>30.6541</v>
       </c>
       <c r="P8">
-        <v>4.1358</v>
+        <v>4.08751</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1811,10 +1764,10 @@
         <v>29</v>
       </c>
       <c r="O9">
-        <v>30.1895</v>
+        <v>29.7767</v>
       </c>
       <c r="P9">
-        <v>4.02556</v>
+        <v>3.97051</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1861,10 +1814,10 @@
         <v>29</v>
       </c>
       <c r="O10">
-        <v>30.4475</v>
+        <v>29.9829</v>
       </c>
       <c r="P10">
-        <v>4.05995</v>
+        <v>3.99801</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1911,10 +1864,10 @@
         <v>29</v>
       </c>
       <c r="O11">
-        <v>29.5181</v>
+        <v>29.105</v>
       </c>
       <c r="P11">
-        <v>3.93604</v>
+        <v>3.88094</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1961,10 +1914,10 @@
         <v>29</v>
       </c>
       <c r="O12">
-        <v>28.7435</v>
+        <v>28.2786</v>
       </c>
       <c r="P12">
-        <v>3.83275</v>
+        <v>3.77077</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -2011,10 +1964,10 @@
         <v>29</v>
       </c>
       <c r="O13">
-        <v>27.814</v>
+        <v>27.2976</v>
       </c>
       <c r="P13">
-        <v>3.70884</v>
+        <v>3.63997</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -2061,10 +2014,10 @@
         <v>29</v>
       </c>
       <c r="O14">
-        <v>27.2459</v>
+        <v>26.6779</v>
       </c>
       <c r="P14">
-        <v>3.63307</v>
+        <v>3.55734</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -2111,10 +2064,10 @@
         <v>29</v>
       </c>
       <c r="O15">
-        <v>26.2663</v>
+        <v>25.697</v>
       </c>
       <c r="P15">
-        <v>3.50245</v>
+        <v>3.42656</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -2161,10 +2114,10 @@
         <v>29</v>
       </c>
       <c r="O16">
-        <v>25.4387</v>
+        <v>24.819</v>
       </c>
       <c r="P16">
-        <v>3.39211</v>
+        <v>3.30949</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -2211,10 +2164,10 @@
         <v>29</v>
       </c>
       <c r="O17">
-        <v>24.5606</v>
+        <v>23.9408</v>
       </c>
       <c r="P17">
-        <v>3.27504</v>
+        <v>3.1924</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -2261,10 +2214,10 @@
         <v>29</v>
       </c>
       <c r="O18">
-        <v>24.5089</v>
+        <v>23.8377</v>
       </c>
       <c r="P18">
-        <v>3.26815</v>
+        <v>3.1855</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -2311,10 +2264,10 @@
         <v>29</v>
       </c>
       <c r="O19">
-        <v>22.4948</v>
+        <v>21.927</v>
       </c>
       <c r="P19">
-        <v>2.9996</v>
+        <v>2.92388</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -2361,10 +2314,10 @@
         <v>29</v>
       </c>
       <c r="O20">
-        <v>20.6356</v>
+        <v>19.9644</v>
       </c>
       <c r="P20">
-        <v>2.7517</v>
+        <v>2.66221</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -2411,10 +2364,10 @@
         <v>29</v>
       </c>
       <c r="O21">
-        <v>18.5185</v>
+        <v>18.105</v>
       </c>
       <c r="P21">
-        <v>2.46942</v>
+        <v>2.41429</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -2461,10 +2414,10 @@
         <v>29</v>
       </c>
       <c r="O22">
-        <v>17.0205</v>
+        <v>16.5559</v>
       </c>
       <c r="P22">
-        <v>2.26967</v>
+        <v>2.20774</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -2511,10 +2464,10 @@
         <v>29</v>
       </c>
       <c r="O23">
-        <v>15.3165</v>
+        <v>14.8517</v>
       </c>
       <c r="P23">
-        <v>2.04249</v>
+        <v>1.98051</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -2561,10 +2514,10 @@
         <v>29</v>
       </c>
       <c r="O24">
-        <v>13.8191</v>
+        <v>13.5088</v>
       </c>
       <c r="P24">
-        <v>1.84285</v>
+        <v>1.80147</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -2611,10 +2564,10 @@
         <v>29</v>
       </c>
       <c r="O25">
-        <v>12.3728</v>
+        <v>12.1147</v>
       </c>
       <c r="P25">
-        <v>1.64999</v>
+        <v>1.61559</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -2661,10 +2614,10 @@
         <v>29</v>
       </c>
       <c r="O26">
-        <v>11.8561</v>
+        <v>11.3914</v>
       </c>
       <c r="P26">
-        <v>1.58111</v>
+        <v>1.51915</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -2711,10 +2664,10 @@
         <v>29</v>
       </c>
       <c r="O27">
-        <v>10.2041</v>
+        <v>9.790380000000001</v>
       </c>
       <c r="P27">
-        <v>1.36084</v>
+        <v>1.30568</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -2761,10 +2714,10 @@
         <v>29</v>
       </c>
       <c r="O28">
-        <v>8.55532</v>
+        <v>8.189120000000001</v>
       </c>
       <c r="P28">
-        <v>1.14101</v>
+        <v>1.09219</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -2811,10 +2764,10 @@
         <v>29</v>
       </c>
       <c r="O29">
-        <v>6.84673</v>
+        <v>6.588</v>
       </c>
       <c r="P29">
-        <v>0.9131860000000001</v>
+        <v>0.878695</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2861,10 +2814,10 @@
         <v>29</v>
       </c>
       <c r="O30">
-        <v>5.29665</v>
+        <v>5.09051</v>
       </c>
       <c r="P30">
-        <v>0.706519</v>
+        <v>0.679023</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2911,10 +2864,10 @@
         <v>29</v>
       </c>
       <c r="O31">
-        <v>3.59238</v>
+        <v>3.28274</v>
       </c>
       <c r="P31">
-        <v>0.479268</v>
+        <v>0.437983</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -2961,10 +2914,10 @@
         <v>29</v>
       </c>
       <c r="O32">
-        <v>1.83679</v>
+        <v>1.73311</v>
       </c>
       <c r="P32">
-        <v>0.252037</v>
+        <v>0.231368</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -3011,10 +2964,10 @@
         <v>29</v>
       </c>
       <c r="O33">
-        <v>0.08040319999999999</v>
+        <v>0.0289096</v>
       </c>
       <c r="P33">
-        <v>0.0110034</v>
+        <v>0.0041383</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -3061,10 +3014,10 @@
         <v>29</v>
       </c>
       <c r="O34">
-        <v>0.0289182</v>
+        <v>0.0287209</v>
       </c>
       <c r="P34">
-        <v>0.00414103</v>
+        <v>0.00411305</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -3111,10 +3064,10 @@
         <v>29</v>
       </c>
       <c r="O35">
-        <v>-1.67513</v>
+        <v>-1.67052</v>
       </c>
       <c r="P35">
-        <v>-0.223063</v>
+        <v>-0.222462</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -3161,10 +3114,10 @@
         <v>29</v>
       </c>
       <c r="O36">
-        <v>-3.48164</v>
+        <v>-3.27524</v>
       </c>
       <c r="P36">
-        <v>-0.463927</v>
+        <v>-0.436403</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -3211,10 +3164,10 @@
         <v>29</v>
       </c>
       <c r="O37">
-        <v>-5.18569</v>
+        <v>-5.03089</v>
       </c>
       <c r="P37">
-        <v>-0.691134</v>
+        <v>-0.6704870000000001</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -3261,10 +3214,10 @@
         <v>29</v>
       </c>
       <c r="O38">
-        <v>-6.73475</v>
+        <v>-6.52692</v>
       </c>
       <c r="P38">
-        <v>-0.8976690000000001</v>
+        <v>-0.8699750000000001</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -3311,10 +3264,10 @@
         <v>29</v>
       </c>
       <c r="O39">
-        <v>-8.538690000000001</v>
+        <v>-8.12865</v>
       </c>
       <c r="P39">
-        <v>-1.13822</v>
+        <v>-1.08353</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -3361,10 +3314,10 @@
         <v>29</v>
       </c>
       <c r="O40">
-        <v>-10.091</v>
+        <v>-9.72969</v>
       </c>
       <c r="P40">
-        <v>-1.34518</v>
+        <v>-1.297</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -3411,10 +3364,10 @@
         <v>29</v>
       </c>
       <c r="O41">
-        <v>-11.8467</v>
+        <v>-11.3299</v>
       </c>
       <c r="P41">
-        <v>-1.57928</v>
+        <v>-1.51037</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -3461,10 +3414,10 @@
         <v>29</v>
       </c>
       <c r="O42">
-        <v>-12.3118</v>
+        <v>-12.0528</v>
       </c>
       <c r="P42">
-        <v>-1.64129</v>
+        <v>-1.60675</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -3511,10 +3464,10 @@
         <v>29</v>
       </c>
       <c r="O43">
-        <v>-13.7581</v>
+        <v>-13.4487</v>
       </c>
       <c r="P43">
-        <v>-1.83413</v>
+        <v>-1.79287</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -3561,10 +3514,10 @@
         <v>29</v>
       </c>
       <c r="O44">
-        <v>-15.1516</v>
+        <v>-14.7912</v>
       </c>
       <c r="P44">
-        <v>-2.01317</v>
+        <v>-1.97188</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -3611,10 +3564,10 @@
         <v>29</v>
       </c>
       <c r="O45">
-        <v>-16.6498</v>
+        <v>-16.1854</v>
       </c>
       <c r="P45">
-        <v>-2.21968</v>
+        <v>-2.15777</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -3661,10 +3614,10 @@
         <v>29</v>
       </c>
       <c r="O46">
-        <v>-18.0959</v>
+        <v>-17.6307</v>
       </c>
       <c r="P46">
-        <v>-2.41249</v>
+        <v>-2.35047</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -3711,10 +3664,10 @@
         <v>29</v>
       </c>
       <c r="O47">
-        <v>-20.0576</v>
+        <v>-19.5931</v>
       </c>
       <c r="P47">
-        <v>-2.67404</v>
+        <v>-2.61213</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -3761,10 +3714,10 @@
         <v>29</v>
       </c>
       <c r="O48">
-        <v>-21.9685</v>
+        <v>-21.4514</v>
       </c>
       <c r="P48">
-        <v>-2.92884</v>
+        <v>-2.8599</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -3811,10 +3764,10 @@
         <v>29</v>
       </c>
       <c r="O49">
-        <v>-23.9819</v>
+        <v>-23.2071</v>
       </c>
       <c r="P49">
-        <v>-3.1973</v>
+        <v>-3.094</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -3861,10 +3814,10 @@
         <v>29</v>
       </c>
       <c r="O50">
-        <v>-23.982</v>
+        <v>-23.2591</v>
       </c>
       <c r="P50">
-        <v>-3.19731</v>
+        <v>-3.10094</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -3911,10 +3864,10 @@
         <v>29</v>
       </c>
       <c r="O51">
-        <v>-24.8083</v>
+        <v>-24.1371</v>
       </c>
       <c r="P51">
-        <v>-3.30748</v>
+        <v>-3.21799</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -3961,10 +3914,10 @@
         <v>29</v>
       </c>
       <c r="O52">
-        <v>-25.6344</v>
+        <v>-25.0149</v>
       </c>
       <c r="P52">
-        <v>-3.41763</v>
+        <v>-3.33502</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -4011,10 +3964,10 @@
         <v>29</v>
       </c>
       <c r="O53">
-        <v>-26.6154</v>
+        <v>-25.9959</v>
       </c>
       <c r="P53">
-        <v>-3.54843</v>
+        <v>-3.46583</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -4061,10 +4014,10 @@
         <v>29</v>
       </c>
       <c r="O54">
-        <v>-27.2352</v>
+        <v>-26.6158</v>
       </c>
       <c r="P54">
-        <v>-3.63107</v>
+        <v>-3.54848</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -4111,10 +4064,10 @@
         <v>29</v>
       </c>
       <c r="O55">
-        <v>-28.1131</v>
+        <v>-27.5453</v>
       </c>
       <c r="P55">
-        <v>-3.74813</v>
+        <v>-3.67241</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -4161,10 +4114,10 @@
         <v>29</v>
       </c>
       <c r="O56">
-        <v>-28.9909</v>
+        <v>-28.5773</v>
       </c>
       <c r="P56">
-        <v>-3.86516</v>
+        <v>-3.81001</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -4211,10 +4164,10 @@
         <v>29</v>
       </c>
       <c r="O57">
-        <v>-29.8687</v>
+        <v>-29.5073</v>
       </c>
       <c r="P57">
-        <v>-3.9822</v>
+        <v>-3.93402</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -4261,10 +4214,10 @@
         <v>29</v>
       </c>
       <c r="O58">
-        <v>-29.6623</v>
+        <v>-29.2493</v>
       </c>
       <c r="P58">
-        <v>-3.95468</v>
+        <v>-3.89962</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -4311,10 +4264,10 @@
         <v>29</v>
       </c>
       <c r="O59">
-        <v>-30.5399</v>
+        <v>-30.1789</v>
       </c>
       <c r="P59">
-        <v>-4.0717</v>
+        <v>-4.02357</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -4361,10 +4314,10 @@
         <v>29</v>
       </c>
       <c r="O60">
-        <v>-31.4694</v>
+        <v>-31.1083</v>
       </c>
       <c r="P60">
-        <v>-4.19564</v>
+        <v>-4.14751</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -4411,10 +4364,10 @@
         <v>29</v>
       </c>
       <c r="O61">
-        <v>-32.3938</v>
+        <v>-32.0894</v>
       </c>
       <c r="P61">
-        <v>-4.31891</v>
+        <v>-4.2783</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -4461,10 +4414,10 @@
         <v>29</v>
       </c>
       <c r="O62">
-        <v>-32.9672</v>
+        <v>-32.7606</v>
       </c>
       <c r="P62">
-        <v>-4.39533</v>
+        <v>-4.36779</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -4511,10 +4464,10 @@
         <v>29</v>
       </c>
       <c r="O63">
-        <v>-33.948</v>
+        <v>-33.6902</v>
       </c>
       <c r="P63">
-        <v>-4.52611</v>
+        <v>-4.49173</v>
       </c>
     </row>
     <row r="64" spans="1:16">
@@ -4561,10 +4514,10 @@
         <v>29</v>
       </c>
       <c r="O64">
-        <v>-34.8225</v>
+        <v>-34.6712</v>
       </c>
       <c r="P64">
-        <v>-4.64273</v>
+        <v>-4.62253</v>
       </c>
     </row>
     <row r="65" spans="1:16">
@@ -4611,10 +4564,10 @@
         <v>29</v>
       </c>
       <c r="O65" s="3">
-        <v>-35.7554</v>
+        <v>-35.6525</v>
       </c>
       <c r="P65">
-        <v>-4.76709</v>
+        <v>-4.75338</v>
       </c>
     </row>
     <row r="66" spans="1:16">
@@ -4661,10 +4614,10 @@
         <v>165</v>
       </c>
       <c r="O66" s="2">
-        <v>48.4135</v>
+        <v>46.711</v>
       </c>
       <c r="P66">
-        <v>5.86849</v>
+        <v>5.66212</v>
       </c>
     </row>
     <row r="67" spans="1:16">
@@ -4711,10 +4664,10 @@
         <v>165</v>
       </c>
       <c r="O67" s="2">
-        <v>47.162</v>
+        <v>45.509</v>
       </c>
       <c r="P67">
-        <v>5.71679</v>
+        <v>5.51642</v>
       </c>
     </row>
     <row r="68" spans="1:16">
@@ -4761,10 +4714,10 @@
         <v>165</v>
       </c>
       <c r="O68" s="2">
-        <v>44.5051</v>
+        <v>43.7036</v>
       </c>
       <c r="P68">
-        <v>5.39474</v>
+        <v>5.2976</v>
       </c>
     </row>
     <row r="69" spans="1:16">
@@ -4811,10 +4764,10 @@
         <v>165</v>
       </c>
       <c r="O69" s="2">
-        <v>43.3533</v>
+        <v>42.5029</v>
       </c>
       <c r="P69">
-        <v>5.25513</v>
+        <v>5.15206</v>
       </c>
     </row>
     <row r="70" spans="1:16">
@@ -4861,10 +4814,10 @@
         <v>165</v>
       </c>
       <c r="O70" s="2">
-        <v>42.6521</v>
+        <v>41.7665</v>
       </c>
       <c r="P70">
-        <v>5.17015</v>
+        <v>5.06279</v>
       </c>
     </row>
     <row r="71" spans="1:16">
@@ -4911,10 +4864,10 @@
         <v>165</v>
       </c>
       <c r="O71" s="2">
-        <v>41.5041</v>
+        <v>40.6491</v>
       </c>
       <c r="P71">
-        <v>5.03098</v>
+        <v>4.92735</v>
       </c>
     </row>
     <row r="72" spans="1:16">
@@ -4961,10 +4914,10 @@
         <v>165</v>
       </c>
       <c r="O72" s="2">
-        <v>40.5486</v>
+        <v>39.5471</v>
       </c>
       <c r="P72">
-        <v>4.91517</v>
+        <v>4.79378</v>
       </c>
     </row>
     <row r="73" spans="1:16">
@@ -5011,10 +4964,10 @@
         <v>165</v>
       </c>
       <c r="O73" s="2">
-        <v>39.3995</v>
+        <v>38.4452</v>
       </c>
       <c r="P73">
-        <v>4.77587</v>
+        <v>4.6602</v>
       </c>
     </row>
     <row r="74" spans="1:16">
@@ -5061,10 +5014,10 @@
         <v>165</v>
       </c>
       <c r="O74" s="2">
-        <v>39.7475</v>
+        <v>38.7458</v>
       </c>
       <c r="P74">
-        <v>4.81807</v>
+        <v>4.69666</v>
       </c>
     </row>
     <row r="75" spans="1:16">
@@ -5111,10 +5064,10 @@
         <v>165</v>
       </c>
       <c r="O75" s="2">
-        <v>38.5965</v>
+        <v>37.494</v>
       </c>
       <c r="P75">
-        <v>4.67855</v>
+        <v>4.54491</v>
       </c>
     </row>
     <row r="76" spans="1:16">
@@ -5161,10 +5114,10 @@
         <v>165</v>
       </c>
       <c r="O76" s="2">
-        <v>37.5441</v>
+        <v>36.3425</v>
       </c>
       <c r="P76">
-        <v>4.55099</v>
+        <v>4.40535</v>
       </c>
     </row>
     <row r="77" spans="1:16">
@@ -5211,10 +5164,10 @@
         <v>165</v>
       </c>
       <c r="O77" s="2">
-        <v>36.3425</v>
+        <v>35.241</v>
       </c>
       <c r="P77">
-        <v>4.40534</v>
+        <v>4.27182</v>
       </c>
     </row>
     <row r="78" spans="1:16">
@@ -5260,11 +5213,11 @@
       <c r="N78" t="s">
         <v>165</v>
       </c>
-      <c r="O78" s="2">
-        <v>35.5414</v>
+      <c r="O78">
+        <v>34.39</v>
       </c>
       <c r="P78">
-        <v>4.30825</v>
+        <v>4.16867</v>
       </c>
     </row>
     <row r="79" spans="1:16">
@@ -5311,10 +5264,10 @@
         <v>165</v>
       </c>
       <c r="O79">
-        <v>34.3901</v>
+        <v>33.2385</v>
       </c>
       <c r="P79">
-        <v>4.16868</v>
+        <v>4.02909</v>
       </c>
     </row>
     <row r="80" spans="1:16">
@@ -5361,10 +5314,10 @@
         <v>165</v>
       </c>
       <c r="O80">
-        <v>33.2885</v>
+        <v>32.037</v>
       </c>
       <c r="P80">
-        <v>4.03516</v>
+        <v>3.88346</v>
       </c>
     </row>
     <row r="81" spans="1:16">
@@ -5411,10 +5364,10 @@
         <v>165</v>
       </c>
       <c r="O81">
-        <v>32.0871</v>
+        <v>30.8356</v>
       </c>
       <c r="P81">
-        <v>3.88953</v>
+        <v>3.73784</v>
       </c>
     </row>
     <row r="82" spans="1:16">
@@ -5461,10 +5414,10 @@
         <v>165</v>
       </c>
       <c r="O82">
-        <v>32.087</v>
+        <v>30.9356</v>
       </c>
       <c r="P82">
-        <v>3.88952</v>
+        <v>3.74996</v>
       </c>
     </row>
     <row r="83" spans="1:16">
@@ -5511,10 +5464,10 @@
         <v>165</v>
       </c>
       <c r="O83">
-        <v>29.7342</v>
+        <v>28.5829</v>
       </c>
       <c r="P83">
-        <v>3.60433</v>
+        <v>3.46477</v>
       </c>
     </row>
     <row r="84" spans="1:16">
@@ -5561,10 +5514,10 @@
         <v>165</v>
       </c>
       <c r="O84">
-        <v>27.4314</v>
+        <v>26.38</v>
       </c>
       <c r="P84">
-        <v>3.32521</v>
+        <v>3.19775</v>
       </c>
     </row>
     <row r="85" spans="1:16">
@@ -5611,10 +5564,10 @@
         <v>165</v>
       </c>
       <c r="O85">
-        <v>24.9781</v>
+        <v>24.0765</v>
       </c>
       <c r="P85">
-        <v>3.02783</v>
+        <v>2.91856</v>
       </c>
     </row>
     <row r="86" spans="1:16">
@@ -5661,10 +5614,10 @@
         <v>165</v>
       </c>
       <c r="O86">
-        <v>23.025</v>
+        <v>22.0736</v>
       </c>
       <c r="P86">
-        <v>2.79109</v>
+        <v>2.67577</v>
       </c>
     </row>
     <row r="87" spans="1:16">
@@ -5711,10 +5664,10 @@
         <v>165</v>
       </c>
       <c r="O87">
-        <v>20.6717</v>
+        <v>19.8707</v>
       </c>
       <c r="P87">
-        <v>2.50584</v>
+        <v>2.40875</v>
       </c>
     </row>
     <row r="88" spans="1:16">
@@ -5761,10 +5714,10 @@
         <v>165</v>
       </c>
       <c r="O88">
-        <v>18.4693</v>
+        <v>17.8175</v>
       </c>
       <c r="P88">
-        <v>2.24485</v>
+        <v>2.15988</v>
       </c>
     </row>
     <row r="89" spans="1:16">
@@ -5811,10 +5764,10 @@
         <v>165</v>
       </c>
       <c r="O89">
-        <v>16.2153</v>
+        <v>15.5644</v>
       </c>
       <c r="P89">
-        <v>1.96568</v>
+        <v>1.88678</v>
       </c>
     </row>
     <row r="90" spans="1:16">
@@ -5861,10 +5814,10 @@
         <v>165</v>
       </c>
       <c r="O90">
-        <v>15.5644</v>
+        <v>14.6628</v>
       </c>
       <c r="P90">
-        <v>1.88678</v>
+        <v>1.7775</v>
       </c>
     </row>
     <row r="91" spans="1:16">
@@ -5911,10 +5864,10 @@
         <v>165</v>
       </c>
       <c r="O91">
-        <v>13.1107</v>
+        <v>12.3095</v>
       </c>
       <c r="P91">
-        <v>1.58936</v>
+        <v>1.49226</v>
       </c>
     </row>
     <row r="92" spans="1:16">
@@ -5961,10 +5914,10 @@
         <v>165</v>
       </c>
       <c r="O92">
-        <v>10.7072</v>
+        <v>9.957190000000001</v>
       </c>
       <c r="P92">
-        <v>1.29802</v>
+        <v>1.20711</v>
       </c>
     </row>
     <row r="93" spans="1:16">
@@ -6011,10 +5964,10 @@
         <v>165</v>
       </c>
       <c r="O93">
-        <v>8.25394</v>
+        <v>7.7534</v>
       </c>
       <c r="P93">
-        <v>1.00066</v>
+        <v>0.93999</v>
       </c>
     </row>
     <row r="94" spans="1:16">
@@ -6061,10 +6014,10 @@
         <v>165</v>
       </c>
       <c r="O94">
-        <v>6.36319</v>
+        <v>6.00383</v>
       </c>
       <c r="P94">
-        <v>0.771471</v>
+        <v>0.727923</v>
       </c>
     </row>
     <row r="95" spans="1:16">
@@ -6111,10 +6064,10 @@
         <v>165</v>
       </c>
       <c r="O95">
-        <v>4.29948</v>
+        <v>4.04894</v>
       </c>
       <c r="P95">
-        <v>0.5213410000000001</v>
+        <v>0.490968</v>
       </c>
     </row>
     <row r="96" spans="1:16">
@@ -6155,16 +6108,16 @@
         <v>27</v>
       </c>
       <c r="M96" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="N96" t="s">
         <v>165</v>
       </c>
       <c r="O96">
-        <v>23.025</v>
+        <v>2.0465</v>
       </c>
       <c r="P96">
-        <v>2.79109</v>
+        <v>0.248248</v>
       </c>
     </row>
     <row r="97" spans="1:16">
@@ -6205,16 +6158,16 @@
         <v>27</v>
       </c>
       <c r="M97" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="N97" t="s">
         <v>165</v>
       </c>
       <c r="O97">
-        <v>20.6717</v>
+        <v>-0.00483067</v>
       </c>
       <c r="P97">
-        <v>2.50584</v>
+        <v>-0.000404302</v>
       </c>
     </row>
     <row r="98" spans="1:16">
@@ -6255,16 +6208,16 @@
         <v>27</v>
       </c>
       <c r="M98" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="N98" t="s">
         <v>165</v>
       </c>
       <c r="O98">
-        <v>18.4693</v>
+        <v>0.0449152</v>
       </c>
       <c r="P98">
-        <v>2.24485</v>
+        <v>0.00563145</v>
       </c>
     </row>
     <row r="99" spans="1:16">
@@ -6305,16 +6258,16 @@
         <v>27</v>
       </c>
       <c r="M99" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="N99" t="s">
         <v>165</v>
       </c>
       <c r="O99">
-        <v>16.2153</v>
+        <v>-2.05719</v>
       </c>
       <c r="P99">
-        <v>1.96568</v>
+        <v>-0.249173</v>
       </c>
     </row>
     <row r="100" spans="1:16">
@@ -6355,16 +6308,16 @@
         <v>27</v>
       </c>
       <c r="M100" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="N100" t="s">
         <v>165</v>
       </c>
       <c r="O100">
-        <v>15.5644</v>
+        <v>-3.959</v>
       </c>
       <c r="P100">
-        <v>1.88678</v>
+        <v>-0.479691</v>
       </c>
     </row>
     <row r="101" spans="1:16">
@@ -6405,16 +6358,16 @@
         <v>27</v>
       </c>
       <c r="M101" t="s">
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="N101" t="s">
         <v>165</v>
       </c>
       <c r="O101">
-        <v>13.1107</v>
+        <v>-5.96131</v>
       </c>
       <c r="P101">
-        <v>1.58936</v>
+        <v>-0.722396</v>
       </c>
     </row>
     <row r="102" spans="1:16">
@@ -6455,16 +6408,16 @@
         <v>27</v>
       </c>
       <c r="M102" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N102" t="s">
         <v>165</v>
       </c>
       <c r="O102">
-        <v>10.7072</v>
+        <v>-7.81305</v>
       </c>
       <c r="P102">
-        <v>1.29802</v>
+        <v>-0.946856</v>
       </c>
     </row>
     <row r="103" spans="1:16">
@@ -6505,16 +6458,16 @@
         <v>27</v>
       </c>
       <c r="M103" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="N103" t="s">
         <v>165</v>
       </c>
       <c r="O103">
-        <v>8.25394</v>
+        <v>-10.0151</v>
       </c>
       <c r="P103">
-        <v>1.00066</v>
+        <v>-1.21377</v>
       </c>
     </row>
     <row r="104" spans="1:16">
@@ -6555,16 +6508,16 @@
         <v>27</v>
       </c>
       <c r="M104" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="N104" t="s">
         <v>165</v>
       </c>
       <c r="O104">
-        <v>6.36319</v>
+        <v>-12.2677</v>
       </c>
       <c r="P104">
-        <v>0.771471</v>
+        <v>-1.48681</v>
       </c>
     </row>
     <row r="105" spans="1:16">
@@ -6605,16 +6558,16 @@
         <v>27</v>
       </c>
       <c r="M105" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="N105" t="s">
         <v>165</v>
       </c>
       <c r="O105">
-        <v>4.29948</v>
+        <v>-14.5205</v>
       </c>
       <c r="P105">
-        <v>0.5213410000000001</v>
+        <v>-1.75988</v>
       </c>
     </row>
     <row r="106" spans="1:16">
@@ -6655,16 +6608,16 @@
         <v>27</v>
       </c>
       <c r="M106" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="N106" t="s">
         <v>165</v>
       </c>
       <c r="O106">
-        <v>2.14766</v>
+        <v>-15.5706</v>
       </c>
       <c r="P106">
-        <v>0.260502</v>
+        <v>-1.88715</v>
       </c>
     </row>
     <row r="107" spans="1:16">
@@ -6705,16 +6658,16 @@
         <v>27</v>
       </c>
       <c r="M107" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="N107" t="s">
         <v>165</v>
       </c>
       <c r="O107">
-        <v>0.0448954</v>
+        <v>-17.8684</v>
       </c>
       <c r="P107">
-        <v>0.00562796</v>
+        <v>-2.16568</v>
       </c>
     </row>
     <row r="108" spans="1:16">
@@ -6755,16 +6708,16 @@
         <v>27</v>
       </c>
       <c r="M108" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="N108" t="s">
         <v>165</v>
       </c>
       <c r="O108">
-        <v>-0.00474354</v>
+        <v>-19.9256</v>
       </c>
       <c r="P108">
-        <v>-0.000388373</v>
+        <v>-2.41503</v>
       </c>
     </row>
     <row r="109" spans="1:16">
@@ -6805,16 +6758,16 @@
         <v>27</v>
       </c>
       <c r="M109" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="N109" t="s">
         <v>165</v>
       </c>
       <c r="O109">
-        <v>-2.15761</v>
+        <v>-22.0283</v>
       </c>
       <c r="P109">
-        <v>-0.26134</v>
+        <v>-2.66993</v>
       </c>
     </row>
     <row r="110" spans="1:16">
@@ -6855,16 +6808,16 @@
         <v>27</v>
       </c>
       <c r="M110" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="N110" t="s">
         <v>165</v>
       </c>
       <c r="O110">
-        <v>-4.2092</v>
+        <v>-23.981</v>
       </c>
       <c r="P110">
-        <v>-0.51001</v>
+        <v>-2.9066</v>
       </c>
     </row>
     <row r="111" spans="1:16">
@@ -6905,16 +6858,16 @@
         <v>27</v>
       </c>
       <c r="M111" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="N111" t="s">
         <v>165</v>
       </c>
       <c r="O111">
-        <v>-6.31153</v>
+        <v>-26.2825</v>
       </c>
       <c r="P111">
-        <v>-0.7648509999999999</v>
+        <v>-3.18557</v>
       </c>
     </row>
     <row r="112" spans="1:16">
@@ -6955,16 +6908,16 @@
         <v>27</v>
       </c>
       <c r="M112" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N112" t="s">
         <v>165</v>
       </c>
       <c r="O112">
-        <v>-8.36379</v>
+        <v>-28.4339</v>
       </c>
       <c r="P112">
-        <v>-1.0136</v>
+        <v>-3.44634</v>
       </c>
     </row>
     <row r="113" spans="1:16">
@@ -7005,16 +6958,16 @@
         <v>27</v>
       </c>
       <c r="M113" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="N113" t="s">
         <v>165</v>
       </c>
       <c r="O113">
-        <v>-10.716</v>
+        <v>-30.8348</v>
       </c>
       <c r="P113">
-        <v>-1.29872</v>
+        <v>-3.73736</v>
       </c>
     </row>
     <row r="114" spans="1:16">
@@ -7055,16 +7008,16 @@
         <v>27</v>
       </c>
       <c r="M114" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="N114" t="s">
         <v>165</v>
       </c>
       <c r="O114">
-        <v>-13.1187</v>
+        <v>-30.8348</v>
       </c>
       <c r="P114">
-        <v>-1.58996</v>
+        <v>-3.73737</v>
       </c>
     </row>
     <row r="115" spans="1:16">
@@ -7105,16 +7058,16 @@
         <v>27</v>
       </c>
       <c r="M115" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="N115" t="s">
         <v>165</v>
       </c>
       <c r="O115">
-        <v>-15.5713</v>
+        <v>-31.9861</v>
       </c>
       <c r="P115">
-        <v>-1.88725</v>
+        <v>-3.87691</v>
       </c>
     </row>
     <row r="116" spans="1:16">
@@ -7155,16 +7108,16 @@
         <v>27</v>
       </c>
       <c r="M116" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="N116" t="s">
         <v>165</v>
       </c>
       <c r="O116">
-        <v>-16.2718</v>
+        <v>-33.0867</v>
       </c>
       <c r="P116">
-        <v>-1.97215</v>
+        <v>-4.01032</v>
       </c>
     </row>
     <row r="117" spans="1:16">
@@ -7205,16 +7158,16 @@
         <v>27</v>
       </c>
       <c r="M117" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="N117" t="s">
         <v>165</v>
       </c>
       <c r="O117">
-        <v>-18.6245</v>
+        <v>-34.3374</v>
       </c>
       <c r="P117">
-        <v>-2.25733</v>
+        <v>-4.16192</v>
       </c>
     </row>
     <row r="118" spans="1:16">
@@ -7255,16 +7208,16 @@
         <v>27</v>
       </c>
       <c r="M118" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="N118" t="s">
         <v>165</v>
       </c>
-      <c r="O118">
-        <v>-20.7771</v>
+      <c r="O118" s="3">
+        <v>-35.1868</v>
       </c>
       <c r="P118">
-        <v>-2.51825</v>
+        <v>-4.26488</v>
       </c>
     </row>
     <row r="119" spans="1:16">
@@ -7305,16 +7258,16 @@
         <v>27</v>
       </c>
       <c r="M119" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="N119" t="s">
         <v>165</v>
       </c>
-      <c r="O119">
-        <v>-23.0292</v>
+      <c r="O119" s="3">
+        <v>-36.3887</v>
       </c>
       <c r="P119">
-        <v>-2.79122</v>
+        <v>-4.41057</v>
       </c>
     </row>
     <row r="120" spans="1:16">
@@ -7355,16 +7308,16 @@
         <v>27</v>
       </c>
       <c r="M120" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="N120" t="s">
         <v>165</v>
       </c>
-      <c r="O120">
-        <v>-25.0317</v>
+      <c r="O120" s="3">
+        <v>-37.4893</v>
       </c>
       <c r="P120">
-        <v>-3.03396</v>
+        <v>-4.54397</v>
       </c>
     </row>
     <row r="121" spans="1:16">
@@ -7405,16 +7358,16 @@
         <v>27</v>
       </c>
       <c r="M121" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="N121" t="s">
         <v>165</v>
       </c>
-      <c r="O121">
-        <v>-27.4317</v>
+      <c r="O121" s="3">
+        <v>-38.6901</v>
       </c>
       <c r="P121">
-        <v>-3.31901</v>
+        <v>-4.68952</v>
       </c>
     </row>
     <row r="122" spans="1:16">
@@ -7455,16 +7408,16 @@
         <v>27</v>
       </c>
       <c r="M122" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="N122" t="s">
         <v>165</v>
       </c>
-      <c r="O122">
-        <v>-29.6846</v>
+      <c r="O122" s="3">
+        <v>-38.4397</v>
       </c>
       <c r="P122">
-        <v>-3.59795</v>
+        <v>-4.65917</v>
       </c>
     </row>
     <row r="123" spans="1:16">
@@ -7505,16 +7458,16 @@
         <v>27</v>
       </c>
       <c r="M123" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="N123" t="s">
         <v>165</v>
       </c>
-      <c r="O123">
-        <v>-32.036</v>
+      <c r="O123" s="3">
+        <v>-39.6406</v>
       </c>
       <c r="P123">
-        <v>-3.88297</v>
+        <v>-4.80474</v>
       </c>
     </row>
     <row r="124" spans="1:16">
@@ -7555,16 +7508,16 @@
         <v>27</v>
       </c>
       <c r="M124" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="N124" t="s">
         <v>165</v>
       </c>
-      <c r="O124">
-        <v>-32.0831</v>
+      <c r="O124" s="3">
+        <v>-40.7918</v>
       </c>
       <c r="P124">
-        <v>-3.88868</v>
+        <v>-4.94426</v>
       </c>
     </row>
     <row r="125" spans="1:16">
@@ -7605,16 +7558,16 @@
         <v>27</v>
       </c>
       <c r="M125" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="N125" t="s">
         <v>165</v>
       </c>
-      <c r="O125">
-        <v>-33.2865</v>
+      <c r="O125" s="3">
+        <v>-41.9926</v>
       </c>
       <c r="P125">
-        <v>-4.03454</v>
+        <v>-5.08982</v>
       </c>
     </row>
     <row r="126" spans="1:16">
@@ -7655,16 +7608,16 @@
         <v>27</v>
       </c>
       <c r="M126" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="N126" t="s">
         <v>165</v>
       </c>
-      <c r="O126">
-        <v>-34.3374</v>
+      <c r="O126" s="3">
+        <v>-42.7922</v>
       </c>
       <c r="P126">
-        <v>-4.16191</v>
+        <v>-5.18674</v>
       </c>
     </row>
     <row r="127" spans="1:16">
@@ -7705,16 +7658,16 @@
         <v>27</v>
       </c>
       <c r="M127" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="N127" t="s">
         <v>165</v>
       </c>
       <c r="O127" s="3">
-        <v>-35.588</v>
+        <v>-43.9937</v>
       </c>
       <c r="P127">
-        <v>-4.31351</v>
+        <v>-5.33239</v>
       </c>
     </row>
     <row r="128" spans="1:16">
@@ -7755,16 +7708,16 @@
         <v>27</v>
       </c>
       <c r="M128" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="N128" t="s">
         <v>165</v>
       </c>
       <c r="O128" s="3">
-        <v>-36.3384</v>
+        <v>-45.2945</v>
       </c>
       <c r="P128">
-        <v>-4.40448</v>
+        <v>-5.49007</v>
       </c>
     </row>
     <row r="129" spans="1:16">
@@ -7805,16 +7758,16 @@
         <v>27</v>
       </c>
       <c r="M129" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="N129" t="s">
         <v>165</v>
       </c>
       <c r="O129" s="3">
-        <v>-37.5394</v>
+        <v>-46.6452</v>
       </c>
       <c r="P129">
-        <v>-4.55004</v>
+        <v>-5.65377</v>
       </c>
     </row>
     <row r="130" spans="1:16">
@@ -7822,31 +7775,31 @@
         <v>229</v>
       </c>
       <c r="B130" t="s">
-        <v>156</v>
+        <v>230</v>
       </c>
       <c r="C130" t="s">
-        <v>157</v>
+        <v>231</v>
       </c>
       <c r="D130" t="s">
-        <v>158</v>
+        <v>232</v>
       </c>
       <c r="E130" t="s">
-        <v>159</v>
+        <v>233</v>
       </c>
       <c r="F130" t="s">
-        <v>160</v>
+        <v>234</v>
       </c>
       <c r="G130" t="s">
-        <v>161</v>
+        <v>235</v>
       </c>
       <c r="H130" t="s">
-        <v>162</v>
+        <v>236</v>
       </c>
       <c r="I130" t="s">
-        <v>163</v>
+        <v>237</v>
       </c>
       <c r="J130" t="s">
-        <v>164</v>
+        <v>238</v>
       </c>
       <c r="K130" t="s">
         <v>26</v>
@@ -7855,48 +7808,48 @@
         <v>27</v>
       </c>
       <c r="M130" t="s">
-        <v>136</v>
+        <v>28</v>
       </c>
       <c r="N130" t="s">
-        <v>165</v>
-      </c>
-      <c r="O130" s="3">
-        <v>-38.6399</v>
+        <v>239</v>
+      </c>
+      <c r="O130">
+        <v>27.6514</v>
       </c>
       <c r="P130">
-        <v>-4.68344</v>
+        <v>4.10458</v>
       </c>
     </row>
     <row r="131" spans="1:16">
       <c r="A131" t="s">
+        <v>240</v>
+      </c>
+      <c r="B131" t="s">
         <v>230</v>
       </c>
-      <c r="B131" t="s">
-        <v>156</v>
-      </c>
       <c r="C131" t="s">
-        <v>157</v>
+        <v>231</v>
       </c>
       <c r="D131" t="s">
-        <v>158</v>
+        <v>232</v>
       </c>
       <c r="E131" t="s">
-        <v>159</v>
+        <v>233</v>
       </c>
       <c r="F131" t="s">
-        <v>160</v>
+        <v>234</v>
       </c>
       <c r="G131" t="s">
-        <v>161</v>
+        <v>235</v>
       </c>
       <c r="H131" t="s">
-        <v>162</v>
+        <v>236</v>
       </c>
       <c r="I131" t="s">
-        <v>163</v>
+        <v>237</v>
       </c>
       <c r="J131" t="s">
-        <v>164</v>
+        <v>238</v>
       </c>
       <c r="K131" t="s">
         <v>26</v>
@@ -7905,48 +7858,48 @@
         <v>27</v>
       </c>
       <c r="M131" t="s">
-        <v>138</v>
+        <v>31</v>
       </c>
       <c r="N131" t="s">
-        <v>165</v>
-      </c>
-      <c r="O131" s="3">
-        <v>-39.7909</v>
+        <v>239</v>
+      </c>
+      <c r="O131">
+        <v>27.0308</v>
       </c>
       <c r="P131">
-        <v>-4.82295</v>
+        <v>4.0052</v>
       </c>
     </row>
     <row r="132" spans="1:16">
       <c r="A132" t="s">
+        <v>241</v>
+      </c>
+      <c r="B132" t="s">
+        <v>230</v>
+      </c>
+      <c r="C132" t="s">
         <v>231</v>
       </c>
-      <c r="B132" t="s">
-        <v>156</v>
-      </c>
-      <c r="C132" t="s">
-        <v>157</v>
-      </c>
       <c r="D132" t="s">
-        <v>158</v>
+        <v>232</v>
       </c>
       <c r="E132" t="s">
-        <v>159</v>
+        <v>233</v>
       </c>
       <c r="F132" t="s">
-        <v>160</v>
+        <v>234</v>
       </c>
       <c r="G132" t="s">
-        <v>161</v>
+        <v>235</v>
       </c>
       <c r="H132" t="s">
-        <v>162</v>
+        <v>236</v>
       </c>
       <c r="I132" t="s">
-        <v>163</v>
+        <v>237</v>
       </c>
       <c r="J132" t="s">
-        <v>164</v>
+        <v>238</v>
       </c>
       <c r="K132" t="s">
         <v>26</v>
@@ -7955,48 +7908,48 @@
         <v>27</v>
       </c>
       <c r="M132" t="s">
-        <v>140</v>
+        <v>33</v>
       </c>
       <c r="N132" t="s">
-        <v>165</v>
-      </c>
-      <c r="O132" s="3">
-        <v>-39.4405</v>
+        <v>239</v>
+      </c>
+      <c r="O132">
+        <v>26.8713</v>
       </c>
       <c r="P132">
-        <v>-4.78048</v>
+        <v>3.98156</v>
       </c>
     </row>
     <row r="133" spans="1:16">
       <c r="A133" t="s">
+        <v>242</v>
+      </c>
+      <c r="B133" t="s">
+        <v>230</v>
+      </c>
+      <c r="C133" t="s">
+        <v>231</v>
+      </c>
+      <c r="D133" t="s">
         <v>232</v>
       </c>
-      <c r="B133" t="s">
-        <v>156</v>
-      </c>
-      <c r="C133" t="s">
-        <v>157</v>
-      </c>
-      <c r="D133" t="s">
-        <v>158</v>
-      </c>
       <c r="E133" t="s">
-        <v>159</v>
+        <v>233</v>
       </c>
       <c r="F133" t="s">
-        <v>160</v>
+        <v>234</v>
       </c>
       <c r="G133" t="s">
-        <v>161</v>
+        <v>235</v>
       </c>
       <c r="H133" t="s">
-        <v>162</v>
+        <v>236</v>
       </c>
       <c r="I133" t="s">
-        <v>163</v>
+        <v>237</v>
       </c>
       <c r="J133" t="s">
-        <v>164</v>
+        <v>238</v>
       </c>
       <c r="K133" t="s">
         <v>26</v>
@@ -8005,48 +7958,48 @@
         <v>27</v>
       </c>
       <c r="M133" t="s">
-        <v>142</v>
+        <v>35</v>
       </c>
       <c r="N133" t="s">
-        <v>165</v>
-      </c>
-      <c r="O133" s="3">
-        <v>-40.6415</v>
+        <v>239</v>
+      </c>
+      <c r="O133">
+        <v>26.2004</v>
       </c>
       <c r="P133">
-        <v>-4.92605</v>
+        <v>3.88221</v>
       </c>
     </row>
     <row r="134" spans="1:16">
       <c r="A134" t="s">
+        <v>243</v>
+      </c>
+      <c r="B134" t="s">
+        <v>230</v>
+      </c>
+      <c r="C134" t="s">
+        <v>231</v>
+      </c>
+      <c r="D134" t="s">
+        <v>232</v>
+      </c>
+      <c r="E134" t="s">
         <v>233</v>
       </c>
-      <c r="B134" t="s">
-        <v>156</v>
-      </c>
-      <c r="C134" t="s">
-        <v>157</v>
-      </c>
-      <c r="D134" t="s">
-        <v>158</v>
-      </c>
-      <c r="E134" t="s">
-        <v>159</v>
-      </c>
       <c r="F134" t="s">
-        <v>160</v>
+        <v>234</v>
       </c>
       <c r="G134" t="s">
-        <v>161</v>
+        <v>235</v>
       </c>
       <c r="H134" t="s">
-        <v>162</v>
+        <v>236</v>
       </c>
       <c r="I134" t="s">
-        <v>163</v>
+        <v>237</v>
       </c>
       <c r="J134" t="s">
-        <v>164</v>
+        <v>238</v>
       </c>
       <c r="K134" t="s">
         <v>26</v>
@@ -8055,48 +8008,48 @@
         <v>27</v>
       </c>
       <c r="M134" t="s">
-        <v>144</v>
+        <v>37</v>
       </c>
       <c r="N134" t="s">
-        <v>165</v>
-      </c>
-      <c r="O134" s="3">
-        <v>-41.7922</v>
+        <v>239</v>
+      </c>
+      <c r="O134">
+        <v>25.7864</v>
       </c>
       <c r="P134">
-        <v>-5.06553</v>
+        <v>3.82084</v>
       </c>
     </row>
     <row r="135" spans="1:16">
       <c r="A135" t="s">
+        <v>244</v>
+      </c>
+      <c r="B135" t="s">
+        <v>230</v>
+      </c>
+      <c r="C135" t="s">
+        <v>231</v>
+      </c>
+      <c r="D135" t="s">
+        <v>232</v>
+      </c>
+      <c r="E135" t="s">
+        <v>233</v>
+      </c>
+      <c r="F135" t="s">
         <v>234</v>
       </c>
-      <c r="B135" t="s">
-        <v>156</v>
-      </c>
-      <c r="C135" t="s">
-        <v>157</v>
-      </c>
-      <c r="D135" t="s">
-        <v>158</v>
-      </c>
-      <c r="E135" t="s">
-        <v>159</v>
-      </c>
-      <c r="F135" t="s">
-        <v>160</v>
-      </c>
       <c r="G135" t="s">
-        <v>161</v>
+        <v>235</v>
       </c>
       <c r="H135" t="s">
-        <v>162</v>
+        <v>236</v>
       </c>
       <c r="I135" t="s">
-        <v>163</v>
+        <v>237</v>
       </c>
       <c r="J135" t="s">
-        <v>164</v>
+        <v>238</v>
       </c>
       <c r="K135" t="s">
         <v>26</v>
@@ -8105,48 +8058,48 @@
         <v>27</v>
       </c>
       <c r="M135" t="s">
-        <v>146</v>
+        <v>39</v>
       </c>
       <c r="N135" t="s">
-        <v>165</v>
-      </c>
-      <c r="O135" s="3">
-        <v>-42.9431</v>
+        <v>239</v>
+      </c>
+      <c r="O135">
+        <v>24.9608</v>
       </c>
       <c r="P135">
-        <v>-5.20504</v>
+        <v>3.70603</v>
       </c>
     </row>
     <row r="136" spans="1:16">
       <c r="A136" t="s">
+        <v>245</v>
+      </c>
+      <c r="B136" t="s">
+        <v>230</v>
+      </c>
+      <c r="C136" t="s">
+        <v>231</v>
+      </c>
+      <c r="D136" t="s">
+        <v>232</v>
+      </c>
+      <c r="E136" t="s">
+        <v>233</v>
+      </c>
+      <c r="F136" t="s">
+        <v>234</v>
+      </c>
+      <c r="G136" t="s">
         <v>235</v>
       </c>
-      <c r="B136" t="s">
-        <v>156</v>
-      </c>
-      <c r="C136" t="s">
-        <v>157</v>
-      </c>
-      <c r="D136" t="s">
-        <v>158</v>
-      </c>
-      <c r="E136" t="s">
-        <v>159</v>
-      </c>
-      <c r="F136" t="s">
-        <v>160</v>
-      </c>
-      <c r="G136" t="s">
-        <v>161</v>
-      </c>
       <c r="H136" t="s">
-        <v>162</v>
+        <v>236</v>
       </c>
       <c r="I136" t="s">
-        <v>163</v>
+        <v>237</v>
       </c>
       <c r="J136" t="s">
-        <v>164</v>
+        <v>238</v>
       </c>
       <c r="K136" t="s">
         <v>26</v>
@@ -8155,48 +8108,48 @@
         <v>27</v>
       </c>
       <c r="M136" t="s">
-        <v>148</v>
+        <v>41</v>
       </c>
       <c r="N136" t="s">
-        <v>165</v>
-      </c>
-      <c r="O136" s="3">
-        <v>-43.6934</v>
+        <v>239</v>
+      </c>
+      <c r="O136">
+        <v>24.3404</v>
       </c>
       <c r="P136">
-        <v>-5.29598</v>
+        <v>3.60659</v>
       </c>
     </row>
     <row r="137" spans="1:16">
       <c r="A137" t="s">
+        <v>246</v>
+      </c>
+      <c r="B137" t="s">
+        <v>230</v>
+      </c>
+      <c r="C137" t="s">
+        <v>231</v>
+      </c>
+      <c r="D137" t="s">
+        <v>232</v>
+      </c>
+      <c r="E137" t="s">
+        <v>233</v>
+      </c>
+      <c r="F137" t="s">
+        <v>234</v>
+      </c>
+      <c r="G137" t="s">
+        <v>235</v>
+      </c>
+      <c r="H137" t="s">
         <v>236</v>
       </c>
-      <c r="B137" t="s">
-        <v>156</v>
-      </c>
-      <c r="C137" t="s">
-        <v>157</v>
-      </c>
-      <c r="D137" t="s">
-        <v>158</v>
-      </c>
-      <c r="E137" t="s">
-        <v>159</v>
-      </c>
-      <c r="F137" t="s">
-        <v>160</v>
-      </c>
-      <c r="G137" t="s">
-        <v>161</v>
-      </c>
-      <c r="H137" t="s">
-        <v>162</v>
-      </c>
       <c r="I137" t="s">
-        <v>163</v>
+        <v>237</v>
       </c>
       <c r="J137" t="s">
-        <v>164</v>
+        <v>238</v>
       </c>
       <c r="K137" t="s">
         <v>26</v>
@@ -8205,48 +8158,48 @@
         <v>27</v>
       </c>
       <c r="M137" t="s">
-        <v>150</v>
+        <v>43</v>
       </c>
       <c r="N137" t="s">
-        <v>165</v>
-      </c>
-      <c r="O137" s="3">
-        <v>-44.9944</v>
+        <v>239</v>
+      </c>
+      <c r="O137">
+        <v>23.6168</v>
       </c>
       <c r="P137">
-        <v>-5.45368</v>
+        <v>3.49942</v>
       </c>
     </row>
     <row r="138" spans="1:16">
       <c r="A138" t="s">
+        <v>247</v>
+      </c>
+      <c r="B138" t="s">
+        <v>230</v>
+      </c>
+      <c r="C138" t="s">
+        <v>231</v>
+      </c>
+      <c r="D138" t="s">
+        <v>232</v>
+      </c>
+      <c r="E138" t="s">
+        <v>233</v>
+      </c>
+      <c r="F138" t="s">
+        <v>234</v>
+      </c>
+      <c r="G138" t="s">
+        <v>235</v>
+      </c>
+      <c r="H138" t="s">
+        <v>236</v>
+      </c>
+      <c r="I138" t="s">
         <v>237</v>
       </c>
-      <c r="B138" t="s">
-        <v>156</v>
-      </c>
-      <c r="C138" t="s">
-        <v>157</v>
-      </c>
-      <c r="D138" t="s">
-        <v>158</v>
-      </c>
-      <c r="E138" t="s">
-        <v>159</v>
-      </c>
-      <c r="F138" t="s">
-        <v>160</v>
-      </c>
-      <c r="G138" t="s">
-        <v>161</v>
-      </c>
-      <c r="H138" t="s">
-        <v>162</v>
-      </c>
-      <c r="I138" t="s">
-        <v>163</v>
-      </c>
       <c r="J138" t="s">
-        <v>164</v>
+        <v>238</v>
       </c>
       <c r="K138" t="s">
         <v>26</v>
@@ -8255,49 +8208,49 @@
         <v>27</v>
       </c>
       <c r="M138" t="s">
-        <v>152</v>
+        <v>45</v>
       </c>
       <c r="N138" t="s">
-        <v>165</v>
-      </c>
-      <c r="O138" s="3">
-        <v>-46.1451</v>
+        <v>239</v>
+      </c>
+      <c r="O138">
+        <v>23.9314</v>
       </c>
       <c r="P138">
-        <v>-5.59315</v>
+        <v>3.55293</v>
       </c>
     </row>
     <row r="139" spans="1:16">
       <c r="A139" t="s">
+        <v>248</v>
+      </c>
+      <c r="B139" t="s">
+        <v>230</v>
+      </c>
+      <c r="C139" t="s">
+        <v>231</v>
+      </c>
+      <c r="D139" t="s">
+        <v>232</v>
+      </c>
+      <c r="E139" t="s">
+        <v>233</v>
+      </c>
+      <c r="F139" t="s">
+        <v>234</v>
+      </c>
+      <c r="G139" t="s">
+        <v>235</v>
+      </c>
+      <c r="H139" t="s">
+        <v>236</v>
+      </c>
+      <c r="I139" t="s">
+        <v>237</v>
+      </c>
+      <c r="J139" t="s">
         <v>238</v>
       </c>
-      <c r="B139" t="s">
-        <v>156</v>
-      </c>
-      <c r="C139" t="s">
-        <v>157</v>
-      </c>
-      <c r="D139" t="s">
-        <v>158</v>
-      </c>
-      <c r="E139" t="s">
-        <v>159</v>
-      </c>
-      <c r="F139" t="s">
-        <v>160</v>
-      </c>
-      <c r="G139" t="s">
-        <v>161</v>
-      </c>
-      <c r="H139" t="s">
-        <v>162</v>
-      </c>
-      <c r="I139" t="s">
-        <v>163</v>
-      </c>
-      <c r="J139" t="s">
-        <v>164</v>
-      </c>
       <c r="K139" t="s">
         <v>26</v>
       </c>
@@ -8305,66 +8258,66 @@
         <v>27</v>
       </c>
       <c r="M139" t="s">
-        <v>154</v>
+        <v>47</v>
       </c>
       <c r="N139" t="s">
-        <v>165</v>
-      </c>
-      <c r="O139" s="3">
-        <v>-47.4959</v>
+        <v>239</v>
+      </c>
+      <c r="O139">
+        <v>23.3067</v>
       </c>
       <c r="P139">
-        <v>-5.7569</v>
+        <v>3.4535</v>
       </c>
     </row>
     <row r="140" spans="1:16">
       <c r="A140" t="s">
+        <v>249</v>
+      </c>
+      <c r="B140" t="s">
+        <v>230</v>
+      </c>
+      <c r="C140" t="s">
+        <v>231</v>
+      </c>
+      <c r="D140" t="s">
+        <v>232</v>
+      </c>
+      <c r="E140" t="s">
+        <v>233</v>
+      </c>
+      <c r="F140" t="s">
+        <v>234</v>
+      </c>
+      <c r="G140" t="s">
+        <v>235</v>
+      </c>
+      <c r="H140" t="s">
+        <v>236</v>
+      </c>
+      <c r="I140" t="s">
+        <v>237</v>
+      </c>
+      <c r="J140" t="s">
+        <v>238</v>
+      </c>
+      <c r="K140" t="s">
+        <v>26</v>
+      </c>
+      <c r="L140" t="s">
+        <v>27</v>
+      </c>
+      <c r="M140" t="s">
+        <v>49</v>
+      </c>
+      <c r="N140" t="s">
         <v>239</v>
       </c>
-      <c r="B140" t="s">
-        <v>240</v>
-      </c>
-      <c r="C140" t="s">
-        <v>241</v>
-      </c>
-      <c r="D140" t="s">
-        <v>242</v>
-      </c>
-      <c r="E140" t="s">
-        <v>243</v>
-      </c>
-      <c r="F140" t="s">
-        <v>244</v>
-      </c>
-      <c r="G140" t="s">
-        <v>245</v>
-      </c>
-      <c r="H140" t="s">
-        <v>246</v>
-      </c>
-      <c r="I140" t="s">
-        <v>247</v>
-      </c>
-      <c r="J140" t="s">
-        <v>248</v>
-      </c>
-      <c r="K140" t="s">
-        <v>26</v>
-      </c>
-      <c r="L140" t="s">
-        <v>27</v>
-      </c>
-      <c r="M140" t="s">
-        <v>28</v>
-      </c>
-      <c r="N140" t="s">
-        <v>249</v>
-      </c>
       <c r="O140">
-        <v>28.3224</v>
+        <v>22.688</v>
       </c>
       <c r="P140">
-        <v>4.19654</v>
+        <v>3.36183</v>
       </c>
     </row>
     <row r="141" spans="1:16">
@@ -8372,31 +8325,31 @@
         <v>250</v>
       </c>
       <c r="B141" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C141" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D141" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="E141" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="F141" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="G141" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="H141" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="I141" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="J141" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="K141" t="s">
         <v>26</v>
@@ -8405,16 +8358,16 @@
         <v>27</v>
       </c>
       <c r="M141" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="N141" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="O141">
-        <v>27.5989</v>
+        <v>22.0675</v>
       </c>
       <c r="P141">
-        <v>4.08935</v>
+        <v>3.26992</v>
       </c>
     </row>
     <row r="142" spans="1:16">
@@ -8422,31 +8375,31 @@
         <v>251</v>
       </c>
       <c r="B142" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C142" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D142" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="E142" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="F142" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="G142" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="H142" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="I142" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="J142" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="K142" t="s">
         <v>26</v>
@@ -8455,16 +8408,16 @@
         <v>27</v>
       </c>
       <c r="M142" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="N142" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="O142">
-        <v>26.8236</v>
+        <v>21.6028</v>
       </c>
       <c r="P142">
-        <v>3.98161</v>
+        <v>3.20107</v>
       </c>
     </row>
     <row r="143" spans="1:16">
@@ -8472,31 +8425,31 @@
         <v>252</v>
       </c>
       <c r="B143" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C143" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D143" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="E143" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="F143" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="G143" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="H143" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="I143" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="J143" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="K143" t="s">
         <v>26</v>
@@ -8505,16 +8458,16 @@
         <v>27</v>
       </c>
       <c r="M143" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="N143" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="O143">
-        <v>26.3028</v>
+        <v>20.8824</v>
       </c>
       <c r="P143">
-        <v>3.89732</v>
+        <v>3.10146</v>
       </c>
     </row>
     <row r="144" spans="1:16">
@@ -8522,31 +8475,31 @@
         <v>253</v>
       </c>
       <c r="B144" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C144" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D144" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="E144" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="F144" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="G144" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="H144" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="I144" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="J144" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="K144" t="s">
         <v>26</v>
@@ -8555,16 +8508,16 @@
         <v>27</v>
       </c>
       <c r="M144" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="N144" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="O144">
-        <v>25.7354</v>
+        <v>20.4146</v>
       </c>
       <c r="P144">
-        <v>3.81328</v>
+        <v>3.02502</v>
       </c>
     </row>
     <row r="145" spans="1:16">
@@ -8572,31 +8525,31 @@
         <v>254</v>
       </c>
       <c r="B145" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C145" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D145" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="E145" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="F145" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="G145" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="H145" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="I145" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="J145" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="K145" t="s">
         <v>26</v>
@@ -8605,16 +8558,16 @@
         <v>27</v>
       </c>
       <c r="M145" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="N145" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="O145">
-        <v>25.013</v>
+        <v>19.6399</v>
       </c>
       <c r="P145">
-        <v>3.71369</v>
+        <v>2.91789</v>
       </c>
     </row>
     <row r="146" spans="1:16">
@@ -8622,31 +8575,31 @@
         <v>255</v>
       </c>
       <c r="B146" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C146" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D146" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="E146" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="F146" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="G146" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="H146" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="I146" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="J146" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="K146" t="s">
         <v>26</v>
@@ -8655,16 +8608,16 @@
         <v>27</v>
       </c>
       <c r="M146" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="N146" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="O146">
-        <v>24.3936</v>
+        <v>19.6448</v>
       </c>
       <c r="P146">
-        <v>3.62189</v>
+        <v>2.91089</v>
       </c>
     </row>
     <row r="147" spans="1:16">
@@ -8672,31 +8625,31 @@
         <v>256</v>
       </c>
       <c r="B147" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C147" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D147" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="E147" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="F147" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="G147" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="H147" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="I147" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="J147" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="K147" t="s">
         <v>26</v>
@@ -8705,16 +8658,16 @@
         <v>27</v>
       </c>
       <c r="M147" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="N147" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="O147">
-        <v>23.7715</v>
+        <v>18.2965</v>
       </c>
       <c r="P147">
-        <v>3.5224</v>
+        <v>2.71122</v>
       </c>
     </row>
     <row r="148" spans="1:16">
@@ -8722,31 +8675,31 @@
         <v>257</v>
       </c>
       <c r="B148" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C148" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D148" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="E148" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="F148" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="G148" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="H148" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="I148" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="J148" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="K148" t="s">
         <v>26</v>
@@ -8755,16 +8708,16 @@
         <v>27</v>
       </c>
       <c r="M148" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="N148" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="O148">
-        <v>23.9274</v>
+        <v>17.0551</v>
       </c>
       <c r="P148">
-        <v>3.54547</v>
+        <v>2.52736</v>
       </c>
     </row>
     <row r="149" spans="1:16">
@@ -8772,31 +8725,31 @@
         <v>258</v>
       </c>
       <c r="B149" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C149" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D149" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="E149" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="F149" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="G149" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="H149" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="I149" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="J149" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="K149" t="s">
         <v>26</v>
@@ -8805,16 +8758,16 @@
         <v>27</v>
       </c>
       <c r="M149" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="N149" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="O149">
-        <v>23.2585</v>
+        <v>15.7638</v>
       </c>
       <c r="P149">
-        <v>3.45341</v>
+        <v>2.3435</v>
       </c>
     </row>
     <row r="150" spans="1:16">
@@ -8822,31 +8775,31 @@
         <v>259</v>
       </c>
       <c r="B150" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C150" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D150" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="E150" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="F150" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="G150" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="H150" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="I150" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="J150" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="K150" t="s">
         <v>26</v>
@@ -8855,16 +8808,16 @@
         <v>27</v>
       </c>
       <c r="M150" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="N150" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="O150">
-        <v>22.6358</v>
+        <v>14.8325</v>
       </c>
       <c r="P150">
-        <v>3.35414</v>
+        <v>2.19803</v>
       </c>
     </row>
     <row r="151" spans="1:16">
@@ -8872,31 +8825,31 @@
         <v>260</v>
       </c>
       <c r="B151" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C151" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D151" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="E151" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="F151" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="G151" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="H151" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="I151" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="J151" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="K151" t="s">
         <v>26</v>
@@ -8905,16 +8858,16 @@
         <v>27</v>
       </c>
       <c r="M151" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="N151" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="O151">
-        <v>22.1708</v>
+        <v>13.4881</v>
       </c>
       <c r="P151">
-        <v>3.2852</v>
+        <v>1.99885</v>
       </c>
     </row>
     <row r="152" spans="1:16">
@@ -8922,31 +8875,31 @@
         <v>261</v>
       </c>
       <c r="B152" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C152" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D152" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="E152" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="F152" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="G152" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="H152" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="I152" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="J152" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="K152" t="s">
         <v>26</v>
@@ -8955,16 +8908,16 @@
         <v>27</v>
       </c>
       <c r="M152" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="N152" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="O152">
-        <v>21.8092</v>
+        <v>12.0413</v>
       </c>
       <c r="P152">
-        <v>3.23165</v>
+        <v>1.78453</v>
       </c>
     </row>
     <row r="153" spans="1:16">
@@ -8972,31 +8925,31 @@
         <v>262</v>
       </c>
       <c r="B153" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C153" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D153" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="E153" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="F153" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="G153" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="H153" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="I153" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="J153" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="K153" t="s">
         <v>26</v>
@@ -9005,16 +8958,16 @@
         <v>27</v>
       </c>
       <c r="M153" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="N153" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="O153">
-        <v>21.1896</v>
+        <v>10.5421</v>
       </c>
       <c r="P153">
-        <v>3.13986</v>
+        <v>1.56244</v>
       </c>
     </row>
     <row r="154" spans="1:16">
@@ -9022,31 +8975,31 @@
         <v>263</v>
       </c>
       <c r="B154" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C154" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D154" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="E154" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="F154" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="G154" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="H154" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="I154" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="J154" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="K154" t="s">
         <v>26</v>
@@ -9055,16 +9008,16 @@
         <v>27</v>
       </c>
       <c r="M154" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="N154" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="O154">
-        <v>20.4771</v>
+        <v>10.3354</v>
       </c>
       <c r="P154">
-        <v>3.03422</v>
+        <v>1.53182</v>
       </c>
     </row>
     <row r="155" spans="1:16">
@@ -9072,31 +9025,31 @@
         <v>264</v>
       </c>
       <c r="B155" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C155" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D155" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="E155" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="F155" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="G155" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="H155" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="I155" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="J155" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="K155" t="s">
         <v>26</v>
@@ -9105,16 +9058,16 @@
         <v>27</v>
       </c>
       <c r="M155" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="N155" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="O155">
-        <v>19.9557</v>
+        <v>8.73263</v>
       </c>
       <c r="P155">
-        <v>2.95696</v>
+        <v>1.29432</v>
       </c>
     </row>
     <row r="156" spans="1:16">
@@ -9122,31 +9075,31 @@
         <v>265</v>
       </c>
       <c r="B156" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C156" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D156" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="E156" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="F156" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="G156" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="H156" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="I156" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="J156" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="K156" t="s">
         <v>26</v>
@@ -9155,16 +9108,16 @@
         <v>27</v>
       </c>
       <c r="M156" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="N156" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="O156">
-        <v>19.7948</v>
+        <v>7.13173</v>
       </c>
       <c r="P156">
-        <v>2.9332</v>
+        <v>1.06468</v>
       </c>
     </row>
     <row r="157" spans="1:16">
@@ -9172,31 +9125,31 @@
         <v>266</v>
       </c>
       <c r="B157" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C157" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D157" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="E157" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="F157" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="G157" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="H157" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="I157" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="J157" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="K157" t="s">
         <v>26</v>
@@ -9205,16 +9158,16 @@
         <v>27</v>
       </c>
       <c r="M157" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="N157" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="O157">
-        <v>18.5536</v>
+        <v>5.54459</v>
       </c>
       <c r="P157">
-        <v>2.74932</v>
+        <v>0.822257</v>
       </c>
     </row>
     <row r="158" spans="1:16">
@@ -9222,31 +9175,31 @@
         <v>267</v>
       </c>
       <c r="B158" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C158" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D158" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="E158" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="F158" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="G158" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="H158" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="I158" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="J158" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="K158" t="s">
         <v>26</v>
@@ -9255,16 +9208,16 @@
         <v>27</v>
       </c>
       <c r="M158" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="N158" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="O158">
-        <v>17.3136</v>
+        <v>4.44367</v>
       </c>
       <c r="P158">
-        <v>2.56562</v>
+        <v>0.658942</v>
       </c>
     </row>
     <row r="159" spans="1:16">
@@ -9272,31 +9225,31 @@
         <v>268</v>
       </c>
       <c r="B159" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C159" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D159" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="E159" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="F159" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="G159" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="H159" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="I159" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="J159" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="K159" t="s">
         <v>26</v>
@@ -9305,16 +9258,16 @@
         <v>27</v>
       </c>
       <c r="M159" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="N159" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="O159">
-        <v>15.9171</v>
+        <v>2.94419</v>
       </c>
       <c r="P159">
-        <v>2.35874</v>
+        <v>0.436778</v>
       </c>
     </row>
     <row r="160" spans="1:16">
@@ -9322,31 +9275,31 @@
         <v>269</v>
       </c>
       <c r="B160" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C160" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D160" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="E160" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="F160" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="G160" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="H160" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="I160" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="J160" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="K160" t="s">
         <v>26</v>
@@ -9355,16 +9308,16 @@
         <v>27</v>
       </c>
       <c r="M160" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="N160" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="O160">
-        <v>14.9444</v>
+        <v>1.49715</v>
       </c>
       <c r="P160">
-        <v>2.21457</v>
+        <v>0.222433</v>
       </c>
     </row>
     <row r="161" spans="1:16">
@@ -9372,31 +9325,31 @@
         <v>270</v>
       </c>
       <c r="B161" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C161" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D161" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="E161" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="F161" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="G161" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="H161" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="I161" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="J161" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="K161" t="s">
         <v>26</v>
@@ -9405,16 +9358,16 @@
         <v>27</v>
       </c>
       <c r="M161" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="N161" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="O161">
-        <v>13.4888</v>
+        <v>0.100959</v>
       </c>
       <c r="P161">
-        <v>1.99901</v>
+        <v>0.0155621</v>
       </c>
     </row>
     <row r="162" spans="1:16">
@@ -9422,31 +9375,31 @@
         <v>271</v>
       </c>
       <c r="B162" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C162" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D162" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="E162" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="F162" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="G162" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="H162" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="I162" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="J162" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="K162" t="s">
         <v>26</v>
@@ -9455,16 +9408,16 @@
         <v>27</v>
       </c>
       <c r="M162" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="N162" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="O162">
-        <v>12.1958</v>
+        <v>0.101554</v>
       </c>
       <c r="P162">
-        <v>1.80737</v>
+        <v>0.0156548</v>
       </c>
     </row>
     <row r="163" spans="1:16">
@@ -9472,31 +9425,31 @@
         <v>272</v>
       </c>
       <c r="B163" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C163" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D163" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="E163" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="F163" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="G163" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="H163" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="I163" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="J163" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="K163" t="s">
         <v>26</v>
@@ -9505,16 +9458,16 @@
         <v>27</v>
       </c>
       <c r="M163" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="N163" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="O163">
-        <v>10.646</v>
+        <v>-1.29399</v>
       </c>
       <c r="P163">
-        <v>1.5778</v>
+        <v>-0.191098</v>
       </c>
     </row>
     <row r="164" spans="1:16">
@@ -9522,31 +9475,31 @@
         <v>273</v>
       </c>
       <c r="B164" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C164" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D164" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="E164" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="F164" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="G164" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="H164" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="I164" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="J164" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="K164" t="s">
         <v>26</v>
@@ -9555,16 +9508,16 @@
         <v>27</v>
       </c>
       <c r="M164" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="N164" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="O164">
-        <v>10.6458</v>
+        <v>-2.74015</v>
       </c>
       <c r="P164">
-        <v>1.57766</v>
+        <v>-0.405304</v>
       </c>
     </row>
     <row r="165" spans="1:16">
@@ -9572,31 +9525,31 @@
         <v>274</v>
       </c>
       <c r="B165" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C165" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D165" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="E165" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="F165" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="G165" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="H165" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="I165" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="J165" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="K165" t="s">
         <v>26</v>
@@ -9605,16 +9558,16 @@
         <v>27</v>
       </c>
       <c r="M165" t="s">
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="N165" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="O165">
-        <v>9.002280000000001</v>
+        <v>-4.23911</v>
       </c>
       <c r="P165">
-        <v>1.33431</v>
+        <v>-0.627386</v>
       </c>
     </row>
     <row r="166" spans="1:16">
@@ -9622,31 +9575,31 @@
         <v>275</v>
       </c>
       <c r="B166" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C166" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D166" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="E166" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="F166" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="G166" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="H166" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="I166" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="J166" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="K166" t="s">
         <v>26</v>
@@ -9655,16 +9608,16 @@
         <v>27</v>
       </c>
       <c r="M166" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N166" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="O166">
-        <v>7.38952</v>
+        <v>-5.42735</v>
       </c>
       <c r="P166">
-        <v>1.09536</v>
+        <v>-0.803434</v>
       </c>
     </row>
     <row r="167" spans="1:16">
@@ -9672,31 +9625,31 @@
         <v>276</v>
       </c>
       <c r="B167" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C167" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D167" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="E167" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="F167" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="G167" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="H167" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="I167" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="J167" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="K167" t="s">
         <v>26</v>
@@ -9705,16 +9658,16 @@
         <v>27</v>
       </c>
       <c r="M167" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="N167" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="O167">
-        <v>5.78687</v>
+        <v>-6.97765</v>
       </c>
       <c r="P167">
-        <v>0.857922</v>
+        <v>-1.03312</v>
       </c>
     </row>
     <row r="168" spans="1:16">
@@ -9722,31 +9675,31 @@
         <v>277</v>
       </c>
       <c r="B168" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C168" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D168" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="E168" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="F168" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="G168" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="H168" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="I168" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="J168" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="K168" t="s">
         <v>26</v>
@@ -9755,16 +9708,16 @@
         <v>27</v>
       </c>
       <c r="M168" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="N168" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="O168">
-        <v>4.49597</v>
+        <v>-8.320169999999999</v>
       </c>
       <c r="P168">
-        <v>0.674089</v>
+        <v>-1.23198</v>
       </c>
     </row>
     <row r="169" spans="1:16">
@@ -9772,31 +9725,31 @@
         <v>278</v>
       </c>
       <c r="B169" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C169" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D169" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="E169" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="F169" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="G169" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="H169" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="I169" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="J169" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="K169" t="s">
         <v>26</v>
@@ -9805,16 +9758,16 @@
         <v>27</v>
       </c>
       <c r="M169" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="N169" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="O169">
-        <v>3.00324</v>
+        <v>-9.659990000000001</v>
       </c>
       <c r="P169">
-        <v>0.445466</v>
+        <v>-1.42343</v>
       </c>
     </row>
     <row r="170" spans="1:16">
@@ -9822,31 +9775,31 @@
         <v>279</v>
       </c>
       <c r="B170" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C170" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D170" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="E170" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="F170" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="G170" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="H170" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="I170" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="J170" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="K170" t="s">
         <v>26</v>
@@ -9855,16 +9808,16 @@
         <v>27</v>
       </c>
       <c r="M170" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="N170" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="O170">
-        <v>1.65142</v>
+        <v>-9.81878</v>
       </c>
       <c r="P170">
-        <v>0.245276</v>
+        <v>-1.45402</v>
       </c>
     </row>
     <row r="171" spans="1:16">
@@ -9872,31 +9825,31 @@
         <v>280</v>
       </c>
       <c r="B171" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C171" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D171" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="E171" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="F171" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="G171" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="H171" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="I171" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="J171" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="K171" t="s">
         <v>26</v>
@@ -9905,16 +9858,16 @@
         <v>27</v>
       </c>
       <c r="M171" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="N171" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="O171">
-        <v>0.0498098</v>
+        <v>-11.1618</v>
       </c>
       <c r="P171">
-        <v>0.007972440000000001</v>
+        <v>-1.65295</v>
       </c>
     </row>
     <row r="172" spans="1:16">
@@ -9922,31 +9875,31 @@
         <v>281</v>
       </c>
       <c r="B172" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C172" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D172" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="E172" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="F172" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="G172" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="H172" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="I172" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="J172" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="K172" t="s">
         <v>26</v>
@@ -9955,16 +9908,16 @@
         <v>27</v>
       </c>
       <c r="M172" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="N172" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="O172">
-        <v>0.102028</v>
+        <v>-12.3513</v>
       </c>
       <c r="P172">
-        <v>0.0157204</v>
+        <v>-1.82915</v>
       </c>
     </row>
     <row r="173" spans="1:16">
@@ -9972,31 +9925,31 @@
         <v>282</v>
       </c>
       <c r="B173" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C173" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D173" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="E173" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="F173" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="G173" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="H173" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="I173" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="J173" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="K173" t="s">
         <v>26</v>
@@ -10005,16 +9958,16 @@
         <v>27</v>
       </c>
       <c r="M173" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="N173" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="O173">
-        <v>-1.39709</v>
+        <v>-13.7454</v>
       </c>
       <c r="P173">
-        <v>-0.206368</v>
+        <v>-2.0357</v>
       </c>
     </row>
     <row r="174" spans="1:16">
@@ -10022,31 +9975,31 @@
         <v>283</v>
       </c>
       <c r="B174" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C174" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D174" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="E174" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="F174" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="G174" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="H174" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="I174" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="J174" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="K174" t="s">
         <v>26</v>
@@ -10055,16 +10008,16 @@
         <v>27</v>
       </c>
       <c r="M174" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="N174" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="O174">
-        <v>-2.79213</v>
+        <v>-14.8312</v>
       </c>
       <c r="P174">
-        <v>-0.413003</v>
+        <v>-2.19659</v>
       </c>
     </row>
     <row r="175" spans="1:16">
@@ -10072,31 +10025,31 @@
         <v>284</v>
       </c>
       <c r="B175" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C175" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D175" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="E175" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="F175" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="G175" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="H175" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="I175" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="J175" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="K175" t="s">
         <v>26</v>
@@ -10105,16 +10058,16 @@
         <v>27</v>
       </c>
       <c r="M175" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="N175" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="O175">
-        <v>-4.34276</v>
+        <v>-15.8644</v>
       </c>
       <c r="P175">
-        <v>-0.642741</v>
+        <v>-2.34965</v>
       </c>
     </row>
     <row r="176" spans="1:16">
@@ -10122,31 +10075,31 @@
         <v>285</v>
       </c>
       <c r="B176" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C176" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D176" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="E176" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="F176" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="G176" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="H176" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="I176" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="J176" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="K176" t="s">
         <v>26</v>
@@ -10155,16 +10108,16 @@
         <v>27</v>
       </c>
       <c r="M176" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N176" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="O176">
-        <v>-5.58313</v>
+        <v>-17.1566</v>
       </c>
       <c r="P176">
-        <v>-0.826518</v>
+        <v>-2.54107</v>
       </c>
     </row>
     <row r="177" spans="1:16">
@@ -10172,31 +10125,31 @@
         <v>286</v>
       </c>
       <c r="B177" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C177" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D177" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="E177" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="F177" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="G177" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="H177" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="I177" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="J177" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="K177" t="s">
         <v>26</v>
@@ -10205,16 +10158,16 @@
         <v>27</v>
       </c>
       <c r="M177" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="N177" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="O177">
-        <v>-7.18472</v>
+        <v>-18.2931</v>
       </c>
       <c r="P177">
-        <v>-1.06375</v>
+        <v>-2.70944</v>
       </c>
     </row>
     <row r="178" spans="1:16">
@@ -10222,31 +10175,31 @@
         <v>287</v>
       </c>
       <c r="B178" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C178" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D178" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="E178" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="F178" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="G178" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="H178" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="I178" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="J178" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="K178" t="s">
         <v>26</v>
@@ -10255,16 +10208,16 @@
         <v>27</v>
       </c>
       <c r="M178" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="N178" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="O178">
-        <v>-8.527200000000001</v>
+        <v>-18.2925</v>
       </c>
       <c r="P178">
-        <v>-1.2627</v>
+        <v>-2.70938</v>
       </c>
     </row>
     <row r="179" spans="1:16">
@@ -10272,31 +10225,31 @@
         <v>288</v>
       </c>
       <c r="B179" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C179" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D179" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="E179" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="F179" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="G179" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="H179" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="I179" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="J179" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="K179" t="s">
         <v>26</v>
@@ -10305,16 +10258,16 @@
         <v>27</v>
       </c>
       <c r="M179" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="N179" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="O179">
-        <v>-9.819419999999999</v>
+        <v>-19.1714</v>
       </c>
       <c r="P179">
-        <v>-1.45411</v>
+        <v>-2.83954</v>
       </c>
     </row>
     <row r="180" spans="1:16">
@@ -10322,31 +10275,31 @@
         <v>289</v>
       </c>
       <c r="B180" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C180" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D180" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="E180" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="F180" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="G180" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="H180" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="I180" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="J180" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="K180" t="s">
         <v>26</v>
@@ -10355,16 +10308,16 @@
         <v>27</v>
       </c>
       <c r="M180" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="N180" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="O180">
-        <v>-9.8187</v>
+        <v>-19.8445</v>
       </c>
       <c r="P180">
-        <v>-1.45401</v>
+        <v>-2.93927</v>
       </c>
     </row>
     <row r="181" spans="1:16">
@@ -10372,31 +10325,31 @@
         <v>290</v>
       </c>
       <c r="B181" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C181" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D181" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="E181" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="F181" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="G181" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="H181" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="I181" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="J181" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="K181" t="s">
         <v>26</v>
@@ -10405,16 +10358,16 @@
         <v>27</v>
       </c>
       <c r="M181" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="N181" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="O181">
-        <v>-11.2135</v>
+        <v>-20.7108</v>
       </c>
       <c r="P181">
-        <v>-1.66061</v>
+        <v>-3.06742</v>
       </c>
     </row>
     <row r="182" spans="1:16">
@@ -10422,31 +10375,31 @@
         <v>291</v>
       </c>
       <c r="B182" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C182" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D182" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="E182" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="F182" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="G182" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="H182" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="I182" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="J182" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="K182" t="s">
         <v>26</v>
@@ -10455,16 +10408,16 @@
         <v>27</v>
       </c>
       <c r="M182" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="N182" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="O182">
-        <v>-12.6094</v>
+        <v>-21.1334</v>
       </c>
       <c r="P182">
-        <v>-1.86742</v>
+        <v>-3.13024</v>
       </c>
     </row>
     <row r="183" spans="1:16">
@@ -10472,31 +10425,31 @@
         <v>292</v>
       </c>
       <c r="B183" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C183" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D183" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="E183" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="F183" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="G183" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="H183" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="I183" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="J183" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="K183" t="s">
         <v>26</v>
@@ -10505,16 +10458,16 @@
         <v>27</v>
       </c>
       <c r="M183" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="N183" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="O183">
-        <v>-13.9898</v>
+        <v>-21.9121</v>
       </c>
       <c r="P183">
-        <v>-2.07197</v>
+        <v>-3.24559</v>
       </c>
     </row>
     <row r="184" spans="1:16">
@@ -10522,31 +10475,31 @@
         <v>293</v>
       </c>
       <c r="B184" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C184" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D184" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="E184" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="F184" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="G184" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="H184" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="I184" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="J184" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="K184" t="s">
         <v>26</v>
@@ -10555,16 +10508,16 @@
         <v>27</v>
       </c>
       <c r="M184" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="N184" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="O184">
-        <v>-14.8831</v>
+        <v>-22.738</v>
       </c>
       <c r="P184">
-        <v>-2.20426</v>
+        <v>-3.36799</v>
       </c>
     </row>
     <row r="185" spans="1:16">
@@ -10572,31 +10525,31 @@
         <v>294</v>
       </c>
       <c r="B185" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C185" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D185" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="E185" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="F185" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="G185" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="H185" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="I185" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="J185" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="K185" t="s">
         <v>26</v>
@@ -10605,16 +10558,16 @@
         <v>27</v>
       </c>
       <c r="M185" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="N185" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="O185">
-        <v>-16.0714</v>
+        <v>-23.6176</v>
       </c>
       <c r="P185">
-        <v>-2.38032</v>
+        <v>-3.49828</v>
       </c>
     </row>
     <row r="186" spans="1:16">
@@ -10622,31 +10575,31 @@
         <v>295</v>
       </c>
       <c r="B186" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C186" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D186" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="E186" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="F186" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="G186" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="H186" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="I186" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="J186" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="K186" t="s">
         <v>26</v>
@@ -10655,16 +10608,16 @@
         <v>27</v>
       </c>
       <c r="M186" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="N186" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="O186">
-        <v>-17.2084</v>
+        <v>-23.3072</v>
       </c>
       <c r="P186">
-        <v>-2.54872</v>
+        <v>-3.45231</v>
       </c>
     </row>
     <row r="187" spans="1:16">
@@ -10672,31 +10625,31 @@
         <v>296</v>
       </c>
       <c r="B187" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C187" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D187" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="E187" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="F187" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="G187" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="H187" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="I187" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="J187" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="K187" t="s">
         <v>26</v>
@@ -10705,16 +10658,16 @@
         <v>27</v>
       </c>
       <c r="M187" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="N187" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="O187">
-        <v>-18.551</v>
+        <v>-24.0828</v>
       </c>
       <c r="P187">
-        <v>-2.74765</v>
+        <v>-3.56721</v>
       </c>
     </row>
     <row r="188" spans="1:16">
@@ -10722,31 +10675,31 @@
         <v>297</v>
       </c>
       <c r="B188" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C188" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D188" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="E188" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="F188" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="G188" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="H188" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="I188" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="J188" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="K188" t="s">
         <v>26</v>
@@ -10755,16 +10708,16 @@
         <v>27</v>
       </c>
       <c r="M188" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="N188" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="O188">
-        <v>-18.6029</v>
+        <v>-24.8572</v>
       </c>
       <c r="P188">
-        <v>-2.75532</v>
+        <v>-3.68194</v>
       </c>
     </row>
     <row r="189" spans="1:16">
@@ -10772,31 +10725,31 @@
         <v>298</v>
       </c>
       <c r="B189" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C189" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D189" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="E189" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="F189" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="G189" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="H189" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="I189" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="J189" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="K189" t="s">
         <v>26</v>
@@ -10805,16 +10758,16 @@
         <v>27</v>
       </c>
       <c r="M189" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="N189" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="O189">
-        <v>-19.2754</v>
+        <v>-25.683</v>
       </c>
       <c r="P189">
-        <v>-2.85498</v>
+        <v>-3.80427</v>
       </c>
     </row>
     <row r="190" spans="1:16">
@@ -10822,31 +10775,31 @@
         <v>299</v>
       </c>
       <c r="B190" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C190" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D190" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="E190" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="F190" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="G190" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="H190" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="I190" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="J190" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="K190" t="s">
         <v>26</v>
@@ -10855,16 +10808,16 @@
         <v>27</v>
       </c>
       <c r="M190" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="N190" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="O190">
-        <v>-20.0392</v>
+        <v>-26.0987</v>
       </c>
       <c r="P190">
-        <v>-2.96817</v>
+        <v>-3.86586</v>
       </c>
     </row>
     <row r="191" spans="1:16">
@@ -10872,31 +10825,31 @@
         <v>300</v>
       </c>
       <c r="B191" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C191" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D191" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="E191" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="F191" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="G191" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="H191" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="I191" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="J191" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="K191" t="s">
         <v>26</v>
@@ -10905,16 +10858,16 @@
         <v>27</v>
       </c>
       <c r="M191" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="N191" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="O191">
-        <v>-20.7738</v>
+        <v>-26.978</v>
       </c>
       <c r="P191">
-        <v>-3.07696</v>
+        <v>-3.99613</v>
       </c>
     </row>
     <row r="192" spans="1:16">
@@ -10922,31 +10875,31 @@
         <v>301</v>
       </c>
       <c r="B192" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C192" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D192" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="E192" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="F192" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="G192" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="H192" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="I192" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="J192" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="K192" t="s">
         <v>26</v>
@@ -10955,16 +10908,16 @@
         <v>27</v>
       </c>
       <c r="M192" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="N192" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="O192">
-        <v>-21.2916</v>
+        <v>-27.7002</v>
       </c>
       <c r="P192">
-        <v>-3.15367</v>
+        <v>-4.09564</v>
       </c>
     </row>
     <row r="193" spans="1:16">
@@ -10972,31 +10925,31 @@
         <v>302</v>
       </c>
       <c r="B193" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C193" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D193" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="E193" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="F193" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="G193" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="H193" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="I193" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="J193" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="K193" t="s">
         <v>26</v>
@@ -11005,656 +10958,156 @@
         <v>27</v>
       </c>
       <c r="M193" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="N193" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="O193">
-        <v>-22.1703</v>
+        <v>-28.5795</v>
       </c>
       <c r="P193">
-        <v>-3.28389</v>
-      </c>
-    </row>
-    <row r="194" spans="1:16">
-      <c r="A194" t="s">
+        <v>-4.22593</v>
+      </c>
+    </row>
+    <row r="194" spans="1:16" s="1" customFormat="1">
+      <c r="A194" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F194" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G194" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H194" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I194" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J194" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K194" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L194" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M194" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N194" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O194" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P194" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="195" spans="1:16" s="1" customFormat="1">
+      <c r="N195" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="B194" t="s">
-        <v>240</v>
-      </c>
-      <c r="C194" t="s">
-        <v>241</v>
-      </c>
-      <c r="D194" t="s">
-        <v>242</v>
-      </c>
-      <c r="E194" t="s">
-        <v>243</v>
-      </c>
-      <c r="F194" t="s">
-        <v>244</v>
-      </c>
-      <c r="G194" t="s">
-        <v>245</v>
-      </c>
-      <c r="H194" t="s">
-        <v>246</v>
-      </c>
-      <c r="I194" t="s">
-        <v>247</v>
-      </c>
-      <c r="J194" t="s">
-        <v>248</v>
-      </c>
-      <c r="K194" t="s">
-        <v>26</v>
-      </c>
-      <c r="L194" t="s">
-        <v>27</v>
-      </c>
-      <c r="M194" t="s">
-        <v>136</v>
-      </c>
-      <c r="N194" t="s">
-        <v>249</v>
-      </c>
-      <c r="O194" s="4" t="s">
+      <c r="O195" s="3">
+        <v>-46.6452</v>
+      </c>
+      <c r="P195" s="1">
+        <v>-5.65377</v>
+      </c>
+    </row>
+    <row r="196" spans="1:16" s="1" customFormat="1">
+      <c r="N196" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="P194" s="4" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="195" spans="1:16">
-      <c r="A195" t="s">
+      <c r="O196" s="2">
+        <v>46.711</v>
+      </c>
+      <c r="P196" s="1">
+        <v>5.66212</v>
+      </c>
+    </row>
+    <row r="197" spans="1:16" s="1" customFormat="1">
+      <c r="N197" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="B195" t="s">
-        <v>240</v>
-      </c>
-      <c r="C195" t="s">
-        <v>241</v>
-      </c>
-      <c r="D195" t="s">
-        <v>242</v>
-      </c>
-      <c r="E195" t="s">
-        <v>243</v>
-      </c>
-      <c r="F195" t="s">
-        <v>244</v>
-      </c>
-      <c r="G195" t="s">
-        <v>245</v>
-      </c>
-      <c r="H195" t="s">
-        <v>246</v>
-      </c>
-      <c r="I195" t="s">
-        <v>247</v>
-      </c>
-      <c r="J195" t="s">
-        <v>248</v>
-      </c>
-      <c r="K195" t="s">
-        <v>26</v>
-      </c>
-      <c r="L195" t="s">
-        <v>27</v>
-      </c>
-      <c r="M195" t="s">
-        <v>138</v>
-      </c>
-      <c r="N195" t="s">
-        <v>249</v>
-      </c>
-      <c r="O195" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="P195" s="4" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="196" spans="1:16">
-      <c r="A196" t="s">
+      <c r="O197" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="198" spans="1:16" s="1" customFormat="1">
+      <c r="N198" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="B196" t="s">
-        <v>240</v>
-      </c>
-      <c r="C196" t="s">
-        <v>241</v>
-      </c>
-      <c r="D196" t="s">
-        <v>242</v>
-      </c>
-      <c r="E196" t="s">
-        <v>243</v>
-      </c>
-      <c r="F196" t="s">
-        <v>244</v>
-      </c>
-      <c r="G196" t="s">
-        <v>245</v>
-      </c>
-      <c r="H196" t="s">
-        <v>246</v>
-      </c>
-      <c r="I196" t="s">
-        <v>247</v>
-      </c>
-      <c r="J196" t="s">
-        <v>248</v>
-      </c>
-      <c r="K196" t="s">
-        <v>26</v>
-      </c>
-      <c r="L196" t="s">
-        <v>27</v>
-      </c>
-      <c r="M196" t="s">
-        <v>140</v>
-      </c>
-      <c r="N196" t="s">
-        <v>249</v>
-      </c>
-      <c r="O196" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="P196" s="4" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="197" spans="1:16">
-      <c r="A197" t="s">
+      <c r="O198" s="1">
+        <v>-35</v>
+      </c>
+    </row>
+    <row r="199" spans="1:16" s="1" customFormat="1">
+      <c r="N199" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="B197" t="s">
-        <v>240</v>
-      </c>
-      <c r="C197" t="s">
-        <v>241</v>
-      </c>
-      <c r="D197" t="s">
-        <v>242</v>
-      </c>
-      <c r="E197" t="s">
-        <v>243</v>
-      </c>
-      <c r="F197" t="s">
-        <v>244</v>
-      </c>
-      <c r="G197" t="s">
-        <v>245</v>
-      </c>
-      <c r="H197" t="s">
-        <v>246</v>
-      </c>
-      <c r="I197" t="s">
-        <v>247</v>
-      </c>
-      <c r="J197" t="s">
-        <v>248</v>
-      </c>
-      <c r="K197" t="s">
-        <v>26</v>
-      </c>
-      <c r="L197" t="s">
-        <v>27</v>
-      </c>
-      <c r="M197" t="s">
-        <v>142</v>
-      </c>
-      <c r="N197" t="s">
-        <v>249</v>
-      </c>
-      <c r="O197" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="P197" s="4" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="198" spans="1:16">
-      <c r="A198" t="s">
+      <c r="O199" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="200" spans="1:16" s="1" customFormat="1">
+      <c r="N200" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="B198" t="s">
-        <v>240</v>
-      </c>
-      <c r="C198" t="s">
-        <v>241</v>
-      </c>
-      <c r="D198" t="s">
-        <v>242</v>
-      </c>
-      <c r="E198" t="s">
-        <v>243</v>
-      </c>
-      <c r="F198" t="s">
-        <v>244</v>
-      </c>
-      <c r="G198" t="s">
-        <v>245</v>
-      </c>
-      <c r="H198" t="s">
-        <v>246</v>
-      </c>
-      <c r="I198" t="s">
-        <v>247</v>
-      </c>
-      <c r="J198" t="s">
-        <v>248</v>
-      </c>
-      <c r="K198" t="s">
-        <v>26</v>
-      </c>
-      <c r="L198" t="s">
-        <v>27</v>
-      </c>
-      <c r="M198" t="s">
-        <v>144</v>
-      </c>
-      <c r="N198" t="s">
-        <v>249</v>
-      </c>
-      <c r="O198" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="P198" s="4" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="199" spans="1:16">
-      <c r="A199" t="s">
+      <c r="O200" s="1">
+        <v>-35</v>
+      </c>
+    </row>
+    <row r="201" spans="1:16" s="1" customFormat="1">
+      <c r="N201" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="B199" t="s">
-        <v>240</v>
-      </c>
-      <c r="C199" t="s">
-        <v>241</v>
-      </c>
-      <c r="D199" t="s">
-        <v>242</v>
-      </c>
-      <c r="E199" t="s">
-        <v>243</v>
-      </c>
-      <c r="F199" t="s">
-        <v>244</v>
-      </c>
-      <c r="G199" t="s">
-        <v>245</v>
-      </c>
-      <c r="H199" t="s">
-        <v>246</v>
-      </c>
-      <c r="I199" t="s">
-        <v>247</v>
-      </c>
-      <c r="J199" t="s">
-        <v>248</v>
-      </c>
-      <c r="K199" t="s">
-        <v>26</v>
-      </c>
-      <c r="L199" t="s">
-        <v>27</v>
-      </c>
-      <c r="M199" t="s">
-        <v>146</v>
-      </c>
-      <c r="N199" t="s">
-        <v>249</v>
-      </c>
-      <c r="O199" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="P199" s="4" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="200" spans="1:16">
-      <c r="A200" t="s">
+      <c r="O201" s="1">
+        <v>0.1454696</v>
+      </c>
+      <c r="P201" s="1">
+        <v>0.02147843</v>
+      </c>
+    </row>
+    <row r="202" spans="1:16" s="1" customFormat="1">
+      <c r="N202" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B200" t="s">
-        <v>240</v>
-      </c>
-      <c r="C200" t="s">
-        <v>241</v>
-      </c>
-      <c r="D200" t="s">
-        <v>242</v>
-      </c>
-      <c r="E200" t="s">
-        <v>243</v>
-      </c>
-      <c r="F200" t="s">
-        <v>244</v>
-      </c>
-      <c r="G200" t="s">
-        <v>245</v>
-      </c>
-      <c r="H200" t="s">
-        <v>246</v>
-      </c>
-      <c r="I200" t="s">
-        <v>247</v>
-      </c>
-      <c r="J200" t="s">
-        <v>248</v>
-      </c>
-      <c r="K200" t="s">
-        <v>26</v>
-      </c>
-      <c r="L200" t="s">
-        <v>27</v>
-      </c>
-      <c r="M200" t="s">
-        <v>148</v>
-      </c>
-      <c r="N200" t="s">
-        <v>249</v>
-      </c>
-      <c r="O200" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="P200" s="4" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="201" spans="1:16">
-      <c r="A201" t="s">
+      <c r="O202" s="1">
+        <v>24.475427</v>
+      </c>
+      <c r="P202" s="1">
+        <v>3.192852</v>
+      </c>
+    </row>
+    <row r="203" spans="1:16" s="1" customFormat="1">
+      <c r="N203" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="B201" t="s">
-        <v>240</v>
-      </c>
-      <c r="C201" t="s">
-        <v>241</v>
-      </c>
-      <c r="D201" t="s">
-        <v>242</v>
-      </c>
-      <c r="E201" t="s">
-        <v>243</v>
-      </c>
-      <c r="F201" t="s">
-        <v>244</v>
-      </c>
-      <c r="G201" t="s">
-        <v>245</v>
-      </c>
-      <c r="H201" t="s">
-        <v>246</v>
-      </c>
-      <c r="I201" t="s">
-        <v>247</v>
-      </c>
-      <c r="J201" t="s">
-        <v>248</v>
-      </c>
-      <c r="K201" t="s">
-        <v>26</v>
-      </c>
-      <c r="L201" t="s">
-        <v>27</v>
-      </c>
-      <c r="M201" t="s">
-        <v>150</v>
-      </c>
-      <c r="N201" t="s">
-        <v>249</v>
-      </c>
-      <c r="O201" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="P201" s="4" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="202" spans="1:16">
-      <c r="A202" t="s">
-        <v>312</v>
-      </c>
-      <c r="B202" t="s">
-        <v>240</v>
-      </c>
-      <c r="C202" t="s">
-        <v>241</v>
-      </c>
-      <c r="D202" t="s">
-        <v>242</v>
-      </c>
-      <c r="E202" t="s">
-        <v>243</v>
-      </c>
-      <c r="F202" t="s">
-        <v>244</v>
-      </c>
-      <c r="G202" t="s">
-        <v>245</v>
-      </c>
-      <c r="H202" t="s">
-        <v>246</v>
-      </c>
-      <c r="I202" t="s">
-        <v>247</v>
-      </c>
-      <c r="J202" t="s">
-        <v>248</v>
-      </c>
-      <c r="K202" t="s">
-        <v>26</v>
-      </c>
-      <c r="L202" t="s">
-        <v>27</v>
-      </c>
-      <c r="M202" t="s">
-        <v>152</v>
-      </c>
-      <c r="N202" t="s">
-        <v>249</v>
-      </c>
-      <c r="O202" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="P202" s="4" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="203" spans="1:16">
-      <c r="A203" t="s">
-        <v>313</v>
-      </c>
-      <c r="B203" t="s">
-        <v>240</v>
-      </c>
-      <c r="C203" t="s">
-        <v>241</v>
-      </c>
-      <c r="D203" t="s">
-        <v>242</v>
-      </c>
-      <c r="E203" t="s">
-        <v>243</v>
-      </c>
-      <c r="F203" t="s">
-        <v>244</v>
-      </c>
-      <c r="G203" t="s">
-        <v>245</v>
-      </c>
-      <c r="H203" t="s">
-        <v>246</v>
-      </c>
-      <c r="I203" t="s">
-        <v>247</v>
-      </c>
-      <c r="J203" t="s">
-        <v>248</v>
-      </c>
-      <c r="K203" t="s">
-        <v>26</v>
-      </c>
-      <c r="L203" t="s">
-        <v>27</v>
-      </c>
-      <c r="M203" t="s">
-        <v>154</v>
-      </c>
-      <c r="N203" t="s">
-        <v>249</v>
-      </c>
-      <c r="O203" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="P203" s="4" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="204" spans="1:16" s="1" customFormat="1">
-      <c r="A204" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B204" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C204" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D204" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E204" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F204" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G204" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H204" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I204" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J204" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K204" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L204" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M204" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N204" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O204" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P204" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="205" spans="1:16" s="1" customFormat="1">
-      <c r="N205" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="O205" s="3">
-        <v>-47.4959</v>
-      </c>
-      <c r="P205" s="1">
-        <v>-5.7569</v>
-      </c>
-    </row>
-    <row r="206" spans="1:16" s="1" customFormat="1">
-      <c r="N206" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="O206" s="2">
-        <v>48.4135</v>
-      </c>
-      <c r="P206" s="1">
-        <v>5.86849</v>
-      </c>
-    </row>
-    <row r="207" spans="1:16" s="1" customFormat="1">
-      <c r="N207" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="O207" s="1">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="208" spans="1:16" s="1" customFormat="1">
-      <c r="N208" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="O208" s="1">
-        <v>-35</v>
-      </c>
-    </row>
-    <row r="209" spans="14:16" s="1" customFormat="1">
-      <c r="N209" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="O209" s="1">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="210" spans="14:16" s="1" customFormat="1">
-      <c r="N210" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="O210" s="1">
-        <v>-35</v>
-      </c>
-    </row>
-    <row r="211" spans="14:16" s="1" customFormat="1">
-      <c r="N211" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="O211" s="1">
-        <v>2.198907</v>
-      </c>
-      <c r="P211" s="1">
-        <v>0.3062903</v>
-      </c>
-    </row>
-    <row r="212" spans="14:16" s="1" customFormat="1">
-      <c r="N212" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="O212" s="1">
-        <v>24.473331</v>
-      </c>
-      <c r="P212" s="1">
-        <v>3.155384</v>
-      </c>
-    </row>
-    <row r="213" spans="14:16" s="1" customFormat="1">
-      <c r="N213" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="O213" s="1">
-        <v>1112.977084</v>
-      </c>
-      <c r="P213" s="1">
-        <v>1030.193904</v>
-      </c>
-    </row>
-    <row r="214" spans="14:16" s="1" customFormat="1"/>
+      <c r="O203" s="1">
+        <v>16825.114663</v>
+      </c>
+      <c r="P203" s="1">
+        <v>14865.388206</v>
+      </c>
+    </row>
+    <row r="204" spans="1:16" s="1" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dcd_top_offset_step_tsmc2p_meas.xlsx
+++ b/dcd_top_offset_step_tsmc2p_meas.xlsx
@@ -1414,10 +1414,10 @@
         <v>29</v>
       </c>
       <c r="O2" s="2">
-        <v>35.8205</v>
+        <v>41.8632</v>
       </c>
       <c r="P2">
-        <v>4.77635</v>
+        <v>5.58205</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1463,11 +1463,11 @@
       <c r="N3" t="s">
         <v>29</v>
       </c>
-      <c r="O3">
-        <v>34.7876</v>
+      <c r="O3" s="2">
+        <v>40.4685</v>
       </c>
       <c r="P3">
-        <v>4.63863</v>
+        <v>5.39609</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1513,11 +1513,11 @@
       <c r="N4" t="s">
         <v>29</v>
       </c>
-      <c r="O4">
-        <v>34.0625</v>
+      <c r="O4" s="2">
+        <v>38.9173</v>
       </c>
       <c r="P4">
-        <v>4.54195</v>
+        <v>5.18926</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1563,11 +1563,11 @@
       <c r="N5" t="s">
         <v>29</v>
       </c>
-      <c r="O5">
-        <v>33.0806</v>
+      <c r="O5" s="2">
+        <v>37.6259</v>
       </c>
       <c r="P5">
-        <v>4.41104</v>
+        <v>5.01709</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1613,11 +1613,11 @@
       <c r="N6" t="s">
         <v>29</v>
       </c>
-      <c r="O6">
-        <v>32.4618</v>
+      <c r="O6" s="2">
+        <v>36.9557</v>
       </c>
       <c r="P6">
-        <v>4.32853</v>
+        <v>4.92773</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1663,11 +1663,11 @@
       <c r="N7" t="s">
         <v>29</v>
       </c>
-      <c r="O7">
-        <v>31.5319</v>
+      <c r="O7" s="2">
+        <v>35.7161</v>
       </c>
       <c r="P7">
-        <v>4.20455</v>
+        <v>4.76246</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1714,10 +1714,10 @@
         <v>29</v>
       </c>
       <c r="O8">
-        <v>30.6541</v>
+        <v>34.5277</v>
       </c>
       <c r="P8">
-        <v>4.08751</v>
+        <v>4.60399</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1764,10 +1764,10 @@
         <v>29</v>
       </c>
       <c r="O9">
-        <v>29.7767</v>
+        <v>33.1851</v>
       </c>
       <c r="P9">
-        <v>3.97051</v>
+        <v>4.42497</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1814,10 +1814,10 @@
         <v>29</v>
       </c>
       <c r="O10">
-        <v>29.9829</v>
+        <v>33.6494</v>
       </c>
       <c r="P10">
-        <v>3.99801</v>
+        <v>4.48688</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1864,10 +1864,10 @@
         <v>29</v>
       </c>
       <c r="O11">
-        <v>29.105</v>
+        <v>32.2604</v>
       </c>
       <c r="P11">
-        <v>3.88094</v>
+        <v>4.30167</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1914,10 +1914,10 @@
         <v>29</v>
       </c>
       <c r="O12">
-        <v>28.2786</v>
+        <v>31.1705</v>
       </c>
       <c r="P12">
-        <v>3.77077</v>
+        <v>4.15635</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1964,10 +1964,10 @@
         <v>29</v>
       </c>
       <c r="O13">
-        <v>27.2976</v>
+        <v>29.7765</v>
       </c>
       <c r="P13">
-        <v>3.63997</v>
+        <v>3.97049</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -2014,10 +2014,10 @@
         <v>29</v>
       </c>
       <c r="O14">
-        <v>26.6779</v>
+        <v>29.1049</v>
       </c>
       <c r="P14">
-        <v>3.55734</v>
+        <v>3.88096</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -2064,10 +2064,10 @@
         <v>29</v>
       </c>
       <c r="O15">
-        <v>25.697</v>
+        <v>27.8139</v>
       </c>
       <c r="P15">
-        <v>3.42656</v>
+        <v>3.70881</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -2114,10 +2114,10 @@
         <v>29</v>
       </c>
       <c r="O16">
-        <v>24.819</v>
+        <v>26.6263</v>
       </c>
       <c r="P16">
-        <v>3.30949</v>
+        <v>3.55048</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -2164,10 +2164,10 @@
         <v>29</v>
       </c>
       <c r="O17">
-        <v>23.9408</v>
+        <v>25.2836</v>
       </c>
       <c r="P17">
-        <v>3.1924</v>
+        <v>3.37144</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -2214,10 +2214,10 @@
         <v>29</v>
       </c>
       <c r="O18">
-        <v>23.8377</v>
+        <v>25.2837</v>
       </c>
       <c r="P18">
-        <v>3.1855</v>
+        <v>3.37146</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -2264,10 +2264,10 @@
         <v>29</v>
       </c>
       <c r="O19">
-        <v>21.927</v>
+        <v>23.2693</v>
       </c>
       <c r="P19">
-        <v>2.92388</v>
+        <v>3.10286</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -2314,10 +2314,10 @@
         <v>29</v>
       </c>
       <c r="O20">
-        <v>19.9644</v>
+        <v>21.3702</v>
       </c>
       <c r="P20">
-        <v>2.66221</v>
+        <v>2.84962</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -2364,10 +2364,10 @@
         <v>29</v>
       </c>
       <c r="O21">
-        <v>18.105</v>
+        <v>19.3962</v>
       </c>
       <c r="P21">
-        <v>2.41429</v>
+        <v>2.58644</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -2414,10 +2414,10 @@
         <v>29</v>
       </c>
       <c r="O22">
-        <v>16.5559</v>
+        <v>17.7952</v>
       </c>
       <c r="P22">
-        <v>2.20774</v>
+        <v>2.37299</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -2464,10 +2464,10 @@
         <v>29</v>
       </c>
       <c r="O23">
-        <v>14.8517</v>
+        <v>16.0394</v>
       </c>
       <c r="P23">
-        <v>1.98051</v>
+        <v>2.13887</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -2514,10 +2514,10 @@
         <v>29</v>
       </c>
       <c r="O24">
-        <v>13.5088</v>
+        <v>14.5417</v>
       </c>
       <c r="P24">
-        <v>1.80147</v>
+        <v>1.93919</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -2564,10 +2564,10 @@
         <v>29</v>
       </c>
       <c r="O25">
-        <v>12.1147</v>
+        <v>13.1475</v>
       </c>
       <c r="P25">
-        <v>1.61559</v>
+        <v>1.7533</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -2614,10 +2614,10 @@
         <v>29</v>
       </c>
       <c r="O26">
-        <v>11.3914</v>
+        <v>11.3918</v>
       </c>
       <c r="P26">
-        <v>1.51915</v>
+        <v>1.5192</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -2664,7 +2664,7 @@
         <v>29</v>
       </c>
       <c r="O27">
-        <v>9.790380000000001</v>
+        <v>9.79036</v>
       </c>
       <c r="P27">
         <v>1.30568</v>
@@ -2714,10 +2714,10 @@
         <v>29</v>
       </c>
       <c r="O28">
-        <v>8.189120000000001</v>
+        <v>8.241479999999999</v>
       </c>
       <c r="P28">
-        <v>1.09219</v>
+        <v>1.09915</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -2764,10 +2764,10 @@
         <v>29</v>
       </c>
       <c r="O29">
-        <v>6.588</v>
+        <v>6.59192</v>
       </c>
       <c r="P29">
-        <v>0.878695</v>
+        <v>0.879196</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2814,10 +2814,10 @@
         <v>29</v>
       </c>
       <c r="O30">
-        <v>5.09051</v>
+        <v>5.09132</v>
       </c>
       <c r="P30">
-        <v>0.679023</v>
+        <v>0.685906</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2864,10 +2864,10 @@
         <v>29</v>
       </c>
       <c r="O31">
-        <v>3.28274</v>
+        <v>3.43784</v>
       </c>
       <c r="P31">
-        <v>0.437983</v>
+        <v>0.458666</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -2914,10 +2914,10 @@
         <v>29</v>
       </c>
       <c r="O32">
-        <v>1.73311</v>
+        <v>1.73346</v>
       </c>
       <c r="P32">
-        <v>0.231368</v>
+        <v>0.231434</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2964,10 +2964,10 @@
         <v>29</v>
       </c>
       <c r="O33">
-        <v>0.0289096</v>
+        <v>0.08051759999999999</v>
       </c>
       <c r="P33">
-        <v>0.0041383</v>
+        <v>0.011016</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -3014,10 +3014,10 @@
         <v>29</v>
       </c>
       <c r="O34">
-        <v>0.0287209</v>
+        <v>0.08049969999999999</v>
       </c>
       <c r="P34">
-        <v>0.00411305</v>
+        <v>0.0110173</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -3064,10 +3064,10 @@
         <v>29</v>
       </c>
       <c r="O35">
-        <v>-1.67052</v>
+        <v>-1.67073</v>
       </c>
       <c r="P35">
-        <v>-0.222462</v>
+        <v>-0.222493</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -3114,10 +3114,10 @@
         <v>29</v>
       </c>
       <c r="O36">
-        <v>-3.27524</v>
+        <v>-3.27538</v>
       </c>
       <c r="P36">
-        <v>-0.436403</v>
+        <v>-0.436432</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -3164,10 +3164,10 @@
         <v>29</v>
       </c>
       <c r="O37">
-        <v>-5.03089</v>
+        <v>-4.9278</v>
       </c>
       <c r="P37">
-        <v>-0.6704870000000001</v>
+        <v>-0.656764</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -3214,10 +3214,10 @@
         <v>29</v>
       </c>
       <c r="O38">
-        <v>-6.52692</v>
+        <v>-6.47679</v>
       </c>
       <c r="P38">
-        <v>-0.8699750000000001</v>
+        <v>-0.863273</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -3264,10 +3264,10 @@
         <v>29</v>
       </c>
       <c r="O39">
-        <v>-8.12865</v>
+        <v>-8.127940000000001</v>
       </c>
       <c r="P39">
-        <v>-1.08353</v>
+        <v>-1.08344</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -3314,10 +3314,10 @@
         <v>29</v>
       </c>
       <c r="O40">
-        <v>-9.72969</v>
+        <v>-9.677619999999999</v>
       </c>
       <c r="P40">
-        <v>-1.297</v>
+        <v>-1.29006</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -3364,10 +3364,10 @@
         <v>29</v>
       </c>
       <c r="O41">
-        <v>-11.3299</v>
+        <v>-11.3817</v>
       </c>
       <c r="P41">
-        <v>-1.51037</v>
+        <v>-1.51726</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -3414,10 +3414,10 @@
         <v>29</v>
       </c>
       <c r="O42">
-        <v>-12.0528</v>
+        <v>-13.0352</v>
       </c>
       <c r="P42">
-        <v>-1.60675</v>
+        <v>-1.73773</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -3464,10 +3464,10 @@
         <v>29</v>
       </c>
       <c r="O43">
-        <v>-13.4487</v>
+        <v>-14.4814</v>
       </c>
       <c r="P43">
-        <v>-1.79287</v>
+        <v>-1.93056</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -3514,10 +3514,10 @@
         <v>29</v>
       </c>
       <c r="O44">
-        <v>-14.7912</v>
+        <v>-15.8228</v>
       </c>
       <c r="P44">
-        <v>-1.97188</v>
+        <v>-2.10941</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -3564,10 +3564,10 @@
         <v>29</v>
       </c>
       <c r="O45">
-        <v>-16.1854</v>
+        <v>-17.4243</v>
       </c>
       <c r="P45">
-        <v>-2.15777</v>
+        <v>-2.32295</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -3614,10 +3614,10 @@
         <v>29</v>
       </c>
       <c r="O46">
-        <v>-17.6307</v>
+        <v>-18.973</v>
       </c>
       <c r="P46">
-        <v>-2.35047</v>
+        <v>-2.52944</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -3664,10 +3664,10 @@
         <v>29</v>
       </c>
       <c r="O47">
-        <v>-19.5931</v>
+        <v>-20.8321</v>
       </c>
       <c r="P47">
-        <v>-2.61213</v>
+        <v>-2.77733</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -3714,10 +3714,10 @@
         <v>29</v>
       </c>
       <c r="O48">
-        <v>-21.4514</v>
+        <v>-22.5871</v>
       </c>
       <c r="P48">
-        <v>-2.8599</v>
+        <v>-3.0113</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -3764,10 +3764,10 @@
         <v>29</v>
       </c>
       <c r="O49">
-        <v>-23.2071</v>
+        <v>-24.6016</v>
       </c>
       <c r="P49">
-        <v>-3.094</v>
+        <v>-3.27992</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -3814,10 +3814,10 @@
         <v>29</v>
       </c>
       <c r="O50">
-        <v>-23.2591</v>
+        <v>-24.6534</v>
       </c>
       <c r="P50">
-        <v>-3.10094</v>
+        <v>-3.28682</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -3864,10 +3864,10 @@
         <v>29</v>
       </c>
       <c r="O51">
-        <v>-24.1371</v>
+        <v>-25.9443</v>
       </c>
       <c r="P51">
-        <v>-3.21799</v>
+        <v>-3.45895</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -3914,10 +3914,10 @@
         <v>29</v>
       </c>
       <c r="O52">
-        <v>-25.0149</v>
+        <v>-27.1836</v>
       </c>
       <c r="P52">
-        <v>-3.33502</v>
+        <v>-3.61734</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -3964,10 +3964,10 @@
         <v>29</v>
       </c>
       <c r="O53">
-        <v>-25.9959</v>
+        <v>-28.4739</v>
       </c>
       <c r="P53">
-        <v>-3.46583</v>
+        <v>-3.78945</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -4014,10 +4014,10 @@
         <v>29</v>
       </c>
       <c r="O54">
-        <v>-26.6158</v>
+        <v>-29.2492</v>
       </c>
       <c r="P54">
-        <v>-3.54848</v>
+        <v>-3.89959</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -4064,10 +4064,10 @@
         <v>29</v>
       </c>
       <c r="O55">
-        <v>-27.5453</v>
+        <v>-30.54</v>
       </c>
       <c r="P55">
-        <v>-3.67241</v>
+        <v>-4.07172</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -4114,10 +4114,10 @@
         <v>29</v>
       </c>
       <c r="O56">
-        <v>-28.5773</v>
+        <v>-31.8312</v>
       </c>
       <c r="P56">
-        <v>-3.81001</v>
+        <v>-4.24387</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -4164,10 +4164,10 @@
         <v>29</v>
       </c>
       <c r="O57">
-        <v>-29.5073</v>
+        <v>-33.2252</v>
       </c>
       <c r="P57">
-        <v>-3.93402</v>
+        <v>-4.42974</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -4214,10 +4214,10 @@
         <v>29</v>
       </c>
       <c r="O58">
-        <v>-29.2493</v>
+        <v>-32.7607</v>
       </c>
       <c r="P58">
-        <v>-3.89962</v>
+        <v>-4.3678</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -4264,10 +4264,10 @@
         <v>29</v>
       </c>
       <c r="O59">
-        <v>-30.1789</v>
+        <v>-34.1551</v>
       </c>
       <c r="P59">
-        <v>-4.02357</v>
+        <v>-4.55371</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -4313,11 +4313,11 @@
       <c r="N60" t="s">
         <v>29</v>
       </c>
-      <c r="O60">
-        <v>-31.1083</v>
+      <c r="O60" s="3">
+        <v>-35.3915</v>
       </c>
       <c r="P60">
-        <v>-4.14751</v>
+        <v>-4.71859</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -4363,11 +4363,11 @@
       <c r="N61" t="s">
         <v>29</v>
       </c>
-      <c r="O61">
-        <v>-32.0894</v>
+      <c r="O61" s="3">
+        <v>-36.7883</v>
       </c>
       <c r="P61">
-        <v>-4.2783</v>
+        <v>-4.90484</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -4413,11 +4413,11 @@
       <c r="N62" t="s">
         <v>29</v>
       </c>
-      <c r="O62">
-        <v>-32.7606</v>
+      <c r="O62" s="3">
+        <v>-37.4591</v>
       </c>
       <c r="P62">
-        <v>-4.36779</v>
+        <v>-4.99426</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -4463,11 +4463,11 @@
       <c r="N63" t="s">
         <v>29</v>
       </c>
-      <c r="O63">
-        <v>-33.6902</v>
+      <c r="O63" s="3">
+        <v>-38.8537</v>
       </c>
       <c r="P63">
-        <v>-4.49173</v>
+        <v>-5.18019</v>
       </c>
     </row>
     <row r="64" spans="1:16">
@@ -4513,11 +4513,11 @@
       <c r="N64" t="s">
         <v>29</v>
       </c>
-      <c r="O64">
-        <v>-34.6712</v>
+      <c r="O64" s="3">
+        <v>-40.0929</v>
       </c>
       <c r="P64">
-        <v>-4.62253</v>
+        <v>-5.34542</v>
       </c>
     </row>
     <row r="65" spans="1:16">
@@ -4564,10 +4564,10 @@
         <v>29</v>
       </c>
       <c r="O65" s="3">
-        <v>-35.6525</v>
+        <v>-41.8485</v>
       </c>
       <c r="P65">
-        <v>-4.75338</v>
+        <v>-5.57952</v>
       </c>
     </row>
     <row r="66" spans="1:16">
@@ -4614,10 +4614,10 @@
         <v>165</v>
       </c>
       <c r="O66" s="2">
-        <v>46.711</v>
+        <v>54.4229</v>
       </c>
       <c r="P66">
-        <v>5.66212</v>
+        <v>6.5969</v>
       </c>
     </row>
     <row r="67" spans="1:16">
@@ -4664,10 +4664,10 @@
         <v>165</v>
       </c>
       <c r="O67" s="2">
-        <v>45.509</v>
+        <v>52.6702</v>
       </c>
       <c r="P67">
-        <v>5.51642</v>
+        <v>6.38445</v>
       </c>
     </row>
     <row r="68" spans="1:16">
@@ -4714,10 +4714,10 @@
         <v>165</v>
       </c>
       <c r="O68" s="2">
-        <v>43.7036</v>
+        <v>49.7129</v>
       </c>
       <c r="P68">
-        <v>5.2976</v>
+        <v>6.026</v>
       </c>
     </row>
     <row r="69" spans="1:16">
@@ -4764,10 +4764,10 @@
         <v>165</v>
       </c>
       <c r="O69" s="2">
-        <v>42.5029</v>
+        <v>48.0607</v>
       </c>
       <c r="P69">
-        <v>5.15206</v>
+        <v>5.82572</v>
       </c>
     </row>
     <row r="70" spans="1:16">
@@ -4814,10 +4814,10 @@
         <v>165</v>
       </c>
       <c r="O70" s="2">
-        <v>41.7665</v>
+        <v>47.2124</v>
       </c>
       <c r="P70">
-        <v>5.06279</v>
+        <v>5.7229</v>
       </c>
     </row>
     <row r="71" spans="1:16">
@@ -4864,10 +4864,10 @@
         <v>165</v>
       </c>
       <c r="O71" s="2">
-        <v>40.6491</v>
+        <v>45.5627</v>
       </c>
       <c r="P71">
-        <v>4.92735</v>
+        <v>5.52292</v>
       </c>
     </row>
     <row r="72" spans="1:16">
@@ -4914,10 +4914,10 @@
         <v>165</v>
       </c>
       <c r="O72" s="2">
-        <v>39.5471</v>
+        <v>44.1055</v>
       </c>
       <c r="P72">
-        <v>4.79378</v>
+        <v>5.35226</v>
       </c>
     </row>
     <row r="73" spans="1:16">
@@ -4964,10 +4964,10 @@
         <v>165</v>
       </c>
       <c r="O73" s="2">
-        <v>38.4452</v>
+        <v>42.5019</v>
       </c>
       <c r="P73">
-        <v>4.6602</v>
+        <v>5.15193</v>
       </c>
     </row>
     <row r="74" spans="1:16">
@@ -5014,10 +5014,10 @@
         <v>165</v>
       </c>
       <c r="O74" s="2">
-        <v>38.7458</v>
+        <v>43.2251</v>
       </c>
       <c r="P74">
-        <v>4.69666</v>
+        <v>5.23958</v>
       </c>
     </row>
     <row r="75" spans="1:16">
@@ -5064,10 +5064,10 @@
         <v>165</v>
       </c>
       <c r="O75" s="2">
-        <v>37.494</v>
+        <v>41.6005</v>
       </c>
       <c r="P75">
-        <v>4.54491</v>
+        <v>5.04267</v>
       </c>
     </row>
     <row r="76" spans="1:16">
@@ -5114,10 +5114,10 @@
         <v>165</v>
       </c>
       <c r="O76" s="2">
-        <v>36.3425</v>
+        <v>40.0981</v>
       </c>
       <c r="P76">
-        <v>4.40535</v>
+        <v>4.86056</v>
       </c>
     </row>
     <row r="77" spans="1:16">
@@ -5164,10 +5164,10 @@
         <v>165</v>
       </c>
       <c r="O77" s="2">
-        <v>35.241</v>
+        <v>38.3954</v>
       </c>
       <c r="P77">
-        <v>4.27182</v>
+        <v>4.65417</v>
       </c>
     </row>
     <row r="78" spans="1:16">
@@ -5213,11 +5213,11 @@
       <c r="N78" t="s">
         <v>165</v>
       </c>
-      <c r="O78">
-        <v>34.39</v>
+      <c r="O78" s="2">
+        <v>37.494</v>
       </c>
       <c r="P78">
-        <v>4.16867</v>
+        <v>4.54492</v>
       </c>
     </row>
     <row r="79" spans="1:16">
@@ -5263,11 +5263,11 @@
       <c r="N79" t="s">
         <v>165</v>
       </c>
-      <c r="O79">
-        <v>33.2385</v>
+      <c r="O79" s="2">
+        <v>35.7919</v>
       </c>
       <c r="P79">
-        <v>4.02909</v>
+        <v>4.3386</v>
       </c>
     </row>
     <row r="80" spans="1:16">
@@ -5314,10 +5314,10 @@
         <v>165</v>
       </c>
       <c r="O80">
-        <v>32.037</v>
+        <v>34.1907</v>
       </c>
       <c r="P80">
-        <v>3.88346</v>
+        <v>4.14451</v>
       </c>
     </row>
     <row r="81" spans="1:16">
@@ -5364,10 +5364,10 @@
         <v>165</v>
       </c>
       <c r="O81">
-        <v>30.8356</v>
+        <v>32.4379</v>
       </c>
       <c r="P81">
-        <v>3.73784</v>
+        <v>3.93206</v>
       </c>
     </row>
     <row r="82" spans="1:16">
@@ -5414,10 +5414,10 @@
         <v>165</v>
       </c>
       <c r="O82">
-        <v>30.9356</v>
+        <v>32.4376</v>
       </c>
       <c r="P82">
-        <v>3.74996</v>
+        <v>3.93202</v>
       </c>
     </row>
     <row r="83" spans="1:16">
@@ -5464,10 +5464,10 @@
         <v>165</v>
       </c>
       <c r="O83">
-        <v>28.5829</v>
+        <v>30.2346</v>
       </c>
       <c r="P83">
-        <v>3.46477</v>
+        <v>3.66498</v>
       </c>
     </row>
     <row r="84" spans="1:16">
@@ -5514,10 +5514,10 @@
         <v>165</v>
       </c>
       <c r="O84">
-        <v>26.38</v>
+        <v>28.0318</v>
       </c>
       <c r="P84">
-        <v>3.19775</v>
+        <v>3.39797</v>
       </c>
     </row>
     <row r="85" spans="1:16">
@@ -5564,10 +5564,10 @@
         <v>165</v>
       </c>
       <c r="O85">
-        <v>24.0765</v>
+        <v>25.6789</v>
       </c>
       <c r="P85">
-        <v>2.91856</v>
+        <v>3.11279</v>
       </c>
     </row>
     <row r="86" spans="1:16">
@@ -5614,10 +5614,10 @@
         <v>165</v>
       </c>
       <c r="O86">
-        <v>22.0736</v>
+        <v>23.7764</v>
       </c>
       <c r="P86">
-        <v>2.67577</v>
+        <v>2.88217</v>
       </c>
     </row>
     <row r="87" spans="1:16">
@@ -5664,10 +5664,10 @@
         <v>165</v>
       </c>
       <c r="O87">
-        <v>19.8707</v>
+        <v>21.474</v>
       </c>
       <c r="P87">
-        <v>2.40875</v>
+        <v>2.60308</v>
       </c>
     </row>
     <row r="88" spans="1:16">
@@ -5714,10 +5714,10 @@
         <v>165</v>
       </c>
       <c r="O88">
-        <v>17.8175</v>
+        <v>19.4199</v>
       </c>
       <c r="P88">
-        <v>2.15988</v>
+        <v>2.35411</v>
       </c>
     </row>
     <row r="89" spans="1:16">
@@ -5764,10 +5764,10 @@
         <v>165</v>
       </c>
       <c r="O89">
-        <v>15.5644</v>
+        <v>17.2669</v>
       </c>
       <c r="P89">
-        <v>1.88678</v>
+        <v>2.09314</v>
       </c>
     </row>
     <row r="90" spans="1:16">
@@ -5814,10 +5814,10 @@
         <v>165</v>
       </c>
       <c r="O90">
-        <v>14.6628</v>
+        <v>14.563</v>
       </c>
       <c r="P90">
-        <v>1.7775</v>
+        <v>1.76539</v>
       </c>
     </row>
     <row r="91" spans="1:16">
@@ -5864,10 +5864,10 @@
         <v>165</v>
       </c>
       <c r="O91">
-        <v>12.3095</v>
+        <v>12.2598</v>
       </c>
       <c r="P91">
-        <v>1.49226</v>
+        <v>1.48622</v>
       </c>
     </row>
     <row r="92" spans="1:16">
@@ -5914,10 +5914,10 @@
         <v>165</v>
       </c>
       <c r="O92">
-        <v>9.957190000000001</v>
+        <v>10.0062</v>
       </c>
       <c r="P92">
-        <v>1.20711</v>
+        <v>1.21306</v>
       </c>
     </row>
     <row r="93" spans="1:16">
@@ -5964,10 +5964,10 @@
         <v>165</v>
       </c>
       <c r="O93">
-        <v>7.7534</v>
+        <v>7.80316</v>
       </c>
       <c r="P93">
-        <v>0.93999</v>
+        <v>0.946024</v>
       </c>
     </row>
     <row r="94" spans="1:16">
@@ -6014,10 +6014,10 @@
         <v>165</v>
       </c>
       <c r="O94">
-        <v>6.00383</v>
+        <v>6.00082</v>
       </c>
       <c r="P94">
-        <v>0.727923</v>
+        <v>0.727556</v>
       </c>
     </row>
     <row r="95" spans="1:16">
@@ -6064,10 +6064,10 @@
         <v>165</v>
       </c>
       <c r="O95">
-        <v>4.04894</v>
+        <v>4.04883</v>
       </c>
       <c r="P95">
-        <v>0.490968</v>
+        <v>0.490961</v>
       </c>
     </row>
     <row r="96" spans="1:16">
@@ -6114,10 +6114,10 @@
         <v>165</v>
       </c>
       <c r="O96">
-        <v>2.0465</v>
+        <v>2.04659</v>
       </c>
       <c r="P96">
-        <v>0.248248</v>
+        <v>0.24826</v>
       </c>
     </row>
     <row r="97" spans="1:16">
@@ -6164,10 +6164,10 @@
         <v>165</v>
       </c>
       <c r="O97">
-        <v>-0.00483067</v>
+        <v>-0.00486829</v>
       </c>
       <c r="P97">
-        <v>-0.000404302</v>
+        <v>-0.000406119</v>
       </c>
     </row>
     <row r="98" spans="1:16">
@@ -6214,10 +6214,10 @@
         <v>165</v>
       </c>
       <c r="O98">
-        <v>0.0449152</v>
+        <v>0.0448835</v>
       </c>
       <c r="P98">
-        <v>0.00563145</v>
+        <v>0.00562685</v>
       </c>
     </row>
     <row r="99" spans="1:16">
@@ -6264,10 +6264,10 @@
         <v>165</v>
       </c>
       <c r="O99">
-        <v>-2.05719</v>
+        <v>-2.00736</v>
       </c>
       <c r="P99">
-        <v>-0.249173</v>
+        <v>-0.243131</v>
       </c>
     </row>
     <row r="100" spans="1:16">
@@ -6314,10 +6314,10 @@
         <v>165</v>
       </c>
       <c r="O100">
-        <v>-3.959</v>
+        <v>-4.00593</v>
       </c>
       <c r="P100">
-        <v>-0.479691</v>
+        <v>-0.485384</v>
       </c>
     </row>
     <row r="101" spans="1:16">
@@ -6364,10 +6364,10 @@
         <v>165</v>
       </c>
       <c r="O101">
-        <v>-5.96131</v>
+        <v>-6.01097</v>
       </c>
       <c r="P101">
-        <v>-0.722396</v>
+        <v>-0.728413</v>
       </c>
     </row>
     <row r="102" spans="1:16">
@@ -6414,10 +6414,10 @@
         <v>165</v>
       </c>
       <c r="O102">
-        <v>-7.81305</v>
+        <v>-7.86271</v>
       </c>
       <c r="P102">
-        <v>-0.946856</v>
+        <v>-0.952866</v>
       </c>
     </row>
     <row r="103" spans="1:16">
@@ -6464,7 +6464,7 @@
         <v>165</v>
       </c>
       <c r="O103">
-        <v>-10.0151</v>
+        <v>-10.0152</v>
       </c>
       <c r="P103">
         <v>-1.21377</v>
@@ -6514,10 +6514,10 @@
         <v>165</v>
       </c>
       <c r="O104">
-        <v>-12.2677</v>
+        <v>-12.2179</v>
       </c>
       <c r="P104">
-        <v>-1.48681</v>
+        <v>-1.48077</v>
       </c>
     </row>
     <row r="105" spans="1:16">
@@ -6564,10 +6564,10 @@
         <v>165</v>
       </c>
       <c r="O105">
-        <v>-14.5205</v>
+        <v>-14.5707</v>
       </c>
       <c r="P105">
-        <v>-1.75988</v>
+        <v>-1.76595</v>
       </c>
     </row>
     <row r="106" spans="1:16">
@@ -6614,10 +6614,10 @@
         <v>165</v>
       </c>
       <c r="O106">
-        <v>-15.5706</v>
+        <v>-17.273</v>
       </c>
       <c r="P106">
-        <v>-1.88715</v>
+        <v>-2.09351</v>
       </c>
     </row>
     <row r="107" spans="1:16">
@@ -6664,10 +6664,10 @@
         <v>165</v>
       </c>
       <c r="O107">
-        <v>-17.8684</v>
+        <v>-19.4254</v>
       </c>
       <c r="P107">
-        <v>-2.16568</v>
+        <v>-2.35439</v>
       </c>
     </row>
     <row r="108" spans="1:16">
@@ -6714,10 +6714,10 @@
         <v>165</v>
       </c>
       <c r="O108">
-        <v>-19.9256</v>
+        <v>-21.5777</v>
       </c>
       <c r="P108">
-        <v>-2.41503</v>
+        <v>-2.6153</v>
       </c>
     </row>
     <row r="109" spans="1:16">
@@ -6764,10 +6764,10 @@
         <v>165</v>
       </c>
       <c r="O109">
-        <v>-22.0283</v>
+        <v>-23.68</v>
       </c>
       <c r="P109">
-        <v>-2.66993</v>
+        <v>-2.87012</v>
       </c>
     </row>
     <row r="110" spans="1:16">
@@ -6814,10 +6814,10 @@
         <v>165</v>
       </c>
       <c r="O110">
-        <v>-23.981</v>
+        <v>-25.6821</v>
       </c>
       <c r="P110">
-        <v>-2.9066</v>
+        <v>-3.1128</v>
       </c>
     </row>
     <row r="111" spans="1:16">
@@ -6864,10 +6864,10 @@
         <v>165</v>
       </c>
       <c r="O111">
-        <v>-26.2825</v>
+        <v>-27.9334</v>
       </c>
       <c r="P111">
-        <v>-3.18557</v>
+        <v>-3.38568</v>
       </c>
     </row>
     <row r="112" spans="1:16">
@@ -6914,10 +6914,10 @@
         <v>165</v>
       </c>
       <c r="O112">
-        <v>-28.4339</v>
+        <v>-30.1349</v>
       </c>
       <c r="P112">
-        <v>-3.44634</v>
+        <v>-3.65253</v>
       </c>
     </row>
     <row r="113" spans="1:16">
@@ -6964,10 +6964,10 @@
         <v>165</v>
       </c>
       <c r="O113">
-        <v>-30.8348</v>
+        <v>-32.3863</v>
       </c>
       <c r="P113">
-        <v>-3.73736</v>
+        <v>-3.92543</v>
       </c>
     </row>
     <row r="114" spans="1:16">
@@ -7014,10 +7014,10 @@
         <v>165</v>
       </c>
       <c r="O114">
-        <v>-30.8348</v>
+        <v>-32.3362</v>
       </c>
       <c r="P114">
-        <v>-3.73737</v>
+        <v>-3.91935</v>
       </c>
     </row>
     <row r="115" spans="1:16">
@@ -7064,10 +7064,10 @@
         <v>165</v>
       </c>
       <c r="O115">
-        <v>-31.9861</v>
+        <v>-34.0872</v>
       </c>
       <c r="P115">
-        <v>-3.87691</v>
+        <v>-4.1316</v>
       </c>
     </row>
     <row r="116" spans="1:16">
@@ -7113,11 +7113,11 @@
       <c r="N116" t="s">
         <v>165</v>
       </c>
-      <c r="O116">
-        <v>-33.0867</v>
+      <c r="O116" s="3">
+        <v>-35.6881</v>
       </c>
       <c r="P116">
-        <v>-4.01032</v>
+        <v>-4.32565</v>
       </c>
     </row>
     <row r="117" spans="1:16">
@@ -7163,11 +7163,11 @@
       <c r="N117" t="s">
         <v>165</v>
       </c>
-      <c r="O117">
-        <v>-34.3374</v>
+      <c r="O117" s="3">
+        <v>-37.4893</v>
       </c>
       <c r="P117">
-        <v>-4.16192</v>
+        <v>-4.54397</v>
       </c>
     </row>
     <row r="118" spans="1:16">
@@ -7214,10 +7214,10 @@
         <v>165</v>
       </c>
       <c r="O118" s="3">
-        <v>-35.1868</v>
+        <v>-38.3899</v>
       </c>
       <c r="P118">
-        <v>-4.26488</v>
+        <v>-4.65313</v>
       </c>
     </row>
     <row r="119" spans="1:16">
@@ -7264,10 +7264,10 @@
         <v>165</v>
       </c>
       <c r="O119" s="3">
-        <v>-36.3887</v>
+        <v>-40.1412</v>
       </c>
       <c r="P119">
-        <v>-4.41057</v>
+        <v>-4.8654</v>
       </c>
     </row>
     <row r="120" spans="1:16">
@@ -7314,10 +7314,10 @@
         <v>165</v>
       </c>
       <c r="O120" s="3">
-        <v>-37.4893</v>
+        <v>-41.7921</v>
       </c>
       <c r="P120">
-        <v>-4.54397</v>
+        <v>-5.06552</v>
       </c>
     </row>
     <row r="121" spans="1:16">
@@ -7364,10 +7364,10 @@
         <v>165</v>
       </c>
       <c r="O121" s="3">
-        <v>-38.6901</v>
+        <v>-43.4434</v>
       </c>
       <c r="P121">
-        <v>-4.68952</v>
+        <v>-5.2657</v>
       </c>
     </row>
     <row r="122" spans="1:16">
@@ -7414,10 +7414,10 @@
         <v>165</v>
       </c>
       <c r="O122" s="3">
-        <v>-38.4397</v>
+        <v>-42.743</v>
       </c>
       <c r="P122">
-        <v>-4.65917</v>
+        <v>-5.18078</v>
       </c>
     </row>
     <row r="123" spans="1:16">
@@ -7464,10 +7464,10 @@
         <v>165</v>
       </c>
       <c r="O123" s="3">
-        <v>-39.6406</v>
+        <v>-44.6934</v>
       </c>
       <c r="P123">
-        <v>-4.80474</v>
+        <v>-5.4172</v>
       </c>
     </row>
     <row r="124" spans="1:16">
@@ -7514,10 +7514,10 @@
         <v>165</v>
       </c>
       <c r="O124" s="3">
-        <v>-40.7918</v>
+        <v>-46.3453</v>
       </c>
       <c r="P124">
-        <v>-4.94426</v>
+        <v>-5.61743</v>
       </c>
     </row>
     <row r="125" spans="1:16">
@@ -7564,10 +7564,10 @@
         <v>165</v>
       </c>
       <c r="O125" s="3">
-        <v>-41.9926</v>
+        <v>-48.2463</v>
       </c>
       <c r="P125">
-        <v>-5.08982</v>
+        <v>-5.84784</v>
       </c>
     </row>
     <row r="126" spans="1:16">
@@ -7614,10 +7614,10 @@
         <v>165</v>
       </c>
       <c r="O126" s="3">
-        <v>-42.7922</v>
+        <v>-49.0969</v>
       </c>
       <c r="P126">
-        <v>-5.18674</v>
+        <v>-5.95096</v>
       </c>
     </row>
     <row r="127" spans="1:16">
@@ -7664,10 +7664,10 @@
         <v>165</v>
       </c>
       <c r="O127" s="3">
-        <v>-43.9937</v>
+        <v>-50.9981</v>
       </c>
       <c r="P127">
-        <v>-5.33239</v>
+        <v>-6.18139</v>
       </c>
     </row>
     <row r="128" spans="1:16">
@@ -7714,10 +7714,10 @@
         <v>165</v>
       </c>
       <c r="O128" s="3">
-        <v>-45.2945</v>
+        <v>-52.5494</v>
       </c>
       <c r="P128">
-        <v>-5.49007</v>
+        <v>-6.36944</v>
       </c>
     </row>
     <row r="129" spans="1:16">
@@ -7764,10 +7764,10 @@
         <v>165</v>
       </c>
       <c r="O129" s="3">
-        <v>-46.6452</v>
+        <v>-54.3003</v>
       </c>
       <c r="P129">
-        <v>-5.65377</v>
+        <v>-6.58167</v>
       </c>
     </row>
     <row r="130" spans="1:16">
@@ -7814,10 +7814,10 @@
         <v>239</v>
       </c>
       <c r="O130">
-        <v>27.6514</v>
+        <v>32.1975</v>
       </c>
       <c r="P130">
-        <v>4.10458</v>
+        <v>4.77062</v>
       </c>
     </row>
     <row r="131" spans="1:16">
@@ -7864,10 +7864,10 @@
         <v>239</v>
       </c>
       <c r="O131">
-        <v>27.0308</v>
+        <v>31.0604</v>
       </c>
       <c r="P131">
-        <v>4.0052</v>
+        <v>4.60216</v>
       </c>
     </row>
     <row r="132" spans="1:16">
@@ -7914,10 +7914,10 @@
         <v>239</v>
       </c>
       <c r="O132">
-        <v>26.8713</v>
+        <v>30.4367</v>
       </c>
       <c r="P132">
-        <v>3.98156</v>
+        <v>4.50979</v>
       </c>
     </row>
     <row r="133" spans="1:16">
@@ -7964,10 +7964,10 @@
         <v>239</v>
       </c>
       <c r="O133">
-        <v>26.2004</v>
+        <v>29.4053</v>
       </c>
       <c r="P133">
-        <v>3.88221</v>
+        <v>4.36429</v>
       </c>
     </row>
     <row r="134" spans="1:16">
@@ -8014,10 +8014,10 @@
         <v>239</v>
       </c>
       <c r="O134">
-        <v>25.7864</v>
+        <v>28.9908</v>
       </c>
       <c r="P134">
-        <v>3.82084</v>
+        <v>4.29561</v>
       </c>
     </row>
     <row r="135" spans="1:16">
@@ -8064,10 +8064,10 @@
         <v>239</v>
       </c>
       <c r="O135">
-        <v>24.9608</v>
+        <v>27.9176</v>
       </c>
       <c r="P135">
-        <v>3.70603</v>
+        <v>4.13651</v>
       </c>
     </row>
     <row r="136" spans="1:16">
@@ -8114,10 +8114,10 @@
         <v>239</v>
       </c>
       <c r="O136">
-        <v>24.3404</v>
+        <v>27.0274</v>
       </c>
       <c r="P136">
-        <v>3.60659</v>
+        <v>4.00474</v>
       </c>
     </row>
     <row r="137" spans="1:16">
@@ -8164,10 +8164,10 @@
         <v>239</v>
       </c>
       <c r="O137">
-        <v>23.6168</v>
+        <v>26.046</v>
       </c>
       <c r="P137">
-        <v>3.49942</v>
+        <v>3.85932</v>
       </c>
     </row>
     <row r="138" spans="1:16">
@@ -8214,10 +8214,10 @@
         <v>239</v>
       </c>
       <c r="O138">
-        <v>23.9314</v>
+        <v>26.5627</v>
       </c>
       <c r="P138">
-        <v>3.55293</v>
+        <v>3.93583</v>
       </c>
     </row>
     <row r="139" spans="1:16">
@@ -8264,10 +8264,10 @@
         <v>239</v>
       </c>
       <c r="O139">
-        <v>23.3067</v>
+        <v>25.4254</v>
       </c>
       <c r="P139">
-        <v>3.4535</v>
+        <v>3.7674</v>
       </c>
     </row>
     <row r="140" spans="1:16">
@@ -8314,10 +8314,10 @@
         <v>239</v>
       </c>
       <c r="O140">
-        <v>22.688</v>
+        <v>24.5474</v>
       </c>
       <c r="P140">
-        <v>3.36183</v>
+        <v>3.63731</v>
       </c>
     </row>
     <row r="141" spans="1:16">
@@ -8364,10 +8364,10 @@
         <v>239</v>
       </c>
       <c r="O141">
-        <v>22.0675</v>
+        <v>23.5656</v>
       </c>
       <c r="P141">
-        <v>3.26992</v>
+        <v>3.49185</v>
       </c>
     </row>
     <row r="142" spans="1:16">
@@ -8414,10 +8414,10 @@
         <v>239</v>
       </c>
       <c r="O142">
-        <v>21.6028</v>
+        <v>23.0497</v>
       </c>
       <c r="P142">
-        <v>3.20107</v>
+        <v>3.41542</v>
       </c>
     </row>
     <row r="143" spans="1:16">
@@ -8464,10 +8464,10 @@
         <v>239</v>
       </c>
       <c r="O143">
-        <v>20.8824</v>
+        <v>22.1253</v>
       </c>
       <c r="P143">
-        <v>3.10146</v>
+        <v>3.28517</v>
       </c>
     </row>
     <row r="144" spans="1:16">
@@ -8514,10 +8514,10 @@
         <v>239</v>
       </c>
       <c r="O144">
-        <v>20.4146</v>
+        <v>21.295</v>
       </c>
       <c r="P144">
-        <v>3.02502</v>
+        <v>3.15549</v>
       </c>
     </row>
     <row r="145" spans="1:16">
@@ -8564,10 +8564,10 @@
         <v>239</v>
       </c>
       <c r="O145">
-        <v>19.6399</v>
+        <v>20.3718</v>
       </c>
       <c r="P145">
-        <v>2.91789</v>
+        <v>3.0186</v>
       </c>
     </row>
     <row r="146" spans="1:16">
@@ -8614,10 +8614,10 @@
         <v>239</v>
       </c>
       <c r="O146">
-        <v>19.6448</v>
+        <v>20.3643</v>
       </c>
       <c r="P146">
-        <v>2.91089</v>
+        <v>3.02505</v>
       </c>
     </row>
     <row r="147" spans="1:16">
@@ -8664,10 +8664,10 @@
         <v>239</v>
       </c>
       <c r="O147">
-        <v>18.2965</v>
+        <v>19.1232</v>
       </c>
       <c r="P147">
-        <v>2.71122</v>
+        <v>2.83371</v>
       </c>
     </row>
     <row r="148" spans="1:16">
@@ -8714,10 +8714,10 @@
         <v>239</v>
       </c>
       <c r="O148">
-        <v>17.0551</v>
+        <v>17.9458</v>
       </c>
       <c r="P148">
-        <v>2.52736</v>
+        <v>2.65924</v>
       </c>
     </row>
     <row r="149" spans="1:16">
@@ -8764,10 +8764,10 @@
         <v>239</v>
       </c>
       <c r="O149">
-        <v>15.7638</v>
+        <v>16.5458</v>
       </c>
       <c r="P149">
-        <v>2.3435</v>
+        <v>2.45183</v>
       </c>
     </row>
     <row r="150" spans="1:16">
@@ -8814,10 +8814,10 @@
         <v>239</v>
       </c>
       <c r="O150">
-        <v>14.8325</v>
+        <v>15.4541</v>
       </c>
       <c r="P150">
-        <v>2.19803</v>
+        <v>2.29754</v>
       </c>
     </row>
     <row r="151" spans="1:16">
@@ -8864,10 +8864,10 @@
         <v>239</v>
       </c>
       <c r="O151">
-        <v>13.4881</v>
+        <v>14.1603</v>
       </c>
       <c r="P151">
-        <v>1.99885</v>
+        <v>2.09846</v>
       </c>
     </row>
     <row r="152" spans="1:16">
@@ -8914,10 +8914,10 @@
         <v>239</v>
       </c>
       <c r="O152">
-        <v>12.0413</v>
+        <v>12.922</v>
       </c>
       <c r="P152">
-        <v>1.78453</v>
+        <v>1.92236</v>
       </c>
     </row>
     <row r="153" spans="1:16">
@@ -8964,10 +8964,10 @@
         <v>239</v>
       </c>
       <c r="O153">
-        <v>10.5421</v>
+        <v>11.4309</v>
       </c>
       <c r="P153">
-        <v>1.56244</v>
+        <v>1.70028</v>
       </c>
     </row>
     <row r="154" spans="1:16">
@@ -9014,10 +9014,10 @@
         <v>239</v>
       </c>
       <c r="O154">
-        <v>10.3354</v>
+        <v>10.3362</v>
       </c>
       <c r="P154">
-        <v>1.53182</v>
+        <v>1.53191</v>
       </c>
     </row>
     <row r="155" spans="1:16">
@@ -9064,10 +9064,10 @@
         <v>239</v>
       </c>
       <c r="O155">
-        <v>8.73263</v>
+        <v>8.629770000000001</v>
       </c>
       <c r="P155">
-        <v>1.29432</v>
+        <v>1.27911</v>
       </c>
     </row>
     <row r="156" spans="1:16">
@@ -9114,10 +9114,10 @@
         <v>239</v>
       </c>
       <c r="O156">
-        <v>7.13173</v>
+        <v>7.07981</v>
       </c>
       <c r="P156">
-        <v>1.06468</v>
+        <v>1.0495</v>
       </c>
     </row>
     <row r="157" spans="1:16">
@@ -9164,10 +9164,10 @@
         <v>239</v>
       </c>
       <c r="O157">
-        <v>5.54459</v>
+        <v>5.57983</v>
       </c>
       <c r="P157">
-        <v>0.822257</v>
+        <v>0.827255</v>
       </c>
     </row>
     <row r="158" spans="1:16">
@@ -9214,10 +9214,10 @@
         <v>239</v>
       </c>
       <c r="O158">
-        <v>4.44367</v>
+        <v>4.39253</v>
       </c>
       <c r="P158">
-        <v>0.658942</v>
+        <v>0.658794</v>
       </c>
     </row>
     <row r="159" spans="1:16">
@@ -9264,10 +9264,10 @@
         <v>239</v>
       </c>
       <c r="O159">
-        <v>2.94419</v>
+        <v>2.99543</v>
       </c>
       <c r="P159">
-        <v>0.436778</v>
+        <v>0.444433</v>
       </c>
     </row>
     <row r="160" spans="1:16">
@@ -9314,10 +9314,10 @@
         <v>239</v>
       </c>
       <c r="O160">
-        <v>1.49715</v>
+        <v>1.54879</v>
       </c>
       <c r="P160">
-        <v>0.222433</v>
+        <v>0.230046</v>
       </c>
     </row>
     <row r="161" spans="1:16">
@@ -9364,10 +9364,10 @@
         <v>239</v>
       </c>
       <c r="O161">
-        <v>0.100959</v>
+        <v>0.152963</v>
       </c>
       <c r="P161">
-        <v>0.0155621</v>
+        <v>0.0232627</v>
       </c>
     </row>
     <row r="162" spans="1:16">
@@ -9414,10 +9414,10 @@
         <v>239</v>
       </c>
       <c r="O162">
-        <v>0.101554</v>
+        <v>0.101882</v>
       </c>
       <c r="P162">
-        <v>0.0156548</v>
+        <v>0.023261</v>
       </c>
     </row>
     <row r="163" spans="1:16">
@@ -9464,10 +9464,10 @@
         <v>239</v>
       </c>
       <c r="O163">
-        <v>-1.29399</v>
+        <v>-1.34567</v>
       </c>
       <c r="P163">
-        <v>-0.191098</v>
+        <v>-0.198697</v>
       </c>
     </row>
     <row r="164" spans="1:16">
@@ -9514,10 +9514,10 @@
         <v>239</v>
       </c>
       <c r="O164">
-        <v>-2.74015</v>
+        <v>-2.74038</v>
       </c>
       <c r="P164">
-        <v>-0.405304</v>
+        <v>-0.405388</v>
       </c>
     </row>
     <row r="165" spans="1:16">
@@ -9564,10 +9564,10 @@
         <v>239</v>
       </c>
       <c r="O165">
-        <v>-4.23911</v>
+        <v>-4.23864</v>
       </c>
       <c r="P165">
-        <v>-0.627386</v>
+        <v>-0.627313</v>
       </c>
     </row>
     <row r="166" spans="1:16">
@@ -9614,10 +9614,10 @@
         <v>239</v>
       </c>
       <c r="O166">
-        <v>-5.42735</v>
+        <v>-5.47278</v>
       </c>
       <c r="P166">
-        <v>-0.803434</v>
+        <v>-0.810218</v>
       </c>
     </row>
     <row r="167" spans="1:16">
@@ -9664,10 +9664,10 @@
         <v>239</v>
       </c>
       <c r="O167">
-        <v>-6.97765</v>
+        <v>-7.02306</v>
       </c>
       <c r="P167">
-        <v>-1.03312</v>
+        <v>-1.03987</v>
       </c>
     </row>
     <row r="168" spans="1:16">
@@ -9714,10 +9714,10 @@
         <v>239</v>
       </c>
       <c r="O168">
-        <v>-8.320169999999999</v>
+        <v>-8.31392</v>
       </c>
       <c r="P168">
-        <v>-1.23198</v>
+        <v>-1.23113</v>
       </c>
     </row>
     <row r="169" spans="1:16">
@@ -9764,10 +9764,10 @@
         <v>239</v>
       </c>
       <c r="O169">
-        <v>-9.659990000000001</v>
+        <v>-9.71589</v>
       </c>
       <c r="P169">
-        <v>-1.42343</v>
+        <v>-1.43878</v>
       </c>
     </row>
     <row r="170" spans="1:16">
@@ -9814,10 +9814,10 @@
         <v>239</v>
       </c>
       <c r="O170">
-        <v>-9.81878</v>
+        <v>-10.6974</v>
       </c>
       <c r="P170">
-        <v>-1.45402</v>
+        <v>-1.58419</v>
       </c>
     </row>
     <row r="171" spans="1:16">
@@ -9864,10 +9864,10 @@
         <v>239</v>
       </c>
       <c r="O171">
-        <v>-11.1618</v>
+        <v>-11.9887</v>
       </c>
       <c r="P171">
-        <v>-1.65295</v>
+        <v>-1.77549</v>
       </c>
     </row>
     <row r="172" spans="1:16">
@@ -9914,10 +9914,10 @@
         <v>239</v>
       </c>
       <c r="O172">
-        <v>-12.3513</v>
+        <v>-13.2811</v>
       </c>
       <c r="P172">
-        <v>-1.82915</v>
+        <v>-1.96696</v>
       </c>
     </row>
     <row r="173" spans="1:16">
@@ -9964,10 +9964,10 @@
         <v>239</v>
       </c>
       <c r="O173">
-        <v>-13.7454</v>
+        <v>-14.5208</v>
       </c>
       <c r="P173">
-        <v>-2.0357</v>
+        <v>-2.15062</v>
       </c>
     </row>
     <row r="174" spans="1:16">
@@ -10014,10 +10014,10 @@
         <v>239</v>
       </c>
       <c r="O174">
-        <v>-14.8312</v>
+        <v>-15.4516</v>
       </c>
       <c r="P174">
-        <v>-2.19659</v>
+        <v>-2.28849</v>
       </c>
     </row>
     <row r="175" spans="1:16">
@@ -10064,10 +10064,10 @@
         <v>239</v>
       </c>
       <c r="O175">
-        <v>-15.8644</v>
+        <v>-16.838</v>
       </c>
       <c r="P175">
-        <v>-2.34965</v>
+        <v>-2.49397</v>
       </c>
     </row>
     <row r="176" spans="1:16">
@@ -10114,10 +10114,10 @@
         <v>239</v>
       </c>
       <c r="O176">
-        <v>-17.1566</v>
+        <v>-17.7769</v>
       </c>
       <c r="P176">
-        <v>-2.54107</v>
+        <v>-2.63293</v>
       </c>
     </row>
     <row r="177" spans="1:16">
@@ -10164,10 +10164,10 @@
         <v>239</v>
       </c>
       <c r="O177">
-        <v>-18.2931</v>
+        <v>-19.1638</v>
       </c>
       <c r="P177">
-        <v>-2.70944</v>
+        <v>-2.83853</v>
       </c>
     </row>
     <row r="178" spans="1:16">
@@ -10214,10 +10214,10 @@
         <v>239</v>
       </c>
       <c r="O178">
-        <v>-18.2925</v>
+        <v>-19.1633</v>
       </c>
       <c r="P178">
-        <v>-2.70938</v>
+        <v>-2.83845</v>
       </c>
     </row>
     <row r="179" spans="1:16">
@@ -10264,10 +10264,10 @@
         <v>239</v>
       </c>
       <c r="O179">
-        <v>-19.1714</v>
+        <v>-20.3088</v>
       </c>
       <c r="P179">
-        <v>-2.83954</v>
+        <v>-3.00806</v>
       </c>
     </row>
     <row r="180" spans="1:16">
@@ -10314,10 +10314,10 @@
         <v>239</v>
       </c>
       <c r="O180">
-        <v>-19.8445</v>
+        <v>-21.3835</v>
       </c>
       <c r="P180">
-        <v>-2.93927</v>
+        <v>-3.16735</v>
       </c>
     </row>
     <row r="181" spans="1:16">
@@ -10364,10 +10364,10 @@
         <v>239</v>
       </c>
       <c r="O181">
-        <v>-20.7108</v>
+        <v>-22.5748</v>
       </c>
       <c r="P181">
-        <v>-3.06742</v>
+        <v>-3.32976</v>
       </c>
     </row>
     <row r="182" spans="1:16">
@@ -10414,10 +10414,10 @@
         <v>239</v>
       </c>
       <c r="O182">
-        <v>-21.1334</v>
+        <v>-23.093</v>
       </c>
       <c r="P182">
-        <v>-3.13024</v>
+        <v>-3.42061</v>
       </c>
     </row>
     <row r="183" spans="1:16">
@@ -10464,10 +10464,10 @@
         <v>239</v>
       </c>
       <c r="O183">
-        <v>-21.9121</v>
+        <v>-24.338</v>
       </c>
       <c r="P183">
-        <v>-3.24559</v>
+        <v>-3.60501</v>
       </c>
     </row>
     <row r="184" spans="1:16">
@@ -10514,10 +10514,10 @@
         <v>239</v>
       </c>
       <c r="O184">
-        <v>-22.738</v>
+        <v>-25.2711</v>
       </c>
       <c r="P184">
-        <v>-3.36799</v>
+        <v>-3.74322</v>
       </c>
     </row>
     <row r="185" spans="1:16">
@@ -10564,10 +10564,10 @@
         <v>239</v>
       </c>
       <c r="O185">
-        <v>-23.6176</v>
+        <v>-26.5116</v>
       </c>
       <c r="P185">
-        <v>-3.49828</v>
+        <v>-3.92699</v>
       </c>
     </row>
     <row r="186" spans="1:16">
@@ -10614,10 +10614,10 @@
         <v>239</v>
       </c>
       <c r="O186">
-        <v>-23.3072</v>
+        <v>-25.9435</v>
       </c>
       <c r="P186">
-        <v>-3.45231</v>
+        <v>-3.84285</v>
       </c>
     </row>
     <row r="187" spans="1:16">
@@ -10664,10 +10664,10 @@
         <v>239</v>
       </c>
       <c r="O187">
-        <v>-24.0828</v>
+        <v>-27.1321</v>
       </c>
       <c r="P187">
-        <v>-3.56721</v>
+        <v>-4.01896</v>
       </c>
     </row>
     <row r="188" spans="1:16">
@@ -10714,10 +10714,10 @@
         <v>239</v>
       </c>
       <c r="O188">
-        <v>-24.8572</v>
+        <v>-28.166</v>
       </c>
       <c r="P188">
-        <v>-3.68194</v>
+        <v>-4.17213</v>
       </c>
     </row>
     <row r="189" spans="1:16">
@@ -10764,10 +10764,10 @@
         <v>239</v>
       </c>
       <c r="O189">
-        <v>-25.683</v>
+        <v>-29.2494</v>
       </c>
       <c r="P189">
-        <v>-3.80427</v>
+        <v>-4.33263</v>
       </c>
     </row>
     <row r="190" spans="1:16">
@@ -10814,10 +10814,10 @@
         <v>239</v>
       </c>
       <c r="O190">
-        <v>-26.0987</v>
+        <v>-29.7176</v>
       </c>
       <c r="P190">
-        <v>-3.86586</v>
+        <v>-4.40195</v>
       </c>
     </row>
     <row r="191" spans="1:16">
@@ -10864,10 +10864,10 @@
         <v>239</v>
       </c>
       <c r="O191">
-        <v>-26.978</v>
+        <v>-31.0073</v>
       </c>
       <c r="P191">
-        <v>-3.99613</v>
+        <v>-4.59302</v>
       </c>
     </row>
     <row r="192" spans="1:16">
@@ -10914,10 +10914,10 @@
         <v>239</v>
       </c>
       <c r="O192">
-        <v>-27.7002</v>
+        <v>-31.9911</v>
       </c>
       <c r="P192">
-        <v>-4.09564</v>
+        <v>-4.73127</v>
       </c>
     </row>
     <row r="193" spans="1:16">
@@ -10964,10 +10964,10 @@
         <v>239</v>
       </c>
       <c r="O193">
-        <v>-28.5795</v>
+        <v>-33.1229</v>
       </c>
       <c r="P193">
-        <v>-4.22593</v>
+        <v>-4.90652</v>
       </c>
     </row>
     <row r="194" spans="1:16" s="1" customFormat="1">
@@ -11025,10 +11025,10 @@
         <v>303</v>
       </c>
       <c r="O195" s="3">
-        <v>-46.6452</v>
+        <v>-54.3003</v>
       </c>
       <c r="P195" s="1">
-        <v>-5.65377</v>
+        <v>-6.58167</v>
       </c>
     </row>
     <row r="196" spans="1:16" s="1" customFormat="1">
@@ -11036,10 +11036,10 @@
         <v>304</v>
       </c>
       <c r="O196" s="2">
-        <v>46.711</v>
+        <v>54.4229</v>
       </c>
       <c r="P196" s="1">
-        <v>5.66212</v>
+        <v>6.5969</v>
       </c>
     </row>
     <row r="197" spans="1:16" s="1" customFormat="1">
@@ -11079,10 +11079,10 @@
         <v>309</v>
       </c>
       <c r="O201" s="1">
-        <v>0.1454696</v>
+        <v>0.08945077</v>
       </c>
       <c r="P201" s="1">
-        <v>0.02147843</v>
+        <v>0.0139967</v>
       </c>
     </row>
     <row r="202" spans="1:16" s="1" customFormat="1">
@@ -11090,10 +11090,10 @@
         <v>310</v>
       </c>
       <c r="O202" s="1">
-        <v>24.475427</v>
+        <v>27.177627</v>
       </c>
       <c r="P202" s="1">
-        <v>3.192852</v>
+        <v>3.543699</v>
       </c>
     </row>
     <row r="203" spans="1:16" s="1" customFormat="1">
@@ -11101,10 +11101,10 @@
         <v>311</v>
       </c>
       <c r="O203" s="1">
-        <v>16825.114663</v>
+        <v>30382.775911</v>
       </c>
       <c r="P203" s="1">
-        <v>14865.388206</v>
+        <v>25318.103553</v>
       </c>
     </row>
     <row r="204" spans="1:16" s="1" customFormat="1"/>

--- a/dcd_top_offset_step_tsmc2p_meas.xlsx
+++ b/dcd_top_offset_step_tsmc2p_meas.xlsx
@@ -1413,11 +1413,11 @@
       <c r="N2" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="2">
-        <v>41.8632</v>
+      <c r="O2">
+        <v>34.891</v>
       </c>
       <c r="P2">
-        <v>5.58205</v>
+        <v>4.65243</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1463,11 +1463,11 @@
       <c r="N3" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="2">
-        <v>40.4685</v>
+      <c r="O3">
+        <v>33.3414</v>
       </c>
       <c r="P3">
-        <v>5.39609</v>
+        <v>4.44579</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1513,11 +1513,11 @@
       <c r="N4" t="s">
         <v>29</v>
       </c>
-      <c r="O4" s="2">
-        <v>38.9173</v>
+      <c r="O4">
+        <v>31.7384</v>
       </c>
       <c r="P4">
-        <v>5.18926</v>
+        <v>4.23208</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1563,11 +1563,11 @@
       <c r="N5" t="s">
         <v>29</v>
       </c>
-      <c r="O5" s="2">
-        <v>37.6259</v>
+      <c r="O5">
+        <v>30.2917</v>
       </c>
       <c r="P5">
-        <v>5.01709</v>
+        <v>4.03918</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1613,11 +1613,11 @@
       <c r="N6" t="s">
         <v>29</v>
       </c>
-      <c r="O6" s="2">
-        <v>36.9557</v>
+      <c r="O6">
+        <v>29.4669</v>
       </c>
       <c r="P6">
-        <v>4.92773</v>
+        <v>3.93597</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1663,11 +1663,11 @@
       <c r="N7" t="s">
         <v>29</v>
       </c>
-      <c r="O7" s="2">
-        <v>35.7161</v>
+      <c r="O7">
+        <v>27.9209</v>
       </c>
       <c r="P7">
-        <v>4.76246</v>
+        <v>3.72307</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1714,10 +1714,10 @@
         <v>29</v>
       </c>
       <c r="O8">
-        <v>34.5277</v>
+        <v>26.4711</v>
       </c>
       <c r="P8">
-        <v>4.60399</v>
+        <v>3.52977</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1764,10 +1764,10 @@
         <v>29</v>
       </c>
       <c r="O9">
-        <v>33.1851</v>
+        <v>24.9732</v>
       </c>
       <c r="P9">
-        <v>4.42497</v>
+        <v>3.33006</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1814,10 +1814,10 @@
         <v>29</v>
       </c>
       <c r="O10">
-        <v>33.6494</v>
+        <v>25.3864</v>
       </c>
       <c r="P10">
-        <v>4.48688</v>
+        <v>3.38516</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1864,10 +1864,10 @@
         <v>29</v>
       </c>
       <c r="O11">
-        <v>32.2604</v>
+        <v>23.7865</v>
       </c>
       <c r="P11">
-        <v>4.30167</v>
+        <v>3.17182</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1914,10 +1914,10 @@
         <v>29</v>
       </c>
       <c r="O12">
-        <v>31.1705</v>
+        <v>22.3396</v>
       </c>
       <c r="P12">
-        <v>4.15635</v>
+        <v>2.9789</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1964,10 +1964,10 @@
         <v>29</v>
       </c>
       <c r="O13">
-        <v>29.7765</v>
+        <v>20.7387</v>
       </c>
       <c r="P13">
-        <v>3.97049</v>
+        <v>2.76545</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -2014,10 +2014,10 @@
         <v>29</v>
       </c>
       <c r="O14">
-        <v>29.1049</v>
+        <v>19.8094</v>
       </c>
       <c r="P14">
-        <v>3.88096</v>
+        <v>2.64155</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -2064,10 +2064,10 @@
         <v>29</v>
       </c>
       <c r="O15">
-        <v>27.8139</v>
+        <v>18.2084</v>
       </c>
       <c r="P15">
-        <v>3.70881</v>
+        <v>2.42808</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -2114,10 +2114,10 @@
         <v>29</v>
       </c>
       <c r="O16">
-        <v>26.6263</v>
+        <v>16.7626</v>
       </c>
       <c r="P16">
-        <v>3.55048</v>
+        <v>2.23531</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -2164,10 +2164,10 @@
         <v>29</v>
       </c>
       <c r="O17">
-        <v>25.2836</v>
+        <v>15.2648</v>
       </c>
       <c r="P17">
-        <v>3.37144</v>
+        <v>2.0356</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -2214,10 +2214,10 @@
         <v>29</v>
       </c>
       <c r="O18">
-        <v>25.2837</v>
+        <v>15.2647</v>
       </c>
       <c r="P18">
-        <v>3.37146</v>
+        <v>2.03558</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -2264,10 +2264,10 @@
         <v>29</v>
       </c>
       <c r="O19">
-        <v>23.2693</v>
+        <v>14.0771</v>
       </c>
       <c r="P19">
-        <v>3.10286</v>
+        <v>1.87723</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -2314,10 +2314,10 @@
         <v>29</v>
       </c>
       <c r="O20">
-        <v>21.3702</v>
+        <v>13.0958</v>
       </c>
       <c r="P20">
-        <v>2.84962</v>
+        <v>1.74641</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -2364,10 +2364,10 @@
         <v>29</v>
       </c>
       <c r="O21">
-        <v>19.3962</v>
+        <v>11.9076</v>
       </c>
       <c r="P21">
-        <v>2.58644</v>
+        <v>1.58798</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -2414,10 +2414,10 @@
         <v>29</v>
       </c>
       <c r="O22">
-        <v>17.7952</v>
+        <v>10.8233</v>
       </c>
       <c r="P22">
-        <v>2.37299</v>
+        <v>1.4434</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -2464,10 +2464,10 @@
         <v>29</v>
       </c>
       <c r="O23">
-        <v>16.0394</v>
+        <v>9.635289999999999</v>
       </c>
       <c r="P23">
-        <v>2.13887</v>
+        <v>1.28499</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -2514,10 +2514,10 @@
         <v>29</v>
       </c>
       <c r="O24">
-        <v>14.5417</v>
+        <v>8.447789999999999</v>
       </c>
       <c r="P24">
-        <v>1.93919</v>
+        <v>1.12667</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -2564,10 +2564,10 @@
         <v>29</v>
       </c>
       <c r="O25">
-        <v>13.1475</v>
+        <v>7.15612</v>
       </c>
       <c r="P25">
-        <v>1.7533</v>
+        <v>0.954447</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -2614,10 +2614,10 @@
         <v>29</v>
       </c>
       <c r="O26">
-        <v>11.3918</v>
+        <v>8.76193</v>
       </c>
       <c r="P26">
-        <v>1.5192</v>
+        <v>1.16855</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -2664,10 +2664,10 @@
         <v>29</v>
       </c>
       <c r="O27">
-        <v>9.79036</v>
+        <v>7.46674</v>
       </c>
       <c r="P27">
-        <v>1.30568</v>
+        <v>1.00264</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -2714,10 +2714,10 @@
         <v>29</v>
       </c>
       <c r="O28">
-        <v>8.241479999999999</v>
+        <v>6.27838</v>
       </c>
       <c r="P28">
-        <v>1.09915</v>
+        <v>0.837423</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -2764,10 +2764,10 @@
         <v>29</v>
       </c>
       <c r="O29">
-        <v>6.59192</v>
+        <v>5.03877</v>
       </c>
       <c r="P29">
-        <v>0.879196</v>
+        <v>0.672125</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2814,10 +2814,10 @@
         <v>29</v>
       </c>
       <c r="O30">
-        <v>5.09132</v>
+        <v>3.79971</v>
       </c>
       <c r="P30">
-        <v>0.685906</v>
+        <v>0.506921</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2864,10 +2864,10 @@
         <v>29</v>
       </c>
       <c r="O31">
-        <v>3.43784</v>
+        <v>2.6112</v>
       </c>
       <c r="P31">
-        <v>0.458666</v>
+        <v>0.348457</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -2914,10 +2914,10 @@
         <v>29</v>
       </c>
       <c r="O32">
-        <v>1.73346</v>
+        <v>1.31995</v>
       </c>
       <c r="P32">
-        <v>0.231434</v>
+        <v>0.17628</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2964,10 +2964,10 @@
         <v>29</v>
       </c>
       <c r="O33">
-        <v>0.08051759999999999</v>
+        <v>0.0292602</v>
       </c>
       <c r="P33">
-        <v>0.011016</v>
+        <v>0.00418788</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -3014,10 +3014,10 @@
         <v>29</v>
       </c>
       <c r="O34">
-        <v>0.08049969999999999</v>
+        <v>0.0287552</v>
       </c>
       <c r="P34">
-        <v>0.0110173</v>
+        <v>0.00411806</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -3064,10 +3064,10 @@
         <v>29</v>
       </c>
       <c r="O35">
-        <v>-1.67073</v>
+        <v>-1.20939</v>
       </c>
       <c r="P35">
-        <v>-0.222493</v>
+        <v>-0.16096</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -3114,10 +3114,10 @@
         <v>29</v>
       </c>
       <c r="O36">
-        <v>-3.27538</v>
+        <v>-2.50129</v>
       </c>
       <c r="P36">
-        <v>-0.436432</v>
+        <v>-0.333215</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -3164,10 +3164,10 @@
         <v>29</v>
       </c>
       <c r="O37">
-        <v>-4.9278</v>
+        <v>-3.68846</v>
       </c>
       <c r="P37">
-        <v>-0.656764</v>
+        <v>-0.491499</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -3214,10 +3214,10 @@
         <v>29</v>
       </c>
       <c r="O38">
-        <v>-6.47679</v>
+        <v>-4.87614</v>
       </c>
       <c r="P38">
-        <v>-0.863273</v>
+        <v>-0.649865</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -3264,10 +3264,10 @@
         <v>29</v>
       </c>
       <c r="O39">
-        <v>-8.127940000000001</v>
+        <v>-6.21836</v>
       </c>
       <c r="P39">
-        <v>-1.08344</v>
+        <v>-0.828829</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -3314,10 +3314,10 @@
         <v>29</v>
       </c>
       <c r="O40">
-        <v>-9.677619999999999</v>
+        <v>-7.45773</v>
       </c>
       <c r="P40">
-        <v>-1.29006</v>
+        <v>-0.994071</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -3364,10 +3364,10 @@
         <v>29</v>
       </c>
       <c r="O41">
-        <v>-11.3817</v>
+        <v>-8.748469999999999</v>
       </c>
       <c r="P41">
-        <v>-1.51726</v>
+        <v>-1.16617</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -3414,10 +3414,10 @@
         <v>29</v>
       </c>
       <c r="O42">
-        <v>-13.0352</v>
+        <v>-7.04446</v>
       </c>
       <c r="P42">
-        <v>-1.73773</v>
+        <v>-0.93896</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -3464,10 +3464,10 @@
         <v>29</v>
       </c>
       <c r="O43">
-        <v>-14.4814</v>
+        <v>-8.38677</v>
       </c>
       <c r="P43">
-        <v>-1.93056</v>
+        <v>-1.11794</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -3514,10 +3514,10 @@
         <v>29</v>
       </c>
       <c r="O44">
-        <v>-15.8228</v>
+        <v>-9.471080000000001</v>
       </c>
       <c r="P44">
-        <v>-2.10941</v>
+        <v>-1.26252</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -3564,10 +3564,10 @@
         <v>29</v>
       </c>
       <c r="O45">
-        <v>-17.4243</v>
+        <v>-10.8142</v>
       </c>
       <c r="P45">
-        <v>-2.32295</v>
+        <v>-1.44159</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -3614,10 +3614,10 @@
         <v>29</v>
       </c>
       <c r="O46">
-        <v>-18.973</v>
+        <v>-11.8468</v>
       </c>
       <c r="P46">
-        <v>-2.52944</v>
+        <v>-1.57927</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -3664,10 +3664,10 @@
         <v>29</v>
       </c>
       <c r="O47">
-        <v>-20.8321</v>
+        <v>-12.9782</v>
       </c>
       <c r="P47">
-        <v>-2.77733</v>
+        <v>-1.73015</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -3714,10 +3714,10 @@
         <v>29</v>
       </c>
       <c r="O48">
-        <v>-22.5871</v>
+        <v>-13.9649</v>
       </c>
       <c r="P48">
-        <v>-3.0113</v>
+        <v>-1.86171</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -3764,10 +3764,10 @@
         <v>29</v>
       </c>
       <c r="O49">
-        <v>-24.6016</v>
+        <v>-15.1012</v>
       </c>
       <c r="P49">
-        <v>-3.27992</v>
+        <v>-2.01322</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -3814,10 +3814,10 @@
         <v>29</v>
       </c>
       <c r="O50">
-        <v>-24.6534</v>
+        <v>-15.1524</v>
       </c>
       <c r="P50">
-        <v>-3.28682</v>
+        <v>-2.02002</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -3864,10 +3864,10 @@
         <v>29</v>
       </c>
       <c r="O51">
-        <v>-25.9443</v>
+        <v>-16.5979</v>
       </c>
       <c r="P51">
-        <v>-3.45895</v>
+        <v>-2.21275</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -3914,10 +3914,10 @@
         <v>29</v>
       </c>
       <c r="O52">
-        <v>-27.1836</v>
+        <v>-17.9409</v>
       </c>
       <c r="P52">
-        <v>-3.61734</v>
+        <v>-2.39183</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -3964,10 +3964,10 @@
         <v>29</v>
       </c>
       <c r="O53">
-        <v>-28.4739</v>
+        <v>-19.5419</v>
       </c>
       <c r="P53">
-        <v>-3.78945</v>
+        <v>-2.60529</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -4014,10 +4014,10 @@
         <v>29</v>
       </c>
       <c r="O54">
-        <v>-29.2492</v>
+        <v>-20.3678</v>
       </c>
       <c r="P54">
-        <v>-3.89959</v>
+        <v>-2.71541</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -4064,10 +4064,10 @@
         <v>29</v>
       </c>
       <c r="O55">
-        <v>-30.54</v>
+        <v>-21.9682</v>
       </c>
       <c r="P55">
-        <v>-4.07172</v>
+        <v>-2.9288</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -4114,10 +4114,10 @@
         <v>29</v>
       </c>
       <c r="O56">
-        <v>-31.8312</v>
+        <v>-23.4657</v>
       </c>
       <c r="P56">
-        <v>-4.24387</v>
+        <v>-3.12847</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -4164,10 +4164,10 @@
         <v>29</v>
       </c>
       <c r="O57">
-        <v>-33.2252</v>
+        <v>-25.0662</v>
       </c>
       <c r="P57">
-        <v>-4.42974</v>
+        <v>-3.34186</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -4214,10 +4214,10 @@
         <v>29</v>
       </c>
       <c r="O58">
-        <v>-32.7607</v>
+        <v>-24.602</v>
       </c>
       <c r="P58">
-        <v>-4.3678</v>
+        <v>-3.27998</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -4264,10 +4264,10 @@
         <v>29</v>
       </c>
       <c r="O59">
-        <v>-34.1551</v>
+        <v>-26.2549</v>
       </c>
       <c r="P59">
-        <v>-4.55371</v>
+        <v>-3.50037</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -4313,11 +4313,11 @@
       <c r="N60" t="s">
         <v>29</v>
       </c>
-      <c r="O60" s="3">
-        <v>-35.3915</v>
+      <c r="O60">
+        <v>-27.6487</v>
       </c>
       <c r="P60">
-        <v>-4.71859</v>
+        <v>-3.68621</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -4363,11 +4363,11 @@
       <c r="N61" t="s">
         <v>29</v>
       </c>
-      <c r="O61" s="3">
-        <v>-36.7883</v>
+      <c r="O61">
+        <v>-29.3012</v>
       </c>
       <c r="P61">
-        <v>-4.90484</v>
+        <v>-3.90654</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -4413,11 +4413,11 @@
       <c r="N62" t="s">
         <v>29</v>
       </c>
-      <c r="O62" s="3">
-        <v>-37.4591</v>
+      <c r="O62">
+        <v>-30.0757</v>
       </c>
       <c r="P62">
-        <v>-4.99426</v>
+        <v>-4.0098</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -4463,11 +4463,11 @@
       <c r="N63" t="s">
         <v>29</v>
       </c>
-      <c r="O63" s="3">
-        <v>-38.8537</v>
+      <c r="O63">
+        <v>-31.6256</v>
       </c>
       <c r="P63">
-        <v>-5.18019</v>
+        <v>-4.21645</v>
       </c>
     </row>
     <row r="64" spans="1:16">
@@ -4513,11 +4513,11 @@
       <c r="N64" t="s">
         <v>29</v>
       </c>
-      <c r="O64" s="3">
-        <v>-40.0929</v>
+      <c r="O64">
+        <v>-33.0711</v>
       </c>
       <c r="P64">
-        <v>-5.34542</v>
+        <v>-4.40919</v>
       </c>
     </row>
     <row r="65" spans="1:16">
@@ -4563,11 +4563,11 @@
       <c r="N65" t="s">
         <v>29</v>
       </c>
-      <c r="O65" s="3">
-        <v>-41.8485</v>
+      <c r="O65">
+        <v>-34.5687</v>
       </c>
       <c r="P65">
-        <v>-5.57952</v>
+        <v>-4.60887</v>
       </c>
     </row>
     <row r="66" spans="1:16">
@@ -4614,10 +4614,10 @@
         <v>165</v>
       </c>
       <c r="O66" s="2">
-        <v>54.4229</v>
+        <v>44.5076</v>
       </c>
       <c r="P66">
-        <v>6.5969</v>
+        <v>5.39505</v>
       </c>
     </row>
     <row r="67" spans="1:16">
@@ -4664,10 +4664,10 @@
         <v>165</v>
       </c>
       <c r="O67" s="2">
-        <v>52.6702</v>
+        <v>42.7047</v>
       </c>
       <c r="P67">
-        <v>6.38445</v>
+        <v>5.17652</v>
       </c>
     </row>
     <row r="68" spans="1:16">
@@ -4714,10 +4714,10 @@
         <v>165</v>
       </c>
       <c r="O68" s="2">
-        <v>49.7129</v>
+        <v>40.3488</v>
       </c>
       <c r="P68">
-        <v>6.026</v>
+        <v>4.89095</v>
       </c>
     </row>
     <row r="69" spans="1:16">
@@ -4764,10 +4764,10 @@
         <v>165</v>
       </c>
       <c r="O69" s="2">
-        <v>48.0607</v>
+        <v>38.5963</v>
       </c>
       <c r="P69">
-        <v>5.82572</v>
+        <v>4.67853</v>
       </c>
     </row>
     <row r="70" spans="1:16">
@@ -4814,10 +4814,10 @@
         <v>165</v>
       </c>
       <c r="O70" s="2">
-        <v>47.2124</v>
+        <v>37.6969</v>
       </c>
       <c r="P70">
-        <v>5.7229</v>
+        <v>4.58133</v>
       </c>
     </row>
     <row r="71" spans="1:16">
@@ -4864,10 +4864,10 @@
         <v>165</v>
       </c>
       <c r="O71" s="2">
-        <v>45.5627</v>
+        <v>35.9424</v>
       </c>
       <c r="P71">
-        <v>5.52292</v>
+        <v>4.35684</v>
       </c>
     </row>
     <row r="72" spans="1:16">
@@ -4913,11 +4913,11 @@
       <c r="N72" t="s">
         <v>165</v>
       </c>
-      <c r="O72" s="2">
-        <v>44.1055</v>
+      <c r="O72">
+        <v>34.39</v>
       </c>
       <c r="P72">
-        <v>5.35226</v>
+        <v>4.16868</v>
       </c>
     </row>
     <row r="73" spans="1:16">
@@ -4963,11 +4963,11 @@
       <c r="N73" t="s">
         <v>165</v>
       </c>
-      <c r="O73" s="2">
-        <v>42.5019</v>
+      <c r="O73">
+        <v>32.4875</v>
       </c>
       <c r="P73">
-        <v>5.15193</v>
+        <v>3.93807</v>
       </c>
     </row>
     <row r="74" spans="1:16">
@@ -5013,11 +5013,11 @@
       <c r="N74" t="s">
         <v>165</v>
       </c>
-      <c r="O74" s="2">
-        <v>43.2251</v>
+      <c r="O74">
+        <v>33.1894</v>
       </c>
       <c r="P74">
-        <v>5.23958</v>
+        <v>4.02314</v>
       </c>
     </row>
     <row r="75" spans="1:16">
@@ -5063,11 +5063,11 @@
       <c r="N75" t="s">
         <v>165</v>
       </c>
-      <c r="O75" s="2">
-        <v>41.6005</v>
+      <c r="O75">
+        <v>31.2871</v>
       </c>
       <c r="P75">
-        <v>5.04267</v>
+        <v>3.79256</v>
       </c>
     </row>
     <row r="76" spans="1:16">
@@ -5113,11 +5113,11 @@
       <c r="N76" t="s">
         <v>165</v>
       </c>
-      <c r="O76" s="2">
-        <v>40.0981</v>
+      <c r="O76">
+        <v>29.5339</v>
       </c>
       <c r="P76">
-        <v>4.86056</v>
+        <v>3.58006</v>
       </c>
     </row>
     <row r="77" spans="1:16">
@@ -5163,11 +5163,11 @@
       <c r="N77" t="s">
         <v>165</v>
       </c>
-      <c r="O77" s="2">
-        <v>38.3954</v>
+      <c r="O77">
+        <v>27.5815</v>
       </c>
       <c r="P77">
-        <v>4.65417</v>
+        <v>3.34339</v>
       </c>
     </row>
     <row r="78" spans="1:16">
@@ -5213,11 +5213,11 @@
       <c r="N78" t="s">
         <v>165</v>
       </c>
-      <c r="O78" s="2">
-        <v>37.494</v>
+      <c r="O78">
+        <v>26.5302</v>
       </c>
       <c r="P78">
-        <v>4.54492</v>
+        <v>3.21597</v>
       </c>
     </row>
     <row r="79" spans="1:16">
@@ -5263,11 +5263,11 @@
       <c r="N79" t="s">
         <v>165</v>
       </c>
-      <c r="O79" s="2">
-        <v>35.7919</v>
+      <c r="O79">
+        <v>24.5274</v>
       </c>
       <c r="P79">
-        <v>4.3386</v>
+        <v>2.97321</v>
       </c>
     </row>
     <row r="80" spans="1:16">
@@ -5314,10 +5314,10 @@
         <v>165</v>
       </c>
       <c r="O80">
-        <v>34.1907</v>
+        <v>22.7246</v>
       </c>
       <c r="P80">
-        <v>4.14451</v>
+        <v>2.75469</v>
       </c>
     </row>
     <row r="81" spans="1:16">
@@ -5364,10 +5364,10 @@
         <v>165</v>
       </c>
       <c r="O81">
-        <v>32.4379</v>
+        <v>20.6716</v>
       </c>
       <c r="P81">
-        <v>3.93206</v>
+        <v>2.50584</v>
       </c>
     </row>
     <row r="82" spans="1:16">
@@ -5414,10 +5414,10 @@
         <v>165</v>
       </c>
       <c r="O82">
-        <v>32.4376</v>
+        <v>20.6715</v>
       </c>
       <c r="P82">
-        <v>3.93202</v>
+        <v>2.50582</v>
       </c>
     </row>
     <row r="83" spans="1:16">
@@ -5464,10 +5464,10 @@
         <v>165</v>
       </c>
       <c r="O83">
-        <v>30.2346</v>
+        <v>19.0194</v>
       </c>
       <c r="P83">
-        <v>3.66498</v>
+        <v>2.30557</v>
       </c>
     </row>
     <row r="84" spans="1:16">
@@ -5514,10 +5514,10 @@
         <v>165</v>
       </c>
       <c r="O84">
-        <v>28.0318</v>
+        <v>17.3671</v>
       </c>
       <c r="P84">
-        <v>3.39797</v>
+        <v>2.10529</v>
       </c>
     </row>
     <row r="85" spans="1:16">
@@ -5564,10 +5564,10 @@
         <v>165</v>
       </c>
       <c r="O85">
-        <v>25.6789</v>
+        <v>15.6645</v>
       </c>
       <c r="P85">
-        <v>3.11279</v>
+        <v>1.89891</v>
       </c>
     </row>
     <row r="86" spans="1:16">
@@ -5614,10 +5614,10 @@
         <v>165</v>
       </c>
       <c r="O86">
-        <v>23.7764</v>
+        <v>14.1122</v>
       </c>
       <c r="P86">
-        <v>2.88217</v>
+        <v>1.71074</v>
       </c>
     </row>
     <row r="87" spans="1:16">
@@ -5664,10 +5664,10 @@
         <v>165</v>
       </c>
       <c r="O87">
-        <v>21.474</v>
+        <v>12.3636</v>
       </c>
       <c r="P87">
-        <v>2.60308</v>
+        <v>1.49879</v>
       </c>
     </row>
     <row r="88" spans="1:16">
@@ -5714,10 +5714,10 @@
         <v>165</v>
       </c>
       <c r="O88">
-        <v>19.4199</v>
+        <v>10.6573</v>
       </c>
       <c r="P88">
-        <v>2.35411</v>
+        <v>1.29198</v>
       </c>
     </row>
     <row r="89" spans="1:16">
@@ -5764,10 +5764,10 @@
         <v>165</v>
       </c>
       <c r="O89">
-        <v>17.2669</v>
+        <v>8.854950000000001</v>
       </c>
       <c r="P89">
-        <v>2.09314</v>
+        <v>1.07352</v>
       </c>
     </row>
     <row r="90" spans="1:16">
@@ -5814,10 +5814,10 @@
         <v>165</v>
       </c>
       <c r="O90">
-        <v>14.563</v>
+        <v>10.8574</v>
       </c>
       <c r="P90">
-        <v>1.76539</v>
+        <v>1.31623</v>
       </c>
     </row>
     <row r="91" spans="1:16">
@@ -5864,10 +5864,10 @@
         <v>165</v>
       </c>
       <c r="O91">
-        <v>12.2598</v>
+        <v>9.054919999999999</v>
       </c>
       <c r="P91">
-        <v>1.48622</v>
+        <v>1.09775</v>
       </c>
     </row>
     <row r="92" spans="1:16">
@@ -5914,10 +5914,10 @@
         <v>165</v>
       </c>
       <c r="O92">
-        <v>10.0062</v>
+        <v>7.45368</v>
       </c>
       <c r="P92">
-        <v>1.21306</v>
+        <v>0.903666</v>
       </c>
     </row>
     <row r="93" spans="1:16">
@@ -5964,10 +5964,10 @@
         <v>165</v>
       </c>
       <c r="O93">
-        <v>7.80316</v>
+        <v>6.00093</v>
       </c>
       <c r="P93">
-        <v>0.946024</v>
+        <v>0.727573</v>
       </c>
     </row>
     <row r="94" spans="1:16">
@@ -6014,10 +6014,10 @@
         <v>165</v>
       </c>
       <c r="O94">
-        <v>6.00082</v>
+        <v>4.55023</v>
       </c>
       <c r="P94">
-        <v>0.727556</v>
+        <v>0.551722</v>
       </c>
     </row>
     <row r="95" spans="1:16">
@@ -6064,10 +6064,10 @@
         <v>165</v>
       </c>
       <c r="O95">
-        <v>4.04883</v>
+        <v>3.04805</v>
       </c>
       <c r="P95">
-        <v>0.490961</v>
+        <v>0.369646</v>
       </c>
     </row>
     <row r="96" spans="1:16">
@@ -6114,10 +6114,10 @@
         <v>165</v>
       </c>
       <c r="O96">
-        <v>2.04659</v>
+        <v>1.49684</v>
       </c>
       <c r="P96">
-        <v>0.24826</v>
+        <v>0.181625</v>
       </c>
     </row>
     <row r="97" spans="1:16">
@@ -6164,10 +6164,10 @@
         <v>165</v>
       </c>
       <c r="O97">
-        <v>-0.00486829</v>
+        <v>0.0458672</v>
       </c>
       <c r="P97">
-        <v>-0.000406119</v>
+        <v>0.00574634</v>
       </c>
     </row>
     <row r="98" spans="1:16">
@@ -6214,10 +6214,10 @@
         <v>165</v>
       </c>
       <c r="O98">
-        <v>0.0448835</v>
+        <v>0.044896</v>
       </c>
       <c r="P98">
-        <v>0.00562685</v>
+        <v>0.00562809</v>
       </c>
     </row>
     <row r="99" spans="1:16">
@@ -6264,10 +6264,10 @@
         <v>165</v>
       </c>
       <c r="O99">
-        <v>-2.00736</v>
+        <v>-1.50682</v>
       </c>
       <c r="P99">
-        <v>-0.243131</v>
+        <v>-0.18246</v>
       </c>
     </row>
     <row r="100" spans="1:16">
@@ -6314,10 +6314,10 @@
         <v>165</v>
       </c>
       <c r="O100">
-        <v>-4.00593</v>
+        <v>-3.05801</v>
       </c>
       <c r="P100">
-        <v>-0.485384</v>
+        <v>-0.37048</v>
       </c>
     </row>
     <row r="101" spans="1:16">
@@ -6364,10 +6364,10 @@
         <v>165</v>
       </c>
       <c r="O101">
-        <v>-6.01097</v>
+        <v>-4.55985</v>
       </c>
       <c r="P101">
-        <v>-0.728413</v>
+        <v>-0.55252</v>
       </c>
     </row>
     <row r="102" spans="1:16">
@@ -6414,10 +6414,10 @@
         <v>165</v>
       </c>
       <c r="O102">
-        <v>-7.86271</v>
+        <v>-5.96131</v>
       </c>
       <c r="P102">
-        <v>-0.952866</v>
+        <v>-0.722396</v>
       </c>
     </row>
     <row r="103" spans="1:16">
@@ -6464,10 +6464,10 @@
         <v>165</v>
       </c>
       <c r="O103">
-        <v>-10.0152</v>
+        <v>-7.51269</v>
       </c>
       <c r="P103">
-        <v>-1.21377</v>
+        <v>-0.9104370000000001</v>
       </c>
     </row>
     <row r="104" spans="1:16">
@@ -6514,10 +6514,10 @@
         <v>165</v>
       </c>
       <c r="O104">
-        <v>-12.2179</v>
+        <v>-9.11392</v>
       </c>
       <c r="P104">
-        <v>-1.48077</v>
+        <v>-1.10453</v>
       </c>
     </row>
     <row r="105" spans="1:16">
@@ -6564,10 +6564,10 @@
         <v>165</v>
       </c>
       <c r="O105">
-        <v>-14.5707</v>
+        <v>-10.8663</v>
       </c>
       <c r="P105">
-        <v>-1.76595</v>
+        <v>-1.31694</v>
       </c>
     </row>
     <row r="106" spans="1:16">
@@ -6614,10 +6614,10 @@
         <v>165</v>
       </c>
       <c r="O106">
-        <v>-17.273</v>
+        <v>-8.9641</v>
       </c>
       <c r="P106">
-        <v>-2.09351</v>
+        <v>-1.08637</v>
       </c>
     </row>
     <row r="107" spans="1:16">
@@ -6664,10 +6664,10 @@
         <v>165</v>
       </c>
       <c r="O107">
-        <v>-19.4254</v>
+        <v>-10.6157</v>
       </c>
       <c r="P107">
-        <v>-2.35439</v>
+        <v>-1.28656</v>
       </c>
     </row>
     <row r="108" spans="1:16">
@@ -6714,10 +6714,10 @@
         <v>165</v>
       </c>
       <c r="O108">
-        <v>-21.5777</v>
+        <v>-12.2679</v>
       </c>
       <c r="P108">
-        <v>-2.6153</v>
+        <v>-1.48682</v>
       </c>
     </row>
     <row r="109" spans="1:16">
@@ -6764,10 +6764,10 @@
         <v>165</v>
       </c>
       <c r="O109">
-        <v>-23.68</v>
+        <v>-14.0694</v>
       </c>
       <c r="P109">
-        <v>-2.87012</v>
+        <v>-1.7052</v>
       </c>
     </row>
     <row r="110" spans="1:16">
@@ -6814,10 +6814,10 @@
         <v>165</v>
       </c>
       <c r="O110">
-        <v>-25.6821</v>
+        <v>-15.7715</v>
       </c>
       <c r="P110">
-        <v>-3.1128</v>
+        <v>-1.91151</v>
       </c>
     </row>
     <row r="111" spans="1:16">
@@ -6864,10 +6864,10 @@
         <v>165</v>
       </c>
       <c r="O111">
-        <v>-27.9334</v>
+        <v>-17.4233</v>
       </c>
       <c r="P111">
-        <v>-3.38568</v>
+        <v>-2.11172</v>
       </c>
     </row>
     <row r="112" spans="1:16">
@@ -6914,10 +6914,10 @@
         <v>165</v>
       </c>
       <c r="O112">
-        <v>-30.1349</v>
+        <v>-19.0251</v>
       </c>
       <c r="P112">
-        <v>-3.65253</v>
+        <v>-2.30589</v>
       </c>
     </row>
     <row r="113" spans="1:16">
@@ -6964,10 +6964,10 @@
         <v>165</v>
       </c>
       <c r="O113">
-        <v>-32.3863</v>
+        <v>-20.6769</v>
       </c>
       <c r="P113">
-        <v>-3.92543</v>
+        <v>-2.50611</v>
       </c>
     </row>
     <row r="114" spans="1:16">
@@ -7014,10 +7014,10 @@
         <v>165</v>
       </c>
       <c r="O114">
-        <v>-32.3362</v>
+        <v>-20.776</v>
       </c>
       <c r="P114">
-        <v>-3.91935</v>
+        <v>-2.51219</v>
       </c>
     </row>
     <row r="115" spans="1:16">
@@ -7064,10 +7064,10 @@
         <v>165</v>
       </c>
       <c r="O115">
-        <v>-34.0872</v>
+        <v>-22.8279</v>
       </c>
       <c r="P115">
-        <v>-4.1316</v>
+        <v>-2.76683</v>
       </c>
     </row>
     <row r="116" spans="1:16">
@@ -7113,11 +7113,11 @@
       <c r="N116" t="s">
         <v>165</v>
       </c>
-      <c r="O116" s="3">
-        <v>-35.6881</v>
+      <c r="O116">
+        <v>-24.6763</v>
       </c>
       <c r="P116">
-        <v>-4.32565</v>
+        <v>-2.99088</v>
       </c>
     </row>
     <row r="117" spans="1:16">
@@ -7163,11 +7163,11 @@
       <c r="N117" t="s">
         <v>165</v>
       </c>
-      <c r="O117" s="3">
-        <v>-37.4893</v>
+      <c r="O117">
+        <v>-26.5829</v>
       </c>
       <c r="P117">
-        <v>-4.54397</v>
+        <v>-3.22198</v>
       </c>
     </row>
     <row r="118" spans="1:16">
@@ -7213,11 +7213,11 @@
       <c r="N118" t="s">
         <v>165</v>
       </c>
-      <c r="O118" s="3">
-        <v>-38.3899</v>
+      <c r="O118">
+        <v>-27.6833</v>
       </c>
       <c r="P118">
-        <v>-4.65313</v>
+        <v>-3.35537</v>
       </c>
     </row>
     <row r="119" spans="1:16">
@@ -7263,11 +7263,11 @@
       <c r="N119" t="s">
         <v>165</v>
       </c>
-      <c r="O119" s="3">
-        <v>-40.1412</v>
+      <c r="O119">
+        <v>-29.6347</v>
       </c>
       <c r="P119">
-        <v>-4.8654</v>
+        <v>-3.59191</v>
       </c>
     </row>
     <row r="120" spans="1:16">
@@ -7313,11 +7313,11 @@
       <c r="N120" t="s">
         <v>165</v>
       </c>
-      <c r="O120" s="3">
-        <v>-41.7921</v>
+      <c r="O120">
+        <v>-31.4358</v>
       </c>
       <c r="P120">
-        <v>-5.06552</v>
+        <v>-3.8102</v>
       </c>
     </row>
     <row r="121" spans="1:16">
@@ -7363,11 +7363,11 @@
       <c r="N121" t="s">
         <v>165</v>
       </c>
-      <c r="O121" s="3">
-        <v>-43.4434</v>
+      <c r="O121">
+        <v>-33.4368</v>
       </c>
       <c r="P121">
-        <v>-5.2657</v>
+        <v>-4.05276</v>
       </c>
     </row>
     <row r="122" spans="1:16">
@@ -7413,11 +7413,11 @@
       <c r="N122" t="s">
         <v>165</v>
       </c>
-      <c r="O122" s="3">
-        <v>-42.743</v>
+      <c r="O122">
+        <v>-32.6863</v>
       </c>
       <c r="P122">
-        <v>-5.18078</v>
+        <v>-3.96179</v>
       </c>
     </row>
     <row r="123" spans="1:16">
@@ -7463,11 +7463,11 @@
       <c r="N123" t="s">
         <v>165</v>
       </c>
-      <c r="O123" s="3">
-        <v>-44.6934</v>
+      <c r="O123">
+        <v>-34.7375</v>
       </c>
       <c r="P123">
-        <v>-5.4172</v>
+        <v>-4.21043</v>
       </c>
     </row>
     <row r="124" spans="1:16">
@@ -7514,10 +7514,10 @@
         <v>165</v>
       </c>
       <c r="O124" s="3">
-        <v>-46.3453</v>
+        <v>-36.3888</v>
       </c>
       <c r="P124">
-        <v>-5.61743</v>
+        <v>-4.41057</v>
       </c>
     </row>
     <row r="125" spans="1:16">
@@ -7564,10 +7564,10 @@
         <v>165</v>
       </c>
       <c r="O125" s="3">
-        <v>-48.2463</v>
+        <v>-38.2873</v>
       </c>
       <c r="P125">
-        <v>-5.84784</v>
+        <v>-4.6407</v>
       </c>
     </row>
     <row r="126" spans="1:16">
@@ -7614,10 +7614,10 @@
         <v>165</v>
       </c>
       <c r="O126" s="3">
-        <v>-49.0969</v>
+        <v>-39.2403</v>
       </c>
       <c r="P126">
-        <v>-5.95096</v>
+        <v>-4.75621</v>
       </c>
     </row>
     <row r="127" spans="1:16">
@@ -7664,10 +7664,10 @@
         <v>165</v>
       </c>
       <c r="O127" s="3">
-        <v>-50.9981</v>
+        <v>-41.0698</v>
       </c>
       <c r="P127">
-        <v>-6.18139</v>
+        <v>-4.97798</v>
       </c>
     </row>
     <row r="128" spans="1:16">
@@ -7714,10 +7714,10 @@
         <v>165</v>
       </c>
       <c r="O128" s="3">
-        <v>-52.5494</v>
+        <v>-42.6415</v>
       </c>
       <c r="P128">
-        <v>-6.36944</v>
+        <v>-5.16258</v>
       </c>
     </row>
     <row r="129" spans="1:16">
@@ -7764,10 +7764,10 @@
         <v>165</v>
       </c>
       <c r="O129" s="3">
-        <v>-54.3003</v>
+        <v>-44.3941</v>
       </c>
       <c r="P129">
-        <v>-6.58167</v>
+        <v>-5.38091</v>
       </c>
     </row>
     <row r="130" spans="1:16">
@@ -7814,10 +7814,10 @@
         <v>239</v>
       </c>
       <c r="O130">
-        <v>32.1975</v>
+        <v>26.1496</v>
       </c>
       <c r="P130">
-        <v>4.77062</v>
+        <v>3.87462</v>
       </c>
     </row>
     <row r="131" spans="1:16">
@@ -7864,10 +7864,10 @@
         <v>239</v>
       </c>
       <c r="O131">
-        <v>31.0604</v>
+        <v>25.0144</v>
       </c>
       <c r="P131">
-        <v>4.60216</v>
+        <v>3.7139</v>
       </c>
     </row>
     <row r="132" spans="1:16">
@@ -7914,10 +7914,10 @@
         <v>239</v>
       </c>
       <c r="O132">
-        <v>30.4367</v>
+        <v>24.1825</v>
       </c>
       <c r="P132">
-        <v>4.50979</v>
+        <v>3.58321</v>
       </c>
     </row>
     <row r="133" spans="1:16">
@@ -7964,10 +7964,10 @@
         <v>239</v>
       </c>
       <c r="O133">
-        <v>29.4053</v>
+        <v>23.1485</v>
       </c>
       <c r="P133">
-        <v>4.36429</v>
+        <v>3.43004</v>
       </c>
     </row>
     <row r="134" spans="1:16">
@@ -8014,10 +8014,10 @@
         <v>239</v>
       </c>
       <c r="O134">
-        <v>28.9908</v>
+        <v>22.5888</v>
       </c>
       <c r="P134">
-        <v>4.29561</v>
+        <v>3.34706</v>
       </c>
     </row>
     <row r="135" spans="1:16">
@@ -8064,10 +8064,10 @@
         <v>239</v>
       </c>
       <c r="O135">
-        <v>27.9176</v>
+        <v>21.7029</v>
       </c>
       <c r="P135">
-        <v>4.13651</v>
+        <v>3.21586</v>
       </c>
     </row>
     <row r="136" spans="1:16">
@@ -8114,10 +8114,10 @@
         <v>239</v>
       </c>
       <c r="O136">
-        <v>27.0274</v>
+        <v>20.8245</v>
       </c>
       <c r="P136">
-        <v>4.00474</v>
+        <v>3.08573</v>
       </c>
     </row>
     <row r="137" spans="1:16">
@@ -8164,10 +8164,10 @@
         <v>239</v>
       </c>
       <c r="O137">
-        <v>26.046</v>
+        <v>19.7422</v>
       </c>
       <c r="P137">
-        <v>3.85932</v>
+        <v>2.92537</v>
       </c>
     </row>
     <row r="138" spans="1:16">
@@ -8214,10 +8214,10 @@
         <v>239</v>
       </c>
       <c r="O138">
-        <v>26.5627</v>
+        <v>20.1555</v>
       </c>
       <c r="P138">
-        <v>3.93583</v>
+        <v>2.98661</v>
       </c>
     </row>
     <row r="139" spans="1:16">
@@ -8264,10 +8264,10 @@
         <v>239</v>
       </c>
       <c r="O139">
-        <v>25.4254</v>
+        <v>19.1196</v>
       </c>
       <c r="P139">
-        <v>3.7674</v>
+        <v>2.83316</v>
       </c>
     </row>
     <row r="140" spans="1:16">
@@ -8314,10 +8314,10 @@
         <v>239</v>
       </c>
       <c r="O140">
-        <v>24.5474</v>
+        <v>18.2531</v>
       </c>
       <c r="P140">
-        <v>3.63731</v>
+        <v>2.70478</v>
       </c>
     </row>
     <row r="141" spans="1:16">
@@ -8364,10 +8364,10 @@
         <v>239</v>
       </c>
       <c r="O141">
-        <v>23.5656</v>
+        <v>17.2082</v>
       </c>
       <c r="P141">
-        <v>3.49185</v>
+        <v>2.54997</v>
       </c>
     </row>
     <row r="142" spans="1:16">
@@ -8414,10 +8414,10 @@
         <v>239</v>
       </c>
       <c r="O142">
-        <v>23.0497</v>
+        <v>16.7949</v>
       </c>
       <c r="P142">
-        <v>3.41542</v>
+        <v>2.48876</v>
       </c>
     </row>
     <row r="143" spans="1:16">
@@ -8464,10 +8464,10 @@
         <v>239</v>
       </c>
       <c r="O143">
-        <v>22.1253</v>
+        <v>15.6592</v>
       </c>
       <c r="P143">
-        <v>3.28517</v>
+        <v>2.32788</v>
       </c>
     </row>
     <row r="144" spans="1:16">
@@ -8514,10 +8514,10 @@
         <v>239</v>
       </c>
       <c r="O144">
-        <v>21.295</v>
+        <v>14.7284</v>
       </c>
       <c r="P144">
-        <v>3.15549</v>
+        <v>2.1826</v>
       </c>
     </row>
     <row r="145" spans="1:16">
@@ -8564,10 +8564,10 @@
         <v>239</v>
       </c>
       <c r="O145">
-        <v>20.3718</v>
+        <v>13.7469</v>
       </c>
       <c r="P145">
-        <v>3.0186</v>
+        <v>2.03725</v>
       </c>
     </row>
     <row r="146" spans="1:16">
@@ -8614,10 +8614,10 @@
         <v>239</v>
       </c>
       <c r="O146">
-        <v>20.3643</v>
+        <v>13.6955</v>
       </c>
       <c r="P146">
-        <v>3.02505</v>
+        <v>2.0296</v>
       </c>
     </row>
     <row r="147" spans="1:16">
@@ -8664,10 +8664,10 @@
         <v>239</v>
       </c>
       <c r="O147">
-        <v>19.1232</v>
+        <v>12.7142</v>
       </c>
       <c r="P147">
-        <v>2.83371</v>
+        <v>1.88422</v>
       </c>
     </row>
     <row r="148" spans="1:16">
@@ -8714,10 +8714,10 @@
         <v>239</v>
       </c>
       <c r="O148">
-        <v>17.9458</v>
+        <v>11.5757</v>
       </c>
       <c r="P148">
-        <v>2.65924</v>
+        <v>1.71551</v>
       </c>
     </row>
     <row r="149" spans="1:16">
@@ -8764,10 +8764,10 @@
         <v>239</v>
       </c>
       <c r="O149">
-        <v>16.5458</v>
+        <v>10.5451</v>
       </c>
       <c r="P149">
-        <v>2.45183</v>
+        <v>1.56288</v>
       </c>
     </row>
     <row r="150" spans="1:16">
@@ -8814,10 +8814,10 @@
         <v>239</v>
       </c>
       <c r="O150">
-        <v>15.4541</v>
+        <v>9.559889999999999</v>
       </c>
       <c r="P150">
-        <v>2.29754</v>
+        <v>1.41693</v>
       </c>
     </row>
     <row r="151" spans="1:16">
@@ -8864,10 +8864,10 @@
         <v>239</v>
       </c>
       <c r="O151">
-        <v>14.1603</v>
+        <v>8.33037</v>
       </c>
       <c r="P151">
-        <v>2.09846</v>
+        <v>1.23477</v>
       </c>
     </row>
     <row r="152" spans="1:16">
@@ -8914,10 +8914,10 @@
         <v>239</v>
       </c>
       <c r="O152">
-        <v>12.922</v>
+        <v>7.13102</v>
       </c>
       <c r="P152">
-        <v>1.92236</v>
+        <v>1.05706</v>
       </c>
     </row>
     <row r="153" spans="1:16">
@@ -8964,10 +8964,10 @@
         <v>239</v>
       </c>
       <c r="O153">
-        <v>11.4309</v>
+        <v>5.99309</v>
       </c>
       <c r="P153">
-        <v>1.70028</v>
+        <v>0.888481</v>
       </c>
     </row>
     <row r="154" spans="1:16">
@@ -9014,10 +9014,10 @@
         <v>239</v>
       </c>
       <c r="O154">
-        <v>10.3362</v>
+        <v>7.59643</v>
       </c>
       <c r="P154">
-        <v>1.53191</v>
+        <v>1.12602</v>
       </c>
     </row>
     <row r="155" spans="1:16">
@@ -9064,10 +9064,10 @@
         <v>239</v>
       </c>
       <c r="O155">
-        <v>8.629770000000001</v>
+        <v>6.37067</v>
       </c>
       <c r="P155">
-        <v>1.27911</v>
+        <v>0.9444129999999999</v>
       </c>
     </row>
     <row r="156" spans="1:16">
@@ -9114,10 +9114,10 @@
         <v>239</v>
       </c>
       <c r="O156">
-        <v>7.07981</v>
+        <v>5.26982</v>
       </c>
       <c r="P156">
-        <v>1.0495</v>
+        <v>0.781303</v>
       </c>
     </row>
     <row r="157" spans="1:16">
@@ -9164,10 +9164,10 @@
         <v>239</v>
       </c>
       <c r="O157">
-        <v>5.57983</v>
+        <v>4.19089</v>
       </c>
       <c r="P157">
-        <v>0.827255</v>
+        <v>0.621442</v>
       </c>
     </row>
     <row r="158" spans="1:16">
@@ -9214,10 +9214,10 @@
         <v>239</v>
       </c>
       <c r="O158">
-        <v>4.39253</v>
+        <v>3.25378</v>
       </c>
       <c r="P158">
-        <v>0.658794</v>
+        <v>0.482658</v>
       </c>
     </row>
     <row r="159" spans="1:16">
@@ -9264,10 +9264,10 @@
         <v>239</v>
       </c>
       <c r="O159">
-        <v>2.99543</v>
+        <v>2.16857</v>
       </c>
       <c r="P159">
-        <v>0.444433</v>
+        <v>0.321913</v>
       </c>
     </row>
     <row r="160" spans="1:16">
@@ -9314,10 +9314,10 @@
         <v>239</v>
       </c>
       <c r="O160">
-        <v>1.54879</v>
+        <v>1.23783</v>
       </c>
       <c r="P160">
-        <v>0.230046</v>
+        <v>0.183988</v>
       </c>
     </row>
     <row r="161" spans="1:16">
@@ -9364,10 +9364,10 @@
         <v>239</v>
       </c>
       <c r="O161">
-        <v>0.152963</v>
+        <v>0.153141</v>
       </c>
       <c r="P161">
-        <v>0.0232627</v>
+        <v>0.0232942</v>
       </c>
     </row>
     <row r="162" spans="1:16">
@@ -9414,10 +9414,10 @@
         <v>239</v>
       </c>
       <c r="O162">
-        <v>0.101882</v>
+        <v>0.101946</v>
       </c>
       <c r="P162">
-        <v>0.023261</v>
+        <v>0.0232507</v>
       </c>
     </row>
     <row r="163" spans="1:16">
@@ -9464,10 +9464,10 @@
         <v>239</v>
       </c>
       <c r="O163">
-        <v>-1.34567</v>
+        <v>-0.983388</v>
       </c>
       <c r="P163">
-        <v>-0.198697</v>
+        <v>-0.145094</v>
       </c>
     </row>
     <row r="164" spans="1:16">
@@ -9514,10 +9514,10 @@
         <v>239</v>
       </c>
       <c r="O164">
-        <v>-2.74038</v>
+        <v>-2.01743</v>
       </c>
       <c r="P164">
-        <v>-0.405388</v>
+        <v>-0.298268</v>
       </c>
     </row>
     <row r="165" spans="1:16">
@@ -9564,10 +9564,10 @@
         <v>239</v>
       </c>
       <c r="O165">
-        <v>-4.23864</v>
+        <v>-3.05028</v>
       </c>
       <c r="P165">
-        <v>-0.627313</v>
+        <v>-0.451296</v>
       </c>
     </row>
     <row r="166" spans="1:16">
@@ -9614,10 +9614,10 @@
         <v>239</v>
       </c>
       <c r="O166">
-        <v>-5.47278</v>
+        <v>-3.98028</v>
       </c>
       <c r="P166">
-        <v>-0.810218</v>
+        <v>-0.589063</v>
       </c>
     </row>
     <row r="167" spans="1:16">
@@ -9664,10 +9664,10 @@
         <v>239</v>
       </c>
       <c r="O167">
-        <v>-7.02306</v>
+        <v>-5.06537</v>
       </c>
       <c r="P167">
-        <v>-1.03987</v>
+        <v>-0.74978</v>
       </c>
     </row>
     <row r="168" spans="1:16">
@@ -9714,10 +9714,10 @@
         <v>239</v>
       </c>
       <c r="O168">
-        <v>-8.31392</v>
+        <v>-6.25352</v>
       </c>
       <c r="P168">
-        <v>-1.23113</v>
+        <v>-0.918382</v>
       </c>
     </row>
     <row r="169" spans="1:16">
@@ -9764,10 +9764,10 @@
         <v>239</v>
       </c>
       <c r="O169">
-        <v>-9.71589</v>
+        <v>-7.28794</v>
       </c>
       <c r="P169">
-        <v>-1.43878</v>
+        <v>-1.07908</v>
       </c>
     </row>
     <row r="170" spans="1:16">
@@ -9814,10 +9814,10 @@
         <v>239</v>
       </c>
       <c r="O170">
-        <v>-10.6974</v>
+        <v>-5.83376</v>
       </c>
       <c r="P170">
-        <v>-1.58419</v>
+        <v>-0.863693</v>
       </c>
     </row>
     <row r="171" spans="1:16">
@@ -9864,10 +9864,10 @@
         <v>239</v>
       </c>
       <c r="O171">
-        <v>-11.9887</v>
+        <v>-6.92588</v>
       </c>
       <c r="P171">
-        <v>-1.77549</v>
+        <v>-1.02542</v>
       </c>
     </row>
     <row r="172" spans="1:16">
@@ -9914,10 +9914,10 @@
         <v>239</v>
       </c>
       <c r="O172">
-        <v>-13.2811</v>
+        <v>-7.85643</v>
       </c>
       <c r="P172">
-        <v>-1.96696</v>
+        <v>-1.16329</v>
       </c>
     </row>
     <row r="173" spans="1:16">
@@ -9964,10 +9964,10 @@
         <v>239</v>
       </c>
       <c r="O173">
-        <v>-14.5208</v>
+        <v>-8.940340000000001</v>
       </c>
       <c r="P173">
-        <v>-2.15062</v>
+        <v>-1.32389</v>
       </c>
     </row>
     <row r="174" spans="1:16">
@@ -10014,10 +10014,10 @@
         <v>239</v>
       </c>
       <c r="O174">
-        <v>-15.4516</v>
+        <v>-9.612399999999999</v>
       </c>
       <c r="P174">
-        <v>-2.28849</v>
+        <v>-1.42341</v>
       </c>
     </row>
     <row r="175" spans="1:16">
@@ -10064,10 +10064,10 @@
         <v>239</v>
       </c>
       <c r="O175">
-        <v>-16.838</v>
+        <v>-10.8416</v>
       </c>
       <c r="P175">
-        <v>-2.49397</v>
+        <v>-1.60554</v>
       </c>
     </row>
     <row r="176" spans="1:16">
@@ -10114,10 +10114,10 @@
         <v>239</v>
       </c>
       <c r="O176">
-        <v>-17.7769</v>
+        <v>-11.6791</v>
       </c>
       <c r="P176">
-        <v>-2.63293</v>
+        <v>-1.72962</v>
       </c>
     </row>
     <row r="177" spans="1:16">
@@ -10164,10 +10164,10 @@
         <v>239</v>
       </c>
       <c r="O177">
-        <v>-19.1638</v>
+        <v>-12.6609</v>
       </c>
       <c r="P177">
-        <v>-2.83853</v>
+        <v>-1.87508</v>
       </c>
     </row>
     <row r="178" spans="1:16">
@@ -10214,10 +10214,10 @@
         <v>239</v>
       </c>
       <c r="O178">
-        <v>-19.1633</v>
+        <v>-12.8068</v>
       </c>
       <c r="P178">
-        <v>-2.83845</v>
+        <v>-1.89674</v>
       </c>
     </row>
     <row r="179" spans="1:16">
@@ -10264,10 +10264,10 @@
         <v>239</v>
       </c>
       <c r="O179">
-        <v>-20.3088</v>
+        <v>-13.6947</v>
       </c>
       <c r="P179">
-        <v>-3.00806</v>
+        <v>-2.02823</v>
       </c>
     </row>
     <row r="180" spans="1:16">
@@ -10314,10 +10314,10 @@
         <v>239</v>
       </c>
       <c r="O180">
-        <v>-21.3835</v>
+        <v>-14.6637</v>
       </c>
       <c r="P180">
-        <v>-3.16735</v>
+        <v>-2.16615</v>
       </c>
     </row>
     <row r="181" spans="1:16">
@@ -10364,10 +10364,10 @@
         <v>239</v>
       </c>
       <c r="O181">
-        <v>-22.5748</v>
+        <v>-15.7597</v>
       </c>
       <c r="P181">
-        <v>-3.32976</v>
+        <v>-2.33416</v>
       </c>
     </row>
     <row r="182" spans="1:16">
@@ -10414,10 +10414,10 @@
         <v>239</v>
       </c>
       <c r="O182">
-        <v>-23.093</v>
+        <v>-16.1761</v>
       </c>
       <c r="P182">
-        <v>-3.42061</v>
+        <v>-2.39584</v>
       </c>
     </row>
     <row r="183" spans="1:16">
@@ -10464,10 +10464,10 @@
         <v>239</v>
       </c>
       <c r="O183">
-        <v>-24.338</v>
+        <v>-17.3132</v>
       </c>
       <c r="P183">
-        <v>-3.60501</v>
+        <v>-2.5643</v>
       </c>
     </row>
     <row r="184" spans="1:16">
@@ -10514,10 +10514,10 @@
         <v>239</v>
       </c>
       <c r="O184">
-        <v>-25.2711</v>
+        <v>-18.2437</v>
       </c>
       <c r="P184">
-        <v>-3.74322</v>
+        <v>-2.70217</v>
       </c>
     </row>
     <row r="185" spans="1:16">
@@ -10564,10 +10564,10 @@
         <v>239</v>
       </c>
       <c r="O185">
-        <v>-26.5116</v>
+        <v>-19.4336</v>
       </c>
       <c r="P185">
-        <v>-3.92699</v>
+        <v>-2.87841</v>
       </c>
     </row>
     <row r="186" spans="1:16">
@@ -10614,10 +10614,10 @@
         <v>239</v>
       </c>
       <c r="O186">
-        <v>-25.9435</v>
+        <v>-18.8645</v>
       </c>
       <c r="P186">
-        <v>-3.84285</v>
+        <v>-2.79411</v>
       </c>
     </row>
     <row r="187" spans="1:16">
@@ -10664,10 +10664,10 @@
         <v>239</v>
       </c>
       <c r="O187">
-        <v>-27.1321</v>
+        <v>-20.1561</v>
       </c>
       <c r="P187">
-        <v>-4.01896</v>
+        <v>-2.98547</v>
       </c>
     </row>
     <row r="188" spans="1:16">
@@ -10714,10 +10714,10 @@
         <v>239</v>
       </c>
       <c r="O188">
-        <v>-28.166</v>
+        <v>-21.3965</v>
       </c>
       <c r="P188">
-        <v>-4.17213</v>
+        <v>-3.16925</v>
       </c>
     </row>
     <row r="189" spans="1:16">
@@ -10764,10 +10764,10 @@
         <v>239</v>
       </c>
       <c r="O189">
-        <v>-29.2494</v>
+        <v>-22.6356</v>
       </c>
       <c r="P189">
-        <v>-4.33263</v>
+        <v>-3.35281</v>
       </c>
     </row>
     <row r="190" spans="1:16">
@@ -10814,10 +10814,10 @@
         <v>239</v>
       </c>
       <c r="O190">
-        <v>-29.7176</v>
+        <v>-23.2409</v>
       </c>
       <c r="P190">
-        <v>-4.40195</v>
+        <v>-3.44247</v>
       </c>
     </row>
     <row r="191" spans="1:16">
@@ -10864,10 +10864,10 @@
         <v>239</v>
       </c>
       <c r="O191">
-        <v>-31.0073</v>
+        <v>-24.4981</v>
       </c>
       <c r="P191">
-        <v>-4.59302</v>
+        <v>-3.62871</v>
       </c>
     </row>
     <row r="192" spans="1:16">
@@ -10914,10 +10914,10 @@
         <v>239</v>
       </c>
       <c r="O192">
-        <v>-31.9911</v>
+        <v>-25.7385</v>
       </c>
       <c r="P192">
-        <v>-4.73127</v>
+        <v>-3.81249</v>
       </c>
     </row>
     <row r="193" spans="1:16">
@@ -10964,10 +10964,10 @@
         <v>239</v>
       </c>
       <c r="O193">
-        <v>-33.1229</v>
+        <v>-27.1804</v>
       </c>
       <c r="P193">
-        <v>-4.90652</v>
+        <v>-4.02616</v>
       </c>
     </row>
     <row r="194" spans="1:16" s="1" customFormat="1">
@@ -11025,10 +11025,10 @@
         <v>303</v>
       </c>
       <c r="O195" s="3">
-        <v>-54.3003</v>
+        <v>-44.3941</v>
       </c>
       <c r="P195" s="1">
-        <v>-6.58167</v>
+        <v>-5.38091</v>
       </c>
     </row>
     <row r="196" spans="1:16" s="1" customFormat="1">
@@ -11036,10 +11036,10 @@
         <v>304</v>
       </c>
       <c r="O196" s="2">
-        <v>54.4229</v>
+        <v>44.5076</v>
       </c>
       <c r="P196" s="1">
-        <v>6.5969</v>
+        <v>5.39505</v>
       </c>
     </row>
     <row r="197" spans="1:16" s="1" customFormat="1">
@@ -11079,10 +11079,10 @@
         <v>309</v>
       </c>
       <c r="O201" s="1">
-        <v>0.08945077</v>
+        <v>0.08221165</v>
       </c>
       <c r="P201" s="1">
-        <v>0.0139967</v>
+        <v>0.01304052</v>
       </c>
     </row>
     <row r="202" spans="1:16" s="1" customFormat="1">
@@ -11090,10 +11090,10 @@
         <v>310</v>
       </c>
       <c r="O202" s="1">
-        <v>27.177627</v>
+        <v>20.249659</v>
       </c>
       <c r="P202" s="1">
-        <v>3.543699</v>
+        <v>2.638885</v>
       </c>
     </row>
     <row r="203" spans="1:16" s="1" customFormat="1">
@@ -11101,10 +11101,10 @@
         <v>311</v>
       </c>
       <c r="O203" s="1">
-        <v>30382.775911</v>
+        <v>24631.130746</v>
       </c>
       <c r="P203" s="1">
-        <v>25318.103553</v>
+        <v>20236.041201</v>
       </c>
     </row>
     <row r="204" spans="1:16" s="1" customFormat="1"/>

--- a/dcd_top_offset_step_tsmc2p_meas.xlsx
+++ b/dcd_top_offset_step_tsmc2p_meas.xlsx
@@ -1414,10 +1414,10 @@
         <v>29</v>
       </c>
       <c r="O2">
-        <v>34.891</v>
+        <v>34.7358</v>
       </c>
       <c r="P2">
-        <v>4.65243</v>
+        <v>4.63173</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1464,10 +1464,10 @@
         <v>29</v>
       </c>
       <c r="O3">
-        <v>33.3414</v>
+        <v>33.1354</v>
       </c>
       <c r="P3">
-        <v>4.44579</v>
+        <v>4.41835</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1514,10 +1514,10 @@
         <v>29</v>
       </c>
       <c r="O4">
-        <v>31.7384</v>
+        <v>31.6352</v>
       </c>
       <c r="P4">
-        <v>4.23208</v>
+        <v>4.21831</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1564,10 +1564,10 @@
         <v>29</v>
       </c>
       <c r="O5">
-        <v>30.2917</v>
+        <v>30.1369</v>
       </c>
       <c r="P5">
-        <v>4.03918</v>
+        <v>4.01856</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1614,10 +1614,10 @@
         <v>29</v>
       </c>
       <c r="O6">
-        <v>29.4669</v>
+        <v>29.363</v>
       </c>
       <c r="P6">
-        <v>3.93597</v>
+        <v>3.91536</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1664,10 +1664,10 @@
         <v>29</v>
       </c>
       <c r="O7">
-        <v>27.9209</v>
+        <v>27.762</v>
       </c>
       <c r="P7">
-        <v>3.72307</v>
+        <v>3.70191</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1714,10 +1714,10 @@
         <v>29</v>
       </c>
       <c r="O8">
-        <v>26.4711</v>
+        <v>26.4193</v>
       </c>
       <c r="P8">
-        <v>3.52977</v>
+        <v>3.52287</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1764,10 +1764,10 @@
         <v>29</v>
       </c>
       <c r="O9">
-        <v>24.9732</v>
+        <v>24.7688</v>
       </c>
       <c r="P9">
-        <v>3.33006</v>
+        <v>3.30277</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1814,10 +1814,10 @@
         <v>29</v>
       </c>
       <c r="O10">
-        <v>25.3864</v>
+        <v>26.6776</v>
       </c>
       <c r="P10">
-        <v>3.38516</v>
+        <v>3.5573</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1864,10 +1864,10 @@
         <v>29</v>
       </c>
       <c r="O11">
-        <v>23.7865</v>
+        <v>25.0766</v>
       </c>
       <c r="P11">
-        <v>3.17182</v>
+        <v>3.34385</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1914,10 +1914,10 @@
         <v>29</v>
       </c>
       <c r="O12">
-        <v>22.3396</v>
+        <v>23.6308</v>
       </c>
       <c r="P12">
-        <v>2.9789</v>
+        <v>3.15106</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1964,10 +1964,10 @@
         <v>29</v>
       </c>
       <c r="O13">
-        <v>20.7387</v>
+        <v>22.0296</v>
       </c>
       <c r="P13">
-        <v>2.76545</v>
+        <v>2.93758</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -2014,10 +2014,10 @@
         <v>29</v>
       </c>
       <c r="O14">
-        <v>19.8094</v>
+        <v>21.1518</v>
       </c>
       <c r="P14">
-        <v>2.64155</v>
+        <v>2.82053</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -2064,10 +2064,10 @@
         <v>29</v>
       </c>
       <c r="O15">
-        <v>18.2084</v>
+        <v>19.5513</v>
       </c>
       <c r="P15">
-        <v>2.42808</v>
+        <v>2.60713</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -2114,10 +2114,10 @@
         <v>29</v>
       </c>
       <c r="O16">
-        <v>16.7626</v>
+        <v>18.1049</v>
       </c>
       <c r="P16">
-        <v>2.23531</v>
+        <v>2.41427</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -2164,10 +2164,10 @@
         <v>29</v>
       </c>
       <c r="O17">
-        <v>15.2648</v>
+        <v>16.556</v>
       </c>
       <c r="P17">
-        <v>2.0356</v>
+        <v>2.20776</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -2214,10 +2214,10 @@
         <v>29</v>
       </c>
       <c r="O18">
-        <v>15.2647</v>
+        <v>16.6076</v>
       </c>
       <c r="P18">
-        <v>2.03558</v>
+        <v>2.21464</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -2264,10 +2264,10 @@
         <v>29</v>
       </c>
       <c r="O19">
-        <v>14.0771</v>
+        <v>15.2647</v>
       </c>
       <c r="P19">
-        <v>1.87723</v>
+        <v>2.03557</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -2314,10 +2314,10 @@
         <v>29</v>
       </c>
       <c r="O20">
-        <v>13.0958</v>
+        <v>14.2835</v>
       </c>
       <c r="P20">
-        <v>1.74641</v>
+        <v>1.90476</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -2364,10 +2364,10 @@
         <v>29</v>
       </c>
       <c r="O21">
-        <v>11.9076</v>
+        <v>13.0958</v>
       </c>
       <c r="P21">
-        <v>1.58798</v>
+        <v>1.7464</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -2414,10 +2414,10 @@
         <v>29</v>
       </c>
       <c r="O22">
-        <v>10.8233</v>
+        <v>12.0625</v>
       </c>
       <c r="P22">
-        <v>1.4434</v>
+        <v>1.60861</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -2464,10 +2464,10 @@
         <v>29</v>
       </c>
       <c r="O23">
-        <v>9.635289999999999</v>
+        <v>10.9782</v>
       </c>
       <c r="P23">
-        <v>1.28499</v>
+        <v>1.46406</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -2514,10 +2514,10 @@
         <v>29</v>
       </c>
       <c r="O24">
-        <v>8.447789999999999</v>
+        <v>9.73884</v>
       </c>
       <c r="P24">
-        <v>1.12667</v>
+        <v>1.2988</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -2564,10 +2564,10 @@
         <v>29</v>
       </c>
       <c r="O25">
-        <v>7.15612</v>
+        <v>8.60239</v>
       </c>
       <c r="P25">
-        <v>0.954447</v>
+        <v>1.14728</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -2614,10 +2614,10 @@
         <v>29</v>
       </c>
       <c r="O26">
-        <v>8.76193</v>
+        <v>8.757899999999999</v>
       </c>
       <c r="P26">
-        <v>1.16855</v>
+        <v>1.16801</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -2664,10 +2664,10 @@
         <v>29</v>
       </c>
       <c r="O27">
-        <v>7.46674</v>
+        <v>7.51786</v>
       </c>
       <c r="P27">
-        <v>1.00264</v>
+        <v>1.00268</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -2714,10 +2714,10 @@
         <v>29</v>
       </c>
       <c r="O28">
-        <v>6.27838</v>
+        <v>6.32975</v>
       </c>
       <c r="P28">
-        <v>0.837423</v>
+        <v>0.844265</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -2764,10 +2764,10 @@
         <v>29</v>
       </c>
       <c r="O29">
-        <v>5.03877</v>
+        <v>5.03871</v>
       </c>
       <c r="P29">
-        <v>0.672125</v>
+        <v>0.672119</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2814,10 +2814,10 @@
         <v>29</v>
       </c>
       <c r="O30">
-        <v>3.79971</v>
+        <v>3.90237</v>
       </c>
       <c r="P30">
-        <v>0.506921</v>
+        <v>0.520601</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2864,10 +2864,10 @@
         <v>29</v>
       </c>
       <c r="O31">
-        <v>2.6112</v>
+        <v>2.66292</v>
       </c>
       <c r="P31">
-        <v>0.348457</v>
+        <v>0.355344</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -2914,10 +2914,10 @@
         <v>29</v>
       </c>
       <c r="O32">
-        <v>1.31995</v>
+        <v>1.26883</v>
       </c>
       <c r="P32">
-        <v>0.17628</v>
+        <v>0.169458</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2964,10 +2964,10 @@
         <v>29</v>
       </c>
       <c r="O33">
-        <v>0.0292602</v>
+        <v>0.029243</v>
       </c>
       <c r="P33">
-        <v>0.00418788</v>
+        <v>0.00418558</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -3014,10 +3014,10 @@
         <v>29</v>
       </c>
       <c r="O34">
-        <v>0.0287552</v>
+        <v>-0.0227002</v>
       </c>
       <c r="P34">
-        <v>0.00411806</v>
+        <v>-0.002736</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -3064,10 +3064,10 @@
         <v>29</v>
       </c>
       <c r="O35">
-        <v>-1.20939</v>
+        <v>-1.15913</v>
       </c>
       <c r="P35">
-        <v>-0.16096</v>
+        <v>-0.154267</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -3114,10 +3114,10 @@
         <v>29</v>
       </c>
       <c r="O36">
-        <v>-2.50129</v>
+        <v>-2.50099</v>
       </c>
       <c r="P36">
-        <v>-0.333215</v>
+        <v>-0.33318</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -3164,10 +3164,10 @@
         <v>29</v>
       </c>
       <c r="O37">
-        <v>-3.68846</v>
+        <v>-3.68808</v>
       </c>
       <c r="P37">
-        <v>-0.491499</v>
+        <v>-0.491453</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -3214,10 +3214,10 @@
         <v>29</v>
       </c>
       <c r="O38">
-        <v>-4.87614</v>
+        <v>-4.97911</v>
       </c>
       <c r="P38">
-        <v>-0.649865</v>
+        <v>-0.663593</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -3264,10 +3264,10 @@
         <v>29</v>
       </c>
       <c r="O39">
-        <v>-6.21836</v>
+        <v>-6.21817</v>
       </c>
       <c r="P39">
-        <v>-0.828829</v>
+        <v>-0.828786</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -3314,10 +3314,10 @@
         <v>29</v>
       </c>
       <c r="O40">
-        <v>-7.45773</v>
+        <v>-7.4577</v>
       </c>
       <c r="P40">
-        <v>-0.994071</v>
+        <v>-0.994065</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -3364,10 +3364,10 @@
         <v>29</v>
       </c>
       <c r="O41">
-        <v>-8.748469999999999</v>
+        <v>-8.696999999999999</v>
       </c>
       <c r="P41">
-        <v>-1.16617</v>
+        <v>-1.15931</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -3414,10 +3414,10 @@
         <v>29</v>
       </c>
       <c r="O42">
-        <v>-7.04446</v>
+        <v>-8.490360000000001</v>
       </c>
       <c r="P42">
-        <v>-0.93896</v>
+        <v>-1.13175</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -3464,10 +3464,10 @@
         <v>29</v>
       </c>
       <c r="O43">
-        <v>-8.38677</v>
+        <v>-9.625999999999999</v>
       </c>
       <c r="P43">
-        <v>-1.11794</v>
+        <v>-1.28317</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -3514,10 +3514,10 @@
         <v>29</v>
       </c>
       <c r="O44">
-        <v>-9.471080000000001</v>
+        <v>-10.8658</v>
       </c>
       <c r="P44">
-        <v>-1.26252</v>
+        <v>-1.4485</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -3564,10 +3564,10 @@
         <v>29</v>
       </c>
       <c r="O45">
-        <v>-10.8142</v>
+        <v>-12.1561</v>
       </c>
       <c r="P45">
-        <v>-1.44159</v>
+        <v>-1.62052</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -3614,10 +3614,10 @@
         <v>29</v>
       </c>
       <c r="O46">
-        <v>-11.8468</v>
+        <v>-12.9834</v>
       </c>
       <c r="P46">
-        <v>-1.57927</v>
+        <v>-1.73084</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -3664,10 +3664,10 @@
         <v>29</v>
       </c>
       <c r="O47">
-        <v>-12.9782</v>
+        <v>-14.1716</v>
       </c>
       <c r="P47">
-        <v>-1.73015</v>
+        <v>-1.88927</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -3714,10 +3714,10 @@
         <v>29</v>
       </c>
       <c r="O48">
-        <v>-13.9649</v>
+        <v>-15.1519</v>
       </c>
       <c r="P48">
-        <v>-1.86171</v>
+        <v>-2.01996</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -3764,10 +3764,10 @@
         <v>29</v>
       </c>
       <c r="O49">
-        <v>-15.1012</v>
+        <v>-16.34</v>
       </c>
       <c r="P49">
-        <v>-2.01322</v>
+        <v>-2.17837</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -3814,10 +3814,10 @@
         <v>29</v>
       </c>
       <c r="O50">
-        <v>-15.1524</v>
+        <v>-16.3397</v>
       </c>
       <c r="P50">
-        <v>-2.02002</v>
+        <v>-2.17834</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -3864,10 +3864,10 @@
         <v>29</v>
       </c>
       <c r="O51">
-        <v>-16.5979</v>
+        <v>-17.786</v>
       </c>
       <c r="P51">
-        <v>-2.21275</v>
+        <v>-2.37118</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -3914,10 +3914,10 @@
         <v>29</v>
       </c>
       <c r="O52">
-        <v>-17.9409</v>
+        <v>-19.18</v>
       </c>
       <c r="P52">
-        <v>-2.39183</v>
+        <v>-2.55705</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -3964,10 +3964,10 @@
         <v>29</v>
       </c>
       <c r="O53">
-        <v>-19.5419</v>
+        <v>-20.8844</v>
       </c>
       <c r="P53">
-        <v>-2.60529</v>
+        <v>-2.78428</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -4014,10 +4014,10 @@
         <v>29</v>
       </c>
       <c r="O54">
-        <v>-20.3678</v>
+        <v>-21.7104</v>
       </c>
       <c r="P54">
-        <v>-2.71541</v>
+        <v>-2.89442</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -4064,10 +4064,10 @@
         <v>29</v>
       </c>
       <c r="O55">
-        <v>-21.9682</v>
+        <v>-23.2081</v>
       </c>
       <c r="P55">
-        <v>-2.9288</v>
+        <v>-3.09412</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -4114,10 +4114,10 @@
         <v>29</v>
       </c>
       <c r="O56">
-        <v>-23.4657</v>
+        <v>-24.7048</v>
       </c>
       <c r="P56">
-        <v>-3.12847</v>
+        <v>-3.29367</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -4164,10 +4164,10 @@
         <v>29</v>
       </c>
       <c r="O57">
-        <v>-25.0662</v>
+        <v>-26.2546</v>
       </c>
       <c r="P57">
-        <v>-3.34186</v>
+        <v>-3.50031</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -4214,10 +4214,10 @@
         <v>29</v>
       </c>
       <c r="O58">
-        <v>-24.602</v>
+        <v>-24.5504</v>
       </c>
       <c r="P58">
-        <v>-3.27998</v>
+        <v>-3.27309</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -4264,10 +4264,10 @@
         <v>29</v>
       </c>
       <c r="O59">
-        <v>-26.2549</v>
+        <v>-26.0482</v>
       </c>
       <c r="P59">
-        <v>-3.50037</v>
+        <v>-3.4728</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -4314,10 +4314,10 @@
         <v>29</v>
       </c>
       <c r="O60">
-        <v>-27.6487</v>
+        <v>-27.4939</v>
       </c>
       <c r="P60">
-        <v>-3.68621</v>
+        <v>-3.66554</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -4364,10 +4364,10 @@
         <v>29</v>
       </c>
       <c r="O61">
-        <v>-29.3012</v>
+        <v>-29.0947</v>
       </c>
       <c r="P61">
-        <v>-3.90654</v>
+        <v>-3.87902</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -4414,10 +4414,10 @@
         <v>29</v>
       </c>
       <c r="O62">
-        <v>-30.0757</v>
+        <v>-29.8691</v>
       </c>
       <c r="P62">
-        <v>-4.0098</v>
+        <v>-3.98226</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -4464,10 +4464,10 @@
         <v>29</v>
       </c>
       <c r="O63">
-        <v>-31.6256</v>
+        <v>-31.5213</v>
       </c>
       <c r="P63">
-        <v>-4.21645</v>
+        <v>-4.19575</v>
       </c>
     </row>
     <row r="64" spans="1:16">
@@ -4514,10 +4514,10 @@
         <v>29</v>
       </c>
       <c r="O64">
-        <v>-33.0711</v>
+        <v>-32.9156</v>
       </c>
       <c r="P64">
-        <v>-4.40919</v>
+        <v>-4.38845</v>
       </c>
     </row>
     <row r="65" spans="1:16">
@@ -4564,10 +4564,10 @@
         <v>29</v>
       </c>
       <c r="O65">
-        <v>-34.5687</v>
+        <v>-34.5166</v>
       </c>
       <c r="P65">
-        <v>-4.60887</v>
+        <v>-4.60192</v>
       </c>
     </row>
     <row r="66" spans="1:16">
@@ -4614,10 +4614,10 @@
         <v>165</v>
       </c>
       <c r="O66" s="2">
-        <v>44.5076</v>
+        <v>44.6078</v>
       </c>
       <c r="P66">
-        <v>5.39505</v>
+        <v>5.40719</v>
       </c>
     </row>
     <row r="67" spans="1:16">
@@ -4664,10 +4664,10 @@
         <v>165</v>
       </c>
       <c r="O67" s="2">
-        <v>42.7047</v>
+        <v>42.705</v>
       </c>
       <c r="P67">
-        <v>5.17652</v>
+        <v>5.17655</v>
       </c>
     </row>
     <row r="68" spans="1:16">
@@ -4714,10 +4714,10 @@
         <v>165</v>
       </c>
       <c r="O68" s="2">
-        <v>40.3488</v>
+        <v>40.4489</v>
       </c>
       <c r="P68">
-        <v>4.89095</v>
+        <v>4.90309</v>
       </c>
     </row>
     <row r="69" spans="1:16">
@@ -4764,10 +4764,10 @@
         <v>165</v>
       </c>
       <c r="O69" s="2">
-        <v>38.5963</v>
+        <v>38.6456</v>
       </c>
       <c r="P69">
-        <v>4.67853</v>
+        <v>4.6845</v>
       </c>
     </row>
     <row r="70" spans="1:16">
@@ -4814,10 +4814,10 @@
         <v>165</v>
       </c>
       <c r="O70" s="2">
-        <v>37.6969</v>
+        <v>37.7953</v>
       </c>
       <c r="P70">
-        <v>4.58133</v>
+        <v>4.58143</v>
       </c>
     </row>
     <row r="71" spans="1:16">
@@ -4864,10 +4864,10 @@
         <v>165</v>
       </c>
       <c r="O71" s="2">
-        <v>35.9424</v>
+        <v>36.0421</v>
       </c>
       <c r="P71">
-        <v>4.35684</v>
+        <v>4.36893</v>
       </c>
     </row>
     <row r="72" spans="1:16">
@@ -4914,10 +4914,10 @@
         <v>165</v>
       </c>
       <c r="O72">
-        <v>34.39</v>
+        <v>34.3927</v>
       </c>
       <c r="P72">
-        <v>4.16868</v>
+        <v>4.16899</v>
       </c>
     </row>
     <row r="73" spans="1:16">
@@ -4964,10 +4964,10 @@
         <v>165</v>
       </c>
       <c r="O73">
-        <v>32.4875</v>
+        <v>32.5878</v>
       </c>
       <c r="P73">
-        <v>3.93807</v>
+        <v>3.95023</v>
       </c>
     </row>
     <row r="74" spans="1:16">
@@ -5014,10 +5014,10 @@
         <v>165</v>
       </c>
       <c r="O74">
-        <v>33.1894</v>
+        <v>34.7406</v>
       </c>
       <c r="P74">
-        <v>4.02314</v>
+        <v>4.21117</v>
       </c>
     </row>
     <row r="75" spans="1:16">
@@ -5064,10 +5064,10 @@
         <v>165</v>
       </c>
       <c r="O75">
-        <v>31.2871</v>
+        <v>32.8881</v>
       </c>
       <c r="P75">
-        <v>3.79256</v>
+        <v>3.98663</v>
       </c>
     </row>
     <row r="76" spans="1:16">
@@ -5114,10 +5114,10 @@
         <v>165</v>
       </c>
       <c r="O76">
-        <v>29.5339</v>
+        <v>31.1363</v>
       </c>
       <c r="P76">
-        <v>3.58006</v>
+        <v>3.77429</v>
       </c>
     </row>
     <row r="77" spans="1:16">
@@ -5164,10 +5164,10 @@
         <v>165</v>
       </c>
       <c r="O77">
-        <v>27.5815</v>
+        <v>29.1841</v>
       </c>
       <c r="P77">
-        <v>3.34339</v>
+        <v>3.53765</v>
       </c>
     </row>
     <row r="78" spans="1:16">
@@ -5214,10 +5214,10 @@
         <v>165</v>
       </c>
       <c r="O78">
-        <v>26.5302</v>
+        <v>28.1828</v>
       </c>
       <c r="P78">
-        <v>3.21597</v>
+        <v>3.41629</v>
       </c>
     </row>
     <row r="79" spans="1:16">
@@ -5264,10 +5264,10 @@
         <v>165</v>
       </c>
       <c r="O79">
-        <v>24.5274</v>
+        <v>26.2311</v>
       </c>
       <c r="P79">
-        <v>2.97321</v>
+        <v>3.17971</v>
       </c>
     </row>
     <row r="80" spans="1:16">
@@ -5314,10 +5314,10 @@
         <v>165</v>
       </c>
       <c r="O80">
-        <v>22.7246</v>
+        <v>24.3781</v>
       </c>
       <c r="P80">
-        <v>2.75469</v>
+        <v>2.9551</v>
       </c>
     </row>
     <row r="81" spans="1:16">
@@ -5364,10 +5364,10 @@
         <v>165</v>
       </c>
       <c r="O81">
-        <v>20.6716</v>
+        <v>22.4242</v>
       </c>
       <c r="P81">
-        <v>2.50584</v>
+        <v>2.71828</v>
       </c>
     </row>
     <row r="82" spans="1:16">
@@ -5414,10 +5414,10 @@
         <v>165</v>
       </c>
       <c r="O82">
-        <v>20.6715</v>
+        <v>22.3742</v>
       </c>
       <c r="P82">
-        <v>2.50582</v>
+        <v>2.71221</v>
       </c>
     </row>
     <row r="83" spans="1:16">
@@ -5464,10 +5464,10 @@
         <v>165</v>
       </c>
       <c r="O83">
-        <v>19.0194</v>
+        <v>20.7217</v>
       </c>
       <c r="P83">
-        <v>2.30557</v>
+        <v>2.51192</v>
       </c>
     </row>
     <row r="84" spans="1:16">
@@ -5514,10 +5514,10 @@
         <v>165</v>
       </c>
       <c r="O84">
-        <v>17.3671</v>
+        <v>19.0696</v>
       </c>
       <c r="P84">
-        <v>2.10529</v>
+        <v>2.31165</v>
       </c>
     </row>
     <row r="85" spans="1:16">
@@ -5564,10 +5564,10 @@
         <v>165</v>
       </c>
       <c r="O85">
-        <v>15.6645</v>
+        <v>17.467</v>
       </c>
       <c r="P85">
-        <v>1.89891</v>
+        <v>2.11739</v>
       </c>
     </row>
     <row r="86" spans="1:16">
@@ -5614,10 +5614,10 @@
         <v>165</v>
       </c>
       <c r="O86">
-        <v>14.1122</v>
+        <v>15.9649</v>
       </c>
       <c r="P86">
-        <v>1.71074</v>
+        <v>1.93533</v>
       </c>
     </row>
     <row r="87" spans="1:16">
@@ -5664,10 +5664,10 @@
         <v>165</v>
       </c>
       <c r="O87">
-        <v>12.3636</v>
+        <v>14.3124</v>
       </c>
       <c r="P87">
-        <v>1.49879</v>
+        <v>1.73501</v>
       </c>
     </row>
     <row r="88" spans="1:16">
@@ -5714,10 +5714,10 @@
         <v>165</v>
       </c>
       <c r="O88">
-        <v>10.6573</v>
+        <v>12.6101</v>
       </c>
       <c r="P88">
-        <v>1.29198</v>
+        <v>1.52867</v>
       </c>
     </row>
     <row r="89" spans="1:16">
@@ -5764,10 +5764,10 @@
         <v>165</v>
       </c>
       <c r="O89">
-        <v>8.854950000000001</v>
+        <v>10.7575</v>
       </c>
       <c r="P89">
-        <v>1.07352</v>
+        <v>1.30413</v>
       </c>
     </row>
     <row r="90" spans="1:16">
@@ -5814,10 +5814,10 @@
         <v>165</v>
       </c>
       <c r="O90">
-        <v>10.8574</v>
+        <v>10.8076</v>
       </c>
       <c r="P90">
-        <v>1.31623</v>
+        <v>1.3102</v>
       </c>
     </row>
     <row r="91" spans="1:16">
@@ -5864,10 +5864,10 @@
         <v>165</v>
       </c>
       <c r="O91">
-        <v>9.054919999999999</v>
+        <v>9.10501</v>
       </c>
       <c r="P91">
-        <v>1.09775</v>
+        <v>1.10383</v>
       </c>
     </row>
     <row r="92" spans="1:16">
@@ -5914,10 +5914,10 @@
         <v>165</v>
       </c>
       <c r="O92">
-        <v>7.45368</v>
+        <v>7.45345</v>
       </c>
       <c r="P92">
-        <v>0.903666</v>
+        <v>0.903644</v>
       </c>
     </row>
     <row r="93" spans="1:16">
@@ -5964,10 +5964,10 @@
         <v>165</v>
       </c>
       <c r="O93">
-        <v>6.00093</v>
+        <v>6.00082</v>
       </c>
       <c r="P93">
-        <v>0.727573</v>
+        <v>0.727557</v>
       </c>
     </row>
     <row r="94" spans="1:16">
@@ -6014,10 +6014,10 @@
         <v>165</v>
       </c>
       <c r="O94">
-        <v>4.55023</v>
+        <v>4.59913</v>
       </c>
       <c r="P94">
-        <v>0.551722</v>
+        <v>0.557655</v>
       </c>
     </row>
     <row r="95" spans="1:16">
@@ -6064,10 +6064,10 @@
         <v>165</v>
       </c>
       <c r="O95">
-        <v>3.04805</v>
+        <v>3.04835</v>
       </c>
       <c r="P95">
-        <v>0.369646</v>
+        <v>0.369668</v>
       </c>
     </row>
     <row r="96" spans="1:16">
@@ -6114,10 +6114,10 @@
         <v>165</v>
       </c>
       <c r="O96">
-        <v>1.49684</v>
+        <v>1.54666</v>
       </c>
       <c r="P96">
-        <v>0.181625</v>
+        <v>0.187658</v>
       </c>
     </row>
     <row r="97" spans="1:16">
@@ -6164,10 +6164,10 @@
         <v>165</v>
       </c>
       <c r="O97">
-        <v>0.0458672</v>
+        <v>0.0449273</v>
       </c>
       <c r="P97">
-        <v>0.00574634</v>
+        <v>0.00563376</v>
       </c>
     </row>
     <row r="98" spans="1:16">
@@ -6214,10 +6214,10 @@
         <v>165</v>
       </c>
       <c r="O98">
-        <v>0.044896</v>
+        <v>0.0451412</v>
       </c>
       <c r="P98">
-        <v>0.00562809</v>
+        <v>0.00565505</v>
       </c>
     </row>
     <row r="99" spans="1:16">
@@ -6264,10 +6264,10 @@
         <v>165</v>
       </c>
       <c r="O99">
-        <v>-1.50682</v>
+        <v>-1.50678</v>
       </c>
       <c r="P99">
-        <v>-0.18246</v>
+        <v>-0.182457</v>
       </c>
     </row>
     <row r="100" spans="1:16">
@@ -6314,10 +6314,10 @@
         <v>165</v>
       </c>
       <c r="O100">
-        <v>-3.05801</v>
+        <v>-3.05807</v>
       </c>
       <c r="P100">
-        <v>-0.37048</v>
+        <v>-0.370487</v>
       </c>
     </row>
     <row r="101" spans="1:16">
@@ -6364,10 +6364,10 @@
         <v>165</v>
       </c>
       <c r="O101">
-        <v>-4.55985</v>
+        <v>-4.55975</v>
       </c>
       <c r="P101">
-        <v>-0.55252</v>
+        <v>-0.552512</v>
       </c>
     </row>
     <row r="102" spans="1:16">
@@ -6414,10 +6414,10 @@
         <v>165</v>
       </c>
       <c r="O102">
-        <v>-5.96131</v>
+        <v>-5.96134</v>
       </c>
       <c r="P102">
-        <v>-0.722396</v>
+        <v>-0.722399</v>
       </c>
     </row>
     <row r="103" spans="1:16">
@@ -6464,10 +6464,10 @@
         <v>165</v>
       </c>
       <c r="O103">
-        <v>-7.51269</v>
+        <v>-7.56258</v>
       </c>
       <c r="P103">
-        <v>-0.9104370000000001</v>
+        <v>-0.91649</v>
       </c>
     </row>
     <row r="104" spans="1:16">
@@ -6514,10 +6514,10 @@
         <v>165</v>
       </c>
       <c r="O104">
-        <v>-9.11392</v>
+        <v>-9.11435</v>
       </c>
       <c r="P104">
-        <v>-1.10453</v>
+        <v>-1.10458</v>
       </c>
     </row>
     <row r="105" spans="1:16">
@@ -6564,10 +6564,10 @@
         <v>165</v>
       </c>
       <c r="O105">
-        <v>-10.8663</v>
+        <v>-10.8165</v>
       </c>
       <c r="P105">
-        <v>-1.31694</v>
+        <v>-1.31091</v>
       </c>
     </row>
     <row r="106" spans="1:16">
@@ -6614,10 +6614,10 @@
         <v>165</v>
       </c>
       <c r="O106">
-        <v>-8.9641</v>
+        <v>-10.7661</v>
       </c>
       <c r="P106">
-        <v>-1.08637</v>
+        <v>-1.3048</v>
       </c>
     </row>
     <row r="107" spans="1:16">
@@ -6664,10 +6664,10 @@
         <v>165</v>
       </c>
       <c r="O107">
-        <v>-10.6157</v>
+        <v>-12.5179</v>
       </c>
       <c r="P107">
-        <v>-1.28656</v>
+        <v>-1.51712</v>
       </c>
     </row>
     <row r="108" spans="1:16">
@@ -6714,10 +6714,10 @@
         <v>165</v>
       </c>
       <c r="O108">
-        <v>-12.2679</v>
+        <v>-14.2657</v>
       </c>
       <c r="P108">
-        <v>-1.48682</v>
+        <v>-1.72899</v>
       </c>
     </row>
     <row r="109" spans="1:16">
@@ -6764,10 +6764,10 @@
         <v>165</v>
       </c>
       <c r="O109">
-        <v>-14.0694</v>
+        <v>-16.0185</v>
       </c>
       <c r="P109">
-        <v>-1.7052</v>
+        <v>-1.94146</v>
       </c>
     </row>
     <row r="110" spans="1:16">
@@ -6814,10 +6814,10 @@
         <v>165</v>
       </c>
       <c r="O110">
-        <v>-15.7715</v>
+        <v>-17.5235</v>
       </c>
       <c r="P110">
-        <v>-1.91151</v>
+        <v>-2.12387</v>
       </c>
     </row>
     <row r="111" spans="1:16">
@@ -6864,10 +6864,10 @@
         <v>165</v>
       </c>
       <c r="O111">
-        <v>-17.4233</v>
+        <v>-19.2252</v>
       </c>
       <c r="P111">
-        <v>-2.11172</v>
+        <v>-2.33014</v>
       </c>
     </row>
     <row r="112" spans="1:16">
@@ -6914,10 +6914,10 @@
         <v>165</v>
       </c>
       <c r="O112">
-        <v>-19.0251</v>
+        <v>-20.8266</v>
       </c>
       <c r="P112">
-        <v>-2.30589</v>
+        <v>-2.52425</v>
       </c>
     </row>
     <row r="113" spans="1:16">
@@ -6964,10 +6964,10 @@
         <v>165</v>
       </c>
       <c r="O113">
-        <v>-20.6769</v>
+        <v>-22.4284</v>
       </c>
       <c r="P113">
-        <v>-2.50611</v>
+        <v>-2.7184</v>
       </c>
     </row>
     <row r="114" spans="1:16">
@@ -7014,10 +7014,10 @@
         <v>165</v>
       </c>
       <c r="O114">
-        <v>-20.776</v>
+        <v>-22.4286</v>
       </c>
       <c r="P114">
-        <v>-2.51219</v>
+        <v>-2.71843</v>
       </c>
     </row>
     <row r="115" spans="1:16">
@@ -7064,10 +7064,10 @@
         <v>165</v>
       </c>
       <c r="O115">
-        <v>-22.8279</v>
+        <v>-24.5312</v>
       </c>
       <c r="P115">
-        <v>-2.76683</v>
+        <v>-2.96726</v>
       </c>
     </row>
     <row r="116" spans="1:16">
@@ -7114,10 +7114,10 @@
         <v>165</v>
       </c>
       <c r="O116">
-        <v>-24.6763</v>
+        <v>-26.3819</v>
       </c>
       <c r="P116">
-        <v>-2.99088</v>
+        <v>-3.19762</v>
       </c>
     </row>
     <row r="117" spans="1:16">
@@ -7164,10 +7164,10 @@
         <v>165</v>
       </c>
       <c r="O117">
-        <v>-26.5829</v>
+        <v>-28.3338</v>
       </c>
       <c r="P117">
-        <v>-3.22198</v>
+        <v>-3.4342</v>
       </c>
     </row>
     <row r="118" spans="1:16">
@@ -7214,10 +7214,10 @@
         <v>165</v>
       </c>
       <c r="O118">
-        <v>-27.6833</v>
+        <v>-29.3345</v>
       </c>
       <c r="P118">
-        <v>-3.35537</v>
+        <v>-3.55551</v>
       </c>
     </row>
     <row r="119" spans="1:16">
@@ -7264,10 +7264,10 @@
         <v>165</v>
       </c>
       <c r="O119">
-        <v>-29.6347</v>
+        <v>-31.3856</v>
       </c>
       <c r="P119">
-        <v>-3.59191</v>
+        <v>-3.80413</v>
       </c>
     </row>
     <row r="120" spans="1:16">
@@ -7314,10 +7314,10 @@
         <v>165</v>
       </c>
       <c r="O120">
-        <v>-31.4358</v>
+        <v>-33.0866</v>
       </c>
       <c r="P120">
-        <v>-3.8102</v>
+        <v>-4.01031</v>
       </c>
     </row>
     <row r="121" spans="1:16">
@@ -7364,10 +7364,10 @@
         <v>165</v>
       </c>
       <c r="O121">
-        <v>-33.4368</v>
+        <v>-34.9878</v>
       </c>
       <c r="P121">
-        <v>-4.05276</v>
+        <v>-4.24076</v>
       </c>
     </row>
     <row r="122" spans="1:16">
@@ -7414,10 +7414,10 @@
         <v>165</v>
       </c>
       <c r="O122">
-        <v>-32.6863</v>
+        <v>-32.8325</v>
       </c>
       <c r="P122">
-        <v>-3.96179</v>
+        <v>-3.97954</v>
       </c>
     </row>
     <row r="123" spans="1:16">
@@ -7464,10 +7464,10 @@
         <v>165</v>
       </c>
       <c r="O123">
-        <v>-34.7375</v>
+        <v>-34.6377</v>
       </c>
       <c r="P123">
-        <v>-4.21043</v>
+        <v>-4.19832</v>
       </c>
     </row>
     <row r="124" spans="1:16">
@@ -7514,10 +7514,10 @@
         <v>165</v>
       </c>
       <c r="O124" s="3">
-        <v>-36.3888</v>
+        <v>-36.4386</v>
       </c>
       <c r="P124">
-        <v>-4.41057</v>
+        <v>-4.41661</v>
       </c>
     </row>
     <row r="125" spans="1:16">
@@ -7564,10 +7564,10 @@
         <v>165</v>
       </c>
       <c r="O125" s="3">
-        <v>-38.2873</v>
+        <v>-38.2398</v>
       </c>
       <c r="P125">
-        <v>-4.6407</v>
+        <v>-4.63493</v>
       </c>
     </row>
     <row r="126" spans="1:16">
@@ -7614,10 +7614,10 @@
         <v>165</v>
       </c>
       <c r="O126" s="3">
-        <v>-39.2403</v>
+        <v>-39.1904</v>
       </c>
       <c r="P126">
-        <v>-4.75621</v>
+        <v>-4.75016</v>
       </c>
     </row>
     <row r="127" spans="1:16">
@@ -7664,10 +7664,10 @@
         <v>165</v>
       </c>
       <c r="O127" s="3">
-        <v>-41.0698</v>
+        <v>-41.0417</v>
       </c>
       <c r="P127">
-        <v>-4.97798</v>
+        <v>-4.97456</v>
       </c>
     </row>
     <row r="128" spans="1:16">
@@ -7714,10 +7714,10 @@
         <v>165</v>
       </c>
       <c r="O128" s="3">
-        <v>-42.6415</v>
+        <v>-42.6427</v>
       </c>
       <c r="P128">
-        <v>-5.16258</v>
+        <v>-5.16863</v>
       </c>
     </row>
     <row r="129" spans="1:16">
@@ -7764,10 +7764,10 @@
         <v>165</v>
       </c>
       <c r="O129" s="3">
-        <v>-44.3941</v>
+        <v>-44.5941</v>
       </c>
       <c r="P129">
-        <v>-5.38091</v>
+        <v>-5.40516</v>
       </c>
     </row>
     <row r="130" spans="1:16">
@@ -7814,10 +7814,10 @@
         <v>239</v>
       </c>
       <c r="O130">
-        <v>26.1496</v>
+        <v>26.1504</v>
       </c>
       <c r="P130">
-        <v>3.87462</v>
+        <v>3.87478</v>
       </c>
     </row>
     <row r="131" spans="1:16">
@@ -7864,10 +7864,10 @@
         <v>239</v>
       </c>
       <c r="O131">
-        <v>25.0144</v>
+        <v>25.1172</v>
       </c>
       <c r="P131">
-        <v>3.7139</v>
+        <v>3.72171</v>
       </c>
     </row>
     <row r="132" spans="1:16">
@@ -7914,10 +7914,10 @@
         <v>239</v>
       </c>
       <c r="O132">
-        <v>24.1825</v>
+        <v>24.3897</v>
       </c>
       <c r="P132">
-        <v>3.58321</v>
+        <v>3.61389</v>
       </c>
     </row>
     <row r="133" spans="1:16">
@@ -7964,10 +7964,10 @@
         <v>239</v>
       </c>
       <c r="O133">
-        <v>23.1485</v>
+        <v>23.2085</v>
       </c>
       <c r="P133">
-        <v>3.43004</v>
+        <v>3.43886</v>
       </c>
     </row>
     <row r="134" spans="1:16">
@@ -8014,10 +8014,10 @@
         <v>239</v>
       </c>
       <c r="O134">
-        <v>22.5888</v>
+        <v>22.8924</v>
       </c>
       <c r="P134">
-        <v>3.34706</v>
+        <v>3.39951</v>
       </c>
     </row>
     <row r="135" spans="1:16">
@@ -8064,10 +8064,10 @@
         <v>239</v>
       </c>
       <c r="O135">
-        <v>21.7029</v>
+        <v>21.9102</v>
       </c>
       <c r="P135">
-        <v>3.21586</v>
+        <v>3.25406</v>
       </c>
     </row>
     <row r="136" spans="1:16">
@@ -8114,10 +8114,10 @@
         <v>239</v>
       </c>
       <c r="O136">
-        <v>20.8245</v>
+        <v>20.9956</v>
       </c>
       <c r="P136">
-        <v>3.08573</v>
+        <v>3.1111</v>
       </c>
     </row>
     <row r="137" spans="1:16">
@@ -8164,10 +8164,10 @@
         <v>239</v>
       </c>
       <c r="O137">
-        <v>19.7422</v>
+        <v>19.9466</v>
       </c>
       <c r="P137">
-        <v>2.92537</v>
+        <v>2.95566</v>
       </c>
     </row>
     <row r="138" spans="1:16">
@@ -8214,10 +8214,10 @@
         <v>239</v>
       </c>
       <c r="O138">
-        <v>20.1555</v>
+        <v>21.1861</v>
       </c>
       <c r="P138">
-        <v>2.98661</v>
+        <v>3.1393</v>
       </c>
     </row>
     <row r="139" spans="1:16">
@@ -8264,10 +8264,10 @@
         <v>239</v>
       </c>
       <c r="O139">
-        <v>19.1196</v>
+        <v>20.102</v>
       </c>
       <c r="P139">
-        <v>2.83316</v>
+        <v>2.9787</v>
       </c>
     </row>
     <row r="140" spans="1:16">
@@ -8314,10 +8314,10 @@
         <v>239</v>
       </c>
       <c r="O140">
-        <v>18.2531</v>
+        <v>19.2223</v>
       </c>
       <c r="P140">
-        <v>2.70478</v>
+        <v>2.84835</v>
       </c>
     </row>
     <row r="141" spans="1:16">
@@ -8364,10 +8364,10 @@
         <v>239</v>
       </c>
       <c r="O141">
-        <v>17.2082</v>
+        <v>18.2415</v>
       </c>
       <c r="P141">
-        <v>2.54997</v>
+        <v>2.70307</v>
       </c>
     </row>
     <row r="142" spans="1:16">
@@ -8414,10 +8414,10 @@
         <v>239</v>
       </c>
       <c r="O142">
-        <v>16.7949</v>
+        <v>17.7252</v>
       </c>
       <c r="P142">
-        <v>2.48876</v>
+        <v>2.62662</v>
       </c>
     </row>
     <row r="143" spans="1:16">
@@ -8464,10 +8464,10 @@
         <v>239</v>
       </c>
       <c r="O143">
-        <v>15.6592</v>
+        <v>16.7951</v>
       </c>
       <c r="P143">
-        <v>2.32788</v>
+        <v>2.48878</v>
       </c>
     </row>
     <row r="144" spans="1:16">
@@ -8514,10 +8514,10 @@
         <v>239</v>
       </c>
       <c r="O144">
-        <v>14.7284</v>
+        <v>15.7627</v>
       </c>
       <c r="P144">
-        <v>2.1826</v>
+        <v>2.33584</v>
       </c>
     </row>
     <row r="145" spans="1:16">
@@ -8564,10 +8564,10 @@
         <v>239</v>
       </c>
       <c r="O145">
-        <v>13.7469</v>
+        <v>14.681</v>
       </c>
       <c r="P145">
-        <v>2.03725</v>
+        <v>2.17558</v>
       </c>
     </row>
     <row r="146" spans="1:16">
@@ -8614,10 +8614,10 @@
         <v>239</v>
       </c>
       <c r="O146">
-        <v>13.6955</v>
+        <v>14.7296</v>
       </c>
       <c r="P146">
-        <v>2.0296</v>
+        <v>2.1828</v>
       </c>
     </row>
     <row r="147" spans="1:16">
@@ -8664,10 +8664,10 @@
         <v>239</v>
       </c>
       <c r="O147">
-        <v>12.7142</v>
+        <v>13.699</v>
       </c>
       <c r="P147">
-        <v>1.88422</v>
+        <v>2.03005</v>
       </c>
     </row>
     <row r="148" spans="1:16">
@@ -8714,10 +8714,10 @@
         <v>239</v>
       </c>
       <c r="O148">
-        <v>11.5757</v>
+        <v>12.7646</v>
       </c>
       <c r="P148">
-        <v>1.71551</v>
+        <v>1.89172</v>
       </c>
     </row>
     <row r="149" spans="1:16">
@@ -8764,10 +8764,10 @@
         <v>239</v>
       </c>
       <c r="O149">
-        <v>10.5451</v>
+        <v>11.6349</v>
       </c>
       <c r="P149">
-        <v>1.56288</v>
+        <v>1.72424</v>
       </c>
     </row>
     <row r="150" spans="1:16">
@@ -8814,10 +8814,10 @@
         <v>239</v>
       </c>
       <c r="O150">
-        <v>9.559889999999999</v>
+        <v>10.7501</v>
       </c>
       <c r="P150">
-        <v>1.41693</v>
+        <v>1.60073</v>
       </c>
     </row>
     <row r="151" spans="1:16">
@@ -8864,10 +8864,10 @@
         <v>239</v>
       </c>
       <c r="O151">
-        <v>8.33037</v>
+        <v>9.61176</v>
       </c>
       <c r="P151">
-        <v>1.23477</v>
+        <v>1.4246</v>
       </c>
     </row>
     <row r="152" spans="1:16">
@@ -8914,10 +8914,10 @@
         <v>239</v>
       </c>
       <c r="O152">
-        <v>7.13102</v>
+        <v>8.423109999999999</v>
       </c>
       <c r="P152">
-        <v>1.05706</v>
+        <v>1.24849</v>
       </c>
     </row>
     <row r="153" spans="1:16">
@@ -8964,10 +8964,10 @@
         <v>239</v>
       </c>
       <c r="O153">
-        <v>5.99309</v>
+        <v>7.23416</v>
       </c>
       <c r="P153">
-        <v>0.888481</v>
+        <v>1.07233</v>
       </c>
     </row>
     <row r="154" spans="1:16">
@@ -9014,10 +9014,10 @@
         <v>239</v>
       </c>
       <c r="O154">
-        <v>7.59643</v>
+        <v>7.54432</v>
       </c>
       <c r="P154">
-        <v>1.12602</v>
+        <v>1.11831</v>
       </c>
     </row>
     <row r="155" spans="1:16">
@@ -9064,10 +9064,10 @@
         <v>239</v>
       </c>
       <c r="O155">
-        <v>6.37067</v>
+        <v>6.36494</v>
       </c>
       <c r="P155">
-        <v>0.9444129999999999</v>
+        <v>0.943512</v>
       </c>
     </row>
     <row r="156" spans="1:16">
@@ -9114,10 +9114,10 @@
         <v>239</v>
       </c>
       <c r="O156">
-        <v>5.26982</v>
+        <v>5.22675</v>
       </c>
       <c r="P156">
-        <v>0.781303</v>
+        <v>0.774885</v>
       </c>
     </row>
     <row r="157" spans="1:16">
@@ -9164,10 +9164,10 @@
         <v>239</v>
       </c>
       <c r="O157">
-        <v>4.19089</v>
+        <v>4.23589</v>
       </c>
       <c r="P157">
-        <v>0.621442</v>
+        <v>0.628184</v>
       </c>
     </row>
     <row r="158" spans="1:16">
@@ -9214,10 +9214,10 @@
         <v>239</v>
       </c>
       <c r="O158">
-        <v>3.25378</v>
+        <v>3.30514</v>
       </c>
       <c r="P158">
-        <v>0.482658</v>
+        <v>0.490258</v>
       </c>
     </row>
     <row r="159" spans="1:16">
@@ -9264,10 +9264,10 @@
         <v>239</v>
       </c>
       <c r="O159">
-        <v>2.16857</v>
+        <v>2.22149</v>
       </c>
       <c r="P159">
-        <v>0.321913</v>
+        <v>0.329725</v>
       </c>
     </row>
     <row r="160" spans="1:16">
@@ -9314,10 +9314,10 @@
         <v>239</v>
       </c>
       <c r="O160">
-        <v>1.23783</v>
+        <v>1.18649</v>
       </c>
       <c r="P160">
-        <v>0.183988</v>
+        <v>0.176386</v>
       </c>
     </row>
     <row r="161" spans="1:16">
@@ -9364,10 +9364,10 @@
         <v>239</v>
       </c>
       <c r="O161">
-        <v>0.153141</v>
+        <v>0.153194</v>
       </c>
       <c r="P161">
-        <v>0.0232942</v>
+        <v>0.0233008</v>
       </c>
     </row>
     <row r="162" spans="1:16">
@@ -9414,10 +9414,10 @@
         <v>239</v>
       </c>
       <c r="O162">
-        <v>0.101946</v>
+        <v>0.101213</v>
       </c>
       <c r="P162">
-        <v>0.0232507</v>
+        <v>0.0155978</v>
       </c>
     </row>
     <row r="163" spans="1:16">
@@ -9464,10 +9464,10 @@
         <v>239</v>
       </c>
       <c r="O163">
-        <v>-0.983388</v>
+        <v>-0.980917</v>
       </c>
       <c r="P163">
-        <v>-0.145094</v>
+        <v>-0.144693</v>
       </c>
     </row>
     <row r="164" spans="1:16">
@@ -9514,10 +9514,10 @@
         <v>239</v>
       </c>
       <c r="O164">
-        <v>-2.01743</v>
+        <v>-2.01751</v>
       </c>
       <c r="P164">
-        <v>-0.298268</v>
+        <v>-0.298255</v>
       </c>
     </row>
     <row r="165" spans="1:16">
@@ -9564,10 +9564,10 @@
         <v>239</v>
       </c>
       <c r="O165">
-        <v>-3.05028</v>
+        <v>-3.0503</v>
       </c>
       <c r="P165">
-        <v>-0.451296</v>
+        <v>-0.4513</v>
       </c>
     </row>
     <row r="166" spans="1:16">
@@ -9614,10 +9614,10 @@
         <v>239</v>
       </c>
       <c r="O166">
-        <v>-3.98028</v>
+        <v>-3.9298</v>
       </c>
       <c r="P166">
-        <v>-0.589063</v>
+        <v>-0.581586</v>
       </c>
     </row>
     <row r="167" spans="1:16">
@@ -9664,10 +9664,10 @@
         <v>239</v>
       </c>
       <c r="O167">
-        <v>-5.06537</v>
+        <v>-5.16228</v>
       </c>
       <c r="P167">
-        <v>-0.74978</v>
+        <v>-0.764215</v>
       </c>
     </row>
     <row r="168" spans="1:16">
@@ -9714,10 +9714,10 @@
         <v>239</v>
       </c>
       <c r="O168">
-        <v>-6.25352</v>
+        <v>-6.20315</v>
       </c>
       <c r="P168">
-        <v>-0.918382</v>
+        <v>-0.918367</v>
       </c>
     </row>
     <row r="169" spans="1:16">
@@ -9764,10 +9764,10 @@
         <v>239</v>
       </c>
       <c r="O169">
-        <v>-7.28794</v>
+        <v>-7.33877</v>
       </c>
       <c r="P169">
-        <v>-1.07908</v>
+        <v>-1.08661</v>
       </c>
     </row>
     <row r="170" spans="1:16">
@@ -9814,10 +9814,10 @@
         <v>239</v>
       </c>
       <c r="O170">
-        <v>-5.83376</v>
+        <v>-6.97743</v>
       </c>
       <c r="P170">
-        <v>-0.863693</v>
+        <v>-1.03309</v>
       </c>
     </row>
     <row r="171" spans="1:16">
@@ -9864,10 +9864,10 @@
         <v>239</v>
       </c>
       <c r="O171">
-        <v>-6.92588</v>
+        <v>-8.06217</v>
       </c>
       <c r="P171">
-        <v>-1.02542</v>
+        <v>-1.18622</v>
       </c>
     </row>
     <row r="172" spans="1:16">
@@ -9914,10 +9914,10 @@
         <v>239</v>
       </c>
       <c r="O172">
-        <v>-7.85643</v>
+        <v>-8.991479999999999</v>
       </c>
       <c r="P172">
-        <v>-1.16329</v>
+        <v>-1.33144</v>
       </c>
     </row>
     <row r="173" spans="1:16">
@@ -9964,10 +9964,10 @@
         <v>239</v>
       </c>
       <c r="O173">
-        <v>-8.940340000000001</v>
+        <v>-9.97325</v>
       </c>
       <c r="P173">
-        <v>-1.32389</v>
+        <v>-1.47686</v>
       </c>
     </row>
     <row r="174" spans="1:16">
@@ -10014,10 +10014,10 @@
         <v>239</v>
       </c>
       <c r="O174">
-        <v>-9.612399999999999</v>
+        <v>-10.8971</v>
       </c>
       <c r="P174">
-        <v>-1.42341</v>
+        <v>-1.6138</v>
       </c>
     </row>
     <row r="175" spans="1:16">
@@ -10064,10 +10064,10 @@
         <v>239</v>
       </c>
       <c r="O175">
-        <v>-10.8416</v>
+        <v>-11.8263</v>
       </c>
       <c r="P175">
-        <v>-1.60554</v>
+        <v>-1.75147</v>
       </c>
     </row>
     <row r="176" spans="1:16">
@@ -10114,10 +10114,10 @@
         <v>239</v>
       </c>
       <c r="O176">
-        <v>-11.6791</v>
+        <v>-12.7129</v>
       </c>
       <c r="P176">
-        <v>-1.72962</v>
+        <v>-1.88276</v>
       </c>
     </row>
     <row r="177" spans="1:16">
@@ -10164,10 +10164,10 @@
         <v>239</v>
       </c>
       <c r="O177">
-        <v>-12.6609</v>
+        <v>-13.6939</v>
       </c>
       <c r="P177">
-        <v>-1.87508</v>
+        <v>-2.02809</v>
       </c>
     </row>
     <row r="178" spans="1:16">
@@ -10214,10 +10214,10 @@
         <v>239</v>
       </c>
       <c r="O178">
-        <v>-12.8068</v>
+        <v>-13.7454</v>
       </c>
       <c r="P178">
-        <v>-1.89674</v>
+        <v>-2.0357</v>
       </c>
     </row>
     <row r="179" spans="1:16">
@@ -10264,10 +10264,10 @@
         <v>239</v>
       </c>
       <c r="O179">
-        <v>-13.6947</v>
+        <v>-14.7796</v>
       </c>
       <c r="P179">
-        <v>-2.02823</v>
+        <v>-2.18895</v>
       </c>
     </row>
     <row r="180" spans="1:16">
@@ -10314,10 +10314,10 @@
         <v>239</v>
       </c>
       <c r="O180">
-        <v>-14.6637</v>
+        <v>-15.7102</v>
       </c>
       <c r="P180">
-        <v>-2.16615</v>
+        <v>-2.31923</v>
       </c>
     </row>
     <row r="181" spans="1:16">
@@ -10364,10 +10364,10 @@
         <v>239</v>
       </c>
       <c r="O181">
-        <v>-15.7597</v>
+        <v>-16.7956</v>
       </c>
       <c r="P181">
-        <v>-2.33416</v>
+        <v>-2.48761</v>
       </c>
     </row>
     <row r="182" spans="1:16">
@@ -10414,10 +10414,10 @@
         <v>239</v>
       </c>
       <c r="O182">
-        <v>-16.1761</v>
+        <v>-17.2599</v>
       </c>
       <c r="P182">
-        <v>-2.39584</v>
+        <v>-2.54896</v>
       </c>
     </row>
     <row r="183" spans="1:16">
@@ -10464,10 +10464,10 @@
         <v>239</v>
       </c>
       <c r="O183">
-        <v>-17.3132</v>
+        <v>-18.1923</v>
       </c>
       <c r="P183">
-        <v>-2.5643</v>
+        <v>-2.69452</v>
       </c>
     </row>
     <row r="184" spans="1:16">
@@ -10514,10 +10514,10 @@
         <v>239</v>
       </c>
       <c r="O184">
-        <v>-18.2437</v>
+        <v>-19.2251</v>
       </c>
       <c r="P184">
-        <v>-2.70217</v>
+        <v>-2.83996</v>
       </c>
     </row>
     <row r="185" spans="1:16">
@@ -10564,10 +10564,10 @@
         <v>239</v>
       </c>
       <c r="O185">
-        <v>-19.4336</v>
+        <v>-20.4593</v>
       </c>
       <c r="P185">
-        <v>-2.87841</v>
+        <v>-3.03042</v>
       </c>
     </row>
     <row r="186" spans="1:16">
@@ -10614,10 +10614,10 @@
         <v>239</v>
       </c>
       <c r="O186">
-        <v>-18.8645</v>
+        <v>-18.9672</v>
       </c>
       <c r="P186">
-        <v>-2.79411</v>
+        <v>-2.80936</v>
       </c>
     </row>
     <row r="187" spans="1:16">
@@ -10664,10 +10664,10 @@
         <v>239</v>
       </c>
       <c r="O187">
-        <v>-20.1561</v>
+        <v>-20.2593</v>
       </c>
       <c r="P187">
-        <v>-2.98547</v>
+        <v>-3.00075</v>
       </c>
     </row>
     <row r="188" spans="1:16">
@@ -10714,10 +10714,10 @@
         <v>239</v>
       </c>
       <c r="O188">
-        <v>-21.3965</v>
+        <v>-21.4481</v>
       </c>
       <c r="P188">
-        <v>-3.16925</v>
+        <v>-3.17691</v>
       </c>
     </row>
     <row r="189" spans="1:16">
@@ -10764,10 +10764,10 @@
         <v>239</v>
       </c>
       <c r="O189">
-        <v>-22.6356</v>
+        <v>-22.7333</v>
       </c>
       <c r="P189">
-        <v>-3.35281</v>
+        <v>-3.3673</v>
       </c>
     </row>
     <row r="190" spans="1:16">
@@ -10814,10 +10814,10 @@
         <v>239</v>
       </c>
       <c r="O190">
-        <v>-23.2409</v>
+        <v>-23.2055</v>
       </c>
       <c r="P190">
-        <v>-3.44247</v>
+        <v>-3.43724</v>
       </c>
     </row>
     <row r="191" spans="1:16">
@@ -10864,10 +10864,10 @@
         <v>239</v>
       </c>
       <c r="O191">
-        <v>-24.4981</v>
+        <v>-24.5491</v>
       </c>
       <c r="P191">
-        <v>-3.62871</v>
+        <v>-3.6363</v>
       </c>
     </row>
     <row r="192" spans="1:16">
@@ -10914,10 +10914,10 @@
         <v>239</v>
       </c>
       <c r="O192">
-        <v>-25.7385</v>
+        <v>-25.7381</v>
       </c>
       <c r="P192">
-        <v>-3.81249</v>
+        <v>-3.81245</v>
       </c>
     </row>
     <row r="193" spans="1:16">
@@ -10964,10 +10964,10 @@
         <v>239</v>
       </c>
       <c r="O193">
-        <v>-27.1804</v>
+        <v>-27.0302</v>
       </c>
       <c r="P193">
-        <v>-4.02616</v>
+        <v>-4.00385</v>
       </c>
     </row>
     <row r="194" spans="1:16" s="1" customFormat="1">
@@ -11025,10 +11025,10 @@
         <v>303</v>
       </c>
       <c r="O195" s="3">
-        <v>-44.3941</v>
+        <v>-44.5941</v>
       </c>
       <c r="P195" s="1">
-        <v>-5.38091</v>
+        <v>-5.40516</v>
       </c>
     </row>
     <row r="196" spans="1:16" s="1" customFormat="1">
@@ -11036,10 +11036,10 @@
         <v>304</v>
       </c>
       <c r="O196" s="2">
-        <v>44.5076</v>
+        <v>44.6078</v>
       </c>
       <c r="P196" s="1">
-        <v>5.39505</v>
+        <v>5.40719</v>
       </c>
     </row>
     <row r="197" spans="1:16" s="1" customFormat="1">
@@ -11079,10 +11079,10 @@
         <v>309</v>
       </c>
       <c r="O201" s="1">
-        <v>0.08221165</v>
+        <v>0.09358432999999999</v>
       </c>
       <c r="P201" s="1">
-        <v>0.01304052</v>
+        <v>0.01463365</v>
       </c>
     </row>
     <row r="202" spans="1:16" s="1" customFormat="1">
@@ -11090,10 +11090,10 @@
         <v>310</v>
       </c>
       <c r="O202" s="1">
-        <v>20.249659</v>
+        <v>20.835394</v>
       </c>
       <c r="P202" s="1">
-        <v>2.638885</v>
+        <v>2.715164</v>
       </c>
     </row>
     <row r="203" spans="1:16" s="1" customFormat="1">
@@ -11101,10 +11101,10 @@
         <v>311</v>
       </c>
       <c r="O203" s="1">
-        <v>24631.130746</v>
+        <v>22263.763602</v>
       </c>
       <c r="P203" s="1">
-        <v>20236.041201</v>
+        <v>18554.249965</v>
       </c>
     </row>
     <row r="204" spans="1:16" s="1" customFormat="1"/>

--- a/dcd_top_offset_step_tsmc2p_meas.xlsx
+++ b/dcd_top_offset_step_tsmc2p_meas.xlsx
@@ -1413,11 +1413,11 @@
       <c r="N2" t="s">
         <v>29</v>
       </c>
-      <c r="O2">
-        <v>34.7358</v>
+      <c r="O2" s="2">
+        <v>36.3924</v>
       </c>
       <c r="P2">
-        <v>4.63173</v>
+        <v>4.85259</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1464,10 +1464,10 @@
         <v>29</v>
       </c>
       <c r="O3">
-        <v>33.1354</v>
+        <v>34.8393</v>
       </c>
       <c r="P3">
-        <v>4.41835</v>
+        <v>4.64553</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1514,10 +1514,10 @@
         <v>29</v>
       </c>
       <c r="O4">
-        <v>31.6352</v>
+        <v>33.546</v>
       </c>
       <c r="P4">
-        <v>4.21831</v>
+        <v>4.47308</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1564,10 +1564,10 @@
         <v>29</v>
       </c>
       <c r="O5">
-        <v>30.1369</v>
+        <v>32.0478</v>
       </c>
       <c r="P5">
-        <v>4.01856</v>
+        <v>4.27333</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1614,10 +1614,10 @@
         <v>29</v>
       </c>
       <c r="O6">
-        <v>29.363</v>
+        <v>31.2237</v>
       </c>
       <c r="P6">
-        <v>3.91536</v>
+        <v>4.16346</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1664,10 +1664,10 @@
         <v>29</v>
       </c>
       <c r="O7">
-        <v>27.762</v>
+        <v>29.8277</v>
       </c>
       <c r="P7">
-        <v>3.70191</v>
+        <v>3.97732</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1714,10 +1714,10 @@
         <v>29</v>
       </c>
       <c r="O8">
-        <v>26.4193</v>
+        <v>28.4335</v>
       </c>
       <c r="P8">
-        <v>3.52287</v>
+        <v>3.79143</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1764,10 +1764,10 @@
         <v>29</v>
       </c>
       <c r="O9">
-        <v>24.7688</v>
+        <v>26.9357</v>
       </c>
       <c r="P9">
-        <v>3.30277</v>
+        <v>3.59173</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1814,10 +1814,10 @@
         <v>29</v>
       </c>
       <c r="O10">
-        <v>26.6776</v>
+        <v>28.6914</v>
       </c>
       <c r="P10">
-        <v>3.5573</v>
+        <v>3.82581</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1864,10 +1864,10 @@
         <v>29</v>
       </c>
       <c r="O11">
-        <v>25.0766</v>
+        <v>27.194</v>
       </c>
       <c r="P11">
-        <v>3.34385</v>
+        <v>3.62617</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1914,10 +1914,10 @@
         <v>29</v>
       </c>
       <c r="O12">
-        <v>23.6308</v>
+        <v>25.7997</v>
       </c>
       <c r="P12">
-        <v>3.15106</v>
+        <v>3.44026</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1964,10 +1964,10 @@
         <v>29</v>
       </c>
       <c r="O13">
-        <v>22.0296</v>
+        <v>24.3536</v>
       </c>
       <c r="P13">
-        <v>2.93758</v>
+        <v>3.24744</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -2014,10 +2014,10 @@
         <v>29</v>
       </c>
       <c r="O14">
-        <v>21.1518</v>
+        <v>23.4758</v>
       </c>
       <c r="P14">
-        <v>2.82053</v>
+        <v>3.13039</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -2064,10 +2064,10 @@
         <v>29</v>
       </c>
       <c r="O15">
-        <v>19.5513</v>
+        <v>21.9782</v>
       </c>
       <c r="P15">
-        <v>2.60713</v>
+        <v>2.93072</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -2114,10 +2114,10 @@
         <v>29</v>
       </c>
       <c r="O16">
-        <v>18.1049</v>
+        <v>20.6873</v>
       </c>
       <c r="P16">
-        <v>2.41427</v>
+        <v>2.7586</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -2164,10 +2164,10 @@
         <v>29</v>
       </c>
       <c r="O17">
-        <v>16.556</v>
+        <v>19.0865</v>
       </c>
       <c r="P17">
-        <v>2.20776</v>
+        <v>2.54515</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -2214,10 +2214,10 @@
         <v>29</v>
       </c>
       <c r="O18">
-        <v>16.6076</v>
+        <v>19.1379</v>
       </c>
       <c r="P18">
-        <v>2.21464</v>
+        <v>2.552</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -2264,10 +2264,10 @@
         <v>29</v>
       </c>
       <c r="O19">
-        <v>15.2647</v>
+        <v>17.6404</v>
       </c>
       <c r="P19">
-        <v>2.03557</v>
+        <v>2.35235</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -2314,10 +2314,10 @@
         <v>29</v>
       </c>
       <c r="O20">
-        <v>14.2835</v>
+        <v>16.3497</v>
       </c>
       <c r="P20">
-        <v>1.90476</v>
+        <v>2.18025</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -2364,10 +2364,10 @@
         <v>29</v>
       </c>
       <c r="O21">
-        <v>13.0958</v>
+        <v>15.1614</v>
       </c>
       <c r="P21">
-        <v>1.7464</v>
+        <v>2.02179</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -2414,10 +2414,10 @@
         <v>29</v>
       </c>
       <c r="O22">
-        <v>12.0625</v>
+        <v>14.1285</v>
       </c>
       <c r="P22">
-        <v>1.60861</v>
+        <v>1.8841</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -2464,10 +2464,10 @@
         <v>29</v>
       </c>
       <c r="O23">
-        <v>10.9782</v>
+        <v>13.0955</v>
       </c>
       <c r="P23">
-        <v>1.46406</v>
+        <v>1.74635</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -2514,10 +2514,10 @@
         <v>29</v>
       </c>
       <c r="O24">
-        <v>9.73884</v>
+        <v>12.0114</v>
       </c>
       <c r="P24">
-        <v>1.2988</v>
+        <v>1.60181</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -2564,10 +2564,10 @@
         <v>29</v>
       </c>
       <c r="O25">
-        <v>8.60239</v>
+        <v>10.9264</v>
       </c>
       <c r="P25">
-        <v>1.14728</v>
+        <v>1.45712</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -2614,10 +2614,10 @@
         <v>29</v>
       </c>
       <c r="O26">
-        <v>8.757899999999999</v>
+        <v>8.7576</v>
       </c>
       <c r="P26">
-        <v>1.16801</v>
+        <v>1.16797</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -2664,10 +2664,10 @@
         <v>29</v>
       </c>
       <c r="O27">
-        <v>7.51786</v>
+        <v>7.46746</v>
       </c>
       <c r="P27">
-        <v>1.00268</v>
+        <v>0.995947</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -2714,10 +2714,10 @@
         <v>29</v>
       </c>
       <c r="O28">
-        <v>6.32975</v>
+        <v>6.27866</v>
       </c>
       <c r="P28">
-        <v>0.844265</v>
+        <v>0.837449</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -2764,10 +2764,10 @@
         <v>29</v>
       </c>
       <c r="O29">
-        <v>5.03871</v>
+        <v>5.03869</v>
       </c>
       <c r="P29">
-        <v>0.672119</v>
+        <v>0.672109</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2814,10 +2814,10 @@
         <v>29</v>
       </c>
       <c r="O30">
-        <v>3.90237</v>
+        <v>3.85068</v>
       </c>
       <c r="P30">
-        <v>0.520601</v>
+        <v>0.5137080000000001</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2864,10 +2864,10 @@
         <v>29</v>
       </c>
       <c r="O31">
-        <v>2.66292</v>
+        <v>2.55957</v>
       </c>
       <c r="P31">
-        <v>0.355344</v>
+        <v>0.341562</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -2914,10 +2914,10 @@
         <v>29</v>
       </c>
       <c r="O32">
-        <v>1.26883</v>
+        <v>1.32003</v>
       </c>
       <c r="P32">
-        <v>0.169458</v>
+        <v>0.176292</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2964,10 +2964,10 @@
         <v>29</v>
       </c>
       <c r="O33">
-        <v>0.029243</v>
+        <v>0.080806</v>
       </c>
       <c r="P33">
-        <v>0.00418558</v>
+        <v>0.0110587</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -3014,10 +3014,10 @@
         <v>29</v>
       </c>
       <c r="O34">
-        <v>-0.0227002</v>
+        <v>0.08048950000000001</v>
       </c>
       <c r="P34">
-        <v>-0.002736</v>
+        <v>0.0110346</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -3064,10 +3064,10 @@
         <v>29</v>
       </c>
       <c r="O35">
-        <v>-1.15913</v>
+        <v>-1.21039</v>
       </c>
       <c r="P35">
-        <v>-0.154267</v>
+        <v>-0.161106</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -3114,10 +3114,10 @@
         <v>29</v>
       </c>
       <c r="O36">
-        <v>-2.50099</v>
+        <v>-2.50028</v>
       </c>
       <c r="P36">
-        <v>-0.33318</v>
+        <v>-0.333083</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -3164,10 +3164,10 @@
         <v>29</v>
       </c>
       <c r="O37">
-        <v>-3.68808</v>
+        <v>-3.63697</v>
       </c>
       <c r="P37">
-        <v>-0.491453</v>
+        <v>-0.48464</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -3214,10 +3214,10 @@
         <v>29</v>
       </c>
       <c r="O38">
-        <v>-4.97911</v>
+        <v>-4.87611</v>
       </c>
       <c r="P38">
-        <v>-0.663593</v>
+        <v>-0.649861</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -3264,10 +3264,10 @@
         <v>29</v>
       </c>
       <c r="O39">
-        <v>-6.21817</v>
+        <v>-6.16659</v>
       </c>
       <c r="P39">
-        <v>-0.828786</v>
+        <v>-0.821937</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -3314,10 +3314,10 @@
         <v>29</v>
       </c>
       <c r="O40">
-        <v>-7.4577</v>
+        <v>-7.45222</v>
       </c>
       <c r="P40">
-        <v>-0.994065</v>
+        <v>-0.993332</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -3364,10 +3364,10 @@
         <v>29</v>
       </c>
       <c r="O41">
-        <v>-8.696999999999999</v>
+        <v>-8.69684</v>
       </c>
       <c r="P41">
-        <v>-1.15931</v>
+        <v>-1.15928</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -3414,10 +3414,10 @@
         <v>29</v>
       </c>
       <c r="O42">
-        <v>-8.490360000000001</v>
+        <v>-10.7621</v>
       </c>
       <c r="P42">
-        <v>-1.13175</v>
+        <v>-1.43466</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -3464,10 +3464,10 @@
         <v>29</v>
       </c>
       <c r="O43">
-        <v>-9.625999999999999</v>
+        <v>-11.95</v>
       </c>
       <c r="P43">
-        <v>-1.28317</v>
+        <v>-1.59305</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -3514,10 +3514,10 @@
         <v>29</v>
       </c>
       <c r="O44">
-        <v>-10.8658</v>
+        <v>-12.9835</v>
       </c>
       <c r="P44">
-        <v>-1.4485</v>
+        <v>-1.73085</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -3564,10 +3564,10 @@
         <v>29</v>
       </c>
       <c r="O45">
-        <v>-12.1561</v>
+        <v>-14.1715</v>
       </c>
       <c r="P45">
-        <v>-1.62052</v>
+        <v>-1.88923</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -3614,10 +3614,10 @@
         <v>29</v>
       </c>
       <c r="O46">
-        <v>-12.9834</v>
+        <v>-14.9977</v>
       </c>
       <c r="P46">
-        <v>-1.73084</v>
+        <v>-1.99942</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -3664,10 +3664,10 @@
         <v>29</v>
       </c>
       <c r="O47">
-        <v>-14.1716</v>
+        <v>-16.1846</v>
       </c>
       <c r="P47">
-        <v>-1.88927</v>
+        <v>-2.15765</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -3714,10 +3714,10 @@
         <v>29</v>
       </c>
       <c r="O48">
-        <v>-15.1519</v>
+        <v>-17.2697</v>
       </c>
       <c r="P48">
-        <v>-2.01996</v>
+        <v>-2.30235</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -3764,10 +3764,10 @@
         <v>29</v>
       </c>
       <c r="O49">
-        <v>-16.34</v>
+        <v>-18.7153</v>
       </c>
       <c r="P49">
-        <v>-2.17837</v>
+        <v>-2.49508</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -3814,10 +3814,10 @@
         <v>29</v>
       </c>
       <c r="O50">
-        <v>-16.3397</v>
+        <v>-18.7151</v>
       </c>
       <c r="P50">
-        <v>-2.17834</v>
+        <v>-2.49505</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -3864,10 +3864,10 @@
         <v>29</v>
       </c>
       <c r="O51">
-        <v>-17.786</v>
+        <v>-20.0578</v>
       </c>
       <c r="P51">
-        <v>-2.37118</v>
+        <v>-2.67409</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -3914,10 +3914,10 @@
         <v>29</v>
       </c>
       <c r="O52">
-        <v>-19.18</v>
+        <v>-21.5036</v>
       </c>
       <c r="P52">
-        <v>-2.55705</v>
+        <v>-2.86684</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -3964,10 +3964,10 @@
         <v>29</v>
       </c>
       <c r="O53">
-        <v>-20.8844</v>
+        <v>-23.0528</v>
       </c>
       <c r="P53">
-        <v>-2.78428</v>
+        <v>-3.07342</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -4014,10 +4014,10 @@
         <v>29</v>
       </c>
       <c r="O54">
-        <v>-21.7104</v>
+        <v>-23.8268</v>
       </c>
       <c r="P54">
-        <v>-2.89442</v>
+        <v>-3.17659</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -4064,10 +4064,10 @@
         <v>29</v>
       </c>
       <c r="O55">
-        <v>-23.2081</v>
+        <v>-25.3761</v>
       </c>
       <c r="P55">
-        <v>-3.09412</v>
+        <v>-3.3832</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -4114,10 +4114,10 @@
         <v>29</v>
       </c>
       <c r="O56">
-        <v>-24.7048</v>
+        <v>-26.8738</v>
       </c>
       <c r="P56">
-        <v>-3.29367</v>
+        <v>-3.58288</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -4164,10 +4164,10 @@
         <v>29</v>
       </c>
       <c r="O57">
-        <v>-26.2546</v>
+        <v>-28.3203</v>
       </c>
       <c r="P57">
-        <v>-3.50031</v>
+        <v>-3.77574</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -4214,10 +4214,10 @@
         <v>29</v>
       </c>
       <c r="O58">
-        <v>-24.5504</v>
+        <v>-26.5128</v>
       </c>
       <c r="P58">
-        <v>-3.27309</v>
+        <v>-3.53474</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -4264,10 +4264,10 @@
         <v>29</v>
       </c>
       <c r="O59">
-        <v>-26.0482</v>
+        <v>-28.0619</v>
       </c>
       <c r="P59">
-        <v>-3.4728</v>
+        <v>-3.7413</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -4314,10 +4314,10 @@
         <v>29</v>
       </c>
       <c r="O60">
-        <v>-27.4939</v>
+        <v>-29.559</v>
       </c>
       <c r="P60">
-        <v>-3.66554</v>
+        <v>-3.94091</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -4364,10 +4364,10 @@
         <v>29</v>
       </c>
       <c r="O61">
-        <v>-29.0947</v>
+        <v>-31.0569</v>
       </c>
       <c r="P61">
-        <v>-3.87902</v>
+        <v>-4.14062</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -4414,10 +4414,10 @@
         <v>29</v>
       </c>
       <c r="O62">
-        <v>-29.8691</v>
+        <v>-31.779</v>
       </c>
       <c r="P62">
-        <v>-3.98226</v>
+        <v>-4.23691</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -4464,10 +4464,10 @@
         <v>29</v>
       </c>
       <c r="O63">
-        <v>-31.5213</v>
+        <v>-33.4311</v>
       </c>
       <c r="P63">
-        <v>-4.19575</v>
+        <v>-4.45719</v>
       </c>
     </row>
     <row r="64" spans="1:16">
@@ -4514,10 +4514,10 @@
         <v>29</v>
       </c>
       <c r="O64">
-        <v>-32.9156</v>
+        <v>-34.6716</v>
       </c>
       <c r="P64">
-        <v>-4.38845</v>
+        <v>-4.6226</v>
       </c>
     </row>
     <row r="65" spans="1:16">
@@ -4563,11 +4563,11 @@
       <c r="N65" t="s">
         <v>29</v>
       </c>
-      <c r="O65">
-        <v>-34.5166</v>
+      <c r="O65" s="3">
+        <v>-36.2206</v>
       </c>
       <c r="P65">
-        <v>-4.60192</v>
+        <v>-4.82913</v>
       </c>
     </row>
     <row r="66" spans="1:16">
@@ -4614,10 +4614,10 @@
         <v>165</v>
       </c>
       <c r="O66" s="2">
-        <v>44.6078</v>
+        <v>46.9613</v>
       </c>
       <c r="P66">
-        <v>5.40719</v>
+        <v>5.69246</v>
       </c>
     </row>
     <row r="67" spans="1:16">
@@ -4664,10 +4664,10 @@
         <v>165</v>
       </c>
       <c r="O67" s="2">
-        <v>42.705</v>
+        <v>45.0586</v>
       </c>
       <c r="P67">
-        <v>5.17655</v>
+        <v>5.46184</v>
       </c>
     </row>
     <row r="68" spans="1:16">
@@ -4714,10 +4714,10 @@
         <v>165</v>
       </c>
       <c r="O68" s="2">
-        <v>40.4489</v>
+        <v>42.6521</v>
       </c>
       <c r="P68">
-        <v>4.90309</v>
+        <v>5.17012</v>
       </c>
     </row>
     <row r="69" spans="1:16">
@@ -4764,10 +4764,10 @@
         <v>165</v>
       </c>
       <c r="O69" s="2">
-        <v>38.6456</v>
+        <v>40.9492</v>
       </c>
       <c r="P69">
-        <v>4.6845</v>
+        <v>4.96374</v>
       </c>
     </row>
     <row r="70" spans="1:16">
@@ -4814,10 +4814,10 @@
         <v>165</v>
       </c>
       <c r="O70" s="2">
-        <v>37.7953</v>
+        <v>40.148</v>
       </c>
       <c r="P70">
-        <v>4.58143</v>
+        <v>4.86661</v>
       </c>
     </row>
     <row r="71" spans="1:16">
@@ -4864,10 +4864,10 @@
         <v>165</v>
       </c>
       <c r="O71" s="2">
-        <v>36.0421</v>
+        <v>38.3454</v>
       </c>
       <c r="P71">
-        <v>4.36893</v>
+        <v>4.64811</v>
       </c>
     </row>
     <row r="72" spans="1:16">
@@ -4913,11 +4913,11 @@
       <c r="N72" t="s">
         <v>165</v>
       </c>
-      <c r="O72">
-        <v>34.3927</v>
+      <c r="O72" s="2">
+        <v>36.7931</v>
       </c>
       <c r="P72">
-        <v>4.16899</v>
+        <v>4.45995</v>
       </c>
     </row>
     <row r="73" spans="1:16">
@@ -4964,10 +4964,10 @@
         <v>165</v>
       </c>
       <c r="O73">
-        <v>32.5878</v>
+        <v>34.9909</v>
       </c>
       <c r="P73">
-        <v>3.95023</v>
+        <v>4.2415</v>
       </c>
     </row>
     <row r="74" spans="1:16">
@@ -5013,11 +5013,11 @@
       <c r="N74" t="s">
         <v>165</v>
       </c>
-      <c r="O74">
-        <v>34.7406</v>
+      <c r="O74" s="2">
+        <v>37.1937</v>
       </c>
       <c r="P74">
-        <v>4.21117</v>
+        <v>4.5085</v>
       </c>
     </row>
     <row r="75" spans="1:16">
@@ -5063,11 +5063,11 @@
       <c r="N75" t="s">
         <v>165</v>
       </c>
-      <c r="O75">
-        <v>32.8881</v>
+      <c r="O75" s="2">
+        <v>35.4412</v>
       </c>
       <c r="P75">
-        <v>3.98663</v>
+        <v>4.29608</v>
       </c>
     </row>
     <row r="76" spans="1:16">
@@ -5114,10 +5114,10 @@
         <v>165</v>
       </c>
       <c r="O76">
-        <v>31.1363</v>
+        <v>33.7392</v>
       </c>
       <c r="P76">
-        <v>3.77429</v>
+        <v>4.08979</v>
       </c>
     </row>
     <row r="77" spans="1:16">
@@ -5164,10 +5164,10 @@
         <v>165</v>
       </c>
       <c r="O77">
-        <v>29.1841</v>
+        <v>31.8866</v>
       </c>
       <c r="P77">
-        <v>3.53765</v>
+        <v>3.86524</v>
       </c>
     </row>
     <row r="78" spans="1:16">
@@ -5214,10 +5214,10 @@
         <v>165</v>
       </c>
       <c r="O78">
-        <v>28.1828</v>
+        <v>30.9355</v>
       </c>
       <c r="P78">
-        <v>3.41629</v>
+        <v>3.74994</v>
       </c>
     </row>
     <row r="79" spans="1:16">
@@ -5264,10 +5264,10 @@
         <v>165</v>
       </c>
       <c r="O79">
-        <v>26.2311</v>
+        <v>28.9841</v>
       </c>
       <c r="P79">
-        <v>3.17971</v>
+        <v>3.51341</v>
       </c>
     </row>
     <row r="80" spans="1:16">
@@ -5314,10 +5314,10 @@
         <v>165</v>
       </c>
       <c r="O80">
-        <v>24.3781</v>
+        <v>27.2811</v>
       </c>
       <c r="P80">
-        <v>2.9551</v>
+        <v>3.30699</v>
       </c>
     </row>
     <row r="81" spans="1:16">
@@ -5364,10 +5364,10 @@
         <v>165</v>
       </c>
       <c r="O81">
-        <v>22.4242</v>
+        <v>25.3787</v>
       </c>
       <c r="P81">
-        <v>2.71828</v>
+        <v>3.07639</v>
       </c>
     </row>
     <row r="82" spans="1:16">
@@ -5414,10 +5414,10 @@
         <v>165</v>
       </c>
       <c r="O82">
-        <v>22.3742</v>
+        <v>25.4286</v>
       </c>
       <c r="P82">
-        <v>2.71221</v>
+        <v>3.08245</v>
       </c>
     </row>
     <row r="83" spans="1:16">
@@ -5464,10 +5464,10 @@
         <v>165</v>
       </c>
       <c r="O83">
-        <v>20.7217</v>
+        <v>23.5762</v>
       </c>
       <c r="P83">
-        <v>2.51192</v>
+        <v>2.85791</v>
       </c>
     </row>
     <row r="84" spans="1:16">
@@ -5514,10 +5514,10 @@
         <v>165</v>
       </c>
       <c r="O84">
-        <v>19.0696</v>
+        <v>21.9238</v>
       </c>
       <c r="P84">
-        <v>2.31165</v>
+        <v>2.65762</v>
       </c>
     </row>
     <row r="85" spans="1:16">
@@ -5564,10 +5564,10 @@
         <v>165</v>
       </c>
       <c r="O85">
-        <v>17.467</v>
+        <v>20.3212</v>
       </c>
       <c r="P85">
-        <v>2.11739</v>
+        <v>2.46336</v>
       </c>
     </row>
     <row r="86" spans="1:16">
@@ -5614,10 +5614,10 @@
         <v>165</v>
       </c>
       <c r="O86">
-        <v>15.9649</v>
+        <v>18.7698</v>
       </c>
       <c r="P86">
-        <v>1.93533</v>
+        <v>2.27531</v>
       </c>
     </row>
     <row r="87" spans="1:16">
@@ -5664,10 +5664,10 @@
         <v>165</v>
       </c>
       <c r="O87">
-        <v>14.3124</v>
+        <v>17.0665</v>
       </c>
       <c r="P87">
-        <v>1.73501</v>
+        <v>2.06886</v>
       </c>
     </row>
     <row r="88" spans="1:16">
@@ -5714,10 +5714,10 @@
         <v>165</v>
       </c>
       <c r="O88">
-        <v>12.6101</v>
+        <v>15.4644</v>
       </c>
       <c r="P88">
-        <v>1.52867</v>
+        <v>1.87466</v>
       </c>
     </row>
     <row r="89" spans="1:16">
@@ -5764,10 +5764,10 @@
         <v>165</v>
       </c>
       <c r="O89">
-        <v>10.7575</v>
+        <v>13.7115</v>
       </c>
       <c r="P89">
-        <v>1.30413</v>
+        <v>1.66218</v>
       </c>
     </row>
     <row r="90" spans="1:16">
@@ -5814,10 +5814,10 @@
         <v>165</v>
       </c>
       <c r="O90">
-        <v>10.8076</v>
+        <v>10.8577</v>
       </c>
       <c r="P90">
-        <v>1.3102</v>
+        <v>1.31626</v>
       </c>
     </row>
     <row r="91" spans="1:16">
@@ -5864,10 +5864,10 @@
         <v>165</v>
       </c>
       <c r="O91">
-        <v>9.10501</v>
+        <v>9.005190000000001</v>
       </c>
       <c r="P91">
-        <v>1.10383</v>
+        <v>1.09172</v>
       </c>
     </row>
     <row r="92" spans="1:16">
@@ -5914,10 +5914,10 @@
         <v>165</v>
       </c>
       <c r="O92">
-        <v>7.45345</v>
+        <v>7.4527</v>
       </c>
       <c r="P92">
-        <v>0.903644</v>
+        <v>0.903543</v>
       </c>
     </row>
     <row r="93" spans="1:16">
@@ -5964,10 +5964,10 @@
         <v>165</v>
       </c>
       <c r="O93">
-        <v>6.00082</v>
+        <v>6.05059</v>
       </c>
       <c r="P93">
-        <v>0.727557</v>
+        <v>0.733592</v>
       </c>
     </row>
     <row r="94" spans="1:16">
@@ -6017,7 +6017,7 @@
         <v>4.59913</v>
       </c>
       <c r="P94">
-        <v>0.557655</v>
+        <v>0.557663</v>
       </c>
     </row>
     <row r="95" spans="1:16">
@@ -6064,10 +6064,10 @@
         <v>165</v>
       </c>
       <c r="O95">
-        <v>3.04835</v>
+        <v>3.04842</v>
       </c>
       <c r="P95">
-        <v>0.369668</v>
+        <v>0.369692</v>
       </c>
     </row>
     <row r="96" spans="1:16">
@@ -6114,10 +6114,10 @@
         <v>165</v>
       </c>
       <c r="O96">
-        <v>1.54666</v>
+        <v>1.54665</v>
       </c>
       <c r="P96">
-        <v>0.187658</v>
+        <v>0.187657</v>
       </c>
     </row>
     <row r="97" spans="1:16">
@@ -6164,10 +6164,10 @@
         <v>165</v>
       </c>
       <c r="O97">
-        <v>0.0449273</v>
+        <v>-0.00430571</v>
       </c>
       <c r="P97">
-        <v>0.00563376</v>
+        <v>-0.000349378</v>
       </c>
     </row>
     <row r="98" spans="1:16">
@@ -6214,10 +6214,10 @@
         <v>165</v>
       </c>
       <c r="O98">
-        <v>0.0451412</v>
+        <v>-0.00492003</v>
       </c>
       <c r="P98">
-        <v>0.00565505</v>
+        <v>-0.00040655</v>
       </c>
     </row>
     <row r="99" spans="1:16">
@@ -6264,10 +6264,10 @@
         <v>165</v>
       </c>
       <c r="O99">
-        <v>-1.50678</v>
+        <v>-1.50679</v>
       </c>
       <c r="P99">
-        <v>-0.182457</v>
+        <v>-0.182458</v>
       </c>
     </row>
     <row r="100" spans="1:16">
@@ -6314,10 +6314,10 @@
         <v>165</v>
       </c>
       <c r="O100">
-        <v>-3.05807</v>
+        <v>-3.00812</v>
       </c>
       <c r="P100">
-        <v>-0.370487</v>
+        <v>-0.364446</v>
       </c>
     </row>
     <row r="101" spans="1:16">
@@ -6364,10 +6364,10 @@
         <v>165</v>
       </c>
       <c r="O101">
-        <v>-4.55975</v>
+        <v>-4.50977</v>
       </c>
       <c r="P101">
-        <v>-0.552512</v>
+        <v>-0.546453</v>
       </c>
     </row>
     <row r="102" spans="1:16">
@@ -6414,10 +6414,10 @@
         <v>165</v>
       </c>
       <c r="O102">
-        <v>-5.96134</v>
+        <v>-5.96132</v>
       </c>
       <c r="P102">
-        <v>-0.722399</v>
+        <v>-0.722398</v>
       </c>
     </row>
     <row r="103" spans="1:16">
@@ -6464,10 +6464,10 @@
         <v>165</v>
       </c>
       <c r="O103">
-        <v>-7.56258</v>
+        <v>-7.56266</v>
       </c>
       <c r="P103">
-        <v>-0.91649</v>
+        <v>-0.9165</v>
       </c>
     </row>
     <row r="104" spans="1:16">
@@ -6514,10 +6514,10 @@
         <v>165</v>
       </c>
       <c r="O104">
-        <v>-9.11435</v>
+        <v>-9.114409999999999</v>
       </c>
       <c r="P104">
-        <v>-1.10458</v>
+        <v>-1.10459</v>
       </c>
     </row>
     <row r="105" spans="1:16">
@@ -6564,10 +6564,10 @@
         <v>165</v>
       </c>
       <c r="O105">
-        <v>-10.8165</v>
+        <v>-10.8664</v>
       </c>
       <c r="P105">
-        <v>-1.31091</v>
+        <v>-1.31696</v>
       </c>
     </row>
     <row r="106" spans="1:16">
@@ -6614,10 +6614,10 @@
         <v>165</v>
       </c>
       <c r="O106">
-        <v>-10.7661</v>
+        <v>-13.7192</v>
       </c>
       <c r="P106">
-        <v>-1.3048</v>
+        <v>-1.66274</v>
       </c>
     </row>
     <row r="107" spans="1:16">
@@ -6664,10 +6664,10 @@
         <v>165</v>
       </c>
       <c r="O107">
-        <v>-12.5179</v>
+        <v>-15.4711</v>
       </c>
       <c r="P107">
-        <v>-1.51712</v>
+        <v>-1.8751</v>
       </c>
     </row>
     <row r="108" spans="1:16">
@@ -6714,10 +6714,10 @@
         <v>165</v>
       </c>
       <c r="O108">
-        <v>-14.2657</v>
+        <v>-17.1723</v>
       </c>
       <c r="P108">
-        <v>-1.72899</v>
+        <v>-2.08131</v>
       </c>
     </row>
     <row r="109" spans="1:16">
@@ -6764,10 +6764,10 @@
         <v>165</v>
       </c>
       <c r="O109">
-        <v>-16.0185</v>
+        <v>-18.8239</v>
       </c>
       <c r="P109">
-        <v>-1.94146</v>
+        <v>-2.27555</v>
       </c>
     </row>
     <row r="110" spans="1:16">
@@ -6814,10 +6814,10 @@
         <v>165</v>
       </c>
       <c r="O110">
-        <v>-17.5235</v>
+        <v>-20.3263</v>
       </c>
       <c r="P110">
-        <v>-2.12387</v>
+        <v>-2.4636</v>
       </c>
     </row>
     <row r="111" spans="1:16">
@@ -6864,10 +6864,10 @@
         <v>165</v>
       </c>
       <c r="O111">
-        <v>-19.2252</v>
+        <v>-21.9781</v>
       </c>
       <c r="P111">
-        <v>-2.33014</v>
+        <v>-2.66383</v>
       </c>
     </row>
     <row r="112" spans="1:16">
@@ -6914,10 +6914,10 @@
         <v>165</v>
       </c>
       <c r="O112">
-        <v>-20.8266</v>
+        <v>-23.63</v>
       </c>
       <c r="P112">
-        <v>-2.52425</v>
+        <v>-2.86404</v>
       </c>
     </row>
     <row r="113" spans="1:16">
@@ -6964,10 +6964,10 @@
         <v>165</v>
       </c>
       <c r="O113">
-        <v>-22.4284</v>
+        <v>-25.332</v>
       </c>
       <c r="P113">
-        <v>-2.7184</v>
+        <v>-3.07035</v>
       </c>
     </row>
     <row r="114" spans="1:16">
@@ -7014,10 +7014,10 @@
         <v>165</v>
       </c>
       <c r="O114">
-        <v>-22.4286</v>
+        <v>-25.3321</v>
       </c>
       <c r="P114">
-        <v>-2.71843</v>
+        <v>-3.07037</v>
       </c>
     </row>
     <row r="115" spans="1:16">
@@ -7064,10 +7064,10 @@
         <v>165</v>
       </c>
       <c r="O115">
-        <v>-24.5312</v>
+        <v>-27.3332</v>
       </c>
       <c r="P115">
-        <v>-2.96726</v>
+        <v>-3.31292</v>
       </c>
     </row>
     <row r="116" spans="1:16">
@@ -7114,10 +7114,10 @@
         <v>165</v>
       </c>
       <c r="O116">
-        <v>-26.3819</v>
+        <v>-29.0341</v>
       </c>
       <c r="P116">
-        <v>-3.19762</v>
+        <v>-3.5191</v>
       </c>
     </row>
     <row r="117" spans="1:16">
@@ -7164,10 +7164,10 @@
         <v>165</v>
       </c>
       <c r="O117">
-        <v>-28.3338</v>
+        <v>-30.9846</v>
       </c>
       <c r="P117">
-        <v>-3.4342</v>
+        <v>-3.75552</v>
       </c>
     </row>
     <row r="118" spans="1:16">
@@ -7214,10 +7214,10 @@
         <v>165</v>
       </c>
       <c r="O118">
-        <v>-29.3345</v>
+        <v>-32.0822</v>
       </c>
       <c r="P118">
-        <v>-3.55551</v>
+        <v>-3.88858</v>
       </c>
     </row>
     <row r="119" spans="1:16">
@@ -7264,10 +7264,10 @@
         <v>165</v>
       </c>
       <c r="O119">
-        <v>-31.3856</v>
+        <v>-33.987</v>
       </c>
       <c r="P119">
-        <v>-3.80413</v>
+        <v>-4.11946</v>
       </c>
     </row>
     <row r="120" spans="1:16">
@@ -7313,11 +7313,11 @@
       <c r="N120" t="s">
         <v>165</v>
       </c>
-      <c r="O120">
-        <v>-33.0866</v>
+      <c r="O120" s="3">
+        <v>-35.6377</v>
       </c>
       <c r="P120">
-        <v>-4.01031</v>
+        <v>-4.31355</v>
       </c>
     </row>
     <row r="121" spans="1:16">
@@ -7363,11 +7363,11 @@
       <c r="N121" t="s">
         <v>165</v>
       </c>
-      <c r="O121">
-        <v>-34.9878</v>
+      <c r="O121" s="3">
+        <v>-37.5395</v>
       </c>
       <c r="P121">
-        <v>-4.24076</v>
+        <v>-4.55004</v>
       </c>
     </row>
     <row r="122" spans="1:16">
@@ -7413,11 +7413,11 @@
       <c r="N122" t="s">
         <v>165</v>
       </c>
-      <c r="O122">
-        <v>-32.8325</v>
+      <c r="O122" s="3">
+        <v>-35.2378</v>
       </c>
       <c r="P122">
-        <v>-3.97954</v>
+        <v>-4.27105</v>
       </c>
     </row>
     <row r="123" spans="1:16">
@@ -7463,11 +7463,11 @@
       <c r="N123" t="s">
         <v>165</v>
       </c>
-      <c r="O123">
-        <v>-34.6377</v>
+      <c r="O123" s="3">
+        <v>-37.0865</v>
       </c>
       <c r="P123">
-        <v>-4.19832</v>
+        <v>-4.49515</v>
       </c>
     </row>
     <row r="124" spans="1:16">
@@ -7514,10 +7514,10 @@
         <v>165</v>
       </c>
       <c r="O124" s="3">
-        <v>-36.4386</v>
+        <v>-38.7862</v>
       </c>
       <c r="P124">
-        <v>-4.41661</v>
+        <v>-4.70119</v>
       </c>
     </row>
     <row r="125" spans="1:16">
@@ -7564,10 +7564,10 @@
         <v>165</v>
       </c>
       <c r="O125" s="3">
-        <v>-38.2398</v>
+        <v>-40.4913</v>
       </c>
       <c r="P125">
-        <v>-4.63493</v>
+        <v>-4.90785</v>
       </c>
     </row>
     <row r="126" spans="1:16">
@@ -7614,10 +7614,10 @@
         <v>165</v>
       </c>
       <c r="O126" s="3">
-        <v>-39.1904</v>
+        <v>-41.3912</v>
       </c>
       <c r="P126">
-        <v>-4.75016</v>
+        <v>-5.01693</v>
       </c>
     </row>
     <row r="127" spans="1:16">
@@ -7664,10 +7664,10 @@
         <v>165</v>
       </c>
       <c r="O127" s="3">
-        <v>-41.0417</v>
+        <v>-43.193</v>
       </c>
       <c r="P127">
-        <v>-4.97456</v>
+        <v>-5.23533</v>
       </c>
     </row>
     <row r="128" spans="1:16">
@@ -7714,10 +7714,10 @@
         <v>165</v>
       </c>
       <c r="O128" s="3">
-        <v>-42.6427</v>
+        <v>-44.8441</v>
       </c>
       <c r="P128">
-        <v>-5.16863</v>
+        <v>-5.43547</v>
       </c>
     </row>
     <row r="129" spans="1:16">
@@ -7764,10 +7764,10 @@
         <v>165</v>
       </c>
       <c r="O129" s="3">
-        <v>-44.5941</v>
+        <v>-46.8955</v>
       </c>
       <c r="P129">
-        <v>-5.40516</v>
+        <v>-5.68411</v>
       </c>
     </row>
     <row r="130" spans="1:16">
@@ -7814,10 +7814,10 @@
         <v>239</v>
       </c>
       <c r="O130">
-        <v>26.1504</v>
+        <v>27.5002</v>
       </c>
       <c r="P130">
-        <v>3.87478</v>
+        <v>4.07465</v>
       </c>
     </row>
     <row r="131" spans="1:16">
@@ -7864,10 +7864,10 @@
         <v>239</v>
       </c>
       <c r="O131">
-        <v>25.1172</v>
+        <v>26.4605</v>
       </c>
       <c r="P131">
-        <v>3.72171</v>
+        <v>3.92069</v>
       </c>
     </row>
     <row r="132" spans="1:16">
@@ -7914,10 +7914,10 @@
         <v>239</v>
       </c>
       <c r="O132">
-        <v>24.3897</v>
+        <v>26.0947</v>
       </c>
       <c r="P132">
-        <v>3.61389</v>
+        <v>3.8665</v>
       </c>
     </row>
     <row r="133" spans="1:16">
@@ -7964,10 +7964,10 @@
         <v>239</v>
       </c>
       <c r="O133">
-        <v>23.2085</v>
+        <v>24.9066</v>
       </c>
       <c r="P133">
-        <v>3.43886</v>
+        <v>3.69049</v>
       </c>
     </row>
     <row r="134" spans="1:16">
@@ -8014,10 +8014,10 @@
         <v>239</v>
       </c>
       <c r="O134">
-        <v>22.8924</v>
+        <v>24.3912</v>
       </c>
       <c r="P134">
-        <v>3.39951</v>
+        <v>3.61412</v>
       </c>
     </row>
     <row r="135" spans="1:16">
@@ -8064,10 +8064,10 @@
         <v>239</v>
       </c>
       <c r="O135">
-        <v>21.9102</v>
+        <v>23.3575</v>
       </c>
       <c r="P135">
-        <v>3.25406</v>
+        <v>3.46101</v>
       </c>
     </row>
     <row r="136" spans="1:16">
@@ -8114,10 +8114,10 @@
         <v>239</v>
       </c>
       <c r="O136">
-        <v>20.9956</v>
+        <v>22.6342</v>
       </c>
       <c r="P136">
-        <v>3.1111</v>
+        <v>3.35387</v>
       </c>
     </row>
     <row r="137" spans="1:16">
@@ -8164,10 +8164,10 @@
         <v>239</v>
       </c>
       <c r="O137">
-        <v>19.9466</v>
+        <v>21.4972</v>
       </c>
       <c r="P137">
-        <v>2.95566</v>
+        <v>3.18541</v>
       </c>
     </row>
     <row r="138" spans="1:16">
@@ -8214,10 +8214,10 @@
         <v>239</v>
       </c>
       <c r="O138">
-        <v>21.1861</v>
+        <v>22.7918</v>
       </c>
       <c r="P138">
-        <v>3.1393</v>
+        <v>3.37719</v>
       </c>
     </row>
     <row r="139" spans="1:16">
@@ -8264,10 +8264,10 @@
         <v>239</v>
       </c>
       <c r="O139">
-        <v>20.102</v>
+        <v>21.7063</v>
       </c>
       <c r="P139">
-        <v>2.9787</v>
+        <v>3.21636</v>
       </c>
     </row>
     <row r="140" spans="1:16">
@@ -8314,10 +8314,10 @@
         <v>239</v>
       </c>
       <c r="O140">
-        <v>19.2223</v>
+        <v>20.8799</v>
       </c>
       <c r="P140">
-        <v>2.84835</v>
+        <v>3.09395</v>
       </c>
     </row>
     <row r="141" spans="1:16">
@@ -8364,10 +8364,10 @@
         <v>239</v>
       </c>
       <c r="O141">
-        <v>18.2415</v>
+        <v>19.8506</v>
       </c>
       <c r="P141">
-        <v>2.70307</v>
+        <v>2.9414</v>
       </c>
     </row>
     <row r="142" spans="1:16">
@@ -8414,10 +8414,10 @@
         <v>239</v>
       </c>
       <c r="O142">
-        <v>17.7252</v>
+        <v>19.5856</v>
       </c>
       <c r="P142">
-        <v>2.62662</v>
+        <v>2.90219</v>
       </c>
     </row>
     <row r="143" spans="1:16">
@@ -8464,10 +8464,10 @@
         <v>239</v>
       </c>
       <c r="O143">
-        <v>16.7951</v>
+        <v>18.5015</v>
       </c>
       <c r="P143">
-        <v>2.48878</v>
+        <v>2.74159</v>
       </c>
     </row>
     <row r="144" spans="1:16">
@@ -8514,10 +8514,10 @@
         <v>239</v>
       </c>
       <c r="O144">
-        <v>15.7627</v>
+        <v>17.6745</v>
       </c>
       <c r="P144">
-        <v>2.33584</v>
+        <v>2.61907</v>
       </c>
     </row>
     <row r="145" spans="1:16">
@@ -8564,10 +8564,10 @@
         <v>239</v>
       </c>
       <c r="O145">
-        <v>14.681</v>
+        <v>16.693</v>
       </c>
       <c r="P145">
-        <v>2.17558</v>
+        <v>2.47368</v>
       </c>
     </row>
     <row r="146" spans="1:16">
@@ -8614,10 +8614,10 @@
         <v>239</v>
       </c>
       <c r="O146">
-        <v>14.7296</v>
+        <v>16.6497</v>
       </c>
       <c r="P146">
-        <v>2.1828</v>
+        <v>2.47366</v>
       </c>
     </row>
     <row r="147" spans="1:16">
@@ -8664,10 +8664,10 @@
         <v>239</v>
       </c>
       <c r="O147">
-        <v>13.699</v>
+        <v>15.6595</v>
       </c>
       <c r="P147">
-        <v>2.03005</v>
+        <v>2.32056</v>
       </c>
     </row>
     <row r="148" spans="1:16">
@@ -8714,10 +8714,10 @@
         <v>239</v>
       </c>
       <c r="O148">
-        <v>12.7646</v>
+        <v>14.7288</v>
       </c>
       <c r="P148">
-        <v>1.89172</v>
+        <v>2.18269</v>
       </c>
     </row>
     <row r="149" spans="1:16">
@@ -8764,10 +8764,10 @@
         <v>239</v>
       </c>
       <c r="O149">
-        <v>11.6349</v>
+        <v>13.7471</v>
       </c>
       <c r="P149">
-        <v>1.72424</v>
+        <v>2.03726</v>
       </c>
     </row>
     <row r="150" spans="1:16">
@@ -8814,10 +8814,10 @@
         <v>239</v>
       </c>
       <c r="O150">
-        <v>10.7501</v>
+        <v>12.8236</v>
       </c>
       <c r="P150">
-        <v>1.60073</v>
+        <v>1.90037</v>
       </c>
     </row>
     <row r="151" spans="1:16">
@@ -8864,10 +8864,10 @@
         <v>239</v>
       </c>
       <c r="O151">
-        <v>9.61176</v>
+        <v>11.6309</v>
       </c>
       <c r="P151">
-        <v>1.4246</v>
+        <v>1.7237</v>
       </c>
     </row>
     <row r="152" spans="1:16">
@@ -8914,10 +8914,10 @@
         <v>239</v>
       </c>
       <c r="O152">
-        <v>8.423109999999999</v>
+        <v>10.5942</v>
       </c>
       <c r="P152">
-        <v>1.24849</v>
+        <v>1.57013</v>
       </c>
     </row>
     <row r="153" spans="1:16">
@@ -8964,10 +8964,10 @@
         <v>239</v>
       </c>
       <c r="O153">
-        <v>7.23416</v>
+        <v>9.41633</v>
       </c>
       <c r="P153">
-        <v>1.07233</v>
+        <v>1.39564</v>
       </c>
     </row>
     <row r="154" spans="1:16">
@@ -9014,10 +9014,10 @@
         <v>239</v>
       </c>
       <c r="O154">
-        <v>7.54432</v>
+        <v>7.59615</v>
       </c>
       <c r="P154">
-        <v>1.11831</v>
+        <v>1.12596</v>
       </c>
     </row>
     <row r="155" spans="1:16">
@@ -9064,10 +9064,10 @@
         <v>239</v>
       </c>
       <c r="O155">
-        <v>6.36494</v>
+        <v>6.40678</v>
       </c>
       <c r="P155">
-        <v>0.943512</v>
+        <v>0.949778</v>
       </c>
     </row>
     <row r="156" spans="1:16">
@@ -9114,10 +9114,10 @@
         <v>239</v>
       </c>
       <c r="O156">
-        <v>5.22675</v>
+        <v>5.21914</v>
       </c>
       <c r="P156">
-        <v>0.774885</v>
+        <v>0.773824</v>
       </c>
     </row>
     <row r="157" spans="1:16">
@@ -9164,10 +9164,10 @@
         <v>239</v>
       </c>
       <c r="O157">
-        <v>4.23589</v>
+        <v>4.23617</v>
       </c>
       <c r="P157">
-        <v>0.628184</v>
+        <v>0.628208</v>
       </c>
     </row>
     <row r="158" spans="1:16">
@@ -9214,10 +9214,10 @@
         <v>239</v>
       </c>
       <c r="O158">
-        <v>3.30514</v>
+        <v>3.30549</v>
       </c>
       <c r="P158">
-        <v>0.490258</v>
+        <v>0.490357</v>
       </c>
     </row>
     <row r="159" spans="1:16">
@@ -9264,10 +9264,10 @@
         <v>239</v>
       </c>
       <c r="O159">
-        <v>2.22149</v>
+        <v>2.1686</v>
       </c>
       <c r="P159">
-        <v>0.329725</v>
+        <v>0.321918</v>
       </c>
     </row>
     <row r="160" spans="1:16">
@@ -9314,10 +9314,10 @@
         <v>239</v>
       </c>
       <c r="O160">
-        <v>1.18649</v>
+        <v>1.13578</v>
       </c>
       <c r="P160">
-        <v>0.176386</v>
+        <v>0.168913</v>
       </c>
     </row>
     <row r="161" spans="1:16">
@@ -9364,10 +9364,10 @@
         <v>239</v>
       </c>
       <c r="O161">
-        <v>0.153194</v>
+        <v>0.0499657</v>
       </c>
       <c r="P161">
-        <v>0.0233008</v>
+        <v>0.007999239999999999</v>
       </c>
     </row>
     <row r="162" spans="1:16">
@@ -9414,10 +9414,10 @@
         <v>239</v>
       </c>
       <c r="O162">
-        <v>0.101213</v>
+        <v>0.102039</v>
       </c>
       <c r="P162">
-        <v>0.0155978</v>
+        <v>0.0157281</v>
       </c>
     </row>
     <row r="163" spans="1:16">
@@ -9464,10 +9464,10 @@
         <v>239</v>
       </c>
       <c r="O163">
-        <v>-0.980917</v>
+        <v>-0.983809</v>
       </c>
       <c r="P163">
-        <v>-0.144693</v>
+        <v>-0.145106</v>
       </c>
     </row>
     <row r="164" spans="1:16">
@@ -9514,10 +9514,10 @@
         <v>239</v>
       </c>
       <c r="O164">
-        <v>-2.01751</v>
+        <v>-2.0173</v>
       </c>
       <c r="P164">
-        <v>-0.298255</v>
+        <v>-0.29826</v>
       </c>
     </row>
     <row r="165" spans="1:16">
@@ -9564,10 +9564,10 @@
         <v>239</v>
       </c>
       <c r="O165">
-        <v>-3.0503</v>
+        <v>-3.04957</v>
       </c>
       <c r="P165">
-        <v>-0.4513</v>
+        <v>-0.443669</v>
       </c>
     </row>
     <row r="166" spans="1:16">
@@ -9614,10 +9614,10 @@
         <v>239</v>
       </c>
       <c r="O166">
-        <v>-3.9298</v>
+        <v>-3.9808</v>
       </c>
       <c r="P166">
-        <v>-0.581586</v>
+        <v>-0.589103</v>
       </c>
     </row>
     <row r="167" spans="1:16">
@@ -9664,10 +9664,10 @@
         <v>239</v>
       </c>
       <c r="O167">
-        <v>-5.16228</v>
+        <v>-5.06622</v>
       </c>
       <c r="P167">
-        <v>-0.764215</v>
+        <v>-0.749918</v>
       </c>
     </row>
     <row r="168" spans="1:16">
@@ -9714,10 +9714,10 @@
         <v>239</v>
       </c>
       <c r="O168">
-        <v>-6.20315</v>
+        <v>-6.203</v>
       </c>
       <c r="P168">
-        <v>-0.918367</v>
+        <v>-0.918334</v>
       </c>
     </row>
     <row r="169" spans="1:16">
@@ -9764,10 +9764,10 @@
         <v>239</v>
       </c>
       <c r="O169">
-        <v>-7.33877</v>
+        <v>-7.39018</v>
       </c>
       <c r="P169">
-        <v>-1.08661</v>
+        <v>-1.09421</v>
       </c>
     </row>
     <row r="170" spans="1:16">
@@ -9814,10 +9814,10 @@
         <v>239</v>
       </c>
       <c r="O170">
-        <v>-6.97743</v>
+        <v>-8.829319999999999</v>
       </c>
       <c r="P170">
-        <v>-1.03309</v>
+        <v>-1.30747</v>
       </c>
     </row>
     <row r="171" spans="1:16">
@@ -9864,10 +9864,10 @@
         <v>239</v>
       </c>
       <c r="O171">
-        <v>-8.06217</v>
+        <v>-9.871040000000001</v>
       </c>
       <c r="P171">
-        <v>-1.18622</v>
+        <v>-1.46174</v>
       </c>
     </row>
     <row r="172" spans="1:16">
@@ -9914,10 +9914,10 @@
         <v>239</v>
       </c>
       <c r="O172">
-        <v>-8.991479999999999</v>
+        <v>-10.749</v>
       </c>
       <c r="P172">
-        <v>-1.33144</v>
+        <v>-1.59184</v>
       </c>
     </row>
     <row r="173" spans="1:16">
@@ -9964,10 +9964,10 @@
         <v>239</v>
       </c>
       <c r="O173">
-        <v>-9.97325</v>
+        <v>-11.7304</v>
       </c>
       <c r="P173">
-        <v>-1.47686</v>
+        <v>-1.73723</v>
       </c>
     </row>
     <row r="174" spans="1:16">
@@ -10014,10 +10014,10 @@
         <v>239</v>
       </c>
       <c r="O174">
-        <v>-10.8971</v>
+        <v>-12.66</v>
       </c>
       <c r="P174">
-        <v>-1.6138</v>
+        <v>-1.87493</v>
       </c>
     </row>
     <row r="175" spans="1:16">
@@ -10064,10 +10064,10 @@
         <v>239</v>
       </c>
       <c r="O175">
-        <v>-11.8263</v>
+        <v>-13.5912</v>
       </c>
       <c r="P175">
-        <v>-1.75147</v>
+        <v>-2.01287</v>
       </c>
     </row>
     <row r="176" spans="1:16">
@@ -10114,10 +10114,10 @@
         <v>239</v>
       </c>
       <c r="O176">
-        <v>-12.7129</v>
+        <v>-14.4697</v>
       </c>
       <c r="P176">
-        <v>-1.88276</v>
+        <v>-2.13541</v>
       </c>
     </row>
     <row r="177" spans="1:16">
@@ -10164,10 +10164,10 @@
         <v>239</v>
       </c>
       <c r="O177">
-        <v>-13.6939</v>
+        <v>-15.4517</v>
       </c>
       <c r="P177">
-        <v>-2.02809</v>
+        <v>-2.2885</v>
       </c>
     </row>
     <row r="178" spans="1:16">
@@ -10214,10 +10214,10 @@
         <v>239</v>
       </c>
       <c r="O178">
-        <v>-13.7454</v>
+        <v>-15.3998</v>
       </c>
       <c r="P178">
-        <v>-2.0357</v>
+        <v>-2.28091</v>
       </c>
     </row>
     <row r="179" spans="1:16">
@@ -10264,10 +10264,10 @@
         <v>239</v>
       </c>
       <c r="O179">
-        <v>-14.7796</v>
+        <v>-16.5374</v>
       </c>
       <c r="P179">
-        <v>-2.18895</v>
+        <v>-2.44938</v>
       </c>
     </row>
     <row r="180" spans="1:16">
@@ -10314,10 +10314,10 @@
         <v>239</v>
       </c>
       <c r="O180">
-        <v>-15.7102</v>
+        <v>-17.4145</v>
       </c>
       <c r="P180">
-        <v>-2.31923</v>
+        <v>-2.5793</v>
       </c>
     </row>
     <row r="181" spans="1:16">
@@ -10364,10 +10364,10 @@
         <v>239</v>
       </c>
       <c r="O181">
-        <v>-16.7956</v>
+        <v>-18.3979</v>
       </c>
       <c r="P181">
-        <v>-2.48761</v>
+        <v>-2.72501</v>
       </c>
     </row>
     <row r="182" spans="1:16">
@@ -10414,10 +10414,10 @@
         <v>239</v>
       </c>
       <c r="O182">
-        <v>-17.2599</v>
+        <v>-18.9149</v>
       </c>
       <c r="P182">
-        <v>-2.54896</v>
+        <v>-2.80158</v>
       </c>
     </row>
     <row r="183" spans="1:16">
@@ -10464,10 +10464,10 @@
         <v>239</v>
       </c>
       <c r="O183">
-        <v>-18.1923</v>
+        <v>-20.0519</v>
       </c>
       <c r="P183">
-        <v>-2.69452</v>
+        <v>-2.97004</v>
       </c>
     </row>
     <row r="184" spans="1:16">
@@ -10514,10 +10514,10 @@
         <v>239</v>
       </c>
       <c r="O184">
-        <v>-19.2251</v>
+        <v>-21.1865</v>
       </c>
       <c r="P184">
-        <v>-2.83996</v>
+        <v>-3.13089</v>
       </c>
     </row>
     <row r="185" spans="1:16">
@@ -10564,10 +10564,10 @@
         <v>239</v>
       </c>
       <c r="O185">
-        <v>-20.4593</v>
+        <v>-22.3777</v>
       </c>
       <c r="P185">
-        <v>-3.03042</v>
+        <v>-3.31459</v>
       </c>
     </row>
     <row r="186" spans="1:16">
@@ -10614,10 +10614,10 @@
         <v>239</v>
       </c>
       <c r="O186">
-        <v>-18.9672</v>
+        <v>-20.869</v>
       </c>
       <c r="P186">
-        <v>-2.80936</v>
+        <v>-3.09115</v>
       </c>
     </row>
     <row r="187" spans="1:16">
@@ -10664,10 +10664,10 @@
         <v>239</v>
       </c>
       <c r="O187">
-        <v>-20.2593</v>
+        <v>-21.9649</v>
       </c>
       <c r="P187">
-        <v>-3.00075</v>
+        <v>-3.25345</v>
       </c>
     </row>
     <row r="188" spans="1:16">
@@ -10714,10 +10714,10 @@
         <v>239</v>
       </c>
       <c r="O188">
-        <v>-21.4481</v>
+        <v>-23.1022</v>
       </c>
       <c r="P188">
-        <v>-3.17691</v>
+        <v>-3.42192</v>
       </c>
     </row>
     <row r="189" spans="1:16">
@@ -10764,10 +10764,10 @@
         <v>239</v>
       </c>
       <c r="O189">
-        <v>-22.7333</v>
+        <v>-24.3941</v>
       </c>
       <c r="P189">
-        <v>-3.3673</v>
+        <v>-3.61331</v>
       </c>
     </row>
     <row r="190" spans="1:16">
@@ -10814,10 +10814,10 @@
         <v>239</v>
       </c>
       <c r="O190">
-        <v>-23.2055</v>
+        <v>-24.9626</v>
       </c>
       <c r="P190">
-        <v>-3.43724</v>
+        <v>-3.69755</v>
       </c>
     </row>
     <row r="191" spans="1:16">
@@ -10864,10 +10864,10 @@
         <v>239</v>
       </c>
       <c r="O191">
-        <v>-24.5491</v>
+        <v>-26.0993</v>
       </c>
       <c r="P191">
-        <v>-3.6363</v>
+        <v>-3.86595</v>
       </c>
     </row>
     <row r="192" spans="1:16">
@@ -10914,10 +10914,10 @@
         <v>239</v>
       </c>
       <c r="O192">
-        <v>-25.7381</v>
+        <v>-27.237</v>
       </c>
       <c r="P192">
-        <v>-3.81245</v>
+        <v>-4.03449</v>
       </c>
     </row>
     <row r="193" spans="1:16">
@@ -10964,10 +10964,10 @@
         <v>239</v>
       </c>
       <c r="O193">
-        <v>-27.0302</v>
+        <v>-28.5292</v>
       </c>
       <c r="P193">
-        <v>-4.00385</v>
+        <v>-4.22595</v>
       </c>
     </row>
     <row r="194" spans="1:16" s="1" customFormat="1">
@@ -11025,10 +11025,10 @@
         <v>303</v>
       </c>
       <c r="O195" s="3">
-        <v>-44.5941</v>
+        <v>-46.8955</v>
       </c>
       <c r="P195" s="1">
-        <v>-5.40516</v>
+        <v>-5.68411</v>
       </c>
     </row>
     <row r="196" spans="1:16" s="1" customFormat="1">
@@ -11036,10 +11036,10 @@
         <v>304</v>
       </c>
       <c r="O196" s="2">
-        <v>44.6078</v>
+        <v>46.9613</v>
       </c>
       <c r="P196" s="1">
-        <v>5.40719</v>
+        <v>5.69246</v>
       </c>
     </row>
     <row r="197" spans="1:16" s="1" customFormat="1">
@@ -11079,10 +11079,10 @@
         <v>309</v>
       </c>
       <c r="O201" s="1">
-        <v>0.09358432999999999</v>
+        <v>0.10954</v>
       </c>
       <c r="P201" s="1">
-        <v>0.01463365</v>
+        <v>0.01666366</v>
       </c>
     </row>
     <row r="202" spans="1:16" s="1" customFormat="1">
@@ -11090,10 +11090,10 @@
         <v>310</v>
       </c>
       <c r="O202" s="1">
-        <v>20.835394</v>
+        <v>22.580952</v>
       </c>
       <c r="P202" s="1">
-        <v>2.715164</v>
+        <v>2.94418</v>
       </c>
     </row>
     <row r="203" spans="1:16" s="1" customFormat="1">
@@ -11101,10 +11101,10 @@
         <v>311</v>
       </c>
       <c r="O203" s="1">
-        <v>22263.763602</v>
+        <v>20614.343619</v>
       </c>
       <c r="P203" s="1">
-        <v>18554.249965</v>
+        <v>17668.267355</v>
       </c>
     </row>
     <row r="204" spans="1:16" s="1" customFormat="1"/>

--- a/dcd_top_offset_step_tsmc2p_meas.xlsx
+++ b/dcd_top_offset_step_tsmc2p_meas.xlsx
@@ -1413,11 +1413,11 @@
       <c r="N2" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="2">
-        <v>36.3924</v>
+      <c r="O2">
+        <v>34.1161</v>
       </c>
       <c r="P2">
-        <v>4.85259</v>
+        <v>4.5491</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1464,10 +1464,10 @@
         <v>29</v>
       </c>
       <c r="O3">
-        <v>34.8393</v>
+        <v>32.5153</v>
       </c>
       <c r="P3">
-        <v>4.64553</v>
+        <v>4.33566</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1514,10 +1514,10 @@
         <v>29</v>
       </c>
       <c r="O4">
-        <v>33.546</v>
+        <v>31.2737</v>
       </c>
       <c r="P4">
-        <v>4.47308</v>
+        <v>4.17011</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1564,10 +1564,10 @@
         <v>29</v>
       </c>
       <c r="O5">
-        <v>32.0478</v>
+        <v>29.7756</v>
       </c>
       <c r="P5">
-        <v>4.27333</v>
+        <v>3.97037</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1614,10 +1614,10 @@
         <v>29</v>
       </c>
       <c r="O6">
-        <v>31.2237</v>
+        <v>29.0531</v>
       </c>
       <c r="P6">
-        <v>4.16346</v>
+        <v>3.87405</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1664,10 +1664,10 @@
         <v>29</v>
       </c>
       <c r="O7">
-        <v>29.8277</v>
+        <v>27.4523</v>
       </c>
       <c r="P7">
-        <v>3.97732</v>
+        <v>3.66061</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1714,10 +1714,10 @@
         <v>29</v>
       </c>
       <c r="O8">
-        <v>28.4335</v>
+        <v>26.0585</v>
       </c>
       <c r="P8">
-        <v>3.79143</v>
+        <v>3.48153</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1764,10 +1764,10 @@
         <v>29</v>
       </c>
       <c r="O9">
-        <v>26.9357</v>
+        <v>24.457</v>
       </c>
       <c r="P9">
-        <v>3.59173</v>
+        <v>3.26123</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1814,10 +1814,10 @@
         <v>29</v>
       </c>
       <c r="O10">
-        <v>28.6914</v>
+        <v>27.5593</v>
       </c>
       <c r="P10">
-        <v>3.82581</v>
+        <v>3.67485</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1864,10 +1864,10 @@
         <v>29</v>
       </c>
       <c r="O11">
-        <v>27.194</v>
+        <v>25.9549</v>
       </c>
       <c r="P11">
-        <v>3.62617</v>
+        <v>3.46094</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1914,10 +1914,10 @@
         <v>29</v>
       </c>
       <c r="O12">
-        <v>25.7997</v>
+        <v>24.5603</v>
       </c>
       <c r="P12">
-        <v>3.44026</v>
+        <v>3.27501</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1964,10 +1964,10 @@
         <v>29</v>
       </c>
       <c r="O13">
-        <v>24.3536</v>
+        <v>22.9606</v>
       </c>
       <c r="P13">
-        <v>3.24744</v>
+        <v>3.0617</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -2014,10 +2014,10 @@
         <v>29</v>
       </c>
       <c r="O14">
-        <v>23.4758</v>
+        <v>22.1847</v>
       </c>
       <c r="P14">
-        <v>3.13039</v>
+        <v>2.95824</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -2064,10 +2064,10 @@
         <v>29</v>
       </c>
       <c r="O15">
-        <v>21.9782</v>
+        <v>20.6355</v>
       </c>
       <c r="P15">
-        <v>2.93072</v>
+        <v>2.75169</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -2114,10 +2114,10 @@
         <v>29</v>
       </c>
       <c r="O16">
-        <v>20.6873</v>
+        <v>19.2413</v>
       </c>
       <c r="P16">
-        <v>2.7586</v>
+        <v>2.56579</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -2164,10 +2164,10 @@
         <v>29</v>
       </c>
       <c r="O17">
-        <v>19.0865</v>
+        <v>17.5885</v>
       </c>
       <c r="P17">
-        <v>2.54515</v>
+        <v>2.34542</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -2214,10 +2214,10 @@
         <v>29</v>
       </c>
       <c r="O18">
-        <v>19.1379</v>
+        <v>17.6402</v>
       </c>
       <c r="P18">
-        <v>2.552</v>
+        <v>2.3523</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -2264,10 +2264,10 @@
         <v>29</v>
       </c>
       <c r="O19">
-        <v>17.6404</v>
+        <v>16.3494</v>
       </c>
       <c r="P19">
-        <v>2.35235</v>
+        <v>2.18021</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -2314,10 +2314,10 @@
         <v>29</v>
       </c>
       <c r="O20">
-        <v>16.3497</v>
+        <v>15.11</v>
       </c>
       <c r="P20">
-        <v>2.18025</v>
+        <v>2.01495</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -2364,10 +2364,10 @@
         <v>29</v>
       </c>
       <c r="O21">
-        <v>15.1614</v>
+        <v>13.974</v>
       </c>
       <c r="P21">
-        <v>2.02179</v>
+        <v>1.8635</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -2414,10 +2414,10 @@
         <v>29</v>
       </c>
       <c r="O22">
-        <v>14.1285</v>
+        <v>12.941</v>
       </c>
       <c r="P22">
-        <v>1.8841</v>
+        <v>1.72575</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -2464,10 +2464,10 @@
         <v>29</v>
       </c>
       <c r="O23">
-        <v>13.0955</v>
+        <v>11.856</v>
       </c>
       <c r="P23">
-        <v>1.74635</v>
+        <v>1.5811</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -2514,10 +2514,10 @@
         <v>29</v>
       </c>
       <c r="O24">
-        <v>12.0114</v>
+        <v>10.7724</v>
       </c>
       <c r="P24">
-        <v>1.60181</v>
+        <v>1.4366</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -2564,10 +2564,10 @@
         <v>29</v>
       </c>
       <c r="O25">
-        <v>10.9264</v>
+        <v>9.485340000000001</v>
       </c>
       <c r="P25">
-        <v>1.45712</v>
+        <v>1.26498</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -2614,10 +2614,10 @@
         <v>29</v>
       </c>
       <c r="O26">
-        <v>8.7576</v>
+        <v>8.80931</v>
       </c>
       <c r="P26">
-        <v>1.16797</v>
+        <v>1.17486</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -2664,10 +2664,10 @@
         <v>29</v>
       </c>
       <c r="O27">
-        <v>7.46746</v>
+        <v>7.46683</v>
       </c>
       <c r="P27">
-        <v>0.995947</v>
+        <v>1.00262</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -2714,10 +2714,10 @@
         <v>29</v>
       </c>
       <c r="O28">
-        <v>6.27866</v>
+        <v>6.32981</v>
       </c>
       <c r="P28">
-        <v>0.837449</v>
+        <v>0.844265</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -2764,10 +2764,10 @@
         <v>29</v>
       </c>
       <c r="O29">
-        <v>5.03869</v>
+        <v>5.03889</v>
       </c>
       <c r="P29">
-        <v>0.672109</v>
+        <v>0.672143</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2814,10 +2814,10 @@
         <v>29</v>
       </c>
       <c r="O30">
-        <v>3.85068</v>
+        <v>3.85099</v>
       </c>
       <c r="P30">
-        <v>0.5137080000000001</v>
+        <v>0.513756</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2864,10 +2864,10 @@
         <v>29</v>
       </c>
       <c r="O31">
-        <v>2.55957</v>
+        <v>2.61129</v>
       </c>
       <c r="P31">
-        <v>0.341562</v>
+        <v>0.348469</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -2914,10 +2914,10 @@
         <v>29</v>
       </c>
       <c r="O32">
-        <v>1.32003</v>
+        <v>1.32022</v>
       </c>
       <c r="P32">
-        <v>0.176292</v>
+        <v>0.17632</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2964,10 +2964,10 @@
         <v>29</v>
       </c>
       <c r="O33">
-        <v>0.080806</v>
+        <v>0.0803823</v>
       </c>
       <c r="P33">
-        <v>0.0110587</v>
+        <v>0.0110029</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -3014,10 +3014,10 @@
         <v>29</v>
       </c>
       <c r="O34">
-        <v>0.08048950000000001</v>
+        <v>0.08032889999999999</v>
       </c>
       <c r="P34">
-        <v>0.0110346</v>
+        <v>0.010997</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -3064,10 +3064,10 @@
         <v>29</v>
       </c>
       <c r="O35">
-        <v>-1.21039</v>
+        <v>-1.26191</v>
       </c>
       <c r="P35">
-        <v>-0.161106</v>
+        <v>-0.167952</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -3114,10 +3114,10 @@
         <v>29</v>
       </c>
       <c r="O36">
-        <v>-2.50028</v>
+        <v>-2.49673</v>
       </c>
       <c r="P36">
-        <v>-0.333083</v>
+        <v>-0.332633</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -3164,10 +3164,10 @@
         <v>29</v>
       </c>
       <c r="O37">
-        <v>-3.63697</v>
+        <v>-3.68852</v>
       </c>
       <c r="P37">
-        <v>-0.48464</v>
+        <v>-0.491512</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -3214,10 +3214,10 @@
         <v>29</v>
       </c>
       <c r="O38">
-        <v>-4.87611</v>
+        <v>-4.87575</v>
       </c>
       <c r="P38">
-        <v>-0.649861</v>
+        <v>-0.64981</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -3264,10 +3264,10 @@
         <v>29</v>
       </c>
       <c r="O39">
-        <v>-6.16659</v>
+        <v>-6.16662</v>
       </c>
       <c r="P39">
-        <v>-0.821937</v>
+        <v>-0.821932</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -3314,10 +3314,10 @@
         <v>29</v>
       </c>
       <c r="O40">
-        <v>-7.45222</v>
+        <v>-7.5093</v>
       </c>
       <c r="P40">
-        <v>-0.993332</v>
+        <v>-1.00095</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -3364,10 +3364,10 @@
         <v>29</v>
       </c>
       <c r="O41">
-        <v>-8.69684</v>
+        <v>-8.748250000000001</v>
       </c>
       <c r="P41">
-        <v>-1.15928</v>
+        <v>-1.16614</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -3414,10 +3414,10 @@
         <v>29</v>
       </c>
       <c r="O42">
-        <v>-10.7621</v>
+        <v>-9.368399999999999</v>
       </c>
       <c r="P42">
-        <v>-1.43466</v>
+        <v>-1.24882</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -3464,10 +3464,10 @@
         <v>29</v>
       </c>
       <c r="O43">
-        <v>-11.95</v>
+        <v>-10.7098</v>
       </c>
       <c r="P43">
-        <v>-1.59305</v>
+        <v>-1.42769</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -3514,10 +3514,10 @@
         <v>29</v>
       </c>
       <c r="O44">
-        <v>-12.9835</v>
+        <v>-11.8469</v>
       </c>
       <c r="P44">
-        <v>-1.73085</v>
+        <v>-1.57928</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -3564,10 +3564,10 @@
         <v>29</v>
       </c>
       <c r="O45">
-        <v>-14.1715</v>
+        <v>-12.9317</v>
       </c>
       <c r="P45">
-        <v>-1.88923</v>
+        <v>-1.72393</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -3614,10 +3614,10 @@
         <v>29</v>
       </c>
       <c r="O46">
-        <v>-14.9977</v>
+        <v>-13.9648</v>
       </c>
       <c r="P46">
-        <v>-1.99942</v>
+        <v>-1.86171</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -3664,10 +3664,10 @@
         <v>29</v>
       </c>
       <c r="O47">
-        <v>-16.1846</v>
+        <v>-14.9461</v>
       </c>
       <c r="P47">
-        <v>-2.15765</v>
+        <v>-1.99252</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -3714,10 +3714,10 @@
         <v>29</v>
       </c>
       <c r="O48">
-        <v>-17.2697</v>
+        <v>-16.1326</v>
       </c>
       <c r="P48">
-        <v>-2.30235</v>
+        <v>-2.15071</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -3764,10 +3764,10 @@
         <v>29</v>
       </c>
       <c r="O49">
-        <v>-18.7153</v>
+        <v>-17.2184</v>
       </c>
       <c r="P49">
-        <v>-2.49508</v>
+        <v>-2.29549</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -3814,10 +3814,10 @@
         <v>29</v>
       </c>
       <c r="O50">
-        <v>-18.7151</v>
+        <v>-17.2689</v>
       </c>
       <c r="P50">
-        <v>-2.49505</v>
+        <v>-2.30223</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -3864,10 +3864,10 @@
         <v>29</v>
       </c>
       <c r="O51">
-        <v>-20.0578</v>
+        <v>-18.8184</v>
       </c>
       <c r="P51">
-        <v>-2.67409</v>
+        <v>-2.50883</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -3914,10 +3914,10 @@
         <v>29</v>
       </c>
       <c r="O52">
-        <v>-21.5036</v>
+        <v>-20.2128</v>
       </c>
       <c r="P52">
-        <v>-2.86684</v>
+        <v>-2.69475</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -3964,10 +3964,10 @@
         <v>29</v>
       </c>
       <c r="O53">
-        <v>-23.0528</v>
+        <v>-21.7105</v>
       </c>
       <c r="P53">
-        <v>-3.07342</v>
+        <v>-2.89444</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -4014,10 +4014,10 @@
         <v>29</v>
       </c>
       <c r="O54">
-        <v>-23.8268</v>
+        <v>-22.6398</v>
       </c>
       <c r="P54">
-        <v>-3.17659</v>
+        <v>-3.01834</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -4064,10 +4064,10 @@
         <v>29</v>
       </c>
       <c r="O55">
-        <v>-25.3761</v>
+        <v>-24.1891</v>
       </c>
       <c r="P55">
-        <v>-3.3832</v>
+        <v>-3.22491</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -4114,10 +4114,10 @@
         <v>29</v>
       </c>
       <c r="O56">
-        <v>-26.8738</v>
+        <v>-25.5831</v>
       </c>
       <c r="P56">
-        <v>-3.58288</v>
+        <v>-3.41079</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -4164,10 +4164,10 @@
         <v>29</v>
       </c>
       <c r="O57">
-        <v>-28.3203</v>
+        <v>-27.2356</v>
       </c>
       <c r="P57">
-        <v>-3.77574</v>
+        <v>-3.63113</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -4214,10 +4214,10 @@
         <v>29</v>
       </c>
       <c r="O58">
-        <v>-26.5128</v>
+        <v>-24.1369</v>
       </c>
       <c r="P58">
-        <v>-3.53474</v>
+        <v>-3.21797</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -4264,10 +4264,10 @@
         <v>29</v>
       </c>
       <c r="O59">
-        <v>-28.0619</v>
+        <v>-25.6862</v>
       </c>
       <c r="P59">
-        <v>-3.7413</v>
+        <v>-3.42453</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -4314,10 +4314,10 @@
         <v>29</v>
       </c>
       <c r="O60">
-        <v>-29.559</v>
+        <v>-27.1324</v>
       </c>
       <c r="P60">
-        <v>-3.94091</v>
+        <v>-3.61737</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -4364,10 +4364,10 @@
         <v>29</v>
       </c>
       <c r="O61">
-        <v>-31.0569</v>
+        <v>-28.7334</v>
       </c>
       <c r="P61">
-        <v>-4.14062</v>
+        <v>-3.83081</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -4414,10 +4414,10 @@
         <v>29</v>
       </c>
       <c r="O62">
-        <v>-31.779</v>
+        <v>-29.5591</v>
       </c>
       <c r="P62">
-        <v>-4.23691</v>
+        <v>-3.94092</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -4464,10 +4464,10 @@
         <v>29</v>
       </c>
       <c r="O63">
-        <v>-33.4311</v>
+        <v>-31.1087</v>
       </c>
       <c r="P63">
-        <v>-4.45719</v>
+        <v>-4.14754</v>
       </c>
     </row>
     <row r="64" spans="1:16">
@@ -4514,10 +4514,10 @@
         <v>29</v>
       </c>
       <c r="O64">
-        <v>-34.6716</v>
+        <v>-32.5027</v>
       </c>
       <c r="P64">
-        <v>-4.6226</v>
+        <v>-4.3334</v>
       </c>
     </row>
     <row r="65" spans="1:16">
@@ -4563,11 +4563,11 @@
       <c r="N65" t="s">
         <v>29</v>
       </c>
-      <c r="O65" s="3">
-        <v>-36.2206</v>
+      <c r="O65">
+        <v>-33.9485</v>
       </c>
       <c r="P65">
-        <v>-4.82913</v>
+        <v>-4.52618</v>
       </c>
     </row>
     <row r="66" spans="1:16">
@@ -4614,10 +4614,10 @@
         <v>165</v>
       </c>
       <c r="O66" s="2">
-        <v>46.9613</v>
+        <v>43.9567</v>
       </c>
       <c r="P66">
-        <v>5.69246</v>
+        <v>5.32827</v>
       </c>
     </row>
     <row r="67" spans="1:16">
@@ -4664,10 +4664,10 @@
         <v>165</v>
       </c>
       <c r="O67" s="2">
-        <v>45.0586</v>
+        <v>42.1539</v>
       </c>
       <c r="P67">
-        <v>5.46184</v>
+        <v>5.10975</v>
       </c>
     </row>
     <row r="68" spans="1:16">
@@ -4714,10 +4714,10 @@
         <v>165</v>
       </c>
       <c r="O68" s="2">
-        <v>42.6521</v>
+        <v>39.8978</v>
       </c>
       <c r="P68">
-        <v>5.17012</v>
+        <v>4.83628</v>
       </c>
     </row>
     <row r="69" spans="1:16">
@@ -4764,10 +4764,10 @@
         <v>165</v>
       </c>
       <c r="O69" s="2">
-        <v>40.9492</v>
+        <v>38.1445</v>
       </c>
       <c r="P69">
-        <v>4.96374</v>
+        <v>4.62376</v>
       </c>
     </row>
     <row r="70" spans="1:16">
@@ -4814,10 +4814,10 @@
         <v>165</v>
       </c>
       <c r="O70" s="2">
-        <v>40.148</v>
+        <v>37.2442</v>
       </c>
       <c r="P70">
-        <v>4.86661</v>
+        <v>4.52063</v>
       </c>
     </row>
     <row r="71" spans="1:16">
@@ -4864,10 +4864,10 @@
         <v>165</v>
       </c>
       <c r="O71" s="2">
-        <v>38.3454</v>
+        <v>35.4413</v>
       </c>
       <c r="P71">
-        <v>4.64811</v>
+        <v>4.29611</v>
       </c>
     </row>
     <row r="72" spans="1:16">
@@ -4913,11 +4913,11 @@
       <c r="N72" t="s">
         <v>165</v>
       </c>
-      <c r="O72" s="2">
-        <v>36.7931</v>
+      <c r="O72">
+        <v>33.7894</v>
       </c>
       <c r="P72">
-        <v>4.45995</v>
+        <v>4.09586</v>
       </c>
     </row>
     <row r="73" spans="1:16">
@@ -4964,10 +4964,10 @@
         <v>165</v>
       </c>
       <c r="O73">
-        <v>34.9909</v>
+        <v>31.9372</v>
       </c>
       <c r="P73">
-        <v>4.2415</v>
+        <v>3.87137</v>
       </c>
     </row>
     <row r="74" spans="1:16">
@@ -5014,10 +5014,10 @@
         <v>165</v>
       </c>
       <c r="O74" s="2">
-        <v>37.1937</v>
+        <v>35.6415</v>
       </c>
       <c r="P74">
-        <v>4.5085</v>
+        <v>4.32035</v>
       </c>
     </row>
     <row r="75" spans="1:16">
@@ -5063,11 +5063,11 @@
       <c r="N75" t="s">
         <v>165</v>
       </c>
-      <c r="O75" s="2">
-        <v>35.4412</v>
+      <c r="O75">
+        <v>33.7894</v>
       </c>
       <c r="P75">
-        <v>4.29608</v>
+        <v>4.09587</v>
       </c>
     </row>
     <row r="76" spans="1:16">
@@ -5114,10 +5114,10 @@
         <v>165</v>
       </c>
       <c r="O76">
-        <v>33.7392</v>
+        <v>32.137</v>
       </c>
       <c r="P76">
-        <v>4.08979</v>
+        <v>3.89558</v>
       </c>
     </row>
     <row r="77" spans="1:16">
@@ -5164,10 +5164,10 @@
         <v>165</v>
       </c>
       <c r="O77">
-        <v>31.8866</v>
+        <v>30.1848</v>
       </c>
       <c r="P77">
-        <v>3.86524</v>
+        <v>3.65894</v>
       </c>
     </row>
     <row r="78" spans="1:16">
@@ -5214,10 +5214,10 @@
         <v>165</v>
       </c>
       <c r="O78">
-        <v>30.9355</v>
+        <v>29.1862</v>
       </c>
       <c r="P78">
-        <v>3.74994</v>
+        <v>3.5379</v>
       </c>
     </row>
     <row r="79" spans="1:16">
@@ -5264,10 +5264,10 @@
         <v>165</v>
       </c>
       <c r="O79">
-        <v>28.9841</v>
+        <v>27.2309</v>
       </c>
       <c r="P79">
-        <v>3.51341</v>
+        <v>3.30089</v>
       </c>
     </row>
     <row r="80" spans="1:16">
@@ -5314,10 +5314,10 @@
         <v>165</v>
       </c>
       <c r="O80">
-        <v>27.2811</v>
+        <v>25.4285</v>
       </c>
       <c r="P80">
-        <v>3.30699</v>
+        <v>3.08244</v>
       </c>
     </row>
     <row r="81" spans="1:16">
@@ -5364,10 +5364,10 @@
         <v>165</v>
       </c>
       <c r="O81">
-        <v>25.3787</v>
+        <v>23.5258</v>
       </c>
       <c r="P81">
-        <v>3.07639</v>
+        <v>2.85178</v>
       </c>
     </row>
     <row r="82" spans="1:16">
@@ -5414,10 +5414,10 @@
         <v>165</v>
       </c>
       <c r="O82">
-        <v>25.4286</v>
+        <v>23.5257</v>
       </c>
       <c r="P82">
-        <v>3.08245</v>
+        <v>2.85179</v>
       </c>
     </row>
     <row r="83" spans="1:16">
@@ -5464,10 +5464,10 @@
         <v>165</v>
       </c>
       <c r="O83">
-        <v>23.5762</v>
+        <v>21.7734</v>
       </c>
       <c r="P83">
-        <v>2.85791</v>
+        <v>2.63938</v>
       </c>
     </row>
     <row r="84" spans="1:16">
@@ -5514,10 +5514,10 @@
         <v>165</v>
       </c>
       <c r="O84">
-        <v>21.9238</v>
+        <v>20.1711</v>
       </c>
       <c r="P84">
-        <v>2.65762</v>
+        <v>2.44517</v>
       </c>
     </row>
     <row r="85" spans="1:16">
@@ -5564,10 +5564,10 @@
         <v>165</v>
       </c>
       <c r="O85">
-        <v>20.3212</v>
+        <v>18.5687</v>
       </c>
       <c r="P85">
-        <v>2.46336</v>
+        <v>2.25093</v>
       </c>
     </row>
     <row r="86" spans="1:16">
@@ -5614,10 +5614,10 @@
         <v>165</v>
       </c>
       <c r="O86">
-        <v>18.7698</v>
+        <v>17.0162</v>
       </c>
       <c r="P86">
-        <v>2.27531</v>
+        <v>2.06276</v>
       </c>
     </row>
     <row r="87" spans="1:16">
@@ -5664,10 +5664,10 @@
         <v>165</v>
       </c>
       <c r="O87">
-        <v>17.0665</v>
+        <v>15.3139</v>
       </c>
       <c r="P87">
-        <v>2.06886</v>
+        <v>1.85641</v>
       </c>
     </row>
     <row r="88" spans="1:16">
@@ -5714,10 +5714,10 @@
         <v>165</v>
       </c>
       <c r="O88">
-        <v>15.4644</v>
+        <v>13.6116</v>
       </c>
       <c r="P88">
-        <v>1.87466</v>
+        <v>1.65009</v>
       </c>
     </row>
     <row r="89" spans="1:16">
@@ -5764,10 +5764,10 @@
         <v>165</v>
       </c>
       <c r="O89">
-        <v>13.7115</v>
+        <v>11.8091</v>
       </c>
       <c r="P89">
-        <v>1.66218</v>
+        <v>1.43159</v>
       </c>
     </row>
     <row r="90" spans="1:16">
@@ -5814,10 +5814,10 @@
         <v>165</v>
       </c>
       <c r="O90">
-        <v>10.8577</v>
+        <v>10.8074</v>
       </c>
       <c r="P90">
-        <v>1.31626</v>
+        <v>1.31016</v>
       </c>
     </row>
     <row r="91" spans="1:16">
@@ -5864,10 +5864,10 @@
         <v>165</v>
       </c>
       <c r="O91">
-        <v>9.005190000000001</v>
+        <v>9.005979999999999</v>
       </c>
       <c r="P91">
-        <v>1.09172</v>
+        <v>1.09182</v>
       </c>
     </row>
     <row r="92" spans="1:16">
@@ -5914,10 +5914,10 @@
         <v>165</v>
       </c>
       <c r="O92">
-        <v>7.4527</v>
+        <v>7.50266</v>
       </c>
       <c r="P92">
-        <v>0.903543</v>
+        <v>0.909588</v>
       </c>
     </row>
     <row r="93" spans="1:16">
@@ -5964,10 +5964,10 @@
         <v>165</v>
       </c>
       <c r="O93">
-        <v>6.05059</v>
+        <v>6.05066</v>
       </c>
       <c r="P93">
-        <v>0.733592</v>
+        <v>0.7336009999999999</v>
       </c>
     </row>
     <row r="94" spans="1:16">
@@ -6014,10 +6014,10 @@
         <v>165</v>
       </c>
       <c r="O94">
-        <v>4.59913</v>
+        <v>4.59914</v>
       </c>
       <c r="P94">
-        <v>0.557663</v>
+        <v>0.557664</v>
       </c>
     </row>
     <row r="95" spans="1:16">
@@ -6064,10 +6064,10 @@
         <v>165</v>
       </c>
       <c r="O95">
-        <v>3.04842</v>
+        <v>3.04836</v>
       </c>
       <c r="P95">
-        <v>0.369692</v>
+        <v>0.369675</v>
       </c>
     </row>
     <row r="96" spans="1:16">
@@ -6114,10 +6114,10 @@
         <v>165</v>
       </c>
       <c r="O96">
-        <v>1.54665</v>
+        <v>1.54752</v>
       </c>
       <c r="P96">
-        <v>0.187657</v>
+        <v>0.187763</v>
       </c>
     </row>
     <row r="97" spans="1:16">
@@ -6164,10 +6164,10 @@
         <v>165</v>
       </c>
       <c r="O97">
-        <v>-0.00430571</v>
+        <v>0.0448895</v>
       </c>
       <c r="P97">
-        <v>-0.000349378</v>
+        <v>0.00562717</v>
       </c>
     </row>
     <row r="98" spans="1:16">
@@ -6214,10 +6214,10 @@
         <v>165</v>
       </c>
       <c r="O98">
-        <v>-0.00492003</v>
+        <v>-0.00510101</v>
       </c>
       <c r="P98">
-        <v>-0.00040655</v>
+        <v>-0.000446582</v>
       </c>
     </row>
     <row r="99" spans="1:16">
@@ -6264,10 +6264,10 @@
         <v>165</v>
       </c>
       <c r="O99">
-        <v>-1.50679</v>
+        <v>-1.50683</v>
       </c>
       <c r="P99">
-        <v>-0.182458</v>
+        <v>-0.182464</v>
       </c>
     </row>
     <row r="100" spans="1:16">
@@ -6314,10 +6314,10 @@
         <v>165</v>
       </c>
       <c r="O100">
-        <v>-3.00812</v>
+        <v>-3.10809</v>
       </c>
       <c r="P100">
-        <v>-0.364446</v>
+        <v>-0.376543</v>
       </c>
     </row>
     <row r="101" spans="1:16">
@@ -6364,10 +6364,10 @@
         <v>165</v>
       </c>
       <c r="O101">
-        <v>-4.50977</v>
+        <v>-4.50987</v>
       </c>
       <c r="P101">
-        <v>-0.546453</v>
+        <v>-0.546468</v>
       </c>
     </row>
     <row r="102" spans="1:16">
@@ -6414,10 +6414,10 @@
         <v>165</v>
       </c>
       <c r="O102">
-        <v>-5.96132</v>
+        <v>-5.91126</v>
       </c>
       <c r="P102">
-        <v>-0.722398</v>
+        <v>-0.716323</v>
       </c>
     </row>
     <row r="103" spans="1:16">
@@ -6464,10 +6464,10 @@
         <v>165</v>
       </c>
       <c r="O103">
-        <v>-7.56266</v>
+        <v>-7.56175</v>
       </c>
       <c r="P103">
-        <v>-0.9165</v>
+        <v>-0.916393</v>
       </c>
     </row>
     <row r="104" spans="1:16">
@@ -6514,10 +6514,10 @@
         <v>165</v>
       </c>
       <c r="O104">
-        <v>-9.114409999999999</v>
+        <v>-9.11435</v>
       </c>
       <c r="P104">
-        <v>-1.10459</v>
+        <v>-1.10458</v>
       </c>
     </row>
     <row r="105" spans="1:16">
@@ -6567,7 +6567,7 @@
         <v>-10.8664</v>
       </c>
       <c r="P105">
-        <v>-1.31696</v>
+        <v>-1.31695</v>
       </c>
     </row>
     <row r="106" spans="1:16">
@@ -6614,10 +6614,10 @@
         <v>165</v>
       </c>
       <c r="O106">
-        <v>-13.7192</v>
+        <v>-11.8666</v>
       </c>
       <c r="P106">
-        <v>-1.66274</v>
+        <v>-1.43819</v>
       </c>
     </row>
     <row r="107" spans="1:16">
@@ -6664,10 +6664,10 @@
         <v>165</v>
       </c>
       <c r="O107">
-        <v>-15.4711</v>
+        <v>-13.5691</v>
       </c>
       <c r="P107">
-        <v>-1.8751</v>
+        <v>-1.64455</v>
       </c>
     </row>
     <row r="108" spans="1:16">
@@ -6714,10 +6714,10 @@
         <v>165</v>
       </c>
       <c r="O108">
-        <v>-17.1723</v>
+        <v>-15.2708</v>
       </c>
       <c r="P108">
-        <v>-2.08131</v>
+        <v>-1.85082</v>
       </c>
     </row>
     <row r="109" spans="1:16">
@@ -6764,10 +6764,10 @@
         <v>165</v>
       </c>
       <c r="O109">
-        <v>-18.8239</v>
+        <v>-16.9731</v>
       </c>
       <c r="P109">
-        <v>-2.27555</v>
+        <v>-2.05716</v>
       </c>
     </row>
     <row r="110" spans="1:16">
@@ -6814,10 +6814,10 @@
         <v>165</v>
       </c>
       <c r="O110">
-        <v>-20.3263</v>
+        <v>-18.5735</v>
       </c>
       <c r="P110">
-        <v>-2.4636</v>
+        <v>-2.25114</v>
       </c>
     </row>
     <row r="111" spans="1:16">
@@ -6864,10 +6864,10 @@
         <v>165</v>
       </c>
       <c r="O111">
-        <v>-21.9781</v>
+        <v>-20.176</v>
       </c>
       <c r="P111">
-        <v>-2.66383</v>
+        <v>-2.44539</v>
       </c>
     </row>
     <row r="112" spans="1:16">
@@ -6914,10 +6914,10 @@
         <v>165</v>
       </c>
       <c r="O112">
-        <v>-23.63</v>
+        <v>-21.7779</v>
       </c>
       <c r="P112">
-        <v>-2.86404</v>
+        <v>-2.63956</v>
       </c>
     </row>
     <row r="113" spans="1:16">
@@ -6964,10 +6964,10 @@
         <v>165</v>
       </c>
       <c r="O113">
-        <v>-25.332</v>
+        <v>-23.4797</v>
       </c>
       <c r="P113">
-        <v>-3.07035</v>
+        <v>-2.84584</v>
       </c>
     </row>
     <row r="114" spans="1:16">
@@ -7014,10 +7014,10 @@
         <v>165</v>
       </c>
       <c r="O114">
-        <v>-25.3321</v>
+        <v>-23.4298</v>
       </c>
       <c r="P114">
-        <v>-3.07037</v>
+        <v>-2.83979</v>
       </c>
     </row>
     <row r="115" spans="1:16">
@@ -7064,10 +7064,10 @@
         <v>165</v>
       </c>
       <c r="O115">
-        <v>-27.3332</v>
+        <v>-25.4322</v>
       </c>
       <c r="P115">
-        <v>-3.31292</v>
+        <v>-3.08251</v>
       </c>
     </row>
     <row r="116" spans="1:16">
@@ -7114,10 +7114,10 @@
         <v>165</v>
       </c>
       <c r="O116">
-        <v>-29.0341</v>
+        <v>-27.3331</v>
       </c>
       <c r="P116">
-        <v>-3.5191</v>
+        <v>-3.31292</v>
       </c>
     </row>
     <row r="117" spans="1:16">
@@ -7164,10 +7164,10 @@
         <v>165</v>
       </c>
       <c r="O117">
-        <v>-30.9846</v>
+        <v>-29.2842</v>
       </c>
       <c r="P117">
-        <v>-3.75552</v>
+        <v>-3.54942</v>
       </c>
     </row>
     <row r="118" spans="1:16">
@@ -7214,10 +7214,10 @@
         <v>165</v>
       </c>
       <c r="O118">
-        <v>-32.0822</v>
+        <v>-30.2848</v>
       </c>
       <c r="P118">
-        <v>-3.88858</v>
+        <v>-3.6707</v>
       </c>
     </row>
     <row r="119" spans="1:16">
@@ -7264,10 +7264,10 @@
         <v>165</v>
       </c>
       <c r="O119">
-        <v>-33.987</v>
+        <v>-32.2861</v>
       </c>
       <c r="P119">
-        <v>-4.11946</v>
+        <v>-3.91329</v>
       </c>
     </row>
     <row r="120" spans="1:16">
@@ -7313,11 +7313,11 @@
       <c r="N120" t="s">
         <v>165</v>
       </c>
-      <c r="O120" s="3">
-        <v>-35.6377</v>
+      <c r="O120">
+        <v>-33.9872</v>
       </c>
       <c r="P120">
-        <v>-4.31355</v>
+        <v>-4.11948</v>
       </c>
     </row>
     <row r="121" spans="1:16">
@@ -7364,10 +7364,10 @@
         <v>165</v>
       </c>
       <c r="O121" s="3">
-        <v>-37.5395</v>
+        <v>-35.8883</v>
       </c>
       <c r="P121">
-        <v>-4.55004</v>
+        <v>-4.34991</v>
       </c>
     </row>
     <row r="122" spans="1:16">
@@ -7413,11 +7413,11 @@
       <c r="N122" t="s">
         <v>165</v>
       </c>
-      <c r="O122" s="3">
-        <v>-35.2378</v>
+      <c r="O122">
+        <v>-32.136</v>
       </c>
       <c r="P122">
-        <v>-4.27105</v>
+        <v>-3.89508</v>
       </c>
     </row>
     <row r="123" spans="1:16">
@@ -7463,11 +7463,11 @@
       <c r="N123" t="s">
         <v>165</v>
       </c>
-      <c r="O123" s="3">
-        <v>-37.0865</v>
+      <c r="O123">
+        <v>-34.0864</v>
       </c>
       <c r="P123">
-        <v>-4.49515</v>
+        <v>-4.1315</v>
       </c>
     </row>
     <row r="124" spans="1:16">
@@ -7514,10 +7514,10 @@
         <v>165</v>
       </c>
       <c r="O124" s="3">
-        <v>-38.7862</v>
+        <v>-35.6659</v>
       </c>
       <c r="P124">
-        <v>-4.70119</v>
+        <v>-4.32296</v>
       </c>
     </row>
     <row r="125" spans="1:16">
@@ -7564,10 +7564,10 @@
         <v>165</v>
       </c>
       <c r="O125" s="3">
-        <v>-40.4913</v>
+        <v>-37.5895</v>
       </c>
       <c r="P125">
-        <v>-4.90785</v>
+        <v>-4.55611</v>
       </c>
     </row>
     <row r="126" spans="1:16">
@@ -7614,10 +7614,10 @@
         <v>165</v>
       </c>
       <c r="O126" s="3">
-        <v>-41.3912</v>
+        <v>-38.4874</v>
       </c>
       <c r="P126">
-        <v>-5.01693</v>
+        <v>-4.66496</v>
       </c>
     </row>
     <row r="127" spans="1:16">
@@ -7664,10 +7664,10 @@
         <v>165</v>
       </c>
       <c r="O127" s="3">
-        <v>-43.193</v>
+        <v>-40.3904</v>
       </c>
       <c r="P127">
-        <v>-5.23533</v>
+        <v>-4.88969</v>
       </c>
     </row>
     <row r="128" spans="1:16">
@@ -7714,10 +7714,10 @@
         <v>165</v>
       </c>
       <c r="O128" s="3">
-        <v>-44.8441</v>
+        <v>-41.9924</v>
       </c>
       <c r="P128">
-        <v>-5.43547</v>
+        <v>-5.08979</v>
       </c>
     </row>
     <row r="129" spans="1:16">
@@ -7764,10 +7764,10 @@
         <v>165</v>
       </c>
       <c r="O129" s="3">
-        <v>-46.8955</v>
+        <v>-43.8433</v>
       </c>
       <c r="P129">
-        <v>-5.68411</v>
+        <v>-5.31415</v>
       </c>
     </row>
     <row r="130" spans="1:16">
@@ -7814,10 +7814,10 @@
         <v>239</v>
       </c>
       <c r="O130">
-        <v>27.5002</v>
+        <v>25.9958</v>
       </c>
       <c r="P130">
-        <v>4.07465</v>
+        <v>3.85184</v>
       </c>
     </row>
     <row r="131" spans="1:16">
@@ -7864,10 +7864,10 @@
         <v>239</v>
       </c>
       <c r="O131">
-        <v>26.4605</v>
+        <v>24.9173</v>
       </c>
       <c r="P131">
-        <v>3.92069</v>
+        <v>3.692</v>
       </c>
     </row>
     <row r="132" spans="1:16">
@@ -7914,10 +7914,10 @@
         <v>239</v>
       </c>
       <c r="O132">
-        <v>26.0947</v>
+        <v>24.2866</v>
       </c>
       <c r="P132">
-        <v>3.8665</v>
+        <v>3.59862</v>
       </c>
     </row>
     <row r="133" spans="1:16">
@@ -7964,10 +7964,10 @@
         <v>239</v>
       </c>
       <c r="O133">
-        <v>24.9066</v>
+        <v>23.0982</v>
       </c>
       <c r="P133">
-        <v>3.69049</v>
+        <v>3.42258</v>
       </c>
     </row>
     <row r="134" spans="1:16">
@@ -8014,10 +8014,10 @@
         <v>239</v>
       </c>
       <c r="O134">
-        <v>24.3912</v>
+        <v>22.84</v>
       </c>
       <c r="P134">
-        <v>3.61412</v>
+        <v>3.38433</v>
       </c>
     </row>
     <row r="135" spans="1:16">
@@ -8064,10 +8064,10 @@
         <v>239</v>
       </c>
       <c r="O135">
-        <v>23.3575</v>
+        <v>21.8589</v>
       </c>
       <c r="P135">
-        <v>3.46101</v>
+        <v>3.239</v>
       </c>
     </row>
     <row r="136" spans="1:16">
@@ -8114,10 +8114,10 @@
         <v>239</v>
       </c>
       <c r="O136">
-        <v>22.6342</v>
+        <v>20.9353</v>
       </c>
       <c r="P136">
-        <v>3.35387</v>
+        <v>3.1021</v>
       </c>
     </row>
     <row r="137" spans="1:16">
@@ -8164,10 +8164,10 @@
         <v>239</v>
       </c>
       <c r="O137">
-        <v>21.4972</v>
+        <v>19.8441</v>
       </c>
       <c r="P137">
-        <v>3.18541</v>
+        <v>2.94803</v>
       </c>
     </row>
     <row r="138" spans="1:16">
@@ -8214,10 +8214,10 @@
         <v>239</v>
       </c>
       <c r="O138">
-        <v>22.7918</v>
+        <v>21.8078</v>
       </c>
       <c r="P138">
-        <v>3.37719</v>
+        <v>3.23891</v>
       </c>
     </row>
     <row r="139" spans="1:16">
@@ -8264,10 +8264,10 @@
         <v>239</v>
       </c>
       <c r="O139">
-        <v>21.7063</v>
+        <v>20.8763</v>
       </c>
       <c r="P139">
-        <v>3.21636</v>
+        <v>3.09338</v>
       </c>
     </row>
     <row r="140" spans="1:16">
@@ -8314,10 +8314,10 @@
         <v>239</v>
       </c>
       <c r="O140">
-        <v>20.8799</v>
+        <v>19.9476</v>
       </c>
       <c r="P140">
-        <v>3.09395</v>
+        <v>2.95582</v>
       </c>
     </row>
     <row r="141" spans="1:16">
@@ -8364,10 +8364,10 @@
         <v>239</v>
       </c>
       <c r="O141">
-        <v>19.8506</v>
+        <v>18.9652</v>
       </c>
       <c r="P141">
-        <v>2.9414</v>
+        <v>2.81033</v>
       </c>
     </row>
     <row r="142" spans="1:16">
@@ -8414,10 +8414,10 @@
         <v>239</v>
       </c>
       <c r="O142">
-        <v>19.5856</v>
+        <v>18.5001</v>
       </c>
       <c r="P142">
-        <v>2.90219</v>
+        <v>2.74113</v>
       </c>
     </row>
     <row r="143" spans="1:16">
@@ -8464,10 +8464,10 @@
         <v>239</v>
       </c>
       <c r="O143">
-        <v>18.5015</v>
+        <v>17.5184</v>
       </c>
       <c r="P143">
-        <v>2.74159</v>
+        <v>2.59599</v>
       </c>
     </row>
     <row r="144" spans="1:16">
@@ -8514,10 +8514,10 @@
         <v>239</v>
       </c>
       <c r="O144">
-        <v>17.6745</v>
+        <v>16.6928</v>
       </c>
       <c r="P144">
-        <v>2.61907</v>
+        <v>2.47364</v>
       </c>
     </row>
     <row r="145" spans="1:16">
@@ -8564,10 +8564,10 @@
         <v>239</v>
       </c>
       <c r="O145">
-        <v>16.693</v>
+        <v>15.6161</v>
       </c>
       <c r="P145">
-        <v>2.47368</v>
+        <v>2.31407</v>
       </c>
     </row>
     <row r="146" spans="1:16">
@@ -8614,10 +8614,10 @@
         <v>239</v>
       </c>
       <c r="O146">
-        <v>16.6497</v>
+        <v>15.6089</v>
       </c>
       <c r="P146">
-        <v>2.47366</v>
+        <v>2.3131</v>
       </c>
     </row>
     <row r="147" spans="1:16">
@@ -8664,10 +8664,10 @@
         <v>239</v>
       </c>
       <c r="O147">
-        <v>15.6595</v>
+        <v>14.5739</v>
       </c>
       <c r="P147">
-        <v>2.32056</v>
+        <v>2.15974</v>
       </c>
     </row>
     <row r="148" spans="1:16">
@@ -8714,10 +8714,10 @@
         <v>239</v>
       </c>
       <c r="O148">
-        <v>14.7288</v>
+        <v>13.6427</v>
       </c>
       <c r="P148">
-        <v>2.18269</v>
+        <v>2.02182</v>
       </c>
     </row>
     <row r="149" spans="1:16">
@@ -8764,10 +8764,10 @@
         <v>239</v>
       </c>
       <c r="O149">
-        <v>13.7471</v>
+        <v>12.5588</v>
       </c>
       <c r="P149">
-        <v>2.03726</v>
+        <v>1.86118</v>
       </c>
     </row>
     <row r="150" spans="1:16">
@@ -8814,10 +8814,10 @@
         <v>239</v>
       </c>
       <c r="O150">
-        <v>12.8236</v>
+        <v>11.7383</v>
       </c>
       <c r="P150">
-        <v>1.90037</v>
+        <v>1.73955</v>
       </c>
     </row>
     <row r="151" spans="1:16">
@@ -8864,10 +8864,10 @@
         <v>239</v>
       </c>
       <c r="O151">
-        <v>11.6309</v>
+        <v>10.5939</v>
       </c>
       <c r="P151">
-        <v>1.7237</v>
+        <v>1.57009</v>
       </c>
     </row>
     <row r="152" spans="1:16">
@@ -8914,10 +8914,10 @@
         <v>239</v>
       </c>
       <c r="O152">
-        <v>10.5942</v>
+        <v>9.46335</v>
       </c>
       <c r="P152">
-        <v>1.57013</v>
+        <v>1.40256</v>
       </c>
     </row>
     <row r="153" spans="1:16">
@@ -8964,10 +8964,10 @@
         <v>239</v>
       </c>
       <c r="O153">
-        <v>9.41633</v>
+        <v>8.167160000000001</v>
       </c>
       <c r="P153">
-        <v>1.39564</v>
+        <v>1.21055</v>
       </c>
     </row>
     <row r="154" spans="1:16">
@@ -9014,10 +9014,10 @@
         <v>239</v>
       </c>
       <c r="O154">
-        <v>7.59615</v>
+        <v>7.54448</v>
       </c>
       <c r="P154">
-        <v>1.12596</v>
+        <v>1.11833</v>
       </c>
     </row>
     <row r="155" spans="1:16">
@@ -9064,10 +9064,10 @@
         <v>239</v>
       </c>
       <c r="O155">
-        <v>6.40678</v>
+        <v>6.40702</v>
       </c>
       <c r="P155">
-        <v>0.949778</v>
+        <v>0.949805</v>
       </c>
     </row>
     <row r="156" spans="1:16">
@@ -9114,10 +9114,10 @@
         <v>239</v>
       </c>
       <c r="O156">
-        <v>5.21914</v>
+        <v>5.26971</v>
       </c>
       <c r="P156">
-        <v>0.773824</v>
+        <v>0.781304</v>
       </c>
     </row>
     <row r="157" spans="1:16">
@@ -9164,10 +9164,10 @@
         <v>239</v>
       </c>
       <c r="O157">
-        <v>4.23617</v>
+        <v>4.18488</v>
       </c>
       <c r="P157">
-        <v>0.628208</v>
+        <v>0.620596</v>
       </c>
     </row>
     <row r="158" spans="1:16">
@@ -9214,10 +9214,10 @@
         <v>239</v>
       </c>
       <c r="O158">
-        <v>3.30549</v>
+        <v>3.25398</v>
       </c>
       <c r="P158">
-        <v>0.490357</v>
+        <v>0.482677</v>
       </c>
     </row>
     <row r="159" spans="1:16">
@@ -9264,10 +9264,10 @@
         <v>239</v>
       </c>
       <c r="O159">
-        <v>2.1686</v>
+        <v>2.16885</v>
       </c>
       <c r="P159">
-        <v>0.321918</v>
+        <v>0.321914</v>
       </c>
     </row>
     <row r="160" spans="1:16">
@@ -9314,10 +9314,10 @@
         <v>239</v>
       </c>
       <c r="O160">
-        <v>1.13578</v>
+        <v>1.13552</v>
       </c>
       <c r="P160">
-        <v>0.168913</v>
+        <v>0.168829</v>
       </c>
     </row>
     <row r="161" spans="1:16">
@@ -9364,10 +9364,10 @@
         <v>239</v>
       </c>
       <c r="O161">
-        <v>0.0499657</v>
+        <v>0.101248</v>
       </c>
       <c r="P161">
-        <v>0.007999239999999999</v>
+        <v>0.015635</v>
       </c>
     </row>
     <row r="162" spans="1:16">
@@ -9414,10 +9414,10 @@
         <v>239</v>
       </c>
       <c r="O162">
-        <v>0.102039</v>
+        <v>0.153942</v>
       </c>
       <c r="P162">
-        <v>0.0157281</v>
+        <v>0.0234255</v>
       </c>
     </row>
     <row r="163" spans="1:16">
@@ -9464,10 +9464,10 @@
         <v>239</v>
       </c>
       <c r="O163">
-        <v>-0.983809</v>
+        <v>-0.983604</v>
       </c>
       <c r="P163">
-        <v>-0.145106</v>
+        <v>-0.145104</v>
       </c>
     </row>
     <row r="164" spans="1:16">
@@ -9514,10 +9514,10 @@
         <v>239</v>
       </c>
       <c r="O164">
-        <v>-2.0173</v>
+        <v>-2.01752</v>
       </c>
       <c r="P164">
-        <v>-0.29826</v>
+        <v>-0.298281</v>
       </c>
     </row>
     <row r="165" spans="1:16">
@@ -9564,10 +9564,10 @@
         <v>239</v>
       </c>
       <c r="O165">
-        <v>-3.04957</v>
+        <v>-3.0947</v>
       </c>
       <c r="P165">
-        <v>-0.443669</v>
+        <v>-0.457907</v>
       </c>
     </row>
     <row r="166" spans="1:16">
@@ -9614,10 +9614,10 @@
         <v>239</v>
       </c>
       <c r="O166">
-        <v>-3.9808</v>
+        <v>-4.02482</v>
       </c>
       <c r="P166">
-        <v>-0.589103</v>
+        <v>-0.595689</v>
       </c>
     </row>
     <row r="167" spans="1:16">
@@ -9664,10 +9664,10 @@
         <v>239</v>
       </c>
       <c r="O167">
-        <v>-5.06622</v>
+        <v>-5.11769</v>
       </c>
       <c r="P167">
-        <v>-0.749918</v>
+        <v>-0.75754</v>
       </c>
     </row>
     <row r="168" spans="1:16">
@@ -9714,10 +9714,10 @@
         <v>239</v>
       </c>
       <c r="O168">
-        <v>-6.203</v>
+        <v>-6.20328</v>
       </c>
       <c r="P168">
-        <v>-0.918334</v>
+        <v>-0.918372</v>
       </c>
     </row>
     <row r="169" spans="1:16">
@@ -9764,10 +9764,10 @@
         <v>239</v>
       </c>
       <c r="O169">
-        <v>-7.39018</v>
+        <v>-7.28762</v>
       </c>
       <c r="P169">
-        <v>-1.09421</v>
+        <v>-1.07145</v>
       </c>
     </row>
     <row r="170" spans="1:16">
@@ -9814,10 +9814,10 @@
         <v>239</v>
       </c>
       <c r="O170">
-        <v>-8.829319999999999</v>
+        <v>-7.85432</v>
       </c>
       <c r="P170">
-        <v>-1.30747</v>
+        <v>-1.15559</v>
       </c>
     </row>
     <row r="171" spans="1:16">
@@ -9864,10 +9864,10 @@
         <v>239</v>
       </c>
       <c r="O171">
-        <v>-9.871040000000001</v>
+        <v>-8.83771</v>
       </c>
       <c r="P171">
-        <v>-1.46174</v>
+        <v>-1.30866</v>
       </c>
     </row>
     <row r="172" spans="1:16">
@@ -9914,10 +9914,10 @@
         <v>239</v>
       </c>
       <c r="O172">
-        <v>-10.749</v>
+        <v>-9.7676</v>
       </c>
       <c r="P172">
-        <v>-1.59184</v>
+        <v>-1.44645</v>
       </c>
     </row>
     <row r="173" spans="1:16">
@@ -9964,10 +9964,10 @@
         <v>239</v>
       </c>
       <c r="O173">
-        <v>-11.7304</v>
+        <v>-10.8003</v>
       </c>
       <c r="P173">
-        <v>-1.73723</v>
+        <v>-1.59938</v>
       </c>
     </row>
     <row r="174" spans="1:16">
@@ -10014,10 +10014,10 @@
         <v>239</v>
       </c>
       <c r="O174">
-        <v>-12.66</v>
+        <v>-11.6677</v>
       </c>
       <c r="P174">
-        <v>-1.87493</v>
+        <v>-1.72797</v>
       </c>
     </row>
     <row r="175" spans="1:16">
@@ -10064,10 +10064,10 @@
         <v>239</v>
       </c>
       <c r="O175">
-        <v>-13.5912</v>
+        <v>-12.6604</v>
       </c>
       <c r="P175">
-        <v>-2.01287</v>
+        <v>-1.87499</v>
       </c>
     </row>
     <row r="176" spans="1:16">
@@ -10114,10 +10114,10 @@
         <v>239</v>
       </c>
       <c r="O176">
-        <v>-14.4697</v>
+        <v>-13.6319</v>
       </c>
       <c r="P176">
-        <v>-2.13541</v>
+        <v>-2.01898</v>
       </c>
     </row>
     <row r="177" spans="1:16">
@@ -10164,10 +10164,10 @@
         <v>239</v>
       </c>
       <c r="O177">
-        <v>-15.4517</v>
+        <v>-14.5649</v>
       </c>
       <c r="P177">
-        <v>-2.2885</v>
+        <v>-2.15719</v>
       </c>
     </row>
     <row r="178" spans="1:16">
@@ -10214,10 +10214,10 @@
         <v>239</v>
       </c>
       <c r="O178">
-        <v>-15.3998</v>
+        <v>-14.4628</v>
       </c>
       <c r="P178">
-        <v>-2.28091</v>
+        <v>-2.14206</v>
       </c>
     </row>
     <row r="179" spans="1:16">
@@ -10264,10 +10264,10 @@
         <v>239</v>
       </c>
       <c r="O179">
-        <v>-16.5374</v>
+        <v>-15.5546</v>
       </c>
       <c r="P179">
-        <v>-2.44938</v>
+        <v>-2.30375</v>
       </c>
     </row>
     <row r="180" spans="1:16">
@@ -10314,10 +10314,10 @@
         <v>239</v>
       </c>
       <c r="O180">
-        <v>-17.4145</v>
+        <v>-16.3819</v>
       </c>
       <c r="P180">
-        <v>-2.5793</v>
+        <v>-2.4263</v>
       </c>
     </row>
     <row r="181" spans="1:16">
@@ -10364,10 +10364,10 @@
         <v>239</v>
       </c>
       <c r="O181">
-        <v>-18.3979</v>
+        <v>-17.5127</v>
       </c>
       <c r="P181">
-        <v>-2.72501</v>
+        <v>-2.59391</v>
       </c>
     </row>
     <row r="182" spans="1:16">
@@ -10414,10 +10414,10 @@
         <v>239</v>
       </c>
       <c r="O182">
-        <v>-18.9149</v>
+        <v>-18.0349</v>
       </c>
       <c r="P182">
-        <v>-2.80158</v>
+        <v>-2.66384</v>
       </c>
     </row>
     <row r="183" spans="1:16">
@@ -10464,10 +10464,10 @@
         <v>239</v>
       </c>
       <c r="O183">
-        <v>-20.0519</v>
+        <v>-19.0187</v>
       </c>
       <c r="P183">
-        <v>-2.97004</v>
+        <v>-2.81696</v>
       </c>
     </row>
     <row r="184" spans="1:16">
@@ -10514,10 +10514,10 @@
         <v>239</v>
       </c>
       <c r="O184">
-        <v>-21.1865</v>
+        <v>-20.104</v>
       </c>
       <c r="P184">
-        <v>-3.13089</v>
+        <v>-2.97773</v>
       </c>
     </row>
     <row r="185" spans="1:16">
@@ -10564,10 +10564,10 @@
         <v>239</v>
       </c>
       <c r="O185">
-        <v>-22.3777</v>
+        <v>-21.2411</v>
       </c>
       <c r="P185">
-        <v>-3.31459</v>
+        <v>-3.14624</v>
       </c>
     </row>
     <row r="186" spans="1:16">
@@ -10614,10 +10614,10 @@
         <v>239</v>
       </c>
       <c r="O186">
-        <v>-20.869</v>
+        <v>-18.9659</v>
       </c>
       <c r="P186">
-        <v>-3.09115</v>
+        <v>-2.80916</v>
       </c>
     </row>
     <row r="187" spans="1:16">
@@ -10664,10 +10664,10 @@
         <v>239</v>
       </c>
       <c r="O187">
-        <v>-21.9649</v>
+        <v>-20.0529</v>
       </c>
       <c r="P187">
-        <v>-3.25345</v>
+        <v>-2.97017</v>
       </c>
     </row>
     <row r="188" spans="1:16">
@@ -10714,10 +10714,10 @@
         <v>239</v>
       </c>
       <c r="O188">
-        <v>-23.1022</v>
+        <v>-21.241</v>
       </c>
       <c r="P188">
-        <v>-3.42192</v>
+        <v>-3.14621</v>
       </c>
     </row>
     <row r="189" spans="1:16">
@@ -10764,10 +10764,10 @@
         <v>239</v>
       </c>
       <c r="O189">
-        <v>-24.3941</v>
+        <v>-22.43</v>
       </c>
       <c r="P189">
-        <v>-3.61331</v>
+        <v>-3.32236</v>
       </c>
     </row>
     <row r="190" spans="1:16">
@@ -10814,10 +10814,10 @@
         <v>239</v>
       </c>
       <c r="O190">
-        <v>-24.9626</v>
+        <v>-22.9983</v>
       </c>
       <c r="P190">
-        <v>-3.69755</v>
+        <v>-3.40655</v>
       </c>
     </row>
     <row r="191" spans="1:16">
@@ -10864,10 +10864,10 @@
         <v>239</v>
       </c>
       <c r="O191">
-        <v>-26.0993</v>
+        <v>-24.2906</v>
       </c>
       <c r="P191">
-        <v>-3.86595</v>
+        <v>-3.59041</v>
       </c>
     </row>
     <row r="192" spans="1:16">
@@ -10914,10 +10914,10 @@
         <v>239</v>
       </c>
       <c r="O192">
-        <v>-27.237</v>
+        <v>-25.4205</v>
       </c>
       <c r="P192">
-        <v>-4.03449</v>
+        <v>-3.76544</v>
       </c>
     </row>
     <row r="193" spans="1:16">
@@ -10964,10 +10964,10 @@
         <v>239</v>
       </c>
       <c r="O193">
-        <v>-28.5292</v>
+        <v>-26.7203</v>
       </c>
       <c r="P193">
-        <v>-4.22595</v>
+        <v>-3.95795</v>
       </c>
     </row>
     <row r="194" spans="1:16" s="1" customFormat="1">
@@ -11025,10 +11025,10 @@
         <v>303</v>
       </c>
       <c r="O195" s="3">
-        <v>-46.8955</v>
+        <v>-43.8433</v>
       </c>
       <c r="P195" s="1">
-        <v>-5.68411</v>
+        <v>-5.31415</v>
       </c>
     </row>
     <row r="196" spans="1:16" s="1" customFormat="1">
@@ -11036,10 +11036,10 @@
         <v>304</v>
       </c>
       <c r="O196" s="2">
-        <v>46.9613</v>
+        <v>43.9567</v>
       </c>
       <c r="P196" s="1">
-        <v>5.69246</v>
+        <v>5.32827</v>
       </c>
     </row>
     <row r="197" spans="1:16" s="1" customFormat="1">
@@ -11079,10 +11079,10 @@
         <v>309</v>
       </c>
       <c r="O201" s="1">
-        <v>0.10954</v>
+        <v>0.1135008</v>
       </c>
       <c r="P201" s="1">
-        <v>0.01666366</v>
+        <v>0.01734327</v>
       </c>
     </row>
     <row r="202" spans="1:16" s="1" customFormat="1">
@@ -11090,10 +11090,10 @@
         <v>310</v>
       </c>
       <c r="O202" s="1">
-        <v>22.580952</v>
+        <v>21.083772</v>
       </c>
       <c r="P202" s="1">
-        <v>2.94418</v>
+        <v>2.749615</v>
       </c>
     </row>
     <row r="203" spans="1:16" s="1" customFormat="1">
@@ -11101,10 +11101,10 @@
         <v>311</v>
       </c>
       <c r="O203" s="1">
-        <v>20614.343619</v>
+        <v>18575.879641</v>
       </c>
       <c r="P203" s="1">
-        <v>17668.267355</v>
+        <v>15854.074808</v>
       </c>
     </row>
     <row r="204" spans="1:16" s="1" customFormat="1"/>

--- a/dcd_top_offset_step_tsmc2p_meas.xlsx
+++ b/dcd_top_offset_step_tsmc2p_meas.xlsx
@@ -1413,11 +1413,11 @@
       <c r="N2" t="s">
         <v>29</v>
       </c>
-      <c r="O2">
-        <v>34.1161</v>
+      <c r="O2" s="2">
+        <v>35.9237</v>
       </c>
       <c r="P2">
-        <v>4.5491</v>
+        <v>4.79011</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1464,10 +1464,10 @@
         <v>29</v>
       </c>
       <c r="O3">
-        <v>32.5153</v>
+        <v>34.4259</v>
       </c>
       <c r="P3">
-        <v>4.33566</v>
+        <v>4.59041</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1514,10 +1514,10 @@
         <v>29</v>
       </c>
       <c r="O4">
-        <v>31.2737</v>
+        <v>33.1841</v>
       </c>
       <c r="P4">
-        <v>4.17011</v>
+        <v>4.42483</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1564,10 +1564,10 @@
         <v>29</v>
       </c>
       <c r="O5">
-        <v>29.7756</v>
+        <v>31.6349</v>
       </c>
       <c r="P5">
-        <v>3.97037</v>
+        <v>4.21828</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1614,10 +1614,10 @@
         <v>29</v>
       </c>
       <c r="O6">
-        <v>29.0531</v>
+        <v>30.9123</v>
       </c>
       <c r="P6">
-        <v>3.87405</v>
+        <v>4.12194</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1664,10 +1664,10 @@
         <v>29</v>
       </c>
       <c r="O7">
-        <v>27.4523</v>
+        <v>29.4663</v>
       </c>
       <c r="P7">
-        <v>3.66061</v>
+        <v>3.92912</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1714,10 +1714,10 @@
         <v>29</v>
       </c>
       <c r="O8">
-        <v>26.0585</v>
+        <v>28.0722</v>
       </c>
       <c r="P8">
-        <v>3.48153</v>
+        <v>3.74325</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1764,10 +1764,10 @@
         <v>29</v>
       </c>
       <c r="O9">
-        <v>24.457</v>
+        <v>26.5227</v>
       </c>
       <c r="P9">
-        <v>3.26123</v>
+        <v>3.53666</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1814,10 +1814,10 @@
         <v>29</v>
       </c>
       <c r="O10">
-        <v>27.5593</v>
+        <v>27.3489</v>
       </c>
       <c r="P10">
-        <v>3.67485</v>
+        <v>3.64683</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1864,10 +1864,10 @@
         <v>29</v>
       </c>
       <c r="O11">
-        <v>25.9549</v>
+        <v>25.7481</v>
       </c>
       <c r="P11">
-        <v>3.46094</v>
+        <v>3.43337</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1914,10 +1914,10 @@
         <v>29</v>
       </c>
       <c r="O12">
-        <v>24.5603</v>
+        <v>24.3537</v>
       </c>
       <c r="P12">
-        <v>3.27501</v>
+        <v>3.24746</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1964,10 +1964,10 @@
         <v>29</v>
       </c>
       <c r="O13">
-        <v>22.9606</v>
+        <v>22.8046</v>
       </c>
       <c r="P13">
-        <v>3.0617</v>
+        <v>3.04091</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -2014,10 +2014,10 @@
         <v>29</v>
       </c>
       <c r="O14">
-        <v>22.1847</v>
+        <v>21.9781</v>
       </c>
       <c r="P14">
-        <v>2.95824</v>
+        <v>2.93071</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -2064,10 +2064,10 @@
         <v>29</v>
       </c>
       <c r="O15">
-        <v>20.6355</v>
+        <v>20.4289</v>
       </c>
       <c r="P15">
-        <v>2.75169</v>
+        <v>2.72416</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -2114,10 +2114,10 @@
         <v>29</v>
       </c>
       <c r="O16">
-        <v>19.2413</v>
+        <v>19.0347</v>
       </c>
       <c r="P16">
-        <v>2.56579</v>
+        <v>2.53825</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -2164,10 +2164,10 @@
         <v>29</v>
       </c>
       <c r="O17">
-        <v>17.5885</v>
+        <v>17.4851</v>
       </c>
       <c r="P17">
-        <v>2.34542</v>
+        <v>2.33164</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -2214,10 +2214,10 @@
         <v>29</v>
       </c>
       <c r="O18">
-        <v>17.6402</v>
+        <v>17.3821</v>
       </c>
       <c r="P18">
-        <v>2.3523</v>
+        <v>2.31791</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -2264,10 +2264,10 @@
         <v>29</v>
       </c>
       <c r="O19">
-        <v>16.3494</v>
+        <v>16.1942</v>
       </c>
       <c r="P19">
-        <v>2.18021</v>
+        <v>2.1595</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -2314,10 +2314,10 @@
         <v>29</v>
       </c>
       <c r="O20">
-        <v>15.11</v>
+        <v>14.9034</v>
       </c>
       <c r="P20">
-        <v>2.01495</v>
+        <v>1.9874</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -2364,10 +2364,10 @@
         <v>29</v>
       </c>
       <c r="O21">
-        <v>13.974</v>
+        <v>13.8706</v>
       </c>
       <c r="P21">
-        <v>1.8635</v>
+        <v>1.8497</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -2414,10 +2414,10 @@
         <v>29</v>
       </c>
       <c r="O22">
-        <v>12.941</v>
+        <v>12.8375</v>
       </c>
       <c r="P22">
-        <v>1.72575</v>
+        <v>1.71195</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -2464,10 +2464,10 @@
         <v>29</v>
       </c>
       <c r="O23">
-        <v>11.856</v>
+        <v>11.6497</v>
       </c>
       <c r="P23">
-        <v>1.5811</v>
+        <v>1.55358</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -2514,10 +2514,10 @@
         <v>29</v>
       </c>
       <c r="O24">
-        <v>10.7724</v>
+        <v>10.4626</v>
       </c>
       <c r="P24">
-        <v>1.4366</v>
+        <v>1.39531</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -2564,10 +2564,10 @@
         <v>29</v>
       </c>
       <c r="O25">
-        <v>9.485340000000001</v>
+        <v>9.37725</v>
       </c>
       <c r="P25">
-        <v>1.26498</v>
+        <v>1.25059</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -2614,10 +2614,10 @@
         <v>29</v>
       </c>
       <c r="O26">
-        <v>8.80931</v>
+        <v>8.757910000000001</v>
       </c>
       <c r="P26">
-        <v>1.17486</v>
+        <v>1.16802</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -2664,10 +2664,10 @@
         <v>29</v>
       </c>
       <c r="O27">
-        <v>7.46683</v>
+        <v>7.46619</v>
       </c>
       <c r="P27">
-        <v>1.00262</v>
+        <v>0.9957859999999999</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -2714,10 +2714,10 @@
         <v>29</v>
       </c>
       <c r="O28">
-        <v>6.32981</v>
+        <v>6.32973</v>
       </c>
       <c r="P28">
-        <v>0.844265</v>
+        <v>0.844262</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -2764,10 +2764,10 @@
         <v>29</v>
       </c>
       <c r="O29">
-        <v>5.03889</v>
+        <v>5.03909</v>
       </c>
       <c r="P29">
-        <v>0.672143</v>
+        <v>0.672166</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2814,10 +2814,10 @@
         <v>29</v>
       </c>
       <c r="O30">
-        <v>3.85099</v>
+        <v>3.85124</v>
       </c>
       <c r="P30">
-        <v>0.513756</v>
+        <v>0.5137930000000001</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2864,10 +2864,10 @@
         <v>29</v>
       </c>
       <c r="O31">
-        <v>2.61129</v>
+        <v>2.56345</v>
       </c>
       <c r="P31">
-        <v>0.348469</v>
+        <v>0.342069</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -2914,10 +2914,10 @@
         <v>29</v>
       </c>
       <c r="O32">
-        <v>1.32022</v>
+        <v>1.32034</v>
       </c>
       <c r="P32">
-        <v>0.17632</v>
+        <v>0.176337</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2964,10 +2964,10 @@
         <v>29</v>
       </c>
       <c r="O33">
-        <v>0.0803823</v>
+        <v>0.0290142</v>
       </c>
       <c r="P33">
-        <v>0.0110029</v>
+        <v>0.00415423</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -3014,10 +3014,10 @@
         <v>29</v>
       </c>
       <c r="O34">
-        <v>0.08032889999999999</v>
+        <v>-0.0215803</v>
       </c>
       <c r="P34">
-        <v>0.010997</v>
+        <v>-0.00260693</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -3064,10 +3064,10 @@
         <v>29</v>
       </c>
       <c r="O35">
-        <v>-1.26191</v>
+        <v>-1.15894</v>
       </c>
       <c r="P35">
-        <v>-0.167952</v>
+        <v>-0.154238</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -3114,10 +3114,10 @@
         <v>29</v>
       </c>
       <c r="O36">
-        <v>-2.49673</v>
+        <v>-2.50003</v>
       </c>
       <c r="P36">
-        <v>-0.332633</v>
+        <v>-0.333035</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -3164,10 +3164,10 @@
         <v>29</v>
       </c>
       <c r="O37">
-        <v>-3.68852</v>
+        <v>-3.63684</v>
       </c>
       <c r="P37">
-        <v>-0.491512</v>
+        <v>-0.484624</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -3214,10 +3214,10 @@
         <v>29</v>
       </c>
       <c r="O38">
-        <v>-4.87575</v>
+        <v>-4.92698</v>
       </c>
       <c r="P38">
-        <v>-0.64981</v>
+        <v>-0.6566380000000001</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -3264,10 +3264,10 @@
         <v>29</v>
       </c>
       <c r="O39">
-        <v>-6.16662</v>
+        <v>-6.21802</v>
       </c>
       <c r="P39">
-        <v>-0.821932</v>
+        <v>-0.82878</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -3314,10 +3314,10 @@
         <v>29</v>
       </c>
       <c r="O40">
-        <v>-7.5093</v>
+        <v>-7.56097</v>
       </c>
       <c r="P40">
-        <v>-1.00095</v>
+        <v>-1.00782</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -3364,10 +3364,10 @@
         <v>29</v>
       </c>
       <c r="O41">
-        <v>-8.748250000000001</v>
+        <v>-8.645210000000001</v>
       </c>
       <c r="P41">
-        <v>-1.16614</v>
+        <v>-1.15241</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -3414,10 +3414,10 @@
         <v>29</v>
       </c>
       <c r="O42">
-        <v>-9.368399999999999</v>
+        <v>-9.16173</v>
       </c>
       <c r="P42">
-        <v>-1.24882</v>
+        <v>-1.22127</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -3464,10 +3464,10 @@
         <v>29</v>
       </c>
       <c r="O43">
-        <v>-10.7098</v>
+        <v>-10.452</v>
       </c>
       <c r="P43">
-        <v>-1.42769</v>
+        <v>-1.39331</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -3514,10 +3514,10 @@
         <v>29</v>
       </c>
       <c r="O44">
-        <v>-11.8469</v>
+        <v>-11.6916</v>
       </c>
       <c r="P44">
-        <v>-1.57928</v>
+        <v>-1.55858</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -3564,10 +3564,10 @@
         <v>29</v>
       </c>
       <c r="O45">
-        <v>-12.9317</v>
+        <v>-12.7766</v>
       </c>
       <c r="P45">
-        <v>-1.72393</v>
+        <v>-1.70325</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -3614,10 +3614,10 @@
         <v>29</v>
       </c>
       <c r="O46">
-        <v>-13.9648</v>
+        <v>-13.7582</v>
       </c>
       <c r="P46">
-        <v>-1.86171</v>
+        <v>-1.83414</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -3664,10 +3664,10 @@
         <v>29</v>
       </c>
       <c r="O47">
-        <v>-14.9461</v>
+        <v>-14.7912</v>
       </c>
       <c r="P47">
-        <v>-1.99252</v>
+        <v>-1.97187</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -3714,10 +3714,10 @@
         <v>29</v>
       </c>
       <c r="O48">
-        <v>-16.1326</v>
+        <v>-15.8752</v>
       </c>
       <c r="P48">
-        <v>-2.15071</v>
+        <v>-2.1164</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -3764,10 +3764,10 @@
         <v>29</v>
       </c>
       <c r="O49">
-        <v>-17.2184</v>
+        <v>-17.0108</v>
       </c>
       <c r="P49">
-        <v>-2.29549</v>
+        <v>-2.26781</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -3814,10 +3814,10 @@
         <v>29</v>
       </c>
       <c r="O50">
-        <v>-17.2689</v>
+        <v>-16.9597</v>
       </c>
       <c r="P50">
-        <v>-2.30223</v>
+        <v>-2.261</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -3864,10 +3864,10 @@
         <v>29</v>
       </c>
       <c r="O51">
-        <v>-18.8184</v>
+        <v>-18.4571</v>
       </c>
       <c r="P51">
-        <v>-2.50883</v>
+        <v>-2.46065</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -3914,10 +3914,10 @@
         <v>29</v>
       </c>
       <c r="O52">
-        <v>-20.2128</v>
+        <v>-19.9547</v>
       </c>
       <c r="P52">
-        <v>-2.69475</v>
+        <v>-2.66033</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -3964,10 +3964,10 @@
         <v>29</v>
       </c>
       <c r="O53">
-        <v>-21.7105</v>
+        <v>-21.5557</v>
       </c>
       <c r="P53">
-        <v>-2.89444</v>
+        <v>-2.87379</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -4014,10 +4014,10 @@
         <v>29</v>
       </c>
       <c r="O54">
-        <v>-22.6398</v>
+        <v>-22.4333</v>
       </c>
       <c r="P54">
-        <v>-3.01834</v>
+        <v>-2.99081</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -4064,10 +4064,10 @@
         <v>29</v>
       </c>
       <c r="O55">
-        <v>-24.1891</v>
+        <v>-24.0332</v>
       </c>
       <c r="P55">
-        <v>-3.22491</v>
+        <v>-3.20413</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -4114,10 +4114,10 @@
         <v>29</v>
       </c>
       <c r="O56">
-        <v>-25.5831</v>
+        <v>-25.3765</v>
       </c>
       <c r="P56">
-        <v>-3.41079</v>
+        <v>-3.38324</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -4164,10 +4164,10 @@
         <v>29</v>
       </c>
       <c r="O57">
-        <v>-27.2356</v>
+        <v>-26.9772</v>
       </c>
       <c r="P57">
-        <v>-3.63113</v>
+        <v>-3.59666</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -4214,10 +4214,10 @@
         <v>29</v>
       </c>
       <c r="O58">
-        <v>-24.1369</v>
+        <v>-26.1504</v>
       </c>
       <c r="P58">
-        <v>-3.21797</v>
+        <v>-3.47967</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -4264,10 +4264,10 @@
         <v>29</v>
       </c>
       <c r="O59">
-        <v>-25.6862</v>
+        <v>-27.6485</v>
       </c>
       <c r="P59">
-        <v>-3.42453</v>
+        <v>-3.68617</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -4314,10 +4314,10 @@
         <v>29</v>
       </c>
       <c r="O60">
-        <v>-27.1324</v>
+        <v>-29.1463</v>
       </c>
       <c r="P60">
-        <v>-3.61737</v>
+        <v>-3.88589</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -4364,10 +4364,10 @@
         <v>29</v>
       </c>
       <c r="O61">
-        <v>-28.7334</v>
+        <v>-30.7471</v>
       </c>
       <c r="P61">
-        <v>-3.83081</v>
+        <v>-4.09933</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -4414,10 +4414,10 @@
         <v>29</v>
       </c>
       <c r="O62">
-        <v>-29.5591</v>
+        <v>-31.5218</v>
       </c>
       <c r="P62">
-        <v>-3.94092</v>
+        <v>-4.20261</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -4464,10 +4464,10 @@
         <v>29</v>
       </c>
       <c r="O63">
-        <v>-31.1087</v>
+        <v>-33.0708</v>
       </c>
       <c r="P63">
-        <v>-4.14754</v>
+        <v>-4.40915</v>
       </c>
     </row>
     <row r="64" spans="1:16">
@@ -4514,10 +4514,10 @@
         <v>29</v>
       </c>
       <c r="O64">
-        <v>-32.5027</v>
+        <v>-34.5165</v>
       </c>
       <c r="P64">
-        <v>-4.3334</v>
+        <v>-4.60191</v>
       </c>
     </row>
     <row r="65" spans="1:16">
@@ -4563,11 +4563,11 @@
       <c r="N65" t="s">
         <v>29</v>
       </c>
-      <c r="O65">
-        <v>-33.9485</v>
+      <c r="O65" s="3">
+        <v>-35.9624</v>
       </c>
       <c r="P65">
-        <v>-4.52618</v>
+        <v>-4.7947</v>
       </c>
     </row>
     <row r="66" spans="1:16">
@@ -4614,10 +4614,10 @@
         <v>165</v>
       </c>
       <c r="O66" s="2">
-        <v>43.9567</v>
+        <v>45.9598</v>
       </c>
       <c r="P66">
-        <v>5.32827</v>
+        <v>5.57106</v>
       </c>
     </row>
     <row r="67" spans="1:16">
@@ -4664,10 +4664,10 @@
         <v>165</v>
       </c>
       <c r="O67" s="2">
-        <v>42.1539</v>
+        <v>43.9568</v>
       </c>
       <c r="P67">
-        <v>5.10975</v>
+        <v>5.32828</v>
       </c>
     </row>
     <row r="68" spans="1:16">
@@ -4714,10 +4714,10 @@
         <v>165</v>
       </c>
       <c r="O68" s="2">
-        <v>39.8978</v>
+        <v>41.9017</v>
       </c>
       <c r="P68">
-        <v>4.83628</v>
+        <v>5.07917</v>
       </c>
     </row>
     <row r="69" spans="1:16">
@@ -4764,10 +4764,10 @@
         <v>165</v>
       </c>
       <c r="O69" s="2">
-        <v>38.1445</v>
+        <v>40.22</v>
       </c>
       <c r="P69">
-        <v>4.62376</v>
+        <v>4.87536</v>
       </c>
     </row>
     <row r="70" spans="1:16">
@@ -4814,10 +4814,10 @@
         <v>165</v>
       </c>
       <c r="O70" s="2">
-        <v>37.2442</v>
+        <v>39.2976</v>
       </c>
       <c r="P70">
-        <v>4.52063</v>
+        <v>4.76353</v>
       </c>
     </row>
     <row r="71" spans="1:16">
@@ -4864,10 +4864,10 @@
         <v>165</v>
       </c>
       <c r="O71" s="2">
-        <v>35.4413</v>
+        <v>37.544</v>
       </c>
       <c r="P71">
-        <v>4.29611</v>
+        <v>4.55098</v>
       </c>
     </row>
     <row r="72" spans="1:16">
@@ -4913,11 +4913,11 @@
       <c r="N72" t="s">
         <v>165</v>
       </c>
-      <c r="O72">
-        <v>33.7894</v>
+      <c r="O72" s="2">
+        <v>35.992</v>
       </c>
       <c r="P72">
-        <v>4.09586</v>
+        <v>4.36286</v>
       </c>
     </row>
     <row r="73" spans="1:16">
@@ -4964,10 +4964,10 @@
         <v>165</v>
       </c>
       <c r="O73">
-        <v>31.9372</v>
+        <v>34.1397</v>
       </c>
       <c r="P73">
-        <v>3.87137</v>
+        <v>4.13834</v>
       </c>
     </row>
     <row r="74" spans="1:16">
@@ -5014,10 +5014,10 @@
         <v>165</v>
       </c>
       <c r="O74" s="2">
-        <v>35.6415</v>
+        <v>35.4416</v>
       </c>
       <c r="P74">
-        <v>4.32035</v>
+        <v>4.29614</v>
       </c>
     </row>
     <row r="75" spans="1:16">
@@ -5064,10 +5064,10 @@
         <v>165</v>
       </c>
       <c r="O75">
-        <v>33.7894</v>
+        <v>33.5891</v>
       </c>
       <c r="P75">
-        <v>4.09587</v>
+        <v>4.07159</v>
       </c>
     </row>
     <row r="76" spans="1:16">
@@ -5114,10 +5114,10 @@
         <v>165</v>
       </c>
       <c r="O76">
-        <v>32.137</v>
+        <v>31.9368</v>
       </c>
       <c r="P76">
-        <v>3.89558</v>
+        <v>3.87133</v>
       </c>
     </row>
     <row r="77" spans="1:16">
@@ -5164,10 +5164,10 @@
         <v>165</v>
       </c>
       <c r="O77">
-        <v>30.1848</v>
+        <v>29.989</v>
       </c>
       <c r="P77">
-        <v>3.65894</v>
+        <v>3.63521</v>
       </c>
     </row>
     <row r="78" spans="1:16">
@@ -5214,10 +5214,10 @@
         <v>165</v>
       </c>
       <c r="O78">
-        <v>29.1862</v>
+        <v>28.9886</v>
       </c>
       <c r="P78">
-        <v>3.5379</v>
+        <v>3.51935</v>
       </c>
     </row>
     <row r="79" spans="1:16">
@@ -5264,10 +5264,10 @@
         <v>165</v>
       </c>
       <c r="O79">
-        <v>27.2309</v>
+        <v>27.031</v>
       </c>
       <c r="P79">
-        <v>3.30089</v>
+        <v>3.27668</v>
       </c>
     </row>
     <row r="80" spans="1:16">
@@ -5314,10 +5314,10 @@
         <v>165</v>
       </c>
       <c r="O80">
-        <v>25.4285</v>
+        <v>25.2285</v>
       </c>
       <c r="P80">
-        <v>3.08244</v>
+        <v>3.05819</v>
       </c>
     </row>
     <row r="81" spans="1:16">
@@ -5364,10 +5364,10 @@
         <v>165</v>
       </c>
       <c r="O81">
-        <v>23.5258</v>
+        <v>23.3256</v>
       </c>
       <c r="P81">
-        <v>2.85178</v>
+        <v>2.82754</v>
       </c>
     </row>
     <row r="82" spans="1:16">
@@ -5414,10 +5414,10 @@
         <v>165</v>
       </c>
       <c r="O82">
-        <v>23.5257</v>
+        <v>23.3256</v>
       </c>
       <c r="P82">
-        <v>2.85179</v>
+        <v>2.82754</v>
       </c>
     </row>
     <row r="83" spans="1:16">
@@ -5464,10 +5464,10 @@
         <v>165</v>
       </c>
       <c r="O83">
-        <v>21.7734</v>
+        <v>21.5759</v>
       </c>
       <c r="P83">
-        <v>2.63938</v>
+        <v>2.61544</v>
       </c>
     </row>
     <row r="84" spans="1:16">
@@ -5514,10 +5514,10 @@
         <v>165</v>
       </c>
       <c r="O84">
-        <v>20.1711</v>
+        <v>20.0206</v>
       </c>
       <c r="P84">
-        <v>2.44517</v>
+        <v>2.42691</v>
       </c>
     </row>
     <row r="85" spans="1:16">
@@ -5564,10 +5564,10 @@
         <v>165</v>
       </c>
       <c r="O85">
-        <v>18.5687</v>
+        <v>18.3683</v>
       </c>
       <c r="P85">
-        <v>2.25093</v>
+        <v>2.22665</v>
       </c>
     </row>
     <row r="86" spans="1:16">
@@ -5614,10 +5614,10 @@
         <v>165</v>
       </c>
       <c r="O86">
-        <v>17.0162</v>
+        <v>16.7662</v>
       </c>
       <c r="P86">
-        <v>2.06276</v>
+        <v>2.03245</v>
       </c>
     </row>
     <row r="87" spans="1:16">
@@ -5664,10 +5664,10 @@
         <v>165</v>
       </c>
       <c r="O87">
-        <v>15.3139</v>
+        <v>15.1136</v>
       </c>
       <c r="P87">
-        <v>1.85641</v>
+        <v>1.83214</v>
       </c>
     </row>
     <row r="88" spans="1:16">
@@ -5714,10 +5714,10 @@
         <v>165</v>
       </c>
       <c r="O88">
-        <v>13.6116</v>
+        <v>13.4611</v>
       </c>
       <c r="P88">
-        <v>1.65009</v>
+        <v>1.63184</v>
       </c>
     </row>
     <row r="89" spans="1:16">
@@ -5764,10 +5764,10 @@
         <v>165</v>
       </c>
       <c r="O89">
-        <v>11.8091</v>
+        <v>11.6588</v>
       </c>
       <c r="P89">
-        <v>1.43159</v>
+        <v>1.41337</v>
       </c>
     </row>
     <row r="90" spans="1:16">
@@ -5814,10 +5814,10 @@
         <v>165</v>
       </c>
       <c r="O90">
-        <v>10.8074</v>
+        <v>10.7613</v>
       </c>
       <c r="P90">
-        <v>1.31016</v>
+        <v>1.30457</v>
       </c>
     </row>
     <row r="91" spans="1:16">
@@ -5864,10 +5864,10 @@
         <v>165</v>
       </c>
       <c r="O91">
-        <v>9.005979999999999</v>
+        <v>9.055059999999999</v>
       </c>
       <c r="P91">
-        <v>1.09182</v>
+        <v>1.09777</v>
       </c>
     </row>
     <row r="92" spans="1:16">
@@ -5914,10 +5914,10 @@
         <v>165</v>
       </c>
       <c r="O92">
-        <v>7.50266</v>
+        <v>7.5027</v>
       </c>
       <c r="P92">
-        <v>0.909588</v>
+        <v>0.9096109999999999</v>
       </c>
     </row>
     <row r="93" spans="1:16">
@@ -5964,10 +5964,10 @@
         <v>165</v>
       </c>
       <c r="O93">
-        <v>6.05066</v>
+        <v>6.05059</v>
       </c>
       <c r="P93">
-        <v>0.7336009999999999</v>
+        <v>0.733592</v>
       </c>
     </row>
     <row r="94" spans="1:16">
@@ -6014,10 +6014,10 @@
         <v>165</v>
       </c>
       <c r="O94">
-        <v>4.59914</v>
+        <v>4.59939</v>
       </c>
       <c r="P94">
-        <v>0.557664</v>
+        <v>0.557698</v>
       </c>
     </row>
     <row r="95" spans="1:16">
@@ -6064,10 +6064,10 @@
         <v>165</v>
       </c>
       <c r="O95">
-        <v>3.04836</v>
+        <v>3.04829</v>
       </c>
       <c r="P95">
-        <v>0.369675</v>
+        <v>0.369679</v>
       </c>
     </row>
     <row r="96" spans="1:16">
@@ -6114,10 +6114,10 @@
         <v>165</v>
       </c>
       <c r="O96">
-        <v>1.54752</v>
+        <v>1.56357</v>
       </c>
       <c r="P96">
-        <v>0.187763</v>
+        <v>0.189704</v>
       </c>
     </row>
     <row r="97" spans="1:16">
@@ -6164,10 +6164,10 @@
         <v>165</v>
       </c>
       <c r="O97">
-        <v>0.0448895</v>
+        <v>-0.00491502</v>
       </c>
       <c r="P97">
-        <v>0.00562717</v>
+        <v>-0.00040623</v>
       </c>
     </row>
     <row r="98" spans="1:16">
@@ -6214,10 +6214,10 @@
         <v>165</v>
       </c>
       <c r="O98">
-        <v>-0.00510101</v>
+        <v>-0.00498956</v>
       </c>
       <c r="P98">
-        <v>-0.000446582</v>
+        <v>-0.000410075</v>
       </c>
     </row>
     <row r="99" spans="1:16">
@@ -6264,10 +6264,10 @@
         <v>165</v>
       </c>
       <c r="O99">
-        <v>-1.50683</v>
+        <v>-1.55564</v>
       </c>
       <c r="P99">
-        <v>-0.182464</v>
+        <v>-0.188379</v>
       </c>
     </row>
     <row r="100" spans="1:16">
@@ -6314,10 +6314,10 @@
         <v>165</v>
       </c>
       <c r="O100">
-        <v>-3.10809</v>
+        <v>-3.05806</v>
       </c>
       <c r="P100">
-        <v>-0.376543</v>
+        <v>-0.370485</v>
       </c>
     </row>
     <row r="101" spans="1:16">
@@ -6364,10 +6364,10 @@
         <v>165</v>
       </c>
       <c r="O101">
-        <v>-4.50987</v>
+        <v>-4.55699</v>
       </c>
       <c r="P101">
-        <v>-0.546468</v>
+        <v>-0.552187</v>
       </c>
     </row>
     <row r="102" spans="1:16">
@@ -6414,10 +6414,10 @@
         <v>165</v>
       </c>
       <c r="O102">
-        <v>-5.91126</v>
+        <v>-5.91141</v>
       </c>
       <c r="P102">
-        <v>-0.716323</v>
+        <v>-0.716351</v>
       </c>
     </row>
     <row r="103" spans="1:16">
@@ -6464,10 +6464,10 @@
         <v>165</v>
       </c>
       <c r="O103">
-        <v>-7.56175</v>
+        <v>-7.56268</v>
       </c>
       <c r="P103">
-        <v>-0.916393</v>
+        <v>-0.916502</v>
       </c>
     </row>
     <row r="104" spans="1:16">
@@ -6514,10 +6514,10 @@
         <v>165</v>
       </c>
       <c r="O104">
-        <v>-9.11435</v>
+        <v>-9.114319999999999</v>
       </c>
       <c r="P104">
-        <v>-1.10458</v>
+        <v>-1.10457</v>
       </c>
     </row>
     <row r="105" spans="1:16">
@@ -6564,10 +6564,10 @@
         <v>165</v>
       </c>
       <c r="O105">
-        <v>-10.8664</v>
+        <v>-10.8166</v>
       </c>
       <c r="P105">
-        <v>-1.31695</v>
+        <v>-1.31092</v>
       </c>
     </row>
     <row r="106" spans="1:16">
@@ -6614,10 +6614,10 @@
         <v>165</v>
       </c>
       <c r="O106">
-        <v>-11.8666</v>
+        <v>-11.6662</v>
       </c>
       <c r="P106">
-        <v>-1.43819</v>
+        <v>-1.4139</v>
       </c>
     </row>
     <row r="107" spans="1:16">
@@ -6664,10 +6664,10 @@
         <v>165</v>
       </c>
       <c r="O107">
-        <v>-13.5691</v>
+        <v>-13.3691</v>
       </c>
       <c r="P107">
-        <v>-1.64455</v>
+        <v>-1.62032</v>
       </c>
     </row>
     <row r="108" spans="1:16">
@@ -6714,10 +6714,10 @@
         <v>165</v>
       </c>
       <c r="O108">
-        <v>-15.2708</v>
+        <v>-15.1208</v>
       </c>
       <c r="P108">
-        <v>-1.85082</v>
+        <v>-1.83263</v>
       </c>
     </row>
     <row r="109" spans="1:16">
@@ -6764,10 +6764,10 @@
         <v>165</v>
       </c>
       <c r="O109">
-        <v>-16.9731</v>
+        <v>-16.8225</v>
       </c>
       <c r="P109">
-        <v>-2.05716</v>
+        <v>-2.0389</v>
       </c>
     </row>
     <row r="110" spans="1:16">
@@ -6814,10 +6814,10 @@
         <v>165</v>
       </c>
       <c r="O110">
-        <v>-18.5735</v>
+        <v>-18.3746</v>
       </c>
       <c r="P110">
-        <v>-2.25114</v>
+        <v>-2.22703</v>
       </c>
     </row>
     <row r="111" spans="1:16">
@@ -6864,10 +6864,10 @@
         <v>165</v>
       </c>
       <c r="O111">
-        <v>-20.176</v>
+        <v>-20.0248</v>
       </c>
       <c r="P111">
-        <v>-2.44539</v>
+        <v>-2.42705</v>
       </c>
     </row>
     <row r="112" spans="1:16">
@@ -6914,10 +6914,10 @@
         <v>165</v>
       </c>
       <c r="O112">
-        <v>-21.7779</v>
+        <v>-21.6277</v>
       </c>
       <c r="P112">
-        <v>-2.63956</v>
+        <v>-2.62134</v>
       </c>
     </row>
     <row r="113" spans="1:16">
@@ -6964,10 +6964,10 @@
         <v>165</v>
       </c>
       <c r="O113">
-        <v>-23.4797</v>
+        <v>-23.2794</v>
       </c>
       <c r="P113">
-        <v>-2.84584</v>
+        <v>-2.82156</v>
       </c>
     </row>
     <row r="114" spans="1:16">
@@ -7014,10 +7014,10 @@
         <v>165</v>
       </c>
       <c r="O114">
-        <v>-23.4298</v>
+        <v>-23.2794</v>
       </c>
       <c r="P114">
-        <v>-2.83979</v>
+        <v>-2.82157</v>
       </c>
     </row>
     <row r="115" spans="1:16">
@@ -7064,10 +7064,10 @@
         <v>165</v>
       </c>
       <c r="O115">
-        <v>-25.4322</v>
+        <v>-25.3802</v>
       </c>
       <c r="P115">
-        <v>-3.08251</v>
+        <v>-3.07621</v>
       </c>
     </row>
     <row r="116" spans="1:16">
@@ -7114,10 +7114,10 @@
         <v>165</v>
       </c>
       <c r="O116">
-        <v>-27.3331</v>
+        <v>-27.1822</v>
       </c>
       <c r="P116">
-        <v>-3.31292</v>
+        <v>-3.29463</v>
       </c>
     </row>
     <row r="117" spans="1:16">
@@ -7164,10 +7164,10 @@
         <v>165</v>
       </c>
       <c r="O117">
-        <v>-29.2842</v>
+        <v>-29.1343</v>
       </c>
       <c r="P117">
-        <v>-3.54942</v>
+        <v>-3.53123</v>
       </c>
     </row>
     <row r="118" spans="1:16">
@@ -7214,10 +7214,10 @@
         <v>165</v>
       </c>
       <c r="O118">
-        <v>-30.2848</v>
+        <v>-30.135</v>
       </c>
       <c r="P118">
-        <v>-3.6707</v>
+        <v>-3.65254</v>
       </c>
     </row>
     <row r="119" spans="1:16">
@@ -7264,10 +7264,10 @@
         <v>165</v>
       </c>
       <c r="O119">
-        <v>-32.2861</v>
+        <v>-32.0859</v>
       </c>
       <c r="P119">
-        <v>-3.91329</v>
+        <v>-3.88902</v>
       </c>
     </row>
     <row r="120" spans="1:16">
@@ -7314,10 +7314,10 @@
         <v>165</v>
       </c>
       <c r="O120">
-        <v>-33.9872</v>
+        <v>-33.7373</v>
       </c>
       <c r="P120">
-        <v>-4.11948</v>
+        <v>-4.08919</v>
       </c>
     </row>
     <row r="121" spans="1:16">
@@ -7364,10 +7364,10 @@
         <v>165</v>
       </c>
       <c r="O121" s="3">
-        <v>-35.8883</v>
+        <v>-35.738</v>
       </c>
       <c r="P121">
-        <v>-4.34991</v>
+        <v>-4.33169</v>
       </c>
     </row>
     <row r="122" spans="1:16">
@@ -7414,10 +7414,10 @@
         <v>165</v>
       </c>
       <c r="O122">
-        <v>-32.136</v>
+        <v>-34.3375</v>
       </c>
       <c r="P122">
-        <v>-3.89508</v>
+        <v>-4.16193</v>
       </c>
     </row>
     <row r="123" spans="1:16">
@@ -7463,11 +7463,11 @@
       <c r="N123" t="s">
         <v>165</v>
       </c>
-      <c r="O123">
-        <v>-34.0864</v>
+      <c r="O123" s="3">
+        <v>-36.2884</v>
       </c>
       <c r="P123">
-        <v>-4.1315</v>
+        <v>-4.39841</v>
       </c>
     </row>
     <row r="124" spans="1:16">
@@ -7514,10 +7514,10 @@
         <v>165</v>
       </c>
       <c r="O124" s="3">
-        <v>-35.6659</v>
+        <v>-37.9393</v>
       </c>
       <c r="P124">
-        <v>-4.32296</v>
+        <v>-4.59851</v>
       </c>
     </row>
     <row r="125" spans="1:16">
@@ -7564,10 +7564,10 @@
         <v>165</v>
       </c>
       <c r="O125" s="3">
-        <v>-37.5895</v>
+        <v>-39.8405</v>
       </c>
       <c r="P125">
-        <v>-4.55611</v>
+        <v>-4.82896</v>
       </c>
     </row>
     <row r="126" spans="1:16">
@@ -7614,10 +7614,10 @@
         <v>165</v>
       </c>
       <c r="O126" s="3">
-        <v>-38.4874</v>
+        <v>-40.6914</v>
       </c>
       <c r="P126">
-        <v>-4.66496</v>
+        <v>-4.93211</v>
       </c>
     </row>
     <row r="127" spans="1:16">
@@ -7664,10 +7664,10 @@
         <v>165</v>
       </c>
       <c r="O127" s="3">
-        <v>-40.3904</v>
+        <v>-42.543</v>
       </c>
       <c r="P127">
-        <v>-4.88969</v>
+        <v>-5.15655</v>
       </c>
     </row>
     <row r="128" spans="1:16">
@@ -7714,10 +7714,10 @@
         <v>165</v>
       </c>
       <c r="O128" s="3">
-        <v>-41.9924</v>
+        <v>-44.1439</v>
       </c>
       <c r="P128">
-        <v>-5.08979</v>
+        <v>-5.35059</v>
       </c>
     </row>
     <row r="129" spans="1:16">
@@ -7764,10 +7764,10 @@
         <v>165</v>
       </c>
       <c r="O129" s="3">
-        <v>-43.8433</v>
+        <v>-46.1953</v>
       </c>
       <c r="P129">
-        <v>-5.31415</v>
+        <v>-5.59924</v>
       </c>
     </row>
     <row r="130" spans="1:16">
@@ -7814,10 +7814,10 @@
         <v>239</v>
       </c>
       <c r="O130">
-        <v>25.9958</v>
+        <v>27.0805</v>
       </c>
       <c r="P130">
-        <v>3.85184</v>
+        <v>4.01255</v>
       </c>
     </row>
     <row r="131" spans="1:16">
@@ -7864,10 +7864,10 @@
         <v>239</v>
       </c>
       <c r="O131">
-        <v>24.9173</v>
+        <v>26.047</v>
       </c>
       <c r="P131">
-        <v>3.692</v>
+        <v>3.85942</v>
       </c>
     </row>
     <row r="132" spans="1:16">
@@ -7914,10 +7914,10 @@
         <v>239</v>
       </c>
       <c r="O132">
-        <v>24.2866</v>
+        <v>25.7338</v>
       </c>
       <c r="P132">
-        <v>3.59862</v>
+        <v>3.81303</v>
       </c>
     </row>
     <row r="133" spans="1:16">
@@ -7964,10 +7964,10 @@
         <v>239</v>
       </c>
       <c r="O133">
-        <v>23.0982</v>
+        <v>24.6479</v>
       </c>
       <c r="P133">
-        <v>3.42258</v>
+        <v>3.65218</v>
       </c>
     </row>
     <row r="134" spans="1:16">
@@ -8014,10 +8014,10 @@
         <v>239</v>
       </c>
       <c r="O134">
-        <v>22.84</v>
+        <v>24.2347</v>
       </c>
       <c r="P134">
-        <v>3.38433</v>
+        <v>3.59092</v>
       </c>
     </row>
     <row r="135" spans="1:16">
@@ -8064,10 +8064,10 @@
         <v>239</v>
       </c>
       <c r="O135">
-        <v>21.8589</v>
+        <v>23.15</v>
       </c>
       <c r="P135">
-        <v>3.239</v>
+        <v>3.43027</v>
       </c>
     </row>
     <row r="136" spans="1:16">
@@ -8114,10 +8114,10 @@
         <v>239</v>
       </c>
       <c r="O136">
-        <v>20.9353</v>
+        <v>22.2725</v>
       </c>
       <c r="P136">
-        <v>3.1021</v>
+        <v>3.30028</v>
       </c>
     </row>
     <row r="137" spans="1:16">
@@ -8164,10 +8164,10 @@
         <v>239</v>
       </c>
       <c r="O137">
-        <v>19.8441</v>
+        <v>21.4451</v>
       </c>
       <c r="P137">
-        <v>2.94803</v>
+        <v>3.1777</v>
       </c>
     </row>
     <row r="138" spans="1:16">
@@ -8214,10 +8214,10 @@
         <v>239</v>
       </c>
       <c r="O138">
-        <v>21.8078</v>
+        <v>22.0134</v>
       </c>
       <c r="P138">
-        <v>3.23891</v>
+        <v>3.26187</v>
       </c>
     </row>
     <row r="139" spans="1:16">
@@ -8264,10 +8264,10 @@
         <v>239</v>
       </c>
       <c r="O139">
-        <v>20.8763</v>
+        <v>20.9289</v>
       </c>
       <c r="P139">
-        <v>3.09338</v>
+        <v>3.10121</v>
       </c>
     </row>
     <row r="140" spans="1:16">
@@ -8314,10 +8314,10 @@
         <v>239</v>
       </c>
       <c r="O140">
-        <v>19.9476</v>
+        <v>20.0497</v>
       </c>
       <c r="P140">
-        <v>2.95582</v>
+        <v>2.97101</v>
       </c>
     </row>
     <row r="141" spans="1:16">
@@ -8364,10 +8364,10 @@
         <v>239</v>
       </c>
       <c r="O141">
-        <v>18.9652</v>
+        <v>19.0168</v>
       </c>
       <c r="P141">
-        <v>2.81033</v>
+        <v>2.81793</v>
       </c>
     </row>
     <row r="142" spans="1:16">
@@ -8414,10 +8414,10 @@
         <v>239</v>
       </c>
       <c r="O142">
-        <v>18.5001</v>
+        <v>18.603</v>
       </c>
       <c r="P142">
-        <v>2.74113</v>
+        <v>2.75667</v>
       </c>
     </row>
     <row r="143" spans="1:16">
@@ -8464,10 +8464,10 @@
         <v>239</v>
       </c>
       <c r="O143">
-        <v>17.5184</v>
+        <v>17.622</v>
       </c>
       <c r="P143">
-        <v>2.59599</v>
+        <v>2.61129</v>
       </c>
     </row>
     <row r="144" spans="1:16">
@@ -8514,10 +8514,10 @@
         <v>239</v>
       </c>
       <c r="O144">
-        <v>16.6928</v>
+        <v>16.6921</v>
       </c>
       <c r="P144">
-        <v>2.47364</v>
+        <v>2.47359</v>
       </c>
     </row>
     <row r="145" spans="1:16">
@@ -8564,10 +8564,10 @@
         <v>239</v>
       </c>
       <c r="O145">
-        <v>15.6161</v>
+        <v>15.7104</v>
       </c>
       <c r="P145">
-        <v>2.31407</v>
+        <v>2.32811</v>
       </c>
     </row>
     <row r="146" spans="1:16">
@@ -8614,10 +8614,10 @@
         <v>239</v>
       </c>
       <c r="O146">
-        <v>15.6089</v>
+        <v>15.6637</v>
       </c>
       <c r="P146">
-        <v>2.3131</v>
+        <v>2.32115</v>
       </c>
     </row>
     <row r="147" spans="1:16">
@@ -8664,10 +8664,10 @@
         <v>239</v>
       </c>
       <c r="O147">
-        <v>14.5739</v>
+        <v>14.6884</v>
       </c>
       <c r="P147">
-        <v>2.15974</v>
+        <v>2.17669</v>
       </c>
     </row>
     <row r="148" spans="1:16">
@@ -8714,10 +8714,10 @@
         <v>239</v>
       </c>
       <c r="O148">
-        <v>13.6427</v>
+        <v>13.7061</v>
       </c>
       <c r="P148">
-        <v>2.02182</v>
+        <v>2.03115</v>
       </c>
     </row>
     <row r="149" spans="1:16">
@@ -8764,10 +8764,10 @@
         <v>239</v>
       </c>
       <c r="O149">
-        <v>12.5588</v>
+        <v>12.6616</v>
       </c>
       <c r="P149">
-        <v>1.86118</v>
+        <v>1.87642</v>
       </c>
     </row>
     <row r="150" spans="1:16">
@@ -8814,10 +8814,10 @@
         <v>239</v>
       </c>
       <c r="O150">
-        <v>11.7383</v>
+        <v>11.7831</v>
       </c>
       <c r="P150">
-        <v>1.73955</v>
+        <v>1.7463</v>
       </c>
     </row>
     <row r="151" spans="1:16">
@@ -8864,10 +8864,10 @@
         <v>239</v>
       </c>
       <c r="O151">
-        <v>10.5939</v>
+        <v>10.6457</v>
       </c>
       <c r="P151">
-        <v>1.57009</v>
+        <v>1.57756</v>
       </c>
     </row>
     <row r="152" spans="1:16">
@@ -8914,10 +8914,10 @@
         <v>239</v>
       </c>
       <c r="O152">
-        <v>9.46335</v>
+        <v>9.611420000000001</v>
       </c>
       <c r="P152">
-        <v>1.40256</v>
+        <v>1.42454</v>
       </c>
     </row>
     <row r="153" spans="1:16">
@@ -8964,10 +8964,10 @@
         <v>239</v>
       </c>
       <c r="O153">
-        <v>8.167160000000001</v>
+        <v>8.319129999999999</v>
       </c>
       <c r="P153">
-        <v>1.21055</v>
+        <v>1.23297</v>
       </c>
     </row>
     <row r="154" spans="1:16">
@@ -9014,10 +9014,10 @@
         <v>239</v>
       </c>
       <c r="O154">
-        <v>7.54448</v>
+        <v>7.59569</v>
       </c>
       <c r="P154">
-        <v>1.11833</v>
+        <v>1.12592</v>
       </c>
     </row>
     <row r="155" spans="1:16">
@@ -9064,10 +9064,10 @@
         <v>239</v>
       </c>
       <c r="O155">
-        <v>6.40702</v>
+        <v>6.3558</v>
       </c>
       <c r="P155">
-        <v>0.949805</v>
+        <v>0.942221</v>
       </c>
     </row>
     <row r="156" spans="1:16">
@@ -9114,10 +9114,10 @@
         <v>239</v>
       </c>
       <c r="O156">
-        <v>5.26971</v>
+        <v>5.21804</v>
       </c>
       <c r="P156">
-        <v>0.781304</v>
+        <v>0.773698</v>
       </c>
     </row>
     <row r="157" spans="1:16">
@@ -9164,10 +9164,10 @@
         <v>239</v>
       </c>
       <c r="O157">
-        <v>4.18488</v>
+        <v>4.19308</v>
       </c>
       <c r="P157">
-        <v>0.620596</v>
+        <v>0.621759</v>
       </c>
     </row>
     <row r="158" spans="1:16">
@@ -9214,10 +9214,10 @@
         <v>239</v>
       </c>
       <c r="O158">
-        <v>3.25398</v>
+        <v>3.35709</v>
       </c>
       <c r="P158">
-        <v>0.482677</v>
+        <v>0.497958</v>
       </c>
     </row>
     <row r="159" spans="1:16">
@@ -9264,10 +9264,10 @@
         <v>239</v>
       </c>
       <c r="O159">
-        <v>2.16885</v>
+        <v>2.22019</v>
       </c>
       <c r="P159">
-        <v>0.321914</v>
+        <v>0.329543</v>
       </c>
     </row>
     <row r="160" spans="1:16">
@@ -9314,10 +9314,10 @@
         <v>239</v>
       </c>
       <c r="O160">
-        <v>1.13552</v>
+        <v>1.18726</v>
       </c>
       <c r="P160">
-        <v>0.168829</v>
+        <v>0.176492</v>
       </c>
     </row>
     <row r="161" spans="1:16">
@@ -9364,10 +9364,10 @@
         <v>239</v>
       </c>
       <c r="O161">
-        <v>0.101248</v>
+        <v>0.101412</v>
       </c>
       <c r="P161">
-        <v>0.015635</v>
+        <v>0.0156096</v>
       </c>
     </row>
     <row r="162" spans="1:16">
@@ -9414,10 +9414,10 @@
         <v>239</v>
       </c>
       <c r="O162">
-        <v>0.153942</v>
+        <v>0.101083</v>
       </c>
       <c r="P162">
-        <v>0.0234255</v>
+        <v>0.015612</v>
       </c>
     </row>
     <row r="163" spans="1:16">
@@ -9464,10 +9464,10 @@
         <v>239</v>
       </c>
       <c r="O163">
-        <v>-0.983604</v>
+        <v>-0.983557</v>
       </c>
       <c r="P163">
-        <v>-0.145104</v>
+        <v>-0.145073</v>
       </c>
     </row>
     <row r="164" spans="1:16">
@@ -9514,10 +9514,10 @@
         <v>239</v>
       </c>
       <c r="O164">
-        <v>-2.01752</v>
+        <v>-2.01764</v>
       </c>
       <c r="P164">
-        <v>-0.298281</v>
+        <v>-0.298297</v>
       </c>
     </row>
     <row r="165" spans="1:16">
@@ -9564,10 +9564,10 @@
         <v>239</v>
       </c>
       <c r="O165">
-        <v>-3.0947</v>
+        <v>-3.05041</v>
       </c>
       <c r="P165">
-        <v>-0.457907</v>
+        <v>-0.451268</v>
       </c>
     </row>
     <row r="166" spans="1:16">
@@ -9614,10 +9614,10 @@
         <v>239</v>
       </c>
       <c r="O166">
-        <v>-4.02482</v>
+        <v>-3.98097</v>
       </c>
       <c r="P166">
-        <v>-0.595689</v>
+        <v>-0.589131</v>
       </c>
     </row>
     <row r="167" spans="1:16">
@@ -9664,10 +9664,10 @@
         <v>239</v>
       </c>
       <c r="O167">
-        <v>-5.11769</v>
+        <v>-5.11736</v>
       </c>
       <c r="P167">
-        <v>-0.75754</v>
+        <v>-0.7575229999999999</v>
       </c>
     </row>
     <row r="168" spans="1:16">
@@ -9714,10 +9714,10 @@
         <v>239</v>
       </c>
       <c r="O168">
-        <v>-6.20328</v>
+        <v>-6.2969</v>
       </c>
       <c r="P168">
-        <v>-0.918372</v>
+        <v>-0.932288</v>
       </c>
     </row>
     <row r="169" spans="1:16">
@@ -9764,10 +9764,10 @@
         <v>239</v>
       </c>
       <c r="O169">
-        <v>-7.28762</v>
+        <v>-7.28807</v>
       </c>
       <c r="P169">
-        <v>-1.07145</v>
+        <v>-1.07909</v>
       </c>
     </row>
     <row r="170" spans="1:16">
@@ -9814,10 +9814,10 @@
         <v>239</v>
       </c>
       <c r="O170">
-        <v>-7.85432</v>
+        <v>-7.90816</v>
       </c>
       <c r="P170">
-        <v>-1.15559</v>
+        <v>-1.17097</v>
       </c>
     </row>
     <row r="171" spans="1:16">
@@ -9864,10 +9864,10 @@
         <v>239</v>
       </c>
       <c r="O171">
-        <v>-8.83771</v>
+        <v>-8.888909999999999</v>
       </c>
       <c r="P171">
-        <v>-1.30866</v>
+        <v>-1.31627</v>
       </c>
     </row>
     <row r="172" spans="1:16">
@@ -9914,10 +9914,10 @@
         <v>239</v>
       </c>
       <c r="O172">
-        <v>-9.7676</v>
+        <v>-10.0228</v>
       </c>
       <c r="P172">
-        <v>-1.44645</v>
+        <v>-1.48419</v>
       </c>
     </row>
     <row r="173" spans="1:16">
@@ -9964,10 +9964,10 @@
         <v>239</v>
       </c>
       <c r="O173">
-        <v>-10.8003</v>
+        <v>-10.903</v>
       </c>
       <c r="P173">
-        <v>-1.59938</v>
+        <v>-1.60717</v>
       </c>
     </row>
     <row r="174" spans="1:16">
@@ -10014,10 +10014,10 @@
         <v>239</v>
       </c>
       <c r="O174">
-        <v>-11.6677</v>
+        <v>-11.7296</v>
       </c>
       <c r="P174">
-        <v>-1.72797</v>
+        <v>-1.73693</v>
       </c>
     </row>
     <row r="175" spans="1:16">
@@ -10064,10 +10064,10 @@
         <v>239</v>
       </c>
       <c r="O175">
-        <v>-12.6604</v>
+        <v>-12.8165</v>
       </c>
       <c r="P175">
-        <v>-1.87499</v>
+        <v>-1.89812</v>
       </c>
     </row>
     <row r="176" spans="1:16">
@@ -10114,10 +10114,10 @@
         <v>239</v>
       </c>
       <c r="O176">
-        <v>-13.6319</v>
+        <v>-13.6943</v>
       </c>
       <c r="P176">
-        <v>-2.01898</v>
+        <v>-2.02815</v>
       </c>
     </row>
     <row r="177" spans="1:16">
@@ -10164,10 +10164,10 @@
         <v>239</v>
       </c>
       <c r="O177">
-        <v>-14.5649</v>
+        <v>-14.6766</v>
       </c>
       <c r="P177">
-        <v>-2.15719</v>
+        <v>-2.1736</v>
       </c>
     </row>
     <row r="178" spans="1:16">
@@ -10214,10 +10214,10 @@
         <v>239</v>
       </c>
       <c r="O178">
-        <v>-14.4628</v>
+        <v>-14.7282</v>
       </c>
       <c r="P178">
-        <v>-2.14206</v>
+        <v>-2.18135</v>
       </c>
     </row>
     <row r="179" spans="1:16">
@@ -10264,10 +10264,10 @@
         <v>239</v>
       </c>
       <c r="O179">
-        <v>-15.5546</v>
+        <v>-15.6072</v>
       </c>
       <c r="P179">
-        <v>-2.30375</v>
+        <v>-2.31157</v>
       </c>
     </row>
     <row r="180" spans="1:16">
@@ -10314,10 +10314,10 @@
         <v>239</v>
       </c>
       <c r="O180">
-        <v>-16.3819</v>
+        <v>-16.5375</v>
       </c>
       <c r="P180">
-        <v>-2.4263</v>
+        <v>-2.44938</v>
       </c>
     </row>
     <row r="181" spans="1:16">
@@ -10364,10 +10364,10 @@
         <v>239</v>
       </c>
       <c r="O181">
-        <v>-17.5127</v>
+        <v>-17.622</v>
       </c>
       <c r="P181">
-        <v>-2.59391</v>
+        <v>-2.60257</v>
       </c>
     </row>
     <row r="182" spans="1:16">
@@ -10414,10 +10414,10 @@
         <v>239</v>
       </c>
       <c r="O182">
-        <v>-18.0349</v>
+        <v>-18.0279</v>
       </c>
       <c r="P182">
-        <v>-2.66384</v>
+        <v>-2.67023</v>
       </c>
     </row>
     <row r="183" spans="1:16">
@@ -10464,10 +10464,10 @@
         <v>239</v>
       </c>
       <c r="O183">
-        <v>-19.0187</v>
+        <v>-19.225</v>
       </c>
       <c r="P183">
-        <v>-2.81696</v>
+        <v>-2.84753</v>
       </c>
     </row>
     <row r="184" spans="1:16">
@@ -10514,10 +10514,10 @@
         <v>239</v>
       </c>
       <c r="O184">
-        <v>-20.104</v>
+        <v>-20.1556</v>
       </c>
       <c r="P184">
-        <v>-2.97773</v>
+        <v>-2.98537</v>
       </c>
     </row>
     <row r="185" spans="1:16">
@@ -10564,10 +10564,10 @@
         <v>239</v>
       </c>
       <c r="O185">
-        <v>-21.2411</v>
+        <v>-21.3957</v>
       </c>
       <c r="P185">
-        <v>-3.14624</v>
+        <v>-3.16911</v>
       </c>
     </row>
     <row r="186" spans="1:16">
@@ -10614,10 +10614,10 @@
         <v>239</v>
       </c>
       <c r="O186">
-        <v>-18.9659</v>
+        <v>-20.7244</v>
       </c>
       <c r="P186">
-        <v>-2.80916</v>
+        <v>-3.06966</v>
       </c>
     </row>
     <row r="187" spans="1:16">
@@ -10664,10 +10664,10 @@
         <v>239</v>
       </c>
       <c r="O187">
-        <v>-20.0529</v>
+        <v>-21.954</v>
       </c>
       <c r="P187">
-        <v>-2.97017</v>
+        <v>-3.25168</v>
       </c>
     </row>
     <row r="188" spans="1:16">
@@ -10714,10 +10714,10 @@
         <v>239</v>
       </c>
       <c r="O188">
-        <v>-21.241</v>
+        <v>-22.946</v>
       </c>
       <c r="P188">
-        <v>-3.14621</v>
+        <v>-3.3913</v>
       </c>
     </row>
     <row r="189" spans="1:16">
@@ -10764,10 +10764,10 @@
         <v>239</v>
       </c>
       <c r="O189">
-        <v>-22.43</v>
+        <v>-24.2396</v>
       </c>
       <c r="P189">
-        <v>-3.32236</v>
+        <v>-3.59041</v>
       </c>
     </row>
     <row r="190" spans="1:16">
@@ -10814,10 +10814,10 @@
         <v>239</v>
       </c>
       <c r="O190">
-        <v>-22.9983</v>
+        <v>-24.8076</v>
       </c>
       <c r="P190">
-        <v>-3.40655</v>
+        <v>-3.6746</v>
       </c>
     </row>
     <row r="191" spans="1:16">
@@ -10864,10 +10864,10 @@
         <v>239</v>
       </c>
       <c r="O191">
-        <v>-24.2906</v>
+        <v>-26.0994</v>
       </c>
       <c r="P191">
-        <v>-3.59041</v>
+        <v>-3.86598</v>
       </c>
     </row>
     <row r="192" spans="1:16">
@@ -10914,10 +10914,10 @@
         <v>239</v>
       </c>
       <c r="O192">
-        <v>-25.4205</v>
+        <v>-27.2371</v>
       </c>
       <c r="P192">
-        <v>-3.76544</v>
+        <v>-4.03447</v>
       </c>
     </row>
     <row r="193" spans="1:16">
@@ -10964,10 +10964,10 @@
         <v>239</v>
       </c>
       <c r="O193">
-        <v>-26.7203</v>
+        <v>-28.5266</v>
       </c>
       <c r="P193">
-        <v>-3.95795</v>
+        <v>-4.22434</v>
       </c>
     </row>
     <row r="194" spans="1:16" s="1" customFormat="1">
@@ -11025,10 +11025,10 @@
         <v>303</v>
       </c>
       <c r="O195" s="3">
-        <v>-43.8433</v>
+        <v>-46.1953</v>
       </c>
       <c r="P195" s="1">
-        <v>-5.31415</v>
+        <v>-5.59924</v>
       </c>
     </row>
     <row r="196" spans="1:16" s="1" customFormat="1">
@@ -11036,10 +11036,10 @@
         <v>304</v>
       </c>
       <c r="O196" s="2">
-        <v>43.9567</v>
+        <v>45.9598</v>
       </c>
       <c r="P196" s="1">
-        <v>5.32827</v>
+        <v>5.57106</v>
       </c>
     </row>
     <row r="197" spans="1:16" s="1" customFormat="1">
@@ -11079,10 +11079,10 @@
         <v>309</v>
       </c>
       <c r="O201" s="1">
-        <v>0.1135008</v>
+        <v>0.08333295</v>
       </c>
       <c r="P201" s="1">
-        <v>0.01734327</v>
+        <v>0.01296298</v>
       </c>
     </row>
     <row r="202" spans="1:16" s="1" customFormat="1">
@@ -11090,10 +11090,10 @@
         <v>310</v>
       </c>
       <c r="O202" s="1">
-        <v>21.083772</v>
+        <v>21.733553</v>
       </c>
       <c r="P202" s="1">
-        <v>2.749615</v>
+        <v>2.836165</v>
       </c>
     </row>
     <row r="203" spans="1:16" s="1" customFormat="1">
@@ -11101,10 +11101,10 @@
         <v>311</v>
       </c>
       <c r="O203" s="1">
-        <v>18575.879641</v>
+        <v>26080.38357</v>
       </c>
       <c r="P203" s="1">
-        <v>15854.074808</v>
+        <v>21878.958388</v>
       </c>
     </row>
     <row r="204" spans="1:16" s="1" customFormat="1"/>

--- a/dcd_top_offset_step_tsmc2p_meas.xlsx
+++ b/dcd_top_offset_step_tsmc2p_meas.xlsx
@@ -1413,11 +1413,11 @@
       <c r="N2" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="2">
-        <v>35.9237</v>
+      <c r="O2">
+        <v>31.9467</v>
       </c>
       <c r="P2">
-        <v>4.79011</v>
+        <v>4.25985</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1464,10 +1464,10 @@
         <v>29</v>
       </c>
       <c r="O3">
-        <v>34.4259</v>
+        <v>30.3983</v>
       </c>
       <c r="P3">
-        <v>4.59041</v>
+        <v>4.05339</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1514,10 +1514,10 @@
         <v>29</v>
       </c>
       <c r="O4">
-        <v>33.1841</v>
+        <v>28.9498</v>
       </c>
       <c r="P4">
-        <v>4.42483</v>
+        <v>3.86026</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1564,10 +1564,10 @@
         <v>29</v>
       </c>
       <c r="O5">
-        <v>31.6349</v>
+        <v>27.3483</v>
       </c>
       <c r="P5">
-        <v>4.21828</v>
+        <v>3.64672</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1614,10 +1614,10 @@
         <v>29</v>
       </c>
       <c r="O6">
-        <v>30.9123</v>
+        <v>26.5226</v>
       </c>
       <c r="P6">
-        <v>4.12194</v>
+        <v>3.53663</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1664,10 +1664,10 @@
         <v>29</v>
       </c>
       <c r="O7">
-        <v>29.4663</v>
+        <v>24.922</v>
       </c>
       <c r="P7">
-        <v>3.92912</v>
+        <v>3.32323</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1714,10 +1714,10 @@
         <v>29</v>
       </c>
       <c r="O8">
-        <v>28.0722</v>
+        <v>23.4757</v>
       </c>
       <c r="P8">
-        <v>3.74325</v>
+        <v>3.13039</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1764,10 +1764,10 @@
         <v>29</v>
       </c>
       <c r="O9">
-        <v>26.5227</v>
+        <v>21.9266</v>
       </c>
       <c r="P9">
-        <v>3.53666</v>
+        <v>2.92383</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1814,10 +1814,10 @@
         <v>29</v>
       </c>
       <c r="O10">
-        <v>27.3489</v>
+        <v>24.9774</v>
       </c>
       <c r="P10">
-        <v>3.64683</v>
+        <v>3.33061</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1864,10 +1864,10 @@
         <v>29</v>
       </c>
       <c r="O11">
-        <v>25.7481</v>
+        <v>23.4755</v>
       </c>
       <c r="P11">
-        <v>3.43337</v>
+        <v>3.13036</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1914,10 +1914,10 @@
         <v>29</v>
       </c>
       <c r="O12">
-        <v>24.3537</v>
+        <v>21.9819</v>
       </c>
       <c r="P12">
-        <v>3.24746</v>
+        <v>2.93119</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1964,10 +1964,10 @@
         <v>29</v>
       </c>
       <c r="O13">
-        <v>22.8046</v>
+        <v>20.3771</v>
       </c>
       <c r="P13">
-        <v>3.04091</v>
+        <v>2.71725</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -2014,10 +2014,10 @@
         <v>29</v>
       </c>
       <c r="O14">
-        <v>21.9781</v>
+        <v>19.4993</v>
       </c>
       <c r="P14">
-        <v>2.93071</v>
+        <v>2.6002</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -2064,10 +2064,10 @@
         <v>29</v>
       </c>
       <c r="O15">
-        <v>20.4289</v>
+        <v>17.7952</v>
       </c>
       <c r="P15">
-        <v>2.72416</v>
+        <v>2.37299</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -2114,10 +2114,10 @@
         <v>29</v>
       </c>
       <c r="O16">
-        <v>19.0347</v>
+        <v>16.4007</v>
       </c>
       <c r="P16">
-        <v>2.53825</v>
+        <v>2.18705</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -2164,10 +2164,10 @@
         <v>29</v>
       </c>
       <c r="O17">
-        <v>17.4851</v>
+        <v>14.8515</v>
       </c>
       <c r="P17">
-        <v>2.33164</v>
+        <v>1.98049</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -2214,10 +2214,10 @@
         <v>29</v>
       </c>
       <c r="O18">
-        <v>17.3821</v>
+        <v>14.9033</v>
       </c>
       <c r="P18">
-        <v>2.31791</v>
+        <v>1.98739</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -2264,10 +2264,10 @@
         <v>29</v>
       </c>
       <c r="O19">
-        <v>16.1942</v>
+        <v>13.8186</v>
       </c>
       <c r="P19">
-        <v>2.1595</v>
+        <v>1.84277</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -2314,10 +2314,10 @@
         <v>29</v>
       </c>
       <c r="O20">
-        <v>14.9034</v>
+        <v>12.734</v>
       </c>
       <c r="P20">
-        <v>1.9874</v>
+        <v>1.69816</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -2364,10 +2364,10 @@
         <v>29</v>
       </c>
       <c r="O21">
-        <v>13.8706</v>
+        <v>11.6496</v>
       </c>
       <c r="P21">
-        <v>1.8497</v>
+        <v>1.55357</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -2414,10 +2414,10 @@
         <v>29</v>
       </c>
       <c r="O22">
-        <v>12.8375</v>
+        <v>10.5141</v>
       </c>
       <c r="P22">
-        <v>1.71195</v>
+        <v>1.40218</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -2464,10 +2464,10 @@
         <v>29</v>
       </c>
       <c r="O23">
-        <v>11.6497</v>
+        <v>9.273580000000001</v>
       </c>
       <c r="P23">
-        <v>1.55358</v>
+        <v>1.23677</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -2514,10 +2514,10 @@
         <v>29</v>
       </c>
       <c r="O24">
-        <v>10.4626</v>
+        <v>8.034520000000001</v>
       </c>
       <c r="P24">
-        <v>1.39531</v>
+        <v>1.07156</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -2564,10 +2564,10 @@
         <v>29</v>
       </c>
       <c r="O25">
-        <v>9.37725</v>
+        <v>6.84672</v>
       </c>
       <c r="P25">
-        <v>1.25059</v>
+        <v>0.913187</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -2614,10 +2614,10 @@
         <v>29</v>
       </c>
       <c r="O26">
-        <v>8.757910000000001</v>
+        <v>8.75737</v>
       </c>
       <c r="P26">
-        <v>1.16802</v>
+        <v>1.16794</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -2664,10 +2664,10 @@
         <v>29</v>
       </c>
       <c r="O27">
-        <v>7.46619</v>
+        <v>7.48484</v>
       </c>
       <c r="P27">
-        <v>0.9957859999999999</v>
+        <v>0.998265</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -2714,10 +2714,10 @@
         <v>29</v>
       </c>
       <c r="O28">
-        <v>6.32973</v>
+        <v>6.32976</v>
       </c>
       <c r="P28">
-        <v>0.844262</v>
+        <v>0.844268</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -2764,10 +2764,10 @@
         <v>29</v>
       </c>
       <c r="O29">
-        <v>5.03909</v>
+        <v>5.03867</v>
       </c>
       <c r="P29">
-        <v>0.672166</v>
+        <v>0.672113</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2814,10 +2814,10 @@
         <v>29</v>
       </c>
       <c r="O30">
-        <v>3.85124</v>
+        <v>3.90274</v>
       </c>
       <c r="P30">
-        <v>0.5137930000000001</v>
+        <v>0.520652</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2864,10 +2864,10 @@
         <v>29</v>
       </c>
       <c r="O31">
-        <v>2.56345</v>
+        <v>2.61099</v>
       </c>
       <c r="P31">
-        <v>0.342069</v>
+        <v>0.348424</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -2914,10 +2914,10 @@
         <v>29</v>
       </c>
       <c r="O32">
-        <v>1.32034</v>
+        <v>1.32046</v>
       </c>
       <c r="P32">
-        <v>0.176337</v>
+        <v>0.176353</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2964,10 +2964,10 @@
         <v>29</v>
       </c>
       <c r="O33">
-        <v>0.0290142</v>
+        <v>-0.0229095</v>
       </c>
       <c r="P33">
-        <v>0.00415423</v>
+        <v>-0.00276881</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -3014,10 +3014,10 @@
         <v>29</v>
       </c>
       <c r="O34">
-        <v>-0.0215803</v>
+        <v>-0.0228353</v>
       </c>
       <c r="P34">
-        <v>-0.00260693</v>
+        <v>-0.00275643</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -3064,10 +3064,10 @@
         <v>29</v>
       </c>
       <c r="O35">
-        <v>-1.15894</v>
+        <v>-1.15854</v>
       </c>
       <c r="P35">
-        <v>-0.154238</v>
+        <v>-0.154184</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -3114,10 +3114,10 @@
         <v>29</v>
       </c>
       <c r="O36">
-        <v>-2.50003</v>
+        <v>-2.44936</v>
       </c>
       <c r="P36">
-        <v>-0.333035</v>
+        <v>-0.326303</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -3164,10 +3164,10 @@
         <v>29</v>
       </c>
       <c r="O37">
-        <v>-3.63684</v>
+        <v>-3.68826</v>
       </c>
       <c r="P37">
-        <v>-0.484624</v>
+        <v>-0.49147</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -3214,10 +3214,10 @@
         <v>29</v>
       </c>
       <c r="O38">
-        <v>-4.92698</v>
+        <v>-4.87588</v>
       </c>
       <c r="P38">
-        <v>-0.6566380000000001</v>
+        <v>-0.649813</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -3264,10 +3264,10 @@
         <v>29</v>
       </c>
       <c r="O39">
-        <v>-6.21802</v>
+        <v>-6.26986</v>
       </c>
       <c r="P39">
-        <v>-0.82878</v>
+        <v>-0.835682</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -3314,10 +3314,10 @@
         <v>29</v>
       </c>
       <c r="O40">
-        <v>-7.56097</v>
+        <v>-7.45732</v>
       </c>
       <c r="P40">
-        <v>-1.00782</v>
+        <v>-0.9940059999999999</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -3364,10 +3364,10 @@
         <v>29</v>
       </c>
       <c r="O41">
-        <v>-8.645210000000001</v>
+        <v>-8.696899999999999</v>
       </c>
       <c r="P41">
-        <v>-1.15241</v>
+        <v>-1.15929</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -3414,10 +3414,10 @@
         <v>29</v>
       </c>
       <c r="O42">
-        <v>-9.16173</v>
+        <v>-6.7861</v>
       </c>
       <c r="P42">
-        <v>-1.22127</v>
+        <v>-0.904524</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -3464,10 +3464,10 @@
         <v>29</v>
       </c>
       <c r="O43">
-        <v>-10.452</v>
+        <v>-8.025679999999999</v>
       </c>
       <c r="P43">
-        <v>-1.39331</v>
+        <v>-1.0698</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -3514,10 +3514,10 @@
         <v>29</v>
       </c>
       <c r="O44">
-        <v>-11.6916</v>
+        <v>-9.213240000000001</v>
       </c>
       <c r="P44">
-        <v>-1.55858</v>
+        <v>-1.22814</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -3564,10 +3564,10 @@
         <v>29</v>
       </c>
       <c r="O45">
-        <v>-12.7766</v>
+        <v>-10.4523</v>
       </c>
       <c r="P45">
-        <v>-1.70325</v>
+        <v>-1.39334</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -3614,10 +3614,10 @@
         <v>29</v>
       </c>
       <c r="O46">
-        <v>-13.7582</v>
+        <v>-11.5885</v>
       </c>
       <c r="P46">
-        <v>-1.83414</v>
+        <v>-1.54483</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -3664,10 +3664,10 @@
         <v>29</v>
       </c>
       <c r="O47">
-        <v>-14.7912</v>
+        <v>-12.725</v>
       </c>
       <c r="P47">
-        <v>-1.97187</v>
+        <v>-1.69637</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -3714,10 +3714,10 @@
         <v>29</v>
       </c>
       <c r="O48">
-        <v>-15.8752</v>
+        <v>-13.7577</v>
       </c>
       <c r="P48">
-        <v>-2.1164</v>
+        <v>-1.83406</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -3764,10 +3764,10 @@
         <v>29</v>
       </c>
       <c r="O49">
-        <v>-17.0108</v>
+        <v>-14.7911</v>
       </c>
       <c r="P49">
-        <v>-2.26781</v>
+        <v>-1.97188</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -3814,10 +3814,10 @@
         <v>29</v>
       </c>
       <c r="O50">
-        <v>-16.9597</v>
+        <v>-14.7395</v>
       </c>
       <c r="P50">
-        <v>-2.261</v>
+        <v>-1.96497</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -3864,10 +3864,10 @@
         <v>29</v>
       </c>
       <c r="O51">
-        <v>-18.4571</v>
+        <v>-16.2883</v>
       </c>
       <c r="P51">
-        <v>-2.46065</v>
+        <v>-2.17149</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -3914,10 +3914,10 @@
         <v>29</v>
       </c>
       <c r="O52">
-        <v>-19.9547</v>
+        <v>-17.5275</v>
       </c>
       <c r="P52">
-        <v>-2.66033</v>
+        <v>-2.33671</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -3964,10 +3964,10 @@
         <v>29</v>
       </c>
       <c r="O53">
-        <v>-21.5557</v>
+        <v>-19.2319</v>
       </c>
       <c r="P53">
-        <v>-2.87379</v>
+        <v>-2.56395</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -4014,10 +4014,10 @@
         <v>29</v>
       </c>
       <c r="O54">
-        <v>-22.4333</v>
+        <v>-20.0058</v>
       </c>
       <c r="P54">
-        <v>-2.99081</v>
+        <v>-2.66713</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -4064,10 +4064,10 @@
         <v>29</v>
       </c>
       <c r="O55">
-        <v>-24.0332</v>
+        <v>-21.6589</v>
       </c>
       <c r="P55">
-        <v>-3.20413</v>
+        <v>-2.88756</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -4114,10 +4114,10 @@
         <v>29</v>
       </c>
       <c r="O56">
-        <v>-25.3765</v>
+        <v>-23.1045</v>
       </c>
       <c r="P56">
-        <v>-3.38324</v>
+        <v>-3.08031</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -4164,10 +4164,10 @@
         <v>29</v>
       </c>
       <c r="O57">
-        <v>-26.9772</v>
+        <v>-24.8045</v>
       </c>
       <c r="P57">
-        <v>-3.59666</v>
+        <v>-3.30697</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -4214,10 +4214,10 @@
         <v>29</v>
       </c>
       <c r="O58">
-        <v>-26.1504</v>
+        <v>-21.5548</v>
       </c>
       <c r="P58">
-        <v>-3.47967</v>
+        <v>-2.87367</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -4264,10 +4264,10 @@
         <v>29</v>
       </c>
       <c r="O59">
-        <v>-27.6485</v>
+        <v>-23.2077</v>
       </c>
       <c r="P59">
-        <v>-3.68617</v>
+        <v>-3.09407</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -4314,10 +4314,10 @@
         <v>29</v>
       </c>
       <c r="O60">
-        <v>-29.1463</v>
+        <v>-24.7057</v>
       </c>
       <c r="P60">
-        <v>-3.88589</v>
+        <v>-3.2938</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -4364,10 +4364,10 @@
         <v>29</v>
       </c>
       <c r="O61">
-        <v>-30.7471</v>
+        <v>-26.2547</v>
       </c>
       <c r="P61">
-        <v>-4.09933</v>
+        <v>-3.50034</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -4414,10 +4414,10 @@
         <v>29</v>
       </c>
       <c r="O62">
-        <v>-31.5218</v>
+        <v>-27.081</v>
       </c>
       <c r="P62">
-        <v>-4.20261</v>
+        <v>-3.61052</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -4464,10 +4464,10 @@
         <v>29</v>
       </c>
       <c r="O63">
-        <v>-33.0708</v>
+        <v>-28.7336</v>
       </c>
       <c r="P63">
-        <v>-4.40915</v>
+        <v>-3.83086</v>
       </c>
     </row>
     <row r="64" spans="1:16">
@@ -4514,10 +4514,10 @@
         <v>29</v>
       </c>
       <c r="O64">
-        <v>-34.5165</v>
+        <v>-30.1273</v>
       </c>
       <c r="P64">
-        <v>-4.60191</v>
+        <v>-4.01668</v>
       </c>
     </row>
     <row r="65" spans="1:16">
@@ -4563,11 +4563,11 @@
       <c r="N65" t="s">
         <v>29</v>
       </c>
-      <c r="O65" s="3">
-        <v>-35.9624</v>
+      <c r="O65">
+        <v>-31.78</v>
       </c>
       <c r="P65">
-        <v>-4.7947</v>
+        <v>-4.23705</v>
       </c>
     </row>
     <row r="66" spans="1:16">
@@ -4614,10 +4614,10 @@
         <v>165</v>
       </c>
       <c r="O66" s="2">
-        <v>45.9598</v>
+        <v>41.2023</v>
       </c>
       <c r="P66">
-        <v>5.57106</v>
+        <v>4.99441</v>
       </c>
     </row>
     <row r="67" spans="1:16">
@@ -4664,10 +4664,10 @@
         <v>165</v>
       </c>
       <c r="O67" s="2">
-        <v>43.9568</v>
+        <v>39.3029</v>
       </c>
       <c r="P67">
-        <v>5.32828</v>
+        <v>4.7759</v>
       </c>
     </row>
     <row r="68" spans="1:16">
@@ -4714,10 +4714,10 @@
         <v>165</v>
       </c>
       <c r="O68" s="2">
-        <v>41.9017</v>
+        <v>37.1435</v>
       </c>
       <c r="P68">
-        <v>5.07917</v>
+        <v>4.50242</v>
       </c>
     </row>
     <row r="69" spans="1:16">
@@ -4764,10 +4764,10 @@
         <v>165</v>
       </c>
       <c r="O69" s="2">
-        <v>40.22</v>
+        <v>35.341</v>
       </c>
       <c r="P69">
-        <v>4.87536</v>
+        <v>4.28395</v>
       </c>
     </row>
     <row r="70" spans="1:16">
@@ -4813,11 +4813,11 @@
       <c r="N70" t="s">
         <v>165</v>
       </c>
-      <c r="O70" s="2">
-        <v>39.2976</v>
+      <c r="O70">
+        <v>34.3901</v>
       </c>
       <c r="P70">
-        <v>4.76353</v>
+        <v>4.16869</v>
       </c>
     </row>
     <row r="71" spans="1:16">
@@ -4863,11 +4863,11 @@
       <c r="N71" t="s">
         <v>165</v>
       </c>
-      <c r="O71" s="2">
-        <v>37.544</v>
+      <c r="O71">
+        <v>32.4876</v>
       </c>
       <c r="P71">
-        <v>4.55098</v>
+        <v>3.93808</v>
       </c>
     </row>
     <row r="72" spans="1:16">
@@ -4913,11 +4913,11 @@
       <c r="N72" t="s">
         <v>165</v>
       </c>
-      <c r="O72" s="2">
-        <v>35.992</v>
+      <c r="O72">
+        <v>30.8354</v>
       </c>
       <c r="P72">
-        <v>4.36286</v>
+        <v>3.73781</v>
       </c>
     </row>
     <row r="73" spans="1:16">
@@ -4964,10 +4964,10 @@
         <v>165</v>
       </c>
       <c r="O73">
-        <v>34.1397</v>
+        <v>28.8829</v>
       </c>
       <c r="P73">
-        <v>4.13834</v>
+        <v>3.50114</v>
       </c>
     </row>
     <row r="74" spans="1:16">
@@ -5013,11 +5013,11 @@
       <c r="N74" t="s">
         <v>165</v>
       </c>
-      <c r="O74" s="2">
-        <v>35.4416</v>
+      <c r="O74">
+        <v>32.6379</v>
       </c>
       <c r="P74">
-        <v>4.29614</v>
+        <v>3.9563</v>
       </c>
     </row>
     <row r="75" spans="1:16">
@@ -5064,10 +5064,10 @@
         <v>165</v>
       </c>
       <c r="O75">
-        <v>33.5891</v>
+        <v>30.7354</v>
       </c>
       <c r="P75">
-        <v>4.07159</v>
+        <v>3.7257</v>
       </c>
     </row>
     <row r="76" spans="1:16">
@@ -5114,10 +5114,10 @@
         <v>165</v>
       </c>
       <c r="O76">
-        <v>31.9368</v>
+        <v>29.0053</v>
       </c>
       <c r="P76">
-        <v>3.87133</v>
+        <v>3.51597</v>
       </c>
     </row>
     <row r="77" spans="1:16">
@@ -5164,10 +5164,10 @@
         <v>165</v>
       </c>
       <c r="O77">
-        <v>29.989</v>
+        <v>27.0806</v>
       </c>
       <c r="P77">
-        <v>3.63521</v>
+        <v>3.28269</v>
       </c>
     </row>
     <row r="78" spans="1:16">
@@ -5214,10 +5214,10 @@
         <v>165</v>
       </c>
       <c r="O78">
-        <v>28.9886</v>
+        <v>25.9794</v>
       </c>
       <c r="P78">
-        <v>3.51935</v>
+        <v>3.14921</v>
       </c>
     </row>
     <row r="79" spans="1:16">
@@ -5264,10 +5264,10 @@
         <v>165</v>
       </c>
       <c r="O79">
-        <v>27.031</v>
+        <v>23.9812</v>
       </c>
       <c r="P79">
-        <v>3.27668</v>
+        <v>2.90698</v>
       </c>
     </row>
     <row r="80" spans="1:16">
@@ -5314,10 +5314,10 @@
         <v>165</v>
       </c>
       <c r="O80">
-        <v>25.2285</v>
+        <v>22.1739</v>
       </c>
       <c r="P80">
-        <v>3.05819</v>
+        <v>2.68793</v>
       </c>
     </row>
     <row r="81" spans="1:16">
@@ -5364,10 +5364,10 @@
         <v>165</v>
       </c>
       <c r="O81">
-        <v>23.3256</v>
+        <v>20.121</v>
       </c>
       <c r="P81">
-        <v>2.82754</v>
+        <v>2.4391</v>
       </c>
     </row>
     <row r="82" spans="1:16">
@@ -5414,10 +5414,10 @@
         <v>165</v>
       </c>
       <c r="O82">
-        <v>23.3256</v>
+        <v>20.121</v>
       </c>
       <c r="P82">
-        <v>2.82754</v>
+        <v>2.4391</v>
       </c>
     </row>
     <row r="83" spans="1:16">
@@ -5464,10 +5464,10 @@
         <v>165</v>
       </c>
       <c r="O83">
-        <v>21.5759</v>
+        <v>18.4684</v>
       </c>
       <c r="P83">
-        <v>2.61544</v>
+        <v>2.23878</v>
       </c>
     </row>
     <row r="84" spans="1:16">
@@ -5514,10 +5514,10 @@
         <v>165</v>
       </c>
       <c r="O84">
-        <v>20.0206</v>
+        <v>16.8161</v>
       </c>
       <c r="P84">
-        <v>2.42691</v>
+        <v>2.03849</v>
       </c>
     </row>
     <row r="85" spans="1:16">
@@ -5564,10 +5564,10 @@
         <v>165</v>
       </c>
       <c r="O85">
-        <v>18.3683</v>
+        <v>15.0638</v>
       </c>
       <c r="P85">
-        <v>2.22665</v>
+        <v>1.8261</v>
       </c>
     </row>
     <row r="86" spans="1:16">
@@ -5614,10 +5614,10 @@
         <v>165</v>
       </c>
       <c r="O86">
-        <v>16.7662</v>
+        <v>13.5113</v>
       </c>
       <c r="P86">
-        <v>2.03245</v>
+        <v>1.63792</v>
       </c>
     </row>
     <row r="87" spans="1:16">
@@ -5664,10 +5664,10 @@
         <v>165</v>
       </c>
       <c r="O87">
-        <v>15.1136</v>
+        <v>11.709</v>
       </c>
       <c r="P87">
-        <v>1.83214</v>
+        <v>1.41946</v>
       </c>
     </row>
     <row r="88" spans="1:16">
@@ -5714,10 +5714,10 @@
         <v>165</v>
       </c>
       <c r="O88">
-        <v>13.4611</v>
+        <v>9.9564</v>
       </c>
       <c r="P88">
-        <v>1.63184</v>
+        <v>1.20702</v>
       </c>
     </row>
     <row r="89" spans="1:16">
@@ -5764,10 +5764,10 @@
         <v>165</v>
       </c>
       <c r="O89">
-        <v>11.6588</v>
+        <v>8.25366</v>
       </c>
       <c r="P89">
-        <v>1.41337</v>
+        <v>1.00063</v>
       </c>
     </row>
     <row r="90" spans="1:16">
@@ -5814,10 +5814,10 @@
         <v>165</v>
       </c>
       <c r="O90">
-        <v>10.7613</v>
+        <v>10.8573</v>
       </c>
       <c r="P90">
-        <v>1.30457</v>
+        <v>1.31623</v>
       </c>
     </row>
     <row r="91" spans="1:16">
@@ -5864,10 +5864,10 @@
         <v>165</v>
       </c>
       <c r="O91">
-        <v>9.055059999999999</v>
+        <v>9.104990000000001</v>
       </c>
       <c r="P91">
-        <v>1.09777</v>
+        <v>1.10382</v>
       </c>
     </row>
     <row r="92" spans="1:16">
@@ -5914,10 +5914,10 @@
         <v>165</v>
       </c>
       <c r="O92">
-        <v>7.5027</v>
+        <v>7.4527</v>
       </c>
       <c r="P92">
-        <v>0.9096109999999999</v>
+        <v>0.903544</v>
       </c>
     </row>
     <row r="93" spans="1:16">
@@ -5964,10 +5964,10 @@
         <v>165</v>
       </c>
       <c r="O93">
-        <v>6.05059</v>
+        <v>6.00049</v>
       </c>
       <c r="P93">
-        <v>0.733592</v>
+        <v>0.727518</v>
       </c>
     </row>
     <row r="94" spans="1:16">
@@ -6014,10 +6014,10 @@
         <v>165</v>
       </c>
       <c r="O94">
-        <v>4.59939</v>
+        <v>4.5518</v>
       </c>
       <c r="P94">
-        <v>0.557698</v>
+        <v>0.551915</v>
       </c>
     </row>
     <row r="95" spans="1:16">
@@ -6064,10 +6064,10 @@
         <v>165</v>
       </c>
       <c r="O95">
-        <v>3.04829</v>
+        <v>3.04867</v>
       </c>
       <c r="P95">
-        <v>0.369679</v>
+        <v>0.369717</v>
       </c>
     </row>
     <row r="96" spans="1:16">
@@ -6114,10 +6114,10 @@
         <v>165</v>
       </c>
       <c r="O96">
-        <v>1.56357</v>
+        <v>1.44916</v>
       </c>
       <c r="P96">
-        <v>0.189704</v>
+        <v>0.175843</v>
       </c>
     </row>
     <row r="97" spans="1:16">
@@ -6164,10 +6164,10 @@
         <v>165</v>
       </c>
       <c r="O97">
-        <v>-0.00491502</v>
+        <v>-0.0050809</v>
       </c>
       <c r="P97">
-        <v>-0.00040623</v>
+        <v>-0.000419908</v>
       </c>
     </row>
     <row r="98" spans="1:16">
@@ -6214,10 +6214,10 @@
         <v>165</v>
       </c>
       <c r="O98">
-        <v>-0.00498956</v>
+        <v>0.044927</v>
       </c>
       <c r="P98">
-        <v>-0.000410075</v>
+        <v>0.00563374</v>
       </c>
     </row>
     <row r="99" spans="1:16">
@@ -6264,10 +6264,10 @@
         <v>165</v>
       </c>
       <c r="O99">
-        <v>-1.55564</v>
+        <v>-1.55639</v>
       </c>
       <c r="P99">
-        <v>-0.188379</v>
+        <v>-0.188465</v>
       </c>
     </row>
     <row r="100" spans="1:16">
@@ -6314,10 +6314,10 @@
         <v>165</v>
       </c>
       <c r="O100">
-        <v>-3.05806</v>
+        <v>-3.05811</v>
       </c>
       <c r="P100">
-        <v>-0.370485</v>
+        <v>-0.370495</v>
       </c>
     </row>
     <row r="101" spans="1:16">
@@ -6364,10 +6364,10 @@
         <v>165</v>
       </c>
       <c r="O101">
-        <v>-4.55699</v>
+        <v>-4.60946</v>
       </c>
       <c r="P101">
-        <v>-0.552187</v>
+        <v>-0.552528</v>
       </c>
     </row>
     <row r="102" spans="1:16">
@@ -6414,10 +6414,10 @@
         <v>165</v>
       </c>
       <c r="O102">
-        <v>-5.91141</v>
+        <v>-5.96115</v>
       </c>
       <c r="P102">
-        <v>-0.716351</v>
+        <v>-0.722379</v>
       </c>
     </row>
     <row r="103" spans="1:16">
@@ -6464,10 +6464,10 @@
         <v>165</v>
       </c>
       <c r="O103">
-        <v>-7.56268</v>
+        <v>-7.5626</v>
       </c>
       <c r="P103">
-        <v>-0.916502</v>
+        <v>-0.91649</v>
       </c>
     </row>
     <row r="104" spans="1:16">
@@ -6514,7 +6514,7 @@
         <v>165</v>
       </c>
       <c r="O104">
-        <v>-9.114319999999999</v>
+        <v>-9.11426</v>
       </c>
       <c r="P104">
         <v>-1.10457</v>
@@ -6564,10 +6564,10 @@
         <v>165</v>
       </c>
       <c r="O105">
-        <v>-10.8166</v>
+        <v>-10.9163</v>
       </c>
       <c r="P105">
-        <v>-1.31092</v>
+        <v>-1.323</v>
       </c>
     </row>
     <row r="106" spans="1:16">
@@ -6614,10 +6614,10 @@
         <v>165</v>
       </c>
       <c r="O106">
-        <v>-11.6662</v>
+        <v>-8.413629999999999</v>
       </c>
       <c r="P106">
-        <v>-1.4139</v>
+        <v>-1.01964</v>
       </c>
     </row>
     <row r="107" spans="1:16">
@@ -6664,10 +6664,10 @@
         <v>165</v>
       </c>
       <c r="O107">
-        <v>-13.3691</v>
+        <v>-10.0151</v>
       </c>
       <c r="P107">
-        <v>-1.62032</v>
+        <v>-1.21377</v>
       </c>
     </row>
     <row r="108" spans="1:16">
@@ -6714,10 +6714,10 @@
         <v>165</v>
       </c>
       <c r="O108">
-        <v>-15.1208</v>
+        <v>-11.667</v>
       </c>
       <c r="P108">
-        <v>-1.83263</v>
+        <v>-1.41399</v>
       </c>
     </row>
     <row r="109" spans="1:16">
@@ -6764,10 +6764,10 @@
         <v>165</v>
       </c>
       <c r="O109">
-        <v>-16.8225</v>
+        <v>-13.4689</v>
       </c>
       <c r="P109">
-        <v>-2.0389</v>
+        <v>-1.63241</v>
       </c>
     </row>
     <row r="110" spans="1:16">
@@ -6814,10 +6814,10 @@
         <v>165</v>
       </c>
       <c r="O110">
-        <v>-18.3746</v>
+        <v>-15.1208</v>
       </c>
       <c r="P110">
-        <v>-2.22703</v>
+        <v>-1.83263</v>
       </c>
     </row>
     <row r="111" spans="1:16">
@@ -6864,10 +6864,10 @@
         <v>165</v>
       </c>
       <c r="O111">
-        <v>-20.0248</v>
+        <v>-16.8721</v>
       </c>
       <c r="P111">
-        <v>-2.42705</v>
+        <v>-2.04491</v>
       </c>
     </row>
     <row r="112" spans="1:16">
@@ -6914,10 +6914,10 @@
         <v>165</v>
       </c>
       <c r="O112">
-        <v>-21.6277</v>
+        <v>-18.4743</v>
       </c>
       <c r="P112">
-        <v>-2.62134</v>
+        <v>-2.23913</v>
       </c>
     </row>
     <row r="113" spans="1:16">
@@ -6964,10 +6964,10 @@
         <v>165</v>
       </c>
       <c r="O113">
-        <v>-23.2794</v>
+        <v>-20.176</v>
       </c>
       <c r="P113">
-        <v>-2.82156</v>
+        <v>-2.44539</v>
       </c>
     </row>
     <row r="114" spans="1:16">
@@ -7014,10 +7014,10 @@
         <v>165</v>
       </c>
       <c r="O114">
-        <v>-23.2794</v>
+        <v>-20.1762</v>
       </c>
       <c r="P114">
-        <v>-2.82157</v>
+        <v>-2.44541</v>
       </c>
     </row>
     <row r="115" spans="1:16">
@@ -7064,10 +7064,10 @@
         <v>165</v>
       </c>
       <c r="O115">
-        <v>-25.3802</v>
+        <v>-22.2284</v>
       </c>
       <c r="P115">
-        <v>-3.07621</v>
+        <v>-2.69417</v>
       </c>
     </row>
     <row r="116" spans="1:16">
@@ -7114,10 +7114,10 @@
         <v>165</v>
       </c>
       <c r="O116">
-        <v>-27.1822</v>
+        <v>-24.131</v>
       </c>
       <c r="P116">
-        <v>-3.29463</v>
+        <v>-2.92477</v>
       </c>
     </row>
     <row r="117" spans="1:16">
@@ -7164,10 +7164,10 @@
         <v>165</v>
       </c>
       <c r="O117">
-        <v>-29.1343</v>
+        <v>-26.0776</v>
       </c>
       <c r="P117">
-        <v>-3.53123</v>
+        <v>-3.16074</v>
       </c>
     </row>
     <row r="118" spans="1:16">
@@ -7214,10 +7214,10 @@
         <v>165</v>
       </c>
       <c r="O118">
-        <v>-30.135</v>
+        <v>-27.1824</v>
       </c>
       <c r="P118">
-        <v>-3.65254</v>
+        <v>-3.29463</v>
       </c>
     </row>
     <row r="119" spans="1:16">
@@ -7264,10 +7264,10 @@
         <v>165</v>
       </c>
       <c r="O119">
-        <v>-32.0859</v>
+        <v>-29.0343</v>
       </c>
       <c r="P119">
-        <v>-3.88902</v>
+        <v>-3.51913</v>
       </c>
     </row>
     <row r="120" spans="1:16">
@@ -7314,10 +7314,10 @@
         <v>165</v>
       </c>
       <c r="O120">
-        <v>-33.7373</v>
+        <v>-30.9354</v>
       </c>
       <c r="P120">
-        <v>-4.08919</v>
+        <v>-3.74955</v>
       </c>
     </row>
     <row r="121" spans="1:16">
@@ -7363,11 +7363,11 @@
       <c r="N121" t="s">
         <v>165</v>
       </c>
-      <c r="O121" s="3">
-        <v>-35.738</v>
+      <c r="O121">
+        <v>-32.9366</v>
       </c>
       <c r="P121">
-        <v>-4.33169</v>
+        <v>-3.99212</v>
       </c>
     </row>
     <row r="122" spans="1:16">
@@ -7414,10 +7414,10 @@
         <v>165</v>
       </c>
       <c r="O122">
-        <v>-34.3375</v>
+        <v>-28.9841</v>
       </c>
       <c r="P122">
-        <v>-4.16193</v>
+        <v>-3.51304</v>
       </c>
     </row>
     <row r="123" spans="1:16">
@@ -7463,11 +7463,11 @@
       <c r="N123" t="s">
         <v>165</v>
       </c>
-      <c r="O123" s="3">
-        <v>-36.2884</v>
+      <c r="O123">
+        <v>-30.9854</v>
       </c>
       <c r="P123">
-        <v>-4.39841</v>
+        <v>-3.75562</v>
       </c>
     </row>
     <row r="124" spans="1:16">
@@ -7513,11 +7513,11 @@
       <c r="N124" t="s">
         <v>165</v>
       </c>
-      <c r="O124" s="3">
-        <v>-37.9393</v>
+      <c r="O124">
+        <v>-32.7365</v>
       </c>
       <c r="P124">
-        <v>-4.59851</v>
+        <v>-3.96786</v>
       </c>
     </row>
     <row r="125" spans="1:16">
@@ -7563,11 +7563,11 @@
       <c r="N125" t="s">
         <v>165</v>
       </c>
-      <c r="O125" s="3">
-        <v>-39.8405</v>
+      <c r="O125">
+        <v>-34.7379</v>
       </c>
       <c r="P125">
-        <v>-4.82896</v>
+        <v>-4.21047</v>
       </c>
     </row>
     <row r="126" spans="1:16">
@@ -7614,10 +7614,10 @@
         <v>165</v>
       </c>
       <c r="O126" s="3">
-        <v>-40.6914</v>
+        <v>-35.7385</v>
       </c>
       <c r="P126">
-        <v>-4.93211</v>
+        <v>-4.33175</v>
       </c>
     </row>
     <row r="127" spans="1:16">
@@ -7664,10 +7664,10 @@
         <v>165</v>
       </c>
       <c r="O127" s="3">
-        <v>-42.543</v>
+        <v>-37.5892</v>
       </c>
       <c r="P127">
-        <v>-5.15655</v>
+        <v>-4.55609</v>
       </c>
     </row>
     <row r="128" spans="1:16">
@@ -7714,10 +7714,10 @@
         <v>165</v>
       </c>
       <c r="O128" s="3">
-        <v>-44.1439</v>
+        <v>-39.2407</v>
       </c>
       <c r="P128">
-        <v>-5.35059</v>
+        <v>-4.75626</v>
       </c>
     </row>
     <row r="129" spans="1:16">
@@ -7764,10 +7764,10 @@
         <v>165</v>
       </c>
       <c r="O129" s="3">
-        <v>-46.1953</v>
+        <v>-41.1921</v>
       </c>
       <c r="P129">
-        <v>-5.59924</v>
+        <v>-4.9928</v>
       </c>
     </row>
     <row r="130" spans="1:16">
@@ -7814,10 +7814,10 @@
         <v>239</v>
       </c>
       <c r="O130">
-        <v>27.0805</v>
+        <v>24.2901</v>
       </c>
       <c r="P130">
-        <v>4.01255</v>
+        <v>3.59914</v>
       </c>
     </row>
     <row r="131" spans="1:16">
@@ -7864,10 +7864,10 @@
         <v>239</v>
       </c>
       <c r="O131">
-        <v>26.047</v>
+        <v>23.257</v>
       </c>
       <c r="P131">
-        <v>3.85942</v>
+        <v>3.44612</v>
       </c>
     </row>
     <row r="132" spans="1:16">
@@ -7914,10 +7914,10 @@
         <v>239</v>
       </c>
       <c r="O132">
-        <v>25.7338</v>
+        <v>22.4265</v>
       </c>
       <c r="P132">
-        <v>3.81303</v>
+        <v>3.32306</v>
       </c>
     </row>
     <row r="133" spans="1:16">
@@ -7964,10 +7964,10 @@
         <v>239</v>
       </c>
       <c r="O133">
-        <v>24.6479</v>
+        <v>21.3489</v>
       </c>
       <c r="P133">
-        <v>3.65218</v>
+        <v>3.16336</v>
       </c>
     </row>
     <row r="134" spans="1:16">
@@ -8014,10 +8014,10 @@
         <v>239</v>
       </c>
       <c r="O134">
-        <v>24.2347</v>
+        <v>20.8821</v>
       </c>
       <c r="P134">
-        <v>3.59092</v>
+        <v>3.09422</v>
       </c>
     </row>
     <row r="135" spans="1:16">
@@ -8064,10 +8064,10 @@
         <v>239</v>
       </c>
       <c r="O135">
-        <v>23.15</v>
+        <v>19.8427</v>
       </c>
       <c r="P135">
-        <v>3.43027</v>
+        <v>2.94027</v>
       </c>
     </row>
     <row r="136" spans="1:16">
@@ -8114,10 +8114,10 @@
         <v>239</v>
       </c>
       <c r="O136">
-        <v>22.2725</v>
+        <v>18.9643</v>
       </c>
       <c r="P136">
-        <v>3.30028</v>
+        <v>2.81013</v>
       </c>
     </row>
     <row r="137" spans="1:16">
@@ -8164,10 +8164,10 @@
         <v>239</v>
       </c>
       <c r="O137">
-        <v>21.4451</v>
+        <v>17.9839</v>
       </c>
       <c r="P137">
-        <v>3.1777</v>
+        <v>2.6649</v>
       </c>
     </row>
     <row r="138" spans="1:16">
@@ -8214,10 +8214,10 @@
         <v>239</v>
       </c>
       <c r="O138">
-        <v>22.0134</v>
+        <v>19.8946</v>
       </c>
       <c r="P138">
-        <v>3.26187</v>
+        <v>2.94799</v>
       </c>
     </row>
     <row r="139" spans="1:16">
@@ -8264,10 +8264,10 @@
         <v>239</v>
       </c>
       <c r="O139">
-        <v>20.9289</v>
+        <v>18.9713</v>
       </c>
       <c r="P139">
-        <v>3.10121</v>
+        <v>2.81112</v>
       </c>
     </row>
     <row r="140" spans="1:16">
@@ -8314,10 +8314,10 @@
         <v>239</v>
       </c>
       <c r="O140">
-        <v>20.0497</v>
+        <v>18.0344</v>
       </c>
       <c r="P140">
-        <v>2.97101</v>
+        <v>2.67238</v>
       </c>
     </row>
     <row r="141" spans="1:16">
@@ -8364,10 +8364,10 @@
         <v>239</v>
       </c>
       <c r="O141">
-        <v>19.0168</v>
+        <v>17.0525</v>
       </c>
       <c r="P141">
-        <v>2.81793</v>
+        <v>2.52693</v>
       </c>
     </row>
     <row r="142" spans="1:16">
@@ -8414,10 +8414,10 @@
         <v>239</v>
       </c>
       <c r="O142">
-        <v>18.603</v>
+        <v>16.5363</v>
       </c>
       <c r="P142">
-        <v>2.75667</v>
+        <v>2.45044</v>
       </c>
     </row>
     <row r="143" spans="1:16">
@@ -8464,10 +8464,10 @@
         <v>239</v>
       </c>
       <c r="O143">
-        <v>17.622</v>
+        <v>15.4513</v>
       </c>
       <c r="P143">
-        <v>2.61129</v>
+        <v>2.28967</v>
       </c>
     </row>
     <row r="144" spans="1:16">
@@ -8514,10 +8514,10 @@
         <v>239</v>
       </c>
       <c r="O144">
-        <v>16.6921</v>
+        <v>14.478</v>
       </c>
       <c r="P144">
-        <v>2.47359</v>
+        <v>2.14549</v>
       </c>
     </row>
     <row r="145" spans="1:16">
@@ -8564,10 +8564,10 @@
         <v>239</v>
       </c>
       <c r="O145">
-        <v>15.7104</v>
+        <v>13.5403</v>
       </c>
       <c r="P145">
-        <v>2.32811</v>
+        <v>2.0066</v>
       </c>
     </row>
     <row r="146" spans="1:16">
@@ -8614,10 +8614,10 @@
         <v>239</v>
       </c>
       <c r="O146">
-        <v>15.6637</v>
+        <v>13.4886</v>
       </c>
       <c r="P146">
-        <v>2.32115</v>
+        <v>1.99897</v>
       </c>
     </row>
     <row r="147" spans="1:16">
@@ -8664,10 +8664,10 @@
         <v>239</v>
       </c>
       <c r="O147">
-        <v>14.6884</v>
+        <v>12.4029</v>
       </c>
       <c r="P147">
-        <v>2.17669</v>
+        <v>1.84568</v>
       </c>
     </row>
     <row r="148" spans="1:16">
@@ -8714,10 +8714,10 @@
         <v>239</v>
       </c>
       <c r="O148">
-        <v>13.7061</v>
+        <v>11.3689</v>
       </c>
       <c r="P148">
-        <v>2.03115</v>
+        <v>1.68488</v>
       </c>
     </row>
     <row r="149" spans="1:16">
@@ -8764,10 +8764,10 @@
         <v>239</v>
       </c>
       <c r="O149">
-        <v>12.6616</v>
+        <v>10.2838</v>
       </c>
       <c r="P149">
-        <v>1.87642</v>
+        <v>1.52414</v>
       </c>
     </row>
     <row r="150" spans="1:16">
@@ -8814,10 +8814,10 @@
         <v>239</v>
       </c>
       <c r="O150">
-        <v>11.7831</v>
+        <v>9.30132</v>
       </c>
       <c r="P150">
-        <v>1.7463</v>
+        <v>1.37859</v>
       </c>
     </row>
     <row r="151" spans="1:16">
@@ -8864,10 +8864,10 @@
         <v>239</v>
       </c>
       <c r="O151">
-        <v>10.6457</v>
+        <v>8.060890000000001</v>
       </c>
       <c r="P151">
-        <v>1.57756</v>
+        <v>1.19482</v>
       </c>
     </row>
     <row r="152" spans="1:16">
@@ -8914,10 +8914,10 @@
         <v>239</v>
       </c>
       <c r="O152">
-        <v>9.611420000000001</v>
+        <v>6.82105</v>
       </c>
       <c r="P152">
-        <v>1.42454</v>
+        <v>1.01117</v>
       </c>
     </row>
     <row r="153" spans="1:16">
@@ -8964,10 +8964,10 @@
         <v>239</v>
       </c>
       <c r="O153">
-        <v>8.319129999999999</v>
+        <v>5.58692</v>
       </c>
       <c r="P153">
-        <v>1.23297</v>
+        <v>0.828269</v>
       </c>
     </row>
     <row r="154" spans="1:16">
@@ -9014,10 +9014,10 @@
         <v>239</v>
       </c>
       <c r="O154">
-        <v>7.59569</v>
+        <v>7.55138</v>
       </c>
       <c r="P154">
-        <v>1.12592</v>
+        <v>1.11928</v>
       </c>
     </row>
     <row r="155" spans="1:16">
@@ -9064,10 +9064,10 @@
         <v>239</v>
       </c>
       <c r="O155">
-        <v>6.3558</v>
+        <v>6.40725</v>
       </c>
       <c r="P155">
-        <v>0.942221</v>
+        <v>0.949832</v>
       </c>
     </row>
     <row r="156" spans="1:16">
@@ -9114,10 +9114,10 @@
         <v>239</v>
       </c>
       <c r="O156">
-        <v>5.21804</v>
+        <v>5.21859</v>
       </c>
       <c r="P156">
-        <v>0.773698</v>
+        <v>0.773772</v>
       </c>
     </row>
     <row r="157" spans="1:16">
@@ -9164,10 +9164,10 @@
         <v>239</v>
       </c>
       <c r="O157">
-        <v>4.19308</v>
+        <v>4.18486</v>
       </c>
       <c r="P157">
-        <v>0.621759</v>
+        <v>0.6205889999999999</v>
       </c>
     </row>
     <row r="158" spans="1:16">
@@ -9214,10 +9214,10 @@
         <v>239</v>
       </c>
       <c r="O158">
-        <v>3.35709</v>
+        <v>3.26134</v>
       </c>
       <c r="P158">
-        <v>0.497958</v>
+        <v>0.490262</v>
       </c>
     </row>
     <row r="159" spans="1:16">
@@ -9264,10 +9264,10 @@
         <v>239</v>
       </c>
       <c r="O159">
-        <v>2.22019</v>
+        <v>2.16957</v>
       </c>
       <c r="P159">
-        <v>0.329543</v>
+        <v>0.322026</v>
       </c>
     </row>
     <row r="160" spans="1:16">
@@ -9314,10 +9314,10 @@
         <v>239</v>
       </c>
       <c r="O160">
-        <v>1.18726</v>
+        <v>1.18644</v>
       </c>
       <c r="P160">
-        <v>0.176492</v>
+        <v>0.176373</v>
       </c>
     </row>
     <row r="161" spans="1:16">
@@ -9364,10 +9364,10 @@
         <v>239</v>
       </c>
       <c r="O161">
-        <v>0.101412</v>
+        <v>0.101399</v>
       </c>
       <c r="P161">
-        <v>0.0156096</v>
+        <v>0.0156883</v>
       </c>
     </row>
     <row r="162" spans="1:16">
@@ -9414,10 +9414,10 @@
         <v>239</v>
       </c>
       <c r="O162">
-        <v>0.101083</v>
+        <v>0.152671</v>
       </c>
       <c r="P162">
-        <v>0.015612</v>
+        <v>0.0232645</v>
       </c>
     </row>
     <row r="163" spans="1:16">
@@ -9464,10 +9464,10 @@
         <v>239</v>
       </c>
       <c r="O163">
-        <v>-0.983557</v>
+        <v>-0.983823</v>
       </c>
       <c r="P163">
-        <v>-0.145073</v>
+        <v>-0.145139</v>
       </c>
     </row>
     <row r="164" spans="1:16">
@@ -9514,10 +9514,10 @@
         <v>239</v>
       </c>
       <c r="O164">
-        <v>-2.01764</v>
+        <v>-2.06943</v>
       </c>
       <c r="P164">
-        <v>-0.298297</v>
+        <v>-0.305953</v>
       </c>
     </row>
     <row r="165" spans="1:16">
@@ -9564,10 +9564,10 @@
         <v>239</v>
       </c>
       <c r="O165">
-        <v>-3.05041</v>
+        <v>-3.0439</v>
       </c>
       <c r="P165">
-        <v>-0.451268</v>
+        <v>-0.450356</v>
       </c>
     </row>
     <row r="166" spans="1:16">
@@ -9614,10 +9614,10 @@
         <v>239</v>
       </c>
       <c r="O166">
-        <v>-3.98097</v>
+        <v>-3.975</v>
       </c>
       <c r="P166">
-        <v>-0.589131</v>
+        <v>-0.588318</v>
       </c>
     </row>
     <row r="167" spans="1:16">
@@ -9664,10 +9664,10 @@
         <v>239</v>
       </c>
       <c r="O167">
-        <v>-5.11736</v>
+        <v>-5.06617</v>
       </c>
       <c r="P167">
-        <v>-0.7575229999999999</v>
+        <v>-0.749901</v>
       </c>
     </row>
     <row r="168" spans="1:16">
@@ -9714,10 +9714,10 @@
         <v>239</v>
       </c>
       <c r="O168">
-        <v>-6.2969</v>
+        <v>-6.19708</v>
       </c>
       <c r="P168">
-        <v>-0.932288</v>
+        <v>-0.9174909999999999</v>
       </c>
     </row>
     <row r="169" spans="1:16">
@@ -9764,10 +9764,10 @@
         <v>239</v>
       </c>
       <c r="O169">
-        <v>-7.28807</v>
+        <v>-7.2878</v>
       </c>
       <c r="P169">
-        <v>-1.07909</v>
+        <v>-1.07904</v>
       </c>
     </row>
     <row r="170" spans="1:16">
@@ -9814,10 +9814,10 @@
         <v>239</v>
       </c>
       <c r="O170">
-        <v>-7.90816</v>
+        <v>-5.42762</v>
       </c>
       <c r="P170">
-        <v>-1.17097</v>
+        <v>-0.803455</v>
       </c>
     </row>
     <row r="171" spans="1:16">
@@ -9864,10 +9864,10 @@
         <v>239</v>
       </c>
       <c r="O171">
-        <v>-8.888909999999999</v>
+        <v>-6.66789</v>
       </c>
       <c r="P171">
-        <v>-1.31627</v>
+        <v>-0.987218</v>
       </c>
     </row>
     <row r="172" spans="1:16">
@@ -9914,10 +9914,10 @@
         <v>239</v>
       </c>
       <c r="O172">
-        <v>-10.0228</v>
+        <v>-7.64941</v>
       </c>
       <c r="P172">
-        <v>-1.48419</v>
+        <v>-1.13265</v>
       </c>
     </row>
     <row r="173" spans="1:16">
@@ -9964,10 +9964,10 @@
         <v>239</v>
       </c>
       <c r="O173">
-        <v>-10.903</v>
+        <v>-8.779590000000001</v>
       </c>
       <c r="P173">
-        <v>-1.60717</v>
+        <v>-1.30008</v>
       </c>
     </row>
     <row r="174" spans="1:16">
@@ -10014,10 +10014,10 @@
         <v>239</v>
       </c>
       <c r="O174">
-        <v>-11.7296</v>
+        <v>-9.509040000000001</v>
       </c>
       <c r="P174">
-        <v>-1.73693</v>
+        <v>-1.40814</v>
       </c>
     </row>
     <row r="175" spans="1:16">
@@ -10064,10 +10064,10 @@
         <v>239</v>
       </c>
       <c r="O175">
-        <v>-12.8165</v>
+        <v>-10.4908</v>
       </c>
       <c r="P175">
-        <v>-1.89812</v>
+        <v>-1.55357</v>
       </c>
     </row>
     <row r="176" spans="1:16">
@@ -10114,10 +10114,10 @@
         <v>239</v>
       </c>
       <c r="O176">
-        <v>-13.6943</v>
+        <v>-11.5681</v>
       </c>
       <c r="P176">
-        <v>-2.02815</v>
+        <v>-1.71323</v>
       </c>
     </row>
     <row r="177" spans="1:16">
@@ -10164,10 +10164,10 @@
         <v>239</v>
       </c>
       <c r="O177">
-        <v>-14.6766</v>
+        <v>-12.5061</v>
       </c>
       <c r="P177">
-        <v>-2.1736</v>
+        <v>-1.85216</v>
       </c>
     </row>
     <row r="178" spans="1:16">
@@ -10214,10 +10214,10 @@
         <v>239</v>
       </c>
       <c r="O178">
-        <v>-14.7282</v>
+        <v>-12.5061</v>
       </c>
       <c r="P178">
-        <v>-2.18135</v>
+        <v>-1.85214</v>
       </c>
     </row>
     <row r="179" spans="1:16">
@@ -10264,10 +10264,10 @@
         <v>239</v>
       </c>
       <c r="O179">
-        <v>-15.6072</v>
+        <v>-13.488</v>
       </c>
       <c r="P179">
-        <v>-2.31157</v>
+        <v>-1.9976</v>
       </c>
     </row>
     <row r="180" spans="1:16">
@@ -10314,10 +10314,10 @@
         <v>239</v>
       </c>
       <c r="O180">
-        <v>-16.5375</v>
+        <v>-14.5147</v>
       </c>
       <c r="P180">
-        <v>-2.44938</v>
+        <v>-2.14976</v>
       </c>
     </row>
     <row r="181" spans="1:16">
@@ -10364,10 +10364,10 @@
         <v>239</v>
       </c>
       <c r="O181">
-        <v>-17.622</v>
+        <v>-15.5046</v>
       </c>
       <c r="P181">
-        <v>-2.60257</v>
+        <v>-2.29633</v>
       </c>
     </row>
     <row r="182" spans="1:16">
@@ -10414,10 +10414,10 @@
         <v>239</v>
       </c>
       <c r="O182">
-        <v>-18.0279</v>
+        <v>-16.0721</v>
       </c>
       <c r="P182">
-        <v>-2.67023</v>
+        <v>-2.38043</v>
       </c>
     </row>
     <row r="183" spans="1:16">
@@ -10464,10 +10464,10 @@
         <v>239</v>
       </c>
       <c r="O183">
-        <v>-19.225</v>
+        <v>-17.1496</v>
       </c>
       <c r="P183">
-        <v>-2.84753</v>
+        <v>-2.54013</v>
       </c>
     </row>
     <row r="184" spans="1:16">
@@ -10514,10 +10514,10 @@
         <v>239</v>
       </c>
       <c r="O184">
-        <v>-20.1556</v>
+        <v>-18.0809</v>
       </c>
       <c r="P184">
-        <v>-2.98537</v>
+        <v>-2.67809</v>
       </c>
     </row>
     <row r="185" spans="1:16">
@@ -10564,10 +10564,10 @@
         <v>239</v>
       </c>
       <c r="O185">
-        <v>-21.3957</v>
+        <v>-19.0682</v>
       </c>
       <c r="P185">
-        <v>-3.16911</v>
+        <v>-2.81715</v>
       </c>
     </row>
     <row r="186" spans="1:16">
@@ -10614,10 +10614,10 @@
         <v>239</v>
       </c>
       <c r="O186">
-        <v>-20.7244</v>
+        <v>-17.0546</v>
       </c>
       <c r="P186">
-        <v>-3.06966</v>
+        <v>-2.52596</v>
       </c>
     </row>
     <row r="187" spans="1:16">
@@ -10664,10 +10664,10 @@
         <v>239</v>
       </c>
       <c r="O187">
-        <v>-21.954</v>
+        <v>-18.1345</v>
       </c>
       <c r="P187">
-        <v>-3.25168</v>
+        <v>-2.68604</v>
       </c>
     </row>
     <row r="188" spans="1:16">
@@ -10714,10 +10714,10 @@
         <v>239</v>
       </c>
       <c r="O188">
-        <v>-22.946</v>
+        <v>-19.0708</v>
       </c>
       <c r="P188">
-        <v>-3.3913</v>
+        <v>-2.82467</v>
       </c>
     </row>
     <row r="189" spans="1:16">
@@ -10764,10 +10764,10 @@
         <v>239</v>
       </c>
       <c r="O189">
-        <v>-24.2396</v>
+        <v>-20.4149</v>
       </c>
       <c r="P189">
-        <v>-3.59041</v>
+        <v>-3.02382</v>
       </c>
     </row>
     <row r="190" spans="1:16">
@@ -10814,10 +10814,10 @@
         <v>239</v>
       </c>
       <c r="O190">
-        <v>-24.8076</v>
+        <v>-21.0279</v>
       </c>
       <c r="P190">
-        <v>-3.6746</v>
+        <v>-3.11468</v>
       </c>
     </row>
     <row r="191" spans="1:16">
@@ -10864,10 +10864,10 @@
         <v>239</v>
       </c>
       <c r="O191">
-        <v>-26.0994</v>
+        <v>-22.2752</v>
       </c>
       <c r="P191">
-        <v>-3.86598</v>
+        <v>-3.29945</v>
       </c>
     </row>
     <row r="192" spans="1:16">
@@ -10914,10 +10914,10 @@
         <v>239</v>
       </c>
       <c r="O192">
-        <v>-27.2371</v>
+        <v>-23.3534</v>
       </c>
       <c r="P192">
-        <v>-4.03447</v>
+        <v>-3.45919</v>
       </c>
     </row>
     <row r="193" spans="1:16">
@@ -10964,10 +10964,10 @@
         <v>239</v>
       </c>
       <c r="O193">
-        <v>-28.5266</v>
+        <v>-24.7565</v>
       </c>
       <c r="P193">
-        <v>-4.22434</v>
+        <v>-3.66701</v>
       </c>
     </row>
     <row r="194" spans="1:16" s="1" customFormat="1">
@@ -11025,10 +11025,10 @@
         <v>303</v>
       </c>
       <c r="O195" s="3">
-        <v>-46.1953</v>
+        <v>-41.1921</v>
       </c>
       <c r="P195" s="1">
-        <v>-5.59924</v>
+        <v>-4.9928</v>
       </c>
     </row>
     <row r="196" spans="1:16" s="1" customFormat="1">
@@ -11036,10 +11036,10 @@
         <v>304</v>
       </c>
       <c r="O196" s="2">
-        <v>45.9598</v>
+        <v>41.2023</v>
       </c>
       <c r="P196" s="1">
-        <v>5.57106</v>
+        <v>4.99441</v>
       </c>
     </row>
     <row r="197" spans="1:16" s="1" customFormat="1">
@@ -11079,10 +11079,10 @@
         <v>309</v>
       </c>
       <c r="O201" s="1">
-        <v>0.08333295</v>
+        <v>0.09844588</v>
       </c>
       <c r="P201" s="1">
-        <v>0.01296298</v>
+        <v>0.01518955</v>
       </c>
     </row>
     <row r="202" spans="1:16" s="1" customFormat="1">
@@ -11090,10 +11090,10 @@
         <v>310</v>
       </c>
       <c r="O202" s="1">
-        <v>21.733553</v>
+        <v>19.004749</v>
       </c>
       <c r="P202" s="1">
-        <v>2.836165</v>
+        <v>2.477299</v>
       </c>
     </row>
     <row r="203" spans="1:16" s="1" customFormat="1">
@@ -11101,10 +11101,10 @@
         <v>311</v>
       </c>
       <c r="O203" s="1">
-        <v>26080.38357</v>
+        <v>19304.768265</v>
       </c>
       <c r="P203" s="1">
-        <v>21878.958388</v>
+        <v>16309.232334</v>
       </c>
     </row>
     <row r="204" spans="1:16" s="1" customFormat="1"/>

--- a/dcd_top_offset_step_tsmc2p_meas.xlsx
+++ b/dcd_top_offset_step_tsmc2p_meas.xlsx
@@ -1414,10 +1414,10 @@
         <v>29</v>
       </c>
       <c r="O2">
-        <v>31.9467</v>
+        <v>33.3415</v>
       </c>
       <c r="P2">
-        <v>4.25985</v>
+        <v>4.44582</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1464,10 +1464,10 @@
         <v>29</v>
       </c>
       <c r="O3">
-        <v>30.3983</v>
+        <v>31.7925</v>
       </c>
       <c r="P3">
-        <v>4.05339</v>
+        <v>4.23929</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1514,10 +1514,10 @@
         <v>29</v>
       </c>
       <c r="O4">
-        <v>28.9498</v>
+        <v>30.3446</v>
       </c>
       <c r="P4">
-        <v>3.86026</v>
+        <v>4.04623</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1564,10 +1564,10 @@
         <v>29</v>
       </c>
       <c r="O5">
-        <v>27.3483</v>
+        <v>28.8457</v>
       </c>
       <c r="P5">
-        <v>3.64672</v>
+        <v>3.8464</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1614,10 +1614,10 @@
         <v>29</v>
       </c>
       <c r="O6">
-        <v>26.5226</v>
+        <v>28.0201</v>
       </c>
       <c r="P6">
-        <v>3.53663</v>
+        <v>3.73631</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1664,10 +1664,10 @@
         <v>29</v>
       </c>
       <c r="O7">
-        <v>24.922</v>
+        <v>26.471</v>
       </c>
       <c r="P7">
-        <v>3.32323</v>
+        <v>3.52975</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1714,10 +1714,10 @@
         <v>29</v>
       </c>
       <c r="O8">
-        <v>23.4757</v>
+        <v>24.9734</v>
       </c>
       <c r="P8">
-        <v>3.13039</v>
+        <v>3.33009</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1764,10 +1764,10 @@
         <v>29</v>
       </c>
       <c r="O9">
-        <v>21.9266</v>
+        <v>23.3737</v>
       </c>
       <c r="P9">
-        <v>2.92383</v>
+        <v>3.11678</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1814,10 +1814,10 @@
         <v>29</v>
       </c>
       <c r="O10">
-        <v>24.9774</v>
+        <v>25.8513</v>
       </c>
       <c r="P10">
-        <v>3.33061</v>
+        <v>3.44713</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1864,10 +1864,10 @@
         <v>29</v>
       </c>
       <c r="O11">
-        <v>23.4755</v>
+        <v>24.2508</v>
       </c>
       <c r="P11">
-        <v>3.13036</v>
+        <v>3.23373</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1914,10 +1914,10 @@
         <v>29</v>
       </c>
       <c r="O12">
-        <v>21.9819</v>
+        <v>22.753</v>
       </c>
       <c r="P12">
-        <v>2.93119</v>
+        <v>3.03402</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1964,10 +1964,10 @@
         <v>29</v>
       </c>
       <c r="O13">
-        <v>20.3771</v>
+        <v>21.1519</v>
       </c>
       <c r="P13">
-        <v>2.71725</v>
+        <v>2.82055</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -2014,10 +2014,10 @@
         <v>29</v>
       </c>
       <c r="O14">
-        <v>19.4993</v>
+        <v>20.3254</v>
       </c>
       <c r="P14">
-        <v>2.6002</v>
+        <v>2.71035</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -2064,10 +2064,10 @@
         <v>29</v>
       </c>
       <c r="O15">
-        <v>17.7952</v>
+        <v>18.673</v>
       </c>
       <c r="P15">
-        <v>2.37299</v>
+        <v>2.49003</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -2114,10 +2114,10 @@
         <v>29</v>
       </c>
       <c r="O16">
-        <v>16.4007</v>
+        <v>17.2272</v>
       </c>
       <c r="P16">
-        <v>2.18705</v>
+        <v>2.29726</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -2164,10 +2164,10 @@
         <v>29</v>
       </c>
       <c r="O17">
-        <v>14.8515</v>
+        <v>15.678</v>
       </c>
       <c r="P17">
-        <v>1.98049</v>
+        <v>2.09069</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -2214,10 +2214,10 @@
         <v>29</v>
       </c>
       <c r="O18">
-        <v>14.9033</v>
+        <v>15.7296</v>
       </c>
       <c r="P18">
-        <v>1.98739</v>
+        <v>2.09757</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -2264,10 +2264,10 @@
         <v>29</v>
       </c>
       <c r="O19">
-        <v>13.8186</v>
+        <v>14.5423</v>
       </c>
       <c r="P19">
-        <v>1.84277</v>
+        <v>1.93927</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -2314,10 +2314,10 @@
         <v>29</v>
       </c>
       <c r="O20">
-        <v>12.734</v>
+        <v>13.4575</v>
       </c>
       <c r="P20">
-        <v>1.69816</v>
+        <v>1.79463</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -2364,10 +2364,10 @@
         <v>29</v>
       </c>
       <c r="O21">
-        <v>11.6496</v>
+        <v>12.3212</v>
       </c>
       <c r="P21">
-        <v>1.55357</v>
+        <v>1.64312</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -2414,10 +2414,10 @@
         <v>29</v>
       </c>
       <c r="O22">
-        <v>10.5141</v>
+        <v>11.2883</v>
       </c>
       <c r="P22">
-        <v>1.40218</v>
+        <v>1.5054</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -2464,10 +2464,10 @@
         <v>29</v>
       </c>
       <c r="O23">
-        <v>9.273580000000001</v>
+        <v>10.1521</v>
       </c>
       <c r="P23">
-        <v>1.23677</v>
+        <v>1.35391</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -2514,10 +2514,10 @@
         <v>29</v>
       </c>
       <c r="O24">
-        <v>8.034520000000001</v>
+        <v>8.91226</v>
       </c>
       <c r="P24">
-        <v>1.07156</v>
+        <v>1.18859</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -2564,10 +2564,10 @@
         <v>29</v>
       </c>
       <c r="O25">
-        <v>6.84672</v>
+        <v>7.67296</v>
       </c>
       <c r="P25">
-        <v>0.913187</v>
+        <v>1.02334</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -2614,10 +2614,10 @@
         <v>29</v>
       </c>
       <c r="O26">
-        <v>8.75737</v>
+        <v>8.706630000000001</v>
       </c>
       <c r="P26">
-        <v>1.16794</v>
+        <v>1.16117</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -2664,10 +2664,10 @@
         <v>29</v>
       </c>
       <c r="O27">
-        <v>7.48484</v>
+        <v>7.46646</v>
       </c>
       <c r="P27">
-        <v>0.998265</v>
+        <v>0.995819</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -2714,10 +2714,10 @@
         <v>29</v>
       </c>
       <c r="O28">
-        <v>6.32976</v>
+        <v>6.27805</v>
       </c>
       <c r="P28">
-        <v>0.844268</v>
+        <v>0.837368</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -2764,10 +2764,10 @@
         <v>29</v>
       </c>
       <c r="O29">
-        <v>5.03867</v>
+        <v>5.03879</v>
       </c>
       <c r="P29">
-        <v>0.672113</v>
+        <v>0.672125</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2814,10 +2814,10 @@
         <v>29</v>
       </c>
       <c r="O30">
-        <v>3.90274</v>
+        <v>3.90258</v>
       </c>
       <c r="P30">
-        <v>0.520652</v>
+        <v>0.520632</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2864,10 +2864,10 @@
         <v>29</v>
       </c>
       <c r="O31">
-        <v>2.61099</v>
+        <v>2.56344</v>
       </c>
       <c r="P31">
-        <v>0.348424</v>
+        <v>0.342067</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -2914,10 +2914,10 @@
         <v>29</v>
       </c>
       <c r="O32">
-        <v>1.32046</v>
+        <v>1.32005</v>
       </c>
       <c r="P32">
-        <v>0.176353</v>
+        <v>0.176295</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2964,10 +2964,10 @@
         <v>29</v>
       </c>
       <c r="O33">
-        <v>-0.0229095</v>
+        <v>-0.0224531</v>
       </c>
       <c r="P33">
-        <v>-0.00276881</v>
+        <v>-0.00270865</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -3014,10 +3014,10 @@
         <v>29</v>
       </c>
       <c r="O34">
-        <v>-0.0228353</v>
+        <v>0.0292311</v>
       </c>
       <c r="P34">
-        <v>-0.00275643</v>
+        <v>0.00418483</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -3064,10 +3064,10 @@
         <v>29</v>
       </c>
       <c r="O35">
-        <v>-1.15854</v>
+        <v>-1.10734</v>
       </c>
       <c r="P35">
-        <v>-0.154184</v>
+        <v>-0.147358</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -3114,10 +3114,10 @@
         <v>29</v>
       </c>
       <c r="O36">
-        <v>-2.44936</v>
+        <v>-2.501</v>
       </c>
       <c r="P36">
-        <v>-0.326303</v>
+        <v>-0.33318</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -3164,10 +3164,10 @@
         <v>29</v>
       </c>
       <c r="O37">
-        <v>-3.68826</v>
+        <v>-3.68901</v>
       </c>
       <c r="P37">
-        <v>-0.49147</v>
+        <v>-0.491591</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -3214,10 +3214,10 @@
         <v>29</v>
       </c>
       <c r="O38">
-        <v>-4.87588</v>
+        <v>-4.92675</v>
       </c>
       <c r="P38">
-        <v>-0.649813</v>
+        <v>-0.6566070000000001</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -3264,10 +3264,10 @@
         <v>29</v>
       </c>
       <c r="O39">
-        <v>-6.26986</v>
+        <v>-6.16698</v>
       </c>
       <c r="P39">
-        <v>-0.835682</v>
+        <v>-0.821979</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -3314,10 +3314,10 @@
         <v>29</v>
       </c>
       <c r="O40">
-        <v>-7.45732</v>
+        <v>-7.45764</v>
       </c>
       <c r="P40">
-        <v>-0.9940059999999999</v>
+        <v>-0.9940560000000001</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -3364,10 +3364,10 @@
         <v>29</v>
       </c>
       <c r="O41">
-        <v>-8.696899999999999</v>
+        <v>-8.697039999999999</v>
       </c>
       <c r="P41">
-        <v>-1.15929</v>
+        <v>-1.15932</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -3414,10 +3414,10 @@
         <v>29</v>
       </c>
       <c r="O42">
-        <v>-6.7861</v>
+        <v>-7.7159</v>
       </c>
       <c r="P42">
-        <v>-0.904524</v>
+        <v>-1.0285</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -3464,10 +3464,10 @@
         <v>29</v>
       </c>
       <c r="O43">
-        <v>-8.025679999999999</v>
+        <v>-8.903409999999999</v>
       </c>
       <c r="P43">
-        <v>-1.0698</v>
+        <v>-1.18682</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -3514,10 +3514,10 @@
         <v>29</v>
       </c>
       <c r="O44">
-        <v>-9.213240000000001</v>
+        <v>-9.987450000000001</v>
       </c>
       <c r="P44">
-        <v>-1.22814</v>
+        <v>-1.33137</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -3564,10 +3564,10 @@
         <v>29</v>
       </c>
       <c r="O45">
-        <v>-10.4523</v>
+        <v>-11.33</v>
       </c>
       <c r="P45">
-        <v>-1.39334</v>
+        <v>-1.51039</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -3614,10 +3614,10 @@
         <v>29</v>
       </c>
       <c r="O46">
-        <v>-11.5885</v>
+        <v>-12.4153</v>
       </c>
       <c r="P46">
-        <v>-1.54483</v>
+        <v>-1.65507</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -3664,10 +3664,10 @@
         <v>29</v>
       </c>
       <c r="O47">
-        <v>-12.725</v>
+        <v>-13.3963</v>
       </c>
       <c r="P47">
-        <v>-1.69637</v>
+        <v>-1.78589</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -3714,10 +3714,10 @@
         <v>29</v>
       </c>
       <c r="O48">
-        <v>-13.7577</v>
+        <v>-14.4812</v>
       </c>
       <c r="P48">
-        <v>-1.83406</v>
+        <v>-1.93053</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -3764,10 +3764,10 @@
         <v>29</v>
       </c>
       <c r="O49">
-        <v>-14.7911</v>
+        <v>-15.5649</v>
       </c>
       <c r="P49">
-        <v>-1.97188</v>
+        <v>-2.06828</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -3814,10 +3814,10 @@
         <v>29</v>
       </c>
       <c r="O50">
-        <v>-14.7395</v>
+        <v>-15.4624</v>
       </c>
       <c r="P50">
-        <v>-1.96497</v>
+        <v>-2.06137</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -3864,10 +3864,10 @@
         <v>29</v>
       </c>
       <c r="O51">
-        <v>-16.2883</v>
+        <v>-17.0633</v>
       </c>
       <c r="P51">
-        <v>-2.17149</v>
+        <v>-2.27482</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -3914,10 +3914,10 @@
         <v>29</v>
       </c>
       <c r="O52">
-        <v>-17.5275</v>
+        <v>-18.4568</v>
       </c>
       <c r="P52">
-        <v>-2.33671</v>
+        <v>-2.46062</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -3964,10 +3964,10 @@
         <v>29</v>
       </c>
       <c r="O53">
-        <v>-19.2319</v>
+        <v>-20.0582</v>
       </c>
       <c r="P53">
-        <v>-2.56395</v>
+        <v>-2.67413</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -4014,10 +4014,10 @@
         <v>29</v>
       </c>
       <c r="O54">
-        <v>-20.0058</v>
+        <v>-20.8326</v>
       </c>
       <c r="P54">
-        <v>-2.66713</v>
+        <v>-2.77738</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -4064,10 +4064,10 @@
         <v>29</v>
       </c>
       <c r="O55">
-        <v>-21.6589</v>
+        <v>-22.4847</v>
       </c>
       <c r="P55">
-        <v>-2.88756</v>
+        <v>-2.99767</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -4114,10 +4114,10 @@
         <v>29</v>
       </c>
       <c r="O56">
-        <v>-23.1045</v>
+        <v>-23.9301</v>
       </c>
       <c r="P56">
-        <v>-3.08031</v>
+        <v>-3.19039</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -4164,10 +4164,10 @@
         <v>29</v>
       </c>
       <c r="O57">
-        <v>-24.8045</v>
+        <v>-25.4801</v>
       </c>
       <c r="P57">
-        <v>-3.30697</v>
+        <v>-3.39706</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -4214,10 +4214,10 @@
         <v>29</v>
       </c>
       <c r="O58">
-        <v>-21.5548</v>
+        <v>-23.1045</v>
       </c>
       <c r="P58">
-        <v>-2.87367</v>
+        <v>-3.08031</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -4264,10 +4264,10 @@
         <v>29</v>
       </c>
       <c r="O59">
-        <v>-23.2077</v>
+        <v>-24.6537</v>
       </c>
       <c r="P59">
-        <v>-3.09407</v>
+        <v>-3.28687</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -4314,10 +4314,10 @@
         <v>29</v>
       </c>
       <c r="O60">
-        <v>-24.7057</v>
+        <v>-26.151</v>
       </c>
       <c r="P60">
-        <v>-3.2938</v>
+        <v>-3.48651</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -4364,10 +4364,10 @@
         <v>29</v>
       </c>
       <c r="O61">
-        <v>-26.2547</v>
+        <v>-27.7005</v>
       </c>
       <c r="P61">
-        <v>-3.50034</v>
+        <v>-3.69311</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -4414,10 +4414,10 @@
         <v>29</v>
       </c>
       <c r="O62">
-        <v>-27.081</v>
+        <v>-28.4233</v>
       </c>
       <c r="P62">
-        <v>-3.61052</v>
+        <v>-3.78948</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -4464,10 +4464,10 @@
         <v>29</v>
       </c>
       <c r="O63">
-        <v>-28.7336</v>
+        <v>-30.1274</v>
       </c>
       <c r="P63">
-        <v>-3.83086</v>
+        <v>-4.0167</v>
       </c>
     </row>
     <row r="64" spans="1:16">
@@ -4514,10 +4514,10 @@
         <v>29</v>
       </c>
       <c r="O64">
-        <v>-30.1273</v>
+        <v>-31.5218</v>
       </c>
       <c r="P64">
-        <v>-4.01668</v>
+        <v>-4.20261</v>
       </c>
     </row>
     <row r="65" spans="1:16">
@@ -4564,10 +4564,10 @@
         <v>29</v>
       </c>
       <c r="O65">
-        <v>-31.78</v>
+        <v>-33.1742</v>
       </c>
       <c r="P65">
-        <v>-4.23705</v>
+        <v>-4.42294</v>
       </c>
     </row>
     <row r="66" spans="1:16">
@@ -4614,10 +4614,10 @@
         <v>165</v>
       </c>
       <c r="O66" s="2">
-        <v>41.2023</v>
+        <v>42.9552</v>
       </c>
       <c r="P66">
-        <v>4.99441</v>
+        <v>5.20687</v>
       </c>
     </row>
     <row r="67" spans="1:16">
@@ -4664,10 +4664,10 @@
         <v>165</v>
       </c>
       <c r="O67" s="2">
-        <v>39.3029</v>
+        <v>41.103</v>
       </c>
       <c r="P67">
-        <v>4.7759</v>
+        <v>4.98237</v>
       </c>
     </row>
     <row r="68" spans="1:16">
@@ -4714,10 +4714,10 @@
         <v>165</v>
       </c>
       <c r="O68" s="2">
-        <v>37.1435</v>
+        <v>38.846</v>
       </c>
       <c r="P68">
-        <v>4.50242</v>
+        <v>4.7088</v>
       </c>
     </row>
     <row r="69" spans="1:16">
@@ -4764,10 +4764,10 @@
         <v>165</v>
       </c>
       <c r="O69" s="2">
-        <v>35.341</v>
+        <v>37.0934</v>
       </c>
       <c r="P69">
-        <v>4.28395</v>
+        <v>4.49636</v>
       </c>
     </row>
     <row r="70" spans="1:16">
@@ -4813,11 +4813,11 @@
       <c r="N70" t="s">
         <v>165</v>
       </c>
-      <c r="O70">
-        <v>34.3901</v>
+      <c r="O70" s="2">
+        <v>36.1924</v>
       </c>
       <c r="P70">
-        <v>4.16869</v>
+        <v>4.38714</v>
       </c>
     </row>
     <row r="71" spans="1:16">
@@ -4864,10 +4864,10 @@
         <v>165</v>
       </c>
       <c r="O71">
-        <v>32.4876</v>
+        <v>34.3901</v>
       </c>
       <c r="P71">
-        <v>3.93808</v>
+        <v>4.16868</v>
       </c>
     </row>
     <row r="72" spans="1:16">
@@ -4914,10 +4914,10 @@
         <v>165</v>
       </c>
       <c r="O72">
-        <v>30.8354</v>
+        <v>32.6879</v>
       </c>
       <c r="P72">
-        <v>3.73781</v>
+        <v>3.96235</v>
       </c>
     </row>
     <row r="73" spans="1:16">
@@ -4964,10 +4964,10 @@
         <v>165</v>
       </c>
       <c r="O73">
-        <v>28.8829</v>
+        <v>30.7856</v>
       </c>
       <c r="P73">
-        <v>3.50114</v>
+        <v>3.73177</v>
       </c>
     </row>
     <row r="74" spans="1:16">
@@ -5014,10 +5014,10 @@
         <v>165</v>
       </c>
       <c r="O74">
-        <v>32.6379</v>
+        <v>33.7554</v>
       </c>
       <c r="P74">
-        <v>3.9563</v>
+        <v>4.09174</v>
       </c>
     </row>
     <row r="75" spans="1:16">
@@ -5064,10 +5064,10 @@
         <v>165</v>
       </c>
       <c r="O75">
-        <v>30.7354</v>
+        <v>31.887</v>
       </c>
       <c r="P75">
-        <v>3.7257</v>
+        <v>3.86527</v>
       </c>
     </row>
     <row r="76" spans="1:16">
@@ -5114,10 +5114,10 @@
         <v>165</v>
       </c>
       <c r="O76">
-        <v>29.0053</v>
+        <v>30.1347</v>
       </c>
       <c r="P76">
-        <v>3.51597</v>
+        <v>3.65288</v>
       </c>
     </row>
     <row r="77" spans="1:16">
@@ -5164,10 +5164,10 @@
         <v>165</v>
       </c>
       <c r="O77">
-        <v>27.0806</v>
+        <v>28.1346</v>
       </c>
       <c r="P77">
-        <v>3.28269</v>
+        <v>3.41043</v>
       </c>
     </row>
     <row r="78" spans="1:16">
@@ -5214,10 +5214,10 @@
         <v>165</v>
       </c>
       <c r="O78">
-        <v>25.9794</v>
+        <v>27.181</v>
       </c>
       <c r="P78">
-        <v>3.14921</v>
+        <v>3.29485</v>
       </c>
     </row>
     <row r="79" spans="1:16">
@@ -5264,10 +5264,10 @@
         <v>165</v>
       </c>
       <c r="O79">
-        <v>23.9812</v>
+        <v>25.0782</v>
       </c>
       <c r="P79">
-        <v>2.90698</v>
+        <v>3.03996</v>
       </c>
     </row>
     <row r="80" spans="1:16">
@@ -5314,10 +5314,10 @@
         <v>165</v>
       </c>
       <c r="O80">
-        <v>22.1739</v>
+        <v>23.2754</v>
       </c>
       <c r="P80">
-        <v>2.68793</v>
+        <v>2.82145</v>
       </c>
     </row>
     <row r="81" spans="1:16">
@@ -5364,10 +5364,10 @@
         <v>165</v>
       </c>
       <c r="O81">
-        <v>20.121</v>
+        <v>21.2726</v>
       </c>
       <c r="P81">
-        <v>2.4391</v>
+        <v>2.57869</v>
       </c>
     </row>
     <row r="82" spans="1:16">
@@ -5414,10 +5414,10 @@
         <v>165</v>
       </c>
       <c r="O82">
-        <v>20.121</v>
+        <v>21.2236</v>
       </c>
       <c r="P82">
-        <v>2.4391</v>
+        <v>2.57274</v>
       </c>
     </row>
     <row r="83" spans="1:16">
@@ -5464,10 +5464,10 @@
         <v>165</v>
       </c>
       <c r="O83">
-        <v>18.4684</v>
+        <v>19.6204</v>
       </c>
       <c r="P83">
-        <v>2.23878</v>
+        <v>2.37843</v>
       </c>
     </row>
     <row r="84" spans="1:16">
@@ -5514,10 +5514,10 @@
         <v>165</v>
       </c>
       <c r="O84">
-        <v>16.8161</v>
+        <v>18.0185</v>
       </c>
       <c r="P84">
-        <v>2.03849</v>
+        <v>2.19022</v>
       </c>
     </row>
     <row r="85" spans="1:16">
@@ -5564,10 +5564,10 @@
         <v>165</v>
       </c>
       <c r="O85">
-        <v>15.0638</v>
+        <v>16.3154</v>
       </c>
       <c r="P85">
-        <v>1.8261</v>
+        <v>1.97782</v>
       </c>
     </row>
     <row r="86" spans="1:16">
@@ -5614,10 +5614,10 @@
         <v>165</v>
       </c>
       <c r="O86">
-        <v>13.5113</v>
+        <v>14.7633</v>
       </c>
       <c r="P86">
-        <v>1.63792</v>
+        <v>1.78967</v>
       </c>
     </row>
     <row r="87" spans="1:16">
@@ -5664,10 +5664,10 @@
         <v>165</v>
       </c>
       <c r="O87">
-        <v>11.709</v>
+        <v>12.9608</v>
       </c>
       <c r="P87">
-        <v>1.41946</v>
+        <v>1.57119</v>
       </c>
     </row>
     <row r="88" spans="1:16">
@@ -5714,10 +5714,10 @@
         <v>165</v>
       </c>
       <c r="O88">
-        <v>9.9564</v>
+        <v>11.2624</v>
       </c>
       <c r="P88">
-        <v>1.20702</v>
+        <v>1.36532</v>
       </c>
     </row>
     <row r="89" spans="1:16">
@@ -5764,10 +5764,10 @@
         <v>165</v>
       </c>
       <c r="O89">
-        <v>8.25366</v>
+        <v>9.405390000000001</v>
       </c>
       <c r="P89">
-        <v>1.00063</v>
+        <v>1.14023</v>
       </c>
     </row>
     <row r="90" spans="1:16">
@@ -5814,10 +5814,10 @@
         <v>165</v>
       </c>
       <c r="O90">
-        <v>10.8573</v>
+        <v>10.8074</v>
       </c>
       <c r="P90">
-        <v>1.31623</v>
+        <v>1.31016</v>
       </c>
     </row>
     <row r="91" spans="1:16">
@@ -5864,10 +5864,10 @@
         <v>165</v>
       </c>
       <c r="O91">
-        <v>9.104990000000001</v>
+        <v>9.10497</v>
       </c>
       <c r="P91">
-        <v>1.10382</v>
+        <v>1.10381</v>
       </c>
     </row>
     <row r="92" spans="1:16">
@@ -5914,10 +5914,10 @@
         <v>165</v>
       </c>
       <c r="O92">
-        <v>7.4527</v>
+        <v>7.50263</v>
       </c>
       <c r="P92">
-        <v>0.903544</v>
+        <v>0.909597</v>
       </c>
     </row>
     <row r="93" spans="1:16">
@@ -5964,10 +5964,10 @@
         <v>165</v>
       </c>
       <c r="O93">
-        <v>6.00049</v>
+        <v>6.00064</v>
       </c>
       <c r="P93">
-        <v>0.727518</v>
+        <v>0.727546</v>
       </c>
     </row>
     <row r="94" spans="1:16">
@@ -6014,10 +6014,10 @@
         <v>165</v>
       </c>
       <c r="O94">
-        <v>4.5518</v>
+        <v>4.59906</v>
       </c>
       <c r="P94">
-        <v>0.551915</v>
+        <v>0.557647</v>
       </c>
     </row>
     <row r="95" spans="1:16">
@@ -6064,10 +6064,10 @@
         <v>165</v>
       </c>
       <c r="O95">
-        <v>3.04867</v>
+        <v>3.09826</v>
       </c>
       <c r="P95">
-        <v>0.369717</v>
+        <v>0.375743</v>
       </c>
     </row>
     <row r="96" spans="1:16">
@@ -6114,10 +6114,10 @@
         <v>165</v>
       </c>
       <c r="O96">
-        <v>1.44916</v>
+        <v>1.59639</v>
       </c>
       <c r="P96">
-        <v>0.175843</v>
+        <v>0.193688</v>
       </c>
     </row>
     <row r="97" spans="1:16">
@@ -6164,10 +6164,10 @@
         <v>165</v>
       </c>
       <c r="O97">
-        <v>-0.0050809</v>
+        <v>-0.00469283</v>
       </c>
       <c r="P97">
-        <v>-0.000419908</v>
+        <v>-0.000381531</v>
       </c>
     </row>
     <row r="98" spans="1:16">
@@ -6214,10 +6214,10 @@
         <v>165</v>
       </c>
       <c r="O98">
-        <v>0.044927</v>
+        <v>-0.00464063</v>
       </c>
       <c r="P98">
-        <v>0.00563374</v>
+        <v>-0.000377125</v>
       </c>
     </row>
     <row r="99" spans="1:16">
@@ -6264,10 +6264,10 @@
         <v>165</v>
       </c>
       <c r="O99">
-        <v>-1.55639</v>
+        <v>-1.50673</v>
       </c>
       <c r="P99">
-        <v>-0.188465</v>
+        <v>-0.182446</v>
       </c>
     </row>
     <row r="100" spans="1:16">
@@ -6314,10 +6314,10 @@
         <v>165</v>
       </c>
       <c r="O100">
-        <v>-3.05811</v>
+        <v>-3.15784</v>
       </c>
       <c r="P100">
-        <v>-0.370495</v>
+        <v>-0.382578</v>
       </c>
     </row>
     <row r="101" spans="1:16">
@@ -6364,10 +6364,10 @@
         <v>165</v>
       </c>
       <c r="O101">
-        <v>-4.60946</v>
+        <v>-4.55974</v>
       </c>
       <c r="P101">
-        <v>-0.552528</v>
+        <v>-0.5525099999999999</v>
       </c>
     </row>
     <row r="102" spans="1:16">
@@ -6414,10 +6414,10 @@
         <v>165</v>
       </c>
       <c r="O102">
-        <v>-5.96115</v>
+        <v>-6.01132</v>
       </c>
       <c r="P102">
-        <v>-0.722379</v>
+        <v>-0.728449</v>
       </c>
     </row>
     <row r="103" spans="1:16">
@@ -6464,10 +6464,10 @@
         <v>165</v>
       </c>
       <c r="O103">
-        <v>-7.5626</v>
+        <v>-7.56262</v>
       </c>
       <c r="P103">
-        <v>-0.91649</v>
+        <v>-0.916497</v>
       </c>
     </row>
     <row r="104" spans="1:16">
@@ -6514,10 +6514,10 @@
         <v>165</v>
       </c>
       <c r="O104">
-        <v>-9.11426</v>
+        <v>-9.114380000000001</v>
       </c>
       <c r="P104">
-        <v>-1.10457</v>
+        <v>-1.10459</v>
       </c>
     </row>
     <row r="105" spans="1:16">
@@ -6564,10 +6564,10 @@
         <v>165</v>
       </c>
       <c r="O105">
-        <v>-10.9163</v>
+        <v>-10.8165</v>
       </c>
       <c r="P105">
-        <v>-1.323</v>
+        <v>-1.3109</v>
       </c>
     </row>
     <row r="106" spans="1:16">
@@ -6614,10 +6614,10 @@
         <v>165</v>
       </c>
       <c r="O106">
-        <v>-8.413629999999999</v>
+        <v>-9.56514</v>
       </c>
       <c r="P106">
-        <v>-1.01964</v>
+        <v>-1.15924</v>
       </c>
     </row>
     <row r="107" spans="1:16">
@@ -6664,10 +6664,10 @@
         <v>165</v>
       </c>
       <c r="O107">
-        <v>-10.0151</v>
+        <v>-11.2664</v>
       </c>
       <c r="P107">
-        <v>-1.21377</v>
+        <v>-1.36544</v>
       </c>
     </row>
     <row r="108" spans="1:16">
@@ -6714,10 +6714,10 @@
         <v>165</v>
       </c>
       <c r="O108">
-        <v>-11.667</v>
+        <v>-12.8683</v>
       </c>
       <c r="P108">
-        <v>-1.41399</v>
+        <v>-1.55961</v>
       </c>
     </row>
     <row r="109" spans="1:16">
@@ -6764,10 +6764,10 @@
         <v>165</v>
       </c>
       <c r="O109">
-        <v>-13.4689</v>
+        <v>-14.7704</v>
       </c>
       <c r="P109">
-        <v>-1.63241</v>
+        <v>-1.79018</v>
       </c>
     </row>
     <row r="110" spans="1:16">
@@ -6814,10 +6814,10 @@
         <v>165</v>
       </c>
       <c r="O110">
-        <v>-15.1208</v>
+        <v>-16.3723</v>
       </c>
       <c r="P110">
-        <v>-1.83263</v>
+        <v>-1.98433</v>
       </c>
     </row>
     <row r="111" spans="1:16">
@@ -6864,10 +6864,10 @@
         <v>165</v>
       </c>
       <c r="O111">
-        <v>-16.8721</v>
+        <v>-18.074</v>
       </c>
       <c r="P111">
-        <v>-2.04491</v>
+        <v>-2.1906</v>
       </c>
     </row>
     <row r="112" spans="1:16">
@@ -6914,10 +6914,10 @@
         <v>165</v>
       </c>
       <c r="O112">
-        <v>-18.4743</v>
+        <v>-19.6757</v>
       </c>
       <c r="P112">
-        <v>-2.23913</v>
+        <v>-2.38475</v>
       </c>
     </row>
     <row r="113" spans="1:16">
@@ -6964,10 +6964,10 @@
         <v>165</v>
       </c>
       <c r="O113">
-        <v>-20.176</v>
+        <v>-21.3742</v>
       </c>
       <c r="P113">
-        <v>-2.44539</v>
+        <v>-2.59063</v>
       </c>
     </row>
     <row r="114" spans="1:16">
@@ -7014,10 +7014,10 @@
         <v>165</v>
       </c>
       <c r="O114">
-        <v>-20.1762</v>
+        <v>-21.3275</v>
       </c>
       <c r="P114">
-        <v>-2.44541</v>
+        <v>-2.58496</v>
       </c>
     </row>
     <row r="115" spans="1:16">
@@ -7064,10 +7064,10 @@
         <v>165</v>
       </c>
       <c r="O115">
-        <v>-22.2284</v>
+        <v>-23.4302</v>
       </c>
       <c r="P115">
-        <v>-2.69417</v>
+        <v>-2.83984</v>
       </c>
     </row>
     <row r="116" spans="1:16">
@@ -7114,10 +7114,10 @@
         <v>165</v>
       </c>
       <c r="O116">
-        <v>-24.131</v>
+        <v>-25.2775</v>
       </c>
       <c r="P116">
-        <v>-2.92477</v>
+        <v>-3.06376</v>
       </c>
     </row>
     <row r="117" spans="1:16">
@@ -7164,10 +7164,10 @@
         <v>165</v>
       </c>
       <c r="O117">
-        <v>-26.0776</v>
+        <v>-27.2831</v>
       </c>
       <c r="P117">
-        <v>-3.16074</v>
+        <v>-3.30686</v>
       </c>
     </row>
     <row r="118" spans="1:16">
@@ -7214,10 +7214,10 @@
         <v>165</v>
       </c>
       <c r="O118">
-        <v>-27.1824</v>
+        <v>-28.3338</v>
       </c>
       <c r="P118">
-        <v>-3.29463</v>
+        <v>-3.43421</v>
       </c>
     </row>
     <row r="119" spans="1:16">
@@ -7264,10 +7264,10 @@
         <v>165</v>
       </c>
       <c r="O119">
-        <v>-29.0343</v>
+        <v>-30.185</v>
       </c>
       <c r="P119">
-        <v>-3.51913</v>
+        <v>-3.6586</v>
       </c>
     </row>
     <row r="120" spans="1:16">
@@ -7314,10 +7314,10 @@
         <v>165</v>
       </c>
       <c r="O120">
-        <v>-30.9354</v>
+        <v>-32.0359</v>
       </c>
       <c r="P120">
-        <v>-3.74955</v>
+        <v>-3.88295</v>
       </c>
     </row>
     <row r="121" spans="1:16">
@@ -7364,10 +7364,10 @@
         <v>165</v>
       </c>
       <c r="O121">
-        <v>-32.9366</v>
+        <v>-33.9374</v>
       </c>
       <c r="P121">
-        <v>-3.99212</v>
+        <v>-4.11344</v>
       </c>
     </row>
     <row r="122" spans="1:16">
@@ -7414,10 +7414,10 @@
         <v>165</v>
       </c>
       <c r="O122">
-        <v>-28.9841</v>
+        <v>-30.9353</v>
       </c>
       <c r="P122">
-        <v>-3.51304</v>
+        <v>-3.74955</v>
       </c>
     </row>
     <row r="123" spans="1:16">
@@ -7464,10 +7464,10 @@
         <v>165</v>
       </c>
       <c r="O123">
-        <v>-30.9854</v>
+        <v>-32.8366</v>
       </c>
       <c r="P123">
-        <v>-3.75562</v>
+        <v>-3.98</v>
       </c>
     </row>
     <row r="124" spans="1:16">
@@ -7514,10 +7514,10 @@
         <v>165</v>
       </c>
       <c r="O124">
-        <v>-32.7365</v>
+        <v>-34.5877</v>
       </c>
       <c r="P124">
-        <v>-3.96786</v>
+        <v>-4.19227</v>
       </c>
     </row>
     <row r="125" spans="1:16">
@@ -7563,11 +7563,11 @@
       <c r="N125" t="s">
         <v>165</v>
       </c>
-      <c r="O125">
-        <v>-34.7379</v>
+      <c r="O125" s="3">
+        <v>-36.5887</v>
       </c>
       <c r="P125">
-        <v>-4.21047</v>
+        <v>-4.43481</v>
       </c>
     </row>
     <row r="126" spans="1:16">
@@ -7614,10 +7614,10 @@
         <v>165</v>
       </c>
       <c r="O126" s="3">
-        <v>-35.7385</v>
+        <v>-37.5864</v>
       </c>
       <c r="P126">
-        <v>-4.33175</v>
+        <v>-4.54396</v>
       </c>
     </row>
     <row r="127" spans="1:16">
@@ -7664,10 +7664,10 @@
         <v>165</v>
       </c>
       <c r="O127" s="3">
-        <v>-37.5892</v>
+        <v>-39.3906</v>
       </c>
       <c r="P127">
-        <v>-4.55609</v>
+        <v>-4.77442</v>
       </c>
     </row>
     <row r="128" spans="1:16">
@@ -7714,10 +7714,10 @@
         <v>165</v>
       </c>
       <c r="O128" s="3">
-        <v>-39.2407</v>
+        <v>-40.9918</v>
       </c>
       <c r="P128">
-        <v>-4.75626</v>
+        <v>-4.96854</v>
       </c>
     </row>
     <row r="129" spans="1:16">
@@ -7764,10 +7764,10 @@
         <v>165</v>
       </c>
       <c r="O129" s="3">
-        <v>-41.1921</v>
+        <v>-42.8921</v>
       </c>
       <c r="P129">
-        <v>-4.9928</v>
+        <v>-5.19886</v>
       </c>
     </row>
     <row r="130" spans="1:16">
@@ -7814,10 +7814,10 @@
         <v>239</v>
       </c>
       <c r="O130">
-        <v>24.2901</v>
+        <v>25.2282</v>
       </c>
       <c r="P130">
-        <v>3.59914</v>
+        <v>3.73806</v>
       </c>
     </row>
     <row r="131" spans="1:16">
@@ -7864,10 +7864,10 @@
         <v>239</v>
       </c>
       <c r="O131">
-        <v>23.257</v>
+        <v>24.2387</v>
       </c>
       <c r="P131">
-        <v>3.44612</v>
+        <v>3.59153</v>
       </c>
     </row>
     <row r="132" spans="1:16">
@@ -7914,10 +7914,10 @@
         <v>239</v>
       </c>
       <c r="O132">
-        <v>22.4265</v>
+        <v>23.3127</v>
       </c>
       <c r="P132">
-        <v>3.32306</v>
+        <v>3.45431</v>
       </c>
     </row>
     <row r="133" spans="1:16">
@@ -7964,10 +7964,10 @@
         <v>239</v>
       </c>
       <c r="O133">
-        <v>21.3489</v>
+        <v>22.4263</v>
       </c>
       <c r="P133">
-        <v>3.16336</v>
+        <v>3.32306</v>
       </c>
     </row>
     <row r="134" spans="1:16">
@@ -8014,10 +8014,10 @@
         <v>239</v>
       </c>
       <c r="O134">
-        <v>20.8821</v>
+        <v>21.8581</v>
       </c>
       <c r="P134">
-        <v>3.09422</v>
+        <v>3.23885</v>
       </c>
     </row>
     <row r="135" spans="1:16">
@@ -8064,10 +8064,10 @@
         <v>239</v>
       </c>
       <c r="O135">
-        <v>19.8427</v>
+        <v>20.8768</v>
       </c>
       <c r="P135">
-        <v>2.94027</v>
+        <v>3.10101</v>
       </c>
     </row>
     <row r="136" spans="1:16">
@@ -8114,10 +8114,10 @@
         <v>239</v>
       </c>
       <c r="O136">
-        <v>18.9643</v>
+        <v>19.8947</v>
       </c>
       <c r="P136">
-        <v>2.81013</v>
+        <v>2.94797</v>
       </c>
     </row>
     <row r="137" spans="1:16">
@@ -8164,10 +8164,10 @@
         <v>239</v>
       </c>
       <c r="O137">
-        <v>17.9839</v>
+        <v>19.0161</v>
       </c>
       <c r="P137">
-        <v>2.6649</v>
+        <v>2.81783</v>
       </c>
     </row>
     <row r="138" spans="1:16">
@@ -8214,10 +8214,10 @@
         <v>239</v>
       </c>
       <c r="O138">
-        <v>19.8946</v>
+        <v>20.5215</v>
       </c>
       <c r="P138">
-        <v>2.94799</v>
+        <v>3.04082</v>
       </c>
     </row>
     <row r="139" spans="1:16">
@@ -8264,10 +8264,10 @@
         <v>239</v>
       </c>
       <c r="O139">
-        <v>18.9713</v>
+        <v>19.4811</v>
       </c>
       <c r="P139">
-        <v>2.81112</v>
+        <v>2.88671</v>
       </c>
     </row>
     <row r="140" spans="1:16">
@@ -8314,10 +8314,10 @@
         <v>239</v>
       </c>
       <c r="O140">
-        <v>18.0344</v>
+        <v>18.6546</v>
       </c>
       <c r="P140">
-        <v>2.67238</v>
+        <v>2.76426</v>
       </c>
     </row>
     <row r="141" spans="1:16">
@@ -8364,10 +8364,10 @@
         <v>239</v>
       </c>
       <c r="O141">
-        <v>17.0525</v>
+        <v>17.6733</v>
       </c>
       <c r="P141">
-        <v>2.52693</v>
+        <v>2.61889</v>
       </c>
     </row>
     <row r="142" spans="1:16">
@@ -8414,10 +8414,10 @@
         <v>239</v>
       </c>
       <c r="O142">
-        <v>16.5363</v>
+        <v>17.1053</v>
       </c>
       <c r="P142">
-        <v>2.45044</v>
+        <v>2.53474</v>
       </c>
     </row>
     <row r="143" spans="1:16">
@@ -8464,10 +8464,10 @@
         <v>239</v>
       </c>
       <c r="O143">
-        <v>15.4513</v>
+        <v>16.0714</v>
       </c>
       <c r="P143">
-        <v>2.28967</v>
+        <v>2.38158</v>
       </c>
     </row>
     <row r="144" spans="1:16">
@@ -8514,10 +8514,10 @@
         <v>239</v>
       </c>
       <c r="O144">
-        <v>14.478</v>
+        <v>15.1942</v>
       </c>
       <c r="P144">
-        <v>2.14549</v>
+        <v>2.25161</v>
       </c>
     </row>
     <row r="145" spans="1:16">
@@ -8564,10 +8564,10 @@
         <v>239</v>
       </c>
       <c r="O145">
-        <v>13.5403</v>
+        <v>14.064</v>
       </c>
       <c r="P145">
-        <v>2.0066</v>
+        <v>2.08412</v>
       </c>
     </row>
     <row r="146" spans="1:16">
@@ -8614,10 +8614,10 @@
         <v>239</v>
       </c>
       <c r="O146">
-        <v>13.4886</v>
+        <v>14.1084</v>
       </c>
       <c r="P146">
-        <v>1.99897</v>
+        <v>2.09073</v>
       </c>
     </row>
     <row r="147" spans="1:16">
@@ -8664,10 +8664,10 @@
         <v>239</v>
       </c>
       <c r="O147">
-        <v>12.4029</v>
+        <v>13.1269</v>
       </c>
       <c r="P147">
-        <v>1.84568</v>
+        <v>1.94538</v>
       </c>
     </row>
     <row r="148" spans="1:16">
@@ -8714,10 +8714,10 @@
         <v>239</v>
       </c>
       <c r="O148">
-        <v>11.3689</v>
+        <v>11.9986</v>
       </c>
       <c r="P148">
-        <v>1.68488</v>
+        <v>1.77813</v>
       </c>
     </row>
     <row r="149" spans="1:16">
@@ -8764,10 +8764,10 @@
         <v>239</v>
       </c>
       <c r="O149">
-        <v>10.2838</v>
+        <v>10.9622</v>
       </c>
       <c r="P149">
-        <v>1.52414</v>
+        <v>1.62461</v>
       </c>
     </row>
     <row r="150" spans="1:16">
@@ -8814,10 +8814,10 @@
         <v>239</v>
       </c>
       <c r="O150">
-        <v>9.30132</v>
+        <v>10.0328</v>
       </c>
       <c r="P150">
-        <v>1.37859</v>
+        <v>1.4869</v>
       </c>
     </row>
     <row r="151" spans="1:16">
@@ -8864,10 +8864,10 @@
         <v>239</v>
       </c>
       <c r="O151">
-        <v>8.060890000000001</v>
+        <v>8.735480000000001</v>
       </c>
       <c r="P151">
-        <v>1.19482</v>
+        <v>1.29481</v>
       </c>
     </row>
     <row r="152" spans="1:16">
@@ -8914,10 +8914,10 @@
         <v>239</v>
       </c>
       <c r="O152">
-        <v>6.82105</v>
+        <v>7.64759</v>
       </c>
       <c r="P152">
-        <v>1.01117</v>
+        <v>1.13359</v>
       </c>
     </row>
     <row r="153" spans="1:16">
@@ -8964,10 +8964,10 @@
         <v>239</v>
       </c>
       <c r="O153">
-        <v>5.58692</v>
+        <v>6.45899</v>
       </c>
       <c r="P153">
-        <v>0.828269</v>
+        <v>0.957516</v>
       </c>
     </row>
     <row r="154" spans="1:16">
@@ -9014,10 +9014,10 @@
         <v>239</v>
       </c>
       <c r="O154">
-        <v>7.55138</v>
+        <v>7.59631</v>
       </c>
       <c r="P154">
-        <v>1.11928</v>
+        <v>1.12598</v>
       </c>
     </row>
     <row r="155" spans="1:16">
@@ -9064,10 +9064,10 @@
         <v>239</v>
       </c>
       <c r="O155">
-        <v>6.40725</v>
+        <v>6.3557</v>
       </c>
       <c r="P155">
-        <v>0.949832</v>
+        <v>0.94223</v>
       </c>
     </row>
     <row r="156" spans="1:16">
@@ -9114,7 +9114,7 @@
         <v>239</v>
       </c>
       <c r="O156">
-        <v>5.21859</v>
+        <v>5.21863</v>
       </c>
       <c r="P156">
         <v>0.773772</v>
@@ -9164,10 +9164,10 @@
         <v>239</v>
       </c>
       <c r="O157">
-        <v>4.18486</v>
+        <v>4.18462</v>
       </c>
       <c r="P157">
-        <v>0.6205889999999999</v>
+        <v>0.62055</v>
       </c>
     </row>
     <row r="158" spans="1:16">
@@ -9214,10 +9214,10 @@
         <v>239</v>
       </c>
       <c r="O158">
-        <v>3.26134</v>
+        <v>3.25417</v>
       </c>
       <c r="P158">
-        <v>0.490262</v>
+        <v>0.482702</v>
       </c>
     </row>
     <row r="159" spans="1:16">
@@ -9264,10 +9264,10 @@
         <v>239</v>
       </c>
       <c r="O159">
-        <v>2.16957</v>
+        <v>2.22053</v>
       </c>
       <c r="P159">
-        <v>0.322026</v>
+        <v>0.329545</v>
       </c>
     </row>
     <row r="160" spans="1:16">
@@ -9314,10 +9314,10 @@
         <v>239</v>
       </c>
       <c r="O160">
-        <v>1.18644</v>
+        <v>1.18666</v>
       </c>
       <c r="P160">
-        <v>0.176373</v>
+        <v>0.176411</v>
       </c>
     </row>
     <row r="161" spans="1:16">
@@ -9364,10 +9364,10 @@
         <v>239</v>
       </c>
       <c r="O161">
-        <v>0.101399</v>
+        <v>0.101761</v>
       </c>
       <c r="P161">
-        <v>0.0156883</v>
+        <v>0.0156685</v>
       </c>
     </row>
     <row r="162" spans="1:16">
@@ -9414,10 +9414,10 @@
         <v>239</v>
       </c>
       <c r="O162">
-        <v>0.152671</v>
+        <v>0.152915</v>
       </c>
       <c r="P162">
-        <v>0.0232645</v>
+        <v>0.0232449</v>
       </c>
     </row>
     <row r="163" spans="1:16">
@@ -9464,10 +9464,10 @@
         <v>239</v>
       </c>
       <c r="O163">
-        <v>-0.983823</v>
+        <v>-0.983228</v>
       </c>
       <c r="P163">
-        <v>-0.145139</v>
+        <v>-0.145055</v>
       </c>
     </row>
     <row r="164" spans="1:16">
@@ -9514,10 +9514,10 @@
         <v>239</v>
       </c>
       <c r="O164">
-        <v>-2.06943</v>
+        <v>-2.06929</v>
       </c>
       <c r="P164">
-        <v>-0.305953</v>
+        <v>-0.305911</v>
       </c>
     </row>
     <row r="165" spans="1:16">
@@ -9564,10 +9564,10 @@
         <v>239</v>
       </c>
       <c r="O165">
-        <v>-3.0439</v>
+        <v>-3.05075</v>
       </c>
       <c r="P165">
-        <v>-0.450356</v>
+        <v>-0.451321</v>
       </c>
     </row>
     <row r="166" spans="1:16">
@@ -9614,10 +9614,10 @@
         <v>239</v>
       </c>
       <c r="O166">
-        <v>-3.975</v>
+        <v>-4.02005</v>
       </c>
       <c r="P166">
-        <v>-0.588318</v>
+        <v>-0.594931</v>
       </c>
     </row>
     <row r="167" spans="1:16">
@@ -9664,10 +9664,10 @@
         <v>239</v>
       </c>
       <c r="O167">
-        <v>-5.06617</v>
+        <v>-5.06371</v>
       </c>
       <c r="P167">
-        <v>-0.749901</v>
+        <v>-0.742262</v>
       </c>
     </row>
     <row r="168" spans="1:16">
@@ -9714,10 +9714,10 @@
         <v>239</v>
       </c>
       <c r="O168">
-        <v>-6.19708</v>
+        <v>-6.25406</v>
       </c>
       <c r="P168">
-        <v>-0.9174909999999999</v>
+        <v>-0.92591</v>
       </c>
     </row>
     <row r="169" spans="1:16">
@@ -9764,10 +9764,10 @@
         <v>239</v>
       </c>
       <c r="O169">
-        <v>-7.2878</v>
+        <v>-7.23584</v>
       </c>
       <c r="P169">
-        <v>-1.07904</v>
+        <v>-1.07135</v>
       </c>
     </row>
     <row r="170" spans="1:16">
@@ -9814,10 +9814,10 @@
         <v>239</v>
       </c>
       <c r="O170">
-        <v>-5.42762</v>
+        <v>-6.35733</v>
       </c>
       <c r="P170">
-        <v>-0.803455</v>
+        <v>-0.9412239999999999</v>
       </c>
     </row>
     <row r="171" spans="1:16">
@@ -9864,10 +9864,10 @@
         <v>239</v>
       </c>
       <c r="O171">
-        <v>-6.66789</v>
+        <v>-7.3391</v>
       </c>
       <c r="P171">
-        <v>-0.987218</v>
+        <v>-1.08663</v>
       </c>
     </row>
     <row r="172" spans="1:16">
@@ -9914,10 +9914,10 @@
         <v>239</v>
       </c>
       <c r="O172">
-        <v>-7.64941</v>
+        <v>-8.321160000000001</v>
       </c>
       <c r="P172">
-        <v>-1.13265</v>
+        <v>-1.23214</v>
       </c>
     </row>
     <row r="173" spans="1:16">
@@ -9964,10 +9964,10 @@
         <v>239</v>
       </c>
       <c r="O173">
-        <v>-8.779590000000001</v>
+        <v>-9.404820000000001</v>
       </c>
       <c r="P173">
-        <v>-1.30008</v>
+        <v>-1.39268</v>
       </c>
     </row>
     <row r="174" spans="1:16">
@@ -10014,10 +10014,10 @@
         <v>239</v>
       </c>
       <c r="O174">
-        <v>-9.509040000000001</v>
+        <v>-10.2313</v>
       </c>
       <c r="P174">
-        <v>-1.40814</v>
+        <v>-1.50766</v>
       </c>
     </row>
     <row r="175" spans="1:16">
@@ -10064,10 +10064,10 @@
         <v>239</v>
       </c>
       <c r="O175">
-        <v>-10.4908</v>
+        <v>-11.1624</v>
       </c>
       <c r="P175">
-        <v>-1.55357</v>
+        <v>-1.65308</v>
       </c>
     </row>
     <row r="176" spans="1:16">
@@ -10114,10 +10114,10 @@
         <v>239</v>
       </c>
       <c r="O176">
-        <v>-11.5681</v>
+        <v>-12.0926</v>
       </c>
       <c r="P176">
-        <v>-1.71323</v>
+        <v>-1.79091</v>
       </c>
     </row>
     <row r="177" spans="1:16">
@@ -10164,10 +10164,10 @@
         <v>239</v>
       </c>
       <c r="O177">
-        <v>-12.5061</v>
+        <v>-13.1258</v>
       </c>
       <c r="P177">
-        <v>-1.85216</v>
+        <v>-1.94393</v>
       </c>
     </row>
     <row r="178" spans="1:16">
@@ -10214,10 +10214,10 @@
         <v>239</v>
       </c>
       <c r="O178">
-        <v>-12.5061</v>
+        <v>-13.1749</v>
       </c>
       <c r="P178">
-        <v>-1.85214</v>
+        <v>-1.95122</v>
       </c>
     </row>
     <row r="179" spans="1:16">
@@ -10264,10 +10264,10 @@
         <v>239</v>
       </c>
       <c r="O179">
-        <v>-13.488</v>
+        <v>-14.16</v>
       </c>
       <c r="P179">
-        <v>-1.9976</v>
+        <v>-2.09712</v>
       </c>
     </row>
     <row r="180" spans="1:16">
@@ -10314,10 +10314,10 @@
         <v>239</v>
       </c>
       <c r="O180">
-        <v>-14.5147</v>
+        <v>-15.09</v>
       </c>
       <c r="P180">
-        <v>-2.14976</v>
+        <v>-2.23494</v>
       </c>
     </row>
     <row r="181" spans="1:16">
@@ -10364,10 +10364,10 @@
         <v>239</v>
       </c>
       <c r="O181">
-        <v>-15.5046</v>
+        <v>-16.1756</v>
       </c>
       <c r="P181">
-        <v>-2.29633</v>
+        <v>-2.39578</v>
       </c>
     </row>
     <row r="182" spans="1:16">
@@ -10414,10 +10414,10 @@
         <v>239</v>
       </c>
       <c r="O182">
-        <v>-16.0721</v>
+        <v>-16.6928</v>
       </c>
       <c r="P182">
-        <v>-2.38043</v>
+        <v>-2.47242</v>
       </c>
     </row>
     <row r="183" spans="1:16">
@@ -10464,10 +10464,10 @@
         <v>239</v>
       </c>
       <c r="O183">
-        <v>-17.1496</v>
+        <v>-17.6755</v>
       </c>
       <c r="P183">
-        <v>-2.54013</v>
+        <v>-2.61797</v>
       </c>
     </row>
     <row r="184" spans="1:16">
@@ -10514,10 +10514,10 @@
         <v>239</v>
       </c>
       <c r="O184">
-        <v>-18.0809</v>
+        <v>-18.5996</v>
       </c>
       <c r="P184">
-        <v>-2.67809</v>
+        <v>-2.74814</v>
       </c>
     </row>
     <row r="185" spans="1:16">
@@ -10564,10 +10564,10 @@
         <v>239</v>
       </c>
       <c r="O185">
-        <v>-19.0682</v>
+        <v>-19.8976</v>
       </c>
       <c r="P185">
-        <v>-2.81715</v>
+        <v>-2.94717</v>
       </c>
     </row>
     <row r="186" spans="1:16">
@@ -10614,10 +10614,10 @@
         <v>239</v>
       </c>
       <c r="O186">
-        <v>-17.0546</v>
+        <v>-17.9336</v>
       </c>
       <c r="P186">
-        <v>-2.52596</v>
+        <v>-2.65624</v>
       </c>
     </row>
     <row r="187" spans="1:16">
@@ -10664,10 +10664,10 @@
         <v>239</v>
       </c>
       <c r="O187">
-        <v>-18.1345</v>
+        <v>-19.2262</v>
       </c>
       <c r="P187">
-        <v>-2.68604</v>
+        <v>-2.84772</v>
       </c>
     </row>
     <row r="188" spans="1:16">
@@ -10714,10 +10714,10 @@
         <v>239</v>
       </c>
       <c r="O188">
-        <v>-19.0708</v>
+        <v>-20.3114</v>
       </c>
       <c r="P188">
-        <v>-2.82467</v>
+        <v>-3.0085</v>
       </c>
     </row>
     <row r="189" spans="1:16">
@@ -10764,10 +10764,10 @@
         <v>239</v>
       </c>
       <c r="O189">
-        <v>-20.4149</v>
+        <v>-21.5517</v>
       </c>
       <c r="P189">
-        <v>-3.02382</v>
+        <v>-3.19224</v>
       </c>
     </row>
     <row r="190" spans="1:16">
@@ -10814,10 +10814,10 @@
         <v>239</v>
       </c>
       <c r="O190">
-        <v>-21.0279</v>
+        <v>-22.1651</v>
       </c>
       <c r="P190">
-        <v>-3.11468</v>
+        <v>-3.28315</v>
       </c>
     </row>
     <row r="191" spans="1:16">
@@ -10864,10 +10864,10 @@
         <v>239</v>
       </c>
       <c r="O191">
-        <v>-22.2752</v>
+        <v>-23.6182</v>
       </c>
       <c r="P191">
-        <v>-3.29945</v>
+        <v>-3.49097</v>
       </c>
     </row>
     <row r="192" spans="1:16">
@@ -10914,10 +10914,10 @@
         <v>239</v>
       </c>
       <c r="O192">
-        <v>-23.3534</v>
+        <v>-24.6528</v>
       </c>
       <c r="P192">
-        <v>-3.45919</v>
+        <v>-3.65167</v>
       </c>
     </row>
     <row r="193" spans="1:16">
@@ -10964,10 +10964,10 @@
         <v>239</v>
       </c>
       <c r="O193">
-        <v>-24.7565</v>
+        <v>-25.9396</v>
       </c>
       <c r="P193">
-        <v>-3.66701</v>
+        <v>-3.84234</v>
       </c>
     </row>
     <row r="194" spans="1:16" s="1" customFormat="1">
@@ -11025,10 +11025,10 @@
         <v>303</v>
       </c>
       <c r="O195" s="3">
-        <v>-41.1921</v>
+        <v>-42.8921</v>
       </c>
       <c r="P195" s="1">
-        <v>-4.9928</v>
+        <v>-5.19886</v>
       </c>
     </row>
     <row r="196" spans="1:16" s="1" customFormat="1">
@@ -11036,10 +11036,10 @@
         <v>304</v>
       </c>
       <c r="O196" s="2">
-        <v>41.2023</v>
+        <v>42.9552</v>
       </c>
       <c r="P196" s="1">
-        <v>4.99441</v>
+        <v>5.20687</v>
       </c>
     </row>
     <row r="197" spans="1:16" s="1" customFormat="1">
@@ -11079,10 +11079,10 @@
         <v>309</v>
       </c>
       <c r="O201" s="1">
-        <v>0.09844588</v>
+        <v>0.09155017</v>
       </c>
       <c r="P201" s="1">
-        <v>0.01518955</v>
+        <v>0.01427979</v>
       </c>
     </row>
     <row r="202" spans="1:16" s="1" customFormat="1">
@@ -11090,10 +11090,10 @@
         <v>310</v>
       </c>
       <c r="O202" s="1">
-        <v>19.004749</v>
+        <v>19.939598</v>
       </c>
       <c r="P202" s="1">
-        <v>2.477299</v>
+        <v>2.598488</v>
       </c>
     </row>
     <row r="203" spans="1:16" s="1" customFormat="1">
@@ -11101,10 +11101,10 @@
         <v>311</v>
       </c>
       <c r="O203" s="1">
-        <v>19304.768265</v>
+        <v>21779.968295</v>
       </c>
       <c r="P203" s="1">
-        <v>16309.232334</v>
+        <v>18196.96228</v>
       </c>
     </row>
     <row r="204" spans="1:16" s="1" customFormat="1"/>

--- a/dcd_top_offset_step_tsmc2p_meas.xlsx
+++ b/dcd_top_offset_step_tsmc2p_meas.xlsx
@@ -1413,11 +1413,11 @@
       <c r="N2" t="s">
         <v>29</v>
       </c>
-      <c r="O2">
-        <v>33.3415</v>
+      <c r="O2" s="2">
+        <v>39.6936</v>
       </c>
       <c r="P2">
-        <v>4.44582</v>
+        <v>5.29277</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1463,11 +1463,11 @@
       <c r="N3" t="s">
         <v>29</v>
       </c>
-      <c r="O3">
-        <v>31.7925</v>
+      <c r="O3" s="2">
+        <v>38.196</v>
       </c>
       <c r="P3">
-        <v>4.23929</v>
+        <v>5.09308</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1513,11 +1513,11 @@
       <c r="N4" t="s">
         <v>29</v>
       </c>
-      <c r="O4">
-        <v>30.3446</v>
+      <c r="O4" s="2">
+        <v>36.7479</v>
       </c>
       <c r="P4">
-        <v>4.04623</v>
+        <v>4.90002</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1563,11 +1563,11 @@
       <c r="N5" t="s">
         <v>29</v>
       </c>
-      <c r="O5">
-        <v>28.8457</v>
+      <c r="O5" s="2">
+        <v>35.3014</v>
       </c>
       <c r="P5">
-        <v>3.8464</v>
+        <v>4.70715</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1614,10 +1614,10 @@
         <v>29</v>
       </c>
       <c r="O6">
-        <v>28.0201</v>
+        <v>34.6305</v>
       </c>
       <c r="P6">
-        <v>3.73631</v>
+        <v>4.6177</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1664,10 +1664,10 @@
         <v>29</v>
       </c>
       <c r="O7">
-        <v>26.471</v>
+        <v>33.1328</v>
       </c>
       <c r="P7">
-        <v>3.52975</v>
+        <v>4.418</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1714,10 +1714,10 @@
         <v>29</v>
       </c>
       <c r="O8">
-        <v>24.9734</v>
+        <v>31.8417</v>
       </c>
       <c r="P8">
-        <v>3.33009</v>
+        <v>4.24584</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1764,10 +1764,10 @@
         <v>29</v>
       </c>
       <c r="O9">
-        <v>23.3737</v>
+        <v>30.344</v>
       </c>
       <c r="P9">
-        <v>3.11678</v>
+        <v>4.04616</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1814,10 +1814,10 @@
         <v>29</v>
       </c>
       <c r="O10">
-        <v>25.8513</v>
+        <v>29.7763</v>
       </c>
       <c r="P10">
-        <v>3.44713</v>
+        <v>3.97048</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1864,10 +1864,10 @@
         <v>29</v>
       </c>
       <c r="O11">
-        <v>24.2508</v>
+        <v>28.3303</v>
       </c>
       <c r="P11">
-        <v>3.23373</v>
+        <v>3.77767</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1914,10 +1914,10 @@
         <v>29</v>
       </c>
       <c r="O12">
-        <v>22.753</v>
+        <v>26.988</v>
       </c>
       <c r="P12">
-        <v>3.03402</v>
+        <v>3.5987</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1964,10 +1964,10 @@
         <v>29</v>
       </c>
       <c r="O13">
-        <v>21.1519</v>
+        <v>25.5416</v>
       </c>
       <c r="P13">
-        <v>2.82055</v>
+        <v>3.40585</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -2014,10 +2014,10 @@
         <v>29</v>
       </c>
       <c r="O14">
-        <v>20.3254</v>
+        <v>24.8188</v>
       </c>
       <c r="P14">
-        <v>2.71035</v>
+        <v>3.30946</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -2064,10 +2064,10 @@
         <v>29</v>
       </c>
       <c r="O15">
-        <v>18.673</v>
+        <v>23.2701</v>
       </c>
       <c r="P15">
-        <v>2.49003</v>
+        <v>3.10974</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -2114,10 +2114,10 @@
         <v>29</v>
       </c>
       <c r="O16">
-        <v>17.2272</v>
+        <v>22.03</v>
       </c>
       <c r="P16">
-        <v>2.29726</v>
+        <v>2.93762</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -2164,10 +2164,10 @@
         <v>29</v>
       </c>
       <c r="O17">
-        <v>15.678</v>
+        <v>20.6355</v>
       </c>
       <c r="P17">
-        <v>2.09069</v>
+        <v>2.7517</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -2214,10 +2214,10 @@
         <v>29</v>
       </c>
       <c r="O18">
-        <v>15.7296</v>
+        <v>20.584</v>
       </c>
       <c r="P18">
-        <v>2.09757</v>
+        <v>2.74482</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -2264,10 +2264,10 @@
         <v>29</v>
       </c>
       <c r="O19">
-        <v>14.5423</v>
+        <v>19.0897</v>
       </c>
       <c r="P19">
-        <v>1.93927</v>
+        <v>2.55202</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -2314,10 +2314,10 @@
         <v>29</v>
       </c>
       <c r="O20">
-        <v>13.4575</v>
+        <v>17.7436</v>
       </c>
       <c r="P20">
-        <v>1.79463</v>
+        <v>2.36611</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -2364,10 +2364,10 @@
         <v>29</v>
       </c>
       <c r="O21">
-        <v>12.3212</v>
+        <v>16.3496</v>
       </c>
       <c r="P21">
-        <v>1.64312</v>
+        <v>2.18023</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -2414,10 +2414,10 @@
         <v>29</v>
       </c>
       <c r="O22">
-        <v>11.2883</v>
+        <v>15.3166</v>
       </c>
       <c r="P22">
-        <v>1.5054</v>
+        <v>2.04251</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -2464,10 +2464,10 @@
         <v>29</v>
       </c>
       <c r="O23">
-        <v>10.1521</v>
+        <v>14.2317</v>
       </c>
       <c r="P23">
-        <v>1.35391</v>
+        <v>1.89784</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -2514,10 +2514,10 @@
         <v>29</v>
       </c>
       <c r="O24">
-        <v>8.91226</v>
+        <v>13.2506</v>
       </c>
       <c r="P24">
-        <v>1.18859</v>
+        <v>1.76702</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -2564,10 +2564,10 @@
         <v>29</v>
       </c>
       <c r="O25">
-        <v>7.67296</v>
+        <v>12.1143</v>
       </c>
       <c r="P25">
-        <v>1.02334</v>
+        <v>1.61551</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -2614,10 +2614,10 @@
         <v>29</v>
       </c>
       <c r="O26">
-        <v>8.706630000000001</v>
+        <v>8.80878</v>
       </c>
       <c r="P26">
-        <v>1.16117</v>
+        <v>1.1748</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -2664,10 +2664,10 @@
         <v>29</v>
       </c>
       <c r="O27">
-        <v>7.46646</v>
+        <v>7.51782</v>
       </c>
       <c r="P27">
-        <v>0.995819</v>
+        <v>1.00267</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -2714,10 +2714,10 @@
         <v>29</v>
       </c>
       <c r="O28">
-        <v>6.27805</v>
+        <v>6.3297</v>
       </c>
       <c r="P28">
-        <v>0.837368</v>
+        <v>0.844259</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -2764,10 +2764,10 @@
         <v>29</v>
       </c>
       <c r="O29">
-        <v>5.03879</v>
+        <v>5.03868</v>
       </c>
       <c r="P29">
-        <v>0.672125</v>
+        <v>0.672109</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2814,10 +2814,10 @@
         <v>29</v>
       </c>
       <c r="O30">
-        <v>3.90258</v>
+        <v>3.85092</v>
       </c>
       <c r="P30">
-        <v>0.520632</v>
+        <v>0.513751</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2864,10 +2864,10 @@
         <v>29</v>
       </c>
       <c r="O31">
-        <v>2.56344</v>
+        <v>2.50797</v>
       </c>
       <c r="P31">
-        <v>0.342067</v>
+        <v>0.334691</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -2914,10 +2914,10 @@
         <v>29</v>
       </c>
       <c r="O32">
-        <v>1.32005</v>
+        <v>1.26884</v>
       </c>
       <c r="P32">
-        <v>0.176295</v>
+        <v>0.169461</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2964,10 +2964,10 @@
         <v>29</v>
       </c>
       <c r="O33">
-        <v>-0.0224531</v>
+        <v>0.0801356</v>
       </c>
       <c r="P33">
-        <v>-0.00270865</v>
+        <v>0.0109684</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -3014,10 +3014,10 @@
         <v>29</v>
       </c>
       <c r="O34">
-        <v>0.0292311</v>
+        <v>0.0803729</v>
       </c>
       <c r="P34">
-        <v>0.00418483</v>
+        <v>0.0110015</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -3064,10 +3064,10 @@
         <v>29</v>
       </c>
       <c r="O35">
-        <v>-1.10734</v>
+        <v>-1.21025</v>
       </c>
       <c r="P35">
-        <v>-0.147358</v>
+        <v>-0.16108</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -3114,10 +3114,10 @@
         <v>29</v>
       </c>
       <c r="O36">
-        <v>-2.501</v>
+        <v>-2.50145</v>
       </c>
       <c r="P36">
-        <v>-0.33318</v>
+        <v>-0.333241</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -3164,10 +3164,10 @@
         <v>29</v>
       </c>
       <c r="O37">
-        <v>-3.68901</v>
+        <v>-3.74028</v>
       </c>
       <c r="P37">
-        <v>-0.491591</v>
+        <v>-0.498422</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -3214,10 +3214,10 @@
         <v>29</v>
       </c>
       <c r="O38">
-        <v>-4.92675</v>
+        <v>-4.92759</v>
       </c>
       <c r="P38">
-        <v>-0.6566070000000001</v>
+        <v>-0.656737</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -3264,10 +3264,10 @@
         <v>29</v>
       </c>
       <c r="O39">
-        <v>-6.16698</v>
+        <v>-6.21423</v>
       </c>
       <c r="P39">
-        <v>-0.821979</v>
+        <v>-0.828286</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -3314,10 +3314,10 @@
         <v>29</v>
       </c>
       <c r="O40">
-        <v>-7.45764</v>
+        <v>-7.45766</v>
       </c>
       <c r="P40">
-        <v>-0.9940560000000001</v>
+        <v>-0.99405</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -3364,10 +3364,10 @@
         <v>29</v>
       </c>
       <c r="O41">
-        <v>-8.697039999999999</v>
+        <v>-8.64448</v>
       </c>
       <c r="P41">
-        <v>-1.15932</v>
+        <v>-1.15231</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -3414,10 +3414,10 @@
         <v>29</v>
       </c>
       <c r="O42">
-        <v>-7.7159</v>
+        <v>-12.0017</v>
       </c>
       <c r="P42">
-        <v>-1.0285</v>
+        <v>-1.59995</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -3464,10 +3464,10 @@
         <v>29</v>
       </c>
       <c r="O43">
-        <v>-8.903409999999999</v>
+        <v>-13.1383</v>
       </c>
       <c r="P43">
-        <v>-1.18682</v>
+        <v>-1.75147</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -3514,10 +3514,10 @@
         <v>29</v>
       </c>
       <c r="O44">
-        <v>-9.987450000000001</v>
+        <v>-14.1198</v>
       </c>
       <c r="P44">
-        <v>-1.33137</v>
+        <v>-1.88234</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -3564,10 +3564,10 @@
         <v>29</v>
       </c>
       <c r="O45">
-        <v>-11.33</v>
+        <v>-15.1525</v>
       </c>
       <c r="P45">
-        <v>-1.51039</v>
+        <v>-2.02004</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -3614,10 +3614,10 @@
         <v>29</v>
       </c>
       <c r="O46">
-        <v>-12.4153</v>
+        <v>-16.1847</v>
       </c>
       <c r="P46">
-        <v>-1.65507</v>
+        <v>-2.15767</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -3664,10 +3664,10 @@
         <v>29</v>
       </c>
       <c r="O47">
-        <v>-13.3963</v>
+        <v>-17.3204</v>
       </c>
       <c r="P47">
-        <v>-1.78589</v>
+        <v>-2.3091</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -3714,10 +3714,10 @@
         <v>29</v>
       </c>
       <c r="O48">
-        <v>-14.4812</v>
+        <v>-18.7154</v>
       </c>
       <c r="P48">
-        <v>-1.93053</v>
+        <v>-2.4951</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -3764,10 +3764,10 @@
         <v>29</v>
       </c>
       <c r="O49">
-        <v>-15.5649</v>
+        <v>-20.1096</v>
       </c>
       <c r="P49">
-        <v>-2.06828</v>
+        <v>-2.68099</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -3814,10 +3814,10 @@
         <v>29</v>
       </c>
       <c r="O50">
-        <v>-15.4624</v>
+        <v>-20.1611</v>
       </c>
       <c r="P50">
-        <v>-2.06137</v>
+        <v>-2.68786</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -3864,10 +3864,10 @@
         <v>29</v>
       </c>
       <c r="O51">
-        <v>-17.0633</v>
+        <v>-21.6067</v>
       </c>
       <c r="P51">
-        <v>-2.27482</v>
+        <v>-2.88059</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -3914,10 +3914,10 @@
         <v>29</v>
       </c>
       <c r="O52">
-        <v>-18.4568</v>
+        <v>-22.8975</v>
       </c>
       <c r="P52">
-        <v>-2.46062</v>
+        <v>-3.0527</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -3964,10 +3964,10 @@
         <v>29</v>
       </c>
       <c r="O53">
-        <v>-20.0582</v>
+        <v>-24.3439</v>
       </c>
       <c r="P53">
-        <v>-2.67413</v>
+        <v>-3.24557</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -4014,10 +4014,10 @@
         <v>29</v>
       </c>
       <c r="O54">
-        <v>-20.8326</v>
+        <v>-25.0667</v>
       </c>
       <c r="P54">
-        <v>-2.77738</v>
+        <v>-3.34194</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -4064,10 +4064,10 @@
         <v>29</v>
       </c>
       <c r="O55">
-        <v>-22.4847</v>
+        <v>-26.6158</v>
       </c>
       <c r="P55">
-        <v>-2.99767</v>
+        <v>-3.54848</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -4114,10 +4114,10 @@
         <v>29</v>
       </c>
       <c r="O56">
-        <v>-23.9301</v>
+        <v>-28.0088</v>
       </c>
       <c r="P56">
-        <v>-3.19039</v>
+        <v>-3.73422</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -4164,10 +4164,10 @@
         <v>29</v>
       </c>
       <c r="O57">
-        <v>-25.4801</v>
+        <v>-29.5076</v>
       </c>
       <c r="P57">
-        <v>-3.39706</v>
+        <v>-3.93407</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -4214,10 +4214,10 @@
         <v>29</v>
       </c>
       <c r="O58">
-        <v>-23.1045</v>
+        <v>-30.1273</v>
       </c>
       <c r="P58">
-        <v>-3.08031</v>
+        <v>-4.01668</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -4264,10 +4264,10 @@
         <v>29</v>
       </c>
       <c r="O59">
-        <v>-24.6537</v>
+        <v>-31.6249</v>
       </c>
       <c r="P59">
-        <v>-3.28687</v>
+        <v>-4.21636</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -4314,10 +4314,10 @@
         <v>29</v>
       </c>
       <c r="O60">
-        <v>-26.151</v>
+        <v>-32.9672</v>
       </c>
       <c r="P60">
-        <v>-3.48651</v>
+        <v>-4.39533</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -4364,10 +4364,10 @@
         <v>29</v>
       </c>
       <c r="O61">
-        <v>-27.7005</v>
+        <v>-34.4648</v>
       </c>
       <c r="P61">
-        <v>-3.69311</v>
+        <v>-4.59501</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -4413,11 +4413,11 @@
       <c r="N62" t="s">
         <v>29</v>
       </c>
-      <c r="O62">
-        <v>-28.4233</v>
+      <c r="O62" s="3">
+        <v>-35.2394</v>
       </c>
       <c r="P62">
-        <v>-3.78948</v>
+        <v>-4.6983</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -4463,11 +4463,11 @@
       <c r="N63" t="s">
         <v>29</v>
       </c>
-      <c r="O63">
-        <v>-30.1274</v>
+      <c r="O63" s="3">
+        <v>-36.7366</v>
       </c>
       <c r="P63">
-        <v>-4.0167</v>
+        <v>-4.89793</v>
       </c>
     </row>
     <row r="64" spans="1:16">
@@ -4513,11 +4513,11 @@
       <c r="N64" t="s">
         <v>29</v>
       </c>
-      <c r="O64">
-        <v>-31.5218</v>
+      <c r="O64" s="3">
+        <v>-38.0794</v>
       </c>
       <c r="P64">
-        <v>-4.20261</v>
+        <v>-5.07695</v>
       </c>
     </row>
     <row r="65" spans="1:16">
@@ -4563,11 +4563,11 @@
       <c r="N65" t="s">
         <v>29</v>
       </c>
-      <c r="O65">
-        <v>-33.1742</v>
+      <c r="O65" s="3">
+        <v>-39.5247</v>
       </c>
       <c r="P65">
-        <v>-4.42294</v>
+        <v>-5.26966</v>
       </c>
     </row>
     <row r="66" spans="1:16">
@@ -4614,10 +4614,10 @@
         <v>165</v>
       </c>
       <c r="O66" s="2">
-        <v>42.9552</v>
+        <v>50.9676</v>
       </c>
       <c r="P66">
-        <v>5.20687</v>
+        <v>6.17807</v>
       </c>
     </row>
     <row r="67" spans="1:16">
@@ -4664,10 +4664,10 @@
         <v>165</v>
       </c>
       <c r="O67" s="2">
-        <v>41.103</v>
+        <v>49.1647</v>
       </c>
       <c r="P67">
-        <v>4.98237</v>
+        <v>5.95955</v>
       </c>
     </row>
     <row r="68" spans="1:16">
@@ -4714,10 +4714,10 @@
         <v>165</v>
       </c>
       <c r="O68" s="2">
-        <v>38.846</v>
+        <v>46.4576</v>
       </c>
       <c r="P68">
-        <v>4.7088</v>
+        <v>5.6314</v>
       </c>
     </row>
     <row r="69" spans="1:16">
@@ -4764,10 +4764,10 @@
         <v>165</v>
       </c>
       <c r="O69" s="2">
-        <v>37.0934</v>
+        <v>44.8163</v>
       </c>
       <c r="P69">
-        <v>4.49636</v>
+        <v>5.43246</v>
       </c>
     </row>
     <row r="70" spans="1:16">
@@ -4814,10 +4814,10 @@
         <v>165</v>
       </c>
       <c r="O70" s="2">
-        <v>36.1924</v>
+        <v>44.0089</v>
       </c>
       <c r="P70">
-        <v>4.38714</v>
+        <v>5.33459</v>
       </c>
     </row>
     <row r="71" spans="1:16">
@@ -4863,11 +4863,11 @@
       <c r="N71" t="s">
         <v>165</v>
       </c>
-      <c r="O71">
-        <v>34.3901</v>
+      <c r="O71" s="2">
+        <v>42.352</v>
       </c>
       <c r="P71">
-        <v>4.16868</v>
+        <v>5.13377</v>
       </c>
     </row>
     <row r="72" spans="1:16">
@@ -4913,11 +4913,11 @@
       <c r="N72" t="s">
         <v>165</v>
       </c>
-      <c r="O72">
-        <v>32.6879</v>
+      <c r="O72" s="2">
+        <v>40.8995</v>
       </c>
       <c r="P72">
-        <v>3.96235</v>
+        <v>4.9577</v>
       </c>
     </row>
     <row r="73" spans="1:16">
@@ -4963,11 +4963,11 @@
       <c r="N73" t="s">
         <v>165</v>
       </c>
-      <c r="O73">
-        <v>30.7856</v>
+      <c r="O73" s="2">
+        <v>39.1966</v>
       </c>
       <c r="P73">
-        <v>3.73177</v>
+        <v>4.75129</v>
       </c>
     </row>
     <row r="74" spans="1:16">
@@ -5013,11 +5013,11 @@
       <c r="N74" t="s">
         <v>165</v>
       </c>
-      <c r="O74">
-        <v>33.7554</v>
+      <c r="O74" s="2">
+        <v>38.796</v>
       </c>
       <c r="P74">
-        <v>4.09174</v>
+        <v>4.70273</v>
       </c>
     </row>
     <row r="75" spans="1:16">
@@ -5063,11 +5063,11 @@
       <c r="N75" t="s">
         <v>165</v>
       </c>
-      <c r="O75">
-        <v>31.887</v>
+      <c r="O75" s="2">
+        <v>36.9431</v>
       </c>
       <c r="P75">
-        <v>3.86527</v>
+        <v>4.47813</v>
       </c>
     </row>
     <row r="76" spans="1:16">
@@ -5113,11 +5113,11 @@
       <c r="N76" t="s">
         <v>165</v>
       </c>
-      <c r="O76">
-        <v>30.1347</v>
+      <c r="O76" s="2">
+        <v>35.2921</v>
       </c>
       <c r="P76">
-        <v>3.65288</v>
+        <v>4.27801</v>
       </c>
     </row>
     <row r="77" spans="1:16">
@@ -5164,10 +5164,10 @@
         <v>165</v>
       </c>
       <c r="O77">
-        <v>28.1346</v>
+        <v>33.5389</v>
       </c>
       <c r="P77">
-        <v>3.41043</v>
+        <v>4.06552</v>
       </c>
     </row>
     <row r="78" spans="1:16">
@@ -5214,10 +5214,10 @@
         <v>165</v>
       </c>
       <c r="O78">
-        <v>27.181</v>
+        <v>32.5878</v>
       </c>
       <c r="P78">
-        <v>3.29485</v>
+        <v>3.95022</v>
       </c>
     </row>
     <row r="79" spans="1:16">
@@ -5264,10 +5264,10 @@
         <v>165</v>
       </c>
       <c r="O79">
-        <v>25.0782</v>
+        <v>30.7356</v>
       </c>
       <c r="P79">
-        <v>3.03996</v>
+        <v>3.72572</v>
       </c>
     </row>
     <row r="80" spans="1:16">
@@ -5314,10 +5314,10 @@
         <v>165</v>
       </c>
       <c r="O80">
-        <v>23.2754</v>
+        <v>29.0833</v>
       </c>
       <c r="P80">
-        <v>2.82145</v>
+        <v>3.52543</v>
       </c>
     </row>
     <row r="81" spans="1:16">
@@ -5364,10 +5364,10 @@
         <v>165</v>
       </c>
       <c r="O81">
-        <v>21.2726</v>
+        <v>27.1818</v>
       </c>
       <c r="P81">
-        <v>2.57869</v>
+        <v>3.29494</v>
       </c>
     </row>
     <row r="82" spans="1:16">
@@ -5414,10 +5414,10 @@
         <v>165</v>
       </c>
       <c r="O82">
-        <v>21.2236</v>
+        <v>27.231</v>
       </c>
       <c r="P82">
-        <v>2.57274</v>
+        <v>3.30091</v>
       </c>
     </row>
     <row r="83" spans="1:16">
@@ -5464,10 +5464,10 @@
         <v>165</v>
       </c>
       <c r="O83">
-        <v>19.6204</v>
+        <v>25.4787</v>
       </c>
       <c r="P83">
-        <v>2.37843</v>
+        <v>3.08851</v>
       </c>
     </row>
     <row r="84" spans="1:16">
@@ -5514,10 +5514,10 @@
         <v>165</v>
       </c>
       <c r="O84">
-        <v>18.0185</v>
+        <v>23.8262</v>
       </c>
       <c r="P84">
-        <v>2.19022</v>
+        <v>2.88821</v>
       </c>
     </row>
     <row r="85" spans="1:16">
@@ -5564,10 +5564,10 @@
         <v>165</v>
       </c>
       <c r="O85">
-        <v>16.3154</v>
+        <v>22.0236</v>
       </c>
       <c r="P85">
-        <v>1.97782</v>
+        <v>2.6697</v>
       </c>
     </row>
     <row r="86" spans="1:16">
@@ -5614,10 +5614,10 @@
         <v>165</v>
       </c>
       <c r="O86">
-        <v>14.7633</v>
+        <v>20.5717</v>
       </c>
       <c r="P86">
-        <v>1.78967</v>
+        <v>2.49372</v>
       </c>
     </row>
     <row r="87" spans="1:16">
@@ -5664,10 +5664,10 @@
         <v>165</v>
       </c>
       <c r="O87">
-        <v>12.9608</v>
+        <v>18.869</v>
       </c>
       <c r="P87">
-        <v>1.57119</v>
+        <v>2.28734</v>
       </c>
     </row>
     <row r="88" spans="1:16">
@@ -5714,10 +5714,10 @@
         <v>165</v>
       </c>
       <c r="O88">
-        <v>11.2624</v>
+        <v>17.2667</v>
       </c>
       <c r="P88">
-        <v>1.36532</v>
+        <v>2.09311</v>
       </c>
     </row>
     <row r="89" spans="1:16">
@@ -5764,10 +5764,10 @@
         <v>165</v>
       </c>
       <c r="O89">
-        <v>9.405390000000001</v>
+        <v>15.5147</v>
       </c>
       <c r="P89">
-        <v>1.14023</v>
+        <v>1.88075</v>
       </c>
     </row>
     <row r="90" spans="1:16">
@@ -5814,10 +5814,10 @@
         <v>165</v>
       </c>
       <c r="O90">
-        <v>10.8074</v>
+        <v>10.8112</v>
       </c>
       <c r="P90">
-        <v>1.31016</v>
+        <v>1.31062</v>
       </c>
     </row>
     <row r="91" spans="1:16">
@@ -5864,10 +5864,10 @@
         <v>165</v>
       </c>
       <c r="O91">
-        <v>9.10497</v>
+        <v>9.05522</v>
       </c>
       <c r="P91">
-        <v>1.10381</v>
+        <v>1.09779</v>
       </c>
     </row>
     <row r="92" spans="1:16">
@@ -5914,10 +5914,10 @@
         <v>165</v>
       </c>
       <c r="O92">
-        <v>7.50263</v>
+        <v>7.50259</v>
       </c>
       <c r="P92">
-        <v>0.909597</v>
+        <v>0.909592</v>
       </c>
     </row>
     <row r="93" spans="1:16">
@@ -5964,10 +5964,10 @@
         <v>165</v>
       </c>
       <c r="O93">
-        <v>6.00064</v>
+        <v>6.05056</v>
       </c>
       <c r="P93">
-        <v>0.727546</v>
+        <v>0.733583</v>
       </c>
     </row>
     <row r="94" spans="1:16">
@@ -6014,10 +6014,10 @@
         <v>165</v>
       </c>
       <c r="O94">
-        <v>4.59906</v>
+        <v>4.59917</v>
       </c>
       <c r="P94">
-        <v>0.557647</v>
+        <v>0.557671</v>
       </c>
     </row>
     <row r="95" spans="1:16">
@@ -6064,10 +6064,10 @@
         <v>165</v>
       </c>
       <c r="O95">
-        <v>3.09826</v>
+        <v>3.04824</v>
       </c>
       <c r="P95">
-        <v>0.375743</v>
+        <v>0.369672</v>
       </c>
     </row>
     <row r="96" spans="1:16">
@@ -6114,10 +6114,10 @@
         <v>165</v>
       </c>
       <c r="O96">
-        <v>1.59639</v>
+        <v>1.59654</v>
       </c>
       <c r="P96">
-        <v>0.193688</v>
+        <v>0.193716</v>
       </c>
     </row>
     <row r="97" spans="1:16">
@@ -6164,10 +6164,10 @@
         <v>165</v>
       </c>
       <c r="O97">
-        <v>-0.00469283</v>
+        <v>-0.0018258</v>
       </c>
       <c r="P97">
-        <v>-0.000381531</v>
+        <v>-5.39914E-05</v>
       </c>
     </row>
     <row r="98" spans="1:16">
@@ -6214,10 +6214,10 @@
         <v>165</v>
       </c>
       <c r="O98">
-        <v>-0.00464063</v>
+        <v>0.0451256</v>
       </c>
       <c r="P98">
-        <v>-0.000377125</v>
+        <v>0.00565223</v>
       </c>
     </row>
     <row r="99" spans="1:16">
@@ -6264,10 +6264,10 @@
         <v>165</v>
       </c>
       <c r="O99">
-        <v>-1.50673</v>
+        <v>-1.5068</v>
       </c>
       <c r="P99">
-        <v>-0.182446</v>
+        <v>-0.182459</v>
       </c>
     </row>
     <row r="100" spans="1:16">
@@ -6314,10 +6314,10 @@
         <v>165</v>
       </c>
       <c r="O100">
-        <v>-3.15784</v>
+        <v>-3.0571</v>
       </c>
       <c r="P100">
-        <v>-0.382578</v>
+        <v>-0.370374</v>
       </c>
     </row>
     <row r="101" spans="1:16">
@@ -6364,10 +6364,10 @@
         <v>165</v>
       </c>
       <c r="O101">
-        <v>-4.55974</v>
+        <v>-4.55682</v>
       </c>
       <c r="P101">
-        <v>-0.5525099999999999</v>
+        <v>-0.552157</v>
       </c>
     </row>
     <row r="102" spans="1:16">
@@ -6414,10 +6414,10 @@
         <v>165</v>
       </c>
       <c r="O102">
-        <v>-6.01132</v>
+        <v>-5.91125</v>
       </c>
       <c r="P102">
-        <v>-0.728449</v>
+        <v>-0.716323</v>
       </c>
     </row>
     <row r="103" spans="1:16">
@@ -6464,10 +6464,10 @@
         <v>165</v>
       </c>
       <c r="O103">
-        <v>-7.56262</v>
+        <v>-7.56269</v>
       </c>
       <c r="P103">
-        <v>-0.916497</v>
+        <v>-0.916503</v>
       </c>
     </row>
     <row r="104" spans="1:16">
@@ -6514,10 +6514,10 @@
         <v>165</v>
       </c>
       <c r="O104">
-        <v>-9.114380000000001</v>
+        <v>-9.11434</v>
       </c>
       <c r="P104">
-        <v>-1.10459</v>
+        <v>-1.10458</v>
       </c>
     </row>
     <row r="105" spans="1:16">
@@ -6564,10 +6564,10 @@
         <v>165</v>
       </c>
       <c r="O105">
-        <v>-10.8165</v>
+        <v>-10.8164</v>
       </c>
       <c r="P105">
-        <v>-1.3109</v>
+        <v>-1.31088</v>
       </c>
     </row>
     <row r="106" spans="1:16">
@@ -6614,10 +6614,10 @@
         <v>165</v>
       </c>
       <c r="O106">
-        <v>-9.56514</v>
+        <v>-15.5715</v>
       </c>
       <c r="P106">
-        <v>-1.15924</v>
+        <v>-1.88726</v>
       </c>
     </row>
     <row r="107" spans="1:16">
@@ -6664,10 +6664,10 @@
         <v>165</v>
       </c>
       <c r="O107">
-        <v>-11.2664</v>
+        <v>-17.2233</v>
       </c>
       <c r="P107">
-        <v>-1.36544</v>
+        <v>-2.08749</v>
       </c>
     </row>
     <row r="108" spans="1:16">
@@ -6714,10 +6714,10 @@
         <v>165</v>
       </c>
       <c r="O108">
-        <v>-12.8683</v>
+        <v>-18.9248</v>
       </c>
       <c r="P108">
-        <v>-1.55961</v>
+        <v>-2.29372</v>
       </c>
     </row>
     <row r="109" spans="1:16">
@@ -6764,10 +6764,10 @@
         <v>165</v>
       </c>
       <c r="O109">
-        <v>-14.7704</v>
+        <v>-20.4766</v>
       </c>
       <c r="P109">
-        <v>-1.79018</v>
+        <v>-2.48182</v>
       </c>
     </row>
     <row r="110" spans="1:16">
@@ -6814,10 +6814,10 @@
         <v>165</v>
       </c>
       <c r="O110">
-        <v>-16.3723</v>
+        <v>-22.0282</v>
       </c>
       <c r="P110">
-        <v>-1.98433</v>
+        <v>-2.66989</v>
       </c>
     </row>
     <row r="111" spans="1:16">
@@ -6864,10 +6864,10 @@
         <v>165</v>
       </c>
       <c r="O111">
-        <v>-18.074</v>
+        <v>-23.68</v>
       </c>
       <c r="P111">
-        <v>-2.1906</v>
+        <v>-2.87012</v>
       </c>
     </row>
     <row r="112" spans="1:16">
@@ -6914,10 +6914,10 @@
         <v>165</v>
       </c>
       <c r="O112">
-        <v>-19.6757</v>
+        <v>-25.432</v>
       </c>
       <c r="P112">
-        <v>-2.38475</v>
+        <v>-3.08248</v>
       </c>
     </row>
     <row r="113" spans="1:16">
@@ -6964,10 +6964,10 @@
         <v>165</v>
       </c>
       <c r="O113">
-        <v>-21.3742</v>
+        <v>-27.1831</v>
       </c>
       <c r="P113">
-        <v>-2.59063</v>
+        <v>-3.29473</v>
       </c>
     </row>
     <row r="114" spans="1:16">
@@ -7014,10 +7014,10 @@
         <v>165</v>
       </c>
       <c r="O114">
-        <v>-21.3275</v>
+        <v>-27.1833</v>
       </c>
       <c r="P114">
-        <v>-2.58496</v>
+        <v>-3.29475</v>
       </c>
     </row>
     <row r="115" spans="1:16">
@@ -7064,10 +7064,10 @@
         <v>165</v>
       </c>
       <c r="O115">
-        <v>-23.4302</v>
+        <v>-29.0343</v>
       </c>
       <c r="P115">
-        <v>-2.83984</v>
+        <v>-3.51911</v>
       </c>
     </row>
     <row r="116" spans="1:16">
@@ -7114,10 +7114,10 @@
         <v>165</v>
       </c>
       <c r="O116">
-        <v>-25.2775</v>
+        <v>-30.7353</v>
       </c>
       <c r="P116">
-        <v>-3.06376</v>
+        <v>-3.7253</v>
       </c>
     </row>
     <row r="117" spans="1:16">
@@ -7164,10 +7164,10 @@
         <v>165</v>
       </c>
       <c r="O117">
-        <v>-27.2831</v>
+        <v>-32.5365</v>
       </c>
       <c r="P117">
-        <v>-3.30686</v>
+        <v>-3.94363</v>
       </c>
     </row>
     <row r="118" spans="1:16">
@@ -7214,10 +7214,10 @@
         <v>165</v>
       </c>
       <c r="O118">
-        <v>-28.3338</v>
+        <v>-33.5872</v>
       </c>
       <c r="P118">
-        <v>-3.43421</v>
+        <v>-4.07098</v>
       </c>
     </row>
     <row r="119" spans="1:16">
@@ -7263,11 +7263,11 @@
       <c r="N119" t="s">
         <v>165</v>
       </c>
-      <c r="O119">
-        <v>-30.185</v>
+      <c r="O119" s="3">
+        <v>-35.538</v>
       </c>
       <c r="P119">
-        <v>-3.6586</v>
+        <v>-4.30745</v>
       </c>
     </row>
     <row r="120" spans="1:16">
@@ -7313,11 +7313,11 @@
       <c r="N120" t="s">
         <v>165</v>
       </c>
-      <c r="O120">
-        <v>-32.0359</v>
+      <c r="O120" s="3">
+        <v>-37.1393</v>
       </c>
       <c r="P120">
-        <v>-3.88295</v>
+        <v>-4.50155</v>
       </c>
     </row>
     <row r="121" spans="1:16">
@@ -7363,11 +7363,11 @@
       <c r="N121" t="s">
         <v>165</v>
       </c>
-      <c r="O121">
-        <v>-33.9374</v>
+      <c r="O121" s="3">
+        <v>-39.0904</v>
       </c>
       <c r="P121">
-        <v>-4.11344</v>
+        <v>-4.73804</v>
       </c>
     </row>
     <row r="122" spans="1:16">
@@ -7413,11 +7413,11 @@
       <c r="N122" t="s">
         <v>165</v>
       </c>
-      <c r="O122">
-        <v>-30.9353</v>
+      <c r="O122" s="3">
+        <v>-39.4906</v>
       </c>
       <c r="P122">
-        <v>-3.74955</v>
+        <v>-4.78656</v>
       </c>
     </row>
     <row r="123" spans="1:16">
@@ -7463,11 +7463,11 @@
       <c r="N123" t="s">
         <v>165</v>
       </c>
-      <c r="O123">
-        <v>-32.8366</v>
+      <c r="O123" s="3">
+        <v>-41.242</v>
       </c>
       <c r="P123">
-        <v>-3.98</v>
+        <v>-4.99886</v>
       </c>
     </row>
     <row r="124" spans="1:16">
@@ -7513,11 +7513,11 @@
       <c r="N124" t="s">
         <v>165</v>
       </c>
-      <c r="O124">
-        <v>-34.5877</v>
+      <c r="O124" s="3">
+        <v>-42.8431</v>
       </c>
       <c r="P124">
-        <v>-4.19227</v>
+        <v>-5.19292</v>
       </c>
     </row>
     <row r="125" spans="1:16">
@@ -7564,10 +7564,10 @@
         <v>165</v>
       </c>
       <c r="O125" s="3">
-        <v>-36.5887</v>
+        <v>-44.6941</v>
       </c>
       <c r="P125">
-        <v>-4.43481</v>
+        <v>-5.41728</v>
       </c>
     </row>
     <row r="126" spans="1:16">
@@ -7614,10 +7614,10 @@
         <v>165</v>
       </c>
       <c r="O126" s="3">
-        <v>-37.5864</v>
+        <v>-45.5946</v>
       </c>
       <c r="P126">
-        <v>-4.54396</v>
+        <v>-5.52644</v>
       </c>
     </row>
     <row r="127" spans="1:16">
@@ -7664,10 +7664,10 @@
         <v>165</v>
       </c>
       <c r="O127" s="3">
-        <v>-39.3906</v>
+        <v>-47.5459</v>
       </c>
       <c r="P127">
-        <v>-4.77442</v>
+        <v>-5.76295</v>
       </c>
     </row>
     <row r="128" spans="1:16">
@@ -7714,10 +7714,10 @@
         <v>165</v>
       </c>
       <c r="O128" s="3">
-        <v>-40.9918</v>
+        <v>-49.2468</v>
       </c>
       <c r="P128">
-        <v>-4.96854</v>
+        <v>-5.96311</v>
       </c>
     </row>
     <row r="129" spans="1:16">
@@ -7764,10 +7764,10 @@
         <v>165</v>
       </c>
       <c r="O129" s="3">
-        <v>-42.8921</v>
+        <v>-51.0483</v>
       </c>
       <c r="P129">
-        <v>-5.19886</v>
+        <v>-6.18748</v>
       </c>
     </row>
     <row r="130" spans="1:16">
@@ -7814,10 +7814,10 @@
         <v>239</v>
       </c>
       <c r="O130">
-        <v>25.2282</v>
+        <v>29.9227</v>
       </c>
       <c r="P130">
-        <v>3.73806</v>
+        <v>4.43362</v>
       </c>
     </row>
     <row r="131" spans="1:16">
@@ -7864,10 +7864,10 @@
         <v>239</v>
       </c>
       <c r="O131">
-        <v>24.2387</v>
+        <v>28.6824</v>
       </c>
       <c r="P131">
-        <v>3.59153</v>
+        <v>4.24984</v>
       </c>
     </row>
     <row r="132" spans="1:16">
@@ -7914,10 +7914,10 @@
         <v>239</v>
       </c>
       <c r="O132">
-        <v>23.3127</v>
+        <v>28.3701</v>
       </c>
       <c r="P132">
-        <v>3.45431</v>
+        <v>4.21103</v>
       </c>
     </row>
     <row r="133" spans="1:16">
@@ -7964,10 +7964,10 @@
         <v>239</v>
       </c>
       <c r="O133">
-        <v>22.4263</v>
+        <v>27.3497</v>
       </c>
       <c r="P133">
-        <v>3.32306</v>
+        <v>4.05241</v>
       </c>
     </row>
     <row r="134" spans="1:16">
@@ -8014,10 +8014,10 @@
         <v>239</v>
       </c>
       <c r="O134">
-        <v>21.8581</v>
+        <v>26.871</v>
       </c>
       <c r="P134">
-        <v>3.23885</v>
+        <v>3.98154</v>
       </c>
     </row>
     <row r="135" spans="1:16">
@@ -8064,10 +8064,10 @@
         <v>239</v>
       </c>
       <c r="O135">
-        <v>20.8768</v>
+        <v>25.8889</v>
       </c>
       <c r="P135">
-        <v>3.10101</v>
+        <v>3.83604</v>
       </c>
     </row>
     <row r="136" spans="1:16">
@@ -8114,10 +8114,10 @@
         <v>239</v>
       </c>
       <c r="O136">
-        <v>19.8947</v>
+        <v>24.7521</v>
       </c>
       <c r="P136">
-        <v>2.94797</v>
+        <v>3.66755</v>
       </c>
     </row>
     <row r="137" spans="1:16">
@@ -8164,10 +8164,10 @@
         <v>239</v>
       </c>
       <c r="O137">
-        <v>19.0161</v>
+        <v>23.8739</v>
       </c>
       <c r="P137">
-        <v>2.81783</v>
+        <v>3.53742</v>
       </c>
     </row>
     <row r="138" spans="1:16">
@@ -8214,10 +8214,10 @@
         <v>239</v>
       </c>
       <c r="O138">
-        <v>20.5215</v>
+        <v>23.6157</v>
       </c>
       <c r="P138">
-        <v>3.04082</v>
+        <v>3.49923</v>
       </c>
     </row>
     <row r="139" spans="1:16">
@@ -8264,10 +8264,10 @@
         <v>239</v>
       </c>
       <c r="O139">
-        <v>19.4811</v>
+        <v>22.6423</v>
       </c>
       <c r="P139">
-        <v>2.88671</v>
+        <v>3.35498</v>
       </c>
     </row>
     <row r="140" spans="1:16">
@@ -8314,10 +8314,10 @@
         <v>239</v>
       </c>
       <c r="O140">
-        <v>18.6546</v>
+        <v>21.9104</v>
       </c>
       <c r="P140">
-        <v>2.76426</v>
+        <v>3.24663</v>
       </c>
     </row>
     <row r="141" spans="1:16">
@@ -8364,10 +8364,10 @@
         <v>239</v>
       </c>
       <c r="O141">
-        <v>17.6733</v>
+        <v>20.8779</v>
       </c>
       <c r="P141">
-        <v>2.61889</v>
+        <v>3.09366</v>
       </c>
     </row>
     <row r="142" spans="1:16">
@@ -8414,10 +8414,10 @@
         <v>239</v>
       </c>
       <c r="O142">
-        <v>17.1053</v>
+        <v>20.31</v>
       </c>
       <c r="P142">
-        <v>2.53474</v>
+        <v>3.00954</v>
       </c>
     </row>
     <row r="143" spans="1:16">
@@ -8464,10 +8464,10 @@
         <v>239</v>
       </c>
       <c r="O143">
-        <v>16.0714</v>
+        <v>19.4837</v>
       </c>
       <c r="P143">
-        <v>2.38158</v>
+        <v>2.88711</v>
       </c>
     </row>
     <row r="144" spans="1:16">
@@ -8514,10 +8514,10 @@
         <v>239</v>
       </c>
       <c r="O144">
-        <v>15.1942</v>
+        <v>18.5036</v>
       </c>
       <c r="P144">
-        <v>2.25161</v>
+        <v>2.74926</v>
       </c>
     </row>
     <row r="145" spans="1:16">
@@ -8564,10 +8564,10 @@
         <v>239</v>
       </c>
       <c r="O145">
-        <v>14.064</v>
+        <v>17.5324</v>
       </c>
       <c r="P145">
-        <v>2.08412</v>
+        <v>2.59801</v>
       </c>
     </row>
     <row r="146" spans="1:16">
@@ -8614,10 +8614,10 @@
         <v>239</v>
       </c>
       <c r="O146">
-        <v>14.1084</v>
+        <v>17.5285</v>
       </c>
       <c r="P146">
-        <v>2.09073</v>
+        <v>2.59742</v>
       </c>
     </row>
     <row r="147" spans="1:16">
@@ -8664,10 +8664,10 @@
         <v>239</v>
       </c>
       <c r="O147">
-        <v>13.1269</v>
+        <v>16.5897</v>
       </c>
       <c r="P147">
-        <v>1.94538</v>
+        <v>2.45838</v>
       </c>
     </row>
     <row r="148" spans="1:16">
@@ -8714,10 +8714,10 @@
         <v>239</v>
       </c>
       <c r="O148">
-        <v>11.9986</v>
+        <v>15.6078</v>
       </c>
       <c r="P148">
-        <v>1.77813</v>
+        <v>2.31295</v>
       </c>
     </row>
     <row r="149" spans="1:16">
@@ -8764,10 +8764,10 @@
         <v>239</v>
       </c>
       <c r="O149">
-        <v>10.9622</v>
+        <v>14.5316</v>
       </c>
       <c r="P149">
-        <v>1.62461</v>
+        <v>2.1534</v>
       </c>
     </row>
     <row r="150" spans="1:16">
@@ -8814,10 +8814,10 @@
         <v>239</v>
       </c>
       <c r="O150">
-        <v>10.0328</v>
+        <v>13.6512</v>
       </c>
       <c r="P150">
-        <v>1.4869</v>
+        <v>2.02297</v>
       </c>
     </row>
     <row r="151" spans="1:16">
@@ -8864,10 +8864,10 @@
         <v>239</v>
       </c>
       <c r="O151">
-        <v>8.735480000000001</v>
+        <v>12.7649</v>
       </c>
       <c r="P151">
-        <v>1.29481</v>
+        <v>1.89177</v>
       </c>
     </row>
     <row r="152" spans="1:16">
@@ -8914,10 +8914,10 @@
         <v>239</v>
       </c>
       <c r="O152">
-        <v>7.64759</v>
+        <v>11.6309</v>
       </c>
       <c r="P152">
-        <v>1.13359</v>
+        <v>1.72371</v>
       </c>
     </row>
     <row r="153" spans="1:16">
@@ -8964,10 +8964,10 @@
         <v>239</v>
       </c>
       <c r="O153">
-        <v>6.45899</v>
+        <v>10.5422</v>
       </c>
       <c r="P153">
-        <v>0.957516</v>
+        <v>1.56245</v>
       </c>
     </row>
     <row r="154" spans="1:16">
@@ -9014,10 +9014,10 @@
         <v>239</v>
       </c>
       <c r="O154">
-        <v>7.59631</v>
+        <v>7.54461</v>
       </c>
       <c r="P154">
-        <v>1.12598</v>
+        <v>1.11832</v>
       </c>
     </row>
     <row r="155" spans="1:16">
@@ -9064,10 +9064,10 @@
         <v>239</v>
       </c>
       <c r="O155">
-        <v>6.3557</v>
+        <v>6.35561</v>
       </c>
       <c r="P155">
-        <v>0.94223</v>
+        <v>0.942169</v>
       </c>
     </row>
     <row r="156" spans="1:16">
@@ -9114,10 +9114,10 @@
         <v>239</v>
       </c>
       <c r="O156">
-        <v>5.21863</v>
+        <v>5.21825</v>
       </c>
       <c r="P156">
-        <v>0.773772</v>
+        <v>0.773683</v>
       </c>
     </row>
     <row r="157" spans="1:16">
@@ -9164,10 +9164,10 @@
         <v>239</v>
       </c>
       <c r="O157">
-        <v>4.18462</v>
+        <v>4.23627</v>
       </c>
       <c r="P157">
-        <v>0.62055</v>
+        <v>0.6282180000000001</v>
       </c>
     </row>
     <row r="158" spans="1:16">
@@ -9214,10 +9214,10 @@
         <v>239</v>
       </c>
       <c r="O158">
-        <v>3.25417</v>
+        <v>3.30566</v>
       </c>
       <c r="P158">
-        <v>0.482702</v>
+        <v>0.490365</v>
       </c>
     </row>
     <row r="159" spans="1:16">
@@ -9264,10 +9264,10 @@
         <v>239</v>
       </c>
       <c r="O159">
-        <v>2.22053</v>
+        <v>2.11727</v>
       </c>
       <c r="P159">
-        <v>0.329545</v>
+        <v>0.314261</v>
       </c>
     </row>
     <row r="160" spans="1:16">
@@ -9314,10 +9314,10 @@
         <v>239</v>
       </c>
       <c r="O160">
-        <v>1.18666</v>
+        <v>1.13494</v>
       </c>
       <c r="P160">
-        <v>0.176411</v>
+        <v>0.168755</v>
       </c>
     </row>
     <row r="161" spans="1:16">
@@ -9364,10 +9364,10 @@
         <v>239</v>
       </c>
       <c r="O161">
-        <v>0.101761</v>
+        <v>0.049929</v>
       </c>
       <c r="P161">
-        <v>0.0156685</v>
+        <v>0.00799996</v>
       </c>
     </row>
     <row r="162" spans="1:16">
@@ -9414,10 +9414,10 @@
         <v>239</v>
       </c>
       <c r="O162">
-        <v>0.152915</v>
+        <v>0.101734</v>
       </c>
       <c r="P162">
-        <v>0.0232449</v>
+        <v>0.0156843</v>
       </c>
     </row>
     <row r="163" spans="1:16">
@@ -9464,10 +9464,10 @@
         <v>239</v>
       </c>
       <c r="O163">
-        <v>-0.983228</v>
+        <v>-0.9837399999999999</v>
       </c>
       <c r="P163">
-        <v>-0.145055</v>
+        <v>-0.14513</v>
       </c>
     </row>
     <row r="164" spans="1:16">
@@ -9514,10 +9514,10 @@
         <v>239</v>
       </c>
       <c r="O164">
-        <v>-2.06929</v>
+        <v>-2.0176</v>
       </c>
       <c r="P164">
-        <v>-0.305911</v>
+        <v>-0.298294</v>
       </c>
     </row>
     <row r="165" spans="1:16">
@@ -9564,10 +9564,10 @@
         <v>239</v>
       </c>
       <c r="O165">
-        <v>-3.05075</v>
+        <v>-3.04978</v>
       </c>
       <c r="P165">
-        <v>-0.451321</v>
+        <v>-0.443678</v>
       </c>
     </row>
     <row r="166" spans="1:16">
@@ -9614,10 +9614,10 @@
         <v>239</v>
       </c>
       <c r="O166">
-        <v>-4.02005</v>
+        <v>-3.98117</v>
       </c>
       <c r="P166">
-        <v>-0.594931</v>
+        <v>-0.589189</v>
       </c>
     </row>
     <row r="167" spans="1:16">
@@ -9664,10 +9664,10 @@
         <v>239</v>
       </c>
       <c r="O167">
-        <v>-5.06371</v>
+        <v>-5.06536</v>
       </c>
       <c r="P167">
-        <v>-0.742262</v>
+        <v>-0.749779</v>
       </c>
     </row>
     <row r="168" spans="1:16">
@@ -9714,10 +9714,10 @@
         <v>239</v>
       </c>
       <c r="O168">
-        <v>-6.25406</v>
+        <v>-6.25422</v>
       </c>
       <c r="P168">
-        <v>-0.92591</v>
+        <v>-0.925929</v>
       </c>
     </row>
     <row r="169" spans="1:16">
@@ -9764,10 +9764,10 @@
         <v>239</v>
       </c>
       <c r="O169">
-        <v>-7.23584</v>
+        <v>-7.28783</v>
       </c>
       <c r="P169">
-        <v>-1.07135</v>
+        <v>-1.07904</v>
       </c>
     </row>
     <row r="170" spans="1:16">
@@ -9814,10 +9814,10 @@
         <v>239</v>
       </c>
       <c r="O170">
-        <v>-6.35733</v>
+        <v>-9.71519</v>
       </c>
       <c r="P170">
-        <v>-0.9412239999999999</v>
+        <v>-1.43862</v>
       </c>
     </row>
     <row r="171" spans="1:16">
@@ -9864,10 +9864,10 @@
         <v>239</v>
       </c>
       <c r="O171">
-        <v>-7.3391</v>
+        <v>-10.7496</v>
       </c>
       <c r="P171">
-        <v>-1.08663</v>
+        <v>-1.59193</v>
       </c>
     </row>
     <row r="172" spans="1:16">
@@ -9914,10 +9914,10 @@
         <v>239</v>
       </c>
       <c r="O172">
-        <v>-8.321160000000001</v>
+        <v>-11.6727</v>
       </c>
       <c r="P172">
-        <v>-1.23214</v>
+        <v>-1.72869</v>
       </c>
     </row>
     <row r="173" spans="1:16">
@@ -9964,10 +9964,10 @@
         <v>239</v>
       </c>
       <c r="O173">
-        <v>-9.404820000000001</v>
+        <v>-12.7129</v>
       </c>
       <c r="P173">
-        <v>-1.39268</v>
+        <v>-1.88277</v>
       </c>
     </row>
     <row r="174" spans="1:16">
@@ -10014,10 +10014,10 @@
         <v>239</v>
       </c>
       <c r="O174">
-        <v>-10.2313</v>
+        <v>-13.5912</v>
       </c>
       <c r="P174">
-        <v>-1.50766</v>
+        <v>-2.01287</v>
       </c>
     </row>
     <row r="175" spans="1:16">
@@ -10064,10 +10064,10 @@
         <v>239</v>
       </c>
       <c r="O175">
-        <v>-11.1624</v>
+        <v>-14.5204</v>
       </c>
       <c r="P175">
-        <v>-1.65308</v>
+        <v>-2.15055</v>
       </c>
     </row>
     <row r="176" spans="1:16">
@@ -10114,10 +10114,10 @@
         <v>239</v>
       </c>
       <c r="O176">
-        <v>-12.0926</v>
+        <v>-15.2963</v>
       </c>
       <c r="P176">
-        <v>-1.79091</v>
+        <v>-2.26548</v>
       </c>
     </row>
     <row r="177" spans="1:16">
@@ -10164,10 +10164,10 @@
         <v>239</v>
       </c>
       <c r="O177">
-        <v>-13.1258</v>
+        <v>-16.4307</v>
       </c>
       <c r="P177">
-        <v>-1.94393</v>
+        <v>-2.4335</v>
       </c>
     </row>
     <row r="178" spans="1:16">
@@ -10214,10 +10214,10 @@
         <v>239</v>
       </c>
       <c r="O178">
-        <v>-13.1749</v>
+        <v>-16.2781</v>
       </c>
       <c r="P178">
-        <v>-1.95122</v>
+        <v>-2.41096</v>
       </c>
     </row>
     <row r="179" spans="1:16">
@@ -10264,10 +10264,10 @@
         <v>239</v>
       </c>
       <c r="O179">
-        <v>-14.16</v>
+        <v>-17.3641</v>
       </c>
       <c r="P179">
-        <v>-2.09712</v>
+        <v>-2.57182</v>
       </c>
     </row>
     <row r="180" spans="1:16">
@@ -10314,10 +10314,10 @@
         <v>239</v>
       </c>
       <c r="O180">
-        <v>-15.09</v>
+        <v>-18.1906</v>
       </c>
       <c r="P180">
-        <v>-2.23494</v>
+        <v>-2.69429</v>
       </c>
     </row>
     <row r="181" spans="1:16">
@@ -10364,10 +10364,10 @@
         <v>239</v>
       </c>
       <c r="O181">
-        <v>-16.1756</v>
+        <v>-19.3278</v>
       </c>
       <c r="P181">
-        <v>-2.39578</v>
+        <v>-2.86275</v>
       </c>
     </row>
     <row r="182" spans="1:16">
@@ -10414,10 +10414,10 @@
         <v>239</v>
       </c>
       <c r="O182">
-        <v>-16.6928</v>
+        <v>-19.8894</v>
       </c>
       <c r="P182">
-        <v>-2.47242</v>
+        <v>-2.94602</v>
       </c>
     </row>
     <row r="183" spans="1:16">
@@ -10464,10 +10464,10 @@
         <v>239</v>
       </c>
       <c r="O183">
-        <v>-17.6755</v>
+        <v>-20.9822</v>
       </c>
       <c r="P183">
-        <v>-2.61797</v>
+        <v>-3.10785</v>
       </c>
     </row>
     <row r="184" spans="1:16">
@@ -10514,10 +10514,10 @@
         <v>239</v>
       </c>
       <c r="O184">
-        <v>-18.5996</v>
+        <v>-22.0133</v>
       </c>
       <c r="P184">
-        <v>-2.74814</v>
+        <v>-3.25335</v>
       </c>
     </row>
     <row r="185" spans="1:16">
@@ -10564,10 +10564,10 @@
         <v>239</v>
       </c>
       <c r="O185">
-        <v>-19.8976</v>
+        <v>-23.3529</v>
       </c>
       <c r="P185">
-        <v>-2.94717</v>
+        <v>-3.45913</v>
       </c>
     </row>
     <row r="186" spans="1:16">
@@ -10614,10 +10614,10 @@
         <v>239</v>
       </c>
       <c r="O186">
-        <v>-17.9336</v>
+        <v>-23.5548</v>
       </c>
       <c r="P186">
-        <v>-2.65624</v>
+        <v>-3.48313</v>
       </c>
     </row>
     <row r="187" spans="1:16">
@@ -10664,10 +10664,10 @@
         <v>239</v>
       </c>
       <c r="O187">
-        <v>-19.2262</v>
+        <v>-24.756</v>
       </c>
       <c r="P187">
-        <v>-2.84772</v>
+        <v>-3.66691</v>
       </c>
     </row>
     <row r="188" spans="1:16">
@@ -10714,10 +10714,10 @@
         <v>239</v>
       </c>
       <c r="O188">
-        <v>-20.3114</v>
+        <v>-25.8411</v>
       </c>
       <c r="P188">
-        <v>-3.0085</v>
+        <v>-3.8277</v>
       </c>
     </row>
     <row r="189" spans="1:16">
@@ -10764,10 +10764,10 @@
         <v>239</v>
       </c>
       <c r="O189">
-        <v>-21.5517</v>
+        <v>-27.0816</v>
       </c>
       <c r="P189">
-        <v>-3.19224</v>
+        <v>-4.01147</v>
       </c>
     </row>
     <row r="190" spans="1:16">
@@ -10814,10 +10814,10 @@
         <v>239</v>
       </c>
       <c r="O190">
-        <v>-22.1651</v>
+        <v>-27.6502</v>
       </c>
       <c r="P190">
-        <v>-3.28315</v>
+        <v>-4.09574</v>
       </c>
     </row>
     <row r="191" spans="1:16">
@@ -10864,10 +10864,10 @@
         <v>239</v>
       </c>
       <c r="O191">
-        <v>-23.6182</v>
+        <v>-28.7869</v>
       </c>
       <c r="P191">
-        <v>-3.49097</v>
+        <v>-4.26411</v>
       </c>
     </row>
     <row r="192" spans="1:16">
@@ -10914,10 +10914,10 @@
         <v>239</v>
       </c>
       <c r="O192">
-        <v>-24.6528</v>
+        <v>-29.8214</v>
       </c>
       <c r="P192">
-        <v>-3.65167</v>
+        <v>-4.41739</v>
       </c>
     </row>
     <row r="193" spans="1:16">
@@ -10964,10 +10964,10 @@
         <v>239</v>
       </c>
       <c r="O193">
-        <v>-25.9396</v>
+        <v>-31.0618</v>
       </c>
       <c r="P193">
-        <v>-3.84234</v>
+        <v>-4.60115</v>
       </c>
     </row>
     <row r="194" spans="1:16" s="1" customFormat="1">
@@ -11025,10 +11025,10 @@
         <v>303</v>
       </c>
       <c r="O195" s="3">
-        <v>-42.8921</v>
+        <v>-51.0483</v>
       </c>
       <c r="P195" s="1">
-        <v>-5.19886</v>
+        <v>-6.18748</v>
       </c>
     </row>
     <row r="196" spans="1:16" s="1" customFormat="1">
@@ -11036,10 +11036,10 @@
         <v>304</v>
       </c>
       <c r="O196" s="2">
-        <v>42.9552</v>
+        <v>50.9676</v>
       </c>
       <c r="P196" s="1">
-        <v>5.20687</v>
+        <v>6.17807</v>
       </c>
     </row>
     <row r="197" spans="1:16" s="1" customFormat="1">
@@ -11079,10 +11079,10 @@
         <v>309</v>
       </c>
       <c r="O201" s="1">
-        <v>0.09155017</v>
+        <v>0.08939417</v>
       </c>
       <c r="P201" s="1">
-        <v>0.01427979</v>
+        <v>0.01392322</v>
       </c>
     </row>
     <row r="202" spans="1:16" s="1" customFormat="1">
@@ -11090,10 +11090,10 @@
         <v>310</v>
       </c>
       <c r="O202" s="1">
-        <v>19.939598</v>
+        <v>24.434406</v>
       </c>
       <c r="P202" s="1">
-        <v>2.598488</v>
+        <v>3.185523</v>
       </c>
     </row>
     <row r="203" spans="1:16" s="1" customFormat="1">
@@ -11101,10 +11101,10 @@
         <v>311</v>
       </c>
       <c r="O203" s="1">
-        <v>21779.968295</v>
+        <v>27333.332811</v>
       </c>
       <c r="P203" s="1">
-        <v>18196.96228</v>
+        <v>22879.211849</v>
       </c>
     </row>
     <row r="204" spans="1:16" s="1" customFormat="1"/>

--- a/dcd_top_offset_step_tsmc2p_meas.xlsx
+++ b/dcd_top_offset_step_tsmc2p_meas.xlsx
@@ -1414,10 +1414,10 @@
         <v>29</v>
       </c>
       <c r="O2" s="2">
-        <v>39.6936</v>
+        <v>41.2435</v>
       </c>
       <c r="P2">
-        <v>5.29277</v>
+        <v>5.49941</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1464,10 +1464,10 @@
         <v>29</v>
       </c>
       <c r="O3" s="2">
-        <v>38.196</v>
+        <v>39.7457</v>
       </c>
       <c r="P3">
-        <v>5.09308</v>
+        <v>5.2997</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1514,10 +1514,10 @@
         <v>29</v>
       </c>
       <c r="O4" s="2">
-        <v>36.7479</v>
+        <v>38.2464</v>
       </c>
       <c r="P4">
-        <v>4.90002</v>
+        <v>5.10657</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1564,10 +1564,10 @@
         <v>29</v>
       </c>
       <c r="O5" s="2">
-        <v>35.3014</v>
+        <v>36.9025</v>
       </c>
       <c r="P5">
-        <v>4.70715</v>
+        <v>4.92062</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1613,11 +1613,11 @@
       <c r="N6" t="s">
         <v>29</v>
       </c>
-      <c r="O6">
-        <v>34.6305</v>
+      <c r="O6" s="2">
+        <v>36.2317</v>
       </c>
       <c r="P6">
-        <v>4.6177</v>
+        <v>4.83119</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1664,10 +1664,10 @@
         <v>29</v>
       </c>
       <c r="O7">
-        <v>33.1328</v>
+        <v>34.7892</v>
       </c>
       <c r="P7">
-        <v>4.418</v>
+        <v>4.63883</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1714,10 +1714,10 @@
         <v>29</v>
       </c>
       <c r="O8">
-        <v>31.8417</v>
+        <v>33.5497</v>
       </c>
       <c r="P8">
-        <v>4.24584</v>
+        <v>4.47357</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1764,10 +1764,10 @@
         <v>29</v>
       </c>
       <c r="O9">
-        <v>30.344</v>
+        <v>32.0485</v>
       </c>
       <c r="P9">
-        <v>4.04616</v>
+        <v>4.27343</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1814,10 +1814,10 @@
         <v>29</v>
       </c>
       <c r="O10">
-        <v>29.7763</v>
+        <v>30.7571</v>
       </c>
       <c r="P10">
-        <v>3.97048</v>
+        <v>4.10122</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1864,10 +1864,10 @@
         <v>29</v>
       </c>
       <c r="O11">
-        <v>28.3303</v>
+        <v>29.4147</v>
       </c>
       <c r="P11">
-        <v>3.77767</v>
+        <v>3.92225</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1914,10 +1914,10 @@
         <v>29</v>
       </c>
       <c r="O12">
-        <v>26.988</v>
+        <v>28.1759</v>
       </c>
       <c r="P12">
-        <v>3.5987</v>
+        <v>3.75709</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1964,10 +1964,10 @@
         <v>29</v>
       </c>
       <c r="O13">
-        <v>25.5416</v>
+        <v>26.7293</v>
       </c>
       <c r="P13">
-        <v>3.40585</v>
+        <v>3.56419</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -2014,10 +2014,10 @@
         <v>29</v>
       </c>
       <c r="O14">
-        <v>24.8188</v>
+        <v>26.0582</v>
       </c>
       <c r="P14">
-        <v>3.30946</v>
+        <v>3.47471</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -2064,10 +2064,10 @@
         <v>29</v>
       </c>
       <c r="O15">
-        <v>23.2701</v>
+        <v>24.6123</v>
       </c>
       <c r="P15">
-        <v>3.10974</v>
+        <v>3.28193</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -2114,10 +2114,10 @@
         <v>29</v>
       </c>
       <c r="O16">
-        <v>22.03</v>
+        <v>23.2695</v>
       </c>
       <c r="P16">
-        <v>2.93762</v>
+        <v>3.10289</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -2164,10 +2164,10 @@
         <v>29</v>
       </c>
       <c r="O17">
-        <v>20.6355</v>
+        <v>21.8752</v>
       </c>
       <c r="P17">
-        <v>2.7517</v>
+        <v>2.91699</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -2214,10 +2214,10 @@
         <v>29</v>
       </c>
       <c r="O18">
-        <v>20.584</v>
+        <v>21.875</v>
       </c>
       <c r="P18">
-        <v>2.74482</v>
+        <v>2.91696</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -2264,10 +2264,10 @@
         <v>29</v>
       </c>
       <c r="O19">
-        <v>19.0897</v>
+        <v>20.429</v>
       </c>
       <c r="P19">
-        <v>2.55202</v>
+        <v>2.72416</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -2314,10 +2314,10 @@
         <v>29</v>
       </c>
       <c r="O20">
-        <v>17.7436</v>
+        <v>18.9842</v>
       </c>
       <c r="P20">
-        <v>2.36611</v>
+        <v>2.53153</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -2364,10 +2364,10 @@
         <v>29</v>
       </c>
       <c r="O21">
-        <v>16.3496</v>
+        <v>17.5371</v>
       </c>
       <c r="P21">
-        <v>2.18023</v>
+        <v>2.34546</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -2414,10 +2414,10 @@
         <v>29</v>
       </c>
       <c r="O22">
-        <v>15.3166</v>
+        <v>16.4531</v>
       </c>
       <c r="P22">
-        <v>2.04251</v>
+        <v>2.20082</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -2464,10 +2464,10 @@
         <v>29</v>
       </c>
       <c r="O23">
-        <v>14.2317</v>
+        <v>15.1103</v>
       </c>
       <c r="P23">
-        <v>1.89784</v>
+        <v>2.015</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -2514,10 +2514,10 @@
         <v>29</v>
       </c>
       <c r="O24">
-        <v>13.2506</v>
+        <v>14.0774</v>
       </c>
       <c r="P24">
-        <v>1.76702</v>
+        <v>1.87727</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -2564,10 +2564,10 @@
         <v>29</v>
       </c>
       <c r="O25">
-        <v>12.1143</v>
+        <v>12.9411</v>
       </c>
       <c r="P25">
-        <v>1.61551</v>
+        <v>1.72577</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -2614,10 +2614,10 @@
         <v>29</v>
       </c>
       <c r="O26">
-        <v>8.80878</v>
+        <v>8.75741</v>
       </c>
       <c r="P26">
-        <v>1.1748</v>
+        <v>1.16795</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -2664,10 +2664,10 @@
         <v>29</v>
       </c>
       <c r="O27">
-        <v>7.51782</v>
+        <v>7.46655</v>
       </c>
       <c r="P27">
-        <v>1.00267</v>
+        <v>0.995849</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -2714,10 +2714,10 @@
         <v>29</v>
       </c>
       <c r="O28">
-        <v>6.3297</v>
+        <v>6.22659</v>
       </c>
       <c r="P28">
-        <v>0.844259</v>
+        <v>0.830495</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -2764,10 +2764,10 @@
         <v>29</v>
       </c>
       <c r="O29">
-        <v>5.03868</v>
+        <v>5.03876</v>
       </c>
       <c r="P29">
-        <v>0.672109</v>
+        <v>0.672118</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2814,10 +2814,10 @@
         <v>29</v>
       </c>
       <c r="O30">
-        <v>3.85092</v>
+        <v>3.79918</v>
       </c>
       <c r="P30">
-        <v>0.513751</v>
+        <v>0.506846</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2864,10 +2864,10 @@
         <v>29</v>
       </c>
       <c r="O31">
-        <v>2.50797</v>
+        <v>2.55985</v>
       </c>
       <c r="P31">
-        <v>0.334691</v>
+        <v>0.34162</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -2914,10 +2914,10 @@
         <v>29</v>
       </c>
       <c r="O32">
-        <v>1.26884</v>
+        <v>1.31998</v>
       </c>
       <c r="P32">
-        <v>0.169461</v>
+        <v>0.176282</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2964,10 +2964,10 @@
         <v>29</v>
       </c>
       <c r="O33">
-        <v>0.0801356</v>
+        <v>0.08098569999999999</v>
       </c>
       <c r="P33">
-        <v>0.0109684</v>
+        <v>0.0110818</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -3014,10 +3014,10 @@
         <v>29</v>
       </c>
       <c r="O34">
-        <v>0.0803729</v>
+        <v>0.0286647</v>
       </c>
       <c r="P34">
-        <v>0.0110015</v>
+        <v>0.00410567</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -3064,10 +3064,10 @@
         <v>29</v>
       </c>
       <c r="O35">
-        <v>-1.21025</v>
+        <v>-1.10731</v>
       </c>
       <c r="P35">
-        <v>-0.16108</v>
+        <v>-0.147352</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -3114,10 +3114,10 @@
         <v>29</v>
       </c>
       <c r="O36">
-        <v>-2.50145</v>
+        <v>-2.50135</v>
       </c>
       <c r="P36">
-        <v>-0.333241</v>
+        <v>-0.333226</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -3164,10 +3164,10 @@
         <v>29</v>
       </c>
       <c r="O37">
-        <v>-3.74028</v>
+        <v>-3.79188</v>
       </c>
       <c r="P37">
-        <v>-0.498422</v>
+        <v>-0.505297</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -3214,10 +3214,10 @@
         <v>29</v>
       </c>
       <c r="O38">
-        <v>-4.92759</v>
+        <v>-4.92672</v>
       </c>
       <c r="P38">
-        <v>-0.656737</v>
+        <v>-0.656603</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -3264,10 +3264,10 @@
         <v>29</v>
       </c>
       <c r="O39">
-        <v>-6.21423</v>
+        <v>-6.2178</v>
       </c>
       <c r="P39">
-        <v>-0.828286</v>
+        <v>-0.828734</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -3314,10 +3314,10 @@
         <v>29</v>
       </c>
       <c r="O40">
-        <v>-7.45766</v>
+        <v>-7.45777</v>
       </c>
       <c r="P40">
-        <v>-0.99405</v>
+        <v>-0.994075</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -3364,10 +3364,10 @@
         <v>29</v>
       </c>
       <c r="O41">
-        <v>-8.64448</v>
+        <v>-8.593590000000001</v>
       </c>
       <c r="P41">
-        <v>-1.15231</v>
+        <v>-1.14552</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -3414,10 +3414,10 @@
         <v>29</v>
       </c>
       <c r="O42">
-        <v>-12.0017</v>
+        <v>-12.9317</v>
       </c>
       <c r="P42">
-        <v>-1.59995</v>
+        <v>-1.72394</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -3464,10 +3464,10 @@
         <v>29</v>
       </c>
       <c r="O43">
-        <v>-13.1383</v>
+        <v>-13.9651</v>
       </c>
       <c r="P43">
-        <v>-1.75147</v>
+        <v>-1.86173</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -3514,10 +3514,10 @@
         <v>29</v>
       </c>
       <c r="O44">
-        <v>-14.1198</v>
+        <v>-14.9979</v>
       </c>
       <c r="P44">
-        <v>-1.88234</v>
+        <v>-1.99943</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -3564,10 +3564,10 @@
         <v>29</v>
       </c>
       <c r="O45">
-        <v>-15.1525</v>
+        <v>-16.0815</v>
       </c>
       <c r="P45">
-        <v>-2.02004</v>
+        <v>-2.14391</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -3614,10 +3614,10 @@
         <v>29</v>
       </c>
       <c r="O46">
-        <v>-16.1847</v>
+        <v>-17.1142</v>
       </c>
       <c r="P46">
-        <v>-2.15767</v>
+        <v>-2.2816</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -3664,10 +3664,10 @@
         <v>29</v>
       </c>
       <c r="O47">
-        <v>-17.3204</v>
+        <v>-18.5602</v>
       </c>
       <c r="P47">
-        <v>-2.3091</v>
+        <v>-2.47441</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -3714,10 +3714,10 @@
         <v>29</v>
       </c>
       <c r="O48">
-        <v>-18.7154</v>
+        <v>-19.9542</v>
       </c>
       <c r="P48">
-        <v>-2.4951</v>
+        <v>-2.66026</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -3764,10 +3764,10 @@
         <v>29</v>
       </c>
       <c r="O49">
-        <v>-20.1096</v>
+        <v>-21.297</v>
       </c>
       <c r="P49">
-        <v>-2.68099</v>
+        <v>-2.8393</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -3814,10 +3814,10 @@
         <v>29</v>
       </c>
       <c r="O50">
-        <v>-20.1611</v>
+        <v>-21.3999</v>
       </c>
       <c r="P50">
-        <v>-2.68786</v>
+        <v>-2.85302</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -3864,10 +3864,10 @@
         <v>29</v>
       </c>
       <c r="O51">
-        <v>-21.6067</v>
+        <v>-22.7946</v>
       </c>
       <c r="P51">
-        <v>-2.88059</v>
+        <v>-3.039</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -3914,10 +3914,10 @@
         <v>29</v>
       </c>
       <c r="O52">
-        <v>-22.8975</v>
+        <v>-24.0855</v>
       </c>
       <c r="P52">
-        <v>-3.0527</v>
+        <v>-3.21111</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -3964,10 +3964,10 @@
         <v>29</v>
       </c>
       <c r="O53">
-        <v>-24.3439</v>
+        <v>-25.4796</v>
       </c>
       <c r="P53">
-        <v>-3.24557</v>
+        <v>-3.39699</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -4014,10 +4014,10 @@
         <v>29</v>
       </c>
       <c r="O54">
-        <v>-25.0667</v>
+        <v>-26.2027</v>
       </c>
       <c r="P54">
-        <v>-3.34194</v>
+        <v>-3.4934</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -4064,10 +4064,10 @@
         <v>29</v>
       </c>
       <c r="O55">
-        <v>-26.6158</v>
+        <v>-27.6484</v>
       </c>
       <c r="P55">
-        <v>-3.54848</v>
+        <v>-3.68616</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -4114,10 +4114,10 @@
         <v>29</v>
       </c>
       <c r="O56">
-        <v>-28.0088</v>
+        <v>-28.8877</v>
       </c>
       <c r="P56">
-        <v>-3.73422</v>
+        <v>-3.85141</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -4164,10 +4164,10 @@
         <v>29</v>
       </c>
       <c r="O57">
-        <v>-29.5076</v>
+        <v>-30.4371</v>
       </c>
       <c r="P57">
-        <v>-3.93407</v>
+        <v>-4.058</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -4214,10 +4214,10 @@
         <v>29</v>
       </c>
       <c r="O58">
-        <v>-30.1273</v>
+        <v>-31.827</v>
       </c>
       <c r="P58">
-        <v>-4.01668</v>
+        <v>-4.24333</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -4264,10 +4264,10 @@
         <v>29</v>
       </c>
       <c r="O59">
-        <v>-31.6249</v>
+        <v>-33.2772</v>
       </c>
       <c r="P59">
-        <v>-4.21636</v>
+        <v>-4.43666</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -4314,10 +4314,10 @@
         <v>29</v>
       </c>
       <c r="O60">
-        <v>-32.9672</v>
+        <v>-34.6711</v>
       </c>
       <c r="P60">
-        <v>-4.39533</v>
+        <v>-4.62252</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -4363,11 +4363,11 @@
       <c r="N61" t="s">
         <v>29</v>
       </c>
-      <c r="O61">
-        <v>-34.4648</v>
+      <c r="O61" s="3">
+        <v>-36.2204</v>
       </c>
       <c r="P61">
-        <v>-4.59501</v>
+        <v>-4.8291</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -4414,10 +4414,10 @@
         <v>29</v>
       </c>
       <c r="O62" s="3">
-        <v>-35.2394</v>
+        <v>-36.8915</v>
       </c>
       <c r="P62">
-        <v>-4.6983</v>
+        <v>-4.91857</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -4464,10 +4464,10 @@
         <v>29</v>
       </c>
       <c r="O63" s="3">
-        <v>-36.7366</v>
+        <v>-38.2857</v>
       </c>
       <c r="P63">
-        <v>-4.89793</v>
+        <v>-5.10447</v>
       </c>
     </row>
     <row r="64" spans="1:16">
@@ -4514,10 +4514,10 @@
         <v>29</v>
       </c>
       <c r="O64" s="3">
-        <v>-38.0794</v>
+        <v>-39.6284</v>
       </c>
       <c r="P64">
-        <v>-5.07695</v>
+        <v>-5.28349</v>
       </c>
     </row>
     <row r="65" spans="1:16">
@@ -4564,10 +4564,10 @@
         <v>29</v>
       </c>
       <c r="O65" s="3">
-        <v>-39.5247</v>
+        <v>-41.2291</v>
       </c>
       <c r="P65">
-        <v>-5.26966</v>
+        <v>-5.49692</v>
       </c>
     </row>
     <row r="66" spans="1:16">
@@ -4614,10 +4614,10 @@
         <v>165</v>
       </c>
       <c r="O66" s="2">
-        <v>50.9676</v>
+        <v>52.8206</v>
       </c>
       <c r="P66">
-        <v>6.17807</v>
+        <v>6.40269</v>
       </c>
     </row>
     <row r="67" spans="1:16">
@@ -4664,10 +4664,10 @@
         <v>165</v>
       </c>
       <c r="O67" s="2">
-        <v>49.1647</v>
+        <v>51.0678</v>
       </c>
       <c r="P67">
-        <v>5.95955</v>
+        <v>6.19022</v>
       </c>
     </row>
     <row r="68" spans="1:16">
@@ -4714,10 +4714,10 @@
         <v>165</v>
       </c>
       <c r="O68" s="2">
-        <v>46.4576</v>
+        <v>48.2112</v>
       </c>
       <c r="P68">
-        <v>5.6314</v>
+        <v>5.84396</v>
       </c>
     </row>
     <row r="69" spans="1:16">
@@ -4764,10 +4764,10 @@
         <v>165</v>
       </c>
       <c r="O69" s="2">
-        <v>44.8163</v>
+        <v>46.6087</v>
       </c>
       <c r="P69">
-        <v>5.43246</v>
+        <v>5.64972</v>
       </c>
     </row>
     <row r="70" spans="1:16">
@@ -4814,10 +4814,10 @@
         <v>165</v>
       </c>
       <c r="O70" s="2">
-        <v>44.0089</v>
+        <v>45.9072</v>
       </c>
       <c r="P70">
-        <v>5.33459</v>
+        <v>5.5647</v>
       </c>
     </row>
     <row r="71" spans="1:16">
@@ -4864,10 +4864,10 @@
         <v>165</v>
       </c>
       <c r="O71" s="2">
-        <v>42.352</v>
+        <v>44.2546</v>
       </c>
       <c r="P71">
-        <v>5.13377</v>
+        <v>5.36436</v>
       </c>
     </row>
     <row r="72" spans="1:16">
@@ -4914,10 +4914,10 @@
         <v>165</v>
       </c>
       <c r="O72" s="2">
-        <v>40.8995</v>
+        <v>42.7024</v>
       </c>
       <c r="P72">
-        <v>4.9577</v>
+        <v>5.17623</v>
       </c>
     </row>
     <row r="73" spans="1:16">
@@ -4964,10 +4964,10 @@
         <v>165</v>
       </c>
       <c r="O73" s="2">
-        <v>39.1966</v>
+        <v>40.9996</v>
       </c>
       <c r="P73">
-        <v>4.75129</v>
+        <v>4.96984</v>
       </c>
     </row>
     <row r="74" spans="1:16">
@@ -5014,10 +5014,10 @@
         <v>165</v>
       </c>
       <c r="O74" s="2">
-        <v>38.796</v>
+        <v>39.848</v>
       </c>
       <c r="P74">
-        <v>4.70273</v>
+        <v>4.83625</v>
       </c>
     </row>
     <row r="75" spans="1:16">
@@ -5064,10 +5064,10 @@
         <v>165</v>
       </c>
       <c r="O75" s="2">
-        <v>36.9431</v>
+        <v>38.0949</v>
       </c>
       <c r="P75">
-        <v>4.47813</v>
+        <v>4.61775</v>
       </c>
     </row>
     <row r="76" spans="1:16">
@@ -5114,10 +5114,10 @@
         <v>165</v>
       </c>
       <c r="O76" s="2">
-        <v>35.2921</v>
+        <v>36.5426</v>
       </c>
       <c r="P76">
-        <v>4.27801</v>
+        <v>4.4296</v>
       </c>
     </row>
     <row r="77" spans="1:16">
@@ -5164,10 +5164,10 @@
         <v>165</v>
       </c>
       <c r="O77">
-        <v>33.5389</v>
+        <v>34.6904</v>
       </c>
       <c r="P77">
-        <v>4.06552</v>
+        <v>4.20509</v>
       </c>
     </row>
     <row r="78" spans="1:16">
@@ -5214,10 +5214,10 @@
         <v>165</v>
       </c>
       <c r="O78">
-        <v>32.5878</v>
+        <v>33.7418</v>
       </c>
       <c r="P78">
-        <v>3.95022</v>
+        <v>4.09009</v>
       </c>
     </row>
     <row r="79" spans="1:16">
@@ -5264,10 +5264,10 @@
         <v>165</v>
       </c>
       <c r="O79">
-        <v>30.7356</v>
+        <v>32.0368</v>
       </c>
       <c r="P79">
-        <v>3.72572</v>
+        <v>3.88343</v>
       </c>
     </row>
     <row r="80" spans="1:16">
@@ -5314,10 +5314,10 @@
         <v>165</v>
       </c>
       <c r="O80">
-        <v>29.0833</v>
+        <v>30.3348</v>
       </c>
       <c r="P80">
-        <v>3.52543</v>
+        <v>3.67714</v>
       </c>
     </row>
     <row r="81" spans="1:16">
@@ -5364,10 +5364,10 @@
         <v>165</v>
       </c>
       <c r="O81">
-        <v>27.1818</v>
+        <v>28.5327</v>
       </c>
       <c r="P81">
-        <v>3.29494</v>
+        <v>3.4587</v>
       </c>
     </row>
     <row r="82" spans="1:16">
@@ -5414,10 +5414,10 @@
         <v>165</v>
       </c>
       <c r="O82">
-        <v>27.231</v>
+        <v>28.5327</v>
       </c>
       <c r="P82">
-        <v>3.30091</v>
+        <v>3.4587</v>
       </c>
     </row>
     <row r="83" spans="1:16">
@@ -5464,10 +5464,10 @@
         <v>165</v>
       </c>
       <c r="O83">
-        <v>25.4787</v>
+        <v>26.8027</v>
       </c>
       <c r="P83">
-        <v>3.08851</v>
+        <v>3.24899</v>
       </c>
     </row>
     <row r="84" spans="1:16">
@@ -5514,10 +5514,10 @@
         <v>165</v>
       </c>
       <c r="O84">
-        <v>23.8262</v>
+        <v>25.0281</v>
       </c>
       <c r="P84">
-        <v>2.88821</v>
+        <v>3.03391</v>
       </c>
     </row>
     <row r="85" spans="1:16">
@@ -5564,10 +5564,10 @@
         <v>165</v>
       </c>
       <c r="O85">
-        <v>22.0236</v>
+        <v>23.3255</v>
       </c>
       <c r="P85">
-        <v>2.6697</v>
+        <v>2.82753</v>
       </c>
     </row>
     <row r="86" spans="1:16">
@@ -5614,10 +5614,10 @@
         <v>165</v>
       </c>
       <c r="O86">
-        <v>20.5717</v>
+        <v>21.8233</v>
       </c>
       <c r="P86">
-        <v>2.49372</v>
+        <v>2.64544</v>
       </c>
     </row>
     <row r="87" spans="1:16">
@@ -5664,10 +5664,10 @@
         <v>165</v>
       </c>
       <c r="O87">
-        <v>18.869</v>
+        <v>20.221</v>
       </c>
       <c r="P87">
-        <v>2.28734</v>
+        <v>2.4512</v>
       </c>
     </row>
     <row r="88" spans="1:16">
@@ -5714,10 +5714,10 @@
         <v>165</v>
       </c>
       <c r="O88">
-        <v>17.2667</v>
+        <v>18.619</v>
       </c>
       <c r="P88">
-        <v>2.09311</v>
+        <v>2.25705</v>
       </c>
     </row>
     <row r="89" spans="1:16">
@@ -5764,10 +5764,10 @@
         <v>165</v>
       </c>
       <c r="O89">
-        <v>15.5147</v>
+        <v>16.9665</v>
       </c>
       <c r="P89">
-        <v>1.88075</v>
+        <v>2.05673</v>
       </c>
     </row>
     <row r="90" spans="1:16">
@@ -5814,10 +5814,10 @@
         <v>165</v>
       </c>
       <c r="O90">
-        <v>10.8112</v>
+        <v>10.8574</v>
       </c>
       <c r="P90">
-        <v>1.31062</v>
+        <v>1.31623</v>
       </c>
     </row>
     <row r="91" spans="1:16">
@@ -5864,10 +5864,10 @@
         <v>165</v>
       </c>
       <c r="O91">
-        <v>9.05522</v>
+        <v>9.055</v>
       </c>
       <c r="P91">
-        <v>1.09779</v>
+        <v>1.09776</v>
       </c>
     </row>
     <row r="92" spans="1:16">
@@ -5914,10 +5914,10 @@
         <v>165</v>
       </c>
       <c r="O92">
-        <v>7.50259</v>
+        <v>7.50265</v>
       </c>
       <c r="P92">
-        <v>0.909592</v>
+        <v>0.909587</v>
       </c>
     </row>
     <row r="93" spans="1:16">
@@ -5964,10 +5964,10 @@
         <v>165</v>
       </c>
       <c r="O93">
-        <v>6.05056</v>
+        <v>6.05057</v>
       </c>
       <c r="P93">
-        <v>0.733583</v>
+        <v>0.733585</v>
       </c>
     </row>
     <row r="94" spans="1:16">
@@ -6014,10 +6014,10 @@
         <v>165</v>
       </c>
       <c r="O94">
-        <v>4.59917</v>
+        <v>4.55027</v>
       </c>
       <c r="P94">
-        <v>0.557671</v>
+        <v>0.551733</v>
       </c>
     </row>
     <row r="95" spans="1:16">
@@ -6064,10 +6064,10 @@
         <v>165</v>
       </c>
       <c r="O95">
-        <v>3.04824</v>
+        <v>3.0483</v>
       </c>
       <c r="P95">
-        <v>0.369672</v>
+        <v>0.369678</v>
       </c>
     </row>
     <row r="96" spans="1:16">
@@ -6114,10 +6114,10 @@
         <v>165</v>
       </c>
       <c r="O96">
-        <v>1.59654</v>
+        <v>1.59651</v>
       </c>
       <c r="P96">
-        <v>0.193716</v>
+        <v>0.193713</v>
       </c>
     </row>
     <row r="97" spans="1:16">
@@ -6164,10 +6164,10 @@
         <v>165</v>
       </c>
       <c r="O97">
-        <v>-0.0018258</v>
+        <v>-0.00502795</v>
       </c>
       <c r="P97">
-        <v>-5.39914E-05</v>
+        <v>-0.000413203</v>
       </c>
     </row>
     <row r="98" spans="1:16">
@@ -6214,10 +6214,10 @@
         <v>165</v>
       </c>
       <c r="O98">
-        <v>0.0451256</v>
+        <v>0.0448594</v>
       </c>
       <c r="P98">
-        <v>0.00565223</v>
+        <v>0.00562463</v>
       </c>
     </row>
     <row r="99" spans="1:16">
@@ -6264,10 +6264,10 @@
         <v>165</v>
       </c>
       <c r="O99">
-        <v>-1.5068</v>
+        <v>-1.55669</v>
       </c>
       <c r="P99">
-        <v>-0.182459</v>
+        <v>-0.188517</v>
       </c>
     </row>
     <row r="100" spans="1:16">
@@ -6314,10 +6314,10 @@
         <v>165</v>
       </c>
       <c r="O100">
-        <v>-3.0571</v>
+        <v>-3.00819</v>
       </c>
       <c r="P100">
-        <v>-0.370374</v>
+        <v>-0.364442</v>
       </c>
     </row>
     <row r="101" spans="1:16">
@@ -6364,10 +6364,10 @@
         <v>165</v>
       </c>
       <c r="O101">
-        <v>-4.55682</v>
+        <v>-4.50958</v>
       </c>
       <c r="P101">
-        <v>-0.552157</v>
+        <v>-0.546421</v>
       </c>
     </row>
     <row r="102" spans="1:16">
@@ -6414,10 +6414,10 @@
         <v>165</v>
       </c>
       <c r="O102">
-        <v>-5.91125</v>
+        <v>-5.91121</v>
       </c>
       <c r="P102">
-        <v>-0.716323</v>
+        <v>-0.716314</v>
       </c>
     </row>
     <row r="103" spans="1:16">
@@ -6464,10 +6464,10 @@
         <v>165</v>
       </c>
       <c r="O103">
-        <v>-7.56269</v>
+        <v>-7.51259</v>
       </c>
       <c r="P103">
-        <v>-0.916503</v>
+        <v>-0.910426</v>
       </c>
     </row>
     <row r="104" spans="1:16">
@@ -6514,10 +6514,10 @@
         <v>165</v>
       </c>
       <c r="O104">
-        <v>-9.11434</v>
+        <v>-9.11422</v>
       </c>
       <c r="P104">
-        <v>-1.10458</v>
+        <v>-1.10456</v>
       </c>
     </row>
     <row r="105" spans="1:16">
@@ -6564,10 +6564,10 @@
         <v>165</v>
       </c>
       <c r="O105">
-        <v>-10.8164</v>
+        <v>-10.8655</v>
       </c>
       <c r="P105">
-        <v>-1.31088</v>
+        <v>-1.31686</v>
       </c>
     </row>
     <row r="106" spans="1:16">
@@ -6614,10 +6614,10 @@
         <v>165</v>
       </c>
       <c r="O106">
-        <v>-15.5715</v>
+        <v>-17.073</v>
       </c>
       <c r="P106">
-        <v>-1.88726</v>
+        <v>-2.06927</v>
       </c>
     </row>
     <row r="107" spans="1:16">
@@ -6664,10 +6664,10 @@
         <v>165</v>
       </c>
       <c r="O107">
-        <v>-17.2233</v>
+        <v>-18.6713</v>
       </c>
       <c r="P107">
-        <v>-2.08749</v>
+        <v>-2.263</v>
       </c>
     </row>
     <row r="108" spans="1:16">
@@ -6714,10 +6714,10 @@
         <v>165</v>
       </c>
       <c r="O108">
-        <v>-18.9248</v>
+        <v>-20.2754</v>
       </c>
       <c r="P108">
-        <v>-2.29372</v>
+        <v>-2.45744</v>
       </c>
     </row>
     <row r="109" spans="1:16">
@@ -6764,10 +6764,10 @@
         <v>165</v>
       </c>
       <c r="O109">
-        <v>-20.4766</v>
+        <v>-21.8281</v>
       </c>
       <c r="P109">
-        <v>-2.48182</v>
+        <v>-2.64566</v>
       </c>
     </row>
     <row r="110" spans="1:16">
@@ -6814,10 +6814,10 @@
         <v>165</v>
       </c>
       <c r="O110">
-        <v>-22.0282</v>
+        <v>-23.3294</v>
       </c>
       <c r="P110">
-        <v>-2.66989</v>
+        <v>-2.82763</v>
       </c>
     </row>
     <row r="111" spans="1:16">
@@ -6864,10 +6864,10 @@
         <v>165</v>
       </c>
       <c r="O111">
-        <v>-23.68</v>
+        <v>-25.0808</v>
       </c>
       <c r="P111">
-        <v>-2.87012</v>
+        <v>-3.03992</v>
       </c>
     </row>
     <row r="112" spans="1:16">
@@ -6914,10 +6914,10 @@
         <v>165</v>
       </c>
       <c r="O112">
-        <v>-25.432</v>
+        <v>-26.7328</v>
       </c>
       <c r="P112">
-        <v>-3.08248</v>
+        <v>-3.24014</v>
       </c>
     </row>
     <row r="113" spans="1:16">
@@ -6964,10 +6964,10 @@
         <v>165</v>
       </c>
       <c r="O113">
-        <v>-27.1831</v>
+        <v>-28.4339</v>
       </c>
       <c r="P113">
-        <v>-3.29473</v>
+        <v>-3.44633</v>
       </c>
     </row>
     <row r="114" spans="1:16">
@@ -7014,10 +7014,10 @@
         <v>165</v>
       </c>
       <c r="O114">
-        <v>-27.1833</v>
+        <v>-28.4337</v>
       </c>
       <c r="P114">
-        <v>-3.29475</v>
+        <v>-3.44632</v>
       </c>
     </row>
     <row r="115" spans="1:16">
@@ -7064,10 +7064,10 @@
         <v>165</v>
       </c>
       <c r="O115">
-        <v>-29.0343</v>
+        <v>-30.3346</v>
       </c>
       <c r="P115">
-        <v>-3.51911</v>
+        <v>-3.67673</v>
       </c>
     </row>
     <row r="116" spans="1:16">
@@ -7114,10 +7114,10 @@
         <v>165</v>
       </c>
       <c r="O116">
-        <v>-30.7353</v>
+        <v>-32.035</v>
       </c>
       <c r="P116">
-        <v>-3.7253</v>
+        <v>-3.88285</v>
       </c>
     </row>
     <row r="117" spans="1:16">
@@ -7164,10 +7164,10 @@
         <v>165</v>
       </c>
       <c r="O117">
-        <v>-32.5365</v>
+        <v>-33.8372</v>
       </c>
       <c r="P117">
-        <v>-3.94363</v>
+        <v>-4.10129</v>
       </c>
     </row>
     <row r="118" spans="1:16">
@@ -7214,10 +7214,10 @@
         <v>165</v>
       </c>
       <c r="O118">
-        <v>-33.5872</v>
+        <v>-34.8375</v>
       </c>
       <c r="P118">
-        <v>-4.07098</v>
+        <v>-4.22253</v>
       </c>
     </row>
     <row r="119" spans="1:16">
@@ -7264,10 +7264,10 @@
         <v>165</v>
       </c>
       <c r="O119" s="3">
-        <v>-35.538</v>
+        <v>-36.639</v>
       </c>
       <c r="P119">
-        <v>-4.30745</v>
+        <v>-4.44091</v>
       </c>
     </row>
     <row r="120" spans="1:16">
@@ -7314,10 +7314,10 @@
         <v>165</v>
       </c>
       <c r="O120" s="3">
-        <v>-37.1393</v>
+        <v>-38.3399</v>
       </c>
       <c r="P120">
-        <v>-4.50155</v>
+        <v>-4.64707</v>
       </c>
     </row>
     <row r="121" spans="1:16">
@@ -7364,10 +7364,10 @@
         <v>165</v>
       </c>
       <c r="O121" s="3">
-        <v>-39.0904</v>
+        <v>-40.241</v>
       </c>
       <c r="P121">
-        <v>-4.73804</v>
+        <v>-4.8775</v>
       </c>
     </row>
     <row r="122" spans="1:16">
@@ -7414,10 +7414,10 @@
         <v>165</v>
       </c>
       <c r="O122" s="3">
-        <v>-39.4906</v>
+        <v>-41.492</v>
       </c>
       <c r="P122">
-        <v>-4.78656</v>
+        <v>-5.02914</v>
       </c>
     </row>
     <row r="123" spans="1:16">
@@ -7464,10 +7464,10 @@
         <v>165</v>
       </c>
       <c r="O123" s="3">
-        <v>-41.242</v>
+        <v>-43.1923</v>
       </c>
       <c r="P123">
-        <v>-4.99886</v>
+        <v>-5.23525</v>
       </c>
     </row>
     <row r="124" spans="1:16">
@@ -7514,10 +7514,10 @@
         <v>165</v>
       </c>
       <c r="O124" s="3">
-        <v>-42.8431</v>
+        <v>-44.844</v>
       </c>
       <c r="P124">
-        <v>-5.19292</v>
+        <v>-5.43544</v>
       </c>
     </row>
     <row r="125" spans="1:16">
@@ -7564,10 +7564,10 @@
         <v>165</v>
       </c>
       <c r="O125" s="3">
-        <v>-44.6941</v>
+        <v>-46.9453</v>
       </c>
       <c r="P125">
-        <v>-5.41728</v>
+        <v>-5.69015</v>
       </c>
     </row>
     <row r="126" spans="1:16">
@@ -7614,10 +7614,10 @@
         <v>165</v>
       </c>
       <c r="O126" s="3">
-        <v>-45.5946</v>
+        <v>-47.7463</v>
       </c>
       <c r="P126">
-        <v>-5.52644</v>
+        <v>-5.78724</v>
       </c>
     </row>
     <row r="127" spans="1:16">
@@ -7664,10 +7664,10 @@
         <v>165</v>
       </c>
       <c r="O127" s="3">
-        <v>-47.5459</v>
+        <v>-49.5973</v>
       </c>
       <c r="P127">
-        <v>-5.76295</v>
+        <v>-6.01161</v>
       </c>
     </row>
     <row r="128" spans="1:16">
@@ -7714,10 +7714,10 @@
         <v>165</v>
       </c>
       <c r="O128" s="3">
-        <v>-49.2468</v>
+        <v>-51.1985</v>
       </c>
       <c r="P128">
-        <v>-5.96311</v>
+        <v>-6.20569</v>
       </c>
     </row>
     <row r="129" spans="1:16">
@@ -7764,10 +7764,10 @@
         <v>165</v>
       </c>
       <c r="O129" s="3">
-        <v>-51.0483</v>
+        <v>-53.0496</v>
       </c>
       <c r="P129">
-        <v>-6.18748</v>
+        <v>-6.43009</v>
       </c>
     </row>
     <row r="130" spans="1:16">
@@ -7814,10 +7814,10 @@
         <v>239</v>
       </c>
       <c r="O130">
-        <v>29.9227</v>
+        <v>31.2215</v>
       </c>
       <c r="P130">
-        <v>4.43362</v>
+        <v>4.62597</v>
       </c>
     </row>
     <row r="131" spans="1:16">
@@ -7864,10 +7864,10 @@
         <v>239</v>
       </c>
       <c r="O131">
-        <v>28.6824</v>
+        <v>30.026</v>
       </c>
       <c r="P131">
-        <v>4.24984</v>
+        <v>4.44894</v>
       </c>
     </row>
     <row r="132" spans="1:16">
@@ -7914,10 +7914,10 @@
         <v>239</v>
       </c>
       <c r="O132">
-        <v>28.3701</v>
+        <v>29.6689</v>
       </c>
       <c r="P132">
-        <v>4.21103</v>
+        <v>4.39598</v>
       </c>
     </row>
     <row r="133" spans="1:16">
@@ -7964,10 +7964,10 @@
         <v>239</v>
       </c>
       <c r="O133">
-        <v>27.3497</v>
+        <v>28.6274</v>
       </c>
       <c r="P133">
-        <v>4.05241</v>
+        <v>4.24172</v>
       </c>
     </row>
     <row r="134" spans="1:16">
@@ -8014,10 +8014,10 @@
         <v>239</v>
       </c>
       <c r="O134">
-        <v>26.871</v>
+        <v>28.1735</v>
       </c>
       <c r="P134">
-        <v>3.98154</v>
+        <v>4.17448</v>
       </c>
     </row>
     <row r="135" spans="1:16">
@@ -8064,10 +8064,10 @@
         <v>239</v>
       </c>
       <c r="O135">
-        <v>25.8889</v>
+        <v>27.1817</v>
       </c>
       <c r="P135">
-        <v>3.83604</v>
+        <v>4.02753</v>
       </c>
     </row>
     <row r="136" spans="1:16">
@@ -8114,10 +8114,10 @@
         <v>239</v>
       </c>
       <c r="O136">
-        <v>24.7521</v>
+        <v>26.1485</v>
       </c>
       <c r="P136">
-        <v>3.66755</v>
+        <v>3.87448</v>
       </c>
     </row>
     <row r="137" spans="1:16">
@@ -8164,10 +8164,10 @@
         <v>239</v>
       </c>
       <c r="O137">
-        <v>23.8739</v>
+        <v>25.2168</v>
       </c>
       <c r="P137">
-        <v>3.53742</v>
+        <v>3.73646</v>
       </c>
     </row>
     <row r="138" spans="1:16">
@@ -8214,10 +8214,10 @@
         <v>239</v>
       </c>
       <c r="O138">
-        <v>23.6157</v>
+        <v>24.443</v>
       </c>
       <c r="P138">
-        <v>3.49923</v>
+        <v>3.62183</v>
       </c>
     </row>
     <row r="139" spans="1:16">
@@ -8264,10 +8264,10 @@
         <v>239</v>
       </c>
       <c r="O139">
-        <v>22.6423</v>
+        <v>23.4177</v>
       </c>
       <c r="P139">
-        <v>3.35498</v>
+        <v>3.46985</v>
       </c>
     </row>
     <row r="140" spans="1:16">
@@ -8314,10 +8314,10 @@
         <v>239</v>
       </c>
       <c r="O140">
-        <v>21.9104</v>
+        <v>22.6347</v>
       </c>
       <c r="P140">
-        <v>3.24663</v>
+        <v>3.35392</v>
       </c>
     </row>
     <row r="141" spans="1:16">
@@ -8364,10 +8364,10 @@
         <v>239</v>
       </c>
       <c r="O141">
-        <v>20.8779</v>
+        <v>21.7046</v>
       </c>
       <c r="P141">
-        <v>3.09366</v>
+        <v>3.21617</v>
       </c>
     </row>
     <row r="142" spans="1:16">
@@ -8414,10 +8414,10 @@
         <v>239</v>
       </c>
       <c r="O142">
-        <v>20.31</v>
+        <v>21.2483</v>
       </c>
       <c r="P142">
-        <v>3.00954</v>
+        <v>3.14845</v>
       </c>
     </row>
     <row r="143" spans="1:16">
@@ -8464,10 +8464,10 @@
         <v>239</v>
       </c>
       <c r="O143">
-        <v>19.4837</v>
+        <v>20.2659</v>
       </c>
       <c r="P143">
-        <v>2.88711</v>
+        <v>3.0029</v>
       </c>
     </row>
     <row r="144" spans="1:16">
@@ -8514,10 +8514,10 @@
         <v>239</v>
       </c>
       <c r="O144">
-        <v>18.5036</v>
+        <v>19.4415</v>
       </c>
       <c r="P144">
-        <v>2.74926</v>
+        <v>2.88084</v>
       </c>
     </row>
     <row r="145" spans="1:16">
@@ -8564,10 +8564,10 @@
         <v>239</v>
       </c>
       <c r="O145">
-        <v>17.5324</v>
+        <v>18.3989</v>
       </c>
       <c r="P145">
-        <v>2.59801</v>
+        <v>2.72644</v>
       </c>
     </row>
     <row r="146" spans="1:16">
@@ -8614,10 +8614,10 @@
         <v>239</v>
       </c>
       <c r="O146">
-        <v>17.5285</v>
+        <v>18.4507</v>
       </c>
       <c r="P146">
-        <v>2.59742</v>
+        <v>2.73411</v>
       </c>
     </row>
     <row r="147" spans="1:16">
@@ -8664,10 +8664,10 @@
         <v>239</v>
       </c>
       <c r="O147">
-        <v>16.5897</v>
+        <v>17.4179</v>
       </c>
       <c r="P147">
-        <v>2.45838</v>
+        <v>2.58108</v>
       </c>
     </row>
     <row r="148" spans="1:16">
@@ -8714,10 +8714,10 @@
         <v>239</v>
       </c>
       <c r="O148">
-        <v>15.6078</v>
+        <v>16.5373</v>
       </c>
       <c r="P148">
-        <v>2.31295</v>
+        <v>2.45062</v>
       </c>
     </row>
     <row r="149" spans="1:16">
@@ -8764,10 +8764,10 @@
         <v>239</v>
       </c>
       <c r="O149">
-        <v>14.5316</v>
+        <v>15.453</v>
       </c>
       <c r="P149">
-        <v>2.1534</v>
+        <v>2.28996</v>
       </c>
     </row>
     <row r="150" spans="1:16">
@@ -8814,10 +8814,10 @@
         <v>239</v>
       </c>
       <c r="O150">
-        <v>13.6512</v>
+        <v>14.6258</v>
       </c>
       <c r="P150">
-        <v>2.02297</v>
+        <v>2.1674</v>
       </c>
     </row>
     <row r="151" spans="1:16">
@@ -8864,10 +8864,10 @@
         <v>239</v>
       </c>
       <c r="O151">
-        <v>12.7649</v>
+        <v>13.6431</v>
       </c>
       <c r="P151">
-        <v>1.89177</v>
+        <v>2.02184</v>
       </c>
     </row>
     <row r="152" spans="1:16">
@@ -8914,10 +8914,10 @@
         <v>239</v>
       </c>
       <c r="O152">
-        <v>11.6309</v>
+        <v>12.6159</v>
       </c>
       <c r="P152">
-        <v>1.72371</v>
+        <v>1.86964</v>
       </c>
     </row>
     <row r="153" spans="1:16">
@@ -8964,10 +8964,10 @@
         <v>239</v>
       </c>
       <c r="O153">
-        <v>10.5422</v>
+        <v>11.5754</v>
       </c>
       <c r="P153">
-        <v>1.56245</v>
+        <v>1.71548</v>
       </c>
     </row>
     <row r="154" spans="1:16">
@@ -9014,10 +9014,10 @@
         <v>239</v>
       </c>
       <c r="O154">
-        <v>7.54461</v>
+        <v>7.59597</v>
       </c>
       <c r="P154">
-        <v>1.11832</v>
+        <v>1.12595</v>
       </c>
     </row>
     <row r="155" spans="1:16">
@@ -9064,10 +9064,10 @@
         <v>239</v>
       </c>
       <c r="O155">
-        <v>6.35561</v>
+        <v>6.40713</v>
       </c>
       <c r="P155">
-        <v>0.942169</v>
+        <v>0.949801</v>
       </c>
     </row>
     <row r="156" spans="1:16">
@@ -9114,10 +9114,10 @@
         <v>239</v>
       </c>
       <c r="O156">
-        <v>5.21825</v>
+        <v>5.22706</v>
       </c>
       <c r="P156">
-        <v>0.773683</v>
+        <v>0.774952</v>
       </c>
     </row>
     <row r="157" spans="1:16">
@@ -9164,10 +9164,10 @@
         <v>239</v>
       </c>
       <c r="O157">
-        <v>4.23627</v>
+        <v>4.24277</v>
       </c>
       <c r="P157">
-        <v>0.6282180000000001</v>
+        <v>0.629123</v>
       </c>
     </row>
     <row r="158" spans="1:16">
@@ -9214,10 +9214,10 @@
         <v>239</v>
       </c>
       <c r="O158">
-        <v>3.30566</v>
+        <v>3.25538</v>
       </c>
       <c r="P158">
-        <v>0.490365</v>
+        <v>0.490226</v>
       </c>
     </row>
     <row r="159" spans="1:16">
@@ -9264,10 +9264,10 @@
         <v>239</v>
       </c>
       <c r="O159">
-        <v>2.11727</v>
+        <v>2.16893</v>
       </c>
       <c r="P159">
-        <v>0.314261</v>
+        <v>0.321925</v>
       </c>
     </row>
     <row r="160" spans="1:16">
@@ -9314,10 +9314,10 @@
         <v>239</v>
       </c>
       <c r="O160">
-        <v>1.13494</v>
+        <v>1.18682</v>
       </c>
       <c r="P160">
-        <v>0.168755</v>
+        <v>0.17643</v>
       </c>
     </row>
     <row r="161" spans="1:16">
@@ -9364,10 +9364,10 @@
         <v>239</v>
       </c>
       <c r="O161">
-        <v>0.049929</v>
+        <v>0.0539566</v>
       </c>
       <c r="P161">
-        <v>0.00799996</v>
+        <v>0.0156162</v>
       </c>
     </row>
     <row r="162" spans="1:16">
@@ -9414,10 +9414,10 @@
         <v>239</v>
       </c>
       <c r="O162">
-        <v>0.101734</v>
+        <v>0.101426</v>
       </c>
       <c r="P162">
-        <v>0.0156843</v>
+        <v>0.0156356</v>
       </c>
     </row>
     <row r="163" spans="1:16">
@@ -9464,10 +9464,10 @@
         <v>239</v>
       </c>
       <c r="O163">
-        <v>-0.9837399999999999</v>
+        <v>-0.983739</v>
       </c>
       <c r="P163">
-        <v>-0.14513</v>
+        <v>-0.145129</v>
       </c>
     </row>
     <row r="164" spans="1:16">
@@ -9514,10 +9514,10 @@
         <v>239</v>
       </c>
       <c r="O164">
-        <v>-2.0176</v>
+        <v>-2.06891</v>
       </c>
       <c r="P164">
-        <v>-0.298294</v>
+        <v>-0.305903</v>
       </c>
     </row>
     <row r="165" spans="1:16">
@@ -9564,10 +9564,10 @@
         <v>239</v>
       </c>
       <c r="O165">
-        <v>-3.04978</v>
+        <v>-3.05033</v>
       </c>
       <c r="P165">
-        <v>-0.443678</v>
+        <v>-0.451292</v>
       </c>
     </row>
     <row r="166" spans="1:16">
@@ -9614,10 +9614,10 @@
         <v>239</v>
       </c>
       <c r="O166">
-        <v>-3.98117</v>
+        <v>-4.03252</v>
       </c>
       <c r="P166">
-        <v>-0.589189</v>
+        <v>-0.596765</v>
       </c>
     </row>
     <row r="167" spans="1:16">
@@ -9664,10 +9664,10 @@
         <v>239</v>
       </c>
       <c r="O167">
-        <v>-5.06536</v>
+        <v>-5.16234</v>
       </c>
       <c r="P167">
-        <v>-0.749779</v>
+        <v>-0.764208</v>
       </c>
     </row>
     <row r="168" spans="1:16">
@@ -9714,10 +9714,10 @@
         <v>239</v>
       </c>
       <c r="O168">
-        <v>-6.25422</v>
+        <v>-6.20304</v>
       </c>
       <c r="P168">
-        <v>-0.925929</v>
+        <v>-0.91836</v>
       </c>
     </row>
     <row r="169" spans="1:16">
@@ -9764,7 +9764,7 @@
         <v>239</v>
       </c>
       <c r="O169">
-        <v>-7.28783</v>
+        <v>-7.28774</v>
       </c>
       <c r="P169">
         <v>-1.07904</v>
@@ -9814,10 +9814,10 @@
         <v>239</v>
       </c>
       <c r="O170">
-        <v>-9.71519</v>
+        <v>-10.7485</v>
       </c>
       <c r="P170">
-        <v>-1.43862</v>
+        <v>-1.59175</v>
       </c>
     </row>
     <row r="171" spans="1:16">
@@ -9864,10 +9864,10 @@
         <v>239</v>
       </c>
       <c r="O171">
-        <v>-10.7496</v>
+        <v>-11.7821</v>
       </c>
       <c r="P171">
-        <v>-1.59193</v>
+        <v>-1.74487</v>
       </c>
     </row>
     <row r="172" spans="1:16">
@@ -9914,10 +9914,10 @@
         <v>239</v>
       </c>
       <c r="O172">
-        <v>-11.6727</v>
+        <v>-12.7129</v>
       </c>
       <c r="P172">
-        <v>-1.72869</v>
+        <v>-1.88277</v>
       </c>
     </row>
     <row r="173" spans="1:16">
@@ -9964,10 +9964,10 @@
         <v>239</v>
       </c>
       <c r="O173">
-        <v>-12.7129</v>
+        <v>-13.6936</v>
       </c>
       <c r="P173">
-        <v>-1.88277</v>
+        <v>-2.02805</v>
       </c>
     </row>
     <row r="174" spans="1:16">
@@ -10014,10 +10014,10 @@
         <v>239</v>
       </c>
       <c r="O174">
-        <v>-13.5912</v>
+        <v>-14.5209</v>
       </c>
       <c r="P174">
-        <v>-2.01287</v>
+        <v>-2.15057</v>
       </c>
     </row>
     <row r="175" spans="1:16">
@@ -10064,10 +10064,10 @@
         <v>239</v>
       </c>
       <c r="O175">
-        <v>-14.5204</v>
+        <v>-15.3319</v>
       </c>
       <c r="P175">
-        <v>-2.15055</v>
+        <v>-2.27084</v>
       </c>
     </row>
     <row r="176" spans="1:16">
@@ -10114,10 +10114,10 @@
         <v>239</v>
       </c>
       <c r="O176">
-        <v>-15.2963</v>
+        <v>-16.2779</v>
       </c>
       <c r="P176">
-        <v>-2.26548</v>
+        <v>-2.41091</v>
       </c>
     </row>
     <row r="177" spans="1:16">
@@ -10164,10 +10164,10 @@
         <v>239</v>
       </c>
       <c r="O177">
-        <v>-16.4307</v>
+        <v>-17.1566</v>
       </c>
       <c r="P177">
-        <v>-2.4335</v>
+        <v>-2.54108</v>
       </c>
     </row>
     <row r="178" spans="1:16">
@@ -10214,10 +10214,10 @@
         <v>239</v>
       </c>
       <c r="O178">
-        <v>-16.2781</v>
+        <v>-17.1046</v>
       </c>
       <c r="P178">
-        <v>-2.41096</v>
+        <v>-2.53336</v>
       </c>
     </row>
     <row r="179" spans="1:16">
@@ -10264,10 +10264,10 @@
         <v>239</v>
       </c>
       <c r="O179">
-        <v>-17.3641</v>
+        <v>-18.0865</v>
       </c>
       <c r="P179">
-        <v>-2.57182</v>
+        <v>-2.67885</v>
       </c>
     </row>
     <row r="180" spans="1:16">
@@ -10314,10 +10314,10 @@
         <v>239</v>
       </c>
       <c r="O180">
-        <v>-18.1906</v>
+        <v>-19.1204</v>
       </c>
       <c r="P180">
-        <v>-2.69429</v>
+        <v>-2.83201</v>
       </c>
     </row>
     <row r="181" spans="1:16">
@@ -10364,10 +10364,10 @@
         <v>239</v>
       </c>
       <c r="O181">
-        <v>-19.3278</v>
+        <v>-20.3093</v>
       </c>
       <c r="P181">
-        <v>-2.86275</v>
+        <v>-3.00818</v>
       </c>
     </row>
     <row r="182" spans="1:16">
@@ -10414,10 +10414,10 @@
         <v>239</v>
       </c>
       <c r="O182">
-        <v>-19.8894</v>
+        <v>-20.8266</v>
       </c>
       <c r="P182">
-        <v>-2.94602</v>
+        <v>-3.08479</v>
       </c>
     </row>
     <row r="183" spans="1:16">
@@ -10464,10 +10464,10 @@
         <v>239</v>
       </c>
       <c r="O183">
-        <v>-20.9822</v>
+        <v>-21.9632</v>
       </c>
       <c r="P183">
-        <v>-3.10785</v>
+        <v>-3.25318</v>
       </c>
     </row>
     <row r="184" spans="1:16">
@@ -10514,10 +10514,10 @@
         <v>239</v>
       </c>
       <c r="O184">
-        <v>-22.0133</v>
+        <v>-23.049</v>
       </c>
       <c r="P184">
-        <v>-3.25335</v>
+        <v>-3.41405</v>
       </c>
     </row>
     <row r="185" spans="1:16">
@@ -10564,10 +10564,10 @@
         <v>239</v>
       </c>
       <c r="O185">
-        <v>-23.3529</v>
+        <v>-24.2384</v>
       </c>
       <c r="P185">
-        <v>-3.45913</v>
+        <v>-3.59025</v>
       </c>
     </row>
     <row r="186" spans="1:16">
@@ -10614,10 +10614,10 @@
         <v>239</v>
       </c>
       <c r="O186">
-        <v>-23.5548</v>
+        <v>-25.0139</v>
       </c>
       <c r="P186">
-        <v>-3.48313</v>
+        <v>-3.70514</v>
       </c>
     </row>
     <row r="187" spans="1:16">
@@ -10664,10 +10664,10 @@
         <v>239</v>
       </c>
       <c r="O187">
-        <v>-24.756</v>
+        <v>-26.2475</v>
       </c>
       <c r="P187">
-        <v>-3.66691</v>
+        <v>-3.88796</v>
       </c>
     </row>
     <row r="188" spans="1:16">
@@ -10714,10 +10714,10 @@
         <v>239</v>
       </c>
       <c r="O188">
-        <v>-25.8411</v>
+        <v>-27.3403</v>
       </c>
       <c r="P188">
-        <v>-3.8277</v>
+        <v>-4.04981</v>
       </c>
     </row>
     <row r="189" spans="1:16">
@@ -10764,10 +10764,10 @@
         <v>239</v>
       </c>
       <c r="O189">
-        <v>-27.0816</v>
+        <v>-28.5297</v>
       </c>
       <c r="P189">
-        <v>-4.01147</v>
+        <v>-4.226</v>
       </c>
     </row>
     <row r="190" spans="1:16">
@@ -10814,10 +10814,10 @@
         <v>239</v>
       </c>
       <c r="O190">
-        <v>-27.6502</v>
+        <v>-29.0395</v>
       </c>
       <c r="P190">
-        <v>-4.09574</v>
+        <v>-4.30157</v>
       </c>
     </row>
     <row r="191" spans="1:16">
@@ -10864,10 +10864,10 @@
         <v>239</v>
       </c>
       <c r="O191">
-        <v>-28.7869</v>
+        <v>-30.2351</v>
       </c>
       <c r="P191">
-        <v>-4.26411</v>
+        <v>-4.47866</v>
       </c>
     </row>
     <row r="192" spans="1:16">
@@ -10914,10 +10914,10 @@
         <v>239</v>
       </c>
       <c r="O192">
-        <v>-29.8214</v>
+        <v>-31.3708</v>
       </c>
       <c r="P192">
-        <v>-4.41739</v>
+        <v>-4.63945</v>
       </c>
     </row>
     <row r="193" spans="1:16">
@@ -10964,10 +10964,10 @@
         <v>239</v>
       </c>
       <c r="O193">
-        <v>-31.0618</v>
+        <v>-32.4577</v>
       </c>
       <c r="P193">
-        <v>-4.60115</v>
+        <v>-4.80795</v>
       </c>
     </row>
     <row r="194" spans="1:16" s="1" customFormat="1">
@@ -11025,10 +11025,10 @@
         <v>303</v>
       </c>
       <c r="O195" s="3">
-        <v>-51.0483</v>
+        <v>-53.0496</v>
       </c>
       <c r="P195" s="1">
-        <v>-6.18748</v>
+        <v>-6.43009</v>
       </c>
     </row>
     <row r="196" spans="1:16" s="1" customFormat="1">
@@ -11036,10 +11036,10 @@
         <v>304</v>
       </c>
       <c r="O196" s="2">
-        <v>50.9676</v>
+        <v>52.8206</v>
       </c>
       <c r="P196" s="1">
-        <v>6.17807</v>
+        <v>6.40269</v>
       </c>
     </row>
     <row r="197" spans="1:16" s="1" customFormat="1">
@@ -11079,10 +11079,10 @@
         <v>309</v>
       </c>
       <c r="O201" s="1">
-        <v>0.08939417</v>
+        <v>0.0731767</v>
       </c>
       <c r="P201" s="1">
-        <v>0.01392322</v>
+        <v>0.0117263</v>
       </c>
     </row>
     <row r="202" spans="1:16" s="1" customFormat="1">
@@ -11090,10 +11090,10 @@
         <v>310</v>
       </c>
       <c r="O202" s="1">
-        <v>24.434406</v>
+        <v>25.548188</v>
       </c>
       <c r="P202" s="1">
-        <v>3.185523</v>
+        <v>3.332325</v>
       </c>
     </row>
     <row r="203" spans="1:16" s="1" customFormat="1">
@@ -11101,10 +11101,10 @@
         <v>311</v>
       </c>
       <c r="O203" s="1">
-        <v>27333.332811</v>
+        <v>34913.009196</v>
       </c>
       <c r="P203" s="1">
-        <v>22879.211849</v>
+        <v>28417.531532</v>
       </c>
     </row>
     <row r="204" spans="1:16" s="1" customFormat="1"/>

--- a/dcd_top_offset_step_tsmc2p_meas.xlsx
+++ b/dcd_top_offset_step_tsmc2p_meas.xlsx
@@ -956,7 +956,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -972,32 +972,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF "/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF9133"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0094D1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1012,11 +993,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1413,11 +1392,11 @@
       <c r="N2" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="2">
-        <v>41.2435</v>
+      <c r="O2">
+        <v>25.9053</v>
       </c>
       <c r="P2">
-        <v>5.49941</v>
+        <v>3.45432</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1463,11 +1442,11 @@
       <c r="N3" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="2">
-        <v>39.7457</v>
+      <c r="O3">
+        <v>24.8205</v>
       </c>
       <c r="P3">
-        <v>5.2997</v>
+        <v>3.30968</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1513,11 +1492,11 @@
       <c r="N4" t="s">
         <v>29</v>
       </c>
-      <c r="O4" s="2">
-        <v>38.2464</v>
+      <c r="O4">
+        <v>22.9591</v>
       </c>
       <c r="P4">
-        <v>5.10657</v>
+        <v>3.0615</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1563,11 +1542,11 @@
       <c r="N5" t="s">
         <v>29</v>
       </c>
-      <c r="O5" s="2">
-        <v>36.9025</v>
+      <c r="O5">
+        <v>21.8223</v>
       </c>
       <c r="P5">
-        <v>4.92062</v>
+        <v>2.90994</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1613,11 +1592,11 @@
       <c r="N6" t="s">
         <v>29</v>
       </c>
-      <c r="O6" s="2">
-        <v>36.2317</v>
+      <c r="O6">
+        <v>21.0482</v>
       </c>
       <c r="P6">
-        <v>4.83119</v>
+        <v>2.80671</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1664,10 +1643,10 @@
         <v>29</v>
       </c>
       <c r="O7">
-        <v>34.7892</v>
+        <v>19.9637</v>
       </c>
       <c r="P7">
-        <v>4.63883</v>
+        <v>2.66211</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1714,10 +1693,10 @@
         <v>29</v>
       </c>
       <c r="O8">
-        <v>33.5497</v>
+        <v>18.828</v>
       </c>
       <c r="P8">
-        <v>4.47357</v>
+        <v>2.5107</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1764,10 +1743,10 @@
         <v>29</v>
       </c>
       <c r="O9">
-        <v>32.0485</v>
+        <v>17.6916</v>
       </c>
       <c r="P9">
-        <v>4.27343</v>
+        <v>2.35917</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1814,10 +1793,10 @@
         <v>29</v>
       </c>
       <c r="O10">
-        <v>30.7571</v>
+        <v>17.8466</v>
       </c>
       <c r="P10">
-        <v>4.10122</v>
+        <v>2.37984</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1864,10 +1843,10 @@
         <v>29</v>
       </c>
       <c r="O11">
-        <v>29.4147</v>
+        <v>16.7103</v>
       </c>
       <c r="P11">
-        <v>3.92225</v>
+        <v>2.22832</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1914,10 +1893,10 @@
         <v>29</v>
       </c>
       <c r="O12">
-        <v>28.1759</v>
+        <v>15.6779</v>
       </c>
       <c r="P12">
-        <v>3.75709</v>
+        <v>2.09067</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1964,10 +1943,10 @@
         <v>29</v>
       </c>
       <c r="O13">
-        <v>26.7293</v>
+        <v>14.7482</v>
       </c>
       <c r="P13">
-        <v>3.56419</v>
+        <v>1.96674</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -2014,10 +1993,10 @@
         <v>29</v>
       </c>
       <c r="O14">
-        <v>26.0582</v>
+        <v>13.9735</v>
       </c>
       <c r="P14">
-        <v>3.47471</v>
+        <v>1.86342</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -2064,10 +2043,10 @@
         <v>29</v>
       </c>
       <c r="O15">
-        <v>24.6123</v>
+        <v>12.9921</v>
       </c>
       <c r="P15">
-        <v>3.28193</v>
+        <v>1.73257</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -2114,10 +2093,10 @@
         <v>29</v>
       </c>
       <c r="O16">
-        <v>23.2695</v>
+        <v>12.1142</v>
       </c>
       <c r="P16">
-        <v>3.10289</v>
+        <v>1.61552</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -2164,10 +2143,10 @@
         <v>29</v>
       </c>
       <c r="O17">
-        <v>21.8752</v>
+        <v>11.1338</v>
       </c>
       <c r="P17">
-        <v>2.91699</v>
+        <v>1.48478</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -2214,10 +2193,10 @@
         <v>29</v>
       </c>
       <c r="O18">
-        <v>21.875</v>
+        <v>11.1848</v>
       </c>
       <c r="P18">
-        <v>2.91696</v>
+        <v>1.4916</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -2264,10 +2243,10 @@
         <v>29</v>
       </c>
       <c r="O19">
-        <v>20.429</v>
+        <v>10.5135</v>
       </c>
       <c r="P19">
-        <v>2.72416</v>
+        <v>1.40209</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -2314,10 +2293,10 @@
         <v>29</v>
       </c>
       <c r="O20">
-        <v>18.9842</v>
+        <v>9.68698</v>
       </c>
       <c r="P20">
-        <v>2.53153</v>
+        <v>1.29189</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -2364,10 +2343,10 @@
         <v>29</v>
       </c>
       <c r="O21">
-        <v>17.5371</v>
+        <v>8.963760000000001</v>
       </c>
       <c r="P21">
-        <v>2.34546</v>
+        <v>1.19546</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -2414,10 +2393,10 @@
         <v>29</v>
       </c>
       <c r="O22">
-        <v>16.4531</v>
+        <v>8.24235</v>
       </c>
       <c r="P22">
-        <v>2.20082</v>
+        <v>1.09928</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -2464,10 +2443,10 @@
         <v>29</v>
       </c>
       <c r="O23">
-        <v>15.1103</v>
+        <v>7.46632</v>
       </c>
       <c r="P23">
-        <v>2.015</v>
+        <v>0.99581</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -2514,10 +2493,10 @@
         <v>29</v>
       </c>
       <c r="O24">
-        <v>14.0774</v>
+        <v>6.74328</v>
       </c>
       <c r="P24">
-        <v>1.87727</v>
+        <v>0.89939</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -2564,10 +2543,10 @@
         <v>29</v>
       </c>
       <c r="O25">
-        <v>12.9411</v>
+        <v>5.96823</v>
       </c>
       <c r="P25">
-        <v>1.72577</v>
+        <v>0.796052</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -2614,10 +2593,10 @@
         <v>29</v>
       </c>
       <c r="O26">
-        <v>8.75741</v>
+        <v>5.34898</v>
       </c>
       <c r="P26">
-        <v>1.16795</v>
+        <v>0.713486</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -2664,10 +2643,10 @@
         <v>29</v>
       </c>
       <c r="O27">
-        <v>7.46655</v>
+        <v>4.57374</v>
       </c>
       <c r="P27">
-        <v>0.995849</v>
+        <v>0.610108</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -2714,10 +2693,10 @@
         <v>29</v>
       </c>
       <c r="O28">
-        <v>6.22659</v>
+        <v>3.85089</v>
       </c>
       <c r="P28">
-        <v>0.830495</v>
+        <v>0.513736</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -2764,10 +2743,10 @@
         <v>29</v>
       </c>
       <c r="O29">
-        <v>5.03876</v>
+        <v>3.07585</v>
       </c>
       <c r="P29">
-        <v>0.672118</v>
+        <v>0.410404</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2814,10 +2793,10 @@
         <v>29</v>
       </c>
       <c r="O30">
-        <v>3.79918</v>
+        <v>2.35311</v>
       </c>
       <c r="P30">
-        <v>0.506846</v>
+        <v>0.314038</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2864,10 +2843,10 @@
         <v>29</v>
       </c>
       <c r="O31">
-        <v>2.55985</v>
+        <v>1.62989</v>
       </c>
       <c r="P31">
-        <v>0.34162</v>
+        <v>0.217603</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -2914,10 +2893,10 @@
         <v>29</v>
       </c>
       <c r="O32">
-        <v>1.31998</v>
+        <v>0.803737</v>
       </c>
       <c r="P32">
-        <v>0.176282</v>
+        <v>0.114303</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2964,10 +2943,10 @@
         <v>29</v>
       </c>
       <c r="O33">
-        <v>0.08098569999999999</v>
+        <v>0.0290732</v>
       </c>
       <c r="P33">
-        <v>0.0110818</v>
+        <v>0.00416494</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -3014,10 +2993,10 @@
         <v>29</v>
       </c>
       <c r="O34">
-        <v>0.0286647</v>
+        <v>-0.021699</v>
       </c>
       <c r="P34">
-        <v>0.00410567</v>
+        <v>-0.00260628</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -3064,10 +3043,10 @@
         <v>29</v>
       </c>
       <c r="O35">
-        <v>-1.10731</v>
+        <v>-0.590353</v>
       </c>
       <c r="P35">
-        <v>-0.147352</v>
+        <v>-0.07843169999999999</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -3114,10 +3093,10 @@
         <v>29</v>
       </c>
       <c r="O36">
-        <v>-2.50135</v>
+        <v>-1.41645</v>
       </c>
       <c r="P36">
-        <v>-0.333226</v>
+        <v>-0.188577</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -3164,10 +3143,10 @@
         <v>29</v>
       </c>
       <c r="O37">
-        <v>-3.79188</v>
+        <v>-2.13935</v>
       </c>
       <c r="P37">
-        <v>-0.505297</v>
+        <v>-0.284954</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -3214,10 +3193,10 @@
         <v>29</v>
       </c>
       <c r="O38">
-        <v>-4.92672</v>
+        <v>-2.96564</v>
       </c>
       <c r="P38">
-        <v>-0.656603</v>
+        <v>-0.395121</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -3264,10 +3243,10 @@
         <v>29</v>
       </c>
       <c r="O39">
-        <v>-6.2178</v>
+        <v>-3.68859</v>
       </c>
       <c r="P39">
-        <v>-0.828734</v>
+        <v>-0.491525</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -3314,10 +3293,10 @@
         <v>29</v>
       </c>
       <c r="O40">
-        <v>-7.45777</v>
+        <v>-4.51453</v>
       </c>
       <c r="P40">
-        <v>-0.994075</v>
+        <v>-0.601641</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -3364,10 +3343,10 @@
         <v>29</v>
       </c>
       <c r="O41">
-        <v>-8.593590000000001</v>
+        <v>-5.28939</v>
       </c>
       <c r="P41">
-        <v>-1.14552</v>
+        <v>-0.704968</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -3414,10 +3393,10 @@
         <v>29</v>
       </c>
       <c r="O42">
-        <v>-12.9317</v>
+        <v>-5.90895</v>
       </c>
       <c r="P42">
-        <v>-1.72394</v>
+        <v>-0.787574</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -3464,10 +3443,10 @@
         <v>29</v>
       </c>
       <c r="O43">
-        <v>-13.9651</v>
+        <v>-6.78571</v>
       </c>
       <c r="P43">
-        <v>-1.86173</v>
+        <v>-0.904475</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -3514,10 +3493,10 @@
         <v>29</v>
       </c>
       <c r="O44">
-        <v>-14.9979</v>
+        <v>-7.35436</v>
       </c>
       <c r="P44">
-        <v>-1.99943</v>
+        <v>-0.980282</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -3564,10 +3543,10 @@
         <v>29</v>
       </c>
       <c r="O45">
-        <v>-16.0815</v>
+        <v>-8.180260000000001</v>
       </c>
       <c r="P45">
-        <v>-2.14391</v>
+        <v>-1.0904</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -3614,10 +3593,10 @@
         <v>29</v>
       </c>
       <c r="O46">
-        <v>-17.1142</v>
+        <v>-8.954700000000001</v>
       </c>
       <c r="P46">
-        <v>-2.2816</v>
+        <v>-1.18686</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -3664,10 +3643,10 @@
         <v>29</v>
       </c>
       <c r="O47">
-        <v>-18.5602</v>
+        <v>-9.5749</v>
       </c>
       <c r="P47">
-        <v>-2.47441</v>
+        <v>-1.27636</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -3714,10 +3693,10 @@
         <v>29</v>
       </c>
       <c r="O48">
-        <v>-19.9542</v>
+        <v>-10.2976</v>
       </c>
       <c r="P48">
-        <v>-2.66026</v>
+        <v>-1.37273</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -3764,10 +3743,10 @@
         <v>29</v>
       </c>
       <c r="O49">
-        <v>-21.297</v>
+        <v>-11.0724</v>
       </c>
       <c r="P49">
-        <v>-2.8393</v>
+        <v>-1.47603</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -3814,10 +3793,10 @@
         <v>29</v>
       </c>
       <c r="O50">
-        <v>-21.3999</v>
+        <v>-11.0204</v>
       </c>
       <c r="P50">
-        <v>-2.85302</v>
+        <v>-1.46908</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -3864,10 +3843,10 @@
         <v>29</v>
       </c>
       <c r="O51">
-        <v>-22.7946</v>
+        <v>-12.105</v>
       </c>
       <c r="P51">
-        <v>-3.039</v>
+        <v>-1.6137</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -3914,10 +3893,10 @@
         <v>29</v>
       </c>
       <c r="O52">
-        <v>-24.0855</v>
+        <v>-13.0862</v>
       </c>
       <c r="P52">
-        <v>-3.21111</v>
+        <v>-1.73776</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -3964,10 +3943,10 @@
         <v>29</v>
       </c>
       <c r="O53">
-        <v>-25.4796</v>
+        <v>-13.9652</v>
       </c>
       <c r="P53">
-        <v>-3.39699</v>
+        <v>-1.86174</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -4014,10 +3993,10 @@
         <v>29</v>
       </c>
       <c r="O54">
-        <v>-26.2027</v>
+        <v>-14.7917</v>
       </c>
       <c r="P54">
-        <v>-3.4934</v>
+        <v>-1.97193</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -4064,10 +4043,10 @@
         <v>29</v>
       </c>
       <c r="O55">
-        <v>-27.6484</v>
+        <v>-15.7212</v>
       </c>
       <c r="P55">
-        <v>-3.68616</v>
+        <v>-2.09587</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -4114,10 +4093,10 @@
         <v>29</v>
       </c>
       <c r="O56">
-        <v>-28.8877</v>
+        <v>-16.7018</v>
       </c>
       <c r="P56">
-        <v>-3.85141</v>
+        <v>-2.22662</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -4164,10 +4143,10 @@
         <v>29</v>
       </c>
       <c r="O57">
-        <v>-30.4371</v>
+        <v>-17.6835</v>
       </c>
       <c r="P57">
-        <v>-4.058</v>
+        <v>-2.35751</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -4214,10 +4193,10 @@
         <v>29</v>
       </c>
       <c r="O58">
-        <v>-31.827</v>
+        <v>-17.5279</v>
       </c>
       <c r="P58">
-        <v>-4.24333</v>
+        <v>-2.33675</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -4264,10 +4243,10 @@
         <v>29</v>
       </c>
       <c r="O59">
-        <v>-33.2772</v>
+        <v>-18.6086</v>
       </c>
       <c r="P59">
-        <v>-4.43666</v>
+        <v>-2.48088</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -4314,10 +4293,10 @@
         <v>29</v>
       </c>
       <c r="O60">
-        <v>-34.6711</v>
+        <v>-19.6965</v>
       </c>
       <c r="P60">
-        <v>-4.62252</v>
+        <v>-2.62591</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -4363,11 +4342,11 @@
       <c r="N61" t="s">
         <v>29</v>
       </c>
-      <c r="O61" s="3">
-        <v>-36.2204</v>
+      <c r="O61">
+        <v>-20.7768</v>
       </c>
       <c r="P61">
-        <v>-4.8291</v>
+        <v>-2.76996</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -4413,11 +4392,11 @@
       <c r="N62" t="s">
         <v>29</v>
       </c>
-      <c r="O62" s="3">
-        <v>-36.8915</v>
+      <c r="O62">
+        <v>-21.7105</v>
       </c>
       <c r="P62">
-        <v>-4.91857</v>
+        <v>-2.88765</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -4463,11 +4442,11 @@
       <c r="N63" t="s">
         <v>29</v>
       </c>
-      <c r="O63" s="3">
-        <v>-38.2857</v>
+      <c r="O63">
+        <v>-22.7435</v>
       </c>
       <c r="P63">
-        <v>-5.10447</v>
+        <v>-3.03218</v>
       </c>
     </row>
     <row r="64" spans="1:16">
@@ -4513,11 +4492,11 @@
       <c r="N64" t="s">
         <v>29</v>
       </c>
-      <c r="O64" s="3">
-        <v>-39.6284</v>
+      <c r="O64">
+        <v>-23.8282</v>
       </c>
       <c r="P64">
-        <v>-5.28349</v>
+        <v>-3.1768</v>
       </c>
     </row>
     <row r="65" spans="1:16">
@@ -4563,11 +4542,11 @@
       <c r="N65" t="s">
         <v>29</v>
       </c>
-      <c r="O65" s="3">
-        <v>-41.2291</v>
+      <c r="O65">
+        <v>-24.9644</v>
       </c>
       <c r="P65">
-        <v>-5.49692</v>
+        <v>-3.32831</v>
       </c>
     </row>
     <row r="66" spans="1:16">
@@ -4613,11 +4592,11 @@
       <c r="N66" t="s">
         <v>165</v>
       </c>
-      <c r="O66" s="2">
-        <v>52.8206</v>
+      <c r="O66">
+        <v>33.4412</v>
       </c>
       <c r="P66">
-        <v>6.40269</v>
+        <v>4.05366</v>
       </c>
     </row>
     <row r="67" spans="1:16">
@@ -4663,11 +4642,11 @@
       <c r="N67" t="s">
         <v>165</v>
       </c>
-      <c r="O67" s="2">
-        <v>51.0678</v>
+      <c r="O67">
+        <v>32.0893</v>
       </c>
       <c r="P67">
-        <v>6.19022</v>
+        <v>3.8898</v>
       </c>
     </row>
     <row r="68" spans="1:16">
@@ -4713,11 +4692,11 @@
       <c r="N68" t="s">
         <v>165</v>
       </c>
-      <c r="O68" s="2">
-        <v>48.2112</v>
+      <c r="O68">
+        <v>30.435</v>
       </c>
       <c r="P68">
-        <v>5.84396</v>
+        <v>3.68928</v>
       </c>
     </row>
     <row r="69" spans="1:16">
@@ -4763,11 +4742,11 @@
       <c r="N69" t="s">
         <v>165</v>
       </c>
-      <c r="O69" s="2">
-        <v>46.6087</v>
+      <c r="O69">
+        <v>29.0324</v>
       </c>
       <c r="P69">
-        <v>5.64972</v>
+        <v>3.51927</v>
       </c>
     </row>
     <row r="70" spans="1:16">
@@ -4813,11 +4792,11 @@
       <c r="N70" t="s">
         <v>165</v>
       </c>
-      <c r="O70" s="2">
-        <v>45.9072</v>
+      <c r="O70">
+        <v>28.1318</v>
       </c>
       <c r="P70">
-        <v>5.5647</v>
+        <v>3.4101</v>
       </c>
     </row>
     <row r="71" spans="1:16">
@@ -4863,11 +4842,11 @@
       <c r="N71" t="s">
         <v>165</v>
       </c>
-      <c r="O71" s="2">
-        <v>44.2546</v>
+      <c r="O71">
+        <v>26.6801</v>
       </c>
       <c r="P71">
-        <v>5.36436</v>
+        <v>3.23412</v>
       </c>
     </row>
     <row r="72" spans="1:16">
@@ -4913,11 +4892,11 @@
       <c r="N72" t="s">
         <v>165</v>
       </c>
-      <c r="O72" s="2">
-        <v>42.7024</v>
+      <c r="O72">
+        <v>25.3283</v>
       </c>
       <c r="P72">
-        <v>5.17623</v>
+        <v>3.07028</v>
       </c>
     </row>
     <row r="73" spans="1:16">
@@ -4963,11 +4942,11 @@
       <c r="N73" t="s">
         <v>165</v>
       </c>
-      <c r="O73" s="2">
-        <v>40.9996</v>
+      <c r="O73">
+        <v>23.9265</v>
       </c>
       <c r="P73">
-        <v>4.96984</v>
+        <v>2.90038</v>
       </c>
     </row>
     <row r="74" spans="1:16">
@@ -5013,11 +4992,11 @@
       <c r="N74" t="s">
         <v>165</v>
       </c>
-      <c r="O74" s="2">
-        <v>39.848</v>
+      <c r="O74">
+        <v>24.2268</v>
       </c>
       <c r="P74">
-        <v>4.83625</v>
+        <v>2.93677</v>
       </c>
     </row>
     <row r="75" spans="1:16">
@@ -5063,11 +5042,11 @@
       <c r="N75" t="s">
         <v>165</v>
       </c>
-      <c r="O75" s="2">
-        <v>38.0949</v>
+      <c r="O75">
+        <v>22.7749</v>
       </c>
       <c r="P75">
-        <v>4.61775</v>
+        <v>2.76077</v>
       </c>
     </row>
     <row r="76" spans="1:16">
@@ -5113,11 +5092,11 @@
       <c r="N76" t="s">
         <v>165</v>
       </c>
-      <c r="O76" s="2">
-        <v>36.5426</v>
+      <c r="O76">
+        <v>21.3727</v>
       </c>
       <c r="P76">
-        <v>4.4296</v>
+        <v>2.59082</v>
       </c>
     </row>
     <row r="77" spans="1:16">
@@ -5164,10 +5143,10 @@
         <v>165</v>
       </c>
       <c r="O77">
-        <v>34.6904</v>
+        <v>19.9205</v>
       </c>
       <c r="P77">
-        <v>4.20509</v>
+        <v>2.41479</v>
       </c>
     </row>
     <row r="78" spans="1:16">
@@ -5214,10 +5193,10 @@
         <v>165</v>
       </c>
       <c r="O78">
-        <v>33.7418</v>
+        <v>18.8692</v>
       </c>
       <c r="P78">
-        <v>4.09009</v>
+        <v>2.28736</v>
       </c>
     </row>
     <row r="79" spans="1:16">
@@ -5264,10 +5243,10 @@
         <v>165</v>
       </c>
       <c r="O79">
-        <v>32.0368</v>
+        <v>17.4169</v>
       </c>
       <c r="P79">
-        <v>3.88343</v>
+        <v>2.11134</v>
       </c>
     </row>
     <row r="80" spans="1:16">
@@ -5314,10 +5293,10 @@
         <v>165</v>
       </c>
       <c r="O80">
-        <v>30.3348</v>
+        <v>16.1153</v>
       </c>
       <c r="P80">
-        <v>3.67714</v>
+        <v>1.95355</v>
       </c>
     </row>
     <row r="81" spans="1:16">
@@ -5364,10 +5343,10 @@
         <v>165</v>
       </c>
       <c r="O81">
-        <v>28.5327</v>
+        <v>14.6639</v>
       </c>
       <c r="P81">
-        <v>3.4587</v>
+        <v>1.77762</v>
       </c>
     </row>
     <row r="82" spans="1:16">
@@ -5414,10 +5393,10 @@
         <v>165</v>
       </c>
       <c r="O82">
-        <v>28.5327</v>
+        <v>14.663</v>
       </c>
       <c r="P82">
-        <v>3.4587</v>
+        <v>1.77752</v>
       </c>
     </row>
     <row r="83" spans="1:16">
@@ -5464,10 +5443,10 @@
         <v>165</v>
       </c>
       <c r="O83">
-        <v>26.8027</v>
+        <v>13.5653</v>
       </c>
       <c r="P83">
-        <v>3.24899</v>
+        <v>1.64445</v>
       </c>
     </row>
     <row r="84" spans="1:16">
@@ -5514,10 +5493,10 @@
         <v>165</v>
       </c>
       <c r="O84">
-        <v>25.0281</v>
+        <v>12.5103</v>
       </c>
       <c r="P84">
-        <v>3.03391</v>
+        <v>1.51659</v>
       </c>
     </row>
     <row r="85" spans="1:16">
@@ -5564,10 +5543,10 @@
         <v>165</v>
       </c>
       <c r="O85">
-        <v>23.3255</v>
+        <v>11.4083</v>
       </c>
       <c r="P85">
-        <v>2.82753</v>
+        <v>1.38301</v>
       </c>
     </row>
     <row r="86" spans="1:16">
@@ -5614,10 +5593,10 @@
         <v>165</v>
       </c>
       <c r="O86">
-        <v>21.8233</v>
+        <v>10.3067</v>
       </c>
       <c r="P86">
-        <v>2.64544</v>
+        <v>1.24948</v>
       </c>
     </row>
     <row r="87" spans="1:16">
@@ -5664,10 +5643,10 @@
         <v>165</v>
       </c>
       <c r="O87">
-        <v>20.221</v>
+        <v>9.15541</v>
       </c>
       <c r="P87">
-        <v>2.4512</v>
+        <v>1.10993</v>
       </c>
     </row>
     <row r="88" spans="1:16">
@@ -5714,10 +5693,10 @@
         <v>165</v>
       </c>
       <c r="O88">
-        <v>18.619</v>
+        <v>8.20406</v>
       </c>
       <c r="P88">
-        <v>2.25705</v>
+        <v>0.994607</v>
       </c>
     </row>
     <row r="89" spans="1:16">
@@ -5764,10 +5743,10 @@
         <v>165</v>
       </c>
       <c r="O89">
-        <v>16.9665</v>
+        <v>7.25239</v>
       </c>
       <c r="P89">
-        <v>2.05673</v>
+        <v>0.879265</v>
       </c>
     </row>
     <row r="90" spans="1:16">
@@ -5814,10 +5793,10 @@
         <v>165</v>
       </c>
       <c r="O90">
-        <v>10.8574</v>
+        <v>6.45164</v>
       </c>
       <c r="P90">
-        <v>1.31623</v>
+        <v>0.782201</v>
       </c>
     </row>
     <row r="91" spans="1:16">
@@ -5864,10 +5843,10 @@
         <v>165</v>
       </c>
       <c r="O91">
-        <v>9.055</v>
+        <v>5.5515</v>
       </c>
       <c r="P91">
-        <v>1.09776</v>
+        <v>0.673089</v>
       </c>
     </row>
     <row r="92" spans="1:16">
@@ -5914,10 +5893,10 @@
         <v>165</v>
       </c>
       <c r="O92">
-        <v>7.50265</v>
+        <v>4.69898</v>
       </c>
       <c r="P92">
-        <v>0.909587</v>
+        <v>0.569755</v>
       </c>
     </row>
     <row r="93" spans="1:16">
@@ -5964,10 +5943,10 @@
         <v>165</v>
       </c>
       <c r="O93">
-        <v>6.05057</v>
+        <v>3.69834</v>
       </c>
       <c r="P93">
-        <v>0.733585</v>
+        <v>0.448462</v>
       </c>
     </row>
     <row r="94" spans="1:16">
@@ -6014,10 +5993,10 @@
         <v>165</v>
       </c>
       <c r="O94">
-        <v>4.55027</v>
+        <v>2.79789</v>
       </c>
       <c r="P94">
-        <v>0.551733</v>
+        <v>0.339324</v>
       </c>
     </row>
     <row r="95" spans="1:16">
@@ -6064,10 +6043,10 @@
         <v>165</v>
       </c>
       <c r="O95">
-        <v>3.0483</v>
+        <v>1.84687</v>
       </c>
       <c r="P95">
-        <v>0.369678</v>
+        <v>0.224045</v>
       </c>
     </row>
     <row r="96" spans="1:16">
@@ -6114,10 +6093,10 @@
         <v>165</v>
       </c>
       <c r="O96">
-        <v>1.59651</v>
+        <v>0.848755</v>
       </c>
       <c r="P96">
-        <v>0.193713</v>
+        <v>0.103056</v>
       </c>
     </row>
     <row r="97" spans="1:16">
@@ -6164,10 +6143,10 @@
         <v>165</v>
       </c>
       <c r="O97">
-        <v>-0.00502795</v>
+        <v>-0.00479699</v>
       </c>
       <c r="P97">
-        <v>-0.000413203</v>
+        <v>-0.000394645</v>
       </c>
     </row>
     <row r="98" spans="1:16">
@@ -6214,10 +6193,10 @@
         <v>165</v>
       </c>
       <c r="O98">
-        <v>0.0448594</v>
+        <v>0.0448606</v>
       </c>
       <c r="P98">
-        <v>0.00562463</v>
+        <v>0.00562479</v>
       </c>
     </row>
     <row r="99" spans="1:16">
@@ -6264,10 +6243,10 @@
         <v>165</v>
       </c>
       <c r="O99">
-        <v>-1.55669</v>
+        <v>-0.906239</v>
       </c>
       <c r="P99">
-        <v>-0.188517</v>
+        <v>-0.109651</v>
       </c>
     </row>
     <row r="100" spans="1:16">
@@ -6314,10 +6293,10 @@
         <v>165</v>
       </c>
       <c r="O100">
-        <v>-3.00819</v>
+        <v>-1.80701</v>
       </c>
       <c r="P100">
-        <v>-0.364442</v>
+        <v>-0.218845</v>
       </c>
     </row>
     <row r="101" spans="1:16">
@@ -6364,10 +6343,10 @@
         <v>165</v>
       </c>
       <c r="O101">
-        <v>-4.50958</v>
+        <v>-2.80793</v>
       </c>
       <c r="P101">
-        <v>-0.546421</v>
+        <v>-0.340174</v>
       </c>
     </row>
     <row r="102" spans="1:16">
@@ -6414,10 +6393,10 @@
         <v>165</v>
       </c>
       <c r="O102">
-        <v>-5.91121</v>
+        <v>-3.65868</v>
       </c>
       <c r="P102">
-        <v>-0.716314</v>
+        <v>-0.443291</v>
       </c>
     </row>
     <row r="103" spans="1:16">
@@ -6464,10 +6443,10 @@
         <v>165</v>
       </c>
       <c r="O103">
-        <v>-7.51259</v>
+        <v>-4.55982</v>
       </c>
       <c r="P103">
-        <v>-0.910426</v>
+        <v>-0.552518</v>
       </c>
     </row>
     <row r="104" spans="1:16">
@@ -6514,10 +6493,10 @@
         <v>165</v>
       </c>
       <c r="O104">
-        <v>-9.11422</v>
+        <v>-5.51027</v>
       </c>
       <c r="P104">
-        <v>-1.10456</v>
+        <v>-0.66772</v>
       </c>
     </row>
     <row r="105" spans="1:16">
@@ -6564,10 +6543,10 @@
         <v>165</v>
       </c>
       <c r="O105">
-        <v>-10.8655</v>
+        <v>-6.41144</v>
       </c>
       <c r="P105">
-        <v>-1.31686</v>
+        <v>-0.776963</v>
       </c>
     </row>
     <row r="106" spans="1:16">
@@ -6614,10 +6593,10 @@
         <v>165</v>
       </c>
       <c r="O106">
-        <v>-17.073</v>
+        <v>-7.36256</v>
       </c>
       <c r="P106">
-        <v>-2.06927</v>
+        <v>-0.892246</v>
       </c>
     </row>
     <row r="107" spans="1:16">
@@ -6664,10 +6643,10 @@
         <v>165</v>
       </c>
       <c r="O107">
-        <v>-18.6713</v>
+        <v>-8.31368</v>
       </c>
       <c r="P107">
-        <v>-2.263</v>
+        <v>-1.00752</v>
       </c>
     </row>
     <row r="108" spans="1:16">
@@ -6714,10 +6693,10 @@
         <v>165</v>
       </c>
       <c r="O108">
-        <v>-20.2754</v>
+        <v>-9.26446</v>
       </c>
       <c r="P108">
-        <v>-2.45744</v>
+        <v>-1.12278</v>
       </c>
     </row>
     <row r="109" spans="1:16">
@@ -6764,10 +6743,10 @@
         <v>165</v>
       </c>
       <c r="O109">
-        <v>-21.8281</v>
+        <v>-10.3656</v>
       </c>
       <c r="P109">
-        <v>-2.64566</v>
+        <v>-1.25626</v>
       </c>
     </row>
     <row r="110" spans="1:16">
@@ -6814,10 +6793,10 @@
         <v>165</v>
       </c>
       <c r="O110">
-        <v>-23.3294</v>
+        <v>-11.4165</v>
       </c>
       <c r="P110">
-        <v>-2.82763</v>
+        <v>-1.38363</v>
       </c>
     </row>
     <row r="111" spans="1:16">
@@ -6864,10 +6843,10 @@
         <v>165</v>
       </c>
       <c r="O111">
-        <v>-25.0808</v>
+        <v>-12.4678</v>
       </c>
       <c r="P111">
-        <v>-3.03992</v>
+        <v>-1.51106</v>
       </c>
     </row>
     <row r="112" spans="1:16">
@@ -6914,10 +6893,10 @@
         <v>165</v>
       </c>
       <c r="O112">
-        <v>-26.7328</v>
+        <v>-13.5193</v>
       </c>
       <c r="P112">
-        <v>-3.24014</v>
+        <v>-1.63852</v>
       </c>
     </row>
     <row r="113" spans="1:16">
@@ -6964,10 +6943,10 @@
         <v>165</v>
       </c>
       <c r="O113">
-        <v>-28.4339</v>
+        <v>-14.6703</v>
       </c>
       <c r="P113">
-        <v>-3.44633</v>
+        <v>-1.77804</v>
       </c>
     </row>
     <row r="114" spans="1:16">
@@ -7014,10 +6993,10 @@
         <v>165</v>
       </c>
       <c r="O114">
-        <v>-28.4337</v>
+        <v>-14.6703</v>
       </c>
       <c r="P114">
-        <v>-3.44632</v>
+        <v>-1.77804</v>
       </c>
     </row>
     <row r="115" spans="1:16">
@@ -7064,10 +7043,10 @@
         <v>165</v>
       </c>
       <c r="O115">
-        <v>-30.3346</v>
+        <v>-16.0718</v>
       </c>
       <c r="P115">
-        <v>-3.67673</v>
+        <v>-1.94791</v>
       </c>
     </row>
     <row r="116" spans="1:16">
@@ -7114,10 +7093,10 @@
         <v>165</v>
       </c>
       <c r="O116">
-        <v>-32.035</v>
+        <v>-17.4233</v>
       </c>
       <c r="P116">
-        <v>-3.88285</v>
+        <v>-2.11174</v>
       </c>
     </row>
     <row r="117" spans="1:16">
@@ -7164,10 +7143,10 @@
         <v>165</v>
       </c>
       <c r="O117">
-        <v>-33.8372</v>
+        <v>-18.9749</v>
       </c>
       <c r="P117">
-        <v>-4.10129</v>
+        <v>-2.29979</v>
       </c>
     </row>
     <row r="118" spans="1:16">
@@ -7214,10 +7193,10 @@
         <v>165</v>
       </c>
       <c r="O118">
-        <v>-34.8375</v>
+        <v>-20.126</v>
       </c>
       <c r="P118">
-        <v>-4.22253</v>
+        <v>-2.43933</v>
       </c>
     </row>
     <row r="119" spans="1:16">
@@ -7263,11 +7242,11 @@
       <c r="N119" t="s">
         <v>165</v>
       </c>
-      <c r="O119" s="3">
-        <v>-36.639</v>
+      <c r="O119">
+        <v>-21.4777</v>
       </c>
       <c r="P119">
-        <v>-4.44091</v>
+        <v>-2.60317</v>
       </c>
     </row>
     <row r="120" spans="1:16">
@@ -7313,11 +7292,11 @@
       <c r="N120" t="s">
         <v>165</v>
       </c>
-      <c r="O120" s="3">
-        <v>-38.3399</v>
+      <c r="O120">
+        <v>-22.9296</v>
       </c>
       <c r="P120">
-        <v>-4.64707</v>
+        <v>-2.77915</v>
       </c>
     </row>
     <row r="121" spans="1:16">
@@ -7363,11 +7342,11 @@
       <c r="N121" t="s">
         <v>165</v>
       </c>
-      <c r="O121" s="3">
-        <v>-40.241</v>
+      <c r="O121">
+        <v>-24.3815</v>
       </c>
       <c r="P121">
-        <v>-4.8775</v>
+        <v>-2.95516</v>
       </c>
     </row>
     <row r="122" spans="1:16">
@@ -7413,11 +7392,11 @@
       <c r="N122" t="s">
         <v>165</v>
       </c>
-      <c r="O122" s="3">
-        <v>-41.492</v>
+      <c r="O122">
+        <v>-24.1812</v>
       </c>
       <c r="P122">
-        <v>-5.02914</v>
+        <v>-2.93086</v>
       </c>
     </row>
     <row r="123" spans="1:16">
@@ -7463,11 +7442,11 @@
       <c r="N123" t="s">
         <v>165</v>
       </c>
-      <c r="O123" s="3">
-        <v>-43.1923</v>
+      <c r="O123">
+        <v>-25.5822</v>
       </c>
       <c r="P123">
-        <v>-5.23525</v>
+        <v>-3.10069</v>
       </c>
     </row>
     <row r="124" spans="1:16">
@@ -7513,11 +7492,11 @@
       <c r="N124" t="s">
         <v>165</v>
       </c>
-      <c r="O124" s="3">
-        <v>-44.844</v>
+      <c r="O124">
+        <v>-26.983</v>
       </c>
       <c r="P124">
-        <v>-5.43544</v>
+        <v>-3.27049</v>
       </c>
     </row>
     <row r="125" spans="1:16">
@@ -7563,11 +7542,11 @@
       <c r="N125" t="s">
         <v>165</v>
       </c>
-      <c r="O125" s="3">
-        <v>-46.9453</v>
+      <c r="O125">
+        <v>-28.384</v>
       </c>
       <c r="P125">
-        <v>-5.69015</v>
+        <v>-3.44029</v>
       </c>
     </row>
     <row r="126" spans="1:16">
@@ -7613,11 +7592,11 @@
       <c r="N126" t="s">
         <v>165</v>
       </c>
-      <c r="O126" s="3">
-        <v>-47.7463</v>
+      <c r="O126">
+        <v>-29.3345</v>
       </c>
       <c r="P126">
-        <v>-5.78724</v>
+        <v>-3.55552</v>
       </c>
     </row>
     <row r="127" spans="1:16">
@@ -7663,11 +7642,11 @@
       <c r="N127" t="s">
         <v>165</v>
       </c>
-      <c r="O127" s="3">
-        <v>-49.5973</v>
+      <c r="O127">
+        <v>-30.7853</v>
       </c>
       <c r="P127">
-        <v>-6.01161</v>
+        <v>-3.73137</v>
       </c>
     </row>
     <row r="128" spans="1:16">
@@ -7713,11 +7692,11 @@
       <c r="N128" t="s">
         <v>165</v>
       </c>
-      <c r="O128" s="3">
-        <v>-51.1985</v>
+      <c r="O128">
+        <v>-32.036</v>
       </c>
       <c r="P128">
-        <v>-6.20569</v>
+        <v>-3.88296</v>
       </c>
     </row>
     <row r="129" spans="1:16">
@@ -7763,11 +7742,11 @@
       <c r="N129" t="s">
         <v>165</v>
       </c>
-      <c r="O129" s="3">
-        <v>-53.0496</v>
+      <c r="O129">
+        <v>-33.3867</v>
       </c>
       <c r="P129">
-        <v>-6.43009</v>
+        <v>-4.04669</v>
       </c>
     </row>
     <row r="130" spans="1:16">
@@ -7814,10 +7793,10 @@
         <v>239</v>
       </c>
       <c r="O130">
-        <v>31.2215</v>
+        <v>19.2776</v>
       </c>
       <c r="P130">
-        <v>4.62597</v>
+        <v>2.85655</v>
       </c>
     </row>
     <row r="131" spans="1:16">
@@ -7864,10 +7843,10 @@
         <v>239</v>
       </c>
       <c r="O131">
-        <v>30.026</v>
+        <v>18.5031</v>
       </c>
       <c r="P131">
-        <v>4.44894</v>
+        <v>2.74185</v>
       </c>
     </row>
     <row r="132" spans="1:16">
@@ -7914,10 +7893,10 @@
         <v>239</v>
       </c>
       <c r="O132">
-        <v>29.6689</v>
+        <v>17.7743</v>
       </c>
       <c r="P132">
-        <v>4.39598</v>
+        <v>2.63385</v>
       </c>
     </row>
     <row r="133" spans="1:16">
@@ -7964,10 +7943,10 @@
         <v>239</v>
       </c>
       <c r="O133">
-        <v>28.6274</v>
+        <v>16.999</v>
       </c>
       <c r="P133">
-        <v>4.24172</v>
+        <v>2.51897</v>
       </c>
     </row>
     <row r="134" spans="1:16">
@@ -8014,10 +7993,10 @@
         <v>239</v>
       </c>
       <c r="O134">
-        <v>28.1735</v>
+        <v>16.5372</v>
       </c>
       <c r="P134">
-        <v>4.17448</v>
+        <v>2.4506</v>
       </c>
     </row>
     <row r="135" spans="1:16">
@@ -8064,10 +8043,10 @@
         <v>239</v>
       </c>
       <c r="O135">
-        <v>27.1817</v>
+        <v>15.9149</v>
       </c>
       <c r="P135">
-        <v>4.02753</v>
+        <v>2.35839</v>
       </c>
     </row>
     <row r="136" spans="1:16">
@@ -8114,10 +8093,10 @@
         <v>239</v>
       </c>
       <c r="O136">
-        <v>26.1485</v>
+        <v>15.1397</v>
       </c>
       <c r="P136">
-        <v>3.87448</v>
+        <v>2.24357</v>
       </c>
     </row>
     <row r="137" spans="1:16">
@@ -8164,10 +8143,10 @@
         <v>239</v>
       </c>
       <c r="O137">
-        <v>25.2168</v>
+        <v>14.4164</v>
       </c>
       <c r="P137">
-        <v>3.73646</v>
+        <v>2.13637</v>
       </c>
     </row>
     <row r="138" spans="1:16">
@@ -8214,10 +8193,10 @@
         <v>239</v>
       </c>
       <c r="O138">
-        <v>24.443</v>
+        <v>14.6235</v>
       </c>
       <c r="P138">
-        <v>3.62183</v>
+        <v>2.16706</v>
       </c>
     </row>
     <row r="139" spans="1:16">
@@ -8264,10 +8243,10 @@
         <v>239</v>
       </c>
       <c r="O139">
-        <v>23.4177</v>
+        <v>13.9518</v>
       </c>
       <c r="P139">
-        <v>3.46985</v>
+        <v>2.06764</v>
       </c>
     </row>
     <row r="140" spans="1:16">
@@ -8314,10 +8293,10 @@
         <v>239</v>
       </c>
       <c r="O140">
-        <v>22.6347</v>
+        <v>13.2808</v>
       </c>
       <c r="P140">
-        <v>3.35392</v>
+        <v>1.96815</v>
       </c>
     </row>
     <row r="141" spans="1:16">
@@ -8364,10 +8343,10 @@
         <v>239</v>
       </c>
       <c r="O141">
-        <v>21.7046</v>
+        <v>12.5569</v>
       </c>
       <c r="P141">
-        <v>3.21617</v>
+        <v>1.86072</v>
       </c>
     </row>
     <row r="142" spans="1:16">
@@ -8414,10 +8393,10 @@
         <v>239</v>
       </c>
       <c r="O142">
-        <v>21.2483</v>
+        <v>12.0405</v>
       </c>
       <c r="P142">
-        <v>3.14845</v>
+        <v>1.78439</v>
       </c>
     </row>
     <row r="143" spans="1:16">
@@ -8464,10 +8443,10 @@
         <v>239</v>
       </c>
       <c r="O143">
-        <v>20.2659</v>
+        <v>11.2664</v>
       </c>
       <c r="P143">
-        <v>3.0029</v>
+        <v>1.67722</v>
       </c>
     </row>
     <row r="144" spans="1:16">
@@ -8514,10 +8493,10 @@
         <v>239</v>
       </c>
       <c r="O144">
-        <v>19.4415</v>
+        <v>10.5421</v>
       </c>
       <c r="P144">
-        <v>2.88084</v>
+        <v>1.56245</v>
       </c>
     </row>
     <row r="145" spans="1:16">
@@ -8564,10 +8543,10 @@
         <v>239</v>
       </c>
       <c r="O145">
-        <v>18.3989</v>
+        <v>9.66807</v>
       </c>
       <c r="P145">
-        <v>2.72644</v>
+        <v>1.43979</v>
       </c>
     </row>
     <row r="146" spans="1:16">
@@ -8614,10 +8593,10 @@
         <v>239</v>
       </c>
       <c r="O146">
-        <v>18.4507</v>
+        <v>9.766310000000001</v>
       </c>
       <c r="P146">
-        <v>2.73411</v>
+        <v>1.4475</v>
       </c>
     </row>
     <row r="147" spans="1:16">
@@ -8664,10 +8643,10 @@
         <v>239</v>
       </c>
       <c r="O147">
-        <v>17.4179</v>
+        <v>8.99418</v>
       </c>
       <c r="P147">
-        <v>2.58108</v>
+        <v>1.33309</v>
       </c>
     </row>
     <row r="148" spans="1:16">
@@ -8714,10 +8693,10 @@
         <v>239</v>
       </c>
       <c r="O148">
-        <v>16.5373</v>
+        <v>8.31894</v>
       </c>
       <c r="P148">
-        <v>2.45062</v>
+        <v>1.23302</v>
       </c>
     </row>
     <row r="149" spans="1:16">
@@ -8764,10 +8743,10 @@
         <v>239</v>
       </c>
       <c r="O149">
-        <v>15.453</v>
+        <v>7.60213</v>
       </c>
       <c r="P149">
-        <v>2.28996</v>
+        <v>1.12679</v>
       </c>
     </row>
     <row r="150" spans="1:16">
@@ -8814,10 +8793,10 @@
         <v>239</v>
       </c>
       <c r="O150">
-        <v>14.6258</v>
+        <v>6.92689</v>
       </c>
       <c r="P150">
-        <v>2.1674</v>
+        <v>1.03405</v>
       </c>
     </row>
     <row r="151" spans="1:16">
@@ -8864,10 +8843,10 @@
         <v>239</v>
       </c>
       <c r="O151">
-        <v>13.6431</v>
+        <v>6.20011</v>
       </c>
       <c r="P151">
-        <v>2.02184</v>
+        <v>0.91916</v>
       </c>
     </row>
     <row r="152" spans="1:16">
@@ -8914,10 +8893,10 @@
         <v>239</v>
       </c>
       <c r="O152">
-        <v>12.6159</v>
+        <v>5.47714</v>
       </c>
       <c r="P152">
-        <v>1.86964</v>
+        <v>0.812034</v>
       </c>
     </row>
     <row r="153" spans="1:16">
@@ -8964,10 +8943,10 @@
         <v>239</v>
       </c>
       <c r="O153">
-        <v>11.5754</v>
+        <v>4.85627</v>
       </c>
       <c r="P153">
-        <v>1.71548</v>
+        <v>0.720079</v>
       </c>
     </row>
     <row r="154" spans="1:16">
@@ -9014,10 +8993,10 @@
         <v>239</v>
       </c>
       <c r="O154">
-        <v>7.59597</v>
+        <v>4.39142</v>
       </c>
       <c r="P154">
-        <v>1.12595</v>
+        <v>0.651183</v>
       </c>
     </row>
     <row r="155" spans="1:16">
@@ -9064,10 +9043,10 @@
         <v>239</v>
       </c>
       <c r="O155">
-        <v>6.40713</v>
+        <v>3.82307</v>
       </c>
       <c r="P155">
-        <v>0.949801</v>
+        <v>0.567021</v>
       </c>
     </row>
     <row r="156" spans="1:16">
@@ -9114,10 +9093,10 @@
         <v>239</v>
       </c>
       <c r="O156">
-        <v>5.22706</v>
+        <v>3.21014</v>
       </c>
       <c r="P156">
-        <v>0.774952</v>
+        <v>0.476158</v>
       </c>
     </row>
     <row r="157" spans="1:16">
@@ -9164,10 +9143,10 @@
         <v>239</v>
       </c>
       <c r="O157">
-        <v>4.24277</v>
+        <v>2.53713</v>
       </c>
       <c r="P157">
-        <v>0.629123</v>
+        <v>0.376474</v>
       </c>
     </row>
     <row r="158" spans="1:16">
@@ -9214,10 +9193,10 @@
         <v>239</v>
       </c>
       <c r="O158">
-        <v>3.25538</v>
+        <v>1.96223</v>
       </c>
       <c r="P158">
-        <v>0.490226</v>
+        <v>0.291299</v>
       </c>
     </row>
     <row r="159" spans="1:16">
@@ -9264,10 +9243,10 @@
         <v>239</v>
       </c>
       <c r="O159">
-        <v>2.16893</v>
+        <v>1.29018</v>
       </c>
       <c r="P159">
-        <v>0.321925</v>
+        <v>0.191755</v>
       </c>
     </row>
     <row r="160" spans="1:16">
@@ -9314,10 +9293,10 @@
         <v>239</v>
       </c>
       <c r="O160">
-        <v>1.18682</v>
+        <v>0.721244</v>
       </c>
       <c r="P160">
-        <v>0.17643</v>
+        <v>0.107509</v>
       </c>
     </row>
     <row r="161" spans="1:16">
@@ -9364,10 +9343,10 @@
         <v>239</v>
       </c>
       <c r="O161">
-        <v>0.0539566</v>
+        <v>0.101802</v>
       </c>
       <c r="P161">
-        <v>0.0156162</v>
+        <v>0.0156882</v>
       </c>
     </row>
     <row r="162" spans="1:16">
@@ -9414,10 +9393,10 @@
         <v>239</v>
       </c>
       <c r="O162">
-        <v>0.101426</v>
+        <v>0.1529</v>
       </c>
       <c r="P162">
-        <v>0.0156356</v>
+        <v>0.0232488</v>
       </c>
     </row>
     <row r="163" spans="1:16">
@@ -9464,10 +9443,10 @@
         <v>239</v>
       </c>
       <c r="O163">
-        <v>-0.983739</v>
+        <v>-0.5187349999999999</v>
       </c>
       <c r="P163">
-        <v>-0.145129</v>
+        <v>-0.0762615</v>
       </c>
     </row>
     <row r="164" spans="1:16">
@@ -9514,10 +9493,10 @@
         <v>239</v>
       </c>
       <c r="O164">
-        <v>-2.06891</v>
+        <v>-1.19041</v>
       </c>
       <c r="P164">
-        <v>-0.305903</v>
+        <v>-0.175758</v>
       </c>
     </row>
     <row r="165" spans="1:16">
@@ -9564,10 +9543,10 @@
         <v>239</v>
       </c>
       <c r="O165">
-        <v>-3.05033</v>
+        <v>-1.75847</v>
       </c>
       <c r="P165">
-        <v>-0.451292</v>
+        <v>-0.25992</v>
       </c>
     </row>
     <row r="166" spans="1:16">
@@ -9614,10 +9593,10 @@
         <v>239</v>
       </c>
       <c r="O166">
-        <v>-4.03252</v>
+        <v>-2.32756</v>
       </c>
       <c r="P166">
-        <v>-0.596765</v>
+        <v>-0.344209</v>
       </c>
     </row>
     <row r="167" spans="1:16">
@@ -9664,10 +9643,10 @@
         <v>239</v>
       </c>
       <c r="O167">
-        <v>-5.16234</v>
+        <v>-2.94765</v>
       </c>
       <c r="P167">
-        <v>-0.764208</v>
+        <v>-0.436091</v>
       </c>
     </row>
     <row r="168" spans="1:16">
@@ -9714,10 +9693,10 @@
         <v>239</v>
       </c>
       <c r="O168">
-        <v>-6.20304</v>
+        <v>-3.51638</v>
       </c>
       <c r="P168">
-        <v>-0.91836</v>
+        <v>-0.520339</v>
       </c>
     </row>
     <row r="169" spans="1:16">
@@ -9764,10 +9743,10 @@
         <v>239</v>
       </c>
       <c r="O169">
-        <v>-7.28774</v>
+        <v>-4.23327</v>
       </c>
       <c r="P169">
-        <v>-1.07904</v>
+        <v>-0.626603</v>
       </c>
     </row>
     <row r="170" spans="1:16">
@@ -9814,10 +9793,10 @@
         <v>239</v>
       </c>
       <c r="O170">
-        <v>-10.7485</v>
+        <v>-4.70424</v>
       </c>
       <c r="P170">
-        <v>-1.59175</v>
+        <v>-0.696263</v>
       </c>
     </row>
     <row r="171" spans="1:16">
@@ -9864,10 +9843,10 @@
         <v>239</v>
       </c>
       <c r="O171">
-        <v>-11.7821</v>
+        <v>-5.3236</v>
       </c>
       <c r="P171">
-        <v>-1.74487</v>
+        <v>-0.788066</v>
       </c>
     </row>
     <row r="172" spans="1:16">
@@ -9914,10 +9893,10 @@
         <v>239</v>
       </c>
       <c r="O172">
-        <v>-12.7129</v>
+        <v>-6.04783</v>
       </c>
       <c r="P172">
-        <v>-1.88277</v>
+        <v>-0.895369</v>
       </c>
     </row>
     <row r="173" spans="1:16">
@@ -9964,10 +9943,10 @@
         <v>239</v>
       </c>
       <c r="O173">
-        <v>-13.6936</v>
+        <v>-6.66795</v>
       </c>
       <c r="P173">
-        <v>-2.02805</v>
+        <v>-0.987237</v>
       </c>
     </row>
     <row r="174" spans="1:16">
@@ -10014,10 +9993,10 @@
         <v>239</v>
       </c>
       <c r="O174">
-        <v>-14.5209</v>
+        <v>-7.23605</v>
       </c>
       <c r="P174">
-        <v>-2.15057</v>
+        <v>-1.07141</v>
       </c>
     </row>
     <row r="175" spans="1:16">
@@ -10064,10 +10043,10 @@
         <v>239</v>
       </c>
       <c r="O175">
-        <v>-15.3319</v>
+        <v>-7.84982</v>
       </c>
       <c r="P175">
-        <v>-2.27084</v>
+        <v>-1.16239</v>
       </c>
     </row>
     <row r="176" spans="1:16">
@@ -10114,10 +10093,10 @@
         <v>239</v>
       </c>
       <c r="O176">
-        <v>-16.2779</v>
+        <v>-8.525829999999999</v>
       </c>
       <c r="P176">
-        <v>-2.41091</v>
+        <v>-1.25511</v>
       </c>
     </row>
     <row r="177" spans="1:16">
@@ -10164,10 +10143,10 @@
         <v>239</v>
       </c>
       <c r="O177">
-        <v>-17.1566</v>
+        <v>-9.04369</v>
       </c>
       <c r="P177">
-        <v>-2.54108</v>
+        <v>-1.33916</v>
       </c>
     </row>
     <row r="178" spans="1:16">
@@ -10214,10 +10193,10 @@
         <v>239</v>
       </c>
       <c r="O178">
-        <v>-17.1046</v>
+        <v>-8.992369999999999</v>
       </c>
       <c r="P178">
-        <v>-2.53336</v>
+        <v>-1.3316</v>
       </c>
     </row>
     <row r="179" spans="1:16">
@@ -10264,10 +10243,10 @@
         <v>239</v>
       </c>
       <c r="O179">
-        <v>-18.0865</v>
+        <v>-9.767749999999999</v>
       </c>
       <c r="P179">
-        <v>-2.67885</v>
+        <v>-1.44645</v>
       </c>
     </row>
     <row r="180" spans="1:16">
@@ -10314,10 +10293,10 @@
         <v>239</v>
       </c>
       <c r="O180">
-        <v>-19.1204</v>
+        <v>-10.4397</v>
       </c>
       <c r="P180">
-        <v>-2.83201</v>
+        <v>-1.54618</v>
       </c>
     </row>
     <row r="181" spans="1:16">
@@ -10364,10 +10343,10 @@
         <v>239</v>
       </c>
       <c r="O181">
-        <v>-20.3093</v>
+        <v>-11.112</v>
       </c>
       <c r="P181">
-        <v>-3.00818</v>
+        <v>-1.64556</v>
       </c>
     </row>
     <row r="182" spans="1:16">
@@ -10414,10 +10393,10 @@
         <v>239</v>
       </c>
       <c r="O182">
-        <v>-20.8266</v>
+        <v>-11.6719</v>
       </c>
       <c r="P182">
-        <v>-3.08479</v>
+        <v>-1.72861</v>
       </c>
     </row>
     <row r="183" spans="1:16">
@@ -10464,10 +10443,10 @@
         <v>239</v>
       </c>
       <c r="O183">
-        <v>-21.9632</v>
+        <v>-12.3523</v>
       </c>
       <c r="P183">
-        <v>-3.25318</v>
+        <v>-1.82937</v>
       </c>
     </row>
     <row r="184" spans="1:16">
@@ -10514,10 +10493,10 @@
         <v>239</v>
       </c>
       <c r="O184">
-        <v>-23.049</v>
+        <v>-13.0248</v>
       </c>
       <c r="P184">
-        <v>-3.41405</v>
+        <v>-1.92898</v>
       </c>
     </row>
     <row r="185" spans="1:16">
@@ -10564,10 +10543,10 @@
         <v>239</v>
       </c>
       <c r="O185">
-        <v>-24.2384</v>
+        <v>-13.6964</v>
       </c>
       <c r="P185">
-        <v>-3.59025</v>
+        <v>-2.02849</v>
       </c>
     </row>
     <row r="186" spans="1:16">
@@ -10614,10 +10593,10 @@
         <v>239</v>
       </c>
       <c r="O186">
-        <v>-25.0139</v>
+        <v>-13.5413</v>
       </c>
       <c r="P186">
-        <v>-3.70514</v>
+        <v>-2.00547</v>
       </c>
     </row>
     <row r="187" spans="1:16">
@@ -10664,10 +10643,10 @@
         <v>239</v>
       </c>
       <c r="O187">
-        <v>-26.2475</v>
+        <v>-14.3165</v>
       </c>
       <c r="P187">
-        <v>-3.88796</v>
+        <v>-2.12035</v>
       </c>
     </row>
     <row r="188" spans="1:16">
@@ -10714,10 +10693,10 @@
         <v>239</v>
       </c>
       <c r="O188">
-        <v>-27.3403</v>
+        <v>-14.9354</v>
       </c>
       <c r="P188">
-        <v>-4.04981</v>
+        <v>-2.21202</v>
       </c>
     </row>
     <row r="189" spans="1:16">
@@ -10764,10 +10743,10 @@
         <v>239</v>
       </c>
       <c r="O189">
-        <v>-28.5297</v>
+        <v>-15.8153</v>
       </c>
       <c r="P189">
-        <v>-4.226</v>
+        <v>-2.34242</v>
       </c>
     </row>
     <row r="190" spans="1:16">
@@ -10814,10 +10793,10 @@
         <v>239</v>
       </c>
       <c r="O190">
-        <v>-29.0395</v>
+        <v>-16.3328</v>
       </c>
       <c r="P190">
-        <v>-4.30157</v>
+        <v>-2.41903</v>
       </c>
     </row>
     <row r="191" spans="1:16">
@@ -10864,10 +10843,10 @@
         <v>239</v>
       </c>
       <c r="O191">
-        <v>-30.2351</v>
+        <v>-17.2106</v>
       </c>
       <c r="P191">
-        <v>-4.47866</v>
+        <v>-2.54912</v>
       </c>
     </row>
     <row r="192" spans="1:16">
@@ -10914,10 +10893,10 @@
         <v>239</v>
       </c>
       <c r="O192">
-        <v>-31.3708</v>
+        <v>-17.9861</v>
       </c>
       <c r="P192">
-        <v>-4.63945</v>
+        <v>-2.66399</v>
       </c>
     </row>
     <row r="193" spans="1:16">
@@ -10964,10 +10943,10 @@
         <v>239</v>
       </c>
       <c r="O193">
-        <v>-32.4577</v>
+        <v>-18.6574</v>
       </c>
       <c r="P193">
-        <v>-4.80795</v>
+        <v>-2.75595</v>
       </c>
     </row>
     <row r="194" spans="1:16" s="1" customFormat="1">
@@ -11024,22 +11003,22 @@
       <c r="N195" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="O195" s="3">
-        <v>-53.0496</v>
+      <c r="O195" s="1">
+        <v>-33.3867</v>
       </c>
       <c r="P195" s="1">
-        <v>-6.43009</v>
+        <v>-4.04669</v>
       </c>
     </row>
     <row r="196" spans="1:16" s="1" customFormat="1">
       <c r="N196" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="O196" s="2">
-        <v>52.8206</v>
+      <c r="O196" s="1">
+        <v>33.4412</v>
       </c>
       <c r="P196" s="1">
-        <v>6.40269</v>
+        <v>4.05366</v>
       </c>
     </row>
     <row r="197" spans="1:16" s="1" customFormat="1">
@@ -11079,10 +11058,10 @@
         <v>309</v>
       </c>
       <c r="O201" s="1">
-        <v>0.0731767</v>
+        <v>0.1027004</v>
       </c>
       <c r="P201" s="1">
-        <v>0.0117263</v>
+        <v>0.01585218</v>
       </c>
     </row>
     <row r="202" spans="1:16" s="1" customFormat="1">
@@ -11090,10 +11069,10 @@
         <v>310</v>
       </c>
       <c r="O202" s="1">
-        <v>25.548188</v>
+        <v>14.723944</v>
       </c>
       <c r="P202" s="1">
-        <v>3.332325</v>
+        <v>1.915292</v>
       </c>
     </row>
     <row r="203" spans="1:16" s="1" customFormat="1">
@@ -11101,10 +11080,10 @@
         <v>311</v>
       </c>
       <c r="O203" s="1">
-        <v>34913.009196</v>
+        <v>14336.793235</v>
       </c>
       <c r="P203" s="1">
-        <v>28417.531532</v>
+        <v>12082.19942</v>
       </c>
     </row>
     <row r="204" spans="1:16" s="1" customFormat="1"/>

--- a/dcd_top_offset_step_tsmc2p_meas.xlsx
+++ b/dcd_top_offset_step_tsmc2p_meas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4882" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4890" uniqueCount="313">
   <si>
     <t>Process</t>
   </si>
@@ -764,6 +764,9 @@
   </si>
   <si>
     <t>tsmc2p (138)</t>
+  </si>
+  <si>
+    <t>n/a</t>
   </si>
   <si>
     <t>tsmc2p (139)</t>
@@ -956,7 +959,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -972,13 +975,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000 "/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -993,9 +1009,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1393,10 +1410,10 @@
         <v>29</v>
       </c>
       <c r="O2">
-        <v>25.9053</v>
+        <v>18.9857</v>
       </c>
       <c r="P2">
-        <v>3.45432</v>
+        <v>2.53172</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1443,10 +1460,10 @@
         <v>29</v>
       </c>
       <c r="O3">
-        <v>24.8205</v>
+        <v>18.4165</v>
       </c>
       <c r="P3">
-        <v>3.30968</v>
+        <v>2.45583</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1493,10 +1510,10 @@
         <v>29</v>
       </c>
       <c r="O4">
-        <v>22.9591</v>
+        <v>16.9216</v>
       </c>
       <c r="P4">
-        <v>3.0615</v>
+        <v>2.25651</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1543,10 +1560,10 @@
         <v>29</v>
       </c>
       <c r="O5">
-        <v>21.8223</v>
+        <v>16.2962</v>
       </c>
       <c r="P5">
-        <v>2.90994</v>
+        <v>2.17311</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1593,10 +1610,10 @@
         <v>29</v>
       </c>
       <c r="O6">
-        <v>21.0482</v>
+        <v>15.7807</v>
       </c>
       <c r="P6">
-        <v>2.80671</v>
+        <v>2.10439</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1643,10 +1660,10 @@
         <v>29</v>
       </c>
       <c r="O7">
-        <v>19.9637</v>
+        <v>15.2128</v>
       </c>
       <c r="P7">
-        <v>2.66211</v>
+        <v>2.02867</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1693,10 +1710,10 @@
         <v>29</v>
       </c>
       <c r="O8">
-        <v>18.828</v>
+        <v>14.6447</v>
       </c>
       <c r="P8">
-        <v>2.5107</v>
+        <v>1.95292</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1743,10 +1760,10 @@
         <v>29</v>
       </c>
       <c r="O9">
-        <v>17.6916</v>
+        <v>14.2317</v>
       </c>
       <c r="P9">
-        <v>2.35917</v>
+        <v>1.89786</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1793,10 +1810,10 @@
         <v>29</v>
       </c>
       <c r="O10">
-        <v>17.8466</v>
+        <v>13.7666</v>
       </c>
       <c r="P10">
-        <v>2.37984</v>
+        <v>1.83584</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1843,10 +1860,10 @@
         <v>29</v>
       </c>
       <c r="O11">
-        <v>16.7103</v>
+        <v>13.1472</v>
       </c>
       <c r="P11">
-        <v>2.22832</v>
+        <v>1.75325</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1893,10 +1910,10 @@
         <v>29</v>
       </c>
       <c r="O12">
-        <v>15.6779</v>
+        <v>12.6348</v>
       </c>
       <c r="P12">
-        <v>2.09067</v>
+        <v>1.68491</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1943,10 +1960,10 @@
         <v>29</v>
       </c>
       <c r="O13">
-        <v>14.7482</v>
+        <v>12.1658</v>
       </c>
       <c r="P13">
-        <v>1.96674</v>
+        <v>1.62241</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1993,10 +2010,10 @@
         <v>29</v>
       </c>
       <c r="O14">
-        <v>13.9735</v>
+        <v>11.5982</v>
       </c>
       <c r="P14">
-        <v>1.86342</v>
+        <v>1.54672</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -2043,10 +2060,10 @@
         <v>29</v>
       </c>
       <c r="O15">
-        <v>12.9921</v>
+        <v>11.0816</v>
       </c>
       <c r="P15">
-        <v>1.73257</v>
+        <v>1.47784</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -2093,10 +2110,10 @@
         <v>29</v>
       </c>
       <c r="O16">
-        <v>12.1142</v>
+        <v>10.5653</v>
       </c>
       <c r="P16">
-        <v>1.61552</v>
+        <v>1.40899</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -2143,10 +2160,10 @@
         <v>29</v>
       </c>
       <c r="O17">
-        <v>11.1338</v>
+        <v>10.0484</v>
       </c>
       <c r="P17">
-        <v>1.48478</v>
+        <v>1.34008</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -2193,10 +2210,10 @@
         <v>29</v>
       </c>
       <c r="O18">
-        <v>11.1848</v>
+        <v>10.0484</v>
       </c>
       <c r="P18">
-        <v>1.4916</v>
+        <v>1.34008</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -2243,10 +2260,10 @@
         <v>29</v>
       </c>
       <c r="O19">
-        <v>10.5135</v>
+        <v>9.32564</v>
       </c>
       <c r="P19">
-        <v>1.40209</v>
+        <v>1.24372</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -2293,10 +2310,10 @@
         <v>29</v>
       </c>
       <c r="O20">
-        <v>9.68698</v>
+        <v>8.70608</v>
       </c>
       <c r="P20">
-        <v>1.29189</v>
+        <v>1.1611</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -2343,10 +2360,10 @@
         <v>29</v>
       </c>
       <c r="O21">
-        <v>8.963760000000001</v>
+        <v>7.98254</v>
       </c>
       <c r="P21">
-        <v>1.19546</v>
+        <v>1.06462</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -2393,10 +2410,10 @@
         <v>29</v>
       </c>
       <c r="O22">
-        <v>8.24235</v>
+        <v>7.31167</v>
       </c>
       <c r="P22">
-        <v>1.09928</v>
+        <v>0.975181</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -2443,10 +2460,10 @@
         <v>29</v>
       </c>
       <c r="O23">
-        <v>7.46632</v>
+        <v>6.69178</v>
       </c>
       <c r="P23">
-        <v>0.99581</v>
+        <v>0.892537</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -2493,10 +2510,10 @@
         <v>29</v>
       </c>
       <c r="O24">
-        <v>6.74328</v>
+        <v>6.07161</v>
       </c>
       <c r="P24">
-        <v>0.89939</v>
+        <v>0.809833</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -2543,10 +2560,10 @@
         <v>29</v>
       </c>
       <c r="O25">
-        <v>5.96823</v>
+        <v>5.29667</v>
       </c>
       <c r="P25">
-        <v>0.796052</v>
+        <v>0.7065129999999999</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -2593,10 +2610,10 @@
         <v>29</v>
       </c>
       <c r="O26">
-        <v>5.34898</v>
+        <v>4.72904</v>
       </c>
       <c r="P26">
-        <v>0.713486</v>
+        <v>0.6308240000000001</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -2643,10 +2660,10 @@
         <v>29</v>
       </c>
       <c r="O27">
-        <v>4.57374</v>
+        <v>4.10922</v>
       </c>
       <c r="P27">
-        <v>0.610108</v>
+        <v>0.54818</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -2693,10 +2710,10 @@
         <v>29</v>
       </c>
       <c r="O28">
-        <v>3.85089</v>
+        <v>3.38581</v>
       </c>
       <c r="P28">
-        <v>0.513736</v>
+        <v>0.45173</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -2743,10 +2760,10 @@
         <v>29</v>
       </c>
       <c r="O29">
-        <v>3.07585</v>
+        <v>2.76637</v>
       </c>
       <c r="P29">
-        <v>0.410404</v>
+        <v>0.369132</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2793,10 +2810,10 @@
         <v>29</v>
       </c>
       <c r="O30">
-        <v>2.35311</v>
+        <v>2.09494</v>
       </c>
       <c r="P30">
-        <v>0.314038</v>
+        <v>0.279602</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2843,10 +2860,10 @@
         <v>29</v>
       </c>
       <c r="O31">
-        <v>1.62989</v>
+        <v>1.42372</v>
       </c>
       <c r="P31">
-        <v>0.217603</v>
+        <v>0.190136</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -2893,10 +2910,10 @@
         <v>29</v>
       </c>
       <c r="O32">
-        <v>0.803737</v>
+        <v>0.700445</v>
       </c>
       <c r="P32">
-        <v>0.114303</v>
+        <v>0.09367789999999999</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2943,10 +2960,10 @@
         <v>29</v>
       </c>
       <c r="O33">
-        <v>0.0290732</v>
+        <v>0.0805921</v>
       </c>
       <c r="P33">
-        <v>0.00416494</v>
+        <v>0.0110289</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2993,10 +3010,10 @@
         <v>29</v>
       </c>
       <c r="O34">
-        <v>-0.021699</v>
+        <v>-0.0228569</v>
       </c>
       <c r="P34">
-        <v>-0.00260628</v>
+        <v>-0.00275857</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -3043,10 +3060,10 @@
         <v>29</v>
       </c>
       <c r="O35">
-        <v>-0.590353</v>
+        <v>-0.5904779999999999</v>
       </c>
       <c r="P35">
-        <v>-0.07843169999999999</v>
+        <v>-0.0784422</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -3093,10 +3110,10 @@
         <v>29</v>
       </c>
       <c r="O36">
-        <v>-1.41645</v>
+        <v>-1.31216</v>
       </c>
       <c r="P36">
-        <v>-0.188577</v>
+        <v>-0.174647</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -3143,10 +3160,10 @@
         <v>29</v>
       </c>
       <c r="O37">
-        <v>-2.13935</v>
+        <v>-1.98457</v>
       </c>
       <c r="P37">
-        <v>-0.284954</v>
+        <v>-0.26432</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -3193,10 +3210,10 @@
         <v>29</v>
       </c>
       <c r="O38">
-        <v>-2.96564</v>
+        <v>-2.65588</v>
       </c>
       <c r="P38">
-        <v>-0.395121</v>
+        <v>-0.353821</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -3243,10 +3260,10 @@
         <v>29</v>
       </c>
       <c r="O39">
-        <v>-3.68859</v>
+        <v>-3.22379</v>
       </c>
       <c r="P39">
-        <v>-0.491525</v>
+        <v>-0.429555</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -3293,10 +3310,10 @@
         <v>29</v>
       </c>
       <c r="O40">
-        <v>-4.51453</v>
+        <v>-3.94621</v>
       </c>
       <c r="P40">
-        <v>-0.601641</v>
+        <v>-0.525873</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -3343,10 +3360,10 @@
         <v>29</v>
       </c>
       <c r="O41">
-        <v>-5.28939</v>
+        <v>-4.61812</v>
       </c>
       <c r="P41">
-        <v>-0.704968</v>
+        <v>-0.615455</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -3393,10 +3410,10 @@
         <v>29</v>
       </c>
       <c r="O42">
-        <v>-5.90895</v>
+        <v>-5.34038</v>
       </c>
       <c r="P42">
-        <v>-0.787574</v>
+        <v>-0.711755</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -3443,10 +3460,10 @@
         <v>29</v>
       </c>
       <c r="O43">
-        <v>-6.78571</v>
+        <v>-5.96035</v>
       </c>
       <c r="P43">
-        <v>-0.904475</v>
+        <v>-0.794428</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -3493,10 +3510,10 @@
         <v>29</v>
       </c>
       <c r="O44">
-        <v>-7.35436</v>
+        <v>-6.63164</v>
       </c>
       <c r="P44">
-        <v>-0.980282</v>
+        <v>-0.883933</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -3543,10 +3560,10 @@
         <v>29</v>
       </c>
       <c r="O45">
-        <v>-8.180260000000001</v>
+        <v>-7.35381</v>
       </c>
       <c r="P45">
-        <v>-1.0904</v>
+        <v>-0.980214</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -3593,10 +3610,10 @@
         <v>29</v>
       </c>
       <c r="O46">
-        <v>-8.954700000000001</v>
+        <v>-7.871</v>
       </c>
       <c r="P46">
-        <v>-1.18686</v>
+        <v>-1.04918</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -3643,10 +3660,10 @@
         <v>29</v>
       </c>
       <c r="O47">
-        <v>-9.5749</v>
+        <v>-8.645009999999999</v>
       </c>
       <c r="P47">
-        <v>-1.27636</v>
+        <v>-1.15238</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -3693,10 +3710,10 @@
         <v>29</v>
       </c>
       <c r="O48">
-        <v>-10.2976</v>
+        <v>-9.264559999999999</v>
       </c>
       <c r="P48">
-        <v>-1.37273</v>
+        <v>-1.23498</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -3743,10 +3760,10 @@
         <v>29</v>
       </c>
       <c r="O49">
-        <v>-11.0724</v>
+        <v>-9.884219999999999</v>
       </c>
       <c r="P49">
-        <v>-1.47603</v>
+        <v>-1.31761</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -3793,10 +3810,10 @@
         <v>29</v>
       </c>
       <c r="O50">
-        <v>-11.0204</v>
+        <v>-9.93629</v>
       </c>
       <c r="P50">
-        <v>-1.46908</v>
+        <v>-1.32457</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -3843,10 +3860,10 @@
         <v>29</v>
       </c>
       <c r="O51">
-        <v>-12.105</v>
+        <v>-10.4525</v>
       </c>
       <c r="P51">
-        <v>-1.6137</v>
+        <v>-1.39338</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -3893,10 +3910,10 @@
         <v>29</v>
       </c>
       <c r="O52">
-        <v>-13.0862</v>
+        <v>-11.0724</v>
       </c>
       <c r="P52">
-        <v>-1.73776</v>
+        <v>-1.47602</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -3943,10 +3960,10 @@
         <v>29</v>
       </c>
       <c r="O53">
-        <v>-13.9652</v>
+        <v>-11.641</v>
       </c>
       <c r="P53">
-        <v>-1.86174</v>
+        <v>-1.55183</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -3993,10 +4010,10 @@
         <v>29</v>
       </c>
       <c r="O54">
-        <v>-14.7917</v>
+        <v>-12.1057</v>
       </c>
       <c r="P54">
-        <v>-1.97193</v>
+        <v>-1.6138</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -4043,10 +4060,10 @@
         <v>29</v>
       </c>
       <c r="O55">
-        <v>-15.7212</v>
+        <v>-12.7257</v>
       </c>
       <c r="P55">
-        <v>-2.09587</v>
+        <v>-1.69645</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -4093,10 +4110,10 @@
         <v>29</v>
       </c>
       <c r="O56">
-        <v>-16.7018</v>
+        <v>-13.1898</v>
       </c>
       <c r="P56">
-        <v>-2.22662</v>
+        <v>-1.75833</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -4143,10 +4160,10 @@
         <v>29</v>
       </c>
       <c r="O57">
-        <v>-17.6835</v>
+        <v>-13.7587</v>
       </c>
       <c r="P57">
-        <v>-2.35751</v>
+        <v>-1.8342</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -4193,10 +4210,10 @@
         <v>29</v>
       </c>
       <c r="O58">
-        <v>-17.5279</v>
+        <v>-14.1202</v>
       </c>
       <c r="P58">
-        <v>-2.33675</v>
+        <v>-1.8824</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -4243,10 +4260,10 @@
         <v>29</v>
       </c>
       <c r="O59">
-        <v>-18.6086</v>
+        <v>-14.6368</v>
       </c>
       <c r="P59">
-        <v>-2.48088</v>
+        <v>-1.95128</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -4293,10 +4310,10 @@
         <v>29</v>
       </c>
       <c r="O60">
-        <v>-19.6965</v>
+        <v>-15.2047</v>
       </c>
       <c r="P60">
-        <v>-2.62591</v>
+        <v>-2.02701</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -4343,10 +4360,10 @@
         <v>29</v>
       </c>
       <c r="O61">
-        <v>-20.7768</v>
+        <v>-15.7731</v>
       </c>
       <c r="P61">
-        <v>-2.76996</v>
+        <v>-2.10279</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -4393,10 +4410,10 @@
         <v>29</v>
       </c>
       <c r="O62">
-        <v>-21.7105</v>
+        <v>-16.2898</v>
       </c>
       <c r="P62">
-        <v>-2.88765</v>
+        <v>-2.17168</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -4443,10 +4460,10 @@
         <v>29</v>
       </c>
       <c r="O63">
-        <v>-22.7435</v>
+        <v>-16.806</v>
       </c>
       <c r="P63">
-        <v>-3.03218</v>
+        <v>-2.2405</v>
       </c>
     </row>
     <row r="64" spans="1:16">
@@ -4493,10 +4510,10 @@
         <v>29</v>
       </c>
       <c r="O64">
-        <v>-23.8282</v>
+        <v>-17.3737</v>
       </c>
       <c r="P64">
-        <v>-3.1768</v>
+        <v>-2.31621</v>
       </c>
     </row>
     <row r="65" spans="1:16">
@@ -4543,10 +4560,10 @@
         <v>29</v>
       </c>
       <c r="O65">
-        <v>-24.9644</v>
+        <v>-17.9923</v>
       </c>
       <c r="P65">
-        <v>-3.32831</v>
+        <v>-2.39192</v>
       </c>
     </row>
     <row r="66" spans="1:16">
@@ -4593,10 +4610,10 @@
         <v>165</v>
       </c>
       <c r="O66">
-        <v>33.4412</v>
+        <v>25.6799</v>
       </c>
       <c r="P66">
-        <v>4.05366</v>
+        <v>3.11289</v>
       </c>
     </row>
     <row r="67" spans="1:16">
@@ -4643,10 +4660,10 @@
         <v>165</v>
       </c>
       <c r="O67">
-        <v>32.0893</v>
+        <v>24.7787</v>
       </c>
       <c r="P67">
-        <v>3.8898</v>
+        <v>3.00367</v>
       </c>
     </row>
     <row r="68" spans="1:16">
@@ -4693,10 +4710,10 @@
         <v>165</v>
       </c>
       <c r="O68">
-        <v>30.435</v>
+        <v>23.7763</v>
       </c>
       <c r="P68">
-        <v>3.68928</v>
+        <v>2.88216</v>
       </c>
     </row>
     <row r="69" spans="1:16">
@@ -4743,10 +4760,10 @@
         <v>165</v>
       </c>
       <c r="O69">
-        <v>29.0324</v>
+        <v>22.9242</v>
       </c>
       <c r="P69">
-        <v>3.51927</v>
+        <v>2.77889</v>
       </c>
     </row>
     <row r="70" spans="1:16">
@@ -4793,10 +4810,10 @@
         <v>165</v>
       </c>
       <c r="O70">
-        <v>28.1318</v>
+        <v>22.0745</v>
       </c>
       <c r="P70">
-        <v>3.4101</v>
+        <v>2.68183</v>
       </c>
     </row>
     <row r="71" spans="1:16">
@@ -4843,10 +4860,10 @@
         <v>165</v>
       </c>
       <c r="O71">
-        <v>26.6801</v>
+        <v>21.2726</v>
       </c>
       <c r="P71">
-        <v>3.23412</v>
+        <v>2.57868</v>
       </c>
     </row>
     <row r="72" spans="1:16">
@@ -4893,10 +4910,10 @@
         <v>165</v>
       </c>
       <c r="O72">
-        <v>25.3283</v>
+        <v>20.4217</v>
       </c>
       <c r="P72">
-        <v>3.07028</v>
+        <v>2.47554</v>
       </c>
     </row>
     <row r="73" spans="1:16">
@@ -4943,10 +4960,10 @@
         <v>165</v>
       </c>
       <c r="O73">
-        <v>23.9265</v>
+        <v>19.5702</v>
       </c>
       <c r="P73">
-        <v>2.90038</v>
+        <v>2.37233</v>
       </c>
     </row>
     <row r="74" spans="1:16">
@@ -4993,10 +5010,10 @@
         <v>165</v>
       </c>
       <c r="O74">
-        <v>24.2268</v>
+        <v>19.1194</v>
       </c>
       <c r="P74">
-        <v>2.93677</v>
+        <v>2.3177</v>
       </c>
     </row>
     <row r="75" spans="1:16">
@@ -5043,10 +5060,10 @@
         <v>165</v>
       </c>
       <c r="O75">
-        <v>22.7749</v>
+        <v>18.2681</v>
       </c>
       <c r="P75">
-        <v>2.76077</v>
+        <v>2.21449</v>
       </c>
     </row>
     <row r="76" spans="1:16">
@@ -5093,10 +5110,10 @@
         <v>165</v>
       </c>
       <c r="O76">
-        <v>21.3727</v>
+        <v>17.367</v>
       </c>
       <c r="P76">
-        <v>2.59082</v>
+        <v>2.10528</v>
       </c>
     </row>
     <row r="77" spans="1:16">
@@ -5143,10 +5160,10 @@
         <v>165</v>
       </c>
       <c r="O77">
-        <v>19.9205</v>
+        <v>16.5159</v>
       </c>
       <c r="P77">
-        <v>2.41479</v>
+        <v>2.00212</v>
       </c>
     </row>
     <row r="78" spans="1:16">
@@ -5193,10 +5210,10 @@
         <v>165</v>
       </c>
       <c r="O78">
-        <v>18.8692</v>
+        <v>15.7648</v>
       </c>
       <c r="P78">
-        <v>2.28736</v>
+        <v>1.91107</v>
       </c>
     </row>
     <row r="79" spans="1:16">
@@ -5243,10 +5260,10 @@
         <v>165</v>
       </c>
       <c r="O79">
-        <v>17.4169</v>
+        <v>14.9134</v>
       </c>
       <c r="P79">
-        <v>2.11134</v>
+        <v>1.80788</v>
       </c>
     </row>
     <row r="80" spans="1:16">
@@ -5293,10 +5310,10 @@
         <v>165</v>
       </c>
       <c r="O80">
-        <v>16.1153</v>
+        <v>14.0624</v>
       </c>
       <c r="P80">
-        <v>1.95355</v>
+        <v>1.70471</v>
       </c>
     </row>
     <row r="81" spans="1:16">
@@ -5343,10 +5360,10 @@
         <v>165</v>
       </c>
       <c r="O81">
-        <v>14.6639</v>
+        <v>13.211</v>
       </c>
       <c r="P81">
-        <v>1.77762</v>
+        <v>1.60152</v>
       </c>
     </row>
     <row r="82" spans="1:16">
@@ -5393,10 +5410,10 @@
         <v>165</v>
       </c>
       <c r="O82">
-        <v>14.663</v>
+        <v>13.2108</v>
       </c>
       <c r="P82">
-        <v>1.77752</v>
+        <v>1.6015</v>
       </c>
     </row>
     <row r="83" spans="1:16">
@@ -5443,10 +5460,10 @@
         <v>165</v>
       </c>
       <c r="O83">
-        <v>13.5653</v>
+        <v>12.1594</v>
       </c>
       <c r="P83">
-        <v>1.64445</v>
+        <v>1.47405</v>
       </c>
     </row>
     <row r="84" spans="1:16">
@@ -5493,10 +5510,10 @@
         <v>165</v>
       </c>
       <c r="O84">
-        <v>12.5103</v>
+        <v>11.1588</v>
       </c>
       <c r="P84">
-        <v>1.51659</v>
+        <v>1.35276</v>
       </c>
     </row>
     <row r="85" spans="1:16">
@@ -5543,10 +5560,10 @@
         <v>165</v>
       </c>
       <c r="O85">
-        <v>11.4083</v>
+        <v>10.2065</v>
       </c>
       <c r="P85">
-        <v>1.38301</v>
+        <v>1.23734</v>
       </c>
     </row>
     <row r="86" spans="1:16">
@@ -5593,10 +5610,10 @@
         <v>165</v>
       </c>
       <c r="O86">
-        <v>10.3067</v>
+        <v>9.205640000000001</v>
       </c>
       <c r="P86">
-        <v>1.24948</v>
+        <v>1.11603</v>
       </c>
     </row>
     <row r="87" spans="1:16">
@@ -5643,10 +5660,10 @@
         <v>165</v>
       </c>
       <c r="O87">
-        <v>9.15541</v>
+        <v>8.353870000000001</v>
       </c>
       <c r="P87">
-        <v>1.10993</v>
+        <v>1.01278</v>
       </c>
     </row>
     <row r="88" spans="1:16">
@@ -5693,10 +5710,10 @@
         <v>165</v>
       </c>
       <c r="O88">
-        <v>8.20406</v>
+        <v>7.50257</v>
       </c>
       <c r="P88">
-        <v>0.994607</v>
+        <v>0.909583</v>
       </c>
     </row>
     <row r="89" spans="1:16">
@@ -5743,10 +5760,10 @@
         <v>165</v>
       </c>
       <c r="O89">
-        <v>7.25239</v>
+        <v>6.55187</v>
       </c>
       <c r="P89">
-        <v>0.879265</v>
+        <v>0.794355</v>
       </c>
     </row>
     <row r="90" spans="1:16">
@@ -5793,10 +5810,10 @@
         <v>165</v>
       </c>
       <c r="O90">
-        <v>6.45164</v>
+        <v>5.90077</v>
       </c>
       <c r="P90">
-        <v>0.782201</v>
+        <v>0.715434</v>
       </c>
     </row>
     <row r="91" spans="1:16">
@@ -5843,10 +5860,10 @@
         <v>165</v>
       </c>
       <c r="O91">
-        <v>5.5515</v>
+        <v>5.04989</v>
       </c>
       <c r="P91">
-        <v>0.673089</v>
+        <v>0.612296</v>
       </c>
     </row>
     <row r="92" spans="1:16">
@@ -5893,10 +5910,10 @@
         <v>165</v>
       </c>
       <c r="O92">
-        <v>4.69898</v>
+        <v>4.20029</v>
       </c>
       <c r="P92">
-        <v>0.569755</v>
+        <v>0.509313</v>
       </c>
     </row>
     <row r="93" spans="1:16">
@@ -5943,10 +5960,10 @@
         <v>165</v>
       </c>
       <c r="O93">
-        <v>3.69834</v>
+        <v>3.39779</v>
       </c>
       <c r="P93">
-        <v>0.448462</v>
+        <v>0.412039</v>
       </c>
     </row>
     <row r="94" spans="1:16">
@@ -5993,10 +6010,10 @@
         <v>165</v>
       </c>
       <c r="O94">
-        <v>2.79789</v>
+        <v>2.5484</v>
       </c>
       <c r="P94">
-        <v>0.339324</v>
+        <v>0.309075</v>
       </c>
     </row>
     <row r="95" spans="1:16">
@@ -6043,10 +6060,10 @@
         <v>165</v>
       </c>
       <c r="O95">
-        <v>1.84687</v>
+        <v>1.64685</v>
       </c>
       <c r="P95">
-        <v>0.224045</v>
+        <v>0.199806</v>
       </c>
     </row>
     <row r="96" spans="1:16">
@@ -6093,10 +6110,10 @@
         <v>165</v>
       </c>
       <c r="O96">
-        <v>0.848755</v>
+        <v>0.845351</v>
       </c>
       <c r="P96">
-        <v>0.103056</v>
+        <v>0.102656</v>
       </c>
     </row>
     <row r="97" spans="1:16">
@@ -6143,10 +6160,10 @@
         <v>165</v>
       </c>
       <c r="O97">
-        <v>-0.00479699</v>
+        <v>-0.0549673</v>
       </c>
       <c r="P97">
-        <v>-0.000394645</v>
+        <v>-0.00647658</v>
       </c>
     </row>
     <row r="98" spans="1:16">
@@ -6193,10 +6210,10 @@
         <v>165</v>
       </c>
       <c r="O98">
-        <v>0.0448606</v>
+        <v>0.0449253</v>
       </c>
       <c r="P98">
-        <v>0.00562479</v>
+        <v>0.00563302</v>
       </c>
     </row>
     <row r="99" spans="1:16">
@@ -6243,10 +6260,10 @@
         <v>165</v>
       </c>
       <c r="O99">
-        <v>-0.906239</v>
+        <v>-0.806097</v>
       </c>
       <c r="P99">
-        <v>-0.109651</v>
+        <v>-0.09751269999999999</v>
       </c>
     </row>
     <row r="100" spans="1:16">
@@ -6293,10 +6310,10 @@
         <v>165</v>
       </c>
       <c r="O100">
-        <v>-1.80701</v>
+        <v>-1.75376</v>
       </c>
       <c r="P100">
-        <v>-0.218845</v>
+        <v>-0.212402</v>
       </c>
     </row>
     <row r="101" spans="1:16">
@@ -6343,10 +6360,10 @@
         <v>165</v>
       </c>
       <c r="O101">
-        <v>-2.80793</v>
+        <v>-2.50792</v>
       </c>
       <c r="P101">
-        <v>-0.340174</v>
+        <v>-0.303808</v>
       </c>
     </row>
     <row r="102" spans="1:16">
@@ -6393,10 +6410,10 @@
         <v>165</v>
       </c>
       <c r="O102">
-        <v>-3.65868</v>
+        <v>-3.3587</v>
       </c>
       <c r="P102">
-        <v>-0.443291</v>
+        <v>-0.406928</v>
       </c>
     </row>
     <row r="103" spans="1:16">
@@ -6443,10 +6460,10 @@
         <v>165</v>
       </c>
       <c r="O103">
-        <v>-4.55982</v>
+        <v>-4.20889</v>
       </c>
       <c r="P103">
-        <v>-0.552518</v>
+        <v>-0.509979</v>
       </c>
     </row>
     <row r="104" spans="1:16">
@@ -6493,10 +6510,10 @@
         <v>165</v>
       </c>
       <c r="O104">
-        <v>-5.51027</v>
+        <v>-4.95935</v>
       </c>
       <c r="P104">
-        <v>-0.66772</v>
+        <v>-0.600946</v>
       </c>
     </row>
     <row r="105" spans="1:16">
@@ -6543,10 +6560,10 @@
         <v>165</v>
       </c>
       <c r="O105">
-        <v>-6.41144</v>
+        <v>-5.81051</v>
       </c>
       <c r="P105">
-        <v>-0.776963</v>
+        <v>-0.704115</v>
       </c>
     </row>
     <row r="106" spans="1:16">
@@ -6593,10 +6610,10 @@
         <v>165</v>
       </c>
       <c r="O106">
-        <v>-7.36256</v>
+        <v>-6.56152</v>
       </c>
       <c r="P106">
-        <v>-0.892246</v>
+        <v>-0.7951510000000001</v>
       </c>
     </row>
     <row r="107" spans="1:16">
@@ -6643,10 +6660,10 @@
         <v>165</v>
       </c>
       <c r="O107">
-        <v>-8.31368</v>
+        <v>-7.51267</v>
       </c>
       <c r="P107">
-        <v>-1.00752</v>
+        <v>-0.910435</v>
       </c>
     </row>
     <row r="108" spans="1:16">
@@ -6693,10 +6710,10 @@
         <v>165</v>
       </c>
       <c r="O108">
-        <v>-9.26446</v>
+        <v>-8.363799999999999</v>
       </c>
       <c r="P108">
-        <v>-1.12278</v>
+        <v>-1.01361</v>
       </c>
     </row>
     <row r="109" spans="1:16">
@@ -6743,10 +6760,10 @@
         <v>165</v>
       </c>
       <c r="O109">
-        <v>-10.3656</v>
+        <v>-9.21461</v>
       </c>
       <c r="P109">
-        <v>-1.25626</v>
+        <v>-1.11674</v>
       </c>
     </row>
     <row r="110" spans="1:16">
@@ -6793,10 +6810,10 @@
         <v>165</v>
       </c>
       <c r="O110">
-        <v>-11.4165</v>
+        <v>-10.2153</v>
       </c>
       <c r="P110">
-        <v>-1.38363</v>
+        <v>-1.23803</v>
       </c>
     </row>
     <row r="111" spans="1:16">
@@ -6843,10 +6860,10 @@
         <v>165</v>
       </c>
       <c r="O111">
-        <v>-12.4678</v>
+        <v>-11.1665</v>
       </c>
       <c r="P111">
-        <v>-1.51106</v>
+        <v>-1.35333</v>
       </c>
     </row>
     <row r="112" spans="1:16">
@@ -6893,10 +6910,10 @@
         <v>165</v>
       </c>
       <c r="O112">
-        <v>-13.5193</v>
+        <v>-12.118</v>
       </c>
       <c r="P112">
-        <v>-1.63852</v>
+        <v>-1.46867</v>
       </c>
     </row>
     <row r="113" spans="1:16">
@@ -6943,10 +6960,10 @@
         <v>165</v>
       </c>
       <c r="O113">
-        <v>-14.6703</v>
+        <v>-13.1188</v>
       </c>
       <c r="P113">
-        <v>-1.77804</v>
+        <v>-1.58996</v>
       </c>
     </row>
     <row r="114" spans="1:16">
@@ -6993,10 +7010,10 @@
         <v>165</v>
       </c>
       <c r="O114">
-        <v>-14.6703</v>
+        <v>-13.1679</v>
       </c>
       <c r="P114">
-        <v>-1.77804</v>
+        <v>-1.59593</v>
       </c>
     </row>
     <row r="115" spans="1:16">
@@ -7043,10 +7060,10 @@
         <v>165</v>
       </c>
       <c r="O115">
-        <v>-16.0718</v>
+        <v>-13.9695</v>
       </c>
       <c r="P115">
-        <v>-1.94791</v>
+        <v>-1.69309</v>
       </c>
     </row>
     <row r="116" spans="1:16">
@@ -7093,10 +7110,10 @@
         <v>165</v>
       </c>
       <c r="O116">
-        <v>-17.4233</v>
+        <v>-14.9206</v>
       </c>
       <c r="P116">
-        <v>-2.11174</v>
+        <v>-1.80837</v>
       </c>
     </row>
     <row r="117" spans="1:16">
@@ -7143,10 +7160,10 @@
         <v>165</v>
       </c>
       <c r="O117">
-        <v>-18.9749</v>
+        <v>-15.7719</v>
       </c>
       <c r="P117">
-        <v>-2.29979</v>
+        <v>-1.91155</v>
       </c>
     </row>
     <row r="118" spans="1:16">
@@ -7193,10 +7210,10 @@
         <v>165</v>
       </c>
       <c r="O118">
-        <v>-20.126</v>
+        <v>-16.5721</v>
       </c>
       <c r="P118">
-        <v>-2.43933</v>
+        <v>-2.00856</v>
       </c>
     </row>
     <row r="119" spans="1:16">
@@ -7243,10 +7260,10 @@
         <v>165</v>
       </c>
       <c r="O119">
-        <v>-21.4777</v>
+        <v>-17.4733</v>
       </c>
       <c r="P119">
-        <v>-2.60317</v>
+        <v>-2.11779</v>
       </c>
     </row>
     <row r="120" spans="1:16">
@@ -7293,10 +7310,10 @@
         <v>165</v>
       </c>
       <c r="O120">
-        <v>-22.9296</v>
+        <v>-18.3246</v>
       </c>
       <c r="P120">
-        <v>-2.77915</v>
+        <v>-2.22098</v>
       </c>
     </row>
     <row r="121" spans="1:16">
@@ -7343,10 +7360,10 @@
         <v>165</v>
       </c>
       <c r="O121">
-        <v>-24.3815</v>
+        <v>-19.2253</v>
       </c>
       <c r="P121">
-        <v>-2.95516</v>
+        <v>-2.33015</v>
       </c>
     </row>
     <row r="122" spans="1:16">
@@ -7393,10 +7410,10 @@
         <v>165</v>
       </c>
       <c r="O122">
-        <v>-24.1812</v>
+        <v>-19.6255</v>
       </c>
       <c r="P122">
-        <v>-2.93086</v>
+        <v>-2.37867</v>
       </c>
     </row>
     <row r="123" spans="1:16">
@@ -7443,10 +7460,10 @@
         <v>165</v>
       </c>
       <c r="O123">
-        <v>-25.5822</v>
+        <v>-20.5768</v>
       </c>
       <c r="P123">
-        <v>-3.10069</v>
+        <v>-2.49397</v>
       </c>
     </row>
     <row r="124" spans="1:16">
@@ -7493,10 +7510,10 @@
         <v>165</v>
       </c>
       <c r="O124">
-        <v>-26.983</v>
+        <v>-21.3781</v>
       </c>
       <c r="P124">
-        <v>-3.27049</v>
+        <v>-2.5911</v>
       </c>
     </row>
     <row r="125" spans="1:16">
@@ -7543,10 +7560,10 @@
         <v>165</v>
       </c>
       <c r="O125">
-        <v>-28.384</v>
+        <v>-22.2292</v>
       </c>
       <c r="P125">
-        <v>-3.44029</v>
+        <v>-2.69426</v>
       </c>
     </row>
     <row r="126" spans="1:16">
@@ -7593,10 +7610,10 @@
         <v>165</v>
       </c>
       <c r="O126">
-        <v>-29.3345</v>
+        <v>-23.0298</v>
       </c>
       <c r="P126">
-        <v>-3.55552</v>
+        <v>-2.79131</v>
       </c>
     </row>
     <row r="127" spans="1:16">
@@ -7643,10 +7660,10 @@
         <v>165</v>
       </c>
       <c r="O127">
-        <v>-30.7853</v>
+        <v>-23.931</v>
       </c>
       <c r="P127">
-        <v>-3.73137</v>
+        <v>-2.90055</v>
       </c>
     </row>
     <row r="128" spans="1:16">
@@ -7693,10 +7710,10 @@
         <v>165</v>
       </c>
       <c r="O128">
-        <v>-32.036</v>
+        <v>-24.8316</v>
       </c>
       <c r="P128">
-        <v>-3.88296</v>
+        <v>-3.0097</v>
       </c>
     </row>
     <row r="129" spans="1:16">
@@ -7743,10 +7760,10 @@
         <v>165</v>
       </c>
       <c r="O129">
-        <v>-33.3867</v>
+        <v>-25.7823</v>
       </c>
       <c r="P129">
-        <v>-4.04669</v>
+        <v>-3.12494</v>
       </c>
     </row>
     <row r="130" spans="1:16">
@@ -7793,10 +7810,10 @@
         <v>239</v>
       </c>
       <c r="O130">
-        <v>19.2776</v>
+        <v>14.2653</v>
       </c>
       <c r="P130">
-        <v>2.85655</v>
+        <v>2.12147</v>
       </c>
     </row>
     <row r="131" spans="1:16">
@@ -7843,10 +7860,10 @@
         <v>239</v>
       </c>
       <c r="O131">
-        <v>18.5031</v>
+        <v>13.9025</v>
       </c>
       <c r="P131">
-        <v>2.74185</v>
+        <v>2.06022</v>
       </c>
     </row>
     <row r="132" spans="1:16">
@@ -7893,10 +7910,10 @@
         <v>239</v>
       </c>
       <c r="O132">
-        <v>17.7743</v>
+        <v>13.5382</v>
       </c>
       <c r="P132">
-        <v>2.63385</v>
+        <v>2.00629</v>
       </c>
     </row>
     <row r="133" spans="1:16">
@@ -7943,10 +7960,10 @@
         <v>239</v>
       </c>
       <c r="O133">
-        <v>16.999</v>
+        <v>13.1754</v>
       </c>
       <c r="P133">
-        <v>2.51897</v>
+        <v>1.95252</v>
       </c>
     </row>
     <row r="134" spans="1:16">
@@ -7993,10 +8010,10 @@
         <v>239</v>
       </c>
       <c r="O134">
-        <v>16.5372</v>
+        <v>12.7632</v>
       </c>
       <c r="P134">
-        <v>2.4506</v>
+        <v>1.89147</v>
       </c>
     </row>
     <row r="135" spans="1:16">
@@ -8043,10 +8060,10 @@
         <v>239</v>
       </c>
       <c r="O135">
-        <v>15.9149</v>
+        <v>12.3047</v>
       </c>
       <c r="P135">
-        <v>2.35839</v>
+        <v>1.8235</v>
       </c>
     </row>
     <row r="136" spans="1:16">
@@ -8093,10 +8110,10 @@
         <v>239</v>
       </c>
       <c r="O136">
-        <v>15.1397</v>
+        <v>11.9361</v>
       </c>
       <c r="P136">
-        <v>2.24357</v>
+        <v>1.76892</v>
       </c>
     </row>
     <row r="137" spans="1:16">
@@ -8143,10 +8160,10 @@
         <v>239</v>
       </c>
       <c r="O137">
-        <v>14.4164</v>
+        <v>11.4718</v>
       </c>
       <c r="P137">
-        <v>2.13637</v>
+        <v>1.70014</v>
       </c>
     </row>
     <row r="138" spans="1:16">
@@ -8193,10 +8210,10 @@
         <v>239</v>
       </c>
       <c r="O138">
-        <v>14.6235</v>
+        <v>11.3229</v>
       </c>
       <c r="P138">
-        <v>2.16706</v>
+        <v>1.67802</v>
       </c>
     </row>
     <row r="139" spans="1:16">
@@ -8243,10 +8260,10 @@
         <v>239</v>
       </c>
       <c r="O139">
-        <v>13.9518</v>
+        <v>10.801</v>
       </c>
       <c r="P139">
-        <v>2.06764</v>
+        <v>1.60077</v>
       </c>
     </row>
     <row r="140" spans="1:16">
@@ -8292,16 +8309,16 @@
       <c r="N140" t="s">
         <v>239</v>
       </c>
-      <c r="O140">
-        <v>13.2808</v>
-      </c>
-      <c r="P140">
-        <v>1.96815</v>
+      <c r="O140" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="P140" s="2" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="141" spans="1:16">
       <c r="A141" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B141" t="s">
         <v>230</v>
@@ -8343,15 +8360,15 @@
         <v>239</v>
       </c>
       <c r="O141">
-        <v>12.5569</v>
+        <v>9.97231</v>
       </c>
       <c r="P141">
-        <v>1.86072</v>
+        <v>1.47802</v>
       </c>
     </row>
     <row r="142" spans="1:16">
       <c r="A142" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B142" t="s">
         <v>230</v>
@@ -8393,15 +8410,15 @@
         <v>239</v>
       </c>
       <c r="O142">
-        <v>12.0405</v>
+        <v>9.55968</v>
       </c>
       <c r="P142">
-        <v>1.78439</v>
+        <v>1.4169</v>
       </c>
     </row>
     <row r="143" spans="1:16">
       <c r="A143" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B143" t="s">
         <v>230</v>
@@ -8443,15 +8460,15 @@
         <v>239</v>
       </c>
       <c r="O143">
-        <v>11.2664</v>
+        <v>9.04992</v>
       </c>
       <c r="P143">
-        <v>1.67722</v>
+        <v>1.34128</v>
       </c>
     </row>
     <row r="144" spans="1:16">
       <c r="A144" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B144" t="s">
         <v>230</v>
@@ -8493,15 +8510,15 @@
         <v>239</v>
       </c>
       <c r="O144">
-        <v>10.5421</v>
+        <v>8.681039999999999</v>
       </c>
       <c r="P144">
-        <v>1.56245</v>
+        <v>1.28669</v>
       </c>
     </row>
     <row r="145" spans="1:16">
       <c r="A145" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B145" t="s">
         <v>230</v>
@@ -8543,15 +8560,15 @@
         <v>239</v>
       </c>
       <c r="O145">
-        <v>9.66807</v>
+        <v>8.113060000000001</v>
       </c>
       <c r="P145">
-        <v>1.43979</v>
+        <v>1.20257</v>
       </c>
     </row>
     <row r="146" spans="1:16">
       <c r="A146" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B146" t="s">
         <v>230</v>
@@ -8593,15 +8610,15 @@
         <v>239</v>
       </c>
       <c r="O146">
-        <v>9.766310000000001</v>
+        <v>8.113239999999999</v>
       </c>
       <c r="P146">
-        <v>1.4475</v>
+        <v>1.20258</v>
       </c>
     </row>
     <row r="147" spans="1:16">
       <c r="A147" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B147" t="s">
         <v>230</v>
@@ -8643,15 +8660,15 @@
         <v>239</v>
       </c>
       <c r="O147">
-        <v>8.99418</v>
+        <v>7.54419</v>
       </c>
       <c r="P147">
-        <v>1.33309</v>
+        <v>1.11828</v>
       </c>
     </row>
     <row r="148" spans="1:16">
       <c r="A148" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B148" t="s">
         <v>230</v>
@@ -8693,15 +8710,15 @@
         <v>239</v>
       </c>
       <c r="O148">
-        <v>8.31894</v>
+        <v>6.87943</v>
       </c>
       <c r="P148">
-        <v>1.23302</v>
+        <v>1.01973</v>
       </c>
     </row>
     <row r="149" spans="1:16">
       <c r="A149" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B149" t="s">
         <v>230</v>
@@ -8743,15 +8760,15 @@
         <v>239</v>
       </c>
       <c r="O149">
-        <v>7.60213</v>
+        <v>6.35656</v>
       </c>
       <c r="P149">
-        <v>1.12679</v>
+        <v>0.9498220000000001</v>
       </c>
     </row>
     <row r="150" spans="1:16">
       <c r="A150" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B150" t="s">
         <v>230</v>
@@ -8793,15 +8810,15 @@
         <v>239</v>
       </c>
       <c r="O150">
-        <v>6.92689</v>
+        <v>5.73496</v>
       </c>
       <c r="P150">
-        <v>1.03405</v>
+        <v>0.850243</v>
       </c>
     </row>
     <row r="151" spans="1:16">
       <c r="A151" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B151" t="s">
         <v>230</v>
@@ -8843,15 +8860,15 @@
         <v>239</v>
       </c>
       <c r="O151">
-        <v>6.20011</v>
+        <v>5.16741</v>
       </c>
       <c r="P151">
-        <v>0.91916</v>
+        <v>0.773657</v>
       </c>
     </row>
     <row r="152" spans="1:16">
       <c r="A152" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B152" t="s">
         <v>230</v>
@@ -8893,15 +8910,15 @@
         <v>239</v>
       </c>
       <c r="O152">
-        <v>5.47714</v>
+        <v>4.65207</v>
       </c>
       <c r="P152">
-        <v>0.812034</v>
+        <v>0.697087</v>
       </c>
     </row>
     <row r="153" spans="1:16">
       <c r="A153" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B153" t="s">
         <v>230</v>
@@ -8943,15 +8960,15 @@
         <v>239</v>
       </c>
       <c r="O153">
-        <v>4.85627</v>
+        <v>4.18442</v>
       </c>
       <c r="P153">
-        <v>0.720079</v>
+        <v>0.620522</v>
       </c>
     </row>
     <row r="154" spans="1:16">
       <c r="A154" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B154" t="s">
         <v>230</v>
@@ -8993,15 +9010,15 @@
         <v>239</v>
       </c>
       <c r="O154">
-        <v>4.39142</v>
+        <v>3.71881</v>
       </c>
       <c r="P154">
-        <v>0.651183</v>
+        <v>0.551546</v>
       </c>
     </row>
     <row r="155" spans="1:16">
       <c r="A155" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B155" t="s">
         <v>230</v>
@@ -9043,15 +9060,15 @@
         <v>239</v>
       </c>
       <c r="O155">
-        <v>3.82307</v>
+        <v>3.15121</v>
       </c>
       <c r="P155">
-        <v>0.567021</v>
+        <v>0.46746</v>
       </c>
     </row>
     <row r="156" spans="1:16">
       <c r="A156" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B156" t="s">
         <v>230</v>
@@ -9093,15 +9110,15 @@
         <v>239</v>
       </c>
       <c r="O156">
-        <v>3.21014</v>
+        <v>2.68623</v>
       </c>
       <c r="P156">
-        <v>0.476158</v>
+        <v>0.398575</v>
       </c>
     </row>
     <row r="157" spans="1:16">
       <c r="A157" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B157" t="s">
         <v>230</v>
@@ -9143,15 +9160,15 @@
         <v>239</v>
       </c>
       <c r="O157">
-        <v>2.53713</v>
+        <v>2.16976</v>
       </c>
       <c r="P157">
-        <v>0.376474</v>
+        <v>0.322076</v>
       </c>
     </row>
     <row r="158" spans="1:16">
       <c r="A158" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B158" t="s">
         <v>230</v>
@@ -9193,15 +9210,15 @@
         <v>239</v>
       </c>
       <c r="O158">
-        <v>1.96223</v>
+        <v>1.70342</v>
       </c>
       <c r="P158">
-        <v>0.291299</v>
+        <v>0.252993</v>
       </c>
     </row>
     <row r="159" spans="1:16">
       <c r="A159" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B159" t="s">
         <v>230</v>
@@ -9243,15 +9260,15 @@
         <v>239</v>
       </c>
       <c r="O159">
-        <v>1.29018</v>
+        <v>1.13568</v>
       </c>
       <c r="P159">
-        <v>0.191755</v>
+        <v>0.168885</v>
       </c>
     </row>
     <row r="160" spans="1:16">
       <c r="A160" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B160" t="s">
         <v>230</v>
@@ -9293,15 +9310,15 @@
         <v>239</v>
       </c>
       <c r="O160">
-        <v>0.721244</v>
+        <v>0.618377</v>
       </c>
       <c r="P160">
-        <v>0.107509</v>
+        <v>0.0922506</v>
       </c>
     </row>
     <row r="161" spans="1:16">
       <c r="A161" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B161" t="s">
         <v>230</v>
@@ -9343,15 +9360,15 @@
         <v>239</v>
       </c>
       <c r="O161">
-        <v>0.101802</v>
+        <v>0.101546</v>
       </c>
       <c r="P161">
-        <v>0.0156882</v>
+        <v>0.0156398</v>
       </c>
     </row>
     <row r="162" spans="1:16">
       <c r="A162" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B162" t="s">
         <v>230</v>
@@ -9393,15 +9410,15 @@
         <v>239</v>
       </c>
       <c r="O162">
-        <v>0.1529</v>
+        <v>0.101923</v>
       </c>
       <c r="P162">
-        <v>0.0232488</v>
+        <v>0.0232642</v>
       </c>
     </row>
     <row r="163" spans="1:16">
       <c r="A163" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B163" t="s">
         <v>230</v>
@@ -9443,15 +9460,15 @@
         <v>239</v>
       </c>
       <c r="O163">
-        <v>-0.5187349999999999</v>
+        <v>-0.363632</v>
       </c>
       <c r="P163">
-        <v>-0.0762615</v>
+        <v>-0.053256</v>
       </c>
     </row>
     <row r="164" spans="1:16">
       <c r="A164" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B164" t="s">
         <v>230</v>
@@ -9493,15 +9510,15 @@
         <v>239</v>
       </c>
       <c r="O164">
-        <v>-1.19041</v>
+        <v>-0.880418</v>
       </c>
       <c r="P164">
-        <v>-0.175758</v>
+        <v>-0.129827</v>
       </c>
     </row>
     <row r="165" spans="1:16">
       <c r="A165" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B165" t="s">
         <v>230</v>
@@ -9543,15 +9560,15 @@
         <v>239</v>
       </c>
       <c r="O165">
-        <v>-1.75847</v>
+        <v>-1.44837</v>
       </c>
       <c r="P165">
-        <v>-0.25992</v>
+        <v>-0.213931</v>
       </c>
     </row>
     <row r="166" spans="1:16">
       <c r="A166" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B166" t="s">
         <v>230</v>
@@ -9593,15 +9610,15 @@
         <v>239</v>
       </c>
       <c r="O166">
-        <v>-2.32756</v>
+        <v>-2.00707</v>
       </c>
       <c r="P166">
-        <v>-0.344209</v>
+        <v>-0.296769</v>
       </c>
     </row>
     <row r="167" spans="1:16">
       <c r="A167" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B167" t="s">
         <v>230</v>
@@ -9643,15 +9660,15 @@
         <v>239</v>
       </c>
       <c r="O167">
-        <v>-2.94765</v>
+        <v>-2.48226</v>
       </c>
       <c r="P167">
-        <v>-0.436091</v>
+        <v>-0.367124</v>
       </c>
     </row>
     <row r="168" spans="1:16">
       <c r="A168" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B168" t="s">
         <v>230</v>
@@ -9693,15 +9710,15 @@
         <v>239</v>
       </c>
       <c r="O168">
-        <v>-3.51638</v>
+        <v>-2.94712</v>
       </c>
       <c r="P168">
-        <v>-0.520339</v>
+        <v>-0.435973</v>
       </c>
     </row>
     <row r="169" spans="1:16">
       <c r="A169" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B169" t="s">
         <v>230</v>
@@ -9743,15 +9760,15 @@
         <v>239</v>
       </c>
       <c r="O169">
-        <v>-4.23327</v>
+        <v>-3.4638</v>
       </c>
       <c r="P169">
-        <v>-0.626603</v>
+        <v>-0.512535</v>
       </c>
     </row>
     <row r="170" spans="1:16">
       <c r="A170" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B170" t="s">
         <v>230</v>
@@ -9793,15 +9810,15 @@
         <v>239</v>
       </c>
       <c r="O170">
-        <v>-4.70424</v>
+        <v>-3.97967</v>
       </c>
       <c r="P170">
-        <v>-0.696263</v>
+        <v>-0.588957</v>
       </c>
     </row>
     <row r="171" spans="1:16">
       <c r="A171" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B171" t="s">
         <v>230</v>
@@ -9843,15 +9860,15 @@
         <v>239</v>
       </c>
       <c r="O171">
-        <v>-5.3236</v>
+        <v>-4.44602</v>
       </c>
       <c r="P171">
-        <v>-0.788066</v>
+        <v>-0.658016</v>
       </c>
     </row>
     <row r="172" spans="1:16">
       <c r="A172" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B172" t="s">
         <v>230</v>
@@ -9892,16 +9909,16 @@
       <c r="N172" t="s">
         <v>239</v>
       </c>
-      <c r="O172">
-        <v>-6.04783</v>
-      </c>
-      <c r="P172">
-        <v>-0.895369</v>
+      <c r="O172" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="P172" s="2" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="173" spans="1:16">
       <c r="A173" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B173" t="s">
         <v>230</v>
@@ -9943,15 +9960,15 @@
         <v>239</v>
       </c>
       <c r="O173">
-        <v>-6.66795</v>
+        <v>-5.58242</v>
       </c>
       <c r="P173">
-        <v>-0.987237</v>
+        <v>-0.826412</v>
       </c>
     </row>
     <row r="174" spans="1:16">
       <c r="A174" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B174" t="s">
         <v>230</v>
@@ -9993,15 +10010,15 @@
         <v>239</v>
       </c>
       <c r="O174">
-        <v>-7.23605</v>
+        <v>-6.20197</v>
       </c>
       <c r="P174">
-        <v>-1.07141</v>
+        <v>-0.910653</v>
       </c>
     </row>
     <row r="175" spans="1:16">
       <c r="A175" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B175" t="s">
         <v>230</v>
@@ -10043,15 +10060,15 @@
         <v>239</v>
       </c>
       <c r="O175">
-        <v>-7.84982</v>
+        <v>-6.71889</v>
       </c>
       <c r="P175">
-        <v>-1.16239</v>
+        <v>-0.994772</v>
       </c>
     </row>
     <row r="176" spans="1:16">
       <c r="A176" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B176" t="s">
         <v>230</v>
@@ -10093,15 +10110,15 @@
         <v>239</v>
       </c>
       <c r="O176">
-        <v>-8.525829999999999</v>
+        <v>-7.23613</v>
       </c>
       <c r="P176">
-        <v>-1.25511</v>
+        <v>-1.07142</v>
       </c>
     </row>
     <row r="177" spans="1:16">
       <c r="A177" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B177" t="s">
         <v>230</v>
@@ -10143,15 +10160,15 @@
         <v>239</v>
       </c>
       <c r="O177">
-        <v>-9.04369</v>
+        <v>-7.70093</v>
       </c>
       <c r="P177">
-        <v>-1.33916</v>
+        <v>-1.14026</v>
       </c>
     </row>
     <row r="178" spans="1:16">
       <c r="A178" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B178" t="s">
         <v>230</v>
@@ -10193,15 +10210,15 @@
         <v>239</v>
       </c>
       <c r="O178">
-        <v>-8.992369999999999</v>
+        <v>-7.85006</v>
       </c>
       <c r="P178">
-        <v>-1.3316</v>
+        <v>-1.16243</v>
       </c>
     </row>
     <row r="179" spans="1:16">
       <c r="A179" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B179" t="s">
         <v>230</v>
@@ -10243,15 +10260,15 @@
         <v>239</v>
       </c>
       <c r="O179">
-        <v>-9.767749999999999</v>
+        <v>-8.114750000000001</v>
       </c>
       <c r="P179">
-        <v>-1.44645</v>
+        <v>-1.20158</v>
       </c>
     </row>
     <row r="180" spans="1:16">
       <c r="A180" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B180" t="s">
         <v>230</v>
@@ -10293,15 +10310,15 @@
         <v>239</v>
       </c>
       <c r="O180">
-        <v>-10.4397</v>
+        <v>-8.476229999999999</v>
       </c>
       <c r="P180">
-        <v>-1.54618</v>
+        <v>-1.2551</v>
       </c>
     </row>
     <row r="181" spans="1:16">
       <c r="A181" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B181" t="s">
         <v>230</v>
@@ -10343,15 +10360,15 @@
         <v>239</v>
       </c>
       <c r="O181">
-        <v>-11.112</v>
+        <v>-8.88907</v>
       </c>
       <c r="P181">
-        <v>-1.64556</v>
+        <v>-1.31628</v>
       </c>
     </row>
     <row r="182" spans="1:16">
       <c r="A182" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B182" t="s">
         <v>230</v>
@@ -10393,15 +10410,15 @@
         <v>239</v>
       </c>
       <c r="O182">
-        <v>-11.6719</v>
+        <v>-9.30307</v>
       </c>
       <c r="P182">
-        <v>-1.72861</v>
+        <v>-1.37762</v>
       </c>
     </row>
     <row r="183" spans="1:16">
       <c r="A183" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B183" t="s">
         <v>230</v>
@@ -10443,15 +10460,15 @@
         <v>239</v>
       </c>
       <c r="O183">
-        <v>-12.3523</v>
+        <v>-9.664529999999999</v>
       </c>
       <c r="P183">
-        <v>-1.82937</v>
+        <v>-1.43118</v>
       </c>
     </row>
     <row r="184" spans="1:16">
       <c r="A184" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B184" t="s">
         <v>230</v>
@@ -10493,15 +10510,15 @@
         <v>239</v>
       </c>
       <c r="O184">
-        <v>-13.0248</v>
+        <v>-10.078</v>
       </c>
       <c r="P184">
-        <v>-1.92898</v>
+        <v>-1.49243</v>
       </c>
     </row>
     <row r="185" spans="1:16">
       <c r="A185" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B185" t="s">
         <v>230</v>
@@ -10543,15 +10560,15 @@
         <v>239</v>
       </c>
       <c r="O185">
-        <v>-13.6964</v>
+        <v>-10.4396</v>
       </c>
       <c r="P185">
-        <v>-2.02849</v>
+        <v>-1.53847</v>
       </c>
     </row>
     <row r="186" spans="1:16">
       <c r="A186" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B186" t="s">
         <v>230</v>
@@ -10593,15 +10610,15 @@
         <v>239</v>
       </c>
       <c r="O186">
-        <v>-13.5413</v>
+        <v>-10.6468</v>
       </c>
       <c r="P186">
-        <v>-2.00547</v>
+        <v>-1.5767</v>
       </c>
     </row>
     <row r="187" spans="1:16">
       <c r="A187" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B187" t="s">
         <v>230</v>
@@ -10643,15 +10660,15 @@
         <v>239</v>
       </c>
       <c r="O187">
-        <v>-14.3165</v>
+        <v>-11.0602</v>
       </c>
       <c r="P187">
-        <v>-2.12035</v>
+        <v>-1.63795</v>
       </c>
     </row>
     <row r="188" spans="1:16">
       <c r="A188" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B188" t="s">
         <v>230</v>
@@ -10693,15 +10710,15 @@
         <v>239</v>
       </c>
       <c r="O188">
-        <v>-14.9354</v>
+        <v>-11.4155</v>
       </c>
       <c r="P188">
-        <v>-2.21202</v>
+        <v>-1.69063</v>
       </c>
     </row>
     <row r="189" spans="1:16">
       <c r="A189" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B189" t="s">
         <v>230</v>
@@ -10743,15 +10760,15 @@
         <v>239</v>
       </c>
       <c r="O189">
-        <v>-15.8153</v>
+        <v>-11.8356</v>
       </c>
       <c r="P189">
-        <v>-2.34242</v>
+        <v>-1.75282</v>
       </c>
     </row>
     <row r="190" spans="1:16">
       <c r="A190" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B190" t="s">
         <v>230</v>
@@ -10793,15 +10810,15 @@
         <v>239</v>
       </c>
       <c r="O190">
-        <v>-16.3328</v>
+        <v>-12.2495</v>
       </c>
       <c r="P190">
-        <v>-2.41903</v>
+        <v>-1.81409</v>
       </c>
     </row>
     <row r="191" spans="1:16">
       <c r="A191" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B191" t="s">
         <v>230</v>
@@ -10843,15 +10860,15 @@
         <v>239</v>
       </c>
       <c r="O191">
-        <v>-17.2106</v>
+        <v>-12.6623</v>
       </c>
       <c r="P191">
-        <v>-2.54912</v>
+        <v>-1.8753</v>
       </c>
     </row>
     <row r="192" spans="1:16">
       <c r="A192" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B192" t="s">
         <v>230</v>
@@ -10893,15 +10910,15 @@
         <v>239</v>
       </c>
       <c r="O192">
-        <v>-17.9861</v>
+        <v>-13.0249</v>
       </c>
       <c r="P192">
-        <v>-2.66399</v>
+        <v>-1.92903</v>
       </c>
     </row>
     <row r="193" spans="1:16">
       <c r="A193" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B193" t="s">
         <v>230</v>
@@ -10943,10 +10960,10 @@
         <v>239</v>
       </c>
       <c r="O193">
-        <v>-18.6574</v>
+        <v>-13.5408</v>
       </c>
       <c r="P193">
-        <v>-2.75595</v>
+        <v>-2.00543</v>
       </c>
     </row>
     <row r="194" spans="1:16" s="1" customFormat="1">
@@ -11001,29 +11018,29 @@
     </row>
     <row r="195" spans="1:16" s="1" customFormat="1">
       <c r="N195" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="O195" s="1">
-        <v>-33.3867</v>
+        <v>-25.7823</v>
       </c>
       <c r="P195" s="1">
-        <v>-4.04669</v>
+        <v>-3.12494</v>
       </c>
     </row>
     <row r="196" spans="1:16" s="1" customFormat="1">
       <c r="N196" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="O196" s="1">
-        <v>33.4412</v>
+        <v>25.6799</v>
       </c>
       <c r="P196" s="1">
-        <v>4.05366</v>
+        <v>3.11289</v>
       </c>
     </row>
     <row r="197" spans="1:16" s="1" customFormat="1">
       <c r="N197" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="O197" s="1">
         <v>35</v>
@@ -11031,7 +11048,7 @@
     </row>
     <row r="198" spans="1:16" s="1" customFormat="1">
       <c r="N198" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="O198" s="1">
         <v>-35</v>
@@ -11039,7 +11056,7 @@
     </row>
     <row r="199" spans="1:16" s="1" customFormat="1">
       <c r="N199" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O199" s="1">
         <v>35</v>
@@ -11047,7 +11064,7 @@
     </row>
     <row r="200" spans="1:16" s="1" customFormat="1">
       <c r="N200" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O200" s="1">
         <v>-35</v>
@@ -11055,35 +11072,35 @@
     </row>
     <row r="201" spans="1:16" s="1" customFormat="1">
       <c r="N201" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="O201" s="1">
-        <v>0.1027004</v>
+        <v>0.06930662999999999</v>
       </c>
       <c r="P201" s="1">
-        <v>0.01585218</v>
+        <v>0.01078982</v>
       </c>
     </row>
     <row r="202" spans="1:16" s="1" customFormat="1">
       <c r="N202" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="O202" s="1">
-        <v>14.723944</v>
+        <v>11.78096</v>
       </c>
       <c r="P202" s="1">
-        <v>1.915292</v>
+        <v>1.52769</v>
       </c>
     </row>
     <row r="203" spans="1:16" s="1" customFormat="1">
       <c r="N203" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="O203" s="1">
-        <v>14336.793235</v>
+        <v>16998.316034</v>
       </c>
       <c r="P203" s="1">
-        <v>12082.19942</v>
+        <v>14158.623591</v>
       </c>
     </row>
     <row r="204" spans="1:16" s="1" customFormat="1"/>

--- a/dcd_top_offset_step_tsmc2p_meas.xlsx
+++ b/dcd_top_offset_step_tsmc2p_meas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4890" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4882" uniqueCount="312">
   <si>
     <t>Process</t>
   </si>
@@ -764,9 +764,6 @@
   </si>
   <si>
     <t>tsmc2p (138)</t>
-  </si>
-  <si>
-    <t>n/a</t>
   </si>
   <si>
     <t>tsmc2p (139)</t>
@@ -977,13 +974,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000 "/>
+      <color rgb="FFFFFFFF "/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -992,7 +989,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF99"/>
+        <fgColor rgb="FFFF9133"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0094D1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1009,10 +1012,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1410,10 +1414,10 @@
         <v>29</v>
       </c>
       <c r="O2">
-        <v>18.9857</v>
+        <v>26.8865</v>
       </c>
       <c r="P2">
-        <v>2.53172</v>
+        <v>3.58515</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1460,10 +1464,10 @@
         <v>29</v>
       </c>
       <c r="O3">
-        <v>18.4165</v>
+        <v>25.957</v>
       </c>
       <c r="P3">
-        <v>2.45583</v>
+        <v>3.46121</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1510,10 +1514,10 @@
         <v>29</v>
       </c>
       <c r="O4">
-        <v>16.9216</v>
+        <v>24.9221</v>
       </c>
       <c r="P4">
-        <v>2.25651</v>
+        <v>3.32324</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1560,10 +1564,10 @@
         <v>29</v>
       </c>
       <c r="O5">
-        <v>16.2962</v>
+        <v>24.0946</v>
       </c>
       <c r="P5">
-        <v>2.17311</v>
+        <v>3.21291</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1610,10 +1614,10 @@
         <v>29</v>
       </c>
       <c r="O6">
-        <v>15.7807</v>
+        <v>23.3208</v>
       </c>
       <c r="P6">
-        <v>2.10439</v>
+        <v>3.10975</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1660,10 +1664,10 @@
         <v>29</v>
       </c>
       <c r="O7">
-        <v>15.2128</v>
+        <v>22.4427</v>
       </c>
       <c r="P7">
-        <v>2.02867</v>
+        <v>2.99265</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1710,10 +1714,10 @@
         <v>29</v>
       </c>
       <c r="O8">
-        <v>14.6447</v>
+        <v>21.5135</v>
       </c>
       <c r="P8">
-        <v>1.95292</v>
+        <v>2.86875</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1760,10 +1764,10 @@
         <v>29</v>
       </c>
       <c r="O9">
-        <v>14.2317</v>
+        <v>20.6871</v>
       </c>
       <c r="P9">
-        <v>1.89786</v>
+        <v>2.75857</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1810,10 +1814,10 @@
         <v>29</v>
       </c>
       <c r="O10">
-        <v>13.7666</v>
+        <v>20.6352</v>
       </c>
       <c r="P10">
-        <v>1.83584</v>
+        <v>2.75163</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1860,10 +1864,10 @@
         <v>29</v>
       </c>
       <c r="O11">
-        <v>13.1472</v>
+        <v>19.6544</v>
       </c>
       <c r="P11">
-        <v>1.75325</v>
+        <v>2.62088</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1910,10 +1914,10 @@
         <v>29</v>
       </c>
       <c r="O12">
-        <v>12.6348</v>
+        <v>18.776</v>
       </c>
       <c r="P12">
-        <v>1.68491</v>
+        <v>2.50376</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1960,10 +1964,10 @@
         <v>29</v>
       </c>
       <c r="O13">
-        <v>12.1658</v>
+        <v>17.8982</v>
       </c>
       <c r="P13">
-        <v>1.62241</v>
+        <v>2.38671</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -2010,10 +2014,10 @@
         <v>29</v>
       </c>
       <c r="O14">
-        <v>11.5982</v>
+        <v>17.124</v>
       </c>
       <c r="P14">
-        <v>1.54672</v>
+        <v>2.28349</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -2060,10 +2064,10 @@
         <v>29</v>
       </c>
       <c r="O15">
-        <v>11.0816</v>
+        <v>16.1942</v>
       </c>
       <c r="P15">
-        <v>1.47784</v>
+        <v>2.15951</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -2110,10 +2114,10 @@
         <v>29</v>
       </c>
       <c r="O16">
-        <v>10.5653</v>
+        <v>15.3679</v>
       </c>
       <c r="P16">
-        <v>1.40899</v>
+        <v>2.04934</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -2160,10 +2164,10 @@
         <v>29</v>
       </c>
       <c r="O17">
-        <v>10.0484</v>
+        <v>14.5939</v>
       </c>
       <c r="P17">
-        <v>1.34008</v>
+        <v>1.94615</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -2210,10 +2214,10 @@
         <v>29</v>
       </c>
       <c r="O18">
-        <v>10.0484</v>
+        <v>14.5933</v>
       </c>
       <c r="P18">
-        <v>1.34008</v>
+        <v>1.94605</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -2260,10 +2264,10 @@
         <v>29</v>
       </c>
       <c r="O19">
-        <v>9.32564</v>
+        <v>13.767</v>
       </c>
       <c r="P19">
-        <v>1.24372</v>
+        <v>1.83587</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -2310,10 +2314,10 @@
         <v>29</v>
       </c>
       <c r="O20">
-        <v>8.70608</v>
+        <v>12.8891</v>
       </c>
       <c r="P20">
-        <v>1.1611</v>
+        <v>1.71883</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -2360,10 +2364,10 @@
         <v>29</v>
       </c>
       <c r="O21">
-        <v>7.98254</v>
+        <v>11.9094</v>
       </c>
       <c r="P21">
-        <v>1.06462</v>
+        <v>1.5882</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -2410,10 +2414,10 @@
         <v>29</v>
       </c>
       <c r="O22">
-        <v>7.31167</v>
+        <v>11.0297</v>
       </c>
       <c r="P22">
-        <v>0.975181</v>
+        <v>1.47091</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -2460,10 +2464,10 @@
         <v>29</v>
       </c>
       <c r="O23">
-        <v>6.69178</v>
+        <v>9.996729999999999</v>
       </c>
       <c r="P23">
-        <v>0.892537</v>
+        <v>1.33319</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -2510,10 +2514,10 @@
         <v>29</v>
       </c>
       <c r="O24">
-        <v>6.07161</v>
+        <v>9.015319999999999</v>
       </c>
       <c r="P24">
-        <v>0.809833</v>
+        <v>1.20234</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -2560,10 +2564,10 @@
         <v>29</v>
       </c>
       <c r="O25">
-        <v>5.29667</v>
+        <v>7.9827</v>
       </c>
       <c r="P25">
-        <v>0.7065129999999999</v>
+        <v>1.06466</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -2610,10 +2614,10 @@
         <v>29</v>
       </c>
       <c r="O26">
-        <v>4.72904</v>
+        <v>7.15611</v>
       </c>
       <c r="P26">
-        <v>0.6308240000000001</v>
+        <v>0.954446</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -2660,10 +2664,10 @@
         <v>29</v>
       </c>
       <c r="O27">
-        <v>4.10922</v>
+        <v>6.12333</v>
       </c>
       <c r="P27">
-        <v>0.54818</v>
+        <v>0.816734</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -2710,10 +2714,10 @@
         <v>29</v>
       </c>
       <c r="O28">
-        <v>3.38581</v>
+        <v>5.14227</v>
       </c>
       <c r="P28">
-        <v>0.45173</v>
+        <v>0.685922</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -2760,10 +2764,10 @@
         <v>29</v>
       </c>
       <c r="O29">
-        <v>2.76637</v>
+        <v>4.10899</v>
       </c>
       <c r="P29">
-        <v>0.369132</v>
+        <v>0.548149</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2810,10 +2814,10 @@
         <v>29</v>
       </c>
       <c r="O30">
-        <v>2.09494</v>
+        <v>3.07628</v>
       </c>
       <c r="P30">
-        <v>0.279602</v>
+        <v>0.410461</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2860,10 +2864,10 @@
         <v>29</v>
       </c>
       <c r="O31">
-        <v>1.42372</v>
+        <v>2.14632</v>
       </c>
       <c r="P31">
-        <v>0.190136</v>
+        <v>0.286466</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -2910,10 +2914,10 @@
         <v>29</v>
       </c>
       <c r="O32">
-        <v>0.700445</v>
+        <v>1.06218</v>
       </c>
       <c r="P32">
-        <v>0.09367789999999999</v>
+        <v>0.141906</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2960,10 +2964,10 @@
         <v>29</v>
       </c>
       <c r="O33">
-        <v>0.0805921</v>
+        <v>0.0802322</v>
       </c>
       <c r="P33">
-        <v>0.0110289</v>
+        <v>0.0109816</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -3010,10 +3014,10 @@
         <v>29</v>
       </c>
       <c r="O34">
-        <v>-0.0228569</v>
+        <v>0.028872</v>
       </c>
       <c r="P34">
-        <v>-0.00275857</v>
+        <v>0.00413803</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -3060,10 +3064,10 @@
         <v>29</v>
       </c>
       <c r="O35">
-        <v>-0.5904779999999999</v>
+        <v>-0.952227</v>
       </c>
       <c r="P35">
-        <v>-0.0784422</v>
+        <v>-0.126678</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -3110,10 +3114,10 @@
         <v>29</v>
       </c>
       <c r="O36">
-        <v>-1.31216</v>
+        <v>-1.93338</v>
       </c>
       <c r="P36">
-        <v>-0.174647</v>
+        <v>-0.257498</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -3160,10 +3164,10 @@
         <v>29</v>
       </c>
       <c r="O37">
-        <v>-1.98457</v>
+        <v>-2.96546</v>
       </c>
       <c r="P37">
-        <v>-0.26432</v>
+        <v>-0.395102</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -3210,10 +3214,10 @@
         <v>29</v>
       </c>
       <c r="O38">
-        <v>-2.65588</v>
+        <v>-3.94661</v>
       </c>
       <c r="P38">
-        <v>-0.353821</v>
+        <v>-0.525926</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -3260,10 +3264,10 @@
         <v>29</v>
       </c>
       <c r="O39">
-        <v>-3.22379</v>
+        <v>-5.03093</v>
       </c>
       <c r="P39">
-        <v>-0.429555</v>
+        <v>-0.670492</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -3310,10 +3314,10 @@
         <v>29</v>
       </c>
       <c r="O40">
-        <v>-3.94621</v>
+        <v>-6.01217</v>
       </c>
       <c r="P40">
-        <v>-0.525873</v>
+        <v>-0.801335</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -3360,10 +3364,10 @@
         <v>29</v>
       </c>
       <c r="O41">
-        <v>-4.61812</v>
+        <v>-7.04461</v>
       </c>
       <c r="P41">
-        <v>-0.615455</v>
+        <v>-0.938976</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -3410,10 +3414,10 @@
         <v>29</v>
       </c>
       <c r="O42">
-        <v>-5.34038</v>
+        <v>-7.87084</v>
       </c>
       <c r="P42">
-        <v>-0.711755</v>
+        <v>-1.04915</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -3460,10 +3464,10 @@
         <v>29</v>
       </c>
       <c r="O43">
-        <v>-5.96035</v>
+        <v>-8.90354</v>
       </c>
       <c r="P43">
-        <v>-0.794428</v>
+        <v>-1.18684</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -3510,10 +3514,10 @@
         <v>29</v>
       </c>
       <c r="O44">
-        <v>-6.63164</v>
+        <v>-9.78143</v>
       </c>
       <c r="P44">
-        <v>-0.883933</v>
+        <v>-1.30389</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -3560,10 +3564,10 @@
         <v>29</v>
       </c>
       <c r="O45">
-        <v>-7.35381</v>
+        <v>-10.8655</v>
       </c>
       <c r="P45">
-        <v>-0.980214</v>
+        <v>-1.44843</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -3610,10 +3614,10 @@
         <v>29</v>
       </c>
       <c r="O46">
-        <v>-7.871</v>
+        <v>-11.7434</v>
       </c>
       <c r="P46">
-        <v>-1.04918</v>
+        <v>-1.5655</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -3660,10 +3664,10 @@
         <v>29</v>
       </c>
       <c r="O47">
-        <v>-8.645009999999999</v>
+        <v>-12.7768</v>
       </c>
       <c r="P47">
-        <v>-1.15238</v>
+        <v>-1.7033</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -3710,10 +3714,10 @@
         <v>29</v>
       </c>
       <c r="O48">
-        <v>-9.264559999999999</v>
+        <v>-13.7059</v>
       </c>
       <c r="P48">
-        <v>-1.23498</v>
+        <v>-1.82039</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -3760,10 +3764,10 @@
         <v>29</v>
       </c>
       <c r="O49">
-        <v>-9.884219999999999</v>
+        <v>-14.5328</v>
       </c>
       <c r="P49">
-        <v>-1.31761</v>
+        <v>-1.93741</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -3810,10 +3814,10 @@
         <v>29</v>
       </c>
       <c r="O50">
-        <v>-9.93629</v>
+        <v>-14.4813</v>
       </c>
       <c r="P50">
-        <v>-1.32457</v>
+        <v>-1.93056</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -3860,10 +3864,10 @@
         <v>29</v>
       </c>
       <c r="O51">
-        <v>-10.4525</v>
+        <v>-15.3593</v>
       </c>
       <c r="P51">
-        <v>-1.39338</v>
+        <v>-2.04761</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -3910,10 +3914,10 @@
         <v>29</v>
       </c>
       <c r="O52">
-        <v>-11.0724</v>
+        <v>-16.1339</v>
       </c>
       <c r="P52">
-        <v>-1.47602</v>
+        <v>-2.15089</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -3960,10 +3964,10 @@
         <v>29</v>
       </c>
       <c r="O53">
-        <v>-11.641</v>
+        <v>-16.9082</v>
       </c>
       <c r="P53">
-        <v>-1.55183</v>
+        <v>-2.25414</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -4010,10 +4014,10 @@
         <v>29</v>
       </c>
       <c r="O54">
-        <v>-12.1057</v>
+        <v>-17.5754</v>
       </c>
       <c r="P54">
-        <v>-1.6138</v>
+        <v>-2.34311</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -4060,10 +4064,10 @@
         <v>29</v>
       </c>
       <c r="O55">
-        <v>-12.7257</v>
+        <v>-18.4056</v>
       </c>
       <c r="P55">
-        <v>-1.69645</v>
+        <v>-2.45378</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -4110,10 +4114,10 @@
         <v>29</v>
       </c>
       <c r="O56">
-        <v>-13.1898</v>
+        <v>-19.2322</v>
       </c>
       <c r="P56">
-        <v>-1.75833</v>
+        <v>-2.564</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -4160,10 +4164,10 @@
         <v>29</v>
       </c>
       <c r="O57">
-        <v>-13.7587</v>
+        <v>-20.1094</v>
       </c>
       <c r="P57">
-        <v>-1.8342</v>
+        <v>-2.68096</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -4210,10 +4214,10 @@
         <v>29</v>
       </c>
       <c r="O58">
-        <v>-14.1202</v>
+        <v>-20.3665</v>
       </c>
       <c r="P58">
-        <v>-1.8824</v>
+        <v>-2.71523</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -4260,10 +4264,10 @@
         <v>29</v>
       </c>
       <c r="O59">
-        <v>-14.6368</v>
+        <v>-21.1422</v>
       </c>
       <c r="P59">
-        <v>-1.95128</v>
+        <v>-2.81867</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -4310,10 +4314,10 @@
         <v>29</v>
       </c>
       <c r="O60">
-        <v>-15.2047</v>
+        <v>-22.0204</v>
       </c>
       <c r="P60">
-        <v>-2.02701</v>
+        <v>-2.93575</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -4360,10 +4364,10 @@
         <v>29</v>
       </c>
       <c r="O61">
-        <v>-15.7731</v>
+        <v>-22.9461</v>
       </c>
       <c r="P61">
-        <v>-2.10279</v>
+        <v>-3.0592</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -4410,10 +4414,10 @@
         <v>29</v>
       </c>
       <c r="O62">
-        <v>-16.2898</v>
+        <v>-23.6215</v>
       </c>
       <c r="P62">
-        <v>-2.17168</v>
+        <v>-3.14923</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -4460,10 +4464,10 @@
         <v>29</v>
       </c>
       <c r="O63">
-        <v>-16.806</v>
+        <v>-24.6532</v>
       </c>
       <c r="P63">
-        <v>-2.2405</v>
+        <v>-3.28681</v>
       </c>
     </row>
     <row r="64" spans="1:16">
@@ -4510,10 +4514,10 @@
         <v>29</v>
       </c>
       <c r="O64">
-        <v>-17.3737</v>
+        <v>-25.4282</v>
       </c>
       <c r="P64">
-        <v>-2.31621</v>
+        <v>-3.39013</v>
       </c>
     </row>
     <row r="65" spans="1:16">
@@ -4560,10 +4564,10 @@
         <v>29</v>
       </c>
       <c r="O65">
-        <v>-17.9923</v>
+        <v>-26.3065</v>
       </c>
       <c r="P65">
-        <v>-2.39192</v>
+        <v>-3.50723</v>
       </c>
     </row>
     <row r="66" spans="1:16">
@@ -4609,11 +4613,11 @@
       <c r="N66" t="s">
         <v>165</v>
       </c>
-      <c r="O66">
-        <v>25.6799</v>
+      <c r="O66" s="2">
+        <v>35.4442</v>
       </c>
       <c r="P66">
-        <v>3.11289</v>
+        <v>4.29645</v>
       </c>
     </row>
     <row r="67" spans="1:16">
@@ -4660,10 +4664,10 @@
         <v>165</v>
       </c>
       <c r="O67">
-        <v>24.7787</v>
+        <v>34.2426</v>
       </c>
       <c r="P67">
-        <v>3.00367</v>
+        <v>4.15081</v>
       </c>
     </row>
     <row r="68" spans="1:16">
@@ -4710,10 +4714,10 @@
         <v>165</v>
       </c>
       <c r="O68">
-        <v>23.7763</v>
+        <v>32.8891</v>
       </c>
       <c r="P68">
-        <v>2.88216</v>
+        <v>3.98675</v>
       </c>
     </row>
     <row r="69" spans="1:16">
@@ -4760,10 +4764,10 @@
         <v>165</v>
       </c>
       <c r="O69">
-        <v>22.9242</v>
+        <v>31.7359</v>
       </c>
       <c r="P69">
-        <v>2.77889</v>
+        <v>3.84696</v>
       </c>
     </row>
     <row r="70" spans="1:16">
@@ -4810,10 +4814,10 @@
         <v>165</v>
       </c>
       <c r="O70">
-        <v>22.0745</v>
+        <v>30.9356</v>
       </c>
       <c r="P70">
-        <v>2.68183</v>
+        <v>3.74997</v>
       </c>
     </row>
     <row r="71" spans="1:16">
@@ -4860,10 +4864,10 @@
         <v>165</v>
       </c>
       <c r="O71">
-        <v>21.2726</v>
+        <v>29.8342</v>
       </c>
       <c r="P71">
-        <v>2.57868</v>
+        <v>3.61646</v>
       </c>
     </row>
     <row r="72" spans="1:16">
@@ -4910,10 +4914,10 @@
         <v>165</v>
       </c>
       <c r="O72">
-        <v>20.4217</v>
+        <v>28.7328</v>
       </c>
       <c r="P72">
-        <v>2.47554</v>
+        <v>3.48296</v>
       </c>
     </row>
     <row r="73" spans="1:16">
@@ -4960,10 +4964,10 @@
         <v>165</v>
       </c>
       <c r="O73">
-        <v>19.5702</v>
+        <v>27.5815</v>
       </c>
       <c r="P73">
-        <v>2.37233</v>
+        <v>3.34339</v>
       </c>
     </row>
     <row r="74" spans="1:16">
@@ -5010,10 +5014,10 @@
         <v>165</v>
       </c>
       <c r="O74">
-        <v>19.1194</v>
+        <v>27.4822</v>
       </c>
       <c r="P74">
-        <v>2.3177</v>
+        <v>3.33136</v>
       </c>
     </row>
     <row r="75" spans="1:16">
@@ -5060,10 +5064,10 @@
         <v>165</v>
       </c>
       <c r="O75">
-        <v>18.2681</v>
+        <v>26.3299</v>
       </c>
       <c r="P75">
-        <v>2.21449</v>
+        <v>3.19169</v>
       </c>
     </row>
     <row r="76" spans="1:16">
@@ -5110,10 +5114,10 @@
         <v>165</v>
       </c>
       <c r="O76">
-        <v>17.367</v>
+        <v>25.2283</v>
       </c>
       <c r="P76">
-        <v>2.10528</v>
+        <v>3.05816</v>
       </c>
     </row>
     <row r="77" spans="1:16">
@@ -5160,10 +5164,10 @@
         <v>165</v>
       </c>
       <c r="O77">
-        <v>16.5159</v>
+        <v>24.0765</v>
       </c>
       <c r="P77">
-        <v>2.00212</v>
+        <v>2.91856</v>
       </c>
     </row>
     <row r="78" spans="1:16">
@@ -5210,10 +5214,10 @@
         <v>165</v>
       </c>
       <c r="O78">
-        <v>15.7648</v>
+        <v>23.1755</v>
       </c>
       <c r="P78">
-        <v>1.91107</v>
+        <v>2.80933</v>
       </c>
     </row>
     <row r="79" spans="1:16">
@@ -5260,10 +5264,10 @@
         <v>165</v>
       </c>
       <c r="O79">
-        <v>14.9134</v>
+        <v>21.9743</v>
       </c>
       <c r="P79">
-        <v>1.80788</v>
+        <v>2.66373</v>
       </c>
     </row>
     <row r="80" spans="1:16">
@@ -5310,10 +5314,10 @@
         <v>165</v>
       </c>
       <c r="O80">
-        <v>14.0624</v>
+        <v>20.9219</v>
       </c>
       <c r="P80">
-        <v>1.70471</v>
+        <v>2.53617</v>
       </c>
     </row>
     <row r="81" spans="1:16">
@@ -5360,10 +5364,10 @@
         <v>165</v>
       </c>
       <c r="O81">
-        <v>13.211</v>
+        <v>19.7704</v>
       </c>
       <c r="P81">
-        <v>1.60152</v>
+        <v>2.3966</v>
       </c>
     </row>
     <row r="82" spans="1:16">
@@ -5410,10 +5414,10 @@
         <v>165</v>
       </c>
       <c r="O82">
-        <v>13.2108</v>
+        <v>19.7203</v>
       </c>
       <c r="P82">
-        <v>1.6015</v>
+        <v>2.39054</v>
       </c>
     </row>
     <row r="83" spans="1:16">
@@ -5460,10 +5464,10 @@
         <v>165</v>
       </c>
       <c r="O83">
-        <v>12.1594</v>
+        <v>18.3784</v>
       </c>
       <c r="P83">
-        <v>1.47405</v>
+        <v>2.2327</v>
       </c>
     </row>
     <row r="84" spans="1:16">
@@ -5510,10 +5514,10 @@
         <v>165</v>
       </c>
       <c r="O84">
-        <v>11.1588</v>
+        <v>16.9665</v>
       </c>
       <c r="P84">
-        <v>1.35276</v>
+        <v>2.05673</v>
       </c>
     </row>
     <row r="85" spans="1:16">
@@ -5560,10 +5564,10 @@
         <v>165</v>
       </c>
       <c r="O85">
-        <v>10.2065</v>
+        <v>15.5644</v>
       </c>
       <c r="P85">
-        <v>1.23734</v>
+        <v>1.88678</v>
       </c>
     </row>
     <row r="86" spans="1:16">
@@ -5610,10 +5614,10 @@
         <v>165</v>
       </c>
       <c r="O86">
-        <v>9.205640000000001</v>
+        <v>14.1632</v>
       </c>
       <c r="P86">
-        <v>1.11603</v>
+        <v>1.71693</v>
       </c>
     </row>
     <row r="87" spans="1:16">
@@ -5660,10 +5664,10 @@
         <v>165</v>
       </c>
       <c r="O87">
-        <v>8.353870000000001</v>
+        <v>12.7605</v>
       </c>
       <c r="P87">
-        <v>1.01278</v>
+        <v>1.54691</v>
       </c>
     </row>
     <row r="88" spans="1:16">
@@ -5710,10 +5714,10 @@
         <v>165</v>
       </c>
       <c r="O88">
-        <v>7.50257</v>
+        <v>11.2581</v>
       </c>
       <c r="P88">
-        <v>0.909583</v>
+        <v>1.3648</v>
       </c>
     </row>
     <row r="89" spans="1:16">
@@ -5760,10 +5764,10 @@
         <v>165</v>
       </c>
       <c r="O89">
-        <v>6.55187</v>
+        <v>9.80597</v>
       </c>
       <c r="P89">
-        <v>0.794355</v>
+        <v>1.1888</v>
       </c>
     </row>
     <row r="90" spans="1:16">
@@ -5810,10 +5814,10 @@
         <v>165</v>
       </c>
       <c r="O90">
-        <v>5.90077</v>
+        <v>8.65443</v>
       </c>
       <c r="P90">
-        <v>0.715434</v>
+        <v>1.04921</v>
       </c>
     </row>
     <row r="91" spans="1:16">
@@ -5860,10 +5864,10 @@
         <v>165</v>
       </c>
       <c r="O91">
-        <v>5.04989</v>
+        <v>7.3746</v>
       </c>
       <c r="P91">
-        <v>0.612296</v>
+        <v>0.894073</v>
       </c>
     </row>
     <row r="92" spans="1:16">
@@ -5910,10 +5914,10 @@
         <v>165</v>
       </c>
       <c r="O92">
-        <v>4.20029</v>
+        <v>6.15196</v>
       </c>
       <c r="P92">
-        <v>0.509313</v>
+        <v>0.745873</v>
       </c>
     </row>
     <row r="93" spans="1:16">
@@ -5960,10 +5964,10 @@
         <v>165</v>
       </c>
       <c r="O93">
-        <v>3.39779</v>
+        <v>4.99993</v>
       </c>
       <c r="P93">
-        <v>0.412039</v>
+        <v>0.606247</v>
       </c>
     </row>
     <row r="94" spans="1:16">
@@ -6010,10 +6014,10 @@
         <v>165</v>
       </c>
       <c r="O94">
-        <v>2.5484</v>
+        <v>3.74869</v>
       </c>
       <c r="P94">
-        <v>0.309075</v>
+        <v>0.454573</v>
       </c>
     </row>
     <row r="95" spans="1:16">
@@ -6060,10 +6064,10 @@
         <v>165</v>
       </c>
       <c r="O95">
-        <v>1.64685</v>
+        <v>2.44719</v>
       </c>
       <c r="P95">
-        <v>0.199806</v>
+        <v>0.296813</v>
       </c>
     </row>
     <row r="96" spans="1:16">
@@ -6110,10 +6114,10 @@
         <v>165</v>
       </c>
       <c r="O96">
-        <v>0.845351</v>
+        <v>1.24598</v>
       </c>
       <c r="P96">
-        <v>0.102656</v>
+        <v>0.151213</v>
       </c>
     </row>
     <row r="97" spans="1:16">
@@ -6160,10 +6164,10 @@
         <v>165</v>
       </c>
       <c r="O97">
-        <v>-0.0549673</v>
+        <v>0.09481729999999999</v>
       </c>
       <c r="P97">
-        <v>-0.00647658</v>
+        <v>0.0116742</v>
       </c>
     </row>
     <row r="98" spans="1:16">
@@ -6210,10 +6214,10 @@
         <v>165</v>
       </c>
       <c r="O98">
-        <v>0.0449253</v>
+        <v>0.0448687</v>
       </c>
       <c r="P98">
-        <v>0.00563302</v>
+        <v>0.00562608</v>
       </c>
     </row>
     <row r="99" spans="1:16">
@@ -6260,10 +6264,10 @@
         <v>165</v>
       </c>
       <c r="O99">
-        <v>-0.806097</v>
+        <v>-1.20661</v>
       </c>
       <c r="P99">
-        <v>-0.09751269999999999</v>
+        <v>-0.146064</v>
       </c>
     </row>
     <row r="100" spans="1:16">
@@ -6310,10 +6314,10 @@
         <v>165</v>
       </c>
       <c r="O100">
-        <v>-1.75376</v>
+        <v>-2.50783</v>
       </c>
       <c r="P100">
-        <v>-0.212402</v>
+        <v>-0.303794</v>
       </c>
     </row>
     <row r="101" spans="1:16">
@@ -6360,10 +6364,10 @@
         <v>165</v>
       </c>
       <c r="O101">
-        <v>-2.50792</v>
+        <v>-3.75781</v>
       </c>
       <c r="P101">
-        <v>-0.303808</v>
+        <v>-0.455309</v>
       </c>
     </row>
     <row r="102" spans="1:16">
@@ -6410,10 +6414,10 @@
         <v>165</v>
       </c>
       <c r="O102">
-        <v>-3.3587</v>
+        <v>-4.86004</v>
       </c>
       <c r="P102">
-        <v>-0.406928</v>
+        <v>-0.588908</v>
       </c>
     </row>
     <row r="103" spans="1:16">
@@ -6460,10 +6464,10 @@
         <v>165</v>
       </c>
       <c r="O103">
-        <v>-4.20889</v>
+        <v>-6.16043</v>
       </c>
       <c r="P103">
-        <v>-0.509979</v>
+        <v>-0.746534</v>
       </c>
     </row>
     <row r="104" spans="1:16">
@@ -6510,10 +6514,10 @@
         <v>165</v>
       </c>
       <c r="O104">
-        <v>-4.95935</v>
+        <v>-7.41253</v>
       </c>
       <c r="P104">
-        <v>-0.600946</v>
+        <v>-0.898296</v>
       </c>
     </row>
     <row r="105" spans="1:16">
@@ -6560,10 +6564,10 @@
         <v>165</v>
       </c>
       <c r="O105">
-        <v>-5.81051</v>
+        <v>-8.714119999999999</v>
       </c>
       <c r="P105">
-        <v>-0.704115</v>
+        <v>-1.05607</v>
       </c>
     </row>
     <row r="106" spans="1:16">
@@ -6610,10 +6614,10 @@
         <v>165</v>
       </c>
       <c r="O106">
-        <v>-6.56152</v>
+        <v>-9.815379999999999</v>
       </c>
       <c r="P106">
-        <v>-0.7951510000000001</v>
+        <v>-1.18956</v>
       </c>
     </row>
     <row r="107" spans="1:16">
@@ -6660,10 +6664,10 @@
         <v>165</v>
       </c>
       <c r="O107">
-        <v>-7.51267</v>
+        <v>-11.3165</v>
       </c>
       <c r="P107">
-        <v>-0.910435</v>
+        <v>-1.37151</v>
       </c>
     </row>
     <row r="108" spans="1:16">
@@ -6710,10 +6714,10 @@
         <v>165</v>
       </c>
       <c r="O108">
-        <v>-8.363799999999999</v>
+        <v>-12.6681</v>
       </c>
       <c r="P108">
-        <v>-1.01361</v>
+        <v>-1.53534</v>
       </c>
     </row>
     <row r="109" spans="1:16">
@@ -6760,10 +6764,10 @@
         <v>165</v>
       </c>
       <c r="O109">
-        <v>-9.21461</v>
+        <v>-14.1198</v>
       </c>
       <c r="P109">
-        <v>-1.11674</v>
+        <v>-1.71132</v>
       </c>
     </row>
     <row r="110" spans="1:16">
@@ -6810,10 +6814,10 @@
         <v>165</v>
       </c>
       <c r="O110">
-        <v>-10.2153</v>
+        <v>-15.5713</v>
       </c>
       <c r="P110">
-        <v>-1.23803</v>
+        <v>-1.88725</v>
       </c>
     </row>
     <row r="111" spans="1:16">
@@ -6860,10 +6864,10 @@
         <v>165</v>
       </c>
       <c r="O111">
-        <v>-11.1665</v>
+        <v>-17.0231</v>
       </c>
       <c r="P111">
-        <v>-1.35333</v>
+        <v>-2.06322</v>
       </c>
     </row>
     <row r="112" spans="1:16">
@@ -6910,10 +6914,10 @@
         <v>165</v>
       </c>
       <c r="O112">
-        <v>-12.118</v>
+        <v>-18.4737</v>
       </c>
       <c r="P112">
-        <v>-1.46867</v>
+        <v>-2.23905</v>
       </c>
     </row>
     <row r="113" spans="1:16">
@@ -6960,10 +6964,10 @@
         <v>165</v>
       </c>
       <c r="O113">
-        <v>-13.1188</v>
+        <v>-19.7759</v>
       </c>
       <c r="P113">
-        <v>-1.58996</v>
+        <v>-2.39689</v>
       </c>
     </row>
     <row r="114" spans="1:16">
@@ -7010,10 +7014,10 @@
         <v>165</v>
       </c>
       <c r="O114">
-        <v>-13.1679</v>
+        <v>-19.726</v>
       </c>
       <c r="P114">
-        <v>-1.59593</v>
+        <v>-2.39084</v>
       </c>
     </row>
     <row r="115" spans="1:16">
@@ -7060,10 +7064,10 @@
         <v>165</v>
       </c>
       <c r="O115">
-        <v>-13.9695</v>
+        <v>-20.9272</v>
       </c>
       <c r="P115">
-        <v>-1.69309</v>
+        <v>-2.53644</v>
       </c>
     </row>
     <row r="116" spans="1:16">
@@ -7110,10 +7114,10 @@
         <v>165</v>
       </c>
       <c r="O116">
-        <v>-14.9206</v>
+        <v>-22.1283</v>
       </c>
       <c r="P116">
-        <v>-1.80837</v>
+        <v>-2.68202</v>
       </c>
     </row>
     <row r="117" spans="1:16">
@@ -7160,10 +7164,10 @@
         <v>165</v>
       </c>
       <c r="O117">
-        <v>-15.7719</v>
+        <v>-23.28</v>
       </c>
       <c r="P117">
-        <v>-1.91155</v>
+        <v>-2.82164</v>
       </c>
     </row>
     <row r="118" spans="1:16">
@@ -7210,10 +7214,10 @@
         <v>165</v>
       </c>
       <c r="O118">
-        <v>-16.5721</v>
+        <v>-24.1312</v>
       </c>
       <c r="P118">
-        <v>-2.00856</v>
+        <v>-2.92481</v>
       </c>
     </row>
     <row r="119" spans="1:16">
@@ -7260,10 +7264,10 @@
         <v>165</v>
       </c>
       <c r="O119">
-        <v>-17.4733</v>
+        <v>-25.332</v>
       </c>
       <c r="P119">
-        <v>-2.11779</v>
+        <v>-3.07035</v>
       </c>
     </row>
     <row r="120" spans="1:16">
@@ -7310,10 +7314,10 @@
         <v>165</v>
       </c>
       <c r="O120">
-        <v>-18.3246</v>
+        <v>-26.4327</v>
       </c>
       <c r="P120">
-        <v>-2.22098</v>
+        <v>-3.2038</v>
       </c>
     </row>
     <row r="121" spans="1:16">
@@ -7360,10 +7364,10 @@
         <v>165</v>
       </c>
       <c r="O121">
-        <v>-19.2253</v>
+        <v>-27.5835</v>
       </c>
       <c r="P121">
-        <v>-2.33015</v>
+        <v>-3.34328</v>
       </c>
     </row>
     <row r="122" spans="1:16">
@@ -7410,10 +7414,10 @@
         <v>165</v>
       </c>
       <c r="O122">
-        <v>-19.6255</v>
+        <v>-27.6834</v>
       </c>
       <c r="P122">
-        <v>-2.37867</v>
+        <v>-3.35537</v>
       </c>
     </row>
     <row r="123" spans="1:16">
@@ -7460,10 +7464,10 @@
         <v>165</v>
       </c>
       <c r="O123">
-        <v>-20.5768</v>
+        <v>-28.834</v>
       </c>
       <c r="P123">
-        <v>-2.49397</v>
+        <v>-3.49484</v>
       </c>
     </row>
     <row r="124" spans="1:16">
@@ -7510,10 +7514,10 @@
         <v>165</v>
       </c>
       <c r="O124">
-        <v>-21.3781</v>
+        <v>-29.9348</v>
       </c>
       <c r="P124">
-        <v>-2.5911</v>
+        <v>-3.62826</v>
       </c>
     </row>
     <row r="125" spans="1:16">
@@ -7560,10 +7564,10 @@
         <v>165</v>
       </c>
       <c r="O125">
-        <v>-22.2292</v>
+        <v>-31.1853</v>
       </c>
       <c r="P125">
-        <v>-2.69426</v>
+        <v>-3.77986</v>
       </c>
     </row>
     <row r="126" spans="1:16">
@@ -7610,10 +7614,10 @@
         <v>165</v>
       </c>
       <c r="O126">
-        <v>-23.0298</v>
+        <v>-32.036</v>
       </c>
       <c r="P126">
-        <v>-2.79131</v>
+        <v>-3.88295</v>
       </c>
     </row>
     <row r="127" spans="1:16">
@@ -7660,10 +7664,10 @@
         <v>165</v>
       </c>
       <c r="O127">
-        <v>-23.931</v>
+        <v>-33.2366</v>
       </c>
       <c r="P127">
-        <v>-2.90055</v>
+        <v>-4.02849</v>
       </c>
     </row>
     <row r="128" spans="1:16">
@@ -7710,10 +7714,10 @@
         <v>165</v>
       </c>
       <c r="O128">
-        <v>-24.8316</v>
+        <v>-34.2373</v>
       </c>
       <c r="P128">
-        <v>-3.0097</v>
+        <v>-4.14978</v>
       </c>
     </row>
     <row r="129" spans="1:16">
@@ -7759,11 +7763,11 @@
       <c r="N129" t="s">
         <v>165</v>
       </c>
-      <c r="O129">
-        <v>-25.7823</v>
+      <c r="O129" s="3">
+        <v>-35.5865</v>
       </c>
       <c r="P129">
-        <v>-3.12494</v>
+        <v>-4.30139</v>
       </c>
     </row>
     <row r="130" spans="1:16">
@@ -7810,10 +7814,10 @@
         <v>239</v>
       </c>
       <c r="O130">
-        <v>14.2653</v>
+        <v>20.6219</v>
       </c>
       <c r="P130">
-        <v>2.12147</v>
+        <v>3.0557</v>
       </c>
     </row>
     <row r="131" spans="1:16">
@@ -7860,10 +7864,10 @@
         <v>239</v>
       </c>
       <c r="O131">
-        <v>13.9025</v>
+        <v>19.9576</v>
       </c>
       <c r="P131">
-        <v>2.06022</v>
+        <v>2.95724</v>
       </c>
     </row>
     <row r="132" spans="1:16">
@@ -7910,10 +7914,10 @@
         <v>239</v>
       </c>
       <c r="O132">
-        <v>13.5382</v>
+        <v>19.3774</v>
       </c>
       <c r="P132">
-        <v>2.00629</v>
+        <v>2.87135</v>
       </c>
     </row>
     <row r="133" spans="1:16">
@@ -7960,10 +7964,10 @@
         <v>239</v>
       </c>
       <c r="O133">
-        <v>13.1754</v>
+        <v>18.8244</v>
       </c>
       <c r="P133">
-        <v>1.95252</v>
+        <v>2.7895</v>
       </c>
     </row>
     <row r="134" spans="1:16">
@@ -8010,10 +8014,10 @@
         <v>239</v>
       </c>
       <c r="O134">
-        <v>12.7632</v>
+        <v>18.3958</v>
       </c>
       <c r="P134">
-        <v>1.89147</v>
+        <v>2.72592</v>
       </c>
     </row>
     <row r="135" spans="1:16">
@@ -8060,10 +8064,10 @@
         <v>239</v>
       </c>
       <c r="O135">
-        <v>12.3047</v>
+        <v>17.9309</v>
       </c>
       <c r="P135">
-        <v>1.8235</v>
+        <v>2.65704</v>
       </c>
     </row>
     <row r="136" spans="1:16">
@@ -8110,10 +8114,10 @@
         <v>239</v>
       </c>
       <c r="O136">
-        <v>11.9361</v>
+        <v>17.3113</v>
       </c>
       <c r="P136">
-        <v>1.76892</v>
+        <v>2.56528</v>
       </c>
     </row>
     <row r="137" spans="1:16">
@@ -8160,10 +8164,10 @@
         <v>239</v>
       </c>
       <c r="O137">
-        <v>11.4718</v>
+        <v>16.7947</v>
       </c>
       <c r="P137">
-        <v>1.70014</v>
+        <v>2.48871</v>
       </c>
     </row>
     <row r="138" spans="1:16">
@@ -8210,10 +8214,10 @@
         <v>239</v>
       </c>
       <c r="O138">
-        <v>11.3229</v>
+        <v>16.7943</v>
       </c>
       <c r="P138">
-        <v>1.67802</v>
+        <v>2.48874</v>
       </c>
     </row>
     <row r="139" spans="1:16">
@@ -8260,10 +8264,10 @@
         <v>239</v>
       </c>
       <c r="O139">
-        <v>10.801</v>
+        <v>16.2272</v>
       </c>
       <c r="P139">
-        <v>1.60077</v>
+        <v>2.40464</v>
       </c>
     </row>
     <row r="140" spans="1:16">
@@ -8309,16 +8313,16 @@
       <c r="N140" t="s">
         <v>239</v>
       </c>
-      <c r="O140" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="P140" s="2" t="s">
-        <v>250</v>
+      <c r="O140">
+        <v>15.6581</v>
+      </c>
+      <c r="P140">
+        <v>2.32037</v>
       </c>
     </row>
     <row r="141" spans="1:16">
       <c r="A141" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B141" t="s">
         <v>230</v>
@@ -8360,15 +8364,15 @@
         <v>239</v>
       </c>
       <c r="O141">
-        <v>9.97231</v>
+        <v>15.1415</v>
       </c>
       <c r="P141">
-        <v>1.47802</v>
+        <v>2.24381</v>
       </c>
     </row>
     <row r="142" spans="1:16">
       <c r="A142" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B142" t="s">
         <v>230</v>
@@ -8410,15 +8414,15 @@
         <v>239</v>
       </c>
       <c r="O142">
-        <v>9.55968</v>
+        <v>14.8319</v>
       </c>
       <c r="P142">
-        <v>1.4169</v>
+        <v>2.19794</v>
       </c>
     </row>
     <row r="143" spans="1:16">
       <c r="A143" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B143" t="s">
         <v>230</v>
@@ -8460,15 +8464,15 @@
         <v>239</v>
       </c>
       <c r="O143">
-        <v>9.04992</v>
+        <v>14.1153</v>
       </c>
       <c r="P143">
-        <v>1.34128</v>
+        <v>2.09172</v>
       </c>
     </row>
     <row r="144" spans="1:16">
       <c r="A144" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B144" t="s">
         <v>230</v>
@@ -8510,15 +8514,15 @@
         <v>239</v>
       </c>
       <c r="O144">
-        <v>8.681039999999999</v>
+        <v>13.643</v>
       </c>
       <c r="P144">
-        <v>1.28669</v>
+        <v>2.0294</v>
       </c>
     </row>
     <row r="145" spans="1:16">
       <c r="A145" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B145" t="s">
         <v>230</v>
@@ -8560,15 +8564,15 @@
         <v>239</v>
       </c>
       <c r="O145">
-        <v>8.113060000000001</v>
+        <v>12.9783</v>
       </c>
       <c r="P145">
-        <v>1.20257</v>
+        <v>1.92337</v>
       </c>
     </row>
     <row r="146" spans="1:16">
       <c r="A146" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B146" t="s">
         <v>230</v>
@@ -8610,15 +8614,15 @@
         <v>239</v>
       </c>
       <c r="O146">
-        <v>8.113239999999999</v>
+        <v>13.0746</v>
       </c>
       <c r="P146">
-        <v>1.20258</v>
+        <v>1.9376</v>
       </c>
     </row>
     <row r="147" spans="1:16">
       <c r="A147" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B147" t="s">
         <v>230</v>
@@ -8660,15 +8664,15 @@
         <v>239</v>
       </c>
       <c r="O147">
-        <v>7.54419</v>
+        <v>12.1453</v>
       </c>
       <c r="P147">
-        <v>1.11828</v>
+        <v>1.79992</v>
       </c>
     </row>
     <row r="148" spans="1:16">
       <c r="A148" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B148" t="s">
         <v>230</v>
@@ -8710,15 +8714,15 @@
         <v>239</v>
       </c>
       <c r="O148">
-        <v>6.87943</v>
+        <v>11.2671</v>
       </c>
       <c r="P148">
-        <v>1.01973</v>
+        <v>1.66984</v>
       </c>
     </row>
     <row r="149" spans="1:16">
       <c r="A149" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B149" t="s">
         <v>230</v>
@@ -8760,15 +8764,15 @@
         <v>239</v>
       </c>
       <c r="O149">
-        <v>6.35656</v>
+        <v>10.3356</v>
       </c>
       <c r="P149">
-        <v>0.9498220000000001</v>
+        <v>1.53185</v>
       </c>
     </row>
     <row r="150" spans="1:16">
       <c r="A150" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B150" t="s">
         <v>230</v>
@@ -8810,15 +8814,15 @@
         <v>239</v>
       </c>
       <c r="O150">
-        <v>5.73496</v>
+        <v>9.45632</v>
       </c>
       <c r="P150">
-        <v>0.850243</v>
+        <v>1.40154</v>
       </c>
     </row>
     <row r="151" spans="1:16">
       <c r="A151" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B151" t="s">
         <v>230</v>
@@ -8860,15 +8864,15 @@
         <v>239</v>
       </c>
       <c r="O151">
-        <v>5.16741</v>
+        <v>8.526630000000001</v>
       </c>
       <c r="P151">
-        <v>0.773657</v>
+        <v>1.26383</v>
       </c>
     </row>
     <row r="152" spans="1:16">
       <c r="A152" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B152" t="s">
         <v>230</v>
@@ -8910,15 +8914,15 @@
         <v>239</v>
       </c>
       <c r="O152">
-        <v>4.65207</v>
+        <v>7.59586</v>
       </c>
       <c r="P152">
-        <v>0.697087</v>
+        <v>1.12594</v>
       </c>
     </row>
     <row r="153" spans="1:16">
       <c r="A153" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B153" t="s">
         <v>230</v>
@@ -8960,15 +8964,15 @@
         <v>239</v>
       </c>
       <c r="O153">
-        <v>4.18442</v>
+        <v>6.51352</v>
       </c>
       <c r="P153">
-        <v>0.620522</v>
+        <v>0.972782</v>
       </c>
     </row>
     <row r="154" spans="1:16">
       <c r="A154" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B154" t="s">
         <v>230</v>
@@ -9010,15 +9014,15 @@
         <v>239</v>
       </c>
       <c r="O154">
-        <v>3.71881</v>
+        <v>6.09678</v>
       </c>
       <c r="P154">
-        <v>0.551546</v>
+        <v>0.90384</v>
       </c>
     </row>
     <row r="155" spans="1:16">
       <c r="A155" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B155" t="s">
         <v>230</v>
@@ -9060,15 +9064,15 @@
         <v>239</v>
       </c>
       <c r="O155">
-        <v>3.15121</v>
+        <v>5.11454</v>
       </c>
       <c r="P155">
-        <v>0.46746</v>
+        <v>0.758338</v>
       </c>
     </row>
     <row r="156" spans="1:16">
       <c r="A156" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B156" t="s">
         <v>230</v>
@@ -9110,15 +9114,15 @@
         <v>239</v>
       </c>
       <c r="O156">
-        <v>2.68623</v>
+        <v>4.23731</v>
       </c>
       <c r="P156">
-        <v>0.398575</v>
+        <v>0.628367</v>
       </c>
     </row>
     <row r="157" spans="1:16">
       <c r="A157" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B157" t="s">
         <v>230</v>
@@ -9160,15 +9164,15 @@
         <v>239</v>
       </c>
       <c r="O157">
-        <v>2.16976</v>
+        <v>3.46065</v>
       </c>
       <c r="P157">
-        <v>0.322076</v>
+        <v>0.513325</v>
       </c>
     </row>
     <row r="158" spans="1:16">
       <c r="A158" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B158" t="s">
         <v>230</v>
@@ -9210,15 +9214,15 @@
         <v>239</v>
       </c>
       <c r="O158">
-        <v>1.70342</v>
+        <v>2.63454</v>
       </c>
       <c r="P158">
-        <v>0.252993</v>
+        <v>0.390916</v>
       </c>
     </row>
     <row r="159" spans="1:16">
       <c r="A159" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B159" t="s">
         <v>230</v>
@@ -9260,15 +9264,15 @@
         <v>239</v>
       </c>
       <c r="O159">
-        <v>1.13568</v>
+        <v>1.75589</v>
       </c>
       <c r="P159">
-        <v>0.168885</v>
+        <v>0.260741</v>
       </c>
     </row>
     <row r="160" spans="1:16">
       <c r="A160" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B160" t="s">
         <v>230</v>
@@ -9310,15 +9314,15 @@
         <v>239</v>
       </c>
       <c r="O160">
-        <v>0.618377</v>
+        <v>0.928901</v>
       </c>
       <c r="P160">
-        <v>0.0922506</v>
+        <v>0.138227</v>
       </c>
     </row>
     <row r="161" spans="1:16">
       <c r="A161" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B161" t="s">
         <v>230</v>
@@ -9360,15 +9364,15 @@
         <v>239</v>
       </c>
       <c r="O161">
-        <v>0.101546</v>
+        <v>0.101514</v>
       </c>
       <c r="P161">
-        <v>0.0156398</v>
+        <v>0.0156359</v>
       </c>
     </row>
     <row r="162" spans="1:16">
       <c r="A162" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B162" t="s">
         <v>230</v>
@@ -9410,15 +9414,15 @@
         <v>239</v>
       </c>
       <c r="O162">
-        <v>0.101923</v>
+        <v>0.102039</v>
       </c>
       <c r="P162">
-        <v>0.0232642</v>
+        <v>0.0157283</v>
       </c>
     </row>
     <row r="163" spans="1:16">
       <c r="A163" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B163" t="s">
         <v>230</v>
@@ -9460,15 +9464,15 @@
         <v>239</v>
       </c>
       <c r="O163">
-        <v>-0.363632</v>
+        <v>-0.724846</v>
       </c>
       <c r="P163">
-        <v>-0.053256</v>
+        <v>-0.106777</v>
       </c>
     </row>
     <row r="164" spans="1:16">
       <c r="A164" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B164" t="s">
         <v>230</v>
@@ -9510,15 +9514,15 @@
         <v>239</v>
       </c>
       <c r="O164">
-        <v>-0.880418</v>
+        <v>-1.60381</v>
       </c>
       <c r="P164">
-        <v>-0.129827</v>
+        <v>-0.236983</v>
       </c>
     </row>
     <row r="165" spans="1:16">
       <c r="A165" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B165" t="s">
         <v>230</v>
@@ -9560,15 +9564,15 @@
         <v>239</v>
       </c>
       <c r="O165">
-        <v>-1.44837</v>
+        <v>-2.43049</v>
       </c>
       <c r="P165">
-        <v>-0.213931</v>
+        <v>-0.359477</v>
       </c>
     </row>
     <row r="166" spans="1:16">
       <c r="A166" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B166" t="s">
         <v>230</v>
@@ -9610,15 +9614,15 @@
         <v>239</v>
       </c>
       <c r="O166">
-        <v>-2.00707</v>
+        <v>-3.20519</v>
       </c>
       <c r="P166">
-        <v>-0.296769</v>
+        <v>-0.474195</v>
       </c>
     </row>
     <row r="167" spans="1:16">
       <c r="A167" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B167" t="s">
         <v>230</v>
@@ -9660,15 +9664,15 @@
         <v>239</v>
       </c>
       <c r="O167">
-        <v>-2.48226</v>
+        <v>-4.03172</v>
       </c>
       <c r="P167">
-        <v>-0.367124</v>
+        <v>-0.596669</v>
       </c>
     </row>
     <row r="168" spans="1:16">
       <c r="A168" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B168" t="s">
         <v>230</v>
@@ -9710,15 +9714,15 @@
         <v>239</v>
       </c>
       <c r="O168">
-        <v>-2.94712</v>
+        <v>-4.96303</v>
       </c>
       <c r="P168">
-        <v>-0.435973</v>
+        <v>-0.734639</v>
       </c>
     </row>
     <row r="169" spans="1:16">
       <c r="A169" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B169" t="s">
         <v>230</v>
@@ -9760,15 +9764,15 @@
         <v>239</v>
       </c>
       <c r="O169">
-        <v>-3.4638</v>
+        <v>-5.89204</v>
       </c>
       <c r="P169">
-        <v>-0.512535</v>
+        <v>-0.872245</v>
       </c>
     </row>
     <row r="170" spans="1:16">
       <c r="A170" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B170" t="s">
         <v>230</v>
@@ -9810,15 +9814,15 @@
         <v>239</v>
       </c>
       <c r="O170">
-        <v>-3.97967</v>
+        <v>-6.50987</v>
       </c>
       <c r="P170">
-        <v>-0.588957</v>
+        <v>-0.963826</v>
       </c>
     </row>
     <row r="171" spans="1:16">
       <c r="A171" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B171" t="s">
         <v>230</v>
@@ -9860,15 +9864,15 @@
         <v>239</v>
       </c>
       <c r="O171">
-        <v>-4.44602</v>
+        <v>-7.2812</v>
       </c>
       <c r="P171">
-        <v>-0.658016</v>
+        <v>-1.07811</v>
       </c>
     </row>
     <row r="172" spans="1:16">
       <c r="A172" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B172" t="s">
         <v>230</v>
@@ -9909,16 +9913,16 @@
       <c r="N172" t="s">
         <v>239</v>
       </c>
-      <c r="O172" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="P172" s="2" t="s">
-        <v>250</v>
+      <c r="O172">
+        <v>-8.06231</v>
+      </c>
+      <c r="P172">
+        <v>-1.19379</v>
       </c>
     </row>
     <row r="173" spans="1:16">
       <c r="A173" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B173" t="s">
         <v>230</v>
@@ -9960,15 +9964,15 @@
         <v>239</v>
       </c>
       <c r="O173">
-        <v>-5.58242</v>
+        <v>-8.94088</v>
       </c>
       <c r="P173">
-        <v>-0.826412</v>
+        <v>-1.32395</v>
       </c>
     </row>
     <row r="174" spans="1:16">
       <c r="A174" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B174" t="s">
         <v>230</v>
@@ -10010,15 +10014,15 @@
         <v>239</v>
       </c>
       <c r="O174">
-        <v>-6.20197</v>
+        <v>-9.664070000000001</v>
       </c>
       <c r="P174">
-        <v>-0.910653</v>
+        <v>-1.43112</v>
       </c>
     </row>
     <row r="175" spans="1:16">
       <c r="A175" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B175" t="s">
         <v>230</v>
@@ -10060,15 +10064,15 @@
         <v>239</v>
       </c>
       <c r="O175">
-        <v>-6.71889</v>
+        <v>-10.4295</v>
       </c>
       <c r="P175">
-        <v>-0.994772</v>
+        <v>-1.54448</v>
       </c>
     </row>
     <row r="176" spans="1:16">
       <c r="A176" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B176" t="s">
         <v>230</v>
@@ -10110,15 +10114,15 @@
         <v>239</v>
       </c>
       <c r="O176">
-        <v>-7.23613</v>
+        <v>-11.3085</v>
       </c>
       <c r="P176">
-        <v>-1.07142</v>
+        <v>-1.67478</v>
       </c>
     </row>
     <row r="177" spans="1:16">
       <c r="A177" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B177" t="s">
         <v>230</v>
@@ -10160,15 +10164,15 @@
         <v>239</v>
       </c>
       <c r="O177">
-        <v>-7.70093</v>
+        <v>-12.0324</v>
       </c>
       <c r="P177">
-        <v>-1.14026</v>
+        <v>-1.78196</v>
       </c>
     </row>
     <row r="178" spans="1:16">
       <c r="A178" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B178" t="s">
         <v>230</v>
@@ -10210,15 +10214,15 @@
         <v>239</v>
       </c>
       <c r="O178">
-        <v>-7.85006</v>
+        <v>-11.9894</v>
       </c>
       <c r="P178">
-        <v>-1.16243</v>
+        <v>-1.77556</v>
       </c>
     </row>
     <row r="179" spans="1:16">
       <c r="A179" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B179" t="s">
         <v>230</v>
@@ -10260,15 +10264,15 @@
         <v>239</v>
       </c>
       <c r="O179">
-        <v>-8.114750000000001</v>
+        <v>-12.61</v>
       </c>
       <c r="P179">
-        <v>-1.20158</v>
+        <v>-1.86754</v>
       </c>
     </row>
     <row r="180" spans="1:16">
       <c r="A180" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B180" t="s">
         <v>230</v>
@@ -10310,15 +10314,15 @@
         <v>239</v>
       </c>
       <c r="O180">
-        <v>-8.476229999999999</v>
+        <v>-13.1786</v>
       </c>
       <c r="P180">
-        <v>-1.2551</v>
+        <v>-1.95178</v>
       </c>
     </row>
     <row r="181" spans="1:16">
       <c r="A181" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B181" t="s">
         <v>230</v>
@@ -10360,15 +10364,15 @@
         <v>239</v>
       </c>
       <c r="O181">
-        <v>-8.88907</v>
+        <v>-13.6878</v>
       </c>
       <c r="P181">
-        <v>-1.31628</v>
+        <v>-2.02726</v>
       </c>
     </row>
     <row r="182" spans="1:16">
       <c r="A182" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B182" t="s">
         <v>230</v>
@@ -10410,15 +10414,15 @@
         <v>239</v>
       </c>
       <c r="O182">
-        <v>-9.30307</v>
+        <v>-14.2116</v>
       </c>
       <c r="P182">
-        <v>-1.37762</v>
+        <v>-2.10483</v>
       </c>
     </row>
     <row r="183" spans="1:16">
       <c r="A183" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B183" t="s">
         <v>230</v>
@@ -10460,15 +10464,15 @@
         <v>239</v>
       </c>
       <c r="O183">
-        <v>-9.664529999999999</v>
+        <v>-14.729</v>
       </c>
       <c r="P183">
-        <v>-1.43118</v>
+        <v>-2.18143</v>
       </c>
     </row>
     <row r="184" spans="1:16">
       <c r="A184" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B184" t="s">
         <v>230</v>
@@ -10510,15 +10514,15 @@
         <v>239</v>
       </c>
       <c r="O184">
-        <v>-10.078</v>
+        <v>-15.2458</v>
       </c>
       <c r="P184">
-        <v>-1.49243</v>
+        <v>-2.25802</v>
       </c>
     </row>
     <row r="185" spans="1:16">
       <c r="A185" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B185" t="s">
         <v>230</v>
@@ -10560,15 +10564,15 @@
         <v>239</v>
       </c>
       <c r="O185">
-        <v>-10.4396</v>
+        <v>-15.8661</v>
       </c>
       <c r="P185">
-        <v>-1.53847</v>
+        <v>-2.34992</v>
       </c>
     </row>
     <row r="186" spans="1:16">
       <c r="A186" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B186" t="s">
         <v>230</v>
@@ -10610,15 +10614,15 @@
         <v>239</v>
       </c>
       <c r="O186">
-        <v>-10.6468</v>
+        <v>-15.7631</v>
       </c>
       <c r="P186">
-        <v>-1.5767</v>
+        <v>-2.33466</v>
       </c>
     </row>
     <row r="187" spans="1:16">
       <c r="A187" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B187" t="s">
         <v>230</v>
@@ -10660,15 +10664,15 @@
         <v>239</v>
       </c>
       <c r="O187">
-        <v>-11.0602</v>
+        <v>-16.3824</v>
       </c>
       <c r="P187">
-        <v>-1.63795</v>
+        <v>-2.42641</v>
       </c>
     </row>
     <row r="188" spans="1:16">
       <c r="A188" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B188" t="s">
         <v>230</v>
@@ -10710,15 +10714,15 @@
         <v>239</v>
       </c>
       <c r="O188">
-        <v>-11.4155</v>
+        <v>-17.0482</v>
       </c>
       <c r="P188">
-        <v>-1.69063</v>
+        <v>-2.5251</v>
       </c>
     </row>
     <row r="189" spans="1:16">
       <c r="A189" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B189" t="s">
         <v>230</v>
@@ -10760,15 +10764,15 @@
         <v>239</v>
       </c>
       <c r="O189">
-        <v>-11.8356</v>
+        <v>-17.469</v>
       </c>
       <c r="P189">
-        <v>-1.75282</v>
+        <v>-2.58735</v>
       </c>
     </row>
     <row r="190" spans="1:16">
       <c r="A190" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B190" t="s">
         <v>230</v>
@@ -10810,15 +10814,15 @@
         <v>239</v>
       </c>
       <c r="O190">
-        <v>-12.2495</v>
+        <v>-17.9852</v>
       </c>
       <c r="P190">
-        <v>-1.81409</v>
+        <v>-2.66387</v>
       </c>
     </row>
     <row r="191" spans="1:16">
       <c r="A191" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B191" t="s">
         <v>230</v>
@@ -10860,15 +10864,15 @@
         <v>239</v>
       </c>
       <c r="O191">
-        <v>-12.6623</v>
+        <v>-18.4504</v>
       </c>
       <c r="P191">
-        <v>-1.8753</v>
+        <v>-2.73274</v>
       </c>
     </row>
     <row r="192" spans="1:16">
       <c r="A192" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B192" t="s">
         <v>230</v>
@@ -10910,15 +10914,15 @@
         <v>239</v>
       </c>
       <c r="O192">
-        <v>-13.0249</v>
+        <v>-19.1684</v>
       </c>
       <c r="P192">
-        <v>-1.92903</v>
+        <v>-2.8392</v>
       </c>
     </row>
     <row r="193" spans="1:16">
       <c r="A193" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B193" t="s">
         <v>230</v>
@@ -10960,10 +10964,10 @@
         <v>239</v>
       </c>
       <c r="O193">
-        <v>-13.5408</v>
+        <v>-19.8974</v>
       </c>
       <c r="P193">
-        <v>-2.00543</v>
+        <v>-2.9471</v>
       </c>
     </row>
     <row r="194" spans="1:16" s="1" customFormat="1">
@@ -11018,29 +11022,29 @@
     </row>
     <row r="195" spans="1:16" s="1" customFormat="1">
       <c r="N195" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="O195" s="1">
-        <v>-25.7823</v>
+        <v>303</v>
+      </c>
+      <c r="O195" s="3">
+        <v>-35.5865</v>
       </c>
       <c r="P195" s="1">
-        <v>-3.12494</v>
+        <v>-4.30139</v>
       </c>
     </row>
     <row r="196" spans="1:16" s="1" customFormat="1">
       <c r="N196" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="O196" s="1">
-        <v>25.6799</v>
+        <v>304</v>
+      </c>
+      <c r="O196" s="2">
+        <v>35.4442</v>
       </c>
       <c r="P196" s="1">
-        <v>3.11289</v>
+        <v>4.29645</v>
       </c>
     </row>
     <row r="197" spans="1:16" s="1" customFormat="1">
       <c r="N197" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="O197" s="1">
         <v>35</v>
@@ -11048,7 +11052,7 @@
     </row>
     <row r="198" spans="1:16" s="1" customFormat="1">
       <c r="N198" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="O198" s="1">
         <v>-35</v>
@@ -11056,7 +11060,7 @@
     </row>
     <row r="199" spans="1:16" s="1" customFormat="1">
       <c r="N199" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="O199" s="1">
         <v>35</v>
@@ -11064,7 +11068,7 @@
     </row>
     <row r="200" spans="1:16" s="1" customFormat="1">
       <c r="N200" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="O200" s="1">
         <v>-35</v>
@@ -11072,35 +11076,35 @@
     </row>
     <row r="201" spans="1:16" s="1" customFormat="1">
       <c r="N201" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="O201" s="1">
-        <v>0.06930662999999999</v>
+        <v>0.1389878</v>
       </c>
       <c r="P201" s="1">
-        <v>0.01078982</v>
+        <v>0.02085272</v>
       </c>
     </row>
     <row r="202" spans="1:16" s="1" customFormat="1">
       <c r="N202" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="O202" s="1">
-        <v>11.78096</v>
+        <v>17.0508</v>
       </c>
       <c r="P202" s="1">
-        <v>1.52769</v>
+        <v>2.21944</v>
       </c>
     </row>
     <row r="203" spans="1:16" s="1" customFormat="1">
       <c r="N203" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="O203" s="1">
-        <v>16998.316034</v>
+        <v>12267.839336</v>
       </c>
       <c r="P203" s="1">
-        <v>14158.623591</v>
+        <v>10643.407671</v>
       </c>
     </row>
     <row r="204" spans="1:16" s="1" customFormat="1"/>

--- a/dcd_top_offset_step_tsmc2p_meas.xlsx
+++ b/dcd_top_offset_step_tsmc2p_meas.xlsx
@@ -1414,10 +1414,10 @@
         <v>29</v>
       </c>
       <c r="O2">
-        <v>26.8865</v>
+        <v>28.281</v>
       </c>
       <c r="P2">
-        <v>3.58515</v>
+        <v>3.77108</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1464,10 +1464,10 @@
         <v>29</v>
       </c>
       <c r="O3">
-        <v>25.957</v>
+        <v>27.3513</v>
       </c>
       <c r="P3">
-        <v>3.46121</v>
+        <v>3.64712</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1514,10 +1514,10 @@
         <v>29</v>
       </c>
       <c r="O4">
-        <v>24.9221</v>
+        <v>26.3159</v>
       </c>
       <c r="P4">
-        <v>3.32324</v>
+        <v>3.50907</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1564,10 +1564,10 @@
         <v>29</v>
       </c>
       <c r="O5">
-        <v>24.0946</v>
+        <v>25.3339</v>
       </c>
       <c r="P5">
-        <v>3.21291</v>
+        <v>3.37816</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1614,10 +1614,10 @@
         <v>29</v>
       </c>
       <c r="O6">
-        <v>23.3208</v>
+        <v>24.5085</v>
       </c>
       <c r="P6">
-        <v>3.10975</v>
+        <v>3.26809</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1664,10 +1664,10 @@
         <v>29</v>
       </c>
       <c r="O7">
-        <v>22.4427</v>
+        <v>23.4242</v>
       </c>
       <c r="P7">
-        <v>2.99265</v>
+        <v>3.12353</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1714,10 +1714,10 @@
         <v>29</v>
       </c>
       <c r="O8">
-        <v>21.5135</v>
+        <v>22.5462</v>
       </c>
       <c r="P8">
-        <v>2.86875</v>
+        <v>3.00645</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1764,10 +1764,10 @@
         <v>29</v>
       </c>
       <c r="O9">
-        <v>20.6871</v>
+        <v>21.5133</v>
       </c>
       <c r="P9">
-        <v>2.75857</v>
+        <v>2.86874</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1814,10 +1814,10 @@
         <v>29</v>
       </c>
       <c r="O10">
-        <v>20.6352</v>
+        <v>21.3583</v>
       </c>
       <c r="P10">
-        <v>2.75163</v>
+        <v>2.84807</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1864,10 +1864,10 @@
         <v>29</v>
       </c>
       <c r="O11">
-        <v>19.6544</v>
+        <v>20.2743</v>
       </c>
       <c r="P11">
-        <v>2.62088</v>
+        <v>2.70353</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1914,10 +1914,10 @@
         <v>29</v>
       </c>
       <c r="O12">
-        <v>18.776</v>
+        <v>19.3443</v>
       </c>
       <c r="P12">
-        <v>2.50376</v>
+        <v>2.57953</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1964,10 +1964,10 @@
         <v>29</v>
       </c>
       <c r="O13">
-        <v>17.8982</v>
+        <v>18.3629</v>
       </c>
       <c r="P13">
-        <v>2.38671</v>
+        <v>2.44866</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -2014,10 +2014,10 @@
         <v>29</v>
       </c>
       <c r="O14">
-        <v>17.124</v>
+        <v>17.4851</v>
       </c>
       <c r="P14">
-        <v>2.28349</v>
+        <v>2.33164</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -2064,10 +2064,10 @@
         <v>29</v>
       </c>
       <c r="O15">
-        <v>16.1942</v>
+        <v>16.5558</v>
       </c>
       <c r="P15">
-        <v>2.15951</v>
+        <v>2.20773</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -2114,10 +2114,10 @@
         <v>29</v>
       </c>
       <c r="O16">
-        <v>15.3679</v>
+        <v>15.5232</v>
       </c>
       <c r="P16">
-        <v>2.04934</v>
+        <v>2.07005</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -2164,10 +2164,10 @@
         <v>29</v>
       </c>
       <c r="O17">
-        <v>14.5939</v>
+        <v>14.645</v>
       </c>
       <c r="P17">
-        <v>1.94615</v>
+        <v>1.95295</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -2214,10 +2214,10 @@
         <v>29</v>
       </c>
       <c r="O18">
-        <v>14.5933</v>
+        <v>14.6449</v>
       </c>
       <c r="P18">
-        <v>1.94605</v>
+        <v>1.95293</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -2264,10 +2264,10 @@
         <v>29</v>
       </c>
       <c r="O19">
-        <v>13.767</v>
+        <v>13.7153</v>
       </c>
       <c r="P19">
-        <v>1.83587</v>
+        <v>1.82899</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -2364,10 +2364,10 @@
         <v>29</v>
       </c>
       <c r="O21">
-        <v>11.9094</v>
+        <v>11.9078</v>
       </c>
       <c r="P21">
-        <v>1.5882</v>
+        <v>1.588</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -2414,10 +2414,10 @@
         <v>29</v>
       </c>
       <c r="O22">
-        <v>11.0297</v>
+        <v>10.9307</v>
       </c>
       <c r="P22">
-        <v>1.47091</v>
+        <v>1.45771</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -2464,10 +2464,10 @@
         <v>29</v>
       </c>
       <c r="O23">
-        <v>9.996729999999999</v>
+        <v>9.948930000000001</v>
       </c>
       <c r="P23">
-        <v>1.33319</v>
+        <v>1.32681</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -2514,10 +2514,10 @@
         <v>29</v>
       </c>
       <c r="O24">
-        <v>9.015319999999999</v>
+        <v>9.0669</v>
       </c>
       <c r="P24">
-        <v>1.20234</v>
+        <v>1.2092</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -2564,10 +2564,10 @@
         <v>29</v>
       </c>
       <c r="O25">
-        <v>7.9827</v>
+        <v>7.98281</v>
       </c>
       <c r="P25">
-        <v>1.06466</v>
+        <v>1.06467</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -2614,10 +2614,10 @@
         <v>29</v>
       </c>
       <c r="O26">
-        <v>7.15611</v>
+        <v>7.20806</v>
       </c>
       <c r="P26">
-        <v>0.954446</v>
+        <v>0.961374</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -2664,10 +2664,10 @@
         <v>29</v>
       </c>
       <c r="O27">
-        <v>6.12333</v>
+        <v>6.17482</v>
       </c>
       <c r="P27">
-        <v>0.816734</v>
+        <v>0.823605</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -2714,10 +2714,10 @@
         <v>29</v>
       </c>
       <c r="O28">
-        <v>5.14227</v>
+        <v>5.14207</v>
       </c>
       <c r="P28">
-        <v>0.685922</v>
+        <v>0.685897</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -2764,10 +2764,10 @@
         <v>29</v>
       </c>
       <c r="O29">
-        <v>4.10899</v>
+        <v>4.05746</v>
       </c>
       <c r="P29">
-        <v>0.548149</v>
+        <v>0.541287</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2814,10 +2814,10 @@
         <v>29</v>
       </c>
       <c r="O30">
-        <v>3.07628</v>
+        <v>3.07645</v>
       </c>
       <c r="P30">
-        <v>0.410461</v>
+        <v>0.410484</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2864,10 +2864,10 @@
         <v>29</v>
       </c>
       <c r="O31">
-        <v>2.14632</v>
+        <v>2.1462</v>
       </c>
       <c r="P31">
-        <v>0.286466</v>
+        <v>0.286446</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -2914,10 +2914,10 @@
         <v>29</v>
       </c>
       <c r="O32">
-        <v>1.06218</v>
+        <v>1.01013</v>
       </c>
       <c r="P32">
-        <v>0.141906</v>
+        <v>0.134973</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2964,10 +2964,10 @@
         <v>29</v>
       </c>
       <c r="O33">
-        <v>0.0802322</v>
+        <v>0.0289664</v>
       </c>
       <c r="P33">
-        <v>0.0109816</v>
+        <v>0.00414462</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -3014,10 +3014,10 @@
         <v>29</v>
       </c>
       <c r="O34">
-        <v>0.028872</v>
+        <v>0.028828</v>
       </c>
       <c r="P34">
-        <v>0.00413803</v>
+        <v>0.00412192</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -3114,10 +3114,10 @@
         <v>29</v>
       </c>
       <c r="O36">
-        <v>-1.93338</v>
+        <v>-1.98496</v>
       </c>
       <c r="P36">
-        <v>-0.257498</v>
+        <v>-0.264377</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -3164,10 +3164,10 @@
         <v>29</v>
       </c>
       <c r="O37">
-        <v>-2.96546</v>
+        <v>-3.01712</v>
       </c>
       <c r="P37">
-        <v>-0.395102</v>
+        <v>-0.401994</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -3214,10 +3214,10 @@
         <v>29</v>
       </c>
       <c r="O38">
-        <v>-3.94661</v>
+        <v>-3.89512</v>
       </c>
       <c r="P38">
-        <v>-0.525926</v>
+        <v>-0.519072</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -3264,10 +3264,10 @@
         <v>29</v>
       </c>
       <c r="O39">
-        <v>-5.03093</v>
+        <v>-5.03122</v>
       </c>
       <c r="P39">
-        <v>-0.670492</v>
+        <v>-0.67053</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -3314,10 +3314,10 @@
         <v>29</v>
       </c>
       <c r="O40">
-        <v>-6.01217</v>
+        <v>-6.0123</v>
       </c>
       <c r="P40">
-        <v>-0.801335</v>
+        <v>-0.801357</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -3364,10 +3364,10 @@
         <v>29</v>
       </c>
       <c r="O41">
-        <v>-7.04461</v>
+        <v>-7.09653</v>
       </c>
       <c r="P41">
-        <v>-0.938976</v>
+        <v>-0.945914</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -3414,10 +3414,10 @@
         <v>29</v>
       </c>
       <c r="O42">
-        <v>-7.87084</v>
+        <v>-7.92255</v>
       </c>
       <c r="P42">
-        <v>-1.04915</v>
+        <v>-1.05605</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -3464,10 +3464,10 @@
         <v>29</v>
       </c>
       <c r="O43">
-        <v>-8.90354</v>
+        <v>-8.85168</v>
       </c>
       <c r="P43">
-        <v>-1.18684</v>
+        <v>-1.17993</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -3514,10 +3514,10 @@
         <v>29</v>
       </c>
       <c r="O44">
-        <v>-9.78143</v>
+        <v>-9.832990000000001</v>
       </c>
       <c r="P44">
-        <v>-1.30389</v>
+        <v>-1.31077</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -3564,10 +3564,10 @@
         <v>29</v>
       </c>
       <c r="O45">
-        <v>-10.8655</v>
+        <v>-10.9169</v>
       </c>
       <c r="P45">
-        <v>-1.44843</v>
+        <v>-1.44851</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -3617,7 +3617,7 @@
         <v>-11.7434</v>
       </c>
       <c r="P46">
-        <v>-1.5655</v>
+        <v>-1.56551</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -3664,10 +3664,10 @@
         <v>29</v>
       </c>
       <c r="O47">
-        <v>-12.7768</v>
+        <v>-12.7252</v>
       </c>
       <c r="P47">
-        <v>-1.7033</v>
+        <v>-1.69642</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -3714,10 +3714,10 @@
         <v>29</v>
       </c>
       <c r="O48">
-        <v>-13.7059</v>
+        <v>-13.6028</v>
       </c>
       <c r="P48">
-        <v>-1.82039</v>
+        <v>-1.81341</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -3764,10 +3764,10 @@
         <v>29</v>
       </c>
       <c r="O49">
-        <v>-14.5328</v>
+        <v>-14.5329</v>
       </c>
       <c r="P49">
-        <v>-1.93741</v>
+        <v>-1.93743</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -3814,10 +3814,10 @@
         <v>29</v>
       </c>
       <c r="O50">
-        <v>-14.4813</v>
+        <v>-14.5331</v>
       </c>
       <c r="P50">
-        <v>-1.93056</v>
+        <v>-1.93746</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -3864,10 +3864,10 @@
         <v>29</v>
       </c>
       <c r="O51">
-        <v>-15.3593</v>
+        <v>-15.4108</v>
       </c>
       <c r="P51">
-        <v>-2.04761</v>
+        <v>-2.05449</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -3914,10 +3914,10 @@
         <v>29</v>
       </c>
       <c r="O52">
-        <v>-16.1339</v>
+        <v>-16.34</v>
       </c>
       <c r="P52">
-        <v>-2.15089</v>
+        <v>-2.17838</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -3964,10 +3964,10 @@
         <v>29</v>
       </c>
       <c r="O53">
-        <v>-16.9082</v>
+        <v>-17.2175</v>
       </c>
       <c r="P53">
-        <v>-2.25414</v>
+        <v>-2.29537</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -4014,10 +4014,10 @@
         <v>29</v>
       </c>
       <c r="O54">
-        <v>-17.5754</v>
+        <v>-17.9919</v>
       </c>
       <c r="P54">
-        <v>-2.34311</v>
+        <v>-2.39862</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -4064,10 +4064,10 @@
         <v>29</v>
       </c>
       <c r="O55">
-        <v>-18.4056</v>
+        <v>-18.9223</v>
       </c>
       <c r="P55">
-        <v>-2.45378</v>
+        <v>-2.52268</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -4114,10 +4114,10 @@
         <v>29</v>
       </c>
       <c r="O56">
-        <v>-19.2322</v>
+        <v>-19.8517</v>
       </c>
       <c r="P56">
-        <v>-2.564</v>
+        <v>-2.6466</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -4164,10 +4164,10 @@
         <v>29</v>
       </c>
       <c r="O57">
-        <v>-20.1094</v>
+        <v>-20.9361</v>
       </c>
       <c r="P57">
-        <v>-2.68096</v>
+        <v>-2.7912</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -4214,10 +4214,10 @@
         <v>29</v>
       </c>
       <c r="O58">
-        <v>-20.3665</v>
+        <v>-21.0386</v>
       </c>
       <c r="P58">
-        <v>-2.71523</v>
+        <v>-2.79806</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -4264,10 +4264,10 @@
         <v>29</v>
       </c>
       <c r="O59">
-        <v>-21.1422</v>
+        <v>-22.1198</v>
       </c>
       <c r="P59">
-        <v>-2.81867</v>
+        <v>-2.94903</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -4314,10 +4314,10 @@
         <v>29</v>
       </c>
       <c r="O60">
-        <v>-22.0204</v>
+        <v>-23.1563</v>
       </c>
       <c r="P60">
-        <v>-2.93575</v>
+        <v>-3.08721</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -4364,10 +4364,10 @@
         <v>29</v>
       </c>
       <c r="O61">
-        <v>-22.9461</v>
+        <v>-24.1894</v>
       </c>
       <c r="P61">
-        <v>-3.0592</v>
+        <v>-3.22496</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -4414,10 +4414,10 @@
         <v>29</v>
       </c>
       <c r="O62">
-        <v>-23.6215</v>
+        <v>-24.964</v>
       </c>
       <c r="P62">
-        <v>-3.14923</v>
+        <v>-3.32824</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -4464,10 +4464,10 @@
         <v>29</v>
       </c>
       <c r="O63">
-        <v>-24.6532</v>
+        <v>-25.9964</v>
       </c>
       <c r="P63">
-        <v>-3.28681</v>
+        <v>-3.4659</v>
       </c>
     </row>
     <row r="64" spans="1:16">
@@ -4514,10 +4514,10 @@
         <v>29</v>
       </c>
       <c r="O64">
-        <v>-25.4282</v>
+        <v>-26.9263</v>
       </c>
       <c r="P64">
-        <v>-3.39013</v>
+        <v>-3.58988</v>
       </c>
     </row>
     <row r="65" spans="1:16">
@@ -4564,10 +4564,10 @@
         <v>29</v>
       </c>
       <c r="O65">
-        <v>-26.3065</v>
+        <v>-28.0106</v>
       </c>
       <c r="P65">
-        <v>-3.50723</v>
+        <v>-3.73446</v>
       </c>
     </row>
     <row r="66" spans="1:16">
@@ -4614,10 +4614,10 @@
         <v>165</v>
       </c>
       <c r="O66" s="2">
-        <v>35.4442</v>
+        <v>37.3468</v>
       </c>
       <c r="P66">
-        <v>4.29645</v>
+        <v>4.52707</v>
       </c>
     </row>
     <row r="67" spans="1:16">
@@ -4663,11 +4663,11 @@
       <c r="N67" t="s">
         <v>165</v>
       </c>
-      <c r="O67">
-        <v>34.2426</v>
+      <c r="O67" s="2">
+        <v>35.9949</v>
       </c>
       <c r="P67">
-        <v>4.15081</v>
+        <v>4.3632</v>
       </c>
     </row>
     <row r="68" spans="1:16">
@@ -4714,10 +4714,10 @@
         <v>165</v>
       </c>
       <c r="O68">
-        <v>32.8891</v>
+        <v>34.5402</v>
       </c>
       <c r="P68">
-        <v>3.98675</v>
+        <v>4.18688</v>
       </c>
     </row>
     <row r="69" spans="1:16">
@@ -4764,10 +4764,10 @@
         <v>165</v>
       </c>
       <c r="O69">
-        <v>31.7359</v>
+        <v>33.2379</v>
       </c>
       <c r="P69">
-        <v>3.84696</v>
+        <v>4.02902</v>
       </c>
     </row>
     <row r="70" spans="1:16">
@@ -4814,10 +4814,10 @@
         <v>165</v>
       </c>
       <c r="O70">
-        <v>30.9356</v>
+        <v>32.2882</v>
       </c>
       <c r="P70">
-        <v>3.74997</v>
+        <v>3.91391</v>
       </c>
     </row>
     <row r="71" spans="1:16">
@@ -4864,10 +4864,10 @@
         <v>165</v>
       </c>
       <c r="O71">
-        <v>29.8342</v>
+        <v>31.0358</v>
       </c>
       <c r="P71">
-        <v>3.61646</v>
+        <v>3.76211</v>
       </c>
     </row>
     <row r="72" spans="1:16">
@@ -4914,10 +4914,10 @@
         <v>165</v>
       </c>
       <c r="O72">
-        <v>28.7328</v>
+        <v>29.8342</v>
       </c>
       <c r="P72">
-        <v>3.48296</v>
+        <v>3.61646</v>
       </c>
     </row>
     <row r="73" spans="1:16">
@@ -4964,10 +4964,10 @@
         <v>165</v>
       </c>
       <c r="O73">
-        <v>27.5815</v>
+        <v>28.5326</v>
       </c>
       <c r="P73">
-        <v>3.34339</v>
+        <v>3.4587</v>
       </c>
     </row>
     <row r="74" spans="1:16">
@@ -5014,10 +5014,10 @@
         <v>165</v>
       </c>
       <c r="O74">
-        <v>27.4822</v>
+        <v>28.5826</v>
       </c>
       <c r="P74">
-        <v>3.33136</v>
+        <v>3.46473</v>
       </c>
     </row>
     <row r="75" spans="1:16">
@@ -5064,10 +5064,10 @@
         <v>165</v>
       </c>
       <c r="O75">
-        <v>26.3299</v>
+        <v>27.1817</v>
       </c>
       <c r="P75">
-        <v>3.19169</v>
+        <v>3.29493</v>
       </c>
     </row>
     <row r="76" spans="1:16">
@@ -5114,10 +5114,10 @@
         <v>165</v>
       </c>
       <c r="O76">
-        <v>25.2283</v>
+        <v>25.9795</v>
       </c>
       <c r="P76">
-        <v>3.05816</v>
+        <v>3.14922</v>
       </c>
     </row>
     <row r="77" spans="1:16">
@@ -5164,10 +5164,10 @@
         <v>165</v>
       </c>
       <c r="O77">
-        <v>24.0765</v>
+        <v>24.7275</v>
       </c>
       <c r="P77">
-        <v>2.91856</v>
+        <v>2.99747</v>
       </c>
     </row>
     <row r="78" spans="1:16">
@@ -5214,10 +5214,10 @@
         <v>165</v>
       </c>
       <c r="O78">
-        <v>23.1755</v>
+        <v>23.676</v>
       </c>
       <c r="P78">
-        <v>2.80933</v>
+        <v>2.87001</v>
       </c>
     </row>
     <row r="79" spans="1:16">
@@ -5264,10 +5264,10 @@
         <v>165</v>
       </c>
       <c r="O79">
-        <v>21.9743</v>
+        <v>22.275</v>
       </c>
       <c r="P79">
-        <v>2.66373</v>
+        <v>2.70611</v>
       </c>
     </row>
     <row r="80" spans="1:16">
@@ -5314,10 +5314,10 @@
         <v>165</v>
       </c>
       <c r="O80">
-        <v>20.9219</v>
+        <v>21.0722</v>
       </c>
       <c r="P80">
-        <v>2.53617</v>
+        <v>2.55437</v>
       </c>
     </row>
     <row r="81" spans="1:16">
@@ -5364,10 +5364,10 @@
         <v>165</v>
       </c>
       <c r="O81">
-        <v>19.7704</v>
+        <v>19.7201</v>
       </c>
       <c r="P81">
-        <v>2.3966</v>
+        <v>2.39051</v>
       </c>
     </row>
     <row r="82" spans="1:16">
@@ -5414,10 +5414,10 @@
         <v>165</v>
       </c>
       <c r="O82">
-        <v>19.7203</v>
+        <v>19.7704</v>
       </c>
       <c r="P82">
-        <v>2.39054</v>
+        <v>2.3966</v>
       </c>
     </row>
     <row r="83" spans="1:16">
@@ -5464,10 +5464,10 @@
         <v>165</v>
       </c>
       <c r="O83">
-        <v>18.3784</v>
+        <v>18.3711</v>
       </c>
       <c r="P83">
-        <v>2.2327</v>
+        <v>2.22698</v>
       </c>
     </row>
     <row r="84" spans="1:16">
@@ -5514,10 +5514,10 @@
         <v>165</v>
       </c>
       <c r="O84">
-        <v>16.9665</v>
+        <v>16.9664</v>
       </c>
       <c r="P84">
-        <v>2.05673</v>
+        <v>2.05672</v>
       </c>
     </row>
     <row r="85" spans="1:16">
@@ -5564,10 +5564,10 @@
         <v>165</v>
       </c>
       <c r="O85">
-        <v>15.5644</v>
+        <v>15.4653</v>
       </c>
       <c r="P85">
-        <v>1.88678</v>
+        <v>1.88069</v>
       </c>
     </row>
     <row r="86" spans="1:16">
@@ -5614,10 +5614,10 @@
         <v>165</v>
       </c>
       <c r="O86">
-        <v>14.1632</v>
+        <v>14.1626</v>
       </c>
       <c r="P86">
-        <v>1.71693</v>
+        <v>1.71687</v>
       </c>
     </row>
     <row r="87" spans="1:16">
@@ -5714,7 +5714,7 @@
         <v>165</v>
       </c>
       <c r="O88">
-        <v>11.2581</v>
+        <v>11.258</v>
       </c>
       <c r="P88">
         <v>1.3648</v>
@@ -5764,10 +5764,10 @@
         <v>165</v>
       </c>
       <c r="O89">
-        <v>9.80597</v>
+        <v>9.705859999999999</v>
       </c>
       <c r="P89">
-        <v>1.1888</v>
+        <v>1.17666</v>
       </c>
     </row>
     <row r="90" spans="1:16">
@@ -5814,10 +5814,10 @@
         <v>165</v>
       </c>
       <c r="O90">
-        <v>8.65443</v>
+        <v>8.654310000000001</v>
       </c>
       <c r="P90">
-        <v>1.04921</v>
+        <v>1.04919</v>
       </c>
     </row>
     <row r="91" spans="1:16">
@@ -5864,10 +5864,10 @@
         <v>165</v>
       </c>
       <c r="O91">
-        <v>7.3746</v>
+        <v>7.40245</v>
       </c>
       <c r="P91">
-        <v>0.894073</v>
+        <v>0.8974529999999999</v>
       </c>
     </row>
     <row r="92" spans="1:16">
@@ -5914,10 +5914,10 @@
         <v>165</v>
       </c>
       <c r="O92">
-        <v>6.15196</v>
+        <v>6.20107</v>
       </c>
       <c r="P92">
-        <v>0.745873</v>
+        <v>0.751841</v>
       </c>
     </row>
     <row r="93" spans="1:16">
@@ -5964,10 +5964,10 @@
         <v>165</v>
       </c>
       <c r="O93">
-        <v>4.99993</v>
+        <v>4.99983</v>
       </c>
       <c r="P93">
-        <v>0.606247</v>
+        <v>0.606236</v>
       </c>
     </row>
     <row r="94" spans="1:16">
@@ -6064,10 +6064,10 @@
         <v>165</v>
       </c>
       <c r="O95">
-        <v>2.44719</v>
+        <v>2.44783</v>
       </c>
       <c r="P95">
-        <v>0.296813</v>
+        <v>0.296889</v>
       </c>
     </row>
     <row r="96" spans="1:16">
@@ -6114,10 +6114,10 @@
         <v>165</v>
       </c>
       <c r="O96">
-        <v>1.24598</v>
+        <v>1.24586</v>
       </c>
       <c r="P96">
-        <v>0.151213</v>
+        <v>0.151201</v>
       </c>
     </row>
     <row r="97" spans="1:16">
@@ -6164,10 +6164,10 @@
         <v>165</v>
       </c>
       <c r="O97">
-        <v>0.09481729999999999</v>
+        <v>0.0449317</v>
       </c>
       <c r="P97">
-        <v>0.0116742</v>
+        <v>0.00563382</v>
       </c>
     </row>
     <row r="98" spans="1:16">
@@ -6214,10 +6214,10 @@
         <v>165</v>
       </c>
       <c r="O98">
-        <v>0.0448687</v>
+        <v>0.0448849</v>
       </c>
       <c r="P98">
-        <v>0.00562608</v>
+        <v>0.00562695</v>
       </c>
     </row>
     <row r="99" spans="1:16">
@@ -6264,10 +6264,10 @@
         <v>165</v>
       </c>
       <c r="O99">
-        <v>-1.20661</v>
+        <v>-1.25639</v>
       </c>
       <c r="P99">
-        <v>-0.146064</v>
+        <v>-0.152107</v>
       </c>
     </row>
     <row r="100" spans="1:16">
@@ -6314,10 +6314,10 @@
         <v>165</v>
       </c>
       <c r="O100">
-        <v>-2.50783</v>
+        <v>-2.50776</v>
       </c>
       <c r="P100">
-        <v>-0.303794</v>
+        <v>-0.30378</v>
       </c>
     </row>
     <row r="101" spans="1:16">
@@ -6364,10 +6364,10 @@
         <v>165</v>
       </c>
       <c r="O101">
-        <v>-3.75781</v>
+        <v>-3.75609</v>
       </c>
       <c r="P101">
-        <v>-0.455309</v>
+        <v>-0.4551</v>
       </c>
     </row>
     <row r="102" spans="1:16">
@@ -6414,10 +6414,10 @@
         <v>165</v>
       </c>
       <c r="O102">
-        <v>-4.86004</v>
+        <v>-4.9097</v>
       </c>
       <c r="P102">
-        <v>-0.588908</v>
+        <v>-0.594928</v>
       </c>
     </row>
     <row r="103" spans="1:16">
@@ -6464,10 +6464,10 @@
         <v>165</v>
       </c>
       <c r="O103">
-        <v>-6.16043</v>
+        <v>-6.16037</v>
       </c>
       <c r="P103">
-        <v>-0.746534</v>
+        <v>-0.74653</v>
       </c>
     </row>
     <row r="104" spans="1:16">
@@ -6514,10 +6514,10 @@
         <v>165</v>
       </c>
       <c r="O104">
-        <v>-7.41253</v>
+        <v>-7.4625</v>
       </c>
       <c r="P104">
-        <v>-0.898296</v>
+        <v>-0.904363</v>
       </c>
     </row>
     <row r="105" spans="1:16">
@@ -6564,10 +6564,10 @@
         <v>165</v>
       </c>
       <c r="O105">
-        <v>-8.714119999999999</v>
+        <v>-8.763820000000001</v>
       </c>
       <c r="P105">
-        <v>-1.05607</v>
+        <v>-1.0621</v>
       </c>
     </row>
     <row r="106" spans="1:16">
@@ -6614,10 +6614,10 @@
         <v>165</v>
       </c>
       <c r="O106">
-        <v>-9.815379999999999</v>
+        <v>-9.865119999999999</v>
       </c>
       <c r="P106">
-        <v>-1.18956</v>
+        <v>-1.19559</v>
       </c>
     </row>
     <row r="107" spans="1:16">
@@ -6664,10 +6664,10 @@
         <v>165</v>
       </c>
       <c r="O107">
-        <v>-11.3165</v>
+        <v>-11.2168</v>
       </c>
       <c r="P107">
-        <v>-1.37151</v>
+        <v>-1.35943</v>
       </c>
     </row>
     <row r="108" spans="1:16">
@@ -6714,10 +6714,10 @@
         <v>165</v>
       </c>
       <c r="O108">
-        <v>-12.6681</v>
+        <v>-12.6679</v>
       </c>
       <c r="P108">
-        <v>-1.53534</v>
+        <v>-1.53532</v>
       </c>
     </row>
     <row r="109" spans="1:16">
@@ -6764,10 +6764,10 @@
         <v>165</v>
       </c>
       <c r="O109">
-        <v>-14.1198</v>
+        <v>-14.1698</v>
       </c>
       <c r="P109">
-        <v>-1.71132</v>
+        <v>-1.71738</v>
       </c>
     </row>
     <row r="110" spans="1:16">
@@ -6817,7 +6817,7 @@
         <v>-15.5713</v>
       </c>
       <c r="P110">
-        <v>-1.88725</v>
+        <v>-1.88724</v>
       </c>
     </row>
     <row r="111" spans="1:16">
@@ -6864,10 +6864,10 @@
         <v>165</v>
       </c>
       <c r="O111">
-        <v>-17.0231</v>
+        <v>-17.0232</v>
       </c>
       <c r="P111">
-        <v>-2.06322</v>
+        <v>-2.06324</v>
       </c>
     </row>
     <row r="112" spans="1:16">
@@ -6914,10 +6914,10 @@
         <v>165</v>
       </c>
       <c r="O112">
-        <v>-18.4737</v>
+        <v>-18.4232</v>
       </c>
       <c r="P112">
-        <v>-2.23905</v>
+        <v>-2.22704</v>
       </c>
     </row>
     <row r="113" spans="1:16">
@@ -7014,10 +7014,10 @@
         <v>165</v>
       </c>
       <c r="O114">
-        <v>-19.726</v>
+        <v>-19.7759</v>
       </c>
       <c r="P114">
-        <v>-2.39084</v>
+        <v>-2.39689</v>
       </c>
     </row>
     <row r="115" spans="1:16">
@@ -7064,10 +7064,10 @@
         <v>165</v>
       </c>
       <c r="O115">
-        <v>-20.9272</v>
+        <v>-21.0273</v>
       </c>
       <c r="P115">
-        <v>-2.53644</v>
+        <v>-2.54858</v>
       </c>
     </row>
     <row r="116" spans="1:16">
@@ -7114,10 +7114,10 @@
         <v>165</v>
       </c>
       <c r="O116">
-        <v>-22.1283</v>
+        <v>-22.3284</v>
       </c>
       <c r="P116">
-        <v>-2.68202</v>
+        <v>-2.70629</v>
       </c>
     </row>
     <row r="117" spans="1:16">
@@ -7164,10 +7164,10 @@
         <v>165</v>
       </c>
       <c r="O117">
-        <v>-23.28</v>
+        <v>-23.6804</v>
       </c>
       <c r="P117">
-        <v>-2.82164</v>
+        <v>-2.87017</v>
       </c>
     </row>
     <row r="118" spans="1:16">
@@ -7214,10 +7214,10 @@
         <v>165</v>
       </c>
       <c r="O118">
-        <v>-24.1312</v>
+        <v>-24.7314</v>
       </c>
       <c r="P118">
-        <v>-2.92481</v>
+        <v>-2.99755</v>
       </c>
     </row>
     <row r="119" spans="1:16">
@@ -7264,10 +7264,10 @@
         <v>165</v>
       </c>
       <c r="O119">
-        <v>-25.332</v>
+        <v>-26.0823</v>
       </c>
       <c r="P119">
-        <v>-3.07035</v>
+        <v>-3.16131</v>
       </c>
     </row>
     <row r="120" spans="1:16">
@@ -7314,10 +7314,10 @@
         <v>165</v>
       </c>
       <c r="O120">
-        <v>-26.4327</v>
+        <v>-27.2831</v>
       </c>
       <c r="P120">
-        <v>-3.2038</v>
+        <v>-3.30686</v>
       </c>
     </row>
     <row r="121" spans="1:16">
@@ -7364,10 +7364,10 @@
         <v>165</v>
       </c>
       <c r="O121">
-        <v>-27.5835</v>
+        <v>-28.6339</v>
       </c>
       <c r="P121">
-        <v>-3.34328</v>
+        <v>-3.47059</v>
       </c>
     </row>
     <row r="122" spans="1:16">
@@ -7414,10 +7414,10 @@
         <v>165</v>
       </c>
       <c r="O122">
-        <v>-27.6834</v>
+        <v>-28.584</v>
       </c>
       <c r="P122">
-        <v>-3.35537</v>
+        <v>-3.46454</v>
       </c>
     </row>
     <row r="123" spans="1:16">
@@ -7464,10 +7464,10 @@
         <v>165</v>
       </c>
       <c r="O123">
-        <v>-28.834</v>
+        <v>-29.9348</v>
       </c>
       <c r="P123">
-        <v>-3.49484</v>
+        <v>-3.62826</v>
       </c>
     </row>
     <row r="124" spans="1:16">
@@ -7514,10 +7514,10 @@
         <v>165</v>
       </c>
       <c r="O124">
-        <v>-29.9348</v>
+        <v>-31.1855</v>
       </c>
       <c r="P124">
-        <v>-3.62826</v>
+        <v>-3.77988</v>
       </c>
     </row>
     <row r="125" spans="1:16">
@@ -7564,10 +7564,10 @@
         <v>165</v>
       </c>
       <c r="O125">
-        <v>-31.1853</v>
+        <v>-32.5362</v>
       </c>
       <c r="P125">
-        <v>-3.77986</v>
+        <v>-3.94359</v>
       </c>
     </row>
     <row r="126" spans="1:16">
@@ -7614,10 +7614,10 @@
         <v>165</v>
       </c>
       <c r="O126">
-        <v>-32.036</v>
+        <v>-33.5861</v>
       </c>
       <c r="P126">
-        <v>-3.88295</v>
+        <v>-4.07086</v>
       </c>
     </row>
     <row r="127" spans="1:16">
@@ -7664,10 +7664,10 @@
         <v>165</v>
       </c>
       <c r="O127">
-        <v>-33.2366</v>
+        <v>-34.8378</v>
       </c>
       <c r="P127">
-        <v>-4.02849</v>
+        <v>-4.22258</v>
       </c>
     </row>
     <row r="128" spans="1:16">
@@ -7713,11 +7713,11 @@
       <c r="N128" t="s">
         <v>165</v>
       </c>
-      <c r="O128">
-        <v>-34.2373</v>
+      <c r="O128" s="3">
+        <v>-36.1384</v>
       </c>
       <c r="P128">
-        <v>-4.14978</v>
+        <v>-4.38023</v>
       </c>
     </row>
     <row r="129" spans="1:16">
@@ -7764,10 +7764,10 @@
         <v>165</v>
       </c>
       <c r="O129" s="3">
-        <v>-35.5865</v>
+        <v>-37.3893</v>
       </c>
       <c r="P129">
-        <v>-4.30139</v>
+        <v>-4.53185</v>
       </c>
     </row>
     <row r="130" spans="1:16">
@@ -7814,10 +7814,10 @@
         <v>239</v>
       </c>
       <c r="O130">
-        <v>20.6219</v>
+        <v>21.7067</v>
       </c>
       <c r="P130">
-        <v>3.0557</v>
+        <v>3.21641</v>
       </c>
     </row>
     <row r="131" spans="1:16">
@@ -7864,10 +7864,10 @@
         <v>239</v>
       </c>
       <c r="O131">
-        <v>19.9576</v>
+        <v>20.984</v>
       </c>
       <c r="P131">
-        <v>2.95724</v>
+        <v>3.10936</v>
       </c>
     </row>
     <row r="132" spans="1:16">
@@ -7914,10 +7914,10 @@
         <v>239</v>
       </c>
       <c r="O132">
-        <v>19.3774</v>
+        <v>20.2629</v>
       </c>
       <c r="P132">
-        <v>2.87135</v>
+        <v>3.00246</v>
       </c>
     </row>
     <row r="133" spans="1:16">
@@ -7964,10 +7964,10 @@
         <v>239</v>
       </c>
       <c r="O133">
-        <v>18.8244</v>
+        <v>19.5843</v>
       </c>
       <c r="P133">
-        <v>2.7895</v>
+        <v>2.90199</v>
       </c>
     </row>
     <row r="134" spans="1:16">
@@ -8014,10 +8014,10 @@
         <v>239</v>
       </c>
       <c r="O134">
-        <v>18.3958</v>
+        <v>19.1197</v>
       </c>
       <c r="P134">
-        <v>2.72592</v>
+        <v>2.83316</v>
       </c>
     </row>
     <row r="135" spans="1:16">
@@ -8064,10 +8064,10 @@
         <v>239</v>
       </c>
       <c r="O135">
-        <v>17.9309</v>
+        <v>18.5588</v>
       </c>
       <c r="P135">
-        <v>2.65704</v>
+        <v>2.75001</v>
       </c>
     </row>
     <row r="136" spans="1:16">
@@ -8114,10 +8114,10 @@
         <v>239</v>
       </c>
       <c r="O136">
-        <v>17.3113</v>
+        <v>17.9379</v>
       </c>
       <c r="P136">
-        <v>2.56528</v>
+        <v>2.65808</v>
       </c>
     </row>
     <row r="137" spans="1:16">
@@ -8164,10 +8164,10 @@
         <v>239</v>
       </c>
       <c r="O137">
-        <v>16.7947</v>
+        <v>17.2085</v>
       </c>
       <c r="P137">
-        <v>2.48871</v>
+        <v>2.55755</v>
       </c>
     </row>
     <row r="138" spans="1:16">
@@ -8214,10 +8214,10 @@
         <v>239</v>
       </c>
       <c r="O138">
-        <v>16.7943</v>
+        <v>17.4141</v>
       </c>
       <c r="P138">
-        <v>2.48874</v>
+        <v>2.58053</v>
       </c>
     </row>
     <row r="139" spans="1:16">
@@ -8264,10 +8264,10 @@
         <v>239</v>
       </c>
       <c r="O139">
-        <v>16.2272</v>
+        <v>16.6408</v>
       </c>
       <c r="P139">
-        <v>2.40464</v>
+        <v>2.46594</v>
       </c>
     </row>
     <row r="140" spans="1:16">
@@ -8314,10 +8314,10 @@
         <v>239</v>
       </c>
       <c r="O140">
-        <v>15.6581</v>
+        <v>16.1229</v>
       </c>
       <c r="P140">
-        <v>2.32037</v>
+        <v>2.38922</v>
       </c>
     </row>
     <row r="141" spans="1:16">
@@ -8364,10 +8364,10 @@
         <v>239</v>
       </c>
       <c r="O141">
-        <v>15.1415</v>
+        <v>15.4593</v>
       </c>
       <c r="P141">
-        <v>2.24381</v>
+        <v>2.29083</v>
       </c>
     </row>
     <row r="142" spans="1:16">
@@ -8414,10 +8414,10 @@
         <v>239</v>
       </c>
       <c r="O142">
-        <v>14.8319</v>
+        <v>15.0379</v>
       </c>
       <c r="P142">
-        <v>2.19794</v>
+        <v>2.22849</v>
       </c>
     </row>
     <row r="143" spans="1:16">
@@ -8464,10 +8464,10 @@
         <v>239</v>
       </c>
       <c r="O143">
-        <v>14.1153</v>
+        <v>14.3146</v>
       </c>
       <c r="P143">
-        <v>2.09172</v>
+        <v>2.12131</v>
       </c>
     </row>
     <row r="144" spans="1:16">
@@ -8514,10 +8514,10 @@
         <v>239</v>
       </c>
       <c r="O144">
-        <v>13.643</v>
+        <v>13.7468</v>
       </c>
       <c r="P144">
-        <v>2.0294</v>
+        <v>2.0372</v>
       </c>
     </row>
     <row r="145" spans="1:16">
@@ -8564,10 +8564,10 @@
         <v>239</v>
       </c>
       <c r="O145">
-        <v>12.9783</v>
+        <v>13.0342</v>
       </c>
       <c r="P145">
-        <v>1.92337</v>
+        <v>1.93161</v>
       </c>
     </row>
     <row r="146" spans="1:16">
@@ -8614,10 +8614,10 @@
         <v>239</v>
       </c>
       <c r="O146">
-        <v>13.0746</v>
+        <v>13.0229</v>
       </c>
       <c r="P146">
-        <v>1.9376</v>
+        <v>1.92996</v>
       </c>
     </row>
     <row r="147" spans="1:16">
@@ -8664,10 +8664,10 @@
         <v>239</v>
       </c>
       <c r="O147">
-        <v>12.1453</v>
+        <v>12.1449</v>
       </c>
       <c r="P147">
-        <v>1.79992</v>
+        <v>1.79987</v>
       </c>
     </row>
     <row r="148" spans="1:16">
@@ -8714,10 +8714,10 @@
         <v>239</v>
       </c>
       <c r="O148">
-        <v>11.2671</v>
+        <v>11.2252</v>
       </c>
       <c r="P148">
-        <v>1.66984</v>
+        <v>1.66362</v>
       </c>
     </row>
     <row r="149" spans="1:16">
@@ -8764,10 +8764,10 @@
         <v>239</v>
       </c>
       <c r="O149">
-        <v>10.3356</v>
+        <v>10.398</v>
       </c>
       <c r="P149">
-        <v>1.53185</v>
+        <v>1.54109</v>
       </c>
     </row>
     <row r="150" spans="1:16">
@@ -8814,10 +8814,10 @@
         <v>239</v>
       </c>
       <c r="O150">
-        <v>9.45632</v>
+        <v>9.456250000000001</v>
       </c>
       <c r="P150">
-        <v>1.40154</v>
+        <v>1.40155</v>
       </c>
     </row>
     <row r="151" spans="1:16">
@@ -8864,10 +8864,10 @@
         <v>239</v>
       </c>
       <c r="O151">
-        <v>8.526630000000001</v>
+        <v>8.62927</v>
       </c>
       <c r="P151">
-        <v>1.26383</v>
+        <v>1.27904</v>
       </c>
     </row>
     <row r="152" spans="1:16">
@@ -8914,10 +8914,10 @@
         <v>239</v>
       </c>
       <c r="O152">
-        <v>7.59586</v>
+        <v>7.54455</v>
       </c>
       <c r="P152">
-        <v>1.12594</v>
+        <v>1.11834</v>
       </c>
     </row>
     <row r="153" spans="1:16">
@@ -8964,10 +8964,10 @@
         <v>239</v>
       </c>
       <c r="O153">
-        <v>6.51352</v>
+        <v>6.61375</v>
       </c>
       <c r="P153">
-        <v>0.972782</v>
+        <v>0.980426</v>
       </c>
     </row>
     <row r="154" spans="1:16">
@@ -9014,10 +9014,10 @@
         <v>239</v>
       </c>
       <c r="O154">
-        <v>6.09678</v>
+        <v>6.04495</v>
       </c>
       <c r="P154">
-        <v>0.90384</v>
+        <v>0.896197</v>
       </c>
     </row>
     <row r="155" spans="1:16">
@@ -9064,10 +9064,10 @@
         <v>239</v>
       </c>
       <c r="O155">
-        <v>5.11454</v>
+        <v>5.16615</v>
       </c>
       <c r="P155">
-        <v>0.758338</v>
+        <v>0.765985</v>
       </c>
     </row>
     <row r="156" spans="1:16">
@@ -9114,10 +9114,10 @@
         <v>239</v>
       </c>
       <c r="O156">
-        <v>4.23731</v>
+        <v>4.28791</v>
       </c>
       <c r="P156">
-        <v>0.628367</v>
+        <v>0.635885</v>
       </c>
     </row>
     <row r="157" spans="1:16">
@@ -9164,10 +9164,10 @@
         <v>239</v>
       </c>
       <c r="O157">
-        <v>3.46065</v>
+        <v>3.46084</v>
       </c>
       <c r="P157">
-        <v>0.513325</v>
+        <v>0.51336</v>
       </c>
     </row>
     <row r="158" spans="1:16">
@@ -9214,10 +9214,10 @@
         <v>239</v>
       </c>
       <c r="O158">
-        <v>2.63454</v>
+        <v>2.68492</v>
       </c>
       <c r="P158">
-        <v>0.390916</v>
+        <v>0.398378</v>
       </c>
     </row>
     <row r="159" spans="1:16">
@@ -9264,10 +9264,10 @@
         <v>239</v>
       </c>
       <c r="O159">
-        <v>1.75589</v>
+        <v>1.75595</v>
       </c>
       <c r="P159">
-        <v>0.260741</v>
+        <v>0.268288</v>
       </c>
     </row>
     <row r="160" spans="1:16">
@@ -9314,10 +9314,10 @@
         <v>239</v>
       </c>
       <c r="O160">
-        <v>0.928901</v>
+        <v>0.980357</v>
       </c>
       <c r="P160">
-        <v>0.138227</v>
+        <v>0.145871</v>
       </c>
     </row>
     <row r="161" spans="1:16">
@@ -9364,10 +9364,10 @@
         <v>239</v>
       </c>
       <c r="O161">
-        <v>0.101514</v>
+        <v>0.101331</v>
       </c>
       <c r="P161">
-        <v>0.0156359</v>
+        <v>0.0156141</v>
       </c>
     </row>
     <row r="162" spans="1:16">
@@ -9414,10 +9414,10 @@
         <v>239</v>
       </c>
       <c r="O162">
-        <v>0.102039</v>
+        <v>0.101335</v>
       </c>
       <c r="P162">
-        <v>0.0157283</v>
+        <v>0.015619</v>
       </c>
     </row>
     <row r="163" spans="1:16">
@@ -9464,10 +9464,10 @@
         <v>239</v>
       </c>
       <c r="O163">
-        <v>-0.724846</v>
+        <v>-0.674116</v>
       </c>
       <c r="P163">
-        <v>-0.106777</v>
+        <v>-0.0992262</v>
       </c>
     </row>
     <row r="164" spans="1:16">
@@ -9514,10 +9514,10 @@
         <v>239</v>
       </c>
       <c r="O164">
-        <v>-1.60381</v>
+        <v>-1.60286</v>
       </c>
       <c r="P164">
-        <v>-0.236983</v>
+        <v>-0.229349</v>
       </c>
     </row>
     <row r="165" spans="1:16">
@@ -9564,10 +9564,10 @@
         <v>239</v>
       </c>
       <c r="O165">
-        <v>-2.43049</v>
+        <v>-2.42706</v>
       </c>
       <c r="P165">
-        <v>-0.359477</v>
+        <v>-0.351847</v>
       </c>
     </row>
     <row r="166" spans="1:16">
@@ -9614,10 +9614,10 @@
         <v>239</v>
       </c>
       <c r="O166">
-        <v>-3.20519</v>
+        <v>-3.20594</v>
       </c>
       <c r="P166">
-        <v>-0.474195</v>
+        <v>-0.474294</v>
       </c>
     </row>
     <row r="167" spans="1:16">
@@ -9664,10 +9664,10 @@
         <v>239</v>
       </c>
       <c r="O167">
-        <v>-4.03172</v>
+        <v>-4.03267</v>
       </c>
       <c r="P167">
-        <v>-0.596669</v>
+        <v>-0.596789</v>
       </c>
     </row>
     <row r="168" spans="1:16">
@@ -9714,10 +9714,10 @@
         <v>239</v>
       </c>
       <c r="O168">
-        <v>-4.96303</v>
+        <v>-4.96277</v>
       </c>
       <c r="P168">
-        <v>-0.734639</v>
+        <v>-0.734594</v>
       </c>
     </row>
     <row r="169" spans="1:16">
@@ -9764,10 +9764,10 @@
         <v>239</v>
       </c>
       <c r="O169">
-        <v>-5.89204</v>
+        <v>-5.8929</v>
       </c>
       <c r="P169">
-        <v>-0.872245</v>
+        <v>-0.872391</v>
       </c>
     </row>
     <row r="170" spans="1:16">
@@ -9814,10 +9814,10 @@
         <v>239</v>
       </c>
       <c r="O170">
-        <v>-6.50987</v>
+        <v>-6.40977</v>
       </c>
       <c r="P170">
-        <v>-0.963826</v>
+        <v>-0.948966</v>
       </c>
     </row>
     <row r="171" spans="1:16">
@@ -9864,10 +9864,10 @@
         <v>239</v>
       </c>
       <c r="O171">
-        <v>-7.2812</v>
+        <v>-7.28773</v>
       </c>
       <c r="P171">
-        <v>-1.07811</v>
+        <v>-1.07145</v>
       </c>
     </row>
     <row r="172" spans="1:16">
@@ -9914,10 +9914,10 @@
         <v>239</v>
       </c>
       <c r="O172">
-        <v>-8.06231</v>
+        <v>-8.10543</v>
       </c>
       <c r="P172">
-        <v>-1.19379</v>
+        <v>-1.20023</v>
       </c>
     </row>
     <row r="173" spans="1:16">
@@ -9964,10 +9964,10 @@
         <v>239</v>
       </c>
       <c r="O173">
-        <v>-8.94088</v>
+        <v>-8.94022</v>
       </c>
       <c r="P173">
-        <v>-1.32395</v>
+        <v>-1.32387</v>
       </c>
     </row>
     <row r="174" spans="1:16">
@@ -10014,10 +10014,10 @@
         <v>239</v>
       </c>
       <c r="O174">
-        <v>-9.664070000000001</v>
+        <v>-9.71574</v>
       </c>
       <c r="P174">
-        <v>-1.43112</v>
+        <v>-1.43877</v>
       </c>
     </row>
     <row r="175" spans="1:16">
@@ -10064,10 +10064,10 @@
         <v>239</v>
       </c>
       <c r="O175">
-        <v>-10.4295</v>
+        <v>-10.491</v>
       </c>
       <c r="P175">
-        <v>-1.54448</v>
+        <v>-1.55363</v>
       </c>
     </row>
     <row r="176" spans="1:16">
@@ -10114,10 +10114,10 @@
         <v>239</v>
       </c>
       <c r="O176">
-        <v>-11.3085</v>
+        <v>-11.2141</v>
       </c>
       <c r="P176">
-        <v>-1.67478</v>
+        <v>-1.66074</v>
       </c>
     </row>
     <row r="177" spans="1:16">
@@ -10164,10 +10164,10 @@
         <v>239</v>
       </c>
       <c r="O177">
-        <v>-12.0324</v>
+        <v>-11.989</v>
       </c>
       <c r="P177">
-        <v>-1.78196</v>
+        <v>-1.77554</v>
       </c>
     </row>
     <row r="178" spans="1:16">
@@ -10214,10 +10214,10 @@
         <v>239</v>
       </c>
       <c r="O178">
-        <v>-11.9894</v>
+        <v>-12.0324</v>
       </c>
       <c r="P178">
-        <v>-1.77556</v>
+        <v>-1.78202</v>
       </c>
     </row>
     <row r="179" spans="1:16">
@@ -10264,10 +10264,10 @@
         <v>239</v>
       </c>
       <c r="O179">
-        <v>-12.61</v>
+        <v>-12.6614</v>
       </c>
       <c r="P179">
-        <v>-1.86754</v>
+        <v>-1.87517</v>
       </c>
     </row>
     <row r="180" spans="1:16">
@@ -10314,10 +10314,10 @@
         <v>239</v>
       </c>
       <c r="O180">
-        <v>-13.1786</v>
+        <v>-13.3841</v>
       </c>
       <c r="P180">
-        <v>-1.95178</v>
+        <v>-1.98221</v>
       </c>
     </row>
     <row r="181" spans="1:16">
@@ -10364,10 +10364,10 @@
         <v>239</v>
       </c>
       <c r="O181">
-        <v>-13.6878</v>
+        <v>-13.9019</v>
       </c>
       <c r="P181">
-        <v>-2.02726</v>
+        <v>-2.05891</v>
       </c>
     </row>
     <row r="182" spans="1:16">
@@ -10414,10 +10414,10 @@
         <v>239</v>
       </c>
       <c r="O182">
-        <v>-14.2116</v>
+        <v>-14.5221</v>
       </c>
       <c r="P182">
-        <v>-2.10483</v>
+        <v>-2.15081</v>
       </c>
     </row>
     <row r="183" spans="1:16">
@@ -10464,10 +10464,10 @@
         <v>239</v>
       </c>
       <c r="O183">
-        <v>-14.729</v>
+        <v>-15.1938</v>
       </c>
       <c r="P183">
-        <v>-2.18143</v>
+        <v>-2.25032</v>
       </c>
     </row>
     <row r="184" spans="1:16">
@@ -10514,10 +10514,10 @@
         <v>239</v>
       </c>
       <c r="O184">
-        <v>-15.2458</v>
+        <v>-15.8137</v>
       </c>
       <c r="P184">
-        <v>-2.25802</v>
+        <v>-2.34217</v>
       </c>
     </row>
     <row r="185" spans="1:16">
@@ -10564,10 +10564,10 @@
         <v>239</v>
       </c>
       <c r="O185">
-        <v>-15.8661</v>
+        <v>-16.4267</v>
       </c>
       <c r="P185">
-        <v>-2.34992</v>
+        <v>-2.43303</v>
       </c>
     </row>
     <row r="186" spans="1:16">
@@ -10614,10 +10614,10 @@
         <v>239</v>
       </c>
       <c r="O186">
-        <v>-15.7631</v>
+        <v>-16.3835</v>
       </c>
       <c r="P186">
-        <v>-2.33466</v>
+        <v>-2.42654</v>
       </c>
     </row>
     <row r="187" spans="1:16">
@@ -10664,10 +10664,10 @@
         <v>239</v>
       </c>
       <c r="O187">
-        <v>-16.3824</v>
+        <v>-17.1</v>
       </c>
       <c r="P187">
-        <v>-2.42641</v>
+        <v>-2.5328</v>
       </c>
     </row>
     <row r="188" spans="1:16">
@@ -10714,10 +10714,10 @@
         <v>239</v>
       </c>
       <c r="O188">
-        <v>-17.0482</v>
+        <v>-17.6757</v>
       </c>
       <c r="P188">
-        <v>-2.5251</v>
+        <v>-2.61798</v>
       </c>
     </row>
     <row r="189" spans="1:16">
@@ -10764,10 +10764,10 @@
         <v>239</v>
       </c>
       <c r="O189">
-        <v>-17.469</v>
+        <v>-18.347</v>
       </c>
       <c r="P189">
-        <v>-2.58735</v>
+        <v>-2.71746</v>
       </c>
     </row>
     <row r="190" spans="1:16">
@@ -10814,10 +10814,10 @@
         <v>239</v>
       </c>
       <c r="O190">
-        <v>-17.9852</v>
+        <v>-18.8646</v>
       </c>
       <c r="P190">
-        <v>-2.66387</v>
+        <v>-2.79412</v>
       </c>
     </row>
     <row r="191" spans="1:16">
@@ -10864,10 +10864,10 @@
         <v>239</v>
       </c>
       <c r="O191">
-        <v>-18.4504</v>
+        <v>-19.6909</v>
       </c>
       <c r="P191">
-        <v>-2.73274</v>
+        <v>-2.91657</v>
       </c>
     </row>
     <row r="192" spans="1:16">
@@ -10914,10 +10914,10 @@
         <v>239</v>
       </c>
       <c r="O192">
-        <v>-19.1684</v>
+        <v>-20.4665</v>
       </c>
       <c r="P192">
-        <v>-2.8392</v>
+        <v>-3.03147</v>
       </c>
     </row>
     <row r="193" spans="1:16">
@@ -10964,10 +10964,10 @@
         <v>239</v>
       </c>
       <c r="O193">
-        <v>-19.8974</v>
+        <v>-21.2936</v>
       </c>
       <c r="P193">
-        <v>-2.9471</v>
+        <v>-3.15401</v>
       </c>
     </row>
     <row r="194" spans="1:16" s="1" customFormat="1">
@@ -11025,10 +11025,10 @@
         <v>303</v>
       </c>
       <c r="O195" s="3">
-        <v>-35.5865</v>
+        <v>-37.3893</v>
       </c>
       <c r="P195" s="1">
-        <v>-4.30139</v>
+        <v>-4.53185</v>
       </c>
     </row>
     <row r="196" spans="1:16" s="1" customFormat="1">
@@ -11036,10 +11036,10 @@
         <v>304</v>
       </c>
       <c r="O196" s="2">
-        <v>35.4442</v>
+        <v>37.3468</v>
       </c>
       <c r="P196" s="1">
-        <v>4.29645</v>
+        <v>4.52707</v>
       </c>
     </row>
     <row r="197" spans="1:16" s="1" customFormat="1">
@@ -11079,10 +11079,10 @@
         <v>309</v>
       </c>
       <c r="O201" s="1">
-        <v>0.1389878</v>
+        <v>0.1307982</v>
       </c>
       <c r="P201" s="1">
-        <v>0.02085272</v>
+        <v>0.01983257</v>
       </c>
     </row>
     <row r="202" spans="1:16" s="1" customFormat="1">
@@ -11090,10 +11090,10 @@
         <v>310</v>
       </c>
       <c r="O202" s="1">
-        <v>17.0508</v>
+        <v>17.618948</v>
       </c>
       <c r="P202" s="1">
-        <v>2.21944</v>
+        <v>2.293477</v>
       </c>
     </row>
     <row r="203" spans="1:16" s="1" customFormat="1">
@@ -11101,10 +11101,10 @@
         <v>311</v>
       </c>
       <c r="O203" s="1">
-        <v>12267.839336</v>
+        <v>13470.329102</v>
       </c>
       <c r="P203" s="1">
-        <v>10643.407671</v>
+        <v>11564.194656</v>
       </c>
     </row>
     <row r="204" spans="1:16" s="1" customFormat="1"/>

--- a/dcd_top_offset_step_tsmc2p_meas.xlsx
+++ b/dcd_top_offset_step_tsmc2p_meas.xlsx
@@ -956,7 +956,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -972,32 +972,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF "/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF9133"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0094D1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1012,11 +993,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1414,10 +1393,10 @@
         <v>29</v>
       </c>
       <c r="O2">
-        <v>28.281</v>
+        <v>24.6143</v>
       </c>
       <c r="P2">
-        <v>3.77108</v>
+        <v>3.28219</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1464,10 +1443,10 @@
         <v>29</v>
       </c>
       <c r="O3">
-        <v>27.3513</v>
+        <v>23.943</v>
       </c>
       <c r="P3">
-        <v>3.64712</v>
+        <v>3.19268</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1514,10 +1493,10 @@
         <v>29</v>
       </c>
       <c r="O4">
-        <v>26.3159</v>
+        <v>22.9599</v>
       </c>
       <c r="P4">
-        <v>3.50907</v>
+        <v>3.0616</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1564,10 +1543,10 @@
         <v>29</v>
       </c>
       <c r="O5">
-        <v>25.3339</v>
+        <v>22.2872</v>
       </c>
       <c r="P5">
-        <v>3.37816</v>
+        <v>2.97192</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1614,10 +1593,10 @@
         <v>29</v>
       </c>
       <c r="O6">
-        <v>24.5085</v>
+        <v>21.6681</v>
       </c>
       <c r="P6">
-        <v>3.26809</v>
+        <v>2.88937</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1664,10 +1643,10 @@
         <v>29</v>
       </c>
       <c r="O7">
-        <v>23.4242</v>
+        <v>20.8938</v>
       </c>
       <c r="P7">
-        <v>3.12353</v>
+        <v>2.78612</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1714,10 +1693,10 @@
         <v>29</v>
       </c>
       <c r="O8">
-        <v>22.5462</v>
+        <v>20.2738</v>
       </c>
       <c r="P8">
-        <v>3.00645</v>
+        <v>2.70347</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1764,10 +1743,10 @@
         <v>29</v>
       </c>
       <c r="O9">
-        <v>21.5133</v>
+        <v>19.4991</v>
       </c>
       <c r="P9">
-        <v>2.86874</v>
+        <v>2.60017</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1814,10 +1793,10 @@
         <v>29</v>
       </c>
       <c r="O10">
-        <v>21.3583</v>
+        <v>19.1894</v>
       </c>
       <c r="P10">
-        <v>2.84807</v>
+        <v>2.5589</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1864,10 +1843,10 @@
         <v>29</v>
       </c>
       <c r="O11">
-        <v>20.2743</v>
+        <v>18.518</v>
       </c>
       <c r="P11">
-        <v>2.70353</v>
+        <v>2.46936</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1914,10 +1893,10 @@
         <v>29</v>
       </c>
       <c r="O12">
-        <v>19.3443</v>
+        <v>17.7958</v>
       </c>
       <c r="P12">
-        <v>2.57953</v>
+        <v>2.37982</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1964,10 +1943,10 @@
         <v>29</v>
       </c>
       <c r="O13">
-        <v>18.3629</v>
+        <v>17.1236</v>
       </c>
       <c r="P13">
-        <v>2.44866</v>
+        <v>2.28344</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -2014,10 +1993,10 @@
         <v>29</v>
       </c>
       <c r="O14">
-        <v>17.4851</v>
+        <v>16.6075</v>
       </c>
       <c r="P14">
-        <v>2.33164</v>
+        <v>2.21463</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -2064,10 +2043,10 @@
         <v>29</v>
       </c>
       <c r="O15">
-        <v>16.5558</v>
+        <v>15.9362</v>
       </c>
       <c r="P15">
-        <v>2.20773</v>
+        <v>2.12512</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -2114,10 +2093,10 @@
         <v>29</v>
       </c>
       <c r="O16">
-        <v>15.5232</v>
+        <v>15.2131</v>
       </c>
       <c r="P16">
-        <v>2.07005</v>
+        <v>2.02872</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -2167,7 +2146,7 @@
         <v>14.645</v>
       </c>
       <c r="P17">
-        <v>1.95295</v>
+        <v>1.95294</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -2214,10 +2193,10 @@
         <v>29</v>
       </c>
       <c r="O18">
-        <v>14.6449</v>
+        <v>14.645</v>
       </c>
       <c r="P18">
-        <v>1.95293</v>
+        <v>1.95294</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -2264,10 +2243,10 @@
         <v>29</v>
       </c>
       <c r="O19">
-        <v>13.7153</v>
+        <v>13.767</v>
       </c>
       <c r="P19">
-        <v>1.82899</v>
+        <v>1.83588</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -2314,10 +2293,10 @@
         <v>29</v>
       </c>
       <c r="O20">
-        <v>12.8891</v>
+        <v>12.8374</v>
       </c>
       <c r="P20">
-        <v>1.71883</v>
+        <v>1.71193</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -2364,10 +2343,10 @@
         <v>29</v>
       </c>
       <c r="O21">
-        <v>11.9078</v>
+        <v>11.856</v>
       </c>
       <c r="P21">
-        <v>1.588</v>
+        <v>1.58109</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -2414,10 +2393,10 @@
         <v>29</v>
       </c>
       <c r="O22">
-        <v>10.9307</v>
+        <v>10.9269</v>
       </c>
       <c r="P22">
-        <v>1.45771</v>
+        <v>1.45721</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -2464,10 +2443,10 @@
         <v>29</v>
       </c>
       <c r="O23">
-        <v>9.948930000000001</v>
+        <v>9.96406</v>
       </c>
       <c r="P23">
-        <v>1.32681</v>
+        <v>1.32883</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -2514,10 +2493,10 @@
         <v>29</v>
       </c>
       <c r="O24">
-        <v>9.0669</v>
+        <v>9.015319999999999</v>
       </c>
       <c r="P24">
-        <v>1.2092</v>
+        <v>1.20234</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -2564,10 +2543,10 @@
         <v>29</v>
       </c>
       <c r="O25">
-        <v>7.98281</v>
+        <v>7.98318</v>
       </c>
       <c r="P25">
-        <v>1.06467</v>
+        <v>1.06471</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -2614,10 +2593,10 @@
         <v>29</v>
       </c>
       <c r="O26">
-        <v>7.20806</v>
+        <v>7.15652</v>
       </c>
       <c r="P26">
-        <v>0.961374</v>
+        <v>0.954487</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -2664,10 +2643,10 @@
         <v>29</v>
       </c>
       <c r="O27">
-        <v>6.17482</v>
+        <v>6.12333</v>
       </c>
       <c r="P27">
-        <v>0.823605</v>
+        <v>0.816733</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -2714,10 +2693,10 @@
         <v>29</v>
       </c>
       <c r="O28">
-        <v>5.14207</v>
+        <v>5.14638</v>
       </c>
       <c r="P28">
-        <v>0.685897</v>
+        <v>0.686467</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -2764,10 +2743,10 @@
         <v>29</v>
       </c>
       <c r="O29">
-        <v>4.05746</v>
+        <v>4.10906</v>
       </c>
       <c r="P29">
-        <v>0.541287</v>
+        <v>0.548159</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2814,10 +2793,10 @@
         <v>29</v>
       </c>
       <c r="O30">
-        <v>3.07645</v>
+        <v>3.12755</v>
       </c>
       <c r="P30">
-        <v>0.410484</v>
+        <v>0.417283</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2864,10 +2843,10 @@
         <v>29</v>
       </c>
       <c r="O31">
-        <v>2.1462</v>
+        <v>2.14628</v>
       </c>
       <c r="P31">
-        <v>0.286446</v>
+        <v>0.286457</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -2914,10 +2893,10 @@
         <v>29</v>
       </c>
       <c r="O32">
-        <v>1.01013</v>
+        <v>1.11368</v>
       </c>
       <c r="P32">
-        <v>0.134973</v>
+        <v>0.148776</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2964,10 +2943,10 @@
         <v>29</v>
       </c>
       <c r="O33">
-        <v>0.0289664</v>
+        <v>0.0290346</v>
       </c>
       <c r="P33">
-        <v>0.00414462</v>
+        <v>0.00415756</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -3014,10 +2993,10 @@
         <v>29</v>
       </c>
       <c r="O34">
-        <v>0.028828</v>
+        <v>0.0288859</v>
       </c>
       <c r="P34">
-        <v>0.00412192</v>
+        <v>0.00413282</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -3064,10 +3043,10 @@
         <v>29</v>
       </c>
       <c r="O35">
-        <v>-0.952227</v>
+        <v>-0.952546</v>
       </c>
       <c r="P35">
-        <v>-0.126678</v>
+        <v>-0.126721</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -3114,10 +3093,10 @@
         <v>29</v>
       </c>
       <c r="O36">
-        <v>-1.98496</v>
+        <v>-1.93332</v>
       </c>
       <c r="P36">
-        <v>-0.264377</v>
+        <v>-0.257485</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -3164,10 +3143,10 @@
         <v>29</v>
       </c>
       <c r="O37">
-        <v>-3.01712</v>
+        <v>-3.01706</v>
       </c>
       <c r="P37">
-        <v>-0.401994</v>
+        <v>-0.401986</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -3214,10 +3193,10 @@
         <v>29</v>
       </c>
       <c r="O38">
-        <v>-3.89512</v>
+        <v>-3.94686</v>
       </c>
       <c r="P38">
-        <v>-0.519072</v>
+        <v>-0.525959</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -3264,10 +3243,10 @@
         <v>29</v>
       </c>
       <c r="O39">
-        <v>-5.03122</v>
+        <v>-4.97948</v>
       </c>
       <c r="P39">
-        <v>-0.67053</v>
+        <v>-0.663646</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -3314,10 +3293,10 @@
         <v>29</v>
       </c>
       <c r="O40">
-        <v>-6.0123</v>
+        <v>-6.0603</v>
       </c>
       <c r="P40">
-        <v>-0.801357</v>
+        <v>-0.807755</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -3364,10 +3343,10 @@
         <v>29</v>
       </c>
       <c r="O41">
-        <v>-7.09653</v>
+        <v>-7.09597</v>
       </c>
       <c r="P41">
-        <v>-0.945914</v>
+        <v>-0.939025</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -3414,10 +3393,10 @@
         <v>29</v>
       </c>
       <c r="O42">
-        <v>-7.92255</v>
+        <v>-7.87077</v>
       </c>
       <c r="P42">
-        <v>-1.05605</v>
+        <v>-1.04914</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -3464,10 +3443,10 @@
         <v>29</v>
       </c>
       <c r="O43">
-        <v>-8.85168</v>
+        <v>-8.903219999999999</v>
       </c>
       <c r="P43">
-        <v>-1.17993</v>
+        <v>-1.1868</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -3514,10 +3493,10 @@
         <v>29</v>
       </c>
       <c r="O44">
-        <v>-9.832990000000001</v>
+        <v>-9.781330000000001</v>
       </c>
       <c r="P44">
-        <v>-1.31077</v>
+        <v>-1.30388</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -3564,10 +3543,10 @@
         <v>29</v>
       </c>
       <c r="O45">
-        <v>-10.9169</v>
+        <v>-10.8658</v>
       </c>
       <c r="P45">
-        <v>-1.44851</v>
+        <v>-1.44848</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -3614,10 +3593,10 @@
         <v>29</v>
       </c>
       <c r="O46">
-        <v>-11.7434</v>
+        <v>-11.7953</v>
       </c>
       <c r="P46">
-        <v>-1.56551</v>
+        <v>-1.57241</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -3664,10 +3643,10 @@
         <v>29</v>
       </c>
       <c r="O47">
-        <v>-12.7252</v>
+        <v>-12.8289</v>
       </c>
       <c r="P47">
-        <v>-1.69642</v>
+        <v>-1.71022</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -3714,10 +3693,10 @@
         <v>29</v>
       </c>
       <c r="O48">
-        <v>-13.6028</v>
+        <v>-13.6553</v>
       </c>
       <c r="P48">
-        <v>-1.81341</v>
+        <v>-1.82043</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -3764,10 +3743,10 @@
         <v>29</v>
       </c>
       <c r="O49">
-        <v>-14.5329</v>
+        <v>-14.533</v>
       </c>
       <c r="P49">
-        <v>-1.93743</v>
+        <v>-1.93745</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -3814,10 +3793,10 @@
         <v>29</v>
       </c>
       <c r="O50">
-        <v>-14.5331</v>
+        <v>-14.5327</v>
       </c>
       <c r="P50">
-        <v>-1.93746</v>
+        <v>-1.9374</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -3864,10 +3843,10 @@
         <v>29</v>
       </c>
       <c r="O51">
-        <v>-15.4108</v>
+        <v>-15.1523</v>
       </c>
       <c r="P51">
-        <v>-2.05449</v>
+        <v>-2.02001</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -3914,10 +3893,10 @@
         <v>29</v>
       </c>
       <c r="O52">
-        <v>-16.34</v>
+        <v>-15.7208</v>
       </c>
       <c r="P52">
-        <v>-2.17838</v>
+        <v>-2.09583</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -3964,10 +3943,10 @@
         <v>29</v>
       </c>
       <c r="O53">
-        <v>-17.2175</v>
+        <v>-16.392</v>
       </c>
       <c r="P53">
-        <v>-2.29537</v>
+        <v>-2.1853</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -4014,10 +3993,10 @@
         <v>29</v>
       </c>
       <c r="O54">
-        <v>-17.9919</v>
+        <v>-16.908</v>
       </c>
       <c r="P54">
-        <v>-2.39862</v>
+        <v>-2.25412</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -4064,10 +4043,10 @@
         <v>29</v>
       </c>
       <c r="O55">
-        <v>-18.9223</v>
+        <v>-17.4763</v>
       </c>
       <c r="P55">
-        <v>-2.52268</v>
+        <v>-2.32988</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -4114,10 +4093,10 @@
         <v>29</v>
       </c>
       <c r="O56">
-        <v>-19.8517</v>
+        <v>-18.1984</v>
       </c>
       <c r="P56">
-        <v>-2.6466</v>
+        <v>-2.42616</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -4164,10 +4143,10 @@
         <v>29</v>
       </c>
       <c r="O57">
-        <v>-20.9361</v>
+        <v>-18.8189</v>
       </c>
       <c r="P57">
-        <v>-2.7912</v>
+        <v>-2.5089</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -4214,10 +4193,10 @@
         <v>29</v>
       </c>
       <c r="O58">
-        <v>-21.0386</v>
+        <v>-19.18</v>
       </c>
       <c r="P58">
-        <v>-2.79806</v>
+        <v>-2.55704</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -4264,10 +4243,10 @@
         <v>29</v>
       </c>
       <c r="O59">
-        <v>-22.1198</v>
+        <v>-19.7998</v>
       </c>
       <c r="P59">
-        <v>-2.94903</v>
+        <v>-2.63968</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -4314,10 +4293,10 @@
         <v>29</v>
       </c>
       <c r="O60">
-        <v>-23.1563</v>
+        <v>-20.471</v>
       </c>
       <c r="P60">
-        <v>-3.08721</v>
+        <v>-2.72916</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -4364,10 +4343,10 @@
         <v>29</v>
       </c>
       <c r="O61">
-        <v>-24.1894</v>
+        <v>-21.1938</v>
       </c>
       <c r="P61">
-        <v>-3.22496</v>
+        <v>-2.82555</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -4414,10 +4393,10 @@
         <v>29</v>
       </c>
       <c r="O62">
-        <v>-24.964</v>
+        <v>-21.7618</v>
       </c>
       <c r="P62">
-        <v>-3.32824</v>
+        <v>-2.90129</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -4464,10 +4443,10 @@
         <v>29</v>
       </c>
       <c r="O63">
-        <v>-25.9964</v>
+        <v>-22.5337</v>
       </c>
       <c r="P63">
-        <v>-3.4659</v>
+        <v>-3.0042</v>
       </c>
     </row>
     <row r="64" spans="1:16">
@@ -4514,10 +4493,10 @@
         <v>29</v>
       </c>
       <c r="O64">
-        <v>-26.9263</v>
+        <v>-23.2597</v>
       </c>
       <c r="P64">
-        <v>-3.58988</v>
+        <v>-3.10099</v>
       </c>
     </row>
     <row r="65" spans="1:16">
@@ -4564,10 +4543,10 @@
         <v>29</v>
       </c>
       <c r="O65">
-        <v>-28.0106</v>
+        <v>-23.9829</v>
       </c>
       <c r="P65">
-        <v>-3.73446</v>
+        <v>-3.19743</v>
       </c>
     </row>
     <row r="66" spans="1:16">
@@ -4613,11 +4592,11 @@
       <c r="N66" t="s">
         <v>165</v>
       </c>
-      <c r="O66" s="2">
-        <v>37.3468</v>
+      <c r="O66">
+        <v>32.8423</v>
       </c>
       <c r="P66">
-        <v>4.52707</v>
+        <v>3.98108</v>
       </c>
     </row>
     <row r="67" spans="1:16">
@@ -4663,11 +4642,11 @@
       <c r="N67" t="s">
         <v>165</v>
       </c>
-      <c r="O67" s="2">
-        <v>35.9949</v>
+      <c r="O67">
+        <v>31.9393</v>
       </c>
       <c r="P67">
-        <v>4.3632</v>
+        <v>3.87162</v>
       </c>
     </row>
     <row r="68" spans="1:16">
@@ -4714,10 +4693,10 @@
         <v>165</v>
       </c>
       <c r="O68">
-        <v>34.5402</v>
+        <v>30.8856</v>
       </c>
       <c r="P68">
-        <v>4.18688</v>
+        <v>3.7439</v>
       </c>
     </row>
     <row r="69" spans="1:16">
@@ -4764,10 +4743,10 @@
         <v>165</v>
       </c>
       <c r="O69">
-        <v>33.2379</v>
+        <v>29.9837</v>
       </c>
       <c r="P69">
-        <v>4.02902</v>
+        <v>3.63457</v>
       </c>
     </row>
     <row r="70" spans="1:16">
@@ -4814,10 +4793,10 @@
         <v>165</v>
       </c>
       <c r="O70">
-        <v>32.2882</v>
+        <v>29.1835</v>
       </c>
       <c r="P70">
-        <v>3.91391</v>
+        <v>3.53758</v>
       </c>
     </row>
     <row r="71" spans="1:16">
@@ -4864,10 +4843,10 @@
         <v>165</v>
       </c>
       <c r="O71">
-        <v>31.0358</v>
+        <v>28.2821</v>
       </c>
       <c r="P71">
-        <v>3.76211</v>
+        <v>3.42833</v>
       </c>
     </row>
     <row r="72" spans="1:16">
@@ -4914,10 +4893,10 @@
         <v>165</v>
       </c>
       <c r="O72">
-        <v>29.8342</v>
+        <v>27.3812</v>
       </c>
       <c r="P72">
-        <v>3.61646</v>
+        <v>3.31911</v>
       </c>
     </row>
     <row r="73" spans="1:16">
@@ -4964,10 +4943,10 @@
         <v>165</v>
       </c>
       <c r="O73">
-        <v>28.5326</v>
+        <v>26.3807</v>
       </c>
       <c r="P73">
-        <v>3.4587</v>
+        <v>3.19784</v>
       </c>
     </row>
     <row r="74" spans="1:16">
@@ -5014,10 +4993,10 @@
         <v>165</v>
       </c>
       <c r="O74">
-        <v>28.5826</v>
+        <v>26.0796</v>
       </c>
       <c r="P74">
-        <v>3.46473</v>
+        <v>3.16135</v>
       </c>
     </row>
     <row r="75" spans="1:16">
@@ -5064,10 +5043,10 @@
         <v>165</v>
       </c>
       <c r="O75">
-        <v>27.1817</v>
+        <v>25.1783</v>
       </c>
       <c r="P75">
-        <v>3.29493</v>
+        <v>3.0521</v>
       </c>
     </row>
     <row r="76" spans="1:16">
@@ -5114,10 +5093,10 @@
         <v>165</v>
       </c>
       <c r="O76">
-        <v>25.9795</v>
+        <v>24.2769</v>
       </c>
       <c r="P76">
-        <v>3.14922</v>
+        <v>2.94284</v>
       </c>
     </row>
     <row r="77" spans="1:16">
@@ -5164,10 +5143,10 @@
         <v>165</v>
       </c>
       <c r="O77">
-        <v>24.7275</v>
+        <v>23.3758</v>
       </c>
       <c r="P77">
-        <v>2.99747</v>
+        <v>2.83361</v>
       </c>
     </row>
     <row r="78" spans="1:16">
@@ -5214,10 +5193,10 @@
         <v>165</v>
       </c>
       <c r="O78">
-        <v>23.676</v>
+        <v>22.4741</v>
       </c>
       <c r="P78">
-        <v>2.87001</v>
+        <v>2.72433</v>
       </c>
     </row>
     <row r="79" spans="1:16">
@@ -5264,10 +5243,10 @@
         <v>165</v>
       </c>
       <c r="O79">
-        <v>22.275</v>
+        <v>21.5738</v>
       </c>
       <c r="P79">
-        <v>2.70611</v>
+        <v>2.61519</v>
       </c>
     </row>
     <row r="80" spans="1:16">
@@ -5314,10 +5293,10 @@
         <v>165</v>
       </c>
       <c r="O80">
-        <v>21.0722</v>
+        <v>20.6216</v>
       </c>
       <c r="P80">
-        <v>2.55437</v>
+        <v>2.49979</v>
       </c>
     </row>
     <row r="81" spans="1:16">
@@ -5364,10 +5343,10 @@
         <v>165</v>
       </c>
       <c r="O81">
-        <v>19.7201</v>
+        <v>19.7704</v>
       </c>
       <c r="P81">
-        <v>2.39051</v>
+        <v>2.3966</v>
       </c>
     </row>
     <row r="82" spans="1:16">
@@ -5414,10 +5393,10 @@
         <v>165</v>
       </c>
       <c r="O82">
-        <v>19.7704</v>
+        <v>19.7204</v>
       </c>
       <c r="P82">
-        <v>2.3966</v>
+        <v>2.39054</v>
       </c>
     </row>
     <row r="83" spans="1:16">
@@ -5464,10 +5443,10 @@
         <v>165</v>
       </c>
       <c r="O83">
-        <v>18.3711</v>
+        <v>18.3692</v>
       </c>
       <c r="P83">
-        <v>2.22698</v>
+        <v>2.22675</v>
       </c>
     </row>
     <row r="84" spans="1:16">
@@ -5514,10 +5493,10 @@
         <v>165</v>
       </c>
       <c r="O84">
-        <v>16.9664</v>
+        <v>16.9162</v>
       </c>
       <c r="P84">
-        <v>2.05672</v>
+        <v>2.05065</v>
       </c>
     </row>
     <row r="85" spans="1:16">
@@ -5564,10 +5543,10 @@
         <v>165</v>
       </c>
       <c r="O85">
-        <v>15.4653</v>
+        <v>15.5644</v>
       </c>
       <c r="P85">
-        <v>1.88069</v>
+        <v>1.88678</v>
       </c>
     </row>
     <row r="86" spans="1:16">
@@ -5614,10 +5593,10 @@
         <v>165</v>
       </c>
       <c r="O86">
-        <v>14.1626</v>
+        <v>14.2124</v>
       </c>
       <c r="P86">
-        <v>1.71687</v>
+        <v>1.72289</v>
       </c>
     </row>
     <row r="87" spans="1:16">
@@ -5664,7 +5643,7 @@
         <v>165</v>
       </c>
       <c r="O87">
-        <v>12.7605</v>
+        <v>12.7604</v>
       </c>
       <c r="P87">
         <v>1.54691</v>
@@ -5714,10 +5693,10 @@
         <v>165</v>
       </c>
       <c r="O88">
-        <v>11.258</v>
+        <v>11.3081</v>
       </c>
       <c r="P88">
-        <v>1.3648</v>
+        <v>1.37086</v>
       </c>
     </row>
     <row r="89" spans="1:16">
@@ -5764,10 +5743,10 @@
         <v>165</v>
       </c>
       <c r="O89">
-        <v>9.705859999999999</v>
+        <v>9.705730000000001</v>
       </c>
       <c r="P89">
-        <v>1.17666</v>
+        <v>1.17665</v>
       </c>
     </row>
     <row r="90" spans="1:16">
@@ -5814,10 +5793,10 @@
         <v>165</v>
       </c>
       <c r="O90">
-        <v>8.654310000000001</v>
+        <v>8.65443</v>
       </c>
       <c r="P90">
-        <v>1.04919</v>
+        <v>1.04921</v>
       </c>
     </row>
     <row r="91" spans="1:16">
@@ -5864,10 +5843,10 @@
         <v>165</v>
       </c>
       <c r="O91">
-        <v>7.40245</v>
+        <v>7.37476</v>
       </c>
       <c r="P91">
-        <v>0.8974529999999999</v>
+        <v>0.894086</v>
       </c>
     </row>
     <row r="92" spans="1:16">
@@ -5914,10 +5893,10 @@
         <v>165</v>
       </c>
       <c r="O92">
-        <v>6.20107</v>
+        <v>6.20113</v>
       </c>
       <c r="P92">
-        <v>0.751841</v>
+        <v>0.751847</v>
       </c>
     </row>
     <row r="93" spans="1:16">
@@ -5964,10 +5943,10 @@
         <v>165</v>
       </c>
       <c r="O93">
-        <v>4.99983</v>
+        <v>5.00018</v>
       </c>
       <c r="P93">
-        <v>0.606236</v>
+        <v>0.606277</v>
       </c>
     </row>
     <row r="94" spans="1:16">
@@ -6064,10 +6043,10 @@
         <v>165</v>
       </c>
       <c r="O95">
-        <v>2.44783</v>
+        <v>2.44966</v>
       </c>
       <c r="P95">
-        <v>0.296889</v>
+        <v>0.297107</v>
       </c>
     </row>
     <row r="96" spans="1:16">
@@ -6114,10 +6093,10 @@
         <v>165</v>
       </c>
       <c r="O96">
-        <v>1.24586</v>
+        <v>1.24598</v>
       </c>
       <c r="P96">
-        <v>0.151201</v>
+        <v>0.151213</v>
       </c>
     </row>
     <row r="97" spans="1:16">
@@ -6164,10 +6143,10 @@
         <v>165</v>
       </c>
       <c r="O97">
-        <v>0.0449317</v>
+        <v>0.0948343</v>
       </c>
       <c r="P97">
-        <v>0.00563382</v>
+        <v>0.0116789</v>
       </c>
     </row>
     <row r="98" spans="1:16">
@@ -6214,10 +6193,10 @@
         <v>165</v>
       </c>
       <c r="O98">
-        <v>0.0448849</v>
+        <v>0.0449633</v>
       </c>
       <c r="P98">
-        <v>0.00562695</v>
+        <v>0.00563766</v>
       </c>
     </row>
     <row r="99" spans="1:16">
@@ -6264,10 +6243,10 @@
         <v>165</v>
       </c>
       <c r="O99">
-        <v>-1.25639</v>
+        <v>-1.20661</v>
       </c>
       <c r="P99">
-        <v>-0.152107</v>
+        <v>-0.146064</v>
       </c>
     </row>
     <row r="100" spans="1:16">
@@ -6314,10 +6293,10 @@
         <v>165</v>
       </c>
       <c r="O100">
-        <v>-2.50776</v>
+        <v>-2.50766</v>
       </c>
       <c r="P100">
-        <v>-0.30378</v>
+        <v>-0.303764</v>
       </c>
     </row>
     <row r="101" spans="1:16">
@@ -6364,10 +6343,10 @@
         <v>165</v>
       </c>
       <c r="O101">
-        <v>-3.75609</v>
+        <v>-3.75826</v>
       </c>
       <c r="P101">
-        <v>-0.4551</v>
+        <v>-0.455369</v>
       </c>
     </row>
     <row r="102" spans="1:16">
@@ -6414,10 +6393,10 @@
         <v>165</v>
       </c>
       <c r="O102">
-        <v>-4.9097</v>
+        <v>-4.91014</v>
       </c>
       <c r="P102">
-        <v>-0.594928</v>
+        <v>-0.5949759999999999</v>
       </c>
     </row>
     <row r="103" spans="1:16">
@@ -6464,10 +6443,10 @@
         <v>165</v>
       </c>
       <c r="O103">
-        <v>-6.16037</v>
+        <v>-6.16016</v>
       </c>
       <c r="P103">
-        <v>-0.74653</v>
+        <v>-0.740604</v>
       </c>
     </row>
     <row r="104" spans="1:16">
@@ -6514,10 +6493,10 @@
         <v>165</v>
       </c>
       <c r="O104">
-        <v>-7.4625</v>
+        <v>-7.41263</v>
       </c>
       <c r="P104">
-        <v>-0.904363</v>
+        <v>-0.898304</v>
       </c>
     </row>
     <row r="105" spans="1:16">
@@ -6564,10 +6543,10 @@
         <v>165</v>
       </c>
       <c r="O105">
-        <v>-8.763820000000001</v>
+        <v>-8.7141</v>
       </c>
       <c r="P105">
-        <v>-1.0621</v>
+        <v>-1.05607</v>
       </c>
     </row>
     <row r="106" spans="1:16">
@@ -6614,10 +6593,10 @@
         <v>165</v>
       </c>
       <c r="O106">
-        <v>-9.865119999999999</v>
+        <v>-9.8154</v>
       </c>
       <c r="P106">
-        <v>-1.19559</v>
+        <v>-1.18956</v>
       </c>
     </row>
     <row r="107" spans="1:16">
@@ -6664,10 +6643,10 @@
         <v>165</v>
       </c>
       <c r="O107">
-        <v>-11.2168</v>
+        <v>-11.2664</v>
       </c>
       <c r="P107">
-        <v>-1.35943</v>
+        <v>-1.36544</v>
       </c>
     </row>
     <row r="108" spans="1:16">
@@ -6714,10 +6693,10 @@
         <v>165</v>
       </c>
       <c r="O108">
-        <v>-12.6679</v>
+        <v>-12.6182</v>
       </c>
       <c r="P108">
-        <v>-1.53532</v>
+        <v>-1.52929</v>
       </c>
     </row>
     <row r="109" spans="1:16">
@@ -6764,10 +6743,10 @@
         <v>165</v>
       </c>
       <c r="O109">
-        <v>-14.1698</v>
+        <v>-14.1197</v>
       </c>
       <c r="P109">
-        <v>-1.71738</v>
+        <v>-1.71128</v>
       </c>
     </row>
     <row r="110" spans="1:16">
@@ -6817,7 +6796,7 @@
         <v>-15.5713</v>
       </c>
       <c r="P110">
-        <v>-1.88724</v>
+        <v>-1.88725</v>
       </c>
     </row>
     <row r="111" spans="1:16">
@@ -6864,10 +6843,10 @@
         <v>165</v>
       </c>
       <c r="O111">
-        <v>-17.0232</v>
+        <v>-17.0229</v>
       </c>
       <c r="P111">
-        <v>-2.06324</v>
+        <v>-2.06319</v>
       </c>
     </row>
     <row r="112" spans="1:16">
@@ -6914,7 +6893,7 @@
         <v>165</v>
       </c>
       <c r="O112">
-        <v>-18.4232</v>
+        <v>-18.3747</v>
       </c>
       <c r="P112">
         <v>-2.22704</v>
@@ -6964,10 +6943,10 @@
         <v>165</v>
       </c>
       <c r="O113">
-        <v>-19.7759</v>
+        <v>-19.776</v>
       </c>
       <c r="P113">
-        <v>-2.39689</v>
+        <v>-2.3969</v>
       </c>
     </row>
     <row r="114" spans="1:16">
@@ -7014,10 +6993,10 @@
         <v>165</v>
       </c>
       <c r="O114">
-        <v>-19.7759</v>
+        <v>-19.875</v>
       </c>
       <c r="P114">
-        <v>-2.39689</v>
+        <v>-2.40891</v>
       </c>
     </row>
     <row r="115" spans="1:16">
@@ -7064,10 +7043,10 @@
         <v>165</v>
       </c>
       <c r="O115">
-        <v>-21.0273</v>
+        <v>-20.627</v>
       </c>
       <c r="P115">
-        <v>-2.54858</v>
+        <v>-2.50007</v>
       </c>
     </row>
     <row r="116" spans="1:16">
@@ -7114,10 +7093,10 @@
         <v>165</v>
       </c>
       <c r="O116">
-        <v>-22.3284</v>
+        <v>-21.5778</v>
       </c>
       <c r="P116">
-        <v>-2.70629</v>
+        <v>-2.61531</v>
       </c>
     </row>
     <row r="117" spans="1:16">
@@ -7164,10 +7143,10 @@
         <v>165</v>
       </c>
       <c r="O117">
-        <v>-23.6804</v>
+        <v>-22.5781</v>
       </c>
       <c r="P117">
-        <v>-2.87017</v>
+        <v>-2.73655</v>
       </c>
     </row>
     <row r="118" spans="1:16">
@@ -7214,10 +7193,10 @@
         <v>165</v>
       </c>
       <c r="O118">
-        <v>-24.7314</v>
+        <v>-23.3803</v>
       </c>
       <c r="P118">
-        <v>-2.99755</v>
+        <v>-2.83379</v>
       </c>
     </row>
     <row r="119" spans="1:16">
@@ -7264,10 +7243,10 @@
         <v>165</v>
       </c>
       <c r="O119">
-        <v>-26.0823</v>
+        <v>-24.2812</v>
       </c>
       <c r="P119">
-        <v>-3.16131</v>
+        <v>-2.94299</v>
       </c>
     </row>
     <row r="120" spans="1:16">
@@ -7314,10 +7293,10 @@
         <v>165</v>
       </c>
       <c r="O120">
-        <v>-27.2831</v>
+        <v>-25.1819</v>
       </c>
       <c r="P120">
-        <v>-3.30686</v>
+        <v>-3.05217</v>
       </c>
     </row>
     <row r="121" spans="1:16">
@@ -7364,10 +7343,10 @@
         <v>165</v>
       </c>
       <c r="O121">
-        <v>-28.6339</v>
+        <v>-26.1326</v>
       </c>
       <c r="P121">
-        <v>-3.47059</v>
+        <v>-3.16739</v>
       </c>
     </row>
     <row r="122" spans="1:16">
@@ -7414,10 +7393,10 @@
         <v>165</v>
       </c>
       <c r="O122">
-        <v>-28.584</v>
+        <v>-26.4827</v>
       </c>
       <c r="P122">
-        <v>-3.46454</v>
+        <v>-3.20983</v>
       </c>
     </row>
     <row r="123" spans="1:16">
@@ -7464,10 +7443,10 @@
         <v>165</v>
       </c>
       <c r="O123">
-        <v>-29.9348</v>
+        <v>-27.4334</v>
       </c>
       <c r="P123">
-        <v>-3.62826</v>
+        <v>-3.32507</v>
       </c>
     </row>
     <row r="124" spans="1:16">
@@ -7514,10 +7493,10 @@
         <v>165</v>
       </c>
       <c r="O124">
-        <v>-31.1855</v>
+        <v>-28.3338</v>
       </c>
       <c r="P124">
-        <v>-3.77988</v>
+        <v>-3.43421</v>
       </c>
     </row>
     <row r="125" spans="1:16">
@@ -7564,10 +7543,10 @@
         <v>165</v>
       </c>
       <c r="O125">
-        <v>-32.5362</v>
+        <v>-29.2344</v>
       </c>
       <c r="P125">
-        <v>-3.94359</v>
+        <v>-3.54336</v>
       </c>
     </row>
     <row r="126" spans="1:16">
@@ -7614,10 +7593,10 @@
         <v>165</v>
       </c>
       <c r="O126">
-        <v>-33.5861</v>
+        <v>-30.1349</v>
       </c>
       <c r="P126">
-        <v>-4.07086</v>
+        <v>-3.65253</v>
       </c>
     </row>
     <row r="127" spans="1:16">
@@ -7664,10 +7643,10 @@
         <v>165</v>
       </c>
       <c r="O127">
-        <v>-34.8378</v>
+        <v>-31.0854</v>
       </c>
       <c r="P127">
-        <v>-4.22258</v>
+        <v>-3.76774</v>
       </c>
     </row>
     <row r="128" spans="1:16">
@@ -7713,11 +7692,11 @@
       <c r="N128" t="s">
         <v>165</v>
       </c>
-      <c r="O128" s="3">
-        <v>-36.1384</v>
+      <c r="O128">
+        <v>-31.986</v>
       </c>
       <c r="P128">
-        <v>-4.38023</v>
+        <v>-3.87691</v>
       </c>
     </row>
     <row r="129" spans="1:16">
@@ -7763,11 +7742,11 @@
       <c r="N129" t="s">
         <v>165</v>
       </c>
-      <c r="O129" s="3">
-        <v>-37.3893</v>
+      <c r="O129">
+        <v>-32.9367</v>
       </c>
       <c r="P129">
-        <v>-4.53185</v>
+        <v>-3.99214</v>
       </c>
     </row>
     <row r="130" spans="1:16">
@@ -7814,10 +7793,10 @@
         <v>239</v>
       </c>
       <c r="O130">
-        <v>21.7067</v>
+        <v>19.0726</v>
       </c>
       <c r="P130">
-        <v>3.21641</v>
+        <v>2.82619</v>
       </c>
     </row>
     <row r="131" spans="1:16">
@@ -7864,10 +7843,10 @@
         <v>239</v>
       </c>
       <c r="O131">
-        <v>20.984</v>
+        <v>18.6069</v>
       </c>
       <c r="P131">
-        <v>3.10936</v>
+        <v>2.75719</v>
       </c>
     </row>
     <row r="132" spans="1:16">
@@ -7914,10 +7893,10 @@
         <v>239</v>
       </c>
       <c r="O132">
-        <v>20.2629</v>
+        <v>18.0857</v>
       </c>
       <c r="P132">
-        <v>3.00246</v>
+        <v>2.68</v>
       </c>
     </row>
     <row r="133" spans="1:16">
@@ -7964,10 +7943,10 @@
         <v>239</v>
       </c>
       <c r="O133">
-        <v>19.5843</v>
+        <v>17.6867</v>
       </c>
       <c r="P133">
-        <v>2.90199</v>
+        <v>2.62091</v>
       </c>
     </row>
     <row r="134" spans="1:16">
@@ -8014,10 +7993,10 @@
         <v>239</v>
       </c>
       <c r="O134">
-        <v>19.1197</v>
+        <v>17.3133</v>
       </c>
       <c r="P134">
-        <v>2.83316</v>
+        <v>2.56556</v>
       </c>
     </row>
     <row r="135" spans="1:16">
@@ -8064,10 +8043,10 @@
         <v>239</v>
       </c>
       <c r="O135">
-        <v>18.5588</v>
+        <v>16.8982</v>
       </c>
       <c r="P135">
-        <v>2.75001</v>
+        <v>2.50409</v>
       </c>
     </row>
     <row r="136" spans="1:16">
@@ -8114,10 +8093,10 @@
         <v>239</v>
       </c>
       <c r="O136">
-        <v>17.9379</v>
+        <v>16.4852</v>
       </c>
       <c r="P136">
-        <v>2.65808</v>
+        <v>2.44288</v>
       </c>
     </row>
     <row r="137" spans="1:16">
@@ -8164,10 +8143,10 @@
         <v>239</v>
       </c>
       <c r="O137">
-        <v>17.2085</v>
+        <v>16.1231</v>
       </c>
       <c r="P137">
-        <v>2.55755</v>
+        <v>2.38921</v>
       </c>
     </row>
     <row r="138" spans="1:16">
@@ -8214,10 +8193,10 @@
         <v>239</v>
       </c>
       <c r="O138">
-        <v>17.4141</v>
+        <v>15.9685</v>
       </c>
       <c r="P138">
-        <v>2.58053</v>
+        <v>2.36632</v>
       </c>
     </row>
     <row r="139" spans="1:16">
@@ -8264,10 +8243,10 @@
         <v>239</v>
       </c>
       <c r="O139">
-        <v>16.6408</v>
+        <v>15.5545</v>
       </c>
       <c r="P139">
-        <v>2.46594</v>
+        <v>2.30502</v>
       </c>
     </row>
     <row r="140" spans="1:16">
@@ -8314,10 +8293,10 @@
         <v>239</v>
       </c>
       <c r="O140">
-        <v>16.1229</v>
+        <v>15.0971</v>
       </c>
       <c r="P140">
-        <v>2.38922</v>
+        <v>2.23716</v>
       </c>
     </row>
     <row r="141" spans="1:16">
@@ -8364,10 +8343,10 @@
         <v>239</v>
       </c>
       <c r="O141">
-        <v>15.4593</v>
+        <v>14.7281</v>
       </c>
       <c r="P141">
-        <v>2.29083</v>
+        <v>2.18256</v>
       </c>
     </row>
     <row r="142" spans="1:16">
@@ -8414,10 +8393,10 @@
         <v>239</v>
       </c>
       <c r="O142">
-        <v>15.0379</v>
+        <v>14.3147</v>
       </c>
       <c r="P142">
-        <v>2.22849</v>
+        <v>2.12135</v>
       </c>
     </row>
     <row r="143" spans="1:16">
@@ -8464,10 +8443,10 @@
         <v>239</v>
       </c>
       <c r="O143">
-        <v>14.3146</v>
+        <v>13.901</v>
       </c>
       <c r="P143">
-        <v>2.12131</v>
+        <v>2.06002</v>
       </c>
     </row>
     <row r="144" spans="1:16">
@@ -8514,10 +8493,10 @@
         <v>239</v>
       </c>
       <c r="O144">
-        <v>13.7468</v>
+        <v>13.4492</v>
       </c>
       <c r="P144">
-        <v>2.0372</v>
+        <v>1.99312</v>
       </c>
     </row>
     <row r="145" spans="1:16">
@@ -8564,10 +8543,10 @@
         <v>239</v>
       </c>
       <c r="O145">
-        <v>13.0342</v>
+        <v>13.0745</v>
       </c>
       <c r="P145">
-        <v>1.93161</v>
+        <v>1.93759</v>
       </c>
     </row>
     <row r="146" spans="1:16">
@@ -8614,10 +8593,10 @@
         <v>239</v>
       </c>
       <c r="O146">
-        <v>13.0229</v>
+        <v>13.0747</v>
       </c>
       <c r="P146">
-        <v>1.92996</v>
+        <v>1.93762</v>
       </c>
     </row>
     <row r="147" spans="1:16">
@@ -8664,10 +8643,10 @@
         <v>239</v>
       </c>
       <c r="O147">
-        <v>12.1449</v>
+        <v>12.1443</v>
       </c>
       <c r="P147">
-        <v>1.79987</v>
+        <v>1.79975</v>
       </c>
     </row>
     <row r="148" spans="1:16">
@@ -8714,10 +8693,10 @@
         <v>239</v>
       </c>
       <c r="O148">
-        <v>11.2252</v>
+        <v>11.3184</v>
       </c>
       <c r="P148">
-        <v>1.66362</v>
+        <v>1.67744</v>
       </c>
     </row>
     <row r="149" spans="1:16">
@@ -8764,10 +8743,10 @@
         <v>239</v>
       </c>
       <c r="O149">
-        <v>10.398</v>
+        <v>10.3353</v>
       </c>
       <c r="P149">
-        <v>1.54109</v>
+        <v>1.53179</v>
       </c>
     </row>
     <row r="150" spans="1:16">
@@ -8814,10 +8793,10 @@
         <v>239</v>
       </c>
       <c r="O150">
-        <v>9.456250000000001</v>
+        <v>9.45734</v>
       </c>
       <c r="P150">
-        <v>1.40155</v>
+        <v>1.40172</v>
       </c>
     </row>
     <row r="151" spans="1:16">
@@ -8864,10 +8843,10 @@
         <v>239</v>
       </c>
       <c r="O151">
-        <v>8.62927</v>
+        <v>8.47404</v>
       </c>
       <c r="P151">
-        <v>1.27904</v>
+        <v>1.25605</v>
       </c>
     </row>
     <row r="152" spans="1:16">
@@ -8914,10 +8893,10 @@
         <v>239</v>
       </c>
       <c r="O152">
-        <v>7.54455</v>
+        <v>7.49455</v>
       </c>
       <c r="P152">
-        <v>1.11834</v>
+        <v>1.11094</v>
       </c>
     </row>
     <row r="153" spans="1:16">
@@ -8964,10 +8943,10 @@
         <v>239</v>
       </c>
       <c r="O153">
-        <v>6.61375</v>
+        <v>6.5632</v>
       </c>
       <c r="P153">
-        <v>0.980426</v>
+        <v>0.972989</v>
       </c>
     </row>
     <row r="154" spans="1:16">
@@ -9014,10 +8993,10 @@
         <v>239</v>
       </c>
       <c r="O154">
-        <v>6.04495</v>
+        <v>5.99446</v>
       </c>
       <c r="P154">
-        <v>0.896197</v>
+        <v>0.888689</v>
       </c>
     </row>
     <row r="155" spans="1:16">
@@ -9064,10 +9043,10 @@
         <v>239</v>
       </c>
       <c r="O155">
-        <v>5.16615</v>
+        <v>5.11462</v>
       </c>
       <c r="P155">
-        <v>0.765985</v>
+        <v>0.758336</v>
       </c>
     </row>
     <row r="156" spans="1:16">
@@ -9114,10 +9093,10 @@
         <v>239</v>
       </c>
       <c r="O156">
-        <v>4.28791</v>
+        <v>4.28787</v>
       </c>
       <c r="P156">
-        <v>0.635885</v>
+        <v>0.635856</v>
       </c>
     </row>
     <row r="157" spans="1:16">
@@ -9164,10 +9143,10 @@
         <v>239</v>
       </c>
       <c r="O157">
-        <v>3.46084</v>
+        <v>3.4613</v>
       </c>
       <c r="P157">
-        <v>0.51336</v>
+        <v>0.513406</v>
       </c>
     </row>
     <row r="158" spans="1:16">
@@ -9214,10 +9193,10 @@
         <v>239</v>
       </c>
       <c r="O158">
-        <v>2.68492</v>
+        <v>2.63356</v>
       </c>
       <c r="P158">
-        <v>0.398378</v>
+        <v>0.390788</v>
       </c>
     </row>
     <row r="159" spans="1:16">
@@ -9264,10 +9243,10 @@
         <v>239</v>
       </c>
       <c r="O159">
-        <v>1.75595</v>
+        <v>1.80656</v>
       </c>
       <c r="P159">
-        <v>0.268288</v>
+        <v>0.268277</v>
       </c>
     </row>
     <row r="160" spans="1:16">
@@ -9314,10 +9293,10 @@
         <v>239</v>
       </c>
       <c r="O160">
-        <v>0.980357</v>
+        <v>0.934847</v>
       </c>
       <c r="P160">
-        <v>0.145871</v>
+        <v>0.13908</v>
       </c>
     </row>
     <row r="161" spans="1:16">
@@ -9364,10 +9343,10 @@
         <v>239</v>
       </c>
       <c r="O161">
-        <v>0.101331</v>
+        <v>0.101765</v>
       </c>
       <c r="P161">
-        <v>0.0156141</v>
+        <v>0.0156881</v>
       </c>
     </row>
     <row r="162" spans="1:16">
@@ -9414,10 +9393,10 @@
         <v>239</v>
       </c>
       <c r="O162">
-        <v>0.101335</v>
+        <v>0.153243</v>
       </c>
       <c r="P162">
-        <v>0.015619</v>
+        <v>0.023301</v>
       </c>
     </row>
     <row r="163" spans="1:16">
@@ -9464,10 +9443,10 @@
         <v>239</v>
       </c>
       <c r="O163">
-        <v>-0.674116</v>
+        <v>-0.777218</v>
       </c>
       <c r="P163">
-        <v>-0.0992262</v>
+        <v>-0.114505</v>
       </c>
     </row>
     <row r="164" spans="1:16">
@@ -9514,10 +9493,10 @@
         <v>239</v>
       </c>
       <c r="O164">
-        <v>-1.60286</v>
+        <v>-1.65614</v>
       </c>
       <c r="P164">
-        <v>-0.229349</v>
+        <v>-0.244708</v>
       </c>
     </row>
     <row r="165" spans="1:16">
@@ -9564,10 +9543,10 @@
         <v>239</v>
       </c>
       <c r="O165">
-        <v>-2.42706</v>
+        <v>-2.37905</v>
       </c>
       <c r="P165">
-        <v>-0.351847</v>
+        <v>-0.351799</v>
       </c>
     </row>
     <row r="166" spans="1:16">
@@ -9614,10 +9593,10 @@
         <v>239</v>
       </c>
       <c r="O166">
-        <v>-3.20594</v>
+        <v>-3.20598</v>
       </c>
       <c r="P166">
-        <v>-0.474294</v>
+        <v>-0.474315</v>
       </c>
     </row>
     <row r="167" spans="1:16">
@@ -9664,10 +9643,10 @@
         <v>239</v>
       </c>
       <c r="O167">
-        <v>-4.03267</v>
+        <v>-4.03209</v>
       </c>
       <c r="P167">
-        <v>-0.596789</v>
+        <v>-0.596704</v>
       </c>
     </row>
     <row r="168" spans="1:16">
@@ -9714,10 +9693,10 @@
         <v>239</v>
       </c>
       <c r="O168">
-        <v>-4.96277</v>
+        <v>-4.95333</v>
       </c>
       <c r="P168">
-        <v>-0.734594</v>
+        <v>-0.73326</v>
       </c>
     </row>
     <row r="169" spans="1:16">
@@ -9764,10 +9743,10 @@
         <v>239</v>
       </c>
       <c r="O169">
-        <v>-5.8929</v>
+        <v>-5.89196</v>
       </c>
       <c r="P169">
-        <v>-0.872391</v>
+        <v>-0.87226</v>
       </c>
     </row>
     <row r="170" spans="1:16">
@@ -9814,10 +9793,10 @@
         <v>239</v>
       </c>
       <c r="O170">
-        <v>-6.40977</v>
+        <v>-6.5104</v>
       </c>
       <c r="P170">
-        <v>-0.948966</v>
+        <v>-0.95655</v>
       </c>
     </row>
     <row r="171" spans="1:16">
@@ -9864,10 +9843,10 @@
         <v>239</v>
       </c>
       <c r="O171">
-        <v>-7.28773</v>
+        <v>-7.28763</v>
       </c>
       <c r="P171">
-        <v>-1.07145</v>
+        <v>-1.07903</v>
       </c>
     </row>
     <row r="172" spans="1:16">
@@ -9914,10 +9893,10 @@
         <v>239</v>
       </c>
       <c r="O172">
-        <v>-8.10543</v>
+        <v>-8.06302</v>
       </c>
       <c r="P172">
-        <v>-1.20023</v>
+        <v>-1.19392</v>
       </c>
     </row>
     <row r="173" spans="1:16">
@@ -9964,10 +9943,10 @@
         <v>239</v>
       </c>
       <c r="O173">
-        <v>-8.94022</v>
+        <v>-8.940720000000001</v>
       </c>
       <c r="P173">
-        <v>-1.32387</v>
+        <v>-1.3239</v>
       </c>
     </row>
     <row r="174" spans="1:16">
@@ -10014,10 +9993,10 @@
         <v>239</v>
       </c>
       <c r="O174">
-        <v>-9.71574</v>
+        <v>-9.70914</v>
       </c>
       <c r="P174">
-        <v>-1.43877</v>
+        <v>-1.43783</v>
       </c>
     </row>
     <row r="175" spans="1:16">
@@ -10114,10 +10093,10 @@
         <v>239</v>
       </c>
       <c r="O176">
-        <v>-11.2141</v>
+        <v>-11.2656</v>
       </c>
       <c r="P176">
-        <v>-1.66074</v>
+        <v>-1.66834</v>
       </c>
     </row>
     <row r="177" spans="1:16">
@@ -10164,10 +10143,10 @@
         <v>239</v>
       </c>
       <c r="O177">
-        <v>-11.989</v>
+        <v>-12.0409</v>
       </c>
       <c r="P177">
-        <v>-1.77554</v>
+        <v>-1.78322</v>
       </c>
     </row>
     <row r="178" spans="1:16">
@@ -10214,10 +10193,10 @@
         <v>239</v>
       </c>
       <c r="O178">
-        <v>-12.0324</v>
+        <v>-12.0326</v>
       </c>
       <c r="P178">
-        <v>-1.78202</v>
+        <v>-1.78205</v>
       </c>
     </row>
     <row r="179" spans="1:16">
@@ -10264,10 +10243,10 @@
         <v>239</v>
       </c>
       <c r="O179">
-        <v>-12.6614</v>
+        <v>-12.5582</v>
       </c>
       <c r="P179">
-        <v>-1.87517</v>
+        <v>-1.85986</v>
       </c>
     </row>
     <row r="180" spans="1:16">
@@ -10314,10 +10293,10 @@
         <v>239</v>
       </c>
       <c r="O180">
-        <v>-13.3841</v>
+        <v>-12.917</v>
       </c>
       <c r="P180">
-        <v>-1.98221</v>
+        <v>-1.91302</v>
       </c>
     </row>
     <row r="181" spans="1:16">
@@ -10364,10 +10343,10 @@
         <v>239</v>
       </c>
       <c r="O181">
-        <v>-13.9019</v>
+        <v>-13.2815</v>
       </c>
       <c r="P181">
-        <v>-2.05891</v>
+        <v>-1.96702</v>
       </c>
     </row>
     <row r="182" spans="1:16">
@@ -10414,10 +10393,10 @@
         <v>239</v>
       </c>
       <c r="O182">
-        <v>-14.5221</v>
+        <v>-13.5398</v>
       </c>
       <c r="P182">
-        <v>-2.15081</v>
+        <v>-2.00526</v>
       </c>
     </row>
     <row r="183" spans="1:16">
@@ -10464,10 +10443,10 @@
         <v>239</v>
       </c>
       <c r="O183">
-        <v>-15.1938</v>
+        <v>-14.0043</v>
       </c>
       <c r="P183">
-        <v>-2.25032</v>
+        <v>-2.07409</v>
       </c>
     </row>
     <row r="184" spans="1:16">
@@ -10514,10 +10493,10 @@
         <v>239</v>
       </c>
       <c r="O184">
-        <v>-15.8137</v>
+        <v>-14.5223</v>
       </c>
       <c r="P184">
-        <v>-2.34217</v>
+        <v>-2.15083</v>
       </c>
     </row>
     <row r="185" spans="1:16">
@@ -10564,10 +10543,10 @@
         <v>239</v>
       </c>
       <c r="O185">
-        <v>-16.4267</v>
+        <v>-14.8843</v>
       </c>
       <c r="P185">
-        <v>-2.43303</v>
+        <v>-2.20446</v>
       </c>
     </row>
     <row r="186" spans="1:16">
@@ -10614,10 +10593,10 @@
         <v>239</v>
       </c>
       <c r="O186">
-        <v>-16.3835</v>
+        <v>-15.1425</v>
       </c>
       <c r="P186">
-        <v>-2.42654</v>
+        <v>-2.24272</v>
       </c>
     </row>
     <row r="187" spans="1:16">
@@ -10664,10 +10643,10 @@
         <v>239</v>
       </c>
       <c r="O187">
-        <v>-17.1</v>
+        <v>-15.6081</v>
       </c>
       <c r="P187">
-        <v>-2.5328</v>
+        <v>-2.31171</v>
       </c>
     </row>
     <row r="188" spans="1:16">
@@ -10714,10 +10693,10 @@
         <v>239</v>
       </c>
       <c r="O188">
-        <v>-17.6757</v>
+        <v>-16.0202</v>
       </c>
       <c r="P188">
-        <v>-2.61798</v>
+        <v>-2.37275</v>
       </c>
     </row>
     <row r="189" spans="1:16">
@@ -10764,10 +10743,10 @@
         <v>239</v>
       </c>
       <c r="O189">
-        <v>-18.347</v>
+        <v>-16.3811</v>
       </c>
       <c r="P189">
-        <v>-2.71746</v>
+        <v>-2.42621</v>
       </c>
     </row>
     <row r="190" spans="1:16">
@@ -10814,10 +10793,10 @@
         <v>239</v>
       </c>
       <c r="O190">
-        <v>-18.8646</v>
+        <v>-16.7453</v>
       </c>
       <c r="P190">
-        <v>-2.79412</v>
+        <v>-2.48017</v>
       </c>
     </row>
     <row r="191" spans="1:16">
@@ -10864,10 +10843,10 @@
         <v>239</v>
       </c>
       <c r="O191">
-        <v>-19.6909</v>
+        <v>-17.2081</v>
       </c>
       <c r="P191">
-        <v>-2.91657</v>
+        <v>-2.54873</v>
       </c>
     </row>
     <row r="192" spans="1:16">
@@ -10914,10 +10893,10 @@
         <v>239</v>
       </c>
       <c r="O192">
-        <v>-20.4665</v>
+        <v>-17.6751</v>
       </c>
       <c r="P192">
-        <v>-3.03147</v>
+        <v>-2.61793</v>
       </c>
     </row>
     <row r="193" spans="1:16">
@@ -10964,10 +10943,10 @@
         <v>239</v>
       </c>
       <c r="O193">
-        <v>-21.2936</v>
+        <v>-17.9856</v>
       </c>
       <c r="P193">
-        <v>-3.15401</v>
+        <v>-2.6639</v>
       </c>
     </row>
     <row r="194" spans="1:16" s="1" customFormat="1">
@@ -11024,22 +11003,22 @@
       <c r="N195" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="O195" s="3">
-        <v>-37.3893</v>
+      <c r="O195" s="1">
+        <v>-32.9367</v>
       </c>
       <c r="P195" s="1">
-        <v>-4.53185</v>
+        <v>-3.99214</v>
       </c>
     </row>
     <row r="196" spans="1:16" s="1" customFormat="1">
       <c r="N196" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="O196" s="2">
-        <v>37.3468</v>
+      <c r="O196" s="1">
+        <v>32.8423</v>
       </c>
       <c r="P196" s="1">
-        <v>4.52707</v>
+        <v>3.98108</v>
       </c>
     </row>
     <row r="197" spans="1:16" s="1" customFormat="1">
@@ -11079,10 +11058,10 @@
         <v>309</v>
       </c>
       <c r="O201" s="1">
-        <v>0.1307982</v>
+        <v>0.1491995</v>
       </c>
       <c r="P201" s="1">
-        <v>0.01983257</v>
+        <v>0.02215283</v>
       </c>
     </row>
     <row r="202" spans="1:16" s="1" customFormat="1">
@@ -11090,10 +11069,10 @@
         <v>310</v>
       </c>
       <c r="O202" s="1">
-        <v>17.618948</v>
+        <v>16.276802</v>
       </c>
       <c r="P202" s="1">
-        <v>2.293477</v>
+        <v>2.11841</v>
       </c>
     </row>
     <row r="203" spans="1:16" s="1" customFormat="1">
@@ -11101,10 +11080,10 @@
         <v>311</v>
       </c>
       <c r="O203" s="1">
-        <v>13470.329102</v>
+        <v>10909.421278</v>
       </c>
       <c r="P203" s="1">
-        <v>11564.194656</v>
+        <v>9562.705984</v>
       </c>
     </row>
     <row r="204" spans="1:16" s="1" customFormat="1"/>

--- a/dcd_top_offset_step_tsmc2p_meas.xlsx
+++ b/dcd_top_offset_step_tsmc2p_meas.xlsx
@@ -1393,10 +1393,10 @@
         <v>29</v>
       </c>
       <c r="O2">
-        <v>24.6143</v>
+        <v>13.2532</v>
       </c>
       <c r="P2">
-        <v>3.28219</v>
+        <v>1.76737</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1443,10 +1443,10 @@
         <v>29</v>
       </c>
       <c r="O3">
-        <v>23.943</v>
+        <v>12.9942</v>
       </c>
       <c r="P3">
-        <v>3.19268</v>
+        <v>1.73285</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1493,10 +1493,10 @@
         <v>29</v>
       </c>
       <c r="O4">
-        <v>22.9599</v>
+        <v>12.4245</v>
       </c>
       <c r="P4">
-        <v>3.0616</v>
+        <v>1.65689</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1543,10 +1543,10 @@
         <v>29</v>
       </c>
       <c r="O5">
-        <v>22.2872</v>
+        <v>12.268</v>
       </c>
       <c r="P5">
-        <v>2.97192</v>
+        <v>1.63603</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1593,10 +1593,10 @@
         <v>29</v>
       </c>
       <c r="O6">
-        <v>21.6681</v>
+        <v>12.1142</v>
       </c>
       <c r="P6">
-        <v>2.88937</v>
+        <v>1.61552</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1643,10 +1643,10 @@
         <v>29</v>
       </c>
       <c r="O7">
-        <v>20.8938</v>
+        <v>11.8563</v>
       </c>
       <c r="P7">
-        <v>2.78612</v>
+        <v>1.58112</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1693,10 +1693,10 @@
         <v>29</v>
       </c>
       <c r="O8">
-        <v>20.2738</v>
+        <v>11.7527</v>
       </c>
       <c r="P8">
-        <v>2.70347</v>
+        <v>1.56732</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1743,10 +1743,10 @@
         <v>29</v>
       </c>
       <c r="O9">
-        <v>19.4991</v>
+        <v>11.4953</v>
       </c>
       <c r="P9">
-        <v>2.60017</v>
+        <v>1.53978</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1793,10 +1793,10 @@
         <v>29</v>
       </c>
       <c r="O10">
-        <v>19.1894</v>
+        <v>11.3395</v>
       </c>
       <c r="P10">
-        <v>2.5589</v>
+        <v>1.51223</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1843,10 +1843,10 @@
         <v>29</v>
       </c>
       <c r="O11">
-        <v>18.518</v>
+        <v>11.1849</v>
       </c>
       <c r="P11">
-        <v>2.46936</v>
+        <v>1.49161</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1893,10 +1893,10 @@
         <v>29</v>
       </c>
       <c r="O12">
-        <v>17.7958</v>
+        <v>11.0296</v>
       </c>
       <c r="P12">
-        <v>2.37982</v>
+        <v>1.47091</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1943,10 +1943,10 @@
         <v>29</v>
       </c>
       <c r="O13">
-        <v>17.1236</v>
+        <v>10.7721</v>
       </c>
       <c r="P13">
-        <v>2.28344</v>
+        <v>1.43657</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1993,10 +1993,10 @@
         <v>29</v>
       </c>
       <c r="O14">
-        <v>16.6075</v>
+        <v>10.6164</v>
       </c>
       <c r="P14">
-        <v>2.21463</v>
+        <v>1.41582</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -2043,10 +2043,10 @@
         <v>29</v>
       </c>
       <c r="O15">
-        <v>15.9362</v>
+        <v>10.3592</v>
       </c>
       <c r="P15">
-        <v>2.12512</v>
+        <v>1.38151</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -2093,10 +2093,10 @@
         <v>29</v>
       </c>
       <c r="O16">
-        <v>15.2131</v>
+        <v>10.2034</v>
       </c>
       <c r="P16">
-        <v>2.02872</v>
+        <v>1.36074</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -2143,10 +2143,10 @@
         <v>29</v>
       </c>
       <c r="O17">
-        <v>14.645</v>
+        <v>10.0484</v>
       </c>
       <c r="P17">
-        <v>1.95294</v>
+        <v>1.34008</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -2193,10 +2193,10 @@
         <v>29</v>
       </c>
       <c r="O18">
-        <v>14.645</v>
+        <v>9.99682</v>
       </c>
       <c r="P18">
-        <v>1.95294</v>
+        <v>1.33321</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -2243,10 +2243,10 @@
         <v>29</v>
       </c>
       <c r="O19">
-        <v>13.767</v>
+        <v>9.32574</v>
       </c>
       <c r="P19">
-        <v>1.83588</v>
+        <v>1.24372</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -2293,10 +2293,10 @@
         <v>29</v>
       </c>
       <c r="O20">
-        <v>12.8374</v>
+        <v>8.705579999999999</v>
       </c>
       <c r="P20">
-        <v>1.71193</v>
+        <v>1.16103</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -2343,10 +2343,10 @@
         <v>29</v>
       </c>
       <c r="O21">
-        <v>11.856</v>
+        <v>8.03416</v>
       </c>
       <c r="P21">
-        <v>1.58109</v>
+        <v>1.07151</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -2393,10 +2393,10 @@
         <v>29</v>
       </c>
       <c r="O22">
-        <v>10.9269</v>
+        <v>7.31111</v>
       </c>
       <c r="P22">
-        <v>1.45721</v>
+        <v>0.975115</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -2443,10 +2443,10 @@
         <v>29</v>
       </c>
       <c r="O23">
-        <v>9.96406</v>
+        <v>6.69507</v>
       </c>
       <c r="P23">
-        <v>1.32883</v>
+        <v>0.892948</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -2493,10 +2493,10 @@
         <v>29</v>
       </c>
       <c r="O24">
-        <v>9.015319999999999</v>
+        <v>6.07255</v>
       </c>
       <c r="P24">
-        <v>1.20234</v>
+        <v>0.809966</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -2543,10 +2543,10 @@
         <v>29</v>
       </c>
       <c r="O25">
-        <v>7.98318</v>
+        <v>5.40011</v>
       </c>
       <c r="P25">
-        <v>1.06471</v>
+        <v>0.720299</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -2593,10 +2593,10 @@
         <v>29</v>
       </c>
       <c r="O26">
-        <v>7.15652</v>
+        <v>4.72867</v>
       </c>
       <c r="P26">
-        <v>0.954487</v>
+        <v>0.630771</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -2643,10 +2643,10 @@
         <v>29</v>
       </c>
       <c r="O27">
-        <v>6.12333</v>
+        <v>4.10955</v>
       </c>
       <c r="P27">
-        <v>0.816733</v>
+        <v>0.548238</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -2693,10 +2693,10 @@
         <v>29</v>
       </c>
       <c r="O28">
-        <v>5.14638</v>
+        <v>3.48941</v>
       </c>
       <c r="P28">
-        <v>0.686467</v>
+        <v>0.465539</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -2743,10 +2743,10 @@
         <v>29</v>
       </c>
       <c r="O29">
-        <v>4.10906</v>
+        <v>2.76638</v>
       </c>
       <c r="P29">
-        <v>0.548159</v>
+        <v>0.369136</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2793,10 +2793,10 @@
         <v>29</v>
       </c>
       <c r="O30">
-        <v>3.12755</v>
+        <v>2.09541</v>
       </c>
       <c r="P30">
-        <v>0.417283</v>
+        <v>0.27968</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2843,10 +2843,10 @@
         <v>29</v>
       </c>
       <c r="O31">
-        <v>2.14628</v>
+        <v>1.42382</v>
       </c>
       <c r="P31">
-        <v>0.286457</v>
+        <v>0.190136</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -2893,10 +2893,10 @@
         <v>29</v>
       </c>
       <c r="O32">
-        <v>1.11368</v>
+        <v>0.752315</v>
       </c>
       <c r="P32">
-        <v>0.148776</v>
+        <v>0.100595</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2943,10 +2943,10 @@
         <v>29</v>
       </c>
       <c r="O33">
-        <v>0.0290346</v>
+        <v>0.0803068</v>
       </c>
       <c r="P33">
-        <v>0.00415756</v>
+        <v>0.0109903</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2993,10 +2993,10 @@
         <v>29</v>
       </c>
       <c r="O34">
-        <v>0.0288859</v>
+        <v>0.0327702</v>
       </c>
       <c r="P34">
-        <v>0.00413282</v>
+        <v>0.00464527</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -3043,10 +3043,10 @@
         <v>29</v>
       </c>
       <c r="O35">
-        <v>-0.952546</v>
+        <v>-0.5391899999999999</v>
       </c>
       <c r="P35">
-        <v>-0.126721</v>
+        <v>-0.0716069</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -3093,10 +3093,10 @@
         <v>29</v>
       </c>
       <c r="O36">
-        <v>-1.93332</v>
+        <v>-1.31359</v>
       </c>
       <c r="P36">
-        <v>-0.257485</v>
+        <v>-0.174854</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -3143,10 +3143,10 @@
         <v>29</v>
       </c>
       <c r="O37">
-        <v>-3.01706</v>
+        <v>-2.03628</v>
       </c>
       <c r="P37">
-        <v>-0.401986</v>
+        <v>-0.271218</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -3193,10 +3193,10 @@
         <v>29</v>
       </c>
       <c r="O38">
-        <v>-3.94686</v>
+        <v>-2.55284</v>
       </c>
       <c r="P38">
-        <v>-0.525959</v>
+        <v>-0.340086</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -3243,10 +3243,10 @@
         <v>29</v>
       </c>
       <c r="O39">
-        <v>-4.97948</v>
+        <v>-3.27538</v>
       </c>
       <c r="P39">
-        <v>-0.663646</v>
+        <v>-0.436433</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -3293,10 +3293,10 @@
         <v>29</v>
       </c>
       <c r="O40">
-        <v>-6.0603</v>
+        <v>-3.94669</v>
       </c>
       <c r="P40">
-        <v>-0.807755</v>
+        <v>-0.525935</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -3343,10 +3343,10 @@
         <v>29</v>
       </c>
       <c r="O41">
-        <v>-7.09597</v>
+        <v>-4.61758</v>
       </c>
       <c r="P41">
-        <v>-0.939025</v>
+        <v>-0.615378</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -3393,10 +3393,10 @@
         <v>29</v>
       </c>
       <c r="O42">
-        <v>-7.87077</v>
+        <v>-5.28948</v>
       </c>
       <c r="P42">
-        <v>-1.04914</v>
+        <v>-0.704976</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -3443,10 +3443,10 @@
         <v>29</v>
       </c>
       <c r="O43">
-        <v>-8.903219999999999</v>
+        <v>-6.0628</v>
       </c>
       <c r="P43">
-        <v>-1.1868</v>
+        <v>-0.808072</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -3493,10 +3493,10 @@
         <v>29</v>
       </c>
       <c r="O44">
-        <v>-9.781330000000001</v>
+        <v>-6.63128</v>
       </c>
       <c r="P44">
-        <v>-1.30388</v>
+        <v>-0.88388</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -3543,10 +3543,10 @@
         <v>29</v>
       </c>
       <c r="O45">
-        <v>-10.8658</v>
+        <v>-7.35436</v>
       </c>
       <c r="P45">
-        <v>-1.44848</v>
+        <v>-0.980279</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -3593,10 +3593,10 @@
         <v>29</v>
       </c>
       <c r="O46">
-        <v>-11.7953</v>
+        <v>-7.87096</v>
       </c>
       <c r="P46">
-        <v>-1.57241</v>
+        <v>-1.04918</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -3643,10 +3643,10 @@
         <v>29</v>
       </c>
       <c r="O47">
-        <v>-12.8289</v>
+        <v>-8.74845</v>
       </c>
       <c r="P47">
-        <v>-1.71022</v>
+        <v>-1.16616</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -3693,10 +3693,10 @@
         <v>29</v>
       </c>
       <c r="O48">
-        <v>-13.6553</v>
+        <v>-9.31195</v>
       </c>
       <c r="P48">
-        <v>-1.82043</v>
+        <v>-1.24132</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -3743,10 +3743,10 @@
         <v>29</v>
       </c>
       <c r="O49">
-        <v>-14.533</v>
+        <v>-9.88449</v>
       </c>
       <c r="P49">
-        <v>-1.93745</v>
+        <v>-1.31765</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -3793,10 +3793,10 @@
         <v>29</v>
       </c>
       <c r="O50">
-        <v>-14.5327</v>
+        <v>-9.936170000000001</v>
       </c>
       <c r="P50">
-        <v>-1.9374</v>
+        <v>-1.32453</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -3843,10 +3843,10 @@
         <v>29</v>
       </c>
       <c r="O51">
-        <v>-15.1523</v>
+        <v>-10.1428</v>
       </c>
       <c r="P51">
-        <v>-2.02001</v>
+        <v>-1.35208</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -3893,10 +3893,10 @@
         <v>29</v>
       </c>
       <c r="O52">
-        <v>-15.7208</v>
+        <v>-10.3494</v>
       </c>
       <c r="P52">
-        <v>-2.09583</v>
+        <v>-1.37963</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -3943,10 +3943,10 @@
         <v>29</v>
       </c>
       <c r="O53">
-        <v>-16.392</v>
+        <v>-10.5041</v>
       </c>
       <c r="P53">
-        <v>-2.1853</v>
+        <v>-1.40028</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -3993,10 +3993,10 @@
         <v>29</v>
       </c>
       <c r="O54">
-        <v>-16.908</v>
+        <v>-10.7108</v>
       </c>
       <c r="P54">
-        <v>-2.25412</v>
+        <v>-1.42781</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -4043,10 +4043,10 @@
         <v>29</v>
       </c>
       <c r="O55">
-        <v>-17.4763</v>
+        <v>-10.9174</v>
       </c>
       <c r="P55">
-        <v>-2.32988</v>
+        <v>-1.45537</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -4093,10 +4093,10 @@
         <v>29</v>
       </c>
       <c r="O56">
-        <v>-18.1984</v>
+        <v>-11.176</v>
       </c>
       <c r="P56">
-        <v>-2.42616</v>
+        <v>-1.48983</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -4143,10 +4143,10 @@
         <v>29</v>
       </c>
       <c r="O57">
-        <v>-18.8189</v>
+        <v>-11.3826</v>
       </c>
       <c r="P57">
-        <v>-2.5089</v>
+        <v>-1.51738</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -4193,10 +4193,10 @@
         <v>29</v>
       </c>
       <c r="O58">
-        <v>-19.18</v>
+        <v>-11.4333</v>
       </c>
       <c r="P58">
-        <v>-2.55704</v>
+        <v>-1.52415</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -4243,10 +4243,10 @@
         <v>29</v>
       </c>
       <c r="O59">
-        <v>-19.7998</v>
+        <v>-11.7438</v>
       </c>
       <c r="P59">
-        <v>-2.63968</v>
+        <v>-1.56556</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -4293,10 +4293,10 @@
         <v>29</v>
       </c>
       <c r="O60">
-        <v>-20.471</v>
+        <v>-11.8992</v>
       </c>
       <c r="P60">
-        <v>-2.72916</v>
+        <v>-1.58626</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -4343,10 +4343,10 @@
         <v>29</v>
       </c>
       <c r="O61">
-        <v>-21.1938</v>
+        <v>-12.1066</v>
       </c>
       <c r="P61">
-        <v>-2.82555</v>
+        <v>-1.61393</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -4393,10 +4393,10 @@
         <v>29</v>
       </c>
       <c r="O62">
-        <v>-21.7618</v>
+        <v>-12.2615</v>
       </c>
       <c r="P62">
-        <v>-2.90129</v>
+        <v>-1.63457</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -4443,10 +4443,10 @@
         <v>29</v>
       </c>
       <c r="O63">
-        <v>-22.5337</v>
+        <v>-12.5196</v>
       </c>
       <c r="P63">
-        <v>-3.0042</v>
+        <v>-1.66897</v>
       </c>
     </row>
     <row r="64" spans="1:16">
@@ -4493,10 +4493,10 @@
         <v>29</v>
       </c>
       <c r="O64">
-        <v>-23.2597</v>
+        <v>-12.6744</v>
       </c>
       <c r="P64">
-        <v>-3.10099</v>
+        <v>-1.68962</v>
       </c>
     </row>
     <row r="65" spans="1:16">
@@ -4543,10 +4543,10 @@
         <v>29</v>
       </c>
       <c r="O65">
-        <v>-23.9829</v>
+        <v>-12.8805</v>
       </c>
       <c r="P65">
-        <v>-3.19743</v>
+        <v>-1.71711</v>
       </c>
     </row>
     <row r="66" spans="1:16">
@@ -4593,10 +4593,10 @@
         <v>165</v>
       </c>
       <c r="O66">
-        <v>32.8423</v>
+        <v>18.4699</v>
       </c>
       <c r="P66">
-        <v>3.98108</v>
+        <v>2.23895</v>
       </c>
     </row>
     <row r="67" spans="1:16">
@@ -4643,10 +4643,10 @@
         <v>165</v>
       </c>
       <c r="O67">
-        <v>31.9393</v>
+        <v>18.1193</v>
       </c>
       <c r="P67">
-        <v>3.87162</v>
+        <v>2.19646</v>
       </c>
     </row>
     <row r="68" spans="1:16">
@@ -4693,10 +4693,10 @@
         <v>165</v>
       </c>
       <c r="O68">
-        <v>30.8856</v>
+        <v>17.6176</v>
       </c>
       <c r="P68">
-        <v>3.7439</v>
+        <v>2.13565</v>
       </c>
     </row>
     <row r="69" spans="1:16">
@@ -4743,10 +4743,10 @@
         <v>165</v>
       </c>
       <c r="O69">
-        <v>29.9837</v>
+        <v>17.266</v>
       </c>
       <c r="P69">
-        <v>3.63457</v>
+        <v>2.09303</v>
       </c>
     </row>
     <row r="70" spans="1:16">
@@ -4793,10 +4793,10 @@
         <v>165</v>
       </c>
       <c r="O70">
-        <v>29.1835</v>
+        <v>16.9161</v>
       </c>
       <c r="P70">
-        <v>3.53758</v>
+        <v>2.05062</v>
       </c>
     </row>
     <row r="71" spans="1:16">
@@ -4843,10 +4843,10 @@
         <v>165</v>
       </c>
       <c r="O71">
-        <v>28.2821</v>
+        <v>16.6159</v>
       </c>
       <c r="P71">
-        <v>3.42833</v>
+        <v>2.01425</v>
       </c>
     </row>
     <row r="72" spans="1:16">
@@ -4893,10 +4893,10 @@
         <v>165</v>
       </c>
       <c r="O72">
-        <v>27.3812</v>
+        <v>16.2152</v>
       </c>
       <c r="P72">
-        <v>3.31911</v>
+        <v>1.96567</v>
       </c>
     </row>
     <row r="73" spans="1:16">
@@ -4943,10 +4943,10 @@
         <v>165</v>
       </c>
       <c r="O73">
-        <v>26.3807</v>
+        <v>15.9147</v>
       </c>
       <c r="P73">
-        <v>3.19784</v>
+        <v>1.92925</v>
       </c>
     </row>
     <row r="74" spans="1:16">
@@ -4993,10 +4993,10 @@
         <v>165</v>
       </c>
       <c r="O74">
-        <v>26.0796</v>
+        <v>15.5653</v>
       </c>
       <c r="P74">
-        <v>3.16135</v>
+        <v>1.88689</v>
       </c>
     </row>
     <row r="75" spans="1:16">
@@ -5043,10 +5043,10 @@
         <v>165</v>
       </c>
       <c r="O75">
-        <v>25.1783</v>
+        <v>15.2638</v>
       </c>
       <c r="P75">
-        <v>3.0521</v>
+        <v>1.85035</v>
       </c>
     </row>
     <row r="76" spans="1:16">
@@ -5093,10 +5093,10 @@
         <v>165</v>
       </c>
       <c r="O76">
-        <v>24.2769</v>
+        <v>14.9133</v>
       </c>
       <c r="P76">
-        <v>2.94284</v>
+        <v>1.80787</v>
       </c>
     </row>
     <row r="77" spans="1:16">
@@ -5143,10 +5143,10 @@
         <v>165</v>
       </c>
       <c r="O77">
-        <v>23.3758</v>
+        <v>14.5628</v>
       </c>
       <c r="P77">
-        <v>2.83361</v>
+        <v>1.76537</v>
       </c>
     </row>
     <row r="78" spans="1:16">
@@ -5193,10 +5193,10 @@
         <v>165</v>
       </c>
       <c r="O78">
-        <v>22.4741</v>
+        <v>14.2125</v>
       </c>
       <c r="P78">
-        <v>2.72433</v>
+        <v>1.72292</v>
       </c>
     </row>
     <row r="79" spans="1:16">
@@ -5243,10 +5243,10 @@
         <v>165</v>
       </c>
       <c r="O79">
-        <v>21.5738</v>
+        <v>13.9118</v>
       </c>
       <c r="P79">
-        <v>2.61519</v>
+        <v>1.68646</v>
       </c>
     </row>
     <row r="80" spans="1:16">
@@ -5293,10 +5293,10 @@
         <v>165</v>
       </c>
       <c r="O80">
-        <v>20.6216</v>
+        <v>13.5616</v>
       </c>
       <c r="P80">
-        <v>2.49979</v>
+        <v>1.64401</v>
       </c>
     </row>
     <row r="81" spans="1:16">
@@ -5343,10 +5343,10 @@
         <v>165</v>
       </c>
       <c r="O81">
-        <v>19.7704</v>
+        <v>13.2108</v>
       </c>
       <c r="P81">
-        <v>2.3966</v>
+        <v>1.6015</v>
       </c>
     </row>
     <row r="82" spans="1:16">
@@ -5393,10 +5393,10 @@
         <v>165</v>
       </c>
       <c r="O82">
-        <v>19.7204</v>
+        <v>13.1646</v>
       </c>
       <c r="P82">
-        <v>2.39054</v>
+        <v>1.5959</v>
       </c>
     </row>
     <row r="83" spans="1:16">
@@ -5443,10 +5443,10 @@
         <v>165</v>
       </c>
       <c r="O83">
-        <v>18.3692</v>
+        <v>12.1602</v>
       </c>
       <c r="P83">
-        <v>2.22675</v>
+        <v>1.47414</v>
       </c>
     </row>
     <row r="84" spans="1:16">
@@ -5493,10 +5493,10 @@
         <v>165</v>
       </c>
       <c r="O84">
-        <v>16.9162</v>
+        <v>11.2079</v>
       </c>
       <c r="P84">
-        <v>2.05065</v>
+        <v>1.35872</v>
       </c>
     </row>
     <row r="85" spans="1:16">
@@ -5543,10 +5543,10 @@
         <v>165</v>
       </c>
       <c r="O85">
-        <v>15.5644</v>
+        <v>10.2065</v>
       </c>
       <c r="P85">
-        <v>1.88678</v>
+        <v>1.23733</v>
       </c>
     </row>
     <row r="86" spans="1:16">
@@ -5593,10 +5593,10 @@
         <v>165</v>
       </c>
       <c r="O86">
-        <v>14.2124</v>
+        <v>9.205439999999999</v>
       </c>
       <c r="P86">
-        <v>1.72289</v>
+        <v>1.116</v>
       </c>
     </row>
     <row r="87" spans="1:16">
@@ -5643,10 +5643,10 @@
         <v>165</v>
       </c>
       <c r="O87">
-        <v>12.7604</v>
+        <v>8.30364</v>
       </c>
       <c r="P87">
-        <v>1.54691</v>
+        <v>1.00668</v>
       </c>
     </row>
     <row r="88" spans="1:16">
@@ -5693,10 +5693,10 @@
         <v>165</v>
       </c>
       <c r="O88">
-        <v>11.3081</v>
+        <v>7.45253</v>
       </c>
       <c r="P88">
-        <v>1.37086</v>
+        <v>0.903524</v>
       </c>
     </row>
     <row r="89" spans="1:16">
@@ -5743,10 +5743,10 @@
         <v>165</v>
       </c>
       <c r="O89">
-        <v>9.705730000000001</v>
+        <v>6.60155</v>
       </c>
       <c r="P89">
-        <v>1.17665</v>
+        <v>0.800374</v>
       </c>
     </row>
     <row r="90" spans="1:16">
@@ -5793,10 +5793,10 @@
         <v>165</v>
       </c>
       <c r="O90">
-        <v>8.65443</v>
+        <v>5.90035</v>
       </c>
       <c r="P90">
-        <v>1.04921</v>
+        <v>0.71538</v>
       </c>
     </row>
     <row r="91" spans="1:16">
@@ -5843,10 +5843,10 @@
         <v>165</v>
       </c>
       <c r="O91">
-        <v>7.37476</v>
+        <v>5.00094</v>
       </c>
       <c r="P91">
-        <v>0.894086</v>
+        <v>0.606369</v>
       </c>
     </row>
     <row r="92" spans="1:16">
@@ -5893,10 +5893,10 @@
         <v>165</v>
       </c>
       <c r="O92">
-        <v>6.20113</v>
+        <v>4.19924</v>
       </c>
       <c r="P92">
-        <v>0.751847</v>
+        <v>0.509193</v>
       </c>
     </row>
     <row r="93" spans="1:16">
@@ -5943,10 +5943,10 @@
         <v>165</v>
       </c>
       <c r="O93">
-        <v>5.00018</v>
+        <v>3.34795</v>
       </c>
       <c r="P93">
-        <v>0.606277</v>
+        <v>0.405999</v>
       </c>
     </row>
     <row r="94" spans="1:16">
@@ -5993,10 +5993,10 @@
         <v>165</v>
       </c>
       <c r="O94">
-        <v>3.74869</v>
+        <v>2.54838</v>
       </c>
       <c r="P94">
-        <v>0.454573</v>
+        <v>0.309073</v>
       </c>
     </row>
     <row r="95" spans="1:16">
@@ -6043,10 +6043,10 @@
         <v>165</v>
       </c>
       <c r="O95">
-        <v>2.44966</v>
+        <v>1.69655</v>
       </c>
       <c r="P95">
-        <v>0.297107</v>
+        <v>0.205836</v>
       </c>
     </row>
     <row r="96" spans="1:16">
@@ -6093,10 +6093,10 @@
         <v>165</v>
       </c>
       <c r="O96">
-        <v>1.24598</v>
+        <v>0.795417</v>
       </c>
       <c r="P96">
-        <v>0.151213</v>
+        <v>0.09660970000000001</v>
       </c>
     </row>
     <row r="97" spans="1:16">
@@ -6143,10 +6143,10 @@
         <v>165</v>
       </c>
       <c r="O97">
-        <v>0.0948343</v>
+        <v>0.0449213</v>
       </c>
       <c r="P97">
-        <v>0.0116789</v>
+        <v>0.00563037</v>
       </c>
     </row>
     <row r="98" spans="1:16">
@@ -6193,10 +6193,10 @@
         <v>165</v>
       </c>
       <c r="O98">
-        <v>0.0449633</v>
+        <v>-0.0049787</v>
       </c>
       <c r="P98">
-        <v>0.00563766</v>
+        <v>-0.000408925</v>
       </c>
     </row>
     <row r="99" spans="1:16">
@@ -6243,10 +6243,10 @@
         <v>165</v>
       </c>
       <c r="O99">
-        <v>-1.20661</v>
+        <v>-0.8060349999999999</v>
       </c>
       <c r="P99">
-        <v>-0.146064</v>
+        <v>-0.0975067</v>
       </c>
     </row>
     <row r="100" spans="1:16">
@@ -6293,10 +6293,10 @@
         <v>165</v>
       </c>
       <c r="O100">
-        <v>-2.50766</v>
+        <v>-1.65663</v>
       </c>
       <c r="P100">
-        <v>-0.303764</v>
+        <v>-0.200622</v>
       </c>
     </row>
     <row r="101" spans="1:16">
@@ -6343,10 +6343,10 @@
         <v>165</v>
       </c>
       <c r="O101">
-        <v>-3.75826</v>
+        <v>-2.50791</v>
       </c>
       <c r="P101">
-        <v>-0.455369</v>
+        <v>-0.303807</v>
       </c>
     </row>
     <row r="102" spans="1:16">
@@ -6393,10 +6393,10 @@
         <v>165</v>
       </c>
       <c r="O102">
-        <v>-4.91014</v>
+        <v>-3.35851</v>
       </c>
       <c r="P102">
-        <v>-0.5949759999999999</v>
+        <v>-0.406912</v>
       </c>
     </row>
     <row r="103" spans="1:16">
@@ -6443,10 +6443,10 @@
         <v>165</v>
       </c>
       <c r="O103">
-        <v>-6.16016</v>
+        <v>-4.15911</v>
       </c>
       <c r="P103">
-        <v>-0.740604</v>
+        <v>-0.503946</v>
       </c>
     </row>
     <row r="104" spans="1:16">
@@ -6493,10 +6493,10 @@
         <v>165</v>
       </c>
       <c r="O104">
-        <v>-7.41263</v>
+        <v>-4.96022</v>
       </c>
       <c r="P104">
-        <v>-0.898304</v>
+        <v>-0.601051</v>
       </c>
     </row>
     <row r="105" spans="1:16">
@@ -6543,10 +6543,10 @@
         <v>165</v>
       </c>
       <c r="O105">
-        <v>-8.7141</v>
+        <v>-5.8107</v>
       </c>
       <c r="P105">
-        <v>-1.05607</v>
+        <v>-0.704136</v>
       </c>
     </row>
     <row r="106" spans="1:16">
@@ -6593,10 +6593,10 @@
         <v>165</v>
       </c>
       <c r="O106">
-        <v>-9.8154</v>
+        <v>-6.56159</v>
       </c>
       <c r="P106">
-        <v>-1.18956</v>
+        <v>-0.795157</v>
       </c>
     </row>
     <row r="107" spans="1:16">
@@ -6643,10 +6643,10 @@
         <v>165</v>
       </c>
       <c r="O107">
-        <v>-11.2664</v>
+        <v>-7.51246</v>
       </c>
       <c r="P107">
-        <v>-1.36544</v>
+        <v>-0.910416</v>
       </c>
     </row>
     <row r="108" spans="1:16">
@@ -6693,10 +6693,10 @@
         <v>165</v>
       </c>
       <c r="O108">
-        <v>-12.6182</v>
+        <v>-8.363950000000001</v>
       </c>
       <c r="P108">
-        <v>-1.52929</v>
+        <v>-1.01362</v>
       </c>
     </row>
     <row r="109" spans="1:16">
@@ -6743,10 +6743,10 @@
         <v>165</v>
       </c>
       <c r="O109">
-        <v>-14.1197</v>
+        <v>-9.314450000000001</v>
       </c>
       <c r="P109">
-        <v>-1.71128</v>
+        <v>-1.12883</v>
       </c>
     </row>
     <row r="110" spans="1:16">
@@ -6793,10 +6793,10 @@
         <v>165</v>
       </c>
       <c r="O110">
-        <v>-15.5713</v>
+        <v>-10.1655</v>
       </c>
       <c r="P110">
-        <v>-1.88725</v>
+        <v>-1.232</v>
       </c>
     </row>
     <row r="111" spans="1:16">
@@ -6843,10 +6843,10 @@
         <v>165</v>
       </c>
       <c r="O111">
-        <v>-17.0229</v>
+        <v>-11.1664</v>
       </c>
       <c r="P111">
-        <v>-2.06319</v>
+        <v>-1.35332</v>
       </c>
     </row>
     <row r="112" spans="1:16">
@@ -6893,10 +6893,10 @@
         <v>165</v>
       </c>
       <c r="O112">
-        <v>-18.3747</v>
+        <v>-12.168</v>
       </c>
       <c r="P112">
-        <v>-2.22704</v>
+        <v>-1.47472</v>
       </c>
     </row>
     <row r="113" spans="1:16">
@@ -6943,10 +6943,10 @@
         <v>165</v>
       </c>
       <c r="O113">
-        <v>-19.776</v>
+        <v>-13.1188</v>
       </c>
       <c r="P113">
-        <v>-2.3969</v>
+        <v>-1.58997</v>
       </c>
     </row>
     <row r="114" spans="1:16">
@@ -6993,10 +6993,10 @@
         <v>165</v>
       </c>
       <c r="O114">
-        <v>-19.875</v>
+        <v>-13.1652</v>
       </c>
       <c r="P114">
-        <v>-2.40891</v>
+        <v>-1.59562</v>
       </c>
     </row>
     <row r="115" spans="1:16">
@@ -7043,10 +7043,10 @@
         <v>165</v>
       </c>
       <c r="O115">
-        <v>-20.627</v>
+        <v>-13.4691</v>
       </c>
       <c r="P115">
-        <v>-2.50007</v>
+        <v>-1.63243</v>
       </c>
     </row>
     <row r="116" spans="1:16">
@@ -7093,10 +7093,10 @@
         <v>165</v>
       </c>
       <c r="O116">
-        <v>-21.5778</v>
+        <v>-13.8192</v>
       </c>
       <c r="P116">
-        <v>-2.61531</v>
+        <v>-1.67487</v>
       </c>
     </row>
     <row r="117" spans="1:16">
@@ -7143,10 +7143,10 @@
         <v>165</v>
       </c>
       <c r="O117">
-        <v>-22.5781</v>
+        <v>-14.1656</v>
       </c>
       <c r="P117">
-        <v>-2.73655</v>
+        <v>-1.71686</v>
       </c>
     </row>
     <row r="118" spans="1:16">
@@ -7193,10 +7193,10 @@
         <v>165</v>
       </c>
       <c r="O118">
-        <v>-23.3803</v>
+        <v>-14.5206</v>
       </c>
       <c r="P118">
-        <v>-2.83379</v>
+        <v>-1.75989</v>
       </c>
     </row>
     <row r="119" spans="1:16">
@@ -7243,10 +7243,10 @@
         <v>165</v>
       </c>
       <c r="O119">
-        <v>-24.2812</v>
+        <v>-14.8205</v>
       </c>
       <c r="P119">
-        <v>-2.94299</v>
+        <v>-1.79624</v>
       </c>
     </row>
     <row r="120" spans="1:16">
@@ -7293,10 +7293,10 @@
         <v>165</v>
       </c>
       <c r="O120">
-        <v>-25.1819</v>
+        <v>-15.2207</v>
       </c>
       <c r="P120">
-        <v>-3.05217</v>
+        <v>-1.84475</v>
       </c>
     </row>
     <row r="121" spans="1:16">
@@ -7343,10 +7343,10 @@
         <v>165</v>
       </c>
       <c r="O121">
-        <v>-26.1326</v>
+        <v>-15.5715</v>
       </c>
       <c r="P121">
-        <v>-3.16739</v>
+        <v>-1.88727</v>
       </c>
     </row>
     <row r="122" spans="1:16">
@@ -7393,10 +7393,10 @@
         <v>165</v>
       </c>
       <c r="O122">
-        <v>-26.4827</v>
+        <v>-15.9496</v>
       </c>
       <c r="P122">
-        <v>-3.20983</v>
+        <v>-1.93309</v>
       </c>
     </row>
     <row r="123" spans="1:16">
@@ -7443,10 +7443,10 @@
         <v>165</v>
       </c>
       <c r="O123">
-        <v>-27.4334</v>
+        <v>-16.2719</v>
       </c>
       <c r="P123">
-        <v>-3.32507</v>
+        <v>-1.97216</v>
       </c>
     </row>
     <row r="124" spans="1:16">
@@ -7493,10 +7493,10 @@
         <v>165</v>
       </c>
       <c r="O124">
-        <v>-28.3338</v>
+        <v>-16.6225</v>
       </c>
       <c r="P124">
-        <v>-3.43421</v>
+        <v>-2.01465</v>
       </c>
     </row>
     <row r="125" spans="1:16">
@@ -7543,10 +7543,10 @@
         <v>165</v>
       </c>
       <c r="O125">
-        <v>-29.2344</v>
+        <v>-17.073</v>
       </c>
       <c r="P125">
-        <v>-3.54336</v>
+        <v>-2.06927</v>
       </c>
     </row>
     <row r="126" spans="1:16">
@@ -7593,10 +7593,10 @@
         <v>165</v>
       </c>
       <c r="O126">
-        <v>-30.1349</v>
+        <v>-17.3228</v>
       </c>
       <c r="P126">
-        <v>-3.65253</v>
+        <v>-2.09954</v>
       </c>
     </row>
     <row r="127" spans="1:16">
@@ -7643,10 +7643,10 @@
         <v>165</v>
       </c>
       <c r="O127">
-        <v>-31.0854</v>
+        <v>-17.7237</v>
       </c>
       <c r="P127">
-        <v>-3.76774</v>
+        <v>-2.14815</v>
       </c>
     </row>
     <row r="128" spans="1:16">
@@ -7693,10 +7693,10 @@
         <v>165</v>
       </c>
       <c r="O128">
-        <v>-31.986</v>
+        <v>-18.024</v>
       </c>
       <c r="P128">
-        <v>-3.87691</v>
+        <v>-2.18453</v>
       </c>
     </row>
     <row r="129" spans="1:16">
@@ -7743,10 +7743,10 @@
         <v>165</v>
       </c>
       <c r="O129">
-        <v>-32.9367</v>
+        <v>-18.4244</v>
       </c>
       <c r="P129">
-        <v>-3.99214</v>
+        <v>-2.23307</v>
       </c>
     </row>
     <row r="130" spans="1:16">
@@ -7793,10 +7793,10 @@
         <v>239</v>
       </c>
       <c r="O130">
-        <v>19.0726</v>
+        <v>10.0294</v>
       </c>
       <c r="P130">
-        <v>2.82619</v>
+        <v>1.48646</v>
       </c>
     </row>
     <row r="131" spans="1:16">
@@ -7843,10 +7843,10 @@
         <v>239</v>
       </c>
       <c r="O131">
-        <v>18.6069</v>
+        <v>9.97654</v>
       </c>
       <c r="P131">
-        <v>2.75719</v>
+        <v>1.47861</v>
       </c>
     </row>
     <row r="132" spans="1:16">
@@ -7893,10 +7893,10 @@
         <v>239</v>
       </c>
       <c r="O132">
-        <v>18.0857</v>
+        <v>10.0249</v>
       </c>
       <c r="P132">
-        <v>2.68</v>
+        <v>1.4858</v>
       </c>
     </row>
     <row r="133" spans="1:16">
@@ -7943,10 +7943,10 @@
         <v>239</v>
       </c>
       <c r="O133">
-        <v>17.6867</v>
+        <v>9.87632</v>
       </c>
       <c r="P133">
-        <v>2.62091</v>
+        <v>1.46373</v>
       </c>
     </row>
     <row r="134" spans="1:16">
@@ -7993,10 +7993,10 @@
         <v>239</v>
       </c>
       <c r="O134">
-        <v>17.3133</v>
+        <v>9.71449</v>
       </c>
       <c r="P134">
-        <v>2.56556</v>
+        <v>1.4398</v>
       </c>
     </row>
     <row r="135" spans="1:16">
@@ -8043,10 +8043,10 @@
         <v>239</v>
       </c>
       <c r="O135">
-        <v>16.8982</v>
+        <v>9.61125</v>
       </c>
       <c r="P135">
-        <v>2.50409</v>
+        <v>1.42451</v>
       </c>
     </row>
     <row r="136" spans="1:16">
@@ -8093,10 +8093,10 @@
         <v>239</v>
       </c>
       <c r="O136">
-        <v>16.4852</v>
+        <v>9.46383</v>
       </c>
       <c r="P136">
-        <v>2.44288</v>
+        <v>1.4026</v>
       </c>
     </row>
     <row r="137" spans="1:16">
@@ -8143,10 +8143,10 @@
         <v>239</v>
       </c>
       <c r="O137">
-        <v>16.1231</v>
+        <v>9.30101</v>
       </c>
       <c r="P137">
-        <v>2.38921</v>
+        <v>1.37852</v>
       </c>
     </row>
     <row r="138" spans="1:16">
@@ -8193,10 +8193,10 @@
         <v>239</v>
       </c>
       <c r="O138">
-        <v>15.9685</v>
+        <v>9.204800000000001</v>
       </c>
       <c r="P138">
-        <v>2.36632</v>
+        <v>1.36423</v>
       </c>
     </row>
     <row r="139" spans="1:16">
@@ -8243,10 +8243,10 @@
         <v>239</v>
       </c>
       <c r="O139">
-        <v>15.5545</v>
+        <v>8.8879</v>
       </c>
       <c r="P139">
-        <v>2.30502</v>
+        <v>1.31734</v>
       </c>
     </row>
     <row r="140" spans="1:16">
@@ -8293,10 +8293,10 @@
         <v>239</v>
       </c>
       <c r="O140">
-        <v>15.0971</v>
+        <v>8.836499999999999</v>
       </c>
       <c r="P140">
-        <v>2.23716</v>
+        <v>1.30973</v>
       </c>
     </row>
     <row r="141" spans="1:16">
@@ -8343,10 +8343,10 @@
         <v>239</v>
       </c>
       <c r="O141">
-        <v>14.7281</v>
+        <v>8.68741</v>
       </c>
       <c r="P141">
-        <v>2.18256</v>
+        <v>1.28759</v>
       </c>
     </row>
     <row r="142" spans="1:16">
@@ -8393,10 +8393,10 @@
         <v>239</v>
       </c>
       <c r="O142">
-        <v>14.3147</v>
+        <v>8.52712</v>
       </c>
       <c r="P142">
-        <v>2.12135</v>
+        <v>1.27137</v>
       </c>
     </row>
     <row r="143" spans="1:16">
@@ -8443,10 +8443,10 @@
         <v>239</v>
       </c>
       <c r="O143">
-        <v>13.901</v>
+        <v>8.4832</v>
       </c>
       <c r="P143">
-        <v>2.06002</v>
+        <v>1.25733</v>
       </c>
     </row>
     <row r="144" spans="1:16">
@@ -8493,10 +8493,10 @@
         <v>239</v>
       </c>
       <c r="O144">
-        <v>13.4492</v>
+        <v>8.22322</v>
       </c>
       <c r="P144">
-        <v>1.99312</v>
+        <v>1.2188</v>
       </c>
     </row>
     <row r="145" spans="1:16">
@@ -8543,10 +8543,10 @@
         <v>239</v>
       </c>
       <c r="O145">
-        <v>13.0745</v>
+        <v>8.21668</v>
       </c>
       <c r="P145">
-        <v>1.93759</v>
+        <v>1.21795</v>
       </c>
     </row>
     <row r="146" spans="1:16">
@@ -8593,10 +8593,10 @@
         <v>239</v>
       </c>
       <c r="O146">
-        <v>13.0747</v>
+        <v>8.112550000000001</v>
       </c>
       <c r="P146">
-        <v>1.93762</v>
+        <v>1.20246</v>
       </c>
     </row>
     <row r="147" spans="1:16">
@@ -8643,10 +8643,10 @@
         <v>239</v>
       </c>
       <c r="O147">
-        <v>12.1443</v>
+        <v>7.49342</v>
       </c>
       <c r="P147">
-        <v>1.79975</v>
+        <v>1.11075</v>
       </c>
     </row>
     <row r="148" spans="1:16">
@@ -8693,10 +8693,10 @@
         <v>239</v>
       </c>
       <c r="O148">
-        <v>11.3184</v>
+        <v>6.97529</v>
       </c>
       <c r="P148">
-        <v>1.67744</v>
+        <v>1.03399</v>
       </c>
     </row>
     <row r="149" spans="1:16">
@@ -8743,10 +8743,10 @@
         <v>239</v>
       </c>
       <c r="O149">
-        <v>10.3353</v>
+        <v>6.40679</v>
       </c>
       <c r="P149">
-        <v>1.53179</v>
+        <v>0.949785</v>
       </c>
     </row>
     <row r="150" spans="1:16">
@@ -8793,10 +8793,10 @@
         <v>239</v>
       </c>
       <c r="O150">
-        <v>9.45734</v>
+        <v>5.73659</v>
       </c>
       <c r="P150">
-        <v>1.40172</v>
+        <v>0.857872</v>
       </c>
     </row>
     <row r="151" spans="1:16">
@@ -8843,10 +8843,10 @@
         <v>239</v>
       </c>
       <c r="O151">
-        <v>8.47404</v>
+        <v>5.21903</v>
       </c>
       <c r="P151">
-        <v>1.25605</v>
+        <v>0.773796</v>
       </c>
     </row>
     <row r="152" spans="1:16">
@@ -8893,10 +8893,10 @@
         <v>239</v>
       </c>
       <c r="O152">
-        <v>7.49455</v>
+        <v>4.66062</v>
       </c>
       <c r="P152">
-        <v>1.11094</v>
+        <v>0.6910539999999999</v>
       </c>
     </row>
     <row r="153" spans="1:16">
@@ -8943,10 +8943,10 @@
         <v>239</v>
       </c>
       <c r="O153">
-        <v>6.5632</v>
+        <v>4.18469</v>
       </c>
       <c r="P153">
-        <v>0.972989</v>
+        <v>0.620548</v>
       </c>
     </row>
     <row r="154" spans="1:16">
@@ -8993,10 +8993,10 @@
         <v>239</v>
       </c>
       <c r="O154">
-        <v>5.99446</v>
+        <v>3.72639</v>
       </c>
       <c r="P154">
-        <v>0.888689</v>
+        <v>0.552626</v>
       </c>
     </row>
     <row r="155" spans="1:16">
@@ -9043,10 +9043,10 @@
         <v>239</v>
       </c>
       <c r="O155">
-        <v>5.11462</v>
+        <v>3.20235</v>
       </c>
       <c r="P155">
-        <v>0.758336</v>
+        <v>0.475065</v>
       </c>
     </row>
     <row r="156" spans="1:16">
@@ -9093,10 +9093,10 @@
         <v>239</v>
       </c>
       <c r="O156">
-        <v>4.28787</v>
+        <v>2.68568</v>
       </c>
       <c r="P156">
-        <v>0.635856</v>
+        <v>0.398485</v>
       </c>
     </row>
     <row r="157" spans="1:16">
@@ -9143,10 +9143,10 @@
         <v>239</v>
       </c>
       <c r="O157">
-        <v>3.4613</v>
+        <v>2.117</v>
       </c>
       <c r="P157">
-        <v>0.513406</v>
+        <v>0.314274</v>
       </c>
     </row>
     <row r="158" spans="1:16">
@@ -9193,10 +9193,10 @@
         <v>239</v>
       </c>
       <c r="O158">
-        <v>2.63356</v>
+        <v>1.65231</v>
       </c>
       <c r="P158">
-        <v>0.390788</v>
+        <v>0.245398</v>
       </c>
     </row>
     <row r="159" spans="1:16">
@@ -9243,10 +9243,10 @@
         <v>239</v>
       </c>
       <c r="O159">
-        <v>1.80656</v>
+        <v>1.14174</v>
       </c>
       <c r="P159">
-        <v>0.268277</v>
+        <v>0.169691</v>
       </c>
     </row>
     <row r="160" spans="1:16">
@@ -9293,10 +9293,10 @@
         <v>239</v>
       </c>
       <c r="O160">
-        <v>0.934847</v>
+        <v>0.670448</v>
       </c>
       <c r="P160">
-        <v>0.13908</v>
+        <v>0.09993639999999999</v>
       </c>
     </row>
     <row r="161" spans="1:16">
@@ -9343,10 +9343,10 @@
         <v>239</v>
       </c>
       <c r="O161">
-        <v>0.101765</v>
+        <v>0.107085</v>
       </c>
       <c r="P161">
-        <v>0.0156881</v>
+        <v>0.0164515</v>
       </c>
     </row>
     <row r="162" spans="1:16">
@@ -9393,10 +9393,10 @@
         <v>239</v>
       </c>
       <c r="O162">
-        <v>0.153243</v>
+        <v>0.101579</v>
       </c>
       <c r="P162">
-        <v>0.023301</v>
+        <v>0.0156521</v>
       </c>
     </row>
     <row r="163" spans="1:16">
@@ -9443,10 +9443,10 @@
         <v>239</v>
       </c>
       <c r="O163">
-        <v>-0.777218</v>
+        <v>-0.363813</v>
       </c>
       <c r="P163">
-        <v>-0.114505</v>
+        <v>-0.0532936</v>
       </c>
     </row>
     <row r="164" spans="1:16">
@@ -9493,10 +9493,10 @@
         <v>239</v>
       </c>
       <c r="O164">
-        <v>-1.65614</v>
+        <v>-0.880328</v>
       </c>
       <c r="P164">
-        <v>-0.244708</v>
+        <v>-0.129821</v>
       </c>
     </row>
     <row r="165" spans="1:16">
@@ -9543,10 +9543,10 @@
         <v>239</v>
       </c>
       <c r="O165">
-        <v>-2.37905</v>
+        <v>-1.44903</v>
       </c>
       <c r="P165">
-        <v>-0.351799</v>
+        <v>-0.214078</v>
       </c>
     </row>
     <row r="166" spans="1:16">
@@ -9593,10 +9593,10 @@
         <v>239</v>
       </c>
       <c r="O166">
-        <v>-3.20598</v>
+        <v>-1.96495</v>
       </c>
       <c r="P166">
-        <v>-0.474315</v>
+        <v>-0.290462</v>
       </c>
     </row>
     <row r="167" spans="1:16">
@@ -9643,10 +9643,10 @@
         <v>239</v>
       </c>
       <c r="O167">
-        <v>-4.03209</v>
+        <v>-2.43036</v>
       </c>
       <c r="P167">
-        <v>-0.596704</v>
+        <v>-0.35944</v>
       </c>
     </row>
     <row r="168" spans="1:16">
@@ -9693,10 +9693,10 @@
         <v>239</v>
       </c>
       <c r="O168">
-        <v>-4.95333</v>
+        <v>-2.94776</v>
       </c>
       <c r="P168">
-        <v>-0.73326</v>
+        <v>-0.436094</v>
       </c>
     </row>
     <row r="169" spans="1:16">
@@ -9743,10 +9743,10 @@
         <v>239</v>
       </c>
       <c r="O169">
-        <v>-5.89196</v>
+        <v>-3.51587</v>
       </c>
       <c r="P169">
-        <v>-0.87226</v>
+        <v>-0.5202599999999999</v>
       </c>
     </row>
     <row r="170" spans="1:16">
@@ -9793,10 +9793,10 @@
         <v>239</v>
       </c>
       <c r="O170">
-        <v>-6.5104</v>
+        <v>-3.92974</v>
       </c>
       <c r="P170">
-        <v>-0.95655</v>
+        <v>-0.581573</v>
       </c>
     </row>
     <row r="171" spans="1:16">
@@ -9843,10 +9843,10 @@
         <v>239</v>
       </c>
       <c r="O171">
-        <v>-7.28763</v>
+        <v>-4.49724</v>
       </c>
       <c r="P171">
-        <v>-1.07903</v>
+        <v>-0.665636</v>
       </c>
     </row>
     <row r="172" spans="1:16">
@@ -9893,10 +9893,10 @@
         <v>239</v>
       </c>
       <c r="O172">
-        <v>-8.06302</v>
+        <v>-5.06556</v>
       </c>
       <c r="P172">
-        <v>-1.19392</v>
+        <v>-0.749812</v>
       </c>
     </row>
     <row r="173" spans="1:16">
@@ -9943,10 +9943,10 @@
         <v>239</v>
       </c>
       <c r="O173">
-        <v>-8.940720000000001</v>
+        <v>-5.58313</v>
       </c>
       <c r="P173">
-        <v>-1.3239</v>
+        <v>-0.826522</v>
       </c>
     </row>
     <row r="174" spans="1:16">
@@ -9993,10 +9993,10 @@
         <v>239</v>
       </c>
       <c r="O174">
-        <v>-9.70914</v>
+        <v>-6.15116</v>
       </c>
       <c r="P174">
-        <v>-1.43783</v>
+        <v>-0.910681</v>
       </c>
     </row>
     <row r="175" spans="1:16">
@@ -10043,10 +10043,10 @@
         <v>239</v>
       </c>
       <c r="O175">
-        <v>-10.491</v>
+        <v>-6.7194</v>
       </c>
       <c r="P175">
-        <v>-1.55363</v>
+        <v>-0.994922</v>
       </c>
     </row>
     <row r="176" spans="1:16">
@@ -10093,10 +10093,10 @@
         <v>239</v>
       </c>
       <c r="O176">
-        <v>-11.2656</v>
+        <v>-7.28773</v>
       </c>
       <c r="P176">
-        <v>-1.66834</v>
+        <v>-1.07904</v>
       </c>
     </row>
     <row r="177" spans="1:16">
@@ -10143,10 +10143,10 @@
         <v>239</v>
       </c>
       <c r="O177">
-        <v>-12.0409</v>
+        <v>-7.70137</v>
       </c>
       <c r="P177">
-        <v>-1.78322</v>
+        <v>-1.14033</v>
       </c>
     </row>
     <row r="178" spans="1:16">
@@ -10193,10 +10193,10 @@
         <v>239</v>
       </c>
       <c r="O178">
-        <v>-12.0326</v>
+        <v>-7.7011</v>
       </c>
       <c r="P178">
-        <v>-1.78205</v>
+        <v>-1.14025</v>
       </c>
     </row>
     <row r="179" spans="1:16">
@@ -10243,10 +10243,10 @@
         <v>239</v>
       </c>
       <c r="O179">
-        <v>-12.5582</v>
+        <v>-7.85597</v>
       </c>
       <c r="P179">
-        <v>-1.85986</v>
+        <v>-1.16323</v>
       </c>
     </row>
     <row r="180" spans="1:16">
@@ -10293,10 +10293,10 @@
         <v>239</v>
       </c>
       <c r="O180">
-        <v>-12.917</v>
+        <v>-8.06237</v>
       </c>
       <c r="P180">
-        <v>-1.91302</v>
+        <v>-1.19379</v>
       </c>
     </row>
     <row r="181" spans="1:16">
@@ -10343,10 +10343,10 @@
         <v>239</v>
       </c>
       <c r="O181">
-        <v>-13.2815</v>
+        <v>-8.11422</v>
       </c>
       <c r="P181">
-        <v>-1.96702</v>
+        <v>-1.20148</v>
       </c>
     </row>
     <row r="182" spans="1:16">
@@ -10393,10 +10393,10 @@
         <v>239</v>
       </c>
       <c r="O182">
-        <v>-13.5398</v>
+        <v>-8.269830000000001</v>
       </c>
       <c r="P182">
-        <v>-2.00526</v>
+        <v>-1.22453</v>
       </c>
     </row>
     <row r="183" spans="1:16">
@@ -10443,10 +10443,10 @@
         <v>239</v>
       </c>
       <c r="O183">
-        <v>-14.0043</v>
+        <v>-8.42412</v>
       </c>
       <c r="P183">
-        <v>-2.07409</v>
+        <v>-1.24738</v>
       </c>
     </row>
     <row r="184" spans="1:16">
@@ -10493,10 +10493,10 @@
         <v>239</v>
       </c>
       <c r="O184">
-        <v>-14.5223</v>
+        <v>-8.47594</v>
       </c>
       <c r="P184">
-        <v>-2.15083</v>
+        <v>-1.25508</v>
       </c>
     </row>
     <row r="185" spans="1:16">
@@ -10543,10 +10543,10 @@
         <v>239</v>
       </c>
       <c r="O185">
-        <v>-14.8843</v>
+        <v>-8.57902</v>
       </c>
       <c r="P185">
-        <v>-2.20446</v>
+        <v>-1.27036</v>
       </c>
     </row>
     <row r="186" spans="1:16">
@@ -10593,10 +10593,10 @@
         <v>239</v>
       </c>
       <c r="O186">
-        <v>-15.1425</v>
+        <v>-8.73465</v>
       </c>
       <c r="P186">
-        <v>-2.24272</v>
+        <v>-1.29341</v>
       </c>
     </row>
     <row r="187" spans="1:16">
@@ -10643,10 +10643,10 @@
         <v>239</v>
       </c>
       <c r="O187">
-        <v>-15.6081</v>
+        <v>-8.78609</v>
       </c>
       <c r="P187">
-        <v>-2.31171</v>
+        <v>-1.301</v>
       </c>
     </row>
     <row r="188" spans="1:16">
@@ -10693,10 +10693,10 @@
         <v>239</v>
       </c>
       <c r="O188">
-        <v>-16.0202</v>
+        <v>-8.94163</v>
       </c>
       <c r="P188">
-        <v>-2.37275</v>
+        <v>-1.32409</v>
       </c>
     </row>
     <row r="189" spans="1:16">
@@ -10743,10 +10743,10 @@
         <v>239</v>
       </c>
       <c r="O189">
-        <v>-16.3811</v>
+        <v>-9.044589999999999</v>
       </c>
       <c r="P189">
-        <v>-2.42621</v>
+        <v>-1.33928</v>
       </c>
     </row>
     <row r="190" spans="1:16">
@@ -10793,10 +10793,10 @@
         <v>239</v>
       </c>
       <c r="O190">
-        <v>-16.7453</v>
+        <v>-9.1929</v>
       </c>
       <c r="P190">
-        <v>-2.48017</v>
+        <v>-1.36134</v>
       </c>
     </row>
     <row r="191" spans="1:16">
@@ -10843,10 +10843,10 @@
         <v>239</v>
       </c>
       <c r="O191">
-        <v>-17.2081</v>
+        <v>-9.34618</v>
       </c>
       <c r="P191">
-        <v>-2.54873</v>
+        <v>-1.38408</v>
       </c>
     </row>
     <row r="192" spans="1:16">
@@ -10893,10 +10893,10 @@
         <v>239</v>
       </c>
       <c r="O192">
-        <v>-17.6751</v>
+        <v>-9.354850000000001</v>
       </c>
       <c r="P192">
-        <v>-2.61793</v>
+        <v>-1.38526</v>
       </c>
     </row>
     <row r="193" spans="1:16">
@@ -10943,10 +10943,10 @@
         <v>239</v>
       </c>
       <c r="O193">
-        <v>-17.9856</v>
+        <v>-9.501749999999999</v>
       </c>
       <c r="P193">
-        <v>-2.6639</v>
+        <v>-1.40711</v>
       </c>
     </row>
     <row r="194" spans="1:16" s="1" customFormat="1">
@@ -11004,10 +11004,10 @@
         <v>303</v>
       </c>
       <c r="O195" s="1">
-        <v>-32.9367</v>
+        <v>-18.4244</v>
       </c>
       <c r="P195" s="1">
-        <v>-3.99214</v>
+        <v>-2.23307</v>
       </c>
     </row>
     <row r="196" spans="1:16" s="1" customFormat="1">
@@ -11015,10 +11015,10 @@
         <v>304</v>
       </c>
       <c r="O196" s="1">
-        <v>32.8423</v>
+        <v>18.4699</v>
       </c>
       <c r="P196" s="1">
-        <v>3.98108</v>
+        <v>2.23895</v>
       </c>
     </row>
     <row r="197" spans="1:16" s="1" customFormat="1">
@@ -11058,10 +11058,10 @@
         <v>309</v>
       </c>
       <c r="O201" s="1">
-        <v>0.1491995</v>
+        <v>0.08029598</v>
       </c>
       <c r="P201" s="1">
-        <v>0.02215283</v>
+        <v>0.01211216</v>
       </c>
     </row>
     <row r="202" spans="1:16" s="1" customFormat="1">
@@ -11069,10 +11069,10 @@
         <v>310</v>
       </c>
       <c r="O202" s="1">
-        <v>16.276802</v>
+        <v>9.788529</v>
       </c>
       <c r="P202" s="1">
-        <v>2.11841</v>
+        <v>1.271109</v>
       </c>
     </row>
     <row r="203" spans="1:16" s="1" customFormat="1">
@@ -11080,10 +11080,10 @@
         <v>311</v>
       </c>
       <c r="O203" s="1">
-        <v>10909.421278</v>
+        <v>12190.559228</v>
       </c>
       <c r="P203" s="1">
-        <v>9562.705984</v>
+        <v>10494.486533</v>
       </c>
     </row>
     <row r="204" spans="1:16" s="1" customFormat="1"/>

--- a/dcd_top_offset_step_tsmc2p_meas.xlsx
+++ b/dcd_top_offset_step_tsmc2p_meas.xlsx
@@ -1393,10 +1393,10 @@
         <v>29</v>
       </c>
       <c r="O2">
-        <v>13.2532</v>
+        <v>9.844480000000001</v>
       </c>
       <c r="P2">
-        <v>1.76737</v>
+        <v>1.31288</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1443,10 +1443,10 @@
         <v>29</v>
       </c>
       <c r="O3">
-        <v>12.9942</v>
+        <v>9.89554</v>
       </c>
       <c r="P3">
-        <v>1.73285</v>
+        <v>1.31968</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1493,10 +1493,10 @@
         <v>29</v>
       </c>
       <c r="O4">
-        <v>12.4245</v>
+        <v>9.9963</v>
       </c>
       <c r="P4">
-        <v>1.65689</v>
+        <v>1.33313</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1543,10 +1543,10 @@
         <v>29</v>
       </c>
       <c r="O5">
-        <v>12.268</v>
+        <v>9.99572</v>
       </c>
       <c r="P5">
-        <v>1.63603</v>
+        <v>1.33305</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1593,10 +1593,10 @@
         <v>29</v>
       </c>
       <c r="O6">
-        <v>12.1142</v>
+        <v>10.0484</v>
       </c>
       <c r="P6">
-        <v>1.61552</v>
+        <v>1.34008</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1643,10 +1643,10 @@
         <v>29</v>
       </c>
       <c r="O7">
-        <v>11.8563</v>
+        <v>9.996700000000001</v>
       </c>
       <c r="P7">
-        <v>1.58112</v>
+        <v>1.33319</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1693,10 +1693,10 @@
         <v>29</v>
       </c>
       <c r="O8">
-        <v>11.7527</v>
+        <v>9.996700000000001</v>
       </c>
       <c r="P8">
-        <v>1.56732</v>
+        <v>1.33319</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1743,10 +1743,10 @@
         <v>29</v>
       </c>
       <c r="O9">
-        <v>11.4953</v>
+        <v>10.0484</v>
       </c>
       <c r="P9">
-        <v>1.53978</v>
+        <v>1.34008</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1793,10 +1793,10 @@
         <v>29</v>
       </c>
       <c r="O10">
-        <v>11.3395</v>
+        <v>10.0484</v>
       </c>
       <c r="P10">
-        <v>1.51223</v>
+        <v>1.34008</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1843,10 +1843,10 @@
         <v>29</v>
       </c>
       <c r="O11">
-        <v>11.1849</v>
+        <v>9.996700000000001</v>
       </c>
       <c r="P11">
-        <v>1.49161</v>
+        <v>1.33319</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1893,10 +1893,10 @@
         <v>29</v>
       </c>
       <c r="O12">
-        <v>11.0296</v>
+        <v>9.996700000000001</v>
       </c>
       <c r="P12">
-        <v>1.47091</v>
+        <v>1.33319</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1943,10 +1943,10 @@
         <v>29</v>
       </c>
       <c r="O13">
-        <v>10.7721</v>
+        <v>9.996700000000001</v>
       </c>
       <c r="P13">
-        <v>1.43657</v>
+        <v>1.33319</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1993,10 +1993,10 @@
         <v>29</v>
       </c>
       <c r="O14">
-        <v>10.6164</v>
+        <v>9.996700000000001</v>
       </c>
       <c r="P14">
-        <v>1.41582</v>
+        <v>1.33319</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -2043,10 +2043,10 @@
         <v>29</v>
       </c>
       <c r="O15">
-        <v>10.3592</v>
+        <v>9.996700000000001</v>
       </c>
       <c r="P15">
-        <v>1.38151</v>
+        <v>1.33319</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -2093,10 +2093,10 @@
         <v>29</v>
       </c>
       <c r="O16">
-        <v>10.2034</v>
+        <v>9.996700000000001</v>
       </c>
       <c r="P16">
-        <v>1.36074</v>
+        <v>1.33319</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -2143,10 +2143,10 @@
         <v>29</v>
       </c>
       <c r="O17">
-        <v>10.0484</v>
+        <v>9.945600000000001</v>
       </c>
       <c r="P17">
-        <v>1.34008</v>
+        <v>1.32636</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -2193,10 +2193,10 @@
         <v>29</v>
       </c>
       <c r="O18">
-        <v>9.99682</v>
+        <v>10.0484</v>
       </c>
       <c r="P18">
-        <v>1.33321</v>
+        <v>1.34008</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -2243,10 +2243,10 @@
         <v>29</v>
       </c>
       <c r="O19">
-        <v>9.32574</v>
+        <v>9.3256</v>
       </c>
       <c r="P19">
-        <v>1.24372</v>
+        <v>1.24371</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -2293,10 +2293,10 @@
         <v>29</v>
       </c>
       <c r="O20">
-        <v>8.705579999999999</v>
+        <v>8.7058</v>
       </c>
       <c r="P20">
-        <v>1.16103</v>
+        <v>1.16106</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -2343,10 +2343,10 @@
         <v>29</v>
       </c>
       <c r="O21">
-        <v>8.03416</v>
+        <v>8.034179999999999</v>
       </c>
       <c r="P21">
-        <v>1.07151</v>
+        <v>1.07152</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -2393,10 +2393,10 @@
         <v>29</v>
       </c>
       <c r="O22">
-        <v>7.31111</v>
+        <v>7.41431</v>
       </c>
       <c r="P22">
-        <v>0.975115</v>
+        <v>0.988859</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -2443,10 +2443,10 @@
         <v>29</v>
       </c>
       <c r="O23">
-        <v>6.69507</v>
+        <v>6.69128</v>
       </c>
       <c r="P23">
-        <v>0.892948</v>
+        <v>0.892473</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -2493,10 +2493,10 @@
         <v>29</v>
       </c>
       <c r="O24">
-        <v>6.07255</v>
+        <v>6.07212</v>
       </c>
       <c r="P24">
-        <v>0.809966</v>
+        <v>0.809917</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -2543,10 +2543,10 @@
         <v>29</v>
       </c>
       <c r="O25">
-        <v>5.40011</v>
+        <v>5.40014</v>
       </c>
       <c r="P25">
-        <v>0.720299</v>
+        <v>0.720315</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -2593,10 +2593,10 @@
         <v>29</v>
       </c>
       <c r="O26">
-        <v>4.72867</v>
+        <v>4.78083</v>
       </c>
       <c r="P26">
-        <v>0.630771</v>
+        <v>0.637736</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -2643,10 +2643,10 @@
         <v>29</v>
       </c>
       <c r="O27">
-        <v>4.10955</v>
+        <v>4.10901</v>
       </c>
       <c r="P27">
-        <v>0.548238</v>
+        <v>0.548154</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -2693,10 +2693,10 @@
         <v>29</v>
       </c>
       <c r="O28">
-        <v>3.48941</v>
+        <v>3.43769</v>
       </c>
       <c r="P28">
-        <v>0.465539</v>
+        <v>0.458646</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -2743,10 +2743,10 @@
         <v>29</v>
       </c>
       <c r="O29">
-        <v>2.76638</v>
+        <v>2.7153</v>
       </c>
       <c r="P29">
-        <v>0.369136</v>
+        <v>0.36233</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2793,10 +2793,10 @@
         <v>29</v>
       </c>
       <c r="O30">
-        <v>2.09541</v>
+        <v>2.09491</v>
       </c>
       <c r="P30">
-        <v>0.27968</v>
+        <v>0.27961</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2843,10 +2843,10 @@
         <v>29</v>
       </c>
       <c r="O31">
-        <v>1.42382</v>
+        <v>1.32019</v>
       </c>
       <c r="P31">
-        <v>0.190136</v>
+        <v>0.176311</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -2893,10 +2893,10 @@
         <v>29</v>
       </c>
       <c r="O32">
-        <v>0.752315</v>
+        <v>0.700002</v>
       </c>
       <c r="P32">
-        <v>0.100595</v>
+        <v>0.09361999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2943,10 +2943,10 @@
         <v>29</v>
       </c>
       <c r="O33">
-        <v>0.0803068</v>
+        <v>0.0284503</v>
       </c>
       <c r="P33">
-        <v>0.0109903</v>
+        <v>0.00407738</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2993,10 +2993,10 @@
         <v>29</v>
       </c>
       <c r="O34">
-        <v>0.0327702</v>
+        <v>0.08073660000000001</v>
       </c>
       <c r="P34">
-        <v>0.00464527</v>
+        <v>0.0178644</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -3043,10 +3043,10 @@
         <v>29</v>
       </c>
       <c r="O35">
-        <v>-0.5391899999999999</v>
+        <v>-0.538505</v>
       </c>
       <c r="P35">
-        <v>-0.0716069</v>
+        <v>-0.07150380000000001</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -3093,10 +3093,10 @@
         <v>29</v>
       </c>
       <c r="O36">
-        <v>-1.31359</v>
+        <v>-1.26151</v>
       </c>
       <c r="P36">
-        <v>-0.174854</v>
+        <v>-0.167914</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -3143,10 +3143,10 @@
         <v>29</v>
       </c>
       <c r="O37">
-        <v>-2.03628</v>
+        <v>-1.88152</v>
       </c>
       <c r="P37">
-        <v>-0.271218</v>
+        <v>-0.250582</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -3193,10 +3193,10 @@
         <v>29</v>
       </c>
       <c r="O38">
-        <v>-2.55284</v>
+        <v>-2.60434</v>
       </c>
       <c r="P38">
-        <v>-0.340086</v>
+        <v>-0.346956</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -3243,10 +3243,10 @@
         <v>29</v>
       </c>
       <c r="O39">
-        <v>-3.27538</v>
+        <v>-3.22364</v>
       </c>
       <c r="P39">
-        <v>-0.436433</v>
+        <v>-0.429535</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -3293,10 +3293,10 @@
         <v>29</v>
       </c>
       <c r="O40">
-        <v>-3.94669</v>
+        <v>-3.89507</v>
       </c>
       <c r="P40">
-        <v>-0.525935</v>
+        <v>-0.519066</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -3343,7 +3343,7 @@
         <v>29</v>
       </c>
       <c r="O41">
-        <v>-4.61758</v>
+        <v>-4.61756</v>
       </c>
       <c r="P41">
         <v>-0.615378</v>
@@ -3393,10 +3393,10 @@
         <v>29</v>
       </c>
       <c r="O42">
-        <v>-5.28948</v>
+        <v>-5.28924</v>
       </c>
       <c r="P42">
-        <v>-0.704976</v>
+        <v>-0.704948</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -3443,10 +3443,10 @@
         <v>29</v>
       </c>
       <c r="O43">
-        <v>-6.0628</v>
+        <v>-6.01197</v>
       </c>
       <c r="P43">
-        <v>-0.808072</v>
+        <v>-0.801306</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -3493,10 +3493,10 @@
         <v>29</v>
       </c>
       <c r="O44">
-        <v>-6.63128</v>
+        <v>-6.73443</v>
       </c>
       <c r="P44">
-        <v>-0.88388</v>
+        <v>-0.897636</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -3543,10 +3543,10 @@
         <v>29</v>
       </c>
       <c r="O45">
-        <v>-7.35436</v>
+        <v>-7.35384</v>
       </c>
       <c r="P45">
-        <v>-0.980279</v>
+        <v>-0.98021</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -3593,10 +3593,10 @@
         <v>29</v>
       </c>
       <c r="O46">
-        <v>-7.87096</v>
+        <v>-7.97399</v>
       </c>
       <c r="P46">
-        <v>-1.04918</v>
+        <v>-1.06289</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -3643,10 +3643,10 @@
         <v>29</v>
       </c>
       <c r="O47">
-        <v>-8.74845</v>
+        <v>-8.64499</v>
       </c>
       <c r="P47">
-        <v>-1.16616</v>
+        <v>-1.15236</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -3693,10 +3693,10 @@
         <v>29</v>
       </c>
       <c r="O48">
-        <v>-9.31195</v>
+        <v>-9.31654</v>
       </c>
       <c r="P48">
-        <v>-1.24132</v>
+        <v>-1.24191</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -3743,10 +3743,10 @@
         <v>29</v>
       </c>
       <c r="O49">
-        <v>-9.88449</v>
+        <v>-9.93629</v>
       </c>
       <c r="P49">
-        <v>-1.31765</v>
+        <v>-1.32454</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -3793,7 +3793,7 @@
         <v>29</v>
       </c>
       <c r="O50">
-        <v>-9.936170000000001</v>
+        <v>-9.93622</v>
       </c>
       <c r="P50">
         <v>-1.32453</v>
@@ -3843,10 +3843,10 @@
         <v>29</v>
       </c>
       <c r="O51">
-        <v>-10.1428</v>
+        <v>-11.3302</v>
       </c>
       <c r="P51">
-        <v>-1.35208</v>
+        <v>-1.51039</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -3893,10 +3893,10 @@
         <v>29</v>
       </c>
       <c r="O52">
-        <v>-10.3494</v>
+        <v>-11.33</v>
       </c>
       <c r="P52">
-        <v>-1.37963</v>
+        <v>-1.51038</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -3943,10 +3943,10 @@
         <v>29</v>
       </c>
       <c r="O53">
-        <v>-10.5041</v>
+        <v>-12.0537</v>
       </c>
       <c r="P53">
-        <v>-1.40028</v>
+        <v>-1.60686</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -3993,10 +3993,10 @@
         <v>29</v>
       </c>
       <c r="O54">
-        <v>-10.7108</v>
+        <v>-11.33</v>
       </c>
       <c r="P54">
-        <v>-1.42781</v>
+        <v>-1.51039</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -4043,10 +4043,10 @@
         <v>29</v>
       </c>
       <c r="O55">
-        <v>-10.9174</v>
+        <v>-12.0021</v>
       </c>
       <c r="P55">
-        <v>-1.45537</v>
+        <v>-1.59999</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -4093,10 +4093,10 @@
         <v>29</v>
       </c>
       <c r="O56">
-        <v>-11.176</v>
+        <v>-12.105</v>
       </c>
       <c r="P56">
-        <v>-1.48983</v>
+        <v>-1.61369</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -4143,10 +4143,10 @@
         <v>29</v>
       </c>
       <c r="O57">
-        <v>-11.3826</v>
+        <v>-12.5186</v>
       </c>
       <c r="P57">
-        <v>-1.51738</v>
+        <v>-1.66884</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -4193,10 +4193,10 @@
         <v>29</v>
       </c>
       <c r="O58">
-        <v>-11.4333</v>
+        <v>-11.3297</v>
       </c>
       <c r="P58">
-        <v>-1.52415</v>
+        <v>-1.51033</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -4243,10 +4243,10 @@
         <v>29</v>
       </c>
       <c r="O59">
-        <v>-11.7438</v>
+        <v>-12.0538</v>
       </c>
       <c r="P59">
-        <v>-1.56556</v>
+        <v>-1.60688</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -4293,10 +4293,10 @@
         <v>29</v>
       </c>
       <c r="O60">
-        <v>-11.8992</v>
+        <v>-12.0538</v>
       </c>
       <c r="P60">
-        <v>-1.58626</v>
+        <v>-1.60689</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -4343,10 +4343,10 @@
         <v>29</v>
       </c>
       <c r="O61">
-        <v>-12.1066</v>
+        <v>-12.466</v>
       </c>
       <c r="P61">
-        <v>-1.61393</v>
+        <v>-1.66184</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -4393,10 +4393,10 @@
         <v>29</v>
       </c>
       <c r="O62">
-        <v>-12.2615</v>
+        <v>-12.0021</v>
       </c>
       <c r="P62">
-        <v>-1.63457</v>
+        <v>-1.59999</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -4443,10 +4443,10 @@
         <v>29</v>
       </c>
       <c r="O63">
-        <v>-12.5196</v>
+        <v>-12.467</v>
       </c>
       <c r="P63">
-        <v>-1.66897</v>
+        <v>-1.66198</v>
       </c>
     </row>
     <row r="64" spans="1:16">
@@ -4493,10 +4493,10 @@
         <v>29</v>
       </c>
       <c r="O64">
-        <v>-12.6744</v>
+        <v>-12.467</v>
       </c>
       <c r="P64">
-        <v>-1.68962</v>
+        <v>-1.66198</v>
       </c>
     </row>
     <row r="65" spans="1:16">
@@ -4543,10 +4543,10 @@
         <v>29</v>
       </c>
       <c r="O65">
-        <v>-12.8805</v>
+        <v>-12.8794</v>
       </c>
       <c r="P65">
-        <v>-1.71711</v>
+        <v>-1.71697</v>
       </c>
     </row>
     <row r="66" spans="1:16">
@@ -4593,10 +4593,10 @@
         <v>165</v>
       </c>
       <c r="O66">
-        <v>18.4699</v>
+        <v>13.2129</v>
       </c>
       <c r="P66">
-        <v>2.23895</v>
+        <v>1.60175</v>
       </c>
     </row>
     <row r="67" spans="1:16">
@@ -4643,10 +4643,10 @@
         <v>165</v>
       </c>
       <c r="O67">
-        <v>18.1193</v>
+        <v>13.164</v>
       </c>
       <c r="P67">
-        <v>2.19646</v>
+        <v>1.59583</v>
       </c>
     </row>
     <row r="68" spans="1:16">
@@ -4693,10 +4693,10 @@
         <v>165</v>
       </c>
       <c r="O68">
-        <v>17.6176</v>
+        <v>13.1611</v>
       </c>
       <c r="P68">
-        <v>2.13565</v>
+        <v>1.59546</v>
       </c>
     </row>
     <row r="69" spans="1:16">
@@ -4743,10 +4743,10 @@
         <v>165</v>
       </c>
       <c r="O69">
-        <v>17.266</v>
+        <v>13.1611</v>
       </c>
       <c r="P69">
-        <v>2.09303</v>
+        <v>1.59547</v>
       </c>
     </row>
     <row r="70" spans="1:16">
@@ -4793,10 +4793,10 @@
         <v>165</v>
       </c>
       <c r="O70">
-        <v>16.9161</v>
+        <v>13.2108</v>
       </c>
       <c r="P70">
-        <v>2.05062</v>
+        <v>1.6015</v>
       </c>
     </row>
     <row r="71" spans="1:16">
@@ -4843,10 +4843,10 @@
         <v>165</v>
       </c>
       <c r="O71">
-        <v>16.6159</v>
+        <v>13.1611</v>
       </c>
       <c r="P71">
-        <v>2.01425</v>
+        <v>1.59547</v>
       </c>
     </row>
     <row r="72" spans="1:16">
@@ -4893,10 +4893,10 @@
         <v>165</v>
       </c>
       <c r="O72">
-        <v>16.2152</v>
+        <v>13.2109</v>
       </c>
       <c r="P72">
-        <v>1.96567</v>
+        <v>1.60149</v>
       </c>
     </row>
     <row r="73" spans="1:16">
@@ -4943,10 +4943,10 @@
         <v>165</v>
       </c>
       <c r="O73">
-        <v>15.9147</v>
+        <v>13.2109</v>
       </c>
       <c r="P73">
-        <v>1.92925</v>
+        <v>1.60152</v>
       </c>
     </row>
     <row r="74" spans="1:16">
@@ -4993,10 +4993,10 @@
         <v>165</v>
       </c>
       <c r="O74">
-        <v>15.5653</v>
+        <v>13.1611</v>
       </c>
       <c r="P74">
-        <v>1.88689</v>
+        <v>1.59546</v>
       </c>
     </row>
     <row r="75" spans="1:16">
@@ -5043,10 +5043,10 @@
         <v>165</v>
       </c>
       <c r="O75">
-        <v>15.2638</v>
+        <v>13.2609</v>
       </c>
       <c r="P75">
-        <v>1.85035</v>
+        <v>1.60757</v>
       </c>
     </row>
     <row r="76" spans="1:16">
@@ -5093,10 +5093,10 @@
         <v>165</v>
       </c>
       <c r="O76">
-        <v>14.9133</v>
+        <v>13.161</v>
       </c>
       <c r="P76">
-        <v>1.80787</v>
+        <v>1.59546</v>
       </c>
     </row>
     <row r="77" spans="1:16">
@@ -5143,10 +5143,10 @@
         <v>165</v>
       </c>
       <c r="O77">
-        <v>14.5628</v>
+        <v>13.161</v>
       </c>
       <c r="P77">
-        <v>1.76537</v>
+        <v>1.59546</v>
       </c>
     </row>
     <row r="78" spans="1:16">
@@ -5193,10 +5193,10 @@
         <v>165</v>
       </c>
       <c r="O78">
-        <v>14.2125</v>
+        <v>13.161</v>
       </c>
       <c r="P78">
-        <v>1.72292</v>
+        <v>1.59546</v>
       </c>
     </row>
     <row r="79" spans="1:16">
@@ -5243,10 +5243,10 @@
         <v>165</v>
       </c>
       <c r="O79">
-        <v>13.9118</v>
+        <v>13.1611</v>
       </c>
       <c r="P79">
-        <v>1.68646</v>
+        <v>1.59547</v>
       </c>
     </row>
     <row r="80" spans="1:16">
@@ -5293,10 +5293,10 @@
         <v>165</v>
       </c>
       <c r="O80">
-        <v>13.5616</v>
+        <v>13.161</v>
       </c>
       <c r="P80">
-        <v>1.64401</v>
+        <v>1.59546</v>
       </c>
     </row>
     <row r="81" spans="1:16">
@@ -5343,10 +5343,10 @@
         <v>165</v>
       </c>
       <c r="O81">
-        <v>13.2108</v>
+        <v>13.1617</v>
       </c>
       <c r="P81">
-        <v>1.6015</v>
+        <v>1.59554</v>
       </c>
     </row>
     <row r="82" spans="1:16">
@@ -5393,10 +5393,10 @@
         <v>165</v>
       </c>
       <c r="O82">
-        <v>13.1646</v>
+        <v>13.1611</v>
       </c>
       <c r="P82">
-        <v>1.5959</v>
+        <v>1.59547</v>
       </c>
     </row>
     <row r="83" spans="1:16">
@@ -5443,10 +5443,10 @@
         <v>165</v>
       </c>
       <c r="O83">
-        <v>12.1602</v>
+        <v>12.1743</v>
       </c>
       <c r="P83">
-        <v>1.47414</v>
+        <v>1.47587</v>
       </c>
     </row>
     <row r="84" spans="1:16">
@@ -5493,10 +5493,10 @@
         <v>165</v>
       </c>
       <c r="O84">
-        <v>11.2079</v>
+        <v>11.1078</v>
       </c>
       <c r="P84">
-        <v>1.35872</v>
+        <v>1.3466</v>
       </c>
     </row>
     <row r="85" spans="1:16">
@@ -5543,10 +5543,10 @@
         <v>165</v>
       </c>
       <c r="O85">
-        <v>10.2065</v>
+        <v>10.2068</v>
       </c>
       <c r="P85">
-        <v>1.23733</v>
+        <v>1.23738</v>
       </c>
     </row>
     <row r="86" spans="1:16">
@@ -5593,10 +5593,10 @@
         <v>165</v>
       </c>
       <c r="O86">
-        <v>9.205439999999999</v>
+        <v>9.15804</v>
       </c>
       <c r="P86">
-        <v>1.116</v>
+        <v>1.11023</v>
       </c>
     </row>
     <row r="87" spans="1:16">
@@ -5643,7 +5643,7 @@
         <v>165</v>
       </c>
       <c r="O87">
-        <v>8.30364</v>
+        <v>8.303610000000001</v>
       </c>
       <c r="P87">
         <v>1.00668</v>
@@ -5693,10 +5693,10 @@
         <v>165</v>
       </c>
       <c r="O88">
-        <v>7.45253</v>
+        <v>7.45258</v>
       </c>
       <c r="P88">
-        <v>0.903524</v>
+        <v>0.9035300000000001</v>
       </c>
     </row>
     <row r="89" spans="1:16">
@@ -5743,10 +5743,10 @@
         <v>165</v>
       </c>
       <c r="O89">
-        <v>6.60155</v>
+        <v>6.60176</v>
       </c>
       <c r="P89">
-        <v>0.800374</v>
+        <v>0.800407</v>
       </c>
     </row>
     <row r="90" spans="1:16">
@@ -5793,10 +5793,10 @@
         <v>165</v>
       </c>
       <c r="O90">
-        <v>5.90035</v>
+        <v>5.90027</v>
       </c>
       <c r="P90">
-        <v>0.71538</v>
+        <v>0.715367</v>
       </c>
     </row>
     <row r="91" spans="1:16">
@@ -5843,10 +5843,10 @@
         <v>165</v>
       </c>
       <c r="O91">
-        <v>5.00094</v>
+        <v>5.09987</v>
       </c>
       <c r="P91">
-        <v>0.606369</v>
+        <v>0.618349</v>
       </c>
     </row>
     <row r="92" spans="1:16">
@@ -5893,10 +5893,10 @@
         <v>165</v>
       </c>
       <c r="O92">
-        <v>4.19924</v>
+        <v>4.19911</v>
       </c>
       <c r="P92">
-        <v>0.509193</v>
+        <v>0.509174</v>
       </c>
     </row>
     <row r="93" spans="1:16">
@@ -5943,10 +5943,10 @@
         <v>165</v>
       </c>
       <c r="O93">
-        <v>3.34795</v>
+        <v>3.44779</v>
       </c>
       <c r="P93">
-        <v>0.405999</v>
+        <v>0.418101</v>
       </c>
     </row>
     <row r="94" spans="1:16">
@@ -5993,10 +5993,10 @@
         <v>165</v>
       </c>
       <c r="O94">
-        <v>2.54838</v>
+        <v>2.54743</v>
       </c>
       <c r="P94">
-        <v>0.309073</v>
+        <v>0.308967</v>
       </c>
     </row>
     <row r="95" spans="1:16">
@@ -6043,10 +6043,10 @@
         <v>165</v>
       </c>
       <c r="O95">
-        <v>1.69655</v>
+        <v>1.6465</v>
       </c>
       <c r="P95">
-        <v>0.205836</v>
+        <v>0.199763</v>
       </c>
     </row>
     <row r="96" spans="1:16">
@@ -6093,10 +6093,10 @@
         <v>165</v>
       </c>
       <c r="O96">
-        <v>0.795417</v>
+        <v>0.845354</v>
       </c>
       <c r="P96">
-        <v>0.09660970000000001</v>
+        <v>0.102654</v>
       </c>
     </row>
     <row r="97" spans="1:16">
@@ -6143,10 +6143,10 @@
         <v>165</v>
       </c>
       <c r="O97">
-        <v>0.0449213</v>
+        <v>0.0449395</v>
       </c>
       <c r="P97">
-        <v>0.00563037</v>
+        <v>0.00563478</v>
       </c>
     </row>
     <row r="98" spans="1:16">
@@ -6193,10 +6193,10 @@
         <v>165</v>
       </c>
       <c r="O98">
-        <v>-0.0049787</v>
+        <v>0.0448826</v>
       </c>
       <c r="P98">
-        <v>-0.000408925</v>
+        <v>0.0056268</v>
       </c>
     </row>
     <row r="99" spans="1:16">
@@ -6243,10 +6243,10 @@
         <v>165</v>
       </c>
       <c r="O99">
-        <v>-0.8060349999999999</v>
+        <v>-0.8060890000000001</v>
       </c>
       <c r="P99">
-        <v>-0.0975067</v>
+        <v>-0.0975111</v>
       </c>
     </row>
     <row r="100" spans="1:16">
@@ -6293,10 +6293,10 @@
         <v>165</v>
       </c>
       <c r="O100">
-        <v>-1.65663</v>
+        <v>-1.70656</v>
       </c>
       <c r="P100">
-        <v>-0.200622</v>
+        <v>-0.206664</v>
       </c>
     </row>
     <row r="101" spans="1:16">
@@ -6343,10 +6343,10 @@
         <v>165</v>
       </c>
       <c r="O101">
-        <v>-2.50791</v>
+        <v>-2.50788</v>
       </c>
       <c r="P101">
-        <v>-0.303807</v>
+        <v>-0.303805</v>
       </c>
     </row>
     <row r="102" spans="1:16">
@@ -6393,10 +6393,10 @@
         <v>165</v>
       </c>
       <c r="O102">
-        <v>-3.35851</v>
+        <v>-3.35867</v>
       </c>
       <c r="P102">
-        <v>-0.406912</v>
+        <v>-0.406924</v>
       </c>
     </row>
     <row r="103" spans="1:16">
@@ -6443,10 +6443,10 @@
         <v>165</v>
       </c>
       <c r="O103">
-        <v>-4.15911</v>
+        <v>-4.15925</v>
       </c>
       <c r="P103">
-        <v>-0.503946</v>
+        <v>-0.5039670000000001</v>
       </c>
     </row>
     <row r="104" spans="1:16">
@@ -6493,10 +6493,10 @@
         <v>165</v>
       </c>
       <c r="O104">
-        <v>-4.96022</v>
+        <v>-5.05902</v>
       </c>
       <c r="P104">
-        <v>-0.601051</v>
+        <v>-0.61303</v>
       </c>
     </row>
     <row r="105" spans="1:16">
@@ -6543,10 +6543,10 @@
         <v>165</v>
       </c>
       <c r="O105">
-        <v>-5.8107</v>
+        <v>-5.7609</v>
       </c>
       <c r="P105">
-        <v>-0.704136</v>
+        <v>-0.698106</v>
       </c>
     </row>
     <row r="106" spans="1:16">
@@ -6593,10 +6593,10 @@
         <v>165</v>
       </c>
       <c r="O106">
-        <v>-6.56159</v>
+        <v>-6.56146</v>
       </c>
       <c r="P106">
-        <v>-0.795157</v>
+        <v>-0.795143</v>
       </c>
     </row>
     <row r="107" spans="1:16">
@@ -6643,10 +6643,10 @@
         <v>165</v>
       </c>
       <c r="O107">
-        <v>-7.51246</v>
+        <v>-7.4625</v>
       </c>
       <c r="P107">
-        <v>-0.910416</v>
+        <v>-0.904362</v>
       </c>
     </row>
     <row r="108" spans="1:16">
@@ -6693,10 +6693,10 @@
         <v>165</v>
       </c>
       <c r="O108">
-        <v>-8.363950000000001</v>
+        <v>-8.36397</v>
       </c>
       <c r="P108">
-        <v>-1.01362</v>
+        <v>-1.01363</v>
       </c>
     </row>
     <row r="109" spans="1:16">
@@ -6743,10 +6743,10 @@
         <v>165</v>
       </c>
       <c r="O109">
-        <v>-9.314450000000001</v>
+        <v>-9.261839999999999</v>
       </c>
       <c r="P109">
-        <v>-1.12883</v>
+        <v>-1.12247</v>
       </c>
     </row>
     <row r="110" spans="1:16">
@@ -6793,10 +6793,10 @@
         <v>165</v>
       </c>
       <c r="O110">
-        <v>-10.1655</v>
+        <v>-10.1654</v>
       </c>
       <c r="P110">
-        <v>-1.232</v>
+        <v>-1.23199</v>
       </c>
     </row>
     <row r="111" spans="1:16">
@@ -6843,10 +6843,10 @@
         <v>165</v>
       </c>
       <c r="O111">
-        <v>-11.1664</v>
+        <v>-11.2165</v>
       </c>
       <c r="P111">
-        <v>-1.35332</v>
+        <v>-1.35939</v>
       </c>
     </row>
     <row r="112" spans="1:16">
@@ -6893,10 +6893,10 @@
         <v>165</v>
       </c>
       <c r="O112">
-        <v>-12.168</v>
+        <v>-12.1679</v>
       </c>
       <c r="P112">
-        <v>-1.47472</v>
+        <v>-1.47471</v>
       </c>
     </row>
     <row r="113" spans="1:16">
@@ -6993,10 +6993,10 @@
         <v>165</v>
       </c>
       <c r="O114">
-        <v>-13.1652</v>
+        <v>-13.1188</v>
       </c>
       <c r="P114">
-        <v>-1.59562</v>
+        <v>-1.58997</v>
       </c>
     </row>
     <row r="115" spans="1:16">
@@ -7043,10 +7043,10 @@
         <v>165</v>
       </c>
       <c r="O115">
-        <v>-13.4691</v>
+        <v>-15.4211</v>
       </c>
       <c r="P115">
-        <v>-1.63243</v>
+        <v>-1.86903</v>
       </c>
     </row>
     <row r="116" spans="1:16">
@@ -7093,10 +7093,10 @@
         <v>165</v>
       </c>
       <c r="O116">
-        <v>-13.8192</v>
+        <v>-15.4172</v>
       </c>
       <c r="P116">
-        <v>-1.67487</v>
+        <v>-1.86858</v>
       </c>
     </row>
     <row r="117" spans="1:16">
@@ -7143,10 +7143,10 @@
         <v>165</v>
       </c>
       <c r="O117">
-        <v>-14.1656</v>
+        <v>-16.7725</v>
       </c>
       <c r="P117">
-        <v>-1.71686</v>
+        <v>-2.03284</v>
       </c>
     </row>
     <row r="118" spans="1:16">
@@ -7193,10 +7193,10 @@
         <v>165</v>
       </c>
       <c r="O118">
-        <v>-14.5206</v>
+        <v>-15.3701</v>
       </c>
       <c r="P118">
-        <v>-1.75989</v>
+        <v>-1.86286</v>
       </c>
     </row>
     <row r="119" spans="1:16">
@@ -7243,10 +7243,10 @@
         <v>165</v>
       </c>
       <c r="O119">
-        <v>-14.8205</v>
+        <v>-16.6699</v>
       </c>
       <c r="P119">
-        <v>-1.79624</v>
+        <v>-2.02041</v>
       </c>
     </row>
     <row r="120" spans="1:16">
@@ -7293,10 +7293,10 @@
         <v>165</v>
       </c>
       <c r="O120">
-        <v>-15.2207</v>
+        <v>-16.6715</v>
       </c>
       <c r="P120">
-        <v>-1.84475</v>
+        <v>-2.02061</v>
       </c>
     </row>
     <row r="121" spans="1:16">
@@ -7343,10 +7343,10 @@
         <v>165</v>
       </c>
       <c r="O121">
-        <v>-15.5715</v>
+        <v>-17.4232</v>
       </c>
       <c r="P121">
-        <v>-1.88727</v>
+        <v>-2.11171</v>
       </c>
     </row>
     <row r="122" spans="1:16">
@@ -7393,10 +7393,10 @@
         <v>165</v>
       </c>
       <c r="O122">
-        <v>-15.9496</v>
+        <v>-15.37</v>
       </c>
       <c r="P122">
-        <v>-1.93309</v>
+        <v>-1.86285</v>
       </c>
     </row>
     <row r="123" spans="1:16">
@@ -7443,10 +7443,10 @@
         <v>165</v>
       </c>
       <c r="O123">
-        <v>-16.2719</v>
+        <v>-16.6222</v>
       </c>
       <c r="P123">
-        <v>-1.97216</v>
+        <v>-2.01463</v>
       </c>
     </row>
     <row r="124" spans="1:16">
@@ -7493,10 +7493,10 @@
         <v>165</v>
       </c>
       <c r="O124">
-        <v>-16.6225</v>
+        <v>-16.5721</v>
       </c>
       <c r="P124">
-        <v>-2.01465</v>
+        <v>-2.00856</v>
       </c>
     </row>
     <row r="125" spans="1:16">
@@ -7543,10 +7543,10 @@
         <v>165</v>
       </c>
       <c r="O125">
-        <v>-17.073</v>
+        <v>-17.5727</v>
       </c>
       <c r="P125">
-        <v>-2.06927</v>
+        <v>-2.12385</v>
       </c>
     </row>
     <row r="126" spans="1:16">
@@ -7593,10 +7593,10 @@
         <v>165</v>
       </c>
       <c r="O126">
-        <v>-17.3228</v>
+        <v>-16.6222</v>
       </c>
       <c r="P126">
-        <v>-2.09954</v>
+        <v>-2.01463</v>
       </c>
     </row>
     <row r="127" spans="1:16">
@@ -7643,10 +7643,10 @@
         <v>165</v>
       </c>
       <c r="O127">
-        <v>-17.7237</v>
+        <v>-17.5735</v>
       </c>
       <c r="P127">
-        <v>-2.14815</v>
+        <v>-2.12994</v>
       </c>
     </row>
     <row r="128" spans="1:16">
@@ -7693,10 +7693,10 @@
         <v>165</v>
       </c>
       <c r="O128">
-        <v>-18.024</v>
+        <v>-17.5735</v>
       </c>
       <c r="P128">
-        <v>-2.18453</v>
+        <v>-2.12994</v>
       </c>
     </row>
     <row r="129" spans="1:16">
@@ -7743,10 +7743,10 @@
         <v>165</v>
       </c>
       <c r="O129">
-        <v>-18.4244</v>
+        <v>-18.0237</v>
       </c>
       <c r="P129">
-        <v>-2.23307</v>
+        <v>-2.1845</v>
       </c>
     </row>
     <row r="130" spans="1:16">
@@ -7793,10 +7793,10 @@
         <v>239</v>
       </c>
       <c r="O130">
-        <v>10.0294</v>
+        <v>8.11655</v>
       </c>
       <c r="P130">
-        <v>1.48646</v>
+        <v>1.20306</v>
       </c>
     </row>
     <row r="131" spans="1:16">
@@ -7843,10 +7843,10 @@
         <v>239</v>
       </c>
       <c r="O131">
-        <v>9.97654</v>
+        <v>8.116910000000001</v>
       </c>
       <c r="P131">
-        <v>1.47861</v>
+        <v>1.20315</v>
       </c>
     </row>
     <row r="132" spans="1:16">
@@ -7893,10 +7893,10 @@
         <v>239</v>
       </c>
       <c r="O132">
-        <v>10.0249</v>
+        <v>8.11941</v>
       </c>
       <c r="P132">
-        <v>1.4858</v>
+        <v>1.20343</v>
       </c>
     </row>
     <row r="133" spans="1:16">
@@ -7943,10 +7943,10 @@
         <v>239</v>
       </c>
       <c r="O133">
-        <v>9.87632</v>
+        <v>8.11429</v>
       </c>
       <c r="P133">
-        <v>1.46373</v>
+        <v>1.20274</v>
       </c>
     </row>
     <row r="134" spans="1:16">
@@ -7993,10 +7993,10 @@
         <v>239</v>
       </c>
       <c r="O134">
-        <v>9.71449</v>
+        <v>8.215719999999999</v>
       </c>
       <c r="P134">
-        <v>1.4398</v>
+        <v>1.21777</v>
       </c>
     </row>
     <row r="135" spans="1:16">
@@ -8043,10 +8043,10 @@
         <v>239</v>
       </c>
       <c r="O135">
-        <v>9.61125</v>
+        <v>8.215529999999999</v>
       </c>
       <c r="P135">
-        <v>1.42451</v>
+        <v>1.21772</v>
       </c>
     </row>
     <row r="136" spans="1:16">
@@ -8093,10 +8093,10 @@
         <v>239</v>
       </c>
       <c r="O136">
-        <v>9.46383</v>
+        <v>8.117470000000001</v>
       </c>
       <c r="P136">
-        <v>1.4026</v>
+        <v>1.20487</v>
       </c>
     </row>
     <row r="137" spans="1:16">
@@ -8143,10 +8143,10 @@
         <v>239</v>
       </c>
       <c r="O137">
-        <v>9.30101</v>
+        <v>8.113630000000001</v>
       </c>
       <c r="P137">
-        <v>1.37852</v>
+        <v>1.20264</v>
       </c>
     </row>
     <row r="138" spans="1:16">
@@ -8193,10 +8193,10 @@
         <v>239</v>
       </c>
       <c r="O138">
-        <v>9.204800000000001</v>
+        <v>8.215719999999999</v>
       </c>
       <c r="P138">
-        <v>1.36423</v>
+        <v>1.21777</v>
       </c>
     </row>
     <row r="139" spans="1:16">
@@ -8243,10 +8243,10 @@
         <v>239</v>
       </c>
       <c r="O139">
-        <v>8.8879</v>
+        <v>8.215719999999999</v>
       </c>
       <c r="P139">
-        <v>1.31734</v>
+        <v>1.21777</v>
       </c>
     </row>
     <row r="140" spans="1:16">
@@ -8293,10 +8293,10 @@
         <v>239</v>
       </c>
       <c r="O140">
-        <v>8.836499999999999</v>
+        <v>8.113099999999999</v>
       </c>
       <c r="P140">
-        <v>1.30973</v>
+        <v>1.20255</v>
       </c>
     </row>
     <row r="141" spans="1:16">
@@ -8343,10 +8343,10 @@
         <v>239</v>
       </c>
       <c r="O141">
-        <v>8.68741</v>
+        <v>8.113630000000001</v>
       </c>
       <c r="P141">
-        <v>1.28759</v>
+        <v>1.20264</v>
       </c>
     </row>
     <row r="142" spans="1:16">
@@ -8393,10 +8393,10 @@
         <v>239</v>
       </c>
       <c r="O142">
-        <v>8.52712</v>
+        <v>8.11965</v>
       </c>
       <c r="P142">
-        <v>1.27137</v>
+        <v>1.20347</v>
       </c>
     </row>
     <row r="143" spans="1:16">
@@ -8443,10 +8443,10 @@
         <v>239</v>
       </c>
       <c r="O143">
-        <v>8.4832</v>
+        <v>8.113630000000001</v>
       </c>
       <c r="P143">
-        <v>1.25733</v>
+        <v>1.20264</v>
       </c>
     </row>
     <row r="144" spans="1:16">
@@ -8493,10 +8493,10 @@
         <v>239</v>
       </c>
       <c r="O144">
-        <v>8.22322</v>
+        <v>8.113630000000001</v>
       </c>
       <c r="P144">
-        <v>1.2188</v>
+        <v>1.20264</v>
       </c>
     </row>
     <row r="145" spans="1:16">
@@ -8543,10 +8543,10 @@
         <v>239</v>
       </c>
       <c r="O145">
-        <v>8.21668</v>
+        <v>8.16568</v>
       </c>
       <c r="P145">
-        <v>1.21795</v>
+        <v>1.21782</v>
       </c>
     </row>
     <row r="146" spans="1:16">
@@ -8593,10 +8593,10 @@
         <v>239</v>
       </c>
       <c r="O146">
-        <v>8.112550000000001</v>
+        <v>8.170920000000001</v>
       </c>
       <c r="P146">
-        <v>1.20246</v>
+        <v>1.21112</v>
       </c>
     </row>
     <row r="147" spans="1:16">
@@ -8643,10 +8643,10 @@
         <v>239</v>
       </c>
       <c r="O147">
-        <v>7.49342</v>
+        <v>7.64783</v>
       </c>
       <c r="P147">
-        <v>1.11075</v>
+        <v>1.13366</v>
       </c>
     </row>
     <row r="148" spans="1:16">
@@ -8693,10 +8693,10 @@
         <v>239</v>
       </c>
       <c r="O148">
-        <v>6.97529</v>
+        <v>6.9238</v>
       </c>
       <c r="P148">
-        <v>1.03399</v>
+        <v>1.0264</v>
       </c>
     </row>
     <row r="149" spans="1:16">
@@ -8743,10 +8743,10 @@
         <v>239</v>
       </c>
       <c r="O149">
-        <v>6.40679</v>
+        <v>6.3558</v>
       </c>
       <c r="P149">
-        <v>0.949785</v>
+        <v>0.942202</v>
       </c>
     </row>
     <row r="150" spans="1:16">
@@ -8793,10 +8793,10 @@
         <v>239</v>
       </c>
       <c r="O150">
-        <v>5.73659</v>
+        <v>5.73573</v>
       </c>
       <c r="P150">
-        <v>0.857872</v>
+        <v>0.8503540000000001</v>
       </c>
     </row>
     <row r="151" spans="1:16">
@@ -8843,10 +8843,10 @@
         <v>239</v>
       </c>
       <c r="O151">
-        <v>5.21903</v>
+        <v>5.16632</v>
       </c>
       <c r="P151">
-        <v>0.773796</v>
+        <v>0.766007</v>
       </c>
     </row>
     <row r="152" spans="1:16">
@@ -8893,10 +8893,10 @@
         <v>239</v>
       </c>
       <c r="O152">
-        <v>4.66062</v>
+        <v>4.70076</v>
       </c>
       <c r="P152">
-        <v>0.6910539999999999</v>
+        <v>0.697029</v>
       </c>
     </row>
     <row r="153" spans="1:16">
@@ -8943,10 +8943,10 @@
         <v>239</v>
       </c>
       <c r="O153">
-        <v>4.18469</v>
+        <v>4.14118</v>
       </c>
       <c r="P153">
-        <v>0.620548</v>
+        <v>0.620453</v>
       </c>
     </row>
     <row r="154" spans="1:16">
@@ -8993,10 +8993,10 @@
         <v>239</v>
       </c>
       <c r="O154">
-        <v>3.72639</v>
+        <v>3.71873</v>
       </c>
       <c r="P154">
-        <v>0.552626</v>
+        <v>0.551545</v>
       </c>
     </row>
     <row r="155" spans="1:16">
@@ -9043,10 +9043,10 @@
         <v>239</v>
       </c>
       <c r="O155">
-        <v>3.20235</v>
+        <v>3.20295</v>
       </c>
       <c r="P155">
-        <v>0.475065</v>
+        <v>0.47516</v>
       </c>
     </row>
     <row r="156" spans="1:16">
@@ -9093,10 +9093,10 @@
         <v>239</v>
       </c>
       <c r="O156">
-        <v>2.68568</v>
+        <v>2.68562</v>
       </c>
       <c r="P156">
-        <v>0.398485</v>
+        <v>0.398478</v>
       </c>
     </row>
     <row r="157" spans="1:16">
@@ -9143,10 +9143,10 @@
         <v>239</v>
       </c>
       <c r="O157">
-        <v>2.117</v>
+        <v>2.11708</v>
       </c>
       <c r="P157">
-        <v>0.314274</v>
+        <v>0.314237</v>
       </c>
     </row>
     <row r="158" spans="1:16">
@@ -9193,10 +9193,10 @@
         <v>239</v>
       </c>
       <c r="O158">
-        <v>1.65231</v>
+        <v>1.70353</v>
       </c>
       <c r="P158">
-        <v>0.245398</v>
+        <v>0.253011</v>
       </c>
     </row>
     <row r="159" spans="1:16">
@@ -9243,10 +9243,10 @@
         <v>239</v>
       </c>
       <c r="O159">
-        <v>1.14174</v>
+        <v>1.08331</v>
       </c>
       <c r="P159">
-        <v>0.169691</v>
+        <v>0.161111</v>
       </c>
     </row>
     <row r="160" spans="1:16">
@@ -9293,10 +9293,10 @@
         <v>239</v>
       </c>
       <c r="O160">
-        <v>0.670448</v>
+        <v>0.618076</v>
       </c>
       <c r="P160">
-        <v>0.09993639999999999</v>
+        <v>0.09214120000000001</v>
       </c>
     </row>
     <row r="161" spans="1:16">
@@ -9343,10 +9343,10 @@
         <v>239</v>
       </c>
       <c r="O161">
-        <v>0.107085</v>
+        <v>0.101524</v>
       </c>
       <c r="P161">
-        <v>0.0164515</v>
+        <v>0.0156265</v>
       </c>
     </row>
     <row r="162" spans="1:16">
@@ -9393,10 +9393,10 @@
         <v>239</v>
       </c>
       <c r="O162">
-        <v>0.101579</v>
+        <v>0.0666846</v>
       </c>
       <c r="P162">
-        <v>0.0156521</v>
+        <v>0.0105052</v>
       </c>
     </row>
     <row r="163" spans="1:16">
@@ -9443,10 +9443,10 @@
         <v>239</v>
       </c>
       <c r="O163">
-        <v>-0.363813</v>
+        <v>-0.414995</v>
       </c>
       <c r="P163">
-        <v>-0.0532936</v>
+        <v>-0.060872</v>
       </c>
     </row>
     <row r="164" spans="1:16">
@@ -9493,10 +9493,10 @@
         <v>239</v>
       </c>
       <c r="O164">
-        <v>-0.880328</v>
+        <v>-0.9313709999999999</v>
       </c>
       <c r="P164">
-        <v>-0.129821</v>
+        <v>-0.129838</v>
       </c>
     </row>
     <row r="165" spans="1:16">
@@ -9543,10 +9543,10 @@
         <v>239</v>
       </c>
       <c r="O165">
-        <v>-1.44903</v>
+        <v>-1.39686</v>
       </c>
       <c r="P165">
-        <v>-0.214078</v>
+        <v>-0.206348</v>
       </c>
     </row>
     <row r="166" spans="1:16">
@@ -9593,10 +9593,10 @@
         <v>239</v>
       </c>
       <c r="O166">
-        <v>-1.96495</v>
+        <v>-1.96482</v>
       </c>
       <c r="P166">
-        <v>-0.290462</v>
+        <v>-0.290429</v>
       </c>
     </row>
     <row r="167" spans="1:16">
@@ -9643,10 +9643,10 @@
         <v>239</v>
       </c>
       <c r="O167">
-        <v>-2.43036</v>
+        <v>-2.48296</v>
       </c>
       <c r="P167">
-        <v>-0.35944</v>
+        <v>-0.367225</v>
       </c>
     </row>
     <row r="168" spans="1:16">
@@ -9693,10 +9693,10 @@
         <v>239</v>
       </c>
       <c r="O168">
-        <v>-2.94776</v>
+        <v>-2.99931</v>
       </c>
       <c r="P168">
-        <v>-0.436094</v>
+        <v>-0.443686</v>
       </c>
     </row>
     <row r="169" spans="1:16">
@@ -9743,10 +9743,10 @@
         <v>239</v>
       </c>
       <c r="O169">
-        <v>-3.51587</v>
+        <v>-3.51605</v>
       </c>
       <c r="P169">
-        <v>-0.5202599999999999</v>
+        <v>-0.5202830000000001</v>
       </c>
     </row>
     <row r="170" spans="1:16">
@@ -9793,10 +9793,10 @@
         <v>239</v>
       </c>
       <c r="O170">
-        <v>-3.92974</v>
+        <v>-3.92881</v>
       </c>
       <c r="P170">
-        <v>-0.581573</v>
+        <v>-0.573874</v>
       </c>
     </row>
     <row r="171" spans="1:16">
@@ -9843,10 +9843,10 @@
         <v>239</v>
       </c>
       <c r="O171">
-        <v>-4.49724</v>
+        <v>-4.49077</v>
       </c>
       <c r="P171">
-        <v>-0.665636</v>
+        <v>-0.664725</v>
       </c>
     </row>
     <row r="172" spans="1:16">
@@ -9893,10 +9893,10 @@
         <v>239</v>
       </c>
       <c r="O172">
-        <v>-5.06556</v>
+        <v>-5.01405</v>
       </c>
       <c r="P172">
-        <v>-0.749812</v>
+        <v>-0.742212</v>
       </c>
     </row>
     <row r="173" spans="1:16">
@@ -9943,10 +9943,10 @@
         <v>239</v>
       </c>
       <c r="O173">
-        <v>-5.58313</v>
+        <v>-5.63424</v>
       </c>
       <c r="P173">
-        <v>-0.826522</v>
+        <v>-0.834087</v>
       </c>
     </row>
     <row r="174" spans="1:16">
@@ -9993,10 +9993,10 @@
         <v>239</v>
       </c>
       <c r="O174">
-        <v>-6.15116</v>
+        <v>-6.1508</v>
       </c>
       <c r="P174">
-        <v>-0.910681</v>
+        <v>-0.910622</v>
       </c>
     </row>
     <row r="175" spans="1:16">
@@ -10043,10 +10043,10 @@
         <v>239</v>
       </c>
       <c r="O175">
-        <v>-6.7194</v>
+        <v>-6.71255</v>
       </c>
       <c r="P175">
-        <v>-0.994922</v>
+        <v>-0.9938360000000001</v>
       </c>
     </row>
     <row r="176" spans="1:16">
@@ -10093,10 +10093,10 @@
         <v>239</v>
       </c>
       <c r="O176">
-        <v>-7.28773</v>
+        <v>-7.23577</v>
       </c>
       <c r="P176">
-        <v>-1.07904</v>
+        <v>-1.07135</v>
       </c>
     </row>
     <row r="177" spans="1:16">
@@ -10143,10 +10143,10 @@
         <v>239</v>
       </c>
       <c r="O177">
-        <v>-7.70137</v>
+        <v>-7.75233</v>
       </c>
       <c r="P177">
-        <v>-1.14033</v>
+        <v>-1.14785</v>
       </c>
     </row>
     <row r="178" spans="1:16">
@@ -10193,10 +10193,10 @@
         <v>239</v>
       </c>
       <c r="O178">
-        <v>-7.7011</v>
+        <v>-7.74606</v>
       </c>
       <c r="P178">
-        <v>-1.14025</v>
+        <v>-1.14029</v>
       </c>
     </row>
     <row r="179" spans="1:16">
@@ -10243,10 +10243,10 @@
         <v>239</v>
       </c>
       <c r="O179">
-        <v>-7.85597</v>
+        <v>-8.888780000000001</v>
       </c>
       <c r="P179">
-        <v>-1.16323</v>
+        <v>-1.31624</v>
       </c>
     </row>
     <row r="180" spans="1:16">
@@ -10293,10 +10293,10 @@
         <v>239</v>
       </c>
       <c r="O180">
-        <v>-8.06237</v>
+        <v>-8.8378</v>
       </c>
       <c r="P180">
-        <v>-1.19379</v>
+        <v>-1.30865</v>
       </c>
     </row>
     <row r="181" spans="1:16">
@@ -10343,10 +10343,10 @@
         <v>239</v>
       </c>
       <c r="O181">
-        <v>-8.11422</v>
+        <v>-9.716139999999999</v>
       </c>
       <c r="P181">
-        <v>-1.20148</v>
+        <v>-1.4388</v>
       </c>
     </row>
     <row r="182" spans="1:16">
@@ -10393,10 +10393,10 @@
         <v>239</v>
       </c>
       <c r="O182">
-        <v>-8.269830000000001</v>
+        <v>-8.838010000000001</v>
       </c>
       <c r="P182">
-        <v>-1.22453</v>
+        <v>-1.3087</v>
       </c>
     </row>
     <row r="183" spans="1:16">
@@ -10443,10 +10443,10 @@
         <v>239</v>
       </c>
       <c r="O183">
-        <v>-8.42412</v>
+        <v>-9.56062</v>
       </c>
       <c r="P183">
-        <v>-1.24738</v>
+        <v>-1.41577</v>
       </c>
     </row>
     <row r="184" spans="1:16">
@@ -10493,10 +10493,10 @@
         <v>239</v>
       </c>
       <c r="O184">
-        <v>-8.47594</v>
+        <v>-9.560829999999999</v>
       </c>
       <c r="P184">
-        <v>-1.25508</v>
+        <v>-1.4158</v>
       </c>
     </row>
     <row r="185" spans="1:16">
@@ -10543,10 +10543,10 @@
         <v>239</v>
       </c>
       <c r="O185">
-        <v>-8.57902</v>
+        <v>-10.0776</v>
       </c>
       <c r="P185">
-        <v>-1.27036</v>
+        <v>-1.49237</v>
       </c>
     </row>
     <row r="186" spans="1:16">
@@ -10593,10 +10593,10 @@
         <v>239</v>
       </c>
       <c r="O186">
-        <v>-8.73465</v>
+        <v>-8.83108</v>
       </c>
       <c r="P186">
-        <v>-1.29341</v>
+        <v>-1.3077</v>
       </c>
     </row>
     <row r="187" spans="1:16">
@@ -10643,10 +10643,10 @@
         <v>239</v>
       </c>
       <c r="O187">
-        <v>-8.78609</v>
+        <v>-9.6067</v>
       </c>
       <c r="P187">
-        <v>-1.301</v>
+        <v>-1.42264</v>
       </c>
     </row>
     <row r="188" spans="1:16">
@@ -10693,10 +10693,10 @@
         <v>239</v>
       </c>
       <c r="O188">
-        <v>-8.94163</v>
+        <v>-9.561590000000001</v>
       </c>
       <c r="P188">
-        <v>-1.32409</v>
+        <v>-1.41592</v>
       </c>
     </row>
     <row r="189" spans="1:16">
@@ -10743,10 +10743,10 @@
         <v>239</v>
       </c>
       <c r="O189">
-        <v>-9.044589999999999</v>
+        <v>-10.0779</v>
       </c>
       <c r="P189">
-        <v>-1.33928</v>
+        <v>-1.49241</v>
       </c>
     </row>
     <row r="190" spans="1:16">
@@ -10793,10 +10793,10 @@
         <v>239</v>
       </c>
       <c r="O190">
-        <v>-9.1929</v>
+        <v>-9.510260000000001</v>
       </c>
       <c r="P190">
-        <v>-1.36134</v>
+        <v>-1.40828</v>
       </c>
     </row>
     <row r="191" spans="1:16">
@@ -10843,10 +10843,10 @@
         <v>239</v>
       </c>
       <c r="O191">
-        <v>-9.34618</v>
+        <v>-10.1298</v>
       </c>
       <c r="P191">
-        <v>-1.38408</v>
+        <v>-1.50007</v>
       </c>
     </row>
     <row r="192" spans="1:16">
@@ -10893,10 +10893,10 @@
         <v>239</v>
       </c>
       <c r="O192">
-        <v>-9.354850000000001</v>
+        <v>-10.1301</v>
       </c>
       <c r="P192">
-        <v>-1.38526</v>
+        <v>-1.50013</v>
       </c>
     </row>
     <row r="193" spans="1:16">
@@ -10943,10 +10943,10 @@
         <v>239</v>
       </c>
       <c r="O193">
-        <v>-9.501749999999999</v>
+        <v>-10.4915</v>
       </c>
       <c r="P193">
-        <v>-1.40711</v>
+        <v>-1.5537</v>
       </c>
     </row>
     <row r="194" spans="1:16" s="1" customFormat="1">
@@ -11004,10 +11004,10 @@
         <v>303</v>
       </c>
       <c r="O195" s="1">
-        <v>-18.4244</v>
+        <v>-18.0237</v>
       </c>
       <c r="P195" s="1">
-        <v>-2.23307</v>
+        <v>-2.1845</v>
       </c>
     </row>
     <row r="196" spans="1:16" s="1" customFormat="1">
@@ -11015,10 +11015,10 @@
         <v>304</v>
       </c>
       <c r="O196" s="1">
-        <v>18.4699</v>
+        <v>13.2609</v>
       </c>
       <c r="P196" s="1">
-        <v>2.23895</v>
+        <v>1.60757</v>
       </c>
     </row>
     <row r="197" spans="1:16" s="1" customFormat="1">
@@ -11058,10 +11058,10 @@
         <v>309</v>
       </c>
       <c r="O201" s="1">
-        <v>0.08029598</v>
+        <v>-0.5117197999999999</v>
       </c>
       <c r="P201" s="1">
-        <v>0.01211216</v>
+        <v>-0.06571311000000001</v>
       </c>
     </row>
     <row r="202" spans="1:16" s="1" customFormat="1">
@@ -11069,10 +11069,10 @@
         <v>310</v>
       </c>
       <c r="O202" s="1">
-        <v>9.788529</v>
+        <v>9.416134</v>
       </c>
       <c r="P202" s="1">
-        <v>1.271109</v>
+        <v>1.225608</v>
       </c>
     </row>
     <row r="203" spans="1:16" s="1" customFormat="1">
@@ -11080,10 +11080,10 @@
         <v>311</v>
       </c>
       <c r="O203" s="1">
-        <v>12190.559228</v>
+        <v>1840.095693</v>
       </c>
       <c r="P203" s="1">
-        <v>10494.486533</v>
+        <v>1865.089021</v>
       </c>
     </row>
     <row r="204" spans="1:16" s="1" customFormat="1"/>

--- a/dcd_top_offset_step_tsmc2p_meas.xlsx
+++ b/dcd_top_offset_step_tsmc2p_meas.xlsx
@@ -1381,10 +1381,10 @@
         <v>29</v>
       </c>
       <c r="O2">
-        <v>13.8703</v>
+        <v>16.2454</v>
       </c>
       <c r="P2">
-        <v>1.84965</v>
+        <v>2.16636</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1431,10 +1431,10 @@
         <v>29</v>
       </c>
       <c r="O3">
-        <v>13.6119</v>
+        <v>15.7807</v>
       </c>
       <c r="P3">
-        <v>1.81523</v>
+        <v>2.10438</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1481,10 +1481,10 @@
         <v>29</v>
       </c>
       <c r="O4">
-        <v>13.405</v>
+        <v>15.3161</v>
       </c>
       <c r="P4">
-        <v>1.78761</v>
+        <v>2.04245</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1531,10 +1531,10 @@
         <v>29</v>
       </c>
       <c r="O5">
-        <v>13.044</v>
+        <v>14.9032</v>
       </c>
       <c r="P5">
-        <v>1.73949</v>
+        <v>1.98738</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1581,10 +1581,10 @@
         <v>29</v>
       </c>
       <c r="O6">
-        <v>12.8384</v>
+        <v>14.443</v>
       </c>
       <c r="P6">
-        <v>1.71207</v>
+        <v>1.926</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1631,10 +1631,10 @@
         <v>29</v>
       </c>
       <c r="O7">
-        <v>12.5788</v>
+        <v>14.0767</v>
       </c>
       <c r="P7">
-        <v>1.67747</v>
+        <v>1.87718</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1681,10 +1681,10 @@
         <v>29</v>
       </c>
       <c r="O8">
-        <v>12.3205</v>
+        <v>13.6638</v>
       </c>
       <c r="P8">
-        <v>1.64304</v>
+        <v>1.82213</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1731,10 +1731,10 @@
         <v>29</v>
       </c>
       <c r="O9">
-        <v>12.0625</v>
+        <v>13.1987</v>
       </c>
       <c r="P9">
-        <v>1.60863</v>
+        <v>1.76012</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1781,10 +1781,10 @@
         <v>29</v>
       </c>
       <c r="O10">
-        <v>11.805</v>
+        <v>12.8935</v>
       </c>
       <c r="P10">
-        <v>1.57429</v>
+        <v>1.7194</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1831,10 +1831,10 @@
         <v>29</v>
       </c>
       <c r="O11">
-        <v>11.546</v>
+        <v>12.4241</v>
       </c>
       <c r="P11">
-        <v>1.53977</v>
+        <v>1.65683</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1881,10 +1881,10 @@
         <v>29</v>
       </c>
       <c r="O12">
-        <v>11.2877</v>
+        <v>12.0628</v>
       </c>
       <c r="P12">
-        <v>1.50532</v>
+        <v>1.60868</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1931,10 +1931,10 @@
         <v>29</v>
       </c>
       <c r="O13">
-        <v>11.0812</v>
+        <v>11.5983</v>
       </c>
       <c r="P13">
-        <v>1.47779</v>
+        <v>1.54674</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1981,10 +1981,10 @@
         <v>29</v>
       </c>
       <c r="O14">
-        <v>10.8746</v>
+        <v>11.2361</v>
       </c>
       <c r="P14">
-        <v>1.45024</v>
+        <v>1.49845</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -2031,10 +2031,10 @@
         <v>29</v>
       </c>
       <c r="O15">
-        <v>10.5653</v>
+        <v>10.8232</v>
       </c>
       <c r="P15">
-        <v>1.409</v>
+        <v>1.44339</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -2081,10 +2081,10 @@
         <v>29</v>
       </c>
       <c r="O16">
-        <v>10.2547</v>
+        <v>10.4099</v>
       </c>
       <c r="P16">
-        <v>1.36759</v>
+        <v>1.38829</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -2231,10 +2231,10 @@
         <v>29</v>
       </c>
       <c r="O19">
-        <v>9.277889999999999</v>
+        <v>9.27887</v>
       </c>
       <c r="P19">
-        <v>1.23733</v>
+        <v>1.23746</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -2331,7 +2331,7 @@
         <v>29</v>
       </c>
       <c r="O21">
-        <v>8.035119999999999</v>
+        <v>8.03514</v>
       </c>
       <c r="P21">
         <v>1.07164</v>
@@ -2481,7 +2481,7 @@
         <v>29</v>
       </c>
       <c r="O24">
-        <v>5.96931</v>
+        <v>5.96932</v>
       </c>
       <c r="P24">
         <v>0.796201</v>
@@ -2681,10 +2681,10 @@
         <v>29</v>
       </c>
       <c r="O28">
-        <v>3.38606</v>
+        <v>3.43771</v>
       </c>
       <c r="P28">
-        <v>0.451765</v>
+        <v>0.45865</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -3031,10 +3031,10 @@
         <v>29</v>
       </c>
       <c r="O35">
-        <v>-1.26132</v>
+        <v>-1.26097</v>
       </c>
       <c r="P35">
-        <v>-0.167883</v>
+        <v>-0.16785</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -3184,7 +3184,7 @@
         <v>-3.32697</v>
       </c>
       <c r="P38">
-        <v>-0.44331</v>
+        <v>-0.443314</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -3381,10 +3381,10 @@
         <v>29</v>
       </c>
       <c r="O42">
-        <v>-6.01206</v>
+        <v>-6.01207</v>
       </c>
       <c r="P42">
-        <v>-0.801308</v>
+        <v>-0.801319</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -3431,10 +3431,10 @@
         <v>29</v>
       </c>
       <c r="O43">
-        <v>-6.68314</v>
+        <v>-6.68319</v>
       </c>
       <c r="P43">
-        <v>-0.890794</v>
+        <v>-0.8908</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -3534,7 +3534,7 @@
         <v>-7.97399</v>
       </c>
       <c r="P45">
-        <v>-1.0629</v>
+        <v>-1.06291</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -3631,10 +3631,10 @@
         <v>29</v>
       </c>
       <c r="O47">
-        <v>-9.26468</v>
+        <v>-9.26493</v>
       </c>
       <c r="P47">
-        <v>-1.235</v>
+        <v>-1.23503</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -3681,10 +3681,10 @@
         <v>29</v>
       </c>
       <c r="O48">
-        <v>-9.88438</v>
+        <v>-9.933949999999999</v>
       </c>
       <c r="P48">
-        <v>-1.31764</v>
+        <v>-1.32425</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -3781,10 +3781,10 @@
         <v>29</v>
       </c>
       <c r="O50">
-        <v>-10.1944</v>
+        <v>-10.3494</v>
       </c>
       <c r="P50">
-        <v>-1.35897</v>
+        <v>-1.37963</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -3831,10 +3831,10 @@
         <v>29</v>
       </c>
       <c r="O51">
-        <v>-10.4527</v>
+        <v>-10.7624</v>
       </c>
       <c r="P51">
-        <v>-1.3934</v>
+        <v>-1.43469</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -3881,10 +3881,10 @@
         <v>29</v>
       </c>
       <c r="O52">
-        <v>-10.7105</v>
+        <v>-11.2274</v>
       </c>
       <c r="P52">
-        <v>-1.42777</v>
+        <v>-1.49669</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -3931,10 +3931,10 @@
         <v>29</v>
       </c>
       <c r="O53">
-        <v>-11.0208</v>
+        <v>-11.6405</v>
       </c>
       <c r="P53">
-        <v>-1.46915</v>
+        <v>-1.55177</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -3981,10 +3981,10 @@
         <v>29</v>
       </c>
       <c r="O54">
-        <v>-11.2781</v>
+        <v>-12.1054</v>
       </c>
       <c r="P54">
-        <v>-1.50344</v>
+        <v>-1.61376</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -4031,10 +4031,10 @@
         <v>29</v>
       </c>
       <c r="O55">
-        <v>-11.589</v>
+        <v>-12.5194</v>
       </c>
       <c r="P55">
-        <v>-1.5449</v>
+        <v>-1.66895</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -4081,10 +4081,10 @@
         <v>29</v>
       </c>
       <c r="O56">
-        <v>-11.8476</v>
+        <v>-12.9839</v>
       </c>
       <c r="P56">
-        <v>-1.57938</v>
+        <v>-1.73089</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -4131,10 +4131,10 @@
         <v>29</v>
       </c>
       <c r="O57">
-        <v>-12.1059</v>
+        <v>-13.2419</v>
       </c>
       <c r="P57">
-        <v>-1.61382</v>
+        <v>-1.7653</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -4181,10 +4181,10 @@
         <v>29</v>
       </c>
       <c r="O58">
-        <v>-12.3128</v>
+        <v>-13.6553</v>
       </c>
       <c r="P58">
-        <v>-1.64142</v>
+        <v>-1.82042</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -4231,10 +4231,10 @@
         <v>29</v>
       </c>
       <c r="O59">
-        <v>-12.6227</v>
+        <v>-14.1201</v>
       </c>
       <c r="P59">
-        <v>-1.68273</v>
+        <v>-1.88238</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -4281,10 +4281,10 @@
         <v>29</v>
       </c>
       <c r="O60">
-        <v>-12.8809</v>
+        <v>-14.4817</v>
       </c>
       <c r="P60">
-        <v>-1.71716</v>
+        <v>-1.9306</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -4331,10 +4331,10 @@
         <v>29</v>
       </c>
       <c r="O61">
-        <v>-13.139</v>
+        <v>-14.8951</v>
       </c>
       <c r="P61">
-        <v>-1.75157</v>
+        <v>-1.98573</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -4381,10 +4381,10 @@
         <v>29</v>
       </c>
       <c r="O62">
-        <v>-13.3974</v>
+        <v>-15.3084</v>
       </c>
       <c r="P62">
-        <v>-1.78605</v>
+        <v>-2.04083</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -4431,10 +4431,10 @@
         <v>29</v>
       </c>
       <c r="O63">
-        <v>-13.6553</v>
+        <v>-15.7731</v>
       </c>
       <c r="P63">
-        <v>-1.82043</v>
+        <v>-2.10279</v>
       </c>
     </row>
     <row r="64" spans="1:16">
@@ -4481,10 +4481,10 @@
         <v>29</v>
       </c>
       <c r="O64">
-        <v>-13.9653</v>
+        <v>-16.1863</v>
       </c>
       <c r="P64">
-        <v>-1.86176</v>
+        <v>-2.15789</v>
       </c>
     </row>
     <row r="65" spans="1:16">
@@ -4531,10 +4531,10 @@
         <v>163</v>
       </c>
       <c r="O65">
-        <v>20.3715</v>
+        <v>23.8766</v>
       </c>
       <c r="P65">
-        <v>2.46946</v>
+        <v>2.89432</v>
       </c>
     </row>
     <row r="66" spans="1:16">
@@ -4581,10 +4581,10 @@
         <v>163</v>
       </c>
       <c r="O66">
-        <v>19.8705</v>
+        <v>23.1254</v>
       </c>
       <c r="P66">
-        <v>2.40873</v>
+        <v>2.80327</v>
       </c>
     </row>
     <row r="67" spans="1:16">
@@ -4631,10 +4631,10 @@
         <v>163</v>
       </c>
       <c r="O67">
-        <v>19.3698</v>
+        <v>22.4743</v>
       </c>
       <c r="P67">
-        <v>2.34805</v>
+        <v>2.72434</v>
       </c>
     </row>
     <row r="68" spans="1:16">
@@ -4681,10 +4681,10 @@
         <v>163</v>
       </c>
       <c r="O68">
-        <v>18.8699</v>
+        <v>21.6739</v>
       </c>
       <c r="P68">
-        <v>2.28746</v>
+        <v>2.62734</v>
       </c>
     </row>
     <row r="69" spans="1:16">
@@ -4731,10 +4731,10 @@
         <v>163</v>
       </c>
       <c r="O69">
-        <v>18.371</v>
+        <v>20.973</v>
       </c>
       <c r="P69">
-        <v>2.22697</v>
+        <v>2.54237</v>
       </c>
     </row>
     <row r="70" spans="1:16">
@@ -4781,10 +4781,10 @@
         <v>163</v>
       </c>
       <c r="O70">
-        <v>17.8676</v>
+        <v>20.2711</v>
       </c>
       <c r="P70">
-        <v>2.16595</v>
+        <v>2.45729</v>
       </c>
     </row>
     <row r="71" spans="1:16">
@@ -4831,10 +4831,10 @@
         <v>163</v>
       </c>
       <c r="O71">
-        <v>17.4169</v>
+        <v>19.52</v>
       </c>
       <c r="P71">
-        <v>2.11132</v>
+        <v>2.36626</v>
       </c>
     </row>
     <row r="72" spans="1:16">
@@ -4881,10 +4881,10 @@
         <v>163</v>
       </c>
       <c r="O72">
-        <v>16.9162</v>
+        <v>18.7691</v>
       </c>
       <c r="P72">
-        <v>2.05065</v>
+        <v>2.27522</v>
       </c>
     </row>
     <row r="73" spans="1:16">
@@ -4931,10 +4931,10 @@
         <v>163</v>
       </c>
       <c r="O73">
-        <v>16.4666</v>
+        <v>18.2181</v>
       </c>
       <c r="P73">
-        <v>1.99613</v>
+        <v>2.20845</v>
       </c>
     </row>
     <row r="74" spans="1:16">
@@ -4981,10 +4981,10 @@
         <v>163</v>
       </c>
       <c r="O74">
-        <v>16.0152</v>
+        <v>17.4181</v>
       </c>
       <c r="P74">
-        <v>1.94143</v>
+        <v>2.11147</v>
       </c>
     </row>
     <row r="75" spans="1:16">
@@ -5031,10 +5031,10 @@
         <v>163</v>
       </c>
       <c r="O75">
-        <v>15.5645</v>
+        <v>16.716</v>
       </c>
       <c r="P75">
-        <v>1.88679</v>
+        <v>2.02638</v>
       </c>
     </row>
     <row r="76" spans="1:16">
@@ -5081,10 +5081,10 @@
         <v>163</v>
       </c>
       <c r="O76">
-        <v>15.0637</v>
+        <v>16.0149</v>
       </c>
       <c r="P76">
-        <v>1.82609</v>
+        <v>1.94138</v>
       </c>
     </row>
     <row r="77" spans="1:16">
@@ -5131,10 +5131,10 @@
         <v>163</v>
       </c>
       <c r="O77">
-        <v>14.6628</v>
+        <v>15.314</v>
       </c>
       <c r="P77">
-        <v>1.7775</v>
+        <v>1.85643</v>
       </c>
     </row>
     <row r="78" spans="1:16">
@@ -5181,10 +5181,10 @@
         <v>163</v>
       </c>
       <c r="O78">
-        <v>14.1122</v>
+        <v>14.5629</v>
       </c>
       <c r="P78">
-        <v>1.71076</v>
+        <v>1.76539</v>
       </c>
     </row>
     <row r="79" spans="1:16">
@@ -5231,10 +5231,10 @@
         <v>163</v>
       </c>
       <c r="O79">
-        <v>13.6615</v>
+        <v>13.8619</v>
       </c>
       <c r="P79">
-        <v>1.65613</v>
+        <v>1.68042</v>
       </c>
     </row>
     <row r="80" spans="1:16">
@@ -5581,10 +5581,10 @@
         <v>163</v>
       </c>
       <c r="O86">
-        <v>8.30373</v>
+        <v>8.353870000000001</v>
       </c>
       <c r="P86">
-        <v>1.00671</v>
+        <v>1.01278</v>
       </c>
     </row>
     <row r="87" spans="1:16">
@@ -6084,7 +6084,7 @@
         <v>0.046342</v>
       </c>
       <c r="P96">
-        <v>0.00580622</v>
+        <v>0.00580619</v>
       </c>
     </row>
     <row r="97" spans="1:16">
@@ -6281,10 +6281,10 @@
         <v>163</v>
       </c>
       <c r="O100">
-        <v>-3.358</v>
+        <v>-3.35799</v>
       </c>
       <c r="P100">
-        <v>-0.406837</v>
+        <v>-0.400863</v>
       </c>
     </row>
     <row r="101" spans="1:16">
@@ -6381,10 +6381,10 @@
         <v>163</v>
       </c>
       <c r="O102">
-        <v>-5.01021</v>
+        <v>-5.01018</v>
       </c>
       <c r="P102">
-        <v>-0.607112</v>
+        <v>-0.607109</v>
       </c>
     </row>
     <row r="103" spans="1:16">
@@ -6581,10 +6581,10 @@
         <v>163</v>
       </c>
       <c r="O106">
-        <v>-8.36388</v>
+        <v>-8.41356</v>
       </c>
       <c r="P106">
-        <v>-1.01362</v>
+        <v>-1.01964</v>
       </c>
     </row>
     <row r="107" spans="1:16">
@@ -6681,7 +6681,7 @@
         <v>163</v>
       </c>
       <c r="O108">
-        <v>-10.1645</v>
+        <v>-10.1646</v>
       </c>
       <c r="P108">
         <v>-1.23188</v>
@@ -6731,10 +6731,10 @@
         <v>163</v>
       </c>
       <c r="O109">
-        <v>-11.1168</v>
+        <v>-11.1166</v>
       </c>
       <c r="P109">
-        <v>-1.3473</v>
+        <v>-1.34726</v>
       </c>
     </row>
     <row r="110" spans="1:16">
@@ -6781,10 +6781,10 @@
         <v>163</v>
       </c>
       <c r="O110">
-        <v>-12.1178</v>
+        <v>-12.118</v>
       </c>
       <c r="P110">
-        <v>-1.46863</v>
+        <v>-1.46866</v>
       </c>
     </row>
     <row r="111" spans="1:16">
@@ -6931,10 +6931,10 @@
         <v>163</v>
       </c>
       <c r="O113">
-        <v>-13.5694</v>
+        <v>-13.8478</v>
       </c>
       <c r="P113">
-        <v>-1.64458</v>
+        <v>-1.6783</v>
       </c>
     </row>
     <row r="114" spans="1:16">
@@ -6981,10 +6981,10 @@
         <v>163</v>
       </c>
       <c r="O114">
-        <v>-14.1199</v>
+        <v>-14.6204</v>
       </c>
       <c r="P114">
-        <v>-1.71131</v>
+        <v>-1.77198</v>
       </c>
     </row>
     <row r="115" spans="1:16">
@@ -7031,10 +7031,10 @@
         <v>163</v>
       </c>
       <c r="O115">
-        <v>-14.6703</v>
+        <v>-15.4206</v>
       </c>
       <c r="P115">
-        <v>-1.77804</v>
+        <v>-1.86897</v>
       </c>
     </row>
     <row r="116" spans="1:16">
@@ -7081,10 +7081,10 @@
         <v>163</v>
       </c>
       <c r="O116">
-        <v>-15.1207</v>
+        <v>-16.1216</v>
       </c>
       <c r="P116">
-        <v>-1.83262</v>
+        <v>-1.95394</v>
       </c>
     </row>
     <row r="117" spans="1:16">
@@ -7131,10 +7131,10 @@
         <v>163</v>
       </c>
       <c r="O117">
-        <v>-15.5712</v>
+        <v>-16.8229</v>
       </c>
       <c r="P117">
-        <v>-1.88722</v>
+        <v>-2.03895</v>
       </c>
     </row>
     <row r="118" spans="1:16">
@@ -7181,10 +7181,10 @@
         <v>163</v>
       </c>
       <c r="O118">
-        <v>-16.2214</v>
+        <v>-17.5734</v>
       </c>
       <c r="P118">
-        <v>-1.96604</v>
+        <v>-2.12993</v>
       </c>
     </row>
     <row r="119" spans="1:16">
@@ -7231,10 +7231,10 @@
         <v>163</v>
       </c>
       <c r="O119">
-        <v>-16.6226</v>
+        <v>-18.3243</v>
       </c>
       <c r="P119">
-        <v>-2.01467</v>
+        <v>-2.22094</v>
       </c>
     </row>
     <row r="120" spans="1:16">
@@ -7281,10 +7281,10 @@
         <v>163</v>
       </c>
       <c r="O120">
-        <v>-17.0229</v>
+        <v>-18.8747</v>
       </c>
       <c r="P120">
-        <v>-2.0632</v>
+        <v>-2.28766</v>
       </c>
     </row>
     <row r="121" spans="1:16">
@@ -7331,10 +7331,10 @@
         <v>163</v>
       </c>
       <c r="O121">
-        <v>-17.4731</v>
+        <v>-19.6254</v>
       </c>
       <c r="P121">
-        <v>-2.11777</v>
+        <v>-2.37865</v>
       </c>
     </row>
     <row r="122" spans="1:16">
@@ -7381,10 +7381,10 @@
         <v>163</v>
       </c>
       <c r="O122">
-        <v>-17.9239</v>
+        <v>-20.3264</v>
       </c>
       <c r="P122">
-        <v>-2.17239</v>
+        <v>-2.46362</v>
       </c>
     </row>
     <row r="123" spans="1:16">
@@ -7431,10 +7431,10 @@
         <v>163</v>
       </c>
       <c r="O123">
-        <v>-18.4245</v>
+        <v>-21.0272</v>
       </c>
       <c r="P123">
-        <v>-2.23308</v>
+        <v>-2.54856</v>
       </c>
     </row>
     <row r="124" spans="1:16">
@@ -7481,10 +7481,10 @@
         <v>163</v>
       </c>
       <c r="O124">
-        <v>-18.9249</v>
+        <v>-21.7785</v>
       </c>
       <c r="P124">
-        <v>-2.29374</v>
+        <v>-2.63964</v>
       </c>
     </row>
     <row r="125" spans="1:16">
@@ -7531,10 +7531,10 @@
         <v>163</v>
       </c>
       <c r="O125">
-        <v>-19.3753</v>
+        <v>-22.5787</v>
       </c>
       <c r="P125">
-        <v>-2.34834</v>
+        <v>-2.73662</v>
       </c>
     </row>
     <row r="126" spans="1:16">
@@ -7581,10 +7581,10 @@
         <v>163</v>
       </c>
       <c r="O126">
-        <v>-19.8757</v>
+        <v>-23.2303</v>
       </c>
       <c r="P126">
-        <v>-2.40899</v>
+        <v>-2.8156</v>
       </c>
     </row>
     <row r="127" spans="1:16">
@@ -7631,10 +7631,10 @@
         <v>163</v>
       </c>
       <c r="O127">
-        <v>-20.4755</v>
+        <v>-24.0808</v>
       </c>
       <c r="P127">
-        <v>-2.4817</v>
+        <v>-2.9187</v>
       </c>
     </row>
     <row r="128" spans="1:16">
@@ -7681,10 +7681,10 @@
         <v>236</v>
       </c>
       <c r="O128">
-        <v>11.2135</v>
+        <v>12.9178</v>
       </c>
       <c r="P128">
-        <v>1.66188</v>
+        <v>1.91436</v>
       </c>
     </row>
     <row r="129" spans="1:16">
@@ -7731,10 +7731,10 @@
         <v>236</v>
       </c>
       <c r="O129">
-        <v>11.058</v>
+        <v>12.6148</v>
       </c>
       <c r="P129">
-        <v>1.63881</v>
+        <v>1.86942</v>
       </c>
     </row>
     <row r="130" spans="1:16">
@@ -7781,10 +7781,10 @@
         <v>236</v>
       </c>
       <c r="O130">
-        <v>10.7486</v>
+        <v>12.2531</v>
       </c>
       <c r="P130">
-        <v>1.60058</v>
+        <v>1.81581</v>
       </c>
     </row>
     <row r="131" spans="1:16">
@@ -7831,10 +7831,10 @@
         <v>236</v>
       </c>
       <c r="O131">
-        <v>10.5931</v>
+        <v>11.8857</v>
       </c>
       <c r="P131">
-        <v>1.56996</v>
+        <v>1.76145</v>
       </c>
     </row>
     <row r="132" spans="1:16">
@@ -7881,10 +7881,10 @@
         <v>236</v>
       </c>
       <c r="O132">
-        <v>10.4386</v>
+        <v>11.6266</v>
       </c>
       <c r="P132">
-        <v>1.54708</v>
+        <v>1.72307</v>
       </c>
     </row>
     <row r="133" spans="1:16">
@@ -7931,10 +7931,10 @@
         <v>236</v>
       </c>
       <c r="O133">
-        <v>10.2315</v>
+        <v>11.3322</v>
       </c>
       <c r="P133">
-        <v>1.51644</v>
+        <v>1.68474</v>
       </c>
     </row>
     <row r="134" spans="1:16">
@@ -7981,10 +7981,10 @@
         <v>236</v>
       </c>
       <c r="O134">
-        <v>10.0249</v>
+        <v>11.0144</v>
       </c>
       <c r="P134">
-        <v>1.4858</v>
+        <v>1.63236</v>
       </c>
     </row>
     <row r="135" spans="1:16">
@@ -8031,10 +8031,10 @@
         <v>236</v>
       </c>
       <c r="O135">
-        <v>9.82056</v>
+        <v>10.697</v>
       </c>
       <c r="P135">
-        <v>1.46275</v>
+        <v>1.58535</v>
       </c>
     </row>
     <row r="136" spans="1:16">
@@ -8081,10 +8081,10 @@
         <v>236</v>
       </c>
       <c r="O136">
-        <v>9.66283</v>
+        <v>10.4901</v>
       </c>
       <c r="P136">
-        <v>1.43215</v>
+        <v>1.55472</v>
       </c>
     </row>
     <row r="137" spans="1:16">
@@ -8131,10 +8131,10 @@
         <v>236</v>
       </c>
       <c r="O137">
-        <v>9.407360000000001</v>
+        <v>10.1284</v>
       </c>
       <c r="P137">
-        <v>1.40155</v>
+        <v>1.50114</v>
       </c>
     </row>
     <row r="138" spans="1:16">
@@ -8181,10 +8181,10 @@
         <v>236</v>
       </c>
       <c r="O138">
-        <v>9.198259999999999</v>
+        <v>9.81798</v>
       </c>
       <c r="P138">
-        <v>1.36334</v>
+        <v>1.45516</v>
       </c>
     </row>
     <row r="139" spans="1:16">
@@ -8231,10 +8231,10 @@
         <v>236</v>
       </c>
       <c r="O139">
-        <v>9.043469999999999</v>
+        <v>9.56015</v>
       </c>
       <c r="P139">
-        <v>1.34039</v>
+        <v>1.41695</v>
       </c>
     </row>
     <row r="140" spans="1:16">
@@ -8281,10 +8281,10 @@
         <v>236</v>
       </c>
       <c r="O140">
-        <v>8.732329999999999</v>
+        <v>9.24991</v>
       </c>
       <c r="P140">
-        <v>1.29405</v>
+        <v>1.37098</v>
       </c>
     </row>
     <row r="141" spans="1:16">
@@ -8331,10 +8331,10 @@
         <v>236</v>
       </c>
       <c r="O141">
-        <v>8.57898</v>
+        <v>8.83661</v>
       </c>
       <c r="P141">
-        <v>1.27906</v>
+        <v>1.30973</v>
       </c>
     </row>
     <row r="142" spans="1:16">
@@ -8381,10 +8381,10 @@
         <v>236</v>
       </c>
       <c r="O142">
-        <v>8.370760000000001</v>
+        <v>8.52581</v>
       </c>
       <c r="P142">
-        <v>1.24074</v>
+        <v>1.26367</v>
       </c>
     </row>
     <row r="143" spans="1:16">
@@ -8431,10 +8431,10 @@
         <v>236</v>
       </c>
       <c r="O143">
-        <v>8.21617</v>
+        <v>8.21608</v>
       </c>
       <c r="P143">
-        <v>1.21783</v>
+        <v>1.2178</v>
       </c>
     </row>
     <row r="144" spans="1:16">
@@ -8481,10 +8481,10 @@
         <v>236</v>
       </c>
       <c r="O144">
-        <v>8.11992</v>
+        <v>8.1191</v>
       </c>
       <c r="P144">
-        <v>1.20354</v>
+        <v>1.20339</v>
       </c>
     </row>
     <row r="145" spans="1:16">
@@ -8631,10 +8631,10 @@
         <v>236</v>
       </c>
       <c r="O147">
-        <v>6.40704</v>
+        <v>6.40706</v>
       </c>
       <c r="P147">
-        <v>0.949787</v>
+        <v>0.949796</v>
       </c>
     </row>
     <row r="148" spans="1:16">
@@ -8731,10 +8731,10 @@
         <v>236</v>
       </c>
       <c r="O149">
-        <v>5.16703</v>
+        <v>5.1735</v>
       </c>
       <c r="P149">
-        <v>0.7661520000000001</v>
+        <v>0.7669859999999999</v>
       </c>
     </row>
     <row r="150" spans="1:16">
@@ -8931,10 +8931,10 @@
         <v>236</v>
       </c>
       <c r="O153">
-        <v>3.2021</v>
+        <v>3.20297</v>
       </c>
       <c r="P153">
-        <v>0.475031</v>
+        <v>0.475151</v>
       </c>
     </row>
     <row r="154" spans="1:16">
@@ -9434,7 +9434,7 @@
         <v>-2.00934</v>
       </c>
       <c r="P163">
-        <v>-0.297135</v>
+        <v>-0.297129</v>
       </c>
     </row>
     <row r="164" spans="1:16">
@@ -9531,10 +9531,10 @@
         <v>236</v>
       </c>
       <c r="O165">
-        <v>-2.99917</v>
+        <v>-2.94737</v>
       </c>
       <c r="P165">
-        <v>-0.443713</v>
+        <v>-0.436034</v>
       </c>
     </row>
     <row r="166" spans="1:16">
@@ -9581,10 +9581,10 @@
         <v>236</v>
       </c>
       <c r="O166">
-        <v>-3.51559</v>
+        <v>-3.46384</v>
       </c>
       <c r="P166">
-        <v>-0.520209</v>
+        <v>-0.51255</v>
       </c>
     </row>
     <row r="167" spans="1:16">
@@ -9631,10 +9631,10 @@
         <v>236</v>
       </c>
       <c r="O167">
-        <v>-3.92963</v>
+        <v>-3.98119</v>
       </c>
       <c r="P167">
-        <v>-0.581551</v>
+        <v>-0.589164</v>
       </c>
     </row>
     <row r="168" spans="1:16">
@@ -9681,10 +9681,10 @@
         <v>236</v>
       </c>
       <c r="O168">
-        <v>-4.44603</v>
+        <v>-4.4462</v>
       </c>
       <c r="P168">
-        <v>-0.658027</v>
+        <v>-0.658052</v>
       </c>
     </row>
     <row r="169" spans="1:16">
@@ -9781,10 +9781,10 @@
         <v>236</v>
       </c>
       <c r="O170">
-        <v>-5.5834</v>
+        <v>-5.62356</v>
       </c>
       <c r="P170">
-        <v>-0.826546</v>
+        <v>-0.826516</v>
       </c>
     </row>
     <row r="171" spans="1:16">
@@ -9831,10 +9831,10 @@
         <v>236</v>
       </c>
       <c r="O171">
-        <v>-6.19694</v>
+        <v>-6.19682</v>
       </c>
       <c r="P171">
-        <v>-0.917454</v>
+        <v>-0.917446</v>
       </c>
     </row>
     <row r="172" spans="1:16">
@@ -9881,10 +9881,10 @@
         <v>236</v>
       </c>
       <c r="O172">
-        <v>-6.77119</v>
+        <v>-6.71926</v>
       </c>
       <c r="P172">
-        <v>-1.00248</v>
+        <v>-0.994919</v>
       </c>
     </row>
     <row r="173" spans="1:16">
@@ -9981,10 +9981,10 @@
         <v>236</v>
       </c>
       <c r="O174">
-        <v>-7.80429</v>
+        <v>-7.80391</v>
       </c>
       <c r="P174">
-        <v>-1.15555</v>
+        <v>-1.15551</v>
       </c>
     </row>
     <row r="175" spans="1:16">
@@ -10031,10 +10031,10 @@
         <v>236</v>
       </c>
       <c r="O175">
-        <v>-7.75264</v>
+        <v>-7.80359</v>
       </c>
       <c r="P175">
-        <v>-1.1479</v>
+        <v>-1.15547</v>
       </c>
     </row>
     <row r="176" spans="1:16">
@@ -10081,10 +10081,10 @@
         <v>236</v>
       </c>
       <c r="O176">
-        <v>-7.85636</v>
+        <v>-8.01042</v>
       </c>
       <c r="P176">
-        <v>-1.16328</v>
+        <v>-1.18608</v>
       </c>
     </row>
     <row r="177" spans="1:16">
@@ -10131,10 +10131,10 @@
         <v>236</v>
       </c>
       <c r="O177">
-        <v>-8.011229999999999</v>
+        <v>-8.21848</v>
       </c>
       <c r="P177">
-        <v>-1.1862</v>
+        <v>-1.21689</v>
       </c>
     </row>
     <row r="178" spans="1:16">
@@ -10181,10 +10181,10 @@
         <v>236</v>
       </c>
       <c r="O178">
-        <v>-8.269119999999999</v>
+        <v>-8.577159999999999</v>
       </c>
       <c r="P178">
-        <v>-1.22443</v>
+        <v>-1.26278</v>
       </c>
     </row>
     <row r="179" spans="1:16">
@@ -10231,10 +10231,10 @@
         <v>236</v>
       </c>
       <c r="O179">
-        <v>-8.37311</v>
+        <v>-8.83765</v>
       </c>
       <c r="P179">
-        <v>-1.23985</v>
+        <v>-1.30867</v>
       </c>
     </row>
     <row r="180" spans="1:16">
@@ -10281,10 +10281,10 @@
         <v>236</v>
       </c>
       <c r="O180">
-        <v>-8.630380000000001</v>
+        <v>-9.147880000000001</v>
       </c>
       <c r="P180">
-        <v>-1.27796</v>
+        <v>-1.35463</v>
       </c>
     </row>
     <row r="181" spans="1:16">
@@ -10331,10 +10331,10 @@
         <v>236</v>
       </c>
       <c r="O181">
-        <v>-8.72682</v>
+        <v>-9.354509999999999</v>
       </c>
       <c r="P181">
-        <v>-1.29231</v>
+        <v>-1.38522</v>
       </c>
     </row>
     <row r="182" spans="1:16">
@@ -10381,10 +10381,10 @@
         <v>236</v>
       </c>
       <c r="O182">
-        <v>-8.935510000000001</v>
+        <v>-9.716530000000001</v>
       </c>
       <c r="P182">
-        <v>-1.32309</v>
+        <v>-1.43887</v>
       </c>
     </row>
     <row r="183" spans="1:16">
@@ -10431,10 +10431,10 @@
         <v>236</v>
       </c>
       <c r="O183">
-        <v>-9.04458</v>
+        <v>-9.914859999999999</v>
       </c>
       <c r="P183">
-        <v>-1.33934</v>
+        <v>-1.46192</v>
       </c>
     </row>
     <row r="184" spans="1:16">
@@ -10481,10 +10481,10 @@
         <v>236</v>
       </c>
       <c r="O184">
-        <v>-9.19938</v>
+        <v>-10.1301</v>
       </c>
       <c r="P184">
-        <v>-1.36227</v>
+        <v>-1.50011</v>
       </c>
     </row>
     <row r="185" spans="1:16">
@@ -10531,10 +10531,10 @@
         <v>236</v>
       </c>
       <c r="O185">
-        <v>-9.3543</v>
+        <v>-10.433</v>
       </c>
       <c r="P185">
-        <v>-1.38521</v>
+        <v>-1.54508</v>
       </c>
     </row>
     <row r="186" spans="1:16">
@@ -10581,10 +10581,10 @@
         <v>236</v>
       </c>
       <c r="O186">
-        <v>-9.60497</v>
+        <v>-10.7495</v>
       </c>
       <c r="P186">
-        <v>-1.42238</v>
+        <v>-1.5919</v>
       </c>
     </row>
     <row r="187" spans="1:16">
@@ -10631,10 +10631,10 @@
         <v>236</v>
       </c>
       <c r="O187">
-        <v>-9.8188</v>
+        <v>-10.9563</v>
       </c>
       <c r="P187">
-        <v>-1.45401</v>
+        <v>-1.62255</v>
       </c>
     </row>
     <row r="188" spans="1:16">
@@ -10681,10 +10681,10 @@
         <v>236</v>
       </c>
       <c r="O188">
-        <v>-9.92263</v>
+        <v>-11.3184</v>
       </c>
       <c r="P188">
-        <v>-1.4694</v>
+        <v>-1.6762</v>
       </c>
     </row>
     <row r="189" spans="1:16">
@@ -10731,10 +10731,10 @@
         <v>236</v>
       </c>
       <c r="O189">
-        <v>-10.0782</v>
+        <v>-11.5772</v>
       </c>
       <c r="P189">
-        <v>-1.49248</v>
+        <v>-1.71454</v>
       </c>
     </row>
     <row r="190" spans="1:16">
@@ -10781,10 +10781,10 @@
         <v>236</v>
       </c>
       <c r="O190">
-        <v>-10.3775</v>
+        <v>-11.9388</v>
       </c>
       <c r="P190">
-        <v>-1.53684</v>
+        <v>-1.7681</v>
       </c>
     </row>
     <row r="191" spans="1:16" s="1" customFormat="1">
@@ -10842,10 +10842,10 @@
         <v>299</v>
       </c>
       <c r="O192" s="1">
-        <v>-20.4755</v>
+        <v>-24.0808</v>
       </c>
       <c r="P192" s="1">
-        <v>-2.4817</v>
+        <v>-2.9187</v>
       </c>
     </row>
     <row r="193" spans="14:16" s="1" customFormat="1">
@@ -10853,10 +10853,10 @@
         <v>300</v>
       </c>
       <c r="O193" s="1">
-        <v>20.3715</v>
+        <v>23.8766</v>
       </c>
       <c r="P193" s="1">
-        <v>2.46946</v>
+        <v>2.89432</v>
       </c>
     </row>
     <row r="194" spans="14:16" s="1" customFormat="1">
@@ -10896,10 +10896,10 @@
         <v>305</v>
       </c>
       <c r="O198" s="1">
-        <v>0.08298637</v>
+        <v>0.08485107</v>
       </c>
       <c r="P198" s="1">
-        <v>0.01280703</v>
+        <v>0.0131963</v>
       </c>
     </row>
     <row r="199" spans="14:16" s="1" customFormat="1">
@@ -10907,10 +10907,10 @@
         <v>306</v>
       </c>
       <c r="O199" s="1">
-        <v>10.326058</v>
+        <v>11.241853</v>
       </c>
       <c r="P199" s="1">
-        <v>1.339698</v>
+        <v>1.456519</v>
       </c>
     </row>
     <row r="200" spans="14:16" s="1" customFormat="1">
@@ -10918,10 +10918,10 @@
         <v>307</v>
       </c>
       <c r="O200" s="1">
-        <v>12443.077098</v>
+        <v>13248.923084</v>
       </c>
       <c r="P200" s="1">
-        <v>10460.645442</v>
+        <v>11037.328645</v>
       </c>
     </row>
     <row r="201" spans="14:16" s="1" customFormat="1"/>

--- a/dcd_top_offset_step_tsmc2p_meas.xlsx
+++ b/dcd_top_offset_step_tsmc2p_meas.xlsx
@@ -944,7 +944,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -960,13 +960,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF "/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9133"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0094D1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -981,9 +1000,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1381,10 +1402,10 @@
         <v>29</v>
       </c>
       <c r="O2">
-        <v>16.2454</v>
+        <v>29.7242</v>
       </c>
       <c r="P2">
-        <v>2.16636</v>
+        <v>3.96352</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1431,10 +1452,10 @@
         <v>29</v>
       </c>
       <c r="O3">
-        <v>15.7807</v>
+        <v>28.33</v>
       </c>
       <c r="P3">
-        <v>2.10438</v>
+        <v>3.77762</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1481,10 +1502,10 @@
         <v>29</v>
       </c>
       <c r="O4">
-        <v>15.3161</v>
+        <v>27.1421</v>
       </c>
       <c r="P4">
-        <v>2.04245</v>
+        <v>3.61924</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1531,10 +1552,10 @@
         <v>29</v>
       </c>
       <c r="O5">
-        <v>14.9032</v>
+        <v>25.7477</v>
       </c>
       <c r="P5">
-        <v>1.98738</v>
+        <v>3.43332</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1581,10 +1602,10 @@
         <v>29</v>
       </c>
       <c r="O6">
-        <v>14.443</v>
+        <v>24.819</v>
       </c>
       <c r="P6">
-        <v>1.926</v>
+        <v>3.30949</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1631,10 +1652,10 @@
         <v>29</v>
       </c>
       <c r="O7">
-        <v>14.0767</v>
+        <v>23.4754</v>
       </c>
       <c r="P7">
-        <v>1.87718</v>
+        <v>3.13034</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1681,10 +1702,10 @@
         <v>29</v>
       </c>
       <c r="O8">
-        <v>13.6638</v>
+        <v>22.1846</v>
       </c>
       <c r="P8">
-        <v>1.82213</v>
+        <v>2.95823</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1731,10 +1752,10 @@
         <v>29</v>
       </c>
       <c r="O9">
-        <v>13.1987</v>
+        <v>20.945</v>
       </c>
       <c r="P9">
-        <v>1.76012</v>
+        <v>2.79296</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1781,10 +1802,10 @@
         <v>29</v>
       </c>
       <c r="O10">
-        <v>12.8935</v>
+        <v>21.0485</v>
       </c>
       <c r="P10">
-        <v>1.7194</v>
+        <v>2.80676</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1831,10 +1852,10 @@
         <v>29</v>
       </c>
       <c r="O11">
-        <v>12.4241</v>
+        <v>19.7099</v>
       </c>
       <c r="P11">
-        <v>1.65683</v>
+        <v>2.62829</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1881,10 +1902,10 @@
         <v>29</v>
       </c>
       <c r="O12">
-        <v>12.0628</v>
+        <v>18.5696</v>
       </c>
       <c r="P12">
-        <v>1.60868</v>
+        <v>2.47625</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1931,10 +1952,10 @@
         <v>29</v>
       </c>
       <c r="O13">
-        <v>11.5983</v>
+        <v>17.2268</v>
       </c>
       <c r="P13">
-        <v>1.54674</v>
+        <v>2.29721</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1981,10 +2002,10 @@
         <v>29</v>
       </c>
       <c r="O14">
-        <v>11.2361</v>
+        <v>16.2458</v>
       </c>
       <c r="P14">
-        <v>1.49845</v>
+        <v>2.1664</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -2031,10 +2052,10 @@
         <v>29</v>
       </c>
       <c r="O15">
-        <v>10.8232</v>
+        <v>15.0632</v>
       </c>
       <c r="P15">
-        <v>1.44339</v>
+        <v>2.00872</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -2081,10 +2102,10 @@
         <v>29</v>
       </c>
       <c r="O16">
-        <v>10.4099</v>
+        <v>13.9737</v>
       </c>
       <c r="P16">
-        <v>1.38829</v>
+        <v>1.86345</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -2131,10 +2152,10 @@
         <v>29</v>
       </c>
       <c r="O17">
-        <v>9.94591</v>
+        <v>12.8889</v>
       </c>
       <c r="P17">
-        <v>1.32641</v>
+        <v>1.71881</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -2181,10 +2202,10 @@
         <v>29</v>
       </c>
       <c r="O18">
-        <v>9.945589999999999</v>
+        <v>12.8378</v>
       </c>
       <c r="P18">
-        <v>1.32637</v>
+        <v>1.712</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -2231,10 +2252,10 @@
         <v>29</v>
       </c>
       <c r="O19">
-        <v>9.27887</v>
+        <v>12.0629</v>
       </c>
       <c r="P19">
-        <v>1.23746</v>
+        <v>1.60868</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -2281,10 +2302,10 @@
         <v>29</v>
       </c>
       <c r="O20">
-        <v>8.654</v>
+        <v>11.3397</v>
       </c>
       <c r="P20">
-        <v>1.15416</v>
+        <v>1.51225</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -2331,10 +2352,10 @@
         <v>29</v>
       </c>
       <c r="O21">
-        <v>8.03514</v>
+        <v>10.3592</v>
       </c>
       <c r="P21">
-        <v>1.07164</v>
+        <v>1.38828</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -2381,10 +2402,10 @@
         <v>29</v>
       </c>
       <c r="O22">
-        <v>7.41458</v>
+        <v>9.583909999999999</v>
       </c>
       <c r="P22">
-        <v>0.988911</v>
+        <v>1.27816</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -2431,10 +2452,10 @@
         <v>29</v>
       </c>
       <c r="O23">
-        <v>6.74327</v>
+        <v>8.7059</v>
       </c>
       <c r="P23">
-        <v>0.8993989999999999</v>
+        <v>1.16108</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -2481,10 +2502,10 @@
         <v>29</v>
       </c>
       <c r="O24">
-        <v>5.96932</v>
+        <v>7.87922</v>
       </c>
       <c r="P24">
-        <v>0.796201</v>
+        <v>1.05085</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -2531,10 +2552,10 @@
         <v>29</v>
       </c>
       <c r="O25">
-        <v>5.40043</v>
+        <v>7.00143</v>
       </c>
       <c r="P25">
-        <v>0.720341</v>
+        <v>0.9338109999999999</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -2581,10 +2602,10 @@
         <v>29</v>
       </c>
       <c r="O26">
-        <v>4.72868</v>
+        <v>6.27815</v>
       </c>
       <c r="P26">
-        <v>0.630777</v>
+        <v>0.837382</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -2631,10 +2652,10 @@
         <v>29</v>
       </c>
       <c r="O27">
-        <v>4.1091</v>
+        <v>5.34862</v>
       </c>
       <c r="P27">
-        <v>0.548168</v>
+        <v>0.713437</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -2681,10 +2702,10 @@
         <v>29</v>
       </c>
       <c r="O28">
-        <v>3.43771</v>
+        <v>4.47088</v>
       </c>
       <c r="P28">
-        <v>0.45865</v>
+        <v>0.596413</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -2731,10 +2752,10 @@
         <v>29</v>
       </c>
       <c r="O29">
-        <v>2.76623</v>
+        <v>3.64426</v>
       </c>
       <c r="P29">
-        <v>0.369116</v>
+        <v>0.486183</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2781,10 +2802,10 @@
         <v>29</v>
       </c>
       <c r="O30">
-        <v>2.09409</v>
+        <v>2.71362</v>
       </c>
       <c r="P30">
-        <v>0.279495</v>
+        <v>0.362102</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2831,10 +2852,10 @@
         <v>29</v>
       </c>
       <c r="O31">
-        <v>1.31998</v>
+        <v>1.83676</v>
       </c>
       <c r="P31">
-        <v>0.176279</v>
+        <v>0.245183</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -2881,10 +2902,10 @@
         <v>29</v>
       </c>
       <c r="O32">
-        <v>0.7541909999999999</v>
+        <v>1.01216</v>
       </c>
       <c r="P32">
-        <v>0.10085</v>
+        <v>0.135234</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2931,10 +2952,10 @@
         <v>29</v>
       </c>
       <c r="O33">
-        <v>0.135267</v>
+        <v>0.135268</v>
       </c>
       <c r="P33">
-        <v>0.0183191</v>
+        <v>0.0183193</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2981,10 +3002,10 @@
         <v>29</v>
       </c>
       <c r="O34">
-        <v>-0.537249</v>
+        <v>-0.795453</v>
       </c>
       <c r="P34">
-        <v>-0.0713546</v>
+        <v>-0.105775</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -3031,10 +3052,10 @@
         <v>29</v>
       </c>
       <c r="O35">
-        <v>-1.26097</v>
+        <v>-1.72663</v>
       </c>
       <c r="P35">
-        <v>-0.16785</v>
+        <v>-0.229932</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -3081,10 +3102,10 @@
         <v>29</v>
       </c>
       <c r="O36">
-        <v>-1.93454</v>
+        <v>-2.65664</v>
       </c>
       <c r="P36">
-        <v>-0.257651</v>
+        <v>-0.353929</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -3131,10 +3152,10 @@
         <v>29</v>
       </c>
       <c r="O37">
-        <v>-2.60418</v>
+        <v>-3.48181</v>
       </c>
       <c r="P37">
-        <v>-0.346933</v>
+        <v>-0.463965</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -3181,10 +3202,10 @@
         <v>29</v>
       </c>
       <c r="O38">
-        <v>-3.32697</v>
+        <v>-4.46293</v>
       </c>
       <c r="P38">
-        <v>-0.443314</v>
+        <v>-0.594773</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -3231,10 +3252,10 @@
         <v>29</v>
       </c>
       <c r="O39">
-        <v>-3.99846</v>
+        <v>-5.23713</v>
       </c>
       <c r="P39">
-        <v>-0.532838</v>
+        <v>-0.697983</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -3281,10 +3302,10 @@
         <v>29</v>
       </c>
       <c r="O40">
-        <v>-4.66947</v>
+        <v>-6.16702</v>
       </c>
       <c r="P40">
-        <v>-0.622309</v>
+        <v>-0.821975</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -3331,10 +3352,10 @@
         <v>29</v>
       </c>
       <c r="O41">
-        <v>-5.23748</v>
+        <v>-6.94148</v>
       </c>
       <c r="P41">
-        <v>-0.698036</v>
+        <v>-0.925237</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -3381,10 +3402,10 @@
         <v>29</v>
       </c>
       <c r="O42">
-        <v>-6.01207</v>
+        <v>-7.87077</v>
       </c>
       <c r="P42">
-        <v>-0.801319</v>
+        <v>-1.04913</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -3431,10 +3452,10 @@
         <v>29</v>
       </c>
       <c r="O43">
-        <v>-6.68319</v>
+        <v>-8.644970000000001</v>
       </c>
       <c r="P43">
-        <v>-0.8908</v>
+        <v>-1.15237</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -3481,10 +3502,10 @@
         <v>29</v>
       </c>
       <c r="O44">
-        <v>-7.35455</v>
+        <v>-9.52313</v>
       </c>
       <c r="P44">
-        <v>-0.9803230000000001</v>
+        <v>-1.26946</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -3531,10 +3552,10 @@
         <v>29</v>
       </c>
       <c r="O45">
-        <v>-7.97399</v>
+        <v>-10.2974</v>
       </c>
       <c r="P45">
-        <v>-1.06291</v>
+        <v>-1.37269</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -3581,10 +3602,10 @@
         <v>29</v>
       </c>
       <c r="O46">
-        <v>-8.645149999999999</v>
+        <v>-11.2266</v>
       </c>
       <c r="P46">
-        <v>-1.1524</v>
+        <v>-1.49659</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -3631,10 +3652,10 @@
         <v>29</v>
       </c>
       <c r="O47">
-        <v>-9.26493</v>
+        <v>-12.0534</v>
       </c>
       <c r="P47">
-        <v>-1.23503</v>
+        <v>-1.60683</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -3681,10 +3702,10 @@
         <v>29</v>
       </c>
       <c r="O48">
-        <v>-9.933949999999999</v>
+        <v>-12.8803</v>
       </c>
       <c r="P48">
-        <v>-1.32425</v>
+        <v>-1.71708</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -3731,10 +3752,10 @@
         <v>29</v>
       </c>
       <c r="O49">
-        <v>-9.88449</v>
+        <v>-12.8799</v>
       </c>
       <c r="P49">
-        <v>-1.31764</v>
+        <v>-1.71703</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -3781,10 +3802,10 @@
         <v>29</v>
       </c>
       <c r="O50">
-        <v>-10.3494</v>
+        <v>-13.9648</v>
       </c>
       <c r="P50">
-        <v>-1.37963</v>
+        <v>-1.86168</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -3831,10 +3852,10 @@
         <v>29</v>
       </c>
       <c r="O51">
-        <v>-10.7624</v>
+        <v>-15.0492</v>
       </c>
       <c r="P51">
-        <v>-1.43469</v>
+        <v>-2.00627</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -3881,10 +3902,10 @@
         <v>29</v>
       </c>
       <c r="O52">
-        <v>-11.2274</v>
+        <v>-16.0825</v>
       </c>
       <c r="P52">
-        <v>-1.49669</v>
+        <v>-2.14405</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -3931,10 +3952,10 @@
         <v>29</v>
       </c>
       <c r="O53">
-        <v>-11.6405</v>
+        <v>-17.0631</v>
       </c>
       <c r="P53">
-        <v>-1.55177</v>
+        <v>-2.27479</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -3981,10 +4002,10 @@
         <v>29</v>
       </c>
       <c r="O54">
-        <v>-12.1054</v>
+        <v>-18.1472</v>
       </c>
       <c r="P54">
-        <v>-1.61376</v>
+        <v>-2.41934</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -4031,10 +4052,10 @@
         <v>29</v>
       </c>
       <c r="O55">
-        <v>-12.5194</v>
+        <v>-19.4902</v>
       </c>
       <c r="P55">
-        <v>-1.66895</v>
+        <v>-2.59841</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -4081,10 +4102,10 @@
         <v>29</v>
       </c>
       <c r="O56">
-        <v>-12.9839</v>
+        <v>-20.7812</v>
       </c>
       <c r="P56">
-        <v>-1.73089</v>
+        <v>-2.77053</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -4131,10 +4152,10 @@
         <v>29</v>
       </c>
       <c r="O57">
-        <v>-13.2419</v>
+        <v>-20.6263</v>
       </c>
       <c r="P57">
-        <v>-1.7653</v>
+        <v>-2.74987</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -4181,10 +4202,10 @@
         <v>29</v>
       </c>
       <c r="O58">
-        <v>-13.6553</v>
+        <v>-21.9689</v>
       </c>
       <c r="P58">
-        <v>-1.82042</v>
+        <v>-2.92889</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -4231,10 +4252,10 @@
         <v>29</v>
       </c>
       <c r="O59">
-        <v>-14.1201</v>
+        <v>-23.2598</v>
       </c>
       <c r="P59">
-        <v>-1.88238</v>
+        <v>-3.10102</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -4281,10 +4302,10 @@
         <v>29</v>
       </c>
       <c r="O60">
-        <v>-14.4817</v>
+        <v>-24.5507</v>
       </c>
       <c r="P60">
-        <v>-1.9306</v>
+        <v>-3.27314</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -4331,10 +4352,10 @@
         <v>29</v>
       </c>
       <c r="O61">
-        <v>-14.8951</v>
+        <v>-25.5322</v>
       </c>
       <c r="P61">
-        <v>-1.98573</v>
+        <v>-3.40401</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -4381,10 +4402,10 @@
         <v>29</v>
       </c>
       <c r="O62">
-        <v>-15.3084</v>
+        <v>-26.9266</v>
       </c>
       <c r="P62">
-        <v>-2.04083</v>
+        <v>-3.58993</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -4431,10 +4452,10 @@
         <v>29</v>
       </c>
       <c r="O63">
-        <v>-15.7731</v>
+        <v>-28.2171</v>
       </c>
       <c r="P63">
-        <v>-2.10279</v>
+        <v>-3.762</v>
       </c>
     </row>
     <row r="64" spans="1:16">
@@ -4481,10 +4502,10 @@
         <v>29</v>
       </c>
       <c r="O64">
-        <v>-16.1863</v>
+        <v>-29.5086</v>
       </c>
       <c r="P64">
-        <v>-2.15789</v>
+        <v>-3.9342</v>
       </c>
     </row>
     <row r="65" spans="1:16">
@@ -4530,11 +4551,11 @@
       <c r="N65" t="s">
         <v>163</v>
       </c>
-      <c r="O65">
-        <v>23.8766</v>
+      <c r="O65" s="2">
+        <v>39.6475</v>
       </c>
       <c r="P65">
-        <v>2.89432</v>
+        <v>4.80595</v>
       </c>
     </row>
     <row r="66" spans="1:16">
@@ -4580,11 +4601,11 @@
       <c r="N66" t="s">
         <v>163</v>
       </c>
-      <c r="O66">
-        <v>23.1254</v>
+      <c r="O66" s="2">
+        <v>38.0947</v>
       </c>
       <c r="P66">
-        <v>2.80327</v>
+        <v>4.61772</v>
       </c>
     </row>
     <row r="67" spans="1:16">
@@ -4630,11 +4651,11 @@
       <c r="N67" t="s">
         <v>163</v>
       </c>
-      <c r="O67">
-        <v>22.4743</v>
+      <c r="O67" s="2">
+        <v>36.6428</v>
       </c>
       <c r="P67">
-        <v>2.72434</v>
+        <v>4.44175</v>
       </c>
     </row>
     <row r="68" spans="1:16">
@@ -4680,11 +4701,11 @@
       <c r="N68" t="s">
         <v>163</v>
       </c>
-      <c r="O68">
-        <v>21.6739</v>
+      <c r="O68" s="2">
+        <v>35.0412</v>
       </c>
       <c r="P68">
-        <v>2.62734</v>
+        <v>4.25362</v>
       </c>
     </row>
     <row r="69" spans="1:16">
@@ -4731,10 +4752,10 @@
         <v>163</v>
       </c>
       <c r="O69">
-        <v>20.973</v>
+        <v>33.8892</v>
       </c>
       <c r="P69">
-        <v>2.54237</v>
+        <v>4.10797</v>
       </c>
     </row>
     <row r="70" spans="1:16">
@@ -4781,10 +4802,10 @@
         <v>163</v>
       </c>
       <c r="O70">
-        <v>20.2711</v>
+        <v>32.2092</v>
       </c>
       <c r="P70">
-        <v>2.45729</v>
+        <v>3.90436</v>
       </c>
     </row>
     <row r="71" spans="1:16">
@@ -4831,10 +4852,10 @@
         <v>163</v>
       </c>
       <c r="O71">
-        <v>19.52</v>
+        <v>30.6352</v>
       </c>
       <c r="P71">
-        <v>2.36626</v>
+        <v>3.71355</v>
       </c>
     </row>
     <row r="72" spans="1:16">
@@ -4881,10 +4902,10 @@
         <v>163</v>
       </c>
       <c r="O72">
-        <v>18.7691</v>
+        <v>28.884</v>
       </c>
       <c r="P72">
-        <v>2.27522</v>
+        <v>3.50127</v>
       </c>
     </row>
     <row r="73" spans="1:16">
@@ -4931,10 +4952,10 @@
         <v>163</v>
       </c>
       <c r="O73">
-        <v>18.2181</v>
+        <v>29.4057</v>
       </c>
       <c r="P73">
-        <v>2.20845</v>
+        <v>3.56452</v>
       </c>
     </row>
     <row r="74" spans="1:16">
@@ -4981,10 +5002,10 @@
         <v>163</v>
       </c>
       <c r="O74">
-        <v>17.4181</v>
+        <v>27.6851</v>
       </c>
       <c r="P74">
-        <v>2.11147</v>
+        <v>3.35595</v>
       </c>
     </row>
     <row r="75" spans="1:16">
@@ -5031,10 +5052,10 @@
         <v>163</v>
       </c>
       <c r="O75">
-        <v>16.716</v>
+        <v>26.0795</v>
       </c>
       <c r="P75">
-        <v>2.02638</v>
+        <v>3.16134</v>
       </c>
     </row>
     <row r="76" spans="1:16">
@@ -5081,10 +5102,10 @@
         <v>163</v>
       </c>
       <c r="O76">
-        <v>16.0149</v>
+        <v>24.3269</v>
       </c>
       <c r="P76">
-        <v>1.94138</v>
+        <v>2.94891</v>
       </c>
     </row>
     <row r="77" spans="1:16">
@@ -5131,10 +5152,10 @@
         <v>163</v>
       </c>
       <c r="O77">
-        <v>15.314</v>
+        <v>23.0251</v>
       </c>
       <c r="P77">
-        <v>1.85643</v>
+        <v>2.79111</v>
       </c>
     </row>
     <row r="78" spans="1:16">
@@ -5181,10 +5202,10 @@
         <v>163</v>
       </c>
       <c r="O78">
-        <v>14.5629</v>
+        <v>21.3226</v>
       </c>
       <c r="P78">
-        <v>1.76539</v>
+        <v>2.58474</v>
       </c>
     </row>
     <row r="79" spans="1:16">
@@ -5231,10 +5252,10 @@
         <v>163</v>
       </c>
       <c r="O79">
-        <v>13.8619</v>
+        <v>19.7202</v>
       </c>
       <c r="P79">
-        <v>1.68042</v>
+        <v>2.39052</v>
       </c>
     </row>
     <row r="80" spans="1:16">
@@ -5281,10 +5302,10 @@
         <v>163</v>
       </c>
       <c r="O80">
-        <v>13.161</v>
+        <v>18.0678</v>
       </c>
       <c r="P80">
-        <v>1.59545</v>
+        <v>2.19023</v>
       </c>
     </row>
     <row r="81" spans="1:16">
@@ -5331,10 +5352,10 @@
         <v>163</v>
       </c>
       <c r="O81">
-        <v>13.161</v>
+        <v>18.0182</v>
       </c>
       <c r="P81">
-        <v>1.59546</v>
+        <v>2.19022</v>
       </c>
     </row>
     <row r="82" spans="1:16">
@@ -5381,10 +5402,10 @@
         <v>163</v>
       </c>
       <c r="O82">
-        <v>12.1602</v>
+        <v>16.666</v>
       </c>
       <c r="P82">
-        <v>1.47414</v>
+        <v>2.02031</v>
       </c>
     </row>
     <row r="83" spans="1:16">
@@ -5431,10 +5452,10 @@
         <v>163</v>
       </c>
       <c r="O83">
-        <v>11.1082</v>
+        <v>15.4642</v>
       </c>
       <c r="P83">
-        <v>1.34664</v>
+        <v>1.87464</v>
       </c>
     </row>
     <row r="84" spans="1:16">
@@ -5481,10 +5502,10 @@
         <v>163</v>
       </c>
       <c r="O84">
-        <v>10.107</v>
+        <v>14.1626</v>
       </c>
       <c r="P84">
-        <v>1.22527</v>
+        <v>1.71687</v>
       </c>
     </row>
     <row r="85" spans="1:16">
@@ -5531,10 +5552,10 @@
         <v>163</v>
       </c>
       <c r="O85">
-        <v>9.20532</v>
+        <v>12.8615</v>
       </c>
       <c r="P85">
-        <v>1.11599</v>
+        <v>1.55916</v>
       </c>
     </row>
     <row r="86" spans="1:16">
@@ -5581,10 +5602,10 @@
         <v>163</v>
       </c>
       <c r="O86">
-        <v>8.353870000000001</v>
+        <v>11.5086</v>
       </c>
       <c r="P86">
-        <v>1.01278</v>
+        <v>1.39517</v>
       </c>
     </row>
     <row r="87" spans="1:16">
@@ -5631,10 +5652,10 @@
         <v>163</v>
       </c>
       <c r="O87">
-        <v>7.45258</v>
+        <v>10.1566</v>
       </c>
       <c r="P87">
-        <v>0.903516</v>
+        <v>1.23129</v>
       </c>
     </row>
     <row r="88" spans="1:16">
@@ -5681,10 +5702,10 @@
         <v>163</v>
       </c>
       <c r="O88">
-        <v>6.60164</v>
+        <v>8.904680000000001</v>
       </c>
       <c r="P88">
-        <v>0.800392</v>
+        <v>1.07954</v>
       </c>
     </row>
     <row r="89" spans="1:16">
@@ -5731,10 +5752,10 @@
         <v>163</v>
       </c>
       <c r="O89">
-        <v>5.85047</v>
+        <v>7.85341</v>
       </c>
       <c r="P89">
-        <v>0.709333</v>
+        <v>0.952114</v>
       </c>
     </row>
     <row r="90" spans="1:16">
@@ -5781,10 +5802,10 @@
         <v>163</v>
       </c>
       <c r="O90">
-        <v>5.0498</v>
+        <v>6.70176</v>
       </c>
       <c r="P90">
-        <v>0.61228</v>
+        <v>0.812515</v>
       </c>
     </row>
     <row r="91" spans="1:16">
@@ -5831,10 +5852,10 @@
         <v>163</v>
       </c>
       <c r="O91">
-        <v>4.24919</v>
+        <v>5.65032</v>
       </c>
       <c r="P91">
-        <v>0.51524</v>
+        <v>0.685074</v>
       </c>
     </row>
     <row r="92" spans="1:16">
@@ -5881,10 +5902,10 @@
         <v>163</v>
       </c>
       <c r="O92">
-        <v>3.34798</v>
+        <v>4.49905</v>
       </c>
       <c r="P92">
-        <v>0.406003</v>
+        <v>0.545521</v>
       </c>
     </row>
     <row r="93" spans="1:16">
@@ -5931,10 +5952,10 @@
         <v>163</v>
       </c>
       <c r="O93">
-        <v>2.54701</v>
+        <v>3.40064</v>
       </c>
       <c r="P93">
-        <v>0.308913</v>
+        <v>0.412364</v>
       </c>
     </row>
     <row r="94" spans="1:16">
@@ -5981,10 +6002,10 @@
         <v>163</v>
       </c>
       <c r="O94">
-        <v>1.6966</v>
+        <v>2.24654</v>
       </c>
       <c r="P94">
-        <v>0.205826</v>
+        <v>0.272498</v>
       </c>
     </row>
     <row r="95" spans="1:16">
@@ -6031,10 +6052,10 @@
         <v>163</v>
       </c>
       <c r="O95">
-        <v>0.947064</v>
+        <v>1.24765</v>
       </c>
       <c r="P95">
-        <v>0.114978</v>
+        <v>0.151416</v>
       </c>
     </row>
     <row r="96" spans="1:16">
@@ -6081,10 +6102,10 @@
         <v>163</v>
       </c>
       <c r="O96">
-        <v>0.046342</v>
+        <v>0.0462314</v>
       </c>
       <c r="P96">
-        <v>0.00580619</v>
+        <v>0.0057856</v>
       </c>
     </row>
     <row r="97" spans="1:16">
@@ -6131,10 +6152,10 @@
         <v>163</v>
       </c>
       <c r="O97">
-        <v>-0.804971</v>
+        <v>-1.10546</v>
       </c>
       <c r="P97">
-        <v>-0.0973895</v>
+        <v>-0.133813</v>
       </c>
     </row>
     <row r="98" spans="1:16">
@@ -6181,10 +6202,10 @@
         <v>163</v>
       </c>
       <c r="O98">
-        <v>-1.65659</v>
+        <v>-2.30357</v>
       </c>
       <c r="P98">
-        <v>-0.200615</v>
+        <v>-0.273478</v>
       </c>
     </row>
     <row r="99" spans="1:16">
@@ -6231,10 +6252,10 @@
         <v>163</v>
       </c>
       <c r="O99">
-        <v>-2.50836</v>
+        <v>-3.35932</v>
       </c>
       <c r="P99">
-        <v>-0.303858</v>
+        <v>-0.406994</v>
       </c>
     </row>
     <row r="100" spans="1:16">
@@ -6281,10 +6302,10 @@
         <v>163</v>
       </c>
       <c r="O100">
-        <v>-3.35799</v>
+        <v>-4.45941</v>
       </c>
       <c r="P100">
-        <v>-0.400863</v>
+        <v>-0.5403480000000001</v>
       </c>
     </row>
     <row r="101" spans="1:16">
@@ -6331,10 +6352,10 @@
         <v>163</v>
       </c>
       <c r="O101">
-        <v>-4.1591</v>
+        <v>-5.56042</v>
       </c>
       <c r="P101">
-        <v>-0.5039439999999999</v>
+        <v>-0.673807</v>
       </c>
     </row>
     <row r="102" spans="1:16">
@@ -6381,10 +6402,10 @@
         <v>163</v>
       </c>
       <c r="O102">
-        <v>-5.01018</v>
+        <v>-6.71173</v>
       </c>
       <c r="P102">
-        <v>-0.607109</v>
+        <v>-0.813347</v>
       </c>
     </row>
     <row r="103" spans="1:16">
@@ -6431,10 +6452,10 @@
         <v>163</v>
       </c>
       <c r="O103">
-        <v>-5.86105</v>
+        <v>-7.91286</v>
       </c>
       <c r="P103">
-        <v>-0.710242</v>
+        <v>-0.95895</v>
       </c>
     </row>
     <row r="104" spans="1:16">
@@ -6481,10 +6502,10 @@
         <v>163</v>
       </c>
       <c r="O104">
-        <v>-6.56151</v>
+        <v>-8.963900000000001</v>
       </c>
       <c r="P104">
-        <v>-0.795146</v>
+        <v>-1.08634</v>
       </c>
     </row>
     <row r="105" spans="1:16">
@@ -6531,10 +6552,10 @@
         <v>163</v>
       </c>
       <c r="O105">
-        <v>-7.51247</v>
+        <v>-10.1154</v>
       </c>
       <c r="P105">
-        <v>-0.910417</v>
+        <v>-1.22594</v>
       </c>
     </row>
     <row r="106" spans="1:16">
@@ -6581,10 +6602,10 @@
         <v>163</v>
       </c>
       <c r="O106">
-        <v>-8.41356</v>
+        <v>-11.4169</v>
       </c>
       <c r="P106">
-        <v>-1.01964</v>
+        <v>-1.38368</v>
       </c>
     </row>
     <row r="107" spans="1:16">
@@ -6631,10 +6652,10 @@
         <v>163</v>
       </c>
       <c r="O107">
-        <v>-9.26436</v>
+        <v>-12.7184</v>
       </c>
       <c r="P107">
-        <v>-1.12277</v>
+        <v>-1.54144</v>
       </c>
     </row>
     <row r="108" spans="1:16">
@@ -6681,10 +6702,10 @@
         <v>163</v>
       </c>
       <c r="O108">
-        <v>-10.1646</v>
+        <v>-14.0695</v>
       </c>
       <c r="P108">
-        <v>-1.23188</v>
+        <v>-1.7052</v>
       </c>
     </row>
     <row r="109" spans="1:16">
@@ -6731,10 +6752,10 @@
         <v>163</v>
       </c>
       <c r="O109">
-        <v>-11.1166</v>
+        <v>-15.421</v>
       </c>
       <c r="P109">
-        <v>-1.34726</v>
+        <v>-1.86903</v>
       </c>
     </row>
     <row r="110" spans="1:16">
@@ -6781,10 +6802,10 @@
         <v>163</v>
       </c>
       <c r="O110">
-        <v>-12.118</v>
+        <v>-16.6724</v>
       </c>
       <c r="P110">
-        <v>-1.46866</v>
+        <v>-2.02071</v>
       </c>
     </row>
     <row r="111" spans="1:16">
@@ -6831,10 +6852,10 @@
         <v>163</v>
       </c>
       <c r="O111">
-        <v>-13.0686</v>
+        <v>-18.0237</v>
       </c>
       <c r="P111">
-        <v>-1.58388</v>
+        <v>-2.1845</v>
       </c>
     </row>
     <row r="112" spans="1:16">
@@ -6881,10 +6902,10 @@
         <v>163</v>
       </c>
       <c r="O112">
-        <v>-13.1188</v>
+        <v>-18.1237</v>
       </c>
       <c r="P112">
-        <v>-1.58997</v>
+        <v>-2.19662</v>
       </c>
     </row>
     <row r="113" spans="1:16">
@@ -6931,10 +6952,10 @@
         <v>163</v>
       </c>
       <c r="O113">
-        <v>-13.8478</v>
+        <v>-19.7259</v>
       </c>
       <c r="P113">
-        <v>-1.6783</v>
+        <v>-2.39084</v>
       </c>
     </row>
     <row r="114" spans="1:16">
@@ -6981,10 +7002,10 @@
         <v>163</v>
       </c>
       <c r="O114">
-        <v>-14.6204</v>
+        <v>-21.3774</v>
       </c>
       <c r="P114">
-        <v>-1.77198</v>
+        <v>-2.59101</v>
       </c>
     </row>
     <row r="115" spans="1:16">
@@ -7031,10 +7052,10 @@
         <v>163</v>
       </c>
       <c r="O115">
-        <v>-15.4206</v>
+        <v>-23.077</v>
       </c>
       <c r="P115">
-        <v>-1.86897</v>
+        <v>-2.79704</v>
       </c>
     </row>
     <row r="116" spans="1:16">
@@ -7081,10 +7102,10 @@
         <v>163</v>
       </c>
       <c r="O116">
-        <v>-16.1216</v>
+        <v>-24.3816</v>
       </c>
       <c r="P116">
-        <v>-1.95394</v>
+        <v>-2.95515</v>
       </c>
     </row>
     <row r="117" spans="1:16">
@@ -7131,10 +7152,10 @@
         <v>163</v>
       </c>
       <c r="O117">
-        <v>-16.8229</v>
+        <v>-26.0824</v>
       </c>
       <c r="P117">
-        <v>-2.03895</v>
+        <v>-3.16132</v>
       </c>
     </row>
     <row r="118" spans="1:16">
@@ -7181,10 +7202,10 @@
         <v>163</v>
       </c>
       <c r="O118">
-        <v>-17.5734</v>
+        <v>-27.8334</v>
       </c>
       <c r="P118">
-        <v>-2.12993</v>
+        <v>-3.37356</v>
       </c>
     </row>
     <row r="119" spans="1:16">
@@ -7231,10 +7252,10 @@
         <v>163</v>
       </c>
       <c r="O119">
-        <v>-18.3243</v>
+        <v>-29.5845</v>
       </c>
       <c r="P119">
-        <v>-2.22094</v>
+        <v>-3.58581</v>
       </c>
     </row>
     <row r="120" spans="1:16">
@@ -7281,10 +7302,10 @@
         <v>163</v>
       </c>
       <c r="O120">
-        <v>-18.8747</v>
+        <v>-29.1844</v>
       </c>
       <c r="P120">
-        <v>-2.28766</v>
+        <v>-3.53731</v>
       </c>
     </row>
     <row r="121" spans="1:16">
@@ -7331,10 +7352,10 @@
         <v>163</v>
       </c>
       <c r="O121">
-        <v>-19.6254</v>
+        <v>-30.9828</v>
       </c>
       <c r="P121">
-        <v>-2.37865</v>
+        <v>-3.74348</v>
       </c>
     </row>
     <row r="122" spans="1:16">
@@ -7381,10 +7402,10 @@
         <v>163</v>
       </c>
       <c r="O122">
-        <v>-20.3264</v>
+        <v>-32.5365</v>
       </c>
       <c r="P122">
-        <v>-2.46362</v>
+        <v>-3.94363</v>
       </c>
     </row>
     <row r="123" spans="1:16">
@@ -7431,10 +7452,10 @@
         <v>163</v>
       </c>
       <c r="O123">
-        <v>-21.0272</v>
+        <v>-34.2369</v>
       </c>
       <c r="P123">
-        <v>-2.54856</v>
+        <v>-4.14974</v>
       </c>
     </row>
     <row r="124" spans="1:16">
@@ -7480,11 +7501,11 @@
       <c r="N124" t="s">
         <v>163</v>
       </c>
-      <c r="O124">
-        <v>-21.7785</v>
+      <c r="O124" s="3">
+        <v>-35.5882</v>
       </c>
       <c r="P124">
-        <v>-2.63964</v>
+        <v>-4.31354</v>
       </c>
     </row>
     <row r="125" spans="1:16">
@@ -7530,11 +7551,11 @@
       <c r="N125" t="s">
         <v>163</v>
       </c>
-      <c r="O125">
-        <v>-22.5787</v>
+      <c r="O125" s="3">
+        <v>-37.1893</v>
       </c>
       <c r="P125">
-        <v>-2.73662</v>
+        <v>-4.50761</v>
       </c>
     </row>
     <row r="126" spans="1:16">
@@ -7580,11 +7601,11 @@
       <c r="N126" t="s">
         <v>163</v>
       </c>
-      <c r="O126">
-        <v>-23.2303</v>
+      <c r="O126" s="3">
+        <v>-38.69</v>
       </c>
       <c r="P126">
-        <v>-2.8156</v>
+        <v>-4.68951</v>
       </c>
     </row>
     <row r="127" spans="1:16">
@@ -7630,11 +7651,11 @@
       <c r="N127" t="s">
         <v>163</v>
       </c>
-      <c r="O127">
-        <v>-24.0808</v>
+      <c r="O127" s="3">
+        <v>-40.2697</v>
       </c>
       <c r="P127">
-        <v>-2.9187</v>
+        <v>-4.88097</v>
       </c>
     </row>
     <row r="128" spans="1:16">
@@ -7681,10 +7702,10 @@
         <v>236</v>
       </c>
       <c r="O128">
-        <v>12.9178</v>
+        <v>21.711</v>
       </c>
       <c r="P128">
-        <v>1.91436</v>
+        <v>3.21701</v>
       </c>
     </row>
     <row r="129" spans="1:16">
@@ -7731,10 +7752,10 @@
         <v>236</v>
       </c>
       <c r="O129">
-        <v>12.6148</v>
+        <v>21.0891</v>
       </c>
       <c r="P129">
-        <v>1.86942</v>
+        <v>3.12485</v>
       </c>
     </row>
     <row r="130" spans="1:16">
@@ -7781,10 +7802,10 @@
         <v>236</v>
       </c>
       <c r="O130">
-        <v>12.2531</v>
+        <v>20.307</v>
       </c>
       <c r="P130">
-        <v>1.81581</v>
+        <v>3.00905</v>
       </c>
     </row>
     <row r="131" spans="1:16">
@@ -7831,10 +7852,10 @@
         <v>236</v>
       </c>
       <c r="O131">
-        <v>11.8857</v>
+        <v>19.377</v>
       </c>
       <c r="P131">
-        <v>1.76145</v>
+        <v>2.87127</v>
       </c>
     </row>
     <row r="132" spans="1:16">
@@ -7881,10 +7902,10 @@
         <v>236</v>
       </c>
       <c r="O132">
-        <v>11.6266</v>
+        <v>18.8601</v>
       </c>
       <c r="P132">
-        <v>1.72307</v>
+        <v>2.79471</v>
       </c>
     </row>
     <row r="133" spans="1:16">
@@ -7931,10 +7952,10 @@
         <v>236</v>
       </c>
       <c r="O133">
-        <v>11.3322</v>
+        <v>18.1881</v>
       </c>
       <c r="P133">
-        <v>1.68474</v>
+        <v>2.69515</v>
       </c>
     </row>
     <row r="134" spans="1:16">
@@ -7981,10 +8002,10 @@
         <v>236</v>
       </c>
       <c r="O134">
-        <v>11.0144</v>
+        <v>17.4203</v>
       </c>
       <c r="P134">
-        <v>1.63236</v>
+        <v>2.58133</v>
       </c>
     </row>
     <row r="135" spans="1:16">
@@ -8031,10 +8052,10 @@
         <v>236</v>
       </c>
       <c r="O135">
-        <v>10.697</v>
+        <v>16.6906</v>
       </c>
       <c r="P135">
-        <v>1.58535</v>
+        <v>2.4733</v>
       </c>
     </row>
     <row r="136" spans="1:16">
@@ -8081,10 +8102,10 @@
         <v>236</v>
       </c>
       <c r="O136">
-        <v>10.4901</v>
+        <v>16.6393</v>
       </c>
       <c r="P136">
-        <v>1.55472</v>
+        <v>2.4657</v>
       </c>
     </row>
     <row r="137" spans="1:16">
@@ -8131,10 +8152,10 @@
         <v>236</v>
       </c>
       <c r="O137">
-        <v>10.1284</v>
+        <v>15.9669</v>
       </c>
       <c r="P137">
-        <v>1.50114</v>
+        <v>2.3661</v>
       </c>
     </row>
     <row r="138" spans="1:16">
@@ -8181,10 +8202,10 @@
         <v>236</v>
       </c>
       <c r="O138">
-        <v>9.81798</v>
+        <v>15.1409</v>
       </c>
       <c r="P138">
-        <v>1.45516</v>
+        <v>2.24374</v>
       </c>
     </row>
     <row r="139" spans="1:16">
@@ -8231,10 +8252,10 @@
         <v>236</v>
       </c>
       <c r="O139">
-        <v>9.56015</v>
+        <v>14.3655</v>
       </c>
       <c r="P139">
-        <v>1.41695</v>
+        <v>2.12885</v>
       </c>
     </row>
     <row r="140" spans="1:16">
@@ -8281,10 +8302,10 @@
         <v>236</v>
       </c>
       <c r="O140">
-        <v>9.24991</v>
+        <v>13.7983</v>
       </c>
       <c r="P140">
-        <v>1.37098</v>
+        <v>2.05229</v>
       </c>
     </row>
     <row r="141" spans="1:16">
@@ -8331,10 +8352,10 @@
         <v>236</v>
       </c>
       <c r="O141">
-        <v>8.83661</v>
+        <v>13.0742</v>
       </c>
       <c r="P141">
-        <v>1.30973</v>
+        <v>1.93756</v>
       </c>
     </row>
     <row r="142" spans="1:16">
@@ -8381,10 +8402,10 @@
         <v>236</v>
       </c>
       <c r="O142">
-        <v>8.52581</v>
+        <v>12.3518</v>
       </c>
       <c r="P142">
-        <v>1.26367</v>
+        <v>1.83051</v>
       </c>
     </row>
     <row r="143" spans="1:16">
@@ -8431,10 +8452,10 @@
         <v>236</v>
       </c>
       <c r="O143">
-        <v>8.21608</v>
+        <v>11.481</v>
       </c>
       <c r="P143">
-        <v>1.2178</v>
+        <v>1.70145</v>
       </c>
     </row>
     <row r="144" spans="1:16">
@@ -8481,10 +8502,10 @@
         <v>236</v>
       </c>
       <c r="O144">
-        <v>8.1191</v>
+        <v>11.5256</v>
       </c>
       <c r="P144">
-        <v>1.20339</v>
+        <v>1.70812</v>
       </c>
     </row>
     <row r="145" spans="1:16">
@@ -8531,10 +8552,10 @@
         <v>236</v>
       </c>
       <c r="O145">
-        <v>7.59599</v>
+        <v>10.6458</v>
       </c>
       <c r="P145">
-        <v>1.12593</v>
+        <v>1.57778</v>
       </c>
     </row>
     <row r="146" spans="1:16">
@@ -8581,10 +8602,10 @@
         <v>236</v>
       </c>
       <c r="O146">
-        <v>6.92404</v>
+        <v>9.9223</v>
       </c>
       <c r="P146">
-        <v>1.0264</v>
+        <v>1.47062</v>
       </c>
     </row>
     <row r="147" spans="1:16">
@@ -8631,10 +8652,10 @@
         <v>236</v>
       </c>
       <c r="O147">
-        <v>6.40706</v>
+        <v>9.00215</v>
       </c>
       <c r="P147">
-        <v>0.949796</v>
+        <v>1.33429</v>
       </c>
     </row>
     <row r="148" spans="1:16">
@@ -8681,10 +8702,10 @@
         <v>236</v>
       </c>
       <c r="O148">
-        <v>5.78691</v>
+        <v>8.318860000000001</v>
       </c>
       <c r="P148">
-        <v>0.8579369999999999</v>
+        <v>1.23306</v>
       </c>
     </row>
     <row r="149" spans="1:16">
@@ -8731,10 +8752,10 @@
         <v>236</v>
       </c>
       <c r="O149">
-        <v>5.1735</v>
+        <v>7.49188</v>
       </c>
       <c r="P149">
-        <v>0.7669859999999999</v>
+        <v>1.11055</v>
       </c>
     </row>
     <row r="150" spans="1:16">
@@ -8781,10 +8802,10 @@
         <v>236</v>
       </c>
       <c r="O150">
-        <v>4.65217</v>
+        <v>6.56184</v>
       </c>
       <c r="P150">
-        <v>0.697036</v>
+        <v>0.972753</v>
       </c>
     </row>
     <row r="151" spans="1:16">
@@ -8831,10 +8852,10 @@
         <v>236</v>
       </c>
       <c r="O151">
-        <v>4.18477</v>
+        <v>5.68398</v>
       </c>
       <c r="P151">
-        <v>0.620572</v>
+        <v>0.842707</v>
       </c>
     </row>
     <row r="152" spans="1:16">
@@ -8881,10 +8902,10 @@
         <v>236</v>
       </c>
       <c r="O152">
-        <v>3.71873</v>
+        <v>5.11517</v>
       </c>
       <c r="P152">
-        <v>0.551529</v>
+        <v>0.75842</v>
       </c>
     </row>
     <row r="153" spans="1:16">
@@ -8931,10 +8952,10 @@
         <v>236</v>
       </c>
       <c r="O153">
-        <v>3.20297</v>
+        <v>4.44275</v>
       </c>
       <c r="P153">
-        <v>0.475151</v>
+        <v>0.658821</v>
       </c>
     </row>
     <row r="154" spans="1:16">
@@ -8981,10 +9002,10 @@
         <v>236</v>
       </c>
       <c r="O154">
-        <v>2.63429</v>
+        <v>3.71872</v>
       </c>
       <c r="P154">
-        <v>0.390861</v>
+        <v>0.551527</v>
       </c>
     </row>
     <row r="155" spans="1:16">
@@ -9031,10 +9052,10 @@
         <v>236</v>
       </c>
       <c r="O155">
-        <v>2.16874</v>
+        <v>3.00242</v>
       </c>
       <c r="P155">
-        <v>0.321932</v>
+        <v>0.445373</v>
       </c>
     </row>
     <row r="156" spans="1:16">
@@ -9081,10 +9102,10 @@
         <v>236</v>
       </c>
       <c r="O156">
-        <v>1.65245</v>
+        <v>2.27322</v>
       </c>
       <c r="P156">
-        <v>0.245449</v>
+        <v>0.33741</v>
       </c>
     </row>
     <row r="157" spans="1:16">
@@ -9131,10 +9152,10 @@
         <v>236</v>
       </c>
       <c r="O157">
-        <v>1.08396</v>
+        <v>1.56006</v>
       </c>
       <c r="P157">
-        <v>0.161208</v>
+        <v>0.231683</v>
       </c>
     </row>
     <row r="158" spans="1:16">
@@ -9181,10 +9202,10 @@
         <v>236</v>
       </c>
       <c r="O158">
-        <v>0.674368</v>
+        <v>0.880576</v>
       </c>
       <c r="P158">
-        <v>0.10051</v>
+        <v>0.131049</v>
       </c>
     </row>
     <row r="159" spans="1:16">
@@ -9231,10 +9252,10 @@
         <v>236</v>
       </c>
       <c r="O159">
-        <v>0.156932</v>
+        <v>0.105568</v>
       </c>
       <c r="P159">
-        <v>0.0238386</v>
+        <v>0.0162389</v>
       </c>
     </row>
     <row r="160" spans="1:16">
@@ -9281,10 +9302,10 @@
         <v>236</v>
       </c>
       <c r="O160">
-        <v>-0.41141</v>
+        <v>-0.669678</v>
       </c>
       <c r="P160">
-        <v>-0.0603557</v>
+        <v>-0.09861399999999999</v>
       </c>
     </row>
     <row r="161" spans="1:16">
@@ -9331,10 +9352,10 @@
         <v>236</v>
       </c>
       <c r="O161">
-        <v>-0.879891</v>
+        <v>-1.33947</v>
       </c>
       <c r="P161">
-        <v>-0.12974</v>
+        <v>-0.197889</v>
       </c>
     </row>
     <row r="162" spans="1:16">
@@ -9381,10 +9402,10 @@
         <v>236</v>
       </c>
       <c r="O162">
-        <v>-1.44798</v>
+        <v>-2.06874</v>
       </c>
       <c r="P162">
-        <v>-0.213875</v>
+        <v>-0.305857</v>
       </c>
     </row>
     <row r="163" spans="1:16">
@@ -9431,10 +9452,10 @@
         <v>236</v>
       </c>
       <c r="O163">
-        <v>-2.00934</v>
+        <v>-2.73946</v>
       </c>
       <c r="P163">
-        <v>-0.297129</v>
+        <v>-0.405228</v>
       </c>
     </row>
     <row r="164" spans="1:16">
@@ -9481,10 +9502,10 @@
         <v>236</v>
       </c>
       <c r="O164">
-        <v>-2.48156</v>
+        <v>-3.46373</v>
       </c>
       <c r="P164">
-        <v>-0.367029</v>
+        <v>-0.512529</v>
       </c>
     </row>
     <row r="165" spans="1:16">
@@ -9531,10 +9552,10 @@
         <v>236</v>
       </c>
       <c r="O165">
-        <v>-2.94737</v>
+        <v>-4.18777</v>
       </c>
       <c r="P165">
-        <v>-0.436034</v>
+        <v>-0.619824</v>
       </c>
     </row>
     <row r="166" spans="1:16">
@@ -9581,10 +9602,10 @@
         <v>236</v>
       </c>
       <c r="O166">
-        <v>-3.46384</v>
+        <v>-4.96311</v>
       </c>
       <c r="P166">
-        <v>-0.51255</v>
+        <v>-0.734672</v>
       </c>
     </row>
     <row r="167" spans="1:16">
@@ -9631,10 +9652,10 @@
         <v>236</v>
       </c>
       <c r="O167">
-        <v>-3.98119</v>
+        <v>-5.58279</v>
       </c>
       <c r="P167">
-        <v>-0.589164</v>
+        <v>-0.826452</v>
       </c>
     </row>
     <row r="168" spans="1:16">
@@ -9681,10 +9702,10 @@
         <v>236</v>
       </c>
       <c r="O168">
-        <v>-4.4462</v>
+        <v>-6.30601</v>
       </c>
       <c r="P168">
-        <v>-0.658052</v>
+        <v>-0.933603</v>
       </c>
     </row>
     <row r="169" spans="1:16">
@@ -9731,10 +9752,10 @@
         <v>236</v>
       </c>
       <c r="O169">
-        <v>-5.0139</v>
+        <v>-7.08127</v>
       </c>
       <c r="P169">
-        <v>-0.742178</v>
+        <v>-1.04844</v>
       </c>
     </row>
     <row r="170" spans="1:16">
@@ -9781,10 +9802,10 @@
         <v>236</v>
       </c>
       <c r="O170">
-        <v>-5.62356</v>
+        <v>-7.80419</v>
       </c>
       <c r="P170">
-        <v>-0.826516</v>
+        <v>-1.15557</v>
       </c>
     </row>
     <row r="171" spans="1:16">
@@ -9831,10 +9852,10 @@
         <v>236</v>
       </c>
       <c r="O171">
-        <v>-6.19682</v>
+        <v>-8.37241</v>
       </c>
       <c r="P171">
-        <v>-0.917446</v>
+        <v>-1.23971</v>
       </c>
     </row>
     <row r="172" spans="1:16">
@@ -9881,10 +9902,10 @@
         <v>236</v>
       </c>
       <c r="O172">
-        <v>-6.71926</v>
+        <v>-9.139709999999999</v>
       </c>
       <c r="P172">
-        <v>-0.994919</v>
+        <v>-1.35348</v>
       </c>
     </row>
     <row r="173" spans="1:16">
@@ -9931,10 +9952,10 @@
         <v>236</v>
       </c>
       <c r="O173">
-        <v>-7.2759</v>
+        <v>-9.87045</v>
       </c>
       <c r="P173">
-        <v>-1.07732</v>
+        <v>-1.46164</v>
       </c>
     </row>
     <row r="174" spans="1:16">
@@ -9981,10 +10002,10 @@
         <v>236</v>
       </c>
       <c r="O174">
-        <v>-7.80391</v>
+        <v>-10.5423</v>
       </c>
       <c r="P174">
-        <v>-1.15551</v>
+        <v>-1.5612</v>
       </c>
     </row>
     <row r="175" spans="1:16">
@@ -10031,10 +10052,10 @@
         <v>236</v>
       </c>
       <c r="O175">
-        <v>-7.80359</v>
+        <v>-10.5424</v>
       </c>
       <c r="P175">
-        <v>-1.15547</v>
+        <v>-1.56122</v>
       </c>
     </row>
     <row r="176" spans="1:16">
@@ -10081,10 +10102,10 @@
         <v>236</v>
       </c>
       <c r="O176">
-        <v>-8.01042</v>
+        <v>-11.2664</v>
       </c>
       <c r="P176">
-        <v>-1.18608</v>
+        <v>-1.66844</v>
       </c>
     </row>
     <row r="177" spans="1:16">
@@ -10131,10 +10152,10 @@
         <v>236</v>
       </c>
       <c r="O177">
-        <v>-8.21848</v>
+        <v>-11.8857</v>
       </c>
       <c r="P177">
-        <v>-1.21689</v>
+        <v>-1.76025</v>
       </c>
     </row>
     <row r="178" spans="1:16">
@@ -10181,10 +10202,10 @@
         <v>236</v>
       </c>
       <c r="O178">
-        <v>-8.577159999999999</v>
+        <v>-12.7653</v>
       </c>
       <c r="P178">
-        <v>-1.26278</v>
+        <v>-1.89054</v>
       </c>
     </row>
     <row r="179" spans="1:16">
@@ -10231,10 +10252,10 @@
         <v>236</v>
       </c>
       <c r="O179">
-        <v>-8.83765</v>
+        <v>-13.334</v>
       </c>
       <c r="P179">
-        <v>-1.30867</v>
+        <v>-1.97483</v>
       </c>
     </row>
     <row r="180" spans="1:16">
@@ -10281,10 +10302,10 @@
         <v>236</v>
       </c>
       <c r="O180">
-        <v>-9.147880000000001</v>
+        <v>-14.0062</v>
       </c>
       <c r="P180">
-        <v>-1.35463</v>
+        <v>-2.07436</v>
       </c>
     </row>
     <row r="181" spans="1:16">
@@ -10331,10 +10352,10 @@
         <v>236</v>
       </c>
       <c r="O181">
-        <v>-9.354509999999999</v>
+        <v>-14.7816</v>
       </c>
       <c r="P181">
-        <v>-1.38522</v>
+        <v>-2.18921</v>
       </c>
     </row>
     <row r="182" spans="1:16">
@@ -10381,10 +10402,10 @@
         <v>236</v>
       </c>
       <c r="O182">
-        <v>-9.716530000000001</v>
+        <v>-15.6603</v>
       </c>
       <c r="P182">
-        <v>-1.43887</v>
+        <v>-2.3194</v>
       </c>
     </row>
     <row r="183" spans="1:16">
@@ -10431,10 +10452,10 @@
         <v>236</v>
       </c>
       <c r="O183">
-        <v>-9.914859999999999</v>
+        <v>-15.7635</v>
       </c>
       <c r="P183">
-        <v>-1.46192</v>
+        <v>-2.33473</v>
       </c>
     </row>
     <row r="184" spans="1:16">
@@ -10481,10 +10502,10 @@
         <v>236</v>
       </c>
       <c r="O184">
-        <v>-10.1301</v>
+        <v>-16.6416</v>
       </c>
       <c r="P184">
-        <v>-1.50011</v>
+        <v>-2.46481</v>
       </c>
     </row>
     <row r="185" spans="1:16">
@@ -10531,10 +10552,10 @@
         <v>236</v>
       </c>
       <c r="O185">
-        <v>-10.433</v>
+        <v>-17.4172</v>
       </c>
       <c r="P185">
-        <v>-1.54508</v>
+        <v>-2.57969</v>
       </c>
     </row>
     <row r="186" spans="1:16">
@@ -10581,10 +10602,10 @@
         <v>236</v>
       </c>
       <c r="O186">
-        <v>-10.7495</v>
+        <v>-18.1934</v>
       </c>
       <c r="P186">
-        <v>-1.5919</v>
+        <v>-2.69471</v>
       </c>
     </row>
     <row r="187" spans="1:16">
@@ -10631,10 +10652,10 @@
         <v>236</v>
       </c>
       <c r="O187">
-        <v>-10.9563</v>
+        <v>-18.8483</v>
       </c>
       <c r="P187">
-        <v>-1.62255</v>
+        <v>-2.79174</v>
       </c>
     </row>
     <row r="188" spans="1:16">
@@ -10681,10 +10702,10 @@
         <v>236</v>
       </c>
       <c r="O188">
-        <v>-11.3184</v>
+        <v>-19.8464</v>
       </c>
       <c r="P188">
-        <v>-1.6762</v>
+        <v>-2.93959</v>
       </c>
     </row>
     <row r="189" spans="1:16">
@@ -10731,10 +10752,10 @@
         <v>236</v>
       </c>
       <c r="O189">
-        <v>-11.5772</v>
+        <v>-20.777</v>
       </c>
       <c r="P189">
-        <v>-1.71454</v>
+        <v>-3.07743</v>
       </c>
     </row>
     <row r="190" spans="1:16">
@@ -10781,10 +10802,10 @@
         <v>236</v>
       </c>
       <c r="O190">
-        <v>-11.9388</v>
+        <v>-21.7074</v>
       </c>
       <c r="P190">
-        <v>-1.7681</v>
+        <v>-3.21531</v>
       </c>
     </row>
     <row r="191" spans="1:16" s="1" customFormat="1">
@@ -10841,22 +10862,22 @@
       <c r="N192" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="O192" s="1">
-        <v>-24.0808</v>
+      <c r="O192" s="3">
+        <v>-40.2697</v>
       </c>
       <c r="P192" s="1">
-        <v>-2.9187</v>
+        <v>-4.88097</v>
       </c>
     </row>
     <row r="193" spans="14:16" s="1" customFormat="1">
       <c r="N193" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="O193" s="1">
-        <v>23.8766</v>
+      <c r="O193" s="2">
+        <v>39.6475</v>
       </c>
       <c r="P193" s="1">
-        <v>2.89432</v>
+        <v>4.80595</v>
       </c>
     </row>
     <row r="194" spans="14:16" s="1" customFormat="1">
@@ -10896,10 +10917,10 @@
         <v>305</v>
       </c>
       <c r="O198" s="1">
-        <v>0.08485107</v>
+        <v>0.1048753</v>
       </c>
       <c r="P198" s="1">
-        <v>0.0131963</v>
+        <v>0.01631048</v>
       </c>
     </row>
     <row r="199" spans="14:16" s="1" customFormat="1">
@@ -10907,10 +10928,10 @@
         <v>306</v>
       </c>
       <c r="O199" s="1">
-        <v>11.241853</v>
+        <v>17.642291</v>
       </c>
       <c r="P199" s="1">
-        <v>1.456519</v>
+        <v>2.287791</v>
       </c>
     </row>
     <row r="200" spans="14:16" s="1" customFormat="1">
@@ -10918,10 +10939,10 @@
         <v>307</v>
       </c>
       <c r="O200" s="1">
-        <v>13248.923084</v>
+        <v>16822.160223</v>
       </c>
       <c r="P200" s="1">
-        <v>11037.328645</v>
+        <v>14026.509336</v>
       </c>
     </row>
     <row r="201" spans="14:16" s="1" customFormat="1"/>

--- a/dcd_top_offset_step_tsmc2p_meas.xlsx
+++ b/dcd_top_offset_step_tsmc2p_meas.xlsx
@@ -944,7 +944,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -960,32 +960,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF "/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF9133"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0094D1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1000,11 +981,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1402,10 +1381,10 @@
         <v>29</v>
       </c>
       <c r="O2">
-        <v>29.7242</v>
+        <v>21.7713</v>
       </c>
       <c r="P2">
-        <v>3.96352</v>
+        <v>2.90313</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1452,10 +1431,10 @@
         <v>29</v>
       </c>
       <c r="O3">
-        <v>28.33</v>
+        <v>21.1001</v>
       </c>
       <c r="P3">
-        <v>3.77762</v>
+        <v>2.81364</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1502,10 +1481,10 @@
         <v>29</v>
       </c>
       <c r="O4">
-        <v>27.1421</v>
+        <v>20.4285</v>
       </c>
       <c r="P4">
-        <v>3.61924</v>
+        <v>2.72409</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1552,10 +1531,10 @@
         <v>29</v>
       </c>
       <c r="O5">
-        <v>25.7477</v>
+        <v>19.7573</v>
       </c>
       <c r="P5">
-        <v>3.43332</v>
+        <v>2.63461</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1602,10 +1581,10 @@
         <v>29</v>
       </c>
       <c r="O6">
-        <v>24.819</v>
+        <v>19.1891</v>
       </c>
       <c r="P6">
-        <v>3.30949</v>
+        <v>2.55885</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1652,10 +1631,10 @@
         <v>29</v>
       </c>
       <c r="O7">
-        <v>23.4754</v>
+        <v>18.57</v>
       </c>
       <c r="P7">
-        <v>3.13034</v>
+        <v>2.47629</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1702,10 +1681,10 @@
         <v>29</v>
       </c>
       <c r="O8">
-        <v>22.1846</v>
+        <v>17.8992</v>
       </c>
       <c r="P8">
-        <v>2.95823</v>
+        <v>2.38685</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1752,10 +1731,10 @@
         <v>29</v>
       </c>
       <c r="O9">
-        <v>20.945</v>
+        <v>17.2269</v>
       </c>
       <c r="P9">
-        <v>2.79296</v>
+        <v>2.29721</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1802,10 +1781,10 @@
         <v>29</v>
       </c>
       <c r="O10">
-        <v>21.0485</v>
+        <v>16.9688</v>
       </c>
       <c r="P10">
-        <v>2.80676</v>
+        <v>2.2628</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1852,10 +1831,10 @@
         <v>29</v>
       </c>
       <c r="O11">
-        <v>19.7099</v>
+        <v>16.2461</v>
       </c>
       <c r="P11">
-        <v>2.62829</v>
+        <v>2.16644</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1902,10 +1881,10 @@
         <v>29</v>
       </c>
       <c r="O12">
-        <v>18.5696</v>
+        <v>15.6778</v>
       </c>
       <c r="P12">
-        <v>2.47625</v>
+        <v>2.09067</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1952,10 +1931,10 @@
         <v>29</v>
       </c>
       <c r="O13">
-        <v>17.2268</v>
+        <v>15.0578</v>
       </c>
       <c r="P13">
-        <v>2.29721</v>
+        <v>2.008</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -2002,10 +1981,10 @@
         <v>29</v>
       </c>
       <c r="O14">
-        <v>16.2458</v>
+        <v>14.5932</v>
       </c>
       <c r="P14">
-        <v>2.1664</v>
+        <v>1.94606</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -2052,10 +2031,10 @@
         <v>29</v>
       </c>
       <c r="O15">
-        <v>15.0632</v>
+        <v>14.0251</v>
       </c>
       <c r="P15">
-        <v>2.00872</v>
+        <v>1.8703</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -2102,10 +2081,10 @@
         <v>29</v>
       </c>
       <c r="O16">
-        <v>13.9737</v>
+        <v>13.4576</v>
       </c>
       <c r="P16">
-        <v>1.86345</v>
+        <v>1.79464</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -2152,10 +2131,10 @@
         <v>29</v>
       </c>
       <c r="O17">
-        <v>12.8889</v>
+        <v>12.889</v>
       </c>
       <c r="P17">
-        <v>1.71881</v>
+        <v>1.71882</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -2202,10 +2181,10 @@
         <v>29</v>
       </c>
       <c r="O18">
-        <v>12.8378</v>
+        <v>12.8889</v>
       </c>
       <c r="P18">
-        <v>1.712</v>
+        <v>1.7188</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -3152,10 +3131,10 @@
         <v>29</v>
       </c>
       <c r="O37">
-        <v>-3.48181</v>
+        <v>-3.48216</v>
       </c>
       <c r="P37">
-        <v>-0.463965</v>
+        <v>-0.464011</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -3202,10 +3181,10 @@
         <v>29</v>
       </c>
       <c r="O38">
-        <v>-4.46293</v>
+        <v>-4.35996</v>
       </c>
       <c r="P38">
-        <v>-0.594773</v>
+        <v>-0.58104</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -3252,10 +3231,10 @@
         <v>29</v>
       </c>
       <c r="O39">
-        <v>-5.23713</v>
+        <v>-5.28935</v>
       </c>
       <c r="P39">
-        <v>-0.697983</v>
+        <v>-0.7049569999999999</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -3302,10 +3281,10 @@
         <v>29</v>
       </c>
       <c r="O40">
-        <v>-6.16702</v>
+        <v>-6.1665</v>
       </c>
       <c r="P40">
-        <v>-0.821975</v>
+        <v>-0.821917</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -3352,10 +3331,10 @@
         <v>29</v>
       </c>
       <c r="O41">
-        <v>-6.94148</v>
+        <v>-6.94124</v>
       </c>
       <c r="P41">
-        <v>-0.925237</v>
+        <v>-0.9252050000000001</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -3402,10 +3381,10 @@
         <v>29</v>
       </c>
       <c r="O42">
-        <v>-7.87077</v>
+        <v>-7.87083</v>
       </c>
       <c r="P42">
-        <v>-1.04913</v>
+        <v>-1.04915</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -3452,10 +3431,10 @@
         <v>29</v>
       </c>
       <c r="O43">
-        <v>-8.644970000000001</v>
+        <v>-8.59366</v>
       </c>
       <c r="P43">
-        <v>-1.15237</v>
+        <v>-1.14553</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -3552,10 +3531,10 @@
         <v>29</v>
       </c>
       <c r="O45">
-        <v>-10.2974</v>
+        <v>-10.2938</v>
       </c>
       <c r="P45">
-        <v>-1.37269</v>
+        <v>-1.37222</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -3602,10 +3581,10 @@
         <v>29</v>
       </c>
       <c r="O46">
-        <v>-11.2266</v>
+        <v>-11.2268</v>
       </c>
       <c r="P46">
-        <v>-1.49659</v>
+        <v>-1.49662</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -3652,10 +3631,10 @@
         <v>29</v>
       </c>
       <c r="O47">
-        <v>-12.0534</v>
+        <v>-12.0532</v>
       </c>
       <c r="P47">
-        <v>-1.60683</v>
+        <v>-1.6068</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -3802,10 +3781,10 @@
         <v>29</v>
       </c>
       <c r="O50">
-        <v>-13.9648</v>
+        <v>-13.499</v>
       </c>
       <c r="P50">
-        <v>-1.86168</v>
+        <v>-1.79957</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -3852,10 +3831,10 @@
         <v>29</v>
       </c>
       <c r="O51">
-        <v>-15.0492</v>
+        <v>-13.9648</v>
       </c>
       <c r="P51">
-        <v>-2.00627</v>
+        <v>-1.86169</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -3902,10 +3881,10 @@
         <v>29</v>
       </c>
       <c r="O52">
-        <v>-16.0825</v>
+        <v>-14.5839</v>
       </c>
       <c r="P52">
-        <v>-2.14405</v>
+        <v>-1.94423</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -3952,10 +3931,10 @@
         <v>29</v>
       </c>
       <c r="O53">
-        <v>-17.0631</v>
+        <v>-15.0492</v>
       </c>
       <c r="P53">
-        <v>-2.27479</v>
+        <v>-2.00628</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -4002,10 +3981,10 @@
         <v>29</v>
       </c>
       <c r="O54">
-        <v>-18.1472</v>
+        <v>-15.6176</v>
       </c>
       <c r="P54">
-        <v>-2.41934</v>
+        <v>-2.08207</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -4052,10 +4031,10 @@
         <v>29</v>
       </c>
       <c r="O55">
-        <v>-19.4902</v>
+        <v>-16.1858</v>
       </c>
       <c r="P55">
-        <v>-2.59841</v>
+        <v>-2.15781</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -4102,10 +4081,10 @@
         <v>29</v>
       </c>
       <c r="O56">
-        <v>-20.7812</v>
+        <v>-16.8051</v>
       </c>
       <c r="P56">
-        <v>-2.77053</v>
+        <v>-2.24038</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -4152,10 +4131,10 @@
         <v>29</v>
       </c>
       <c r="O57">
-        <v>-20.6263</v>
+        <v>-17.0114</v>
       </c>
       <c r="P57">
-        <v>-2.74987</v>
+        <v>-2.2679</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -4202,10 +4181,10 @@
         <v>29</v>
       </c>
       <c r="O58">
-        <v>-21.9689</v>
+        <v>-17.6312</v>
       </c>
       <c r="P58">
-        <v>-2.92889</v>
+        <v>-2.35054</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -4252,10 +4231,10 @@
         <v>29</v>
       </c>
       <c r="O59">
-        <v>-23.2598</v>
+        <v>-18.1993</v>
       </c>
       <c r="P59">
-        <v>-3.10102</v>
+        <v>-2.4263</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -4302,10 +4281,10 @@
         <v>29</v>
       </c>
       <c r="O60">
-        <v>-24.5507</v>
+        <v>-18.8706</v>
       </c>
       <c r="P60">
-        <v>-3.27314</v>
+        <v>-2.51578</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -4352,10 +4331,10 @@
         <v>29</v>
       </c>
       <c r="O61">
-        <v>-25.5322</v>
+        <v>-19.4901</v>
       </c>
       <c r="P61">
-        <v>-3.40401</v>
+        <v>-2.59838</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -4402,10 +4381,10 @@
         <v>29</v>
       </c>
       <c r="O62">
-        <v>-26.9266</v>
+        <v>-20.213</v>
       </c>
       <c r="P62">
-        <v>-3.58993</v>
+        <v>-2.69479</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -4452,10 +4431,10 @@
         <v>29</v>
       </c>
       <c r="O63">
-        <v>-28.2171</v>
+        <v>-20.7812</v>
       </c>
       <c r="P63">
-        <v>-3.762</v>
+        <v>-2.77052</v>
       </c>
     </row>
     <row r="64" spans="1:16">
@@ -4502,10 +4481,10 @@
         <v>29</v>
       </c>
       <c r="O64">
-        <v>-29.5086</v>
+        <v>-21.4518</v>
       </c>
       <c r="P64">
-        <v>-3.9342</v>
+        <v>-2.8532</v>
       </c>
     </row>
     <row r="65" spans="1:16">
@@ -4551,11 +4530,11 @@
       <c r="N65" t="s">
         <v>163</v>
       </c>
-      <c r="O65" s="2">
-        <v>39.6475</v>
+      <c r="O65">
+        <v>30.2347</v>
       </c>
       <c r="P65">
-        <v>4.80595</v>
+        <v>3.66501</v>
       </c>
     </row>
     <row r="66" spans="1:16">
@@ -4601,11 +4580,11 @@
       <c r="N66" t="s">
         <v>163</v>
       </c>
-      <c r="O66" s="2">
-        <v>38.0947</v>
+      <c r="O66">
+        <v>29.3335</v>
       </c>
       <c r="P66">
-        <v>4.61772</v>
+        <v>3.55578</v>
       </c>
     </row>
     <row r="67" spans="1:16">
@@ -4651,11 +4630,11 @@
       <c r="N67" t="s">
         <v>163</v>
       </c>
-      <c r="O67" s="2">
-        <v>36.6428</v>
+      <c r="O67">
+        <v>28.4825</v>
       </c>
       <c r="P67">
-        <v>4.44175</v>
+        <v>3.45261</v>
       </c>
     </row>
     <row r="68" spans="1:16">
@@ -4701,11 +4680,11 @@
       <c r="N68" t="s">
         <v>163</v>
       </c>
-      <c r="O68" s="2">
-        <v>35.0412</v>
+      <c r="O68">
+        <v>27.584</v>
       </c>
       <c r="P68">
-        <v>4.25362</v>
+        <v>3.3437</v>
       </c>
     </row>
     <row r="69" spans="1:16">
@@ -4752,10 +4731,10 @@
         <v>163</v>
       </c>
       <c r="O69">
-        <v>33.8892</v>
+        <v>26.8805</v>
       </c>
       <c r="P69">
-        <v>4.10797</v>
+        <v>3.25843</v>
       </c>
     </row>
     <row r="70" spans="1:16">
@@ -4802,10 +4781,10 @@
         <v>163</v>
       </c>
       <c r="O70">
-        <v>32.2092</v>
+        <v>25.9795</v>
       </c>
       <c r="P70">
-        <v>3.90436</v>
+        <v>3.14921</v>
       </c>
     </row>
     <row r="71" spans="1:16">
@@ -4852,10 +4831,10 @@
         <v>163</v>
       </c>
       <c r="O71">
-        <v>30.6352</v>
+        <v>25.1281</v>
       </c>
       <c r="P71">
-        <v>3.71355</v>
+        <v>3.04602</v>
       </c>
     </row>
     <row r="72" spans="1:16">
@@ -4902,10 +4881,10 @@
         <v>163</v>
       </c>
       <c r="O72">
-        <v>28.884</v>
+        <v>24.2769</v>
       </c>
       <c r="P72">
-        <v>3.50127</v>
+        <v>2.94283</v>
       </c>
     </row>
     <row r="73" spans="1:16">
@@ -4952,10 +4931,10 @@
         <v>163</v>
       </c>
       <c r="O73">
-        <v>29.4057</v>
+        <v>23.9263</v>
       </c>
       <c r="P73">
-        <v>3.56452</v>
+        <v>2.90035</v>
       </c>
     </row>
     <row r="74" spans="1:16">
@@ -5002,10 +4981,10 @@
         <v>163</v>
       </c>
       <c r="O74">
-        <v>27.6851</v>
+        <v>22.9967</v>
       </c>
       <c r="P74">
-        <v>3.35595</v>
+        <v>2.78766</v>
       </c>
     </row>
     <row r="75" spans="1:16">
@@ -5052,10 +5031,10 @@
         <v>163</v>
       </c>
       <c r="O75">
-        <v>26.0795</v>
+        <v>22.1741</v>
       </c>
       <c r="P75">
-        <v>3.16134</v>
+        <v>2.68795</v>
       </c>
     </row>
     <row r="76" spans="1:16">
@@ -5102,10 +5081,10 @@
         <v>163</v>
       </c>
       <c r="O76">
-        <v>24.3269</v>
+        <v>21.3227</v>
       </c>
       <c r="P76">
-        <v>2.94891</v>
+        <v>2.58476</v>
       </c>
     </row>
     <row r="77" spans="1:16">
@@ -5152,10 +5131,10 @@
         <v>163</v>
       </c>
       <c r="O77">
-        <v>23.0251</v>
+        <v>20.5717</v>
       </c>
       <c r="P77">
-        <v>2.79111</v>
+        <v>2.49373</v>
       </c>
     </row>
     <row r="78" spans="1:16">
@@ -5202,10 +5181,10 @@
         <v>163</v>
       </c>
       <c r="O78">
-        <v>21.3226</v>
+        <v>19.7203</v>
       </c>
       <c r="P78">
-        <v>2.58474</v>
+        <v>2.39054</v>
       </c>
     </row>
     <row r="79" spans="1:16">
@@ -5252,10 +5231,10 @@
         <v>163</v>
       </c>
       <c r="O79">
-        <v>19.7202</v>
+        <v>18.9192</v>
       </c>
       <c r="P79">
-        <v>2.39052</v>
+        <v>2.29343</v>
       </c>
     </row>
     <row r="80" spans="1:16">
@@ -5352,7 +5331,7 @@
         <v>163</v>
       </c>
       <c r="O81">
-        <v>18.0182</v>
+        <v>18.0183</v>
       </c>
       <c r="P81">
         <v>2.19022</v>
@@ -5402,10 +5381,10 @@
         <v>163</v>
       </c>
       <c r="O82">
-        <v>16.666</v>
+        <v>16.6668</v>
       </c>
       <c r="P82">
-        <v>2.02031</v>
+        <v>2.02041</v>
       </c>
     </row>
     <row r="83" spans="1:16">
@@ -5605,7 +5584,7 @@
         <v>11.5086</v>
       </c>
       <c r="P86">
-        <v>1.39517</v>
+        <v>1.39518</v>
       </c>
     </row>
     <row r="87" spans="1:16">
@@ -5652,10 +5631,10 @@
         <v>163</v>
       </c>
       <c r="O87">
-        <v>10.1566</v>
+        <v>10.1568</v>
       </c>
       <c r="P87">
-        <v>1.23129</v>
+        <v>1.23131</v>
       </c>
     </row>
     <row r="88" spans="1:16">
@@ -5752,10 +5731,10 @@
         <v>163</v>
       </c>
       <c r="O89">
-        <v>7.85341</v>
+        <v>7.8564</v>
       </c>
       <c r="P89">
-        <v>0.952114</v>
+        <v>0.958152</v>
       </c>
     </row>
     <row r="90" spans="1:16">
@@ -6102,10 +6081,10 @@
         <v>163</v>
       </c>
       <c r="O96">
-        <v>0.0462314</v>
+        <v>0.0463091</v>
       </c>
       <c r="P96">
-        <v>0.0057856</v>
+        <v>0.00579797</v>
       </c>
     </row>
     <row r="97" spans="1:16">
@@ -6352,10 +6331,10 @@
         <v>163</v>
       </c>
       <c r="O101">
-        <v>-5.56042</v>
+        <v>-5.5607</v>
       </c>
       <c r="P101">
-        <v>-0.673807</v>
+        <v>-0.673835</v>
       </c>
     </row>
     <row r="102" spans="1:16">
@@ -6652,10 +6631,10 @@
         <v>163</v>
       </c>
       <c r="O107">
-        <v>-12.7184</v>
+        <v>-12.7683</v>
       </c>
       <c r="P107">
-        <v>-1.54144</v>
+        <v>-1.54748</v>
       </c>
     </row>
     <row r="108" spans="1:16">
@@ -6752,10 +6731,10 @@
         <v>163</v>
       </c>
       <c r="O109">
-        <v>-15.421</v>
+        <v>-15.4705</v>
       </c>
       <c r="P109">
-        <v>-1.86903</v>
+        <v>-1.87502</v>
       </c>
     </row>
     <row r="110" spans="1:16">
@@ -6852,10 +6831,10 @@
         <v>163</v>
       </c>
       <c r="O111">
-        <v>-18.0237</v>
+        <v>-18.0239</v>
       </c>
       <c r="P111">
-        <v>-2.1845</v>
+        <v>-2.18452</v>
       </c>
     </row>
     <row r="112" spans="1:16">
@@ -6902,10 +6881,10 @@
         <v>163</v>
       </c>
       <c r="O112">
-        <v>-18.1237</v>
+        <v>-18.1236</v>
       </c>
       <c r="P112">
-        <v>-2.19662</v>
+        <v>-2.1906</v>
       </c>
     </row>
     <row r="113" spans="1:16">
@@ -6952,10 +6931,10 @@
         <v>163</v>
       </c>
       <c r="O113">
-        <v>-19.7259</v>
+        <v>-18.8747</v>
       </c>
       <c r="P113">
-        <v>-2.39084</v>
+        <v>-2.28766</v>
       </c>
     </row>
     <row r="114" spans="1:16">
@@ -7002,10 +6981,10 @@
         <v>163</v>
       </c>
       <c r="O114">
-        <v>-21.3774</v>
+        <v>-19.7758</v>
       </c>
       <c r="P114">
-        <v>-2.59101</v>
+        <v>-2.39689</v>
       </c>
     </row>
     <row r="115" spans="1:16">
@@ -7052,10 +7031,10 @@
         <v>163</v>
       </c>
       <c r="O115">
-        <v>-23.077</v>
+        <v>-20.6767</v>
       </c>
       <c r="P115">
-        <v>-2.79704</v>
+        <v>-2.50609</v>
       </c>
     </row>
     <row r="116" spans="1:16">
@@ -7102,10 +7081,10 @@
         <v>163</v>
       </c>
       <c r="O116">
-        <v>-24.3816</v>
+        <v>-21.3774</v>
       </c>
       <c r="P116">
-        <v>-2.95515</v>
+        <v>-2.59102</v>
       </c>
     </row>
     <row r="117" spans="1:16">
@@ -7152,10 +7131,10 @@
         <v>163</v>
       </c>
       <c r="O117">
-        <v>-26.0824</v>
+        <v>-22.2286</v>
       </c>
       <c r="P117">
-        <v>-3.16132</v>
+        <v>-2.69419</v>
       </c>
     </row>
     <row r="118" spans="1:16">
@@ -7202,10 +7181,10 @@
         <v>163</v>
       </c>
       <c r="O118">
-        <v>-27.8334</v>
+        <v>-23.08</v>
       </c>
       <c r="P118">
-        <v>-3.37356</v>
+        <v>-2.79739</v>
       </c>
     </row>
     <row r="119" spans="1:16">
@@ -7252,10 +7231,10 @@
         <v>163</v>
       </c>
       <c r="O119">
-        <v>-29.5845</v>
+        <v>-24.0272</v>
       </c>
       <c r="P119">
-        <v>-3.58581</v>
+        <v>-2.9122</v>
       </c>
     </row>
     <row r="120" spans="1:16">
@@ -7302,10 +7281,10 @@
         <v>163</v>
       </c>
       <c r="O120">
-        <v>-29.1844</v>
+        <v>-24.3815</v>
       </c>
       <c r="P120">
-        <v>-3.53731</v>
+        <v>-2.95515</v>
       </c>
     </row>
     <row r="121" spans="1:16">
@@ -7352,10 +7331,10 @@
         <v>163</v>
       </c>
       <c r="O121">
-        <v>-30.9828</v>
+        <v>-25.232</v>
       </c>
       <c r="P121">
-        <v>-3.74348</v>
+        <v>-3.05824</v>
       </c>
     </row>
     <row r="122" spans="1:16">
@@ -7402,10 +7381,10 @@
         <v>163</v>
       </c>
       <c r="O122">
-        <v>-32.5365</v>
+        <v>-26.0825</v>
       </c>
       <c r="P122">
-        <v>-3.94363</v>
+        <v>-3.16133</v>
       </c>
     </row>
     <row r="123" spans="1:16">
@@ -7452,10 +7431,10 @@
         <v>163</v>
       </c>
       <c r="O123">
-        <v>-34.2369</v>
+        <v>-26.9829</v>
       </c>
       <c r="P123">
-        <v>-4.14974</v>
+        <v>-3.27047</v>
       </c>
     </row>
     <row r="124" spans="1:16">
@@ -7501,11 +7480,11 @@
       <c r="N124" t="s">
         <v>163</v>
       </c>
-      <c r="O124" s="3">
-        <v>-35.5882</v>
+      <c r="O124">
+        <v>-27.7833</v>
       </c>
       <c r="P124">
-        <v>-4.31354</v>
+        <v>-3.36749</v>
       </c>
     </row>
     <row r="125" spans="1:16">
@@ -7551,11 +7530,11 @@
       <c r="N125" t="s">
         <v>163</v>
       </c>
-      <c r="O125" s="3">
-        <v>-37.1893</v>
+      <c r="O125">
+        <v>-28.6839</v>
       </c>
       <c r="P125">
-        <v>-4.50761</v>
+        <v>-3.47666</v>
       </c>
     </row>
     <row r="126" spans="1:16">
@@ -7601,11 +7580,11 @@
       <c r="N126" t="s">
         <v>163</v>
       </c>
-      <c r="O126" s="3">
-        <v>-38.69</v>
+      <c r="O126">
+        <v>-29.5837</v>
       </c>
       <c r="P126">
-        <v>-4.68951</v>
+        <v>-3.58571</v>
       </c>
     </row>
     <row r="127" spans="1:16">
@@ -7651,11 +7630,11 @@
       <c r="N127" t="s">
         <v>163</v>
       </c>
-      <c r="O127" s="3">
-        <v>-40.2697</v>
+      <c r="O127">
+        <v>-30.4348</v>
       </c>
       <c r="P127">
-        <v>-4.88097</v>
+        <v>-3.68888</v>
       </c>
     </row>
     <row r="128" spans="1:16">
@@ -7702,10 +7681,10 @@
         <v>236</v>
       </c>
       <c r="O128">
-        <v>21.711</v>
+        <v>17.362</v>
       </c>
       <c r="P128">
-        <v>3.21701</v>
+        <v>2.57276</v>
       </c>
     </row>
     <row r="129" spans="1:16">
@@ -7752,10 +7731,10 @@
         <v>236</v>
       </c>
       <c r="O129">
-        <v>21.0891</v>
+        <v>16.9484</v>
       </c>
       <c r="P129">
-        <v>3.12485</v>
+        <v>2.5115</v>
       </c>
     </row>
     <row r="130" spans="1:16">
@@ -7802,10 +7781,10 @@
         <v>236</v>
       </c>
       <c r="O130">
-        <v>20.307</v>
+        <v>16.587</v>
       </c>
       <c r="P130">
-        <v>3.00905</v>
+        <v>2.45797</v>
       </c>
     </row>
     <row r="131" spans="1:16">
@@ -7852,10 +7831,10 @@
         <v>236</v>
       </c>
       <c r="O131">
-        <v>19.377</v>
+        <v>16.0706</v>
       </c>
       <c r="P131">
-        <v>2.87127</v>
+        <v>2.38146</v>
       </c>
     </row>
     <row r="132" spans="1:16">
@@ -7902,10 +7881,10 @@
         <v>236</v>
       </c>
       <c r="O132">
-        <v>18.8601</v>
+        <v>15.7091</v>
       </c>
       <c r="P132">
-        <v>2.79471</v>
+        <v>2.32793</v>
       </c>
     </row>
     <row r="133" spans="1:16">
@@ -7952,10 +7931,10 @@
         <v>236</v>
       </c>
       <c r="O133">
-        <v>18.1881</v>
+        <v>15.3468</v>
       </c>
       <c r="P133">
-        <v>2.69515</v>
+        <v>2.27406</v>
       </c>
     </row>
     <row r="134" spans="1:16">
@@ -8002,10 +7981,10 @@
         <v>236</v>
       </c>
       <c r="O134">
-        <v>17.4203</v>
+        <v>14.8822</v>
       </c>
       <c r="P134">
-        <v>2.58133</v>
+        <v>2.20538</v>
       </c>
     </row>
     <row r="135" spans="1:16">
@@ -8052,10 +8031,10 @@
         <v>236</v>
       </c>
       <c r="O135">
-        <v>16.6906</v>
+        <v>14.5723</v>
       </c>
       <c r="P135">
-        <v>2.4733</v>
+        <v>2.1595</v>
       </c>
     </row>
     <row r="136" spans="1:16">
@@ -8102,10 +8081,10 @@
         <v>236</v>
       </c>
       <c r="O136">
-        <v>16.6393</v>
+        <v>14.4245</v>
       </c>
       <c r="P136">
-        <v>2.4657</v>
+        <v>2.13752</v>
       </c>
     </row>
     <row r="137" spans="1:16">
@@ -8152,10 +8131,10 @@
         <v>236</v>
       </c>
       <c r="O137">
-        <v>15.9669</v>
+        <v>14.0037</v>
       </c>
       <c r="P137">
-        <v>2.3661</v>
+        <v>2.07523</v>
       </c>
     </row>
     <row r="138" spans="1:16">
@@ -8202,10 +8181,10 @@
         <v>236</v>
       </c>
       <c r="O138">
-        <v>15.1409</v>
+        <v>13.5536</v>
       </c>
       <c r="P138">
-        <v>2.24374</v>
+        <v>2.00856</v>
       </c>
     </row>
     <row r="139" spans="1:16">
@@ -8252,10 +8231,10 @@
         <v>236</v>
       </c>
       <c r="O139">
-        <v>14.3655</v>
+        <v>13.1775</v>
       </c>
       <c r="P139">
-        <v>2.12885</v>
+        <v>1.95287</v>
       </c>
     </row>
     <row r="140" spans="1:16">
@@ -8302,10 +8281,10 @@
         <v>236</v>
       </c>
       <c r="O140">
-        <v>13.7983</v>
+        <v>12.7645</v>
       </c>
       <c r="P140">
-        <v>2.05229</v>
+        <v>1.89169</v>
       </c>
     </row>
     <row r="141" spans="1:16">
@@ -8352,10 +8331,10 @@
         <v>236</v>
       </c>
       <c r="O141">
-        <v>13.0742</v>
+        <v>12.3518</v>
       </c>
       <c r="P141">
-        <v>1.93756</v>
+        <v>1.83052</v>
       </c>
     </row>
     <row r="142" spans="1:16">
@@ -8402,10 +8381,10 @@
         <v>236</v>
       </c>
       <c r="O142">
-        <v>12.3518</v>
+        <v>11.9389</v>
       </c>
       <c r="P142">
-        <v>1.83051</v>
+        <v>1.76934</v>
       </c>
     </row>
     <row r="143" spans="1:16">
@@ -8452,10 +8431,10 @@
         <v>236</v>
       </c>
       <c r="O143">
-        <v>11.481</v>
+        <v>11.4812</v>
       </c>
       <c r="P143">
-        <v>1.70145</v>
+        <v>1.70149</v>
       </c>
     </row>
     <row r="144" spans="1:16">
@@ -8502,10 +8481,10 @@
         <v>236</v>
       </c>
       <c r="O144">
-        <v>11.5256</v>
+        <v>11.5245</v>
       </c>
       <c r="P144">
-        <v>1.70812</v>
+        <v>1.70798</v>
       </c>
     </row>
     <row r="145" spans="1:16">
@@ -8552,10 +8531,10 @@
         <v>236</v>
       </c>
       <c r="O145">
-        <v>10.6458</v>
+        <v>10.6464</v>
       </c>
       <c r="P145">
-        <v>1.57778</v>
+        <v>1.5779</v>
       </c>
     </row>
     <row r="146" spans="1:16">
@@ -8602,10 +8581,10 @@
         <v>236</v>
       </c>
       <c r="O146">
-        <v>9.9223</v>
+        <v>9.922359999999999</v>
       </c>
       <c r="P146">
-        <v>1.47062</v>
+        <v>1.47061</v>
       </c>
     </row>
     <row r="147" spans="1:16">
@@ -8652,7 +8631,7 @@
         <v>236</v>
       </c>
       <c r="O147">
-        <v>9.00215</v>
+        <v>9.002140000000001</v>
       </c>
       <c r="P147">
         <v>1.33429</v>
@@ -8752,10 +8731,10 @@
         <v>236</v>
       </c>
       <c r="O149">
-        <v>7.49188</v>
+        <v>7.44077</v>
       </c>
       <c r="P149">
-        <v>1.11055</v>
+        <v>1.10296</v>
       </c>
     </row>
     <row r="150" spans="1:16">
@@ -8805,7 +8784,7 @@
         <v>6.56184</v>
       </c>
       <c r="P150">
-        <v>0.972753</v>
+        <v>0.972752</v>
       </c>
     </row>
     <row r="151" spans="1:16">
@@ -8855,7 +8834,7 @@
         <v>5.68398</v>
       </c>
       <c r="P151">
-        <v>0.842707</v>
+        <v>0.842708</v>
       </c>
     </row>
     <row r="152" spans="1:16">
@@ -9155,7 +9134,7 @@
         <v>1.56006</v>
       </c>
       <c r="P157">
-        <v>0.231683</v>
+        <v>0.231682</v>
       </c>
     </row>
     <row r="158" spans="1:16">
@@ -9355,7 +9334,7 @@
         <v>-1.33947</v>
       </c>
       <c r="P161">
-        <v>-0.197889</v>
+        <v>-0.197886</v>
       </c>
     </row>
     <row r="162" spans="1:16">
@@ -9452,10 +9431,10 @@
         <v>236</v>
       </c>
       <c r="O163">
-        <v>-2.73946</v>
+        <v>-2.79174</v>
       </c>
       <c r="P163">
-        <v>-0.405228</v>
+        <v>-0.412989</v>
       </c>
     </row>
     <row r="164" spans="1:16">
@@ -9502,10 +9481,10 @@
         <v>236</v>
       </c>
       <c r="O164">
-        <v>-3.46373</v>
+        <v>-3.46313</v>
       </c>
       <c r="P164">
-        <v>-0.512529</v>
+        <v>-0.504922</v>
       </c>
     </row>
     <row r="165" spans="1:16">
@@ -9552,10 +9531,10 @@
         <v>236</v>
       </c>
       <c r="O165">
-        <v>-4.18777</v>
+        <v>-4.18781</v>
       </c>
       <c r="P165">
-        <v>-0.619824</v>
+        <v>-0.619819</v>
       </c>
     </row>
     <row r="166" spans="1:16">
@@ -9602,10 +9581,10 @@
         <v>236</v>
       </c>
       <c r="O166">
-        <v>-4.96311</v>
+        <v>-4.96317</v>
       </c>
       <c r="P166">
-        <v>-0.734672</v>
+        <v>-0.734669</v>
       </c>
     </row>
     <row r="167" spans="1:16">
@@ -9652,10 +9631,10 @@
         <v>236</v>
       </c>
       <c r="O167">
-        <v>-5.58279</v>
+        <v>-5.47971</v>
       </c>
       <c r="P167">
-        <v>-0.826452</v>
+        <v>-0.811174</v>
       </c>
     </row>
     <row r="168" spans="1:16">
@@ -9702,10 +9681,10 @@
         <v>236</v>
       </c>
       <c r="O168">
-        <v>-6.30601</v>
+        <v>-6.35677</v>
       </c>
       <c r="P168">
-        <v>-0.933603</v>
+        <v>-0.941126</v>
       </c>
     </row>
     <row r="169" spans="1:16">
@@ -9752,10 +9731,10 @@
         <v>236</v>
       </c>
       <c r="O169">
-        <v>-7.08127</v>
+        <v>-7.0814</v>
       </c>
       <c r="P169">
-        <v>-1.04844</v>
+        <v>-1.04847</v>
       </c>
     </row>
     <row r="170" spans="1:16">
@@ -9802,10 +9781,10 @@
         <v>236</v>
       </c>
       <c r="O170">
-        <v>-7.80419</v>
+        <v>-7.75196</v>
       </c>
       <c r="P170">
-        <v>-1.15557</v>
+        <v>-1.14782</v>
       </c>
     </row>
     <row r="171" spans="1:16">
@@ -9852,10 +9831,10 @@
         <v>236</v>
       </c>
       <c r="O171">
-        <v>-8.37241</v>
+        <v>-8.47594</v>
       </c>
       <c r="P171">
-        <v>-1.23971</v>
+        <v>-1.25508</v>
       </c>
     </row>
     <row r="172" spans="1:16">
@@ -9902,10 +9881,10 @@
         <v>236</v>
       </c>
       <c r="O172">
-        <v>-9.139709999999999</v>
+        <v>-9.13955</v>
       </c>
       <c r="P172">
-        <v>-1.35348</v>
+        <v>-1.35344</v>
       </c>
     </row>
     <row r="173" spans="1:16">
@@ -9952,10 +9931,10 @@
         <v>236</v>
       </c>
       <c r="O173">
-        <v>-9.87045</v>
+        <v>-9.871370000000001</v>
       </c>
       <c r="P173">
-        <v>-1.46164</v>
+        <v>-1.46179</v>
       </c>
     </row>
     <row r="174" spans="1:16">
@@ -10002,10 +9981,10 @@
         <v>236</v>
       </c>
       <c r="O174">
-        <v>-10.5423</v>
+        <v>-10.4869</v>
       </c>
       <c r="P174">
-        <v>-1.5612</v>
+        <v>-1.54595</v>
       </c>
     </row>
     <row r="175" spans="1:16">
@@ -10052,10 +10031,10 @@
         <v>236</v>
       </c>
       <c r="O175">
-        <v>-10.5424</v>
+        <v>-10.5938</v>
       </c>
       <c r="P175">
-        <v>-1.56122</v>
+        <v>-1.56883</v>
       </c>
     </row>
     <row r="176" spans="1:16">
@@ -10102,10 +10081,10 @@
         <v>236</v>
       </c>
       <c r="O176">
-        <v>-11.2664</v>
+        <v>-10.9555</v>
       </c>
       <c r="P176">
-        <v>-1.66844</v>
+        <v>-1.62238</v>
       </c>
     </row>
     <row r="177" spans="1:16">
@@ -10152,10 +10131,10 @@
         <v>236</v>
       </c>
       <c r="O177">
-        <v>-11.8857</v>
+        <v>-11.369</v>
       </c>
       <c r="P177">
-        <v>-1.76025</v>
+        <v>-1.68368</v>
       </c>
     </row>
     <row r="178" spans="1:16">
@@ -10202,10 +10181,10 @@
         <v>236</v>
       </c>
       <c r="O178">
-        <v>-12.7653</v>
+        <v>-11.6797</v>
       </c>
       <c r="P178">
-        <v>-1.89054</v>
+        <v>-1.72972</v>
       </c>
     </row>
     <row r="179" spans="1:16">
@@ -10252,10 +10231,10 @@
         <v>236</v>
       </c>
       <c r="O179">
-        <v>-13.334</v>
+        <v>-11.99</v>
       </c>
       <c r="P179">
-        <v>-1.97483</v>
+        <v>-1.77569</v>
       </c>
     </row>
     <row r="180" spans="1:16">
@@ -10302,10 +10281,10 @@
         <v>236</v>
       </c>
       <c r="O180">
-        <v>-14.0062</v>
+        <v>-12.4555</v>
       </c>
       <c r="P180">
-        <v>-2.07436</v>
+        <v>-1.84464</v>
       </c>
     </row>
     <row r="181" spans="1:16">
@@ -10352,10 +10331,10 @@
         <v>236</v>
       </c>
       <c r="O181">
-        <v>-14.7816</v>
+        <v>-12.8174</v>
       </c>
       <c r="P181">
-        <v>-2.18921</v>
+        <v>-1.89824</v>
       </c>
     </row>
     <row r="182" spans="1:16">
@@ -10402,10 +10381,10 @@
         <v>236</v>
       </c>
       <c r="O182">
-        <v>-15.6603</v>
+        <v>-13.1793</v>
       </c>
       <c r="P182">
-        <v>-2.3194</v>
+        <v>-1.95184</v>
       </c>
     </row>
     <row r="183" spans="1:16">
@@ -10452,10 +10431,10 @@
         <v>236</v>
       </c>
       <c r="O183">
-        <v>-15.7635</v>
+        <v>-13.4892</v>
       </c>
       <c r="P183">
-        <v>-2.33473</v>
+        <v>-1.99777</v>
       </c>
     </row>
     <row r="184" spans="1:16">
@@ -10502,10 +10481,10 @@
         <v>236</v>
       </c>
       <c r="O184">
-        <v>-16.6416</v>
+        <v>-13.9024</v>
       </c>
       <c r="P184">
-        <v>-2.46481</v>
+        <v>-2.059</v>
       </c>
     </row>
     <row r="185" spans="1:16">
@@ -10552,10 +10531,10 @@
         <v>236</v>
       </c>
       <c r="O185">
-        <v>-17.4172</v>
+        <v>-14.3165</v>
       </c>
       <c r="P185">
-        <v>-2.57969</v>
+        <v>-2.12032</v>
       </c>
     </row>
     <row r="186" spans="1:16">
@@ -10602,10 +10581,10 @@
         <v>236</v>
       </c>
       <c r="O186">
-        <v>-18.1934</v>
+        <v>-14.7292</v>
       </c>
       <c r="P186">
-        <v>-2.69471</v>
+        <v>-2.1815</v>
       </c>
     </row>
     <row r="187" spans="1:16">
@@ -10652,10 +10631,10 @@
         <v>236</v>
       </c>
       <c r="O187">
-        <v>-18.8483</v>
+        <v>-15.1434</v>
       </c>
       <c r="P187">
-        <v>-2.79174</v>
+        <v>-2.24288</v>
       </c>
     </row>
     <row r="188" spans="1:16">
@@ -10702,10 +10681,10 @@
         <v>236</v>
       </c>
       <c r="O188">
-        <v>-19.8464</v>
+        <v>-15.6077</v>
       </c>
       <c r="P188">
-        <v>-2.93959</v>
+        <v>-2.31166</v>
       </c>
     </row>
     <row r="189" spans="1:16">
@@ -10752,10 +10731,10 @@
         <v>236</v>
       </c>
       <c r="O189">
-        <v>-20.777</v>
+        <v>-15.9184</v>
       </c>
       <c r="P189">
-        <v>-3.07743</v>
+        <v>-2.35768</v>
       </c>
     </row>
     <row r="190" spans="1:16">
@@ -10802,10 +10781,10 @@
         <v>236</v>
       </c>
       <c r="O190">
-        <v>-21.7074</v>
+        <v>-16.4356</v>
       </c>
       <c r="P190">
-        <v>-3.21531</v>
+        <v>-2.43429</v>
       </c>
     </row>
     <row r="191" spans="1:16" s="1" customFormat="1">
@@ -10862,22 +10841,22 @@
       <c r="N192" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="O192" s="3">
-        <v>-40.2697</v>
+      <c r="O192" s="1">
+        <v>-30.4348</v>
       </c>
       <c r="P192" s="1">
-        <v>-4.88097</v>
+        <v>-3.68888</v>
       </c>
     </row>
     <row r="193" spans="14:16" s="1" customFormat="1">
       <c r="N193" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="O193" s="2">
-        <v>39.6475</v>
+      <c r="O193" s="1">
+        <v>30.2347</v>
       </c>
       <c r="P193" s="1">
-        <v>4.80595</v>
+        <v>3.66501</v>
       </c>
     </row>
     <row r="194" spans="14:16" s="1" customFormat="1">
@@ -10917,10 +10896,10 @@
         <v>305</v>
       </c>
       <c r="O198" s="1">
-        <v>0.1048753</v>
+        <v>0.1345863</v>
       </c>
       <c r="P198" s="1">
-        <v>0.01631048</v>
+        <v>0.02043696</v>
       </c>
     </row>
     <row r="199" spans="14:16" s="1" customFormat="1">
@@ -10928,10 +10907,10 @@
         <v>306</v>
       </c>
       <c r="O199" s="1">
-        <v>17.642291</v>
+        <v>14.831036</v>
       </c>
       <c r="P199" s="1">
-        <v>2.287791</v>
+        <v>1.926443</v>
       </c>
     </row>
     <row r="200" spans="14:16" s="1" customFormat="1">
@@ -10939,10 +10918,10 @@
         <v>307</v>
       </c>
       <c r="O200" s="1">
-        <v>16822.160223</v>
+        <v>11019.721918</v>
       </c>
       <c r="P200" s="1">
-        <v>14026.509336</v>
+        <v>9426.269856000001</v>
       </c>
     </row>
     <row r="201" spans="14:16" s="1" customFormat="1"/>

--- a/dcd_top_offset_step_tsmc2p_meas.xlsx
+++ b/dcd_top_offset_step_tsmc2p_meas.xlsx
@@ -1381,10 +1381,10 @@
         <v>29</v>
       </c>
       <c r="O2">
-        <v>21.7713</v>
+        <v>24.7148</v>
       </c>
       <c r="P2">
-        <v>2.90313</v>
+        <v>3.2956</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1431,10 +1431,10 @@
         <v>29</v>
       </c>
       <c r="O3">
-        <v>21.1001</v>
+        <v>23.8369</v>
       </c>
       <c r="P3">
-        <v>2.81364</v>
+        <v>3.17853</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1481,10 +1481,10 @@
         <v>29</v>
       </c>
       <c r="O4">
-        <v>20.4285</v>
+        <v>22.9591</v>
       </c>
       <c r="P4">
-        <v>2.72409</v>
+        <v>3.0615</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1531,10 +1531,10 @@
         <v>29</v>
       </c>
       <c r="O5">
-        <v>19.7573</v>
+        <v>22.0295</v>
       </c>
       <c r="P5">
-        <v>2.63461</v>
+        <v>2.93756</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1581,10 +1581,10 @@
         <v>29</v>
       </c>
       <c r="O6">
-        <v>19.1891</v>
+        <v>21.3066</v>
       </c>
       <c r="P6">
-        <v>2.55885</v>
+        <v>2.84118</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1631,10 +1631,10 @@
         <v>29</v>
       </c>
       <c r="O7">
-        <v>18.57</v>
+        <v>20.3771</v>
       </c>
       <c r="P7">
-        <v>2.47629</v>
+        <v>2.71723</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1681,10 +1681,10 @@
         <v>29</v>
       </c>
       <c r="O8">
-        <v>17.8992</v>
+        <v>19.4991</v>
       </c>
       <c r="P8">
-        <v>2.38685</v>
+        <v>2.60017</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1731,10 +1731,10 @@
         <v>29</v>
       </c>
       <c r="O9">
-        <v>17.2269</v>
+        <v>18.6218</v>
       </c>
       <c r="P9">
-        <v>2.29721</v>
+        <v>2.48319</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1781,10 +1781,10 @@
         <v>29</v>
       </c>
       <c r="O10">
-        <v>16.9688</v>
+        <v>18.363</v>
       </c>
       <c r="P10">
-        <v>2.2628</v>
+        <v>2.4487</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1831,10 +1831,10 @@
         <v>29</v>
       </c>
       <c r="O11">
-        <v>16.2461</v>
+        <v>17.5372</v>
       </c>
       <c r="P11">
-        <v>2.16644</v>
+        <v>2.33859</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1881,10 +1881,10 @@
         <v>29</v>
       </c>
       <c r="O12">
-        <v>15.6778</v>
+        <v>16.6589</v>
       </c>
       <c r="P12">
-        <v>2.09067</v>
+        <v>2.22148</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1931,10 +1931,10 @@
         <v>29</v>
       </c>
       <c r="O13">
-        <v>15.0578</v>
+        <v>15.7811</v>
       </c>
       <c r="P13">
-        <v>2.008</v>
+        <v>2.10442</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1981,10 +1981,10 @@
         <v>29</v>
       </c>
       <c r="O14">
-        <v>14.5932</v>
+        <v>15.1612</v>
       </c>
       <c r="P14">
-        <v>1.94606</v>
+        <v>2.02179</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -2031,10 +2031,10 @@
         <v>29</v>
       </c>
       <c r="O15">
-        <v>14.0251</v>
+        <v>14.3867</v>
       </c>
       <c r="P15">
-        <v>1.8703</v>
+        <v>1.91852</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -2081,10 +2081,10 @@
         <v>29</v>
       </c>
       <c r="O16">
-        <v>13.4576</v>
+        <v>13.612</v>
       </c>
       <c r="P16">
-        <v>1.79464</v>
+        <v>1.81523</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -2131,10 +2131,10 @@
         <v>29</v>
       </c>
       <c r="O17">
-        <v>12.889</v>
+        <v>12.8892</v>
       </c>
       <c r="P17">
-        <v>1.71882</v>
+        <v>1.71885</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -2181,10 +2181,10 @@
         <v>29</v>
       </c>
       <c r="O18">
-        <v>12.8889</v>
+        <v>12.8378</v>
       </c>
       <c r="P18">
-        <v>1.7188</v>
+        <v>1.712</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -2481,7 +2481,7 @@
         <v>29</v>
       </c>
       <c r="O24">
-        <v>7.87922</v>
+        <v>7.879219999999999</v>
       </c>
       <c r="P24">
         <v>1.05085</v>
@@ -2581,7 +2581,7 @@
         <v>29</v>
       </c>
       <c r="O26">
-        <v>6.27815</v>
+        <v>6.278149999999999</v>
       </c>
       <c r="P26">
         <v>0.837382</v>
@@ -3131,10 +3131,10 @@
         <v>29</v>
       </c>
       <c r="O37">
-        <v>-3.48216</v>
+        <v>-3.48181</v>
       </c>
       <c r="P37">
-        <v>-0.464011</v>
+        <v>-0.463965</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -3231,10 +3231,10 @@
         <v>29</v>
       </c>
       <c r="O39">
-        <v>-5.28935</v>
+        <v>-5.237130000000001</v>
       </c>
       <c r="P39">
-        <v>-0.7049569999999999</v>
+        <v>-0.697983</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -3281,10 +3281,10 @@
         <v>29</v>
       </c>
       <c r="O40">
-        <v>-6.1665</v>
+        <v>-6.167019999999999</v>
       </c>
       <c r="P40">
-        <v>-0.821917</v>
+        <v>-0.821975</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -3331,10 +3331,10 @@
         <v>29</v>
       </c>
       <c r="O41">
-        <v>-6.94124</v>
+        <v>-6.941479999999999</v>
       </c>
       <c r="P41">
-        <v>-0.9252050000000001</v>
+        <v>-0.925237</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -3381,10 +3381,10 @@
         <v>29</v>
       </c>
       <c r="O42">
-        <v>-7.87083</v>
+        <v>-7.8184</v>
       </c>
       <c r="P42">
-        <v>-1.04915</v>
+        <v>-1.04216</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -3431,10 +3431,10 @@
         <v>29</v>
       </c>
       <c r="O43">
-        <v>-8.59366</v>
+        <v>-8.644970000000001</v>
       </c>
       <c r="P43">
-        <v>-1.14553</v>
+        <v>-1.15237</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -3534,7 +3534,7 @@
         <v>-10.2938</v>
       </c>
       <c r="P45">
-        <v>-1.37222</v>
+        <v>-1.37224</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -3581,10 +3581,10 @@
         <v>29</v>
       </c>
       <c r="O46">
-        <v>-11.2268</v>
+        <v>-11.1754</v>
       </c>
       <c r="P46">
-        <v>-1.49662</v>
+        <v>-1.48978</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -3631,10 +3631,10 @@
         <v>29</v>
       </c>
       <c r="O47">
-        <v>-12.0532</v>
+        <v>-12.0534</v>
       </c>
       <c r="P47">
-        <v>-1.6068</v>
+        <v>-1.60683</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -3731,10 +3731,10 @@
         <v>29</v>
       </c>
       <c r="O49">
-        <v>-12.8799</v>
+        <v>-12.8802</v>
       </c>
       <c r="P49">
-        <v>-1.71703</v>
+        <v>-1.71707</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -3781,10 +3781,10 @@
         <v>29</v>
       </c>
       <c r="O50">
-        <v>-13.499</v>
+        <v>-13.6033</v>
       </c>
       <c r="P50">
-        <v>-1.79957</v>
+        <v>-1.81349</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -3831,10 +3831,10 @@
         <v>29</v>
       </c>
       <c r="O51">
-        <v>-13.9648</v>
+        <v>-14.3776</v>
       </c>
       <c r="P51">
-        <v>-1.86169</v>
+        <v>-1.91672</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -3881,10 +3881,10 @@
         <v>29</v>
       </c>
       <c r="O52">
-        <v>-14.5839</v>
+        <v>-15.1527</v>
       </c>
       <c r="P52">
-        <v>-1.94423</v>
+        <v>-2.02007</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -3931,10 +3931,10 @@
         <v>29</v>
       </c>
       <c r="O53">
-        <v>-15.0492</v>
+        <v>-15.8237</v>
       </c>
       <c r="P53">
-        <v>-2.00628</v>
+        <v>-2.10953</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -3981,10 +3981,10 @@
         <v>29</v>
       </c>
       <c r="O54">
-        <v>-15.6176</v>
+        <v>-16.495</v>
       </c>
       <c r="P54">
-        <v>-2.08207</v>
+        <v>-2.19905</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -4031,10 +4031,10 @@
         <v>29</v>
       </c>
       <c r="O55">
-        <v>-16.1858</v>
+        <v>-17.2696</v>
       </c>
       <c r="P55">
-        <v>-2.15781</v>
+        <v>-2.30233</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -4081,10 +4081,10 @@
         <v>29</v>
       </c>
       <c r="O56">
-        <v>-16.8051</v>
+        <v>-18.0958</v>
       </c>
       <c r="P56">
-        <v>-2.24038</v>
+        <v>-2.41248</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -4131,10 +4131,10 @@
         <v>29</v>
       </c>
       <c r="O57">
-        <v>-17.0114</v>
+        <v>-18.3539</v>
       </c>
       <c r="P57">
-        <v>-2.2679</v>
+        <v>-2.44689</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -4181,10 +4181,10 @@
         <v>29</v>
       </c>
       <c r="O58">
-        <v>-17.6312</v>
+        <v>-19.2836</v>
       </c>
       <c r="P58">
-        <v>-2.35054</v>
+        <v>-2.57086</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -4231,10 +4231,10 @@
         <v>29</v>
       </c>
       <c r="O59">
-        <v>-18.1993</v>
+        <v>-20.1569</v>
       </c>
       <c r="P59">
-        <v>-2.4263</v>
+        <v>-2.6873</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -4281,10 +4281,10 @@
         <v>29</v>
       </c>
       <c r="O60">
-        <v>-18.8706</v>
+        <v>-20.9878</v>
       </c>
       <c r="P60">
-        <v>-2.51578</v>
+        <v>-2.7981</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -4331,10 +4331,10 @@
         <v>29</v>
       </c>
       <c r="O61">
-        <v>-19.4901</v>
+        <v>-21.7108</v>
       </c>
       <c r="P61">
-        <v>-2.59838</v>
+        <v>-2.89449</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -4381,10 +4381,10 @@
         <v>29</v>
       </c>
       <c r="O62">
-        <v>-20.213</v>
+        <v>-22.692</v>
       </c>
       <c r="P62">
-        <v>-2.69479</v>
+        <v>-3.02531</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -4431,10 +4431,10 @@
         <v>29</v>
       </c>
       <c r="O63">
-        <v>-20.7812</v>
+        <v>-23.5183</v>
       </c>
       <c r="P63">
-        <v>-2.77052</v>
+        <v>-3.13548</v>
       </c>
     </row>
     <row r="64" spans="1:16">
@@ -4481,10 +4481,10 @@
         <v>29</v>
       </c>
       <c r="O64">
-        <v>-21.4518</v>
+        <v>-24.4995</v>
       </c>
       <c r="P64">
-        <v>-2.8532</v>
+        <v>-3.26631</v>
       </c>
     </row>
     <row r="65" spans="1:16">
@@ -4531,10 +4531,10 @@
         <v>163</v>
       </c>
       <c r="O65">
-        <v>30.2347</v>
+        <v>33.7902</v>
       </c>
       <c r="P65">
-        <v>3.66501</v>
+        <v>4.09597</v>
       </c>
     </row>
     <row r="66" spans="1:16">
@@ -4581,10 +4581,10 @@
         <v>163</v>
       </c>
       <c r="O66">
-        <v>29.3335</v>
+        <v>32.7377</v>
       </c>
       <c r="P66">
-        <v>3.55578</v>
+        <v>3.96838</v>
       </c>
     </row>
     <row r="67" spans="1:16">
@@ -4631,10 +4631,10 @@
         <v>163</v>
       </c>
       <c r="O67">
-        <v>28.4825</v>
+        <v>31.6364</v>
       </c>
       <c r="P67">
-        <v>3.45261</v>
+        <v>3.83491</v>
       </c>
     </row>
     <row r="68" spans="1:16">
@@ -4681,10 +4681,10 @@
         <v>163</v>
       </c>
       <c r="O68">
-        <v>27.584</v>
+        <v>30.4351</v>
       </c>
       <c r="P68">
-        <v>3.3437</v>
+        <v>3.68929</v>
       </c>
     </row>
     <row r="69" spans="1:16">
@@ -4731,10 +4731,10 @@
         <v>163</v>
       </c>
       <c r="O69">
-        <v>26.8805</v>
+        <v>29.5336</v>
       </c>
       <c r="P69">
-        <v>3.25843</v>
+        <v>3.58002</v>
       </c>
     </row>
     <row r="70" spans="1:16">
@@ -4781,10 +4781,10 @@
         <v>163</v>
       </c>
       <c r="O70">
-        <v>25.9795</v>
+        <v>28.2823</v>
       </c>
       <c r="P70">
-        <v>3.14921</v>
+        <v>3.42835</v>
       </c>
     </row>
     <row r="71" spans="1:16">
@@ -4831,10 +4831,10 @@
         <v>163</v>
       </c>
       <c r="O71">
-        <v>25.1281</v>
+        <v>27.231</v>
       </c>
       <c r="P71">
-        <v>3.04602</v>
+        <v>3.30092</v>
       </c>
     </row>
     <row r="72" spans="1:16">
@@ -4881,10 +4881,10 @@
         <v>163</v>
       </c>
       <c r="O72">
-        <v>24.2769</v>
+        <v>26.1294</v>
       </c>
       <c r="P72">
-        <v>2.94283</v>
+        <v>3.16738</v>
       </c>
     </row>
     <row r="73" spans="1:16">
@@ -4931,10 +4931,10 @@
         <v>163</v>
       </c>
       <c r="O73">
-        <v>23.9263</v>
+        <v>25.8794</v>
       </c>
       <c r="P73">
-        <v>2.90035</v>
+        <v>3.13708</v>
       </c>
     </row>
     <row r="74" spans="1:16">
@@ -4981,10 +4981,10 @@
         <v>163</v>
       </c>
       <c r="O74">
-        <v>22.9967</v>
+        <v>24.7275</v>
       </c>
       <c r="P74">
-        <v>2.78766</v>
+        <v>2.99745</v>
       </c>
     </row>
     <row r="75" spans="1:16">
@@ -5031,10 +5031,10 @@
         <v>163</v>
       </c>
       <c r="O75">
-        <v>22.1741</v>
+        <v>23.576</v>
       </c>
       <c r="P75">
-        <v>2.68795</v>
+        <v>2.85789</v>
       </c>
     </row>
     <row r="76" spans="1:16">
@@ -5081,10 +5081,10 @@
         <v>163</v>
       </c>
       <c r="O76">
-        <v>21.3227</v>
+        <v>22.4241</v>
       </c>
       <c r="P76">
-        <v>2.58476</v>
+        <v>2.71825</v>
       </c>
     </row>
     <row r="77" spans="1:16">
@@ -5131,10 +5131,10 @@
         <v>163</v>
       </c>
       <c r="O77">
-        <v>20.5717</v>
+        <v>21.3729</v>
       </c>
       <c r="P77">
-        <v>2.49373</v>
+        <v>2.59085</v>
       </c>
     </row>
     <row r="78" spans="1:16">
@@ -5181,10 +5181,10 @@
         <v>163</v>
       </c>
       <c r="O78">
-        <v>19.7203</v>
+        <v>20.2713</v>
       </c>
       <c r="P78">
-        <v>2.39054</v>
+        <v>2.45731</v>
       </c>
     </row>
     <row r="79" spans="1:16">
@@ -5231,10 +5231,10 @@
         <v>163</v>
       </c>
       <c r="O79">
-        <v>18.9192</v>
+        <v>19.1227</v>
       </c>
       <c r="P79">
-        <v>2.29343</v>
+        <v>2.31808</v>
       </c>
     </row>
     <row r="80" spans="1:16">
@@ -5331,7 +5331,7 @@
         <v>163</v>
       </c>
       <c r="O81">
-        <v>18.0183</v>
+        <v>18.0182</v>
       </c>
       <c r="P81">
         <v>2.19022</v>
@@ -5584,7 +5584,7 @@
         <v>11.5086</v>
       </c>
       <c r="P86">
-        <v>1.39518</v>
+        <v>1.39517</v>
       </c>
     </row>
     <row r="87" spans="1:16">
@@ -5631,10 +5631,10 @@
         <v>163</v>
       </c>
       <c r="O87">
-        <v>10.1568</v>
+        <v>10.1566</v>
       </c>
       <c r="P87">
-        <v>1.23131</v>
+        <v>1.23129</v>
       </c>
     </row>
     <row r="88" spans="1:16">
@@ -5681,7 +5681,7 @@
         <v>163</v>
       </c>
       <c r="O88">
-        <v>8.904680000000001</v>
+        <v>8.904679999999999</v>
       </c>
       <c r="P88">
         <v>1.07954</v>
@@ -5731,7 +5731,7 @@
         <v>163</v>
       </c>
       <c r="O89">
-        <v>7.8564</v>
+        <v>7.856409999999999</v>
       </c>
       <c r="P89">
         <v>0.958152</v>
@@ -5831,10 +5831,10 @@
         <v>163</v>
       </c>
       <c r="O91">
-        <v>5.65032</v>
+        <v>5.60113</v>
       </c>
       <c r="P91">
-        <v>0.685074</v>
+        <v>0.679115</v>
       </c>
     </row>
     <row r="92" spans="1:16">
@@ -5881,10 +5881,10 @@
         <v>163</v>
       </c>
       <c r="O92">
-        <v>4.49905</v>
+        <v>4.49904</v>
       </c>
       <c r="P92">
-        <v>0.545521</v>
+        <v>0.545519</v>
       </c>
     </row>
     <row r="93" spans="1:16">
@@ -6031,7 +6031,7 @@
         <v>163</v>
       </c>
       <c r="O95">
-        <v>1.24765</v>
+        <v>1.24766</v>
       </c>
       <c r="P95">
         <v>0.151416</v>
@@ -6081,10 +6081,10 @@
         <v>163</v>
       </c>
       <c r="O96">
-        <v>0.0463091</v>
+        <v>0.0462314</v>
       </c>
       <c r="P96">
-        <v>0.00579797</v>
+        <v>0.0057856</v>
       </c>
     </row>
     <row r="97" spans="1:16">
@@ -6281,7 +6281,7 @@
         <v>163</v>
       </c>
       <c r="O100">
-        <v>-4.45941</v>
+        <v>-4.459409999999999</v>
       </c>
       <c r="P100">
         <v>-0.5403480000000001</v>
@@ -6331,10 +6331,10 @@
         <v>163</v>
       </c>
       <c r="O101">
-        <v>-5.5607</v>
+        <v>-5.56042</v>
       </c>
       <c r="P101">
-        <v>-0.673835</v>
+        <v>-0.673807</v>
       </c>
     </row>
     <row r="102" spans="1:16">
@@ -6731,10 +6731,10 @@
         <v>163</v>
       </c>
       <c r="O109">
-        <v>-15.4705</v>
+        <v>-15.421</v>
       </c>
       <c r="P109">
-        <v>-1.87502</v>
+        <v>-1.86903</v>
       </c>
     </row>
     <row r="110" spans="1:16">
@@ -6881,10 +6881,10 @@
         <v>163</v>
       </c>
       <c r="O112">
-        <v>-18.1236</v>
+        <v>-18.1237</v>
       </c>
       <c r="P112">
-        <v>-2.1906</v>
+        <v>-2.19663</v>
       </c>
     </row>
     <row r="113" spans="1:16">
@@ -6931,10 +6931,10 @@
         <v>163</v>
       </c>
       <c r="O113">
-        <v>-18.8747</v>
+        <v>-19.175</v>
       </c>
       <c r="P113">
-        <v>-2.28766</v>
+        <v>-2.32406</v>
       </c>
     </row>
     <row r="114" spans="1:16">
@@ -6981,10 +6981,10 @@
         <v>163</v>
       </c>
       <c r="O114">
-        <v>-19.7758</v>
+        <v>-20.3264</v>
       </c>
       <c r="P114">
-        <v>-2.39689</v>
+        <v>-2.46361</v>
       </c>
     </row>
     <row r="115" spans="1:16">
@@ -7031,10 +7031,10 @@
         <v>163</v>
       </c>
       <c r="O115">
-        <v>-20.6767</v>
+        <v>-21.5277</v>
       </c>
       <c r="P115">
-        <v>-2.50609</v>
+        <v>-2.60922</v>
       </c>
     </row>
     <row r="116" spans="1:16">
@@ -7081,10 +7081,10 @@
         <v>163</v>
       </c>
       <c r="O116">
-        <v>-21.3774</v>
+        <v>-22.4787</v>
       </c>
       <c r="P116">
-        <v>-2.59102</v>
+        <v>-2.7245</v>
       </c>
     </row>
     <row r="117" spans="1:16">
@@ -7131,10 +7131,10 @@
         <v>163</v>
       </c>
       <c r="O117">
-        <v>-22.2286</v>
+        <v>-23.6798</v>
       </c>
       <c r="P117">
-        <v>-2.69419</v>
+        <v>-2.87009</v>
       </c>
     </row>
     <row r="118" spans="1:16">
@@ -7181,10 +7181,10 @@
         <v>163</v>
       </c>
       <c r="O118">
-        <v>-23.08</v>
+        <v>-24.8315</v>
       </c>
       <c r="P118">
-        <v>-2.79739</v>
+        <v>-3.00969</v>
       </c>
     </row>
     <row r="119" spans="1:16">
@@ -7231,10 +7231,10 @@
         <v>163</v>
       </c>
       <c r="O119">
-        <v>-24.0272</v>
+        <v>-25.9825</v>
       </c>
       <c r="P119">
-        <v>-2.9122</v>
+        <v>-3.14921</v>
       </c>
     </row>
     <row r="120" spans="1:16">
@@ -7281,10 +7281,10 @@
         <v>163</v>
       </c>
       <c r="O120">
-        <v>-24.3815</v>
+        <v>-26.1826</v>
       </c>
       <c r="P120">
-        <v>-2.95515</v>
+        <v>-3.17346</v>
       </c>
     </row>
     <row r="121" spans="1:16">
@@ -7331,10 +7331,10 @@
         <v>163</v>
       </c>
       <c r="O121">
-        <v>-25.232</v>
+        <v>-27.2832</v>
       </c>
       <c r="P121">
-        <v>-3.05824</v>
+        <v>-3.30686</v>
       </c>
     </row>
     <row r="122" spans="1:16">
@@ -7381,10 +7381,10 @@
         <v>163</v>
       </c>
       <c r="O122">
-        <v>-26.0825</v>
+        <v>-28.5336</v>
       </c>
       <c r="P122">
-        <v>-3.16133</v>
+        <v>-3.45843</v>
       </c>
     </row>
     <row r="123" spans="1:16">
@@ -7431,10 +7431,10 @@
         <v>163</v>
       </c>
       <c r="O123">
-        <v>-26.9829</v>
+        <v>-29.7343</v>
       </c>
       <c r="P123">
-        <v>-3.27047</v>
+        <v>-3.60397</v>
       </c>
     </row>
     <row r="124" spans="1:16">
@@ -7481,10 +7481,10 @@
         <v>163</v>
       </c>
       <c r="O124">
-        <v>-27.7833</v>
+        <v>-30.6352</v>
       </c>
       <c r="P124">
-        <v>-3.36749</v>
+        <v>-3.71318</v>
       </c>
     </row>
     <row r="125" spans="1:16">
@@ -7531,10 +7531,10 @@
         <v>163</v>
       </c>
       <c r="O125">
-        <v>-28.6839</v>
+        <v>-31.9361</v>
       </c>
       <c r="P125">
-        <v>-3.47666</v>
+        <v>-3.87086</v>
       </c>
     </row>
     <row r="126" spans="1:16">
@@ -7581,10 +7581,10 @@
         <v>163</v>
       </c>
       <c r="O126">
-        <v>-29.5837</v>
+        <v>-32.9867</v>
       </c>
       <c r="P126">
-        <v>-3.58571</v>
+        <v>-3.9982</v>
       </c>
     </row>
     <row r="127" spans="1:16">
@@ -7631,10 +7631,10 @@
         <v>163</v>
       </c>
       <c r="O127">
-        <v>-30.4348</v>
+        <v>-34.1872</v>
       </c>
       <c r="P127">
-        <v>-3.68888</v>
+        <v>-4.14372</v>
       </c>
     </row>
     <row r="128" spans="1:16">
@@ -7681,10 +7681,10 @@
         <v>236</v>
       </c>
       <c r="O128">
-        <v>17.362</v>
+        <v>19.3247</v>
       </c>
       <c r="P128">
-        <v>2.57276</v>
+        <v>2.86355</v>
       </c>
     </row>
     <row r="129" spans="1:16">
@@ -7731,10 +7731,10 @@
         <v>236</v>
       </c>
       <c r="O129">
-        <v>16.9484</v>
+        <v>18.7569</v>
       </c>
       <c r="P129">
-        <v>2.5115</v>
+        <v>2.77943</v>
       </c>
     </row>
     <row r="130" spans="1:16">
@@ -7781,10 +7781,10 @@
         <v>236</v>
       </c>
       <c r="O130">
-        <v>16.587</v>
+        <v>18.137</v>
       </c>
       <c r="P130">
-        <v>2.45797</v>
+        <v>2.68757</v>
       </c>
     </row>
     <row r="131" spans="1:16">
@@ -7831,10 +7831,10 @@
         <v>236</v>
       </c>
       <c r="O131">
-        <v>16.0706</v>
+        <v>17.5688</v>
       </c>
       <c r="P131">
-        <v>2.38146</v>
+        <v>2.60341</v>
       </c>
     </row>
     <row r="132" spans="1:16">
@@ -7881,10 +7881,10 @@
         <v>236</v>
       </c>
       <c r="O132">
-        <v>15.7091</v>
+        <v>17.1037</v>
       </c>
       <c r="P132">
-        <v>2.32793</v>
+        <v>2.5345</v>
       </c>
     </row>
     <row r="133" spans="1:16">
@@ -7931,10 +7931,10 @@
         <v>236</v>
       </c>
       <c r="O133">
-        <v>15.3468</v>
+        <v>16.5873</v>
       </c>
       <c r="P133">
-        <v>2.27406</v>
+        <v>2.45798</v>
       </c>
     </row>
     <row r="134" spans="1:16">
@@ -7981,10 +7981,10 @@
         <v>236</v>
       </c>
       <c r="O134">
-        <v>14.8822</v>
+        <v>15.9677</v>
       </c>
       <c r="P134">
-        <v>2.20538</v>
+        <v>2.36619</v>
       </c>
     </row>
     <row r="135" spans="1:16">
@@ -8031,10 +8031,10 @@
         <v>236</v>
       </c>
       <c r="O135">
-        <v>14.5723</v>
+        <v>15.502</v>
       </c>
       <c r="P135">
-        <v>2.1595</v>
+        <v>2.2972</v>
       </c>
     </row>
     <row r="136" spans="1:16">
@@ -8081,10 +8081,10 @@
         <v>236</v>
       </c>
       <c r="O136">
-        <v>14.4245</v>
+        <v>15.3987</v>
       </c>
       <c r="P136">
-        <v>2.13752</v>
+        <v>2.28192</v>
       </c>
     </row>
     <row r="137" spans="1:16">
@@ -8131,10 +8131,10 @@
         <v>236</v>
       </c>
       <c r="O137">
-        <v>14.0037</v>
+        <v>14.7819</v>
       </c>
       <c r="P137">
-        <v>2.07523</v>
+        <v>2.19052</v>
       </c>
     </row>
     <row r="138" spans="1:16">
@@ -8181,10 +8181,10 @@
         <v>236</v>
       </c>
       <c r="O138">
-        <v>13.5536</v>
+        <v>14.2719</v>
       </c>
       <c r="P138">
-        <v>2.00856</v>
+        <v>2.11492</v>
       </c>
     </row>
     <row r="139" spans="1:16">
@@ -8231,10 +8231,10 @@
         <v>236</v>
       </c>
       <c r="O139">
-        <v>13.1775</v>
+        <v>13.6939</v>
       </c>
       <c r="P139">
-        <v>1.95287</v>
+        <v>2.02938</v>
       </c>
     </row>
     <row r="140" spans="1:16">
@@ -8281,10 +8281,10 @@
         <v>236</v>
       </c>
       <c r="O140">
-        <v>12.7645</v>
+        <v>13.3323</v>
       </c>
       <c r="P140">
-        <v>1.89169</v>
+        <v>1.97576</v>
       </c>
     </row>
     <row r="141" spans="1:16">
@@ -8331,10 +8331,10 @@
         <v>236</v>
       </c>
       <c r="O141">
-        <v>12.3518</v>
+        <v>12.661</v>
       </c>
       <c r="P141">
-        <v>1.83052</v>
+        <v>1.87632</v>
       </c>
     </row>
     <row r="142" spans="1:16">
@@ -8381,10 +8381,10 @@
         <v>236</v>
       </c>
       <c r="O142">
-        <v>11.9389</v>
+        <v>12.0438</v>
       </c>
       <c r="P142">
-        <v>1.76934</v>
+        <v>1.78487</v>
       </c>
     </row>
     <row r="143" spans="1:16">
@@ -8431,7 +8431,7 @@
         <v>236</v>
       </c>
       <c r="O143">
-        <v>11.4812</v>
+        <v>11.4813</v>
       </c>
       <c r="P143">
         <v>1.70149</v>
@@ -8481,10 +8481,10 @@
         <v>236</v>
       </c>
       <c r="O144">
-        <v>11.5245</v>
+        <v>11.5241</v>
       </c>
       <c r="P144">
-        <v>1.70798</v>
+        <v>1.70788</v>
       </c>
     </row>
     <row r="145" spans="1:16">
@@ -8581,7 +8581,7 @@
         <v>236</v>
       </c>
       <c r="O146">
-        <v>9.922359999999999</v>
+        <v>9.92235</v>
       </c>
       <c r="P146">
         <v>1.47061</v>
@@ -8881,7 +8881,7 @@
         <v>236</v>
       </c>
       <c r="O152">
-        <v>5.11517</v>
+        <v>5.115169999999999</v>
       </c>
       <c r="P152">
         <v>0.75842</v>
@@ -8931,7 +8931,7 @@
         <v>236</v>
       </c>
       <c r="O153">
-        <v>4.44275</v>
+        <v>4.442749999999999</v>
       </c>
       <c r="P153">
         <v>0.658821</v>
@@ -9031,10 +9031,10 @@
         <v>236</v>
       </c>
       <c r="O155">
-        <v>3.00242</v>
+        <v>3.00241</v>
       </c>
       <c r="P155">
-        <v>0.445373</v>
+        <v>0.445367</v>
       </c>
     </row>
     <row r="156" spans="1:16">
@@ -9134,7 +9134,7 @@
         <v>1.56006</v>
       </c>
       <c r="P157">
-        <v>0.231682</v>
+        <v>0.231683</v>
       </c>
     </row>
     <row r="158" spans="1:16">
@@ -9431,7 +9431,7 @@
         <v>236</v>
       </c>
       <c r="O163">
-        <v>-2.79174</v>
+        <v>-2.79175</v>
       </c>
       <c r="P163">
         <v>-0.412989</v>
@@ -9481,10 +9481,10 @@
         <v>236</v>
       </c>
       <c r="O164">
-        <v>-3.46313</v>
+        <v>-3.46377</v>
       </c>
       <c r="P164">
-        <v>-0.504922</v>
+        <v>-0.512564</v>
       </c>
     </row>
     <row r="165" spans="1:16">
@@ -9531,10 +9531,10 @@
         <v>236</v>
       </c>
       <c r="O165">
-        <v>-4.18781</v>
+        <v>-4.187589999999999</v>
       </c>
       <c r="P165">
-        <v>-0.619819</v>
+        <v>-0.619757</v>
       </c>
     </row>
     <row r="166" spans="1:16">
@@ -9581,10 +9581,10 @@
         <v>236</v>
       </c>
       <c r="O166">
-        <v>-4.96317</v>
+        <v>-5.006110000000001</v>
       </c>
       <c r="P166">
-        <v>-0.734669</v>
+        <v>-0.741085</v>
       </c>
     </row>
     <row r="167" spans="1:16">
@@ -9631,10 +9631,10 @@
         <v>236</v>
       </c>
       <c r="O167">
-        <v>-5.47971</v>
+        <v>-5.582789999999999</v>
       </c>
       <c r="P167">
-        <v>-0.811174</v>
+        <v>-0.826458</v>
       </c>
     </row>
     <row r="168" spans="1:16">
@@ -9681,10 +9681,10 @@
         <v>236</v>
       </c>
       <c r="O168">
-        <v>-6.35677</v>
+        <v>-6.35792</v>
       </c>
       <c r="P168">
-        <v>-0.941126</v>
+        <v>-0.941259</v>
       </c>
     </row>
     <row r="169" spans="1:16">
@@ -9731,7 +9731,7 @@
         <v>236</v>
       </c>
       <c r="O169">
-        <v>-7.0814</v>
+        <v>-7.08139</v>
       </c>
       <c r="P169">
         <v>-1.04847</v>
@@ -9781,10 +9781,10 @@
         <v>236</v>
       </c>
       <c r="O170">
-        <v>-7.75196</v>
+        <v>-7.796749999999999</v>
       </c>
       <c r="P170">
-        <v>-1.14782</v>
+        <v>-1.15453</v>
       </c>
     </row>
     <row r="171" spans="1:16">
@@ -9881,10 +9881,10 @@
         <v>236</v>
       </c>
       <c r="O172">
-        <v>-9.13955</v>
+        <v>-9.089780000000001</v>
       </c>
       <c r="P172">
-        <v>-1.35344</v>
+        <v>-1.34607</v>
       </c>
     </row>
     <row r="173" spans="1:16">
@@ -9931,10 +9931,10 @@
         <v>236</v>
       </c>
       <c r="O173">
-        <v>-9.871370000000001</v>
+        <v>-9.81925</v>
       </c>
       <c r="P173">
-        <v>-1.46179</v>
+        <v>-1.45409</v>
       </c>
     </row>
     <row r="174" spans="1:16">
@@ -9981,10 +9981,10 @@
         <v>236</v>
       </c>
       <c r="O174">
-        <v>-10.4869</v>
+        <v>-10.4909</v>
       </c>
       <c r="P174">
-        <v>-1.54595</v>
+        <v>-1.55373</v>
       </c>
     </row>
     <row r="175" spans="1:16">
@@ -10031,10 +10031,10 @@
         <v>236</v>
       </c>
       <c r="O175">
-        <v>-10.5938</v>
+        <v>-10.5364</v>
       </c>
       <c r="P175">
-        <v>-1.56883</v>
+        <v>-1.56038</v>
       </c>
     </row>
     <row r="176" spans="1:16">
@@ -10081,10 +10081,10 @@
         <v>236</v>
       </c>
       <c r="O176">
-        <v>-10.9555</v>
+        <v>-11.0591</v>
       </c>
       <c r="P176">
-        <v>-1.62238</v>
+        <v>-1.63015</v>
       </c>
     </row>
     <row r="177" spans="1:16">
@@ -10131,10 +10131,10 @@
         <v>236</v>
       </c>
       <c r="O177">
-        <v>-11.369</v>
+        <v>-11.6275</v>
       </c>
       <c r="P177">
-        <v>-1.68368</v>
+        <v>-1.722</v>
       </c>
     </row>
     <row r="178" spans="1:16">
@@ -10181,10 +10181,10 @@
         <v>236</v>
       </c>
       <c r="O178">
-        <v>-11.6797</v>
+        <v>-12.137</v>
       </c>
       <c r="P178">
-        <v>-1.72972</v>
+        <v>-1.79752</v>
       </c>
     </row>
     <row r="179" spans="1:16">
@@ -10231,10 +10231,10 @@
         <v>236</v>
       </c>
       <c r="O179">
-        <v>-11.99</v>
+        <v>-12.662</v>
       </c>
       <c r="P179">
-        <v>-1.77569</v>
+        <v>-1.87522</v>
       </c>
     </row>
     <row r="180" spans="1:16">
@@ -10281,10 +10281,10 @@
         <v>236</v>
       </c>
       <c r="O180">
-        <v>-12.4555</v>
+        <v>-13.1789</v>
       </c>
       <c r="P180">
-        <v>-1.84464</v>
+        <v>-1.95178</v>
       </c>
     </row>
     <row r="181" spans="1:16">
@@ -10331,10 +10331,10 @@
         <v>236</v>
       </c>
       <c r="O181">
-        <v>-12.8174</v>
+        <v>-13.7988</v>
       </c>
       <c r="P181">
-        <v>-1.89824</v>
+        <v>-2.04366</v>
       </c>
     </row>
     <row r="182" spans="1:16">
@@ -10381,10 +10381,10 @@
         <v>236</v>
       </c>
       <c r="O182">
-        <v>-13.1793</v>
+        <v>-14.3681</v>
       </c>
       <c r="P182">
-        <v>-1.95184</v>
+        <v>-2.12796</v>
       </c>
     </row>
     <row r="183" spans="1:16">
@@ -10431,10 +10431,10 @@
         <v>236</v>
       </c>
       <c r="O183">
-        <v>-13.4892</v>
+        <v>-14.4191</v>
       </c>
       <c r="P183">
-        <v>-1.99777</v>
+        <v>-2.13555</v>
       </c>
     </row>
     <row r="184" spans="1:16">
@@ -10481,10 +10481,10 @@
         <v>236</v>
       </c>
       <c r="O184">
-        <v>-13.9024</v>
+        <v>-14.9883</v>
       </c>
       <c r="P184">
-        <v>-2.059</v>
+        <v>-2.21983</v>
       </c>
     </row>
     <row r="185" spans="1:16">
@@ -10531,10 +10531,10 @@
         <v>236</v>
       </c>
       <c r="O185">
-        <v>-14.3165</v>
+        <v>-15.5565</v>
       </c>
       <c r="P185">
-        <v>-2.12032</v>
+        <v>-2.30403</v>
       </c>
     </row>
     <row r="186" spans="1:16">
@@ -10581,10 +10581,10 @@
         <v>236</v>
       </c>
       <c r="O186">
-        <v>-14.7292</v>
+        <v>-16.2281</v>
       </c>
       <c r="P186">
-        <v>-2.1815</v>
+        <v>-2.396</v>
       </c>
     </row>
     <row r="187" spans="1:16">
@@ -10631,10 +10631,10 @@
         <v>236</v>
       </c>
       <c r="O187">
-        <v>-15.1434</v>
+        <v>-16.6938</v>
       </c>
       <c r="P187">
-        <v>-2.24288</v>
+        <v>-2.47254</v>
       </c>
     </row>
     <row r="188" spans="1:16">
@@ -10681,10 +10681,10 @@
         <v>236</v>
       </c>
       <c r="O188">
-        <v>-15.6077</v>
+        <v>-17.4689</v>
       </c>
       <c r="P188">
-        <v>-2.31166</v>
+        <v>-2.58738</v>
       </c>
     </row>
     <row r="189" spans="1:16">
@@ -10731,10 +10731,10 @@
         <v>236</v>
       </c>
       <c r="O189">
-        <v>-15.9184</v>
+        <v>-17.8823</v>
       </c>
       <c r="P189">
-        <v>-2.35768</v>
+        <v>-2.64864</v>
       </c>
     </row>
     <row r="190" spans="1:16">
@@ -10781,10 +10781,10 @@
         <v>236</v>
       </c>
       <c r="O190">
-        <v>-16.4356</v>
+        <v>-18.4448</v>
       </c>
       <c r="P190">
-        <v>-2.43429</v>
+        <v>-2.732</v>
       </c>
     </row>
     <row r="191" spans="1:16" s="1" customFormat="1">
@@ -10842,10 +10842,10 @@
         <v>299</v>
       </c>
       <c r="O192" s="1">
-        <v>-30.4348</v>
+        <v>-34.1872</v>
       </c>
       <c r="P192" s="1">
-        <v>-3.68888</v>
+        <v>-4.14372</v>
       </c>
     </row>
     <row r="193" spans="14:16" s="1" customFormat="1">
@@ -10853,10 +10853,10 @@
         <v>300</v>
       </c>
       <c r="O193" s="1">
-        <v>30.2347</v>
+        <v>33.7902</v>
       </c>
       <c r="P193" s="1">
-        <v>3.66501</v>
+        <v>4.09597</v>
       </c>
     </row>
     <row r="194" spans="14:16" s="1" customFormat="1">
@@ -10896,10 +10896,10 @@
         <v>305</v>
       </c>
       <c r="O198" s="1">
-        <v>0.1345863</v>
+        <v>0.1265601185185194</v>
       </c>
       <c r="P198" s="1">
-        <v>0.02043696</v>
+        <v>0.01925382433862429</v>
       </c>
     </row>
     <row r="199" spans="14:16" s="1" customFormat="1">
@@ -10907,10 +10907,10 @@
         <v>306</v>
       </c>
       <c r="O199" s="1">
-        <v>14.831036</v>
+        <v>15.88126066797503</v>
       </c>
       <c r="P199" s="1">
-        <v>1.926443</v>
+        <v>2.062269895451495</v>
       </c>
     </row>
     <row r="200" spans="14:16" s="1" customFormat="1">
@@ -10918,10 +10918,10 @@
         <v>307</v>
       </c>
       <c r="O200" s="1">
-        <v>11019.721918</v>
+        <v>12548.39269580105</v>
       </c>
       <c r="P200" s="1">
-        <v>9426.269856000001</v>
+        <v>10710.96245183073</v>
       </c>
     </row>
     <row r="201" spans="14:16" s="1" customFormat="1"/>

--- a/dcd_top_offset_step_tsmc2p_meas.xlsx
+++ b/dcd_top_offset_step_tsmc2p_meas.xlsx
@@ -1381,10 +1381,10 @@
         <v>29</v>
       </c>
       <c r="O2">
-        <v>24.7148</v>
+        <v>18.8284</v>
       </c>
       <c r="P2">
-        <v>3.2956</v>
+        <v>2.51075</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1431,10 +1431,10 @@
         <v>29</v>
       </c>
       <c r="O3">
-        <v>23.8369</v>
+        <v>18.4664</v>
       </c>
       <c r="P3">
-        <v>3.17853</v>
+        <v>2.46249</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1481,10 +1481,10 @@
         <v>29</v>
       </c>
       <c r="O4">
-        <v>22.9591</v>
+        <v>18.002</v>
       </c>
       <c r="P4">
-        <v>3.0615</v>
+        <v>2.40056</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1531,10 +1531,10 @@
         <v>29</v>
       </c>
       <c r="O5">
-        <v>22.0295</v>
+        <v>17.537</v>
       </c>
       <c r="P5">
-        <v>2.93756</v>
+        <v>2.33857</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1581,10 +1581,10 @@
         <v>29</v>
       </c>
       <c r="O6">
-        <v>21.3066</v>
+        <v>17.1753</v>
       </c>
       <c r="P6">
-        <v>2.84118</v>
+        <v>2.29032</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1631,10 +1631,10 @@
         <v>29</v>
       </c>
       <c r="O7">
-        <v>20.3771</v>
+        <v>16.7106</v>
       </c>
       <c r="P7">
-        <v>2.71723</v>
+        <v>2.22837</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1681,10 +1681,10 @@
         <v>29</v>
       </c>
       <c r="O8">
-        <v>19.4991</v>
+        <v>16.2463</v>
       </c>
       <c r="P8">
-        <v>2.60017</v>
+        <v>2.16647</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1731,10 +1731,10 @@
         <v>29</v>
       </c>
       <c r="O9">
-        <v>18.6218</v>
+        <v>15.7809</v>
       </c>
       <c r="P9">
-        <v>2.48319</v>
+        <v>2.10442</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1781,10 +1781,10 @@
         <v>29</v>
       </c>
       <c r="O10">
-        <v>18.363</v>
+        <v>15.5231</v>
       </c>
       <c r="P10">
-        <v>2.4487</v>
+        <v>2.07004</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1831,10 +1831,10 @@
         <v>29</v>
       </c>
       <c r="O11">
-        <v>17.5372</v>
+        <v>15.1616</v>
       </c>
       <c r="P11">
-        <v>2.33859</v>
+        <v>2.02184</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1881,10 +1881,10 @@
         <v>29</v>
       </c>
       <c r="O12">
-        <v>16.6589</v>
+        <v>14.7999</v>
       </c>
       <c r="P12">
-        <v>2.22148</v>
+        <v>1.97362</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1931,10 +1931,10 @@
         <v>29</v>
       </c>
       <c r="O13">
-        <v>15.7811</v>
+        <v>14.3865</v>
       </c>
       <c r="P13">
-        <v>2.10442</v>
+        <v>1.9185</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1981,10 +1981,10 @@
         <v>29</v>
       </c>
       <c r="O14">
-        <v>15.1612</v>
+        <v>14.0252</v>
       </c>
       <c r="P14">
-        <v>2.02179</v>
+        <v>1.87032</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -2031,10 +2031,10 @@
         <v>29</v>
       </c>
       <c r="O15">
-        <v>14.3867</v>
+        <v>13.6638</v>
       </c>
       <c r="P15">
-        <v>1.91852</v>
+        <v>1.82213</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -2081,10 +2081,10 @@
         <v>29</v>
       </c>
       <c r="O16">
-        <v>13.612</v>
+        <v>13.2509</v>
       </c>
       <c r="P16">
-        <v>1.81523</v>
+        <v>1.76707</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -2131,10 +2131,10 @@
         <v>29</v>
       </c>
       <c r="O17">
-        <v>12.8892</v>
+        <v>12.8379</v>
       </c>
       <c r="P17">
-        <v>1.71885</v>
+        <v>1.71202</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -2184,7 +2184,7 @@
         <v>12.8378</v>
       </c>
       <c r="P18">
-        <v>1.712</v>
+        <v>1.71199</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -2231,10 +2231,10 @@
         <v>29</v>
       </c>
       <c r="O19">
-        <v>12.0629</v>
+        <v>12.1145</v>
       </c>
       <c r="P19">
-        <v>1.60868</v>
+        <v>1.61556</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -2331,7 +2331,7 @@
         <v>29</v>
       </c>
       <c r="O21">
-        <v>10.3592</v>
+        <v>10.41</v>
       </c>
       <c r="P21">
         <v>1.38828</v>
@@ -2381,10 +2381,10 @@
         <v>29</v>
       </c>
       <c r="O22">
-        <v>9.583909999999999</v>
+        <v>9.635199999999999</v>
       </c>
       <c r="P22">
-        <v>1.27816</v>
+        <v>1.28499</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -2431,10 +2431,10 @@
         <v>29</v>
       </c>
       <c r="O23">
-        <v>8.7059</v>
+        <v>8.70598</v>
       </c>
       <c r="P23">
-        <v>1.16108</v>
+        <v>1.16109</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -2481,10 +2481,10 @@
         <v>29</v>
       </c>
       <c r="O24">
-        <v>7.879219999999999</v>
+        <v>7.87933</v>
       </c>
       <c r="P24">
-        <v>1.05085</v>
+        <v>1.05087</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -2531,10 +2531,10 @@
         <v>29</v>
       </c>
       <c r="O25">
-        <v>7.00143</v>
+        <v>7.00137</v>
       </c>
       <c r="P25">
-        <v>0.9338109999999999</v>
+        <v>0.933803</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -2631,10 +2631,10 @@
         <v>29</v>
       </c>
       <c r="O27">
-        <v>5.34862</v>
+        <v>5.348409999999999</v>
       </c>
       <c r="P27">
-        <v>0.713437</v>
+        <v>0.713405</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -2681,10 +2681,10 @@
         <v>29</v>
       </c>
       <c r="O28">
-        <v>4.47088</v>
+        <v>4.470540000000001</v>
       </c>
       <c r="P28">
-        <v>0.596413</v>
+        <v>0.596374</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -2731,10 +2731,10 @@
         <v>29</v>
       </c>
       <c r="O29">
-        <v>3.64426</v>
+        <v>3.54158</v>
       </c>
       <c r="P29">
-        <v>0.486183</v>
+        <v>0.472505</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2781,7 +2781,7 @@
         <v>29</v>
       </c>
       <c r="O30">
-        <v>2.71362</v>
+        <v>2.71363</v>
       </c>
       <c r="P30">
         <v>0.362102</v>
@@ -2831,10 +2831,10 @@
         <v>29</v>
       </c>
       <c r="O31">
-        <v>1.83676</v>
+        <v>1.78471</v>
       </c>
       <c r="P31">
-        <v>0.245183</v>
+        <v>0.238243</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -2931,10 +2931,10 @@
         <v>29</v>
       </c>
       <c r="O33">
-        <v>0.135268</v>
+        <v>0.135287</v>
       </c>
       <c r="P33">
-        <v>0.0183193</v>
+        <v>0.0183195</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2981,10 +2981,10 @@
         <v>29</v>
       </c>
       <c r="O34">
-        <v>-0.795453</v>
+        <v>-0.79508</v>
       </c>
       <c r="P34">
-        <v>-0.105775</v>
+        <v>-0.10572</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -3081,10 +3081,10 @@
         <v>29</v>
       </c>
       <c r="O36">
-        <v>-2.65664</v>
+        <v>-2.65687</v>
       </c>
       <c r="P36">
-        <v>-0.353929</v>
+        <v>-0.353968</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -3131,10 +3131,10 @@
         <v>29</v>
       </c>
       <c r="O37">
-        <v>-3.48181</v>
+        <v>-3.48217</v>
       </c>
       <c r="P37">
-        <v>-0.463965</v>
+        <v>-0.464011</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -3181,10 +3181,10 @@
         <v>29</v>
       </c>
       <c r="O38">
-        <v>-4.35996</v>
+        <v>-4.35998</v>
       </c>
       <c r="P38">
-        <v>-0.58104</v>
+        <v>-0.581043</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -3231,10 +3231,10 @@
         <v>29</v>
       </c>
       <c r="O39">
-        <v>-5.237130000000001</v>
+        <v>-5.23778</v>
       </c>
       <c r="P39">
-        <v>-0.697983</v>
+        <v>-0.698076</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -3281,10 +3281,10 @@
         <v>29</v>
       </c>
       <c r="O40">
-        <v>-6.167019999999999</v>
+        <v>-6.21494</v>
       </c>
       <c r="P40">
-        <v>-0.821975</v>
+        <v>-0.828377</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -3331,10 +3331,10 @@
         <v>29</v>
       </c>
       <c r="O41">
-        <v>-6.941479999999999</v>
+        <v>-6.94142</v>
       </c>
       <c r="P41">
-        <v>-0.925237</v>
+        <v>-0.925238</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -3381,10 +3381,10 @@
         <v>29</v>
       </c>
       <c r="O42">
-        <v>-7.8184</v>
+        <v>-7.76751</v>
       </c>
       <c r="P42">
-        <v>-1.04216</v>
+        <v>-1.03537</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -3431,10 +3431,10 @@
         <v>29</v>
       </c>
       <c r="O43">
-        <v>-8.644970000000001</v>
+        <v>-8.645059999999999</v>
       </c>
       <c r="P43">
-        <v>-1.15237</v>
+        <v>-1.15239</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -3481,10 +3481,10 @@
         <v>29</v>
       </c>
       <c r="O44">
-        <v>-9.52313</v>
+        <v>-9.47157</v>
       </c>
       <c r="P44">
-        <v>-1.26946</v>
+        <v>-1.26258</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -3531,10 +3531,10 @@
         <v>29</v>
       </c>
       <c r="O45">
-        <v>-10.2938</v>
+        <v>-10.2972</v>
       </c>
       <c r="P45">
-        <v>-1.37224</v>
+        <v>-1.37268</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -3581,10 +3581,10 @@
         <v>29</v>
       </c>
       <c r="O46">
-        <v>-11.1754</v>
+        <v>-11.3283</v>
       </c>
       <c r="P46">
-        <v>-1.48978</v>
+        <v>-1.51014</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -3631,10 +3631,10 @@
         <v>29</v>
       </c>
       <c r="O47">
-        <v>-12.0534</v>
+        <v>-12.0532</v>
       </c>
       <c r="P47">
-        <v>-1.60683</v>
+        <v>-1.6068</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -3681,10 +3681,10 @@
         <v>29</v>
       </c>
       <c r="O48">
-        <v>-12.8803</v>
+        <v>-12.8802</v>
       </c>
       <c r="P48">
-        <v>-1.71708</v>
+        <v>-1.71707</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -3731,10 +3731,10 @@
         <v>29</v>
       </c>
       <c r="O49">
-        <v>-12.8802</v>
+        <v>-12.88</v>
       </c>
       <c r="P49">
-        <v>-1.71707</v>
+        <v>-1.71703</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -3781,10 +3781,10 @@
         <v>29</v>
       </c>
       <c r="O50">
-        <v>-13.6033</v>
+        <v>-13.242</v>
       </c>
       <c r="P50">
-        <v>-1.81349</v>
+        <v>-1.76531</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -3831,10 +3831,10 @@
         <v>29</v>
       </c>
       <c r="O51">
-        <v>-14.3776</v>
+        <v>-13.603</v>
       </c>
       <c r="P51">
-        <v>-1.91672</v>
+        <v>-1.81345</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -3881,10 +3881,10 @@
         <v>29</v>
       </c>
       <c r="O52">
-        <v>-15.1527</v>
+        <v>-13.9649</v>
       </c>
       <c r="P52">
-        <v>-2.02007</v>
+        <v>-1.8617</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -3931,10 +3931,10 @@
         <v>29</v>
       </c>
       <c r="O53">
-        <v>-15.8237</v>
+        <v>-14.3779</v>
       </c>
       <c r="P53">
-        <v>-2.10953</v>
+        <v>-1.91675</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -3981,10 +3981,10 @@
         <v>29</v>
       </c>
       <c r="O54">
-        <v>-16.495</v>
+        <v>-14.739</v>
       </c>
       <c r="P54">
-        <v>-2.19905</v>
+        <v>-1.96491</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -4031,10 +4031,10 @@
         <v>29</v>
       </c>
       <c r="O55">
-        <v>-17.2696</v>
+        <v>-15.1528</v>
       </c>
       <c r="P55">
-        <v>-2.30233</v>
+        <v>-2.02008</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -4081,10 +4081,10 @@
         <v>29</v>
       </c>
       <c r="O56">
-        <v>-18.0958</v>
+        <v>-15.5142</v>
       </c>
       <c r="P56">
-        <v>-2.41248</v>
+        <v>-2.06826</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -4131,10 +4131,10 @@
         <v>29</v>
       </c>
       <c r="O57">
-        <v>-18.3539</v>
+        <v>-15.7723</v>
       </c>
       <c r="P57">
-        <v>-2.44689</v>
+        <v>-2.10268</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -4181,10 +4181,10 @@
         <v>29</v>
       </c>
       <c r="O58">
-        <v>-19.2836</v>
+        <v>-16.1854</v>
       </c>
       <c r="P58">
-        <v>-2.57086</v>
+        <v>-2.15776</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -4231,10 +4231,10 @@
         <v>29</v>
       </c>
       <c r="O59">
-        <v>-20.1569</v>
+        <v>-16.5469</v>
       </c>
       <c r="P59">
-        <v>-2.6873</v>
+        <v>-2.20596</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -4281,10 +4281,10 @@
         <v>29</v>
       </c>
       <c r="O60">
-        <v>-20.9878</v>
+        <v>-16.9598</v>
       </c>
       <c r="P60">
-        <v>-2.7981</v>
+        <v>-2.26101</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -4331,10 +4331,10 @@
         <v>29</v>
       </c>
       <c r="O61">
-        <v>-21.7108</v>
+        <v>-17.3203</v>
       </c>
       <c r="P61">
-        <v>-2.89449</v>
+        <v>-2.30231</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -4381,10 +4381,10 @@
         <v>29</v>
       </c>
       <c r="O62">
-        <v>-22.692</v>
+        <v>-17.6312</v>
       </c>
       <c r="P62">
-        <v>-3.02531</v>
+        <v>-2.35054</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -4431,10 +4431,10 @@
         <v>29</v>
       </c>
       <c r="O63">
-        <v>-23.5183</v>
+        <v>-18.096</v>
       </c>
       <c r="P63">
-        <v>-3.13548</v>
+        <v>-2.41251</v>
       </c>
     </row>
     <row r="64" spans="1:16">
@@ -4481,10 +4481,10 @@
         <v>29</v>
       </c>
       <c r="O64">
-        <v>-24.4995</v>
+        <v>-18.6115</v>
       </c>
       <c r="P64">
-        <v>-3.26631</v>
+        <v>-2.48124</v>
       </c>
     </row>
     <row r="65" spans="1:16">
@@ -4531,10 +4531,10 @@
         <v>163</v>
       </c>
       <c r="O65">
-        <v>33.7902</v>
+        <v>27.0806</v>
       </c>
       <c r="P65">
-        <v>4.09597</v>
+        <v>3.28269</v>
       </c>
     </row>
     <row r="66" spans="1:16">
@@ -4581,10 +4581,10 @@
         <v>163</v>
       </c>
       <c r="O66">
-        <v>32.7377</v>
+        <v>26.4298</v>
       </c>
       <c r="P66">
-        <v>3.96838</v>
+        <v>3.20379</v>
       </c>
     </row>
     <row r="67" spans="1:16">
@@ -4631,10 +4631,10 @@
         <v>163</v>
       </c>
       <c r="O67">
-        <v>31.6364</v>
+        <v>25.8291</v>
       </c>
       <c r="P67">
-        <v>3.83491</v>
+        <v>3.13099</v>
       </c>
     </row>
     <row r="68" spans="1:16">
@@ -4681,10 +4681,10 @@
         <v>163</v>
       </c>
       <c r="O68">
-        <v>30.4351</v>
+        <v>25.1783</v>
       </c>
       <c r="P68">
-        <v>3.68929</v>
+        <v>3.0521</v>
       </c>
     </row>
     <row r="69" spans="1:16">
@@ -4731,10 +4731,10 @@
         <v>163</v>
       </c>
       <c r="O69">
-        <v>29.5336</v>
+        <v>24.5775</v>
       </c>
       <c r="P69">
-        <v>3.58002</v>
+        <v>2.97927</v>
       </c>
     </row>
     <row r="70" spans="1:16">
@@ -4781,10 +4781,10 @@
         <v>163</v>
       </c>
       <c r="O70">
-        <v>28.2823</v>
+        <v>23.9793</v>
       </c>
       <c r="P70">
-        <v>3.42835</v>
+        <v>2.90676</v>
       </c>
     </row>
     <row r="71" spans="1:16">
@@ -4831,10 +4831,10 @@
         <v>163</v>
       </c>
       <c r="O71">
-        <v>27.231</v>
+        <v>23.3255</v>
       </c>
       <c r="P71">
-        <v>3.30092</v>
+        <v>2.82751</v>
       </c>
     </row>
     <row r="72" spans="1:16">
@@ -4881,10 +4881,10 @@
         <v>163</v>
       </c>
       <c r="O72">
-        <v>26.1294</v>
+        <v>22.7246</v>
       </c>
       <c r="P72">
-        <v>3.16738</v>
+        <v>2.75468</v>
       </c>
     </row>
     <row r="73" spans="1:16">
@@ -4931,10 +4931,10 @@
         <v>163</v>
       </c>
       <c r="O73">
-        <v>25.8794</v>
+        <v>22.2739</v>
       </c>
       <c r="P73">
-        <v>3.13708</v>
+        <v>2.70005</v>
       </c>
     </row>
     <row r="74" spans="1:16">
@@ -4981,10 +4981,10 @@
         <v>163</v>
       </c>
       <c r="O74">
-        <v>24.7275</v>
+        <v>21.5778</v>
       </c>
       <c r="P74">
-        <v>2.99745</v>
+        <v>2.61567</v>
       </c>
     </row>
     <row r="75" spans="1:16">
@@ -5031,10 +5031,10 @@
         <v>163</v>
       </c>
       <c r="O75">
-        <v>23.576</v>
+        <v>20.9729</v>
       </c>
       <c r="P75">
-        <v>2.85789</v>
+        <v>2.54235</v>
       </c>
     </row>
     <row r="76" spans="1:16">
@@ -5081,10 +5081,10 @@
         <v>163</v>
       </c>
       <c r="O76">
-        <v>22.4241</v>
+        <v>20.4213</v>
       </c>
       <c r="P76">
-        <v>2.71825</v>
+        <v>2.47548</v>
       </c>
     </row>
     <row r="77" spans="1:16">
@@ -5131,10 +5131,10 @@
         <v>163</v>
       </c>
       <c r="O77">
-        <v>21.3729</v>
+        <v>19.8704</v>
       </c>
       <c r="P77">
-        <v>2.59085</v>
+        <v>2.40872</v>
       </c>
     </row>
     <row r="78" spans="1:16">
@@ -5181,10 +5181,10 @@
         <v>163</v>
       </c>
       <c r="O78">
-        <v>20.2713</v>
+        <v>19.2695</v>
       </c>
       <c r="P78">
-        <v>2.45731</v>
+        <v>2.33589</v>
       </c>
     </row>
     <row r="79" spans="1:16">
@@ -5231,10 +5231,10 @@
         <v>163</v>
       </c>
       <c r="O79">
-        <v>19.1227</v>
+        <v>18.6687</v>
       </c>
       <c r="P79">
-        <v>2.31808</v>
+        <v>2.26305</v>
       </c>
     </row>
     <row r="80" spans="1:16">
@@ -5281,7 +5281,7 @@
         <v>163</v>
       </c>
       <c r="O80">
-        <v>18.0678</v>
+        <v>18.0679</v>
       </c>
       <c r="P80">
         <v>2.19023</v>
@@ -5331,10 +5331,10 @@
         <v>163</v>
       </c>
       <c r="O81">
-        <v>18.0182</v>
+        <v>17.9687</v>
       </c>
       <c r="P81">
-        <v>2.19022</v>
+        <v>2.1782</v>
       </c>
     </row>
     <row r="82" spans="1:16">
@@ -5381,10 +5381,10 @@
         <v>163</v>
       </c>
       <c r="O82">
-        <v>16.6668</v>
+        <v>16.7171</v>
       </c>
       <c r="P82">
-        <v>2.02041</v>
+        <v>2.0265</v>
       </c>
     </row>
     <row r="83" spans="1:16">
@@ -5431,10 +5431,10 @@
         <v>163</v>
       </c>
       <c r="O83">
-        <v>15.4642</v>
+        <v>15.4641</v>
       </c>
       <c r="P83">
-        <v>1.87464</v>
+        <v>1.87463</v>
       </c>
     </row>
     <row r="84" spans="1:16">
@@ -5481,10 +5481,10 @@
         <v>163</v>
       </c>
       <c r="O84">
-        <v>14.1626</v>
+        <v>14.0625</v>
       </c>
       <c r="P84">
-        <v>1.71687</v>
+        <v>1.70473</v>
       </c>
     </row>
     <row r="85" spans="1:16">
@@ -5531,10 +5531,10 @@
         <v>163</v>
       </c>
       <c r="O85">
-        <v>12.8615</v>
+        <v>12.8104</v>
       </c>
       <c r="P85">
-        <v>1.55916</v>
+        <v>1.55295</v>
       </c>
     </row>
     <row r="86" spans="1:16">
@@ -5581,10 +5581,10 @@
         <v>163</v>
       </c>
       <c r="O86">
-        <v>11.5086</v>
+        <v>11.5085</v>
       </c>
       <c r="P86">
-        <v>1.39517</v>
+        <v>1.39515</v>
       </c>
     </row>
     <row r="87" spans="1:16">
@@ -5631,10 +5631,10 @@
         <v>163</v>
       </c>
       <c r="O87">
-        <v>10.1566</v>
+        <v>10.1068</v>
       </c>
       <c r="P87">
-        <v>1.23129</v>
+        <v>1.22526</v>
       </c>
     </row>
     <row r="88" spans="1:16">
@@ -5681,10 +5681,10 @@
         <v>163</v>
       </c>
       <c r="O88">
-        <v>8.904679999999999</v>
+        <v>8.904640000000001</v>
       </c>
       <c r="P88">
-        <v>1.07954</v>
+        <v>1.07953</v>
       </c>
     </row>
     <row r="89" spans="1:16">
@@ -5731,10 +5731,10 @@
         <v>163</v>
       </c>
       <c r="O89">
-        <v>7.856409999999999</v>
+        <v>7.853219999999999</v>
       </c>
       <c r="P89">
-        <v>0.958152</v>
+        <v>0.952093</v>
       </c>
     </row>
     <row r="90" spans="1:16">
@@ -5781,10 +5781,10 @@
         <v>163</v>
       </c>
       <c r="O90">
-        <v>6.70176</v>
+        <v>6.701829999999999</v>
       </c>
       <c r="P90">
-        <v>0.812515</v>
+        <v>0.812539</v>
       </c>
     </row>
     <row r="91" spans="1:16">
@@ -5831,10 +5831,10 @@
         <v>163</v>
       </c>
       <c r="O91">
-        <v>5.60113</v>
+        <v>5.65038</v>
       </c>
       <c r="P91">
-        <v>0.679115</v>
+        <v>0.685079</v>
       </c>
     </row>
     <row r="92" spans="1:16">
@@ -5881,10 +5881,10 @@
         <v>163</v>
       </c>
       <c r="O92">
-        <v>4.49904</v>
+        <v>4.44996</v>
       </c>
       <c r="P92">
-        <v>0.545519</v>
+        <v>0.539578</v>
       </c>
     </row>
     <row r="93" spans="1:16">
@@ -5931,10 +5931,10 @@
         <v>163</v>
       </c>
       <c r="O93">
-        <v>3.40064</v>
+        <v>3.39734</v>
       </c>
       <c r="P93">
-        <v>0.412364</v>
+        <v>0.411991</v>
       </c>
     </row>
     <row r="94" spans="1:16">
@@ -5981,10 +5981,10 @@
         <v>163</v>
       </c>
       <c r="O94">
-        <v>2.24654</v>
+        <v>2.24672</v>
       </c>
       <c r="P94">
-        <v>0.272498</v>
+        <v>0.272514</v>
       </c>
     </row>
     <row r="95" spans="1:16">
@@ -6031,7 +6031,7 @@
         <v>163</v>
       </c>
       <c r="O95">
-        <v>1.24766</v>
+        <v>1.24765</v>
       </c>
       <c r="P95">
         <v>0.151416</v>
@@ -6081,10 +6081,10 @@
         <v>163</v>
       </c>
       <c r="O96">
-        <v>0.0462314</v>
+        <v>0.0462312</v>
       </c>
       <c r="P96">
-        <v>0.0057856</v>
+        <v>0.00578558</v>
       </c>
     </row>
     <row r="97" spans="1:16">
@@ -6181,10 +6181,10 @@
         <v>163</v>
       </c>
       <c r="O98">
-        <v>-2.30357</v>
+        <v>-2.25775</v>
       </c>
       <c r="P98">
-        <v>-0.273478</v>
+        <v>-0.273494</v>
       </c>
     </row>
     <row r="99" spans="1:16">
@@ -6231,10 +6231,10 @@
         <v>163</v>
       </c>
       <c r="O99">
-        <v>-3.35932</v>
+        <v>-3.30928</v>
       </c>
       <c r="P99">
-        <v>-0.406994</v>
+        <v>-0.400942</v>
       </c>
     </row>
     <row r="100" spans="1:16">
@@ -6331,10 +6331,10 @@
         <v>163</v>
       </c>
       <c r="O101">
-        <v>-5.56042</v>
+        <v>-5.56055</v>
       </c>
       <c r="P101">
-        <v>-0.673807</v>
+        <v>-0.67382</v>
       </c>
     </row>
     <row r="102" spans="1:16">
@@ -6381,10 +6381,10 @@
         <v>163</v>
       </c>
       <c r="O102">
-        <v>-6.71173</v>
+        <v>-6.71154</v>
       </c>
       <c r="P102">
-        <v>-0.813347</v>
+        <v>-0.813335</v>
       </c>
     </row>
     <row r="103" spans="1:16">
@@ -6431,10 +6431,10 @@
         <v>163</v>
       </c>
       <c r="O103">
-        <v>-7.91286</v>
+        <v>-7.913130000000001</v>
       </c>
       <c r="P103">
-        <v>-0.95895</v>
+        <v>-0.958981</v>
       </c>
     </row>
     <row r="104" spans="1:16">
@@ -6484,7 +6484,7 @@
         <v>-8.963900000000001</v>
       </c>
       <c r="P104">
-        <v>-1.08634</v>
+        <v>-1.08635</v>
       </c>
     </row>
     <row r="105" spans="1:16">
@@ -6531,10 +6531,10 @@
         <v>163</v>
       </c>
       <c r="O105">
-        <v>-10.1154</v>
+        <v>-10.1155</v>
       </c>
       <c r="P105">
-        <v>-1.22594</v>
+        <v>-1.22593</v>
       </c>
     </row>
     <row r="106" spans="1:16">
@@ -6581,10 +6581,10 @@
         <v>163</v>
       </c>
       <c r="O106">
-        <v>-11.4169</v>
+        <v>-11.4666</v>
       </c>
       <c r="P106">
-        <v>-1.38368</v>
+        <v>-1.3897</v>
       </c>
     </row>
     <row r="107" spans="1:16">
@@ -6631,10 +6631,10 @@
         <v>163</v>
       </c>
       <c r="O107">
-        <v>-12.7683</v>
+        <v>-12.7684</v>
       </c>
       <c r="P107">
-        <v>-1.54748</v>
+        <v>-1.54749</v>
       </c>
     </row>
     <row r="108" spans="1:16">
@@ -6681,10 +6681,10 @@
         <v>163</v>
       </c>
       <c r="O108">
-        <v>-14.0695</v>
+        <v>-14.1197</v>
       </c>
       <c r="P108">
-        <v>-1.7052</v>
+        <v>-1.71128</v>
       </c>
     </row>
     <row r="109" spans="1:16">
@@ -6731,10 +6731,10 @@
         <v>163</v>
       </c>
       <c r="O109">
-        <v>-15.421</v>
+        <v>-15.471</v>
       </c>
       <c r="P109">
-        <v>-1.86903</v>
+        <v>-1.87509</v>
       </c>
     </row>
     <row r="110" spans="1:16">
@@ -6781,10 +6781,10 @@
         <v>163</v>
       </c>
       <c r="O110">
-        <v>-16.6724</v>
+        <v>-16.7726</v>
       </c>
       <c r="P110">
-        <v>-2.02071</v>
+        <v>-2.03285</v>
       </c>
     </row>
     <row r="111" spans="1:16">
@@ -6831,10 +6831,10 @@
         <v>163</v>
       </c>
       <c r="O111">
-        <v>-18.0239</v>
+        <v>-18.0241</v>
       </c>
       <c r="P111">
-        <v>-2.18452</v>
+        <v>-2.18456</v>
       </c>
     </row>
     <row r="112" spans="1:16">
@@ -6881,10 +6881,10 @@
         <v>163</v>
       </c>
       <c r="O112">
-        <v>-18.1237</v>
+        <v>-18.074</v>
       </c>
       <c r="P112">
-        <v>-2.19663</v>
+        <v>-2.1906</v>
       </c>
     </row>
     <row r="113" spans="1:16">
@@ -6931,10 +6931,10 @@
         <v>163</v>
       </c>
       <c r="O113">
-        <v>-19.175</v>
+        <v>-18.7242</v>
       </c>
       <c r="P113">
-        <v>-2.32406</v>
+        <v>-2.26941</v>
       </c>
     </row>
     <row r="114" spans="1:16">
@@ -6981,10 +6981,10 @@
         <v>163</v>
       </c>
       <c r="O114">
-        <v>-20.3264</v>
+        <v>-19.2746</v>
       </c>
       <c r="P114">
-        <v>-2.46361</v>
+        <v>-2.33613</v>
       </c>
     </row>
     <row r="115" spans="1:16">
@@ -7031,10 +7031,10 @@
         <v>163</v>
       </c>
       <c r="O115">
-        <v>-21.5277</v>
+        <v>-19.8757</v>
       </c>
       <c r="P115">
-        <v>-2.60922</v>
+        <v>-2.409</v>
       </c>
     </row>
     <row r="116" spans="1:16">
@@ -7081,10 +7081,10 @@
         <v>163</v>
       </c>
       <c r="O116">
-        <v>-22.4787</v>
+        <v>-20.4267</v>
       </c>
       <c r="P116">
-        <v>-2.7245</v>
+        <v>-2.47577</v>
       </c>
     </row>
     <row r="117" spans="1:16">
@@ -7131,10 +7131,10 @@
         <v>163</v>
       </c>
       <c r="O117">
-        <v>-23.6798</v>
+        <v>-21.077</v>
       </c>
       <c r="P117">
-        <v>-2.87009</v>
+        <v>-2.55461</v>
       </c>
     </row>
     <row r="118" spans="1:16">
@@ -7181,10 +7181,10 @@
         <v>163</v>
       </c>
       <c r="O118">
-        <v>-24.8315</v>
+        <v>-21.6777</v>
       </c>
       <c r="P118">
-        <v>-3.00969</v>
+        <v>-2.62742</v>
       </c>
     </row>
     <row r="119" spans="1:16">
@@ -7231,10 +7231,10 @@
         <v>163</v>
       </c>
       <c r="O119">
-        <v>-25.9825</v>
+        <v>-22.2286</v>
       </c>
       <c r="P119">
-        <v>-3.14921</v>
+        <v>-2.69419</v>
       </c>
     </row>
     <row r="120" spans="1:16">
@@ -7281,10 +7281,10 @@
         <v>163</v>
       </c>
       <c r="O120">
-        <v>-26.1826</v>
+        <v>-22.7796</v>
       </c>
       <c r="P120">
-        <v>-3.17346</v>
+        <v>-2.76098</v>
       </c>
     </row>
     <row r="121" spans="1:16">
@@ -7331,10 +7331,10 @@
         <v>163</v>
       </c>
       <c r="O121">
-        <v>-27.2832</v>
+        <v>-23.3803</v>
       </c>
       <c r="P121">
-        <v>-3.30686</v>
+        <v>-2.83379</v>
       </c>
     </row>
     <row r="122" spans="1:16">
@@ -7381,10 +7381,10 @@
         <v>163</v>
       </c>
       <c r="O122">
-        <v>-28.5336</v>
+        <v>-23.9809</v>
       </c>
       <c r="P122">
-        <v>-3.45843</v>
+        <v>-2.90661</v>
       </c>
     </row>
     <row r="123" spans="1:16">
@@ -7431,10 +7431,10 @@
         <v>163</v>
       </c>
       <c r="O123">
-        <v>-29.7343</v>
+        <v>-24.6816</v>
       </c>
       <c r="P123">
-        <v>-3.60397</v>
+        <v>-2.99153</v>
       </c>
     </row>
     <row r="124" spans="1:16">
@@ -7481,10 +7481,10 @@
         <v>163</v>
       </c>
       <c r="O124">
-        <v>-30.6352</v>
+        <v>-25.2819</v>
       </c>
       <c r="P124">
-        <v>-3.71318</v>
+        <v>-3.06429</v>
       </c>
     </row>
     <row r="125" spans="1:16">
@@ -7531,10 +7531,10 @@
         <v>163</v>
       </c>
       <c r="O125">
-        <v>-31.9361</v>
+        <v>-25.9324</v>
       </c>
       <c r="P125">
-        <v>-3.87086</v>
+        <v>-3.14312</v>
       </c>
     </row>
     <row r="126" spans="1:16">
@@ -7581,10 +7581,10 @@
         <v>163</v>
       </c>
       <c r="O126">
-        <v>-32.9867</v>
+        <v>-26.5327</v>
       </c>
       <c r="P126">
-        <v>-3.9982</v>
+        <v>-3.21589</v>
       </c>
     </row>
     <row r="127" spans="1:16">
@@ -7631,10 +7631,10 @@
         <v>163</v>
       </c>
       <c r="O127">
-        <v>-34.1872</v>
+        <v>-27.1831</v>
       </c>
       <c r="P127">
-        <v>-4.14372</v>
+        <v>-3.29474</v>
       </c>
     </row>
     <row r="128" spans="1:16">
@@ -7681,10 +7681,10 @@
         <v>236</v>
       </c>
       <c r="O128">
-        <v>19.3247</v>
+        <v>15.709</v>
       </c>
       <c r="P128">
-        <v>2.86355</v>
+        <v>2.32788</v>
       </c>
     </row>
     <row r="129" spans="1:16">
@@ -7731,10 +7731,10 @@
         <v>236</v>
       </c>
       <c r="O129">
-        <v>18.7569</v>
+        <v>15.3469</v>
       </c>
       <c r="P129">
-        <v>2.77943</v>
+        <v>2.27418</v>
       </c>
     </row>
     <row r="130" spans="1:16">
@@ -7781,10 +7781,10 @@
         <v>236</v>
       </c>
       <c r="O130">
-        <v>18.137</v>
+        <v>15.1401</v>
       </c>
       <c r="P130">
-        <v>2.68757</v>
+        <v>2.24361</v>
       </c>
     </row>
     <row r="131" spans="1:16">
@@ -7831,10 +7831,10 @@
         <v>236</v>
       </c>
       <c r="O131">
-        <v>17.5688</v>
+        <v>14.7817</v>
       </c>
       <c r="P131">
-        <v>2.60341</v>
+        <v>2.19049</v>
       </c>
     </row>
     <row r="132" spans="1:16">
@@ -7881,10 +7881,10 @@
         <v>236</v>
       </c>
       <c r="O132">
-        <v>17.1037</v>
+        <v>14.5816</v>
       </c>
       <c r="P132">
-        <v>2.5345</v>
+        <v>2.16714</v>
       </c>
     </row>
     <row r="133" spans="1:16">
@@ -7931,10 +7931,10 @@
         <v>236</v>
       </c>
       <c r="O133">
-        <v>16.5873</v>
+        <v>14.3144</v>
       </c>
       <c r="P133">
-        <v>2.45798</v>
+        <v>2.12127</v>
       </c>
     </row>
     <row r="134" spans="1:16">
@@ -7981,10 +7981,10 @@
         <v>236</v>
       </c>
       <c r="O134">
-        <v>15.9677</v>
+        <v>14.0039</v>
       </c>
       <c r="P134">
-        <v>2.36619</v>
+        <v>2.07527</v>
       </c>
     </row>
     <row r="135" spans="1:16">
@@ -8031,10 +8031,10 @@
         <v>236</v>
       </c>
       <c r="O135">
-        <v>15.502</v>
+        <v>13.6939</v>
       </c>
       <c r="P135">
-        <v>2.2972</v>
+        <v>2.02934</v>
       </c>
     </row>
     <row r="136" spans="1:16">
@@ -8081,10 +8081,10 @@
         <v>236</v>
       </c>
       <c r="O136">
-        <v>15.3987</v>
+        <v>13.5904</v>
       </c>
       <c r="P136">
-        <v>2.28192</v>
+        <v>2.01402</v>
       </c>
     </row>
     <row r="137" spans="1:16">
@@ -8131,10 +8131,10 @@
         <v>236</v>
       </c>
       <c r="O137">
-        <v>14.7819</v>
+        <v>13.1777</v>
       </c>
       <c r="P137">
-        <v>2.19052</v>
+        <v>1.95291</v>
       </c>
     </row>
     <row r="138" spans="1:16">
@@ -8181,10 +8181,10 @@
         <v>236</v>
       </c>
       <c r="O138">
-        <v>14.2719</v>
+        <v>12.9195</v>
       </c>
       <c r="P138">
-        <v>2.11492</v>
+        <v>1.91463</v>
       </c>
     </row>
     <row r="139" spans="1:16">
@@ -8231,10 +8231,10 @@
         <v>236</v>
       </c>
       <c r="O139">
-        <v>13.6939</v>
+        <v>12.6697</v>
       </c>
       <c r="P139">
-        <v>2.02938</v>
+        <v>1.87757</v>
       </c>
     </row>
     <row r="140" spans="1:16">
@@ -8281,10 +8281,10 @@
         <v>236</v>
       </c>
       <c r="O140">
-        <v>13.3323</v>
+        <v>12.3606</v>
       </c>
       <c r="P140">
-        <v>1.97576</v>
+        <v>1.83176</v>
       </c>
     </row>
     <row r="141" spans="1:16">
@@ -8331,10 +8331,10 @@
         <v>236</v>
       </c>
       <c r="O141">
-        <v>12.661</v>
+        <v>12.0441</v>
       </c>
       <c r="P141">
-        <v>1.87632</v>
+        <v>1.78493</v>
       </c>
     </row>
     <row r="142" spans="1:16">
@@ -8381,10 +8381,10 @@
         <v>236</v>
       </c>
       <c r="O142">
-        <v>12.0438</v>
+        <v>11.7827</v>
       </c>
       <c r="P142">
-        <v>1.78487</v>
+        <v>1.74622</v>
       </c>
     </row>
     <row r="143" spans="1:16">
@@ -8431,10 +8431,10 @@
         <v>236</v>
       </c>
       <c r="O143">
-        <v>11.4813</v>
+        <v>11.4731</v>
       </c>
       <c r="P143">
-        <v>1.70149</v>
+        <v>1.70037</v>
       </c>
     </row>
     <row r="144" spans="1:16">
@@ -8481,10 +8481,10 @@
         <v>236</v>
       </c>
       <c r="O144">
-        <v>11.5241</v>
+        <v>11.473</v>
       </c>
       <c r="P144">
-        <v>1.70788</v>
+        <v>1.70034</v>
       </c>
     </row>
     <row r="145" spans="1:16">
@@ -8531,10 +8531,10 @@
         <v>236</v>
       </c>
       <c r="O145">
-        <v>10.6464</v>
+        <v>10.6457</v>
       </c>
       <c r="P145">
-        <v>1.5779</v>
+        <v>1.57775</v>
       </c>
     </row>
     <row r="146" spans="1:16">
@@ -8581,10 +8581,10 @@
         <v>236</v>
       </c>
       <c r="O146">
-        <v>9.92235</v>
+        <v>9.921759999999999</v>
       </c>
       <c r="P146">
-        <v>1.47061</v>
+        <v>1.47054</v>
       </c>
     </row>
     <row r="147" spans="1:16">
@@ -8631,10 +8631,10 @@
         <v>236</v>
       </c>
       <c r="O147">
-        <v>9.002140000000001</v>
+        <v>8.946709999999999</v>
       </c>
       <c r="P147">
-        <v>1.33429</v>
+        <v>1.32601</v>
       </c>
     </row>
     <row r="148" spans="1:16">
@@ -8681,10 +8681,10 @@
         <v>236</v>
       </c>
       <c r="O148">
-        <v>8.318860000000001</v>
+        <v>8.267719999999999</v>
       </c>
       <c r="P148">
-        <v>1.23306</v>
+        <v>1.22547</v>
       </c>
     </row>
     <row r="149" spans="1:16">
@@ -8731,10 +8731,10 @@
         <v>236</v>
       </c>
       <c r="O149">
-        <v>7.44077</v>
+        <v>7.49279</v>
       </c>
       <c r="P149">
-        <v>1.10296</v>
+        <v>1.11068</v>
       </c>
     </row>
     <row r="150" spans="1:16">
@@ -8781,10 +8781,10 @@
         <v>236</v>
       </c>
       <c r="O150">
-        <v>6.56184</v>
+        <v>6.51056</v>
       </c>
       <c r="P150">
-        <v>0.972752</v>
+        <v>0.965189</v>
       </c>
     </row>
     <row r="151" spans="1:16">
@@ -8831,10 +8831,10 @@
         <v>236</v>
       </c>
       <c r="O151">
-        <v>5.68398</v>
+        <v>5.68348</v>
       </c>
       <c r="P151">
-        <v>0.842708</v>
+        <v>0.84256</v>
       </c>
     </row>
     <row r="152" spans="1:16">
@@ -8881,10 +8881,10 @@
         <v>236</v>
       </c>
       <c r="O152">
-        <v>5.115169999999999</v>
+        <v>5.11506</v>
       </c>
       <c r="P152">
-        <v>0.75842</v>
+        <v>0.758406</v>
       </c>
     </row>
     <row r="153" spans="1:16">
@@ -8931,10 +8931,10 @@
         <v>236</v>
       </c>
       <c r="O153">
-        <v>4.442749999999999</v>
+        <v>4.44304</v>
       </c>
       <c r="P153">
-        <v>0.658821</v>
+        <v>0.658826</v>
       </c>
     </row>
     <row r="154" spans="1:16">
@@ -8981,10 +8981,10 @@
         <v>236</v>
       </c>
       <c r="O154">
-        <v>3.71872</v>
+        <v>3.71883</v>
       </c>
       <c r="P154">
-        <v>0.551527</v>
+        <v>0.551549</v>
       </c>
     </row>
     <row r="155" spans="1:16">
@@ -9031,10 +9031,10 @@
         <v>236</v>
       </c>
       <c r="O155">
-        <v>3.00241</v>
+        <v>2.9954</v>
       </c>
       <c r="P155">
-        <v>0.445367</v>
+        <v>0.444419</v>
       </c>
     </row>
     <row r="156" spans="1:16">
@@ -9084,7 +9084,7 @@
         <v>2.27322</v>
       </c>
       <c r="P156">
-        <v>0.33741</v>
+        <v>0.337409</v>
       </c>
     </row>
     <row r="157" spans="1:16">
@@ -9131,10 +9131,10 @@
         <v>236</v>
       </c>
       <c r="O157">
-        <v>1.56006</v>
+        <v>1.60008</v>
       </c>
       <c r="P157">
-        <v>0.231683</v>
+        <v>0.237648</v>
       </c>
     </row>
     <row r="158" spans="1:16">
@@ -9181,10 +9181,10 @@
         <v>236</v>
       </c>
       <c r="O158">
-        <v>0.880576</v>
+        <v>0.8806659999999999</v>
       </c>
       <c r="P158">
-        <v>0.131049</v>
+        <v>0.131066</v>
       </c>
     </row>
     <row r="159" spans="1:16">
@@ -9231,10 +9231,10 @@
         <v>236</v>
       </c>
       <c r="O159">
-        <v>0.105568</v>
+        <v>0.105695</v>
       </c>
       <c r="P159">
-        <v>0.0162389</v>
+        <v>0.0162555</v>
       </c>
     </row>
     <row r="160" spans="1:16">
@@ -9281,10 +9281,10 @@
         <v>236</v>
       </c>
       <c r="O160">
-        <v>-0.669678</v>
+        <v>-0.669481</v>
       </c>
       <c r="P160">
-        <v>-0.09861399999999999</v>
+        <v>-0.09857390000000001</v>
       </c>
     </row>
     <row r="161" spans="1:16">
@@ -9331,10 +9331,10 @@
         <v>236</v>
       </c>
       <c r="O161">
-        <v>-1.33947</v>
+        <v>-1.34474</v>
       </c>
       <c r="P161">
-        <v>-0.197886</v>
+        <v>-0.19113</v>
       </c>
     </row>
     <row r="162" spans="1:16">
@@ -9381,10 +9381,10 @@
         <v>236</v>
       </c>
       <c r="O162">
-        <v>-2.06874</v>
+        <v>-2.06858</v>
       </c>
       <c r="P162">
-        <v>-0.305857</v>
+        <v>-0.305818</v>
       </c>
     </row>
     <row r="163" spans="1:16">
@@ -9431,10 +9431,10 @@
         <v>236</v>
       </c>
       <c r="O163">
-        <v>-2.79175</v>
+        <v>-2.68885</v>
       </c>
       <c r="P163">
-        <v>-0.412989</v>
+        <v>-0.397723</v>
       </c>
     </row>
     <row r="164" spans="1:16">
@@ -9481,10 +9481,10 @@
         <v>236</v>
       </c>
       <c r="O164">
-        <v>-3.46377</v>
+        <v>-3.46402</v>
       </c>
       <c r="P164">
-        <v>-0.512564</v>
+        <v>-0.512592</v>
       </c>
     </row>
     <row r="165" spans="1:16">
@@ -9531,10 +9531,10 @@
         <v>236</v>
       </c>
       <c r="O165">
-        <v>-4.187589999999999</v>
+        <v>-4.22293</v>
       </c>
       <c r="P165">
-        <v>-0.619757</v>
+        <v>-0.625073</v>
       </c>
     </row>
     <row r="166" spans="1:16">
@@ -9581,10 +9581,10 @@
         <v>236</v>
       </c>
       <c r="O166">
-        <v>-5.006110000000001</v>
+        <v>-5.00598</v>
       </c>
       <c r="P166">
-        <v>-0.741085</v>
+        <v>-0.741075</v>
       </c>
     </row>
     <row r="167" spans="1:16">
@@ -9631,10 +9631,10 @@
         <v>236</v>
       </c>
       <c r="O167">
-        <v>-5.582789999999999</v>
+        <v>-5.58277</v>
       </c>
       <c r="P167">
-        <v>-0.826458</v>
+        <v>-0.826444</v>
       </c>
     </row>
     <row r="168" spans="1:16">
@@ -9681,10 +9681,10 @@
         <v>236</v>
       </c>
       <c r="O168">
-        <v>-6.35792</v>
+        <v>-6.357060000000001</v>
       </c>
       <c r="P168">
-        <v>-0.941259</v>
+        <v>-0.94117</v>
       </c>
     </row>
     <row r="169" spans="1:16">
@@ -9731,10 +9731,10 @@
         <v>236</v>
       </c>
       <c r="O169">
-        <v>-7.08139</v>
+        <v>-7.13237</v>
       </c>
       <c r="P169">
-        <v>-1.04847</v>
+        <v>-1.056</v>
       </c>
     </row>
     <row r="170" spans="1:16">
@@ -9781,10 +9781,10 @@
         <v>236</v>
       </c>
       <c r="O170">
-        <v>-7.796749999999999</v>
+        <v>-7.803809999999999</v>
       </c>
       <c r="P170">
-        <v>-1.15453</v>
+        <v>-1.15551</v>
       </c>
     </row>
     <row r="171" spans="1:16">
@@ -9831,10 +9831,10 @@
         <v>236</v>
       </c>
       <c r="O171">
-        <v>-8.47594</v>
+        <v>-8.424020000000001</v>
       </c>
       <c r="P171">
-        <v>-1.25508</v>
+        <v>-1.24736</v>
       </c>
     </row>
     <row r="172" spans="1:16">
@@ -9881,10 +9881,10 @@
         <v>236</v>
       </c>
       <c r="O172">
-        <v>-9.089780000000001</v>
+        <v>-9.14709</v>
       </c>
       <c r="P172">
-        <v>-1.34607</v>
+        <v>-1.35452</v>
       </c>
     </row>
     <row r="173" spans="1:16">
@@ -9931,10 +9931,10 @@
         <v>236</v>
       </c>
       <c r="O173">
-        <v>-9.81925</v>
+        <v>-9.870949999999999</v>
       </c>
       <c r="P173">
-        <v>-1.45409</v>
+        <v>-1.46175</v>
       </c>
     </row>
     <row r="174" spans="1:16">
@@ -9981,10 +9981,10 @@
         <v>236</v>
       </c>
       <c r="O174">
-        <v>-10.4909</v>
+        <v>-10.6457</v>
       </c>
       <c r="P174">
-        <v>-1.55373</v>
+        <v>-1.57653</v>
       </c>
     </row>
     <row r="175" spans="1:16">
@@ -10031,10 +10031,10 @@
         <v>236</v>
       </c>
       <c r="O175">
-        <v>-10.5364</v>
+        <v>-10.5424</v>
       </c>
       <c r="P175">
-        <v>-1.56038</v>
+        <v>-1.56122</v>
       </c>
     </row>
     <row r="176" spans="1:16">
@@ -10081,10 +10081,10 @@
         <v>236</v>
       </c>
       <c r="O176">
-        <v>-11.0591</v>
+        <v>-10.8006</v>
       </c>
       <c r="P176">
-        <v>-1.63015</v>
+        <v>-1.59947</v>
       </c>
     </row>
     <row r="177" spans="1:16">
@@ -10131,10 +10131,10 @@
         <v>236</v>
       </c>
       <c r="O177">
-        <v>-11.6275</v>
+        <v>-11.0592</v>
       </c>
       <c r="P177">
-        <v>-1.722</v>
+        <v>-1.63779</v>
       </c>
     </row>
     <row r="178" spans="1:16">
@@ -10181,10 +10181,10 @@
         <v>236</v>
       </c>
       <c r="O178">
-        <v>-12.137</v>
+        <v>-11.3173</v>
       </c>
       <c r="P178">
-        <v>-1.79752</v>
+        <v>-1.67602</v>
       </c>
     </row>
     <row r="179" spans="1:16">
@@ -10231,10 +10231,10 @@
         <v>236</v>
       </c>
       <c r="O179">
-        <v>-12.662</v>
+        <v>-11.5765</v>
       </c>
       <c r="P179">
-        <v>-1.87522</v>
+        <v>-1.71443</v>
       </c>
     </row>
     <row r="180" spans="1:16">
@@ -10281,10 +10281,10 @@
         <v>236</v>
       </c>
       <c r="O180">
-        <v>-13.1789</v>
+        <v>-11.8288</v>
       </c>
       <c r="P180">
-        <v>-1.95178</v>
+        <v>-1.75186</v>
       </c>
     </row>
     <row r="181" spans="1:16">
@@ -10331,10 +10331,10 @@
         <v>236</v>
       </c>
       <c r="O181">
-        <v>-13.7988</v>
+        <v>-12.1446</v>
       </c>
       <c r="P181">
-        <v>-2.04366</v>
+        <v>-1.79856</v>
       </c>
     </row>
     <row r="182" spans="1:16">
@@ -10381,10 +10381,10 @@
         <v>236</v>
       </c>
       <c r="O182">
-        <v>-14.3681</v>
+        <v>-12.4553</v>
       </c>
       <c r="P182">
-        <v>-2.12796</v>
+        <v>-1.84463</v>
       </c>
     </row>
     <row r="183" spans="1:16">
@@ -10431,10 +10431,10 @@
         <v>236</v>
       </c>
       <c r="O183">
-        <v>-14.4191</v>
+        <v>-12.61</v>
       </c>
       <c r="P183">
-        <v>-2.13555</v>
+        <v>-1.86752</v>
       </c>
     </row>
     <row r="184" spans="1:16">
@@ -10481,10 +10481,10 @@
         <v>236</v>
       </c>
       <c r="O184">
-        <v>-14.9883</v>
+        <v>-12.8175</v>
       </c>
       <c r="P184">
-        <v>-2.21983</v>
+        <v>-1.89827</v>
       </c>
     </row>
     <row r="185" spans="1:16">
@@ -10531,10 +10531,10 @@
         <v>236</v>
       </c>
       <c r="O185">
-        <v>-15.5565</v>
+        <v>-13.0755</v>
       </c>
       <c r="P185">
-        <v>-2.30403</v>
+        <v>-1.93647</v>
       </c>
     </row>
     <row r="186" spans="1:16">
@@ -10581,10 +10581,10 @@
         <v>236</v>
       </c>
       <c r="O186">
-        <v>-16.2281</v>
+        <v>-13.4863</v>
       </c>
       <c r="P186">
-        <v>-2.396</v>
+        <v>-1.99733</v>
       </c>
     </row>
     <row r="187" spans="1:16">
@@ -10631,10 +10631,10 @@
         <v>236</v>
       </c>
       <c r="O187">
-        <v>-16.6938</v>
+        <v>-13.7471</v>
       </c>
       <c r="P187">
-        <v>-2.47254</v>
+        <v>-2.03597</v>
       </c>
     </row>
     <row r="188" spans="1:16">
@@ -10681,10 +10681,10 @@
         <v>236</v>
       </c>
       <c r="O188">
-        <v>-17.4689</v>
+        <v>-14.0578</v>
       </c>
       <c r="P188">
-        <v>-2.58738</v>
+        <v>-2.08199</v>
       </c>
     </row>
     <row r="189" spans="1:16">
@@ -10731,10 +10731,10 @@
         <v>236</v>
       </c>
       <c r="O189">
-        <v>-17.8823</v>
+        <v>-14.4159</v>
       </c>
       <c r="P189">
-        <v>-2.64864</v>
+        <v>-2.13389</v>
       </c>
     </row>
     <row r="190" spans="1:16">
@@ -10781,10 +10781,10 @@
         <v>236</v>
       </c>
       <c r="O190">
-        <v>-18.4448</v>
+        <v>-14.5747</v>
       </c>
       <c r="P190">
-        <v>-2.732</v>
+        <v>-2.15857</v>
       </c>
     </row>
     <row r="191" spans="1:16" s="1" customFormat="1">
@@ -10842,10 +10842,10 @@
         <v>299</v>
       </c>
       <c r="O192" s="1">
-        <v>-34.1872</v>
+        <v>-27.1831</v>
       </c>
       <c r="P192" s="1">
-        <v>-4.14372</v>
+        <v>-3.29474</v>
       </c>
     </row>
     <row r="193" spans="14:16" s="1" customFormat="1">
@@ -10853,10 +10853,10 @@
         <v>300</v>
       </c>
       <c r="O193" s="1">
-        <v>33.7902</v>
+        <v>27.0806</v>
       </c>
       <c r="P193" s="1">
-        <v>4.09597</v>
+        <v>3.28269</v>
       </c>
     </row>
     <row r="194" spans="14:16" s="1" customFormat="1">
@@ -10896,10 +10896,10 @@
         <v>305</v>
       </c>
       <c r="O198" s="1">
-        <v>0.1265601185185194</v>
+        <v>0.1329494613756624</v>
       </c>
       <c r="P198" s="1">
-        <v>0.01925382433862429</v>
+        <v>0.02003467555555552</v>
       </c>
     </row>
     <row r="199" spans="14:16" s="1" customFormat="1">
@@ -10907,10 +10907,10 @@
         <v>306</v>
       </c>
       <c r="O199" s="1">
-        <v>15.88126066797503</v>
+        <v>13.91749235611894</v>
       </c>
       <c r="P199" s="1">
-        <v>2.062269895451495</v>
+        <v>1.80816625023627</v>
       </c>
     </row>
     <row r="200" spans="14:16" s="1" customFormat="1">
@@ -10918,10 +10918,10 @@
         <v>307</v>
       </c>
       <c r="O200" s="1">
-        <v>12548.39269580105</v>
+        <v>10468.25779669286</v>
       </c>
       <c r="P200" s="1">
-        <v>10710.96245183073</v>
+        <v>9025.183588435368</v>
       </c>
     </row>
     <row r="201" spans="14:16" s="1" customFormat="1"/>

--- a/dcd_top_offset_step_tsmc2p_meas.xlsx
+++ b/dcd_top_offset_step_tsmc2p_meas.xlsx
@@ -1381,10 +1381,10 @@
         <v>29</v>
       </c>
       <c r="O2">
-        <v>18.8284</v>
+        <v>23.5789</v>
       </c>
       <c r="P2">
-        <v>2.51075</v>
+        <v>3.14414</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1431,10 +1431,10 @@
         <v>29</v>
       </c>
       <c r="O3">
-        <v>18.4664</v>
+        <v>22.7011</v>
       </c>
       <c r="P3">
-        <v>2.46249</v>
+        <v>3.02712</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1481,10 +1481,10 @@
         <v>29</v>
       </c>
       <c r="O4">
-        <v>18.002</v>
+        <v>21.9265</v>
       </c>
       <c r="P4">
-        <v>2.40056</v>
+        <v>2.92382</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1531,10 +1531,10 @@
         <v>29</v>
       </c>
       <c r="O5">
-        <v>17.537</v>
+        <v>21.1517</v>
       </c>
       <c r="P5">
-        <v>2.33857</v>
+        <v>2.82051</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1581,10 +1581,10 @@
         <v>29</v>
       </c>
       <c r="O6">
-        <v>17.1753</v>
+        <v>20.4285</v>
       </c>
       <c r="P6">
-        <v>2.29032</v>
+        <v>2.7241</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1631,10 +1631,10 @@
         <v>29</v>
       </c>
       <c r="O7">
-        <v>16.7106</v>
+        <v>19.6539</v>
       </c>
       <c r="P7">
-        <v>2.22837</v>
+        <v>2.6208</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1681,10 +1681,10 @@
         <v>29</v>
       </c>
       <c r="O8">
-        <v>16.2463</v>
+        <v>18.931</v>
       </c>
       <c r="P8">
-        <v>2.16647</v>
+        <v>2.52442</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1731,10 +1731,10 @@
         <v>29</v>
       </c>
       <c r="O9">
-        <v>15.7809</v>
+        <v>18.1045</v>
       </c>
       <c r="P9">
-        <v>2.10442</v>
+        <v>2.41424</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1781,10 +1781,10 @@
         <v>29</v>
       </c>
       <c r="O10">
-        <v>15.5231</v>
+        <v>17.7952</v>
       </c>
       <c r="P10">
-        <v>2.07004</v>
+        <v>2.37298</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1831,10 +1831,10 @@
         <v>29</v>
       </c>
       <c r="O11">
-        <v>15.1616</v>
+        <v>17.0718</v>
       </c>
       <c r="P11">
-        <v>2.02184</v>
+        <v>2.27653</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1881,10 +1881,10 @@
         <v>29</v>
       </c>
       <c r="O12">
-        <v>14.7999</v>
+        <v>16.2457</v>
       </c>
       <c r="P12">
-        <v>1.97362</v>
+        <v>2.16639</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1931,10 +1931,10 @@
         <v>29</v>
       </c>
       <c r="O13">
-        <v>14.3865</v>
+        <v>15.5228</v>
       </c>
       <c r="P13">
-        <v>1.9185</v>
+        <v>2.07</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1981,10 +1981,10 @@
         <v>29</v>
       </c>
       <c r="O14">
-        <v>14.0252</v>
+        <v>14.9547</v>
       </c>
       <c r="P14">
-        <v>1.87032</v>
+        <v>1.99425</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -2031,10 +2031,10 @@
         <v>29</v>
       </c>
       <c r="O15">
-        <v>13.6638</v>
+        <v>14.2316</v>
       </c>
       <c r="P15">
-        <v>1.82213</v>
+        <v>1.89784</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -2081,10 +2081,10 @@
         <v>29</v>
       </c>
       <c r="O16">
-        <v>13.2509</v>
+        <v>13.612</v>
       </c>
       <c r="P16">
-        <v>1.76707</v>
+        <v>1.81523</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -2281,10 +2281,10 @@
         <v>29</v>
       </c>
       <c r="O20">
-        <v>11.3397</v>
+        <v>11.3915</v>
       </c>
       <c r="P20">
-        <v>1.51225</v>
+        <v>1.51916</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -2331,10 +2331,10 @@
         <v>29</v>
       </c>
       <c r="O21">
-        <v>10.41</v>
+        <v>10.3593</v>
       </c>
       <c r="P21">
-        <v>1.38828</v>
+        <v>1.38153</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -2431,7 +2431,7 @@
         <v>29</v>
       </c>
       <c r="O23">
-        <v>8.70598</v>
+        <v>8.705970000000001</v>
       </c>
       <c r="P23">
         <v>1.16109</v>
@@ -2531,10 +2531,10 @@
         <v>29</v>
       </c>
       <c r="O25">
-        <v>7.00137</v>
+        <v>7.00143</v>
       </c>
       <c r="P25">
-        <v>0.933803</v>
+        <v>0.9338109999999999</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -2631,10 +2631,10 @@
         <v>29</v>
       </c>
       <c r="O27">
-        <v>5.348409999999999</v>
+        <v>5.34864</v>
       </c>
       <c r="P27">
-        <v>0.713405</v>
+        <v>0.713438</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -2681,10 +2681,10 @@
         <v>29</v>
       </c>
       <c r="O28">
-        <v>4.470540000000001</v>
+        <v>4.47088</v>
       </c>
       <c r="P28">
-        <v>0.596374</v>
+        <v>0.596413</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -2981,7 +2981,7 @@
         <v>29</v>
       </c>
       <c r="O34">
-        <v>-0.79508</v>
+        <v>-0.795081</v>
       </c>
       <c r="P34">
         <v>-0.10572</v>
@@ -3081,10 +3081,10 @@
         <v>29</v>
       </c>
       <c r="O36">
-        <v>-2.65687</v>
+        <v>-2.65695</v>
       </c>
       <c r="P36">
-        <v>-0.353968</v>
+        <v>-0.353977</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -3231,10 +3231,10 @@
         <v>29</v>
       </c>
       <c r="O39">
-        <v>-5.23778</v>
+        <v>-5.23744</v>
       </c>
       <c r="P39">
-        <v>-0.698076</v>
+        <v>-0.698047</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -3281,10 +3281,10 @@
         <v>29</v>
       </c>
       <c r="O40">
-        <v>-6.21494</v>
+        <v>-6.11536</v>
       </c>
       <c r="P40">
-        <v>-0.828377</v>
+        <v>-0.815099</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -3331,10 +3331,10 @@
         <v>29</v>
       </c>
       <c r="O41">
-        <v>-6.94142</v>
+        <v>-6.94144</v>
       </c>
       <c r="P41">
-        <v>-0.925238</v>
+        <v>-0.92523</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -3381,10 +3381,10 @@
         <v>29</v>
       </c>
       <c r="O42">
-        <v>-7.76751</v>
+        <v>-7.76763</v>
       </c>
       <c r="P42">
-        <v>-1.03537</v>
+        <v>-1.03539</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -3584,7 +3584,7 @@
         <v>-11.3283</v>
       </c>
       <c r="P46">
-        <v>-1.51014</v>
+        <v>-1.51016</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -3631,10 +3631,10 @@
         <v>29</v>
       </c>
       <c r="O47">
-        <v>-12.0532</v>
+        <v>-12.101</v>
       </c>
       <c r="P47">
-        <v>-1.6068</v>
+        <v>-1.6132</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -3684,7 +3684,7 @@
         <v>-12.8802</v>
       </c>
       <c r="P48">
-        <v>-1.71707</v>
+        <v>-1.71706</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -3731,10 +3731,10 @@
         <v>29</v>
       </c>
       <c r="O49">
-        <v>-12.88</v>
+        <v>-12.8285</v>
       </c>
       <c r="P49">
-        <v>-1.71703</v>
+        <v>-1.71019</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -3781,10 +3781,10 @@
         <v>29</v>
       </c>
       <c r="O50">
-        <v>-13.242</v>
+        <v>-13.5</v>
       </c>
       <c r="P50">
-        <v>-1.76531</v>
+        <v>-1.7997</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -3831,10 +3831,10 @@
         <v>29</v>
       </c>
       <c r="O51">
-        <v>-13.603</v>
+        <v>-14.223</v>
       </c>
       <c r="P51">
-        <v>-1.81345</v>
+        <v>-1.89612</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -3881,10 +3881,10 @@
         <v>29</v>
       </c>
       <c r="O52">
-        <v>-13.9649</v>
+        <v>-14.9462</v>
       </c>
       <c r="P52">
-        <v>-1.8617</v>
+        <v>-1.99253</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -3931,10 +3931,10 @@
         <v>29</v>
       </c>
       <c r="O53">
-        <v>-14.3779</v>
+        <v>-15.5143</v>
       </c>
       <c r="P53">
-        <v>-1.91675</v>
+        <v>-2.0683</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -3981,10 +3981,10 @@
         <v>29</v>
       </c>
       <c r="O54">
-        <v>-14.739</v>
+        <v>-16.1821</v>
       </c>
       <c r="P54">
-        <v>-1.96491</v>
+        <v>-2.15734</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -4031,10 +4031,10 @@
         <v>29</v>
       </c>
       <c r="O55">
-        <v>-15.1528</v>
+        <v>-16.9081</v>
       </c>
       <c r="P55">
-        <v>-2.02008</v>
+        <v>-2.25413</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -4081,10 +4081,10 @@
         <v>29</v>
       </c>
       <c r="O56">
-        <v>-15.5142</v>
+        <v>-17.4763</v>
       </c>
       <c r="P56">
-        <v>-2.06826</v>
+        <v>-2.32989</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -4131,10 +4131,10 @@
         <v>29</v>
       </c>
       <c r="O57">
-        <v>-15.7723</v>
+        <v>-17.7861</v>
       </c>
       <c r="P57">
-        <v>-2.10268</v>
+        <v>-2.37118</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -4181,10 +4181,10 @@
         <v>29</v>
       </c>
       <c r="O58">
-        <v>-16.1854</v>
+        <v>-18.6121</v>
       </c>
       <c r="P58">
-        <v>-2.15776</v>
+        <v>-2.48133</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -4231,10 +4231,10 @@
         <v>29</v>
       </c>
       <c r="O59">
-        <v>-16.5469</v>
+        <v>-19.3868</v>
       </c>
       <c r="P59">
-        <v>-2.20596</v>
+        <v>-2.58461</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -4281,10 +4281,10 @@
         <v>29</v>
       </c>
       <c r="O60">
-        <v>-16.9598</v>
+        <v>-20.1616</v>
       </c>
       <c r="P60">
-        <v>-2.26101</v>
+        <v>-2.68793</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -4331,10 +4331,10 @@
         <v>29</v>
       </c>
       <c r="O61">
-        <v>-17.3203</v>
+        <v>-20.8329</v>
       </c>
       <c r="P61">
-        <v>-2.30231</v>
+        <v>-2.77744</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -4381,10 +4381,10 @@
         <v>29</v>
       </c>
       <c r="O62">
-        <v>-17.6312</v>
+        <v>-21.6589</v>
       </c>
       <c r="P62">
-        <v>-2.35054</v>
+        <v>-2.88756</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -4431,10 +4431,10 @@
         <v>29</v>
       </c>
       <c r="O63">
-        <v>-18.096</v>
+        <v>-22.4853</v>
       </c>
       <c r="P63">
-        <v>-2.41251</v>
+        <v>-2.99776</v>
       </c>
     </row>
     <row r="64" spans="1:16">
@@ -4481,10 +4481,10 @@
         <v>29</v>
       </c>
       <c r="O64">
-        <v>-18.6115</v>
+        <v>-23.3111</v>
       </c>
       <c r="P64">
-        <v>-2.48124</v>
+        <v>-3.10786</v>
       </c>
     </row>
     <row r="65" spans="1:16">
@@ -4531,10 +4531,10 @@
         <v>163</v>
       </c>
       <c r="O65">
-        <v>27.0806</v>
+        <v>32.4878</v>
       </c>
       <c r="P65">
-        <v>3.28269</v>
+        <v>3.9381</v>
       </c>
     </row>
     <row r="66" spans="1:16">
@@ -4581,10 +4581,10 @@
         <v>163</v>
       </c>
       <c r="O66">
-        <v>26.4298</v>
+        <v>31.4378</v>
       </c>
       <c r="P66">
-        <v>3.20379</v>
+        <v>3.81083</v>
       </c>
     </row>
     <row r="67" spans="1:16">
@@ -4631,10 +4631,10 @@
         <v>163</v>
       </c>
       <c r="O67">
-        <v>25.8291</v>
+        <v>30.4351</v>
       </c>
       <c r="P67">
-        <v>3.13099</v>
+        <v>3.68929</v>
       </c>
     </row>
     <row r="68" spans="1:16">
@@ -4681,10 +4681,10 @@
         <v>163</v>
       </c>
       <c r="O68">
-        <v>25.1783</v>
+        <v>29.3837</v>
       </c>
       <c r="P68">
-        <v>3.0521</v>
+        <v>3.56185</v>
       </c>
     </row>
     <row r="69" spans="1:16">
@@ -4731,10 +4731,10 @@
         <v>163</v>
       </c>
       <c r="O69">
-        <v>24.5775</v>
+        <v>28.4825</v>
       </c>
       <c r="P69">
-        <v>2.97927</v>
+        <v>3.45261</v>
       </c>
     </row>
     <row r="70" spans="1:16">
@@ -4781,10 +4781,10 @@
         <v>163</v>
       </c>
       <c r="O70">
-        <v>23.9793</v>
+        <v>27.4314</v>
       </c>
       <c r="P70">
-        <v>2.90676</v>
+        <v>3.32521</v>
       </c>
     </row>
     <row r="71" spans="1:16">
@@ -4831,10 +4831,10 @@
         <v>163</v>
       </c>
       <c r="O71">
-        <v>23.3255</v>
+        <v>26.43</v>
       </c>
       <c r="P71">
-        <v>2.82751</v>
+        <v>3.20382</v>
       </c>
     </row>
     <row r="72" spans="1:16">
@@ -4881,10 +4881,10 @@
         <v>163</v>
       </c>
       <c r="O72">
-        <v>22.7246</v>
+        <v>25.3812</v>
       </c>
       <c r="P72">
-        <v>2.75468</v>
+        <v>3.07669</v>
       </c>
     </row>
     <row r="73" spans="1:16">
@@ -4931,10 +4931,10 @@
         <v>163</v>
       </c>
       <c r="O73">
-        <v>22.2739</v>
+        <v>25.0782</v>
       </c>
       <c r="P73">
-        <v>2.70005</v>
+        <v>3.03997</v>
       </c>
     </row>
     <row r="74" spans="1:16">
@@ -4981,10 +4981,10 @@
         <v>163</v>
       </c>
       <c r="O74">
-        <v>21.5778</v>
+        <v>24.0269</v>
       </c>
       <c r="P74">
-        <v>2.61567</v>
+        <v>2.91255</v>
       </c>
     </row>
     <row r="75" spans="1:16">
@@ -5031,10 +5031,10 @@
         <v>163</v>
       </c>
       <c r="O75">
-        <v>20.9729</v>
+        <v>22.9804</v>
       </c>
       <c r="P75">
-        <v>2.54235</v>
+        <v>2.79112</v>
       </c>
     </row>
     <row r="76" spans="1:16">
@@ -5081,10 +5081,10 @@
         <v>163</v>
       </c>
       <c r="O76">
-        <v>20.4213</v>
+        <v>21.9736</v>
       </c>
       <c r="P76">
-        <v>2.47548</v>
+        <v>2.66365</v>
       </c>
     </row>
     <row r="77" spans="1:16">
@@ -5131,10 +5131,10 @@
         <v>163</v>
       </c>
       <c r="O77">
-        <v>19.8704</v>
+        <v>21.073</v>
       </c>
       <c r="P77">
-        <v>2.40872</v>
+        <v>2.5545</v>
       </c>
     </row>
     <row r="78" spans="1:16">
@@ -5181,10 +5181,10 @@
         <v>163</v>
       </c>
       <c r="O78">
-        <v>19.2695</v>
+        <v>19.9714</v>
       </c>
       <c r="P78">
-        <v>2.33589</v>
+        <v>2.42096</v>
       </c>
     </row>
     <row r="79" spans="1:16">
@@ -5231,10 +5231,10 @@
         <v>163</v>
       </c>
       <c r="O79">
-        <v>18.6687</v>
+        <v>19.0693</v>
       </c>
       <c r="P79">
-        <v>2.26305</v>
+        <v>2.31162</v>
       </c>
     </row>
     <row r="80" spans="1:16">
@@ -5381,10 +5381,10 @@
         <v>163</v>
       </c>
       <c r="O82">
-        <v>16.7171</v>
+        <v>16.7662</v>
       </c>
       <c r="P82">
-        <v>2.0265</v>
+        <v>2.03245</v>
       </c>
     </row>
     <row r="83" spans="1:16">
@@ -5434,7 +5434,7 @@
         <v>15.4641</v>
       </c>
       <c r="P83">
-        <v>1.87463</v>
+        <v>1.87462</v>
       </c>
     </row>
     <row r="84" spans="1:16">
@@ -5481,10 +5481,10 @@
         <v>163</v>
       </c>
       <c r="O84">
-        <v>14.0625</v>
+        <v>14.1124</v>
       </c>
       <c r="P84">
-        <v>1.70473</v>
+        <v>1.71079</v>
       </c>
     </row>
     <row r="85" spans="1:16">
@@ -5881,10 +5881,10 @@
         <v>163</v>
       </c>
       <c r="O92">
-        <v>4.44996</v>
+        <v>4.450019999999999</v>
       </c>
       <c r="P92">
-        <v>0.539578</v>
+        <v>0.545529</v>
       </c>
     </row>
     <row r="93" spans="1:16">
@@ -5931,10 +5931,10 @@
         <v>163</v>
       </c>
       <c r="O93">
-        <v>3.39734</v>
+        <v>3.39764</v>
       </c>
       <c r="P93">
-        <v>0.411991</v>
+        <v>0.412028</v>
       </c>
     </row>
     <row r="94" spans="1:16">
@@ -6081,10 +6081,10 @@
         <v>163</v>
       </c>
       <c r="O96">
-        <v>0.0462312</v>
+        <v>0.0462311</v>
       </c>
       <c r="P96">
-        <v>0.00578558</v>
+        <v>0.00578557</v>
       </c>
     </row>
     <row r="97" spans="1:16">
@@ -6481,10 +6481,10 @@
         <v>163</v>
       </c>
       <c r="O104">
-        <v>-8.963900000000001</v>
+        <v>-8.91422</v>
       </c>
       <c r="P104">
-        <v>-1.08635</v>
+        <v>-1.08033</v>
       </c>
     </row>
     <row r="105" spans="1:16">
@@ -6881,10 +6881,10 @@
         <v>163</v>
       </c>
       <c r="O112">
-        <v>-18.074</v>
+        <v>-18.0739</v>
       </c>
       <c r="P112">
-        <v>-2.1906</v>
+        <v>-2.19059</v>
       </c>
     </row>
     <row r="113" spans="1:16">
@@ -6931,10 +6931,10 @@
         <v>163</v>
       </c>
       <c r="O113">
-        <v>-18.7242</v>
+        <v>-19.0749</v>
       </c>
       <c r="P113">
-        <v>-2.26941</v>
+        <v>-2.31193</v>
       </c>
     </row>
     <row r="114" spans="1:16">
@@ -6981,10 +6981,10 @@
         <v>163</v>
       </c>
       <c r="O114">
-        <v>-19.2746</v>
+        <v>-20.076</v>
       </c>
       <c r="P114">
-        <v>-2.33613</v>
+        <v>-2.43327</v>
       </c>
     </row>
     <row r="115" spans="1:16">
@@ -7031,10 +7031,10 @@
         <v>163</v>
       </c>
       <c r="O115">
-        <v>-19.8757</v>
+        <v>-21.1273</v>
       </c>
       <c r="P115">
-        <v>-2.409</v>
+        <v>-2.56069</v>
       </c>
     </row>
     <row r="116" spans="1:16">
@@ -7081,10 +7081,10 @@
         <v>163</v>
       </c>
       <c r="O116">
-        <v>-20.4267</v>
+        <v>-22.078</v>
       </c>
       <c r="P116">
-        <v>-2.47577</v>
+        <v>-2.67594</v>
       </c>
     </row>
     <row r="117" spans="1:16">
@@ -7131,10 +7131,10 @@
         <v>163</v>
       </c>
       <c r="O117">
-        <v>-21.077</v>
+        <v>-23.0798</v>
       </c>
       <c r="P117">
-        <v>-2.55461</v>
+        <v>-2.79737</v>
       </c>
     </row>
     <row r="118" spans="1:16">
@@ -7181,10 +7181,10 @@
         <v>163</v>
       </c>
       <c r="O118">
-        <v>-21.6777</v>
+        <v>-24.1311</v>
       </c>
       <c r="P118">
-        <v>-2.62742</v>
+        <v>-2.92479</v>
       </c>
     </row>
     <row r="119" spans="1:16">
@@ -7231,10 +7231,10 @@
         <v>163</v>
       </c>
       <c r="O119">
-        <v>-22.2286</v>
+        <v>-25.182</v>
       </c>
       <c r="P119">
-        <v>-2.69419</v>
+        <v>-3.05217</v>
       </c>
     </row>
     <row r="120" spans="1:16">
@@ -7281,10 +7281,10 @@
         <v>163</v>
       </c>
       <c r="O120">
-        <v>-22.7796</v>
+        <v>-25.482</v>
       </c>
       <c r="P120">
-        <v>-2.76098</v>
+        <v>-3.08855</v>
       </c>
     </row>
     <row r="121" spans="1:16">
@@ -7331,10 +7331,10 @@
         <v>163</v>
       </c>
       <c r="O121">
-        <v>-23.3803</v>
+        <v>-26.5329</v>
       </c>
       <c r="P121">
-        <v>-2.83379</v>
+        <v>-3.21592</v>
       </c>
     </row>
     <row r="122" spans="1:16">
@@ -7381,10 +7381,10 @@
         <v>163</v>
       </c>
       <c r="O122">
-        <v>-23.9809</v>
+        <v>-27.5336</v>
       </c>
       <c r="P122">
-        <v>-2.90661</v>
+        <v>-3.33722</v>
       </c>
     </row>
     <row r="123" spans="1:16">
@@ -7431,10 +7431,10 @@
         <v>163</v>
       </c>
       <c r="O123">
-        <v>-24.6816</v>
+        <v>-28.6839</v>
       </c>
       <c r="P123">
-        <v>-2.99153</v>
+        <v>-3.47665</v>
       </c>
     </row>
     <row r="124" spans="1:16">
@@ -7481,10 +7481,10 @@
         <v>163</v>
       </c>
       <c r="O124">
-        <v>-25.2819</v>
+        <v>-29.6345</v>
       </c>
       <c r="P124">
-        <v>-3.06429</v>
+        <v>-3.59187</v>
       </c>
     </row>
     <row r="125" spans="1:16">
@@ -7531,10 +7531,10 @@
         <v>163</v>
       </c>
       <c r="O125">
-        <v>-25.9324</v>
+        <v>-30.6851</v>
       </c>
       <c r="P125">
-        <v>-3.14312</v>
+        <v>-3.71922</v>
       </c>
     </row>
     <row r="126" spans="1:16">
@@ -7581,10 +7581,10 @@
         <v>163</v>
       </c>
       <c r="O126">
-        <v>-26.5327</v>
+        <v>-31.7856</v>
       </c>
       <c r="P126">
-        <v>-3.21589</v>
+        <v>-3.85262</v>
       </c>
     </row>
     <row r="127" spans="1:16">
@@ -7631,10 +7631,10 @@
         <v>163</v>
       </c>
       <c r="O127">
-        <v>-27.1831</v>
+        <v>-32.8364</v>
       </c>
       <c r="P127">
-        <v>-3.29474</v>
+        <v>-3.97998</v>
       </c>
     </row>
     <row r="128" spans="1:16">
@@ -7681,10 +7681,10 @@
         <v>236</v>
       </c>
       <c r="O128">
-        <v>15.709</v>
+        <v>18.6533</v>
       </c>
       <c r="P128">
-        <v>2.32788</v>
+        <v>2.7641</v>
       </c>
     </row>
     <row r="129" spans="1:16">
@@ -7731,10 +7731,10 @@
         <v>236</v>
       </c>
       <c r="O129">
-        <v>15.3469</v>
+        <v>17.9893</v>
       </c>
       <c r="P129">
-        <v>2.27418</v>
+        <v>2.66564</v>
       </c>
     </row>
     <row r="130" spans="1:16">
@@ -7781,10 +7781,10 @@
         <v>236</v>
       </c>
       <c r="O130">
-        <v>15.1401</v>
+        <v>17.5687</v>
       </c>
       <c r="P130">
-        <v>2.24361</v>
+        <v>2.60337</v>
       </c>
     </row>
     <row r="131" spans="1:16">
@@ -7831,10 +7831,10 @@
         <v>236</v>
       </c>
       <c r="O131">
-        <v>14.7817</v>
+        <v>17.0522</v>
       </c>
       <c r="P131">
-        <v>2.19049</v>
+        <v>2.5269</v>
       </c>
     </row>
     <row r="132" spans="1:16">
@@ -7881,10 +7881,10 @@
         <v>236</v>
       </c>
       <c r="O132">
-        <v>14.5816</v>
+        <v>16.5879</v>
       </c>
       <c r="P132">
-        <v>2.16714</v>
+        <v>2.45808</v>
       </c>
     </row>
     <row r="133" spans="1:16">
@@ -7931,10 +7931,10 @@
         <v>236</v>
       </c>
       <c r="O133">
-        <v>14.3144</v>
+        <v>16.1226</v>
       </c>
       <c r="P133">
-        <v>2.12127</v>
+        <v>2.3892</v>
       </c>
     </row>
     <row r="134" spans="1:16">
@@ -7981,10 +7981,10 @@
         <v>236</v>
       </c>
       <c r="O134">
-        <v>14.0039</v>
+        <v>15.6056</v>
       </c>
       <c r="P134">
-        <v>2.07527</v>
+        <v>2.31257</v>
       </c>
     </row>
     <row r="135" spans="1:16">
@@ -8031,10 +8031,10 @@
         <v>236</v>
       </c>
       <c r="O135">
-        <v>13.6939</v>
+        <v>15.1403</v>
       </c>
       <c r="P135">
-        <v>2.02934</v>
+        <v>2.24335</v>
       </c>
     </row>
     <row r="136" spans="1:16">
@@ -8081,10 +8081,10 @@
         <v>236</v>
       </c>
       <c r="O136">
-        <v>13.5904</v>
+        <v>14.986</v>
       </c>
       <c r="P136">
-        <v>2.01402</v>
+        <v>2.22074</v>
       </c>
     </row>
     <row r="137" spans="1:16">
@@ -8131,10 +8131,10 @@
         <v>236</v>
       </c>
       <c r="O137">
-        <v>13.1777</v>
+        <v>14.5204</v>
       </c>
       <c r="P137">
-        <v>1.95291</v>
+        <v>2.15183</v>
       </c>
     </row>
     <row r="138" spans="1:16">
@@ -8181,10 +8181,10 @@
         <v>236</v>
       </c>
       <c r="O138">
-        <v>12.9195</v>
+        <v>13.9638</v>
       </c>
       <c r="P138">
-        <v>1.91463</v>
+        <v>2.06934</v>
       </c>
     </row>
     <row r="139" spans="1:16">
@@ -8231,10 +8231,10 @@
         <v>236</v>
       </c>
       <c r="O139">
-        <v>12.6697</v>
+        <v>13.5537</v>
       </c>
       <c r="P139">
-        <v>1.87757</v>
+        <v>2.00858</v>
       </c>
     </row>
     <row r="140" spans="1:16">
@@ -8281,10 +8281,10 @@
         <v>236</v>
       </c>
       <c r="O140">
-        <v>12.3606</v>
+        <v>13.0746</v>
       </c>
       <c r="P140">
-        <v>1.83176</v>
+        <v>1.93759</v>
       </c>
     </row>
     <row r="141" spans="1:16">
@@ -8331,10 +8331,10 @@
         <v>236</v>
       </c>
       <c r="O141">
-        <v>12.0441</v>
+        <v>12.5732</v>
       </c>
       <c r="P141">
-        <v>1.78493</v>
+        <v>1.86325</v>
       </c>
     </row>
     <row r="142" spans="1:16">
@@ -8381,10 +8381,10 @@
         <v>236</v>
       </c>
       <c r="O142">
-        <v>11.7827</v>
+        <v>12.1444</v>
       </c>
       <c r="P142">
-        <v>1.74622</v>
+        <v>1.79977</v>
       </c>
     </row>
     <row r="143" spans="1:16">
@@ -8631,10 +8631,10 @@
         <v>236</v>
       </c>
       <c r="O147">
-        <v>8.946709999999999</v>
+        <v>9.0443</v>
       </c>
       <c r="P147">
-        <v>1.32601</v>
+        <v>1.34788</v>
       </c>
     </row>
     <row r="148" spans="1:16">
@@ -9284,7 +9284,7 @@
         <v>-0.669481</v>
       </c>
       <c r="P160">
-        <v>-0.09857390000000001</v>
+        <v>-0.09857399999999999</v>
       </c>
     </row>
     <row r="161" spans="1:16">
@@ -9481,10 +9481,10 @@
         <v>236</v>
       </c>
       <c r="O164">
-        <v>-3.46402</v>
+        <v>-3.46424</v>
       </c>
       <c r="P164">
-        <v>-0.512592</v>
+        <v>-0.512578</v>
       </c>
     </row>
     <row r="165" spans="1:16">
@@ -9531,10 +9531,10 @@
         <v>236</v>
       </c>
       <c r="O165">
-        <v>-4.22293</v>
+        <v>-4.188029999999999</v>
       </c>
       <c r="P165">
-        <v>-0.625073</v>
+        <v>-0.619844</v>
       </c>
     </row>
     <row r="166" spans="1:16">
@@ -9681,10 +9681,10 @@
         <v>236</v>
       </c>
       <c r="O168">
-        <v>-6.357060000000001</v>
+        <v>-6.408589999999999</v>
       </c>
       <c r="P168">
-        <v>-0.94117</v>
+        <v>-0.941258</v>
       </c>
     </row>
     <row r="169" spans="1:16">
@@ -9781,10 +9781,10 @@
         <v>236</v>
       </c>
       <c r="O170">
-        <v>-7.803809999999999</v>
+        <v>-7.80396</v>
       </c>
       <c r="P170">
-        <v>-1.15551</v>
+        <v>-1.15555</v>
       </c>
     </row>
     <row r="171" spans="1:16">
@@ -9831,10 +9831,10 @@
         <v>236</v>
       </c>
       <c r="O171">
-        <v>-8.424020000000001</v>
+        <v>-8.475379999999999</v>
       </c>
       <c r="P171">
-        <v>-1.24736</v>
+        <v>-1.24744</v>
       </c>
     </row>
     <row r="172" spans="1:16">
@@ -9881,10 +9881,10 @@
         <v>236</v>
       </c>
       <c r="O172">
-        <v>-9.14709</v>
+        <v>-9.09558</v>
       </c>
       <c r="P172">
-        <v>-1.35452</v>
+        <v>-1.34688</v>
       </c>
     </row>
     <row r="173" spans="1:16">
@@ -9931,10 +9931,10 @@
         <v>236</v>
       </c>
       <c r="O173">
-        <v>-9.870949999999999</v>
+        <v>-9.871090000000001</v>
       </c>
       <c r="P173">
-        <v>-1.46175</v>
+        <v>-1.4619</v>
       </c>
     </row>
     <row r="174" spans="1:16">
@@ -9981,10 +9981,10 @@
         <v>236</v>
       </c>
       <c r="O174">
-        <v>-10.6457</v>
+        <v>-10.5929</v>
       </c>
       <c r="P174">
-        <v>-1.57653</v>
+        <v>-1.56127</v>
       </c>
     </row>
     <row r="175" spans="1:16">
@@ -10031,10 +10031,10 @@
         <v>236</v>
       </c>
       <c r="O175">
-        <v>-10.5424</v>
+        <v>-10.4909</v>
       </c>
       <c r="P175">
-        <v>-1.56122</v>
+        <v>-1.55363</v>
       </c>
     </row>
     <row r="176" spans="1:16">
@@ -10081,10 +10081,10 @@
         <v>236</v>
       </c>
       <c r="O176">
-        <v>-10.8006</v>
+        <v>-11.059</v>
       </c>
       <c r="P176">
-        <v>-1.59947</v>
+        <v>-1.63776</v>
       </c>
     </row>
     <row r="177" spans="1:16">
@@ -10131,10 +10131,10 @@
         <v>236</v>
       </c>
       <c r="O177">
-        <v>-11.0592</v>
+        <v>-11.5236</v>
       </c>
       <c r="P177">
-        <v>-1.63779</v>
+        <v>-1.70659</v>
       </c>
     </row>
     <row r="178" spans="1:16">
@@ -10181,10 +10181,10 @@
         <v>236</v>
       </c>
       <c r="O178">
-        <v>-11.3173</v>
+        <v>-11.9901</v>
       </c>
       <c r="P178">
-        <v>-1.67602</v>
+        <v>-1.77574</v>
       </c>
     </row>
     <row r="179" spans="1:16">
@@ -10231,10 +10231,10 @@
         <v>236</v>
       </c>
       <c r="O179">
-        <v>-11.5765</v>
+        <v>-12.352</v>
       </c>
       <c r="P179">
-        <v>-1.71443</v>
+        <v>-1.82934</v>
       </c>
     </row>
     <row r="180" spans="1:16">
@@ -10281,10 +10281,10 @@
         <v>236</v>
       </c>
       <c r="O180">
-        <v>-11.8288</v>
+        <v>-12.9207</v>
       </c>
       <c r="P180">
-        <v>-1.75186</v>
+        <v>-1.91355</v>
       </c>
     </row>
     <row r="181" spans="1:16">
@@ -10331,10 +10331,10 @@
         <v>236</v>
       </c>
       <c r="O181">
-        <v>-12.1446</v>
+        <v>-13.3789</v>
       </c>
       <c r="P181">
-        <v>-1.79856</v>
+        <v>-1.98151</v>
       </c>
     </row>
     <row r="182" spans="1:16">
@@ -10381,10 +10381,10 @@
         <v>236</v>
       </c>
       <c r="O182">
-        <v>-12.4553</v>
+        <v>-13.8511</v>
       </c>
       <c r="P182">
-        <v>-1.84463</v>
+        <v>-2.0514</v>
       </c>
     </row>
     <row r="183" spans="1:16">
@@ -10431,10 +10431,10 @@
         <v>236</v>
       </c>
       <c r="O183">
-        <v>-12.61</v>
+        <v>-14.1605</v>
       </c>
       <c r="P183">
-        <v>-1.86752</v>
+        <v>-2.09724</v>
       </c>
     </row>
     <row r="184" spans="1:16">
@@ -10481,10 +10481,10 @@
         <v>236</v>
       </c>
       <c r="O184">
-        <v>-12.8175</v>
+        <v>-14.6203</v>
       </c>
       <c r="P184">
-        <v>-1.89827</v>
+        <v>-2.16541</v>
       </c>
     </row>
     <row r="185" spans="1:16">
@@ -10531,10 +10531,10 @@
         <v>236</v>
       </c>
       <c r="O185">
-        <v>-13.0755</v>
+        <v>-15.1946</v>
       </c>
       <c r="P185">
-        <v>-1.93647</v>
+        <v>-2.25044</v>
       </c>
     </row>
     <row r="186" spans="1:16">
@@ -10581,10 +10581,10 @@
         <v>236</v>
       </c>
       <c r="O186">
-        <v>-13.4863</v>
+        <v>-15.6602</v>
       </c>
       <c r="P186">
-        <v>-1.99733</v>
+        <v>-2.31941</v>
       </c>
     </row>
     <row r="187" spans="1:16">
@@ -10631,10 +10631,10 @@
         <v>236</v>
       </c>
       <c r="O187">
-        <v>-13.7471</v>
+        <v>-16.1766</v>
       </c>
       <c r="P187">
-        <v>-2.03597</v>
+        <v>-2.39594</v>
       </c>
     </row>
     <row r="188" spans="1:16">
@@ -10681,10 +10681,10 @@
         <v>236</v>
       </c>
       <c r="O188">
-        <v>-14.0578</v>
+        <v>-16.6938</v>
       </c>
       <c r="P188">
-        <v>-2.08199</v>
+        <v>-2.47253</v>
       </c>
     </row>
     <row r="189" spans="1:16">
@@ -10731,10 +10731,10 @@
         <v>236</v>
       </c>
       <c r="O189">
-        <v>-14.4159</v>
+        <v>-17.2623</v>
       </c>
       <c r="P189">
-        <v>-2.13389</v>
+        <v>-2.55679</v>
       </c>
     </row>
     <row r="190" spans="1:16">
@@ -10781,10 +10781,10 @@
         <v>236</v>
       </c>
       <c r="O190">
-        <v>-14.5747</v>
+        <v>-17.7799</v>
       </c>
       <c r="P190">
-        <v>-2.15857</v>
+        <v>-2.63342</v>
       </c>
     </row>
     <row r="191" spans="1:16" s="1" customFormat="1">
@@ -10842,10 +10842,10 @@
         <v>299</v>
       </c>
       <c r="O192" s="1">
-        <v>-27.1831</v>
+        <v>-32.8364</v>
       </c>
       <c r="P192" s="1">
-        <v>-3.29474</v>
+        <v>-3.97998</v>
       </c>
     </row>
     <row r="193" spans="14:16" s="1" customFormat="1">
@@ -10853,10 +10853,10 @@
         <v>300</v>
       </c>
       <c r="O193" s="1">
-        <v>27.0806</v>
+        <v>32.4878</v>
       </c>
       <c r="P193" s="1">
-        <v>3.28269</v>
+        <v>3.9381</v>
       </c>
     </row>
     <row r="194" spans="14:16" s="1" customFormat="1">
@@ -10896,10 +10896,10 @@
         <v>305</v>
       </c>
       <c r="O198" s="1">
-        <v>0.1329494613756624</v>
+        <v>0.1269381328042338</v>
       </c>
       <c r="P198" s="1">
-        <v>0.02003467555555552</v>
+        <v>0.01937202417989411</v>
       </c>
     </row>
     <row r="199" spans="14:16" s="1" customFormat="1">
@@ -10907,10 +10907,10 @@
         <v>306</v>
       </c>
       <c r="O199" s="1">
-        <v>13.91749235611894</v>
+        <v>15.47692400709899</v>
       </c>
       <c r="P199" s="1">
-        <v>1.80816625023627</v>
+        <v>2.010136413909253</v>
       </c>
     </row>
     <row r="200" spans="14:16" s="1" customFormat="1">
@@ -10918,10 +10918,10 @@
         <v>307</v>
       </c>
       <c r="O200" s="1">
-        <v>10468.25779669286</v>
+        <v>12192.4938276568</v>
       </c>
       <c r="P200" s="1">
-        <v>9025.183588435368</v>
+        <v>10376.49135290435</v>
       </c>
     </row>
     <row r="201" spans="14:16" s="1" customFormat="1"/>

--- a/dcd_top_offset_step_tsmc2p_meas.xlsx
+++ b/dcd_top_offset_step_tsmc2p_meas.xlsx
@@ -1381,10 +1381,10 @@
         <v>29</v>
       </c>
       <c r="O2">
-        <v>23.5789</v>
+        <v>19.7572</v>
       </c>
       <c r="P2">
-        <v>3.14414</v>
+        <v>2.63459</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1431,10 +1431,10 @@
         <v>29</v>
       </c>
       <c r="O3">
-        <v>22.7011</v>
+        <v>19.2924</v>
       </c>
       <c r="P3">
-        <v>3.02712</v>
+        <v>2.57263</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1481,10 +1481,10 @@
         <v>29</v>
       </c>
       <c r="O4">
-        <v>21.9265</v>
+        <v>18.931</v>
       </c>
       <c r="P4">
-        <v>2.92382</v>
+        <v>2.52443</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1531,10 +1531,10 @@
         <v>29</v>
       </c>
       <c r="O5">
-        <v>21.1517</v>
+        <v>18.4663</v>
       </c>
       <c r="P5">
-        <v>2.82051</v>
+        <v>2.46247</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1581,10 +1581,10 @@
         <v>29</v>
       </c>
       <c r="O6">
-        <v>20.4285</v>
+        <v>18.0537</v>
       </c>
       <c r="P6">
-        <v>2.7241</v>
+        <v>2.40745</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1631,10 +1631,10 @@
         <v>29</v>
       </c>
       <c r="O7">
-        <v>19.6539</v>
+        <v>17.6919</v>
       </c>
       <c r="P7">
-        <v>2.6208</v>
+        <v>2.35921</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1681,10 +1681,10 @@
         <v>29</v>
       </c>
       <c r="O8">
-        <v>18.931</v>
+        <v>17.2785</v>
       </c>
       <c r="P8">
-        <v>2.52442</v>
+        <v>2.3041</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1731,10 +1731,10 @@
         <v>29</v>
       </c>
       <c r="O9">
-        <v>18.1045</v>
+        <v>16.7141</v>
       </c>
       <c r="P9">
-        <v>2.41424</v>
+        <v>2.22882</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1781,10 +1781,10 @@
         <v>29</v>
       </c>
       <c r="O10">
-        <v>17.7952</v>
+        <v>15.4711</v>
       </c>
       <c r="P10">
-        <v>2.37298</v>
+        <v>2.06311</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1831,10 +1831,10 @@
         <v>29</v>
       </c>
       <c r="O11">
-        <v>17.0718</v>
+        <v>14.9582</v>
       </c>
       <c r="P11">
-        <v>2.27653</v>
+        <v>1.9947</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1881,10 +1881,10 @@
         <v>29</v>
       </c>
       <c r="O12">
-        <v>16.2457</v>
+        <v>14.6971</v>
       </c>
       <c r="P12">
-        <v>2.16639</v>
+        <v>1.9599</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1931,10 +1931,10 @@
         <v>29</v>
       </c>
       <c r="O13">
-        <v>15.5228</v>
+        <v>14.3348</v>
       </c>
       <c r="P13">
-        <v>2.07</v>
+        <v>1.9116</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1981,10 +1981,10 @@
         <v>29</v>
       </c>
       <c r="O14">
-        <v>14.9547</v>
+        <v>13.9736</v>
       </c>
       <c r="P14">
-        <v>1.99425</v>
+        <v>1.86343</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -2031,10 +2031,10 @@
         <v>29</v>
       </c>
       <c r="O15">
-        <v>14.2316</v>
+        <v>13.6639</v>
       </c>
       <c r="P15">
-        <v>1.89784</v>
+        <v>1.82214</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -2081,10 +2081,10 @@
         <v>29</v>
       </c>
       <c r="O16">
-        <v>13.612</v>
+        <v>13.2505</v>
       </c>
       <c r="P16">
-        <v>1.81523</v>
+        <v>1.76701</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -2181,10 +2181,10 @@
         <v>29</v>
       </c>
       <c r="O18">
-        <v>12.8378</v>
+        <v>12.889</v>
       </c>
       <c r="P18">
-        <v>1.71199</v>
+        <v>1.71881</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -2281,10 +2281,10 @@
         <v>29</v>
       </c>
       <c r="O20">
-        <v>11.3915</v>
+        <v>11.3397</v>
       </c>
       <c r="P20">
-        <v>1.51916</v>
+        <v>1.51225</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -2431,7 +2431,7 @@
         <v>29</v>
       </c>
       <c r="O23">
-        <v>8.705970000000001</v>
+        <v>8.70598</v>
       </c>
       <c r="P23">
         <v>1.16109</v>
@@ -2531,10 +2531,10 @@
         <v>29</v>
       </c>
       <c r="O25">
-        <v>7.00143</v>
+        <v>7.00137</v>
       </c>
       <c r="P25">
-        <v>0.9338109999999999</v>
+        <v>0.933803</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -2681,10 +2681,10 @@
         <v>29</v>
       </c>
       <c r="O28">
-        <v>4.47088</v>
+        <v>4.470540000000001</v>
       </c>
       <c r="P28">
-        <v>0.596413</v>
+        <v>0.596374</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -2731,10 +2731,10 @@
         <v>29</v>
       </c>
       <c r="O29">
-        <v>3.54158</v>
+        <v>3.5413</v>
       </c>
       <c r="P29">
-        <v>0.472505</v>
+        <v>0.472458</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2984,7 +2984,7 @@
         <v>-0.795081</v>
       </c>
       <c r="P34">
-        <v>-0.10572</v>
+        <v>-0.105721</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -3081,10 +3081,10 @@
         <v>29</v>
       </c>
       <c r="O36">
-        <v>-2.65695</v>
+        <v>-2.65684</v>
       </c>
       <c r="P36">
-        <v>-0.353977</v>
+        <v>-0.353964</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -3231,10 +3231,10 @@
         <v>29</v>
       </c>
       <c r="O39">
-        <v>-5.23744</v>
+        <v>-5.23791</v>
       </c>
       <c r="P39">
-        <v>-0.698047</v>
+        <v>-0.69809</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -3281,10 +3281,10 @@
         <v>29</v>
       </c>
       <c r="O40">
-        <v>-6.11536</v>
+        <v>-6.21482</v>
       </c>
       <c r="P40">
-        <v>-0.815099</v>
+        <v>-0.828361</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -3584,7 +3584,7 @@
         <v>-11.3283</v>
       </c>
       <c r="P46">
-        <v>-1.51016</v>
+        <v>-1.51014</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -3684,7 +3684,7 @@
         <v>-12.8802</v>
       </c>
       <c r="P48">
-        <v>-1.71706</v>
+        <v>-1.71707</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -3781,10 +3781,10 @@
         <v>29</v>
       </c>
       <c r="O50">
-        <v>-13.5</v>
+        <v>-13.242</v>
       </c>
       <c r="P50">
-        <v>-1.7997</v>
+        <v>-1.7653</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -3831,10 +3831,10 @@
         <v>29</v>
       </c>
       <c r="O51">
-        <v>-14.223</v>
+        <v>-13.5518</v>
       </c>
       <c r="P51">
-        <v>-1.89612</v>
+        <v>-1.80662</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -3881,10 +3881,10 @@
         <v>29</v>
       </c>
       <c r="O52">
-        <v>-14.9462</v>
+        <v>-13.9649</v>
       </c>
       <c r="P52">
-        <v>-1.99253</v>
+        <v>-1.86169</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -3931,10 +3931,10 @@
         <v>29</v>
       </c>
       <c r="O53">
-        <v>-15.5143</v>
+        <v>-14.3265</v>
       </c>
       <c r="P53">
-        <v>-2.0683</v>
+        <v>-1.90991</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -3981,10 +3981,10 @@
         <v>29</v>
       </c>
       <c r="O54">
-        <v>-16.1821</v>
+        <v>-14.688</v>
       </c>
       <c r="P54">
-        <v>-2.15734</v>
+        <v>-1.9581</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -4031,10 +4031,10 @@
         <v>29</v>
       </c>
       <c r="O55">
-        <v>-16.9081</v>
+        <v>-15.0494</v>
       </c>
       <c r="P55">
-        <v>-2.25413</v>
+        <v>-2.0063</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -4081,10 +4081,10 @@
         <v>29</v>
       </c>
       <c r="O56">
-        <v>-17.4763</v>
+        <v>-15.4111</v>
       </c>
       <c r="P56">
-        <v>-2.32989</v>
+        <v>-2.05451</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -4131,10 +4131,10 @@
         <v>29</v>
       </c>
       <c r="O57">
-        <v>-17.7861</v>
+        <v>-16.7015</v>
       </c>
       <c r="P57">
-        <v>-2.37118</v>
+        <v>-2.22658</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -4181,10 +4181,10 @@
         <v>29</v>
       </c>
       <c r="O58">
-        <v>-18.6121</v>
+        <v>-17.0631</v>
       </c>
       <c r="P58">
-        <v>-2.48133</v>
+        <v>-2.27477</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -4231,10 +4231,10 @@
         <v>29</v>
       </c>
       <c r="O59">
-        <v>-19.3868</v>
+        <v>-17.3729</v>
       </c>
       <c r="P59">
-        <v>-2.58461</v>
+        <v>-2.31609</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -4281,10 +4281,10 @@
         <v>29</v>
       </c>
       <c r="O60">
-        <v>-20.1616</v>
+        <v>-17.7341</v>
       </c>
       <c r="P60">
-        <v>-2.68793</v>
+        <v>-2.36426</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -4331,10 +4331,10 @@
         <v>29</v>
       </c>
       <c r="O61">
-        <v>-20.8329</v>
+        <v>-18.1987</v>
       </c>
       <c r="P61">
-        <v>-2.77744</v>
+        <v>-2.4262</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -4381,10 +4381,10 @@
         <v>29</v>
       </c>
       <c r="O62">
-        <v>-21.6589</v>
+        <v>-18.5089</v>
       </c>
       <c r="P62">
-        <v>-2.88756</v>
+        <v>-2.46755</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -4431,10 +4431,10 @@
         <v>29</v>
       </c>
       <c r="O63">
-        <v>-22.4853</v>
+        <v>-19.0216</v>
       </c>
       <c r="P63">
-        <v>-2.99776</v>
+        <v>-2.53594</v>
       </c>
     </row>
     <row r="64" spans="1:16">
@@ -4481,10 +4481,10 @@
         <v>29</v>
       </c>
       <c r="O64">
-        <v>-23.3111</v>
+        <v>-19.4389</v>
       </c>
       <c r="P64">
-        <v>-3.10786</v>
+        <v>-2.59156</v>
       </c>
     </row>
     <row r="65" spans="1:16">
@@ -4531,10 +4531,10 @@
         <v>163</v>
       </c>
       <c r="O65">
-        <v>32.4878</v>
+        <v>28.0322</v>
       </c>
       <c r="P65">
-        <v>3.9381</v>
+        <v>3.39803</v>
       </c>
     </row>
     <row r="66" spans="1:16">
@@ -4581,10 +4581,10 @@
         <v>163</v>
       </c>
       <c r="O66">
-        <v>31.4378</v>
+        <v>27.4312</v>
       </c>
       <c r="P66">
-        <v>3.81083</v>
+        <v>3.32519</v>
       </c>
     </row>
     <row r="67" spans="1:16">
@@ -4631,10 +4631,10 @@
         <v>163</v>
       </c>
       <c r="O67">
-        <v>30.4351</v>
+        <v>26.8303</v>
       </c>
       <c r="P67">
-        <v>3.68929</v>
+        <v>3.25234</v>
       </c>
     </row>
     <row r="68" spans="1:16">
@@ -4681,10 +4681,10 @@
         <v>163</v>
       </c>
       <c r="O68">
-        <v>29.3837</v>
+        <v>26.2796</v>
       </c>
       <c r="P68">
-        <v>3.56185</v>
+        <v>3.18559</v>
       </c>
     </row>
     <row r="69" spans="1:16">
@@ -4731,10 +4731,10 @@
         <v>163</v>
       </c>
       <c r="O69">
-        <v>28.4825</v>
+        <v>25.7288</v>
       </c>
       <c r="P69">
-        <v>3.45261</v>
+        <v>3.11882</v>
       </c>
     </row>
     <row r="70" spans="1:16">
@@ -4781,10 +4781,10 @@
         <v>163</v>
       </c>
       <c r="O70">
-        <v>27.4314</v>
+        <v>25.079</v>
       </c>
       <c r="P70">
-        <v>3.32521</v>
+        <v>3.04006</v>
       </c>
     </row>
     <row r="71" spans="1:16">
@@ -4831,10 +4831,10 @@
         <v>163</v>
       </c>
       <c r="O71">
-        <v>26.43</v>
+        <v>24.5272</v>
       </c>
       <c r="P71">
-        <v>3.20382</v>
+        <v>2.97318</v>
       </c>
     </row>
     <row r="72" spans="1:16">
@@ -4881,10 +4881,10 @@
         <v>163</v>
       </c>
       <c r="O72">
-        <v>25.3812</v>
+        <v>23.8776</v>
       </c>
       <c r="P72">
-        <v>3.07669</v>
+        <v>2.89443</v>
       </c>
     </row>
     <row r="73" spans="1:16">
@@ -4931,10 +4931,10 @@
         <v>163</v>
       </c>
       <c r="O73">
-        <v>25.0782</v>
+        <v>22.1236</v>
       </c>
       <c r="P73">
-        <v>3.03997</v>
+        <v>2.68183</v>
       </c>
     </row>
     <row r="74" spans="1:16">
@@ -4981,10 +4981,10 @@
         <v>163</v>
       </c>
       <c r="O74">
-        <v>24.0269</v>
+        <v>21.523</v>
       </c>
       <c r="P74">
-        <v>2.91255</v>
+        <v>2.60904</v>
       </c>
     </row>
     <row r="75" spans="1:16">
@@ -5031,10 +5031,10 @@
         <v>163</v>
       </c>
       <c r="O75">
-        <v>22.9804</v>
+        <v>20.922</v>
       </c>
       <c r="P75">
-        <v>2.79112</v>
+        <v>2.53619</v>
       </c>
     </row>
     <row r="76" spans="1:16">
@@ -5081,10 +5081,10 @@
         <v>163</v>
       </c>
       <c r="O76">
-        <v>21.9736</v>
+        <v>20.3213</v>
       </c>
       <c r="P76">
-        <v>2.66365</v>
+        <v>2.46338</v>
       </c>
     </row>
     <row r="77" spans="1:16">
@@ -5131,10 +5131,10 @@
         <v>163</v>
       </c>
       <c r="O77">
-        <v>21.073</v>
+        <v>19.7705</v>
       </c>
       <c r="P77">
-        <v>2.5545</v>
+        <v>2.39661</v>
       </c>
     </row>
     <row r="78" spans="1:16">
@@ -5181,10 +5181,10 @@
         <v>163</v>
       </c>
       <c r="O78">
-        <v>19.9714</v>
+        <v>19.1697</v>
       </c>
       <c r="P78">
-        <v>2.42096</v>
+        <v>2.32378</v>
       </c>
     </row>
     <row r="79" spans="1:16">
@@ -5231,10 +5231,10 @@
         <v>163</v>
       </c>
       <c r="O79">
-        <v>19.0693</v>
+        <v>18.5694</v>
       </c>
       <c r="P79">
-        <v>2.31162</v>
+        <v>2.25102</v>
       </c>
     </row>
     <row r="80" spans="1:16">
@@ -5481,10 +5481,10 @@
         <v>163</v>
       </c>
       <c r="O84">
-        <v>14.1124</v>
+        <v>14.0625</v>
       </c>
       <c r="P84">
-        <v>1.71079</v>
+        <v>1.70473</v>
       </c>
     </row>
     <row r="85" spans="1:16">
@@ -5881,10 +5881,10 @@
         <v>163</v>
       </c>
       <c r="O92">
-        <v>4.450019999999999</v>
+        <v>4.44996</v>
       </c>
       <c r="P92">
-        <v>0.545529</v>
+        <v>0.539578</v>
       </c>
     </row>
     <row r="93" spans="1:16">
@@ -5931,10 +5931,10 @@
         <v>163</v>
       </c>
       <c r="O93">
-        <v>3.39764</v>
+        <v>3.39765</v>
       </c>
       <c r="P93">
-        <v>0.412028</v>
+        <v>0.412026</v>
       </c>
     </row>
     <row r="94" spans="1:16">
@@ -6081,7 +6081,7 @@
         <v>163</v>
       </c>
       <c r="O96">
-        <v>0.0462311</v>
+        <v>0.0462312</v>
       </c>
       <c r="P96">
         <v>0.00578557</v>
@@ -6481,10 +6481,10 @@
         <v>163</v>
       </c>
       <c r="O104">
-        <v>-8.91422</v>
+        <v>-8.963900000000001</v>
       </c>
       <c r="P104">
-        <v>-1.08033</v>
+        <v>-1.08635</v>
       </c>
     </row>
     <row r="105" spans="1:16">
@@ -6631,10 +6631,10 @@
         <v>163</v>
       </c>
       <c r="O107">
-        <v>-12.7684</v>
+        <v>-12.7673</v>
       </c>
       <c r="P107">
-        <v>-1.54749</v>
+        <v>-1.54737</v>
       </c>
     </row>
     <row r="108" spans="1:16">
@@ -6881,10 +6881,10 @@
         <v>163</v>
       </c>
       <c r="O112">
-        <v>-18.0739</v>
+        <v>-18.074</v>
       </c>
       <c r="P112">
-        <v>-2.19059</v>
+        <v>-2.1906</v>
       </c>
     </row>
     <row r="113" spans="1:16">
@@ -6931,10 +6931,10 @@
         <v>163</v>
       </c>
       <c r="O113">
-        <v>-19.0749</v>
+        <v>-18.6529</v>
       </c>
       <c r="P113">
-        <v>-2.31193</v>
+        <v>-2.26077</v>
       </c>
     </row>
     <row r="114" spans="1:16">
@@ -6981,10 +6981,10 @@
         <v>163</v>
       </c>
       <c r="O114">
-        <v>-20.076</v>
+        <v>-19.1754</v>
       </c>
       <c r="P114">
-        <v>-2.43327</v>
+        <v>-2.32409</v>
       </c>
     </row>
     <row r="115" spans="1:16">
@@ -7031,10 +7031,10 @@
         <v>163</v>
       </c>
       <c r="O115">
-        <v>-21.1273</v>
+        <v>-19.8713</v>
       </c>
       <c r="P115">
-        <v>-2.56069</v>
+        <v>-2.40847</v>
       </c>
     </row>
     <row r="116" spans="1:16">
@@ -7081,10 +7081,10 @@
         <v>163</v>
       </c>
       <c r="O116">
-        <v>-22.078</v>
+        <v>-20.3763</v>
       </c>
       <c r="P116">
-        <v>-2.67594</v>
+        <v>-2.46967</v>
       </c>
     </row>
     <row r="117" spans="1:16">
@@ -7131,10 +7131,10 @@
         <v>163</v>
       </c>
       <c r="O117">
-        <v>-23.0798</v>
+        <v>-20.9773</v>
       </c>
       <c r="P117">
-        <v>-2.79737</v>
+        <v>-2.54252</v>
       </c>
     </row>
     <row r="118" spans="1:16">
@@ -7181,10 +7181,10 @@
         <v>163</v>
       </c>
       <c r="O118">
-        <v>-24.1311</v>
+        <v>-21.5277</v>
       </c>
       <c r="P118">
-        <v>-2.92479</v>
+        <v>-2.60923</v>
       </c>
     </row>
     <row r="119" spans="1:16">
@@ -7231,10 +7231,10 @@
         <v>163</v>
       </c>
       <c r="O119">
-        <v>-25.182</v>
+        <v>-22.1283</v>
       </c>
       <c r="P119">
-        <v>-3.05217</v>
+        <v>-2.68202</v>
       </c>
     </row>
     <row r="120" spans="1:16">
@@ -7281,10 +7281,10 @@
         <v>163</v>
       </c>
       <c r="O120">
-        <v>-25.482</v>
+        <v>-23.9799</v>
       </c>
       <c r="P120">
-        <v>-3.08855</v>
+        <v>-2.90647</v>
       </c>
     </row>
     <row r="121" spans="1:16">
@@ -7331,10 +7331,10 @@
         <v>163</v>
       </c>
       <c r="O121">
-        <v>-26.5329</v>
+        <v>-24.6315</v>
       </c>
       <c r="P121">
-        <v>-3.21592</v>
+        <v>-2.98545</v>
       </c>
     </row>
     <row r="122" spans="1:16">
@@ -7381,10 +7381,10 @@
         <v>163</v>
       </c>
       <c r="O122">
-        <v>-27.5336</v>
+        <v>-25.182</v>
       </c>
       <c r="P122">
-        <v>-3.33722</v>
+        <v>-3.05218</v>
       </c>
     </row>
     <row r="123" spans="1:16">
@@ -7431,10 +7431,10 @@
         <v>163</v>
       </c>
       <c r="O123">
-        <v>-28.6839</v>
+        <v>-25.8322</v>
       </c>
       <c r="P123">
-        <v>-3.47665</v>
+        <v>-3.13098</v>
       </c>
     </row>
     <row r="124" spans="1:16">
@@ -7481,10 +7481,10 @@
         <v>163</v>
       </c>
       <c r="O124">
-        <v>-29.6345</v>
+        <v>-26.3827</v>
       </c>
       <c r="P124">
-        <v>-3.59187</v>
+        <v>-3.19772</v>
       </c>
     </row>
     <row r="125" spans="1:16">
@@ -7531,10 +7531,10 @@
         <v>163</v>
       </c>
       <c r="O125">
-        <v>-30.6851</v>
+        <v>-27.0327</v>
       </c>
       <c r="P125">
-        <v>-3.71922</v>
+        <v>-3.2765</v>
       </c>
     </row>
     <row r="126" spans="1:16">
@@ -7581,10 +7581,10 @@
         <v>163</v>
       </c>
       <c r="O126">
-        <v>-31.7856</v>
+        <v>-27.5834</v>
       </c>
       <c r="P126">
-        <v>-3.85262</v>
+        <v>-3.34326</v>
       </c>
     </row>
     <row r="127" spans="1:16">
@@ -7631,10 +7631,10 @@
         <v>163</v>
       </c>
       <c r="O127">
-        <v>-32.8364</v>
+        <v>-28.2828</v>
       </c>
       <c r="P127">
-        <v>-3.97998</v>
+        <v>-3.42803</v>
       </c>
     </row>
     <row r="128" spans="1:16">
@@ -7681,10 +7681,10 @@
         <v>236</v>
       </c>
       <c r="O128">
-        <v>18.6533</v>
+        <v>16.2256</v>
       </c>
       <c r="P128">
-        <v>2.7641</v>
+        <v>2.40441</v>
       </c>
     </row>
     <row r="129" spans="1:16">
@@ -7731,10 +7731,10 @@
         <v>236</v>
       </c>
       <c r="O129">
-        <v>17.9893</v>
+        <v>15.8641</v>
       </c>
       <c r="P129">
-        <v>2.66564</v>
+        <v>2.35085</v>
       </c>
     </row>
     <row r="130" spans="1:16">
@@ -7781,10 +7781,10 @@
         <v>236</v>
       </c>
       <c r="O130">
-        <v>17.5687</v>
+        <v>15.6645</v>
       </c>
       <c r="P130">
-        <v>2.60337</v>
+        <v>2.32123</v>
       </c>
     </row>
     <row r="131" spans="1:16">
@@ -7831,10 +7831,10 @@
         <v>236</v>
       </c>
       <c r="O131">
-        <v>17.0522</v>
+        <v>15.4505</v>
       </c>
       <c r="P131">
-        <v>2.5269</v>
+        <v>2.28958</v>
       </c>
     </row>
     <row r="132" spans="1:16">
@@ -7881,10 +7881,10 @@
         <v>236</v>
       </c>
       <c r="O132">
-        <v>16.5879</v>
+        <v>15.1485</v>
       </c>
       <c r="P132">
-        <v>2.45808</v>
+        <v>2.25893</v>
       </c>
     </row>
     <row r="133" spans="1:16">
@@ -7931,10 +7931,10 @@
         <v>236</v>
       </c>
       <c r="O133">
-        <v>16.1226</v>
+        <v>14.8393</v>
       </c>
       <c r="P133">
-        <v>2.3892</v>
+        <v>2.19899</v>
       </c>
     </row>
     <row r="134" spans="1:16">
@@ -7981,10 +7981,10 @@
         <v>236</v>
       </c>
       <c r="O134">
-        <v>15.6056</v>
+        <v>14.572</v>
       </c>
       <c r="P134">
-        <v>2.31257</v>
+        <v>2.15944</v>
       </c>
     </row>
     <row r="135" spans="1:16">
@@ -8031,10 +8031,10 @@
         <v>236</v>
       </c>
       <c r="O135">
-        <v>15.1403</v>
+        <v>14.3686</v>
       </c>
       <c r="P135">
-        <v>2.24335</v>
+        <v>2.12929</v>
       </c>
     </row>
     <row r="136" spans="1:16">
@@ -8081,10 +8081,10 @@
         <v>236</v>
       </c>
       <c r="O136">
-        <v>14.986</v>
+        <v>13.487</v>
       </c>
       <c r="P136">
-        <v>2.22074</v>
+        <v>1.99874</v>
       </c>
     </row>
     <row r="137" spans="1:16">
@@ -8131,10 +8131,10 @@
         <v>236</v>
       </c>
       <c r="O137">
-        <v>14.5204</v>
+        <v>13.1776</v>
       </c>
       <c r="P137">
-        <v>2.15183</v>
+        <v>1.95288</v>
       </c>
     </row>
     <row r="138" spans="1:16">
@@ -8181,10 +8181,10 @@
         <v>236</v>
       </c>
       <c r="O138">
-        <v>13.9638</v>
+        <v>12.8738</v>
       </c>
       <c r="P138">
-        <v>2.06934</v>
+        <v>1.90785</v>
       </c>
     </row>
     <row r="139" spans="1:16">
@@ -8231,10 +8231,10 @@
         <v>236</v>
       </c>
       <c r="O139">
-        <v>13.5537</v>
+        <v>12.6695</v>
       </c>
       <c r="P139">
-        <v>2.00858</v>
+        <v>1.87756</v>
       </c>
     </row>
     <row r="140" spans="1:16">
@@ -8281,10 +8281,10 @@
         <v>236</v>
       </c>
       <c r="O140">
-        <v>13.0746</v>
+        <v>12.4022</v>
       </c>
       <c r="P140">
-        <v>1.93759</v>
+        <v>1.83801</v>
       </c>
     </row>
     <row r="141" spans="1:16">
@@ -8331,10 +8331,10 @@
         <v>236</v>
       </c>
       <c r="O141">
-        <v>12.5732</v>
+        <v>11.9884</v>
       </c>
       <c r="P141">
-        <v>1.86325</v>
+        <v>1.7767</v>
       </c>
     </row>
     <row r="142" spans="1:16">
@@ -8381,10 +8381,10 @@
         <v>236</v>
       </c>
       <c r="O142">
-        <v>12.1444</v>
+        <v>11.8353</v>
       </c>
       <c r="P142">
-        <v>1.79977</v>
+        <v>1.75404</v>
       </c>
     </row>
     <row r="143" spans="1:16">
@@ -8631,10 +8631,10 @@
         <v>236</v>
       </c>
       <c r="O147">
-        <v>9.0443</v>
+        <v>8.946709999999999</v>
       </c>
       <c r="P147">
-        <v>1.34788</v>
+        <v>1.32601</v>
       </c>
     </row>
     <row r="148" spans="1:16">
@@ -9034,7 +9034,7 @@
         <v>2.9954</v>
       </c>
       <c r="P155">
-        <v>0.444419</v>
+        <v>0.44442</v>
       </c>
     </row>
     <row r="156" spans="1:16">
@@ -9284,7 +9284,7 @@
         <v>-0.669481</v>
       </c>
       <c r="P160">
-        <v>-0.09857399999999999</v>
+        <v>-0.09857390000000001</v>
       </c>
     </row>
     <row r="161" spans="1:16">
@@ -9481,10 +9481,10 @@
         <v>236</v>
       </c>
       <c r="O164">
-        <v>-3.46424</v>
+        <v>-3.46402</v>
       </c>
       <c r="P164">
-        <v>-0.512578</v>
+        <v>-0.512592</v>
       </c>
     </row>
     <row r="165" spans="1:16">
@@ -9531,10 +9531,10 @@
         <v>236</v>
       </c>
       <c r="O165">
-        <v>-4.188029999999999</v>
+        <v>-4.1879</v>
       </c>
       <c r="P165">
-        <v>-0.619844</v>
+        <v>-0.619823</v>
       </c>
     </row>
     <row r="166" spans="1:16">
@@ -9681,10 +9681,10 @@
         <v>236</v>
       </c>
       <c r="O168">
-        <v>-6.408589999999999</v>
+        <v>-6.35764</v>
       </c>
       <c r="P168">
-        <v>-0.941258</v>
+        <v>-0.941269</v>
       </c>
     </row>
     <row r="169" spans="1:16">
@@ -9781,10 +9781,10 @@
         <v>236</v>
       </c>
       <c r="O170">
-        <v>-7.80396</v>
+        <v>-7.803809999999999</v>
       </c>
       <c r="P170">
-        <v>-1.15555</v>
+        <v>-1.1555</v>
       </c>
     </row>
     <row r="171" spans="1:16">
@@ -9831,7 +9831,7 @@
         <v>236</v>
       </c>
       <c r="O171">
-        <v>-8.475379999999999</v>
+        <v>-8.47537</v>
       </c>
       <c r="P171">
         <v>-1.24744</v>
@@ -9881,10 +9881,10 @@
         <v>236</v>
       </c>
       <c r="O172">
-        <v>-9.09558</v>
+        <v>-9.1471</v>
       </c>
       <c r="P172">
-        <v>-1.34688</v>
+        <v>-1.35452</v>
       </c>
     </row>
     <row r="173" spans="1:16">
@@ -9931,10 +9931,10 @@
         <v>236</v>
       </c>
       <c r="O173">
-        <v>-9.871090000000001</v>
+        <v>-9.922319999999999</v>
       </c>
       <c r="P173">
-        <v>-1.4619</v>
+        <v>-1.46936</v>
       </c>
     </row>
     <row r="174" spans="1:16">
@@ -9981,10 +9981,10 @@
         <v>236</v>
       </c>
       <c r="O174">
-        <v>-10.5929</v>
+        <v>-10.5935</v>
       </c>
       <c r="P174">
-        <v>-1.56127</v>
+        <v>-1.56875</v>
       </c>
     </row>
     <row r="175" spans="1:16">
@@ -10031,10 +10031,10 @@
         <v>236</v>
       </c>
       <c r="O175">
-        <v>-10.4909</v>
+        <v>-10.5424</v>
       </c>
       <c r="P175">
-        <v>-1.55363</v>
+        <v>-1.56122</v>
       </c>
     </row>
     <row r="176" spans="1:16">
@@ -10081,10 +10081,10 @@
         <v>236</v>
       </c>
       <c r="O176">
-        <v>-11.059</v>
+        <v>-10.7494</v>
       </c>
       <c r="P176">
-        <v>-1.63776</v>
+        <v>-1.59191</v>
       </c>
     </row>
     <row r="177" spans="1:16">
@@ -10131,10 +10131,10 @@
         <v>236</v>
       </c>
       <c r="O177">
-        <v>-11.5236</v>
+        <v>-10.9562</v>
       </c>
       <c r="P177">
-        <v>-1.70659</v>
+        <v>-1.6225</v>
       </c>
     </row>
     <row r="178" spans="1:16">
@@ -10181,10 +10181,10 @@
         <v>236</v>
       </c>
       <c r="O178">
-        <v>-11.9901</v>
+        <v>-11.3697</v>
       </c>
       <c r="P178">
-        <v>-1.77574</v>
+        <v>-1.68379</v>
       </c>
     </row>
     <row r="179" spans="1:16">
@@ -10231,10 +10231,10 @@
         <v>236</v>
       </c>
       <c r="O179">
-        <v>-12.352</v>
+        <v>-11.5249</v>
       </c>
       <c r="P179">
-        <v>-1.82934</v>
+        <v>-1.70676</v>
       </c>
     </row>
     <row r="180" spans="1:16">
@@ -10281,10 +10281,10 @@
         <v>236</v>
       </c>
       <c r="O180">
-        <v>-12.9207</v>
+        <v>-11.7833</v>
       </c>
       <c r="P180">
-        <v>-1.91355</v>
+        <v>-1.74506</v>
       </c>
     </row>
     <row r="181" spans="1:16">
@@ -10331,10 +10331,10 @@
         <v>236</v>
       </c>
       <c r="O181">
-        <v>-13.3789</v>
+        <v>-12.0416</v>
       </c>
       <c r="P181">
-        <v>-1.98151</v>
+        <v>-1.78333</v>
       </c>
     </row>
     <row r="182" spans="1:16">
@@ -10381,10 +10381,10 @@
         <v>236</v>
       </c>
       <c r="O182">
-        <v>-13.8511</v>
+        <v>-12.3522</v>
       </c>
       <c r="P182">
-        <v>-2.0514</v>
+        <v>-1.82929</v>
       </c>
     </row>
     <row r="183" spans="1:16">
@@ -10431,10 +10431,10 @@
         <v>236</v>
       </c>
       <c r="O183">
-        <v>-14.1605</v>
+        <v>-13.179</v>
       </c>
       <c r="P183">
-        <v>-2.09724</v>
+        <v>-1.9518</v>
       </c>
     </row>
     <row r="184" spans="1:16">
@@ -10481,10 +10481,10 @@
         <v>236</v>
       </c>
       <c r="O184">
-        <v>-14.6203</v>
+        <v>-13.5397</v>
       </c>
       <c r="P184">
-        <v>-2.16541</v>
+        <v>-2.00527</v>
       </c>
     </row>
     <row r="185" spans="1:16">
@@ -10531,10 +10531,10 @@
         <v>236</v>
       </c>
       <c r="O185">
-        <v>-15.1946</v>
+        <v>-13.6962</v>
       </c>
       <c r="P185">
-        <v>-2.25044</v>
+        <v>-2.02846</v>
       </c>
     </row>
     <row r="186" spans="1:16">
@@ -10581,10 +10581,10 @@
         <v>236</v>
       </c>
       <c r="O186">
-        <v>-15.6602</v>
+        <v>-14.1091</v>
       </c>
       <c r="P186">
-        <v>-2.31941</v>
+        <v>-2.0896</v>
       </c>
     </row>
     <row r="187" spans="1:16">
@@ -10631,10 +10631,10 @@
         <v>236</v>
       </c>
       <c r="O187">
-        <v>-16.1766</v>
+        <v>-14.2649</v>
       </c>
       <c r="P187">
-        <v>-2.39594</v>
+        <v>-2.1127</v>
       </c>
     </row>
     <row r="188" spans="1:16">
@@ -10681,10 +10681,10 @@
         <v>236</v>
       </c>
       <c r="O188">
-        <v>-16.6938</v>
+        <v>-14.5743</v>
       </c>
       <c r="P188">
-        <v>-2.47253</v>
+        <v>-2.15855</v>
       </c>
     </row>
     <row r="189" spans="1:16">
@@ -10731,10 +10731,10 @@
         <v>236</v>
       </c>
       <c r="O189">
-        <v>-17.2623</v>
+        <v>-14.935</v>
       </c>
       <c r="P189">
-        <v>-2.55679</v>
+        <v>-2.20456</v>
       </c>
     </row>
     <row r="190" spans="1:16">
@@ -10781,10 +10781,10 @@
         <v>236</v>
       </c>
       <c r="O190">
-        <v>-17.7799</v>
+        <v>-15.2467</v>
       </c>
       <c r="P190">
-        <v>-2.63342</v>
+        <v>-2.25816</v>
       </c>
     </row>
     <row r="191" spans="1:16" s="1" customFormat="1">
@@ -10842,10 +10842,10 @@
         <v>299</v>
       </c>
       <c r="O192" s="1">
-        <v>-32.8364</v>
+        <v>-28.2828</v>
       </c>
       <c r="P192" s="1">
-        <v>-3.97998</v>
+        <v>-3.42803</v>
       </c>
     </row>
     <row r="193" spans="14:16" s="1" customFormat="1">
@@ -10853,10 +10853,10 @@
         <v>300</v>
       </c>
       <c r="O193" s="1">
-        <v>32.4878</v>
+        <v>28.0322</v>
       </c>
       <c r="P193" s="1">
-        <v>3.9381</v>
+        <v>3.39803</v>
       </c>
     </row>
     <row r="194" spans="14:16" s="1" customFormat="1">
@@ -10896,10 +10896,10 @@
         <v>305</v>
       </c>
       <c r="O198" s="1">
-        <v>0.1269381328042338</v>
+        <v>0.1328492444444452</v>
       </c>
       <c r="P198" s="1">
-        <v>0.01937202417989411</v>
+        <v>0.02014031571428573</v>
       </c>
     </row>
     <row r="199" spans="14:16" s="1" customFormat="1">
@@ -10907,10 +10907,10 @@
         <v>306</v>
       </c>
       <c r="O199" s="1">
-        <v>15.47692400709899</v>
+        <v>14.2175945257799</v>
       </c>
       <c r="P199" s="1">
-        <v>2.010136413909253</v>
+        <v>1.846985007941576</v>
       </c>
     </row>
     <row r="200" spans="14:16" s="1" customFormat="1">
@@ -10918,10 +10918,10 @@
         <v>307</v>
       </c>
       <c r="O200" s="1">
-        <v>12192.4938276568</v>
+        <v>10702.05147589334</v>
       </c>
       <c r="P200" s="1">
-        <v>10376.49135290435</v>
+        <v>9170.586172248981</v>
       </c>
     </row>
     <row r="201" spans="14:16" s="1" customFormat="1"/>

--- a/dcd_top_offset_step_tsmc2p_meas.xlsx
+++ b/dcd_top_offset_step_tsmc2p_meas.xlsx
@@ -1381,10 +1381,10 @@
         <v>29</v>
       </c>
       <c r="O2">
-        <v>19.7572</v>
+        <v>23.5789</v>
       </c>
       <c r="P2">
-        <v>2.63459</v>
+        <v>3.14414</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1431,10 +1431,10 @@
         <v>29</v>
       </c>
       <c r="O3">
-        <v>19.2924</v>
+        <v>22.7011</v>
       </c>
       <c r="P3">
-        <v>2.57263</v>
+        <v>3.02712</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1481,10 +1481,10 @@
         <v>29</v>
       </c>
       <c r="O4">
-        <v>18.931</v>
+        <v>21.9265</v>
       </c>
       <c r="P4">
-        <v>2.52443</v>
+        <v>2.92382</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1531,10 +1531,10 @@
         <v>29</v>
       </c>
       <c r="O5">
-        <v>18.4663</v>
+        <v>21.1517</v>
       </c>
       <c r="P5">
-        <v>2.46247</v>
+        <v>2.82051</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1581,10 +1581,10 @@
         <v>29</v>
       </c>
       <c r="O6">
-        <v>18.0537</v>
+        <v>20.4285</v>
       </c>
       <c r="P6">
-        <v>2.40745</v>
+        <v>2.7241</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1631,10 +1631,10 @@
         <v>29</v>
       </c>
       <c r="O7">
-        <v>17.6919</v>
+        <v>19.6539</v>
       </c>
       <c r="P7">
-        <v>2.35921</v>
+        <v>2.6208</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1681,10 +1681,10 @@
         <v>29</v>
       </c>
       <c r="O8">
-        <v>17.2785</v>
+        <v>18.931</v>
       </c>
       <c r="P8">
-        <v>2.3041</v>
+        <v>2.52442</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1731,10 +1731,10 @@
         <v>29</v>
       </c>
       <c r="O9">
-        <v>16.7141</v>
+        <v>18.1045</v>
       </c>
       <c r="P9">
-        <v>2.22882</v>
+        <v>2.41424</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1781,10 +1781,10 @@
         <v>29</v>
       </c>
       <c r="O10">
-        <v>15.4711</v>
+        <v>17.7952</v>
       </c>
       <c r="P10">
-        <v>2.06311</v>
+        <v>2.37298</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1831,10 +1831,10 @@
         <v>29</v>
       </c>
       <c r="O11">
-        <v>14.9582</v>
+        <v>17.0718</v>
       </c>
       <c r="P11">
-        <v>1.9947</v>
+        <v>2.27653</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1881,10 +1881,10 @@
         <v>29</v>
       </c>
       <c r="O12">
-        <v>14.6971</v>
+        <v>16.2457</v>
       </c>
       <c r="P12">
-        <v>1.9599</v>
+        <v>2.16639</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1931,10 +1931,10 @@
         <v>29</v>
       </c>
       <c r="O13">
-        <v>14.3348</v>
+        <v>15.5228</v>
       </c>
       <c r="P13">
-        <v>1.9116</v>
+        <v>2.07</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1981,10 +1981,10 @@
         <v>29</v>
       </c>
       <c r="O14">
-        <v>13.9736</v>
+        <v>14.9547</v>
       </c>
       <c r="P14">
-        <v>1.86343</v>
+        <v>1.99425</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -2031,10 +2031,10 @@
         <v>29</v>
       </c>
       <c r="O15">
-        <v>13.6639</v>
+        <v>14.2316</v>
       </c>
       <c r="P15">
-        <v>1.82214</v>
+        <v>1.89784</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -2081,10 +2081,10 @@
         <v>29</v>
       </c>
       <c r="O16">
-        <v>13.2505</v>
+        <v>13.612</v>
       </c>
       <c r="P16">
-        <v>1.76701</v>
+        <v>1.81523</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -2181,10 +2181,10 @@
         <v>29</v>
       </c>
       <c r="O18">
-        <v>12.889</v>
+        <v>12.8378</v>
       </c>
       <c r="P18">
-        <v>1.71881</v>
+        <v>1.71199</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -2281,10 +2281,10 @@
         <v>29</v>
       </c>
       <c r="O20">
-        <v>11.3397</v>
+        <v>11.3915</v>
       </c>
       <c r="P20">
-        <v>1.51225</v>
+        <v>1.51916</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -2431,7 +2431,7 @@
         <v>29</v>
       </c>
       <c r="O23">
-        <v>8.70598</v>
+        <v>8.705970000000001</v>
       </c>
       <c r="P23">
         <v>1.16109</v>
@@ -2531,10 +2531,10 @@
         <v>29</v>
       </c>
       <c r="O25">
-        <v>7.00137</v>
+        <v>7.00143</v>
       </c>
       <c r="P25">
-        <v>0.933803</v>
+        <v>0.9338109999999999</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -2681,10 +2681,10 @@
         <v>29</v>
       </c>
       <c r="O28">
-        <v>4.470540000000001</v>
+        <v>4.47088</v>
       </c>
       <c r="P28">
-        <v>0.596374</v>
+        <v>0.596413</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -2731,10 +2731,10 @@
         <v>29</v>
       </c>
       <c r="O29">
-        <v>3.5413</v>
+        <v>3.54158</v>
       </c>
       <c r="P29">
-        <v>0.472458</v>
+        <v>0.472505</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2984,7 +2984,7 @@
         <v>-0.795081</v>
       </c>
       <c r="P34">
-        <v>-0.105721</v>
+        <v>-0.10572</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -3081,10 +3081,10 @@
         <v>29</v>
       </c>
       <c r="O36">
-        <v>-2.65684</v>
+        <v>-2.65695</v>
       </c>
       <c r="P36">
-        <v>-0.353964</v>
+        <v>-0.353977</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -3231,10 +3231,10 @@
         <v>29</v>
       </c>
       <c r="O39">
-        <v>-5.23791</v>
+        <v>-5.23744</v>
       </c>
       <c r="P39">
-        <v>-0.69809</v>
+        <v>-0.698047</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -3281,10 +3281,10 @@
         <v>29</v>
       </c>
       <c r="O40">
-        <v>-6.21482</v>
+        <v>-6.11536</v>
       </c>
       <c r="P40">
-        <v>-0.828361</v>
+        <v>-0.815099</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -3584,7 +3584,7 @@
         <v>-11.3283</v>
       </c>
       <c r="P46">
-        <v>-1.51014</v>
+        <v>-1.51016</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -3684,7 +3684,7 @@
         <v>-12.8802</v>
       </c>
       <c r="P48">
-        <v>-1.71707</v>
+        <v>-1.71706</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -3781,10 +3781,10 @@
         <v>29</v>
       </c>
       <c r="O50">
-        <v>-13.242</v>
+        <v>-13.5</v>
       </c>
       <c r="P50">
-        <v>-1.7653</v>
+        <v>-1.7997</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -3831,10 +3831,10 @@
         <v>29</v>
       </c>
       <c r="O51">
-        <v>-13.5518</v>
+        <v>-14.223</v>
       </c>
       <c r="P51">
-        <v>-1.80662</v>
+        <v>-1.89612</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -3881,10 +3881,10 @@
         <v>29</v>
       </c>
       <c r="O52">
-        <v>-13.9649</v>
+        <v>-14.9462</v>
       </c>
       <c r="P52">
-        <v>-1.86169</v>
+        <v>-1.99253</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -3931,10 +3931,10 @@
         <v>29</v>
       </c>
       <c r="O53">
-        <v>-14.3265</v>
+        <v>-15.5143</v>
       </c>
       <c r="P53">
-        <v>-1.90991</v>
+        <v>-2.0683</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -3981,10 +3981,10 @@
         <v>29</v>
       </c>
       <c r="O54">
-        <v>-14.688</v>
+        <v>-16.1821</v>
       </c>
       <c r="P54">
-        <v>-1.9581</v>
+        <v>-2.15734</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -4031,10 +4031,10 @@
         <v>29</v>
       </c>
       <c r="O55">
-        <v>-15.0494</v>
+        <v>-16.9081</v>
       </c>
       <c r="P55">
-        <v>-2.0063</v>
+        <v>-2.25413</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -4081,10 +4081,10 @@
         <v>29</v>
       </c>
       <c r="O56">
-        <v>-15.4111</v>
+        <v>-17.4763</v>
       </c>
       <c r="P56">
-        <v>-2.05451</v>
+        <v>-2.32989</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -4131,10 +4131,10 @@
         <v>29</v>
       </c>
       <c r="O57">
-        <v>-16.7015</v>
+        <v>-17.7861</v>
       </c>
       <c r="P57">
-        <v>-2.22658</v>
+        <v>-2.37118</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -4181,10 +4181,10 @@
         <v>29</v>
       </c>
       <c r="O58">
-        <v>-17.0631</v>
+        <v>-18.6121</v>
       </c>
       <c r="P58">
-        <v>-2.27477</v>
+        <v>-2.48133</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -4231,10 +4231,10 @@
         <v>29</v>
       </c>
       <c r="O59">
-        <v>-17.3729</v>
+        <v>-19.3868</v>
       </c>
       <c r="P59">
-        <v>-2.31609</v>
+        <v>-2.58461</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -4281,10 +4281,10 @@
         <v>29</v>
       </c>
       <c r="O60">
-        <v>-17.7341</v>
+        <v>-20.1616</v>
       </c>
       <c r="P60">
-        <v>-2.36426</v>
+        <v>-2.68793</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -4331,10 +4331,10 @@
         <v>29</v>
       </c>
       <c r="O61">
-        <v>-18.1987</v>
+        <v>-20.8329</v>
       </c>
       <c r="P61">
-        <v>-2.4262</v>
+        <v>-2.77744</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -4381,10 +4381,10 @@
         <v>29</v>
       </c>
       <c r="O62">
-        <v>-18.5089</v>
+        <v>-21.6589</v>
       </c>
       <c r="P62">
-        <v>-2.46755</v>
+        <v>-2.88756</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -4431,10 +4431,10 @@
         <v>29</v>
       </c>
       <c r="O63">
-        <v>-19.0216</v>
+        <v>-22.4853</v>
       </c>
       <c r="P63">
-        <v>-2.53594</v>
+        <v>-2.99776</v>
       </c>
     </row>
     <row r="64" spans="1:16">
@@ -4481,10 +4481,10 @@
         <v>29</v>
       </c>
       <c r="O64">
-        <v>-19.4389</v>
+        <v>-23.3111</v>
       </c>
       <c r="P64">
-        <v>-2.59156</v>
+        <v>-3.10786</v>
       </c>
     </row>
     <row r="65" spans="1:16">
@@ -4531,10 +4531,10 @@
         <v>163</v>
       </c>
       <c r="O65">
-        <v>28.0322</v>
+        <v>32.4878</v>
       </c>
       <c r="P65">
-        <v>3.39803</v>
+        <v>3.9381</v>
       </c>
     </row>
     <row r="66" spans="1:16">
@@ -4581,10 +4581,10 @@
         <v>163</v>
       </c>
       <c r="O66">
-        <v>27.4312</v>
+        <v>31.4378</v>
       </c>
       <c r="P66">
-        <v>3.32519</v>
+        <v>3.81083</v>
       </c>
     </row>
     <row r="67" spans="1:16">
@@ -4631,10 +4631,10 @@
         <v>163</v>
       </c>
       <c r="O67">
-        <v>26.8303</v>
+        <v>30.4351</v>
       </c>
       <c r="P67">
-        <v>3.25234</v>
+        <v>3.68929</v>
       </c>
     </row>
     <row r="68" spans="1:16">
@@ -4681,10 +4681,10 @@
         <v>163</v>
       </c>
       <c r="O68">
-        <v>26.2796</v>
+        <v>29.3837</v>
       </c>
       <c r="P68">
-        <v>3.18559</v>
+        <v>3.56185</v>
       </c>
     </row>
     <row r="69" spans="1:16">
@@ -4731,10 +4731,10 @@
         <v>163</v>
       </c>
       <c r="O69">
-        <v>25.7288</v>
+        <v>28.4825</v>
       </c>
       <c r="P69">
-        <v>3.11882</v>
+        <v>3.45261</v>
       </c>
     </row>
     <row r="70" spans="1:16">
@@ -4781,10 +4781,10 @@
         <v>163</v>
       </c>
       <c r="O70">
-        <v>25.079</v>
+        <v>27.4314</v>
       </c>
       <c r="P70">
-        <v>3.04006</v>
+        <v>3.32521</v>
       </c>
     </row>
     <row r="71" spans="1:16">
@@ -4831,10 +4831,10 @@
         <v>163</v>
       </c>
       <c r="O71">
-        <v>24.5272</v>
+        <v>26.43</v>
       </c>
       <c r="P71">
-        <v>2.97318</v>
+        <v>3.20382</v>
       </c>
     </row>
     <row r="72" spans="1:16">
@@ -4881,10 +4881,10 @@
         <v>163</v>
       </c>
       <c r="O72">
-        <v>23.8776</v>
+        <v>25.3812</v>
       </c>
       <c r="P72">
-        <v>2.89443</v>
+        <v>3.07669</v>
       </c>
     </row>
     <row r="73" spans="1:16">
@@ -4931,10 +4931,10 @@
         <v>163</v>
       </c>
       <c r="O73">
-        <v>22.1236</v>
+        <v>25.0782</v>
       </c>
       <c r="P73">
-        <v>2.68183</v>
+        <v>3.03997</v>
       </c>
     </row>
     <row r="74" spans="1:16">
@@ -4981,10 +4981,10 @@
         <v>163</v>
       </c>
       <c r="O74">
-        <v>21.523</v>
+        <v>24.0269</v>
       </c>
       <c r="P74">
-        <v>2.60904</v>
+        <v>2.91255</v>
       </c>
     </row>
     <row r="75" spans="1:16">
@@ -5031,10 +5031,10 @@
         <v>163</v>
       </c>
       <c r="O75">
-        <v>20.922</v>
+        <v>22.9804</v>
       </c>
       <c r="P75">
-        <v>2.53619</v>
+        <v>2.79112</v>
       </c>
     </row>
     <row r="76" spans="1:16">
@@ -5081,10 +5081,10 @@
         <v>163</v>
       </c>
       <c r="O76">
-        <v>20.3213</v>
+        <v>21.9736</v>
       </c>
       <c r="P76">
-        <v>2.46338</v>
+        <v>2.66365</v>
       </c>
     </row>
     <row r="77" spans="1:16">
@@ -5131,10 +5131,10 @@
         <v>163</v>
       </c>
       <c r="O77">
-        <v>19.7705</v>
+        <v>21.073</v>
       </c>
       <c r="P77">
-        <v>2.39661</v>
+        <v>2.5545</v>
       </c>
     </row>
     <row r="78" spans="1:16">
@@ -5181,10 +5181,10 @@
         <v>163</v>
       </c>
       <c r="O78">
-        <v>19.1697</v>
+        <v>19.9714</v>
       </c>
       <c r="P78">
-        <v>2.32378</v>
+        <v>2.42096</v>
       </c>
     </row>
     <row r="79" spans="1:16">
@@ -5231,10 +5231,10 @@
         <v>163</v>
       </c>
       <c r="O79">
-        <v>18.5694</v>
+        <v>19.0693</v>
       </c>
       <c r="P79">
-        <v>2.25102</v>
+        <v>2.31162</v>
       </c>
     </row>
     <row r="80" spans="1:16">
@@ -5481,10 +5481,10 @@
         <v>163</v>
       </c>
       <c r="O84">
-        <v>14.0625</v>
+        <v>14.1124</v>
       </c>
       <c r="P84">
-        <v>1.70473</v>
+        <v>1.71079</v>
       </c>
     </row>
     <row r="85" spans="1:16">
@@ -5881,10 +5881,10 @@
         <v>163</v>
       </c>
       <c r="O92">
-        <v>4.44996</v>
+        <v>4.450019999999999</v>
       </c>
       <c r="P92">
-        <v>0.539578</v>
+        <v>0.545529</v>
       </c>
     </row>
     <row r="93" spans="1:16">
@@ -5931,10 +5931,10 @@
         <v>163</v>
       </c>
       <c r="O93">
-        <v>3.39765</v>
+        <v>3.39764</v>
       </c>
       <c r="P93">
-        <v>0.412026</v>
+        <v>0.412028</v>
       </c>
     </row>
     <row r="94" spans="1:16">
@@ -6081,7 +6081,7 @@
         <v>163</v>
       </c>
       <c r="O96">
-        <v>0.0462312</v>
+        <v>0.0462311</v>
       </c>
       <c r="P96">
         <v>0.00578557</v>
@@ -6481,10 +6481,10 @@
         <v>163</v>
       </c>
       <c r="O104">
-        <v>-8.963900000000001</v>
+        <v>-8.91422</v>
       </c>
       <c r="P104">
-        <v>-1.08635</v>
+        <v>-1.08033</v>
       </c>
     </row>
     <row r="105" spans="1:16">
@@ -6631,10 +6631,10 @@
         <v>163</v>
       </c>
       <c r="O107">
-        <v>-12.7673</v>
+        <v>-12.7684</v>
       </c>
       <c r="P107">
-        <v>-1.54737</v>
+        <v>-1.54749</v>
       </c>
     </row>
     <row r="108" spans="1:16">
@@ -6881,10 +6881,10 @@
         <v>163</v>
       </c>
       <c r="O112">
-        <v>-18.074</v>
+        <v>-18.0739</v>
       </c>
       <c r="P112">
-        <v>-2.1906</v>
+        <v>-2.19059</v>
       </c>
     </row>
     <row r="113" spans="1:16">
@@ -6931,10 +6931,10 @@
         <v>163</v>
       </c>
       <c r="O113">
-        <v>-18.6529</v>
+        <v>-19.0749</v>
       </c>
       <c r="P113">
-        <v>-2.26077</v>
+        <v>-2.31193</v>
       </c>
     </row>
     <row r="114" spans="1:16">
@@ -6981,10 +6981,10 @@
         <v>163</v>
       </c>
       <c r="O114">
-        <v>-19.1754</v>
+        <v>-20.076</v>
       </c>
       <c r="P114">
-        <v>-2.32409</v>
+        <v>-2.43327</v>
       </c>
     </row>
     <row r="115" spans="1:16">
@@ -7031,10 +7031,10 @@
         <v>163</v>
       </c>
       <c r="O115">
-        <v>-19.8713</v>
+        <v>-21.1273</v>
       </c>
       <c r="P115">
-        <v>-2.40847</v>
+        <v>-2.56069</v>
       </c>
     </row>
     <row r="116" spans="1:16">
@@ -7081,10 +7081,10 @@
         <v>163</v>
       </c>
       <c r="O116">
-        <v>-20.3763</v>
+        <v>-22.078</v>
       </c>
       <c r="P116">
-        <v>-2.46967</v>
+        <v>-2.67594</v>
       </c>
     </row>
     <row r="117" spans="1:16">
@@ -7131,10 +7131,10 @@
         <v>163</v>
       </c>
       <c r="O117">
-        <v>-20.9773</v>
+        <v>-23.0798</v>
       </c>
       <c r="P117">
-        <v>-2.54252</v>
+        <v>-2.79737</v>
       </c>
     </row>
     <row r="118" spans="1:16">
@@ -7181,10 +7181,10 @@
         <v>163</v>
       </c>
       <c r="O118">
-        <v>-21.5277</v>
+        <v>-24.1311</v>
       </c>
       <c r="P118">
-        <v>-2.60923</v>
+        <v>-2.92479</v>
       </c>
     </row>
     <row r="119" spans="1:16">
@@ -7231,10 +7231,10 @@
         <v>163</v>
       </c>
       <c r="O119">
-        <v>-22.1283</v>
+        <v>-25.182</v>
       </c>
       <c r="P119">
-        <v>-2.68202</v>
+        <v>-3.05217</v>
       </c>
     </row>
     <row r="120" spans="1:16">
@@ -7281,10 +7281,10 @@
         <v>163</v>
       </c>
       <c r="O120">
-        <v>-23.9799</v>
+        <v>-25.482</v>
       </c>
       <c r="P120">
-        <v>-2.90647</v>
+        <v>-3.08855</v>
       </c>
     </row>
     <row r="121" spans="1:16">
@@ -7331,10 +7331,10 @@
         <v>163</v>
       </c>
       <c r="O121">
-        <v>-24.6315</v>
+        <v>-26.5329</v>
       </c>
       <c r="P121">
-        <v>-2.98545</v>
+        <v>-3.21592</v>
       </c>
     </row>
     <row r="122" spans="1:16">
@@ -7381,10 +7381,10 @@
         <v>163</v>
       </c>
       <c r="O122">
-        <v>-25.182</v>
+        <v>-27.5336</v>
       </c>
       <c r="P122">
-        <v>-3.05218</v>
+        <v>-3.33722</v>
       </c>
     </row>
     <row r="123" spans="1:16">
@@ -7431,10 +7431,10 @@
         <v>163</v>
       </c>
       <c r="O123">
-        <v>-25.8322</v>
+        <v>-28.6839</v>
       </c>
       <c r="P123">
-        <v>-3.13098</v>
+        <v>-3.47665</v>
       </c>
     </row>
     <row r="124" spans="1:16">
@@ -7481,10 +7481,10 @@
         <v>163</v>
       </c>
       <c r="O124">
-        <v>-26.3827</v>
+        <v>-29.6345</v>
       </c>
       <c r="P124">
-        <v>-3.19772</v>
+        <v>-3.59187</v>
       </c>
     </row>
     <row r="125" spans="1:16">
@@ -7531,10 +7531,10 @@
         <v>163</v>
       </c>
       <c r="O125">
-        <v>-27.0327</v>
+        <v>-30.6851</v>
       </c>
       <c r="P125">
-        <v>-3.2765</v>
+        <v>-3.71922</v>
       </c>
     </row>
     <row r="126" spans="1:16">
@@ -7581,10 +7581,10 @@
         <v>163</v>
       </c>
       <c r="O126">
-        <v>-27.5834</v>
+        <v>-31.7856</v>
       </c>
       <c r="P126">
-        <v>-3.34326</v>
+        <v>-3.85262</v>
       </c>
     </row>
     <row r="127" spans="1:16">
@@ -7631,10 +7631,10 @@
         <v>163</v>
       </c>
       <c r="O127">
-        <v>-28.2828</v>
+        <v>-32.8364</v>
       </c>
       <c r="P127">
-        <v>-3.42803</v>
+        <v>-3.97998</v>
       </c>
     </row>
     <row r="128" spans="1:16">
@@ -7681,10 +7681,10 @@
         <v>236</v>
       </c>
       <c r="O128">
-        <v>16.2256</v>
+        <v>18.6533</v>
       </c>
       <c r="P128">
-        <v>2.40441</v>
+        <v>2.7641</v>
       </c>
     </row>
     <row r="129" spans="1:16">
@@ -7731,10 +7731,10 @@
         <v>236</v>
       </c>
       <c r="O129">
-        <v>15.8641</v>
+        <v>17.9893</v>
       </c>
       <c r="P129">
-        <v>2.35085</v>
+        <v>2.66564</v>
       </c>
     </row>
     <row r="130" spans="1:16">
@@ -7781,10 +7781,10 @@
         <v>236</v>
       </c>
       <c r="O130">
-        <v>15.6645</v>
+        <v>17.5687</v>
       </c>
       <c r="P130">
-        <v>2.32123</v>
+        <v>2.60337</v>
       </c>
     </row>
     <row r="131" spans="1:16">
@@ -7831,10 +7831,10 @@
         <v>236</v>
       </c>
       <c r="O131">
-        <v>15.4505</v>
+        <v>17.0522</v>
       </c>
       <c r="P131">
-        <v>2.28958</v>
+        <v>2.5269</v>
       </c>
     </row>
     <row r="132" spans="1:16">
@@ -7881,10 +7881,10 @@
         <v>236</v>
       </c>
       <c r="O132">
-        <v>15.1485</v>
+        <v>16.5879</v>
       </c>
       <c r="P132">
-        <v>2.25893</v>
+        <v>2.45808</v>
       </c>
     </row>
     <row r="133" spans="1:16">
@@ -7931,10 +7931,10 @@
         <v>236</v>
       </c>
       <c r="O133">
-        <v>14.8393</v>
+        <v>16.1226</v>
       </c>
       <c r="P133">
-        <v>2.19899</v>
+        <v>2.3892</v>
       </c>
     </row>
     <row r="134" spans="1:16">
@@ -7981,10 +7981,10 @@
         <v>236</v>
       </c>
       <c r="O134">
-        <v>14.572</v>
+        <v>15.6056</v>
       </c>
       <c r="P134">
-        <v>2.15944</v>
+        <v>2.31257</v>
       </c>
     </row>
     <row r="135" spans="1:16">
@@ -8031,10 +8031,10 @@
         <v>236</v>
       </c>
       <c r="O135">
-        <v>14.3686</v>
+        <v>15.1403</v>
       </c>
       <c r="P135">
-        <v>2.12929</v>
+        <v>2.24335</v>
       </c>
     </row>
     <row r="136" spans="1:16">
@@ -8081,10 +8081,10 @@
         <v>236</v>
       </c>
       <c r="O136">
-        <v>13.487</v>
+        <v>14.986</v>
       </c>
       <c r="P136">
-        <v>1.99874</v>
+        <v>2.22074</v>
       </c>
     </row>
     <row r="137" spans="1:16">
@@ -8131,10 +8131,10 @@
         <v>236</v>
       </c>
       <c r="O137">
-        <v>13.1776</v>
+        <v>14.5204</v>
       </c>
       <c r="P137">
-        <v>1.95288</v>
+        <v>2.15183</v>
       </c>
     </row>
     <row r="138" spans="1:16">
@@ -8181,10 +8181,10 @@
         <v>236</v>
       </c>
       <c r="O138">
-        <v>12.8738</v>
+        <v>13.9638</v>
       </c>
       <c r="P138">
-        <v>1.90785</v>
+        <v>2.06934</v>
       </c>
     </row>
     <row r="139" spans="1:16">
@@ -8231,10 +8231,10 @@
         <v>236</v>
       </c>
       <c r="O139">
-        <v>12.6695</v>
+        <v>13.5537</v>
       </c>
       <c r="P139">
-        <v>1.87756</v>
+        <v>2.00858</v>
       </c>
     </row>
     <row r="140" spans="1:16">
@@ -8281,10 +8281,10 @@
         <v>236</v>
       </c>
       <c r="O140">
-        <v>12.4022</v>
+        <v>13.0746</v>
       </c>
       <c r="P140">
-        <v>1.83801</v>
+        <v>1.93759</v>
       </c>
     </row>
     <row r="141" spans="1:16">
@@ -8331,10 +8331,10 @@
         <v>236</v>
       </c>
       <c r="O141">
-        <v>11.9884</v>
+        <v>12.5732</v>
       </c>
       <c r="P141">
-        <v>1.7767</v>
+        <v>1.86325</v>
       </c>
     </row>
     <row r="142" spans="1:16">
@@ -8381,10 +8381,10 @@
         <v>236</v>
       </c>
       <c r="O142">
-        <v>11.8353</v>
+        <v>12.1444</v>
       </c>
       <c r="P142">
-        <v>1.75404</v>
+        <v>1.79977</v>
       </c>
     </row>
     <row r="143" spans="1:16">
@@ -8631,10 +8631,10 @@
         <v>236</v>
       </c>
       <c r="O147">
-        <v>8.946709999999999</v>
+        <v>9.0443</v>
       </c>
       <c r="P147">
-        <v>1.32601</v>
+        <v>1.34788</v>
       </c>
     </row>
     <row r="148" spans="1:16">
@@ -9034,7 +9034,7 @@
         <v>2.9954</v>
       </c>
       <c r="P155">
-        <v>0.44442</v>
+        <v>0.444419</v>
       </c>
     </row>
     <row r="156" spans="1:16">
@@ -9284,7 +9284,7 @@
         <v>-0.669481</v>
       </c>
       <c r="P160">
-        <v>-0.09857390000000001</v>
+        <v>-0.09857399999999999</v>
       </c>
     </row>
     <row r="161" spans="1:16">
@@ -9481,10 +9481,10 @@
         <v>236</v>
       </c>
       <c r="O164">
-        <v>-3.46402</v>
+        <v>-3.46424</v>
       </c>
       <c r="P164">
-        <v>-0.512592</v>
+        <v>-0.512578</v>
       </c>
     </row>
     <row r="165" spans="1:16">
@@ -9531,10 +9531,10 @@
         <v>236</v>
       </c>
       <c r="O165">
-        <v>-4.1879</v>
+        <v>-4.188029999999999</v>
       </c>
       <c r="P165">
-        <v>-0.619823</v>
+        <v>-0.619844</v>
       </c>
     </row>
     <row r="166" spans="1:16">
@@ -9681,10 +9681,10 @@
         <v>236</v>
       </c>
       <c r="O168">
-        <v>-6.35764</v>
+        <v>-6.408589999999999</v>
       </c>
       <c r="P168">
-        <v>-0.941269</v>
+        <v>-0.941258</v>
       </c>
     </row>
     <row r="169" spans="1:16">
@@ -9781,10 +9781,10 @@
         <v>236</v>
       </c>
       <c r="O170">
-        <v>-7.803809999999999</v>
+        <v>-7.80396</v>
       </c>
       <c r="P170">
-        <v>-1.1555</v>
+        <v>-1.15555</v>
       </c>
     </row>
     <row r="171" spans="1:16">
@@ -9831,7 +9831,7 @@
         <v>236</v>
       </c>
       <c r="O171">
-        <v>-8.47537</v>
+        <v>-8.475379999999999</v>
       </c>
       <c r="P171">
         <v>-1.24744</v>
@@ -9881,10 +9881,10 @@
         <v>236</v>
       </c>
       <c r="O172">
-        <v>-9.1471</v>
+        <v>-9.09558</v>
       </c>
       <c r="P172">
-        <v>-1.35452</v>
+        <v>-1.34688</v>
       </c>
     </row>
     <row r="173" spans="1:16">
@@ -9931,10 +9931,10 @@
         <v>236</v>
       </c>
       <c r="O173">
-        <v>-9.922319999999999</v>
+        <v>-9.871090000000001</v>
       </c>
       <c r="P173">
-        <v>-1.46936</v>
+        <v>-1.4619</v>
       </c>
     </row>
     <row r="174" spans="1:16">
@@ -9981,10 +9981,10 @@
         <v>236</v>
       </c>
       <c r="O174">
-        <v>-10.5935</v>
+        <v>-10.5929</v>
       </c>
       <c r="P174">
-        <v>-1.56875</v>
+        <v>-1.56127</v>
       </c>
     </row>
     <row r="175" spans="1:16">
@@ -10031,10 +10031,10 @@
         <v>236</v>
       </c>
       <c r="O175">
-        <v>-10.5424</v>
+        <v>-10.4909</v>
       </c>
       <c r="P175">
-        <v>-1.56122</v>
+        <v>-1.55363</v>
       </c>
     </row>
     <row r="176" spans="1:16">
@@ -10081,10 +10081,10 @@
         <v>236</v>
       </c>
       <c r="O176">
-        <v>-10.7494</v>
+        <v>-11.059</v>
       </c>
       <c r="P176">
-        <v>-1.59191</v>
+        <v>-1.63776</v>
       </c>
     </row>
     <row r="177" spans="1:16">
@@ -10131,10 +10131,10 @@
         <v>236</v>
       </c>
       <c r="O177">
-        <v>-10.9562</v>
+        <v>-11.5236</v>
       </c>
       <c r="P177">
-        <v>-1.6225</v>
+        <v>-1.70659</v>
       </c>
     </row>
     <row r="178" spans="1:16">
@@ -10181,10 +10181,10 @@
         <v>236</v>
       </c>
       <c r="O178">
-        <v>-11.3697</v>
+        <v>-11.9901</v>
       </c>
       <c r="P178">
-        <v>-1.68379</v>
+        <v>-1.77574</v>
       </c>
     </row>
     <row r="179" spans="1:16">
@@ -10231,10 +10231,10 @@
         <v>236</v>
       </c>
       <c r="O179">
-        <v>-11.5249</v>
+        <v>-12.352</v>
       </c>
       <c r="P179">
-        <v>-1.70676</v>
+        <v>-1.82934</v>
       </c>
     </row>
     <row r="180" spans="1:16">
@@ -10281,10 +10281,10 @@
         <v>236</v>
       </c>
       <c r="O180">
-        <v>-11.7833</v>
+        <v>-12.9207</v>
       </c>
       <c r="P180">
-        <v>-1.74506</v>
+        <v>-1.91355</v>
       </c>
     </row>
     <row r="181" spans="1:16">
@@ -10331,10 +10331,10 @@
         <v>236</v>
       </c>
       <c r="O181">
-        <v>-12.0416</v>
+        <v>-13.3789</v>
       </c>
       <c r="P181">
-        <v>-1.78333</v>
+        <v>-1.98151</v>
       </c>
     </row>
     <row r="182" spans="1:16">
@@ -10381,10 +10381,10 @@
         <v>236</v>
       </c>
       <c r="O182">
-        <v>-12.3522</v>
+        <v>-13.8511</v>
       </c>
       <c r="P182">
-        <v>-1.82929</v>
+        <v>-2.0514</v>
       </c>
     </row>
     <row r="183" spans="1:16">
@@ -10431,10 +10431,10 @@
         <v>236</v>
       </c>
       <c r="O183">
-        <v>-13.179</v>
+        <v>-14.1605</v>
       </c>
       <c r="P183">
-        <v>-1.9518</v>
+        <v>-2.09724</v>
       </c>
     </row>
     <row r="184" spans="1:16">
@@ -10481,10 +10481,10 @@
         <v>236</v>
       </c>
       <c r="O184">
-        <v>-13.5397</v>
+        <v>-14.6203</v>
       </c>
       <c r="P184">
-        <v>-2.00527</v>
+        <v>-2.16541</v>
       </c>
     </row>
     <row r="185" spans="1:16">
@@ -10531,10 +10531,10 @@
         <v>236</v>
       </c>
       <c r="O185">
-        <v>-13.6962</v>
+        <v>-15.1946</v>
       </c>
       <c r="P185">
-        <v>-2.02846</v>
+        <v>-2.25044</v>
       </c>
     </row>
     <row r="186" spans="1:16">
@@ -10581,10 +10581,10 @@
         <v>236</v>
       </c>
       <c r="O186">
-        <v>-14.1091</v>
+        <v>-15.6602</v>
       </c>
       <c r="P186">
-        <v>-2.0896</v>
+        <v>-2.31941</v>
       </c>
     </row>
     <row r="187" spans="1:16">
@@ -10631,10 +10631,10 @@
         <v>236</v>
       </c>
       <c r="O187">
-        <v>-14.2649</v>
+        <v>-16.1766</v>
       </c>
       <c r="P187">
-        <v>-2.1127</v>
+        <v>-2.39594</v>
       </c>
     </row>
     <row r="188" spans="1:16">
@@ -10681,10 +10681,10 @@
         <v>236</v>
       </c>
       <c r="O188">
-        <v>-14.5743</v>
+        <v>-16.6938</v>
       </c>
       <c r="P188">
-        <v>-2.15855</v>
+        <v>-2.47253</v>
       </c>
     </row>
     <row r="189" spans="1:16">
@@ -10731,10 +10731,10 @@
         <v>236</v>
       </c>
       <c r="O189">
-        <v>-14.935</v>
+        <v>-17.2623</v>
       </c>
       <c r="P189">
-        <v>-2.20456</v>
+        <v>-2.55679</v>
       </c>
     </row>
     <row r="190" spans="1:16">
@@ -10781,10 +10781,10 @@
         <v>236</v>
       </c>
       <c r="O190">
-        <v>-15.2467</v>
+        <v>-17.7799</v>
       </c>
       <c r="P190">
-        <v>-2.25816</v>
+        <v>-2.63342</v>
       </c>
     </row>
     <row r="191" spans="1:16" s="1" customFormat="1">
@@ -10842,10 +10842,10 @@
         <v>299</v>
       </c>
       <c r="O192" s="1">
-        <v>-28.2828</v>
+        <v>-32.8364</v>
       </c>
       <c r="P192" s="1">
-        <v>-3.42803</v>
+        <v>-3.97998</v>
       </c>
     </row>
     <row r="193" spans="14:16" s="1" customFormat="1">
@@ -10853,10 +10853,10 @@
         <v>300</v>
       </c>
       <c r="O193" s="1">
-        <v>28.0322</v>
+        <v>32.4878</v>
       </c>
       <c r="P193" s="1">
-        <v>3.39803</v>
+        <v>3.9381</v>
       </c>
     </row>
     <row r="194" spans="14:16" s="1" customFormat="1">
@@ -10896,10 +10896,10 @@
         <v>305</v>
       </c>
       <c r="O198" s="1">
-        <v>0.1328492444444452</v>
+        <v>0.1269381328042338</v>
       </c>
       <c r="P198" s="1">
-        <v>0.02014031571428573</v>
+        <v>0.01937202417989411</v>
       </c>
     </row>
     <row r="199" spans="14:16" s="1" customFormat="1">
@@ -10907,10 +10907,10 @@
         <v>306</v>
       </c>
       <c r="O199" s="1">
-        <v>14.2175945257799</v>
+        <v>15.47692400709899</v>
       </c>
       <c r="P199" s="1">
-        <v>1.846985007941576</v>
+        <v>2.010136413909253</v>
       </c>
     </row>
     <row r="200" spans="14:16" s="1" customFormat="1">
@@ -10918,10 +10918,10 @@
         <v>307</v>
       </c>
       <c r="O200" s="1">
-        <v>10702.05147589334</v>
+        <v>12192.4938276568</v>
       </c>
       <c r="P200" s="1">
-        <v>9170.586172248981</v>
+        <v>10376.49135290435</v>
       </c>
     </row>
     <row r="201" spans="14:16" s="1" customFormat="1"/>

--- a/dcd_top_offset_step_tsmc2p_meas.xlsx
+++ b/dcd_top_offset_step_tsmc2p_meas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4807" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5187" uniqueCount="309">
   <si>
     <t>Process</t>
   </si>
@@ -518,6 +518,9 @@
   </si>
   <si>
     <t>tsmc2p (67)</t>
+  </si>
+  <si>
+    <t>n/a</t>
   </si>
   <si>
     <t>tsmc2p (68)</t>
@@ -944,7 +947,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -960,13 +963,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000 "/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -981,9 +997,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1381,10 +1398,10 @@
         <v>29</v>
       </c>
       <c r="O2">
-        <v>23.5789</v>
+        <v>23.0107</v>
       </c>
       <c r="P2">
-        <v>3.14414</v>
+        <v>3.06838</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1431,10 +1448,10 @@
         <v>29</v>
       </c>
       <c r="O3">
-        <v>22.7011</v>
+        <v>22.3395</v>
       </c>
       <c r="P3">
-        <v>3.02712</v>
+        <v>2.97886</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1481,10 +1498,10 @@
         <v>29</v>
       </c>
       <c r="O4">
-        <v>21.9265</v>
+        <v>21.6681</v>
       </c>
       <c r="P4">
-        <v>2.92382</v>
+        <v>2.88937</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1531,10 +1548,10 @@
         <v>29</v>
       </c>
       <c r="O5">
-        <v>21.1517</v>
+        <v>21.0484</v>
       </c>
       <c r="P5">
-        <v>2.82051</v>
+        <v>2.80674</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1581,10 +1598,10 @@
         <v>29</v>
       </c>
       <c r="O6">
-        <v>20.4285</v>
+        <v>20.4286</v>
       </c>
       <c r="P6">
-        <v>2.7241</v>
+        <v>2.72412</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1631,10 +1648,10 @@
         <v>29</v>
       </c>
       <c r="O7">
-        <v>19.6539</v>
+        <v>19.809</v>
       </c>
       <c r="P7">
-        <v>2.6208</v>
+        <v>2.64151</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1681,10 +1698,10 @@
         <v>29</v>
       </c>
       <c r="O8">
-        <v>18.931</v>
+        <v>19.1894</v>
       </c>
       <c r="P8">
-        <v>2.52442</v>
+        <v>2.55888</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1731,10 +1748,10 @@
         <v>29</v>
       </c>
       <c r="O9">
-        <v>18.1045</v>
+        <v>18.5184</v>
       </c>
       <c r="P9">
-        <v>2.41424</v>
+        <v>2.46941</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1781,10 +1798,10 @@
         <v>29</v>
       </c>
       <c r="O10">
-        <v>17.7952</v>
+        <v>16.8138</v>
       </c>
       <c r="P10">
-        <v>2.37298</v>
+        <v>2.24213</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1831,10 +1848,10 @@
         <v>29</v>
       </c>
       <c r="O11">
-        <v>17.0718</v>
+        <v>16.1429</v>
       </c>
       <c r="P11">
-        <v>2.27653</v>
+        <v>2.15268</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1881,10 +1898,10 @@
         <v>29</v>
       </c>
       <c r="O12">
-        <v>16.2457</v>
+        <v>15.5746</v>
       </c>
       <c r="P12">
-        <v>2.16639</v>
+        <v>2.0769</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1931,10 +1948,10 @@
         <v>29</v>
       </c>
       <c r="O13">
-        <v>15.5228</v>
+        <v>15.0067</v>
       </c>
       <c r="P13">
-        <v>2.07</v>
+        <v>2.00119</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1981,10 +1998,10 @@
         <v>29</v>
       </c>
       <c r="O14">
-        <v>14.9547</v>
+        <v>14.5416</v>
       </c>
       <c r="P14">
-        <v>1.99425</v>
+        <v>1.93917</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -2031,10 +2048,10 @@
         <v>29</v>
       </c>
       <c r="O15">
-        <v>14.2316</v>
+        <v>13.9735</v>
       </c>
       <c r="P15">
-        <v>1.89784</v>
+        <v>1.86342</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -2081,10 +2098,10 @@
         <v>29</v>
       </c>
       <c r="O16">
-        <v>13.612</v>
+        <v>13.4053</v>
       </c>
       <c r="P16">
-        <v>1.81523</v>
+        <v>1.78767</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -2131,10 +2148,10 @@
         <v>29</v>
       </c>
       <c r="O17">
-        <v>12.8379</v>
+        <v>12.9406</v>
       </c>
       <c r="P17">
-        <v>1.71202</v>
+        <v>1.7257</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -2181,10 +2198,10 @@
         <v>29</v>
       </c>
       <c r="O18">
-        <v>12.8378</v>
+        <v>12.8891</v>
       </c>
       <c r="P18">
-        <v>1.71199</v>
+        <v>1.71884</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -2231,10 +2248,10 @@
         <v>29</v>
       </c>
       <c r="O19">
-        <v>12.1145</v>
+        <v>12.0632</v>
       </c>
       <c r="P19">
-        <v>1.61556</v>
+        <v>1.60872</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -2281,10 +2298,10 @@
         <v>29</v>
       </c>
       <c r="O20">
-        <v>11.3915</v>
+        <v>11.3398</v>
       </c>
       <c r="P20">
-        <v>1.51916</v>
+        <v>1.51227</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -2331,10 +2348,10 @@
         <v>29</v>
       </c>
       <c r="O21">
-        <v>10.3593</v>
+        <v>10.4104</v>
       </c>
       <c r="P21">
-        <v>1.38153</v>
+        <v>1.38835</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -2381,10 +2398,10 @@
         <v>29</v>
       </c>
       <c r="O22">
-        <v>9.635199999999999</v>
+        <v>9.532310000000001</v>
       </c>
       <c r="P22">
-        <v>1.28499</v>
+        <v>1.27127</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -2431,10 +2448,10 @@
         <v>29</v>
       </c>
       <c r="O23">
-        <v>8.705970000000001</v>
+        <v>8.70607</v>
       </c>
       <c r="P23">
-        <v>1.16109</v>
+        <v>1.1611</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -2481,7 +2498,7 @@
         <v>29</v>
       </c>
       <c r="O24">
-        <v>7.87933</v>
+        <v>7.87934</v>
       </c>
       <c r="P24">
         <v>1.05087</v>
@@ -2531,10 +2548,10 @@
         <v>29</v>
       </c>
       <c r="O25">
-        <v>7.00143</v>
+        <v>7.00142</v>
       </c>
       <c r="P25">
-        <v>0.9338109999999999</v>
+        <v>0.933817</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -2581,10 +2598,10 @@
         <v>29</v>
       </c>
       <c r="O26">
-        <v>6.278149999999999</v>
+        <v>6.22702</v>
       </c>
       <c r="P26">
-        <v>0.837382</v>
+        <v>0.8305630000000001</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -2631,10 +2648,10 @@
         <v>29</v>
       </c>
       <c r="O27">
-        <v>5.34864</v>
+        <v>5.34838</v>
       </c>
       <c r="P27">
-        <v>0.713438</v>
+        <v>0.7134</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -2681,10 +2698,10 @@
         <v>29</v>
       </c>
       <c r="O28">
-        <v>4.47088</v>
+        <v>4.470680000000001</v>
       </c>
       <c r="P28">
-        <v>0.596413</v>
+        <v>0.596386</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -2731,10 +2748,10 @@
         <v>29</v>
       </c>
       <c r="O29">
-        <v>3.54158</v>
+        <v>3.64431</v>
       </c>
       <c r="P29">
-        <v>0.472505</v>
+        <v>0.486202</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2781,10 +2798,10 @@
         <v>29</v>
       </c>
       <c r="O30">
-        <v>2.71363</v>
+        <v>2.71353</v>
       </c>
       <c r="P30">
-        <v>0.362102</v>
+        <v>0.362094</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2831,10 +2848,10 @@
         <v>29</v>
       </c>
       <c r="O31">
-        <v>1.78471</v>
+        <v>1.83676</v>
       </c>
       <c r="P31">
-        <v>0.238243</v>
+        <v>0.245183</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -2881,10 +2898,10 @@
         <v>29</v>
       </c>
       <c r="O32">
-        <v>1.01216</v>
+        <v>0.960757</v>
       </c>
       <c r="P32">
-        <v>0.135234</v>
+        <v>0.128389</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2931,10 +2948,10 @@
         <v>29</v>
       </c>
       <c r="O33">
-        <v>0.135287</v>
+        <v>0.135289</v>
       </c>
       <c r="P33">
-        <v>0.0183195</v>
+        <v>0.0183215</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2981,10 +2998,10 @@
         <v>29</v>
       </c>
       <c r="O34">
-        <v>-0.795081</v>
+        <v>-0.795453</v>
       </c>
       <c r="P34">
-        <v>-0.10572</v>
+        <v>-0.105775</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -3031,10 +3048,10 @@
         <v>29</v>
       </c>
       <c r="O35">
-        <v>-1.72663</v>
+        <v>-1.77672</v>
       </c>
       <c r="P35">
-        <v>-0.229932</v>
+        <v>-0.236624</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -3081,10 +3098,10 @@
         <v>29</v>
       </c>
       <c r="O36">
-        <v>-2.65695</v>
+        <v>-2.60538</v>
       </c>
       <c r="P36">
-        <v>-0.353977</v>
+        <v>-0.347097</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -3131,7 +3148,7 @@
         <v>29</v>
       </c>
       <c r="O37">
-        <v>-3.48217</v>
+        <v>-3.48215</v>
       </c>
       <c r="P37">
         <v>-0.464011</v>
@@ -3181,10 +3198,10 @@
         <v>29</v>
       </c>
       <c r="O38">
-        <v>-4.35998</v>
+        <v>-4.359789999999999</v>
       </c>
       <c r="P38">
-        <v>-0.581043</v>
+        <v>-0.581018</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -3231,10 +3248,10 @@
         <v>29</v>
       </c>
       <c r="O39">
-        <v>-5.23744</v>
+        <v>-5.28925</v>
       </c>
       <c r="P39">
-        <v>-0.698047</v>
+        <v>-0.704944</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -3281,10 +3298,10 @@
         <v>29</v>
       </c>
       <c r="O40">
-        <v>-6.11536</v>
+        <v>-6.11525</v>
       </c>
       <c r="P40">
-        <v>-0.815099</v>
+        <v>-0.8150849999999999</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -3331,10 +3348,10 @@
         <v>29</v>
       </c>
       <c r="O41">
-        <v>-6.94144</v>
+        <v>-6.88894</v>
       </c>
       <c r="P41">
-        <v>-0.92523</v>
+        <v>-0.918223</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -3381,10 +3398,10 @@
         <v>29</v>
       </c>
       <c r="O42">
-        <v>-7.76763</v>
+        <v>-7.767569999999999</v>
       </c>
       <c r="P42">
-        <v>-1.03539</v>
+        <v>-1.03537</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -3431,10 +3448,10 @@
         <v>29</v>
       </c>
       <c r="O43">
-        <v>-8.645059999999999</v>
+        <v>-8.59357</v>
       </c>
       <c r="P43">
-        <v>-1.15239</v>
+        <v>-1.1455</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -3481,10 +3498,10 @@
         <v>29</v>
       </c>
       <c r="O44">
-        <v>-9.47157</v>
+        <v>-9.52322</v>
       </c>
       <c r="P44">
-        <v>-1.26258</v>
+        <v>-1.26947</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -3531,10 +3548,10 @@
         <v>29</v>
       </c>
       <c r="O45">
-        <v>-10.2972</v>
+        <v>-10.246</v>
       </c>
       <c r="P45">
-        <v>-1.37268</v>
+        <v>-1.36584</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -3581,10 +3598,10 @@
         <v>29</v>
       </c>
       <c r="O46">
-        <v>-11.3283</v>
+        <v>-11.2269</v>
       </c>
       <c r="P46">
-        <v>-1.51016</v>
+        <v>-1.49664</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -3631,10 +3648,10 @@
         <v>29</v>
       </c>
       <c r="O47">
-        <v>-12.101</v>
+        <v>-12.0532</v>
       </c>
       <c r="P47">
-        <v>-1.6132</v>
+        <v>-1.6068</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -3681,7 +3698,7 @@
         <v>29</v>
       </c>
       <c r="O48">
-        <v>-12.8802</v>
+        <v>-12.8801</v>
       </c>
       <c r="P48">
         <v>-1.71706</v>
@@ -3734,7 +3751,7 @@
         <v>-12.8285</v>
       </c>
       <c r="P49">
-        <v>-1.71019</v>
+        <v>-1.71018</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -3781,10 +3798,10 @@
         <v>29</v>
       </c>
       <c r="O50">
-        <v>-13.5</v>
+        <v>-13.3452</v>
       </c>
       <c r="P50">
-        <v>-1.7997</v>
+        <v>-1.77908</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -3831,10 +3848,10 @@
         <v>29</v>
       </c>
       <c r="O51">
-        <v>-14.223</v>
+        <v>-13.9648</v>
       </c>
       <c r="P51">
-        <v>-1.89612</v>
+        <v>-1.86171</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -3881,10 +3898,10 @@
         <v>29</v>
       </c>
       <c r="O52">
-        <v>-14.9462</v>
+        <v>-14.5847</v>
       </c>
       <c r="P52">
-        <v>-1.99253</v>
+        <v>-1.94433</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -3931,10 +3948,10 @@
         <v>29</v>
       </c>
       <c r="O53">
-        <v>-15.5143</v>
+        <v>-14.9979</v>
       </c>
       <c r="P53">
-        <v>-2.0683</v>
+        <v>-1.99943</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -3981,10 +3998,10 @@
         <v>29</v>
       </c>
       <c r="O54">
-        <v>-16.1821</v>
+        <v>-15.5143</v>
       </c>
       <c r="P54">
-        <v>-2.15734</v>
+        <v>-2.06828</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -4031,10 +4048,10 @@
         <v>29</v>
       </c>
       <c r="O55">
-        <v>-16.9081</v>
+        <v>-16.0817</v>
       </c>
       <c r="P55">
-        <v>-2.25413</v>
+        <v>-2.14394</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -4081,10 +4098,10 @@
         <v>29</v>
       </c>
       <c r="O56">
-        <v>-17.4763</v>
+        <v>-16.6499</v>
       </c>
       <c r="P56">
-        <v>-2.32989</v>
+        <v>-2.21969</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -4131,10 +4148,10 @@
         <v>29</v>
       </c>
       <c r="O57">
-        <v>-17.7861</v>
+        <v>-18.1991</v>
       </c>
       <c r="P57">
-        <v>-2.37118</v>
+        <v>-2.42626</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -4181,10 +4198,10 @@
         <v>29</v>
       </c>
       <c r="O58">
-        <v>-18.6121</v>
+        <v>-18.8703</v>
       </c>
       <c r="P58">
-        <v>-2.48133</v>
+        <v>-2.51575</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -4231,10 +4248,10 @@
         <v>29</v>
       </c>
       <c r="O59">
-        <v>-19.3868</v>
+        <v>-19.542</v>
       </c>
       <c r="P59">
-        <v>-2.58461</v>
+        <v>-2.60531</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -4281,10 +4298,10 @@
         <v>29</v>
       </c>
       <c r="O60">
-        <v>-20.1616</v>
+        <v>-20.1614</v>
       </c>
       <c r="P60">
-        <v>-2.68793</v>
+        <v>-2.68789</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -4331,10 +4348,10 @@
         <v>29</v>
       </c>
       <c r="O61">
-        <v>-20.8329</v>
+        <v>-20.7293</v>
       </c>
       <c r="P61">
-        <v>-2.77744</v>
+        <v>-2.76362</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -4381,10 +4398,10 @@
         <v>29</v>
       </c>
       <c r="O62">
-        <v>-21.6589</v>
+        <v>-21.4008</v>
       </c>
       <c r="P62">
-        <v>-2.88756</v>
+        <v>-2.85315</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -4431,10 +4448,10 @@
         <v>29</v>
       </c>
       <c r="O63">
-        <v>-22.4853</v>
+        <v>-22.0721</v>
       </c>
       <c r="P63">
-        <v>-2.99776</v>
+        <v>-2.94265</v>
       </c>
     </row>
     <row r="64" spans="1:16">
@@ -4481,10 +4498,10 @@
         <v>29</v>
       </c>
       <c r="O64">
-        <v>-23.3111</v>
+        <v>-22.7952</v>
       </c>
       <c r="P64">
-        <v>-3.10786</v>
+        <v>-3.03907</v>
       </c>
     </row>
     <row r="65" spans="1:16">
@@ -4531,10 +4548,10 @@
         <v>163</v>
       </c>
       <c r="O65">
-        <v>32.4878</v>
+        <v>31.6365</v>
       </c>
       <c r="P65">
-        <v>3.9381</v>
+        <v>3.83493</v>
       </c>
     </row>
     <row r="66" spans="1:16">
@@ -4581,10 +4598,10 @@
         <v>163</v>
       </c>
       <c r="O66">
-        <v>31.4378</v>
+        <v>30.7855</v>
       </c>
       <c r="P66">
-        <v>3.81083</v>
+        <v>3.73176</v>
       </c>
     </row>
     <row r="67" spans="1:16">
@@ -4631,10 +4648,10 @@
         <v>163</v>
       </c>
       <c r="O67">
-        <v>30.4351</v>
+        <v>29.9344</v>
       </c>
       <c r="P67">
-        <v>3.68929</v>
+        <v>3.62861</v>
       </c>
     </row>
     <row r="68" spans="1:16">
@@ -4681,10 +4698,10 @@
         <v>163</v>
       </c>
       <c r="O68">
-        <v>29.3837</v>
+        <v>29.0831</v>
       </c>
       <c r="P68">
-        <v>3.56185</v>
+        <v>3.52541</v>
       </c>
     </row>
     <row r="69" spans="1:16">
@@ -4730,16 +4747,16 @@
       <c r="N69" t="s">
         <v>163</v>
       </c>
-      <c r="O69">
-        <v>28.4825</v>
-      </c>
-      <c r="P69">
-        <v>3.45261</v>
+      <c r="O69" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="P69" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="70" spans="1:16">
       <c r="A70" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B70" t="s">
         <v>154</v>
@@ -4780,16 +4797,16 @@
       <c r="N70" t="s">
         <v>163</v>
       </c>
-      <c r="O70">
-        <v>27.4314</v>
-      </c>
-      <c r="P70">
-        <v>3.32521</v>
+      <c r="O70" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="P70" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="71" spans="1:16">
       <c r="A71" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B71" t="s">
         <v>154</v>
@@ -4831,15 +4848,15 @@
         <v>163</v>
       </c>
       <c r="O71">
-        <v>26.43</v>
+        <v>26.6801</v>
       </c>
       <c r="P71">
-        <v>3.20382</v>
+        <v>3.23414</v>
       </c>
     </row>
     <row r="72" spans="1:16">
       <c r="A72" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B72" t="s">
         <v>154</v>
@@ -4881,15 +4898,15 @@
         <v>163</v>
       </c>
       <c r="O72">
-        <v>25.3812</v>
+        <v>25.8294</v>
       </c>
       <c r="P72">
-        <v>3.07669</v>
+        <v>3.13102</v>
       </c>
     </row>
     <row r="73" spans="1:16">
       <c r="A73" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B73" t="s">
         <v>154</v>
@@ -4930,16 +4947,16 @@
       <c r="N73" t="s">
         <v>163</v>
       </c>
-      <c r="O73">
-        <v>25.0782</v>
-      </c>
-      <c r="P73">
-        <v>3.03997</v>
+      <c r="O73" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="P73" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="74" spans="1:16">
       <c r="A74" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B74" t="s">
         <v>154</v>
@@ -4981,15 +4998,15 @@
         <v>163</v>
       </c>
       <c r="O74">
-        <v>24.0269</v>
+        <v>22.875</v>
       </c>
       <c r="P74">
-        <v>2.91255</v>
+        <v>2.77291</v>
       </c>
     </row>
     <row r="75" spans="1:16">
       <c r="A75" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B75" t="s">
         <v>154</v>
@@ -5031,15 +5048,15 @@
         <v>163</v>
       </c>
       <c r="O75">
-        <v>22.9804</v>
+        <v>22.0736</v>
       </c>
       <c r="P75">
-        <v>2.79112</v>
+        <v>2.67576</v>
       </c>
     </row>
     <row r="76" spans="1:16">
       <c r="A76" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B76" t="s">
         <v>154</v>
@@ -5081,15 +5098,15 @@
         <v>163</v>
       </c>
       <c r="O76">
-        <v>21.9736</v>
+        <v>21.2227</v>
       </c>
       <c r="P76">
-        <v>2.66365</v>
+        <v>2.57264</v>
       </c>
     </row>
     <row r="77" spans="1:16">
       <c r="A77" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B77" t="s">
         <v>154</v>
@@ -5130,16 +5147,16 @@
       <c r="N77" t="s">
         <v>163</v>
       </c>
-      <c r="O77">
-        <v>21.073</v>
-      </c>
-      <c r="P77">
-        <v>2.5545</v>
+      <c r="O77" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="P77" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="78" spans="1:16">
       <c r="A78" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B78" t="s">
         <v>154</v>
@@ -5181,15 +5198,15 @@
         <v>163</v>
       </c>
       <c r="O78">
-        <v>19.9714</v>
+        <v>19.62</v>
       </c>
       <c r="P78">
-        <v>2.42096</v>
+        <v>2.37838</v>
       </c>
     </row>
     <row r="79" spans="1:16">
       <c r="A79" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B79" t="s">
         <v>154</v>
@@ -5230,16 +5247,16 @@
       <c r="N79" t="s">
         <v>163</v>
       </c>
-      <c r="O79">
-        <v>19.0693</v>
-      </c>
-      <c r="P79">
-        <v>2.31162</v>
+      <c r="O79" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="P79" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="80" spans="1:16">
       <c r="A80" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B80" t="s">
         <v>154</v>
@@ -5281,15 +5298,15 @@
         <v>163</v>
       </c>
       <c r="O80">
-        <v>18.0679</v>
+        <v>18.0182</v>
       </c>
       <c r="P80">
-        <v>2.19023</v>
+        <v>2.19022</v>
       </c>
     </row>
     <row r="81" spans="1:16">
       <c r="A81" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B81" t="s">
         <v>154</v>
@@ -5331,15 +5348,15 @@
         <v>163</v>
       </c>
       <c r="O81">
-        <v>17.9687</v>
+        <v>18.018</v>
       </c>
       <c r="P81">
-        <v>2.1782</v>
+        <v>2.18418</v>
       </c>
     </row>
     <row r="82" spans="1:16">
       <c r="A82" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B82" t="s">
         <v>154</v>
@@ -5381,15 +5398,15 @@
         <v>163</v>
       </c>
       <c r="O82">
-        <v>16.7662</v>
+        <v>16.667</v>
       </c>
       <c r="P82">
-        <v>2.03245</v>
+        <v>2.02042</v>
       </c>
     </row>
     <row r="83" spans="1:16">
       <c r="A83" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B83" t="s">
         <v>154</v>
@@ -5439,7 +5456,7 @@
     </row>
     <row r="84" spans="1:16">
       <c r="A84" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B84" t="s">
         <v>154</v>
@@ -5484,12 +5501,12 @@
         <v>14.1124</v>
       </c>
       <c r="P84">
-        <v>1.71079</v>
+        <v>1.71078</v>
       </c>
     </row>
     <row r="85" spans="1:16">
       <c r="A85" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B85" t="s">
         <v>154</v>
@@ -5530,16 +5547,16 @@
       <c r="N85" t="s">
         <v>163</v>
       </c>
-      <c r="O85">
-        <v>12.8104</v>
-      </c>
-      <c r="P85">
-        <v>1.55295</v>
+      <c r="O85" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="P85" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="86" spans="1:16">
       <c r="A86" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B86" t="s">
         <v>154</v>
@@ -5581,15 +5598,15 @@
         <v>163</v>
       </c>
       <c r="O86">
-        <v>11.5085</v>
+        <v>11.5587</v>
       </c>
       <c r="P86">
-        <v>1.39515</v>
+        <v>1.40123</v>
       </c>
     </row>
     <row r="87" spans="1:16">
       <c r="A87" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B87" t="s">
         <v>154</v>
@@ -5631,15 +5648,15 @@
         <v>163</v>
       </c>
       <c r="O87">
-        <v>10.1068</v>
+        <v>10.1567</v>
       </c>
       <c r="P87">
-        <v>1.22526</v>
+        <v>1.2313</v>
       </c>
     </row>
     <row r="88" spans="1:16">
       <c r="A88" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B88" t="s">
         <v>154</v>
@@ -5681,15 +5698,15 @@
         <v>163</v>
       </c>
       <c r="O88">
-        <v>8.904640000000001</v>
+        <v>8.904679999999999</v>
       </c>
       <c r="P88">
-        <v>1.07953</v>
+        <v>1.07954</v>
       </c>
     </row>
     <row r="89" spans="1:16">
       <c r="A89" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B89" t="s">
         <v>154</v>
@@ -5731,15 +5748,15 @@
         <v>163</v>
       </c>
       <c r="O89">
-        <v>7.853219999999999</v>
+        <v>7.853519999999999</v>
       </c>
       <c r="P89">
-        <v>0.952093</v>
+        <v>0.952128</v>
       </c>
     </row>
     <row r="90" spans="1:16">
       <c r="A90" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B90" t="s">
         <v>154</v>
@@ -5781,15 +5798,15 @@
         <v>163</v>
       </c>
       <c r="O90">
-        <v>6.701829999999999</v>
+        <v>6.70172</v>
       </c>
       <c r="P90">
-        <v>0.812539</v>
+        <v>0.812516</v>
       </c>
     </row>
     <row r="91" spans="1:16">
       <c r="A91" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B91" t="s">
         <v>154</v>
@@ -5830,16 +5847,16 @@
       <c r="N91" t="s">
         <v>163</v>
       </c>
-      <c r="O91">
-        <v>5.65038</v>
-      </c>
-      <c r="P91">
-        <v>0.685079</v>
+      <c r="O91" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="P91" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="92" spans="1:16">
       <c r="A92" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B92" t="s">
         <v>154</v>
@@ -5881,15 +5898,15 @@
         <v>163</v>
       </c>
       <c r="O92">
-        <v>4.450019999999999</v>
+        <v>4.45015</v>
       </c>
       <c r="P92">
-        <v>0.545529</v>
+        <v>0.545521</v>
       </c>
     </row>
     <row r="93" spans="1:16">
       <c r="A93" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B93" t="s">
         <v>154</v>
@@ -5931,15 +5948,15 @@
         <v>163</v>
       </c>
       <c r="O93">
-        <v>3.39764</v>
+        <v>3.44716</v>
       </c>
       <c r="P93">
-        <v>0.412028</v>
+        <v>0.418032</v>
       </c>
     </row>
     <row r="94" spans="1:16">
       <c r="A94" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B94" t="s">
         <v>154</v>
@@ -5981,15 +5998,15 @@
         <v>163</v>
       </c>
       <c r="O94">
-        <v>2.24672</v>
+        <v>2.24657</v>
       </c>
       <c r="P94">
-        <v>0.272514</v>
+        <v>0.272501</v>
       </c>
     </row>
     <row r="95" spans="1:16">
       <c r="A95" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B95" t="s">
         <v>154</v>
@@ -6039,7 +6056,7 @@
     </row>
     <row r="96" spans="1:16">
       <c r="A96" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B96" t="s">
         <v>154</v>
@@ -6081,15 +6098,15 @@
         <v>163</v>
       </c>
       <c r="O96">
-        <v>0.0462311</v>
+        <v>0.0463092</v>
       </c>
       <c r="P96">
-        <v>0.00578557</v>
+        <v>0.00579797</v>
       </c>
     </row>
     <row r="97" spans="1:16">
       <c r="A97" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B97" t="s">
         <v>154</v>
@@ -6139,7 +6156,7 @@
     </row>
     <row r="98" spans="1:16">
       <c r="A98" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B98" t="s">
         <v>154</v>
@@ -6181,15 +6198,15 @@
         <v>163</v>
       </c>
       <c r="O98">
-        <v>-2.25775</v>
+        <v>-2.30357</v>
       </c>
       <c r="P98">
-        <v>-0.273494</v>
+        <v>-0.273478</v>
       </c>
     </row>
     <row r="99" spans="1:16">
       <c r="A99" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B99" t="s">
         <v>154</v>
@@ -6230,16 +6247,16 @@
       <c r="N99" t="s">
         <v>163</v>
       </c>
-      <c r="O99">
-        <v>-3.30928</v>
-      </c>
-      <c r="P99">
-        <v>-0.400942</v>
+      <c r="O99" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="P99" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="100" spans="1:16">
       <c r="A100" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B100" t="s">
         <v>154</v>
@@ -6281,15 +6298,15 @@
         <v>163</v>
       </c>
       <c r="O100">
-        <v>-4.459409999999999</v>
+        <v>-4.437189999999999</v>
       </c>
       <c r="P100">
-        <v>-0.5403480000000001</v>
+        <v>-0.537611</v>
       </c>
     </row>
     <row r="101" spans="1:16">
       <c r="A101" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B101" t="s">
         <v>154</v>
@@ -6331,15 +6348,15 @@
         <v>163</v>
       </c>
       <c r="O101">
-        <v>-5.56055</v>
+        <v>-5.56052</v>
       </c>
       <c r="P101">
-        <v>-0.67382</v>
+        <v>-0.673818</v>
       </c>
     </row>
     <row r="102" spans="1:16">
       <c r="A102" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B102" t="s">
         <v>154</v>
@@ -6381,15 +6398,15 @@
         <v>163</v>
       </c>
       <c r="O102">
-        <v>-6.71154</v>
+        <v>-6.7117</v>
       </c>
       <c r="P102">
-        <v>-0.813335</v>
+        <v>-0.813343</v>
       </c>
     </row>
     <row r="103" spans="1:16">
       <c r="A103" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B103" t="s">
         <v>154</v>
@@ -6430,16 +6447,16 @@
       <c r="N103" t="s">
         <v>163</v>
       </c>
-      <c r="O103">
-        <v>-7.913130000000001</v>
-      </c>
-      <c r="P103">
-        <v>-0.958981</v>
+      <c r="O103" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="P103" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="104" spans="1:16">
       <c r="A104" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B104" t="s">
         <v>154</v>
@@ -6481,7 +6498,7 @@
         <v>163</v>
       </c>
       <c r="O104">
-        <v>-8.91422</v>
+        <v>-8.96106</v>
       </c>
       <c r="P104">
         <v>-1.08033</v>
@@ -6489,7 +6506,7 @@
     </row>
     <row r="105" spans="1:16">
       <c r="A105" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B105" t="s">
         <v>154</v>
@@ -6530,16 +6547,16 @@
       <c r="N105" t="s">
         <v>163</v>
       </c>
-      <c r="O105">
-        <v>-10.1155</v>
-      </c>
-      <c r="P105">
-        <v>-1.22593</v>
+      <c r="O105" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="P105" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="106" spans="1:16">
       <c r="A106" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B106" t="s">
         <v>154</v>
@@ -6580,16 +6597,16 @@
       <c r="N106" t="s">
         <v>163</v>
       </c>
-      <c r="O106">
-        <v>-11.4666</v>
-      </c>
-      <c r="P106">
-        <v>-1.3897</v>
+      <c r="O106" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="P106" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="107" spans="1:16">
       <c r="A107" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B107" t="s">
         <v>154</v>
@@ -6630,16 +6647,16 @@
       <c r="N107" t="s">
         <v>163</v>
       </c>
-      <c r="O107">
-        <v>-12.7684</v>
-      </c>
-      <c r="P107">
-        <v>-1.54749</v>
+      <c r="O107" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="P107" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="108" spans="1:16">
       <c r="A108" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B108" t="s">
         <v>154</v>
@@ -6680,16 +6697,16 @@
       <c r="N108" t="s">
         <v>163</v>
       </c>
-      <c r="O108">
-        <v>-14.1197</v>
-      </c>
-      <c r="P108">
-        <v>-1.71128</v>
+      <c r="O108" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="P108" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="109" spans="1:16">
       <c r="A109" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B109" t="s">
         <v>154</v>
@@ -6730,16 +6747,16 @@
       <c r="N109" t="s">
         <v>163</v>
       </c>
-      <c r="O109">
-        <v>-15.471</v>
-      </c>
-      <c r="P109">
-        <v>-1.87509</v>
+      <c r="O109" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="P109" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="110" spans="1:16">
       <c r="A110" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B110" t="s">
         <v>154</v>
@@ -6780,16 +6797,16 @@
       <c r="N110" t="s">
         <v>163</v>
       </c>
-      <c r="O110">
-        <v>-16.7726</v>
-      </c>
-      <c r="P110">
-        <v>-2.03285</v>
+      <c r="O110" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="P110" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="111" spans="1:16">
       <c r="A111" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B111" t="s">
         <v>154</v>
@@ -6830,16 +6847,16 @@
       <c r="N111" t="s">
         <v>163</v>
       </c>
-      <c r="O111">
-        <v>-18.0241</v>
-      </c>
-      <c r="P111">
-        <v>-2.18456</v>
+      <c r="O111" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="P111" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="112" spans="1:16">
       <c r="A112" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B112" t="s">
         <v>154</v>
@@ -6880,16 +6897,16 @@
       <c r="N112" t="s">
         <v>163</v>
       </c>
-      <c r="O112">
-        <v>-18.0739</v>
-      </c>
-      <c r="P112">
-        <v>-2.19059</v>
+      <c r="O112" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="P112" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="113" spans="1:16">
       <c r="A113" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B113" t="s">
         <v>154</v>
@@ -6930,16 +6947,16 @@
       <c r="N113" t="s">
         <v>163</v>
       </c>
-      <c r="O113">
-        <v>-19.0749</v>
-      </c>
-      <c r="P113">
-        <v>-2.31193</v>
+      <c r="O113" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="P113" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="114" spans="1:16">
       <c r="A114" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B114" t="s">
         <v>154</v>
@@ -6980,16 +6997,16 @@
       <c r="N114" t="s">
         <v>163</v>
       </c>
-      <c r="O114">
-        <v>-20.076</v>
-      </c>
-      <c r="P114">
-        <v>-2.43327</v>
+      <c r="O114" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="P114" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="115" spans="1:16">
       <c r="A115" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B115" t="s">
         <v>154</v>
@@ -7030,16 +7047,16 @@
       <c r="N115" t="s">
         <v>163</v>
       </c>
-      <c r="O115">
-        <v>-21.1273</v>
-      </c>
-      <c r="P115">
-        <v>-2.56069</v>
+      <c r="O115" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="P115" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="116" spans="1:16">
       <c r="A116" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B116" t="s">
         <v>154</v>
@@ -7080,16 +7097,16 @@
       <c r="N116" t="s">
         <v>163</v>
       </c>
-      <c r="O116">
-        <v>-22.078</v>
-      </c>
-      <c r="P116">
-        <v>-2.67594</v>
+      <c r="O116" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="P116" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="117" spans="1:16">
       <c r="A117" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B117" t="s">
         <v>154</v>
@@ -7130,16 +7147,16 @@
       <c r="N117" t="s">
         <v>163</v>
       </c>
-      <c r="O117">
-        <v>-23.0798</v>
-      </c>
-      <c r="P117">
-        <v>-2.79737</v>
+      <c r="O117" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="P117" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="118" spans="1:16">
       <c r="A118" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B118" t="s">
         <v>154</v>
@@ -7180,16 +7197,16 @@
       <c r="N118" t="s">
         <v>163</v>
       </c>
-      <c r="O118">
-        <v>-24.1311</v>
-      </c>
-      <c r="P118">
-        <v>-2.92479</v>
+      <c r="O118" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="P118" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="119" spans="1:16">
       <c r="A119" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B119" t="s">
         <v>154</v>
@@ -7230,16 +7247,16 @@
       <c r="N119" t="s">
         <v>163</v>
       </c>
-      <c r="O119">
-        <v>-25.182</v>
-      </c>
-      <c r="P119">
-        <v>-3.05217</v>
+      <c r="O119" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="P119" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="120" spans="1:16">
       <c r="A120" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B120" t="s">
         <v>154</v>
@@ -7280,16 +7297,16 @@
       <c r="N120" t="s">
         <v>163</v>
       </c>
-      <c r="O120">
-        <v>-25.482</v>
-      </c>
-      <c r="P120">
-        <v>-3.08855</v>
+      <c r="O120" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="P120" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="121" spans="1:16">
       <c r="A121" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B121" t="s">
         <v>154</v>
@@ -7330,16 +7347,16 @@
       <c r="N121" t="s">
         <v>163</v>
       </c>
-      <c r="O121">
-        <v>-26.5329</v>
-      </c>
-      <c r="P121">
-        <v>-3.21592</v>
+      <c r="O121" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="P121" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="122" spans="1:16">
       <c r="A122" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B122" t="s">
         <v>154</v>
@@ -7380,16 +7397,16 @@
       <c r="N122" t="s">
         <v>163</v>
       </c>
-      <c r="O122">
-        <v>-27.5336</v>
-      </c>
-      <c r="P122">
-        <v>-3.33722</v>
+      <c r="O122" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="P122" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="123" spans="1:16">
       <c r="A123" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B123" t="s">
         <v>154</v>
@@ -7430,16 +7447,16 @@
       <c r="N123" t="s">
         <v>163</v>
       </c>
-      <c r="O123">
-        <v>-28.6839</v>
-      </c>
-      <c r="P123">
-        <v>-3.47665</v>
+      <c r="O123" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="P123" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="124" spans="1:16">
       <c r="A124" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B124" t="s">
         <v>154</v>
@@ -7480,16 +7497,16 @@
       <c r="N124" t="s">
         <v>163</v>
       </c>
-      <c r="O124">
-        <v>-29.6345</v>
-      </c>
-      <c r="P124">
-        <v>-3.59187</v>
+      <c r="O124" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="P124" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="125" spans="1:16">
       <c r="A125" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B125" t="s">
         <v>154</v>
@@ -7530,16 +7547,16 @@
       <c r="N125" t="s">
         <v>163</v>
       </c>
-      <c r="O125">
-        <v>-30.6851</v>
-      </c>
-      <c r="P125">
-        <v>-3.71922</v>
+      <c r="O125" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="P125" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="126" spans="1:16">
       <c r="A126" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B126" t="s">
         <v>154</v>
@@ -7580,16 +7597,16 @@
       <c r="N126" t="s">
         <v>163</v>
       </c>
-      <c r="O126">
-        <v>-31.7856</v>
-      </c>
-      <c r="P126">
-        <v>-3.85262</v>
+      <c r="O126" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="P126" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="127" spans="1:16">
       <c r="A127" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B127" t="s">
         <v>154</v>
@@ -7630,43 +7647,43 @@
       <c r="N127" t="s">
         <v>163</v>
       </c>
-      <c r="O127">
-        <v>-32.8364</v>
-      </c>
-      <c r="P127">
-        <v>-3.97998</v>
+      <c r="O127" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="P127" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="128" spans="1:16">
       <c r="A128" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B128" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C128" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D128" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E128" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F128" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G128" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H128" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I128" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J128" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K128" t="s">
         <v>26</v>
@@ -7678,45 +7695,45 @@
         <v>28</v>
       </c>
       <c r="N128" t="s">
-        <v>236</v>
-      </c>
-      <c r="O128">
-        <v>18.6533</v>
-      </c>
-      <c r="P128">
-        <v>2.7641</v>
+        <v>237</v>
+      </c>
+      <c r="O128" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="P128" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="129" spans="1:16">
       <c r="A129" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B129" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C129" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D129" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E129" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F129" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G129" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H129" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I129" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J129" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K129" t="s">
         <v>26</v>
@@ -7728,45 +7745,45 @@
         <v>31</v>
       </c>
       <c r="N129" t="s">
-        <v>236</v>
-      </c>
-      <c r="O129">
-        <v>17.9893</v>
-      </c>
-      <c r="P129">
-        <v>2.66564</v>
+        <v>237</v>
+      </c>
+      <c r="O129" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="P129" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="130" spans="1:16">
       <c r="A130" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B130" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C130" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D130" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E130" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F130" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G130" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H130" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I130" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J130" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K130" t="s">
         <v>26</v>
@@ -7778,45 +7795,45 @@
         <v>33</v>
       </c>
       <c r="N130" t="s">
-        <v>236</v>
-      </c>
-      <c r="O130">
-        <v>17.5687</v>
-      </c>
-      <c r="P130">
-        <v>2.60337</v>
+        <v>237</v>
+      </c>
+      <c r="O130" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="P130" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="131" spans="1:16">
       <c r="A131" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B131" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C131" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D131" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E131" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F131" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G131" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H131" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I131" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J131" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K131" t="s">
         <v>26</v>
@@ -7828,45 +7845,45 @@
         <v>35</v>
       </c>
       <c r="N131" t="s">
-        <v>236</v>
-      </c>
-      <c r="O131">
-        <v>17.0522</v>
-      </c>
-      <c r="P131">
-        <v>2.5269</v>
+        <v>237</v>
+      </c>
+      <c r="O131" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="P131" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="132" spans="1:16">
       <c r="A132" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B132" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C132" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D132" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E132" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F132" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G132" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H132" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I132" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J132" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K132" t="s">
         <v>26</v>
@@ -7878,45 +7895,45 @@
         <v>37</v>
       </c>
       <c r="N132" t="s">
-        <v>236</v>
-      </c>
-      <c r="O132">
-        <v>16.5879</v>
-      </c>
-      <c r="P132">
-        <v>2.45808</v>
+        <v>237</v>
+      </c>
+      <c r="O132" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="P132" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="133" spans="1:16">
       <c r="A133" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B133" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C133" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D133" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E133" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F133" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G133" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H133" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I133" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J133" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K133" t="s">
         <v>26</v>
@@ -7928,45 +7945,45 @@
         <v>39</v>
       </c>
       <c r="N133" t="s">
-        <v>236</v>
-      </c>
-      <c r="O133">
-        <v>16.1226</v>
-      </c>
-      <c r="P133">
-        <v>2.3892</v>
+        <v>237</v>
+      </c>
+      <c r="O133" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="P133" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="134" spans="1:16">
       <c r="A134" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B134" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C134" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D134" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E134" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F134" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G134" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H134" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I134" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J134" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K134" t="s">
         <v>26</v>
@@ -7978,45 +7995,45 @@
         <v>41</v>
       </c>
       <c r="N134" t="s">
-        <v>236</v>
-      </c>
-      <c r="O134">
-        <v>15.6056</v>
-      </c>
-      <c r="P134">
-        <v>2.31257</v>
+        <v>237</v>
+      </c>
+      <c r="O134" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="P134" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="135" spans="1:16">
       <c r="A135" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B135" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C135" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D135" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E135" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F135" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G135" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H135" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I135" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J135" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K135" t="s">
         <v>26</v>
@@ -8028,45 +8045,45 @@
         <v>43</v>
       </c>
       <c r="N135" t="s">
-        <v>236</v>
-      </c>
-      <c r="O135">
-        <v>15.1403</v>
-      </c>
-      <c r="P135">
-        <v>2.24335</v>
+        <v>237</v>
+      </c>
+      <c r="O135" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="P135" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="136" spans="1:16">
       <c r="A136" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B136" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C136" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D136" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E136" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F136" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G136" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H136" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I136" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J136" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K136" t="s">
         <v>26</v>
@@ -8078,45 +8095,45 @@
         <v>45</v>
       </c>
       <c r="N136" t="s">
-        <v>236</v>
-      </c>
-      <c r="O136">
-        <v>14.986</v>
-      </c>
-      <c r="P136">
-        <v>2.22074</v>
+        <v>237</v>
+      </c>
+      <c r="O136" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="P136" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="137" spans="1:16">
       <c r="A137" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B137" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C137" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D137" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E137" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F137" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G137" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H137" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I137" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J137" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K137" t="s">
         <v>26</v>
@@ -8128,45 +8145,45 @@
         <v>47</v>
       </c>
       <c r="N137" t="s">
-        <v>236</v>
-      </c>
-      <c r="O137">
-        <v>14.5204</v>
-      </c>
-      <c r="P137">
-        <v>2.15183</v>
+        <v>237</v>
+      </c>
+      <c r="O137" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="P137" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="138" spans="1:16">
       <c r="A138" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B138" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C138" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D138" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E138" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F138" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G138" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H138" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I138" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J138" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K138" t="s">
         <v>26</v>
@@ -8178,45 +8195,45 @@
         <v>49</v>
       </c>
       <c r="N138" t="s">
-        <v>236</v>
-      </c>
-      <c r="O138">
-        <v>13.9638</v>
-      </c>
-      <c r="P138">
-        <v>2.06934</v>
+        <v>237</v>
+      </c>
+      <c r="O138" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="P138" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="139" spans="1:16">
       <c r="A139" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B139" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C139" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D139" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E139" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F139" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G139" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H139" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I139" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J139" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K139" t="s">
         <v>26</v>
@@ -8228,45 +8245,45 @@
         <v>51</v>
       </c>
       <c r="N139" t="s">
-        <v>236</v>
-      </c>
-      <c r="O139">
-        <v>13.5537</v>
-      </c>
-      <c r="P139">
-        <v>2.00858</v>
+        <v>237</v>
+      </c>
+      <c r="O139" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="P139" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="140" spans="1:16">
       <c r="A140" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B140" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C140" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D140" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E140" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F140" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G140" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H140" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I140" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J140" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K140" t="s">
         <v>26</v>
@@ -8278,45 +8295,45 @@
         <v>53</v>
       </c>
       <c r="N140" t="s">
-        <v>236</v>
-      </c>
-      <c r="O140">
-        <v>13.0746</v>
-      </c>
-      <c r="P140">
-        <v>1.93759</v>
+        <v>237</v>
+      </c>
+      <c r="O140" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="P140" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="141" spans="1:16">
       <c r="A141" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B141" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C141" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D141" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E141" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F141" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G141" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H141" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I141" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J141" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K141" t="s">
         <v>26</v>
@@ -8328,45 +8345,45 @@
         <v>55</v>
       </c>
       <c r="N141" t="s">
-        <v>236</v>
-      </c>
-      <c r="O141">
-        <v>12.5732</v>
-      </c>
-      <c r="P141">
-        <v>1.86325</v>
+        <v>237</v>
+      </c>
+      <c r="O141" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="P141" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="142" spans="1:16">
       <c r="A142" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B142" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C142" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D142" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E142" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F142" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G142" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H142" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I142" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J142" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K142" t="s">
         <v>26</v>
@@ -8378,45 +8395,45 @@
         <v>57</v>
       </c>
       <c r="N142" t="s">
-        <v>236</v>
-      </c>
-      <c r="O142">
-        <v>12.1444</v>
-      </c>
-      <c r="P142">
-        <v>1.79977</v>
+        <v>237</v>
+      </c>
+      <c r="O142" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="P142" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="143" spans="1:16">
       <c r="A143" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B143" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C143" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D143" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E143" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F143" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G143" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H143" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I143" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J143" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K143" t="s">
         <v>26</v>
@@ -8428,45 +8445,45 @@
         <v>59</v>
       </c>
       <c r="N143" t="s">
-        <v>236</v>
-      </c>
-      <c r="O143">
-        <v>11.4731</v>
-      </c>
-      <c r="P143">
-        <v>1.70037</v>
+        <v>237</v>
+      </c>
+      <c r="O143" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="P143" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="144" spans="1:16">
       <c r="A144" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B144" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C144" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D144" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E144" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F144" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G144" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H144" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I144" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J144" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K144" t="s">
         <v>26</v>
@@ -8478,45 +8495,45 @@
         <v>61</v>
       </c>
       <c r="N144" t="s">
-        <v>236</v>
-      </c>
-      <c r="O144">
-        <v>11.473</v>
-      </c>
-      <c r="P144">
-        <v>1.70034</v>
+        <v>237</v>
+      </c>
+      <c r="O144" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="P144" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="145" spans="1:16">
       <c r="A145" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B145" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C145" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D145" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E145" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F145" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G145" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H145" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I145" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J145" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K145" t="s">
         <v>26</v>
@@ -8528,45 +8545,45 @@
         <v>63</v>
       </c>
       <c r="N145" t="s">
-        <v>236</v>
-      </c>
-      <c r="O145">
-        <v>10.6457</v>
-      </c>
-      <c r="P145">
-        <v>1.57775</v>
+        <v>237</v>
+      </c>
+      <c r="O145" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="P145" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="146" spans="1:16">
       <c r="A146" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B146" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C146" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D146" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E146" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F146" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G146" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H146" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I146" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J146" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K146" t="s">
         <v>26</v>
@@ -8578,45 +8595,45 @@
         <v>65</v>
       </c>
       <c r="N146" t="s">
-        <v>236</v>
-      </c>
-      <c r="O146">
-        <v>9.921759999999999</v>
-      </c>
-      <c r="P146">
-        <v>1.47054</v>
+        <v>237</v>
+      </c>
+      <c r="O146" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="P146" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="147" spans="1:16">
       <c r="A147" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B147" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C147" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D147" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E147" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F147" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G147" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H147" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I147" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J147" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K147" t="s">
         <v>26</v>
@@ -8628,45 +8645,45 @@
         <v>67</v>
       </c>
       <c r="N147" t="s">
-        <v>236</v>
-      </c>
-      <c r="O147">
-        <v>9.0443</v>
-      </c>
-      <c r="P147">
-        <v>1.34788</v>
+        <v>237</v>
+      </c>
+      <c r="O147" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="P147" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="148" spans="1:16">
       <c r="A148" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B148" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C148" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D148" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E148" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F148" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G148" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H148" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I148" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J148" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K148" t="s">
         <v>26</v>
@@ -8678,45 +8695,45 @@
         <v>69</v>
       </c>
       <c r="N148" t="s">
-        <v>236</v>
-      </c>
-      <c r="O148">
-        <v>8.267719999999999</v>
-      </c>
-      <c r="P148">
-        <v>1.22547</v>
+        <v>237</v>
+      </c>
+      <c r="O148" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="P148" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="149" spans="1:16">
       <c r="A149" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B149" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C149" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D149" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E149" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F149" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G149" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H149" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I149" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J149" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K149" t="s">
         <v>26</v>
@@ -8728,45 +8745,45 @@
         <v>71</v>
       </c>
       <c r="N149" t="s">
-        <v>236</v>
-      </c>
-      <c r="O149">
-        <v>7.49279</v>
-      </c>
-      <c r="P149">
-        <v>1.11068</v>
+        <v>237</v>
+      </c>
+      <c r="O149" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="P149" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="150" spans="1:16">
       <c r="A150" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B150" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C150" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D150" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E150" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F150" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G150" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H150" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I150" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J150" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K150" t="s">
         <v>26</v>
@@ -8778,45 +8795,45 @@
         <v>73</v>
       </c>
       <c r="N150" t="s">
-        <v>236</v>
-      </c>
-      <c r="O150">
-        <v>6.51056</v>
-      </c>
-      <c r="P150">
-        <v>0.965189</v>
+        <v>237</v>
+      </c>
+      <c r="O150" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="P150" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="151" spans="1:16">
       <c r="A151" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B151" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C151" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D151" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E151" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F151" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G151" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H151" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I151" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J151" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K151" t="s">
         <v>26</v>
@@ -8828,45 +8845,45 @@
         <v>75</v>
       </c>
       <c r="N151" t="s">
-        <v>236</v>
-      </c>
-      <c r="O151">
-        <v>5.68348</v>
-      </c>
-      <c r="P151">
-        <v>0.84256</v>
+        <v>237</v>
+      </c>
+      <c r="O151" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="P151" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="152" spans="1:16">
       <c r="A152" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B152" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C152" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D152" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E152" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F152" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G152" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H152" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I152" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J152" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K152" t="s">
         <v>26</v>
@@ -8878,45 +8895,45 @@
         <v>77</v>
       </c>
       <c r="N152" t="s">
-        <v>236</v>
-      </c>
-      <c r="O152">
-        <v>5.11506</v>
-      </c>
-      <c r="P152">
-        <v>0.758406</v>
+        <v>237</v>
+      </c>
+      <c r="O152" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="P152" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="153" spans="1:16">
       <c r="A153" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B153" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C153" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D153" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E153" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F153" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G153" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H153" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I153" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J153" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K153" t="s">
         <v>26</v>
@@ -8928,45 +8945,45 @@
         <v>79</v>
       </c>
       <c r="N153" t="s">
-        <v>236</v>
-      </c>
-      <c r="O153">
-        <v>4.44304</v>
-      </c>
-      <c r="P153">
-        <v>0.658826</v>
+        <v>237</v>
+      </c>
+      <c r="O153" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="P153" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="154" spans="1:16">
       <c r="A154" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B154" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C154" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D154" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E154" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F154" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G154" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H154" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I154" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J154" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K154" t="s">
         <v>26</v>
@@ -8978,45 +8995,45 @@
         <v>81</v>
       </c>
       <c r="N154" t="s">
-        <v>236</v>
-      </c>
-      <c r="O154">
-        <v>3.71883</v>
-      </c>
-      <c r="P154">
-        <v>0.551549</v>
+        <v>237</v>
+      </c>
+      <c r="O154" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="P154" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="155" spans="1:16">
       <c r="A155" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B155" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C155" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D155" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E155" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F155" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G155" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H155" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I155" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J155" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K155" t="s">
         <v>26</v>
@@ -9028,45 +9045,45 @@
         <v>83</v>
       </c>
       <c r="N155" t="s">
-        <v>236</v>
-      </c>
-      <c r="O155">
-        <v>2.9954</v>
-      </c>
-      <c r="P155">
-        <v>0.444419</v>
+        <v>237</v>
+      </c>
+      <c r="O155" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="P155" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="156" spans="1:16">
       <c r="A156" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B156" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C156" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D156" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E156" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F156" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G156" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H156" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I156" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J156" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K156" t="s">
         <v>26</v>
@@ -9078,45 +9095,45 @@
         <v>85</v>
       </c>
       <c r="N156" t="s">
-        <v>236</v>
-      </c>
-      <c r="O156">
-        <v>2.27322</v>
-      </c>
-      <c r="P156">
-        <v>0.337409</v>
+        <v>237</v>
+      </c>
+      <c r="O156" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="P156" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="157" spans="1:16">
       <c r="A157" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B157" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C157" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D157" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E157" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F157" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G157" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H157" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I157" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J157" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K157" t="s">
         <v>26</v>
@@ -9128,45 +9145,45 @@
         <v>87</v>
       </c>
       <c r="N157" t="s">
-        <v>236</v>
-      </c>
-      <c r="O157">
-        <v>1.60008</v>
-      </c>
-      <c r="P157">
-        <v>0.237648</v>
+        <v>237</v>
+      </c>
+      <c r="O157" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="P157" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="158" spans="1:16">
       <c r="A158" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B158" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C158" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D158" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E158" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F158" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G158" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H158" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I158" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J158" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K158" t="s">
         <v>26</v>
@@ -9178,45 +9195,45 @@
         <v>89</v>
       </c>
       <c r="N158" t="s">
-        <v>236</v>
-      </c>
-      <c r="O158">
-        <v>0.8806659999999999</v>
-      </c>
-      <c r="P158">
-        <v>0.131066</v>
+        <v>237</v>
+      </c>
+      <c r="O158" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="P158" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="159" spans="1:16">
       <c r="A159" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B159" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C159" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D159" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E159" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F159" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G159" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H159" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I159" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J159" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K159" t="s">
         <v>26</v>
@@ -9228,45 +9245,45 @@
         <v>91</v>
       </c>
       <c r="N159" t="s">
-        <v>236</v>
-      </c>
-      <c r="O159">
-        <v>0.105695</v>
-      </c>
-      <c r="P159">
-        <v>0.0162555</v>
+        <v>237</v>
+      </c>
+      <c r="O159" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="P159" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="160" spans="1:16">
       <c r="A160" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B160" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C160" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D160" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E160" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F160" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G160" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H160" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I160" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J160" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K160" t="s">
         <v>26</v>
@@ -9278,45 +9295,45 @@
         <v>93</v>
       </c>
       <c r="N160" t="s">
-        <v>236</v>
-      </c>
-      <c r="O160">
-        <v>-0.669481</v>
-      </c>
-      <c r="P160">
-        <v>-0.09857399999999999</v>
+        <v>237</v>
+      </c>
+      <c r="O160" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="P160" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="161" spans="1:16">
       <c r="A161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B161" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C161" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D161" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E161" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F161" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G161" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H161" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I161" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J161" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K161" t="s">
         <v>26</v>
@@ -9328,45 +9345,45 @@
         <v>95</v>
       </c>
       <c r="N161" t="s">
-        <v>236</v>
-      </c>
-      <c r="O161">
-        <v>-1.34474</v>
-      </c>
-      <c r="P161">
-        <v>-0.19113</v>
+        <v>237</v>
+      </c>
+      <c r="O161" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="P161" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="162" spans="1:16">
       <c r="A162" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B162" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C162" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D162" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E162" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F162" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G162" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H162" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I162" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J162" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K162" t="s">
         <v>26</v>
@@ -9378,45 +9395,45 @@
         <v>97</v>
       </c>
       <c r="N162" t="s">
-        <v>236</v>
-      </c>
-      <c r="O162">
-        <v>-2.06858</v>
-      </c>
-      <c r="P162">
-        <v>-0.305818</v>
+        <v>237</v>
+      </c>
+      <c r="O162" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="P162" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="163" spans="1:16">
       <c r="A163" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B163" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C163" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D163" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E163" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F163" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G163" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H163" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I163" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J163" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K163" t="s">
         <v>26</v>
@@ -9428,45 +9445,45 @@
         <v>99</v>
       </c>
       <c r="N163" t="s">
-        <v>236</v>
-      </c>
-      <c r="O163">
-        <v>-2.68885</v>
-      </c>
-      <c r="P163">
-        <v>-0.397723</v>
+        <v>237</v>
+      </c>
+      <c r="O163" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="P163" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="164" spans="1:16">
       <c r="A164" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B164" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C164" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D164" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E164" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F164" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G164" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H164" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I164" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J164" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K164" t="s">
         <v>26</v>
@@ -9478,45 +9495,45 @@
         <v>101</v>
       </c>
       <c r="N164" t="s">
-        <v>236</v>
-      </c>
-      <c r="O164">
-        <v>-3.46424</v>
-      </c>
-      <c r="P164">
-        <v>-0.512578</v>
+        <v>237</v>
+      </c>
+      <c r="O164" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="P164" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="165" spans="1:16">
       <c r="A165" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B165" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C165" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D165" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E165" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F165" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G165" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H165" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I165" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J165" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K165" t="s">
         <v>26</v>
@@ -9528,45 +9545,45 @@
         <v>103</v>
       </c>
       <c r="N165" t="s">
-        <v>236</v>
-      </c>
-      <c r="O165">
-        <v>-4.188029999999999</v>
-      </c>
-      <c r="P165">
-        <v>-0.619844</v>
+        <v>237</v>
+      </c>
+      <c r="O165" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="P165" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="166" spans="1:16">
       <c r="A166" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B166" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C166" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D166" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E166" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F166" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G166" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H166" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I166" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J166" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K166" t="s">
         <v>26</v>
@@ -9578,45 +9595,45 @@
         <v>105</v>
       </c>
       <c r="N166" t="s">
-        <v>236</v>
-      </c>
-      <c r="O166">
-        <v>-5.00598</v>
-      </c>
-      <c r="P166">
-        <v>-0.741075</v>
+        <v>237</v>
+      </c>
+      <c r="O166" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="P166" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="167" spans="1:16">
       <c r="A167" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B167" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C167" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D167" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E167" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F167" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G167" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H167" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I167" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J167" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K167" t="s">
         <v>26</v>
@@ -9628,45 +9645,45 @@
         <v>107</v>
       </c>
       <c r="N167" t="s">
-        <v>236</v>
-      </c>
-      <c r="O167">
-        <v>-5.58277</v>
-      </c>
-      <c r="P167">
-        <v>-0.826444</v>
+        <v>237</v>
+      </c>
+      <c r="O167" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="P167" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="168" spans="1:16">
       <c r="A168" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B168" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C168" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D168" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E168" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F168" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G168" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H168" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I168" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J168" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K168" t="s">
         <v>26</v>
@@ -9678,45 +9695,45 @@
         <v>109</v>
       </c>
       <c r="N168" t="s">
-        <v>236</v>
-      </c>
-      <c r="O168">
-        <v>-6.408589999999999</v>
-      </c>
-      <c r="P168">
-        <v>-0.941258</v>
+        <v>237</v>
+      </c>
+      <c r="O168" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="P168" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="169" spans="1:16">
       <c r="A169" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B169" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C169" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D169" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E169" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F169" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G169" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H169" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I169" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J169" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K169" t="s">
         <v>26</v>
@@ -9728,45 +9745,45 @@
         <v>111</v>
       </c>
       <c r="N169" t="s">
-        <v>236</v>
-      </c>
-      <c r="O169">
-        <v>-7.13237</v>
-      </c>
-      <c r="P169">
-        <v>-1.056</v>
+        <v>237</v>
+      </c>
+      <c r="O169" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="P169" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="170" spans="1:16">
       <c r="A170" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B170" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C170" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D170" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E170" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F170" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G170" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H170" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I170" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J170" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K170" t="s">
         <v>26</v>
@@ -9778,45 +9795,45 @@
         <v>113</v>
       </c>
       <c r="N170" t="s">
-        <v>236</v>
-      </c>
-      <c r="O170">
-        <v>-7.80396</v>
-      </c>
-      <c r="P170">
-        <v>-1.15555</v>
+        <v>237</v>
+      </c>
+      <c r="O170" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="P170" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="171" spans="1:16">
       <c r="A171" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B171" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C171" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D171" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E171" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F171" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G171" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H171" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I171" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J171" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K171" t="s">
         <v>26</v>
@@ -9828,45 +9845,45 @@
         <v>115</v>
       </c>
       <c r="N171" t="s">
-        <v>236</v>
-      </c>
-      <c r="O171">
-        <v>-8.475379999999999</v>
-      </c>
-      <c r="P171">
-        <v>-1.24744</v>
+        <v>237</v>
+      </c>
+      <c r="O171" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="P171" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="172" spans="1:16">
       <c r="A172" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B172" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C172" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D172" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E172" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F172" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G172" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H172" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I172" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J172" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K172" t="s">
         <v>26</v>
@@ -9878,45 +9895,45 @@
         <v>117</v>
       </c>
       <c r="N172" t="s">
-        <v>236</v>
-      </c>
-      <c r="O172">
-        <v>-9.09558</v>
-      </c>
-      <c r="P172">
-        <v>-1.34688</v>
+        <v>237</v>
+      </c>
+      <c r="O172" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="P172" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="173" spans="1:16">
       <c r="A173" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B173" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C173" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D173" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E173" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F173" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G173" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H173" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I173" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J173" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K173" t="s">
         <v>26</v>
@@ -9928,45 +9945,45 @@
         <v>119</v>
       </c>
       <c r="N173" t="s">
-        <v>236</v>
-      </c>
-      <c r="O173">
-        <v>-9.871090000000001</v>
-      </c>
-      <c r="P173">
-        <v>-1.4619</v>
+        <v>237</v>
+      </c>
+      <c r="O173" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="P173" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="174" spans="1:16">
       <c r="A174" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B174" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C174" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D174" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E174" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F174" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G174" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H174" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I174" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J174" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K174" t="s">
         <v>26</v>
@@ -9978,45 +9995,45 @@
         <v>121</v>
       </c>
       <c r="N174" t="s">
-        <v>236</v>
-      </c>
-      <c r="O174">
-        <v>-10.5929</v>
-      </c>
-      <c r="P174">
-        <v>-1.56127</v>
+        <v>237</v>
+      </c>
+      <c r="O174" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="P174" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="175" spans="1:16">
       <c r="A175" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B175" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C175" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D175" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E175" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F175" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G175" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H175" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I175" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J175" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K175" t="s">
         <v>26</v>
@@ -10028,45 +10045,45 @@
         <v>123</v>
       </c>
       <c r="N175" t="s">
-        <v>236</v>
-      </c>
-      <c r="O175">
-        <v>-10.4909</v>
-      </c>
-      <c r="P175">
-        <v>-1.55363</v>
+        <v>237</v>
+      </c>
+      <c r="O175" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="P175" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="176" spans="1:16">
       <c r="A176" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B176" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C176" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D176" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E176" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F176" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G176" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H176" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I176" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J176" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K176" t="s">
         <v>26</v>
@@ -10078,45 +10095,45 @@
         <v>125</v>
       </c>
       <c r="N176" t="s">
-        <v>236</v>
-      </c>
-      <c r="O176">
-        <v>-11.059</v>
-      </c>
-      <c r="P176">
-        <v>-1.63776</v>
+        <v>237</v>
+      </c>
+      <c r="O176" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="P176" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="177" spans="1:16">
       <c r="A177" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B177" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C177" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D177" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E177" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F177" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G177" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H177" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I177" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J177" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K177" t="s">
         <v>26</v>
@@ -10128,45 +10145,45 @@
         <v>127</v>
       </c>
       <c r="N177" t="s">
-        <v>236</v>
-      </c>
-      <c r="O177">
-        <v>-11.5236</v>
-      </c>
-      <c r="P177">
-        <v>-1.70659</v>
+        <v>237</v>
+      </c>
+      <c r="O177" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="P177" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="178" spans="1:16">
       <c r="A178" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B178" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C178" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D178" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E178" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F178" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G178" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H178" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I178" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J178" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K178" t="s">
         <v>26</v>
@@ -10178,45 +10195,45 @@
         <v>129</v>
       </c>
       <c r="N178" t="s">
-        <v>236</v>
-      </c>
-      <c r="O178">
-        <v>-11.9901</v>
-      </c>
-      <c r="P178">
-        <v>-1.77574</v>
+        <v>237</v>
+      </c>
+      <c r="O178" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="P178" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="179" spans="1:16">
       <c r="A179" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B179" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C179" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D179" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E179" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F179" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G179" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H179" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I179" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J179" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K179" t="s">
         <v>26</v>
@@ -10228,45 +10245,45 @@
         <v>131</v>
       </c>
       <c r="N179" t="s">
-        <v>236</v>
-      </c>
-      <c r="O179">
-        <v>-12.352</v>
-      </c>
-      <c r="P179">
-        <v>-1.82934</v>
+        <v>237</v>
+      </c>
+      <c r="O179" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="P179" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="180" spans="1:16">
       <c r="A180" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B180" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C180" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D180" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E180" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F180" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G180" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H180" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I180" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J180" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K180" t="s">
         <v>26</v>
@@ -10278,45 +10295,45 @@
         <v>133</v>
       </c>
       <c r="N180" t="s">
-        <v>236</v>
-      </c>
-      <c r="O180">
-        <v>-12.9207</v>
-      </c>
-      <c r="P180">
-        <v>-1.91355</v>
+        <v>237</v>
+      </c>
+      <c r="O180" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="P180" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="181" spans="1:16">
       <c r="A181" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B181" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C181" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D181" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E181" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F181" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G181" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H181" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I181" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J181" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K181" t="s">
         <v>26</v>
@@ -10328,45 +10345,45 @@
         <v>135</v>
       </c>
       <c r="N181" t="s">
-        <v>236</v>
-      </c>
-      <c r="O181">
-        <v>-13.3789</v>
-      </c>
-      <c r="P181">
-        <v>-1.98151</v>
+        <v>237</v>
+      </c>
+      <c r="O181" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="P181" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="182" spans="1:16">
       <c r="A182" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B182" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C182" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D182" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E182" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F182" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G182" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H182" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I182" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J182" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K182" t="s">
         <v>26</v>
@@ -10378,45 +10395,45 @@
         <v>137</v>
       </c>
       <c r="N182" t="s">
-        <v>236</v>
-      </c>
-      <c r="O182">
-        <v>-13.8511</v>
-      </c>
-      <c r="P182">
-        <v>-2.0514</v>
+        <v>237</v>
+      </c>
+      <c r="O182" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="P182" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="183" spans="1:16">
       <c r="A183" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B183" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C183" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D183" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E183" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F183" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G183" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H183" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I183" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J183" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K183" t="s">
         <v>26</v>
@@ -10428,45 +10445,45 @@
         <v>139</v>
       </c>
       <c r="N183" t="s">
-        <v>236</v>
-      </c>
-      <c r="O183">
-        <v>-14.1605</v>
-      </c>
-      <c r="P183">
-        <v>-2.09724</v>
+        <v>237</v>
+      </c>
+      <c r="O183" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="P183" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="184" spans="1:16">
       <c r="A184" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B184" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C184" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D184" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E184" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F184" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G184" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H184" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I184" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J184" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K184" t="s">
         <v>26</v>
@@ -10478,45 +10495,45 @@
         <v>24</v>
       </c>
       <c r="N184" t="s">
-        <v>236</v>
-      </c>
-      <c r="O184">
-        <v>-14.6203</v>
-      </c>
-      <c r="P184">
-        <v>-2.16541</v>
+        <v>237</v>
+      </c>
+      <c r="O184" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="P184" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="185" spans="1:16">
       <c r="A185" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B185" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C185" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D185" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E185" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F185" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G185" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H185" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I185" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J185" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K185" t="s">
         <v>26</v>
@@ -10528,45 +10545,45 @@
         <v>142</v>
       </c>
       <c r="N185" t="s">
-        <v>236</v>
-      </c>
-      <c r="O185">
-        <v>-15.1946</v>
-      </c>
-      <c r="P185">
-        <v>-2.25044</v>
+        <v>237</v>
+      </c>
+      <c r="O185" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="P185" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="186" spans="1:16">
       <c r="A186" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B186" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C186" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D186" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E186" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F186" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G186" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H186" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I186" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J186" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K186" t="s">
         <v>26</v>
@@ -10578,45 +10595,45 @@
         <v>144</v>
       </c>
       <c r="N186" t="s">
-        <v>236</v>
-      </c>
-      <c r="O186">
-        <v>-15.6602</v>
-      </c>
-      <c r="P186">
-        <v>-2.31941</v>
+        <v>237</v>
+      </c>
+      <c r="O186" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="P186" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="187" spans="1:16">
       <c r="A187" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B187" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C187" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D187" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E187" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F187" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G187" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H187" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I187" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J187" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K187" t="s">
         <v>26</v>
@@ -10628,45 +10645,45 @@
         <v>146</v>
       </c>
       <c r="N187" t="s">
-        <v>236</v>
-      </c>
-      <c r="O187">
-        <v>-16.1766</v>
-      </c>
-      <c r="P187">
-        <v>-2.39594</v>
+        <v>237</v>
+      </c>
+      <c r="O187" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="P187" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="188" spans="1:16">
       <c r="A188" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B188" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C188" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D188" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E188" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F188" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G188" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H188" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I188" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J188" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K188" t="s">
         <v>26</v>
@@ -10678,45 +10695,45 @@
         <v>148</v>
       </c>
       <c r="N188" t="s">
-        <v>236</v>
-      </c>
-      <c r="O188">
-        <v>-16.6938</v>
-      </c>
-      <c r="P188">
-        <v>-2.47253</v>
+        <v>237</v>
+      </c>
+      <c r="O188" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="P188" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="189" spans="1:16">
       <c r="A189" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B189" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C189" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D189" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E189" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F189" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G189" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H189" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I189" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J189" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K189" t="s">
         <v>26</v>
@@ -10728,45 +10745,45 @@
         <v>150</v>
       </c>
       <c r="N189" t="s">
-        <v>236</v>
-      </c>
-      <c r="O189">
-        <v>-17.2623</v>
-      </c>
-      <c r="P189">
-        <v>-2.55679</v>
+        <v>237</v>
+      </c>
+      <c r="O189" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="P189" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="190" spans="1:16">
       <c r="A190" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B190" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C190" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D190" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E190" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F190" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G190" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H190" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I190" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J190" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K190" t="s">
         <v>26</v>
@@ -10778,13 +10795,13 @@
         <v>152</v>
       </c>
       <c r="N190" t="s">
-        <v>236</v>
-      </c>
-      <c r="O190">
-        <v>-17.7799</v>
-      </c>
-      <c r="P190">
-        <v>-2.63342</v>
+        <v>237</v>
+      </c>
+      <c r="O190" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="P190" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="191" spans="1:16" s="1" customFormat="1">
@@ -10839,29 +10856,29 @@
     </row>
     <row r="192" spans="1:16" s="1" customFormat="1">
       <c r="N192" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O192" s="1">
-        <v>-32.8364</v>
+        <v>-22.7952</v>
       </c>
       <c r="P192" s="1">
-        <v>-3.97998</v>
+        <v>-3.03907</v>
       </c>
     </row>
     <row r="193" spans="14:16" s="1" customFormat="1">
       <c r="N193" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O193" s="1">
-        <v>32.4878</v>
+        <v>31.6365</v>
       </c>
       <c r="P193" s="1">
-        <v>3.9381</v>
+        <v>3.83493</v>
       </c>
     </row>
     <row r="194" spans="14:16" s="1" customFormat="1">
       <c r="N194" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="O194" s="1">
         <v>35</v>
@@ -10869,7 +10886,7 @@
     </row>
     <row r="195" spans="14:16" s="1" customFormat="1">
       <c r="N195" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O195" s="1">
         <v>-35</v>
@@ -10877,7 +10894,7 @@
     </row>
     <row r="196" spans="14:16" s="1" customFormat="1">
       <c r="N196" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="O196" s="1">
         <v>35</v>
@@ -10885,7 +10902,7 @@
     </row>
     <row r="197" spans="14:16" s="1" customFormat="1">
       <c r="N197" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="O197" s="1">
         <v>-35</v>
@@ -10893,35 +10910,35 @@
     </row>
     <row r="198" spans="14:16" s="1" customFormat="1">
       <c r="N198" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="O198" s="1">
-        <v>0.1269381328042338</v>
+        <v>3.976408853191491</v>
       </c>
       <c r="P198" s="1">
-        <v>0.01937202417989411</v>
+        <v>0.4830369943617021</v>
       </c>
     </row>
     <row r="199" spans="14:16" s="1" customFormat="1">
       <c r="N199" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="O199" s="1">
-        <v>15.47692400709899</v>
+        <v>14.45724791455408</v>
       </c>
       <c r="P199" s="1">
-        <v>2.010136413909253</v>
+        <v>1.863059119206245</v>
       </c>
     </row>
     <row r="200" spans="14:16" s="1" customFormat="1">
       <c r="N200" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O200" s="1">
-        <v>12192.4938276568</v>
+        <v>363.5754885454146</v>
       </c>
       <c r="P200" s="1">
-        <v>10376.49135290435</v>
+        <v>385.6969840722326</v>
       </c>
     </row>
     <row r="201" spans="14:16" s="1" customFormat="1"/>

--- a/dcd_top_offset_step_tsmc2p_meas.xlsx
+++ b/dcd_top_offset_step_tsmc2p_meas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5187" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4807" uniqueCount="308">
   <si>
     <t>Process</t>
   </si>
@@ -518,9 +518,6 @@
   </si>
   <si>
     <t>tsmc2p (67)</t>
-  </si>
-  <si>
-    <t>n/a</t>
   </si>
   <si>
     <t>tsmc2p (68)</t>
@@ -947,7 +944,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -963,26 +960,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000 "/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -997,10 +981,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4747,16 +4730,16 @@
       <c r="N69" t="s">
         <v>163</v>
       </c>
-      <c r="O69" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="P69" s="2" t="s">
-        <v>168</v>
+      <c r="O69">
+        <v>28.3322</v>
+      </c>
+      <c r="P69">
+        <v>3.4344</v>
       </c>
     </row>
     <row r="70" spans="1:16">
       <c r="A70" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B70" t="s">
         <v>154</v>
@@ -4797,16 +4780,16 @@
       <c r="N70" t="s">
         <v>163</v>
       </c>
-      <c r="O70" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="P70" s="2" t="s">
-        <v>168</v>
+      <c r="O70">
+        <v>27.5311</v>
+      </c>
+      <c r="P70">
+        <v>3.33729</v>
       </c>
     </row>
     <row r="71" spans="1:16">
       <c r="A71" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B71" t="s">
         <v>154</v>
@@ -4856,7 +4839,7 @@
     </row>
     <row r="72" spans="1:16">
       <c r="A72" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B72" t="s">
         <v>154</v>
@@ -4906,7 +4889,7 @@
     </row>
     <row r="73" spans="1:16">
       <c r="A73" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B73" t="s">
         <v>154</v>
@@ -4947,16 +4930,16 @@
       <c r="N73" t="s">
         <v>163</v>
       </c>
-      <c r="O73" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="P73" s="2" t="s">
-        <v>168</v>
+      <c r="O73">
+        <v>23.7262</v>
+      </c>
+      <c r="P73">
+        <v>2.8761</v>
       </c>
     </row>
     <row r="74" spans="1:16">
       <c r="A74" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B74" t="s">
         <v>154</v>
@@ -5006,7 +4989,7 @@
     </row>
     <row r="75" spans="1:16">
       <c r="A75" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B75" t="s">
         <v>154</v>
@@ -5056,7 +5039,7 @@
     </row>
     <row r="76" spans="1:16">
       <c r="A76" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B76" t="s">
         <v>154</v>
@@ -5106,7 +5089,7 @@
     </row>
     <row r="77" spans="1:16">
       <c r="A77" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B77" t="s">
         <v>154</v>
@@ -5147,16 +5130,16 @@
       <c r="N77" t="s">
         <v>163</v>
       </c>
-      <c r="O77" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="P77" s="2" t="s">
-        <v>168</v>
+      <c r="O77">
+        <v>20.5214</v>
+      </c>
+      <c r="P77">
+        <v>2.48764</v>
       </c>
     </row>
     <row r="78" spans="1:16">
       <c r="A78" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B78" t="s">
         <v>154</v>
@@ -5206,7 +5189,7 @@
     </row>
     <row r="79" spans="1:16">
       <c r="A79" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B79" t="s">
         <v>154</v>
@@ -5247,16 +5230,16 @@
       <c r="N79" t="s">
         <v>163</v>
       </c>
-      <c r="O79" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="P79" s="2" t="s">
-        <v>168</v>
+      <c r="O79">
+        <v>18.869</v>
+      </c>
+      <c r="P79">
+        <v>2.28734</v>
       </c>
     </row>
     <row r="80" spans="1:16">
       <c r="A80" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B80" t="s">
         <v>154</v>
@@ -5306,7 +5289,7 @@
     </row>
     <row r="81" spans="1:16">
       <c r="A81" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B81" t="s">
         <v>154</v>
@@ -5356,7 +5339,7 @@
     </row>
     <row r="82" spans="1:16">
       <c r="A82" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B82" t="s">
         <v>154</v>
@@ -5406,7 +5389,7 @@
     </row>
     <row r="83" spans="1:16">
       <c r="A83" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B83" t="s">
         <v>154</v>
@@ -5456,7 +5439,7 @@
     </row>
     <row r="84" spans="1:16">
       <c r="A84" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B84" t="s">
         <v>154</v>
@@ -5506,7 +5489,7 @@
     </row>
     <row r="85" spans="1:16">
       <c r="A85" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B85" t="s">
         <v>154</v>
@@ -5547,16 +5530,16 @@
       <c r="N85" t="s">
         <v>163</v>
       </c>
-      <c r="O85" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="P85" s="2" t="s">
-        <v>168</v>
+      <c r="O85">
+        <v>12.9105</v>
+      </c>
+      <c r="P85">
+        <v>1.56509</v>
       </c>
     </row>
     <row r="86" spans="1:16">
       <c r="A86" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B86" t="s">
         <v>154</v>
@@ -5606,7 +5589,7 @@
     </row>
     <row r="87" spans="1:16">
       <c r="A87" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B87" t="s">
         <v>154</v>
@@ -5656,7 +5639,7 @@
     </row>
     <row r="88" spans="1:16">
       <c r="A88" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B88" t="s">
         <v>154</v>
@@ -5706,7 +5689,7 @@
     </row>
     <row r="89" spans="1:16">
       <c r="A89" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B89" t="s">
         <v>154</v>
@@ -5756,7 +5739,7 @@
     </row>
     <row r="90" spans="1:16">
       <c r="A90" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B90" t="s">
         <v>154</v>
@@ -5806,7 +5789,7 @@
     </row>
     <row r="91" spans="1:16">
       <c r="A91" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B91" t="s">
         <v>154</v>
@@ -5847,16 +5830,16 @@
       <c r="N91" t="s">
         <v>163</v>
       </c>
-      <c r="O91" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="P91" s="2" t="s">
-        <v>168</v>
+      <c r="O91">
+        <v>5.65034</v>
+      </c>
+      <c r="P91">
+        <v>0.685078</v>
       </c>
     </row>
     <row r="92" spans="1:16">
       <c r="A92" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B92" t="s">
         <v>154</v>
@@ -5906,7 +5889,7 @@
     </row>
     <row r="93" spans="1:16">
       <c r="A93" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B93" t="s">
         <v>154</v>
@@ -5956,7 +5939,7 @@
     </row>
     <row r="94" spans="1:16">
       <c r="A94" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B94" t="s">
         <v>154</v>
@@ -6006,7 +5989,7 @@
     </row>
     <row r="95" spans="1:16">
       <c r="A95" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B95" t="s">
         <v>154</v>
@@ -6056,7 +6039,7 @@
     </row>
     <row r="96" spans="1:16">
       <c r="A96" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B96" t="s">
         <v>154</v>
@@ -6106,7 +6089,7 @@
     </row>
     <row r="97" spans="1:16">
       <c r="A97" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B97" t="s">
         <v>154</v>
@@ -6156,7 +6139,7 @@
     </row>
     <row r="98" spans="1:16">
       <c r="A98" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B98" t="s">
         <v>154</v>
@@ -6206,7 +6189,7 @@
     </row>
     <row r="99" spans="1:16">
       <c r="A99" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B99" t="s">
         <v>154</v>
@@ -6247,16 +6230,16 @@
       <c r="N99" t="s">
         <v>163</v>
       </c>
-      <c r="O99" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="P99" s="2" t="s">
-        <v>168</v>
+      <c r="O99">
+        <v>-3.35922</v>
+      </c>
+      <c r="P99">
+        <v>-0.406991</v>
       </c>
     </row>
     <row r="100" spans="1:16">
       <c r="A100" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B100" t="s">
         <v>154</v>
@@ -6306,7 +6289,7 @@
     </row>
     <row r="101" spans="1:16">
       <c r="A101" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B101" t="s">
         <v>154</v>
@@ -6356,7 +6339,7 @@
     </row>
     <row r="102" spans="1:16">
       <c r="A102" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B102" t="s">
         <v>154</v>
@@ -6406,7 +6389,7 @@
     </row>
     <row r="103" spans="1:16">
       <c r="A103" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B103" t="s">
         <v>154</v>
@@ -6447,16 +6430,16 @@
       <c r="N103" t="s">
         <v>163</v>
       </c>
-      <c r="O103" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="P103" s="2" t="s">
-        <v>168</v>
+      <c r="O103">
+        <v>-7.862879999999999</v>
+      </c>
+      <c r="P103">
+        <v>-0.952891</v>
       </c>
     </row>
     <row r="104" spans="1:16">
       <c r="A104" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B104" t="s">
         <v>154</v>
@@ -6506,7 +6489,7 @@
     </row>
     <row r="105" spans="1:16">
       <c r="A105" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B105" t="s">
         <v>154</v>
@@ -6547,16 +6530,16 @@
       <c r="N105" t="s">
         <v>163</v>
       </c>
-      <c r="O105" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="P105" s="2" t="s">
-        <v>168</v>
+      <c r="O105">
+        <v>-10.1652</v>
+      </c>
+      <c r="P105">
+        <v>-1.23196</v>
       </c>
     </row>
     <row r="106" spans="1:16">
       <c r="A106" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B106" t="s">
         <v>154</v>
@@ -6597,16 +6580,16 @@
       <c r="N106" t="s">
         <v>163</v>
       </c>
-      <c r="O106" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="P106" s="2" t="s">
-        <v>168</v>
+      <c r="O106">
+        <v>-11.4667</v>
+      </c>
+      <c r="P106">
+        <v>-1.38972</v>
       </c>
     </row>
     <row r="107" spans="1:16">
       <c r="A107" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B107" t="s">
         <v>154</v>
@@ -6647,16 +6630,16 @@
       <c r="N107" t="s">
         <v>163</v>
       </c>
-      <c r="O107" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="P107" s="2" t="s">
-        <v>168</v>
+      <c r="O107">
+        <v>-12.817</v>
+      </c>
+      <c r="P107">
+        <v>-1.54749</v>
       </c>
     </row>
     <row r="108" spans="1:16">
       <c r="A108" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B108" t="s">
         <v>154</v>
@@ -6697,16 +6680,16 @@
       <c r="N108" t="s">
         <v>163</v>
       </c>
-      <c r="O108" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="P108" s="2" t="s">
-        <v>168</v>
+      <c r="O108">
+        <v>-14.1197</v>
+      </c>
+      <c r="P108">
+        <v>-1.71128</v>
       </c>
     </row>
     <row r="109" spans="1:16">
       <c r="A109" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B109" t="s">
         <v>154</v>
@@ -6747,16 +6730,16 @@
       <c r="N109" t="s">
         <v>163</v>
       </c>
-      <c r="O109" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="P109" s="2" t="s">
-        <v>168</v>
+      <c r="O109">
+        <v>-15.471</v>
+      </c>
+      <c r="P109">
+        <v>-1.87508</v>
       </c>
     </row>
     <row r="110" spans="1:16">
       <c r="A110" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B110" t="s">
         <v>154</v>
@@ -6797,16 +6780,16 @@
       <c r="N110" t="s">
         <v>163</v>
       </c>
-      <c r="O110" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="P110" s="2" t="s">
-        <v>168</v>
+      <c r="O110">
+        <v>-16.772</v>
+      </c>
+      <c r="P110">
+        <v>-2.03278</v>
       </c>
     </row>
     <row r="111" spans="1:16">
       <c r="A111" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B111" t="s">
         <v>154</v>
@@ -6847,16 +6830,16 @@
       <c r="N111" t="s">
         <v>163</v>
       </c>
-      <c r="O111" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="P111" s="2" t="s">
-        <v>168</v>
+      <c r="O111">
+        <v>-18.0739</v>
+      </c>
+      <c r="P111">
+        <v>-2.19059</v>
       </c>
     </row>
     <row r="112" spans="1:16">
       <c r="A112" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B112" t="s">
         <v>154</v>
@@ -6897,16 +6880,16 @@
       <c r="N112" t="s">
         <v>163</v>
       </c>
-      <c r="O112" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="P112" s="2" t="s">
-        <v>168</v>
+      <c r="O112">
+        <v>-18.074</v>
+      </c>
+      <c r="P112">
+        <v>-2.1906</v>
       </c>
     </row>
     <row r="113" spans="1:16">
       <c r="A113" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B113" t="s">
         <v>154</v>
@@ -6947,16 +6930,16 @@
       <c r="N113" t="s">
         <v>163</v>
       </c>
-      <c r="O113" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="P113" s="2" t="s">
-        <v>168</v>
+      <c r="O113">
+        <v>-18.9019</v>
+      </c>
+      <c r="P113">
+        <v>-2.28766</v>
       </c>
     </row>
     <row r="114" spans="1:16">
       <c r="A114" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B114" t="s">
         <v>154</v>
@@ -6997,16 +6980,16 @@
       <c r="N114" t="s">
         <v>163</v>
       </c>
-      <c r="O114" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="P114" s="2" t="s">
-        <v>168</v>
+      <c r="O114">
+        <v>-19.7257</v>
+      </c>
+      <c r="P114">
+        <v>-2.3908</v>
       </c>
     </row>
     <row r="115" spans="1:16">
       <c r="A115" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B115" t="s">
         <v>154</v>
@@ -7047,16 +7030,16 @@
       <c r="N115" t="s">
         <v>163</v>
       </c>
-      <c r="O115" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="P115" s="2" t="s">
-        <v>168</v>
+      <c r="O115">
+        <v>-20.5769</v>
+      </c>
+      <c r="P115">
+        <v>-2.49399</v>
       </c>
     </row>
     <row r="116" spans="1:16">
       <c r="A116" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B116" t="s">
         <v>154</v>
@@ -7097,16 +7080,16 @@
       <c r="N116" t="s">
         <v>163</v>
       </c>
-      <c r="O116" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="P116" s="2" t="s">
-        <v>168</v>
+      <c r="O116">
+        <v>-21.2773</v>
+      </c>
+      <c r="P116">
+        <v>-2.57888</v>
       </c>
     </row>
     <row r="117" spans="1:16">
       <c r="A117" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B117" t="s">
         <v>154</v>
@@ -7147,16 +7130,16 @@
       <c r="N117" t="s">
         <v>163</v>
       </c>
-      <c r="O117" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="P117" s="2" t="s">
-        <v>168</v>
+      <c r="O117">
+        <v>-22.1282</v>
+      </c>
+      <c r="P117">
+        <v>-2.68202</v>
       </c>
     </row>
     <row r="118" spans="1:16">
       <c r="A118" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B118" t="s">
         <v>154</v>
@@ -7197,16 +7180,16 @@
       <c r="N118" t="s">
         <v>163</v>
       </c>
-      <c r="O118" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="P118" s="2" t="s">
-        <v>168</v>
+      <c r="O118">
+        <v>-22.93</v>
+      </c>
+      <c r="P118">
+        <v>-2.77921</v>
       </c>
     </row>
     <row r="119" spans="1:16">
       <c r="A119" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B119" t="s">
         <v>154</v>
@@ -7247,16 +7230,16 @@
       <c r="N119" t="s">
         <v>163</v>
       </c>
-      <c r="O119" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="P119" s="2" t="s">
-        <v>168</v>
+      <c r="O119">
+        <v>-23.7806</v>
+      </c>
+      <c r="P119">
+        <v>-2.8823</v>
       </c>
     </row>
     <row r="120" spans="1:16">
       <c r="A120" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B120" t="s">
         <v>154</v>
@@ -7297,16 +7280,16 @@
       <c r="N120" t="s">
         <v>163</v>
       </c>
-      <c r="O120" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="P120" s="2" t="s">
-        <v>168</v>
+      <c r="O120">
+        <v>-25.9326</v>
+      </c>
+      <c r="P120">
+        <v>-3.14316</v>
       </c>
     </row>
     <row r="121" spans="1:16">
       <c r="A121" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B121" t="s">
         <v>154</v>
@@ -7347,16 +7330,16 @@
       <c r="N121" t="s">
         <v>163</v>
       </c>
-      <c r="O121" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="P121" s="2" t="s">
-        <v>168</v>
+      <c r="O121">
+        <v>-26.8329</v>
+      </c>
+      <c r="P121">
+        <v>-3.25228</v>
       </c>
     </row>
     <row r="122" spans="1:16">
       <c r="A122" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B122" t="s">
         <v>154</v>
@@ -7397,16 +7380,16 @@
       <c r="N122" t="s">
         <v>163</v>
       </c>
-      <c r="O122" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="P122" s="2" t="s">
-        <v>168</v>
+      <c r="O122">
+        <v>-27.6834</v>
+      </c>
+      <c r="P122">
+        <v>-3.35538</v>
       </c>
     </row>
     <row r="123" spans="1:16">
       <c r="A123" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B123" t="s">
         <v>154</v>
@@ -7447,16 +7430,16 @@
       <c r="N123" t="s">
         <v>163</v>
       </c>
-      <c r="O123" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="P123" s="2" t="s">
-        <v>168</v>
+      <c r="O123">
+        <v>-28.5342</v>
+      </c>
+      <c r="P123">
+        <v>-3.4585</v>
       </c>
     </row>
     <row r="124" spans="1:16">
       <c r="A124" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B124" t="s">
         <v>154</v>
@@ -7497,16 +7480,16 @@
       <c r="N124" t="s">
         <v>163</v>
       </c>
-      <c r="O124" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="P124" s="2" t="s">
-        <v>168</v>
+      <c r="O124">
+        <v>-29.3344</v>
+      </c>
+      <c r="P124">
+        <v>-3.55549</v>
       </c>
     </row>
     <row r="125" spans="1:16">
       <c r="A125" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B125" t="s">
         <v>154</v>
@@ -7547,16 +7530,16 @@
       <c r="N125" t="s">
         <v>163</v>
       </c>
-      <c r="O125" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="P125" s="2" t="s">
-        <v>168</v>
+      <c r="O125">
+        <v>-30.1847</v>
+      </c>
+      <c r="P125">
+        <v>-3.65857</v>
       </c>
     </row>
     <row r="126" spans="1:16">
       <c r="A126" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B126" t="s">
         <v>154</v>
@@ -7597,16 +7580,16 @@
       <c r="N126" t="s">
         <v>163</v>
       </c>
-      <c r="O126" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="P126" s="2" t="s">
-        <v>168</v>
+      <c r="O126">
+        <v>-30.9855</v>
+      </c>
+      <c r="P126">
+        <v>-3.75563</v>
       </c>
     </row>
     <row r="127" spans="1:16">
       <c r="A127" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B127" t="s">
         <v>154</v>
@@ -7647,43 +7630,43 @@
       <c r="N127" t="s">
         <v>163</v>
       </c>
-      <c r="O127" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="P127" s="2" t="s">
-        <v>168</v>
+      <c r="O127">
+        <v>-31.836</v>
+      </c>
+      <c r="P127">
+        <v>-3.85871</v>
       </c>
     </row>
     <row r="128" spans="1:16">
       <c r="A128" t="s">
+        <v>226</v>
+      </c>
+      <c r="B128" t="s">
         <v>227</v>
       </c>
-      <c r="B128" t="s">
+      <c r="C128" t="s">
         <v>228</v>
       </c>
-      <c r="C128" t="s">
+      <c r="D128" t="s">
         <v>229</v>
       </c>
-      <c r="D128" t="s">
+      <c r="E128" t="s">
         <v>230</v>
       </c>
-      <c r="E128" t="s">
+      <c r="F128" t="s">
         <v>231</v>
       </c>
-      <c r="F128" t="s">
+      <c r="G128" t="s">
         <v>232</v>
       </c>
-      <c r="G128" t="s">
+      <c r="H128" t="s">
         <v>233</v>
       </c>
-      <c r="H128" t="s">
+      <c r="I128" t="s">
         <v>234</v>
       </c>
-      <c r="I128" t="s">
+      <c r="J128" t="s">
         <v>235</v>
-      </c>
-      <c r="J128" t="s">
-        <v>236</v>
       </c>
       <c r="K128" t="s">
         <v>26</v>
@@ -7695,45 +7678,45 @@
         <v>28</v>
       </c>
       <c r="N128" t="s">
-        <v>237</v>
-      </c>
-      <c r="O128" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="P128" s="2" t="s">
-        <v>168</v>
+        <v>236</v>
+      </c>
+      <c r="O128">
+        <v>17.9304</v>
+      </c>
+      <c r="P128">
+        <v>2.66458</v>
       </c>
     </row>
     <row r="129" spans="1:16">
       <c r="A129" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B129" t="s">
+        <v>227</v>
+      </c>
+      <c r="C129" t="s">
         <v>228</v>
       </c>
-      <c r="C129" t="s">
+      <c r="D129" t="s">
         <v>229</v>
       </c>
-      <c r="D129" t="s">
+      <c r="E129" t="s">
         <v>230</v>
       </c>
-      <c r="E129" t="s">
+      <c r="F129" t="s">
         <v>231</v>
       </c>
-      <c r="F129" t="s">
+      <c r="G129" t="s">
         <v>232</v>
       </c>
-      <c r="G129" t="s">
+      <c r="H129" t="s">
         <v>233</v>
       </c>
-      <c r="H129" t="s">
+      <c r="I129" t="s">
         <v>234</v>
       </c>
-      <c r="I129" t="s">
+      <c r="J129" t="s">
         <v>235</v>
-      </c>
-      <c r="J129" t="s">
-        <v>236</v>
       </c>
       <c r="K129" t="s">
         <v>26</v>
@@ -7745,45 +7728,45 @@
         <v>31</v>
       </c>
       <c r="N129" t="s">
-        <v>237</v>
-      </c>
-      <c r="O129" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="P129" s="2" t="s">
-        <v>168</v>
+        <v>236</v>
+      </c>
+      <c r="O129">
+        <v>17.5688</v>
+      </c>
+      <c r="P129">
+        <v>2.6034</v>
       </c>
     </row>
     <row r="130" spans="1:16">
       <c r="A130" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B130" t="s">
+        <v>227</v>
+      </c>
+      <c r="C130" t="s">
         <v>228</v>
       </c>
-      <c r="C130" t="s">
+      <c r="D130" t="s">
         <v>229</v>
       </c>
-      <c r="D130" t="s">
+      <c r="E130" t="s">
         <v>230</v>
       </c>
-      <c r="E130" t="s">
+      <c r="F130" t="s">
         <v>231</v>
       </c>
-      <c r="F130" t="s">
+      <c r="G130" t="s">
         <v>232</v>
       </c>
-      <c r="G130" t="s">
+      <c r="H130" t="s">
         <v>233</v>
       </c>
-      <c r="H130" t="s">
+      <c r="I130" t="s">
         <v>234</v>
       </c>
-      <c r="I130" t="s">
+      <c r="J130" t="s">
         <v>235</v>
-      </c>
-      <c r="J130" t="s">
-        <v>236</v>
       </c>
       <c r="K130" t="s">
         <v>26</v>
@@ -7795,45 +7778,45 @@
         <v>33</v>
       </c>
       <c r="N130" t="s">
-        <v>237</v>
-      </c>
-      <c r="O130" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="P130" s="2" t="s">
-        <v>168</v>
+        <v>236</v>
+      </c>
+      <c r="O130">
+        <v>17.111</v>
+      </c>
+      <c r="P130">
+        <v>2.53553</v>
       </c>
     </row>
     <row r="131" spans="1:16">
       <c r="A131" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B131" t="s">
+        <v>227</v>
+      </c>
+      <c r="C131" t="s">
         <v>228</v>
       </c>
-      <c r="C131" t="s">
+      <c r="D131" t="s">
         <v>229</v>
       </c>
-      <c r="D131" t="s">
+      <c r="E131" t="s">
         <v>230</v>
       </c>
-      <c r="E131" t="s">
+      <c r="F131" t="s">
         <v>231</v>
       </c>
-      <c r="F131" t="s">
+      <c r="G131" t="s">
         <v>232</v>
       </c>
-      <c r="G131" t="s">
+      <c r="H131" t="s">
         <v>233</v>
       </c>
-      <c r="H131" t="s">
+      <c r="I131" t="s">
         <v>234</v>
       </c>
-      <c r="I131" t="s">
+      <c r="J131" t="s">
         <v>235</v>
-      </c>
-      <c r="J131" t="s">
-        <v>236</v>
       </c>
       <c r="K131" t="s">
         <v>26</v>
@@ -7845,45 +7828,45 @@
         <v>35</v>
       </c>
       <c r="N131" t="s">
-        <v>237</v>
-      </c>
-      <c r="O131" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="P131" s="2" t="s">
-        <v>168</v>
+        <v>236</v>
+      </c>
+      <c r="O131">
+        <v>16.7423</v>
+      </c>
+      <c r="P131">
+        <v>2.48097</v>
       </c>
     </row>
     <row r="132" spans="1:16">
       <c r="A132" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B132" t="s">
+        <v>227</v>
+      </c>
+      <c r="C132" t="s">
         <v>228</v>
       </c>
-      <c r="C132" t="s">
+      <c r="D132" t="s">
         <v>229</v>
       </c>
-      <c r="D132" t="s">
+      <c r="E132" t="s">
         <v>230</v>
       </c>
-      <c r="E132" t="s">
+      <c r="F132" t="s">
         <v>231</v>
       </c>
-      <c r="F132" t="s">
+      <c r="G132" t="s">
         <v>232</v>
       </c>
-      <c r="G132" t="s">
+      <c r="H132" t="s">
         <v>233</v>
       </c>
-      <c r="H132" t="s">
+      <c r="I132" t="s">
         <v>234</v>
       </c>
-      <c r="I132" t="s">
+      <c r="J132" t="s">
         <v>235</v>
-      </c>
-      <c r="J132" t="s">
-        <v>236</v>
       </c>
       <c r="K132" t="s">
         <v>26</v>
@@ -7895,45 +7878,45 @@
         <v>37</v>
       </c>
       <c r="N132" t="s">
-        <v>237</v>
-      </c>
-      <c r="O132" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="P132" s="2" t="s">
-        <v>168</v>
+        <v>236</v>
+      </c>
+      <c r="O132">
+        <v>16.4838</v>
+      </c>
+      <c r="P132">
+        <v>2.44266</v>
       </c>
     </row>
     <row r="133" spans="1:16">
       <c r="A133" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B133" t="s">
+        <v>227</v>
+      </c>
+      <c r="C133" t="s">
         <v>228</v>
       </c>
-      <c r="C133" t="s">
+      <c r="D133" t="s">
         <v>229</v>
       </c>
-      <c r="D133" t="s">
+      <c r="E133" t="s">
         <v>230</v>
       </c>
-      <c r="E133" t="s">
+      <c r="F133" t="s">
         <v>231</v>
       </c>
-      <c r="F133" t="s">
+      <c r="G133" t="s">
         <v>232</v>
       </c>
-      <c r="G133" t="s">
+      <c r="H133" t="s">
         <v>233</v>
       </c>
-      <c r="H133" t="s">
+      <c r="I133" t="s">
         <v>234</v>
       </c>
-      <c r="I133" t="s">
+      <c r="J133" t="s">
         <v>235</v>
-      </c>
-      <c r="J133" t="s">
-        <v>236</v>
       </c>
       <c r="K133" t="s">
         <v>26</v>
@@ -7945,45 +7928,45 @@
         <v>39</v>
       </c>
       <c r="N133" t="s">
-        <v>237</v>
-      </c>
-      <c r="O133" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="P133" s="2" t="s">
-        <v>168</v>
+        <v>236</v>
+      </c>
+      <c r="O133">
+        <v>16.1221</v>
+      </c>
+      <c r="P133">
+        <v>2.38906</v>
       </c>
     </row>
     <row r="134" spans="1:16">
       <c r="A134" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B134" t="s">
+        <v>227</v>
+      </c>
+      <c r="C134" t="s">
         <v>228</v>
       </c>
-      <c r="C134" t="s">
+      <c r="D134" t="s">
         <v>229</v>
       </c>
-      <c r="D134" t="s">
+      <c r="E134" t="s">
         <v>230</v>
       </c>
-      <c r="E134" t="s">
+      <c r="F134" t="s">
         <v>231</v>
       </c>
-      <c r="F134" t="s">
+      <c r="G134" t="s">
         <v>232</v>
       </c>
-      <c r="G134" t="s">
+      <c r="H134" t="s">
         <v>233</v>
       </c>
-      <c r="H134" t="s">
+      <c r="I134" t="s">
         <v>234</v>
       </c>
-      <c r="I134" t="s">
+      <c r="J134" t="s">
         <v>235</v>
-      </c>
-      <c r="J134" t="s">
-        <v>236</v>
       </c>
       <c r="K134" t="s">
         <v>26</v>
@@ -7995,45 +7978,45 @@
         <v>41</v>
       </c>
       <c r="N134" t="s">
-        <v>237</v>
-      </c>
-      <c r="O134" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="P134" s="2" t="s">
-        <v>168</v>
+        <v>236</v>
+      </c>
+      <c r="O134">
+        <v>15.6575</v>
+      </c>
+      <c r="P134">
+        <v>2.32024</v>
       </c>
     </row>
     <row r="135" spans="1:16">
       <c r="A135" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B135" t="s">
+        <v>227</v>
+      </c>
+      <c r="C135" t="s">
         <v>228</v>
       </c>
-      <c r="C135" t="s">
+      <c r="D135" t="s">
         <v>229</v>
       </c>
-      <c r="D135" t="s">
+      <c r="E135" t="s">
         <v>230</v>
       </c>
-      <c r="E135" t="s">
+      <c r="F135" t="s">
         <v>231</v>
       </c>
-      <c r="F135" t="s">
+      <c r="G135" t="s">
         <v>232</v>
       </c>
-      <c r="G135" t="s">
+      <c r="H135" t="s">
         <v>233</v>
       </c>
-      <c r="H135" t="s">
+      <c r="I135" t="s">
         <v>234</v>
       </c>
-      <c r="I135" t="s">
+      <c r="J135" t="s">
         <v>235</v>
-      </c>
-      <c r="J135" t="s">
-        <v>236</v>
       </c>
       <c r="K135" t="s">
         <v>26</v>
@@ -8045,45 +8028,45 @@
         <v>43</v>
       </c>
       <c r="N135" t="s">
-        <v>237</v>
-      </c>
-      <c r="O135" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="P135" s="2" t="s">
-        <v>168</v>
+        <v>236</v>
+      </c>
+      <c r="O135">
+        <v>15.2958</v>
+      </c>
+      <c r="P135">
+        <v>2.26669</v>
       </c>
     </row>
     <row r="136" spans="1:16">
       <c r="A136" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B136" t="s">
+        <v>227</v>
+      </c>
+      <c r="C136" t="s">
         <v>228</v>
       </c>
-      <c r="C136" t="s">
+      <c r="D136" t="s">
         <v>229</v>
       </c>
-      <c r="D136" t="s">
+      <c r="E136" t="s">
         <v>230</v>
       </c>
-      <c r="E136" t="s">
+      <c r="F136" t="s">
         <v>231</v>
       </c>
-      <c r="F136" t="s">
+      <c r="G136" t="s">
         <v>232</v>
       </c>
-      <c r="G136" t="s">
+      <c r="H136" t="s">
         <v>233</v>
       </c>
-      <c r="H136" t="s">
+      <c r="I136" t="s">
         <v>234</v>
       </c>
-      <c r="I136" t="s">
+      <c r="J136" t="s">
         <v>235</v>
-      </c>
-      <c r="J136" t="s">
-        <v>236</v>
       </c>
       <c r="K136" t="s">
         <v>26</v>
@@ -8095,45 +8078,45 @@
         <v>45</v>
       </c>
       <c r="N136" t="s">
-        <v>237</v>
-      </c>
-      <c r="O136" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="P136" s="2" t="s">
-        <v>168</v>
+        <v>236</v>
+      </c>
+      <c r="O136">
+        <v>14.3138</v>
+      </c>
+      <c r="P136">
+        <v>2.1212</v>
       </c>
     </row>
     <row r="137" spans="1:16">
       <c r="A137" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B137" t="s">
+        <v>227</v>
+      </c>
+      <c r="C137" t="s">
         <v>228</v>
       </c>
-      <c r="C137" t="s">
+      <c r="D137" t="s">
         <v>229</v>
       </c>
-      <c r="D137" t="s">
+      <c r="E137" t="s">
         <v>230</v>
       </c>
-      <c r="E137" t="s">
+      <c r="F137" t="s">
         <v>231</v>
       </c>
-      <c r="F137" t="s">
+      <c r="G137" t="s">
         <v>232</v>
       </c>
-      <c r="G137" t="s">
+      <c r="H137" t="s">
         <v>233</v>
       </c>
-      <c r="H137" t="s">
+      <c r="I137" t="s">
         <v>234</v>
       </c>
-      <c r="I137" t="s">
+      <c r="J137" t="s">
         <v>235</v>
-      </c>
-      <c r="J137" t="s">
-        <v>236</v>
       </c>
       <c r="K137" t="s">
         <v>26</v>
@@ -8145,45 +8128,45 @@
         <v>47</v>
       </c>
       <c r="N137" t="s">
-        <v>237</v>
-      </c>
-      <c r="O137" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="P137" s="2" t="s">
-        <v>168</v>
+        <v>236</v>
+      </c>
+      <c r="O137">
+        <v>13.8489</v>
+      </c>
+      <c r="P137">
+        <v>2.0523</v>
       </c>
     </row>
     <row r="138" spans="1:16">
       <c r="A138" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B138" t="s">
+        <v>227</v>
+      </c>
+      <c r="C138" t="s">
         <v>228</v>
       </c>
-      <c r="C138" t="s">
+      <c r="D138" t="s">
         <v>229</v>
       </c>
-      <c r="D138" t="s">
+      <c r="E138" t="s">
         <v>230</v>
       </c>
-      <c r="E138" t="s">
+      <c r="F138" t="s">
         <v>231</v>
       </c>
-      <c r="F138" t="s">
+      <c r="G138" t="s">
         <v>232</v>
       </c>
-      <c r="G138" t="s">
+      <c r="H138" t="s">
         <v>233</v>
       </c>
-      <c r="H138" t="s">
+      <c r="I138" t="s">
         <v>234</v>
       </c>
-      <c r="I138" t="s">
+      <c r="J138" t="s">
         <v>235</v>
-      </c>
-      <c r="J138" t="s">
-        <v>236</v>
       </c>
       <c r="K138" t="s">
         <v>26</v>
@@ -8195,45 +8178,45 @@
         <v>49</v>
       </c>
       <c r="N138" t="s">
-        <v>237</v>
-      </c>
-      <c r="O138" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="P138" s="2" t="s">
-        <v>168</v>
+        <v>236</v>
+      </c>
+      <c r="O138">
+        <v>13.4871</v>
+      </c>
+      <c r="P138">
+        <v>1.99867</v>
       </c>
     </row>
     <row r="139" spans="1:16">
       <c r="A139" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B139" t="s">
+        <v>227</v>
+      </c>
+      <c r="C139" t="s">
         <v>228</v>
       </c>
-      <c r="C139" t="s">
+      <c r="D139" t="s">
         <v>229</v>
       </c>
-      <c r="D139" t="s">
+      <c r="E139" t="s">
         <v>230</v>
       </c>
-      <c r="E139" t="s">
+      <c r="F139" t="s">
         <v>231</v>
       </c>
-      <c r="F139" t="s">
+      <c r="G139" t="s">
         <v>232</v>
       </c>
-      <c r="G139" t="s">
+      <c r="H139" t="s">
         <v>233</v>
       </c>
-      <c r="H139" t="s">
+      <c r="I139" t="s">
         <v>234</v>
       </c>
-      <c r="I139" t="s">
+      <c r="J139" t="s">
         <v>235</v>
-      </c>
-      <c r="J139" t="s">
-        <v>236</v>
       </c>
       <c r="K139" t="s">
         <v>26</v>
@@ -8245,45 +8228,45 @@
         <v>51</v>
       </c>
       <c r="N139" t="s">
-        <v>237</v>
-      </c>
-      <c r="O139" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="P139" s="2" t="s">
-        <v>168</v>
+        <v>236</v>
+      </c>
+      <c r="O139">
+        <v>13.0304</v>
+      </c>
+      <c r="P139">
+        <v>1.931</v>
       </c>
     </row>
     <row r="140" spans="1:16">
       <c r="A140" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B140" t="s">
+        <v>227</v>
+      </c>
+      <c r="C140" t="s">
         <v>228</v>
       </c>
-      <c r="C140" t="s">
+      <c r="D140" t="s">
         <v>229</v>
       </c>
-      <c r="D140" t="s">
+      <c r="E140" t="s">
         <v>230</v>
       </c>
-      <c r="E140" t="s">
+      <c r="F140" t="s">
         <v>231</v>
       </c>
-      <c r="F140" t="s">
+      <c r="G140" t="s">
         <v>232</v>
       </c>
-      <c r="G140" t="s">
+      <c r="H140" t="s">
         <v>233</v>
       </c>
-      <c r="H140" t="s">
+      <c r="I140" t="s">
         <v>234</v>
       </c>
-      <c r="I140" t="s">
+      <c r="J140" t="s">
         <v>235</v>
-      </c>
-      <c r="J140" t="s">
-        <v>236</v>
       </c>
       <c r="K140" t="s">
         <v>26</v>
@@ -8295,45 +8278,45 @@
         <v>53</v>
       </c>
       <c r="N140" t="s">
-        <v>237</v>
-      </c>
-      <c r="O140" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="P140" s="2" t="s">
-        <v>168</v>
+        <v>236</v>
+      </c>
+      <c r="O140">
+        <v>12.7128</v>
+      </c>
+      <c r="P140">
+        <v>1.88399</v>
       </c>
     </row>
     <row r="141" spans="1:16">
       <c r="A141" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B141" t="s">
+        <v>227</v>
+      </c>
+      <c r="C141" t="s">
         <v>228</v>
       </c>
-      <c r="C141" t="s">
+      <c r="D141" t="s">
         <v>229</v>
       </c>
-      <c r="D141" t="s">
+      <c r="E141" t="s">
         <v>230</v>
       </c>
-      <c r="E141" t="s">
+      <c r="F141" t="s">
         <v>231</v>
       </c>
-      <c r="F141" t="s">
+      <c r="G141" t="s">
         <v>232</v>
       </c>
-      <c r="G141" t="s">
+      <c r="H141" t="s">
         <v>233</v>
       </c>
-      <c r="H141" t="s">
+      <c r="I141" t="s">
         <v>234</v>
       </c>
-      <c r="I141" t="s">
+      <c r="J141" t="s">
         <v>235</v>
-      </c>
-      <c r="J141" t="s">
-        <v>236</v>
       </c>
       <c r="K141" t="s">
         <v>26</v>
@@ -8345,45 +8328,45 @@
         <v>55</v>
       </c>
       <c r="N141" t="s">
-        <v>237</v>
-      </c>
-      <c r="O141" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="P141" s="2" t="s">
-        <v>168</v>
+        <v>236</v>
+      </c>
+      <c r="O141">
+        <v>12.3596</v>
+      </c>
+      <c r="P141">
+        <v>1.8316</v>
       </c>
     </row>
     <row r="142" spans="1:16">
       <c r="A142" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B142" t="s">
+        <v>227</v>
+      </c>
+      <c r="C142" t="s">
         <v>228</v>
       </c>
-      <c r="C142" t="s">
+      <c r="D142" t="s">
         <v>229</v>
       </c>
-      <c r="D142" t="s">
+      <c r="E142" t="s">
         <v>230</v>
       </c>
-      <c r="E142" t="s">
+      <c r="F142" t="s">
         <v>231</v>
       </c>
-      <c r="F142" t="s">
+      <c r="G142" t="s">
         <v>232</v>
       </c>
-      <c r="G142" t="s">
+      <c r="H142" t="s">
         <v>233</v>
       </c>
-      <c r="H142" t="s">
+      <c r="I142" t="s">
         <v>234</v>
       </c>
-      <c r="I142" t="s">
+      <c r="J142" t="s">
         <v>235</v>
-      </c>
-      <c r="J142" t="s">
-        <v>236</v>
       </c>
       <c r="K142" t="s">
         <v>26</v>
@@ -8395,45 +8378,45 @@
         <v>57</v>
       </c>
       <c r="N142" t="s">
-        <v>237</v>
-      </c>
-      <c r="O142" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="P142" s="2" t="s">
-        <v>168</v>
+        <v>236</v>
+      </c>
+      <c r="O142">
+        <v>11.9892</v>
+      </c>
+      <c r="P142">
+        <v>1.77683</v>
       </c>
     </row>
     <row r="143" spans="1:16">
       <c r="A143" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B143" t="s">
+        <v>227</v>
+      </c>
+      <c r="C143" t="s">
         <v>228</v>
       </c>
-      <c r="C143" t="s">
+      <c r="D143" t="s">
         <v>229</v>
       </c>
-      <c r="D143" t="s">
+      <c r="E143" t="s">
         <v>230</v>
       </c>
-      <c r="E143" t="s">
+      <c r="F143" t="s">
         <v>231</v>
       </c>
-      <c r="F143" t="s">
+      <c r="G143" t="s">
         <v>232</v>
       </c>
-      <c r="G143" t="s">
+      <c r="H143" t="s">
         <v>233</v>
       </c>
-      <c r="H143" t="s">
+      <c r="I143" t="s">
         <v>234</v>
       </c>
-      <c r="I143" t="s">
+      <c r="J143" t="s">
         <v>235</v>
-      </c>
-      <c r="J143" t="s">
-        <v>236</v>
       </c>
       <c r="K143" t="s">
         <v>26</v>
@@ -8445,45 +8428,45 @@
         <v>59</v>
       </c>
       <c r="N143" t="s">
-        <v>237</v>
-      </c>
-      <c r="O143" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="P143" s="2" t="s">
-        <v>168</v>
+        <v>236</v>
+      </c>
+      <c r="O143">
+        <v>11.473</v>
+      </c>
+      <c r="P143">
+        <v>1.70032</v>
       </c>
     </row>
     <row r="144" spans="1:16">
       <c r="A144" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B144" t="s">
+        <v>227</v>
+      </c>
+      <c r="C144" t="s">
         <v>228</v>
       </c>
-      <c r="C144" t="s">
+      <c r="D144" t="s">
         <v>229</v>
       </c>
-      <c r="D144" t="s">
+      <c r="E144" t="s">
         <v>230</v>
       </c>
-      <c r="E144" t="s">
+      <c r="F144" t="s">
         <v>231</v>
       </c>
-      <c r="F144" t="s">
+      <c r="G144" t="s">
         <v>232</v>
       </c>
-      <c r="G144" t="s">
+      <c r="H144" t="s">
         <v>233</v>
       </c>
-      <c r="H144" t="s">
+      <c r="I144" t="s">
         <v>234</v>
       </c>
-      <c r="I144" t="s">
+      <c r="J144" t="s">
         <v>235</v>
-      </c>
-      <c r="J144" t="s">
-        <v>236</v>
       </c>
       <c r="K144" t="s">
         <v>26</v>
@@ -8495,45 +8478,45 @@
         <v>61</v>
       </c>
       <c r="N144" t="s">
-        <v>237</v>
-      </c>
-      <c r="O144" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="P144" s="2" t="s">
-        <v>168</v>
+        <v>236</v>
+      </c>
+      <c r="O144">
+        <v>11.4731</v>
+      </c>
+      <c r="P144">
+        <v>1.70036</v>
       </c>
     </row>
     <row r="145" spans="1:16">
       <c r="A145" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B145" t="s">
+        <v>227</v>
+      </c>
+      <c r="C145" t="s">
         <v>228</v>
       </c>
-      <c r="C145" t="s">
+      <c r="D145" t="s">
         <v>229</v>
       </c>
-      <c r="D145" t="s">
+      <c r="E145" t="s">
         <v>230</v>
       </c>
-      <c r="E145" t="s">
+      <c r="F145" t="s">
         <v>231</v>
       </c>
-      <c r="F145" t="s">
+      <c r="G145" t="s">
         <v>232</v>
       </c>
-      <c r="G145" t="s">
+      <c r="H145" t="s">
         <v>233</v>
       </c>
-      <c r="H145" t="s">
+      <c r="I145" t="s">
         <v>234</v>
       </c>
-      <c r="I145" t="s">
+      <c r="J145" t="s">
         <v>235</v>
-      </c>
-      <c r="J145" t="s">
-        <v>236</v>
       </c>
       <c r="K145" t="s">
         <v>26</v>
@@ -8545,45 +8528,45 @@
         <v>63</v>
       </c>
       <c r="N145" t="s">
-        <v>237</v>
-      </c>
-      <c r="O145" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="P145" s="2" t="s">
-        <v>168</v>
+        <v>236</v>
+      </c>
+      <c r="O145">
+        <v>10.6974</v>
+      </c>
+      <c r="P145">
+        <v>1.58545</v>
       </c>
     </row>
     <row r="146" spans="1:16">
       <c r="A146" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B146" t="s">
+        <v>227</v>
+      </c>
+      <c r="C146" t="s">
         <v>228</v>
       </c>
-      <c r="C146" t="s">
+      <c r="D146" t="s">
         <v>229</v>
       </c>
-      <c r="D146" t="s">
+      <c r="E146" t="s">
         <v>230</v>
       </c>
-      <c r="E146" t="s">
+      <c r="F146" t="s">
         <v>231</v>
       </c>
-      <c r="F146" t="s">
+      <c r="G146" t="s">
         <v>232</v>
       </c>
-      <c r="G146" t="s">
+      <c r="H146" t="s">
         <v>233</v>
       </c>
-      <c r="H146" t="s">
+      <c r="I146" t="s">
         <v>234</v>
       </c>
-      <c r="I146" t="s">
+      <c r="J146" t="s">
         <v>235</v>
-      </c>
-      <c r="J146" t="s">
-        <v>236</v>
       </c>
       <c r="K146" t="s">
         <v>26</v>
@@ -8595,45 +8578,45 @@
         <v>65</v>
       </c>
       <c r="N146" t="s">
-        <v>237</v>
-      </c>
-      <c r="O146" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="P146" s="2" t="s">
-        <v>168</v>
+        <v>236</v>
+      </c>
+      <c r="O146">
+        <v>9.871319999999999</v>
+      </c>
+      <c r="P146">
+        <v>1.46304</v>
       </c>
     </row>
     <row r="147" spans="1:16">
       <c r="A147" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B147" t="s">
+        <v>227</v>
+      </c>
+      <c r="C147" t="s">
         <v>228</v>
       </c>
-      <c r="C147" t="s">
+      <c r="D147" t="s">
         <v>229</v>
       </c>
-      <c r="D147" t="s">
+      <c r="E147" t="s">
         <v>230</v>
       </c>
-      <c r="E147" t="s">
+      <c r="F147" t="s">
         <v>231</v>
       </c>
-      <c r="F147" t="s">
+      <c r="G147" t="s">
         <v>232</v>
       </c>
-      <c r="G147" t="s">
+      <c r="H147" t="s">
         <v>233</v>
       </c>
-      <c r="H147" t="s">
+      <c r="I147" t="s">
         <v>234</v>
       </c>
-      <c r="I147" t="s">
+      <c r="J147" t="s">
         <v>235</v>
-      </c>
-      <c r="J147" t="s">
-        <v>236</v>
       </c>
       <c r="K147" t="s">
         <v>26</v>
@@ -8645,45 +8628,45 @@
         <v>67</v>
       </c>
       <c r="N147" t="s">
-        <v>237</v>
-      </c>
-      <c r="O147" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="P147" s="2" t="s">
-        <v>168</v>
+        <v>236</v>
+      </c>
+      <c r="O147">
+        <v>8.94685</v>
+      </c>
+      <c r="P147">
+        <v>1.32604</v>
       </c>
     </row>
     <row r="148" spans="1:16">
       <c r="A148" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B148" t="s">
+        <v>227</v>
+      </c>
+      <c r="C148" t="s">
         <v>228</v>
       </c>
-      <c r="C148" t="s">
+      <c r="D148" t="s">
         <v>229</v>
       </c>
-      <c r="D148" t="s">
+      <c r="E148" t="s">
         <v>230</v>
       </c>
-      <c r="E148" t="s">
+      <c r="F148" t="s">
         <v>231</v>
       </c>
-      <c r="F148" t="s">
+      <c r="G148" t="s">
         <v>232</v>
       </c>
-      <c r="G148" t="s">
+      <c r="H148" t="s">
         <v>233</v>
       </c>
-      <c r="H148" t="s">
+      <c r="I148" t="s">
         <v>234</v>
       </c>
-      <c r="I148" t="s">
+      <c r="J148" t="s">
         <v>235</v>
-      </c>
-      <c r="J148" t="s">
-        <v>236</v>
       </c>
       <c r="K148" t="s">
         <v>26</v>
@@ -8695,45 +8678,45 @@
         <v>69</v>
       </c>
       <c r="N148" t="s">
-        <v>237</v>
-      </c>
-      <c r="O148" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="P148" s="2" t="s">
-        <v>168</v>
+        <v>236</v>
+      </c>
+      <c r="O148">
+        <v>8.267949999999999</v>
+      </c>
+      <c r="P148">
+        <v>1.23306</v>
       </c>
     </row>
     <row r="149" spans="1:16">
       <c r="A149" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B149" t="s">
+        <v>227</v>
+      </c>
+      <c r="C149" t="s">
         <v>228</v>
       </c>
-      <c r="C149" t="s">
+      <c r="D149" t="s">
         <v>229</v>
       </c>
-      <c r="D149" t="s">
+      <c r="E149" t="s">
         <v>230</v>
       </c>
-      <c r="E149" t="s">
+      <c r="F149" t="s">
         <v>231</v>
       </c>
-      <c r="F149" t="s">
+      <c r="G149" t="s">
         <v>232</v>
       </c>
-      <c r="G149" t="s">
+      <c r="H149" t="s">
         <v>233</v>
       </c>
-      <c r="H149" t="s">
+      <c r="I149" t="s">
         <v>234</v>
       </c>
-      <c r="I149" t="s">
+      <c r="J149" t="s">
         <v>235</v>
-      </c>
-      <c r="J149" t="s">
-        <v>236</v>
       </c>
       <c r="K149" t="s">
         <v>26</v>
@@ -8745,45 +8728,45 @@
         <v>71</v>
       </c>
       <c r="N149" t="s">
-        <v>237</v>
-      </c>
-      <c r="O149" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="P149" s="2" t="s">
-        <v>168</v>
+        <v>236</v>
+      </c>
+      <c r="O149">
+        <v>7.492699999999999</v>
+      </c>
+      <c r="P149">
+        <v>1.11067</v>
       </c>
     </row>
     <row r="150" spans="1:16">
       <c r="A150" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B150" t="s">
+        <v>227</v>
+      </c>
+      <c r="C150" t="s">
         <v>228</v>
       </c>
-      <c r="C150" t="s">
+      <c r="D150" t="s">
         <v>229</v>
       </c>
-      <c r="D150" t="s">
+      <c r="E150" t="s">
         <v>230</v>
       </c>
-      <c r="E150" t="s">
+      <c r="F150" t="s">
         <v>231</v>
       </c>
-      <c r="F150" t="s">
+      <c r="G150" t="s">
         <v>232</v>
       </c>
-      <c r="G150" t="s">
+      <c r="H150" t="s">
         <v>233</v>
       </c>
-      <c r="H150" t="s">
+      <c r="I150" t="s">
         <v>234</v>
       </c>
-      <c r="I150" t="s">
+      <c r="J150" t="s">
         <v>235</v>
-      </c>
-      <c r="J150" t="s">
-        <v>236</v>
       </c>
       <c r="K150" t="s">
         <v>26</v>
@@ -8795,45 +8778,45 @@
         <v>73</v>
       </c>
       <c r="N150" t="s">
-        <v>237</v>
-      </c>
-      <c r="O150" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="P150" s="2" t="s">
-        <v>168</v>
+        <v>236</v>
+      </c>
+      <c r="O150">
+        <v>6.52097</v>
+      </c>
+      <c r="P150">
+        <v>0.972728</v>
       </c>
     </row>
     <row r="151" spans="1:16">
       <c r="A151" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B151" t="s">
+        <v>227</v>
+      </c>
+      <c r="C151" t="s">
         <v>228</v>
       </c>
-      <c r="C151" t="s">
+      <c r="D151" t="s">
         <v>229</v>
       </c>
-      <c r="D151" t="s">
+      <c r="E151" t="s">
         <v>230</v>
       </c>
-      <c r="E151" t="s">
+      <c r="F151" t="s">
         <v>231</v>
       </c>
-      <c r="F151" t="s">
+      <c r="G151" t="s">
         <v>232</v>
       </c>
-      <c r="G151" t="s">
+      <c r="H151" t="s">
         <v>233</v>
       </c>
-      <c r="H151" t="s">
+      <c r="I151" t="s">
         <v>234</v>
       </c>
-      <c r="I151" t="s">
+      <c r="J151" t="s">
         <v>235</v>
-      </c>
-      <c r="J151" t="s">
-        <v>236</v>
       </c>
       <c r="K151" t="s">
         <v>26</v>
@@ -8845,45 +8828,45 @@
         <v>75</v>
       </c>
       <c r="N151" t="s">
-        <v>237</v>
-      </c>
-      <c r="O151" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="P151" s="2" t="s">
-        <v>168</v>
+        <v>236</v>
+      </c>
+      <c r="O151">
+        <v>5.68389</v>
+      </c>
+      <c r="P151">
+        <v>0.842683</v>
       </c>
     </row>
     <row r="152" spans="1:16">
       <c r="A152" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B152" t="s">
+        <v>227</v>
+      </c>
+      <c r="C152" t="s">
         <v>228</v>
       </c>
-      <c r="C152" t="s">
+      <c r="D152" t="s">
         <v>229</v>
       </c>
-      <c r="D152" t="s">
+      <c r="E152" t="s">
         <v>230</v>
       </c>
-      <c r="E152" t="s">
+      <c r="F152" t="s">
         <v>231</v>
       </c>
-      <c r="F152" t="s">
+      <c r="G152" t="s">
         <v>232</v>
       </c>
-      <c r="G152" t="s">
+      <c r="H152" t="s">
         <v>233</v>
       </c>
-      <c r="H152" t="s">
+      <c r="I152" t="s">
         <v>234</v>
       </c>
-      <c r="I152" t="s">
+      <c r="J152" t="s">
         <v>235</v>
-      </c>
-      <c r="J152" t="s">
-        <v>236</v>
       </c>
       <c r="K152" t="s">
         <v>26</v>
@@ -8895,45 +8878,45 @@
         <v>77</v>
       </c>
       <c r="N152" t="s">
-        <v>237</v>
-      </c>
-      <c r="O152" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="P152" s="2" t="s">
-        <v>168</v>
+        <v>236</v>
+      </c>
+      <c r="O152">
+        <v>5.16631</v>
+      </c>
+      <c r="P152">
+        <v>0.765988</v>
       </c>
     </row>
     <row r="153" spans="1:16">
       <c r="A153" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B153" t="s">
+        <v>227</v>
+      </c>
+      <c r="C153" t="s">
         <v>228</v>
       </c>
-      <c r="C153" t="s">
+      <c r="D153" t="s">
         <v>229</v>
       </c>
-      <c r="D153" t="s">
+      <c r="E153" t="s">
         <v>230</v>
       </c>
-      <c r="E153" t="s">
+      <c r="F153" t="s">
         <v>231</v>
       </c>
-      <c r="F153" t="s">
+      <c r="G153" t="s">
         <v>232</v>
       </c>
-      <c r="G153" t="s">
+      <c r="H153" t="s">
         <v>233</v>
       </c>
-      <c r="H153" t="s">
+      <c r="I153" t="s">
         <v>234</v>
       </c>
-      <c r="I153" t="s">
+      <c r="J153" t="s">
         <v>235</v>
-      </c>
-      <c r="J153" t="s">
-        <v>236</v>
       </c>
       <c r="K153" t="s">
         <v>26</v>
@@ -8945,45 +8928,45 @@
         <v>79</v>
       </c>
       <c r="N153" t="s">
-        <v>237</v>
-      </c>
-      <c r="O153" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="P153" s="2" t="s">
-        <v>168</v>
+        <v>236</v>
+      </c>
+      <c r="O153">
+        <v>4.49426</v>
+      </c>
+      <c r="P153">
+        <v>0.666432</v>
       </c>
     </row>
     <row r="154" spans="1:16">
       <c r="A154" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B154" t="s">
+        <v>227</v>
+      </c>
+      <c r="C154" t="s">
         <v>228</v>
       </c>
-      <c r="C154" t="s">
+      <c r="D154" t="s">
         <v>229</v>
       </c>
-      <c r="D154" t="s">
+      <c r="E154" t="s">
         <v>230</v>
       </c>
-      <c r="E154" t="s">
+      <c r="F154" t="s">
         <v>231</v>
       </c>
-      <c r="F154" t="s">
+      <c r="G154" t="s">
         <v>232</v>
       </c>
-      <c r="G154" t="s">
+      <c r="H154" t="s">
         <v>233</v>
       </c>
-      <c r="H154" t="s">
+      <c r="I154" t="s">
         <v>234</v>
       </c>
-      <c r="I154" t="s">
+      <c r="J154" t="s">
         <v>235</v>
-      </c>
-      <c r="J154" t="s">
-        <v>236</v>
       </c>
       <c r="K154" t="s">
         <v>26</v>
@@ -8995,45 +8978,45 @@
         <v>81</v>
       </c>
       <c r="N154" t="s">
-        <v>237</v>
-      </c>
-      <c r="O154" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="P154" s="2" t="s">
-        <v>168</v>
+        <v>236</v>
+      </c>
+      <c r="O154">
+        <v>3.71872</v>
+      </c>
+      <c r="P154">
+        <v>0.551527</v>
       </c>
     </row>
     <row r="155" spans="1:16">
       <c r="A155" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B155" t="s">
+        <v>227</v>
+      </c>
+      <c r="C155" t="s">
         <v>228</v>
       </c>
-      <c r="C155" t="s">
+      <c r="D155" t="s">
         <v>229</v>
       </c>
-      <c r="D155" t="s">
+      <c r="E155" t="s">
         <v>230</v>
       </c>
-      <c r="E155" t="s">
+      <c r="F155" t="s">
         <v>231</v>
       </c>
-      <c r="F155" t="s">
+      <c r="G155" t="s">
         <v>232</v>
       </c>
-      <c r="G155" t="s">
+      <c r="H155" t="s">
         <v>233</v>
       </c>
-      <c r="H155" t="s">
+      <c r="I155" t="s">
         <v>234</v>
       </c>
-      <c r="I155" t="s">
+      <c r="J155" t="s">
         <v>235</v>
-      </c>
-      <c r="J155" t="s">
-        <v>236</v>
       </c>
       <c r="K155" t="s">
         <v>26</v>
@@ -9045,45 +9028,45 @@
         <v>83</v>
       </c>
       <c r="N155" t="s">
-        <v>237</v>
-      </c>
-      <c r="O155" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="P155" s="2" t="s">
-        <v>168</v>
+        <v>236</v>
+      </c>
+      <c r="O155">
+        <v>3.00345</v>
+      </c>
+      <c r="P155">
+        <v>0.445539</v>
       </c>
     </row>
     <row r="156" spans="1:16">
       <c r="A156" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B156" t="s">
+        <v>227</v>
+      </c>
+      <c r="C156" t="s">
         <v>228</v>
       </c>
-      <c r="C156" t="s">
+      <c r="D156" t="s">
         <v>229</v>
       </c>
-      <c r="D156" t="s">
+      <c r="E156" t="s">
         <v>230</v>
       </c>
-      <c r="E156" t="s">
+      <c r="F156" t="s">
         <v>231</v>
       </c>
-      <c r="F156" t="s">
+      <c r="G156" t="s">
         <v>232</v>
       </c>
-      <c r="G156" t="s">
+      <c r="H156" t="s">
         <v>233</v>
       </c>
-      <c r="H156" t="s">
+      <c r="I156" t="s">
         <v>234</v>
       </c>
-      <c r="I156" t="s">
+      <c r="J156" t="s">
         <v>235</v>
-      </c>
-      <c r="J156" t="s">
-        <v>236</v>
       </c>
       <c r="K156" t="s">
         <v>26</v>
@@ -9095,45 +9078,45 @@
         <v>85</v>
       </c>
       <c r="N156" t="s">
-        <v>237</v>
-      </c>
-      <c r="O156" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="P156" s="2" t="s">
-        <v>168</v>
+        <v>236</v>
+      </c>
+      <c r="O156">
+        <v>2.27322</v>
+      </c>
+      <c r="P156">
+        <v>0.337405</v>
       </c>
     </row>
     <row r="157" spans="1:16">
       <c r="A157" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B157" t="s">
+        <v>227</v>
+      </c>
+      <c r="C157" t="s">
         <v>228</v>
       </c>
-      <c r="C157" t="s">
+      <c r="D157" t="s">
         <v>229</v>
       </c>
-      <c r="D157" t="s">
+      <c r="E157" t="s">
         <v>230</v>
       </c>
-      <c r="E157" t="s">
+      <c r="F157" t="s">
         <v>231</v>
       </c>
-      <c r="F157" t="s">
+      <c r="G157" t="s">
         <v>232</v>
       </c>
-      <c r="G157" t="s">
+      <c r="H157" t="s">
         <v>233</v>
       </c>
-      <c r="H157" t="s">
+      <c r="I157" t="s">
         <v>234</v>
       </c>
-      <c r="I157" t="s">
+      <c r="J157" t="s">
         <v>235</v>
-      </c>
-      <c r="J157" t="s">
-        <v>236</v>
       </c>
       <c r="K157" t="s">
         <v>26</v>
@@ -9145,45 +9128,45 @@
         <v>87</v>
       </c>
       <c r="N157" t="s">
-        <v>237</v>
-      </c>
-      <c r="O157" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="P157" s="2" t="s">
-        <v>168</v>
+        <v>236</v>
+      </c>
+      <c r="O157">
+        <v>1.54906</v>
+      </c>
+      <c r="P157">
+        <v>0.237624</v>
       </c>
     </row>
     <row r="158" spans="1:16">
       <c r="A158" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B158" t="s">
+        <v>227</v>
+      </c>
+      <c r="C158" t="s">
         <v>228</v>
       </c>
-      <c r="C158" t="s">
+      <c r="D158" t="s">
         <v>229</v>
       </c>
-      <c r="D158" t="s">
+      <c r="E158" t="s">
         <v>230</v>
       </c>
-      <c r="E158" t="s">
+      <c r="F158" t="s">
         <v>231</v>
       </c>
-      <c r="F158" t="s">
+      <c r="G158" t="s">
         <v>232</v>
       </c>
-      <c r="G158" t="s">
+      <c r="H158" t="s">
         <v>233</v>
       </c>
-      <c r="H158" t="s">
+      <c r="I158" t="s">
         <v>234</v>
       </c>
-      <c r="I158" t="s">
+      <c r="J158" t="s">
         <v>235</v>
-      </c>
-      <c r="J158" t="s">
-        <v>236</v>
       </c>
       <c r="K158" t="s">
         <v>26</v>
@@ -9195,45 +9178,45 @@
         <v>89</v>
       </c>
       <c r="N158" t="s">
-        <v>237</v>
-      </c>
-      <c r="O158" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="P158" s="2" t="s">
-        <v>168</v>
+        <v>236</v>
+      </c>
+      <c r="O158">
+        <v>0.880576</v>
+      </c>
+      <c r="P158">
+        <v>0.131049</v>
       </c>
     </row>
     <row r="159" spans="1:16">
       <c r="A159" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B159" t="s">
+        <v>227</v>
+      </c>
+      <c r="C159" t="s">
         <v>228</v>
       </c>
-      <c r="C159" t="s">
+      <c r="D159" t="s">
         <v>229</v>
       </c>
-      <c r="D159" t="s">
+      <c r="E159" t="s">
         <v>230</v>
       </c>
-      <c r="E159" t="s">
+      <c r="F159" t="s">
         <v>231</v>
       </c>
-      <c r="F159" t="s">
+      <c r="G159" t="s">
         <v>232</v>
       </c>
-      <c r="G159" t="s">
+      <c r="H159" t="s">
         <v>233</v>
       </c>
-      <c r="H159" t="s">
+      <c r="I159" t="s">
         <v>234</v>
       </c>
-      <c r="I159" t="s">
+      <c r="J159" t="s">
         <v>235</v>
-      </c>
-      <c r="J159" t="s">
-        <v>236</v>
       </c>
       <c r="K159" t="s">
         <v>26</v>
@@ -9245,45 +9228,45 @@
         <v>91</v>
       </c>
       <c r="N159" t="s">
-        <v>237</v>
-      </c>
-      <c r="O159" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="P159" s="2" t="s">
-        <v>168</v>
+        <v>236</v>
+      </c>
+      <c r="O159">
+        <v>0.105568</v>
+      </c>
+      <c r="P159">
+        <v>0.0162389</v>
       </c>
     </row>
     <row r="160" spans="1:16">
       <c r="A160" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B160" t="s">
+        <v>227</v>
+      </c>
+      <c r="C160" t="s">
         <v>228</v>
       </c>
-      <c r="C160" t="s">
+      <c r="D160" t="s">
         <v>229</v>
       </c>
-      <c r="D160" t="s">
+      <c r="E160" t="s">
         <v>230</v>
       </c>
-      <c r="E160" t="s">
+      <c r="F160" t="s">
         <v>231</v>
       </c>
-      <c r="F160" t="s">
+      <c r="G160" t="s">
         <v>232</v>
       </c>
-      <c r="G160" t="s">
+      <c r="H160" t="s">
         <v>233</v>
       </c>
-      <c r="H160" t="s">
+      <c r="I160" t="s">
         <v>234</v>
       </c>
-      <c r="I160" t="s">
+      <c r="J160" t="s">
         <v>235</v>
-      </c>
-      <c r="J160" t="s">
-        <v>236</v>
       </c>
       <c r="K160" t="s">
         <v>26</v>
@@ -9295,45 +9278,45 @@
         <v>93</v>
       </c>
       <c r="N160" t="s">
-        <v>237</v>
-      </c>
-      <c r="O160" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="P160" s="2" t="s">
-        <v>168</v>
+        <v>236</v>
+      </c>
+      <c r="O160">
+        <v>-0.6696869999999999</v>
+      </c>
+      <c r="P160">
+        <v>-0.09862269999999999</v>
       </c>
     </row>
     <row r="161" spans="1:16">
       <c r="A161" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B161" t="s">
+        <v>227</v>
+      </c>
+      <c r="C161" t="s">
         <v>228</v>
       </c>
-      <c r="C161" t="s">
+      <c r="D161" t="s">
         <v>229</v>
       </c>
-      <c r="D161" t="s">
+      <c r="E161" t="s">
         <v>230</v>
       </c>
-      <c r="E161" t="s">
+      <c r="F161" t="s">
         <v>231</v>
       </c>
-      <c r="F161" t="s">
+      <c r="G161" t="s">
         <v>232</v>
       </c>
-      <c r="G161" t="s">
+      <c r="H161" t="s">
         <v>233</v>
       </c>
-      <c r="H161" t="s">
+      <c r="I161" t="s">
         <v>234</v>
       </c>
-      <c r="I161" t="s">
+      <c r="J161" t="s">
         <v>235</v>
-      </c>
-      <c r="J161" t="s">
-        <v>236</v>
       </c>
       <c r="K161" t="s">
         <v>26</v>
@@ -9345,45 +9328,45 @@
         <v>95</v>
       </c>
       <c r="N161" t="s">
-        <v>237</v>
-      </c>
-      <c r="O161" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="P161" s="2" t="s">
-        <v>168</v>
+        <v>236</v>
+      </c>
+      <c r="O161">
+        <v>-1.29399</v>
+      </c>
+      <c r="P161">
+        <v>-0.191115</v>
       </c>
     </row>
     <row r="162" spans="1:16">
       <c r="A162" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B162" t="s">
+        <v>227</v>
+      </c>
+      <c r="C162" t="s">
         <v>228</v>
       </c>
-      <c r="C162" t="s">
+      <c r="D162" t="s">
         <v>229</v>
       </c>
-      <c r="D162" t="s">
+      <c r="E162" t="s">
         <v>230</v>
       </c>
-      <c r="E162" t="s">
+      <c r="F162" t="s">
         <v>231</v>
       </c>
-      <c r="F162" t="s">
+      <c r="G162" t="s">
         <v>232</v>
       </c>
-      <c r="G162" t="s">
+      <c r="H162" t="s">
         <v>233</v>
       </c>
-      <c r="H162" t="s">
+      <c r="I162" t="s">
         <v>234</v>
       </c>
-      <c r="I162" t="s">
+      <c r="J162" t="s">
         <v>235</v>
-      </c>
-      <c r="J162" t="s">
-        <v>236</v>
       </c>
       <c r="K162" t="s">
         <v>26</v>
@@ -9395,45 +9378,45 @@
         <v>97</v>
       </c>
       <c r="N162" t="s">
-        <v>237</v>
-      </c>
-      <c r="O162" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="P162" s="2" t="s">
-        <v>168</v>
+        <v>236</v>
+      </c>
+      <c r="O162">
+        <v>-2.06842</v>
+      </c>
+      <c r="P162">
+        <v>-0.30578</v>
       </c>
     </row>
     <row r="163" spans="1:16">
       <c r="A163" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B163" t="s">
+        <v>227</v>
+      </c>
+      <c r="C163" t="s">
         <v>228</v>
       </c>
-      <c r="C163" t="s">
+      <c r="D163" t="s">
         <v>229</v>
       </c>
-      <c r="D163" t="s">
+      <c r="E163" t="s">
         <v>230</v>
       </c>
-      <c r="E163" t="s">
+      <c r="F163" t="s">
         <v>231</v>
       </c>
-      <c r="F163" t="s">
+      <c r="G163" t="s">
         <v>232</v>
       </c>
-      <c r="G163" t="s">
+      <c r="H163" t="s">
         <v>233</v>
       </c>
-      <c r="H163" t="s">
+      <c r="I163" t="s">
         <v>234</v>
       </c>
-      <c r="I163" t="s">
+      <c r="J163" t="s">
         <v>235</v>
-      </c>
-      <c r="J163" t="s">
-        <v>236</v>
       </c>
       <c r="K163" t="s">
         <v>26</v>
@@ -9445,45 +9428,45 @@
         <v>99</v>
       </c>
       <c r="N163" t="s">
-        <v>237</v>
-      </c>
-      <c r="O163" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="P163" s="2" t="s">
-        <v>168</v>
+        <v>236</v>
+      </c>
+      <c r="O163">
+        <v>-2.68915</v>
+      </c>
+      <c r="P163">
+        <v>-0.397767</v>
       </c>
     </row>
     <row r="164" spans="1:16">
       <c r="A164" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B164" t="s">
+        <v>227</v>
+      </c>
+      <c r="C164" t="s">
         <v>228</v>
       </c>
-      <c r="C164" t="s">
+      <c r="D164" t="s">
         <v>229</v>
       </c>
-      <c r="D164" t="s">
+      <c r="E164" t="s">
         <v>230</v>
       </c>
-      <c r="E164" t="s">
+      <c r="F164" t="s">
         <v>231</v>
       </c>
-      <c r="F164" t="s">
+      <c r="G164" t="s">
         <v>232</v>
       </c>
-      <c r="G164" t="s">
+      <c r="H164" t="s">
         <v>233</v>
       </c>
-      <c r="H164" t="s">
+      <c r="I164" t="s">
         <v>234</v>
       </c>
-      <c r="I164" t="s">
+      <c r="J164" t="s">
         <v>235</v>
-      </c>
-      <c r="J164" t="s">
-        <v>236</v>
       </c>
       <c r="K164" t="s">
         <v>26</v>
@@ -9495,45 +9478,45 @@
         <v>101</v>
       </c>
       <c r="N164" t="s">
-        <v>237</v>
-      </c>
-      <c r="O164" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="P164" s="2" t="s">
-        <v>168</v>
+        <v>236</v>
+      </c>
+      <c r="O164">
+        <v>-3.46397</v>
+      </c>
+      <c r="P164">
+        <v>-0.51256</v>
       </c>
     </row>
     <row r="165" spans="1:16">
       <c r="A165" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B165" t="s">
+        <v>227</v>
+      </c>
+      <c r="C165" t="s">
         <v>228</v>
       </c>
-      <c r="C165" t="s">
+      <c r="D165" t="s">
         <v>229</v>
       </c>
-      <c r="D165" t="s">
+      <c r="E165" t="s">
         <v>230</v>
       </c>
-      <c r="E165" t="s">
+      <c r="F165" t="s">
         <v>231</v>
       </c>
-      <c r="F165" t="s">
+      <c r="G165" t="s">
         <v>232</v>
       </c>
-      <c r="G165" t="s">
+      <c r="H165" t="s">
         <v>233</v>
       </c>
-      <c r="H165" t="s">
+      <c r="I165" t="s">
         <v>234</v>
       </c>
-      <c r="I165" t="s">
+      <c r="J165" t="s">
         <v>235</v>
-      </c>
-      <c r="J165" t="s">
-        <v>236</v>
       </c>
       <c r="K165" t="s">
         <v>26</v>
@@ -9545,45 +9528,45 @@
         <v>103</v>
       </c>
       <c r="N165" t="s">
-        <v>237</v>
-      </c>
-      <c r="O165" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="P165" s="2" t="s">
-        <v>168</v>
+        <v>236</v>
+      </c>
+      <c r="O165">
+        <v>-4.1366</v>
+      </c>
+      <c r="P165">
+        <v>-0.612222</v>
       </c>
     </row>
     <row r="166" spans="1:16">
       <c r="A166" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B166" t="s">
+        <v>227</v>
+      </c>
+      <c r="C166" t="s">
         <v>228</v>
       </c>
-      <c r="C166" t="s">
+      <c r="D166" t="s">
         <v>229</v>
       </c>
-      <c r="D166" t="s">
+      <c r="E166" t="s">
         <v>230</v>
       </c>
-      <c r="E166" t="s">
+      <c r="F166" t="s">
         <v>231</v>
       </c>
-      <c r="F166" t="s">
+      <c r="G166" t="s">
         <v>232</v>
       </c>
-      <c r="G166" t="s">
+      <c r="H166" t="s">
         <v>233</v>
       </c>
-      <c r="H166" t="s">
+      <c r="I166" t="s">
         <v>234</v>
       </c>
-      <c r="I166" t="s">
+      <c r="J166" t="s">
         <v>235</v>
-      </c>
-      <c r="J166" t="s">
-        <v>236</v>
       </c>
       <c r="K166" t="s">
         <v>26</v>
@@ -9595,45 +9578,45 @@
         <v>105</v>
       </c>
       <c r="N166" t="s">
-        <v>237</v>
-      </c>
-      <c r="O166" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="P166" s="2" t="s">
-        <v>168</v>
+        <v>236</v>
+      </c>
+      <c r="O166">
+        <v>-4.96299</v>
+      </c>
+      <c r="P166">
+        <v>-0.734626</v>
       </c>
     </row>
     <row r="167" spans="1:16">
       <c r="A167" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B167" t="s">
+        <v>227</v>
+      </c>
+      <c r="C167" t="s">
         <v>228</v>
       </c>
-      <c r="C167" t="s">
+      <c r="D167" t="s">
         <v>229</v>
       </c>
-      <c r="D167" t="s">
+      <c r="E167" t="s">
         <v>230</v>
       </c>
-      <c r="E167" t="s">
+      <c r="F167" t="s">
         <v>231</v>
       </c>
-      <c r="F167" t="s">
+      <c r="G167" t="s">
         <v>232</v>
       </c>
-      <c r="G167" t="s">
+      <c r="H167" t="s">
         <v>233</v>
       </c>
-      <c r="H167" t="s">
+      <c r="I167" t="s">
         <v>234</v>
       </c>
-      <c r="I167" t="s">
+      <c r="J167" t="s">
         <v>235</v>
-      </c>
-      <c r="J167" t="s">
-        <v>236</v>
       </c>
       <c r="K167" t="s">
         <v>26</v>
@@ -9645,45 +9628,45 @@
         <v>107</v>
       </c>
       <c r="N167" t="s">
-        <v>237</v>
-      </c>
-      <c r="O167" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="P167" s="2" t="s">
-        <v>168</v>
+        <v>236</v>
+      </c>
+      <c r="O167">
+        <v>-5.57503</v>
+      </c>
+      <c r="P167">
+        <v>-0.825377</v>
       </c>
     </row>
     <row r="168" spans="1:16">
       <c r="A168" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B168" t="s">
+        <v>227</v>
+      </c>
+      <c r="C168" t="s">
         <v>228</v>
       </c>
-      <c r="C168" t="s">
+      <c r="D168" t="s">
         <v>229</v>
       </c>
-      <c r="D168" t="s">
+      <c r="E168" t="s">
         <v>230</v>
       </c>
-      <c r="E168" t="s">
+      <c r="F168" t="s">
         <v>231</v>
       </c>
-      <c r="F168" t="s">
+      <c r="G168" t="s">
         <v>232</v>
       </c>
-      <c r="G168" t="s">
+      <c r="H168" t="s">
         <v>233</v>
       </c>
-      <c r="H168" t="s">
+      <c r="I168" t="s">
         <v>234</v>
       </c>
-      <c r="I168" t="s">
+      <c r="J168" t="s">
         <v>235</v>
-      </c>
-      <c r="J168" t="s">
-        <v>236</v>
       </c>
       <c r="K168" t="s">
         <v>26</v>
@@ -9695,45 +9678,45 @@
         <v>109</v>
       </c>
       <c r="N168" t="s">
-        <v>237</v>
-      </c>
-      <c r="O168" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="P168" s="2" t="s">
-        <v>168</v>
+        <v>236</v>
+      </c>
+      <c r="O168">
+        <v>-6.40942</v>
+      </c>
+      <c r="P168">
+        <v>-0.9489300000000001</v>
       </c>
     </row>
     <row r="169" spans="1:16">
       <c r="A169" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B169" t="s">
+        <v>227</v>
+      </c>
+      <c r="C169" t="s">
         <v>228</v>
       </c>
-      <c r="C169" t="s">
+      <c r="D169" t="s">
         <v>229</v>
       </c>
-      <c r="D169" t="s">
+      <c r="E169" t="s">
         <v>230</v>
       </c>
-      <c r="E169" t="s">
+      <c r="F169" t="s">
         <v>231</v>
       </c>
-      <c r="F169" t="s">
+      <c r="G169" t="s">
         <v>232</v>
       </c>
-      <c r="G169" t="s">
+      <c r="H169" t="s">
         <v>233</v>
       </c>
-      <c r="H169" t="s">
+      <c r="I169" t="s">
         <v>234</v>
       </c>
-      <c r="I169" t="s">
+      <c r="J169" t="s">
         <v>235</v>
-      </c>
-      <c r="J169" t="s">
-        <v>236</v>
       </c>
       <c r="K169" t="s">
         <v>26</v>
@@ -9745,45 +9728,45 @@
         <v>111</v>
       </c>
       <c r="N169" t="s">
-        <v>237</v>
-      </c>
-      <c r="O169" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="P169" s="2" t="s">
-        <v>168</v>
+        <v>236</v>
+      </c>
+      <c r="O169">
+        <v>-7.08121</v>
+      </c>
+      <c r="P169">
+        <v>-1.04845</v>
       </c>
     </row>
     <row r="170" spans="1:16">
       <c r="A170" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B170" t="s">
+        <v>227</v>
+      </c>
+      <c r="C170" t="s">
         <v>228</v>
       </c>
-      <c r="C170" t="s">
+      <c r="D170" t="s">
         <v>229</v>
       </c>
-      <c r="D170" t="s">
+      <c r="E170" t="s">
         <v>230</v>
       </c>
-      <c r="E170" t="s">
+      <c r="F170" t="s">
         <v>231</v>
       </c>
-      <c r="F170" t="s">
+      <c r="G170" t="s">
         <v>232</v>
       </c>
-      <c r="G170" t="s">
+      <c r="H170" t="s">
         <v>233</v>
       </c>
-      <c r="H170" t="s">
+      <c r="I170" t="s">
         <v>234</v>
       </c>
-      <c r="I170" t="s">
+      <c r="J170" t="s">
         <v>235</v>
-      </c>
-      <c r="J170" t="s">
-        <v>236</v>
       </c>
       <c r="K170" t="s">
         <v>26</v>
@@ -9795,45 +9778,45 @@
         <v>113</v>
       </c>
       <c r="N170" t="s">
-        <v>237</v>
-      </c>
-      <c r="O170" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="P170" s="2" t="s">
-        <v>168</v>
+        <v>236</v>
+      </c>
+      <c r="O170">
+        <v>-7.797169999999999</v>
+      </c>
+      <c r="P170">
+        <v>-1.15459</v>
       </c>
     </row>
     <row r="171" spans="1:16">
       <c r="A171" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B171" t="s">
+        <v>227</v>
+      </c>
+      <c r="C171" t="s">
         <v>228</v>
       </c>
-      <c r="C171" t="s">
+      <c r="D171" t="s">
         <v>229</v>
       </c>
-      <c r="D171" t="s">
+      <c r="E171" t="s">
         <v>230</v>
       </c>
-      <c r="E171" t="s">
+      <c r="F171" t="s">
         <v>231</v>
       </c>
-      <c r="F171" t="s">
+      <c r="G171" t="s">
         <v>232</v>
       </c>
-      <c r="G171" t="s">
+      <c r="H171" t="s">
         <v>233</v>
       </c>
-      <c r="H171" t="s">
+      <c r="I171" t="s">
         <v>234</v>
       </c>
-      <c r="I171" t="s">
+      <c r="J171" t="s">
         <v>235</v>
-      </c>
-      <c r="J171" t="s">
-        <v>236</v>
       </c>
       <c r="K171" t="s">
         <v>26</v>
@@ -9845,45 +9828,45 @@
         <v>115</v>
       </c>
       <c r="N171" t="s">
-        <v>237</v>
-      </c>
-      <c r="O171" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="P171" s="2" t="s">
-        <v>168</v>
+        <v>236</v>
+      </c>
+      <c r="O171">
+        <v>-8.424429999999999</v>
+      </c>
+      <c r="P171">
+        <v>-1.24746</v>
       </c>
     </row>
     <row r="172" spans="1:16">
       <c r="A172" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B172" t="s">
+        <v>227</v>
+      </c>
+      <c r="C172" t="s">
         <v>228</v>
       </c>
-      <c r="C172" t="s">
+      <c r="D172" t="s">
         <v>229</v>
       </c>
-      <c r="D172" t="s">
+      <c r="E172" t="s">
         <v>230</v>
       </c>
-      <c r="E172" t="s">
+      <c r="F172" t="s">
         <v>231</v>
       </c>
-      <c r="F172" t="s">
+      <c r="G172" t="s">
         <v>232</v>
       </c>
-      <c r="G172" t="s">
+      <c r="H172" t="s">
         <v>233</v>
       </c>
-      <c r="H172" t="s">
+      <c r="I172" t="s">
         <v>234</v>
       </c>
-      <c r="I172" t="s">
+      <c r="J172" t="s">
         <v>235</v>
-      </c>
-      <c r="J172" t="s">
-        <v>236</v>
       </c>
       <c r="K172" t="s">
         <v>26</v>
@@ -9895,45 +9878,45 @@
         <v>117</v>
       </c>
       <c r="N172" t="s">
-        <v>237</v>
-      </c>
-      <c r="O172" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="P172" s="2" t="s">
-        <v>168</v>
+        <v>236</v>
+      </c>
+      <c r="O172">
+        <v>-9.140090000000001</v>
+      </c>
+      <c r="P172">
+        <v>-1.35353</v>
       </c>
     </row>
     <row r="173" spans="1:16">
       <c r="A173" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B173" t="s">
+        <v>227</v>
+      </c>
+      <c r="C173" t="s">
         <v>228</v>
       </c>
-      <c r="C173" t="s">
+      <c r="D173" t="s">
         <v>229</v>
       </c>
-      <c r="D173" t="s">
+      <c r="E173" t="s">
         <v>230</v>
       </c>
-      <c r="E173" t="s">
+      <c r="F173" t="s">
         <v>231</v>
       </c>
-      <c r="F173" t="s">
+      <c r="G173" t="s">
         <v>232</v>
       </c>
-      <c r="G173" t="s">
+      <c r="H173" t="s">
         <v>233</v>
       </c>
-      <c r="H173" t="s">
+      <c r="I173" t="s">
         <v>234</v>
       </c>
-      <c r="I173" t="s">
+      <c r="J173" t="s">
         <v>235</v>
-      </c>
-      <c r="J173" t="s">
-        <v>236</v>
       </c>
       <c r="K173" t="s">
         <v>26</v>
@@ -9945,45 +9928,45 @@
         <v>119</v>
       </c>
       <c r="N173" t="s">
-        <v>237</v>
-      </c>
-      <c r="O173" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="P173" s="2" t="s">
-        <v>168</v>
+        <v>236</v>
+      </c>
+      <c r="O173">
+        <v>-9.81143</v>
+      </c>
+      <c r="P173">
+        <v>-1.45299</v>
       </c>
     </row>
     <row r="174" spans="1:16">
       <c r="A174" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B174" t="s">
+        <v>227</v>
+      </c>
+      <c r="C174" t="s">
         <v>228</v>
       </c>
-      <c r="C174" t="s">
+      <c r="D174" t="s">
         <v>229</v>
       </c>
-      <c r="D174" t="s">
+      <c r="E174" t="s">
         <v>230</v>
       </c>
-      <c r="E174" t="s">
+      <c r="F174" t="s">
         <v>231</v>
       </c>
-      <c r="F174" t="s">
+      <c r="G174" t="s">
         <v>232</v>
       </c>
-      <c r="G174" t="s">
+      <c r="H174" t="s">
         <v>233</v>
       </c>
-      <c r="H174" t="s">
+      <c r="I174" t="s">
         <v>234</v>
       </c>
-      <c r="I174" t="s">
+      <c r="J174" t="s">
         <v>235</v>
-      </c>
-      <c r="J174" t="s">
-        <v>236</v>
       </c>
       <c r="K174" t="s">
         <v>26</v>
@@ -9995,45 +9978,45 @@
         <v>121</v>
       </c>
       <c r="N174" t="s">
-        <v>237</v>
-      </c>
-      <c r="O174" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="P174" s="2" t="s">
-        <v>168</v>
+        <v>236</v>
+      </c>
+      <c r="O174">
+        <v>-10.586</v>
+      </c>
+      <c r="P174">
+        <v>-1.56771</v>
       </c>
     </row>
     <row r="175" spans="1:16">
       <c r="A175" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B175" t="s">
+        <v>227</v>
+      </c>
+      <c r="C175" t="s">
         <v>228</v>
       </c>
-      <c r="C175" t="s">
+      <c r="D175" t="s">
         <v>229</v>
       </c>
-      <c r="D175" t="s">
+      <c r="E175" t="s">
         <v>230</v>
       </c>
-      <c r="E175" t="s">
+      <c r="F175" t="s">
         <v>231</v>
       </c>
-      <c r="F175" t="s">
+      <c r="G175" t="s">
         <v>232</v>
       </c>
-      <c r="G175" t="s">
+      <c r="H175" t="s">
         <v>233</v>
       </c>
-      <c r="H175" t="s">
+      <c r="I175" t="s">
         <v>234</v>
       </c>
-      <c r="I175" t="s">
+      <c r="J175" t="s">
         <v>235</v>
-      </c>
-      <c r="J175" t="s">
-        <v>236</v>
       </c>
       <c r="K175" t="s">
         <v>26</v>
@@ -10045,45 +10028,45 @@
         <v>123</v>
       </c>
       <c r="N175" t="s">
-        <v>237</v>
-      </c>
-      <c r="O175" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="P175" s="2" t="s">
-        <v>168</v>
+        <v>236</v>
+      </c>
+      <c r="O175">
+        <v>-10.3881</v>
+      </c>
+      <c r="P175">
+        <v>-1.53836</v>
       </c>
     </row>
     <row r="176" spans="1:16">
       <c r="A176" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B176" t="s">
+        <v>227</v>
+      </c>
+      <c r="C176" t="s">
         <v>228</v>
       </c>
-      <c r="C176" t="s">
+      <c r="D176" t="s">
         <v>229</v>
       </c>
-      <c r="D176" t="s">
+      <c r="E176" t="s">
         <v>230</v>
       </c>
-      <c r="E176" t="s">
+      <c r="F176" t="s">
         <v>231</v>
       </c>
-      <c r="F176" t="s">
+      <c r="G176" t="s">
         <v>232</v>
       </c>
-      <c r="G176" t="s">
+      <c r="H176" t="s">
         <v>233</v>
       </c>
-      <c r="H176" t="s">
+      <c r="I176" t="s">
         <v>234</v>
       </c>
-      <c r="I176" t="s">
+      <c r="J176" t="s">
         <v>235</v>
-      </c>
-      <c r="J176" t="s">
-        <v>236</v>
       </c>
       <c r="K176" t="s">
         <v>26</v>
@@ -10095,45 +10078,45 @@
         <v>125</v>
       </c>
       <c r="N176" t="s">
-        <v>237</v>
-      </c>
-      <c r="O176" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="P176" s="2" t="s">
-        <v>168</v>
+        <v>236</v>
+      </c>
+      <c r="O176">
+        <v>-10.8461</v>
+      </c>
+      <c r="P176">
+        <v>-1.60615</v>
       </c>
     </row>
     <row r="177" spans="1:16">
       <c r="A177" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B177" t="s">
+        <v>227</v>
+      </c>
+      <c r="C177" t="s">
         <v>228</v>
       </c>
-      <c r="C177" t="s">
+      <c r="D177" t="s">
         <v>229</v>
       </c>
-      <c r="D177" t="s">
+      <c r="E177" t="s">
         <v>230</v>
       </c>
-      <c r="E177" t="s">
+      <c r="F177" t="s">
         <v>231</v>
       </c>
-      <c r="F177" t="s">
+      <c r="G177" t="s">
         <v>232</v>
       </c>
-      <c r="G177" t="s">
+      <c r="H177" t="s">
         <v>233</v>
       </c>
-      <c r="H177" t="s">
+      <c r="I177" t="s">
         <v>234</v>
       </c>
-      <c r="I177" t="s">
+      <c r="J177" t="s">
         <v>235</v>
-      </c>
-      <c r="J177" t="s">
-        <v>236</v>
       </c>
       <c r="K177" t="s">
         <v>26</v>
@@ -10145,45 +10128,45 @@
         <v>127</v>
       </c>
       <c r="N177" t="s">
-        <v>237</v>
-      </c>
-      <c r="O177" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="P177" s="2" t="s">
-        <v>168</v>
+        <v>236</v>
+      </c>
+      <c r="O177">
+        <v>-11.2146</v>
+      </c>
+      <c r="P177">
+        <v>-1.66078</v>
       </c>
     </row>
     <row r="178" spans="1:16">
       <c r="A178" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B178" t="s">
+        <v>227</v>
+      </c>
+      <c r="C178" t="s">
         <v>228</v>
       </c>
-      <c r="C178" t="s">
+      <c r="D178" t="s">
         <v>229</v>
       </c>
-      <c r="D178" t="s">
+      <c r="E178" t="s">
         <v>230</v>
       </c>
-      <c r="E178" t="s">
+      <c r="F178" t="s">
         <v>231</v>
       </c>
-      <c r="F178" t="s">
+      <c r="G178" t="s">
         <v>232</v>
       </c>
-      <c r="G178" t="s">
+      <c r="H178" t="s">
         <v>233</v>
       </c>
-      <c r="H178" t="s">
+      <c r="I178" t="s">
         <v>234</v>
       </c>
-      <c r="I178" t="s">
+      <c r="J178" t="s">
         <v>235</v>
-      </c>
-      <c r="J178" t="s">
-        <v>236</v>
       </c>
       <c r="K178" t="s">
         <v>26</v>
@@ -10195,45 +10178,45 @@
         <v>129</v>
       </c>
       <c r="N178" t="s">
-        <v>237</v>
-      </c>
-      <c r="O178" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="P178" s="2" t="s">
-        <v>168</v>
+        <v>236</v>
+      </c>
+      <c r="O178">
+        <v>-11.7301</v>
+      </c>
+      <c r="P178">
+        <v>-1.72975</v>
       </c>
     </row>
     <row r="179" spans="1:16">
       <c r="A179" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B179" t="s">
+        <v>227</v>
+      </c>
+      <c r="C179" t="s">
         <v>228</v>
       </c>
-      <c r="C179" t="s">
+      <c r="D179" t="s">
         <v>229</v>
       </c>
-      <c r="D179" t="s">
+      <c r="E179" t="s">
         <v>230</v>
       </c>
-      <c r="E179" t="s">
+      <c r="F179" t="s">
         <v>231</v>
       </c>
-      <c r="F179" t="s">
+      <c r="G179" t="s">
         <v>232</v>
       </c>
-      <c r="G179" t="s">
+      <c r="H179" t="s">
         <v>233</v>
       </c>
-      <c r="H179" t="s">
+      <c r="I179" t="s">
         <v>234</v>
       </c>
-      <c r="I179" t="s">
+      <c r="J179" t="s">
         <v>235</v>
-      </c>
-      <c r="J179" t="s">
-        <v>236</v>
       </c>
       <c r="K179" t="s">
         <v>26</v>
@@ -10245,45 +10228,45 @@
         <v>131</v>
       </c>
       <c r="N179" t="s">
-        <v>237</v>
-      </c>
-      <c r="O179" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="P179" s="2" t="s">
-        <v>168</v>
+        <v>236</v>
+      </c>
+      <c r="O179">
+        <v>-11.983</v>
+      </c>
+      <c r="P179">
+        <v>-1.77469</v>
       </c>
     </row>
     <row r="180" spans="1:16">
       <c r="A180" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B180" t="s">
+        <v>227</v>
+      </c>
+      <c r="C180" t="s">
         <v>228</v>
       </c>
-      <c r="C180" t="s">
+      <c r="D180" t="s">
         <v>229</v>
       </c>
-      <c r="D180" t="s">
+      <c r="E180" t="s">
         <v>230</v>
       </c>
-      <c r="E180" t="s">
+      <c r="F180" t="s">
         <v>231</v>
       </c>
-      <c r="F180" t="s">
+      <c r="G180" t="s">
         <v>232</v>
       </c>
-      <c r="G180" t="s">
+      <c r="H180" t="s">
         <v>233</v>
       </c>
-      <c r="H180" t="s">
+      <c r="I180" t="s">
         <v>234</v>
       </c>
-      <c r="I180" t="s">
+      <c r="J180" t="s">
         <v>235</v>
-      </c>
-      <c r="J180" t="s">
-        <v>236</v>
       </c>
       <c r="K180" t="s">
         <v>26</v>
@@ -10295,45 +10278,45 @@
         <v>133</v>
       </c>
       <c r="N180" t="s">
-        <v>237</v>
-      </c>
-      <c r="O180" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="P180" s="2" t="s">
-        <v>168</v>
+        <v>236</v>
+      </c>
+      <c r="O180">
+        <v>-12.4551</v>
+      </c>
+      <c r="P180">
+        <v>-1.84458</v>
       </c>
     </row>
     <row r="181" spans="1:16">
       <c r="A181" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B181" t="s">
+        <v>227</v>
+      </c>
+      <c r="C181" t="s">
         <v>228</v>
       </c>
-      <c r="C181" t="s">
+      <c r="D181" t="s">
         <v>229</v>
       </c>
-      <c r="D181" t="s">
+      <c r="E181" t="s">
         <v>230</v>
       </c>
-      <c r="E181" t="s">
+      <c r="F181" t="s">
         <v>231</v>
       </c>
-      <c r="F181" t="s">
+      <c r="G181" t="s">
         <v>232</v>
       </c>
-      <c r="G181" t="s">
+      <c r="H181" t="s">
         <v>233</v>
       </c>
-      <c r="H181" t="s">
+      <c r="I181" t="s">
         <v>234</v>
       </c>
-      <c r="I181" t="s">
+      <c r="J181" t="s">
         <v>235</v>
-      </c>
-      <c r="J181" t="s">
-        <v>236</v>
       </c>
       <c r="K181" t="s">
         <v>26</v>
@@ -10345,45 +10328,45 @@
         <v>135</v>
       </c>
       <c r="N181" t="s">
-        <v>237</v>
-      </c>
-      <c r="O181" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="P181" s="2" t="s">
-        <v>168</v>
+        <v>236</v>
+      </c>
+      <c r="O181">
+        <v>-12.7655</v>
+      </c>
+      <c r="P181">
+        <v>-1.89058</v>
       </c>
     </row>
     <row r="182" spans="1:16">
       <c r="A182" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B182" t="s">
+        <v>227</v>
+      </c>
+      <c r="C182" t="s">
         <v>228</v>
       </c>
-      <c r="C182" t="s">
+      <c r="D182" t="s">
         <v>229</v>
       </c>
-      <c r="D182" t="s">
+      <c r="E182" t="s">
         <v>230</v>
       </c>
-      <c r="E182" t="s">
+      <c r="F182" t="s">
         <v>231</v>
       </c>
-      <c r="F182" t="s">
+      <c r="G182" t="s">
         <v>232</v>
       </c>
-      <c r="G182" t="s">
+      <c r="H182" t="s">
         <v>233</v>
       </c>
-      <c r="H182" t="s">
+      <c r="I182" t="s">
         <v>234</v>
       </c>
-      <c r="I182" t="s">
+      <c r="J182" t="s">
         <v>235</v>
-      </c>
-      <c r="J182" t="s">
-        <v>236</v>
       </c>
       <c r="K182" t="s">
         <v>26</v>
@@ -10395,45 +10378,45 @@
         <v>137</v>
       </c>
       <c r="N182" t="s">
-        <v>237</v>
-      </c>
-      <c r="O182" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="P182" s="2" t="s">
-        <v>168</v>
+        <v>236</v>
+      </c>
+      <c r="O182">
+        <v>-13.0759</v>
+      </c>
+      <c r="P182">
+        <v>-1.93654</v>
       </c>
     </row>
     <row r="183" spans="1:16">
       <c r="A183" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B183" t="s">
+        <v>227</v>
+      </c>
+      <c r="C183" t="s">
         <v>228</v>
       </c>
-      <c r="C183" t="s">
+      <c r="D183" t="s">
         <v>229</v>
       </c>
-      <c r="D183" t="s">
+      <c r="E183" t="s">
         <v>230</v>
       </c>
-      <c r="E183" t="s">
+      <c r="F183" t="s">
         <v>231</v>
       </c>
-      <c r="F183" t="s">
+      <c r="G183" t="s">
         <v>232</v>
       </c>
-      <c r="G183" t="s">
+      <c r="H183" t="s">
         <v>233</v>
       </c>
-      <c r="H183" t="s">
+      <c r="I183" t="s">
         <v>234</v>
       </c>
-      <c r="I183" t="s">
+      <c r="J183" t="s">
         <v>235</v>
-      </c>
-      <c r="J183" t="s">
-        <v>236</v>
       </c>
       <c r="K183" t="s">
         <v>26</v>
@@ -10445,45 +10428,45 @@
         <v>139</v>
       </c>
       <c r="N183" t="s">
-        <v>237</v>
-      </c>
-      <c r="O183" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="P183" s="2" t="s">
-        <v>168</v>
+        <v>236</v>
+      </c>
+      <c r="O183">
+        <v>-14.368</v>
+      </c>
+      <c r="P183">
+        <v>-2.12794</v>
       </c>
     </row>
     <row r="184" spans="1:16">
       <c r="A184" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B184" t="s">
+        <v>227</v>
+      </c>
+      <c r="C184" t="s">
         <v>228</v>
       </c>
-      <c r="C184" t="s">
+      <c r="D184" t="s">
         <v>229</v>
       </c>
-      <c r="D184" t="s">
+      <c r="E184" t="s">
         <v>230</v>
       </c>
-      <c r="E184" t="s">
+      <c r="F184" t="s">
         <v>231</v>
       </c>
-      <c r="F184" t="s">
+      <c r="G184" t="s">
         <v>232</v>
       </c>
-      <c r="G184" t="s">
+      <c r="H184" t="s">
         <v>233</v>
       </c>
-      <c r="H184" t="s">
+      <c r="I184" t="s">
         <v>234</v>
       </c>
-      <c r="I184" t="s">
+      <c r="J184" t="s">
         <v>235</v>
-      </c>
-      <c r="J184" t="s">
-        <v>236</v>
       </c>
       <c r="K184" t="s">
         <v>26</v>
@@ -10495,45 +10478,45 @@
         <v>24</v>
       </c>
       <c r="N184" t="s">
-        <v>237</v>
-      </c>
-      <c r="O184" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="P184" s="2" t="s">
-        <v>168</v>
+        <v>236</v>
+      </c>
+      <c r="O184">
+        <v>-14.6197</v>
+      </c>
+      <c r="P184">
+        <v>-2.1653</v>
       </c>
     </row>
     <row r="185" spans="1:16">
       <c r="A185" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B185" t="s">
+        <v>227</v>
+      </c>
+      <c r="C185" t="s">
         <v>228</v>
       </c>
-      <c r="C185" t="s">
+      <c r="D185" t="s">
         <v>229</v>
       </c>
-      <c r="D185" t="s">
+      <c r="E185" t="s">
         <v>230</v>
       </c>
-      <c r="E185" t="s">
+      <c r="F185" t="s">
         <v>231</v>
       </c>
-      <c r="F185" t="s">
+      <c r="G185" t="s">
         <v>232</v>
       </c>
-      <c r="G185" t="s">
+      <c r="H185" t="s">
         <v>233</v>
       </c>
-      <c r="H185" t="s">
+      <c r="I185" t="s">
         <v>234</v>
       </c>
-      <c r="I185" t="s">
+      <c r="J185" t="s">
         <v>235</v>
-      </c>
-      <c r="J185" t="s">
-        <v>236</v>
       </c>
       <c r="K185" t="s">
         <v>26</v>
@@ -10545,45 +10528,45 @@
         <v>142</v>
       </c>
       <c r="N185" t="s">
-        <v>237</v>
-      </c>
-      <c r="O185" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="P185" s="2" t="s">
-        <v>168</v>
+        <v>236</v>
+      </c>
+      <c r="O185">
+        <v>-15.0398</v>
+      </c>
+      <c r="P185">
+        <v>-2.22748</v>
       </c>
     </row>
     <row r="186" spans="1:16">
       <c r="A186" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B186" t="s">
+        <v>227</v>
+      </c>
+      <c r="C186" t="s">
         <v>228</v>
       </c>
-      <c r="C186" t="s">
+      <c r="D186" t="s">
         <v>229</v>
       </c>
-      <c r="D186" t="s">
+      <c r="E186" t="s">
         <v>230</v>
       </c>
-      <c r="E186" t="s">
+      <c r="F186" t="s">
         <v>231</v>
       </c>
-      <c r="F186" t="s">
+      <c r="G186" t="s">
         <v>232</v>
       </c>
-      <c r="G186" t="s">
+      <c r="H186" t="s">
         <v>233</v>
       </c>
-      <c r="H186" t="s">
+      <c r="I186" t="s">
         <v>234</v>
       </c>
-      <c r="I186" t="s">
+      <c r="J186" t="s">
         <v>235</v>
-      </c>
-      <c r="J186" t="s">
-        <v>236</v>
       </c>
       <c r="K186" t="s">
         <v>26</v>
@@ -10595,45 +10578,45 @@
         <v>144</v>
       </c>
       <c r="N186" t="s">
-        <v>237</v>
-      </c>
-      <c r="O186" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="P186" s="2" t="s">
-        <v>168</v>
+        <v>236</v>
+      </c>
+      <c r="O186">
+        <v>-15.5049</v>
+      </c>
+      <c r="P186">
+        <v>-2.29639</v>
       </c>
     </row>
     <row r="187" spans="1:16">
       <c r="A187" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B187" t="s">
+        <v>227</v>
+      </c>
+      <c r="C187" t="s">
         <v>228</v>
       </c>
-      <c r="C187" t="s">
+      <c r="D187" t="s">
         <v>229</v>
       </c>
-      <c r="D187" t="s">
+      <c r="E187" t="s">
         <v>230</v>
       </c>
-      <c r="E187" t="s">
+      <c r="F187" t="s">
         <v>231</v>
       </c>
-      <c r="F187" t="s">
+      <c r="G187" t="s">
         <v>232</v>
       </c>
-      <c r="G187" t="s">
+      <c r="H187" t="s">
         <v>233</v>
       </c>
-      <c r="H187" t="s">
+      <c r="I187" t="s">
         <v>234</v>
       </c>
-      <c r="I187" t="s">
+      <c r="J187" t="s">
         <v>235</v>
-      </c>
-      <c r="J187" t="s">
-        <v>236</v>
       </c>
       <c r="K187" t="s">
         <v>26</v>
@@ -10645,45 +10628,45 @@
         <v>146</v>
       </c>
       <c r="N187" t="s">
-        <v>237</v>
-      </c>
-      <c r="O187" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="P187" s="2" t="s">
-        <v>168</v>
+        <v>236</v>
+      </c>
+      <c r="O187">
+        <v>-15.8153</v>
+      </c>
+      <c r="P187">
+        <v>-2.34234</v>
       </c>
     </row>
     <row r="188" spans="1:16">
       <c r="A188" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B188" t="s">
+        <v>227</v>
+      </c>
+      <c r="C188" t="s">
         <v>228</v>
       </c>
-      <c r="C188" t="s">
+      <c r="D188" t="s">
         <v>229</v>
       </c>
-      <c r="D188" t="s">
+      <c r="E188" t="s">
         <v>230</v>
       </c>
-      <c r="E188" t="s">
+      <c r="F188" t="s">
         <v>231</v>
       </c>
-      <c r="F188" t="s">
+      <c r="G188" t="s">
         <v>232</v>
       </c>
-      <c r="G188" t="s">
+      <c r="H188" t="s">
         <v>233</v>
       </c>
-      <c r="H188" t="s">
+      <c r="I188" t="s">
         <v>234</v>
       </c>
-      <c r="I188" t="s">
+      <c r="J188" t="s">
         <v>235</v>
-      </c>
-      <c r="J188" t="s">
-        <v>236</v>
       </c>
       <c r="K188" t="s">
         <v>26</v>
@@ -10695,45 +10678,45 @@
         <v>148</v>
       </c>
       <c r="N188" t="s">
-        <v>237</v>
-      </c>
-      <c r="O188" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="P188" s="2" t="s">
-        <v>168</v>
+        <v>236</v>
+      </c>
+      <c r="O188">
+        <v>-16.2288</v>
+      </c>
+      <c r="P188">
+        <v>-2.4036</v>
       </c>
     </row>
     <row r="189" spans="1:16">
       <c r="A189" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B189" t="s">
+        <v>227</v>
+      </c>
+      <c r="C189" t="s">
         <v>228</v>
       </c>
-      <c r="C189" t="s">
+      <c r="D189" t="s">
         <v>229</v>
       </c>
-      <c r="D189" t="s">
+      <c r="E189" t="s">
         <v>230</v>
       </c>
-      <c r="E189" t="s">
+      <c r="F189" t="s">
         <v>231</v>
       </c>
-      <c r="F189" t="s">
+      <c r="G189" t="s">
         <v>232</v>
       </c>
-      <c r="G189" t="s">
+      <c r="H189" t="s">
         <v>233</v>
       </c>
-      <c r="H189" t="s">
+      <c r="I189" t="s">
         <v>234</v>
       </c>
-      <c r="I189" t="s">
+      <c r="J189" t="s">
         <v>235</v>
-      </c>
-      <c r="J189" t="s">
-        <v>236</v>
       </c>
       <c r="K189" t="s">
         <v>26</v>
@@ -10745,45 +10728,45 @@
         <v>150</v>
       </c>
       <c r="N189" t="s">
-        <v>237</v>
-      </c>
-      <c r="O189" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="P189" s="2" t="s">
-        <v>168</v>
+        <v>236</v>
+      </c>
+      <c r="O189">
+        <v>-16.6929</v>
+      </c>
+      <c r="P189">
+        <v>-2.46489</v>
       </c>
     </row>
     <row r="190" spans="1:16">
       <c r="A190" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B190" t="s">
+        <v>227</v>
+      </c>
+      <c r="C190" t="s">
         <v>228</v>
       </c>
-      <c r="C190" t="s">
+      <c r="D190" t="s">
         <v>229</v>
       </c>
-      <c r="D190" t="s">
+      <c r="E190" t="s">
         <v>230</v>
       </c>
-      <c r="E190" t="s">
+      <c r="F190" t="s">
         <v>231</v>
       </c>
-      <c r="F190" t="s">
+      <c r="G190" t="s">
         <v>232</v>
       </c>
-      <c r="G190" t="s">
+      <c r="H190" t="s">
         <v>233</v>
       </c>
-      <c r="H190" t="s">
+      <c r="I190" t="s">
         <v>234</v>
       </c>
-      <c r="I190" t="s">
+      <c r="J190" t="s">
         <v>235</v>
-      </c>
-      <c r="J190" t="s">
-        <v>236</v>
       </c>
       <c r="K190" t="s">
         <v>26</v>
@@ -10795,13 +10778,13 @@
         <v>152</v>
       </c>
       <c r="N190" t="s">
-        <v>237</v>
-      </c>
-      <c r="O190" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="P190" s="2" t="s">
-        <v>168</v>
+        <v>236</v>
+      </c>
+      <c r="O190">
+        <v>-17.1067</v>
+      </c>
+      <c r="P190">
+        <v>-2.53373</v>
       </c>
     </row>
     <row r="191" spans="1:16" s="1" customFormat="1">
@@ -10856,18 +10839,18 @@
     </row>
     <row r="192" spans="1:16" s="1" customFormat="1">
       <c r="N192" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="O192" s="1">
-        <v>-22.7952</v>
+        <v>-31.836</v>
       </c>
       <c r="P192" s="1">
-        <v>-3.03907</v>
+        <v>-3.85871</v>
       </c>
     </row>
     <row r="193" spans="14:16" s="1" customFormat="1">
       <c r="N193" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="O193" s="1">
         <v>31.6365</v>
@@ -10878,7 +10861,7 @@
     </row>
     <row r="194" spans="14:16" s="1" customFormat="1">
       <c r="N194" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="O194" s="1">
         <v>35</v>
@@ -10886,7 +10869,7 @@
     </row>
     <row r="195" spans="14:16" s="1" customFormat="1">
       <c r="N195" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="O195" s="1">
         <v>-35</v>
@@ -10894,7 +10877,7 @@
     </row>
     <row r="196" spans="14:16" s="1" customFormat="1">
       <c r="N196" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O196" s="1">
         <v>35</v>
@@ -10902,7 +10885,7 @@
     </row>
     <row r="197" spans="14:16" s="1" customFormat="1">
       <c r="N197" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="O197" s="1">
         <v>-35</v>
@@ -10910,35 +10893,35 @@
     </row>
     <row r="198" spans="14:16" s="1" customFormat="1">
       <c r="N198" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="O198" s="1">
-        <v>3.976408853191491</v>
+        <v>0.1313493608465611</v>
       </c>
       <c r="P198" s="1">
-        <v>0.4830369943617021</v>
+        <v>0.02014019931216917</v>
       </c>
     </row>
     <row r="199" spans="14:16" s="1" customFormat="1">
       <c r="N199" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="O199" s="1">
-        <v>14.45724791455408</v>
+        <v>15.25037532639279</v>
       </c>
       <c r="P199" s="1">
-        <v>1.863059119206245</v>
+        <v>1.980348914042597</v>
       </c>
     </row>
     <row r="200" spans="14:16" s="1" customFormat="1">
       <c r="N200" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="O200" s="1">
-        <v>363.5754885454146</v>
+        <v>11610.54399359269</v>
       </c>
       <c r="P200" s="1">
-        <v>385.6969840722326</v>
+        <v>9832.816862174872</v>
       </c>
     </row>
     <row r="201" spans="14:16" s="1" customFormat="1"/>

--- a/dcd_top_offset_step_tsmc2p_meas.xlsx
+++ b/dcd_top_offset_step_tsmc2p_meas.xlsx
@@ -1381,10 +1381,10 @@
         <v>29</v>
       </c>
       <c r="O2">
-        <v>23.0107</v>
+        <v>19.9122</v>
       </c>
       <c r="P2">
-        <v>3.06838</v>
+        <v>2.65527</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1431,10 +1431,10 @@
         <v>29</v>
       </c>
       <c r="O3">
-        <v>22.3395</v>
+        <v>19.4478</v>
       </c>
       <c r="P3">
-        <v>2.97886</v>
+        <v>2.59333</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1481,10 +1481,10 @@
         <v>29</v>
       </c>
       <c r="O4">
-        <v>21.6681</v>
+        <v>19.0347</v>
       </c>
       <c r="P4">
-        <v>2.88937</v>
+        <v>2.53826</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1531,10 +1531,10 @@
         <v>29</v>
       </c>
       <c r="O5">
-        <v>21.0484</v>
+        <v>18.5696</v>
       </c>
       <c r="P5">
-        <v>2.80674</v>
+        <v>2.47624</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1581,10 +1581,10 @@
         <v>29</v>
       </c>
       <c r="O6">
-        <v>20.4286</v>
+        <v>18.1562</v>
       </c>
       <c r="P6">
-        <v>2.72412</v>
+        <v>2.42113</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1631,10 +1631,10 @@
         <v>29</v>
       </c>
       <c r="O7">
-        <v>19.809</v>
+        <v>17.5885</v>
       </c>
       <c r="P7">
-        <v>2.64151</v>
+        <v>2.34543</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1681,10 +1681,10 @@
         <v>29</v>
       </c>
       <c r="O8">
-        <v>19.1894</v>
+        <v>17.1757</v>
       </c>
       <c r="P8">
-        <v>2.55888</v>
+        <v>2.29038</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1731,10 +1731,10 @@
         <v>29</v>
       </c>
       <c r="O9">
-        <v>18.5184</v>
+        <v>16.6075</v>
       </c>
       <c r="P9">
-        <v>2.46941</v>
+        <v>2.21462</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1781,10 +1781,10 @@
         <v>29</v>
       </c>
       <c r="O10">
-        <v>16.8138</v>
+        <v>15.7295</v>
       </c>
       <c r="P10">
-        <v>2.24213</v>
+        <v>2.09756</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1831,10 +1831,10 @@
         <v>29</v>
       </c>
       <c r="O11">
-        <v>16.1429</v>
+        <v>15.3164</v>
       </c>
       <c r="P11">
-        <v>2.15268</v>
+        <v>2.04248</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1881,10 +1881,10 @@
         <v>29</v>
       </c>
       <c r="O12">
-        <v>15.5746</v>
+        <v>14.9546</v>
       </c>
       <c r="P12">
-        <v>2.0769</v>
+        <v>1.99423</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1931,10 +1931,10 @@
         <v>29</v>
       </c>
       <c r="O13">
-        <v>15.0067</v>
+        <v>14.4382</v>
       </c>
       <c r="P13">
-        <v>2.00119</v>
+        <v>1.9254</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1981,10 +1981,10 @@
         <v>29</v>
       </c>
       <c r="O14">
-        <v>14.5416</v>
+        <v>14.1285</v>
       </c>
       <c r="P14">
-        <v>1.93917</v>
+        <v>1.88409</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -2031,10 +2031,10 @@
         <v>29</v>
       </c>
       <c r="O15">
-        <v>13.9735</v>
+        <v>13.7153</v>
       </c>
       <c r="P15">
-        <v>1.86342</v>
+        <v>1.829</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -2081,10 +2081,10 @@
         <v>29</v>
       </c>
       <c r="O16">
-        <v>13.4053</v>
+        <v>13.3021</v>
       </c>
       <c r="P16">
-        <v>1.78767</v>
+        <v>1.77391</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -2231,7 +2231,7 @@
         <v>29</v>
       </c>
       <c r="O19">
-        <v>12.0632</v>
+        <v>12.0631</v>
       </c>
       <c r="P19">
         <v>1.60872</v>
@@ -2331,10 +2331,10 @@
         <v>29</v>
       </c>
       <c r="O21">
-        <v>10.4104</v>
+        <v>10.4098</v>
       </c>
       <c r="P21">
-        <v>1.38835</v>
+        <v>1.38825</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -2431,10 +2431,10 @@
         <v>29</v>
       </c>
       <c r="O23">
-        <v>8.70607</v>
+        <v>8.75728</v>
       </c>
       <c r="P23">
-        <v>1.1611</v>
+        <v>1.16791</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -2584,7 +2584,7 @@
         <v>6.22702</v>
       </c>
       <c r="P26">
-        <v>0.8305630000000001</v>
+        <v>0.830562</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -3181,10 +3181,10 @@
         <v>29</v>
       </c>
       <c r="O38">
-        <v>-4.359789999999999</v>
+        <v>-4.359599999999999</v>
       </c>
       <c r="P38">
-        <v>-0.581018</v>
+        <v>-0.580992</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -3281,10 +3281,10 @@
         <v>29</v>
       </c>
       <c r="O40">
-        <v>-6.11525</v>
+        <v>-6.06384</v>
       </c>
       <c r="P40">
-        <v>-0.8150849999999999</v>
+        <v>-0.808217</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -3331,10 +3331,10 @@
         <v>29</v>
       </c>
       <c r="O41">
-        <v>-6.88894</v>
+        <v>-6.889799999999999</v>
       </c>
       <c r="P41">
-        <v>-0.918223</v>
+        <v>-0.918342</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -3381,10 +3381,10 @@
         <v>29</v>
       </c>
       <c r="O42">
-        <v>-7.767569999999999</v>
+        <v>-7.81913</v>
       </c>
       <c r="P42">
-        <v>-1.03537</v>
+        <v>-1.04226</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -3431,10 +3431,10 @@
         <v>29</v>
       </c>
       <c r="O43">
-        <v>-8.59357</v>
+        <v>-8.5936</v>
       </c>
       <c r="P43">
-        <v>-1.1455</v>
+        <v>-1.14552</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -3581,7 +3581,7 @@
         <v>29</v>
       </c>
       <c r="O46">
-        <v>-11.2269</v>
+        <v>-11.227</v>
       </c>
       <c r="P46">
         <v>-1.49664</v>
@@ -3631,10 +3631,10 @@
         <v>29</v>
       </c>
       <c r="O47">
-        <v>-12.0532</v>
+        <v>-12.0019</v>
       </c>
       <c r="P47">
-        <v>-1.6068</v>
+        <v>-1.59995</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -3681,10 +3681,10 @@
         <v>29</v>
       </c>
       <c r="O48">
-        <v>-12.8801</v>
+        <v>-12.8285</v>
       </c>
       <c r="P48">
-        <v>-1.71706</v>
+        <v>-1.71018</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -3731,10 +3731,10 @@
         <v>29</v>
       </c>
       <c r="O49">
-        <v>-12.8285</v>
+        <v>-12.8799</v>
       </c>
       <c r="P49">
-        <v>-1.71018</v>
+        <v>-1.71703</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -3781,10 +3781,10 @@
         <v>29</v>
       </c>
       <c r="O50">
-        <v>-13.3452</v>
+        <v>-13.2421</v>
       </c>
       <c r="P50">
-        <v>-1.77908</v>
+        <v>-1.76532</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -3831,10 +3831,10 @@
         <v>29</v>
       </c>
       <c r="O51">
-        <v>-13.9648</v>
+        <v>-13.7062</v>
       </c>
       <c r="P51">
-        <v>-1.86171</v>
+        <v>-1.8272</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -3881,10 +3881,10 @@
         <v>29</v>
       </c>
       <c r="O52">
-        <v>-14.5847</v>
+        <v>-14.068</v>
       </c>
       <c r="P52">
-        <v>-1.94433</v>
+        <v>-1.87544</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -3931,10 +3931,10 @@
         <v>29</v>
       </c>
       <c r="O53">
-        <v>-14.9979</v>
+        <v>-14.4295</v>
       </c>
       <c r="P53">
-        <v>-1.99943</v>
+        <v>-1.92365</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -3981,10 +3981,10 @@
         <v>29</v>
       </c>
       <c r="O54">
-        <v>-15.5143</v>
+        <v>-14.8948</v>
       </c>
       <c r="P54">
-        <v>-2.06828</v>
+        <v>-1.98569</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -4031,10 +4031,10 @@
         <v>29</v>
       </c>
       <c r="O55">
-        <v>-16.0817</v>
+        <v>-15.2043</v>
       </c>
       <c r="P55">
-        <v>-2.14394</v>
+        <v>-2.02697</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -4081,10 +4081,10 @@
         <v>29</v>
       </c>
       <c r="O56">
-        <v>-16.6499</v>
+        <v>-15.6175</v>
       </c>
       <c r="P56">
-        <v>-2.21969</v>
+        <v>-2.08204</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -4131,10 +4131,10 @@
         <v>29</v>
       </c>
       <c r="O57">
-        <v>-18.1991</v>
+        <v>-16.495</v>
       </c>
       <c r="P57">
-        <v>-2.42626</v>
+        <v>-2.19904</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -4181,10 +4181,10 @@
         <v>29</v>
       </c>
       <c r="O58">
-        <v>-18.8703</v>
+        <v>-17.0107</v>
       </c>
       <c r="P58">
-        <v>-2.51575</v>
+        <v>-2.26779</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -4231,10 +4231,10 @@
         <v>29</v>
       </c>
       <c r="O59">
-        <v>-19.542</v>
+        <v>-17.3212</v>
       </c>
       <c r="P59">
-        <v>-2.60531</v>
+        <v>-2.30921</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -4281,10 +4281,10 @@
         <v>29</v>
       </c>
       <c r="O60">
-        <v>-20.1614</v>
+        <v>-17.7863</v>
       </c>
       <c r="P60">
-        <v>-2.68789</v>
+        <v>-2.37121</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -4331,10 +4331,10 @@
         <v>29</v>
       </c>
       <c r="O61">
-        <v>-20.7293</v>
+        <v>-18.1475</v>
       </c>
       <c r="P61">
-        <v>-2.76362</v>
+        <v>-2.41938</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -4381,10 +4381,10 @@
         <v>29</v>
       </c>
       <c r="O62">
-        <v>-21.4008</v>
+        <v>-18.6121</v>
       </c>
       <c r="P62">
-        <v>-2.85315</v>
+        <v>-2.4813</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -4431,10 +4431,10 @@
         <v>29</v>
       </c>
       <c r="O63">
-        <v>-22.0721</v>
+        <v>-19.1286</v>
       </c>
       <c r="P63">
-        <v>-2.94265</v>
+        <v>-2.55019</v>
       </c>
     </row>
     <row r="64" spans="1:16">
@@ -4481,10 +4481,10 @@
         <v>29</v>
       </c>
       <c r="O64">
-        <v>-22.7952</v>
+        <v>-19.6452</v>
       </c>
       <c r="P64">
-        <v>-3.03907</v>
+        <v>-2.61907</v>
       </c>
     </row>
     <row r="65" spans="1:16">
@@ -4531,10 +4531,10 @@
         <v>163</v>
       </c>
       <c r="O65">
-        <v>31.6365</v>
+        <v>28.0818</v>
       </c>
       <c r="P65">
-        <v>3.83493</v>
+        <v>3.40404</v>
       </c>
     </row>
     <row r="66" spans="1:16">
@@ -4581,10 +4581,10 @@
         <v>163</v>
       </c>
       <c r="O66">
-        <v>30.7855</v>
+        <v>27.4312</v>
       </c>
       <c r="P66">
-        <v>3.73176</v>
+        <v>3.32519</v>
       </c>
     </row>
     <row r="67" spans="1:16">
@@ -4631,10 +4631,10 @@
         <v>163</v>
       </c>
       <c r="O67">
-        <v>29.9344</v>
+        <v>26.7307</v>
       </c>
       <c r="P67">
-        <v>3.62861</v>
+        <v>3.24027</v>
       </c>
     </row>
     <row r="68" spans="1:16">
@@ -4681,10 +4681,10 @@
         <v>163</v>
       </c>
       <c r="O68">
-        <v>29.0831</v>
+        <v>26.2295</v>
       </c>
       <c r="P68">
-        <v>3.52541</v>
+        <v>3.17952</v>
       </c>
     </row>
     <row r="69" spans="1:16">
@@ -4731,10 +4731,10 @@
         <v>163</v>
       </c>
       <c r="O69">
-        <v>28.3322</v>
+        <v>25.5287</v>
       </c>
       <c r="P69">
-        <v>3.4344</v>
+        <v>3.09458</v>
       </c>
     </row>
     <row r="70" spans="1:16">
@@ -4781,10 +4781,10 @@
         <v>163</v>
       </c>
       <c r="O70">
-        <v>27.5311</v>
+        <v>24.8778</v>
       </c>
       <c r="P70">
-        <v>3.33729</v>
+        <v>3.01568</v>
       </c>
     </row>
     <row r="71" spans="1:16">
@@ -4831,10 +4831,10 @@
         <v>163</v>
       </c>
       <c r="O71">
-        <v>26.6801</v>
+        <v>24.2768</v>
       </c>
       <c r="P71">
-        <v>3.23414</v>
+        <v>2.94283</v>
       </c>
     </row>
     <row r="72" spans="1:16">
@@ -4881,10 +4881,10 @@
         <v>163</v>
       </c>
       <c r="O72">
-        <v>25.8294</v>
+        <v>23.6259</v>
       </c>
       <c r="P72">
-        <v>3.13102</v>
+        <v>2.86393</v>
       </c>
     </row>
     <row r="73" spans="1:16">
@@ -4931,10 +4931,10 @@
         <v>163</v>
       </c>
       <c r="O73">
-        <v>23.7262</v>
+        <v>22.4742</v>
       </c>
       <c r="P73">
-        <v>2.8761</v>
+        <v>2.72433</v>
       </c>
     </row>
     <row r="74" spans="1:16">
@@ -4981,10 +4981,10 @@
         <v>163</v>
       </c>
       <c r="O74">
-        <v>22.875</v>
+        <v>21.7734</v>
       </c>
       <c r="P74">
-        <v>2.77291</v>
+        <v>2.63938</v>
       </c>
     </row>
     <row r="75" spans="1:16">
@@ -5031,10 +5031,10 @@
         <v>163</v>
       </c>
       <c r="O75">
-        <v>22.0736</v>
+        <v>21.1725</v>
       </c>
       <c r="P75">
-        <v>2.67576</v>
+        <v>2.56654</v>
       </c>
     </row>
     <row r="76" spans="1:16">
@@ -5081,10 +5081,10 @@
         <v>163</v>
       </c>
       <c r="O76">
-        <v>21.2227</v>
+        <v>20.5214</v>
       </c>
       <c r="P76">
-        <v>2.57264</v>
+        <v>2.48764</v>
       </c>
     </row>
     <row r="77" spans="1:16">
@@ -5131,10 +5131,10 @@
         <v>163</v>
       </c>
       <c r="O77">
-        <v>20.5214</v>
+        <v>19.9207</v>
       </c>
       <c r="P77">
-        <v>2.48764</v>
+        <v>2.41482</v>
       </c>
     </row>
     <row r="78" spans="1:16">
@@ -5181,10 +5181,10 @@
         <v>163</v>
       </c>
       <c r="O78">
-        <v>19.62</v>
+        <v>19.2706</v>
       </c>
       <c r="P78">
-        <v>2.37838</v>
+        <v>2.33602</v>
       </c>
     </row>
     <row r="79" spans="1:16">
@@ -5231,10 +5231,10 @@
         <v>163</v>
       </c>
       <c r="O79">
-        <v>18.869</v>
+        <v>18.7187</v>
       </c>
       <c r="P79">
-        <v>2.28734</v>
+        <v>2.26912</v>
       </c>
     </row>
     <row r="80" spans="1:16">
@@ -5381,10 +5381,10 @@
         <v>163</v>
       </c>
       <c r="O82">
-        <v>16.667</v>
+        <v>16.7159</v>
       </c>
       <c r="P82">
-        <v>2.02042</v>
+        <v>2.02635</v>
       </c>
     </row>
     <row r="83" spans="1:16">
@@ -5481,10 +5481,10 @@
         <v>163</v>
       </c>
       <c r="O84">
-        <v>14.1124</v>
+        <v>14.1625</v>
       </c>
       <c r="P84">
-        <v>1.71078</v>
+        <v>1.71685</v>
       </c>
     </row>
     <row r="85" spans="1:16">
@@ -5731,10 +5731,10 @@
         <v>163</v>
       </c>
       <c r="O89">
-        <v>7.853519999999999</v>
+        <v>7.85355</v>
       </c>
       <c r="P89">
-        <v>0.952128</v>
+        <v>0.95213</v>
       </c>
     </row>
     <row r="90" spans="1:16">
@@ -6081,10 +6081,10 @@
         <v>163</v>
       </c>
       <c r="O96">
-        <v>0.0463092</v>
+        <v>0.0462314</v>
       </c>
       <c r="P96">
-        <v>0.00579797</v>
+        <v>0.0057856</v>
       </c>
     </row>
     <row r="97" spans="1:16">
@@ -6231,10 +6231,10 @@
         <v>163</v>
       </c>
       <c r="O99">
-        <v>-3.35922</v>
+        <v>-3.35932</v>
       </c>
       <c r="P99">
-        <v>-0.406991</v>
+        <v>-0.406994</v>
       </c>
     </row>
     <row r="100" spans="1:16">
@@ -6281,10 +6281,10 @@
         <v>163</v>
       </c>
       <c r="O100">
-        <v>-4.437189999999999</v>
+        <v>-4.43718</v>
       </c>
       <c r="P100">
-        <v>-0.537611</v>
+        <v>-0.537612</v>
       </c>
     </row>
     <row r="101" spans="1:16">
@@ -6431,10 +6431,10 @@
         <v>163</v>
       </c>
       <c r="O103">
-        <v>-7.862879999999999</v>
+        <v>-7.91278</v>
       </c>
       <c r="P103">
-        <v>-0.952891</v>
+        <v>-0.958942</v>
       </c>
     </row>
     <row r="104" spans="1:16">
@@ -6481,10 +6481,10 @@
         <v>163</v>
       </c>
       <c r="O104">
-        <v>-8.96106</v>
+        <v>-8.960610000000001</v>
       </c>
       <c r="P104">
-        <v>-1.08033</v>
+        <v>-1.08595</v>
       </c>
     </row>
     <row r="105" spans="1:16">
@@ -6684,7 +6684,7 @@
         <v>-14.1197</v>
       </c>
       <c r="P108">
-        <v>-1.71128</v>
+        <v>-1.71129</v>
       </c>
     </row>
     <row r="109" spans="1:16">
@@ -6931,10 +6931,10 @@
         <v>163</v>
       </c>
       <c r="O113">
-        <v>-18.9019</v>
+        <v>-18.6744</v>
       </c>
       <c r="P113">
-        <v>-2.28766</v>
+        <v>-2.26338</v>
       </c>
     </row>
     <row r="114" spans="1:16">
@@ -6981,10 +6981,10 @@
         <v>163</v>
       </c>
       <c r="O114">
-        <v>-19.7257</v>
+        <v>-19.2752</v>
       </c>
       <c r="P114">
-        <v>-2.3908</v>
+        <v>-2.3362</v>
       </c>
     </row>
     <row r="115" spans="1:16">
@@ -7031,10 +7031,10 @@
         <v>163</v>
       </c>
       <c r="O115">
-        <v>-20.5769</v>
+        <v>-19.9752</v>
       </c>
       <c r="P115">
-        <v>-2.49399</v>
+        <v>-2.42105</v>
       </c>
     </row>
     <row r="116" spans="1:16">
@@ -7081,10 +7081,10 @@
         <v>163</v>
       </c>
       <c r="O116">
-        <v>-21.2773</v>
+        <v>-20.5769</v>
       </c>
       <c r="P116">
-        <v>-2.57888</v>
+        <v>-2.49399</v>
       </c>
     </row>
     <row r="117" spans="1:16">
@@ -7131,10 +7131,10 @@
         <v>163</v>
       </c>
       <c r="O117">
-        <v>-22.1282</v>
+        <v>-21.2274</v>
       </c>
       <c r="P117">
-        <v>-2.68202</v>
+        <v>-2.57284</v>
       </c>
     </row>
     <row r="118" spans="1:16">
@@ -7181,10 +7181,10 @@
         <v>163</v>
       </c>
       <c r="O118">
-        <v>-22.93</v>
+        <v>-21.878</v>
       </c>
       <c r="P118">
-        <v>-2.77921</v>
+        <v>-2.65169</v>
       </c>
     </row>
     <row r="119" spans="1:16">
@@ -7231,10 +7231,10 @@
         <v>163</v>
       </c>
       <c r="O119">
-        <v>-23.7806</v>
+        <v>-22.4788</v>
       </c>
       <c r="P119">
-        <v>-2.8823</v>
+        <v>-2.72452</v>
       </c>
     </row>
     <row r="120" spans="1:16">
@@ -7281,10 +7281,10 @@
         <v>163</v>
       </c>
       <c r="O120">
-        <v>-25.9326</v>
+        <v>-23.7305</v>
       </c>
       <c r="P120">
-        <v>-3.14316</v>
+        <v>-2.87623</v>
       </c>
     </row>
     <row r="121" spans="1:16">
@@ -7331,10 +7331,10 @@
         <v>163</v>
       </c>
       <c r="O121">
-        <v>-26.8329</v>
+        <v>-24.3815</v>
       </c>
       <c r="P121">
-        <v>-3.25228</v>
+        <v>-2.95515</v>
       </c>
     </row>
     <row r="122" spans="1:16">
@@ -7381,10 +7381,10 @@
         <v>163</v>
       </c>
       <c r="O122">
-        <v>-27.6834</v>
+        <v>-25.0318</v>
       </c>
       <c r="P122">
-        <v>-3.35538</v>
+        <v>-3.03397</v>
       </c>
     </row>
     <row r="123" spans="1:16">
@@ -7431,10 +7431,10 @@
         <v>163</v>
       </c>
       <c r="O123">
-        <v>-28.5342</v>
+        <v>-25.6323</v>
       </c>
       <c r="P123">
-        <v>-3.4585</v>
+        <v>-3.10675</v>
       </c>
     </row>
     <row r="124" spans="1:16">
@@ -7481,10 +7481,10 @@
         <v>163</v>
       </c>
       <c r="O124">
-        <v>-29.3344</v>
+        <v>-26.2816</v>
       </c>
       <c r="P124">
-        <v>-3.55549</v>
+        <v>-3.18547</v>
       </c>
     </row>
     <row r="125" spans="1:16">
@@ -7531,10 +7531,10 @@
         <v>163</v>
       </c>
       <c r="O125">
-        <v>-30.1847</v>
+        <v>-26.9329</v>
       </c>
       <c r="P125">
-        <v>-3.65857</v>
+        <v>-3.26441</v>
       </c>
     </row>
     <row r="126" spans="1:16">
@@ -7581,10 +7581,10 @@
         <v>163</v>
       </c>
       <c r="O126">
-        <v>-30.9855</v>
+        <v>-27.5833</v>
       </c>
       <c r="P126">
-        <v>-3.75563</v>
+        <v>-3.34325</v>
       </c>
     </row>
     <row r="127" spans="1:16">
@@ -7631,10 +7631,10 @@
         <v>163</v>
       </c>
       <c r="O127">
-        <v>-31.836</v>
+        <v>-28.2838</v>
       </c>
       <c r="P127">
-        <v>-3.85871</v>
+        <v>-3.42815</v>
       </c>
     </row>
     <row r="128" spans="1:16">
@@ -7681,10 +7681,10 @@
         <v>236</v>
       </c>
       <c r="O128">
-        <v>17.9304</v>
+        <v>16.0705</v>
       </c>
       <c r="P128">
-        <v>2.66458</v>
+        <v>2.38144</v>
       </c>
     </row>
     <row r="129" spans="1:16">
@@ -7731,10 +7731,10 @@
         <v>236</v>
       </c>
       <c r="O129">
-        <v>17.5688</v>
+        <v>15.7617</v>
       </c>
       <c r="P129">
-        <v>2.6034</v>
+        <v>2.33568</v>
       </c>
     </row>
     <row r="130" spans="1:16">
@@ -7781,10 +7781,10 @@
         <v>236</v>
       </c>
       <c r="O130">
-        <v>17.111</v>
+        <v>15.5022</v>
       </c>
       <c r="P130">
-        <v>2.53553</v>
+        <v>2.29723</v>
       </c>
     </row>
     <row r="131" spans="1:16">
@@ -7831,10 +7831,10 @@
         <v>236</v>
       </c>
       <c r="O131">
-        <v>16.7423</v>
+        <v>15.2438</v>
       </c>
       <c r="P131">
-        <v>2.48097</v>
+        <v>2.25895</v>
       </c>
     </row>
     <row r="132" spans="1:16">
@@ -7881,10 +7881,10 @@
         <v>236</v>
       </c>
       <c r="O132">
-        <v>16.4838</v>
+        <v>14.9855</v>
       </c>
       <c r="P132">
-        <v>2.44266</v>
+        <v>2.2207</v>
       </c>
     </row>
     <row r="133" spans="1:16">
@@ -7931,10 +7931,10 @@
         <v>236</v>
       </c>
       <c r="O133">
-        <v>16.1221</v>
+        <v>14.6331</v>
       </c>
       <c r="P133">
-        <v>2.38906</v>
+        <v>2.16843</v>
       </c>
     </row>
     <row r="134" spans="1:16">
@@ -7981,10 +7981,10 @@
         <v>236</v>
       </c>
       <c r="O134">
-        <v>15.6575</v>
+        <v>14.4688</v>
       </c>
       <c r="P134">
-        <v>2.32024</v>
+        <v>2.14416</v>
       </c>
     </row>
     <row r="135" spans="1:16">
@@ -8031,10 +8031,10 @@
         <v>236</v>
       </c>
       <c r="O135">
-        <v>15.2958</v>
+        <v>14.159</v>
       </c>
       <c r="P135">
-        <v>2.26669</v>
+        <v>2.09826</v>
       </c>
     </row>
     <row r="136" spans="1:16">
@@ -8081,10 +8081,10 @@
         <v>236</v>
       </c>
       <c r="O136">
-        <v>14.3138</v>
+        <v>13.5906</v>
       </c>
       <c r="P136">
-        <v>2.1212</v>
+        <v>2.01403</v>
       </c>
     </row>
     <row r="137" spans="1:16">
@@ -8131,10 +8131,10 @@
         <v>236</v>
       </c>
       <c r="O137">
-        <v>13.8489</v>
+        <v>13.1777</v>
       </c>
       <c r="P137">
-        <v>2.0523</v>
+        <v>1.95289</v>
       </c>
     </row>
     <row r="138" spans="1:16">
@@ -8181,10 +8181,10 @@
         <v>236</v>
       </c>
       <c r="O138">
-        <v>13.4871</v>
+        <v>13.0297</v>
       </c>
       <c r="P138">
-        <v>1.99867</v>
+        <v>1.93089</v>
       </c>
     </row>
     <row r="139" spans="1:16">
@@ -8231,10 +8231,10 @@
         <v>236</v>
       </c>
       <c r="O139">
-        <v>13.0304</v>
+        <v>12.7643</v>
       </c>
       <c r="P139">
-        <v>1.931</v>
+        <v>1.89161</v>
       </c>
     </row>
     <row r="140" spans="1:16">
@@ -8281,10 +8281,10 @@
         <v>236</v>
       </c>
       <c r="O140">
-        <v>12.7128</v>
+        <v>12.4542</v>
       </c>
       <c r="P140">
-        <v>1.88399</v>
+        <v>1.84572</v>
       </c>
     </row>
     <row r="141" spans="1:16">
@@ -8331,10 +8331,10 @@
         <v>236</v>
       </c>
       <c r="O141">
-        <v>12.3596</v>
+        <v>12.1445</v>
       </c>
       <c r="P141">
-        <v>1.8316</v>
+        <v>1.79983</v>
       </c>
     </row>
     <row r="142" spans="1:16">
@@ -8381,10 +8381,10 @@
         <v>236</v>
       </c>
       <c r="O142">
-        <v>11.9892</v>
+        <v>11.8345</v>
       </c>
       <c r="P142">
-        <v>1.77683</v>
+        <v>1.75387</v>
       </c>
     </row>
     <row r="143" spans="1:16">
@@ -8431,10 +8431,10 @@
         <v>236</v>
       </c>
       <c r="O143">
-        <v>11.473</v>
+        <v>11.481</v>
       </c>
       <c r="P143">
-        <v>1.70032</v>
+        <v>1.70145</v>
       </c>
     </row>
     <row r="144" spans="1:16">
@@ -8481,10 +8481,10 @@
         <v>236</v>
       </c>
       <c r="O144">
-        <v>11.4731</v>
+        <v>11.4729</v>
       </c>
       <c r="P144">
-        <v>1.70036</v>
+        <v>1.7003</v>
       </c>
     </row>
     <row r="145" spans="1:16">
@@ -8581,10 +8581,10 @@
         <v>236</v>
       </c>
       <c r="O146">
-        <v>9.871319999999999</v>
+        <v>9.921950000000001</v>
       </c>
       <c r="P146">
-        <v>1.46304</v>
+        <v>1.47056</v>
       </c>
     </row>
     <row r="147" spans="1:16">
@@ -8634,7 +8634,7 @@
         <v>8.94685</v>
       </c>
       <c r="P147">
-        <v>1.32604</v>
+        <v>1.32605</v>
       </c>
     </row>
     <row r="148" spans="1:16">
@@ -8834,7 +8834,7 @@
         <v>5.68389</v>
       </c>
       <c r="P151">
-        <v>0.842683</v>
+        <v>0.842686</v>
       </c>
     </row>
     <row r="152" spans="1:16">
@@ -8881,10 +8881,10 @@
         <v>236</v>
       </c>
       <c r="O152">
-        <v>5.16631</v>
+        <v>5.11479</v>
       </c>
       <c r="P152">
-        <v>0.765988</v>
+        <v>0.758394</v>
       </c>
     </row>
     <row r="153" spans="1:16">
@@ -9384,7 +9384,7 @@
         <v>-2.06842</v>
       </c>
       <c r="P162">
-        <v>-0.30578</v>
+        <v>-0.305782</v>
       </c>
     </row>
     <row r="163" spans="1:16">
@@ -9431,10 +9431,10 @@
         <v>236</v>
       </c>
       <c r="O163">
-        <v>-2.68915</v>
+        <v>-2.74061</v>
       </c>
       <c r="P163">
-        <v>-0.397767</v>
+        <v>-0.40538</v>
       </c>
     </row>
     <row r="164" spans="1:16">
@@ -9481,10 +9481,10 @@
         <v>236</v>
       </c>
       <c r="O164">
-        <v>-3.46397</v>
+        <v>-3.41255</v>
       </c>
       <c r="P164">
-        <v>-0.51256</v>
+        <v>-0.504907</v>
       </c>
     </row>
     <row r="165" spans="1:16">
@@ -9531,10 +9531,10 @@
         <v>236</v>
       </c>
       <c r="O165">
-        <v>-4.1366</v>
+        <v>-4.136080000000001</v>
       </c>
       <c r="P165">
-        <v>-0.612222</v>
+        <v>-0.612092</v>
       </c>
     </row>
     <row r="166" spans="1:16">
@@ -9581,10 +9581,10 @@
         <v>236</v>
       </c>
       <c r="O166">
-        <v>-4.96299</v>
+        <v>-4.962730000000001</v>
       </c>
       <c r="P166">
-        <v>-0.734626</v>
+        <v>-0.734611</v>
       </c>
     </row>
     <row r="167" spans="1:16">
@@ -9631,10 +9631,10 @@
         <v>236</v>
       </c>
       <c r="O167">
-        <v>-5.57503</v>
+        <v>-5.57349</v>
       </c>
       <c r="P167">
-        <v>-0.825377</v>
+        <v>-0.825145</v>
       </c>
     </row>
     <row r="168" spans="1:16">
@@ -9681,10 +9681,10 @@
         <v>236</v>
       </c>
       <c r="O168">
-        <v>-6.40942</v>
+        <v>-6.40194</v>
       </c>
       <c r="P168">
-        <v>-0.9489300000000001</v>
+        <v>-0.947889</v>
       </c>
     </row>
     <row r="169" spans="1:16">
@@ -9781,10 +9781,10 @@
         <v>236</v>
       </c>
       <c r="O170">
-        <v>-7.797169999999999</v>
+        <v>-7.80444</v>
       </c>
       <c r="P170">
-        <v>-1.15459</v>
+        <v>-1.1556</v>
       </c>
     </row>
     <row r="171" spans="1:16">
@@ -9881,10 +9881,10 @@
         <v>236</v>
       </c>
       <c r="O172">
-        <v>-9.140090000000001</v>
+        <v>-9.1401</v>
       </c>
       <c r="P172">
-        <v>-1.35353</v>
+        <v>-1.35354</v>
       </c>
     </row>
     <row r="173" spans="1:16">
@@ -9931,10 +9931,10 @@
         <v>236</v>
       </c>
       <c r="O173">
-        <v>-9.81143</v>
+        <v>-9.81926</v>
       </c>
       <c r="P173">
-        <v>-1.45299</v>
+        <v>-1.45409</v>
       </c>
     </row>
     <row r="174" spans="1:16">
@@ -9981,10 +9981,10 @@
         <v>236</v>
       </c>
       <c r="O174">
-        <v>-10.586</v>
+        <v>-10.5424</v>
       </c>
       <c r="P174">
-        <v>-1.56771</v>
+        <v>-1.56123</v>
       </c>
     </row>
     <row r="175" spans="1:16">
@@ -10031,10 +10031,10 @@
         <v>236</v>
       </c>
       <c r="O175">
-        <v>-10.3881</v>
+        <v>-10.638</v>
       </c>
       <c r="P175">
-        <v>-1.53836</v>
+        <v>-1.57543</v>
       </c>
     </row>
     <row r="176" spans="1:16">
@@ -10081,10 +10081,10 @@
         <v>236</v>
       </c>
       <c r="O176">
-        <v>-10.8461</v>
+        <v>-10.8008</v>
       </c>
       <c r="P176">
-        <v>-1.60615</v>
+        <v>-1.59952</v>
       </c>
     </row>
     <row r="177" spans="1:16">
@@ -10131,10 +10131,10 @@
         <v>236</v>
       </c>
       <c r="O177">
-        <v>-11.2146</v>
+        <v>-11.1115</v>
       </c>
       <c r="P177">
-        <v>-1.66078</v>
+        <v>-1.6455</v>
       </c>
     </row>
     <row r="178" spans="1:16">
@@ -10181,10 +10181,10 @@
         <v>236</v>
       </c>
       <c r="O178">
-        <v>-11.7301</v>
+        <v>-11.4652</v>
       </c>
       <c r="P178">
-        <v>-1.72975</v>
+        <v>-1.69798</v>
       </c>
     </row>
     <row r="179" spans="1:16">
@@ -10231,10 +10231,10 @@
         <v>236</v>
       </c>
       <c r="O179">
-        <v>-11.983</v>
+        <v>-11.5761</v>
       </c>
       <c r="P179">
-        <v>-1.77469</v>
+        <v>-1.71436</v>
       </c>
     </row>
     <row r="180" spans="1:16">
@@ -10281,10 +10281,10 @@
         <v>236</v>
       </c>
       <c r="O180">
-        <v>-12.4551</v>
+        <v>-11.732</v>
       </c>
       <c r="P180">
-        <v>-1.84458</v>
+        <v>-1.73743</v>
       </c>
     </row>
     <row r="181" spans="1:16">
@@ -10331,10 +10331,10 @@
         <v>236</v>
       </c>
       <c r="O181">
-        <v>-12.7655</v>
+        <v>-12.1452</v>
       </c>
       <c r="P181">
-        <v>-1.89058</v>
+        <v>-1.79864</v>
       </c>
     </row>
     <row r="182" spans="1:16">
@@ -10381,10 +10381,10 @@
         <v>236</v>
       </c>
       <c r="O182">
-        <v>-13.0759</v>
+        <v>-12.4547</v>
       </c>
       <c r="P182">
-        <v>-1.93654</v>
+        <v>-1.84454</v>
       </c>
     </row>
     <row r="183" spans="1:16">
@@ -10431,10 +10431,10 @@
         <v>236</v>
       </c>
       <c r="O183">
-        <v>-14.368</v>
+        <v>-12.8691</v>
       </c>
       <c r="P183">
-        <v>-2.12794</v>
+        <v>-1.90591</v>
       </c>
     </row>
     <row r="184" spans="1:16">
@@ -10481,10 +10481,10 @@
         <v>236</v>
       </c>
       <c r="O184">
-        <v>-14.6197</v>
+        <v>-13.3852</v>
       </c>
       <c r="P184">
-        <v>-2.1653</v>
+        <v>-1.98238</v>
       </c>
     </row>
     <row r="185" spans="1:16">
@@ -10531,10 +10531,10 @@
         <v>236</v>
       </c>
       <c r="O185">
-        <v>-15.0398</v>
+        <v>-13.5918</v>
       </c>
       <c r="P185">
-        <v>-2.22748</v>
+        <v>-2.01299</v>
       </c>
     </row>
     <row r="186" spans="1:16">
@@ -10581,10 +10581,10 @@
         <v>236</v>
       </c>
       <c r="O186">
-        <v>-15.5049</v>
+        <v>-13.8514</v>
       </c>
       <c r="P186">
-        <v>-2.29639</v>
+        <v>-2.05146</v>
       </c>
     </row>
     <row r="187" spans="1:16">
@@ -10631,10 +10631,10 @@
         <v>236</v>
       </c>
       <c r="O187">
-        <v>-15.8153</v>
+        <v>-14.2122</v>
       </c>
       <c r="P187">
-        <v>-2.34234</v>
+        <v>-2.10489</v>
       </c>
     </row>
     <row r="188" spans="1:16">
@@ -10681,10 +10681,10 @@
         <v>236</v>
       </c>
       <c r="O188">
-        <v>-16.2288</v>
+        <v>-14.5181</v>
       </c>
       <c r="P188">
-        <v>-2.4036</v>
+        <v>-2.14337</v>
       </c>
     </row>
     <row r="189" spans="1:16">
@@ -10731,10 +10731,10 @@
         <v>236</v>
       </c>
       <c r="O189">
-        <v>-16.6929</v>
+        <v>-14.781</v>
       </c>
       <c r="P189">
-        <v>-2.46489</v>
+        <v>-2.18918</v>
       </c>
     </row>
     <row r="190" spans="1:16">
@@ -10781,10 +10781,10 @@
         <v>236</v>
       </c>
       <c r="O190">
-        <v>-17.1067</v>
+        <v>-15.0917</v>
       </c>
       <c r="P190">
-        <v>-2.53373</v>
+        <v>-2.23518</v>
       </c>
     </row>
     <row r="191" spans="1:16" s="1" customFormat="1">
@@ -10842,10 +10842,10 @@
         <v>299</v>
       </c>
       <c r="O192" s="1">
-        <v>-31.836</v>
+        <v>-28.2838</v>
       </c>
       <c r="P192" s="1">
-        <v>-3.85871</v>
+        <v>-3.42815</v>
       </c>
     </row>
     <row r="193" spans="14:16" s="1" customFormat="1">
@@ -10853,10 +10853,10 @@
         <v>300</v>
       </c>
       <c r="O193" s="1">
-        <v>31.6365</v>
+        <v>28.0818</v>
       </c>
       <c r="P193" s="1">
-        <v>3.83493</v>
+        <v>3.40404</v>
       </c>
     </row>
     <row r="194" spans="14:16" s="1" customFormat="1">
@@ -10896,10 +10896,10 @@
         <v>305</v>
       </c>
       <c r="O198" s="1">
-        <v>0.1313493608465611</v>
+        <v>0.140836832804233</v>
       </c>
       <c r="P198" s="1">
-        <v>0.02014019931216917</v>
+        <v>0.0212965148148148</v>
       </c>
     </row>
     <row r="199" spans="14:16" s="1" customFormat="1">
@@ -10907,10 +10907,10 @@
         <v>306</v>
       </c>
       <c r="O199" s="1">
-        <v>15.25037532639279</v>
+        <v>14.22761512814492</v>
       </c>
       <c r="P199" s="1">
-        <v>1.980348914042597</v>
+        <v>1.847947127987297</v>
       </c>
     </row>
     <row r="200" spans="14:16" s="1" customFormat="1">
@@ -10918,10 +10918,10 @@
         <v>307</v>
       </c>
       <c r="O200" s="1">
-        <v>11610.54399359269</v>
+        <v>10102.19758912194</v>
       </c>
       <c r="P200" s="1">
-        <v>9832.816862174872</v>
+        <v>8677.227912906121</v>
       </c>
     </row>
     <row r="201" spans="14:16" s="1" customFormat="1"/>

--- a/dcd_top_offset_step_tsmc2p_meas.xlsx
+++ b/dcd_top_offset_step_tsmc2p_meas.xlsx
@@ -1381,10 +1381,10 @@
         <v>29</v>
       </c>
       <c r="O2">
-        <v>19.9122</v>
+        <v>21.3067</v>
       </c>
       <c r="P2">
-        <v>2.65527</v>
+        <v>2.84116</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1431,10 +1431,10 @@
         <v>29</v>
       </c>
       <c r="O3">
-        <v>19.4478</v>
+        <v>20.6354</v>
       </c>
       <c r="P3">
-        <v>2.59333</v>
+        <v>2.75168</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1481,10 +1481,10 @@
         <v>29</v>
       </c>
       <c r="O4">
-        <v>19.0347</v>
+        <v>20.1188</v>
       </c>
       <c r="P4">
-        <v>2.53826</v>
+        <v>2.68281</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1531,10 +1531,10 @@
         <v>29</v>
       </c>
       <c r="O5">
-        <v>18.5696</v>
+        <v>19.4478</v>
       </c>
       <c r="P5">
-        <v>2.47624</v>
+        <v>2.59334</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1581,10 +1581,10 @@
         <v>29</v>
       </c>
       <c r="O6">
-        <v>18.1562</v>
+        <v>18.8796</v>
       </c>
       <c r="P6">
-        <v>2.42113</v>
+        <v>2.51758</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1631,10 +1631,10 @@
         <v>29</v>
       </c>
       <c r="O7">
-        <v>17.5885</v>
+        <v>18.3114</v>
       </c>
       <c r="P7">
-        <v>2.34543</v>
+        <v>2.44181</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1681,10 +1681,10 @@
         <v>29</v>
       </c>
       <c r="O8">
-        <v>17.1757</v>
+        <v>17.6917</v>
       </c>
       <c r="P8">
-        <v>2.29038</v>
+        <v>2.35919</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1731,10 +1731,10 @@
         <v>29</v>
       </c>
       <c r="O9">
-        <v>16.6075</v>
+        <v>17.0718</v>
       </c>
       <c r="P9">
-        <v>2.21462</v>
+        <v>2.27654</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1781,10 +1781,10 @@
         <v>29</v>
       </c>
       <c r="O10">
-        <v>15.7295</v>
+        <v>16.7106</v>
       </c>
       <c r="P10">
-        <v>2.09756</v>
+        <v>2.22838</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1831,10 +1831,10 @@
         <v>29</v>
       </c>
       <c r="O11">
-        <v>15.3164</v>
+        <v>16.0391</v>
       </c>
       <c r="P11">
-        <v>2.04248</v>
+        <v>2.13884</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1881,10 +1881,10 @@
         <v>29</v>
       </c>
       <c r="O12">
-        <v>14.9546</v>
+        <v>15.4713</v>
       </c>
       <c r="P12">
-        <v>1.99423</v>
+        <v>2.06314</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1931,10 +1931,10 @@
         <v>29</v>
       </c>
       <c r="O13">
-        <v>14.4382</v>
+        <v>15.0063</v>
       </c>
       <c r="P13">
-        <v>1.9254</v>
+        <v>2.00114</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1981,10 +1981,10 @@
         <v>29</v>
       </c>
       <c r="O14">
-        <v>14.1285</v>
+        <v>14.5417</v>
       </c>
       <c r="P14">
-        <v>1.88409</v>
+        <v>1.93918</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -2031,10 +2031,10 @@
         <v>29</v>
       </c>
       <c r="O15">
-        <v>13.7153</v>
+        <v>13.9735</v>
       </c>
       <c r="P15">
-        <v>1.829</v>
+        <v>1.86342</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -2081,10 +2081,10 @@
         <v>29</v>
       </c>
       <c r="O16">
-        <v>13.3021</v>
+        <v>13.4573</v>
       </c>
       <c r="P16">
-        <v>1.77391</v>
+        <v>1.7946</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -2331,10 +2331,10 @@
         <v>29</v>
       </c>
       <c r="O21">
-        <v>10.4098</v>
+        <v>10.4104</v>
       </c>
       <c r="P21">
-        <v>1.38825</v>
+        <v>1.38835</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -2431,10 +2431,10 @@
         <v>29</v>
       </c>
       <c r="O23">
-        <v>8.75728</v>
+        <v>8.70607</v>
       </c>
       <c r="P23">
-        <v>1.16791</v>
+        <v>1.1611</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -2584,7 +2584,7 @@
         <v>6.22702</v>
       </c>
       <c r="P26">
-        <v>0.830562</v>
+        <v>0.8305630000000001</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -2681,10 +2681,10 @@
         <v>29</v>
       </c>
       <c r="O28">
-        <v>4.470680000000001</v>
+        <v>4.47075</v>
       </c>
       <c r="P28">
-        <v>0.596386</v>
+        <v>0.596391</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -3031,10 +3031,10 @@
         <v>29</v>
       </c>
       <c r="O35">
-        <v>-1.77672</v>
+        <v>-1.7767</v>
       </c>
       <c r="P35">
-        <v>-0.236624</v>
+        <v>-0.236623</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -3181,10 +3181,10 @@
         <v>29</v>
       </c>
       <c r="O38">
-        <v>-4.359599999999999</v>
+        <v>-4.359789999999999</v>
       </c>
       <c r="P38">
-        <v>-0.580992</v>
+        <v>-0.581018</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -3231,10 +3231,10 @@
         <v>29</v>
       </c>
       <c r="O39">
-        <v>-5.28925</v>
+        <v>-5.18563</v>
       </c>
       <c r="P39">
-        <v>-0.704944</v>
+        <v>-0.691133</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -3281,10 +3281,10 @@
         <v>29</v>
       </c>
       <c r="O40">
-        <v>-6.06384</v>
+        <v>-6.11525</v>
       </c>
       <c r="P40">
-        <v>-0.808217</v>
+        <v>-0.8150849999999999</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -3331,10 +3331,10 @@
         <v>29</v>
       </c>
       <c r="O41">
-        <v>-6.889799999999999</v>
+        <v>-6.8897</v>
       </c>
       <c r="P41">
-        <v>-0.918342</v>
+        <v>-0.918339</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -3381,10 +3381,10 @@
         <v>29</v>
       </c>
       <c r="O42">
-        <v>-7.81913</v>
+        <v>-7.870699999999999</v>
       </c>
       <c r="P42">
-        <v>-1.04226</v>
+        <v>-1.04914</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -3431,10 +3431,10 @@
         <v>29</v>
       </c>
       <c r="O43">
-        <v>-8.5936</v>
+        <v>-8.59357</v>
       </c>
       <c r="P43">
-        <v>-1.14552</v>
+        <v>-1.1455</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -3581,7 +3581,7 @@
         <v>29</v>
       </c>
       <c r="O46">
-        <v>-11.227</v>
+        <v>-11.2269</v>
       </c>
       <c r="P46">
         <v>-1.49664</v>
@@ -3631,10 +3631,10 @@
         <v>29</v>
       </c>
       <c r="O47">
-        <v>-12.0019</v>
+        <v>-12.0532</v>
       </c>
       <c r="P47">
-        <v>-1.59995</v>
+        <v>-1.6068</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -3681,10 +3681,10 @@
         <v>29</v>
       </c>
       <c r="O48">
-        <v>-12.8285</v>
+        <v>-12.8801</v>
       </c>
       <c r="P48">
-        <v>-1.71018</v>
+        <v>-1.71706</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -3731,10 +3731,10 @@
         <v>29</v>
       </c>
       <c r="O49">
-        <v>-12.8799</v>
+        <v>-12.8285</v>
       </c>
       <c r="P49">
-        <v>-1.71703</v>
+        <v>-1.71018</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -3781,10 +3781,10 @@
         <v>29</v>
       </c>
       <c r="O50">
-        <v>-13.2421</v>
+        <v>-13.3967</v>
       </c>
       <c r="P50">
-        <v>-1.76532</v>
+        <v>-1.78594</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -3831,10 +3831,10 @@
         <v>29</v>
       </c>
       <c r="O51">
-        <v>-13.7062</v>
+        <v>-13.8615</v>
       </c>
       <c r="P51">
-        <v>-1.8272</v>
+        <v>-1.84791</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -3881,10 +3881,10 @@
         <v>29</v>
       </c>
       <c r="O52">
-        <v>-14.068</v>
+        <v>-14.4815</v>
       </c>
       <c r="P52">
-        <v>-1.87544</v>
+        <v>-1.93058</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -3931,10 +3931,10 @@
         <v>29</v>
       </c>
       <c r="O53">
-        <v>-14.4295</v>
+        <v>-14.9462</v>
       </c>
       <c r="P53">
-        <v>-1.92365</v>
+        <v>-1.99252</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -3981,10 +3981,10 @@
         <v>29</v>
       </c>
       <c r="O54">
-        <v>-14.8948</v>
+        <v>-15.4623</v>
       </c>
       <c r="P54">
-        <v>-1.98569</v>
+        <v>-2.06135</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -4031,10 +4031,10 @@
         <v>29</v>
       </c>
       <c r="O55">
-        <v>-15.2043</v>
+        <v>-15.979</v>
       </c>
       <c r="P55">
-        <v>-2.02697</v>
+        <v>-2.13024</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -4081,10 +4081,10 @@
         <v>29</v>
       </c>
       <c r="O56">
-        <v>-15.6175</v>
+        <v>-16.4952</v>
       </c>
       <c r="P56">
-        <v>-2.08204</v>
+        <v>-2.19908</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -4131,10 +4131,10 @@
         <v>29</v>
       </c>
       <c r="O57">
-        <v>-16.495</v>
+        <v>-16.9081</v>
       </c>
       <c r="P57">
-        <v>-2.19904</v>
+        <v>-2.25412</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -4181,10 +4181,10 @@
         <v>29</v>
       </c>
       <c r="O58">
-        <v>-17.0107</v>
+        <v>-17.3729</v>
       </c>
       <c r="P58">
-        <v>-2.26779</v>
+        <v>-2.31609</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -4231,10 +4231,10 @@
         <v>29</v>
       </c>
       <c r="O59">
-        <v>-17.3212</v>
+        <v>-17.9411</v>
       </c>
       <c r="P59">
-        <v>-2.30921</v>
+        <v>-2.39186</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -4281,10 +4281,10 @@
         <v>29</v>
       </c>
       <c r="O60">
-        <v>-17.7863</v>
+        <v>-18.5599</v>
       </c>
       <c r="P60">
-        <v>-2.37121</v>
+        <v>-2.47435</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -4331,10 +4331,10 @@
         <v>29</v>
       </c>
       <c r="O61">
-        <v>-18.1475</v>
+        <v>-19.1285</v>
       </c>
       <c r="P61">
-        <v>-2.41938</v>
+        <v>-2.55018</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -4381,10 +4381,10 @@
         <v>29</v>
       </c>
       <c r="O62">
-        <v>-18.6121</v>
+        <v>-19.8001</v>
       </c>
       <c r="P62">
-        <v>-2.4813</v>
+        <v>-2.63975</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -4431,10 +4431,10 @@
         <v>29</v>
       </c>
       <c r="O63">
-        <v>-19.1286</v>
+        <v>-20.3684</v>
       </c>
       <c r="P63">
-        <v>-2.55019</v>
+        <v>-2.7155</v>
       </c>
     </row>
     <row r="64" spans="1:16">
@@ -4481,10 +4481,10 @@
         <v>29</v>
       </c>
       <c r="O64">
-        <v>-19.6452</v>
+        <v>-20.9879</v>
       </c>
       <c r="P64">
-        <v>-2.61907</v>
+        <v>-2.7981</v>
       </c>
     </row>
     <row r="65" spans="1:16">
@@ -4531,10 +4531,10 @@
         <v>163</v>
       </c>
       <c r="O65">
-        <v>28.0818</v>
+        <v>29.9845</v>
       </c>
       <c r="P65">
-        <v>3.40404</v>
+        <v>3.63467</v>
       </c>
     </row>
     <row r="66" spans="1:16">
@@ -4581,10 +4581,10 @@
         <v>163</v>
       </c>
       <c r="O66">
-        <v>27.4312</v>
+        <v>29.1331</v>
       </c>
       <c r="P66">
-        <v>3.32519</v>
+        <v>3.53148</v>
       </c>
     </row>
     <row r="67" spans="1:16">
@@ -4631,10 +4631,10 @@
         <v>163</v>
       </c>
       <c r="O67">
-        <v>26.7307</v>
+        <v>28.2321</v>
       </c>
       <c r="P67">
-        <v>3.24027</v>
+        <v>3.42226</v>
       </c>
     </row>
     <row r="68" spans="1:16">
@@ -4681,10 +4681,10 @@
         <v>163</v>
       </c>
       <c r="O68">
-        <v>26.2295</v>
+        <v>27.4032</v>
       </c>
       <c r="P68">
-        <v>3.17952</v>
+        <v>3.32179</v>
       </c>
     </row>
     <row r="69" spans="1:16">
@@ -4731,10 +4731,10 @@
         <v>163</v>
       </c>
       <c r="O69">
-        <v>25.5287</v>
+        <v>26.6303</v>
       </c>
       <c r="P69">
-        <v>3.09458</v>
+        <v>3.2281</v>
       </c>
     </row>
     <row r="70" spans="1:16">
@@ -4781,10 +4781,10 @@
         <v>163</v>
       </c>
       <c r="O70">
-        <v>24.8778</v>
+        <v>25.879</v>
       </c>
       <c r="P70">
-        <v>3.01568</v>
+        <v>3.13704</v>
       </c>
     </row>
     <row r="71" spans="1:16">
@@ -4831,10 +4831,10 @@
         <v>163</v>
       </c>
       <c r="O71">
-        <v>24.2768</v>
+        <v>24.9789</v>
       </c>
       <c r="P71">
-        <v>2.94283</v>
+        <v>3.02792</v>
       </c>
     </row>
     <row r="72" spans="1:16">
@@ -4881,10 +4881,10 @@
         <v>163</v>
       </c>
       <c r="O72">
-        <v>23.6259</v>
+        <v>24.1769</v>
       </c>
       <c r="P72">
-        <v>2.86393</v>
+        <v>2.93072</v>
       </c>
     </row>
     <row r="73" spans="1:16">
@@ -4931,10 +4931,10 @@
         <v>163</v>
       </c>
       <c r="O73">
-        <v>22.4742</v>
+        <v>23.7262</v>
       </c>
       <c r="P73">
-        <v>2.72433</v>
+        <v>2.87609</v>
       </c>
     </row>
     <row r="74" spans="1:16">
@@ -4981,10 +4981,10 @@
         <v>163</v>
       </c>
       <c r="O74">
-        <v>21.7734</v>
+        <v>22.8748</v>
       </c>
       <c r="P74">
-        <v>2.63938</v>
+        <v>2.7729</v>
       </c>
     </row>
     <row r="75" spans="1:16">
@@ -5031,10 +5031,10 @@
         <v>163</v>
       </c>
       <c r="O75">
-        <v>21.1725</v>
+        <v>22.0237</v>
       </c>
       <c r="P75">
-        <v>2.56654</v>
+        <v>2.66973</v>
       </c>
     </row>
     <row r="76" spans="1:16">
@@ -5081,10 +5081,10 @@
         <v>163</v>
       </c>
       <c r="O76">
-        <v>20.5214</v>
+        <v>21.1732</v>
       </c>
       <c r="P76">
-        <v>2.48764</v>
+        <v>2.56663</v>
       </c>
     </row>
     <row r="77" spans="1:16">
@@ -5131,10 +5131,10 @@
         <v>163</v>
       </c>
       <c r="O77">
-        <v>19.9207</v>
+        <v>20.5214</v>
       </c>
       <c r="P77">
-        <v>2.41482</v>
+        <v>2.48764</v>
       </c>
     </row>
     <row r="78" spans="1:16">
@@ -5181,10 +5181,10 @@
         <v>163</v>
       </c>
       <c r="O78">
-        <v>19.2706</v>
+        <v>19.574</v>
       </c>
       <c r="P78">
-        <v>2.33602</v>
+        <v>2.37279</v>
       </c>
     </row>
     <row r="79" spans="1:16">
@@ -5231,10 +5231,10 @@
         <v>163</v>
       </c>
       <c r="O79">
-        <v>18.7187</v>
+        <v>18.7727</v>
       </c>
       <c r="P79">
-        <v>2.26912</v>
+        <v>2.27567</v>
       </c>
     </row>
     <row r="80" spans="1:16">
@@ -5381,10 +5381,10 @@
         <v>163</v>
       </c>
       <c r="O82">
-        <v>16.7159</v>
+        <v>16.667</v>
       </c>
       <c r="P82">
-        <v>2.02635</v>
+        <v>2.02042</v>
       </c>
     </row>
     <row r="83" spans="1:16">
@@ -6181,7 +6181,7 @@
         <v>163</v>
       </c>
       <c r="O98">
-        <v>-2.30357</v>
+        <v>-2.30356</v>
       </c>
       <c r="P98">
         <v>-0.273478</v>
@@ -6231,10 +6231,10 @@
         <v>163</v>
       </c>
       <c r="O99">
-        <v>-3.35932</v>
+        <v>-3.35922</v>
       </c>
       <c r="P99">
-        <v>-0.406994</v>
+        <v>-0.406991</v>
       </c>
     </row>
     <row r="100" spans="1:16">
@@ -6634,7 +6634,7 @@
         <v>-12.817</v>
       </c>
       <c r="P107">
-        <v>-1.54749</v>
+        <v>-1.5475</v>
       </c>
     </row>
     <row r="108" spans="1:16">
@@ -6684,7 +6684,7 @@
         <v>-14.1197</v>
       </c>
       <c r="P108">
-        <v>-1.71129</v>
+        <v>-1.71128</v>
       </c>
     </row>
     <row r="109" spans="1:16">
@@ -6931,10 +6931,10 @@
         <v>163</v>
       </c>
       <c r="O113">
-        <v>-18.6744</v>
+        <v>-18.9247</v>
       </c>
       <c r="P113">
-        <v>-2.26338</v>
+        <v>-2.29371</v>
       </c>
     </row>
     <row r="114" spans="1:16">
@@ -6981,10 +6981,10 @@
         <v>163</v>
       </c>
       <c r="O114">
-        <v>-19.2752</v>
+        <v>-19.7034</v>
       </c>
       <c r="P114">
-        <v>-2.3362</v>
+        <v>-2.3881</v>
       </c>
     </row>
     <row r="115" spans="1:16">
@@ -7031,10 +7031,10 @@
         <v>163</v>
       </c>
       <c r="O115">
-        <v>-19.9752</v>
+        <v>-20.5769</v>
       </c>
       <c r="P115">
-        <v>-2.42105</v>
+        <v>-2.49398</v>
       </c>
     </row>
     <row r="116" spans="1:16">
@@ -7081,10 +7081,10 @@
         <v>163</v>
       </c>
       <c r="O116">
-        <v>-20.5769</v>
+        <v>-21.3274</v>
       </c>
       <c r="P116">
-        <v>-2.49399</v>
+        <v>-2.58495</v>
       </c>
     </row>
     <row r="117" spans="1:16">
@@ -7131,10 +7131,10 @@
         <v>163</v>
       </c>
       <c r="O117">
-        <v>-21.2274</v>
+        <v>-22.1282</v>
       </c>
       <c r="P117">
-        <v>-2.57284</v>
+        <v>-2.68202</v>
       </c>
     </row>
     <row r="118" spans="1:16">
@@ -7181,10 +7181,10 @@
         <v>163</v>
       </c>
       <c r="O118">
-        <v>-21.878</v>
+        <v>-22.9798</v>
       </c>
       <c r="P118">
-        <v>-2.65169</v>
+        <v>-2.78525</v>
       </c>
     </row>
     <row r="119" spans="1:16">
@@ -7231,10 +7231,10 @@
         <v>163</v>
       </c>
       <c r="O119">
-        <v>-22.4788</v>
+        <v>-23.7308</v>
       </c>
       <c r="P119">
-        <v>-2.72452</v>
+        <v>-2.87627</v>
       </c>
     </row>
     <row r="120" spans="1:16">
@@ -7281,10 +7281,10 @@
         <v>163</v>
       </c>
       <c r="O120">
-        <v>-23.7305</v>
+        <v>-24.2811</v>
       </c>
       <c r="P120">
-        <v>-2.87623</v>
+        <v>-2.94298</v>
       </c>
     </row>
     <row r="121" spans="1:16">
@@ -7331,10 +7331,10 @@
         <v>163</v>
       </c>
       <c r="O121">
-        <v>-24.3815</v>
+        <v>-25.1818</v>
       </c>
       <c r="P121">
-        <v>-2.95515</v>
+        <v>-3.05216</v>
       </c>
     </row>
     <row r="122" spans="1:16">
@@ -7381,10 +7381,10 @@
         <v>163</v>
       </c>
       <c r="O122">
-        <v>-25.0318</v>
+        <v>-25.9324</v>
       </c>
       <c r="P122">
-        <v>-3.03397</v>
+        <v>-3.14312</v>
       </c>
     </row>
     <row r="123" spans="1:16">
@@ -7431,10 +7431,10 @@
         <v>163</v>
       </c>
       <c r="O123">
-        <v>-25.6323</v>
+        <v>-26.7828</v>
       </c>
       <c r="P123">
-        <v>-3.10675</v>
+        <v>-3.24622</v>
       </c>
     </row>
     <row r="124" spans="1:16">
@@ -7481,10 +7481,10 @@
         <v>163</v>
       </c>
       <c r="O124">
-        <v>-26.2816</v>
+        <v>-27.5333</v>
       </c>
       <c r="P124">
-        <v>-3.18547</v>
+        <v>-3.33717</v>
       </c>
     </row>
     <row r="125" spans="1:16">
@@ -7531,10 +7531,10 @@
         <v>163</v>
       </c>
       <c r="O125">
-        <v>-26.9329</v>
+        <v>-28.434</v>
       </c>
       <c r="P125">
-        <v>-3.26441</v>
+        <v>-3.44636</v>
       </c>
     </row>
     <row r="126" spans="1:16">
@@ -7581,10 +7581,10 @@
         <v>163</v>
       </c>
       <c r="O126">
-        <v>-27.5833</v>
+        <v>-29.2842</v>
       </c>
       <c r="P126">
-        <v>-3.34325</v>
+        <v>-3.54941</v>
       </c>
     </row>
     <row r="127" spans="1:16">
@@ -7631,10 +7631,10 @@
         <v>163</v>
       </c>
       <c r="O127">
-        <v>-28.2838</v>
+        <v>-30.2347</v>
       </c>
       <c r="P127">
-        <v>-3.42815</v>
+        <v>-3.66462</v>
       </c>
     </row>
     <row r="128" spans="1:16">
@@ -7681,10 +7681,10 @@
         <v>236</v>
       </c>
       <c r="O128">
-        <v>16.0705</v>
+        <v>17.0525</v>
       </c>
       <c r="P128">
-        <v>2.38144</v>
+        <v>2.52692</v>
       </c>
     </row>
     <row r="129" spans="1:16">
@@ -7731,10 +7731,10 @@
         <v>236</v>
       </c>
       <c r="O129">
-        <v>15.7617</v>
+        <v>16.6904</v>
       </c>
       <c r="P129">
-        <v>2.33568</v>
+        <v>2.47329</v>
       </c>
     </row>
     <row r="130" spans="1:16">
@@ -7781,10 +7781,10 @@
         <v>236</v>
       </c>
       <c r="O130">
-        <v>15.5022</v>
+        <v>16.2817</v>
       </c>
       <c r="P130">
-        <v>2.29723</v>
+        <v>2.41267</v>
       </c>
     </row>
     <row r="131" spans="1:16">
@@ -7831,10 +7831,10 @@
         <v>236</v>
       </c>
       <c r="O131">
-        <v>15.2438</v>
+        <v>15.8637</v>
       </c>
       <c r="P131">
-        <v>2.25895</v>
+        <v>2.35082</v>
       </c>
     </row>
     <row r="132" spans="1:16">
@@ -7881,10 +7881,10 @@
         <v>236</v>
       </c>
       <c r="O132">
-        <v>14.9855</v>
+        <v>15.5538</v>
       </c>
       <c r="P132">
-        <v>2.2207</v>
+        <v>2.30476</v>
       </c>
     </row>
     <row r="133" spans="1:16">
@@ -7931,10 +7931,10 @@
         <v>236</v>
       </c>
       <c r="O133">
-        <v>14.6331</v>
+        <v>15.1411</v>
       </c>
       <c r="P133">
-        <v>2.16843</v>
+        <v>2.24377</v>
       </c>
     </row>
     <row r="134" spans="1:16">
@@ -7981,10 +7981,10 @@
         <v>236</v>
       </c>
       <c r="O134">
-        <v>14.4688</v>
+        <v>14.8303</v>
       </c>
       <c r="P134">
-        <v>2.14416</v>
+        <v>2.1977</v>
       </c>
     </row>
     <row r="135" spans="1:16">
@@ -8031,10 +8031,10 @@
         <v>236</v>
       </c>
       <c r="O135">
-        <v>14.159</v>
+        <v>14.4186</v>
       </c>
       <c r="P135">
-        <v>2.09826</v>
+        <v>2.14408</v>
       </c>
     </row>
     <row r="136" spans="1:16">
@@ -8081,10 +8081,10 @@
         <v>236</v>
       </c>
       <c r="O136">
-        <v>13.5906</v>
+        <v>14.1074</v>
       </c>
       <c r="P136">
-        <v>2.01403</v>
+        <v>2.09062</v>
       </c>
     </row>
     <row r="137" spans="1:16">
@@ -8131,10 +8131,10 @@
         <v>236</v>
       </c>
       <c r="O137">
-        <v>13.1777</v>
+        <v>13.7051</v>
       </c>
       <c r="P137">
-        <v>1.95289</v>
+        <v>2.03103</v>
       </c>
     </row>
     <row r="138" spans="1:16">
@@ -8181,10 +8181,10 @@
         <v>236</v>
       </c>
       <c r="O138">
-        <v>13.0297</v>
+        <v>13.4353</v>
       </c>
       <c r="P138">
-        <v>1.93089</v>
+        <v>1.99103</v>
       </c>
     </row>
     <row r="139" spans="1:16">
@@ -8231,10 +8231,10 @@
         <v>236</v>
       </c>
       <c r="O139">
-        <v>12.7643</v>
+        <v>12.9788</v>
       </c>
       <c r="P139">
-        <v>1.89161</v>
+        <v>1.92336</v>
       </c>
     </row>
     <row r="140" spans="1:16">
@@ -8281,10 +8281,10 @@
         <v>236</v>
       </c>
       <c r="O140">
-        <v>12.4542</v>
+        <v>12.7641</v>
       </c>
       <c r="P140">
-        <v>1.84572</v>
+        <v>1.89159</v>
       </c>
     </row>
     <row r="141" spans="1:16">
@@ -8331,10 +8331,10 @@
         <v>236</v>
       </c>
       <c r="O141">
-        <v>12.1445</v>
+        <v>12.3001</v>
       </c>
       <c r="P141">
-        <v>1.79983</v>
+        <v>1.83038</v>
       </c>
     </row>
     <row r="142" spans="1:16">
@@ -8381,10 +8381,10 @@
         <v>236</v>
       </c>
       <c r="O142">
-        <v>11.8345</v>
+        <v>11.9378</v>
       </c>
       <c r="P142">
-        <v>1.75387</v>
+        <v>1.76922</v>
       </c>
     </row>
     <row r="143" spans="1:16">
@@ -8431,10 +8431,10 @@
         <v>236</v>
       </c>
       <c r="O143">
-        <v>11.481</v>
+        <v>11.473</v>
       </c>
       <c r="P143">
-        <v>1.70145</v>
+        <v>1.70032</v>
       </c>
     </row>
     <row r="144" spans="1:16">
@@ -8481,10 +8481,10 @@
         <v>236</v>
       </c>
       <c r="O144">
-        <v>11.4729</v>
+        <v>11.473</v>
       </c>
       <c r="P144">
-        <v>1.7003</v>
+        <v>1.70036</v>
       </c>
     </row>
     <row r="145" spans="1:16">
@@ -8531,10 +8531,10 @@
         <v>236</v>
       </c>
       <c r="O145">
-        <v>10.6974</v>
+        <v>10.6466</v>
       </c>
       <c r="P145">
-        <v>1.58545</v>
+        <v>1.57789</v>
       </c>
     </row>
     <row r="146" spans="1:16">
@@ -8834,7 +8834,7 @@
         <v>5.68389</v>
       </c>
       <c r="P151">
-        <v>0.842686</v>
+        <v>0.842683</v>
       </c>
     </row>
     <row r="152" spans="1:16">
@@ -9381,10 +9381,10 @@
         <v>236</v>
       </c>
       <c r="O162">
-        <v>-2.06842</v>
+        <v>-2.06795</v>
       </c>
       <c r="P162">
-        <v>-0.305782</v>
+        <v>-0.305768</v>
       </c>
     </row>
     <row r="163" spans="1:16">
@@ -9481,10 +9481,10 @@
         <v>236</v>
       </c>
       <c r="O164">
-        <v>-3.41255</v>
+        <v>-3.46363</v>
       </c>
       <c r="P164">
-        <v>-0.504907</v>
+        <v>-0.512507</v>
       </c>
     </row>
     <row r="165" spans="1:16">
@@ -9531,10 +9531,10 @@
         <v>236</v>
       </c>
       <c r="O165">
-        <v>-4.136080000000001</v>
+        <v>-4.13624</v>
       </c>
       <c r="P165">
-        <v>-0.612092</v>
+        <v>-0.612148</v>
       </c>
     </row>
     <row r="166" spans="1:16">
@@ -9631,10 +9631,10 @@
         <v>236</v>
       </c>
       <c r="O167">
-        <v>-5.57349</v>
+        <v>-5.62688</v>
       </c>
       <c r="P167">
-        <v>-0.825145</v>
+        <v>-0.833035</v>
       </c>
     </row>
     <row r="168" spans="1:16">
@@ -9681,10 +9681,10 @@
         <v>236</v>
       </c>
       <c r="O168">
-        <v>-6.40194</v>
+        <v>-6.40196</v>
       </c>
       <c r="P168">
-        <v>-0.947889</v>
+        <v>-0.947893</v>
       </c>
     </row>
     <row r="169" spans="1:16">
@@ -9731,10 +9731,10 @@
         <v>236</v>
       </c>
       <c r="O169">
-        <v>-7.08121</v>
+        <v>-7.029249999999999</v>
       </c>
       <c r="P169">
-        <v>-1.04845</v>
+        <v>-1.04076</v>
       </c>
     </row>
     <row r="170" spans="1:16">
@@ -9781,10 +9781,10 @@
         <v>236</v>
       </c>
       <c r="O170">
-        <v>-7.80444</v>
+        <v>-7.79714</v>
       </c>
       <c r="P170">
-        <v>-1.1556</v>
+        <v>-1.15458</v>
       </c>
     </row>
     <row r="171" spans="1:16">
@@ -9831,10 +9831,10 @@
         <v>236</v>
       </c>
       <c r="O171">
-        <v>-8.424429999999999</v>
+        <v>-8.475820000000001</v>
       </c>
       <c r="P171">
-        <v>-1.24746</v>
+        <v>-1.25506</v>
       </c>
     </row>
     <row r="172" spans="1:16">
@@ -9884,7 +9884,7 @@
         <v>-9.1401</v>
       </c>
       <c r="P172">
-        <v>-1.35354</v>
+        <v>-1.35353</v>
       </c>
     </row>
     <row r="173" spans="1:16">
@@ -9931,10 +9931,10 @@
         <v>236</v>
       </c>
       <c r="O173">
-        <v>-9.81926</v>
+        <v>-9.870889999999999</v>
       </c>
       <c r="P173">
-        <v>-1.45409</v>
+        <v>-1.46182</v>
       </c>
     </row>
     <row r="174" spans="1:16">
@@ -9984,7 +9984,7 @@
         <v>-10.5424</v>
       </c>
       <c r="P174">
-        <v>-1.56123</v>
+        <v>-1.56122</v>
       </c>
     </row>
     <row r="175" spans="1:16">
@@ -10031,10 +10031,10 @@
         <v>236</v>
       </c>
       <c r="O175">
-        <v>-10.638</v>
+        <v>-10.4295</v>
       </c>
       <c r="P175">
-        <v>-1.57543</v>
+        <v>-1.5445</v>
       </c>
     </row>
     <row r="176" spans="1:16">
@@ -10081,10 +10081,10 @@
         <v>236</v>
       </c>
       <c r="O176">
-        <v>-10.8008</v>
+        <v>-10.8524</v>
       </c>
       <c r="P176">
-        <v>-1.59952</v>
+        <v>-1.60715</v>
       </c>
     </row>
     <row r="177" spans="1:16">
@@ -10131,10 +10131,10 @@
         <v>236</v>
       </c>
       <c r="O177">
-        <v>-11.1115</v>
+        <v>-11.2654</v>
       </c>
       <c r="P177">
-        <v>-1.6455</v>
+        <v>-1.66078</v>
       </c>
     </row>
     <row r="178" spans="1:16">
@@ -10181,10 +10181,10 @@
         <v>236</v>
       </c>
       <c r="O178">
-        <v>-11.4652</v>
+        <v>-11.5251</v>
       </c>
       <c r="P178">
-        <v>-1.69798</v>
+        <v>-1.70678</v>
       </c>
     </row>
     <row r="179" spans="1:16">
@@ -10231,10 +10231,10 @@
         <v>236</v>
       </c>
       <c r="O179">
-        <v>-11.5761</v>
+        <v>-11.8861</v>
       </c>
       <c r="P179">
-        <v>-1.71436</v>
+        <v>-1.76027</v>
       </c>
     </row>
     <row r="180" spans="1:16">
@@ -10281,10 +10281,10 @@
         <v>236</v>
       </c>
       <c r="O180">
-        <v>-11.732</v>
+        <v>-12.4034</v>
       </c>
       <c r="P180">
-        <v>-1.73743</v>
+        <v>-1.83692</v>
       </c>
     </row>
     <row r="181" spans="1:16">
@@ -10331,10 +10331,10 @@
         <v>236</v>
       </c>
       <c r="O181">
-        <v>-12.1452</v>
+        <v>-12.6618</v>
       </c>
       <c r="P181">
-        <v>-1.79864</v>
+        <v>-1.8752</v>
       </c>
     </row>
     <row r="182" spans="1:16">
@@ -10381,10 +10381,10 @@
         <v>236</v>
       </c>
       <c r="O182">
-        <v>-12.4547</v>
+        <v>-13.0693</v>
       </c>
       <c r="P182">
-        <v>-1.84454</v>
+        <v>-1.93562</v>
       </c>
     </row>
     <row r="183" spans="1:16">
@@ -10431,10 +10431,10 @@
         <v>236</v>
       </c>
       <c r="O183">
-        <v>-12.8691</v>
+        <v>-13.3334</v>
       </c>
       <c r="P183">
-        <v>-1.90591</v>
+        <v>-1.97471</v>
       </c>
     </row>
     <row r="184" spans="1:16">
@@ -10481,10 +10481,10 @@
         <v>236</v>
       </c>
       <c r="O184">
-        <v>-13.3852</v>
+        <v>-13.7449</v>
       </c>
       <c r="P184">
-        <v>-1.98238</v>
+        <v>-2.03566</v>
       </c>
     </row>
     <row r="185" spans="1:16">
@@ -10531,10 +10531,10 @@
         <v>236</v>
       </c>
       <c r="O185">
-        <v>-13.5918</v>
+        <v>-14.2125</v>
       </c>
       <c r="P185">
-        <v>-2.01299</v>
+        <v>-2.10497</v>
       </c>
     </row>
     <row r="186" spans="1:16">
@@ -10581,10 +10581,10 @@
         <v>236</v>
       </c>
       <c r="O186">
-        <v>-13.8514</v>
+        <v>-14.5228</v>
       </c>
       <c r="P186">
-        <v>-2.05146</v>
+        <v>-2.15092</v>
       </c>
     </row>
     <row r="187" spans="1:16">
@@ -10631,10 +10631,10 @@
         <v>236</v>
       </c>
       <c r="O187">
-        <v>-14.2122</v>
+        <v>-14.8841</v>
       </c>
       <c r="P187">
-        <v>-2.10489</v>
+        <v>-2.20443</v>
       </c>
     </row>
     <row r="188" spans="1:16">
@@ -10681,10 +10681,10 @@
         <v>236</v>
       </c>
       <c r="O188">
-        <v>-14.5181</v>
+        <v>-15.3499</v>
       </c>
       <c r="P188">
-        <v>-2.14337</v>
+        <v>-2.27341</v>
       </c>
     </row>
     <row r="189" spans="1:16">
@@ -10731,10 +10731,10 @@
         <v>236</v>
       </c>
       <c r="O189">
-        <v>-14.781</v>
+        <v>-15.7634</v>
       </c>
       <c r="P189">
-        <v>-2.18918</v>
+        <v>-2.33472</v>
       </c>
     </row>
     <row r="190" spans="1:16">
@@ -10781,10 +10781,10 @@
         <v>236</v>
       </c>
       <c r="O190">
-        <v>-15.0917</v>
+        <v>-16.0736</v>
       </c>
       <c r="P190">
-        <v>-2.23518</v>
+        <v>-2.38066</v>
       </c>
     </row>
     <row r="191" spans="1:16" s="1" customFormat="1">
@@ -10842,10 +10842,10 @@
         <v>299</v>
       </c>
       <c r="O192" s="1">
-        <v>-28.2838</v>
+        <v>-30.2347</v>
       </c>
       <c r="P192" s="1">
-        <v>-3.42815</v>
+        <v>-3.66462</v>
       </c>
     </row>
     <row r="193" spans="14:16" s="1" customFormat="1">
@@ -10853,10 +10853,10 @@
         <v>300</v>
       </c>
       <c r="O193" s="1">
-        <v>28.0818</v>
+        <v>29.9845</v>
       </c>
       <c r="P193" s="1">
-        <v>3.40404</v>
+        <v>3.63467</v>
       </c>
     </row>
     <row r="194" spans="14:16" s="1" customFormat="1">
@@ -10896,10 +10896,10 @@
         <v>305</v>
       </c>
       <c r="O198" s="1">
-        <v>0.140836832804233</v>
+        <v>0.1339285259259267</v>
       </c>
       <c r="P198" s="1">
-        <v>0.0212965148148148</v>
+        <v>0.02044503862433854</v>
       </c>
     </row>
     <row r="199" spans="14:16" s="1" customFormat="1">
@@ -10907,10 +10907,10 @@
         <v>306</v>
       </c>
       <c r="O199" s="1">
-        <v>14.22761512814492</v>
+        <v>14.71564675561562</v>
       </c>
       <c r="P199" s="1">
-        <v>1.847947127987297</v>
+        <v>1.910913389419184</v>
       </c>
     </row>
     <row r="200" spans="14:16" s="1" customFormat="1">
@@ -10918,10 +10918,10 @@
         <v>307</v>
       </c>
       <c r="O200" s="1">
-        <v>10102.19758912194</v>
+        <v>10987.68664396005</v>
       </c>
       <c r="P200" s="1">
-        <v>8677.227912906121</v>
+        <v>9346.587328743715</v>
       </c>
     </row>
     <row r="201" spans="14:16" s="1" customFormat="1"/>

--- a/dcd_top_offset_step_tsmc2p_meas.xlsx
+++ b/dcd_top_offset_step_tsmc2p_meas.xlsx
@@ -1381,10 +1381,10 @@
         <v>29</v>
       </c>
       <c r="O2">
-        <v>21.3067</v>
+        <v>24.9775</v>
       </c>
       <c r="P2">
-        <v>2.84116</v>
+        <v>3.3306</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1431,10 +1431,10 @@
         <v>29</v>
       </c>
       <c r="O3">
-        <v>20.6354</v>
+        <v>24.0437</v>
       </c>
       <c r="P3">
-        <v>2.75168</v>
+        <v>3.20611</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1481,10 +1481,10 @@
         <v>29</v>
       </c>
       <c r="O4">
-        <v>20.1188</v>
+        <v>23.1658</v>
       </c>
       <c r="P4">
-        <v>2.68281</v>
+        <v>3.08907</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1531,10 +1531,10 @@
         <v>29</v>
       </c>
       <c r="O5">
-        <v>19.4478</v>
+        <v>22.2361</v>
       </c>
       <c r="P5">
-        <v>2.59334</v>
+        <v>2.96511</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1581,10 +1581,10 @@
         <v>29</v>
       </c>
       <c r="O6">
-        <v>18.8796</v>
+        <v>21.4617</v>
       </c>
       <c r="P6">
-        <v>2.51758</v>
+        <v>2.86186</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1631,10 +1631,10 @@
         <v>29</v>
       </c>
       <c r="O7">
-        <v>18.3114</v>
+        <v>20.5327</v>
       </c>
       <c r="P7">
-        <v>2.44181</v>
+        <v>2.73798</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1681,10 +1681,10 @@
         <v>29</v>
       </c>
       <c r="O8">
-        <v>17.6917</v>
+        <v>19.6542</v>
       </c>
       <c r="P8">
-        <v>2.35919</v>
+        <v>2.62085</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1731,10 +1731,10 @@
         <v>29</v>
       </c>
       <c r="O9">
-        <v>17.0718</v>
+        <v>18.7765</v>
       </c>
       <c r="P9">
-        <v>2.27654</v>
+        <v>2.50384</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1781,10 +1781,10 @@
         <v>29</v>
       </c>
       <c r="O10">
-        <v>16.7106</v>
+        <v>18.5179</v>
       </c>
       <c r="P10">
-        <v>2.22838</v>
+        <v>2.46935</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1831,10 +1831,10 @@
         <v>29</v>
       </c>
       <c r="O11">
-        <v>16.0391</v>
+        <v>17.6917</v>
       </c>
       <c r="P11">
-        <v>2.13884</v>
+        <v>2.35919</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1881,10 +1881,10 @@
         <v>29</v>
       </c>
       <c r="O12">
-        <v>15.4713</v>
+        <v>16.7624</v>
       </c>
       <c r="P12">
-        <v>2.06314</v>
+        <v>2.23529</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1931,10 +1931,10 @@
         <v>29</v>
       </c>
       <c r="O13">
-        <v>15.0063</v>
+        <v>15.9361</v>
       </c>
       <c r="P13">
-        <v>2.00114</v>
+        <v>2.12509</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1981,10 +1981,10 @@
         <v>29</v>
       </c>
       <c r="O14">
-        <v>14.5417</v>
+        <v>15.2128</v>
       </c>
       <c r="P14">
-        <v>1.93918</v>
+        <v>2.02866</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -2031,10 +2031,10 @@
         <v>29</v>
       </c>
       <c r="O15">
-        <v>13.9735</v>
+        <v>14.49</v>
       </c>
       <c r="P15">
-        <v>1.86342</v>
+        <v>1.93227</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -2081,10 +2081,10 @@
         <v>29</v>
       </c>
       <c r="O16">
-        <v>13.4573</v>
+        <v>13.7153</v>
       </c>
       <c r="P16">
-        <v>1.7946</v>
+        <v>1.82899</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -2131,10 +2131,10 @@
         <v>29</v>
       </c>
       <c r="O17">
-        <v>12.9406</v>
+        <v>12.8373</v>
       </c>
       <c r="P17">
-        <v>1.7257</v>
+        <v>1.71193</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -2231,7 +2231,7 @@
         <v>29</v>
       </c>
       <c r="O19">
-        <v>12.0631</v>
+        <v>12.0632</v>
       </c>
       <c r="P19">
         <v>1.60872</v>
@@ -2531,10 +2531,10 @@
         <v>29</v>
       </c>
       <c r="O25">
-        <v>7.00142</v>
+        <v>6.949999999999999</v>
       </c>
       <c r="P25">
-        <v>0.933817</v>
+        <v>0.926957</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -2584,7 +2584,7 @@
         <v>6.22702</v>
       </c>
       <c r="P26">
-        <v>0.8305630000000001</v>
+        <v>0.830562</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -2731,10 +2731,10 @@
         <v>29</v>
       </c>
       <c r="O29">
-        <v>3.64431</v>
+        <v>3.64449</v>
       </c>
       <c r="P29">
-        <v>0.486202</v>
+        <v>0.486219</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -3031,10 +3031,10 @@
         <v>29</v>
       </c>
       <c r="O35">
-        <v>-1.7767</v>
+        <v>-1.77668</v>
       </c>
       <c r="P35">
-        <v>-0.236623</v>
+        <v>-0.236609</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -3231,10 +3231,10 @@
         <v>29</v>
       </c>
       <c r="O39">
-        <v>-5.18563</v>
+        <v>-5.23735</v>
       </c>
       <c r="P39">
-        <v>-0.691133</v>
+        <v>-0.69802</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -3331,10 +3331,10 @@
         <v>29</v>
       </c>
       <c r="O41">
-        <v>-6.8897</v>
+        <v>-6.94132</v>
       </c>
       <c r="P41">
-        <v>-0.918339</v>
+        <v>-0.925207</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -3381,10 +3381,10 @@
         <v>29</v>
       </c>
       <c r="O42">
-        <v>-7.870699999999999</v>
+        <v>-7.767569999999999</v>
       </c>
       <c r="P42">
-        <v>-1.04914</v>
+        <v>-1.03537</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -3434,7 +3434,7 @@
         <v>-8.59357</v>
       </c>
       <c r="P43">
-        <v>-1.1455</v>
+        <v>-1.14552</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -3481,10 +3481,10 @@
         <v>29</v>
       </c>
       <c r="O44">
-        <v>-9.52322</v>
+        <v>-9.419729999999999</v>
       </c>
       <c r="P44">
-        <v>-1.26947</v>
+        <v>-1.25568</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -3581,7 +3581,7 @@
         <v>29</v>
       </c>
       <c r="O46">
-        <v>-11.2269</v>
+        <v>-11.227</v>
       </c>
       <c r="P46">
         <v>-1.49664</v>
@@ -3684,7 +3684,7 @@
         <v>-12.8801</v>
       </c>
       <c r="P48">
-        <v>-1.71706</v>
+        <v>-1.71705</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -3731,10 +3731,10 @@
         <v>29</v>
       </c>
       <c r="O49">
-        <v>-12.8285</v>
+        <v>-12.7768</v>
       </c>
       <c r="P49">
-        <v>-1.71018</v>
+        <v>-1.7033</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -3781,10 +3781,10 @@
         <v>29</v>
       </c>
       <c r="O50">
-        <v>-13.3967</v>
+        <v>-13.7062</v>
       </c>
       <c r="P50">
-        <v>-1.78594</v>
+        <v>-1.82721</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -3831,10 +3831,10 @@
         <v>29</v>
       </c>
       <c r="O51">
-        <v>-13.8615</v>
+        <v>-14.3783</v>
       </c>
       <c r="P51">
-        <v>-1.84791</v>
+        <v>-1.91682</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -3881,10 +3881,10 @@
         <v>29</v>
       </c>
       <c r="O52">
-        <v>-14.4815</v>
+        <v>-15.2047</v>
       </c>
       <c r="P52">
-        <v>-1.93058</v>
+        <v>-2.02699</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -3931,10 +3931,10 @@
         <v>29</v>
       </c>
       <c r="O53">
-        <v>-14.9462</v>
+        <v>-15.7724</v>
       </c>
       <c r="P53">
-        <v>-1.99252</v>
+        <v>-2.10268</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -3981,10 +3981,10 @@
         <v>29</v>
       </c>
       <c r="O54">
-        <v>-15.4623</v>
+        <v>-16.6495</v>
       </c>
       <c r="P54">
-        <v>-2.06135</v>
+        <v>-2.21963</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -4031,10 +4031,10 @@
         <v>29</v>
       </c>
       <c r="O55">
-        <v>-15.979</v>
+        <v>-17.3211</v>
       </c>
       <c r="P55">
-        <v>-2.13024</v>
+        <v>-2.30919</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -4081,10 +4081,10 @@
         <v>29</v>
       </c>
       <c r="O56">
-        <v>-16.4952</v>
+        <v>-18.1991</v>
       </c>
       <c r="P56">
-        <v>-2.19908</v>
+        <v>-2.42625</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -4131,10 +4131,10 @@
         <v>29</v>
       </c>
       <c r="O57">
-        <v>-16.9081</v>
+        <v>-18.5072</v>
       </c>
       <c r="P57">
-        <v>-2.25412</v>
+        <v>-2.46735</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -4181,10 +4181,10 @@
         <v>29</v>
       </c>
       <c r="O58">
-        <v>-17.3729</v>
+        <v>-19.4384</v>
       </c>
       <c r="P58">
-        <v>-2.31609</v>
+        <v>-2.5915</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -4231,10 +4231,10 @@
         <v>29</v>
       </c>
       <c r="O59">
-        <v>-17.9411</v>
+        <v>-20.2651</v>
       </c>
       <c r="P59">
-        <v>-2.39186</v>
+        <v>-2.70173</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -4281,10 +4281,10 @@
         <v>29</v>
       </c>
       <c r="O60">
-        <v>-18.5599</v>
+        <v>-21.1429</v>
       </c>
       <c r="P60">
-        <v>-2.47435</v>
+        <v>-2.81877</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -4331,10 +4331,10 @@
         <v>29</v>
       </c>
       <c r="O61">
-        <v>-19.1285</v>
+        <v>-21.969</v>
       </c>
       <c r="P61">
-        <v>-2.55018</v>
+        <v>-2.92891</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -4381,10 +4381,10 @@
         <v>29</v>
       </c>
       <c r="O62">
-        <v>-19.8001</v>
+        <v>-22.8984</v>
       </c>
       <c r="P62">
-        <v>-2.63975</v>
+        <v>-3.05284</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -4431,10 +4431,10 @@
         <v>29</v>
       </c>
       <c r="O63">
-        <v>-20.3684</v>
+        <v>-23.7767</v>
       </c>
       <c r="P63">
-        <v>-2.7155</v>
+        <v>-3.16994</v>
       </c>
     </row>
     <row r="64" spans="1:16">
@@ -4481,10 +4481,10 @@
         <v>29</v>
       </c>
       <c r="O64">
-        <v>-20.9879</v>
+        <v>-24.7577</v>
       </c>
       <c r="P64">
-        <v>-2.7981</v>
+        <v>-3.30075</v>
       </c>
     </row>
     <row r="65" spans="1:16">
@@ -4531,10 +4531,10 @@
         <v>163</v>
       </c>
       <c r="O65">
-        <v>29.9845</v>
+        <v>34.0119</v>
       </c>
       <c r="P65">
-        <v>3.63467</v>
+        <v>4.12284</v>
       </c>
     </row>
     <row r="66" spans="1:16">
@@ -4581,10 +4581,10 @@
         <v>163</v>
       </c>
       <c r="O66">
-        <v>29.1331</v>
+        <v>32.8382</v>
       </c>
       <c r="P66">
-        <v>3.53148</v>
+        <v>3.98057</v>
       </c>
     </row>
     <row r="67" spans="1:16">
@@ -4631,10 +4631,10 @@
         <v>163</v>
       </c>
       <c r="O67">
-        <v>28.2321</v>
+        <v>31.6872</v>
       </c>
       <c r="P67">
-        <v>3.42226</v>
+        <v>3.84106</v>
       </c>
     </row>
     <row r="68" spans="1:16">
@@ -4681,10 +4681,10 @@
         <v>163</v>
       </c>
       <c r="O68">
-        <v>27.4032</v>
+        <v>30.5349</v>
       </c>
       <c r="P68">
-        <v>3.32179</v>
+        <v>3.70139</v>
       </c>
     </row>
     <row r="69" spans="1:16">
@@ -4731,10 +4731,10 @@
         <v>163</v>
       </c>
       <c r="O69">
-        <v>26.6303</v>
+        <v>29.6841</v>
       </c>
       <c r="P69">
-        <v>3.2281</v>
+        <v>3.59826</v>
       </c>
     </row>
     <row r="70" spans="1:16">
@@ -4781,10 +4781,10 @@
         <v>163</v>
       </c>
       <c r="O70">
-        <v>25.879</v>
+        <v>28.4326</v>
       </c>
       <c r="P70">
-        <v>3.13704</v>
+        <v>3.44656</v>
       </c>
     </row>
     <row r="71" spans="1:16">
@@ -4831,10 +4831,10 @@
         <v>163</v>
       </c>
       <c r="O71">
-        <v>24.9789</v>
+        <v>27.3309</v>
       </c>
       <c r="P71">
-        <v>3.02792</v>
+        <v>3.31303</v>
       </c>
     </row>
     <row r="72" spans="1:16">
@@ -4881,10 +4881,10 @@
         <v>163</v>
       </c>
       <c r="O72">
-        <v>24.1769</v>
+        <v>26.0803</v>
       </c>
       <c r="P72">
-        <v>2.93072</v>
+        <v>3.16144</v>
       </c>
     </row>
     <row r="73" spans="1:16">
@@ -4931,10 +4931,10 @@
         <v>163</v>
       </c>
       <c r="O73">
-        <v>23.7262</v>
+        <v>26.0793</v>
       </c>
       <c r="P73">
-        <v>2.87609</v>
+        <v>3.16132</v>
       </c>
     </row>
     <row r="74" spans="1:16">
@@ -4981,10 +4981,10 @@
         <v>163</v>
       </c>
       <c r="O74">
-        <v>22.8748</v>
+        <v>24.8277</v>
       </c>
       <c r="P74">
-        <v>2.7729</v>
+        <v>3.00961</v>
       </c>
     </row>
     <row r="75" spans="1:16">
@@ -5031,10 +5031,10 @@
         <v>163</v>
       </c>
       <c r="O75">
-        <v>22.0237</v>
+        <v>23.6763</v>
       </c>
       <c r="P75">
-        <v>2.66973</v>
+        <v>2.87005</v>
       </c>
     </row>
     <row r="76" spans="1:16">
@@ -5081,10 +5081,10 @@
         <v>163</v>
       </c>
       <c r="O76">
-        <v>21.1732</v>
+        <v>22.4742</v>
       </c>
       <c r="P76">
-        <v>2.56663</v>
+        <v>2.72433</v>
       </c>
     </row>
     <row r="77" spans="1:16">
@@ -5131,10 +5131,10 @@
         <v>163</v>
       </c>
       <c r="O77">
-        <v>20.5214</v>
+        <v>21.5731</v>
       </c>
       <c r="P77">
-        <v>2.48764</v>
+        <v>2.61511</v>
       </c>
     </row>
     <row r="78" spans="1:16">
@@ -5181,10 +5181,10 @@
         <v>163</v>
       </c>
       <c r="O78">
-        <v>19.574</v>
+        <v>20.3714</v>
       </c>
       <c r="P78">
-        <v>2.37279</v>
+        <v>2.46944</v>
       </c>
     </row>
     <row r="79" spans="1:16">
@@ -5231,10 +5231,10 @@
         <v>163</v>
       </c>
       <c r="O79">
-        <v>18.7727</v>
+        <v>19.1732</v>
       </c>
       <c r="P79">
-        <v>2.27567</v>
+        <v>2.32421</v>
       </c>
     </row>
     <row r="80" spans="1:16">
@@ -5731,10 +5731,10 @@
         <v>163</v>
       </c>
       <c r="O89">
-        <v>7.85355</v>
+        <v>7.853509999999999</v>
       </c>
       <c r="P89">
-        <v>0.95213</v>
+        <v>0.9521269999999999</v>
       </c>
     </row>
     <row r="90" spans="1:16">
@@ -6431,7 +6431,7 @@
         <v>163</v>
       </c>
       <c r="O103">
-        <v>-7.91278</v>
+        <v>-7.912789999999999</v>
       </c>
       <c r="P103">
         <v>-0.958942</v>
@@ -6531,10 +6531,10 @@
         <v>163</v>
       </c>
       <c r="O105">
-        <v>-10.1652</v>
+        <v>-10.1654</v>
       </c>
       <c r="P105">
-        <v>-1.23196</v>
+        <v>-1.23198</v>
       </c>
     </row>
     <row r="106" spans="1:16">
@@ -6634,7 +6634,7 @@
         <v>-12.817</v>
       </c>
       <c r="P107">
-        <v>-1.5475</v>
+        <v>-1.54749</v>
       </c>
     </row>
     <row r="108" spans="1:16">
@@ -6931,10 +6931,10 @@
         <v>163</v>
       </c>
       <c r="O113">
-        <v>-18.9247</v>
+        <v>-19.2248</v>
       </c>
       <c r="P113">
-        <v>-2.29371</v>
+        <v>-2.33009</v>
       </c>
     </row>
     <row r="114" spans="1:16">
@@ -6981,10 +6981,10 @@
         <v>163</v>
       </c>
       <c r="O114">
-        <v>-19.7034</v>
+        <v>-20.4764</v>
       </c>
       <c r="P114">
-        <v>-2.3881</v>
+        <v>-2.48181</v>
       </c>
     </row>
     <row r="115" spans="1:16">
@@ -7031,10 +7031,10 @@
         <v>163</v>
       </c>
       <c r="O115">
-        <v>-20.5769</v>
+        <v>-21.5778</v>
       </c>
       <c r="P115">
-        <v>-2.49398</v>
+        <v>-2.6153</v>
       </c>
     </row>
     <row r="116" spans="1:16">
@@ -7081,10 +7081,10 @@
         <v>163</v>
       </c>
       <c r="O116">
-        <v>-21.3274</v>
+        <v>-22.529</v>
       </c>
       <c r="P116">
-        <v>-2.58495</v>
+        <v>-2.7306</v>
       </c>
     </row>
     <row r="117" spans="1:16">
@@ -7131,10 +7131,10 @@
         <v>163</v>
       </c>
       <c r="O117">
-        <v>-22.1282</v>
+        <v>-23.7308</v>
       </c>
       <c r="P117">
-        <v>-2.68202</v>
+        <v>-2.87628</v>
       </c>
     </row>
     <row r="118" spans="1:16">
@@ -7181,10 +7181,10 @@
         <v>163</v>
       </c>
       <c r="O118">
-        <v>-22.9798</v>
+        <v>-24.9818</v>
       </c>
       <c r="P118">
-        <v>-2.78525</v>
+        <v>-3.0279</v>
       </c>
     </row>
     <row r="119" spans="1:16">
@@ -7231,10 +7231,10 @@
         <v>163</v>
       </c>
       <c r="O119">
-        <v>-23.7308</v>
+        <v>-26.1825</v>
       </c>
       <c r="P119">
-        <v>-2.87627</v>
+        <v>-3.17345</v>
       </c>
     </row>
     <row r="120" spans="1:16">
@@ -7281,10 +7281,10 @@
         <v>163</v>
       </c>
       <c r="O120">
-        <v>-24.2811</v>
+        <v>-26.2326</v>
       </c>
       <c r="P120">
-        <v>-2.94298</v>
+        <v>-3.17951</v>
       </c>
     </row>
     <row r="121" spans="1:16">
@@ -7331,10 +7331,10 @@
         <v>163</v>
       </c>
       <c r="O121">
-        <v>-25.1818</v>
+        <v>-27.4334</v>
       </c>
       <c r="P121">
-        <v>-3.05216</v>
+        <v>-3.32508</v>
       </c>
     </row>
     <row r="122" spans="1:16">
@@ -7381,10 +7381,10 @@
         <v>163</v>
       </c>
       <c r="O122">
-        <v>-25.9324</v>
+        <v>-28.6341</v>
       </c>
       <c r="P122">
-        <v>-3.14312</v>
+        <v>-3.47062</v>
       </c>
     </row>
     <row r="123" spans="1:16">
@@ -7431,10 +7431,10 @@
         <v>163</v>
       </c>
       <c r="O123">
-        <v>-26.7828</v>
+        <v>-29.9346</v>
       </c>
       <c r="P123">
-        <v>-3.24622</v>
+        <v>-3.62824</v>
       </c>
     </row>
     <row r="124" spans="1:16">
@@ -7481,10 +7481,10 @@
         <v>163</v>
       </c>
       <c r="O124">
-        <v>-27.5333</v>
+        <v>-30.8352</v>
       </c>
       <c r="P124">
-        <v>-3.33717</v>
+        <v>-3.73741</v>
       </c>
     </row>
     <row r="125" spans="1:16">
@@ -7531,10 +7531,10 @@
         <v>163</v>
       </c>
       <c r="O125">
-        <v>-28.434</v>
+        <v>-32.0359</v>
       </c>
       <c r="P125">
-        <v>-3.44636</v>
+        <v>-3.88295</v>
       </c>
     </row>
     <row r="126" spans="1:16">
@@ -7581,10 +7581,10 @@
         <v>163</v>
       </c>
       <c r="O126">
-        <v>-29.2842</v>
+        <v>-33.2367</v>
       </c>
       <c r="P126">
-        <v>-3.54941</v>
+        <v>-4.0285</v>
       </c>
     </row>
     <row r="127" spans="1:16">
@@ -7631,10 +7631,10 @@
         <v>163</v>
       </c>
       <c r="O127">
-        <v>-30.2347</v>
+        <v>-34.3874</v>
       </c>
       <c r="P127">
-        <v>-3.66462</v>
+        <v>-4.16798</v>
       </c>
     </row>
     <row r="128" spans="1:16">
@@ -7681,10 +7681,10 @@
         <v>236</v>
       </c>
       <c r="O128">
-        <v>17.0525</v>
+        <v>18.8083</v>
       </c>
       <c r="P128">
-        <v>2.52692</v>
+        <v>2.78702</v>
       </c>
     </row>
     <row r="129" spans="1:16">
@@ -7731,10 +7731,10 @@
         <v>236</v>
       </c>
       <c r="O129">
-        <v>16.6904</v>
+        <v>18.3948</v>
       </c>
       <c r="P129">
-        <v>2.47329</v>
+        <v>2.72578</v>
       </c>
     </row>
     <row r="130" spans="1:16">
@@ -7781,10 +7781,10 @@
         <v>236</v>
       </c>
       <c r="O130">
-        <v>16.2817</v>
+        <v>17.7813</v>
       </c>
       <c r="P130">
-        <v>2.41267</v>
+        <v>2.63488</v>
       </c>
     </row>
     <row r="131" spans="1:16">
@@ -7831,10 +7831,10 @@
         <v>236</v>
       </c>
       <c r="O131">
-        <v>15.8637</v>
+        <v>17.215</v>
       </c>
       <c r="P131">
-        <v>2.35082</v>
+        <v>2.55092</v>
       </c>
     </row>
     <row r="132" spans="1:16">
@@ -7881,10 +7881,10 @@
         <v>236</v>
       </c>
       <c r="O132">
-        <v>15.5538</v>
+        <v>16.8452</v>
       </c>
       <c r="P132">
-        <v>2.30476</v>
+        <v>2.49619</v>
       </c>
     </row>
     <row r="133" spans="1:16">
@@ -7931,10 +7931,10 @@
         <v>236</v>
       </c>
       <c r="O133">
-        <v>15.1411</v>
+        <v>16.3318</v>
       </c>
       <c r="P133">
-        <v>2.24377</v>
+        <v>2.42731</v>
       </c>
     </row>
     <row r="134" spans="1:16">
@@ -7981,10 +7981,10 @@
         <v>236</v>
       </c>
       <c r="O134">
-        <v>14.8303</v>
+        <v>15.8637</v>
       </c>
       <c r="P134">
-        <v>2.1977</v>
+        <v>2.35078</v>
       </c>
     </row>
     <row r="135" spans="1:16">
@@ -8031,10 +8031,10 @@
         <v>236</v>
       </c>
       <c r="O135">
-        <v>14.4186</v>
+        <v>15.2448</v>
       </c>
       <c r="P135">
-        <v>2.14408</v>
+        <v>2.2591</v>
       </c>
     </row>
     <row r="136" spans="1:16">
@@ -8081,10 +8081,10 @@
         <v>236</v>
       </c>
       <c r="O136">
-        <v>14.1074</v>
+        <v>15.1478</v>
       </c>
       <c r="P136">
-        <v>2.09062</v>
+        <v>2.24469</v>
       </c>
     </row>
     <row r="137" spans="1:16">
@@ -8131,10 +8131,10 @@
         <v>236</v>
       </c>
       <c r="O137">
-        <v>13.7051</v>
+        <v>14.5723</v>
       </c>
       <c r="P137">
-        <v>2.03103</v>
+        <v>2.15947</v>
       </c>
     </row>
     <row r="138" spans="1:16">
@@ -8181,10 +8181,10 @@
         <v>236</v>
       </c>
       <c r="O138">
-        <v>13.4353</v>
+        <v>14.122</v>
       </c>
       <c r="P138">
-        <v>1.99103</v>
+        <v>2.09279</v>
       </c>
     </row>
     <row r="139" spans="1:16">
@@ -8231,10 +8231,10 @@
         <v>236</v>
       </c>
       <c r="O139">
-        <v>12.9788</v>
+        <v>13.5387</v>
       </c>
       <c r="P139">
-        <v>1.92336</v>
+        <v>2.00638</v>
       </c>
     </row>
     <row r="140" spans="1:16">
@@ -8281,10 +8281,10 @@
         <v>236</v>
       </c>
       <c r="O140">
-        <v>12.7641</v>
+        <v>13.1852</v>
       </c>
       <c r="P140">
-        <v>1.89159</v>
+        <v>1.95394</v>
       </c>
     </row>
     <row r="141" spans="1:16">
@@ -8331,10 +8331,10 @@
         <v>236</v>
       </c>
       <c r="O141">
-        <v>12.3001</v>
+        <v>12.6092</v>
       </c>
       <c r="P141">
-        <v>1.83038</v>
+        <v>1.86868</v>
       </c>
     </row>
     <row r="142" spans="1:16">
@@ -8381,10 +8381,10 @@
         <v>236</v>
       </c>
       <c r="O142">
-        <v>11.9378</v>
+        <v>12.0439</v>
       </c>
       <c r="P142">
-        <v>1.76922</v>
+        <v>1.7849</v>
       </c>
     </row>
     <row r="143" spans="1:16">
@@ -8481,10 +8481,10 @@
         <v>236</v>
       </c>
       <c r="O144">
-        <v>11.473</v>
+        <v>11.4729</v>
       </c>
       <c r="P144">
-        <v>1.70036</v>
+        <v>1.7003</v>
       </c>
     </row>
     <row r="145" spans="1:16">
@@ -8531,10 +8531,10 @@
         <v>236</v>
       </c>
       <c r="O145">
-        <v>10.6466</v>
+        <v>10.6479</v>
       </c>
       <c r="P145">
-        <v>1.57789</v>
+        <v>1.57807</v>
       </c>
     </row>
     <row r="146" spans="1:16">
@@ -8781,7 +8781,7 @@
         <v>236</v>
       </c>
       <c r="O150">
-        <v>6.52097</v>
+        <v>6.52096</v>
       </c>
       <c r="P150">
         <v>0.972728</v>
@@ -9431,10 +9431,10 @@
         <v>236</v>
       </c>
       <c r="O163">
-        <v>-2.74061</v>
+        <v>-2.73851</v>
       </c>
       <c r="P163">
-        <v>-0.40538</v>
+        <v>-0.405071</v>
       </c>
     </row>
     <row r="164" spans="1:16">
@@ -9481,10 +9481,10 @@
         <v>236</v>
       </c>
       <c r="O164">
-        <v>-3.46363</v>
+        <v>-3.41255</v>
       </c>
       <c r="P164">
-        <v>-0.512507</v>
+        <v>-0.504907</v>
       </c>
     </row>
     <row r="165" spans="1:16">
@@ -9581,10 +9581,10 @@
         <v>236</v>
       </c>
       <c r="O166">
-        <v>-4.962730000000001</v>
+        <v>-5.01318</v>
       </c>
       <c r="P166">
-        <v>-0.734611</v>
+        <v>-0.734625</v>
       </c>
     </row>
     <row r="167" spans="1:16">
@@ -9631,10 +9631,10 @@
         <v>236</v>
       </c>
       <c r="O167">
-        <v>-5.62688</v>
+        <v>-5.5735</v>
       </c>
       <c r="P167">
-        <v>-0.833035</v>
+        <v>-0.825145</v>
       </c>
     </row>
     <row r="168" spans="1:16">
@@ -9681,10 +9681,10 @@
         <v>236</v>
       </c>
       <c r="O168">
-        <v>-6.40196</v>
+        <v>-6.40942</v>
       </c>
       <c r="P168">
-        <v>-0.947893</v>
+        <v>-0.9489300000000001</v>
       </c>
     </row>
     <row r="169" spans="1:16">
@@ -9731,10 +9731,10 @@
         <v>236</v>
       </c>
       <c r="O169">
-        <v>-7.029249999999999</v>
+        <v>-7.08083</v>
       </c>
       <c r="P169">
-        <v>-1.04076</v>
+        <v>-1.04839</v>
       </c>
     </row>
     <row r="170" spans="1:16">
@@ -9781,10 +9781,10 @@
         <v>236</v>
       </c>
       <c r="O170">
-        <v>-7.79714</v>
+        <v>-7.79718</v>
       </c>
       <c r="P170">
-        <v>-1.15458</v>
+        <v>-1.15459</v>
       </c>
     </row>
     <row r="171" spans="1:16">
@@ -9831,10 +9831,10 @@
         <v>236</v>
       </c>
       <c r="O171">
-        <v>-8.475820000000001</v>
+        <v>-8.47588</v>
       </c>
       <c r="P171">
-        <v>-1.25506</v>
+        <v>-1.25507</v>
       </c>
     </row>
     <row r="172" spans="1:16">
@@ -9881,10 +9881,10 @@
         <v>236</v>
       </c>
       <c r="O172">
-        <v>-9.1401</v>
+        <v>-9.139799999999999</v>
       </c>
       <c r="P172">
-        <v>-1.35353</v>
+        <v>-1.35348</v>
       </c>
     </row>
     <row r="173" spans="1:16">
@@ -9931,10 +9931,10 @@
         <v>236</v>
       </c>
       <c r="O173">
-        <v>-9.870889999999999</v>
+        <v>-9.819380000000001</v>
       </c>
       <c r="P173">
-        <v>-1.46182</v>
+        <v>-1.4541</v>
       </c>
     </row>
     <row r="174" spans="1:16">
@@ -9981,10 +9981,10 @@
         <v>236</v>
       </c>
       <c r="O174">
-        <v>-10.5424</v>
+        <v>-10.5876</v>
       </c>
       <c r="P174">
-        <v>-1.56122</v>
+        <v>-1.56797</v>
       </c>
     </row>
     <row r="175" spans="1:16">
@@ -10031,10 +10031,10 @@
         <v>236</v>
       </c>
       <c r="O175">
-        <v>-10.4295</v>
+        <v>-10.4902</v>
       </c>
       <c r="P175">
-        <v>-1.5445</v>
+        <v>-1.55348</v>
       </c>
     </row>
     <row r="176" spans="1:16">
@@ -10081,10 +10081,10 @@
         <v>236</v>
       </c>
       <c r="O176">
-        <v>-10.8524</v>
+        <v>-11.0059</v>
       </c>
       <c r="P176">
-        <v>-1.60715</v>
+        <v>-1.62255</v>
       </c>
     </row>
     <row r="177" spans="1:16">
@@ -10131,10 +10131,10 @@
         <v>236</v>
       </c>
       <c r="O177">
-        <v>-11.2654</v>
+        <v>-11.5226</v>
       </c>
       <c r="P177">
-        <v>-1.66078</v>
+        <v>-1.69912</v>
       </c>
     </row>
     <row r="178" spans="1:16">
@@ -10181,10 +10181,10 @@
         <v>236</v>
       </c>
       <c r="O178">
-        <v>-11.5251</v>
+        <v>-12.0933</v>
       </c>
       <c r="P178">
-        <v>-1.70678</v>
+        <v>-1.79098</v>
       </c>
     </row>
     <row r="179" spans="1:16">
@@ -10231,10 +10231,10 @@
         <v>236</v>
       </c>
       <c r="O179">
-        <v>-11.8861</v>
+        <v>-12.4984</v>
       </c>
       <c r="P179">
-        <v>-1.76027</v>
+        <v>-1.85107</v>
       </c>
     </row>
     <row r="180" spans="1:16">
@@ -10281,10 +10281,10 @@
         <v>236</v>
       </c>
       <c r="O180">
-        <v>-12.4034</v>
+        <v>-13.1274</v>
       </c>
       <c r="P180">
-        <v>-1.83692</v>
+        <v>-1.94418</v>
       </c>
     </row>
     <row r="181" spans="1:16">
@@ -10331,10 +10331,10 @@
         <v>236</v>
       </c>
       <c r="O181">
-        <v>-12.6618</v>
+        <v>-13.5926</v>
       </c>
       <c r="P181">
-        <v>-1.8752</v>
+        <v>-2.01305</v>
       </c>
     </row>
     <row r="182" spans="1:16">
@@ -10381,10 +10381,10 @@
         <v>236</v>
       </c>
       <c r="O182">
-        <v>-13.0693</v>
+        <v>-14.1093</v>
       </c>
       <c r="P182">
-        <v>-1.93562</v>
+        <v>-2.08963</v>
       </c>
     </row>
     <row r="183" spans="1:16">
@@ -10431,10 +10431,10 @@
         <v>236</v>
       </c>
       <c r="O183">
-        <v>-13.3334</v>
+        <v>-14.3153</v>
       </c>
       <c r="P183">
-        <v>-1.97471</v>
+        <v>-2.12019</v>
       </c>
     </row>
     <row r="184" spans="1:16">
@@ -10481,10 +10481,10 @@
         <v>236</v>
       </c>
       <c r="O184">
-        <v>-13.7449</v>
+        <v>-14.8845</v>
       </c>
       <c r="P184">
-        <v>-2.03566</v>
+        <v>-2.20448</v>
       </c>
     </row>
     <row r="185" spans="1:16">
@@ -10531,10 +10531,10 @@
         <v>236</v>
       </c>
       <c r="O185">
-        <v>-14.2125</v>
+        <v>-15.4973</v>
       </c>
       <c r="P185">
-        <v>-2.10497</v>
+        <v>-2.29533</v>
       </c>
     </row>
     <row r="186" spans="1:16">
@@ -10581,10 +10581,10 @@
         <v>236</v>
       </c>
       <c r="O186">
-        <v>-14.5228</v>
+        <v>-15.9705</v>
       </c>
       <c r="P186">
-        <v>-2.15092</v>
+        <v>-2.36535</v>
       </c>
     </row>
     <row r="187" spans="1:16">
@@ -10631,10 +10631,10 @@
         <v>236</v>
       </c>
       <c r="O187">
-        <v>-14.8841</v>
+        <v>-16.4285</v>
       </c>
       <c r="P187">
-        <v>-2.20443</v>
+        <v>-2.43325</v>
       </c>
     </row>
     <row r="188" spans="1:16">
@@ -10681,10 +10681,10 @@
         <v>236</v>
       </c>
       <c r="O188">
-        <v>-15.3499</v>
+        <v>-17.0553</v>
       </c>
       <c r="P188">
-        <v>-2.27341</v>
+        <v>-2.52611</v>
       </c>
     </row>
     <row r="189" spans="1:16">
@@ -10731,10 +10731,10 @@
         <v>236</v>
       </c>
       <c r="O189">
-        <v>-15.7634</v>
+        <v>-17.5729</v>
       </c>
       <c r="P189">
-        <v>-2.33472</v>
+        <v>-2.60279</v>
       </c>
     </row>
     <row r="190" spans="1:16">
@@ -10781,10 +10781,10 @@
         <v>236</v>
       </c>
       <c r="O190">
-        <v>-16.0736</v>
+        <v>-18.0887</v>
       </c>
       <c r="P190">
-        <v>-2.38066</v>
+        <v>-2.67164</v>
       </c>
     </row>
     <row r="191" spans="1:16" s="1" customFormat="1">
@@ -10842,10 +10842,10 @@
         <v>299</v>
       </c>
       <c r="O192" s="1">
-        <v>-30.2347</v>
+        <v>-34.3874</v>
       </c>
       <c r="P192" s="1">
-        <v>-3.66462</v>
+        <v>-4.16798</v>
       </c>
     </row>
     <row r="193" spans="14:16" s="1" customFormat="1">
@@ -10853,10 +10853,10 @@
         <v>300</v>
       </c>
       <c r="O193" s="1">
-        <v>29.9845</v>
+        <v>34.0119</v>
       </c>
       <c r="P193" s="1">
-        <v>3.63467</v>
+        <v>4.12284</v>
       </c>
     </row>
     <row r="194" spans="14:16" s="1" customFormat="1">
@@ -10896,10 +10896,10 @@
         <v>305</v>
       </c>
       <c r="O198" s="1">
-        <v>0.1339285259259267</v>
+        <v>0.122716779894181</v>
       </c>
       <c r="P198" s="1">
-        <v>0.02044503862433854</v>
+        <v>0.0189436629629629</v>
       </c>
     </row>
     <row r="199" spans="14:16" s="1" customFormat="1">
@@ -10907,10 +10907,10 @@
         <v>306</v>
       </c>
       <c r="O199" s="1">
-        <v>14.71564675561562</v>
+        <v>15.91025792928412</v>
       </c>
       <c r="P199" s="1">
-        <v>1.910913389419184</v>
+        <v>2.064318343671851</v>
       </c>
     </row>
     <row r="200" spans="14:16" s="1" customFormat="1">
@@ -10918,10 +10918,10 @@
         <v>307</v>
       </c>
       <c r="O200" s="1">
-        <v>10987.68664396005</v>
+        <v>12965.02234087594</v>
       </c>
       <c r="P200" s="1">
-        <v>9346.587328743715</v>
+        <v>10897.14458976512</v>
       </c>
     </row>
     <row r="201" spans="14:16" s="1" customFormat="1"/>

--- a/dcd_top_offset_step_tsmc2p_meas.xlsx
+++ b/dcd_top_offset_step_tsmc2p_meas.xlsx
@@ -944,7 +944,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -960,13 +960,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF "/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9133"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0094D1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -981,9 +1000,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1381,10 +1402,10 @@
         <v>29</v>
       </c>
       <c r="O2">
-        <v>24.9775</v>
+        <v>30.0856</v>
       </c>
       <c r="P2">
-        <v>3.3306</v>
+        <v>4.01169</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1431,10 +1452,10 @@
         <v>29</v>
       </c>
       <c r="O3">
-        <v>24.0437</v>
+        <v>28.6916</v>
       </c>
       <c r="P3">
-        <v>3.20611</v>
+        <v>3.82586</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1481,10 +1502,10 @@
         <v>29</v>
       </c>
       <c r="O4">
-        <v>23.1658</v>
+        <v>27.4002</v>
       </c>
       <c r="P4">
-        <v>3.08907</v>
+        <v>3.65366</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1531,10 +1552,10 @@
         <v>29</v>
       </c>
       <c r="O5">
-        <v>22.2361</v>
+        <v>26.0061</v>
       </c>
       <c r="P5">
-        <v>2.96511</v>
+        <v>3.46777</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1581,10 +1602,10 @@
         <v>29</v>
       </c>
       <c r="O6">
-        <v>21.4617</v>
+        <v>25.1797</v>
       </c>
       <c r="P6">
-        <v>2.86186</v>
+        <v>3.35758</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1631,10 +1652,10 @@
         <v>29</v>
       </c>
       <c r="O7">
-        <v>20.5327</v>
+        <v>23.7854</v>
       </c>
       <c r="P7">
-        <v>2.73798</v>
+        <v>3.17168</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1681,10 +1702,10 @@
         <v>29</v>
       </c>
       <c r="O8">
-        <v>19.6542</v>
+        <v>22.443</v>
       </c>
       <c r="P8">
-        <v>2.62085</v>
+        <v>2.99269</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1731,10 +1752,10 @@
         <v>29</v>
       </c>
       <c r="O9">
-        <v>18.7765</v>
+        <v>21.1002</v>
       </c>
       <c r="P9">
-        <v>2.50384</v>
+        <v>2.81365</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1781,10 +1802,10 @@
         <v>29</v>
       </c>
       <c r="O10">
-        <v>18.5179</v>
+        <v>21.4617</v>
       </c>
       <c r="P10">
-        <v>2.46935</v>
+        <v>2.86185</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1831,10 +1852,10 @@
         <v>29</v>
       </c>
       <c r="O11">
-        <v>17.6917</v>
+        <v>20.1187</v>
       </c>
       <c r="P11">
-        <v>2.35919</v>
+        <v>2.68278</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1881,10 +1902,10 @@
         <v>29</v>
       </c>
       <c r="O12">
-        <v>16.7624</v>
+        <v>18.8282</v>
       </c>
       <c r="P12">
-        <v>2.23529</v>
+        <v>2.51072</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1931,10 +1952,10 @@
         <v>29</v>
       </c>
       <c r="O13">
-        <v>15.9361</v>
+        <v>17.3821</v>
       </c>
       <c r="P13">
-        <v>2.12509</v>
+        <v>2.3179</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1981,10 +2002,10 @@
         <v>29</v>
       </c>
       <c r="O14">
-        <v>15.2128</v>
+        <v>16.5563</v>
       </c>
       <c r="P14">
-        <v>2.02866</v>
+        <v>2.2078</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -2031,10 +2052,10 @@
         <v>29</v>
       </c>
       <c r="O15">
-        <v>14.49</v>
+        <v>15.2133</v>
       </c>
       <c r="P15">
-        <v>1.93227</v>
+        <v>2.02874</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -2081,10 +2102,10 @@
         <v>29</v>
       </c>
       <c r="O16">
-        <v>13.7153</v>
+        <v>14.1285</v>
       </c>
       <c r="P16">
-        <v>1.82899</v>
+        <v>1.88409</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -2131,10 +2152,10 @@
         <v>29</v>
       </c>
       <c r="O17">
-        <v>12.8373</v>
+        <v>12.838</v>
       </c>
       <c r="P17">
-        <v>1.71193</v>
+        <v>1.71204</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -2181,10 +2202,10 @@
         <v>29</v>
       </c>
       <c r="O18">
-        <v>12.8891</v>
+        <v>12.8377</v>
       </c>
       <c r="P18">
-        <v>1.71884</v>
+        <v>1.71198</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -2231,10 +2252,10 @@
         <v>29</v>
       </c>
       <c r="O19">
-        <v>12.0632</v>
+        <v>12.0626</v>
       </c>
       <c r="P19">
-        <v>1.60872</v>
+        <v>1.60862</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -2281,10 +2302,10 @@
         <v>29</v>
       </c>
       <c r="O20">
-        <v>11.3398</v>
+        <v>11.3397</v>
       </c>
       <c r="P20">
-        <v>1.51227</v>
+        <v>1.51226</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -2331,10 +2352,10 @@
         <v>29</v>
       </c>
       <c r="O21">
-        <v>10.4104</v>
+        <v>10.4097</v>
       </c>
       <c r="P21">
-        <v>1.38835</v>
+        <v>1.38825</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -2381,10 +2402,10 @@
         <v>29</v>
       </c>
       <c r="O22">
-        <v>9.532310000000001</v>
+        <v>9.58362</v>
       </c>
       <c r="P22">
-        <v>1.27127</v>
+        <v>1.27811</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -2431,10 +2452,10 @@
         <v>29</v>
       </c>
       <c r="O23">
-        <v>8.70607</v>
+        <v>8.7057</v>
       </c>
       <c r="P23">
-        <v>1.1611</v>
+        <v>1.16104</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -2481,10 +2502,10 @@
         <v>29</v>
       </c>
       <c r="O24">
-        <v>7.87934</v>
+        <v>7.879449999999999</v>
       </c>
       <c r="P24">
-        <v>1.05087</v>
+        <v>1.05088</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -2531,10 +2552,10 @@
         <v>29</v>
       </c>
       <c r="O25">
-        <v>6.949999999999999</v>
+        <v>7.001580000000001</v>
       </c>
       <c r="P25">
-        <v>0.926957</v>
+        <v>0.933845</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -2581,10 +2602,10 @@
         <v>29</v>
       </c>
       <c r="O26">
-        <v>6.22702</v>
+        <v>6.22739</v>
       </c>
       <c r="P26">
-        <v>0.830562</v>
+        <v>0.830611</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -2631,10 +2652,10 @@
         <v>29</v>
       </c>
       <c r="O27">
-        <v>5.34838</v>
+        <v>5.34861</v>
       </c>
       <c r="P27">
-        <v>0.7134</v>
+        <v>0.713437</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -2681,10 +2702,10 @@
         <v>29</v>
       </c>
       <c r="O28">
-        <v>4.47075</v>
+        <v>4.470509999999999</v>
       </c>
       <c r="P28">
-        <v>0.596391</v>
+        <v>0.59635</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -2731,10 +2752,10 @@
         <v>29</v>
       </c>
       <c r="O29">
-        <v>3.64449</v>
+        <v>3.64427</v>
       </c>
       <c r="P29">
-        <v>0.486219</v>
+        <v>0.486183</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2781,10 +2802,10 @@
         <v>29</v>
       </c>
       <c r="O30">
-        <v>2.71353</v>
+        <v>2.71354</v>
       </c>
       <c r="P30">
-        <v>0.362094</v>
+        <v>0.362096</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2831,10 +2852,10 @@
         <v>29</v>
       </c>
       <c r="O31">
-        <v>1.83676</v>
+        <v>1.78535</v>
       </c>
       <c r="P31">
-        <v>0.245183</v>
+        <v>0.23833</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -2881,10 +2902,10 @@
         <v>29</v>
       </c>
       <c r="O32">
-        <v>0.960757</v>
+        <v>0.960806</v>
       </c>
       <c r="P32">
-        <v>0.128389</v>
+        <v>0.1284</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2931,10 +2952,10 @@
         <v>29</v>
       </c>
       <c r="O33">
-        <v>0.135289</v>
+        <v>0.135269</v>
       </c>
       <c r="P33">
-        <v>0.0183215</v>
+        <v>0.0183193</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -3031,10 +3052,10 @@
         <v>29</v>
       </c>
       <c r="O35">
-        <v>-1.77668</v>
+        <v>-1.72645</v>
       </c>
       <c r="P35">
-        <v>-0.236609</v>
+        <v>-0.22991</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -3081,10 +3102,10 @@
         <v>29</v>
       </c>
       <c r="O36">
-        <v>-2.60538</v>
+        <v>-2.65692</v>
       </c>
       <c r="P36">
-        <v>-0.347097</v>
+        <v>-0.353971</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -3181,10 +3202,10 @@
         <v>29</v>
       </c>
       <c r="O38">
-        <v>-4.359789999999999</v>
+        <v>-4.308059999999999</v>
       </c>
       <c r="P38">
-        <v>-0.581018</v>
+        <v>-0.574133</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -3231,10 +3252,10 @@
         <v>29</v>
       </c>
       <c r="O39">
-        <v>-5.23735</v>
+        <v>-5.28925</v>
       </c>
       <c r="P39">
-        <v>-0.69802</v>
+        <v>-0.704945</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -3281,10 +3302,10 @@
         <v>29</v>
       </c>
       <c r="O40">
-        <v>-6.11525</v>
+        <v>-6.06378</v>
       </c>
       <c r="P40">
-        <v>-0.8150849999999999</v>
+        <v>-0.808207</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -3331,10 +3352,10 @@
         <v>29</v>
       </c>
       <c r="O41">
-        <v>-6.94132</v>
+        <v>-6.94107</v>
       </c>
       <c r="P41">
-        <v>-0.925207</v>
+        <v>-0.925176</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -3381,10 +3402,10 @@
         <v>29</v>
       </c>
       <c r="O42">
-        <v>-7.767569999999999</v>
+        <v>-7.87008</v>
       </c>
       <c r="P42">
-        <v>-1.03537</v>
+        <v>-1.04905</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -3431,10 +3452,10 @@
         <v>29</v>
       </c>
       <c r="O43">
-        <v>-8.59357</v>
+        <v>-8.64471</v>
       </c>
       <c r="P43">
-        <v>-1.14552</v>
+        <v>-1.15234</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -3481,10 +3502,10 @@
         <v>29</v>
       </c>
       <c r="O44">
-        <v>-9.419729999999999</v>
+        <v>-9.47123</v>
       </c>
       <c r="P44">
-        <v>-1.25568</v>
+        <v>-1.26254</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -3531,10 +3552,10 @@
         <v>29</v>
       </c>
       <c r="O45">
-        <v>-10.246</v>
+        <v>-10.2975</v>
       </c>
       <c r="P45">
-        <v>-1.36584</v>
+        <v>-1.37271</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -3581,10 +3602,10 @@
         <v>29</v>
       </c>
       <c r="O46">
-        <v>-11.227</v>
+        <v>-11.1749</v>
       </c>
       <c r="P46">
-        <v>-1.49664</v>
+        <v>-1.4897</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -3631,7 +3652,7 @@
         <v>29</v>
       </c>
       <c r="O47">
-        <v>-12.0532</v>
+        <v>-12.0533</v>
       </c>
       <c r="P47">
         <v>-1.6068</v>
@@ -3681,10 +3702,10 @@
         <v>29</v>
       </c>
       <c r="O48">
-        <v>-12.8801</v>
+        <v>-12.8802</v>
       </c>
       <c r="P48">
-        <v>-1.71705</v>
+        <v>-1.71708</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -3731,10 +3752,10 @@
         <v>29</v>
       </c>
       <c r="O49">
-        <v>-12.7768</v>
+        <v>-12.8284</v>
       </c>
       <c r="P49">
-        <v>-1.7033</v>
+        <v>-1.71016</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -3781,10 +3802,10 @@
         <v>29</v>
       </c>
       <c r="O50">
-        <v>-13.7062</v>
+        <v>-14.0681</v>
       </c>
       <c r="P50">
-        <v>-1.82721</v>
+        <v>-1.87546</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -3831,10 +3852,10 @@
         <v>29</v>
       </c>
       <c r="O51">
-        <v>-14.3783</v>
+        <v>-15.2044</v>
       </c>
       <c r="P51">
-        <v>-1.91682</v>
+        <v>-2.02696</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -3881,10 +3902,10 @@
         <v>29</v>
       </c>
       <c r="O52">
-        <v>-15.2047</v>
+        <v>-16.4435</v>
       </c>
       <c r="P52">
-        <v>-2.02699</v>
+        <v>-2.19217</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -3931,10 +3952,10 @@
         <v>29</v>
       </c>
       <c r="O53">
-        <v>-15.7724</v>
+        <v>-17.2181</v>
       </c>
       <c r="P53">
-        <v>-2.10268</v>
+        <v>-2.29545</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -3981,10 +4002,10 @@
         <v>29</v>
       </c>
       <c r="O54">
-        <v>-16.6495</v>
+        <v>-18.56</v>
       </c>
       <c r="P54">
-        <v>-2.21963</v>
+        <v>-2.47438</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -4031,10 +4052,10 @@
         <v>29</v>
       </c>
       <c r="O55">
-        <v>-17.3211</v>
+        <v>-19.8516</v>
       </c>
       <c r="P55">
-        <v>-2.30919</v>
+        <v>-2.64659</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -4081,10 +4102,10 @@
         <v>29</v>
       </c>
       <c r="O56">
-        <v>-18.1991</v>
+        <v>-21.2461</v>
       </c>
       <c r="P56">
-        <v>-2.42625</v>
+        <v>-2.83251</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -4131,10 +4152,10 @@
         <v>29</v>
       </c>
       <c r="O57">
-        <v>-18.5072</v>
+        <v>-20.7814</v>
       </c>
       <c r="P57">
-        <v>-2.46735</v>
+        <v>-2.77057</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -4181,10 +4202,10 @@
         <v>29</v>
       </c>
       <c r="O58">
-        <v>-19.4384</v>
+        <v>-22.2273</v>
       </c>
       <c r="P58">
-        <v>-2.5915</v>
+        <v>-2.96335</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -4231,10 +4252,10 @@
         <v>29</v>
       </c>
       <c r="O59">
-        <v>-20.2651</v>
+        <v>-23.57</v>
       </c>
       <c r="P59">
-        <v>-2.70173</v>
+        <v>-3.14238</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -4281,10 +4302,10 @@
         <v>29</v>
       </c>
       <c r="O60">
-        <v>-21.1429</v>
+        <v>-24.9639</v>
       </c>
       <c r="P60">
-        <v>-2.81877</v>
+        <v>-3.32824</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -4331,10 +4352,10 @@
         <v>29</v>
       </c>
       <c r="O61">
-        <v>-21.969</v>
+        <v>-25.8419</v>
       </c>
       <c r="P61">
-        <v>-2.92891</v>
+        <v>-3.44529</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -4381,10 +4402,10 @@
         <v>29</v>
       </c>
       <c r="O62">
-        <v>-22.8984</v>
+        <v>-27.2361</v>
       </c>
       <c r="P62">
-        <v>-3.05284</v>
+        <v>-3.6312</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -4431,10 +4452,10 @@
         <v>29</v>
       </c>
       <c r="O63">
-        <v>-23.7767</v>
+        <v>-28.5789</v>
       </c>
       <c r="P63">
-        <v>-3.16994</v>
+        <v>-3.81023</v>
       </c>
     </row>
     <row r="64" spans="1:16">
@@ -4481,10 +4502,10 @@
         <v>29</v>
       </c>
       <c r="O64">
-        <v>-24.7577</v>
+        <v>-29.9215</v>
       </c>
       <c r="P64">
-        <v>-3.30075</v>
+        <v>-3.98926</v>
       </c>
     </row>
     <row r="65" spans="1:16">
@@ -4530,11 +4551,11 @@
       <c r="N65" t="s">
         <v>163</v>
       </c>
-      <c r="O65">
-        <v>34.0119</v>
+      <c r="O65" s="2">
+        <v>39.2466</v>
       </c>
       <c r="P65">
-        <v>4.12284</v>
+        <v>4.75734</v>
       </c>
     </row>
     <row r="66" spans="1:16">
@@ -4580,11 +4601,11 @@
       <c r="N66" t="s">
         <v>163</v>
       </c>
-      <c r="O66">
-        <v>32.8382</v>
+      <c r="O66" s="2">
+        <v>37.6941</v>
       </c>
       <c r="P66">
-        <v>3.98057</v>
+        <v>4.56917</v>
       </c>
     </row>
     <row r="67" spans="1:16">
@@ -4630,11 +4651,11 @@
       <c r="N67" t="s">
         <v>163</v>
       </c>
-      <c r="O67">
-        <v>31.6872</v>
+      <c r="O67" s="2">
+        <v>36.2423</v>
       </c>
       <c r="P67">
-        <v>3.84106</v>
+        <v>4.39321</v>
       </c>
     </row>
     <row r="68" spans="1:16">
@@ -4681,10 +4702,10 @@
         <v>163</v>
       </c>
       <c r="O68">
-        <v>30.5349</v>
+        <v>34.49039999999999</v>
       </c>
       <c r="P68">
-        <v>3.70139</v>
+        <v>4.18084</v>
       </c>
     </row>
     <row r="69" spans="1:16">
@@ -4731,10 +4752,10 @@
         <v>163</v>
       </c>
       <c r="O69">
-        <v>29.6841</v>
+        <v>33.6394</v>
       </c>
       <c r="P69">
-        <v>3.59826</v>
+        <v>4.07769</v>
       </c>
     </row>
     <row r="70" spans="1:16">
@@ -4781,10 +4802,10 @@
         <v>163</v>
       </c>
       <c r="O70">
-        <v>28.4326</v>
+        <v>31.9368</v>
       </c>
       <c r="P70">
-        <v>3.44656</v>
+        <v>3.87132</v>
       </c>
     </row>
     <row r="71" spans="1:16">
@@ -4831,10 +4852,10 @@
         <v>163</v>
       </c>
       <c r="O71">
-        <v>27.3309</v>
+        <v>30.335</v>
       </c>
       <c r="P71">
-        <v>3.31303</v>
+        <v>3.67715</v>
       </c>
     </row>
     <row r="72" spans="1:16">
@@ -4881,10 +4902,10 @@
         <v>163</v>
       </c>
       <c r="O72">
-        <v>26.0803</v>
+        <v>28.6326</v>
       </c>
       <c r="P72">
-        <v>3.16144</v>
+        <v>3.4708</v>
       </c>
     </row>
     <row r="73" spans="1:16">
@@ -4931,10 +4952,10 @@
         <v>163</v>
       </c>
       <c r="O73">
-        <v>26.0793</v>
+        <v>29.634</v>
       </c>
       <c r="P73">
-        <v>3.16132</v>
+        <v>3.5922</v>
       </c>
     </row>
     <row r="74" spans="1:16">
@@ -4981,10 +5002,10 @@
         <v>163</v>
       </c>
       <c r="O74">
-        <v>24.8277</v>
+        <v>27.8316</v>
       </c>
       <c r="P74">
-        <v>3.00961</v>
+        <v>3.37372</v>
       </c>
     </row>
     <row r="75" spans="1:16">
@@ -5031,10 +5052,10 @@
         <v>163</v>
       </c>
       <c r="O75">
-        <v>23.6763</v>
+        <v>26.1298</v>
       </c>
       <c r="P75">
-        <v>2.87005</v>
+        <v>3.16744</v>
       </c>
     </row>
     <row r="76" spans="1:16">
@@ -5081,10 +5102,10 @@
         <v>163</v>
       </c>
       <c r="O76">
-        <v>22.4742</v>
+        <v>24.3772</v>
       </c>
       <c r="P76">
-        <v>2.72433</v>
+        <v>2.955</v>
       </c>
     </row>
     <row r="77" spans="1:16">
@@ -5131,10 +5152,10 @@
         <v>163</v>
       </c>
       <c r="O77">
-        <v>21.5731</v>
+        <v>23.2757</v>
       </c>
       <c r="P77">
-        <v>2.61511</v>
+        <v>2.82148</v>
       </c>
     </row>
     <row r="78" spans="1:16">
@@ -5181,10 +5202,10 @@
         <v>163</v>
       </c>
       <c r="O78">
-        <v>20.3714</v>
+        <v>21.4729</v>
       </c>
       <c r="P78">
-        <v>2.46944</v>
+        <v>2.60296</v>
       </c>
     </row>
     <row r="79" spans="1:16">
@@ -5231,10 +5252,10 @@
         <v>163</v>
       </c>
       <c r="O79">
-        <v>19.1732</v>
+        <v>19.8204</v>
       </c>
       <c r="P79">
-        <v>2.32421</v>
+        <v>2.40267</v>
       </c>
     </row>
     <row r="80" spans="1:16">
@@ -5281,7 +5302,7 @@
         <v>163</v>
       </c>
       <c r="O80">
-        <v>18.0182</v>
+        <v>18.0183</v>
       </c>
       <c r="P80">
         <v>2.19022</v>
@@ -5331,10 +5352,10 @@
         <v>163</v>
       </c>
       <c r="O81">
-        <v>18.018</v>
+        <v>18.0182</v>
       </c>
       <c r="P81">
-        <v>2.18418</v>
+        <v>2.19022</v>
       </c>
     </row>
     <row r="82" spans="1:16">
@@ -5381,10 +5402,10 @@
         <v>163</v>
       </c>
       <c r="O82">
-        <v>16.667</v>
+        <v>16.6759</v>
       </c>
       <c r="P82">
-        <v>2.02042</v>
+        <v>2.0215</v>
       </c>
     </row>
     <row r="83" spans="1:16">
@@ -5431,10 +5452,10 @@
         <v>163</v>
       </c>
       <c r="O83">
-        <v>15.4641</v>
+        <v>15.3649</v>
       </c>
       <c r="P83">
-        <v>1.87462</v>
+        <v>1.8626</v>
       </c>
     </row>
     <row r="84" spans="1:16">
@@ -5481,10 +5502,10 @@
         <v>163</v>
       </c>
       <c r="O84">
-        <v>14.1625</v>
+        <v>14.1124</v>
       </c>
       <c r="P84">
-        <v>1.71685</v>
+        <v>1.71079</v>
       </c>
     </row>
     <row r="85" spans="1:16">
@@ -5531,10 +5552,10 @@
         <v>163</v>
       </c>
       <c r="O85">
-        <v>12.9105</v>
+        <v>12.8605</v>
       </c>
       <c r="P85">
-        <v>1.56509</v>
+        <v>1.55903</v>
       </c>
     </row>
     <row r="86" spans="1:16">
@@ -5581,10 +5602,10 @@
         <v>163</v>
       </c>
       <c r="O86">
-        <v>11.5587</v>
+        <v>11.5086</v>
       </c>
       <c r="P86">
-        <v>1.40123</v>
+        <v>1.39518</v>
       </c>
     </row>
     <row r="87" spans="1:16">
@@ -5631,10 +5652,10 @@
         <v>163</v>
       </c>
       <c r="O87">
-        <v>10.1567</v>
+        <v>10.2066</v>
       </c>
       <c r="P87">
-        <v>1.2313</v>
+        <v>1.23735</v>
       </c>
     </row>
     <row r="88" spans="1:16">
@@ -5681,10 +5702,10 @@
         <v>163</v>
       </c>
       <c r="O88">
-        <v>8.904679999999999</v>
+        <v>8.904590000000001</v>
       </c>
       <c r="P88">
-        <v>1.07954</v>
+        <v>1.07953</v>
       </c>
     </row>
     <row r="89" spans="1:16">
@@ -5731,10 +5752,10 @@
         <v>163</v>
       </c>
       <c r="O89">
-        <v>7.853509999999999</v>
+        <v>7.85337</v>
       </c>
       <c r="P89">
-        <v>0.9521269999999999</v>
+        <v>0.952109</v>
       </c>
     </row>
     <row r="90" spans="1:16">
@@ -5781,10 +5802,10 @@
         <v>163</v>
       </c>
       <c r="O90">
-        <v>6.70172</v>
+        <v>6.70167</v>
       </c>
       <c r="P90">
-        <v>0.812516</v>
+        <v>0.812505</v>
       </c>
     </row>
     <row r="91" spans="1:16">
@@ -5881,7 +5902,7 @@
         <v>163</v>
       </c>
       <c r="O92">
-        <v>4.45015</v>
+        <v>4.45014</v>
       </c>
       <c r="P92">
         <v>0.545521</v>
@@ -5931,10 +5952,10 @@
         <v>163</v>
       </c>
       <c r="O93">
-        <v>3.44716</v>
+        <v>3.39732</v>
       </c>
       <c r="P93">
-        <v>0.418032</v>
+        <v>0.411967</v>
       </c>
     </row>
     <row r="94" spans="1:16">
@@ -6031,10 +6052,10 @@
         <v>163</v>
       </c>
       <c r="O95">
-        <v>1.24765</v>
+        <v>1.24766</v>
       </c>
       <c r="P95">
-        <v>0.151416</v>
+        <v>0.151417</v>
       </c>
     </row>
     <row r="96" spans="1:16">
@@ -6081,10 +6102,10 @@
         <v>163</v>
       </c>
       <c r="O96">
-        <v>0.0462314</v>
+        <v>0.0462316</v>
       </c>
       <c r="P96">
-        <v>0.0057856</v>
+        <v>0.00578562</v>
       </c>
     </row>
     <row r="97" spans="1:16">
@@ -6131,10 +6152,10 @@
         <v>163</v>
       </c>
       <c r="O97">
-        <v>-1.10546</v>
+        <v>-1.10545</v>
       </c>
       <c r="P97">
-        <v>-0.133813</v>
+        <v>-0.133811</v>
       </c>
     </row>
     <row r="98" spans="1:16">
@@ -6181,7 +6202,7 @@
         <v>163</v>
       </c>
       <c r="O98">
-        <v>-2.30356</v>
+        <v>-2.30357</v>
       </c>
       <c r="P98">
         <v>-0.273478</v>
@@ -6231,10 +6252,10 @@
         <v>163</v>
       </c>
       <c r="O99">
-        <v>-3.35922</v>
+        <v>-3.35909</v>
       </c>
       <c r="P99">
-        <v>-0.406991</v>
+        <v>-0.406976</v>
       </c>
     </row>
     <row r="100" spans="1:16">
@@ -6281,10 +6302,10 @@
         <v>163</v>
       </c>
       <c r="O100">
-        <v>-4.43718</v>
+        <v>-4.444240000000001</v>
       </c>
       <c r="P100">
-        <v>-0.537612</v>
+        <v>-0.53851</v>
       </c>
     </row>
     <row r="101" spans="1:16">
@@ -6331,10 +6352,10 @@
         <v>163</v>
       </c>
       <c r="O101">
-        <v>-5.56052</v>
+        <v>-5.56057</v>
       </c>
       <c r="P101">
-        <v>-0.673818</v>
+        <v>-0.673821</v>
       </c>
     </row>
     <row r="102" spans="1:16">
@@ -6381,10 +6402,10 @@
         <v>163</v>
       </c>
       <c r="O102">
-        <v>-6.7117</v>
+        <v>-6.71177</v>
       </c>
       <c r="P102">
-        <v>-0.813343</v>
+        <v>-0.813354</v>
       </c>
     </row>
     <row r="103" spans="1:16">
@@ -6431,10 +6452,10 @@
         <v>163</v>
       </c>
       <c r="O103">
-        <v>-7.912789999999999</v>
+        <v>-7.91286</v>
       </c>
       <c r="P103">
-        <v>-0.958942</v>
+        <v>-0.958945</v>
       </c>
     </row>
     <row r="104" spans="1:16">
@@ -6481,10 +6502,10 @@
         <v>163</v>
       </c>
       <c r="O104">
-        <v>-8.960610000000001</v>
+        <v>-8.960600000000001</v>
       </c>
       <c r="P104">
-        <v>-1.08595</v>
+        <v>-1.08594</v>
       </c>
     </row>
     <row r="105" spans="1:16">
@@ -6531,10 +6552,10 @@
         <v>163</v>
       </c>
       <c r="O105">
-        <v>-10.1654</v>
+        <v>-10.1155</v>
       </c>
       <c r="P105">
-        <v>-1.23198</v>
+        <v>-1.22594</v>
       </c>
     </row>
     <row r="106" spans="1:16">
@@ -6581,10 +6602,10 @@
         <v>163</v>
       </c>
       <c r="O106">
-        <v>-11.4667</v>
+        <v>-11.5167</v>
       </c>
       <c r="P106">
-        <v>-1.38972</v>
+        <v>-1.39578</v>
       </c>
     </row>
     <row r="107" spans="1:16">
@@ -6631,10 +6652,10 @@
         <v>163</v>
       </c>
       <c r="O107">
-        <v>-12.817</v>
+        <v>-12.8179</v>
       </c>
       <c r="P107">
-        <v>-1.54749</v>
+        <v>-1.55349</v>
       </c>
     </row>
     <row r="108" spans="1:16">
@@ -6681,10 +6702,10 @@
         <v>163</v>
       </c>
       <c r="O108">
-        <v>-14.1197</v>
+        <v>-14.1196</v>
       </c>
       <c r="P108">
-        <v>-1.71128</v>
+        <v>-1.71127</v>
       </c>
     </row>
     <row r="109" spans="1:16">
@@ -6731,10 +6752,10 @@
         <v>163</v>
       </c>
       <c r="O109">
-        <v>-15.471</v>
+        <v>-15.4711</v>
       </c>
       <c r="P109">
-        <v>-1.87508</v>
+        <v>-1.8751</v>
       </c>
     </row>
     <row r="110" spans="1:16">
@@ -6781,10 +6802,10 @@
         <v>163</v>
       </c>
       <c r="O110">
-        <v>-16.772</v>
+        <v>-16.7719</v>
       </c>
       <c r="P110">
-        <v>-2.03278</v>
+        <v>-2.03277</v>
       </c>
     </row>
     <row r="111" spans="1:16">
@@ -6831,10 +6852,10 @@
         <v>163</v>
       </c>
       <c r="O111">
-        <v>-18.0739</v>
+        <v>-18.0699</v>
       </c>
       <c r="P111">
-        <v>-2.19059</v>
+        <v>-2.19012</v>
       </c>
     </row>
     <row r="112" spans="1:16">
@@ -6931,10 +6952,10 @@
         <v>163</v>
       </c>
       <c r="O113">
-        <v>-19.2248</v>
+        <v>-19.8758</v>
       </c>
       <c r="P113">
-        <v>-2.33009</v>
+        <v>-2.409</v>
       </c>
     </row>
     <row r="114" spans="1:16">
@@ -6981,10 +7002,10 @@
         <v>163</v>
       </c>
       <c r="O114">
-        <v>-20.4764</v>
+        <v>-21.5778</v>
       </c>
       <c r="P114">
-        <v>-2.48181</v>
+        <v>-2.6153</v>
       </c>
     </row>
     <row r="115" spans="1:16">
@@ -7031,10 +7052,10 @@
         <v>163</v>
       </c>
       <c r="O115">
-        <v>-21.5778</v>
+        <v>-23.3772</v>
       </c>
       <c r="P115">
-        <v>-2.6153</v>
+        <v>-2.83341</v>
       </c>
     </row>
     <row r="116" spans="1:16">
@@ -7081,10 +7102,10 @@
         <v>163</v>
       </c>
       <c r="O116">
-        <v>-22.529</v>
+        <v>-24.4814</v>
       </c>
       <c r="P116">
-        <v>-2.7306</v>
+        <v>-2.96725</v>
       </c>
     </row>
     <row r="117" spans="1:16">
@@ -7131,10 +7152,10 @@
         <v>163</v>
       </c>
       <c r="O117">
-        <v>-23.7308</v>
+        <v>-26.2817</v>
       </c>
       <c r="P117">
-        <v>-2.87628</v>
+        <v>-3.18548</v>
       </c>
     </row>
     <row r="118" spans="1:16">
@@ -7181,10 +7202,10 @@
         <v>163</v>
       </c>
       <c r="O118">
-        <v>-24.9818</v>
+        <v>-28.0335</v>
       </c>
       <c r="P118">
-        <v>-3.0279</v>
+        <v>-3.39781</v>
       </c>
     </row>
     <row r="119" spans="1:16">
@@ -7231,10 +7252,10 @@
         <v>163</v>
       </c>
       <c r="O119">
-        <v>-26.1825</v>
+        <v>-29.8346</v>
       </c>
       <c r="P119">
-        <v>-3.17345</v>
+        <v>-3.61613</v>
       </c>
     </row>
     <row r="120" spans="1:16">
@@ -7281,10 +7302,10 @@
         <v>163</v>
       </c>
       <c r="O120">
-        <v>-26.2326</v>
+        <v>-28.7839</v>
       </c>
       <c r="P120">
-        <v>-3.17951</v>
+        <v>-3.48878</v>
       </c>
     </row>
     <row r="121" spans="1:16">
@@ -7331,10 +7352,10 @@
         <v>163</v>
       </c>
       <c r="O121">
-        <v>-27.4334</v>
+        <v>-30.635</v>
       </c>
       <c r="P121">
-        <v>-3.32508</v>
+        <v>-3.71315</v>
       </c>
     </row>
     <row r="122" spans="1:16">
@@ -7381,10 +7402,10 @@
         <v>163</v>
       </c>
       <c r="O122">
-        <v>-28.6341</v>
+        <v>-32.2861</v>
       </c>
       <c r="P122">
-        <v>-3.47062</v>
+        <v>-3.91328</v>
       </c>
     </row>
     <row r="123" spans="1:16">
@@ -7431,10 +7452,10 @@
         <v>163</v>
       </c>
       <c r="O123">
-        <v>-29.9346</v>
+        <v>-34.0367</v>
       </c>
       <c r="P123">
-        <v>-3.62824</v>
+        <v>-4.12547</v>
       </c>
     </row>
     <row r="124" spans="1:16">
@@ -7480,11 +7501,11 @@
       <c r="N124" t="s">
         <v>163</v>
       </c>
-      <c r="O124">
-        <v>-30.8352</v>
+      <c r="O124" s="3">
+        <v>-35.1379</v>
       </c>
       <c r="P124">
-        <v>-3.73741</v>
+        <v>-4.25895</v>
       </c>
     </row>
     <row r="125" spans="1:16">
@@ -7530,11 +7551,11 @@
       <c r="N125" t="s">
         <v>163</v>
       </c>
-      <c r="O125">
-        <v>-32.0359</v>
+      <c r="O125" s="3">
+        <v>-36.789</v>
       </c>
       <c r="P125">
-        <v>-3.88295</v>
+        <v>-4.45909</v>
       </c>
     </row>
     <row r="126" spans="1:16">
@@ -7580,11 +7601,11 @@
       <c r="N126" t="s">
         <v>163</v>
       </c>
-      <c r="O126">
-        <v>-33.2367</v>
+      <c r="O126" s="3">
+        <v>-38.19</v>
       </c>
       <c r="P126">
-        <v>-4.0285</v>
+        <v>-4.6289</v>
       </c>
     </row>
     <row r="127" spans="1:16">
@@ -7630,11 +7651,11 @@
       <c r="N127" t="s">
         <v>163</v>
       </c>
-      <c r="O127">
-        <v>-34.3874</v>
+      <c r="O127" s="3">
+        <v>-39.7897</v>
       </c>
       <c r="P127">
-        <v>-4.16798</v>
+        <v>-4.82281</v>
       </c>
     </row>
     <row r="128" spans="1:16">
@@ -7681,10 +7702,10 @@
         <v>236</v>
       </c>
       <c r="O128">
-        <v>18.8083</v>
+        <v>22.2713</v>
       </c>
       <c r="P128">
-        <v>2.78702</v>
+        <v>3.30008</v>
       </c>
     </row>
     <row r="129" spans="1:16">
@@ -7731,10 +7752,10 @@
         <v>236</v>
       </c>
       <c r="O129">
-        <v>18.3948</v>
+        <v>21.4952</v>
       </c>
       <c r="P129">
-        <v>2.72578</v>
+        <v>3.18507</v>
       </c>
     </row>
     <row r="130" spans="1:16">
@@ -7781,10 +7802,10 @@
         <v>236</v>
       </c>
       <c r="O130">
-        <v>17.7813</v>
+        <v>20.6673</v>
       </c>
       <c r="P130">
-        <v>2.63488</v>
+        <v>3.06246</v>
       </c>
     </row>
     <row r="131" spans="1:16">
@@ -7831,10 +7852,10 @@
         <v>236</v>
       </c>
       <c r="O131">
-        <v>17.215</v>
+        <v>19.8934</v>
       </c>
       <c r="P131">
-        <v>2.55092</v>
+        <v>2.94779</v>
       </c>
     </row>
     <row r="132" spans="1:16">
@@ -7881,10 +7902,10 @@
         <v>236</v>
       </c>
       <c r="O132">
-        <v>16.8452</v>
+        <v>19.1776</v>
       </c>
       <c r="P132">
-        <v>2.49619</v>
+        <v>2.84169</v>
       </c>
     </row>
     <row r="133" spans="1:16">
@@ -7931,10 +7952,10 @@
         <v>236</v>
       </c>
       <c r="O133">
-        <v>16.3318</v>
+        <v>18.5052</v>
       </c>
       <c r="P133">
-        <v>2.42731</v>
+        <v>2.7421</v>
       </c>
     </row>
     <row r="134" spans="1:16">
@@ -7981,10 +8002,10 @@
         <v>236</v>
       </c>
       <c r="O134">
-        <v>15.8637</v>
+        <v>17.7251</v>
       </c>
       <c r="P134">
-        <v>2.35078</v>
+        <v>2.63395</v>
       </c>
     </row>
     <row r="135" spans="1:16">
@@ -8031,10 +8052,10 @@
         <v>236</v>
       </c>
       <c r="O135">
-        <v>15.2448</v>
+        <v>16.8977</v>
       </c>
       <c r="P135">
-        <v>2.2591</v>
+        <v>2.50399</v>
       </c>
     </row>
     <row r="136" spans="1:16">
@@ -8081,10 +8102,10 @@
         <v>236</v>
       </c>
       <c r="O136">
-        <v>15.1478</v>
+        <v>17.0002</v>
       </c>
       <c r="P136">
-        <v>2.24469</v>
+        <v>2.51919</v>
       </c>
     </row>
     <row r="137" spans="1:16">
@@ -8131,10 +8152,10 @@
         <v>236</v>
       </c>
       <c r="O137">
-        <v>14.5723</v>
+        <v>16.2251</v>
       </c>
       <c r="P137">
-        <v>2.15947</v>
+        <v>2.40434</v>
       </c>
     </row>
     <row r="138" spans="1:16">
@@ -8181,10 +8202,10 @@
         <v>236</v>
       </c>
       <c r="O138">
-        <v>14.122</v>
+        <v>15.3467</v>
       </c>
       <c r="P138">
-        <v>2.09279</v>
+        <v>2.27419</v>
       </c>
     </row>
     <row r="139" spans="1:16">
@@ -8231,10 +8252,10 @@
         <v>236</v>
       </c>
       <c r="O139">
-        <v>13.5387</v>
+        <v>14.5264</v>
       </c>
       <c r="P139">
-        <v>2.00638</v>
+        <v>2.15273</v>
       </c>
     </row>
     <row r="140" spans="1:16">
@@ -8281,10 +8302,10 @@
         <v>236</v>
       </c>
       <c r="O140">
-        <v>13.1852</v>
+        <v>14.107</v>
       </c>
       <c r="P140">
-        <v>1.95394</v>
+        <v>2.09052</v>
       </c>
     </row>
     <row r="141" spans="1:16">
@@ -8331,10 +8352,10 @@
         <v>236</v>
       </c>
       <c r="O141">
-        <v>12.6092</v>
+        <v>13.2295</v>
       </c>
       <c r="P141">
-        <v>1.86868</v>
+        <v>1.96054</v>
       </c>
     </row>
     <row r="142" spans="1:16">
@@ -8381,10 +8402,10 @@
         <v>236</v>
       </c>
       <c r="O142">
-        <v>12.0439</v>
+        <v>12.4021</v>
       </c>
       <c r="P142">
-        <v>1.7849</v>
+        <v>1.83795</v>
       </c>
     </row>
     <row r="143" spans="1:16">
@@ -8431,10 +8452,10 @@
         <v>236</v>
       </c>
       <c r="O143">
-        <v>11.473</v>
+        <v>11.4219</v>
       </c>
       <c r="P143">
-        <v>1.70032</v>
+        <v>1.70027</v>
       </c>
     </row>
     <row r="144" spans="1:16">
@@ -8481,10 +8502,10 @@
         <v>236</v>
       </c>
       <c r="O144">
-        <v>11.4729</v>
+        <v>11.5245</v>
       </c>
       <c r="P144">
-        <v>1.7003</v>
+        <v>1.70797</v>
       </c>
     </row>
     <row r="145" spans="1:16">
@@ -8531,10 +8552,10 @@
         <v>236</v>
       </c>
       <c r="O145">
-        <v>10.6479</v>
+        <v>10.6975</v>
       </c>
       <c r="P145">
-        <v>1.57807</v>
+        <v>1.58546</v>
       </c>
     </row>
     <row r="146" spans="1:16">
@@ -8581,10 +8602,10 @@
         <v>236</v>
       </c>
       <c r="O146">
-        <v>9.921950000000001</v>
+        <v>9.830079999999999</v>
       </c>
       <c r="P146">
-        <v>1.47056</v>
+        <v>1.45691</v>
       </c>
     </row>
     <row r="147" spans="1:16">
@@ -8631,10 +8652,10 @@
         <v>236</v>
       </c>
       <c r="O147">
-        <v>8.94685</v>
+        <v>8.940250000000001</v>
       </c>
       <c r="P147">
-        <v>1.32605</v>
+        <v>1.32512</v>
       </c>
     </row>
     <row r="148" spans="1:16">
@@ -8681,10 +8702,10 @@
         <v>236</v>
       </c>
       <c r="O148">
-        <v>8.267949999999999</v>
+        <v>8.22453</v>
       </c>
       <c r="P148">
-        <v>1.23306</v>
+        <v>1.21901</v>
       </c>
     </row>
     <row r="149" spans="1:16">
@@ -8731,10 +8752,10 @@
         <v>236</v>
       </c>
       <c r="O149">
-        <v>7.492699999999999</v>
+        <v>7.33748</v>
       </c>
       <c r="P149">
-        <v>1.11067</v>
+        <v>1.09526</v>
       </c>
     </row>
     <row r="150" spans="1:16">
@@ -8781,10 +8802,10 @@
         <v>236</v>
       </c>
       <c r="O150">
-        <v>6.52096</v>
+        <v>6.45962</v>
       </c>
       <c r="P150">
-        <v>0.972728</v>
+        <v>0.95761</v>
       </c>
     </row>
     <row r="151" spans="1:16">
@@ -8831,10 +8852,10 @@
         <v>236</v>
       </c>
       <c r="O151">
-        <v>5.68389</v>
+        <v>5.63828</v>
       </c>
       <c r="P151">
-        <v>0.842683</v>
+        <v>0.8358719999999999</v>
       </c>
     </row>
     <row r="152" spans="1:16">
@@ -8881,10 +8902,10 @@
         <v>236</v>
       </c>
       <c r="O152">
-        <v>5.11479</v>
+        <v>5.11469</v>
       </c>
       <c r="P152">
-        <v>0.758394</v>
+        <v>0.758352</v>
       </c>
     </row>
     <row r="153" spans="1:16">
@@ -8934,7 +8955,7 @@
         <v>4.49426</v>
       </c>
       <c r="P153">
-        <v>0.666432</v>
+        <v>0.6664330000000001</v>
       </c>
     </row>
     <row r="154" spans="1:16">
@@ -8981,10 +9002,10 @@
         <v>236</v>
       </c>
       <c r="O154">
-        <v>3.71872</v>
+        <v>3.71936</v>
       </c>
       <c r="P154">
-        <v>0.551527</v>
+        <v>0.559245</v>
       </c>
     </row>
     <row r="155" spans="1:16">
@@ -9031,10 +9052,10 @@
         <v>236</v>
       </c>
       <c r="O155">
-        <v>3.00345</v>
+        <v>2.94421</v>
       </c>
       <c r="P155">
-        <v>0.445539</v>
+        <v>0.43678</v>
       </c>
     </row>
     <row r="156" spans="1:16">
@@ -9081,10 +9102,10 @@
         <v>236</v>
       </c>
       <c r="O156">
-        <v>2.27322</v>
+        <v>2.27321</v>
       </c>
       <c r="P156">
-        <v>0.337405</v>
+        <v>0.337373</v>
       </c>
     </row>
     <row r="157" spans="1:16">
@@ -9131,10 +9152,10 @@
         <v>236</v>
       </c>
       <c r="O157">
-        <v>1.54906</v>
+        <v>1.55987</v>
       </c>
       <c r="P157">
-        <v>0.237624</v>
+        <v>0.231673</v>
       </c>
     </row>
     <row r="158" spans="1:16">
@@ -9181,7 +9202,7 @@
         <v>236</v>
       </c>
       <c r="O158">
-        <v>0.880576</v>
+        <v>0.8805769999999999</v>
       </c>
       <c r="P158">
         <v>0.131049</v>
@@ -9231,10 +9252,10 @@
         <v>236</v>
       </c>
       <c r="O159">
-        <v>0.105568</v>
+        <v>0.10557</v>
       </c>
       <c r="P159">
-        <v>0.0162389</v>
+        <v>0.016239</v>
       </c>
     </row>
     <row r="160" spans="1:16">
@@ -9281,10 +9302,10 @@
         <v>236</v>
       </c>
       <c r="O160">
-        <v>-0.6696869999999999</v>
+        <v>-0.669166</v>
       </c>
       <c r="P160">
-        <v>-0.09862269999999999</v>
+        <v>-0.0984927</v>
       </c>
     </row>
     <row r="161" spans="1:16">
@@ -9381,10 +9402,10 @@
         <v>236</v>
       </c>
       <c r="O162">
-        <v>-2.06795</v>
+        <v>-2.06869</v>
       </c>
       <c r="P162">
-        <v>-0.305768</v>
+        <v>-0.305849</v>
       </c>
     </row>
     <row r="163" spans="1:16">
@@ -9431,10 +9452,10 @@
         <v>236</v>
       </c>
       <c r="O163">
-        <v>-2.73851</v>
+        <v>-2.79139</v>
       </c>
       <c r="P163">
-        <v>-0.405071</v>
+        <v>-0.412922</v>
       </c>
     </row>
     <row r="164" spans="1:16">
@@ -9481,10 +9502,10 @@
         <v>236</v>
       </c>
       <c r="O164">
-        <v>-3.41255</v>
+        <v>-3.46411</v>
       </c>
       <c r="P164">
-        <v>-0.504907</v>
+        <v>-0.51254</v>
       </c>
     </row>
     <row r="165" spans="1:16">
@@ -9531,10 +9552,10 @@
         <v>236</v>
       </c>
       <c r="O165">
-        <v>-4.13624</v>
+        <v>-4.18772</v>
       </c>
       <c r="P165">
-        <v>-0.612148</v>
+        <v>-0.61981</v>
       </c>
     </row>
     <row r="166" spans="1:16">
@@ -9581,10 +9602,10 @@
         <v>236</v>
       </c>
       <c r="O166">
-        <v>-5.01318</v>
+        <v>-4.962809999999999</v>
       </c>
       <c r="P166">
-        <v>-0.734625</v>
+        <v>-0.734583</v>
       </c>
     </row>
     <row r="167" spans="1:16">
@@ -9631,10 +9652,10 @@
         <v>236</v>
       </c>
       <c r="O167">
-        <v>-5.5735</v>
+        <v>-5.632899999999999</v>
       </c>
       <c r="P167">
-        <v>-0.825145</v>
+        <v>-0.833892</v>
       </c>
     </row>
     <row r="168" spans="1:16">
@@ -9681,10 +9702,10 @@
         <v>236</v>
       </c>
       <c r="O168">
-        <v>-6.40942</v>
+        <v>-6.40226</v>
       </c>
       <c r="P168">
-        <v>-0.9489300000000001</v>
+        <v>-0.947941</v>
       </c>
     </row>
     <row r="169" spans="1:16">
@@ -9731,10 +9752,10 @@
         <v>236</v>
       </c>
       <c r="O169">
-        <v>-7.08083</v>
+        <v>-7.126399999999999</v>
       </c>
       <c r="P169">
-        <v>-1.04839</v>
+        <v>-1.0552</v>
       </c>
     </row>
     <row r="170" spans="1:16">
@@ -9781,10 +9802,10 @@
         <v>236</v>
       </c>
       <c r="O170">
-        <v>-7.79718</v>
+        <v>-7.796779999999999</v>
       </c>
       <c r="P170">
-        <v>-1.15459</v>
+        <v>-1.1545</v>
       </c>
     </row>
     <row r="171" spans="1:16">
@@ -9831,10 +9852,10 @@
         <v>236</v>
       </c>
       <c r="O171">
-        <v>-8.47588</v>
+        <v>-8.475150000000001</v>
       </c>
       <c r="P171">
-        <v>-1.25507</v>
+        <v>-1.24745</v>
       </c>
     </row>
     <row r="172" spans="1:16">
@@ -9881,10 +9902,10 @@
         <v>236</v>
       </c>
       <c r="O172">
-        <v>-9.139799999999999</v>
+        <v>-9.04421</v>
       </c>
       <c r="P172">
-        <v>-1.35348</v>
+        <v>-1.33925</v>
       </c>
     </row>
     <row r="173" spans="1:16">
@@ -9931,10 +9952,10 @@
         <v>236</v>
       </c>
       <c r="O173">
-        <v>-9.819380000000001</v>
+        <v>-9.87088</v>
       </c>
       <c r="P173">
-        <v>-1.4541</v>
+        <v>-1.46177</v>
       </c>
     </row>
     <row r="174" spans="1:16">
@@ -9981,10 +10002,10 @@
         <v>236</v>
       </c>
       <c r="O174">
-        <v>-10.5876</v>
+        <v>-10.6453</v>
       </c>
       <c r="P174">
-        <v>-1.56797</v>
+        <v>-1.57645</v>
       </c>
     </row>
     <row r="175" spans="1:16">
@@ -10031,10 +10052,10 @@
         <v>236</v>
       </c>
       <c r="O175">
-        <v>-10.4902</v>
+        <v>-10.4295</v>
       </c>
       <c r="P175">
-        <v>-1.55348</v>
+        <v>-1.54448</v>
       </c>
     </row>
     <row r="176" spans="1:16">
@@ -10081,10 +10102,10 @@
         <v>236</v>
       </c>
       <c r="O176">
-        <v>-11.0059</v>
+        <v>-11.3692</v>
       </c>
       <c r="P176">
-        <v>-1.62255</v>
+        <v>-1.68366</v>
       </c>
     </row>
     <row r="177" spans="1:16">
@@ -10131,10 +10152,10 @@
         <v>236</v>
       </c>
       <c r="O177">
-        <v>-11.5226</v>
+        <v>-12.1957</v>
       </c>
       <c r="P177">
-        <v>-1.69912</v>
+        <v>-1.806</v>
       </c>
     </row>
     <row r="178" spans="1:16">
@@ -10181,10 +10202,10 @@
         <v>236</v>
       </c>
       <c r="O178">
-        <v>-12.0933</v>
+        <v>-12.9722</v>
       </c>
       <c r="P178">
-        <v>-1.79098</v>
+        <v>-1.92117</v>
       </c>
     </row>
     <row r="179" spans="1:16">
@@ -10231,10 +10252,10 @@
         <v>236</v>
       </c>
       <c r="O179">
-        <v>-12.4984</v>
+        <v>-13.6381</v>
       </c>
       <c r="P179">
-        <v>-1.85107</v>
+        <v>-2.01989</v>
       </c>
     </row>
     <row r="180" spans="1:16">
@@ -10281,10 +10302,10 @@
         <v>236</v>
       </c>
       <c r="O180">
-        <v>-13.1274</v>
+        <v>-14.5152</v>
       </c>
       <c r="P180">
-        <v>-1.94418</v>
+        <v>-2.14983</v>
       </c>
     </row>
     <row r="181" spans="1:16">
@@ -10331,10 +10352,10 @@
         <v>236</v>
       </c>
       <c r="O181">
-        <v>-13.5926</v>
+        <v>-15.2467</v>
       </c>
       <c r="P181">
-        <v>-2.01305</v>
+        <v>-2.25816</v>
       </c>
     </row>
     <row r="182" spans="1:16">
@@ -10381,10 +10402,10 @@
         <v>236</v>
       </c>
       <c r="O182">
-        <v>-14.1093</v>
+        <v>-16.2796</v>
       </c>
       <c r="P182">
-        <v>-2.08963</v>
+        <v>-2.41118</v>
       </c>
     </row>
     <row r="183" spans="1:16">
@@ -10431,10 +10452,10 @@
         <v>236</v>
       </c>
       <c r="O183">
-        <v>-14.3153</v>
+        <v>-15.9705</v>
       </c>
       <c r="P183">
-        <v>-2.12019</v>
+        <v>-2.36535</v>
       </c>
     </row>
     <row r="184" spans="1:16">
@@ -10481,10 +10502,10 @@
         <v>236</v>
       </c>
       <c r="O184">
-        <v>-14.8845</v>
+        <v>-16.9529</v>
       </c>
       <c r="P184">
-        <v>-2.20448</v>
+        <v>-2.51089</v>
       </c>
     </row>
     <row r="185" spans="1:16">
@@ -10531,10 +10552,10 @@
         <v>236</v>
       </c>
       <c r="O185">
-        <v>-15.4973</v>
+        <v>-17.6757</v>
       </c>
       <c r="P185">
-        <v>-2.29533</v>
+        <v>-2.61804</v>
       </c>
     </row>
     <row r="186" spans="1:16">
@@ -10581,10 +10602,10 @@
         <v>236</v>
       </c>
       <c r="O186">
-        <v>-15.9705</v>
+        <v>-18.6993</v>
       </c>
       <c r="P186">
-        <v>-2.36535</v>
+        <v>-2.76865</v>
       </c>
     </row>
     <row r="187" spans="1:16">
@@ -10631,10 +10652,10 @@
         <v>236</v>
       </c>
       <c r="O187">
-        <v>-16.4285</v>
+        <v>-19.2778</v>
       </c>
       <c r="P187">
-        <v>-2.43325</v>
+        <v>-2.85536</v>
       </c>
     </row>
     <row r="188" spans="1:16">
@@ -10681,10 +10702,10 @@
         <v>236</v>
       </c>
       <c r="O188">
-        <v>-17.0553</v>
+        <v>-20.3562</v>
       </c>
       <c r="P188">
-        <v>-2.52611</v>
+        <v>-3.01517</v>
       </c>
     </row>
     <row r="189" spans="1:16">
@@ -10731,10 +10752,10 @@
         <v>236</v>
       </c>
       <c r="O189">
-        <v>-17.5729</v>
+        <v>-21.3458</v>
       </c>
       <c r="P189">
-        <v>-2.60279</v>
+        <v>-3.16175</v>
       </c>
     </row>
     <row r="190" spans="1:16">
@@ -10781,10 +10802,10 @@
         <v>236</v>
       </c>
       <c r="O190">
-        <v>-18.0887</v>
+        <v>-22.5859</v>
       </c>
       <c r="P190">
-        <v>-2.67164</v>
+        <v>-3.34546</v>
       </c>
     </row>
     <row r="191" spans="1:16" s="1" customFormat="1">
@@ -10841,22 +10862,22 @@
       <c r="N192" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="O192" s="1">
-        <v>-34.3874</v>
+      <c r="O192" s="3">
+        <v>-39.7897</v>
       </c>
       <c r="P192" s="1">
-        <v>-4.16798</v>
+        <v>-4.82281</v>
       </c>
     </row>
     <row r="193" spans="14:16" s="1" customFormat="1">
       <c r="N193" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="O193" s="1">
-        <v>34.0119</v>
+      <c r="O193" s="2">
+        <v>39.2466</v>
       </c>
       <c r="P193" s="1">
-        <v>4.12284</v>
+        <v>4.75734</v>
       </c>
     </row>
     <row r="194" spans="14:16" s="1" customFormat="1">
@@ -10896,10 +10917,10 @@
         <v>305</v>
       </c>
       <c r="O198" s="1">
-        <v>0.122716779894181</v>
+        <v>0.08687203492063515</v>
       </c>
       <c r="P198" s="1">
-        <v>0.0189436629629629</v>
+        <v>0.01386589005290994</v>
       </c>
     </row>
     <row r="199" spans="14:16" s="1" customFormat="1">
@@ -10907,10 +10928,10 @@
         <v>306</v>
       </c>
       <c r="O199" s="1">
-        <v>15.91025792928412</v>
+        <v>17.71324963281578</v>
       </c>
       <c r="P199" s="1">
-        <v>2.064318343671851</v>
+        <v>2.300425358714927</v>
       </c>
     </row>
     <row r="200" spans="14:16" s="1" customFormat="1">
@@ -10918,10 +10939,10 @@
         <v>307</v>
       </c>
       <c r="O200" s="1">
-        <v>12965.02234087594</v>
+        <v>20390.04801602531</v>
       </c>
       <c r="P200" s="1">
-        <v>10897.14458976512</v>
+        <v>16590.53511845892</v>
       </c>
     </row>
     <row r="201" spans="14:16" s="1" customFormat="1"/>

--- a/dcd_top_offset_step_tsmc2p_meas.xlsx
+++ b/dcd_top_offset_step_tsmc2p_meas.xlsx
@@ -1402,10 +1402,10 @@
         <v>29</v>
       </c>
       <c r="O2">
-        <v>30.0856</v>
+        <v>29.2077</v>
       </c>
       <c r="P2">
-        <v>4.01169</v>
+        <v>3.89464</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1452,10 +1452,10 @@
         <v>29</v>
       </c>
       <c r="O3">
-        <v>28.6916</v>
+        <v>28.0717</v>
       </c>
       <c r="P3">
-        <v>3.82586</v>
+        <v>3.74319</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1502,10 +1502,10 @@
         <v>29</v>
       </c>
       <c r="O4">
-        <v>27.4002</v>
+        <v>26.9356</v>
       </c>
       <c r="P4">
-        <v>3.65366</v>
+        <v>3.5917</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1552,10 +1552,10 @@
         <v>29</v>
       </c>
       <c r="O5">
-        <v>26.0061</v>
+        <v>25.6963</v>
       </c>
       <c r="P5">
-        <v>3.46777</v>
+        <v>3.42646</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1602,10 +1602,10 @@
         <v>29</v>
       </c>
       <c r="O6">
-        <v>25.1797</v>
+        <v>24.9737</v>
       </c>
       <c r="P6">
-        <v>3.35758</v>
+        <v>3.33012</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1652,10 +1652,10 @@
         <v>29</v>
       </c>
       <c r="O7">
-        <v>23.7854</v>
+        <v>23.7338</v>
       </c>
       <c r="P7">
-        <v>3.17168</v>
+        <v>3.16479</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1702,10 +1702,10 @@
         <v>29</v>
       </c>
       <c r="O8">
-        <v>22.443</v>
+        <v>22.6492</v>
       </c>
       <c r="P8">
-        <v>2.99269</v>
+        <v>3.02018</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1752,10 +1752,10 @@
         <v>29</v>
       </c>
       <c r="O9">
-        <v>21.1002</v>
+        <v>21.4106</v>
       </c>
       <c r="P9">
-        <v>2.81365</v>
+        <v>2.86181</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1802,10 +1802,10 @@
         <v>29</v>
       </c>
       <c r="O10">
-        <v>21.4617</v>
+        <v>20.1712</v>
       </c>
       <c r="P10">
-        <v>2.86185</v>
+        <v>2.69655</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1852,10 +1852,10 @@
         <v>29</v>
       </c>
       <c r="O11">
-        <v>20.1187</v>
+        <v>18.9829</v>
       </c>
       <c r="P11">
-        <v>2.68278</v>
+        <v>2.53136</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1902,10 +1902,10 @@
         <v>29</v>
       </c>
       <c r="O12">
-        <v>18.8282</v>
+        <v>18.0017</v>
       </c>
       <c r="P12">
-        <v>2.51072</v>
+        <v>2.40052</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1952,10 +1952,10 @@
         <v>29</v>
       </c>
       <c r="O13">
-        <v>17.3821</v>
+        <v>16.7624</v>
       </c>
       <c r="P13">
-        <v>2.3179</v>
+        <v>2.23528</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -2002,10 +2002,10 @@
         <v>29</v>
       </c>
       <c r="O14">
-        <v>16.5563</v>
+        <v>15.9365</v>
       </c>
       <c r="P14">
-        <v>2.2078</v>
+        <v>2.12515</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -2052,10 +2052,10 @@
         <v>29</v>
       </c>
       <c r="O15">
-        <v>15.2133</v>
+        <v>14.8012</v>
       </c>
       <c r="P15">
-        <v>2.02874</v>
+        <v>1.97378</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -2102,10 +2102,10 @@
         <v>29</v>
       </c>
       <c r="O16">
-        <v>14.1285</v>
+        <v>13.8705</v>
       </c>
       <c r="P16">
-        <v>1.88409</v>
+        <v>1.8497</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -2152,10 +2152,10 @@
         <v>29</v>
       </c>
       <c r="O17">
-        <v>12.838</v>
+        <v>12.9406</v>
       </c>
       <c r="P17">
-        <v>1.71204</v>
+        <v>1.7257</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -2202,10 +2202,10 @@
         <v>29</v>
       </c>
       <c r="O18">
-        <v>12.8377</v>
+        <v>12.8891</v>
       </c>
       <c r="P18">
-        <v>1.71198</v>
+        <v>1.71884</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -2252,10 +2252,10 @@
         <v>29</v>
       </c>
       <c r="O19">
-        <v>12.0626</v>
+        <v>12.0632</v>
       </c>
       <c r="P19">
-        <v>1.60862</v>
+        <v>1.60872</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -2302,10 +2302,10 @@
         <v>29</v>
       </c>
       <c r="O20">
-        <v>11.3397</v>
+        <v>11.3398</v>
       </c>
       <c r="P20">
-        <v>1.51226</v>
+        <v>1.51227</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -2352,10 +2352,10 @@
         <v>29</v>
       </c>
       <c r="O21">
-        <v>10.4097</v>
+        <v>10.4099</v>
       </c>
       <c r="P21">
-        <v>1.38825</v>
+        <v>1.38828</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -2402,10 +2402,10 @@
         <v>29</v>
       </c>
       <c r="O22">
-        <v>9.58362</v>
+        <v>9.532310000000001</v>
       </c>
       <c r="P22">
-        <v>1.27811</v>
+        <v>1.27127</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -2452,10 +2452,10 @@
         <v>29</v>
       </c>
       <c r="O23">
-        <v>8.7057</v>
+        <v>8.70607</v>
       </c>
       <c r="P23">
-        <v>1.16104</v>
+        <v>1.1611</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -2502,10 +2502,10 @@
         <v>29</v>
       </c>
       <c r="O24">
-        <v>7.879449999999999</v>
+        <v>7.87934</v>
       </c>
       <c r="P24">
-        <v>1.05088</v>
+        <v>1.05087</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -2552,10 +2552,10 @@
         <v>29</v>
       </c>
       <c r="O25">
-        <v>7.001580000000001</v>
+        <v>6.949999999999999</v>
       </c>
       <c r="P25">
-        <v>0.933845</v>
+        <v>0.9269579999999999</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -2602,10 +2602,10 @@
         <v>29</v>
       </c>
       <c r="O26">
-        <v>6.22739</v>
+        <v>6.22702</v>
       </c>
       <c r="P26">
-        <v>0.830611</v>
+        <v>0.8305630000000001</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -2652,10 +2652,10 @@
         <v>29</v>
       </c>
       <c r="O27">
-        <v>5.34861</v>
+        <v>5.29701</v>
       </c>
       <c r="P27">
-        <v>0.713437</v>
+        <v>0.706557</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -2702,10 +2702,10 @@
         <v>29</v>
       </c>
       <c r="O28">
-        <v>4.470509999999999</v>
+        <v>4.470680000000001</v>
       </c>
       <c r="P28">
-        <v>0.59635</v>
+        <v>0.596386</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -2802,10 +2802,10 @@
         <v>29</v>
       </c>
       <c r="O30">
-        <v>2.71354</v>
+        <v>2.71353</v>
       </c>
       <c r="P30">
-        <v>0.362096</v>
+        <v>0.362094</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2852,10 +2852,10 @@
         <v>29</v>
       </c>
       <c r="O31">
-        <v>1.78535</v>
+        <v>1.83676</v>
       </c>
       <c r="P31">
-        <v>0.23833</v>
+        <v>0.245183</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -2902,10 +2902,10 @@
         <v>29</v>
       </c>
       <c r="O32">
-        <v>0.960806</v>
+        <v>0.960757</v>
       </c>
       <c r="P32">
-        <v>0.1284</v>
+        <v>0.128389</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2952,10 +2952,10 @@
         <v>29</v>
       </c>
       <c r="O33">
-        <v>0.135269</v>
+        <v>0.135289</v>
       </c>
       <c r="P33">
-        <v>0.0183193</v>
+        <v>0.0183215</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -3052,10 +3052,10 @@
         <v>29</v>
       </c>
       <c r="O35">
-        <v>-1.72645</v>
+        <v>-1.77664</v>
       </c>
       <c r="P35">
-        <v>-0.22991</v>
+        <v>-0.236601</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -3102,10 +3102,10 @@
         <v>29</v>
       </c>
       <c r="O36">
-        <v>-2.65692</v>
+        <v>-2.60538</v>
       </c>
       <c r="P36">
-        <v>-0.353971</v>
+        <v>-0.347097</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -3202,10 +3202,10 @@
         <v>29</v>
       </c>
       <c r="O38">
-        <v>-4.308059999999999</v>
+        <v>-4.359509999999999</v>
       </c>
       <c r="P38">
-        <v>-0.574133</v>
+        <v>-0.580983</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -3252,10 +3252,10 @@
         <v>29</v>
       </c>
       <c r="O39">
-        <v>-5.28925</v>
+        <v>-5.2893</v>
       </c>
       <c r="P39">
-        <v>-0.704945</v>
+        <v>-0.704952</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -3302,10 +3302,10 @@
         <v>29</v>
       </c>
       <c r="O40">
-        <v>-6.06378</v>
+        <v>-6.11525</v>
       </c>
       <c r="P40">
-        <v>-0.808207</v>
+        <v>-0.8150849999999999</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -3352,10 +3352,10 @@
         <v>29</v>
       </c>
       <c r="O41">
-        <v>-6.94107</v>
+        <v>-6.8382</v>
       </c>
       <c r="P41">
-        <v>-0.925176</v>
+        <v>-0.911475</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -3402,10 +3402,10 @@
         <v>29</v>
       </c>
       <c r="O42">
-        <v>-7.87008</v>
+        <v>-7.76767</v>
       </c>
       <c r="P42">
-        <v>-1.04905</v>
+        <v>-1.03539</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -3452,10 +3452,10 @@
         <v>29</v>
       </c>
       <c r="O43">
-        <v>-8.64471</v>
+        <v>-8.644819999999999</v>
       </c>
       <c r="P43">
-        <v>-1.15234</v>
+        <v>-1.15235</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -3502,10 +3502,10 @@
         <v>29</v>
       </c>
       <c r="O44">
-        <v>-9.47123</v>
+        <v>-9.419729999999999</v>
       </c>
       <c r="P44">
-        <v>-1.26254</v>
+        <v>-1.25568</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -3552,10 +3552,10 @@
         <v>29</v>
       </c>
       <c r="O45">
-        <v>-10.2975</v>
+        <v>-10.246</v>
       </c>
       <c r="P45">
-        <v>-1.37271</v>
+        <v>-1.36584</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -3602,10 +3602,10 @@
         <v>29</v>
       </c>
       <c r="O46">
-        <v>-11.1749</v>
+        <v>-11.227</v>
       </c>
       <c r="P46">
-        <v>-1.4897</v>
+        <v>-1.49664</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -3652,7 +3652,7 @@
         <v>29</v>
       </c>
       <c r="O47">
-        <v>-12.0533</v>
+        <v>-12.0532</v>
       </c>
       <c r="P47">
         <v>-1.6068</v>
@@ -3702,10 +3702,10 @@
         <v>29</v>
       </c>
       <c r="O48">
-        <v>-12.8802</v>
+        <v>-12.932</v>
       </c>
       <c r="P48">
-        <v>-1.71708</v>
+        <v>-1.72397</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -3752,10 +3752,10 @@
         <v>29</v>
       </c>
       <c r="O49">
-        <v>-12.8284</v>
+        <v>-12.88</v>
       </c>
       <c r="P49">
-        <v>-1.71016</v>
+        <v>-1.71704</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -3802,10 +3802,10 @@
         <v>29</v>
       </c>
       <c r="O50">
-        <v>-14.0681</v>
+        <v>-13.913</v>
       </c>
       <c r="P50">
-        <v>-1.87546</v>
+        <v>-1.85478</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -3852,10 +3852,10 @@
         <v>29</v>
       </c>
       <c r="O51">
-        <v>-15.2044</v>
+        <v>-14.8427</v>
       </c>
       <c r="P51">
-        <v>-2.02696</v>
+        <v>-1.97875</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -3902,10 +3902,10 @@
         <v>29</v>
       </c>
       <c r="O52">
-        <v>-16.4435</v>
+        <v>-15.8754</v>
       </c>
       <c r="P52">
-        <v>-2.19217</v>
+        <v>-2.11643</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -3952,10 +3952,10 @@
         <v>29</v>
       </c>
       <c r="O53">
-        <v>-17.2181</v>
+        <v>-16.6501</v>
       </c>
       <c r="P53">
-        <v>-2.29545</v>
+        <v>-2.21972</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -4002,10 +4002,10 @@
         <v>29</v>
       </c>
       <c r="O54">
-        <v>-18.56</v>
+        <v>-17.631</v>
       </c>
       <c r="P54">
-        <v>-2.47438</v>
+        <v>-2.3505</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -4052,10 +4052,10 @@
         <v>29</v>
       </c>
       <c r="O55">
-        <v>-19.8516</v>
+        <v>-18.7159</v>
       </c>
       <c r="P55">
-        <v>-2.64659</v>
+        <v>-2.49515</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -4102,10 +4102,10 @@
         <v>29</v>
       </c>
       <c r="O56">
-        <v>-21.2461</v>
+        <v>-19.9034</v>
       </c>
       <c r="P56">
-        <v>-2.83251</v>
+        <v>-2.6535</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -4152,10 +4152,10 @@
         <v>29</v>
       </c>
       <c r="O57">
-        <v>-20.7814</v>
+        <v>-21.1941</v>
       </c>
       <c r="P57">
-        <v>-2.77057</v>
+        <v>-2.8256</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -4202,10 +4202,10 @@
         <v>29</v>
       </c>
       <c r="O58">
-        <v>-22.2273</v>
+        <v>-22.4334</v>
       </c>
       <c r="P58">
-        <v>-2.96335</v>
+        <v>-2.99082</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -4252,10 +4252,10 @@
         <v>29</v>
       </c>
       <c r="O59">
-        <v>-23.57</v>
+        <v>-23.518</v>
       </c>
       <c r="P59">
-        <v>-3.14238</v>
+        <v>-3.13546</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -4302,10 +4302,10 @@
         <v>29</v>
       </c>
       <c r="O60">
-        <v>-24.9639</v>
+        <v>-24.7566</v>
       </c>
       <c r="P60">
-        <v>-3.32824</v>
+        <v>-3.30058</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -4352,10 +4352,10 @@
         <v>29</v>
       </c>
       <c r="O61">
-        <v>-25.8419</v>
+        <v>-25.5818</v>
       </c>
       <c r="P61">
-        <v>-3.44529</v>
+        <v>-3.41062</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -4402,10 +4402,10 @@
         <v>29</v>
       </c>
       <c r="O62">
-        <v>-27.2361</v>
+        <v>-26.72</v>
       </c>
       <c r="P62">
-        <v>-3.6312</v>
+        <v>-3.56238</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -4452,10 +4452,10 @@
         <v>29</v>
       </c>
       <c r="O63">
-        <v>-28.5789</v>
+        <v>-27.8552</v>
       </c>
       <c r="P63">
-        <v>-3.81023</v>
+        <v>-3.71372</v>
       </c>
     </row>
     <row r="64" spans="1:16">
@@ -4502,10 +4502,10 @@
         <v>29</v>
       </c>
       <c r="O64">
-        <v>-29.9215</v>
+        <v>-29.0436</v>
       </c>
       <c r="P64">
-        <v>-3.98926</v>
+        <v>-3.87219</v>
       </c>
     </row>
     <row r="65" spans="1:16">
@@ -4552,10 +4552,10 @@
         <v>163</v>
       </c>
       <c r="O65" s="2">
-        <v>39.2466</v>
+        <v>38.2951</v>
       </c>
       <c r="P65">
-        <v>4.75734</v>
+        <v>4.64201</v>
       </c>
     </row>
     <row r="66" spans="1:16">
@@ -4602,10 +4602,10 @@
         <v>163</v>
       </c>
       <c r="O66" s="2">
-        <v>37.6941</v>
+        <v>36.9934</v>
       </c>
       <c r="P66">
-        <v>4.56917</v>
+        <v>4.48424</v>
       </c>
     </row>
     <row r="67" spans="1:16">
@@ -4652,10 +4652,10 @@
         <v>163</v>
       </c>
       <c r="O67" s="2">
-        <v>36.2423</v>
+        <v>35.6917</v>
       </c>
       <c r="P67">
-        <v>4.39321</v>
+        <v>4.32645</v>
       </c>
     </row>
     <row r="68" spans="1:16">
@@ -4702,10 +4702,10 @@
         <v>163</v>
       </c>
       <c r="O68">
-        <v>34.49039999999999</v>
+        <v>34.2907</v>
       </c>
       <c r="P68">
-        <v>4.18084</v>
+        <v>4.15664</v>
       </c>
     </row>
     <row r="69" spans="1:16">
@@ -4752,10 +4752,10 @@
         <v>163</v>
       </c>
       <c r="O69">
-        <v>33.6394</v>
+        <v>33.3889</v>
       </c>
       <c r="P69">
-        <v>4.07769</v>
+        <v>4.04733</v>
       </c>
     </row>
     <row r="70" spans="1:16">
@@ -4802,10 +4802,10 @@
         <v>163</v>
       </c>
       <c r="O70">
-        <v>31.9368</v>
+        <v>31.9367</v>
       </c>
       <c r="P70">
-        <v>3.87132</v>
+        <v>3.8713</v>
       </c>
     </row>
     <row r="71" spans="1:16">
@@ -4852,10 +4852,10 @@
         <v>163</v>
       </c>
       <c r="O71">
-        <v>30.335</v>
+        <v>30.5352</v>
       </c>
       <c r="P71">
-        <v>3.67715</v>
+        <v>3.70142</v>
       </c>
     </row>
     <row r="72" spans="1:16">
@@ -4902,10 +4902,10 @@
         <v>163</v>
       </c>
       <c r="O72">
-        <v>28.6326</v>
+        <v>29.0882</v>
       </c>
       <c r="P72">
-        <v>3.4708</v>
+        <v>3.52602</v>
       </c>
     </row>
     <row r="73" spans="1:16">
@@ -4952,10 +4952,10 @@
         <v>163</v>
       </c>
       <c r="O73">
-        <v>29.634</v>
+        <v>27.9819</v>
       </c>
       <c r="P73">
-        <v>3.5922</v>
+        <v>3.39193</v>
       </c>
     </row>
     <row r="74" spans="1:16">
@@ -5002,10 +5002,10 @@
         <v>163</v>
       </c>
       <c r="O74">
-        <v>27.8316</v>
+        <v>26.43</v>
       </c>
       <c r="P74">
-        <v>3.37372</v>
+        <v>3.20383</v>
       </c>
     </row>
     <row r="75" spans="1:16">
@@ -5052,10 +5052,10 @@
         <v>163</v>
       </c>
       <c r="O75">
-        <v>26.1298</v>
+        <v>25.078</v>
       </c>
       <c r="P75">
-        <v>3.16744</v>
+        <v>3.03995</v>
       </c>
     </row>
     <row r="76" spans="1:16">
@@ -5102,10 +5102,10 @@
         <v>163</v>
       </c>
       <c r="O76">
-        <v>24.3772</v>
+        <v>23.4766</v>
       </c>
       <c r="P76">
-        <v>2.955</v>
+        <v>2.84585</v>
       </c>
     </row>
     <row r="77" spans="1:16">
@@ -5152,10 +5152,10 @@
         <v>163</v>
       </c>
       <c r="O77">
-        <v>23.2757</v>
+        <v>22.4742</v>
       </c>
       <c r="P77">
-        <v>2.82148</v>
+        <v>2.72433</v>
       </c>
     </row>
     <row r="78" spans="1:16">
@@ -5202,10 +5202,10 @@
         <v>163</v>
       </c>
       <c r="O78">
-        <v>21.4729</v>
+        <v>20.9722</v>
       </c>
       <c r="P78">
-        <v>2.60296</v>
+        <v>2.54227</v>
       </c>
     </row>
     <row r="79" spans="1:16">
@@ -5252,10 +5252,10 @@
         <v>163</v>
       </c>
       <c r="O79">
-        <v>19.8204</v>
+        <v>19.5423</v>
       </c>
       <c r="P79">
-        <v>2.40267</v>
+        <v>2.36895</v>
       </c>
     </row>
     <row r="80" spans="1:16">
@@ -5302,7 +5302,7 @@
         <v>163</v>
       </c>
       <c r="O80">
-        <v>18.0183</v>
+        <v>18.0182</v>
       </c>
       <c r="P80">
         <v>2.19022</v>
@@ -5352,10 +5352,10 @@
         <v>163</v>
       </c>
       <c r="O81">
-        <v>18.0182</v>
+        <v>18.018</v>
       </c>
       <c r="P81">
-        <v>2.19022</v>
+        <v>2.18418</v>
       </c>
     </row>
     <row r="82" spans="1:16">
@@ -5402,10 +5402,10 @@
         <v>163</v>
       </c>
       <c r="O82">
-        <v>16.6759</v>
+        <v>16.667</v>
       </c>
       <c r="P82">
-        <v>2.0215</v>
+        <v>2.02042</v>
       </c>
     </row>
     <row r="83" spans="1:16">
@@ -5452,10 +5452,10 @@
         <v>163</v>
       </c>
       <c r="O83">
-        <v>15.3649</v>
+        <v>15.4641</v>
       </c>
       <c r="P83">
-        <v>1.8626</v>
+        <v>1.87462</v>
       </c>
     </row>
     <row r="84" spans="1:16">
@@ -5502,10 +5502,10 @@
         <v>163</v>
       </c>
       <c r="O84">
-        <v>14.1124</v>
+        <v>14.1625</v>
       </c>
       <c r="P84">
-        <v>1.71079</v>
+        <v>1.71685</v>
       </c>
     </row>
     <row r="85" spans="1:16">
@@ -5552,10 +5552,10 @@
         <v>163</v>
       </c>
       <c r="O85">
-        <v>12.8605</v>
+        <v>12.9105</v>
       </c>
       <c r="P85">
-        <v>1.55903</v>
+        <v>1.56509</v>
       </c>
     </row>
     <row r="86" spans="1:16">
@@ -5602,10 +5602,10 @@
         <v>163</v>
       </c>
       <c r="O86">
-        <v>11.5086</v>
+        <v>11.5587</v>
       </c>
       <c r="P86">
-        <v>1.39518</v>
+        <v>1.40123</v>
       </c>
     </row>
     <row r="87" spans="1:16">
@@ -5652,10 +5652,10 @@
         <v>163</v>
       </c>
       <c r="O87">
-        <v>10.2066</v>
+        <v>10.1567</v>
       </c>
       <c r="P87">
-        <v>1.23735</v>
+        <v>1.2313</v>
       </c>
     </row>
     <row r="88" spans="1:16">
@@ -5702,10 +5702,10 @@
         <v>163</v>
       </c>
       <c r="O88">
-        <v>8.904590000000001</v>
+        <v>8.904679999999999</v>
       </c>
       <c r="P88">
-        <v>1.07953</v>
+        <v>1.07954</v>
       </c>
     </row>
     <row r="89" spans="1:16">
@@ -5752,10 +5752,10 @@
         <v>163</v>
       </c>
       <c r="O89">
-        <v>7.85337</v>
+        <v>7.857060000000001</v>
       </c>
       <c r="P89">
-        <v>0.952109</v>
+        <v>0.952546</v>
       </c>
     </row>
     <row r="90" spans="1:16">
@@ -5802,10 +5802,10 @@
         <v>163</v>
       </c>
       <c r="O90">
-        <v>6.70167</v>
+        <v>6.70172</v>
       </c>
       <c r="P90">
-        <v>0.812505</v>
+        <v>0.812516</v>
       </c>
     </row>
     <row r="91" spans="1:16">
@@ -5902,10 +5902,10 @@
         <v>163</v>
       </c>
       <c r="O92">
-        <v>4.45014</v>
+        <v>4.45015</v>
       </c>
       <c r="P92">
-        <v>0.545521</v>
+        <v>0.545519</v>
       </c>
     </row>
     <row r="93" spans="1:16">
@@ -5952,10 +5952,10 @@
         <v>163</v>
       </c>
       <c r="O93">
-        <v>3.39732</v>
+        <v>3.44716</v>
       </c>
       <c r="P93">
-        <v>0.411967</v>
+        <v>0.418032</v>
       </c>
     </row>
     <row r="94" spans="1:16">
@@ -6052,10 +6052,10 @@
         <v>163</v>
       </c>
       <c r="O95">
-        <v>1.24766</v>
+        <v>1.24765</v>
       </c>
       <c r="P95">
-        <v>0.151417</v>
+        <v>0.151416</v>
       </c>
     </row>
     <row r="96" spans="1:16">
@@ -6102,10 +6102,10 @@
         <v>163</v>
       </c>
       <c r="O96">
-        <v>0.0462316</v>
+        <v>0.0462314</v>
       </c>
       <c r="P96">
-        <v>0.00578562</v>
+        <v>0.0057856</v>
       </c>
     </row>
     <row r="97" spans="1:16">
@@ -6152,10 +6152,10 @@
         <v>163</v>
       </c>
       <c r="O97">
-        <v>-1.10545</v>
+        <v>-1.10546</v>
       </c>
       <c r="P97">
-        <v>-0.133811</v>
+        <v>-0.133813</v>
       </c>
     </row>
     <row r="98" spans="1:16">
@@ -6202,7 +6202,7 @@
         <v>163</v>
       </c>
       <c r="O98">
-        <v>-2.30357</v>
+        <v>-2.30356</v>
       </c>
       <c r="P98">
         <v>-0.273478</v>
@@ -6252,10 +6252,10 @@
         <v>163</v>
       </c>
       <c r="O99">
-        <v>-3.35909</v>
+        <v>-3.35922</v>
       </c>
       <c r="P99">
-        <v>-0.406976</v>
+        <v>-0.406991</v>
       </c>
     </row>
     <row r="100" spans="1:16">
@@ -6302,10 +6302,10 @@
         <v>163</v>
       </c>
       <c r="O100">
-        <v>-4.444240000000001</v>
+        <v>-4.43718</v>
       </c>
       <c r="P100">
-        <v>-0.53851</v>
+        <v>-0.537613</v>
       </c>
     </row>
     <row r="101" spans="1:16">
@@ -6352,10 +6352,10 @@
         <v>163</v>
       </c>
       <c r="O101">
-        <v>-5.56057</v>
+        <v>-5.56052</v>
       </c>
       <c r="P101">
-        <v>-0.673821</v>
+        <v>-0.673818</v>
       </c>
     </row>
     <row r="102" spans="1:16">
@@ -6402,10 +6402,10 @@
         <v>163</v>
       </c>
       <c r="O102">
-        <v>-6.71177</v>
+        <v>-6.7117</v>
       </c>
       <c r="P102">
-        <v>-0.813354</v>
+        <v>-0.813343</v>
       </c>
     </row>
     <row r="103" spans="1:16">
@@ -6452,10 +6452,10 @@
         <v>163</v>
       </c>
       <c r="O103">
-        <v>-7.91286</v>
+        <v>-7.912999999999999</v>
       </c>
       <c r="P103">
-        <v>-0.958945</v>
+        <v>-0.958955</v>
       </c>
     </row>
     <row r="104" spans="1:16">
@@ -6502,10 +6502,10 @@
         <v>163</v>
       </c>
       <c r="O104">
-        <v>-8.960600000000001</v>
+        <v>-8.9611</v>
       </c>
       <c r="P104">
-        <v>-1.08594</v>
+        <v>-1.08033</v>
       </c>
     </row>
     <row r="105" spans="1:16">
@@ -6552,10 +6552,10 @@
         <v>163</v>
       </c>
       <c r="O105">
-        <v>-10.1155</v>
+        <v>-10.1654</v>
       </c>
       <c r="P105">
-        <v>-1.22594</v>
+        <v>-1.23198</v>
       </c>
     </row>
     <row r="106" spans="1:16">
@@ -6602,10 +6602,10 @@
         <v>163</v>
       </c>
       <c r="O106">
-        <v>-11.5167</v>
+        <v>-11.4667</v>
       </c>
       <c r="P106">
-        <v>-1.39578</v>
+        <v>-1.38972</v>
       </c>
     </row>
     <row r="107" spans="1:16">
@@ -6652,10 +6652,10 @@
         <v>163</v>
       </c>
       <c r="O107">
-        <v>-12.8179</v>
+        <v>-12.817</v>
       </c>
       <c r="P107">
-        <v>-1.55349</v>
+        <v>-1.54749</v>
       </c>
     </row>
     <row r="108" spans="1:16">
@@ -6702,10 +6702,10 @@
         <v>163</v>
       </c>
       <c r="O108">
-        <v>-14.1196</v>
+        <v>-14.1197</v>
       </c>
       <c r="P108">
-        <v>-1.71127</v>
+        <v>-1.71128</v>
       </c>
     </row>
     <row r="109" spans="1:16">
@@ -6752,10 +6752,10 @@
         <v>163</v>
       </c>
       <c r="O109">
-        <v>-15.4711</v>
+        <v>-15.471</v>
       </c>
       <c r="P109">
-        <v>-1.8751</v>
+        <v>-1.87508</v>
       </c>
     </row>
     <row r="110" spans="1:16">
@@ -6802,10 +6802,10 @@
         <v>163</v>
       </c>
       <c r="O110">
-        <v>-16.7719</v>
+        <v>-16.772</v>
       </c>
       <c r="P110">
-        <v>-2.03277</v>
+        <v>-2.03278</v>
       </c>
     </row>
     <row r="111" spans="1:16">
@@ -6852,10 +6852,10 @@
         <v>163</v>
       </c>
       <c r="O111">
-        <v>-18.0699</v>
+        <v>-18.0739</v>
       </c>
       <c r="P111">
-        <v>-2.19012</v>
+        <v>-2.19059</v>
       </c>
     </row>
     <row r="112" spans="1:16">
@@ -6952,10 +6952,10 @@
         <v>163</v>
       </c>
       <c r="O113">
-        <v>-19.8758</v>
+        <v>-19.5748</v>
       </c>
       <c r="P113">
-        <v>-2.409</v>
+        <v>-2.37252</v>
       </c>
     </row>
     <row r="114" spans="1:16">
@@ -7002,10 +7002,10 @@
         <v>163</v>
       </c>
       <c r="O114">
-        <v>-21.5778</v>
+        <v>-21.0769</v>
       </c>
       <c r="P114">
-        <v>-2.6153</v>
+        <v>-2.55459</v>
       </c>
     </row>
     <row r="115" spans="1:16">
@@ -7052,10 +7052,10 @@
         <v>163</v>
       </c>
       <c r="O115">
-        <v>-23.3772</v>
+        <v>-22.529</v>
       </c>
       <c r="P115">
-        <v>-2.83341</v>
+        <v>-2.73059</v>
       </c>
     </row>
     <row r="116" spans="1:16">
@@ -7102,10 +7102,10 @@
         <v>163</v>
       </c>
       <c r="O116">
-        <v>-24.4814</v>
+        <v>-23.5803</v>
       </c>
       <c r="P116">
-        <v>-2.96725</v>
+        <v>-2.85803</v>
       </c>
     </row>
     <row r="117" spans="1:16">
@@ -7152,10 +7152,10 @@
         <v>163</v>
       </c>
       <c r="O117">
-        <v>-26.2817</v>
+        <v>-25.1811</v>
       </c>
       <c r="P117">
-        <v>-3.18548</v>
+        <v>-3.05206</v>
       </c>
     </row>
     <row r="118" spans="1:16">
@@ -7202,10 +7202,10 @@
         <v>163</v>
       </c>
       <c r="O118">
-        <v>-28.0335</v>
+        <v>-26.5826</v>
       </c>
       <c r="P118">
-        <v>-3.39781</v>
+        <v>-3.22196</v>
       </c>
     </row>
     <row r="119" spans="1:16">
@@ -7252,10 +7252,10 @@
         <v>163</v>
       </c>
       <c r="O119">
-        <v>-29.8346</v>
+        <v>-28.1337</v>
       </c>
       <c r="P119">
-        <v>-3.61613</v>
+        <v>-3.40995</v>
       </c>
     </row>
     <row r="120" spans="1:16">
@@ -7302,10 +7302,10 @@
         <v>163</v>
       </c>
       <c r="O120">
-        <v>-28.7839</v>
+        <v>-29.2843</v>
       </c>
       <c r="P120">
-        <v>-3.48878</v>
+        <v>-3.54943</v>
       </c>
     </row>
     <row r="121" spans="1:16">
@@ -7352,10 +7352,10 @@
         <v>163</v>
       </c>
       <c r="O121">
-        <v>-30.635</v>
+        <v>-30.8351</v>
       </c>
       <c r="P121">
-        <v>-3.71315</v>
+        <v>-3.7374</v>
       </c>
     </row>
     <row r="122" spans="1:16">
@@ -7402,10 +7402,10 @@
         <v>163</v>
       </c>
       <c r="O122">
-        <v>-32.2861</v>
+        <v>-32.286</v>
       </c>
       <c r="P122">
-        <v>-3.91328</v>
+        <v>-3.91327</v>
       </c>
     </row>
     <row r="123" spans="1:16">
@@ -7452,10 +7452,10 @@
         <v>163</v>
       </c>
       <c r="O123">
-        <v>-34.0367</v>
+        <v>-33.7871</v>
       </c>
       <c r="P123">
-        <v>-4.12547</v>
+        <v>-4.09522</v>
       </c>
     </row>
     <row r="124" spans="1:16">
@@ -7501,11 +7501,11 @@
       <c r="N124" t="s">
         <v>163</v>
       </c>
-      <c r="O124" s="3">
-        <v>-35.1379</v>
+      <c r="O124">
+        <v>-34.6377</v>
       </c>
       <c r="P124">
-        <v>-4.25895</v>
+        <v>-4.19832</v>
       </c>
     </row>
     <row r="125" spans="1:16">
@@ -7552,10 +7552,10 @@
         <v>163</v>
       </c>
       <c r="O125" s="3">
-        <v>-36.789</v>
+        <v>-36.2374</v>
       </c>
       <c r="P125">
-        <v>-4.45909</v>
+        <v>-4.38631</v>
       </c>
     </row>
     <row r="126" spans="1:16">
@@ -7602,10 +7602,10 @@
         <v>163</v>
       </c>
       <c r="O126" s="3">
-        <v>-38.19</v>
+        <v>-37.4672</v>
       </c>
       <c r="P126">
-        <v>-4.6289</v>
+        <v>-4.54131</v>
       </c>
     </row>
     <row r="127" spans="1:16">
@@ -7652,10 +7652,10 @@
         <v>163</v>
       </c>
       <c r="O127" s="3">
-        <v>-39.7897</v>
+        <v>-38.9904</v>
       </c>
       <c r="P127">
-        <v>-4.82281</v>
+        <v>-4.72592</v>
       </c>
     </row>
     <row r="128" spans="1:16">
@@ -7702,10 +7702,10 @@
         <v>236</v>
       </c>
       <c r="O128">
-        <v>22.2713</v>
+        <v>21.5651</v>
       </c>
       <c r="P128">
-        <v>3.30008</v>
+        <v>3.20036</v>
       </c>
     </row>
     <row r="129" spans="1:16">
@@ -7752,10 +7752,10 @@
         <v>236</v>
       </c>
       <c r="O129">
-        <v>21.4952</v>
+        <v>20.9272</v>
       </c>
       <c r="P129">
-        <v>3.18507</v>
+        <v>3.10095</v>
       </c>
     </row>
     <row r="130" spans="1:16">
@@ -7802,10 +7802,10 @@
         <v>236</v>
       </c>
       <c r="O130">
-        <v>20.6673</v>
+        <v>20.2551</v>
       </c>
       <c r="P130">
-        <v>3.06246</v>
+        <v>3.00138</v>
       </c>
     </row>
     <row r="131" spans="1:16">
@@ -7852,10 +7852,10 @@
         <v>236</v>
       </c>
       <c r="O131">
-        <v>19.8934</v>
+        <v>19.532</v>
       </c>
       <c r="P131">
-        <v>2.94779</v>
+        <v>2.89427</v>
       </c>
     </row>
     <row r="132" spans="1:16">
@@ -7902,10 +7902,10 @@
         <v>236</v>
       </c>
       <c r="O132">
-        <v>19.1776</v>
+        <v>19.0673</v>
       </c>
       <c r="P132">
-        <v>2.84169</v>
+        <v>2.82541</v>
       </c>
     </row>
     <row r="133" spans="1:16">
@@ -7952,10 +7952,10 @@
         <v>236</v>
       </c>
       <c r="O133">
-        <v>18.5052</v>
+        <v>18.3953</v>
       </c>
       <c r="P133">
-        <v>2.7421</v>
+        <v>2.72585</v>
       </c>
     </row>
     <row r="134" spans="1:16">
@@ -8002,10 +8002,10 @@
         <v>236</v>
       </c>
       <c r="O134">
-        <v>17.7251</v>
+        <v>17.6208</v>
       </c>
       <c r="P134">
-        <v>2.63395</v>
+        <v>2.6111</v>
       </c>
     </row>
     <row r="135" spans="1:16">
@@ -8052,10 +8052,10 @@
         <v>236</v>
       </c>
       <c r="O135">
-        <v>16.8977</v>
+        <v>17.0076</v>
       </c>
       <c r="P135">
-        <v>2.50399</v>
+        <v>2.52019</v>
       </c>
     </row>
     <row r="136" spans="1:16">
@@ -8102,10 +8102,10 @@
         <v>236</v>
       </c>
       <c r="O136">
-        <v>17.0002</v>
+        <v>16.225</v>
       </c>
       <c r="P136">
-        <v>2.51919</v>
+        <v>2.40433</v>
       </c>
     </row>
     <row r="137" spans="1:16">
@@ -8152,10 +8152,10 @@
         <v>236</v>
       </c>
       <c r="O137">
-        <v>16.2251</v>
+        <v>15.3988</v>
       </c>
       <c r="P137">
-        <v>2.40434</v>
+        <v>2.28191</v>
       </c>
     </row>
     <row r="138" spans="1:16">
@@ -8202,10 +8202,10 @@
         <v>236</v>
       </c>
       <c r="O138">
-        <v>15.3467</v>
+        <v>14.8824</v>
       </c>
       <c r="P138">
-        <v>2.27419</v>
+        <v>2.20546</v>
       </c>
     </row>
     <row r="139" spans="1:16">
@@ -8252,10 +8252,10 @@
         <v>236</v>
       </c>
       <c r="O139">
-        <v>14.5264</v>
+        <v>14.107</v>
       </c>
       <c r="P139">
-        <v>2.15273</v>
+        <v>2.09058</v>
       </c>
     </row>
     <row r="140" spans="1:16">
@@ -8302,10 +8302,10 @@
         <v>236</v>
       </c>
       <c r="O140">
-        <v>14.107</v>
+        <v>13.6942</v>
       </c>
       <c r="P140">
-        <v>2.09052</v>
+        <v>2.02941</v>
       </c>
     </row>
     <row r="141" spans="1:16">
@@ -8352,10 +8352,10 @@
         <v>236</v>
       </c>
       <c r="O141">
-        <v>13.2295</v>
+        <v>12.971</v>
       </c>
       <c r="P141">
-        <v>1.96054</v>
+        <v>1.92226</v>
       </c>
     </row>
     <row r="142" spans="1:16">
@@ -8402,10 +8402,10 @@
         <v>236</v>
       </c>
       <c r="O142">
-        <v>12.4021</v>
+        <v>12.2998</v>
       </c>
       <c r="P142">
-        <v>1.83795</v>
+        <v>1.82281</v>
       </c>
     </row>
     <row r="143" spans="1:16">
@@ -8452,10 +8452,10 @@
         <v>236</v>
       </c>
       <c r="O143">
-        <v>11.4219</v>
+        <v>11.4726</v>
       </c>
       <c r="P143">
-        <v>1.70027</v>
+        <v>1.70026</v>
       </c>
     </row>
     <row r="144" spans="1:16">
@@ -8502,10 +8502,10 @@
         <v>236</v>
       </c>
       <c r="O144">
-        <v>11.5245</v>
+        <v>11.4729</v>
       </c>
       <c r="P144">
-        <v>1.70797</v>
+        <v>1.7003</v>
       </c>
     </row>
     <row r="145" spans="1:16">
@@ -8552,10 +8552,10 @@
         <v>236</v>
       </c>
       <c r="O145">
-        <v>10.6975</v>
+        <v>10.6465</v>
       </c>
       <c r="P145">
-        <v>1.58546</v>
+        <v>1.5779</v>
       </c>
     </row>
     <row r="146" spans="1:16">
@@ -8602,10 +8602,10 @@
         <v>236</v>
       </c>
       <c r="O146">
-        <v>9.830079999999999</v>
+        <v>9.871319999999999</v>
       </c>
       <c r="P146">
-        <v>1.45691</v>
+        <v>1.46304</v>
       </c>
     </row>
     <row r="147" spans="1:16">
@@ -8652,10 +8652,10 @@
         <v>236</v>
       </c>
       <c r="O147">
-        <v>8.940250000000001</v>
+        <v>8.94685</v>
       </c>
       <c r="P147">
-        <v>1.32512</v>
+        <v>1.32604</v>
       </c>
     </row>
     <row r="148" spans="1:16">
@@ -8702,10 +8702,10 @@
         <v>236</v>
       </c>
       <c r="O148">
-        <v>8.22453</v>
+        <v>8.267949999999999</v>
       </c>
       <c r="P148">
-        <v>1.21901</v>
+        <v>1.23306</v>
       </c>
     </row>
     <row r="149" spans="1:16">
@@ -8752,10 +8752,10 @@
         <v>236</v>
       </c>
       <c r="O149">
-        <v>7.33748</v>
+        <v>7.492699999999999</v>
       </c>
       <c r="P149">
-        <v>1.09526</v>
+        <v>1.11067</v>
       </c>
     </row>
     <row r="150" spans="1:16">
@@ -8802,10 +8802,10 @@
         <v>236</v>
       </c>
       <c r="O150">
-        <v>6.45962</v>
+        <v>6.52096</v>
       </c>
       <c r="P150">
-        <v>0.95761</v>
+        <v>0.972728</v>
       </c>
     </row>
     <row r="151" spans="1:16">
@@ -8852,10 +8852,10 @@
         <v>236</v>
       </c>
       <c r="O151">
-        <v>5.63828</v>
+        <v>5.68389</v>
       </c>
       <c r="P151">
-        <v>0.8358719999999999</v>
+        <v>0.842683</v>
       </c>
     </row>
     <row r="152" spans="1:16">
@@ -8902,10 +8902,10 @@
         <v>236</v>
       </c>
       <c r="O152">
-        <v>5.11469</v>
+        <v>5.11479</v>
       </c>
       <c r="P152">
-        <v>0.758352</v>
+        <v>0.758394</v>
       </c>
     </row>
     <row r="153" spans="1:16">
@@ -8955,7 +8955,7 @@
         <v>4.49426</v>
       </c>
       <c r="P153">
-        <v>0.6664330000000001</v>
+        <v>0.666432</v>
       </c>
     </row>
     <row r="154" spans="1:16">
@@ -9002,10 +9002,10 @@
         <v>236</v>
       </c>
       <c r="O154">
-        <v>3.71936</v>
+        <v>3.71872</v>
       </c>
       <c r="P154">
-        <v>0.559245</v>
+        <v>0.551527</v>
       </c>
     </row>
     <row r="155" spans="1:16">
@@ -9052,10 +9052,10 @@
         <v>236</v>
       </c>
       <c r="O155">
-        <v>2.94421</v>
+        <v>3.00345</v>
       </c>
       <c r="P155">
-        <v>0.43678</v>
+        <v>0.445539</v>
       </c>
     </row>
     <row r="156" spans="1:16">
@@ -9102,10 +9102,10 @@
         <v>236</v>
       </c>
       <c r="O156">
-        <v>2.27321</v>
+        <v>2.27322</v>
       </c>
       <c r="P156">
-        <v>0.337373</v>
+        <v>0.337405</v>
       </c>
     </row>
     <row r="157" spans="1:16">
@@ -9152,10 +9152,10 @@
         <v>236</v>
       </c>
       <c r="O157">
-        <v>1.55987</v>
+        <v>1.54906</v>
       </c>
       <c r="P157">
-        <v>0.231673</v>
+        <v>0.237624</v>
       </c>
     </row>
     <row r="158" spans="1:16">
@@ -9202,7 +9202,7 @@
         <v>236</v>
       </c>
       <c r="O158">
-        <v>0.8805769999999999</v>
+        <v>0.880576</v>
       </c>
       <c r="P158">
         <v>0.131049</v>
@@ -9252,10 +9252,10 @@
         <v>236</v>
       </c>
       <c r="O159">
-        <v>0.10557</v>
+        <v>0.105568</v>
       </c>
       <c r="P159">
-        <v>0.016239</v>
+        <v>0.0162389</v>
       </c>
     </row>
     <row r="160" spans="1:16">
@@ -9302,10 +9302,10 @@
         <v>236</v>
       </c>
       <c r="O160">
-        <v>-0.669166</v>
+        <v>-0.6696869999999999</v>
       </c>
       <c r="P160">
-        <v>-0.0984927</v>
+        <v>-0.09862269999999999</v>
       </c>
     </row>
     <row r="161" spans="1:16">
@@ -9402,10 +9402,10 @@
         <v>236</v>
       </c>
       <c r="O162">
-        <v>-2.06869</v>
+        <v>-2.0688</v>
       </c>
       <c r="P162">
-        <v>-0.305849</v>
+        <v>-0.305898</v>
       </c>
     </row>
     <row r="163" spans="1:16">
@@ -9452,10 +9452,10 @@
         <v>236</v>
       </c>
       <c r="O163">
-        <v>-2.79139</v>
+        <v>-2.7385</v>
       </c>
       <c r="P163">
-        <v>-0.412922</v>
+        <v>-0.405071</v>
       </c>
     </row>
     <row r="164" spans="1:16">
@@ -9502,10 +9502,10 @@
         <v>236</v>
       </c>
       <c r="O164">
-        <v>-3.46411</v>
+        <v>-3.41255</v>
       </c>
       <c r="P164">
-        <v>-0.51254</v>
+        <v>-0.504907</v>
       </c>
     </row>
     <row r="165" spans="1:16">
@@ -9552,10 +9552,10 @@
         <v>236</v>
       </c>
       <c r="O165">
-        <v>-4.18772</v>
+        <v>-4.08424</v>
       </c>
       <c r="P165">
-        <v>-0.61981</v>
+        <v>-0.60443</v>
       </c>
     </row>
     <row r="166" spans="1:16">
@@ -9602,10 +9602,10 @@
         <v>236</v>
       </c>
       <c r="O166">
-        <v>-4.962809999999999</v>
+        <v>-4.91131</v>
       </c>
       <c r="P166">
-        <v>-0.734583</v>
+        <v>-0.726979</v>
       </c>
     </row>
     <row r="167" spans="1:16">
@@ -9652,10 +9652,10 @@
         <v>236</v>
       </c>
       <c r="O167">
-        <v>-5.632899999999999</v>
+        <v>-5.57356</v>
       </c>
       <c r="P167">
-        <v>-0.833892</v>
+        <v>-0.825143</v>
       </c>
     </row>
     <row r="168" spans="1:16">
@@ -9702,10 +9702,10 @@
         <v>236</v>
       </c>
       <c r="O168">
-        <v>-6.40226</v>
+        <v>-6.3578</v>
       </c>
       <c r="P168">
-        <v>-0.947941</v>
+        <v>-0.941245</v>
       </c>
     </row>
     <row r="169" spans="1:16">
@@ -9752,10 +9752,10 @@
         <v>236</v>
       </c>
       <c r="O169">
-        <v>-7.126399999999999</v>
+        <v>-7.08083</v>
       </c>
       <c r="P169">
-        <v>-1.0552</v>
+        <v>-1.04839</v>
       </c>
     </row>
     <row r="170" spans="1:16">
@@ -9802,10 +9802,10 @@
         <v>236</v>
       </c>
       <c r="O170">
-        <v>-7.796779999999999</v>
+        <v>-7.85536</v>
       </c>
       <c r="P170">
-        <v>-1.1545</v>
+        <v>-1.15564</v>
       </c>
     </row>
     <row r="171" spans="1:16">
@@ -9852,10 +9852,10 @@
         <v>236</v>
       </c>
       <c r="O171">
-        <v>-8.475150000000001</v>
+        <v>-8.42379</v>
       </c>
       <c r="P171">
-        <v>-1.24745</v>
+        <v>-1.24733</v>
       </c>
     </row>
     <row r="172" spans="1:16">
@@ -9902,10 +9902,10 @@
         <v>236</v>
       </c>
       <c r="O172">
-        <v>-9.04421</v>
+        <v>-9.14011</v>
       </c>
       <c r="P172">
-        <v>-1.33925</v>
+        <v>-1.35353</v>
       </c>
     </row>
     <row r="173" spans="1:16">
@@ -9952,10 +9952,10 @@
         <v>236</v>
       </c>
       <c r="O173">
-        <v>-9.87088</v>
+        <v>-9.81917</v>
       </c>
       <c r="P173">
-        <v>-1.46177</v>
+        <v>-1.45407</v>
       </c>
     </row>
     <row r="174" spans="1:16">
@@ -10002,10 +10002,10 @@
         <v>236</v>
       </c>
       <c r="O174">
-        <v>-10.6453</v>
+        <v>-10.4915</v>
       </c>
       <c r="P174">
-        <v>-1.57645</v>
+        <v>-1.55382</v>
       </c>
     </row>
     <row r="175" spans="1:16">
@@ -10052,10 +10052,10 @@
         <v>236</v>
       </c>
       <c r="O175">
-        <v>-10.4295</v>
+        <v>-10.4901</v>
       </c>
       <c r="P175">
-        <v>-1.54448</v>
+        <v>-1.55345</v>
       </c>
     </row>
     <row r="176" spans="1:16">
@@ -10102,10 +10102,10 @@
         <v>236</v>
       </c>
       <c r="O176">
-        <v>-11.3692</v>
+        <v>-11.2143</v>
       </c>
       <c r="P176">
-        <v>-1.68366</v>
+        <v>-1.66076</v>
       </c>
     </row>
     <row r="177" spans="1:16">
@@ -10152,10 +10152,10 @@
         <v>236</v>
       </c>
       <c r="O177">
-        <v>-12.1957</v>
+        <v>-11.783</v>
       </c>
       <c r="P177">
-        <v>-1.806</v>
+        <v>-1.74503</v>
       </c>
     </row>
     <row r="178" spans="1:16">
@@ -10202,10 +10202,10 @@
         <v>236</v>
       </c>
       <c r="O178">
-        <v>-12.9722</v>
+        <v>-12.5584</v>
       </c>
       <c r="P178">
-        <v>-1.92117</v>
+        <v>-1.85989</v>
       </c>
     </row>
     <row r="179" spans="1:16">
@@ -10252,10 +10252,10 @@
         <v>236</v>
       </c>
       <c r="O179">
-        <v>-13.6381</v>
+        <v>-13.0239</v>
       </c>
       <c r="P179">
-        <v>-2.01989</v>
+        <v>-1.92885</v>
       </c>
     </row>
     <row r="180" spans="1:16">
@@ -10302,10 +10302,10 @@
         <v>236</v>
       </c>
       <c r="O180">
-        <v>-14.5152</v>
+        <v>-13.7476</v>
       </c>
       <c r="P180">
-        <v>-2.14983</v>
+        <v>-2.03605</v>
       </c>
     </row>
     <row r="181" spans="1:16">
@@ -10352,10 +10352,10 @@
         <v>236</v>
       </c>
       <c r="O181">
-        <v>-15.2467</v>
+        <v>-14.4654</v>
       </c>
       <c r="P181">
-        <v>-2.25816</v>
+        <v>-2.14089</v>
       </c>
     </row>
     <row r="182" spans="1:16">
@@ -10402,10 +10402,10 @@
         <v>236</v>
       </c>
       <c r="O182">
-        <v>-16.2796</v>
+        <v>-15.2466</v>
       </c>
       <c r="P182">
-        <v>-2.41118</v>
+        <v>-2.25811</v>
       </c>
     </row>
     <row r="183" spans="1:16">
@@ -10452,10 +10452,10 @@
         <v>236</v>
       </c>
       <c r="O183">
-        <v>-15.9705</v>
+        <v>-16.2713</v>
       </c>
       <c r="P183">
-        <v>-2.36535</v>
+        <v>-2.40999</v>
       </c>
     </row>
     <row r="184" spans="1:16">
@@ -10502,10 +10502,10 @@
         <v>236</v>
       </c>
       <c r="O184">
-        <v>-16.9529</v>
+        <v>-16.9524</v>
       </c>
       <c r="P184">
-        <v>-2.51089</v>
+        <v>-2.51087</v>
       </c>
     </row>
     <row r="185" spans="1:16">
@@ -10552,10 +10552,10 @@
         <v>236</v>
       </c>
       <c r="O185">
-        <v>-17.6757</v>
+        <v>-17.6756</v>
       </c>
       <c r="P185">
-        <v>-2.61804</v>
+        <v>-2.618</v>
       </c>
     </row>
     <row r="186" spans="1:16">
@@ -10602,10 +10602,10 @@
         <v>236</v>
       </c>
       <c r="O186">
-        <v>-18.6993</v>
+        <v>-18.4514</v>
       </c>
       <c r="P186">
-        <v>-2.76865</v>
+        <v>-2.73289</v>
       </c>
     </row>
     <row r="187" spans="1:16">
@@ -10652,10 +10652,10 @@
         <v>236</v>
       </c>
       <c r="O187">
-        <v>-19.2778</v>
+        <v>-18.968</v>
       </c>
       <c r="P187">
-        <v>-2.85536</v>
+        <v>-2.80947</v>
       </c>
     </row>
     <row r="188" spans="1:16">
@@ -10702,10 +10702,10 @@
         <v>236</v>
       </c>
       <c r="O188">
-        <v>-20.3562</v>
+        <v>-19.8463</v>
       </c>
       <c r="P188">
-        <v>-3.01517</v>
+        <v>-2.93959</v>
       </c>
     </row>
     <row r="189" spans="1:16">
@@ -10752,10 +10752,10 @@
         <v>236</v>
       </c>
       <c r="O189">
-        <v>-21.3458</v>
+        <v>-20.7196</v>
       </c>
       <c r="P189">
-        <v>-3.16175</v>
+        <v>-3.06895</v>
       </c>
     </row>
     <row r="190" spans="1:16">
@@ -10802,10 +10802,10 @@
         <v>236</v>
       </c>
       <c r="O190">
-        <v>-22.5859</v>
+        <v>-21.5524</v>
       </c>
       <c r="P190">
-        <v>-3.34546</v>
+        <v>-3.19236</v>
       </c>
     </row>
     <row r="191" spans="1:16" s="1" customFormat="1">
@@ -10863,10 +10863,10 @@
         <v>299</v>
       </c>
       <c r="O192" s="3">
-        <v>-39.7897</v>
+        <v>-38.9904</v>
       </c>
       <c r="P192" s="1">
-        <v>-4.82281</v>
+        <v>-4.72592</v>
       </c>
     </row>
     <row r="193" spans="14:16" s="1" customFormat="1">
@@ -10874,10 +10874,10 @@
         <v>300</v>
       </c>
       <c r="O193" s="2">
-        <v>39.2466</v>
+        <v>38.2951</v>
       </c>
       <c r="P193" s="1">
-        <v>4.75734</v>
+        <v>4.64201</v>
       </c>
     </row>
     <row r="194" spans="14:16" s="1" customFormat="1">
@@ -10917,10 +10917,10 @@
         <v>305</v>
       </c>
       <c r="O198" s="1">
-        <v>0.08687203492063515</v>
+        <v>0.09998873756613925</v>
       </c>
       <c r="P198" s="1">
-        <v>0.01386589005290994</v>
+        <v>0.01583845132275119</v>
       </c>
     </row>
     <row r="199" spans="14:16" s="1" customFormat="1">
@@ -10928,10 +10928,10 @@
         <v>306</v>
       </c>
       <c r="O199" s="1">
-        <v>17.71324963281578</v>
+        <v>17.40662651604676</v>
       </c>
       <c r="P199" s="1">
-        <v>2.300425358714927</v>
+        <v>2.259973218334398</v>
       </c>
     </row>
     <row r="200" spans="14:16" s="1" customFormat="1">
@@ -10939,10 +10939,10 @@
         <v>307</v>
       </c>
       <c r="O200" s="1">
-        <v>20390.04801602531</v>
+        <v>17408.58714666024</v>
       </c>
       <c r="P200" s="1">
-        <v>16590.53511845892</v>
+        <v>14268.90276253242</v>
       </c>
     </row>
     <row r="201" spans="14:16" s="1" customFormat="1"/>
